--- a/Clash.xlsx
+++ b/Clash.xlsx
@@ -129,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -203,11 +203,29 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="436">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -404,6 +422,304 @@
     <xf numFmtId="164" fontId="3" fillId="16" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="17" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="15" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -821,10 +1137,10 @@
     </row>
     <row r="2">
       <c r="E2" t="n">
-        <v>2.65</v>
+        <v>2.68</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>71504</v>
+        <v>79260</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>4046</v>
@@ -900,15 +1216,15 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="159" t="inlineStr">
+      <c r="A4" s="420" t="inlineStr">
         <is>
           <t>#QCV22VP0G</t>
         </is>
       </c>
-      <c r="B4" s="159" t="n">
+      <c r="B4" s="420" t="n">
         <v>696</v>
       </c>
-      <c r="C4" s="160" t="n">
+      <c r="C4" s="421" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="77" t="inlineStr">
@@ -916,25 +1232,25 @@
           <t>Nami</t>
         </is>
       </c>
-      <c r="E4" s="161" t="n">
+      <c r="E4" s="422" t="n">
         <v>6</v>
       </c>
       <c r="F4" s="77" t="n">
         <v>12486</v>
       </c>
-      <c r="G4" s="162" t="n">
+      <c r="G4" s="423" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="161" t="n">
+      <c r="I4" s="422" t="n">
         <v>6</v>
       </c>
       <c r="J4" s="77" t="n">
         <v>8472</v>
       </c>
-      <c r="K4" s="161" t="n">
+      <c r="K4" s="422" t="n">
         <v>6</v>
       </c>
       <c r="L4" s="77" t="n">
@@ -942,15 +1258,15 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="163" t="inlineStr">
+      <c r="A5" s="424" t="inlineStr">
         <is>
           <t>#QUV2GP88U</t>
         </is>
       </c>
-      <c r="B5" s="163" t="n">
+      <c r="B5" s="424" t="n">
         <v>545</v>
       </c>
-      <c r="C5" s="164" t="n">
+      <c r="C5" s="425" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="73" t="inlineStr">
@@ -958,25 +1274,25 @@
           <t>Nico Robin</t>
         </is>
       </c>
-      <c r="E5" s="165" t="n">
+      <c r="E5" s="426" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="73" t="n">
         <v>10997</v>
       </c>
-      <c r="G5" s="166" t="n">
+      <c r="G5" s="427" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="74" t="n">
         <v>40</v>
       </c>
-      <c r="I5" s="165" t="n">
+      <c r="I5" s="426" t="n">
         <v>6</v>
       </c>
       <c r="J5" s="73" t="n">
         <v>11087</v>
       </c>
-      <c r="K5" s="165" t="n">
+      <c r="K5" s="426" t="n">
         <v>6</v>
       </c>
       <c r="L5" s="73" t="n">
@@ -984,15 +1300,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="159" t="inlineStr">
+      <c r="A6" s="420" t="inlineStr">
         <is>
           <t>#G0QPVJY9L</t>
         </is>
       </c>
-      <c r="B6" s="159" t="n">
+      <c r="B6" s="420" t="n">
         <v>659</v>
       </c>
-      <c r="C6" s="160" t="n">
+      <c r="C6" s="421" t="n">
         <v>3</v>
       </c>
       <c r="D6" s="77" t="inlineStr">
@@ -1000,41 +1316,41 @@
           <t>Zoro</t>
         </is>
       </c>
-      <c r="E6" s="161" t="n">
+      <c r="E6" s="422" t="n">
         <v>6</v>
       </c>
       <c r="F6" s="77" t="n">
         <v>10965</v>
       </c>
-      <c r="G6" s="162" t="n">
+      <c r="G6" s="423" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="83" t="n">
         <v>35</v>
       </c>
-      <c r="I6" s="161" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" s="78" t="n">
+      <c r="I6" s="422" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" s="77" t="n">
         <v>7905</v>
       </c>
-      <c r="K6" s="161" t="n">
-        <v>6</v>
-      </c>
-      <c r="L6" s="78" t="n">
+      <c r="K6" s="422" t="n">
+        <v>6</v>
+      </c>
+      <c r="L6" s="77" t="n">
         <v>6744</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="163" t="inlineStr">
+      <c r="A7" s="424" t="inlineStr">
         <is>
           <t>#QLR088LC9</t>
         </is>
       </c>
-      <c r="B7" s="163" t="n">
+      <c r="B7" s="424" t="n">
         <v>710</v>
       </c>
-      <c r="C7" s="164" t="n">
+      <c r="C7" s="425" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="73" t="inlineStr">
@@ -1042,25 +1358,25 @@
           <t>Sanji</t>
         </is>
       </c>
-      <c r="E7" s="165" t="n">
+      <c r="E7" s="426" t="n">
         <v>6</v>
       </c>
       <c r="F7" s="73" t="n">
         <v>9138</v>
       </c>
-      <c r="G7" s="166" t="n">
+      <c r="G7" s="427" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="74" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="165" t="n">
+      <c r="I7" s="426" t="n">
         <v>6</v>
       </c>
       <c r="J7" s="73" t="n">
         <v>8897</v>
       </c>
-      <c r="K7" s="165" t="n">
+      <c r="K7" s="426" t="n">
         <v>6</v>
       </c>
       <c r="L7" s="73" t="n">
@@ -1068,15 +1384,15 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="167" t="inlineStr">
+      <c r="A8" s="428" t="inlineStr">
         <is>
           <t>#P2CPRPQU</t>
         </is>
       </c>
-      <c r="B8" s="167" t="n">
+      <c r="B8" s="428" t="n">
         <v>2187</v>
       </c>
-      <c r="C8" s="160" t="n">
+      <c r="C8" s="421" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="62" t="inlineStr">
@@ -1084,285 +1400,285 @@
           <t>The Drift King</t>
         </is>
       </c>
-      <c r="E8" s="168" t="n">
+      <c r="E8" s="429" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="62" t="n">
         <v>8023</v>
       </c>
-      <c r="G8" s="168" t="n">
+      <c r="G8" s="429" t="n">
         <v>626</v>
       </c>
       <c r="H8" s="63" t="n">
         <v>270</v>
       </c>
-      <c r="I8" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" s="95" t="n">
+      <c r="I8" s="429" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" s="62" t="n">
         <v>7625</v>
       </c>
-      <c r="K8" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="L8" s="95" t="n">
+      <c r="K8" s="429" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" s="62" t="n">
         <v>7375</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="163" t="inlineStr">
+      <c r="A9" s="430" t="inlineStr">
+        <is>
+          <t>#G0JPUQGYR</t>
+        </is>
+      </c>
+      <c r="B9" s="430" t="n">
+        <v>1298</v>
+      </c>
+      <c r="C9" s="425" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" s="66" t="inlineStr">
+        <is>
+          <t>Collin</t>
+        </is>
+      </c>
+      <c r="E9" s="431" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" s="66" t="n">
+        <v>7756</v>
+      </c>
+      <c r="G9" s="432" t="n">
+        <v>434</v>
+      </c>
+      <c r="H9" s="80" t="n">
+        <v>415</v>
+      </c>
+      <c r="I9" s="431" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" s="82" t="n">
+        <v>5943</v>
+      </c>
+      <c r="K9" s="431" t="n">
+        <v>6</v>
+      </c>
+      <c r="L9" s="66" t="n">
+        <v>8224</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="420" t="inlineStr">
         <is>
           <t>#QUYG0PQC8</t>
         </is>
       </c>
-      <c r="B9" s="163" t="n">
+      <c r="B10" s="420" t="n">
         <v>704</v>
       </c>
-      <c r="C9" s="164" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" s="96" t="inlineStr">
+      <c r="C10" s="421" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" s="111" t="inlineStr">
         <is>
           <t>Luffy</t>
         </is>
       </c>
-      <c r="E9" s="166" t="n">
+      <c r="E10" s="423" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="96" t="n">
+      <c r="F10" s="78" t="n">
         <v>5605</v>
       </c>
-      <c r="G9" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="165" t="n">
-        <v>6</v>
-      </c>
-      <c r="J9" s="72" t="n">
+      <c r="G10" s="423" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="422" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" s="77" t="n">
         <v>7877</v>
       </c>
-      <c r="K9" s="165" t="n">
-        <v>6</v>
-      </c>
-      <c r="L9" s="73" t="n">
+      <c r="K10" s="422" t="n">
+        <v>6</v>
+      </c>
+      <c r="L10" s="77" t="n">
         <v>8347</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="167" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="430" t="inlineStr">
         <is>
           <t>#QJC8LQU9U</t>
         </is>
       </c>
-      <c r="B10" s="167" t="n">
+      <c r="B11" s="430" t="n">
         <v>1232</v>
       </c>
-      <c r="C10" s="160" t="n">
-        <v>7</v>
-      </c>
-      <c r="D10" s="95" t="inlineStr">
+      <c r="C11" s="425" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" s="66" t="inlineStr">
         <is>
           <t>Master01</t>
         </is>
       </c>
-      <c r="E10" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="F10" s="69" t="n">
+      <c r="E11" s="431" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" s="82" t="n">
         <v>5415</v>
       </c>
-      <c r="G10" s="169" t="n">
+      <c r="G11" s="432" t="n">
         <v>272</v>
       </c>
-      <c r="H10" s="63" t="n">
+      <c r="H11" s="80" t="n">
         <v>991</v>
       </c>
-      <c r="I10" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="J10" s="69" t="n">
+      <c r="I11" s="431" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" s="82" t="n">
         <v>4835</v>
       </c>
-      <c r="K10" s="168" t="n">
+      <c r="K11" s="431" t="n">
         <v>5</v>
       </c>
-      <c r="L10" s="69" t="n">
+      <c r="L11" s="82" t="n">
         <v>4055</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="170" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="428" t="inlineStr">
         <is>
           <t>#Q0JG2RJQ8</t>
         </is>
       </c>
-      <c r="B11" s="170" t="n">
+      <c r="B12" s="428" t="n">
         <v>1083</v>
       </c>
-      <c r="C11" s="164" t="n">
-        <v>8</v>
-      </c>
-      <c r="D11" s="82" t="inlineStr">
+      <c r="C12" s="421" t="n">
+        <v>9</v>
+      </c>
+      <c r="D12" s="62" t="inlineStr">
         <is>
           <t>bozo</t>
         </is>
       </c>
-      <c r="E11" s="171" t="n">
+      <c r="E12" s="429" t="n">
         <v>5</v>
       </c>
-      <c r="F11" s="67" t="n">
+      <c r="F12" s="95" t="n">
         <v>5355</v>
       </c>
-      <c r="G11" s="172" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="170" t="n"/>
-      <c r="J11" s="80" t="n"/>
-      <c r="K11" s="170" t="n"/>
-      <c r="L11" s="80" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="167" t="inlineStr">
+      <c r="G12" s="433" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="428" t="n"/>
+      <c r="J12" s="63" t="n"/>
+      <c r="K12" s="428" t="n"/>
+      <c r="L12" s="63" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="430" t="inlineStr">
         <is>
           <t>#UVCCQC02</t>
         </is>
       </c>
-      <c r="B12" s="167" t="n">
+      <c r="B13" s="430" t="n">
         <v>1824</v>
       </c>
-      <c r="C12" s="160" t="n">
-        <v>9</v>
-      </c>
-      <c r="D12" s="69" t="inlineStr">
+      <c r="C13" s="425" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" s="67" t="inlineStr">
         <is>
           <t>lordshisha</t>
         </is>
       </c>
-      <c r="E12" s="173" t="n">
+      <c r="E13" s="434" t="n">
         <v>2</v>
       </c>
-      <c r="F12" s="69" t="n">
+      <c r="F13" s="67" t="n">
         <v>3520</v>
       </c>
-      <c r="G12" s="168" t="n">
+      <c r="G13" s="431" t="n">
         <v>617</v>
       </c>
-      <c r="H12" s="63" t="n">
+      <c r="H13" s="80" t="n">
         <v>733</v>
       </c>
-      <c r="I12" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="J12" s="95" t="n">
+      <c r="I13" s="431" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" s="66" t="n">
         <v>6310</v>
       </c>
-      <c r="K12" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="L12" s="95" t="n">
+      <c r="K13" s="431" t="n">
+        <v>6</v>
+      </c>
+      <c r="L13" s="66" t="n">
         <v>6930</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="103" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="203" t="inlineStr">
         <is>
           <t>#90U0VPU9U</t>
         </is>
       </c>
-      <c r="B13" s="103" t="n">
+      <c r="B14" s="203" t="n">
         <v>2437</v>
       </c>
-      <c r="C13" s="104" t="n">
-        <v>10</v>
-      </c>
-      <c r="D13" s="106" t="inlineStr">
+      <c r="C14" s="204" t="n">
+        <v>11</v>
+      </c>
+      <c r="D14" s="205" t="inlineStr">
         <is>
           <t>KYANI7E</t>
         </is>
       </c>
-      <c r="E13" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="107" t="n">
+      <c r="E14" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="205" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="207" t="n">
         <v>1428</v>
       </c>
-      <c r="H13" s="108" t="n">
+      <c r="H14" s="208" t="n">
         <v>113</v>
       </c>
-      <c r="I13" s="107" t="n">
-        <v>6</v>
-      </c>
-      <c r="J13" s="109" t="n">
+      <c r="I14" s="207" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" s="209" t="n">
         <v>7696</v>
       </c>
-      <c r="K13" s="107" t="n">
-        <v>6</v>
-      </c>
-      <c r="L13" s="110" t="n">
+      <c r="K14" s="207" t="n">
+        <v>6</v>
+      </c>
+      <c r="L14" s="209" t="n">
         <v>9188</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="167" t="inlineStr">
-        <is>
-          <t>#G0JPUQGYR</t>
-        </is>
-      </c>
-      <c r="B14" s="167" t="n">
-        <v>1284</v>
-      </c>
-      <c r="C14" s="160" t="n">
-        <v>11</v>
-      </c>
-      <c r="D14" s="69" t="inlineStr">
-        <is>
-          <t>Collin</t>
-        </is>
-      </c>
-      <c r="E14" s="173" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="168" t="n">
-        <v>434</v>
-      </c>
-      <c r="H14" s="63" t="n">
-        <v>415</v>
-      </c>
-      <c r="I14" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" s="69" t="n">
-        <v>5943</v>
-      </c>
-      <c r="K14" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="L14" s="62" t="n">
-        <v>8224</v>
-      </c>
-    </row>
     <row r="15">
-      <c r="A15" s="170" t="inlineStr">
+      <c r="A15" s="430" t="inlineStr">
         <is>
           <t>#QQL8C29CY</t>
         </is>
       </c>
-      <c r="B15" s="170" t="n">
+      <c r="B15" s="430" t="n">
         <v>1068</v>
       </c>
-      <c r="C15" s="164" t="n">
+      <c r="C15" s="425" t="n">
         <v>12</v>
       </c>
       <c r="D15" s="67" t="inlineStr">
@@ -1370,41 +1686,41 @@
           <t>TypicalTeague#2</t>
         </is>
       </c>
-      <c r="E15" s="172" t="n">
+      <c r="E15" s="434" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="G15" s="174" t="n">
+      <c r="G15" s="432" t="n">
         <v>284</v>
       </c>
       <c r="H15" s="80" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="171" t="n">
+      <c r="I15" s="431" t="n">
         <v>5</v>
       </c>
-      <c r="J15" s="67" t="n">
+      <c r="J15" s="82" t="n">
         <v>4070</v>
       </c>
-      <c r="K15" s="171" t="n">
-        <v>6</v>
-      </c>
-      <c r="L15" s="82" t="n">
+      <c r="K15" s="431" t="n">
+        <v>6</v>
+      </c>
+      <c r="L15" s="66" t="n">
         <v>6410</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="159" t="inlineStr">
+      <c r="A16" s="420" t="inlineStr">
         <is>
           <t>#YRGRRJQCY</t>
         </is>
       </c>
-      <c r="B16" s="159" t="n">
+      <c r="B16" s="420" t="n">
         <v>1367</v>
       </c>
-      <c r="C16" s="160" t="n">
+      <c r="C16" s="421" t="n">
         <v>13</v>
       </c>
       <c r="D16" s="111" t="inlineStr">
@@ -1412,41 +1728,41 @@
           <t>DoubleSpice</t>
         </is>
       </c>
-      <c r="E16" s="162" t="n">
+      <c r="E16" s="423" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="111" t="n">
         <v>0</v>
       </c>
-      <c r="G16" s="175" t="n">
+      <c r="G16" s="435" t="n">
         <v>129</v>
       </c>
       <c r="H16" s="83" t="n">
         <v>61</v>
       </c>
-      <c r="I16" s="161" t="n">
+      <c r="I16" s="422" t="n">
         <v>6</v>
       </c>
       <c r="J16" s="77" t="n">
         <v>8256</v>
       </c>
-      <c r="K16" s="161" t="n">
-        <v>6</v>
-      </c>
-      <c r="L16" s="78" t="n">
+      <c r="K16" s="422" t="n">
+        <v>6</v>
+      </c>
+      <c r="L16" s="77" t="n">
         <v>7054</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="170" t="inlineStr">
+      <c r="A17" s="430" t="inlineStr">
         <is>
           <t>#QRPRYR8LL</t>
         </is>
       </c>
-      <c r="B17" s="170" t="n">
+      <c r="B17" s="430" t="n">
         <v>1009</v>
       </c>
-      <c r="C17" s="164" t="n">
+      <c r="C17" s="425" t="n">
         <v>14</v>
       </c>
       <c r="D17" s="67" t="inlineStr">
@@ -1454,41 +1770,41 @@
           <t>FidelCashflow</t>
         </is>
       </c>
-      <c r="E17" s="172" t="n">
+      <c r="E17" s="434" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="G17" s="174" t="n">
+      <c r="G17" s="432" t="n">
         <v>123</v>
       </c>
       <c r="H17" s="80" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="171" t="n">
-        <v>6</v>
-      </c>
-      <c r="J17" s="67" t="n">
+      <c r="I17" s="431" t="n">
+        <v>6</v>
+      </c>
+      <c r="J17" s="82" t="n">
         <v>4239</v>
       </c>
-      <c r="K17" s="171" t="n">
-        <v>6</v>
-      </c>
-      <c r="L17" s="67" t="n">
+      <c r="K17" s="431" t="n">
+        <v>6</v>
+      </c>
+      <c r="L17" s="82" t="n">
         <v>4214</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="159" t="inlineStr">
+      <c r="A18" s="420" t="inlineStr">
         <is>
           <t>#YJ20CRJYQ</t>
         </is>
       </c>
-      <c r="B18" s="159" t="n">
+      <c r="B18" s="420" t="n">
         <v>1514</v>
       </c>
-      <c r="C18" s="160" t="n">
+      <c r="C18" s="421" t="n">
         <v>15</v>
       </c>
       <c r="D18" s="111" t="inlineStr">
@@ -1496,25 +1812,25 @@
           <t>UnluckGod</t>
         </is>
       </c>
-      <c r="E18" s="162" t="n">
+      <c r="E18" s="423" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="111" t="n">
         <v>0</v>
       </c>
-      <c r="G18" s="162" t="n">
+      <c r="G18" s="423" t="n">
         <v>28</v>
       </c>
       <c r="H18" s="83" t="n">
         <v>93</v>
       </c>
-      <c r="I18" s="161" t="n">
+      <c r="I18" s="422" t="n">
         <v>6</v>
       </c>
       <c r="J18" s="77" t="n">
         <v>8286</v>
       </c>
-      <c r="K18" s="161" t="n">
+      <c r="K18" s="422" t="n">
         <v>6</v>
       </c>
       <c r="L18" s="77" t="n">
@@ -1522,15 +1838,15 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="163" t="inlineStr">
+      <c r="A19" s="424" t="inlineStr">
         <is>
           <t>#Q8CLCUCC2</t>
         </is>
       </c>
-      <c r="B19" s="163" t="n">
+      <c r="B19" s="424" t="n">
         <v>1338</v>
       </c>
-      <c r="C19" s="164" t="n">
+      <c r="C19" s="425" t="n">
         <v>16</v>
       </c>
       <c r="D19" s="96" t="inlineStr">
@@ -1538,41 +1854,41 @@
           <t>Moxxi</t>
         </is>
       </c>
-      <c r="E19" s="166" t="n">
+      <c r="E19" s="427" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="96" t="n">
         <v>0</v>
       </c>
-      <c r="G19" s="166" t="n">
+      <c r="G19" s="427" t="n">
         <v>25</v>
       </c>
       <c r="H19" s="74" t="n">
         <v>154</v>
       </c>
-      <c r="I19" s="165" t="n">
-        <v>6</v>
-      </c>
-      <c r="J19" s="72" t="n">
+      <c r="I19" s="426" t="n">
+        <v>6</v>
+      </c>
+      <c r="J19" s="73" t="n">
         <v>7905</v>
       </c>
-      <c r="K19" s="165" t="n">
-        <v>6</v>
-      </c>
-      <c r="L19" s="72" t="n">
+      <c r="K19" s="426" t="n">
+        <v>6</v>
+      </c>
+      <c r="L19" s="73" t="n">
         <v>7224</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="167" t="inlineStr">
+      <c r="A20" s="428" t="inlineStr">
         <is>
           <t>#L8R82C8VC</t>
         </is>
       </c>
-      <c r="B20" s="167" t="n">
+      <c r="B20" s="428" t="n">
         <v>1189</v>
       </c>
-      <c r="C20" s="160" t="n">
+      <c r="C20" s="421" t="n">
         <v>17</v>
       </c>
       <c r="D20" s="69" t="inlineStr">
@@ -1580,41 +1896,41 @@
           <t>caden asue</t>
         </is>
       </c>
-      <c r="E20" s="173" t="n">
+      <c r="E20" s="433" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="G20" s="173" t="n">
+      <c r="G20" s="433" t="n">
         <v>20</v>
       </c>
       <c r="H20" s="63" t="n">
         <v>26</v>
       </c>
-      <c r="I20" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" s="69" t="n">
+      <c r="I20" s="429" t="n">
+        <v>6</v>
+      </c>
+      <c r="J20" s="95" t="n">
         <v>4283</v>
       </c>
-      <c r="K20" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="L20" s="69" t="n">
+      <c r="K20" s="429" t="n">
+        <v>6</v>
+      </c>
+      <c r="L20" s="95" t="n">
         <v>4338</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="170" t="inlineStr">
+      <c r="A21" s="430" t="inlineStr">
         <is>
           <t>#PJYVV989R</t>
         </is>
       </c>
-      <c r="B21" s="170" t="n">
+      <c r="B21" s="430" t="n">
         <v>1575</v>
       </c>
-      <c r="C21" s="164" t="n">
+      <c r="C21" s="425" t="n">
         <v>18</v>
       </c>
       <c r="D21" s="67" t="inlineStr">
@@ -1622,37 +1938,37 @@
           <t>nx</t>
         </is>
       </c>
-      <c r="E21" s="172" t="n">
+      <c r="E21" s="434" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="G21" s="172" t="n">
+      <c r="G21" s="434" t="n">
         <v>20</v>
       </c>
       <c r="H21" s="80" t="n">
         <v>31</v>
       </c>
-      <c r="I21" s="172" t="n">
+      <c r="I21" s="434" t="n">
         <v>0</v>
       </c>
       <c r="J21" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="K21" s="170" t="n"/>
+      <c r="K21" s="430" t="n"/>
       <c r="L21" s="80" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="159" t="inlineStr">
+      <c r="A22" s="420" t="inlineStr">
         <is>
           <t>#QUG8QQJ92</t>
         </is>
       </c>
-      <c r="B22" s="159" t="n">
+      <c r="B22" s="420" t="n">
         <v>965</v>
       </c>
-      <c r="C22" s="160" t="n">
+      <c r="C22" s="421" t="n">
         <v>19</v>
       </c>
       <c r="D22" s="111" t="inlineStr">
@@ -1660,25 +1976,25 @@
           <t>Karma</t>
         </is>
       </c>
-      <c r="E22" s="162" t="n">
+      <c r="E22" s="423" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="111" t="n">
         <v>0</v>
       </c>
-      <c r="G22" s="162" t="n">
+      <c r="G22" s="423" t="n">
         <v>15</v>
       </c>
       <c r="H22" s="83" t="n">
         <v>40</v>
       </c>
-      <c r="I22" s="161" t="n">
+      <c r="I22" s="422" t="n">
         <v>6</v>
       </c>
       <c r="J22" s="77" t="n">
         <v>9240</v>
       </c>
-      <c r="K22" s="161" t="n">
+      <c r="K22" s="422" t="n">
         <v>6</v>
       </c>
       <c r="L22" s="77" t="n">
@@ -1686,15 +2002,15 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="170" t="inlineStr">
+      <c r="A23" s="430" t="inlineStr">
         <is>
           <t>#QY8L2GLUR</t>
         </is>
       </c>
-      <c r="B23" s="170" t="n">
+      <c r="B23" s="430" t="n">
         <v>938</v>
       </c>
-      <c r="C23" s="164" t="n">
+      <c r="C23" s="425" t="n">
         <v>20</v>
       </c>
       <c r="D23" s="67" t="inlineStr">
@@ -1702,41 +2018,41 @@
           <t>Huy</t>
         </is>
       </c>
-      <c r="E23" s="172" t="n">
+      <c r="E23" s="434" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="G23" s="172" t="n">
+      <c r="G23" s="434" t="n">
         <v>15</v>
       </c>
       <c r="H23" s="80" t="n">
         <v>40</v>
       </c>
-      <c r="I23" s="171" t="n">
-        <v>6</v>
-      </c>
-      <c r="J23" s="82" t="n">
+      <c r="I23" s="431" t="n">
+        <v>6</v>
+      </c>
+      <c r="J23" s="66" t="n">
         <v>6995</v>
       </c>
-      <c r="K23" s="171" t="n">
-        <v>6</v>
-      </c>
-      <c r="L23" s="82" t="n">
+      <c r="K23" s="431" t="n">
+        <v>6</v>
+      </c>
+      <c r="L23" s="66" t="n">
         <v>6055</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="159" t="inlineStr">
+      <c r="A24" s="420" t="inlineStr">
         <is>
           <t>#QLJ2U20Y2</t>
         </is>
       </c>
-      <c r="B24" s="159" t="n">
+      <c r="B24" s="420" t="n">
         <v>1461</v>
       </c>
-      <c r="C24" s="160" t="n">
+      <c r="C24" s="421" t="n">
         <v>21</v>
       </c>
       <c r="D24" s="111" t="inlineStr">
@@ -1744,25 +2060,25 @@
           <t>DeadLeaf</t>
         </is>
       </c>
-      <c r="E24" s="162" t="n">
+      <c r="E24" s="423" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="111" t="n">
         <v>0</v>
       </c>
-      <c r="G24" s="162" t="n">
+      <c r="G24" s="423" t="n">
         <v>10</v>
       </c>
       <c r="H24" s="83" t="n">
         <v>63</v>
       </c>
-      <c r="I24" s="161" t="n">
+      <c r="I24" s="422" t="n">
         <v>6</v>
       </c>
       <c r="J24" s="77" t="n">
         <v>8567</v>
       </c>
-      <c r="K24" s="161" t="n">
+      <c r="K24" s="422" t="n">
         <v>6</v>
       </c>
       <c r="L24" s="77" t="n">
@@ -1770,99 +2086,99 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="170" t="inlineStr">
-        <is>
-          <t>#QL8LVLYG8</t>
-        </is>
-      </c>
-      <c r="B25" s="170" t="n">
-        <v>932</v>
-      </c>
-      <c r="C25" s="164" t="n">
+      <c r="A25" s="430" t="inlineStr">
+        <is>
+          <t>#L9QL9YQQY</t>
+        </is>
+      </c>
+      <c r="B25" s="430" t="n">
+        <v>929</v>
+      </c>
+      <c r="C25" s="425" t="n">
         <v>22</v>
       </c>
       <c r="D25" s="67" t="inlineStr">
         <is>
-          <t>Some guy</t>
-        </is>
-      </c>
-      <c r="E25" s="172" t="n">
+          <t>Ima Chad</t>
+        </is>
+      </c>
+      <c r="E25" s="434" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="G25" s="172" t="n">
+      <c r="G25" s="434" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="172" t="n">
+        <v>55</v>
+      </c>
+      <c r="I25" s="434" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="K25" s="172" t="n">
-        <v>2</v>
+      <c r="K25" s="431" t="n">
+        <v>5</v>
       </c>
       <c r="L25" s="67" t="n">
-        <v>1965</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="167" t="inlineStr">
-        <is>
-          <t>#L9QL9YQQY</t>
-        </is>
-      </c>
-      <c r="B26" s="167" t="n">
-        <v>929</v>
-      </c>
-      <c r="C26" s="160" t="n">
+      <c r="A26" s="428" t="inlineStr">
+        <is>
+          <t>#QJVL0LYQQ</t>
+        </is>
+      </c>
+      <c r="B26" s="428" t="n">
+        <v>905</v>
+      </c>
+      <c r="C26" s="421" t="n">
         <v>23</v>
       </c>
       <c r="D26" s="69" t="inlineStr">
         <is>
-          <t>Ima Chad</t>
-        </is>
-      </c>
-      <c r="E26" s="173" t="n">
+          <t>mobbb341</t>
+        </is>
+      </c>
+      <c r="E26" s="433" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="173" t="n">
+      <c r="G26" s="433" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="63" t="n">
-        <v>55</v>
-      </c>
-      <c r="I26" s="173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="168" t="n">
-        <v>5</v>
-      </c>
-      <c r="L26" s="69" t="n">
-        <v>3360</v>
+        <v>0</v>
+      </c>
+      <c r="I26" s="429" t="n">
+        <v>6</v>
+      </c>
+      <c r="J26" s="62" t="n">
+        <v>8810</v>
+      </c>
+      <c r="K26" s="429" t="n">
+        <v>6</v>
+      </c>
+      <c r="L26" s="95" t="n">
+        <v>4505</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="170" t="inlineStr">
+      <c r="A27" s="430" t="inlineStr">
         <is>
           <t>#QV8JJ0URU</t>
         </is>
       </c>
-      <c r="B27" s="170" t="n">
+      <c r="B27" s="430" t="n">
         <v>875</v>
       </c>
-      <c r="C27" s="164" t="n">
+      <c r="C27" s="425" t="n">
         <v>24</v>
       </c>
       <c r="D27" s="67" t="inlineStr">
@@ -1870,25 +2186,25 @@
           <t>✨Jacob</t>
         </is>
       </c>
-      <c r="E27" s="172" t="n">
+      <c r="E27" s="434" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="G27" s="172" t="n">
+      <c r="G27" s="434" t="n">
         <v>0</v>
       </c>
       <c r="H27" s="80" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="171" t="n">
-        <v>6</v>
-      </c>
-      <c r="J27" s="82" t="n">
+      <c r="I27" s="431" t="n">
+        <v>6</v>
+      </c>
+      <c r="J27" s="66" t="n">
         <v>7385</v>
       </c>
-      <c r="K27" s="171" t="n">
+      <c r="K27" s="431" t="n">
         <v>6</v>
       </c>
       <c r="L27" s="66" t="n">
@@ -1896,15 +2212,15 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="167" t="inlineStr">
+      <c r="A28" s="428" t="inlineStr">
         <is>
           <t>#QU0U2Q99G</t>
         </is>
       </c>
-      <c r="B28" s="167" t="n">
+      <c r="B28" s="428" t="n">
         <v>834</v>
       </c>
-      <c r="C28" s="160" t="n">
+      <c r="C28" s="421" t="n">
         <v>25</v>
       </c>
       <c r="D28" s="69" t="inlineStr">
@@ -1912,33 +2228,33 @@
           <t>big coc</t>
         </is>
       </c>
-      <c r="E28" s="173" t="n">
+      <c r="E28" s="433" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="G28" s="173" t="n">
+      <c r="G28" s="433" t="n">
         <v>0</v>
       </c>
       <c r="H28" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="167" t="n"/>
+      <c r="I28" s="428" t="n"/>
       <c r="J28" s="63" t="n"/>
-      <c r="K28" s="167" t="n"/>
+      <c r="K28" s="428" t="n"/>
       <c r="L28" s="63" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="170" t="inlineStr">
+      <c r="A29" s="430" t="inlineStr">
         <is>
           <t>#L9JJQY992</t>
         </is>
       </c>
-      <c r="B29" s="170" t="n">
+      <c r="B29" s="430" t="n">
         <v>812</v>
       </c>
-      <c r="C29" s="164" t="n">
+      <c r="C29" s="425" t="n">
         <v>26</v>
       </c>
       <c r="D29" s="67" t="inlineStr">
@@ -1946,117 +2262,121 @@
           <t>Fisted_Waffle</t>
         </is>
       </c>
-      <c r="E29" s="172" t="n">
+      <c r="E29" s="434" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="G29" s="172" t="n">
+      <c r="G29" s="434" t="n">
         <v>0</v>
       </c>
       <c r="H29" s="80" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="172" t="n">
+      <c r="I29" s="434" t="n">
         <v>0</v>
       </c>
       <c r="J29" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="K29" s="170" t="n"/>
+      <c r="K29" s="430" t="n"/>
       <c r="L29" s="80" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="167" t="inlineStr">
-        <is>
-          <t>#QJVL0LYQQ</t>
-        </is>
-      </c>
-      <c r="B30" s="167" t="n">
-        <v>935</v>
-      </c>
-      <c r="C30" s="160" t="n">
+      <c r="A30" s="428" t="inlineStr">
+        <is>
+          <t>#QL8LVLYG8</t>
+        </is>
+      </c>
+      <c r="B30" s="428" t="n">
+        <v>932</v>
+      </c>
+      <c r="C30" s="421" t="n">
         <v>27</v>
       </c>
       <c r="D30" s="69" t="inlineStr">
         <is>
-          <t>mobbb341</t>
-        </is>
-      </c>
-      <c r="E30" s="173" t="n">
+          <t>Some guy</t>
+        </is>
+      </c>
+      <c r="E30" s="433" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="G30" s="173" t="n">
+      <c r="G30" s="433" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="I30" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="J30" s="62" t="n">
-        <v>8810</v>
-      </c>
-      <c r="K30" s="168" t="n">
-        <v>6</v>
+      <c r="I30" s="433" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="433" t="n">
+        <v>2</v>
       </c>
       <c r="L30" s="69" t="n">
-        <v>4505</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="170" t="inlineStr">
-        <is>
-          <t>#LPR9RPCY9</t>
-        </is>
-      </c>
-      <c r="B31" s="170" t="n">
-        <v>970</v>
-      </c>
-      <c r="C31" s="164" t="n">
+      <c r="A31" s="430" t="inlineStr">
+        <is>
+          <t>#L2QQL9QVJ</t>
+        </is>
+      </c>
+      <c r="B31" s="430" t="n">
+        <v>1529</v>
+      </c>
+      <c r="C31" s="425" t="n">
         <v>28</v>
       </c>
       <c r="D31" s="67" t="inlineStr">
         <is>
-          <t>sayhuss17</t>
-        </is>
-      </c>
-      <c r="E31" s="172" t="n">
+          <t>JustPre10d</t>
+        </is>
+      </c>
+      <c r="E31" s="434" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="G31" s="172" t="n">
+      <c r="G31" s="434" t="n">
         <v>0</v>
       </c>
       <c r="H31" s="80" t="n">
         <v>0</v>
       </c>
-      <c r="I31" s="174" t="n">
-        <v>4</v>
-      </c>
-      <c r="J31" s="67" t="n">
-        <v>4240</v>
-      </c>
-      <c r="K31" s="170" t="n"/>
-      <c r="L31" s="80" t="n"/>
+      <c r="I31" s="431" t="n">
+        <v>6</v>
+      </c>
+      <c r="J31" s="66" t="n">
+        <v>6655</v>
+      </c>
+      <c r="K31" s="431" t="n">
+        <v>6</v>
+      </c>
+      <c r="L31" s="66" t="n">
+        <v>7675</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="167" t="inlineStr">
+      <c r="A32" s="428" t="inlineStr">
         <is>
           <t>#98JG2UJQL</t>
         </is>
       </c>
-      <c r="B32" s="167" t="n">
+      <c r="B32" s="428" t="n">
         <v>2978</v>
       </c>
-      <c r="C32" s="160" t="n">
+      <c r="C32" s="421" t="n">
         <v>29</v>
       </c>
       <c r="D32" s="69" t="inlineStr">
@@ -2064,83 +2384,79 @@
           <t>Dragonux</t>
         </is>
       </c>
-      <c r="E32" s="173" t="n">
+      <c r="E32" s="433" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="G32" s="173" t="n">
+      <c r="G32" s="433" t="n">
         <v>0</v>
       </c>
       <c r="H32" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="I32" s="168" t="n">
+      <c r="I32" s="429" t="n">
         <v>6</v>
       </c>
       <c r="J32" s="62" t="n">
         <v>8025</v>
       </c>
-      <c r="K32" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="L32" s="95" t="n">
+      <c r="K32" s="429" t="n">
+        <v>6</v>
+      </c>
+      <c r="L32" s="62" t="n">
         <v>7000</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="170" t="inlineStr">
-        <is>
-          <t>#L2QQL9QVJ</t>
-        </is>
-      </c>
-      <c r="B33" s="170" t="n">
-        <v>1529</v>
-      </c>
-      <c r="C33" s="164" t="n">
+      <c r="A33" s="430" t="inlineStr">
+        <is>
+          <t>#LPR9RPCY9</t>
+        </is>
+      </c>
+      <c r="B33" s="430" t="n">
+        <v>970</v>
+      </c>
+      <c r="C33" s="425" t="n">
         <v>30</v>
       </c>
       <c r="D33" s="67" t="inlineStr">
         <is>
-          <t>JustPre10d</t>
-        </is>
-      </c>
-      <c r="E33" s="172" t="n">
+          <t>sayhuss17</t>
+        </is>
+      </c>
+      <c r="E33" s="434" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="G33" s="172" t="n">
+      <c r="G33" s="434" t="n">
         <v>0</v>
       </c>
       <c r="H33" s="80" t="n">
         <v>0</v>
       </c>
-      <c r="I33" s="171" t="n">
-        <v>6</v>
+      <c r="I33" s="432" t="n">
+        <v>4</v>
       </c>
       <c r="J33" s="82" t="n">
-        <v>6655</v>
-      </c>
-      <c r="K33" s="171" t="n">
-        <v>6</v>
-      </c>
-      <c r="L33" s="82" t="n">
-        <v>7675</v>
-      </c>
+        <v>4240</v>
+      </c>
+      <c r="K33" s="430" t="n"/>
+      <c r="L33" s="80" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="167" t="inlineStr">
+      <c r="A34" s="428" t="inlineStr">
         <is>
           <t>#82QLQCJRJ</t>
         </is>
       </c>
-      <c r="B34" s="167" t="n">
+      <c r="B34" s="428" t="n">
         <v>2950</v>
       </c>
-      <c r="C34" s="160" t="n">
+      <c r="C34" s="421" t="n">
         <v>31</v>
       </c>
       <c r="D34" s="69" t="inlineStr">
@@ -2148,28 +2464,28 @@
           <t>Raging Fury</t>
         </is>
       </c>
-      <c r="E34" s="173" t="n">
+      <c r="E34" s="433" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="G34" s="173" t="n">
+      <c r="G34" s="433" t="n">
         <v>0</v>
       </c>
       <c r="H34" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="I34" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="J34" s="69" t="n">
+      <c r="I34" s="429" t="n">
+        <v>6</v>
+      </c>
+      <c r="J34" s="95" t="n">
         <v>4920</v>
       </c>
-      <c r="K34" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="L34" s="69" t="n">
+      <c r="K34" s="429" t="n">
+        <v>6</v>
+      </c>
+      <c r="L34" s="95" t="n">
         <v>5135</v>
       </c>
     </row>
@@ -2199,20 +2515,20 @@
       <c r="K35" s="116" t="n">
         <v>6</v>
       </c>
-      <c r="L35" s="117" t="n">
+      <c r="L35" s="211" t="n">
         <v>5908</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="173" t="inlineStr">
+      <c r="A36" s="433" t="inlineStr">
         <is>
           <t>#QV0PQC9JU</t>
         </is>
       </c>
-      <c r="B36" s="167" t="n">
+      <c r="B36" s="428" t="n">
         <v>539</v>
       </c>
-      <c r="C36" s="160" t="n">
+      <c r="C36" s="421" t="n">
         <v>33</v>
       </c>
       <c r="D36" s="63" t="inlineStr">
@@ -2220,29 +2536,29 @@
           <t>Superman</t>
         </is>
       </c>
-      <c r="E36" s="167" t="n"/>
+      <c r="E36" s="428" t="n"/>
       <c r="F36" s="63" t="n"/>
-      <c r="G36" s="167" t="n"/>
+      <c r="G36" s="428" t="n"/>
       <c r="H36" s="63" t="n"/>
-      <c r="I36" s="167" t="n"/>
+      <c r="I36" s="428" t="n"/>
       <c r="J36" s="63" t="n"/>
-      <c r="K36" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="L36" s="69" t="n">
+      <c r="K36" s="429" t="n">
+        <v>6</v>
+      </c>
+      <c r="L36" s="95" t="n">
         <v>4447</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="172" t="inlineStr">
+      <c r="A37" s="434" t="inlineStr">
         <is>
           <t>#LU0CRP09L</t>
         </is>
       </c>
-      <c r="B37" s="170" t="n">
+      <c r="B37" s="430" t="n">
         <v>809</v>
       </c>
-      <c r="C37" s="164" t="n">
+      <c r="C37" s="425" t="n">
         <v>34</v>
       </c>
       <c r="D37" s="80" t="inlineStr">
@@ -2250,13 +2566,13 @@
           <t>I Dont Know</t>
         </is>
       </c>
-      <c r="E37" s="170" t="n"/>
+      <c r="E37" s="430" t="n"/>
       <c r="F37" s="80" t="n"/>
-      <c r="G37" s="170" t="n"/>
+      <c r="G37" s="430" t="n"/>
       <c r="H37" s="80" t="n"/>
-      <c r="I37" s="170" t="n"/>
+      <c r="I37" s="430" t="n"/>
       <c r="J37" s="80" t="n"/>
-      <c r="K37" s="174" t="n">
+      <c r="K37" s="432" t="n">
         <v>3</v>
       </c>
       <c r="L37" s="67" t="n">
@@ -2264,15 +2580,15 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="173" t="inlineStr">
+      <c r="A38" s="433" t="inlineStr">
         <is>
           <t>#YCPP0QPP8</t>
         </is>
       </c>
-      <c r="B38" s="167" t="n">
+      <c r="B38" s="428" t="n">
         <v>3327</v>
       </c>
-      <c r="C38" s="160" t="n">
+      <c r="C38" s="421" t="n">
         <v>35</v>
       </c>
       <c r="D38" s="63" t="inlineStr">
@@ -2280,13 +2596,13 @@
           <t>Coach</t>
         </is>
       </c>
-      <c r="E38" s="167" t="n"/>
+      <c r="E38" s="428" t="n"/>
       <c r="F38" s="63" t="n"/>
-      <c r="G38" s="167" t="n"/>
+      <c r="G38" s="428" t="n"/>
       <c r="H38" s="63" t="n"/>
-      <c r="I38" s="167" t="n"/>
+      <c r="I38" s="428" t="n"/>
       <c r="J38" s="63" t="n"/>
-      <c r="K38" s="173" t="n">
+      <c r="K38" s="433" t="n">
         <v>0</v>
       </c>
       <c r="L38" s="69" t="n">
@@ -2389,61 +2705,61 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="147" t="inlineStr">
+      <c r="B4" s="408" t="inlineStr">
         <is>
           <t>#P2CPRPQU</t>
         </is>
       </c>
-      <c r="C4" s="147" t="n">
+      <c r="C4" s="408" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="148" t="inlineStr">
+      <c r="D4" s="409" t="inlineStr">
         <is>
           <t>The Drift King</t>
         </is>
       </c>
-      <c r="E4" s="148" t="n">
+      <c r="E4" s="409" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="62" t="n">
         <v>6</v>
       </c>
-      <c r="G4" s="148" t="n">
+      <c r="G4" s="409" t="n">
         <v>2</v>
       </c>
       <c r="H4" s="62" t="n">
         <v>6</v>
       </c>
-      <c r="I4" s="147" t="n"/>
+      <c r="I4" s="408" t="n"/>
       <c r="J4" s="63" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="149" t="inlineStr">
+      <c r="B5" s="410" t="inlineStr">
         <is>
           <t>#UVCCQC02</t>
         </is>
       </c>
-      <c r="C5" s="149" t="n">
+      <c r="C5" s="410" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="150" t="inlineStr">
+      <c r="D5" s="411" t="inlineStr">
         <is>
           <t>lordshisha</t>
         </is>
       </c>
-      <c r="E5" s="150" t="n">
+      <c r="E5" s="411" t="n">
         <v>2</v>
       </c>
       <c r="F5" s="66" t="n">
         <v>6</v>
       </c>
-      <c r="G5" s="150" t="n">
+      <c r="G5" s="411" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="67" t="n">
+      <c r="H5" s="82" t="n">
         <v>3</v>
       </c>
-      <c r="I5" s="150" t="n">
+      <c r="I5" s="411" t="n">
         <v>2</v>
       </c>
       <c r="J5" s="67" t="n">
@@ -2451,90 +2767,90 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="147" t="inlineStr">
+      <c r="B6" s="408" t="inlineStr">
         <is>
           <t>#PJYVV989R</t>
         </is>
       </c>
-      <c r="C6" s="147" t="n">
+      <c r="C6" s="408" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="151" t="inlineStr">
+      <c r="D6" s="412" t="inlineStr">
         <is>
           <t>nx</t>
         </is>
       </c>
-      <c r="E6" s="151" t="n">
+      <c r="E6" s="412" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="69" t="n">
+      <c r="F6" s="95" t="n">
         <v>3</v>
       </c>
-      <c r="G6" s="151" t="n">
+      <c r="G6" s="412" t="n">
         <v>1</v>
       </c>
-      <c r="H6" s="69" t="n">
+      <c r="H6" s="95" t="n">
         <v>3</v>
       </c>
-      <c r="I6" s="147" t="n"/>
+      <c r="I6" s="408" t="n"/>
       <c r="J6" s="63" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="152" t="inlineStr">
+      <c r="B7" s="413" t="inlineStr">
         <is>
           <t>#YRGRRJQCY</t>
         </is>
       </c>
-      <c r="C7" s="152" t="n">
+      <c r="C7" s="413" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="153" t="inlineStr">
+      <c r="D7" s="414" t="inlineStr">
         <is>
           <t>DoubleSpice</t>
         </is>
       </c>
-      <c r="E7" s="153" t="n">
+      <c r="E7" s="414" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="72" t="n">
+      <c r="F7" s="73" t="n">
         <v>5</v>
       </c>
-      <c r="G7" s="153" t="n">
+      <c r="G7" s="414" t="n">
         <v>2</v>
       </c>
       <c r="H7" s="73" t="n">
         <v>6</v>
       </c>
-      <c r="I7" s="152" t="n"/>
+      <c r="I7" s="413" t="n"/>
       <c r="J7" s="74" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="154" t="inlineStr">
+      <c r="B8" s="415" t="inlineStr">
         <is>
           <t>#YJ20CRJYQ</t>
         </is>
       </c>
-      <c r="C8" s="154" t="n">
+      <c r="C8" s="415" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="155" t="inlineStr">
+      <c r="D8" s="416" t="inlineStr">
         <is>
           <t>UnluckGod</t>
         </is>
       </c>
-      <c r="E8" s="155" t="n">
+      <c r="E8" s="416" t="n">
         <v>2</v>
       </c>
       <c r="F8" s="77" t="n">
         <v>6</v>
       </c>
-      <c r="G8" s="155" t="n">
+      <c r="G8" s="416" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="78" t="n">
+      <c r="H8" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="I8" s="155" t="n">
+      <c r="I8" s="416" t="n">
         <v>2</v>
       </c>
       <c r="J8" s="77" t="n">
@@ -2542,228 +2858,228 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="152" t="inlineStr">
+      <c r="B9" s="413" t="inlineStr">
         <is>
           <t>#QLJ2U20Y2</t>
         </is>
       </c>
-      <c r="C9" s="152" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" s="153" t="inlineStr">
+      <c r="C9" s="413" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" s="414" t="inlineStr">
         <is>
           <t>DeadLeaf</t>
         </is>
       </c>
-      <c r="E9" s="153" t="n">
+      <c r="E9" s="414" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="72" t="n">
+      <c r="F9" s="73" t="n">
         <v>5</v>
       </c>
-      <c r="G9" s="153" t="n">
+      <c r="G9" s="414" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="72" t="n">
+      <c r="H9" s="73" t="n">
         <v>5</v>
       </c>
-      <c r="I9" s="153" t="n">
+      <c r="I9" s="414" t="n">
         <v>2</v>
       </c>
-      <c r="J9" s="72" t="n">
+      <c r="J9" s="73" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="154" t="inlineStr">
+      <c r="B10" s="415" t="inlineStr">
         <is>
           <t>#Q8CLCUCC2</t>
         </is>
       </c>
-      <c r="C10" s="154" t="n">
+      <c r="C10" s="415" t="n">
         <v>7</v>
       </c>
-      <c r="D10" s="155" t="inlineStr">
+      <c r="D10" s="416" t="inlineStr">
         <is>
           <t>Moxxi</t>
         </is>
       </c>
-      <c r="E10" s="155" t="n">
+      <c r="E10" s="416" t="n">
         <v>2</v>
       </c>
       <c r="F10" s="77" t="n">
         <v>6</v>
       </c>
-      <c r="G10" s="155" t="n">
+      <c r="G10" s="416" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="78" t="n">
+      <c r="H10" s="77" t="n">
         <v>5</v>
       </c>
-      <c r="I10" s="155" t="n">
+      <c r="I10" s="416" t="n">
         <v>2</v>
       </c>
-      <c r="J10" s="78" t="n">
+      <c r="J10" s="77" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="149" t="inlineStr">
+      <c r="B11" s="410" t="inlineStr">
         <is>
           <t>#LPR9RPCY9</t>
         </is>
       </c>
-      <c r="C11" s="149" t="n">
+      <c r="C11" s="410" t="n">
         <v>8</v>
       </c>
-      <c r="D11" s="156" t="inlineStr">
+      <c r="D11" s="417" t="inlineStr">
         <is>
           <t>sayhuss17</t>
         </is>
       </c>
-      <c r="E11" s="156" t="n">
+      <c r="E11" s="417" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="156" t="n">
+      <c r="G11" s="417" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="149" t="n"/>
+      <c r="I11" s="410" t="n"/>
       <c r="J11" s="80" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="147" t="inlineStr">
+      <c r="B12" s="408" t="inlineStr">
         <is>
           <t>#QY8L2GLUR</t>
         </is>
       </c>
-      <c r="C12" s="147" t="n">
+      <c r="C12" s="408" t="n">
         <v>9</v>
       </c>
-      <c r="D12" s="157" t="inlineStr">
+      <c r="D12" s="418" t="inlineStr">
         <is>
           <t>Huy</t>
         </is>
       </c>
-      <c r="E12" s="157" t="n">
+      <c r="E12" s="418" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="147" t="n"/>
+      <c r="G12" s="408" t="n"/>
       <c r="H12" s="63" t="n"/>
-      <c r="I12" s="147" t="n"/>
+      <c r="I12" s="408" t="n"/>
       <c r="J12" s="63" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="149" t="inlineStr">
+      <c r="B13" s="410" t="inlineStr">
         <is>
           <t>#QJC8LQU9U</t>
         </is>
       </c>
-      <c r="C13" s="149" t="n">
+      <c r="C13" s="410" t="n">
         <v>10</v>
       </c>
-      <c r="D13" s="150" t="inlineStr">
+      <c r="D13" s="411" t="inlineStr">
         <is>
           <t>Master01</t>
         </is>
       </c>
-      <c r="E13" s="150" t="n">
+      <c r="E13" s="411" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="82" t="n">
+      <c r="F13" s="66" t="n">
         <v>4</v>
       </c>
-      <c r="G13" s="149" t="n"/>
+      <c r="G13" s="410" t="n"/>
       <c r="H13" s="80" t="n"/>
-      <c r="I13" s="149" t="n"/>
+      <c r="I13" s="410" t="n"/>
       <c r="J13" s="80" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" s="147" t="inlineStr">
+      <c r="B14" s="408" t="inlineStr">
         <is>
           <t>#98JG2UJQL</t>
         </is>
       </c>
-      <c r="C14" s="147" t="n"/>
-      <c r="D14" s="147" t="inlineStr">
+      <c r="C14" s="408" t="n"/>
+      <c r="D14" s="408" t="inlineStr">
         <is>
           <t>Dragonux</t>
         </is>
       </c>
-      <c r="E14" s="147" t="n"/>
+      <c r="E14" s="408" t="n"/>
       <c r="F14" s="63" t="n"/>
-      <c r="G14" s="147" t="n"/>
+      <c r="G14" s="408" t="n"/>
       <c r="H14" s="63" t="n"/>
-      <c r="I14" s="147" t="n"/>
+      <c r="I14" s="408" t="n"/>
       <c r="J14" s="63" t="n"/>
     </row>
     <row r="15">
-      <c r="B15" s="149" t="inlineStr">
+      <c r="B15" s="410" t="inlineStr">
         <is>
           <t>#82QLQCJRJ</t>
         </is>
       </c>
-      <c r="C15" s="149" t="n"/>
-      <c r="D15" s="149" t="inlineStr">
+      <c r="C15" s="410" t="n"/>
+      <c r="D15" s="410" t="inlineStr">
         <is>
           <t>Raging Fury</t>
         </is>
       </c>
-      <c r="E15" s="149" t="n"/>
+      <c r="E15" s="410" t="n"/>
       <c r="F15" s="80" t="n"/>
-      <c r="G15" s="149" t="n"/>
+      <c r="G15" s="410" t="n"/>
       <c r="H15" s="80" t="n"/>
-      <c r="I15" s="149" t="n"/>
+      <c r="I15" s="410" t="n"/>
       <c r="J15" s="80" t="n"/>
     </row>
     <row r="16">
-      <c r="B16" s="154" t="inlineStr">
+      <c r="B16" s="415" t="inlineStr">
         <is>
           <t>#90U0VPU9U</t>
         </is>
       </c>
-      <c r="C16" s="154" t="n"/>
-      <c r="D16" s="154" t="inlineStr">
+      <c r="C16" s="415" t="n"/>
+      <c r="D16" s="415" t="inlineStr">
         <is>
           <t>KYANI7E</t>
         </is>
       </c>
-      <c r="E16" s="154" t="n"/>
+      <c r="E16" s="415" t="n"/>
       <c r="F16" s="83" t="n"/>
-      <c r="G16" s="154" t="n"/>
+      <c r="G16" s="415" t="n"/>
       <c r="H16" s="83" t="n"/>
-      <c r="I16" s="154" t="n"/>
+      <c r="I16" s="415" t="n"/>
       <c r="J16" s="83" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="149" t="inlineStr">
+      <c r="B17" s="410" t="inlineStr">
         <is>
           <t>#L2QQL9QVJ</t>
         </is>
       </c>
-      <c r="C17" s="149" t="n"/>
-      <c r="D17" s="149" t="inlineStr">
+      <c r="C17" s="410" t="n"/>
+      <c r="D17" s="410" t="inlineStr">
         <is>
           <t>JustPre10d</t>
         </is>
       </c>
-      <c r="E17" s="149" t="n"/>
+      <c r="E17" s="410" t="n"/>
       <c r="F17" s="80" t="n"/>
-      <c r="G17" s="156" t="n">
+      <c r="G17" s="417" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="158" t="n">
+      <c r="I17" s="419" t="n">
         <v>1</v>
       </c>
       <c r="J17" s="67" t="n">
@@ -2771,330 +3087,330 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="147" t="inlineStr">
+      <c r="B18" s="408" t="inlineStr">
         <is>
           <t>#G0JPUQGYR</t>
         </is>
       </c>
-      <c r="C18" s="147" t="n"/>
-      <c r="D18" s="147" t="inlineStr">
+      <c r="C18" s="408" t="n"/>
+      <c r="D18" s="408" t="inlineStr">
         <is>
           <t>Collin</t>
         </is>
       </c>
-      <c r="E18" s="147" t="n"/>
+      <c r="E18" s="408" t="n"/>
       <c r="F18" s="63" t="n"/>
-      <c r="G18" s="147" t="n"/>
+      <c r="G18" s="408" t="n"/>
       <c r="H18" s="63" t="n"/>
-      <c r="I18" s="147" t="n"/>
+      <c r="I18" s="408" t="n"/>
       <c r="J18" s="63" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="149" t="inlineStr">
+      <c r="B19" s="410" t="inlineStr">
         <is>
           <t>#L8R82C8VC</t>
         </is>
       </c>
-      <c r="C19" s="149" t="n"/>
-      <c r="D19" s="149" t="inlineStr">
+      <c r="C19" s="410" t="n"/>
+      <c r="D19" s="410" t="inlineStr">
         <is>
           <t>caden asue</t>
         </is>
       </c>
-      <c r="E19" s="149" t="n"/>
+      <c r="E19" s="410" t="n"/>
       <c r="F19" s="80" t="n"/>
-      <c r="G19" s="149" t="n"/>
+      <c r="G19" s="410" t="n"/>
       <c r="H19" s="80" t="n"/>
-      <c r="I19" s="149" t="n"/>
+      <c r="I19" s="410" t="n"/>
       <c r="J19" s="80" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="147" t="inlineStr">
+      <c r="B20" s="408" t="inlineStr">
         <is>
           <t>#Q0JG2RJQ8</t>
         </is>
       </c>
-      <c r="C20" s="147" t="n"/>
-      <c r="D20" s="147" t="inlineStr">
+      <c r="C20" s="408" t="n"/>
+      <c r="D20" s="408" t="inlineStr">
         <is>
           <t>bozo</t>
         </is>
       </c>
-      <c r="E20" s="147" t="n"/>
+      <c r="E20" s="408" t="n"/>
       <c r="F20" s="63" t="n"/>
-      <c r="G20" s="147" t="n"/>
+      <c r="G20" s="408" t="n"/>
       <c r="H20" s="63" t="n"/>
-      <c r="I20" s="147" t="n"/>
+      <c r="I20" s="408" t="n"/>
       <c r="J20" s="63" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="149" t="inlineStr">
+      <c r="B21" s="410" t="inlineStr">
         <is>
           <t>#QQL8C29CY</t>
         </is>
       </c>
-      <c r="C21" s="149" t="n"/>
-      <c r="D21" s="149" t="inlineStr">
+      <c r="C21" s="410" t="n"/>
+      <c r="D21" s="410" t="inlineStr">
         <is>
           <t>TypicalTeague#2</t>
         </is>
       </c>
-      <c r="E21" s="149" t="n"/>
+      <c r="E21" s="410" t="n"/>
       <c r="F21" s="80" t="n"/>
-      <c r="G21" s="149" t="n"/>
+      <c r="G21" s="410" t="n"/>
       <c r="H21" s="80" t="n"/>
-      <c r="I21" s="149" t="n"/>
+      <c r="I21" s="410" t="n"/>
       <c r="J21" s="80" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="147" t="inlineStr">
+      <c r="B22" s="408" t="inlineStr">
         <is>
           <t>#QRPRYR8LL</t>
         </is>
       </c>
-      <c r="C22" s="147" t="n"/>
-      <c r="D22" s="147" t="inlineStr">
+      <c r="C22" s="408" t="n"/>
+      <c r="D22" s="408" t="inlineStr">
         <is>
           <t>FidelCashflow</t>
         </is>
       </c>
-      <c r="E22" s="147" t="n"/>
+      <c r="E22" s="408" t="n"/>
       <c r="F22" s="63" t="n"/>
-      <c r="G22" s="147" t="n"/>
+      <c r="G22" s="408" t="n"/>
       <c r="H22" s="63" t="n"/>
-      <c r="I22" s="147" t="n"/>
+      <c r="I22" s="408" t="n"/>
       <c r="J22" s="63" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="152" t="inlineStr">
+      <c r="B23" s="413" t="inlineStr">
         <is>
           <t>#QUG8QQJ92</t>
         </is>
       </c>
-      <c r="C23" s="152" t="n"/>
-      <c r="D23" s="152" t="inlineStr">
+      <c r="C23" s="413" t="n"/>
+      <c r="D23" s="413" t="inlineStr">
         <is>
           <t>Karma</t>
         </is>
       </c>
-      <c r="E23" s="152" t="n"/>
+      <c r="E23" s="413" t="n"/>
       <c r="F23" s="74" t="n"/>
-      <c r="G23" s="152" t="n"/>
+      <c r="G23" s="413" t="n"/>
       <c r="H23" s="74" t="n"/>
-      <c r="I23" s="152" t="n"/>
+      <c r="I23" s="413" t="n"/>
       <c r="J23" s="74" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="147" t="inlineStr">
+      <c r="B24" s="408" t="inlineStr">
+        <is>
+          <t>#QL8LVLYG8</t>
+        </is>
+      </c>
+      <c r="C24" s="408" t="n"/>
+      <c r="D24" s="408" t="inlineStr">
+        <is>
+          <t>Some guy</t>
+        </is>
+      </c>
+      <c r="E24" s="408" t="n"/>
+      <c r="F24" s="63" t="n"/>
+      <c r="G24" s="408" t="n"/>
+      <c r="H24" s="63" t="n"/>
+      <c r="I24" s="408" t="n"/>
+      <c r="J24" s="63" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="410" t="inlineStr">
+        <is>
+          <t>#L9QL9YQQY</t>
+        </is>
+      </c>
+      <c r="C25" s="410" t="n"/>
+      <c r="D25" s="410" t="inlineStr">
+        <is>
+          <t>Ima Chad</t>
+        </is>
+      </c>
+      <c r="E25" s="410" t="n"/>
+      <c r="F25" s="80" t="n"/>
+      <c r="G25" s="410" t="n"/>
+      <c r="H25" s="80" t="n"/>
+      <c r="I25" s="410" t="n"/>
+      <c r="J25" s="80" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="408" t="inlineStr">
         <is>
           <t>#QJVL0LYQQ</t>
         </is>
       </c>
-      <c r="C24" s="147" t="n"/>
-      <c r="D24" s="147" t="inlineStr">
+      <c r="C26" s="408" t="n"/>
+      <c r="D26" s="408" t="inlineStr">
         <is>
           <t>mobbb341</t>
         </is>
       </c>
-      <c r="E24" s="147" t="n"/>
-      <c r="F24" s="63" t="n"/>
-      <c r="G24" s="147" t="n"/>
-      <c r="H24" s="63" t="n"/>
-      <c r="I24" s="147" t="n"/>
-      <c r="J24" s="63" t="n"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="149" t="inlineStr">
-        <is>
-          <t>#QL8LVLYG8</t>
-        </is>
-      </c>
-      <c r="C25" s="149" t="n"/>
-      <c r="D25" s="149" t="inlineStr">
-        <is>
-          <t>Some guy</t>
-        </is>
-      </c>
-      <c r="E25" s="149" t="n"/>
-      <c r="F25" s="80" t="n"/>
-      <c r="G25" s="149" t="n"/>
-      <c r="H25" s="80" t="n"/>
-      <c r="I25" s="149" t="n"/>
-      <c r="J25" s="80" t="n"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="147" t="inlineStr">
-        <is>
-          <t>#L9QL9YQQY</t>
-        </is>
-      </c>
-      <c r="C26" s="147" t="n"/>
-      <c r="D26" s="147" t="inlineStr">
-        <is>
-          <t>Ima Chad</t>
-        </is>
-      </c>
-      <c r="E26" s="147" t="n"/>
+      <c r="E26" s="408" t="n"/>
       <c r="F26" s="63" t="n"/>
-      <c r="G26" s="147" t="n"/>
+      <c r="G26" s="408" t="n"/>
       <c r="H26" s="63" t="n"/>
-      <c r="I26" s="147" t="n"/>
+      <c r="I26" s="408" t="n"/>
       <c r="J26" s="63" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="149" t="inlineStr">
+      <c r="B27" s="410" t="inlineStr">
         <is>
           <t>#QV8JJ0URU</t>
         </is>
       </c>
-      <c r="C27" s="149" t="n"/>
-      <c r="D27" s="149" t="inlineStr">
+      <c r="C27" s="410" t="n"/>
+      <c r="D27" s="410" t="inlineStr">
         <is>
           <t>✨Jacob</t>
         </is>
       </c>
-      <c r="E27" s="149" t="n"/>
+      <c r="E27" s="410" t="n"/>
       <c r="F27" s="80" t="n"/>
-      <c r="G27" s="156" t="n">
+      <c r="G27" s="417" t="n">
         <v>0</v>
       </c>
       <c r="H27" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="149" t="n"/>
+      <c r="I27" s="410" t="n"/>
       <c r="J27" s="80" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="147" t="inlineStr">
+      <c r="B28" s="408" t="inlineStr">
         <is>
           <t>#QU0U2Q99G</t>
         </is>
       </c>
-      <c r="C28" s="147" t="n"/>
-      <c r="D28" s="147" t="inlineStr">
+      <c r="C28" s="408" t="n"/>
+      <c r="D28" s="408" t="inlineStr">
         <is>
           <t>big coc</t>
         </is>
       </c>
-      <c r="E28" s="147" t="n"/>
+      <c r="E28" s="408" t="n"/>
       <c r="F28" s="63" t="n"/>
-      <c r="G28" s="147" t="n"/>
+      <c r="G28" s="408" t="n"/>
       <c r="H28" s="63" t="n"/>
-      <c r="I28" s="147" t="n"/>
+      <c r="I28" s="408" t="n"/>
       <c r="J28" s="63" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="149" t="inlineStr">
+      <c r="B29" s="410" t="inlineStr">
         <is>
           <t>#L9JJQY992</t>
         </is>
       </c>
-      <c r="C29" s="149" t="n"/>
-      <c r="D29" s="149" t="inlineStr">
+      <c r="C29" s="410" t="n"/>
+      <c r="D29" s="410" t="inlineStr">
         <is>
           <t>Fisted_Waffle</t>
         </is>
       </c>
-      <c r="E29" s="149" t="n"/>
+      <c r="E29" s="410" t="n"/>
       <c r="F29" s="80" t="n"/>
-      <c r="G29" s="149" t="n"/>
+      <c r="G29" s="410" t="n"/>
       <c r="H29" s="80" t="n"/>
-      <c r="I29" s="149" t="n"/>
+      <c r="I29" s="410" t="n"/>
       <c r="J29" s="80" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="154" t="inlineStr">
+      <c r="B30" s="415" t="inlineStr">
         <is>
           <t>#QLR088LC9</t>
         </is>
       </c>
-      <c r="C30" s="154" t="n"/>
-      <c r="D30" s="154" t="inlineStr">
+      <c r="C30" s="415" t="n"/>
+      <c r="D30" s="415" t="inlineStr">
         <is>
           <t>Sanji</t>
         </is>
       </c>
-      <c r="E30" s="154" t="n"/>
+      <c r="E30" s="415" t="n"/>
       <c r="F30" s="83" t="n"/>
-      <c r="G30" s="154" t="n"/>
+      <c r="G30" s="415" t="n"/>
       <c r="H30" s="83" t="n"/>
-      <c r="I30" s="154" t="n"/>
+      <c r="I30" s="415" t="n"/>
       <c r="J30" s="83" t="n"/>
     </row>
     <row r="31">
-      <c r="B31" s="152" t="inlineStr">
+      <c r="B31" s="413" t="inlineStr">
         <is>
           <t>#QUYG0PQC8</t>
         </is>
       </c>
-      <c r="C31" s="152" t="n"/>
-      <c r="D31" s="152" t="inlineStr">
+      <c r="C31" s="413" t="n"/>
+      <c r="D31" s="413" t="inlineStr">
         <is>
           <t>Luffy</t>
         </is>
       </c>
-      <c r="E31" s="152" t="n"/>
+      <c r="E31" s="413" t="n"/>
       <c r="F31" s="74" t="n"/>
-      <c r="G31" s="152" t="n"/>
+      <c r="G31" s="413" t="n"/>
       <c r="H31" s="74" t="n"/>
-      <c r="I31" s="152" t="n"/>
+      <c r="I31" s="413" t="n"/>
       <c r="J31" s="74" t="n"/>
     </row>
     <row r="32">
-      <c r="B32" s="154" t="inlineStr">
+      <c r="B32" s="415" t="inlineStr">
         <is>
           <t>#QCV22VP0G</t>
         </is>
       </c>
-      <c r="C32" s="154" t="n"/>
-      <c r="D32" s="154" t="inlineStr">
+      <c r="C32" s="415" t="n"/>
+      <c r="D32" s="415" t="inlineStr">
         <is>
           <t>Nami</t>
         </is>
       </c>
-      <c r="E32" s="154" t="n"/>
+      <c r="E32" s="415" t="n"/>
       <c r="F32" s="83" t="n"/>
-      <c r="G32" s="154" t="n"/>
+      <c r="G32" s="415" t="n"/>
       <c r="H32" s="83" t="n"/>
-      <c r="I32" s="154" t="n"/>
+      <c r="I32" s="415" t="n"/>
       <c r="J32" s="83" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" s="152" t="inlineStr">
+      <c r="B33" s="413" t="inlineStr">
         <is>
           <t>#G0QPVJY9L</t>
         </is>
       </c>
-      <c r="C33" s="152" t="n"/>
-      <c r="D33" s="152" t="inlineStr">
+      <c r="C33" s="413" t="n"/>
+      <c r="D33" s="413" t="inlineStr">
         <is>
           <t>Zoro</t>
         </is>
       </c>
-      <c r="E33" s="152" t="n"/>
+      <c r="E33" s="413" t="n"/>
       <c r="F33" s="74" t="n"/>
-      <c r="G33" s="152" t="n"/>
+      <c r="G33" s="413" t="n"/>
       <c r="H33" s="74" t="n"/>
-      <c r="I33" s="152" t="n"/>
+      <c r="I33" s="413" t="n"/>
       <c r="J33" s="74" t="n"/>
     </row>
     <row r="34">
-      <c r="B34" s="154" t="inlineStr">
+      <c r="B34" s="415" t="inlineStr">
         <is>
           <t>#QUV2GP88U</t>
         </is>
       </c>
-      <c r="C34" s="154" t="n"/>
-      <c r="D34" s="154" t="inlineStr">
+      <c r="C34" s="415" t="n"/>
+      <c r="D34" s="415" t="inlineStr">
         <is>
           <t>Nico Robin</t>
         </is>
       </c>
-      <c r="E34" s="154" t="n"/>
+      <c r="E34" s="415" t="n"/>
       <c r="F34" s="83" t="n"/>
-      <c r="G34" s="154" t="n"/>
+      <c r="G34" s="415" t="n"/>
       <c r="H34" s="83" t="n"/>
-      <c r="I34" s="154" t="n"/>
+      <c r="I34" s="415" t="n"/>
       <c r="J34" s="83" t="n"/>
     </row>
   </sheetData>

--- a/Clash.xlsx
+++ b/Clash.xlsx
@@ -129,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -221,11 +221,23 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="436">
+  <cellXfs count="611">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -720,6 +732,205 @@
     <xf numFmtId="164" fontId="3" fillId="16" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="14" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="15" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="17" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="17" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="17" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="17" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="17" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="17" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1137,13 +1348,13 @@
     </row>
     <row r="2">
       <c r="E2" t="n">
-        <v>2.68</v>
+        <v>2.54</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>79260</v>
+        <v>167494</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>4046</v>
+        <v>4087</v>
       </c>
       <c r="I2" t="n">
         <v>3.27</v>
@@ -1216,1083 +1427,1079 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="420" t="inlineStr">
+      <c r="A4" s="594" t="inlineStr">
+        <is>
+          <t>#QLJ2U20Y2</t>
+        </is>
+      </c>
+      <c r="B4" s="594" t="n">
+        <v>1461</v>
+      </c>
+      <c r="C4" s="595" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="77" t="inlineStr">
+        <is>
+          <t>DeadLeaf</t>
+        </is>
+      </c>
+      <c r="E4" s="596" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" s="77" t="n">
+        <v>15509</v>
+      </c>
+      <c r="G4" s="597" t="n">
+        <v>10</v>
+      </c>
+      <c r="H4" s="83" t="n">
+        <v>63</v>
+      </c>
+      <c r="I4" s="596" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" s="77" t="n">
+        <v>8567</v>
+      </c>
+      <c r="K4" s="596" t="n">
+        <v>6</v>
+      </c>
+      <c r="L4" s="77" t="n">
+        <v>9729</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="598" t="inlineStr">
+        <is>
+          <t>#Q8CLCUCC2</t>
+        </is>
+      </c>
+      <c r="B5" s="598" t="n">
+        <v>1338</v>
+      </c>
+      <c r="C5" s="599" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="73" t="inlineStr">
+        <is>
+          <t>Moxxi</t>
+        </is>
+      </c>
+      <c r="E5" s="600" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" s="73" t="n">
+        <v>13857</v>
+      </c>
+      <c r="G5" s="601" t="n">
+        <v>25</v>
+      </c>
+      <c r="H5" s="74" t="n">
+        <v>154</v>
+      </c>
+      <c r="I5" s="600" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" s="73" t="n">
+        <v>7905</v>
+      </c>
+      <c r="K5" s="600" t="n">
+        <v>6</v>
+      </c>
+      <c r="L5" s="73" t="n">
+        <v>7224</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="594" t="inlineStr">
+        <is>
+          <t>#QUYG0PQC8</t>
+        </is>
+      </c>
+      <c r="B6" s="594" t="n">
+        <v>704</v>
+      </c>
+      <c r="C6" s="595" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="77" t="inlineStr">
+        <is>
+          <t>Luffy</t>
+        </is>
+      </c>
+      <c r="E6" s="596" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" s="77" t="n">
+        <v>13385</v>
+      </c>
+      <c r="G6" s="597" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="596" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" s="77" t="n">
+        <v>7877</v>
+      </c>
+      <c r="K6" s="596" t="n">
+        <v>6</v>
+      </c>
+      <c r="L6" s="77" t="n">
+        <v>8347</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="598" t="inlineStr">
+        <is>
+          <t>#YJ20CRJYQ</t>
+        </is>
+      </c>
+      <c r="B7" s="598" t="n">
+        <v>1493</v>
+      </c>
+      <c r="C7" s="599" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" s="73" t="inlineStr">
+        <is>
+          <t>UnluckGod</t>
+        </is>
+      </c>
+      <c r="E7" s="600" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="73" t="n">
+        <v>12972</v>
+      </c>
+      <c r="G7" s="601" t="n">
+        <v>28</v>
+      </c>
+      <c r="H7" s="74" t="n">
+        <v>93</v>
+      </c>
+      <c r="I7" s="600" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" s="73" t="n">
+        <v>8286</v>
+      </c>
+      <c r="K7" s="600" t="n">
+        <v>6</v>
+      </c>
+      <c r="L7" s="73" t="n">
+        <v>11406</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="594" t="inlineStr">
         <is>
           <t>#QCV22VP0G</t>
         </is>
       </c>
-      <c r="B4" s="420" t="n">
+      <c r="B8" s="594" t="n">
         <v>696</v>
       </c>
-      <c r="C4" s="421" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="77" t="inlineStr">
+      <c r="C8" s="595" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="77" t="inlineStr">
         <is>
           <t>Nami</t>
         </is>
       </c>
-      <c r="E4" s="422" t="n">
-        <v>6</v>
-      </c>
-      <c r="F4" s="77" t="n">
+      <c r="E8" s="596" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" s="77" t="n">
         <v>12486</v>
       </c>
-      <c r="G4" s="423" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="422" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" s="77" t="n">
+      <c r="G8" s="597" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="596" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" s="77" t="n">
         <v>8472</v>
       </c>
-      <c r="K4" s="422" t="n">
-        <v>6</v>
-      </c>
-      <c r="L4" s="77" t="n">
+      <c r="K8" s="596" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" s="77" t="n">
         <v>9096</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="424" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="598" t="inlineStr">
+        <is>
+          <t>#YRGRRJQCY</t>
+        </is>
+      </c>
+      <c r="B9" s="598" t="n">
+        <v>1349</v>
+      </c>
+      <c r="C9" s="599" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" s="73" t="inlineStr">
+        <is>
+          <t>DoubleSpice</t>
+        </is>
+      </c>
+      <c r="E9" s="600" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" s="73" t="n">
+        <v>12379</v>
+      </c>
+      <c r="G9" s="602" t="n">
+        <v>129</v>
+      </c>
+      <c r="H9" s="74" t="n">
+        <v>61</v>
+      </c>
+      <c r="I9" s="600" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" s="73" t="n">
+        <v>8256</v>
+      </c>
+      <c r="K9" s="600" t="n">
+        <v>6</v>
+      </c>
+      <c r="L9" s="73" t="n">
+        <v>7054</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="594" t="inlineStr">
         <is>
           <t>#QUV2GP88U</t>
         </is>
       </c>
-      <c r="B5" s="424" t="n">
-        <v>545</v>
-      </c>
-      <c r="C5" s="425" t="n">
+      <c r="B10" s="594" t="n">
+        <v>563</v>
+      </c>
+      <c r="C10" s="595" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" s="77" t="inlineStr">
+        <is>
+          <t>Nico Robin</t>
+        </is>
+      </c>
+      <c r="E10" s="596" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" s="77" t="n">
+        <v>10997</v>
+      </c>
+      <c r="G10" s="597" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="83" t="n">
+        <v>40</v>
+      </c>
+      <c r="I10" s="596" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" s="77" t="n">
+        <v>11087</v>
+      </c>
+      <c r="K10" s="596" t="n">
+        <v>6</v>
+      </c>
+      <c r="L10" s="77" t="n">
+        <v>8089</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="598" t="inlineStr">
+        <is>
+          <t>#G0QPVJY9L</t>
+        </is>
+      </c>
+      <c r="B11" s="598" t="n">
+        <v>659</v>
+      </c>
+      <c r="C11" s="599" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" s="73" t="inlineStr">
+        <is>
+          <t>Zoro</t>
+        </is>
+      </c>
+      <c r="E11" s="600" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" s="73" t="n">
+        <v>10965</v>
+      </c>
+      <c r="G11" s="601" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="74" t="n">
+        <v>35</v>
+      </c>
+      <c r="I11" s="600" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" s="73" t="n">
+        <v>7905</v>
+      </c>
+      <c r="K11" s="600" t="n">
+        <v>6</v>
+      </c>
+      <c r="L11" s="73" t="n">
+        <v>6744</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="594" t="inlineStr">
+        <is>
+          <t>#QUG8QQJ92</t>
+        </is>
+      </c>
+      <c r="B12" s="594" t="n">
+        <v>990</v>
+      </c>
+      <c r="C12" s="595" t="n">
+        <v>9</v>
+      </c>
+      <c r="D12" s="77" t="inlineStr">
+        <is>
+          <t>Karma</t>
+        </is>
+      </c>
+      <c r="E12" s="596" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" s="77" t="n">
+        <v>10595</v>
+      </c>
+      <c r="G12" s="597" t="n">
+        <v>15</v>
+      </c>
+      <c r="H12" s="83" t="n">
+        <v>40</v>
+      </c>
+      <c r="I12" s="596" t="n">
+        <v>6</v>
+      </c>
+      <c r="J12" s="77" t="n">
+        <v>9240</v>
+      </c>
+      <c r="K12" s="596" t="n">
+        <v>6</v>
+      </c>
+      <c r="L12" s="77" t="n">
+        <v>10628</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="598" t="inlineStr">
+        <is>
+          <t>#QLR088LC9</t>
+        </is>
+      </c>
+      <c r="B13" s="598" t="n">
+        <v>710</v>
+      </c>
+      <c r="C13" s="599" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" s="73" t="inlineStr">
+        <is>
+          <t>Sanji</t>
+        </is>
+      </c>
+      <c r="E13" s="600" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" s="73" t="n">
+        <v>9138</v>
+      </c>
+      <c r="G13" s="601" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="600" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" s="73" t="n">
+        <v>8897</v>
+      </c>
+      <c r="K13" s="600" t="n">
+        <v>6</v>
+      </c>
+      <c r="L13" s="73" t="n">
+        <v>8512</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="603" t="inlineStr">
+        <is>
+          <t>#P2CPRPQU</t>
+        </is>
+      </c>
+      <c r="B14" s="603" t="n">
+        <v>2210</v>
+      </c>
+      <c r="C14" s="595" t="n">
+        <v>11</v>
+      </c>
+      <c r="D14" s="62" t="inlineStr">
+        <is>
+          <t>The Drift King</t>
+        </is>
+      </c>
+      <c r="E14" s="604" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" s="62" t="n">
+        <v>8023</v>
+      </c>
+      <c r="G14" s="604" t="n">
+        <v>646</v>
+      </c>
+      <c r="H14" s="63" t="n">
+        <v>291</v>
+      </c>
+      <c r="I14" s="604" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" s="62" t="n">
+        <v>7625</v>
+      </c>
+      <c r="K14" s="604" t="n">
+        <v>6</v>
+      </c>
+      <c r="L14" s="62" t="n">
+        <v>7375</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="605" t="inlineStr">
+        <is>
+          <t>#G0JPUQGYR</t>
+        </is>
+      </c>
+      <c r="B15" s="605" t="n">
+        <v>1308</v>
+      </c>
+      <c r="C15" s="599" t="n">
+        <v>12</v>
+      </c>
+      <c r="D15" s="66" t="inlineStr">
+        <is>
+          <t>Collin</t>
+        </is>
+      </c>
+      <c r="E15" s="606" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" s="66" t="n">
+        <v>7756</v>
+      </c>
+      <c r="G15" s="606" t="n">
+        <v>475</v>
+      </c>
+      <c r="H15" s="80" t="n">
+        <v>415</v>
+      </c>
+      <c r="I15" s="606" t="n">
+        <v>6</v>
+      </c>
+      <c r="J15" s="82" t="n">
+        <v>5943</v>
+      </c>
+      <c r="K15" s="606" t="n">
+        <v>6</v>
+      </c>
+      <c r="L15" s="66" t="n">
+        <v>8224</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="603" t="inlineStr">
+        <is>
+          <t>#QJVL0LYQQ</t>
+        </is>
+      </c>
+      <c r="B16" s="603" t="n">
+        <v>913</v>
+      </c>
+      <c r="C16" s="595" t="n">
+        <v>13</v>
+      </c>
+      <c r="D16" s="62" t="inlineStr">
+        <is>
+          <t>mobbb341</t>
+        </is>
+      </c>
+      <c r="E16" s="604" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" s="62" t="n">
+        <v>7710</v>
+      </c>
+      <c r="G16" s="607" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="604" t="n">
+        <v>6</v>
+      </c>
+      <c r="J16" s="62" t="n">
+        <v>8810</v>
+      </c>
+      <c r="K16" s="604" t="n">
+        <v>6</v>
+      </c>
+      <c r="L16" s="95" t="n">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="605" t="inlineStr">
+        <is>
+          <t>#QJC8LQU9U</t>
+        </is>
+      </c>
+      <c r="B17" s="605" t="n">
+        <v>1247</v>
+      </c>
+      <c r="C17" s="599" t="n">
+        <v>14</v>
+      </c>
+      <c r="D17" s="66" t="inlineStr">
+        <is>
+          <t>Master01</t>
+        </is>
+      </c>
+      <c r="E17" s="606" t="n">
+        <v>6</v>
+      </c>
+      <c r="F17" s="82" t="n">
+        <v>5415</v>
+      </c>
+      <c r="G17" s="608" t="n">
+        <v>272</v>
+      </c>
+      <c r="H17" s="80" t="n">
+        <v>1011</v>
+      </c>
+      <c r="I17" s="606" t="n">
+        <v>6</v>
+      </c>
+      <c r="J17" s="82" t="n">
+        <v>4835</v>
+      </c>
+      <c r="K17" s="606" t="n">
+        <v>5</v>
+      </c>
+      <c r="L17" s="82" t="n">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="603" t="inlineStr">
+        <is>
+          <t>#Q0JG2RJQ8</t>
+        </is>
+      </c>
+      <c r="B18" s="603" t="n">
+        <v>1059</v>
+      </c>
+      <c r="C18" s="595" t="n">
+        <v>15</v>
+      </c>
+      <c r="D18" s="62" t="inlineStr">
+        <is>
+          <t>bozo</t>
+        </is>
+      </c>
+      <c r="E18" s="604" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" s="95" t="n">
+        <v>5355</v>
+      </c>
+      <c r="G18" s="607" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="603" t="n"/>
+      <c r="J18" s="63" t="n"/>
+      <c r="K18" s="603" t="n"/>
+      <c r="L18" s="63" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="609" t="inlineStr">
+        <is>
+          <t>#L8R82C8VC</t>
+        </is>
+      </c>
+      <c r="B19" s="605" t="n">
+        <v>1162</v>
+      </c>
+      <c r="C19" s="599" t="n">
+        <v>16</v>
+      </c>
+      <c r="D19" s="66" t="inlineStr">
+        <is>
+          <t>caden asue</t>
+        </is>
+      </c>
+      <c r="E19" s="606" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" s="82" t="n">
+        <v>5112</v>
+      </c>
+      <c r="G19" s="605" t="n"/>
+      <c r="H19" s="80" t="n"/>
+      <c r="I19" s="606" t="n">
+        <v>6</v>
+      </c>
+      <c r="J19" s="82" t="n">
+        <v>4283</v>
+      </c>
+      <c r="K19" s="606" t="n">
+        <v>6</v>
+      </c>
+      <c r="L19" s="82" t="n">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="603" t="inlineStr">
+        <is>
+          <t>#UVCCQC02</t>
+        </is>
+      </c>
+      <c r="B20" s="603" t="n">
+        <v>1813</v>
+      </c>
+      <c r="C20" s="595" t="n">
+        <v>17</v>
+      </c>
+      <c r="D20" s="69" t="inlineStr">
+        <is>
+          <t>lordshisha</t>
+        </is>
+      </c>
+      <c r="E20" s="607" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="73" t="inlineStr">
-        <is>
-          <t>Nico Robin</t>
-        </is>
-      </c>
-      <c r="E5" s="426" t="n">
-        <v>6</v>
-      </c>
-      <c r="F5" s="73" t="n">
-        <v>10997</v>
-      </c>
-      <c r="G5" s="427" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="74" t="n">
+      <c r="F20" s="69" t="n">
+        <v>3520</v>
+      </c>
+      <c r="G20" s="604" t="n">
+        <v>617</v>
+      </c>
+      <c r="H20" s="63" t="n">
+        <v>733</v>
+      </c>
+      <c r="I20" s="604" t="n">
+        <v>6</v>
+      </c>
+      <c r="J20" s="62" t="n">
+        <v>6310</v>
+      </c>
+      <c r="K20" s="604" t="n">
+        <v>6</v>
+      </c>
+      <c r="L20" s="62" t="n">
+        <v>6930</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="605" t="inlineStr">
+        <is>
+          <t>#82QLQCJRJ</t>
+        </is>
+      </c>
+      <c r="B21" s="605" t="n">
+        <v>2940</v>
+      </c>
+      <c r="C21" s="599" t="n">
+        <v>18</v>
+      </c>
+      <c r="D21" s="67" t="inlineStr">
+        <is>
+          <t>Raging Fury</t>
+        </is>
+      </c>
+      <c r="E21" s="609" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="67" t="n">
+        <v>2320</v>
+      </c>
+      <c r="G21" s="609" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="606" t="n">
+        <v>6</v>
+      </c>
+      <c r="J21" s="82" t="n">
+        <v>4920</v>
+      </c>
+      <c r="K21" s="606" t="n">
+        <v>6</v>
+      </c>
+      <c r="L21" s="82" t="n">
+        <v>5135</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="203" t="inlineStr">
+        <is>
+          <t>#90U0VPU9U</t>
+        </is>
+      </c>
+      <c r="B22" s="203" t="n">
+        <v>2431</v>
+      </c>
+      <c r="C22" s="204" t="n">
+        <v>19</v>
+      </c>
+      <c r="D22" s="205" t="inlineStr">
+        <is>
+          <t>KYANI7E</t>
+        </is>
+      </c>
+      <c r="E22" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="205" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="207" t="n">
+        <v>1428</v>
+      </c>
+      <c r="H22" s="208" t="n">
+        <v>113</v>
+      </c>
+      <c r="I22" s="207" t="n">
+        <v>6</v>
+      </c>
+      <c r="J22" s="209" t="n">
+        <v>7696</v>
+      </c>
+      <c r="K22" s="207" t="n">
+        <v>6</v>
+      </c>
+      <c r="L22" s="209" t="n">
+        <v>9188</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="605" t="inlineStr">
+        <is>
+          <t>#QQL8C29CY</t>
+        </is>
+      </c>
+      <c r="B23" s="605" t="n">
+        <v>1066</v>
+      </c>
+      <c r="C23" s="599" t="n">
+        <v>20</v>
+      </c>
+      <c r="D23" s="67" t="inlineStr">
+        <is>
+          <t>TypicalTeague#2</t>
+        </is>
+      </c>
+      <c r="E23" s="609" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="608" t="n">
+        <v>284</v>
+      </c>
+      <c r="H23" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="606" t="n">
+        <v>5</v>
+      </c>
+      <c r="J23" s="82" t="n">
+        <v>4070</v>
+      </c>
+      <c r="K23" s="606" t="n">
+        <v>6</v>
+      </c>
+      <c r="L23" s="66" t="n">
+        <v>6410</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="603" t="inlineStr">
+        <is>
+          <t>#QRPRYR8LL</t>
+        </is>
+      </c>
+      <c r="B24" s="603" t="n">
+        <v>999</v>
+      </c>
+      <c r="C24" s="595" t="n">
+        <v>21</v>
+      </c>
+      <c r="D24" s="69" t="inlineStr">
+        <is>
+          <t>FidelCashflow</t>
+        </is>
+      </c>
+      <c r="E24" s="607" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="610" t="n">
+        <v>123</v>
+      </c>
+      <c r="H24" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="604" t="n">
+        <v>6</v>
+      </c>
+      <c r="J24" s="95" t="n">
+        <v>4239</v>
+      </c>
+      <c r="K24" s="604" t="n">
+        <v>6</v>
+      </c>
+      <c r="L24" s="95" t="n">
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="605" t="inlineStr">
+        <is>
+          <t>#PJYVV989R</t>
+        </is>
+      </c>
+      <c r="B25" s="605" t="n">
+        <v>1575</v>
+      </c>
+      <c r="C25" s="599" t="n">
+        <v>22</v>
+      </c>
+      <c r="D25" s="67" t="inlineStr">
+        <is>
+          <t>nx</t>
+        </is>
+      </c>
+      <c r="E25" s="609" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="609" t="n">
+        <v>20</v>
+      </c>
+      <c r="H25" s="80" t="n">
+        <v>31</v>
+      </c>
+      <c r="I25" s="609" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="605" t="n"/>
+      <c r="L25" s="80" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="603" t="inlineStr">
+        <is>
+          <t>#QY8L2GLUR</t>
+        </is>
+      </c>
+      <c r="B26" s="603" t="n">
+        <v>910</v>
+      </c>
+      <c r="C26" s="595" t="n">
+        <v>23</v>
+      </c>
+      <c r="D26" s="69" t="inlineStr">
+        <is>
+          <t>Huy</t>
+        </is>
+      </c>
+      <c r="E26" s="607" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="607" t="n">
+        <v>15</v>
+      </c>
+      <c r="H26" s="63" t="n">
         <v>40</v>
       </c>
-      <c r="I5" s="426" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" s="73" t="n">
-        <v>11087</v>
-      </c>
-      <c r="K5" s="426" t="n">
-        <v>6</v>
-      </c>
-      <c r="L5" s="73" t="n">
-        <v>8089</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="420" t="inlineStr">
-        <is>
-          <t>#G0QPVJY9L</t>
-        </is>
-      </c>
-      <c r="B6" s="420" t="n">
-        <v>659</v>
-      </c>
-      <c r="C6" s="421" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="77" t="inlineStr">
-        <is>
-          <t>Zoro</t>
-        </is>
-      </c>
-      <c r="E6" s="422" t="n">
-        <v>6</v>
-      </c>
-      <c r="F6" s="77" t="n">
-        <v>10965</v>
-      </c>
-      <c r="G6" s="423" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="83" t="n">
-        <v>35</v>
-      </c>
-      <c r="I6" s="422" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" s="77" t="n">
-        <v>7905</v>
-      </c>
-      <c r="K6" s="422" t="n">
-        <v>6</v>
-      </c>
-      <c r="L6" s="77" t="n">
-        <v>6744</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="424" t="inlineStr">
-        <is>
-          <t>#QLR088LC9</t>
-        </is>
-      </c>
-      <c r="B7" s="424" t="n">
-        <v>710</v>
-      </c>
-      <c r="C7" s="425" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="73" t="inlineStr">
-        <is>
-          <t>Sanji</t>
-        </is>
-      </c>
-      <c r="E7" s="426" t="n">
-        <v>6</v>
-      </c>
-      <c r="F7" s="73" t="n">
-        <v>9138</v>
-      </c>
-      <c r="G7" s="427" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="426" t="n">
-        <v>6</v>
-      </c>
-      <c r="J7" s="73" t="n">
-        <v>8897</v>
-      </c>
-      <c r="K7" s="426" t="n">
-        <v>6</v>
-      </c>
-      <c r="L7" s="73" t="n">
-        <v>8512</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="428" t="inlineStr">
-        <is>
-          <t>#P2CPRPQU</t>
-        </is>
-      </c>
-      <c r="B8" s="428" t="n">
-        <v>2187</v>
-      </c>
-      <c r="C8" s="421" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" s="62" t="inlineStr">
-        <is>
-          <t>The Drift King</t>
-        </is>
-      </c>
-      <c r="E8" s="429" t="n">
-        <v>6</v>
-      </c>
-      <c r="F8" s="62" t="n">
-        <v>8023</v>
-      </c>
-      <c r="G8" s="429" t="n">
-        <v>626</v>
-      </c>
-      <c r="H8" s="63" t="n">
-        <v>270</v>
-      </c>
-      <c r="I8" s="429" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" s="62" t="n">
-        <v>7625</v>
-      </c>
-      <c r="K8" s="429" t="n">
-        <v>6</v>
-      </c>
-      <c r="L8" s="62" t="n">
-        <v>7375</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="430" t="inlineStr">
-        <is>
-          <t>#G0JPUQGYR</t>
-        </is>
-      </c>
-      <c r="B9" s="430" t="n">
-        <v>1298</v>
-      </c>
-      <c r="C9" s="425" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" s="66" t="inlineStr">
-        <is>
-          <t>Collin</t>
-        </is>
-      </c>
-      <c r="E9" s="431" t="n">
-        <v>6</v>
-      </c>
-      <c r="F9" s="66" t="n">
-        <v>7756</v>
-      </c>
-      <c r="G9" s="432" t="n">
-        <v>434</v>
-      </c>
-      <c r="H9" s="80" t="n">
-        <v>415</v>
-      </c>
-      <c r="I9" s="431" t="n">
-        <v>6</v>
-      </c>
-      <c r="J9" s="82" t="n">
-        <v>5943</v>
-      </c>
-      <c r="K9" s="431" t="n">
-        <v>6</v>
-      </c>
-      <c r="L9" s="66" t="n">
-        <v>8224</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="420" t="inlineStr">
-        <is>
-          <t>#QUYG0PQC8</t>
-        </is>
-      </c>
-      <c r="B10" s="420" t="n">
-        <v>704</v>
-      </c>
-      <c r="C10" s="421" t="n">
-        <v>7</v>
-      </c>
-      <c r="D10" s="111" t="inlineStr">
-        <is>
-          <t>Luffy</t>
-        </is>
-      </c>
-      <c r="E10" s="423" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" s="78" t="n">
-        <v>5605</v>
-      </c>
-      <c r="G10" s="423" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="422" t="n">
-        <v>6</v>
-      </c>
-      <c r="J10" s="77" t="n">
-        <v>7877</v>
-      </c>
-      <c r="K10" s="422" t="n">
-        <v>6</v>
-      </c>
-      <c r="L10" s="77" t="n">
-        <v>8347</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="430" t="inlineStr">
-        <is>
-          <t>#QJC8LQU9U</t>
-        </is>
-      </c>
-      <c r="B11" s="430" t="n">
-        <v>1232</v>
-      </c>
-      <c r="C11" s="425" t="n">
-        <v>8</v>
-      </c>
-      <c r="D11" s="66" t="inlineStr">
-        <is>
-          <t>Master01</t>
-        </is>
-      </c>
-      <c r="E11" s="431" t="n">
-        <v>6</v>
-      </c>
-      <c r="F11" s="82" t="n">
-        <v>5415</v>
-      </c>
-      <c r="G11" s="432" t="n">
-        <v>272</v>
-      </c>
-      <c r="H11" s="80" t="n">
-        <v>991</v>
-      </c>
-      <c r="I11" s="431" t="n">
-        <v>6</v>
-      </c>
-      <c r="J11" s="82" t="n">
-        <v>4835</v>
-      </c>
-      <c r="K11" s="431" t="n">
-        <v>5</v>
-      </c>
-      <c r="L11" s="82" t="n">
-        <v>4055</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="428" t="inlineStr">
-        <is>
-          <t>#Q0JG2RJQ8</t>
-        </is>
-      </c>
-      <c r="B12" s="428" t="n">
-        <v>1083</v>
-      </c>
-      <c r="C12" s="421" t="n">
-        <v>9</v>
-      </c>
-      <c r="D12" s="62" t="inlineStr">
-        <is>
-          <t>bozo</t>
-        </is>
-      </c>
-      <c r="E12" s="429" t="n">
-        <v>5</v>
-      </c>
-      <c r="F12" s="95" t="n">
-        <v>5355</v>
-      </c>
-      <c r="G12" s="433" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="428" t="n"/>
-      <c r="J12" s="63" t="n"/>
-      <c r="K12" s="428" t="n"/>
-      <c r="L12" s="63" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="430" t="inlineStr">
-        <is>
-          <t>#UVCCQC02</t>
-        </is>
-      </c>
-      <c r="B13" s="430" t="n">
-        <v>1824</v>
-      </c>
-      <c r="C13" s="425" t="n">
-        <v>10</v>
-      </c>
-      <c r="D13" s="67" t="inlineStr">
-        <is>
-          <t>lordshisha</t>
-        </is>
-      </c>
-      <c r="E13" s="434" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" s="67" t="n">
-        <v>3520</v>
-      </c>
-      <c r="G13" s="431" t="n">
-        <v>617</v>
-      </c>
-      <c r="H13" s="80" t="n">
-        <v>733</v>
-      </c>
-      <c r="I13" s="431" t="n">
-        <v>6</v>
-      </c>
-      <c r="J13" s="66" t="n">
-        <v>6310</v>
-      </c>
-      <c r="K13" s="431" t="n">
-        <v>6</v>
-      </c>
-      <c r="L13" s="66" t="n">
-        <v>6930</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="203" t="inlineStr">
-        <is>
-          <t>#90U0VPU9U</t>
-        </is>
-      </c>
-      <c r="B14" s="203" t="n">
-        <v>2437</v>
-      </c>
-      <c r="C14" s="204" t="n">
-        <v>11</v>
-      </c>
-      <c r="D14" s="205" t="inlineStr">
-        <is>
-          <t>KYANI7E</t>
-        </is>
-      </c>
-      <c r="E14" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="205" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="207" t="n">
-        <v>1428</v>
-      </c>
-      <c r="H14" s="208" t="n">
-        <v>113</v>
-      </c>
-      <c r="I14" s="207" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" s="209" t="n">
-        <v>7696</v>
-      </c>
-      <c r="K14" s="207" t="n">
-        <v>6</v>
-      </c>
-      <c r="L14" s="209" t="n">
-        <v>9188</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="430" t="inlineStr">
-        <is>
-          <t>#QQL8C29CY</t>
-        </is>
-      </c>
-      <c r="B15" s="430" t="n">
-        <v>1068</v>
-      </c>
-      <c r="C15" s="425" t="n">
-        <v>12</v>
-      </c>
-      <c r="D15" s="67" t="inlineStr">
-        <is>
-          <t>TypicalTeague#2</t>
-        </is>
-      </c>
-      <c r="E15" s="434" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="432" t="n">
-        <v>284</v>
-      </c>
-      <c r="H15" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="431" t="n">
-        <v>5</v>
-      </c>
-      <c r="J15" s="82" t="n">
-        <v>4070</v>
-      </c>
-      <c r="K15" s="431" t="n">
-        <v>6</v>
-      </c>
-      <c r="L15" s="66" t="n">
-        <v>6410</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="420" t="inlineStr">
-        <is>
-          <t>#YRGRRJQCY</t>
-        </is>
-      </c>
-      <c r="B16" s="420" t="n">
-        <v>1367</v>
-      </c>
-      <c r="C16" s="421" t="n">
-        <v>13</v>
-      </c>
-      <c r="D16" s="111" t="inlineStr">
-        <is>
-          <t>DoubleSpice</t>
-        </is>
-      </c>
-      <c r="E16" s="423" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="435" t="n">
-        <v>129</v>
-      </c>
-      <c r="H16" s="83" t="n">
-        <v>61</v>
-      </c>
-      <c r="I16" s="422" t="n">
-        <v>6</v>
-      </c>
-      <c r="J16" s="77" t="n">
-        <v>8256</v>
-      </c>
-      <c r="K16" s="422" t="n">
-        <v>6</v>
-      </c>
-      <c r="L16" s="77" t="n">
-        <v>7054</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="430" t="inlineStr">
-        <is>
-          <t>#QRPRYR8LL</t>
-        </is>
-      </c>
-      <c r="B17" s="430" t="n">
-        <v>1009</v>
-      </c>
-      <c r="C17" s="425" t="n">
-        <v>14</v>
-      </c>
-      <c r="D17" s="67" t="inlineStr">
-        <is>
-          <t>FidelCashflow</t>
-        </is>
-      </c>
-      <c r="E17" s="434" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="432" t="n">
-        <v>123</v>
-      </c>
-      <c r="H17" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="431" t="n">
-        <v>6</v>
-      </c>
-      <c r="J17" s="82" t="n">
-        <v>4239</v>
-      </c>
-      <c r="K17" s="431" t="n">
-        <v>6</v>
-      </c>
-      <c r="L17" s="82" t="n">
-        <v>4214</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="420" t="inlineStr">
-        <is>
-          <t>#YJ20CRJYQ</t>
-        </is>
-      </c>
-      <c r="B18" s="420" t="n">
-        <v>1514</v>
-      </c>
-      <c r="C18" s="421" t="n">
-        <v>15</v>
-      </c>
-      <c r="D18" s="111" t="inlineStr">
-        <is>
-          <t>UnluckGod</t>
-        </is>
-      </c>
-      <c r="E18" s="423" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="423" t="n">
-        <v>28</v>
-      </c>
-      <c r="H18" s="83" t="n">
-        <v>93</v>
-      </c>
-      <c r="I18" s="422" t="n">
-        <v>6</v>
-      </c>
-      <c r="J18" s="77" t="n">
-        <v>8286</v>
-      </c>
-      <c r="K18" s="422" t="n">
-        <v>6</v>
-      </c>
-      <c r="L18" s="77" t="n">
-        <v>11406</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="424" t="inlineStr">
-        <is>
-          <t>#Q8CLCUCC2</t>
-        </is>
-      </c>
-      <c r="B19" s="424" t="n">
-        <v>1338</v>
-      </c>
-      <c r="C19" s="425" t="n">
-        <v>16</v>
-      </c>
-      <c r="D19" s="96" t="inlineStr">
-        <is>
-          <t>Moxxi</t>
-        </is>
-      </c>
-      <c r="E19" s="427" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="427" t="n">
+      <c r="I26" s="604" t="n">
+        <v>6</v>
+      </c>
+      <c r="J26" s="62" t="n">
+        <v>6995</v>
+      </c>
+      <c r="K26" s="604" t="n">
+        <v>6</v>
+      </c>
+      <c r="L26" s="62" t="n">
+        <v>6055</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="605" t="inlineStr">
+        <is>
+          <t>#QU0U2Q99G</t>
+        </is>
+      </c>
+      <c r="B27" s="605" t="n">
+        <v>826</v>
+      </c>
+      <c r="C27" s="599" t="n">
+        <v>24</v>
+      </c>
+      <c r="D27" s="67" t="inlineStr">
+        <is>
+          <t>big coc</t>
+        </is>
+      </c>
+      <c r="E27" s="609" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="609" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="80" t="n">
+        <v>20</v>
+      </c>
+      <c r="I27" s="605" t="n"/>
+      <c r="J27" s="80" t="n"/>
+      <c r="K27" s="605" t="n"/>
+      <c r="L27" s="80" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="603" t="inlineStr">
+        <is>
+          <t>#L9JJQY992</t>
+        </is>
+      </c>
+      <c r="B28" s="603" t="n">
+        <v>812</v>
+      </c>
+      <c r="C28" s="595" t="n">
         <v>25</v>
       </c>
-      <c r="H19" s="74" t="n">
-        <v>154</v>
-      </c>
-      <c r="I19" s="426" t="n">
-        <v>6</v>
-      </c>
-      <c r="J19" s="73" t="n">
-        <v>7905</v>
-      </c>
-      <c r="K19" s="426" t="n">
-        <v>6</v>
-      </c>
-      <c r="L19" s="73" t="n">
-        <v>7224</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="428" t="inlineStr">
-        <is>
-          <t>#L8R82C8VC</t>
-        </is>
-      </c>
-      <c r="B20" s="428" t="n">
-        <v>1189</v>
-      </c>
-      <c r="C20" s="421" t="n">
-        <v>17</v>
-      </c>
-      <c r="D20" s="69" t="inlineStr">
-        <is>
-          <t>caden asue</t>
-        </is>
-      </c>
-      <c r="E20" s="433" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="433" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" s="63" t="n">
+      <c r="D28" s="69" t="inlineStr">
+        <is>
+          <t>Fisted_Waffle</t>
+        </is>
+      </c>
+      <c r="E28" s="607" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="607" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="607" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="603" t="n"/>
+      <c r="L28" s="63" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="605" t="inlineStr">
+        <is>
+          <t>#QV8JJ0URU</t>
+        </is>
+      </c>
+      <c r="B29" s="605" t="n">
+        <v>868</v>
+      </c>
+      <c r="C29" s="599" t="n">
         <v>26</v>
       </c>
-      <c r="I20" s="429" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" s="95" t="n">
-        <v>4283</v>
-      </c>
-      <c r="K20" s="429" t="n">
-        <v>6</v>
-      </c>
-      <c r="L20" s="95" t="n">
-        <v>4338</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="430" t="inlineStr">
-        <is>
-          <t>#PJYVV989R</t>
-        </is>
-      </c>
-      <c r="B21" s="430" t="n">
-        <v>1575</v>
-      </c>
-      <c r="C21" s="425" t="n">
-        <v>18</v>
-      </c>
-      <c r="D21" s="67" t="inlineStr">
-        <is>
-          <t>nx</t>
-        </is>
-      </c>
-      <c r="E21" s="434" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="434" t="n">
-        <v>20</v>
-      </c>
-      <c r="H21" s="80" t="n">
-        <v>31</v>
-      </c>
-      <c r="I21" s="434" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="430" t="n"/>
-      <c r="L21" s="80" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="420" t="inlineStr">
-        <is>
-          <t>#QUG8QQJ92</t>
-        </is>
-      </c>
-      <c r="B22" s="420" t="n">
-        <v>965</v>
-      </c>
-      <c r="C22" s="421" t="n">
-        <v>19</v>
-      </c>
-      <c r="D22" s="111" t="inlineStr">
-        <is>
-          <t>Karma</t>
-        </is>
-      </c>
-      <c r="E22" s="423" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="423" t="n">
-        <v>15</v>
-      </c>
-      <c r="H22" s="83" t="n">
-        <v>40</v>
-      </c>
-      <c r="I22" s="422" t="n">
-        <v>6</v>
-      </c>
-      <c r="J22" s="77" t="n">
-        <v>9240</v>
-      </c>
-      <c r="K22" s="422" t="n">
-        <v>6</v>
-      </c>
-      <c r="L22" s="77" t="n">
-        <v>10628</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="430" t="inlineStr">
-        <is>
-          <t>#QY8L2GLUR</t>
-        </is>
-      </c>
-      <c r="B23" s="430" t="n">
-        <v>938</v>
-      </c>
-      <c r="C23" s="425" t="n">
-        <v>20</v>
-      </c>
-      <c r="D23" s="67" t="inlineStr">
-        <is>
-          <t>Huy</t>
-        </is>
-      </c>
-      <c r="E23" s="434" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="434" t="n">
-        <v>15</v>
-      </c>
-      <c r="H23" s="80" t="n">
-        <v>40</v>
-      </c>
-      <c r="I23" s="431" t="n">
-        <v>6</v>
-      </c>
-      <c r="J23" s="66" t="n">
-        <v>6995</v>
-      </c>
-      <c r="K23" s="431" t="n">
-        <v>6</v>
-      </c>
-      <c r="L23" s="66" t="n">
-        <v>6055</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="420" t="inlineStr">
-        <is>
-          <t>#QLJ2U20Y2</t>
-        </is>
-      </c>
-      <c r="B24" s="420" t="n">
-        <v>1461</v>
-      </c>
-      <c r="C24" s="421" t="n">
-        <v>21</v>
-      </c>
-      <c r="D24" s="111" t="inlineStr">
-        <is>
-          <t>DeadLeaf</t>
-        </is>
-      </c>
-      <c r="E24" s="423" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="423" t="n">
-        <v>10</v>
-      </c>
-      <c r="H24" s="83" t="n">
-        <v>63</v>
-      </c>
-      <c r="I24" s="422" t="n">
-        <v>6</v>
-      </c>
-      <c r="J24" s="77" t="n">
-        <v>8567</v>
-      </c>
-      <c r="K24" s="422" t="n">
-        <v>6</v>
-      </c>
-      <c r="L24" s="77" t="n">
-        <v>9729</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="430" t="inlineStr">
-        <is>
-          <t>#L9QL9YQQY</t>
-        </is>
-      </c>
-      <c r="B25" s="430" t="n">
-        <v>929</v>
-      </c>
-      <c r="C25" s="425" t="n">
-        <v>22</v>
-      </c>
-      <c r="D25" s="67" t="inlineStr">
-        <is>
-          <t>Ima Chad</t>
-        </is>
-      </c>
-      <c r="E25" s="434" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="434" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="80" t="n">
-        <v>55</v>
-      </c>
-      <c r="I25" s="434" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="431" t="n">
-        <v>5</v>
-      </c>
-      <c r="L25" s="67" t="n">
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="428" t="inlineStr">
-        <is>
-          <t>#QJVL0LYQQ</t>
-        </is>
-      </c>
-      <c r="B26" s="428" t="n">
-        <v>905</v>
-      </c>
-      <c r="C26" s="421" t="n">
-        <v>23</v>
-      </c>
-      <c r="D26" s="69" t="inlineStr">
-        <is>
-          <t>mobbb341</t>
-        </is>
-      </c>
-      <c r="E26" s="433" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="433" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="429" t="n">
-        <v>6</v>
-      </c>
-      <c r="J26" s="62" t="n">
-        <v>8810</v>
-      </c>
-      <c r="K26" s="429" t="n">
-        <v>6</v>
-      </c>
-      <c r="L26" s="95" t="n">
-        <v>4505</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="430" t="inlineStr">
-        <is>
-          <t>#QV8JJ0URU</t>
-        </is>
-      </c>
-      <c r="B27" s="430" t="n">
-        <v>875</v>
-      </c>
-      <c r="C27" s="425" t="n">
-        <v>24</v>
-      </c>
-      <c r="D27" s="67" t="inlineStr">
+      <c r="D29" s="67" t="inlineStr">
         <is>
           <t>✨Jacob</t>
         </is>
       </c>
-      <c r="E27" s="434" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="434" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="431" t="n">
-        <v>6</v>
-      </c>
-      <c r="J27" s="66" t="n">
+      <c r="E29" s="609" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="609" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="606" t="n">
+        <v>6</v>
+      </c>
+      <c r="J29" s="66" t="n">
         <v>7385</v>
       </c>
-      <c r="K27" s="431" t="n">
-        <v>6</v>
-      </c>
-      <c r="L27" s="66" t="n">
+      <c r="K29" s="606" t="n">
+        <v>6</v>
+      </c>
+      <c r="L29" s="66" t="n">
         <v>9155</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="428" t="inlineStr">
-        <is>
-          <t>#QU0U2Q99G</t>
-        </is>
-      </c>
-      <c r="B28" s="428" t="n">
-        <v>834</v>
-      </c>
-      <c r="C28" s="421" t="n">
-        <v>25</v>
-      </c>
-      <c r="D28" s="69" t="inlineStr">
-        <is>
-          <t>big coc</t>
-        </is>
-      </c>
-      <c r="E28" s="433" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="433" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="428" t="n"/>
-      <c r="J28" s="63" t="n"/>
-      <c r="K28" s="428" t="n"/>
-      <c r="L28" s="63" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="430" t="inlineStr">
-        <is>
-          <t>#L9JJQY992</t>
-        </is>
-      </c>
-      <c r="B29" s="430" t="n">
-        <v>812</v>
-      </c>
-      <c r="C29" s="425" t="n">
-        <v>26</v>
-      </c>
-      <c r="D29" s="67" t="inlineStr">
-        <is>
-          <t>Fisted_Waffle</t>
-        </is>
-      </c>
-      <c r="E29" s="434" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="434" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="434" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="430" t="n"/>
-      <c r="L29" s="80" t="n"/>
-    </row>
     <row r="30">
-      <c r="A30" s="428" t="inlineStr">
+      <c r="A30" s="603" t="inlineStr">
         <is>
           <t>#QL8LVLYG8</t>
         </is>
       </c>
-      <c r="B30" s="428" t="n">
-        <v>932</v>
-      </c>
-      <c r="C30" s="421" t="n">
+      <c r="B30" s="603" t="n">
+        <v>943</v>
+      </c>
+      <c r="C30" s="595" t="n">
         <v>27</v>
       </c>
       <c r="D30" s="69" t="inlineStr">
@@ -2300,25 +2507,25 @@
           <t>Some guy</t>
         </is>
       </c>
-      <c r="E30" s="433" t="n">
+      <c r="E30" s="607" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="G30" s="433" t="n">
+      <c r="G30" s="607" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="I30" s="433" t="n">
+      <c r="I30" s="607" t="n">
         <v>0</v>
       </c>
       <c r="J30" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="K30" s="433" t="n">
+      <c r="K30" s="607" t="n">
         <v>2</v>
       </c>
       <c r="L30" s="69" t="n">
@@ -2326,167 +2533,167 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="430" t="inlineStr">
+      <c r="A31" s="605" t="inlineStr">
+        <is>
+          <t>#98JG2UJQL</t>
+        </is>
+      </c>
+      <c r="B31" s="605" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C31" s="599" t="n">
+        <v>28</v>
+      </c>
+      <c r="D31" s="67" t="inlineStr">
+        <is>
+          <t>Dragonux</t>
+        </is>
+      </c>
+      <c r="E31" s="609" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="609" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="606" t="n">
+        <v>6</v>
+      </c>
+      <c r="J31" s="66" t="n">
+        <v>8025</v>
+      </c>
+      <c r="K31" s="606" t="n">
+        <v>6</v>
+      </c>
+      <c r="L31" s="66" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="603" t="inlineStr">
+        <is>
+          <t>#LPR9RPCY9</t>
+        </is>
+      </c>
+      <c r="B32" s="603" t="n">
+        <v>970</v>
+      </c>
+      <c r="C32" s="595" t="n">
+        <v>29</v>
+      </c>
+      <c r="D32" s="69" t="inlineStr">
+        <is>
+          <t>sayhuss17</t>
+        </is>
+      </c>
+      <c r="E32" s="607" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="607" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="610" t="n">
+        <v>4</v>
+      </c>
+      <c r="J32" s="95" t="n">
+        <v>4240</v>
+      </c>
+      <c r="K32" s="603" t="n"/>
+      <c r="L32" s="63" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="605" t="inlineStr">
         <is>
           <t>#L2QQL9QVJ</t>
         </is>
       </c>
-      <c r="B31" s="430" t="n">
-        <v>1529</v>
-      </c>
-      <c r="C31" s="425" t="n">
-        <v>28</v>
-      </c>
-      <c r="D31" s="67" t="inlineStr">
+      <c r="B33" s="605" t="n">
+        <v>1501</v>
+      </c>
+      <c r="C33" s="599" t="n">
+        <v>30</v>
+      </c>
+      <c r="D33" s="67" t="inlineStr">
         <is>
           <t>JustPre10d</t>
         </is>
       </c>
-      <c r="E31" s="434" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="434" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="431" t="n">
-        <v>6</v>
-      </c>
-      <c r="J31" s="66" t="n">
+      <c r="E33" s="609" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="609" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="606" t="n">
+        <v>6</v>
+      </c>
+      <c r="J33" s="66" t="n">
         <v>6655</v>
       </c>
-      <c r="K31" s="431" t="n">
-        <v>6</v>
-      </c>
-      <c r="L31" s="66" t="n">
+      <c r="K33" s="606" t="n">
+        <v>6</v>
+      </c>
+      <c r="L33" s="66" t="n">
         <v>7675</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="428" t="inlineStr">
-        <is>
-          <t>#98JG2UJQL</t>
-        </is>
-      </c>
-      <c r="B32" s="428" t="n">
-        <v>2978</v>
-      </c>
-      <c r="C32" s="421" t="n">
-        <v>29</v>
-      </c>
-      <c r="D32" s="69" t="inlineStr">
-        <is>
-          <t>Dragonux</t>
-        </is>
-      </c>
-      <c r="E32" s="433" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="433" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="429" t="n">
-        <v>6</v>
-      </c>
-      <c r="J32" s="62" t="n">
-        <v>8025</v>
-      </c>
-      <c r="K32" s="429" t="n">
-        <v>6</v>
-      </c>
-      <c r="L32" s="62" t="n">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="430" t="inlineStr">
-        <is>
-          <t>#LPR9RPCY9</t>
-        </is>
-      </c>
-      <c r="B33" s="430" t="n">
-        <v>970</v>
-      </c>
-      <c r="C33" s="425" t="n">
-        <v>30</v>
-      </c>
-      <c r="D33" s="67" t="inlineStr">
-        <is>
-          <t>sayhuss17</t>
-        </is>
-      </c>
-      <c r="E33" s="434" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="434" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="432" t="n">
-        <v>4</v>
-      </c>
-      <c r="J33" s="82" t="n">
-        <v>4240</v>
-      </c>
-      <c r="K33" s="430" t="n"/>
-      <c r="L33" s="80" t="n"/>
-    </row>
     <row r="34">
-      <c r="A34" s="428" t="inlineStr">
-        <is>
-          <t>#82QLQCJRJ</t>
-        </is>
-      </c>
-      <c r="B34" s="428" t="n">
-        <v>2950</v>
-      </c>
-      <c r="C34" s="421" t="n">
+      <c r="A34" s="603" t="inlineStr">
+        <is>
+          <t>#L9QL9YQQY</t>
+        </is>
+      </c>
+      <c r="B34" s="603" t="n">
+        <v>929</v>
+      </c>
+      <c r="C34" s="595" t="n">
         <v>31</v>
       </c>
       <c r="D34" s="69" t="inlineStr">
         <is>
-          <t>Raging Fury</t>
-        </is>
-      </c>
-      <c r="E34" s="433" t="n">
+          <t>Ima Chad</t>
+        </is>
+      </c>
+      <c r="E34" s="607" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="G34" s="433" t="n">
+      <c r="G34" s="607" t="n">
         <v>0</v>
       </c>
       <c r="H34" s="63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="429" t="n">
-        <v>6</v>
-      </c>
-      <c r="J34" s="95" t="n">
-        <v>4920</v>
-      </c>
-      <c r="K34" s="429" t="n">
-        <v>6</v>
-      </c>
-      <c r="L34" s="95" t="n">
-        <v>5135</v>
+        <v>55</v>
+      </c>
+      <c r="I34" s="607" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="604" t="n">
+        <v>5</v>
+      </c>
+      <c r="L34" s="69" t="n">
+        <v>3360</v>
       </c>
     </row>
     <row r="35">
@@ -2520,15 +2727,15 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="433" t="inlineStr">
+      <c r="A36" s="607" t="inlineStr">
         <is>
           <t>#QV0PQC9JU</t>
         </is>
       </c>
-      <c r="B36" s="428" t="n">
+      <c r="B36" s="603" t="n">
         <v>539</v>
       </c>
-      <c r="C36" s="421" t="n">
+      <c r="C36" s="595" t="n">
         <v>33</v>
       </c>
       <c r="D36" s="63" t="inlineStr">
@@ -2536,13 +2743,13 @@
           <t>Superman</t>
         </is>
       </c>
-      <c r="E36" s="428" t="n"/>
+      <c r="E36" s="603" t="n"/>
       <c r="F36" s="63" t="n"/>
-      <c r="G36" s="428" t="n"/>
+      <c r="G36" s="603" t="n"/>
       <c r="H36" s="63" t="n"/>
-      <c r="I36" s="428" t="n"/>
+      <c r="I36" s="603" t="n"/>
       <c r="J36" s="63" t="n"/>
-      <c r="K36" s="429" t="n">
+      <c r="K36" s="604" t="n">
         <v>6</v>
       </c>
       <c r="L36" s="95" t="n">
@@ -2550,15 +2757,15 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="434" t="inlineStr">
+      <c r="A37" s="609" t="inlineStr">
         <is>
           <t>#LU0CRP09L</t>
         </is>
       </c>
-      <c r="B37" s="430" t="n">
+      <c r="B37" s="605" t="n">
         <v>809</v>
       </c>
-      <c r="C37" s="425" t="n">
+      <c r="C37" s="599" t="n">
         <v>34</v>
       </c>
       <c r="D37" s="80" t="inlineStr">
@@ -2566,13 +2773,13 @@
           <t>I Dont Know</t>
         </is>
       </c>
-      <c r="E37" s="430" t="n"/>
+      <c r="E37" s="605" t="n"/>
       <c r="F37" s="80" t="n"/>
-      <c r="G37" s="430" t="n"/>
+      <c r="G37" s="605" t="n"/>
       <c r="H37" s="80" t="n"/>
-      <c r="I37" s="430" t="n"/>
+      <c r="I37" s="605" t="n"/>
       <c r="J37" s="80" t="n"/>
-      <c r="K37" s="432" t="n">
+      <c r="K37" s="608" t="n">
         <v>3</v>
       </c>
       <c r="L37" s="67" t="n">
@@ -2580,15 +2787,15 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="433" t="inlineStr">
+      <c r="A38" s="607" t="inlineStr">
         <is>
           <t>#YCPP0QPP8</t>
         </is>
       </c>
-      <c r="B38" s="428" t="n">
+      <c r="B38" s="603" t="n">
         <v>3327</v>
       </c>
-      <c r="C38" s="421" t="n">
+      <c r="C38" s="595" t="n">
         <v>35</v>
       </c>
       <c r="D38" s="63" t="inlineStr">
@@ -2596,13 +2803,13 @@
           <t>Coach</t>
         </is>
       </c>
-      <c r="E38" s="428" t="n"/>
+      <c r="E38" s="603" t="n"/>
       <c r="F38" s="63" t="n"/>
-      <c r="G38" s="428" t="n"/>
+      <c r="G38" s="603" t="n"/>
       <c r="H38" s="63" t="n"/>
-      <c r="I38" s="428" t="n"/>
+      <c r="I38" s="603" t="n"/>
       <c r="J38" s="63" t="n"/>
-      <c r="K38" s="433" t="n">
+      <c r="K38" s="607" t="n">
         <v>0</v>
       </c>
       <c r="L38" s="69" t="n">
@@ -2705,61 +2912,61 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="408" t="inlineStr">
+      <c r="B4" s="582" t="inlineStr">
         <is>
           <t>#P2CPRPQU</t>
         </is>
       </c>
-      <c r="C4" s="408" t="n">
+      <c r="C4" s="582" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="409" t="inlineStr">
+      <c r="D4" s="583" t="inlineStr">
         <is>
           <t>The Drift King</t>
         </is>
       </c>
-      <c r="E4" s="409" t="n">
+      <c r="E4" s="583" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="62" t="n">
         <v>6</v>
       </c>
-      <c r="G4" s="409" t="n">
+      <c r="G4" s="583" t="n">
         <v>2</v>
       </c>
       <c r="H4" s="62" t="n">
         <v>6</v>
       </c>
-      <c r="I4" s="408" t="n"/>
+      <c r="I4" s="582" t="n"/>
       <c r="J4" s="63" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="410" t="inlineStr">
+      <c r="B5" s="584" t="inlineStr">
         <is>
           <t>#UVCCQC02</t>
         </is>
       </c>
-      <c r="C5" s="410" t="n">
+      <c r="C5" s="584" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="411" t="inlineStr">
+      <c r="D5" s="585" t="inlineStr">
         <is>
           <t>lordshisha</t>
         </is>
       </c>
-      <c r="E5" s="411" t="n">
+      <c r="E5" s="585" t="n">
         <v>2</v>
       </c>
       <c r="F5" s="66" t="n">
         <v>6</v>
       </c>
-      <c r="G5" s="411" t="n">
+      <c r="G5" s="585" t="n">
         <v>2</v>
       </c>
       <c r="H5" s="82" t="n">
         <v>3</v>
       </c>
-      <c r="I5" s="411" t="n">
+      <c r="I5" s="585" t="n">
         <v>2</v>
       </c>
       <c r="J5" s="67" t="n">
@@ -2767,90 +2974,90 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="408" t="inlineStr">
+      <c r="B6" s="582" t="inlineStr">
         <is>
           <t>#PJYVV989R</t>
         </is>
       </c>
-      <c r="C6" s="408" t="n">
+      <c r="C6" s="582" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="412" t="inlineStr">
+      <c r="D6" s="586" t="inlineStr">
         <is>
           <t>nx</t>
         </is>
       </c>
-      <c r="E6" s="412" t="n">
+      <c r="E6" s="586" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="95" t="n">
         <v>3</v>
       </c>
-      <c r="G6" s="412" t="n">
+      <c r="G6" s="586" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="95" t="n">
         <v>3</v>
       </c>
-      <c r="I6" s="408" t="n"/>
+      <c r="I6" s="582" t="n"/>
       <c r="J6" s="63" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="413" t="inlineStr">
+      <c r="B7" s="587" t="inlineStr">
         <is>
           <t>#YRGRRJQCY</t>
         </is>
       </c>
-      <c r="C7" s="413" t="n">
+      <c r="C7" s="587" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="414" t="inlineStr">
+      <c r="D7" s="588" t="inlineStr">
         <is>
           <t>DoubleSpice</t>
         </is>
       </c>
-      <c r="E7" s="414" t="n">
+      <c r="E7" s="588" t="n">
         <v>2</v>
       </c>
       <c r="F7" s="73" t="n">
         <v>5</v>
       </c>
-      <c r="G7" s="414" t="n">
+      <c r="G7" s="588" t="n">
         <v>2</v>
       </c>
       <c r="H7" s="73" t="n">
         <v>6</v>
       </c>
-      <c r="I7" s="413" t="n"/>
+      <c r="I7" s="587" t="n"/>
       <c r="J7" s="74" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="415" t="inlineStr">
+      <c r="B8" s="589" t="inlineStr">
         <is>
           <t>#YJ20CRJYQ</t>
         </is>
       </c>
-      <c r="C8" s="415" t="n">
+      <c r="C8" s="589" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="416" t="inlineStr">
+      <c r="D8" s="590" t="inlineStr">
         <is>
           <t>UnluckGod</t>
         </is>
       </c>
-      <c r="E8" s="416" t="n">
+      <c r="E8" s="590" t="n">
         <v>2</v>
       </c>
       <c r="F8" s="77" t="n">
         <v>6</v>
       </c>
-      <c r="G8" s="416" t="n">
+      <c r="G8" s="590" t="n">
         <v>2</v>
       </c>
       <c r="H8" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="I8" s="416" t="n">
+      <c r="I8" s="590" t="n">
         <v>2</v>
       </c>
       <c r="J8" s="77" t="n">
@@ -2858,32 +3065,32 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="413" t="inlineStr">
+      <c r="B9" s="587" t="inlineStr">
         <is>
           <t>#QLJ2U20Y2</t>
         </is>
       </c>
-      <c r="C9" s="413" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" s="414" t="inlineStr">
+      <c r="C9" s="587" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" s="588" t="inlineStr">
         <is>
           <t>DeadLeaf</t>
         </is>
       </c>
-      <c r="E9" s="414" t="n">
+      <c r="E9" s="588" t="n">
         <v>2</v>
       </c>
       <c r="F9" s="73" t="n">
         <v>5</v>
       </c>
-      <c r="G9" s="414" t="n">
+      <c r="G9" s="588" t="n">
         <v>2</v>
       </c>
       <c r="H9" s="73" t="n">
         <v>5</v>
       </c>
-      <c r="I9" s="414" t="n">
+      <c r="I9" s="588" t="n">
         <v>2</v>
       </c>
       <c r="J9" s="73" t="n">
@@ -2891,32 +3098,32 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="415" t="inlineStr">
+      <c r="B10" s="589" t="inlineStr">
         <is>
           <t>#Q8CLCUCC2</t>
         </is>
       </c>
-      <c r="C10" s="415" t="n">
+      <c r="C10" s="589" t="n">
         <v>7</v>
       </c>
-      <c r="D10" s="416" t="inlineStr">
+      <c r="D10" s="590" t="inlineStr">
         <is>
           <t>Moxxi</t>
         </is>
       </c>
-      <c r="E10" s="416" t="n">
+      <c r="E10" s="590" t="n">
         <v>2</v>
       </c>
       <c r="F10" s="77" t="n">
         <v>6</v>
       </c>
-      <c r="G10" s="416" t="n">
+      <c r="G10" s="590" t="n">
         <v>2</v>
       </c>
       <c r="H10" s="77" t="n">
         <v>5</v>
       </c>
-      <c r="I10" s="416" t="n">
+      <c r="I10" s="590" t="n">
         <v>2</v>
       </c>
       <c r="J10" s="77" t="n">
@@ -2924,162 +3131,162 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="410" t="inlineStr">
+      <c r="B11" s="584" t="inlineStr">
         <is>
           <t>#LPR9RPCY9</t>
         </is>
       </c>
-      <c r="C11" s="410" t="n">
+      <c r="C11" s="584" t="n">
         <v>8</v>
       </c>
-      <c r="D11" s="417" t="inlineStr">
+      <c r="D11" s="591" t="inlineStr">
         <is>
           <t>sayhuss17</t>
         </is>
       </c>
-      <c r="E11" s="417" t="n">
+      <c r="E11" s="591" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="417" t="n">
+      <c r="G11" s="591" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="410" t="n"/>
+      <c r="I11" s="584" t="n"/>
       <c r="J11" s="80" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="408" t="inlineStr">
+      <c r="B12" s="582" t="inlineStr">
         <is>
           <t>#QY8L2GLUR</t>
         </is>
       </c>
-      <c r="C12" s="408" t="n">
+      <c r="C12" s="582" t="n">
         <v>9</v>
       </c>
-      <c r="D12" s="418" t="inlineStr">
+      <c r="D12" s="592" t="inlineStr">
         <is>
           <t>Huy</t>
         </is>
       </c>
-      <c r="E12" s="418" t="n">
+      <c r="E12" s="592" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="408" t="n"/>
+      <c r="G12" s="582" t="n"/>
       <c r="H12" s="63" t="n"/>
-      <c r="I12" s="408" t="n"/>
+      <c r="I12" s="582" t="n"/>
       <c r="J12" s="63" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="410" t="inlineStr">
+      <c r="B13" s="584" t="inlineStr">
         <is>
           <t>#QJC8LQU9U</t>
         </is>
       </c>
-      <c r="C13" s="410" t="n">
+      <c r="C13" s="584" t="n">
         <v>10</v>
       </c>
-      <c r="D13" s="411" t="inlineStr">
+      <c r="D13" s="585" t="inlineStr">
         <is>
           <t>Master01</t>
         </is>
       </c>
-      <c r="E13" s="411" t="n">
+      <c r="E13" s="585" t="n">
         <v>2</v>
       </c>
       <c r="F13" s="66" t="n">
         <v>4</v>
       </c>
-      <c r="G13" s="410" t="n"/>
+      <c r="G13" s="584" t="n"/>
       <c r="H13" s="80" t="n"/>
-      <c r="I13" s="410" t="n"/>
+      <c r="I13" s="584" t="n"/>
       <c r="J13" s="80" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" s="408" t="inlineStr">
+      <c r="B14" s="582" t="inlineStr">
         <is>
           <t>#98JG2UJQL</t>
         </is>
       </c>
-      <c r="C14" s="408" t="n"/>
-      <c r="D14" s="408" t="inlineStr">
+      <c r="C14" s="582" t="n"/>
+      <c r="D14" s="582" t="inlineStr">
         <is>
           <t>Dragonux</t>
         </is>
       </c>
-      <c r="E14" s="408" t="n"/>
+      <c r="E14" s="582" t="n"/>
       <c r="F14" s="63" t="n"/>
-      <c r="G14" s="408" t="n"/>
+      <c r="G14" s="582" t="n"/>
       <c r="H14" s="63" t="n"/>
-      <c r="I14" s="408" t="n"/>
+      <c r="I14" s="582" t="n"/>
       <c r="J14" s="63" t="n"/>
     </row>
     <row r="15">
-      <c r="B15" s="410" t="inlineStr">
+      <c r="B15" s="584" t="inlineStr">
         <is>
           <t>#82QLQCJRJ</t>
         </is>
       </c>
-      <c r="C15" s="410" t="n"/>
-      <c r="D15" s="410" t="inlineStr">
+      <c r="C15" s="584" t="n"/>
+      <c r="D15" s="584" t="inlineStr">
         <is>
           <t>Raging Fury</t>
         </is>
       </c>
-      <c r="E15" s="410" t="n"/>
+      <c r="E15" s="584" t="n"/>
       <c r="F15" s="80" t="n"/>
-      <c r="G15" s="410" t="n"/>
+      <c r="G15" s="584" t="n"/>
       <c r="H15" s="80" t="n"/>
-      <c r="I15" s="410" t="n"/>
+      <c r="I15" s="584" t="n"/>
       <c r="J15" s="80" t="n"/>
     </row>
     <row r="16">
-      <c r="B16" s="415" t="inlineStr">
+      <c r="B16" s="589" t="inlineStr">
         <is>
           <t>#90U0VPU9U</t>
         </is>
       </c>
-      <c r="C16" s="415" t="n"/>
-      <c r="D16" s="415" t="inlineStr">
+      <c r="C16" s="589" t="n"/>
+      <c r="D16" s="589" t="inlineStr">
         <is>
           <t>KYANI7E</t>
         </is>
       </c>
-      <c r="E16" s="415" t="n"/>
+      <c r="E16" s="589" t="n"/>
       <c r="F16" s="83" t="n"/>
-      <c r="G16" s="415" t="n"/>
+      <c r="G16" s="589" t="n"/>
       <c r="H16" s="83" t="n"/>
-      <c r="I16" s="415" t="n"/>
+      <c r="I16" s="589" t="n"/>
       <c r="J16" s="83" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="410" t="inlineStr">
+      <c r="B17" s="584" t="inlineStr">
         <is>
           <t>#L2QQL9QVJ</t>
         </is>
       </c>
-      <c r="C17" s="410" t="n"/>
-      <c r="D17" s="410" t="inlineStr">
+      <c r="C17" s="584" t="n"/>
+      <c r="D17" s="584" t="inlineStr">
         <is>
           <t>JustPre10d</t>
         </is>
       </c>
-      <c r="E17" s="410" t="n"/>
+      <c r="E17" s="584" t="n"/>
       <c r="F17" s="80" t="n"/>
-      <c r="G17" s="417" t="n">
+      <c r="G17" s="591" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="419" t="n">
+      <c r="I17" s="593" t="n">
         <v>1</v>
       </c>
       <c r="J17" s="67" t="n">
@@ -3087,331 +3294,331 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="408" t="inlineStr">
+      <c r="B18" s="582" t="inlineStr">
         <is>
           <t>#G0JPUQGYR</t>
         </is>
       </c>
-      <c r="C18" s="408" t="n"/>
-      <c r="D18" s="408" t="inlineStr">
+      <c r="C18" s="582" t="n"/>
+      <c r="D18" s="582" t="inlineStr">
         <is>
           <t>Collin</t>
         </is>
       </c>
-      <c r="E18" s="408" t="n"/>
+      <c r="E18" s="582" t="n"/>
       <c r="F18" s="63" t="n"/>
-      <c r="G18" s="408" t="n"/>
+      <c r="G18" s="582" t="n"/>
       <c r="H18" s="63" t="n"/>
-      <c r="I18" s="408" t="n"/>
+      <c r="I18" s="582" t="n"/>
       <c r="J18" s="63" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="410" t="inlineStr">
+      <c r="B19" s="584" t="inlineStr">
+        <is>
+          <t>#QQL8C29CY</t>
+        </is>
+      </c>
+      <c r="C19" s="584" t="n"/>
+      <c r="D19" s="584" t="inlineStr">
+        <is>
+          <t>TypicalTeague#2</t>
+        </is>
+      </c>
+      <c r="E19" s="584" t="n"/>
+      <c r="F19" s="80" t="n"/>
+      <c r="G19" s="584" t="n"/>
+      <c r="H19" s="80" t="n"/>
+      <c r="I19" s="584" t="n"/>
+      <c r="J19" s="80" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="582" t="inlineStr">
+        <is>
+          <t>#Q0JG2RJQ8</t>
+        </is>
+      </c>
+      <c r="C20" s="582" t="n"/>
+      <c r="D20" s="582" t="inlineStr">
+        <is>
+          <t>bozo</t>
+        </is>
+      </c>
+      <c r="E20" s="582" t="n"/>
+      <c r="F20" s="63" t="n"/>
+      <c r="G20" s="582" t="n"/>
+      <c r="H20" s="63" t="n"/>
+      <c r="I20" s="582" t="n"/>
+      <c r="J20" s="63" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="584" t="inlineStr">
+        <is>
+          <t>#QRPRYR8LL</t>
+        </is>
+      </c>
+      <c r="C21" s="584" t="n"/>
+      <c r="D21" s="584" t="inlineStr">
+        <is>
+          <t>FidelCashflow</t>
+        </is>
+      </c>
+      <c r="E21" s="584" t="n"/>
+      <c r="F21" s="80" t="n"/>
+      <c r="G21" s="584" t="n"/>
+      <c r="H21" s="80" t="n"/>
+      <c r="I21" s="584" t="n"/>
+      <c r="J21" s="80" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="589" t="inlineStr">
+        <is>
+          <t>#QUG8QQJ92</t>
+        </is>
+      </c>
+      <c r="C22" s="589" t="n"/>
+      <c r="D22" s="589" t="inlineStr">
+        <is>
+          <t>Karma</t>
+        </is>
+      </c>
+      <c r="E22" s="589" t="n"/>
+      <c r="F22" s="83" t="n"/>
+      <c r="G22" s="589" t="n"/>
+      <c r="H22" s="83" t="n"/>
+      <c r="I22" s="589" t="n"/>
+      <c r="J22" s="83" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="584" t="inlineStr">
+        <is>
+          <t>#QL8LVLYG8</t>
+        </is>
+      </c>
+      <c r="C23" s="584" t="n"/>
+      <c r="D23" s="584" t="inlineStr">
+        <is>
+          <t>Some guy</t>
+        </is>
+      </c>
+      <c r="E23" s="584" t="n"/>
+      <c r="F23" s="80" t="n"/>
+      <c r="G23" s="584" t="n"/>
+      <c r="H23" s="80" t="n"/>
+      <c r="I23" s="584" t="n"/>
+      <c r="J23" s="80" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="582" t="inlineStr">
+        <is>
+          <t>#L9QL9YQQY</t>
+        </is>
+      </c>
+      <c r="C24" s="582" t="n"/>
+      <c r="D24" s="582" t="inlineStr">
+        <is>
+          <t>Ima Chad</t>
+        </is>
+      </c>
+      <c r="E24" s="582" t="n"/>
+      <c r="F24" s="63" t="n"/>
+      <c r="G24" s="582" t="n"/>
+      <c r="H24" s="63" t="n"/>
+      <c r="I24" s="582" t="n"/>
+      <c r="J24" s="63" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="584" t="inlineStr">
+        <is>
+          <t>#QJVL0LYQQ</t>
+        </is>
+      </c>
+      <c r="C25" s="584" t="n"/>
+      <c r="D25" s="584" t="inlineStr">
+        <is>
+          <t>mobbb341</t>
+        </is>
+      </c>
+      <c r="E25" s="584" t="n"/>
+      <c r="F25" s="80" t="n"/>
+      <c r="G25" s="584" t="n"/>
+      <c r="H25" s="80" t="n"/>
+      <c r="I25" s="584" t="n"/>
+      <c r="J25" s="80" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="582" t="inlineStr">
+        <is>
+          <t>#QV8JJ0URU</t>
+        </is>
+      </c>
+      <c r="C26" s="582" t="n"/>
+      <c r="D26" s="582" t="inlineStr">
+        <is>
+          <t>✨Jacob</t>
+        </is>
+      </c>
+      <c r="E26" s="582" t="n"/>
+      <c r="F26" s="63" t="n"/>
+      <c r="G26" s="592" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="582" t="n"/>
+      <c r="J26" s="63" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="584" t="inlineStr">
+        <is>
+          <t>#QU0U2Q99G</t>
+        </is>
+      </c>
+      <c r="C27" s="584" t="n"/>
+      <c r="D27" s="584" t="inlineStr">
+        <is>
+          <t>big coc</t>
+        </is>
+      </c>
+      <c r="E27" s="584" t="n"/>
+      <c r="F27" s="80" t="n"/>
+      <c r="G27" s="584" t="n"/>
+      <c r="H27" s="80" t="n"/>
+      <c r="I27" s="584" t="n"/>
+      <c r="J27" s="80" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="582" t="inlineStr">
+        <is>
+          <t>#L9JJQY992</t>
+        </is>
+      </c>
+      <c r="C28" s="582" t="n"/>
+      <c r="D28" s="582" t="inlineStr">
+        <is>
+          <t>Fisted_Waffle</t>
+        </is>
+      </c>
+      <c r="E28" s="582" t="n"/>
+      <c r="F28" s="63" t="n"/>
+      <c r="G28" s="582" t="n"/>
+      <c r="H28" s="63" t="n"/>
+      <c r="I28" s="582" t="n"/>
+      <c r="J28" s="63" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="587" t="inlineStr">
+        <is>
+          <t>#QLR088LC9</t>
+        </is>
+      </c>
+      <c r="C29" s="587" t="n"/>
+      <c r="D29" s="587" t="inlineStr">
+        <is>
+          <t>Sanji</t>
+        </is>
+      </c>
+      <c r="E29" s="587" t="n"/>
+      <c r="F29" s="74" t="n"/>
+      <c r="G29" s="587" t="n"/>
+      <c r="H29" s="74" t="n"/>
+      <c r="I29" s="587" t="n"/>
+      <c r="J29" s="74" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="589" t="inlineStr">
+        <is>
+          <t>#QUYG0PQC8</t>
+        </is>
+      </c>
+      <c r="C30" s="589" t="n"/>
+      <c r="D30" s="589" t="inlineStr">
+        <is>
+          <t>Luffy</t>
+        </is>
+      </c>
+      <c r="E30" s="589" t="n"/>
+      <c r="F30" s="83" t="n"/>
+      <c r="G30" s="589" t="n"/>
+      <c r="H30" s="83" t="n"/>
+      <c r="I30" s="589" t="n"/>
+      <c r="J30" s="83" t="n"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="587" t="inlineStr">
+        <is>
+          <t>#QCV22VP0G</t>
+        </is>
+      </c>
+      <c r="C31" s="587" t="n"/>
+      <c r="D31" s="587" t="inlineStr">
+        <is>
+          <t>Nami</t>
+        </is>
+      </c>
+      <c r="E31" s="587" t="n"/>
+      <c r="F31" s="74" t="n"/>
+      <c r="G31" s="587" t="n"/>
+      <c r="H31" s="74" t="n"/>
+      <c r="I31" s="587" t="n"/>
+      <c r="J31" s="74" t="n"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="589" t="inlineStr">
+        <is>
+          <t>#G0QPVJY9L</t>
+        </is>
+      </c>
+      <c r="C32" s="589" t="n"/>
+      <c r="D32" s="589" t="inlineStr">
+        <is>
+          <t>Zoro</t>
+        </is>
+      </c>
+      <c r="E32" s="589" t="n"/>
+      <c r="F32" s="83" t="n"/>
+      <c r="G32" s="589" t="n"/>
+      <c r="H32" s="83" t="n"/>
+      <c r="I32" s="589" t="n"/>
+      <c r="J32" s="83" t="n"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="587" t="inlineStr">
+        <is>
+          <t>#QUV2GP88U</t>
+        </is>
+      </c>
+      <c r="C33" s="587" t="n"/>
+      <c r="D33" s="587" t="inlineStr">
+        <is>
+          <t>Nico Robin</t>
+        </is>
+      </c>
+      <c r="E33" s="587" t="n"/>
+      <c r="F33" s="74" t="n"/>
+      <c r="G33" s="587" t="n"/>
+      <c r="H33" s="74" t="n"/>
+      <c r="I33" s="587" t="n"/>
+      <c r="J33" s="74" t="n"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="592" t="inlineStr">
         <is>
           <t>#L8R82C8VC</t>
         </is>
       </c>
-      <c r="C19" s="410" t="n"/>
-      <c r="D19" s="410" t="inlineStr">
+      <c r="C34" s="582" t="n"/>
+      <c r="D34" s="582" t="inlineStr">
         <is>
           <t>caden asue</t>
         </is>
       </c>
-      <c r="E19" s="410" t="n"/>
-      <c r="F19" s="80" t="n"/>
-      <c r="G19" s="410" t="n"/>
-      <c r="H19" s="80" t="n"/>
-      <c r="I19" s="410" t="n"/>
-      <c r="J19" s="80" t="n"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="408" t="inlineStr">
-        <is>
-          <t>#Q0JG2RJQ8</t>
-        </is>
-      </c>
-      <c r="C20" s="408" t="n"/>
-      <c r="D20" s="408" t="inlineStr">
-        <is>
-          <t>bozo</t>
-        </is>
-      </c>
-      <c r="E20" s="408" t="n"/>
-      <c r="F20" s="63" t="n"/>
-      <c r="G20" s="408" t="n"/>
-      <c r="H20" s="63" t="n"/>
-      <c r="I20" s="408" t="n"/>
-      <c r="J20" s="63" t="n"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="410" t="inlineStr">
-        <is>
-          <t>#QQL8C29CY</t>
-        </is>
-      </c>
-      <c r="C21" s="410" t="n"/>
-      <c r="D21" s="410" t="inlineStr">
-        <is>
-          <t>TypicalTeague#2</t>
-        </is>
-      </c>
-      <c r="E21" s="410" t="n"/>
-      <c r="F21" s="80" t="n"/>
-      <c r="G21" s="410" t="n"/>
-      <c r="H21" s="80" t="n"/>
-      <c r="I21" s="410" t="n"/>
-      <c r="J21" s="80" t="n"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="408" t="inlineStr">
-        <is>
-          <t>#QRPRYR8LL</t>
-        </is>
-      </c>
-      <c r="C22" s="408" t="n"/>
-      <c r="D22" s="408" t="inlineStr">
-        <is>
-          <t>FidelCashflow</t>
-        </is>
-      </c>
-      <c r="E22" s="408" t="n"/>
-      <c r="F22" s="63" t="n"/>
-      <c r="G22" s="408" t="n"/>
-      <c r="H22" s="63" t="n"/>
-      <c r="I22" s="408" t="n"/>
-      <c r="J22" s="63" t="n"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="413" t="inlineStr">
-        <is>
-          <t>#QUG8QQJ92</t>
-        </is>
-      </c>
-      <c r="C23" s="413" t="n"/>
-      <c r="D23" s="413" t="inlineStr">
-        <is>
-          <t>Karma</t>
-        </is>
-      </c>
-      <c r="E23" s="413" t="n"/>
-      <c r="F23" s="74" t="n"/>
-      <c r="G23" s="413" t="n"/>
-      <c r="H23" s="74" t="n"/>
-      <c r="I23" s="413" t="n"/>
-      <c r="J23" s="74" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="408" t="inlineStr">
-        <is>
-          <t>#QL8LVLYG8</t>
-        </is>
-      </c>
-      <c r="C24" s="408" t="n"/>
-      <c r="D24" s="408" t="inlineStr">
-        <is>
-          <t>Some guy</t>
-        </is>
-      </c>
-      <c r="E24" s="408" t="n"/>
-      <c r="F24" s="63" t="n"/>
-      <c r="G24" s="408" t="n"/>
-      <c r="H24" s="63" t="n"/>
-      <c r="I24" s="408" t="n"/>
-      <c r="J24" s="63" t="n"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="410" t="inlineStr">
-        <is>
-          <t>#L9QL9YQQY</t>
-        </is>
-      </c>
-      <c r="C25" s="410" t="n"/>
-      <c r="D25" s="410" t="inlineStr">
-        <is>
-          <t>Ima Chad</t>
-        </is>
-      </c>
-      <c r="E25" s="410" t="n"/>
-      <c r="F25" s="80" t="n"/>
-      <c r="G25" s="410" t="n"/>
-      <c r="H25" s="80" t="n"/>
-      <c r="I25" s="410" t="n"/>
-      <c r="J25" s="80" t="n"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="408" t="inlineStr">
-        <is>
-          <t>#QJVL0LYQQ</t>
-        </is>
-      </c>
-      <c r="C26" s="408" t="n"/>
-      <c r="D26" s="408" t="inlineStr">
-        <is>
-          <t>mobbb341</t>
-        </is>
-      </c>
-      <c r="E26" s="408" t="n"/>
-      <c r="F26" s="63" t="n"/>
-      <c r="G26" s="408" t="n"/>
-      <c r="H26" s="63" t="n"/>
-      <c r="I26" s="408" t="n"/>
-      <c r="J26" s="63" t="n"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="410" t="inlineStr">
-        <is>
-          <t>#QV8JJ0URU</t>
-        </is>
-      </c>
-      <c r="C27" s="410" t="n"/>
-      <c r="D27" s="410" t="inlineStr">
-        <is>
-          <t>✨Jacob</t>
-        </is>
-      </c>
-      <c r="E27" s="410" t="n"/>
-      <c r="F27" s="80" t="n"/>
-      <c r="G27" s="417" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="410" t="n"/>
-      <c r="J27" s="80" t="n"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="408" t="inlineStr">
-        <is>
-          <t>#QU0U2Q99G</t>
-        </is>
-      </c>
-      <c r="C28" s="408" t="n"/>
-      <c r="D28" s="408" t="inlineStr">
-        <is>
-          <t>big coc</t>
-        </is>
-      </c>
-      <c r="E28" s="408" t="n"/>
-      <c r="F28" s="63" t="n"/>
-      <c r="G28" s="408" t="n"/>
-      <c r="H28" s="63" t="n"/>
-      <c r="I28" s="408" t="n"/>
-      <c r="J28" s="63" t="n"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="410" t="inlineStr">
-        <is>
-          <t>#L9JJQY992</t>
-        </is>
-      </c>
-      <c r="C29" s="410" t="n"/>
-      <c r="D29" s="410" t="inlineStr">
-        <is>
-          <t>Fisted_Waffle</t>
-        </is>
-      </c>
-      <c r="E29" s="410" t="n"/>
-      <c r="F29" s="80" t="n"/>
-      <c r="G29" s="410" t="n"/>
-      <c r="H29" s="80" t="n"/>
-      <c r="I29" s="410" t="n"/>
-      <c r="J29" s="80" t="n"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="415" t="inlineStr">
-        <is>
-          <t>#QLR088LC9</t>
-        </is>
-      </c>
-      <c r="C30" s="415" t="n"/>
-      <c r="D30" s="415" t="inlineStr">
-        <is>
-          <t>Sanji</t>
-        </is>
-      </c>
-      <c r="E30" s="415" t="n"/>
-      <c r="F30" s="83" t="n"/>
-      <c r="G30" s="415" t="n"/>
-      <c r="H30" s="83" t="n"/>
-      <c r="I30" s="415" t="n"/>
-      <c r="J30" s="83" t="n"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="413" t="inlineStr">
-        <is>
-          <t>#QUYG0PQC8</t>
-        </is>
-      </c>
-      <c r="C31" s="413" t="n"/>
-      <c r="D31" s="413" t="inlineStr">
-        <is>
-          <t>Luffy</t>
-        </is>
-      </c>
-      <c r="E31" s="413" t="n"/>
-      <c r="F31" s="74" t="n"/>
-      <c r="G31" s="413" t="n"/>
-      <c r="H31" s="74" t="n"/>
-      <c r="I31" s="413" t="n"/>
-      <c r="J31" s="74" t="n"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="415" t="inlineStr">
-        <is>
-          <t>#QCV22VP0G</t>
-        </is>
-      </c>
-      <c r="C32" s="415" t="n"/>
-      <c r="D32" s="415" t="inlineStr">
-        <is>
-          <t>Nami</t>
-        </is>
-      </c>
-      <c r="E32" s="415" t="n"/>
-      <c r="F32" s="83" t="n"/>
-      <c r="G32" s="415" t="n"/>
-      <c r="H32" s="83" t="n"/>
-      <c r="I32" s="415" t="n"/>
-      <c r="J32" s="83" t="n"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="413" t="inlineStr">
-        <is>
-          <t>#G0QPVJY9L</t>
-        </is>
-      </c>
-      <c r="C33" s="413" t="n"/>
-      <c r="D33" s="413" t="inlineStr">
-        <is>
-          <t>Zoro</t>
-        </is>
-      </c>
-      <c r="E33" s="413" t="n"/>
-      <c r="F33" s="74" t="n"/>
-      <c r="G33" s="413" t="n"/>
-      <c r="H33" s="74" t="n"/>
-      <c r="I33" s="413" t="n"/>
-      <c r="J33" s="74" t="n"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="415" t="inlineStr">
-        <is>
-          <t>#QUV2GP88U</t>
-        </is>
-      </c>
-      <c r="C34" s="415" t="n"/>
-      <c r="D34" s="415" t="inlineStr">
-        <is>
-          <t>Nico Robin</t>
-        </is>
-      </c>
-      <c r="E34" s="415" t="n"/>
-      <c r="F34" s="83" t="n"/>
-      <c r="G34" s="415" t="n"/>
-      <c r="H34" s="83" t="n"/>
-      <c r="I34" s="415" t="n"/>
-      <c r="J34" s="83" t="n"/>
+      <c r="E34" s="582" t="n"/>
+      <c r="F34" s="63" t="n"/>
+      <c r="G34" s="582" t="n"/>
+      <c r="H34" s="63" t="n"/>
+      <c r="I34" s="582" t="n"/>
+      <c r="J34" s="63" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Clash.xlsx
+++ b/Clash.xlsx
@@ -179,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -273,11 +273,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="265">
+  <cellXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -629,6 +631,37 @@
     <xf numFmtId="164" fontId="5" fillId="20" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="24" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="23" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="21" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="18" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="21" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="22" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="22" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="25" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="24" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="18" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="24" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="21" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="22" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="25" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="21" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="22" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="25" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="24" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="23" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1149,15 +1182,15 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="249" t="inlineStr">
+      <c r="A4" s="276" t="inlineStr">
         <is>
           <t>#YRGRRJQCY</t>
         </is>
       </c>
-      <c r="B4" s="249" t="n">
+      <c r="B4" s="276" t="n">
         <v>1341</v>
       </c>
-      <c r="C4" s="250" t="n">
+      <c r="C4" s="277" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="116" t="inlineStr">
@@ -1165,31 +1198,31 @@
           <t>DoubleSpice</t>
         </is>
       </c>
-      <c r="E4" s="251" t="n">
+      <c r="E4" s="278" t="n">
         <v>6</v>
       </c>
       <c r="F4" s="116" t="n">
         <v>14095</v>
       </c>
-      <c r="G4" s="252" t="n">
+      <c r="G4" s="279" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="119" t="n">
         <v>60</v>
       </c>
-      <c r="I4" s="251" t="n">
+      <c r="I4" s="278" t="n">
         <v>6</v>
       </c>
       <c r="J4" s="116" t="n">
         <v>12379</v>
       </c>
-      <c r="K4" s="251" t="n">
+      <c r="K4" s="278" t="n">
         <v>6</v>
       </c>
       <c r="L4" s="116" t="n">
         <v>8256</v>
       </c>
-      <c r="M4" s="251" t="n">
+      <c r="M4" s="278" t="n">
         <v>6</v>
       </c>
       <c r="N4" s="116" t="n">
@@ -1197,15 +1230,15 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="253" t="inlineStr">
+      <c r="A5" s="280" t="inlineStr">
         <is>
           <t>#90U0VPU9U</t>
         </is>
       </c>
-      <c r="B5" s="253" t="n">
+      <c r="B5" s="280" t="n">
         <v>2542</v>
       </c>
-      <c r="C5" s="254" t="n">
+      <c r="C5" s="281" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="122" t="inlineStr">
@@ -1213,31 +1246,31 @@
           <t>KYANI7E</t>
         </is>
       </c>
-      <c r="E5" s="255" t="n">
+      <c r="E5" s="282" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="122" t="n">
         <v>12144</v>
       </c>
-      <c r="G5" s="256" t="n">
+      <c r="G5" s="283" t="n">
         <v>46</v>
       </c>
       <c r="H5" s="125" t="n">
         <v>4</v>
       </c>
-      <c r="I5" s="255" t="n">
+      <c r="I5" s="282" t="n">
         <v>6</v>
       </c>
       <c r="J5" s="122" t="n">
         <v>12835</v>
       </c>
-      <c r="K5" s="255" t="n">
+      <c r="K5" s="282" t="n">
         <v>6</v>
       </c>
       <c r="L5" s="122" t="n">
         <v>7696</v>
       </c>
-      <c r="M5" s="255" t="n">
+      <c r="M5" s="282" t="n">
         <v>6</v>
       </c>
       <c r="N5" s="122" t="n">
@@ -1245,15 +1278,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="249" t="inlineStr">
+      <c r="A6" s="276" t="inlineStr">
         <is>
           <t>#YJ20CRJYQ</t>
         </is>
       </c>
-      <c r="B6" s="249" t="n">
+      <c r="B6" s="276" t="n">
         <v>1392</v>
       </c>
-      <c r="C6" s="250" t="n">
+      <c r="C6" s="277" t="n">
         <v>3</v>
       </c>
       <c r="D6" s="116" t="inlineStr">
@@ -1261,31 +1294,31 @@
           <t>UnluckGod</t>
         </is>
       </c>
-      <c r="E6" s="251" t="n">
+      <c r="E6" s="278" t="n">
         <v>6</v>
       </c>
       <c r="F6" s="116" t="n">
         <v>11999</v>
       </c>
-      <c r="G6" s="252" t="n">
+      <c r="G6" s="279" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="119" t="n">
         <v>61</v>
       </c>
-      <c r="I6" s="251" t="n">
+      <c r="I6" s="278" t="n">
         <v>6</v>
       </c>
       <c r="J6" s="116" t="n">
         <v>12972</v>
       </c>
-      <c r="K6" s="251" t="n">
+      <c r="K6" s="278" t="n">
         <v>6</v>
       </c>
       <c r="L6" s="116" t="n">
         <v>8286</v>
       </c>
-      <c r="M6" s="251" t="n">
+      <c r="M6" s="278" t="n">
         <v>6</v>
       </c>
       <c r="N6" s="116" t="n">
@@ -1293,15 +1326,15 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="253" t="inlineStr">
+      <c r="A7" s="280" t="inlineStr">
         <is>
           <t>#QUV2GP88U</t>
         </is>
       </c>
-      <c r="B7" s="253" t="n">
+      <c r="B7" s="280" t="n">
         <v>723</v>
       </c>
-      <c r="C7" s="254" t="n">
+      <c r="C7" s="281" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="122" t="inlineStr">
@@ -1309,31 +1342,31 @@
           <t>Nico Robin</t>
         </is>
       </c>
-      <c r="E7" s="255" t="n">
+      <c r="E7" s="282" t="n">
         <v>6</v>
       </c>
       <c r="F7" s="122" t="n">
         <v>11338</v>
       </c>
-      <c r="G7" s="256" t="n">
+      <c r="G7" s="283" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="255" t="n">
+      <c r="I7" s="282" t="n">
         <v>6</v>
       </c>
       <c r="J7" s="122" t="n">
         <v>10997</v>
       </c>
-      <c r="K7" s="255" t="n">
+      <c r="K7" s="282" t="n">
         <v>6</v>
       </c>
       <c r="L7" s="122" t="n">
         <v>11087</v>
       </c>
-      <c r="M7" s="255" t="n">
+      <c r="M7" s="282" t="n">
         <v>6</v>
       </c>
       <c r="N7" s="122" t="n">
@@ -1341,15 +1374,15 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="249" t="inlineStr">
+      <c r="A8" s="276" t="inlineStr">
         <is>
           <t>#QLJ2U20Y2</t>
         </is>
       </c>
-      <c r="B8" s="249" t="n">
+      <c r="B8" s="276" t="n">
         <v>1458</v>
       </c>
-      <c r="C8" s="250" t="n">
+      <c r="C8" s="277" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="116" t="inlineStr">
@@ -1357,31 +1390,31 @@
           <t>DeadLeaf</t>
         </is>
       </c>
-      <c r="E8" s="251" t="n">
+      <c r="E8" s="278" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="116" t="n">
         <v>11140</v>
       </c>
-      <c r="G8" s="252" t="n">
+      <c r="G8" s="279" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="119" t="n">
         <v>30</v>
       </c>
-      <c r="I8" s="251" t="n">
+      <c r="I8" s="278" t="n">
         <v>6</v>
       </c>
       <c r="J8" s="116" t="n">
         <v>15509</v>
       </c>
-      <c r="K8" s="251" t="n">
+      <c r="K8" s="278" t="n">
         <v>6</v>
       </c>
       <c r="L8" s="116" t="n">
         <v>8567</v>
       </c>
-      <c r="M8" s="251" t="n">
+      <c r="M8" s="278" t="n">
         <v>6</v>
       </c>
       <c r="N8" s="116" t="n">
@@ -1389,15 +1422,15 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="253" t="inlineStr">
+      <c r="A9" s="280" t="inlineStr">
         <is>
           <t>#Q8CLCUCC2</t>
         </is>
       </c>
-      <c r="B9" s="253" t="n">
+      <c r="B9" s="280" t="n">
         <v>1327</v>
       </c>
-      <c r="C9" s="254" t="n">
+      <c r="C9" s="281" t="n">
         <v>6</v>
       </c>
       <c r="D9" s="122" t="inlineStr">
@@ -1405,31 +1438,31 @@
           <t>Moxxi</t>
         </is>
       </c>
-      <c r="E9" s="255" t="n">
+      <c r="E9" s="282" t="n">
         <v>6</v>
       </c>
       <c r="F9" s="122" t="n">
         <v>11010</v>
       </c>
-      <c r="G9" s="256" t="n">
+      <c r="G9" s="283" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="125" t="n">
         <v>60</v>
       </c>
-      <c r="I9" s="255" t="n">
+      <c r="I9" s="282" t="n">
         <v>6</v>
       </c>
       <c r="J9" s="122" t="n">
         <v>13857</v>
       </c>
-      <c r="K9" s="255" t="n">
+      <c r="K9" s="282" t="n">
         <v>6</v>
       </c>
       <c r="L9" s="122" t="n">
         <v>7905</v>
       </c>
-      <c r="M9" s="255" t="n">
+      <c r="M9" s="282" t="n">
         <v>6</v>
       </c>
       <c r="N9" s="122" t="n">
@@ -1437,15 +1470,15 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="249" t="inlineStr">
+      <c r="A10" s="276" t="inlineStr">
         <is>
           <t>#QCV22VP0G</t>
         </is>
       </c>
-      <c r="B10" s="249" t="n">
+      <c r="B10" s="276" t="n">
         <v>730</v>
       </c>
-      <c r="C10" s="250" t="n">
+      <c r="C10" s="277" t="n">
         <v>7</v>
       </c>
       <c r="D10" s="116" t="inlineStr">
@@ -1453,31 +1486,31 @@
           <t>Nami</t>
         </is>
       </c>
-      <c r="E10" s="251" t="n">
+      <c r="E10" s="278" t="n">
         <v>6</v>
       </c>
       <c r="F10" s="116" t="n">
         <v>10769</v>
       </c>
-      <c r="G10" s="252" t="n">
+      <c r="G10" s="279" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="251" t="n">
+      <c r="I10" s="278" t="n">
         <v>6</v>
       </c>
       <c r="J10" s="116" t="n">
         <v>12486</v>
       </c>
-      <c r="K10" s="251" t="n">
+      <c r="K10" s="278" t="n">
         <v>6</v>
       </c>
       <c r="L10" s="116" t="n">
         <v>8472</v>
       </c>
-      <c r="M10" s="251" t="n">
+      <c r="M10" s="278" t="n">
         <v>6</v>
       </c>
       <c r="N10" s="116" t="n">
@@ -1485,15 +1518,15 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="253" t="inlineStr">
+      <c r="A11" s="280" t="inlineStr">
         <is>
           <t>#QUG8QQJ92</t>
         </is>
       </c>
-      <c r="B11" s="253" t="n">
+      <c r="B11" s="280" t="n">
         <v>957</v>
       </c>
-      <c r="C11" s="254" t="n">
+      <c r="C11" s="281" t="n">
         <v>8</v>
       </c>
       <c r="D11" s="122" t="inlineStr">
@@ -1501,31 +1534,31 @@
           <t>Karma</t>
         </is>
       </c>
-      <c r="E11" s="255" t="n">
+      <c r="E11" s="282" t="n">
         <v>6</v>
       </c>
       <c r="F11" s="122" t="n">
         <v>10003</v>
       </c>
-      <c r="G11" s="256" t="n">
+      <c r="G11" s="283" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="255" t="n">
+      <c r="I11" s="282" t="n">
         <v>6</v>
       </c>
       <c r="J11" s="122" t="n">
         <v>10595</v>
       </c>
-      <c r="K11" s="255" t="n">
+      <c r="K11" s="282" t="n">
         <v>6</v>
       </c>
       <c r="L11" s="122" t="n">
         <v>9240</v>
       </c>
-      <c r="M11" s="255" t="n">
+      <c r="M11" s="282" t="n">
         <v>6</v>
       </c>
       <c r="N11" s="122" t="n">
@@ -1533,15 +1566,15 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="249" t="inlineStr">
+      <c r="A12" s="276" t="inlineStr">
         <is>
           <t>#QLR088LC9</t>
         </is>
       </c>
-      <c r="B12" s="249" t="n">
+      <c r="B12" s="276" t="n">
         <v>731</v>
       </c>
-      <c r="C12" s="250" t="n">
+      <c r="C12" s="277" t="n">
         <v>9</v>
       </c>
       <c r="D12" s="116" t="inlineStr">
@@ -1549,31 +1582,31 @@
           <t>Sanji</t>
         </is>
       </c>
-      <c r="E12" s="251" t="n">
+      <c r="E12" s="278" t="n">
         <v>6</v>
       </c>
       <c r="F12" s="116" t="n">
         <v>9550</v>
       </c>
-      <c r="G12" s="252" t="n">
+      <c r="G12" s="279" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="251" t="n">
+      <c r="I12" s="278" t="n">
         <v>6</v>
       </c>
       <c r="J12" s="116" t="n">
         <v>9138</v>
       </c>
-      <c r="K12" s="251" t="n">
+      <c r="K12" s="278" t="n">
         <v>6</v>
       </c>
       <c r="L12" s="116" t="n">
         <v>8897</v>
       </c>
-      <c r="M12" s="251" t="n">
+      <c r="M12" s="278" t="n">
         <v>6</v>
       </c>
       <c r="N12" s="116" t="n">
@@ -1581,15 +1614,15 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="257" t="inlineStr">
+      <c r="A13" s="284" t="inlineStr">
         <is>
           <t>#G0JPUQGYR</t>
         </is>
       </c>
-      <c r="B13" s="257" t="n">
+      <c r="B13" s="284" t="n">
         <v>1297</v>
       </c>
-      <c r="C13" s="254" t="n">
+      <c r="C13" s="281" t="n">
         <v>10</v>
       </c>
       <c r="D13" s="127" t="inlineStr">
@@ -1597,31 +1630,31 @@
           <t>Collin</t>
         </is>
       </c>
-      <c r="E13" s="258" t="n">
+      <c r="E13" s="285" t="n">
         <v>6</v>
       </c>
       <c r="F13" s="127" t="n">
         <v>9238</v>
       </c>
-      <c r="G13" s="259" t="n">
+      <c r="G13" s="286" t="n">
         <v>20</v>
       </c>
       <c r="H13" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="258" t="n">
+      <c r="I13" s="285" t="n">
         <v>6</v>
       </c>
       <c r="J13" s="127" t="n">
         <v>7756</v>
       </c>
-      <c r="K13" s="258" t="n">
+      <c r="K13" s="285" t="n">
         <v>6</v>
       </c>
       <c r="L13" s="131" t="n">
         <v>5943</v>
       </c>
-      <c r="M13" s="258" t="n">
+      <c r="M13" s="285" t="n">
         <v>6</v>
       </c>
       <c r="N13" s="127" t="n">
@@ -1629,15 +1662,15 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="249" t="inlineStr">
+      <c r="A14" s="276" t="inlineStr">
         <is>
           <t>#QUYG0PQC8</t>
         </is>
       </c>
-      <c r="B14" s="249" t="n">
+      <c r="B14" s="276" t="n">
         <v>919</v>
       </c>
-      <c r="C14" s="250" t="n">
+      <c r="C14" s="277" t="n">
         <v>11</v>
       </c>
       <c r="D14" s="116" t="inlineStr">
@@ -1645,31 +1678,31 @@
           <t>Luffy</t>
         </is>
       </c>
-      <c r="E14" s="251" t="n">
+      <c r="E14" s="278" t="n">
         <v>6</v>
       </c>
       <c r="F14" s="116" t="n">
         <v>9114</v>
       </c>
-      <c r="G14" s="252" t="n">
+      <c r="G14" s="279" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="251" t="n">
+      <c r="I14" s="278" t="n">
         <v>6</v>
       </c>
       <c r="J14" s="116" t="n">
         <v>13385</v>
       </c>
-      <c r="K14" s="251" t="n">
+      <c r="K14" s="278" t="n">
         <v>6</v>
       </c>
       <c r="L14" s="116" t="n">
         <v>7877</v>
       </c>
-      <c r="M14" s="251" t="n">
+      <c r="M14" s="278" t="n">
         <v>6</v>
       </c>
       <c r="N14" s="116" t="n">
@@ -1677,15 +1710,15 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="253" t="inlineStr">
+      <c r="A15" s="280" t="inlineStr">
         <is>
           <t>#G0QPVJY9L</t>
         </is>
       </c>
-      <c r="B15" s="253" t="n">
+      <c r="B15" s="280" t="n">
         <v>759</v>
       </c>
-      <c r="C15" s="254" t="n">
+      <c r="C15" s="281" t="n">
         <v>12</v>
       </c>
       <c r="D15" s="122" t="inlineStr">
@@ -1693,31 +1726,31 @@
           <t>Zoro</t>
         </is>
       </c>
-      <c r="E15" s="255" t="n">
+      <c r="E15" s="282" t="n">
         <v>6</v>
       </c>
       <c r="F15" s="122" t="n">
         <v>8855</v>
       </c>
-      <c r="G15" s="256" t="n">
+      <c r="G15" s="283" t="n">
         <v>0</v>
       </c>
       <c r="H15" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="255" t="n">
+      <c r="I15" s="282" t="n">
         <v>6</v>
       </c>
       <c r="J15" s="122" t="n">
         <v>10965</v>
       </c>
-      <c r="K15" s="255" t="n">
+      <c r="K15" s="282" t="n">
         <v>6</v>
       </c>
       <c r="L15" s="122" t="n">
         <v>7905</v>
       </c>
-      <c r="M15" s="255" t="n">
+      <c r="M15" s="282" t="n">
         <v>6</v>
       </c>
       <c r="N15" s="122" t="n">
@@ -1725,15 +1758,15 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="260" t="inlineStr">
+      <c r="A16" s="287" t="inlineStr">
         <is>
           <t>#98JG2UJQL</t>
         </is>
       </c>
-      <c r="B16" s="260" t="n">
+      <c r="B16" s="287" t="n">
         <v>2961</v>
       </c>
-      <c r="C16" s="250" t="n">
+      <c r="C16" s="277" t="n">
         <v>13</v>
       </c>
       <c r="D16" s="133" t="inlineStr">
@@ -1741,31 +1774,31 @@
           <t>Dragonux</t>
         </is>
       </c>
-      <c r="E16" s="261" t="n">
+      <c r="E16" s="288" t="n">
         <v>6</v>
       </c>
       <c r="F16" s="133" t="n">
         <v>8750</v>
       </c>
-      <c r="G16" s="262" t="n">
+      <c r="G16" s="289" t="n">
         <v>211</v>
       </c>
       <c r="H16" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="261" t="n">
+      <c r="I16" s="288" t="n">
         <v>6</v>
       </c>
       <c r="J16" s="133" t="n">
         <v>10865</v>
       </c>
-      <c r="K16" s="261" t="n">
+      <c r="K16" s="288" t="n">
         <v>6</v>
       </c>
       <c r="L16" s="133" t="n">
         <v>8025</v>
       </c>
-      <c r="M16" s="261" t="n">
+      <c r="M16" s="288" t="n">
         <v>6</v>
       </c>
       <c r="N16" s="133" t="n">
@@ -1773,15 +1806,15 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="257" t="inlineStr">
+      <c r="A17" s="284" t="inlineStr">
         <is>
           <t>#82QLQCJRJ</t>
         </is>
       </c>
-      <c r="B17" s="257" t="n">
+      <c r="B17" s="284" t="n">
         <v>2914</v>
       </c>
-      <c r="C17" s="254" t="n">
+      <c r="C17" s="281" t="n">
         <v>14</v>
       </c>
       <c r="D17" s="127" t="inlineStr">
@@ -1789,31 +1822,31 @@
           <t>Raging Fury</t>
         </is>
       </c>
-      <c r="E17" s="258" t="n">
+      <c r="E17" s="285" t="n">
         <v>6</v>
       </c>
       <c r="F17" s="127" t="n">
         <v>7115</v>
       </c>
-      <c r="G17" s="259" t="n">
+      <c r="G17" s="286" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="259" t="n">
+      <c r="I17" s="286" t="n">
         <v>2</v>
       </c>
       <c r="J17" s="137" t="n">
         <v>2320</v>
       </c>
-      <c r="K17" s="258" t="n">
+      <c r="K17" s="285" t="n">
         <v>6</v>
       </c>
       <c r="L17" s="131" t="n">
         <v>4920</v>
       </c>
-      <c r="M17" s="258" t="n">
+      <c r="M17" s="285" t="n">
         <v>6</v>
       </c>
       <c r="N17" s="131" t="n">
@@ -1821,15 +1854,15 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="260" t="inlineStr">
+      <c r="A18" s="287" t="inlineStr">
         <is>
           <t>#QRPRYR8LL</t>
         </is>
       </c>
-      <c r="B18" s="260" t="n">
+      <c r="B18" s="287" t="n">
         <v>1027</v>
       </c>
-      <c r="C18" s="250" t="n">
+      <c r="C18" s="277" t="n">
         <v>15</v>
       </c>
       <c r="D18" s="133" t="inlineStr">
@@ -1837,31 +1870,31 @@
           <t>FidelCashflow</t>
         </is>
       </c>
-      <c r="E18" s="261" t="n">
+      <c r="E18" s="288" t="n">
         <v>6</v>
       </c>
       <c r="F18" s="133" t="n">
         <v>6547</v>
       </c>
-      <c r="G18" s="263" t="n">
+      <c r="G18" s="290" t="n">
         <v>4</v>
       </c>
       <c r="H18" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="261" t="n">
+      <c r="I18" s="288" t="n">
         <v>6</v>
       </c>
       <c r="J18" s="133" t="n">
         <v>6811</v>
       </c>
-      <c r="K18" s="261" t="n">
+      <c r="K18" s="288" t="n">
         <v>6</v>
       </c>
       <c r="L18" s="139" t="n">
         <v>4239</v>
       </c>
-      <c r="M18" s="261" t="n">
+      <c r="M18" s="288" t="n">
         <v>6</v>
       </c>
       <c r="N18" s="139" t="n">
@@ -1869,15 +1902,15 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="257" t="inlineStr">
+      <c r="A19" s="284" t="inlineStr">
         <is>
           <t>#QLG0VJG2J</t>
         </is>
       </c>
-      <c r="B19" s="257" t="n">
+      <c r="B19" s="284" t="n">
         <v>1050</v>
       </c>
-      <c r="C19" s="254" t="n">
+      <c r="C19" s="281" t="n">
         <v>16</v>
       </c>
       <c r="D19" s="131" t="inlineStr">
@@ -1885,35 +1918,35 @@
           <t>PocketRocket</t>
         </is>
       </c>
-      <c r="E19" s="264" t="n">
+      <c r="E19" s="291" t="n">
         <v>4</v>
       </c>
       <c r="F19" s="131" t="n">
         <v>5215</v>
       </c>
-      <c r="G19" s="259" t="n">
+      <c r="G19" s="286" t="n">
         <v>20</v>
       </c>
       <c r="H19" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="257" t="n"/>
+      <c r="I19" s="284" t="n"/>
       <c r="J19" s="130" t="n"/>
-      <c r="K19" s="257" t="n"/>
+      <c r="K19" s="284" t="n"/>
       <c r="L19" s="130" t="n"/>
-      <c r="M19" s="257" t="n"/>
+      <c r="M19" s="284" t="n"/>
       <c r="N19" s="130" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="260" t="inlineStr">
+      <c r="A20" s="287" t="inlineStr">
         <is>
           <t>#QU0U2Q99G</t>
         </is>
       </c>
-      <c r="B20" s="260" t="n">
+      <c r="B20" s="287" t="n">
         <v>895</v>
       </c>
-      <c r="C20" s="250" t="n">
+      <c r="C20" s="277" t="n">
         <v>17</v>
       </c>
       <c r="D20" s="133" t="inlineStr">
@@ -1921,39 +1954,39 @@
           <t>big coc</t>
         </is>
       </c>
-      <c r="E20" s="261" t="n">
+      <c r="E20" s="288" t="n">
         <v>5</v>
       </c>
       <c r="F20" s="139" t="n">
         <v>5150</v>
       </c>
-      <c r="G20" s="263" t="n">
+      <c r="G20" s="290" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="136" t="n">
         <v>40</v>
       </c>
-      <c r="I20" s="261" t="n">
+      <c r="I20" s="288" t="n">
         <v>6</v>
       </c>
       <c r="J20" s="133" t="n">
         <v>9075</v>
       </c>
-      <c r="K20" s="260" t="n"/>
+      <c r="K20" s="287" t="n"/>
       <c r="L20" s="136" t="n"/>
-      <c r="M20" s="260" t="n"/>
+      <c r="M20" s="287" t="n"/>
       <c r="N20" s="136" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="259" t="inlineStr">
+      <c r="A21" s="286" t="inlineStr">
         <is>
           <t>#Q8YP9P8UJ</t>
         </is>
       </c>
-      <c r="B21" s="257" t="n">
+      <c r="B21" s="284" t="n">
         <v>945</v>
       </c>
-      <c r="C21" s="254" t="n">
+      <c r="C21" s="281" t="n">
         <v>18</v>
       </c>
       <c r="D21" s="127" t="inlineStr">
@@ -1961,19 +1994,19 @@
           <t>Ranger</t>
         </is>
       </c>
-      <c r="E21" s="258" t="n">
+      <c r="E21" s="285" t="n">
         <v>5</v>
       </c>
       <c r="F21" s="131" t="n">
         <v>4680</v>
       </c>
-      <c r="G21" s="257" t="n"/>
+      <c r="G21" s="284" t="n"/>
       <c r="H21" s="130" t="n"/>
-      <c r="I21" s="257" t="n"/>
+      <c r="I21" s="284" t="n"/>
       <c r="J21" s="130" t="n"/>
-      <c r="K21" s="257" t="n"/>
+      <c r="K21" s="284" t="n"/>
       <c r="L21" s="130" t="n"/>
-      <c r="M21" s="257" t="n"/>
+      <c r="M21" s="284" t="n"/>
       <c r="N21" s="130" t="n"/>
     </row>
     <row r="22">
@@ -2025,15 +2058,15 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="257" t="inlineStr">
+      <c r="A23" s="284" t="inlineStr">
         <is>
           <t>#QJC8LQU9U</t>
         </is>
       </c>
-      <c r="B23" s="257" t="n">
+      <c r="B23" s="284" t="n">
         <v>1032</v>
       </c>
-      <c r="C23" s="254" t="n">
+      <c r="C23" s="281" t="n">
         <v>20</v>
       </c>
       <c r="D23" s="137" t="inlineStr">
@@ -2041,31 +2074,31 @@
           <t>Master01</t>
         </is>
       </c>
-      <c r="E23" s="259" t="n">
+      <c r="E23" s="286" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="G23" s="259" t="n">
+      <c r="G23" s="286" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="258" t="n">
+      <c r="I23" s="285" t="n">
         <v>6</v>
       </c>
       <c r="J23" s="131" t="n">
         <v>5415</v>
       </c>
-      <c r="K23" s="258" t="n">
+      <c r="K23" s="285" t="n">
         <v>6</v>
       </c>
       <c r="L23" s="131" t="n">
         <v>4835</v>
       </c>
-      <c r="M23" s="258" t="n">
+      <c r="M23" s="285" t="n">
         <v>5</v>
       </c>
       <c r="N23" s="131" t="n">
@@ -2073,15 +2106,15 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="260" t="inlineStr">
+      <c r="A24" s="287" t="inlineStr">
         <is>
           <t>#QV8JJ0URU</t>
         </is>
       </c>
-      <c r="B24" s="260" t="n">
+      <c r="B24" s="287" t="n">
         <v>756</v>
       </c>
-      <c r="C24" s="250" t="n">
+      <c r="C24" s="277" t="n">
         <v>21</v>
       </c>
       <c r="D24" s="148" t="inlineStr">
@@ -2089,31 +2122,31 @@
           <t>✨Jacob</t>
         </is>
       </c>
-      <c r="E24" s="263" t="n">
+      <c r="E24" s="290" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="G24" s="263" t="n">
+      <c r="G24" s="290" t="n">
         <v>0</v>
       </c>
       <c r="H24" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="263" t="n">
+      <c r="I24" s="290" t="n">
         <v>0</v>
       </c>
       <c r="J24" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="K24" s="261" t="n">
+      <c r="K24" s="288" t="n">
         <v>6</v>
       </c>
       <c r="L24" s="133" t="n">
         <v>7385</v>
       </c>
-      <c r="M24" s="261" t="n">
+      <c r="M24" s="288" t="n">
         <v>6</v>
       </c>
       <c r="N24" s="133" t="n">
@@ -2121,15 +2154,15 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="257" t="inlineStr">
+      <c r="A25" s="284" t="inlineStr">
         <is>
           <t>#QY8L2GLUR</t>
         </is>
       </c>
-      <c r="B25" s="257" t="n">
+      <c r="B25" s="284" t="n">
         <v>907</v>
       </c>
-      <c r="C25" s="254" t="n">
+      <c r="C25" s="281" t="n">
         <v>22</v>
       </c>
       <c r="D25" s="137" t="inlineStr">
@@ -2137,31 +2170,31 @@
           <t>Huy</t>
         </is>
       </c>
-      <c r="E25" s="259" t="n">
+      <c r="E25" s="286" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="G25" s="259" t="n">
+      <c r="G25" s="286" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="259" t="n">
+      <c r="I25" s="286" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K25" s="258" t="n">
+      <c r="K25" s="285" t="n">
         <v>6</v>
       </c>
       <c r="L25" s="127" t="n">
         <v>6995</v>
       </c>
-      <c r="M25" s="258" t="n">
+      <c r="M25" s="285" t="n">
         <v>6</v>
       </c>
       <c r="N25" s="127" t="n">
@@ -2169,15 +2202,15 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="260" t="inlineStr">
+      <c r="A26" s="287" t="inlineStr">
         <is>
           <t>#L2QQL9QVJ</t>
         </is>
       </c>
-      <c r="B26" s="260" t="n">
+      <c r="B26" s="287" t="n">
         <v>1450</v>
       </c>
-      <c r="C26" s="250" t="n">
+      <c r="C26" s="277" t="n">
         <v>23</v>
       </c>
       <c r="D26" s="148" t="inlineStr">
@@ -2185,31 +2218,31 @@
           <t>JustPre10d</t>
         </is>
       </c>
-      <c r="E26" s="263" t="n">
+      <c r="E26" s="290" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="263" t="n">
+      <c r="G26" s="290" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="263" t="n">
+      <c r="I26" s="290" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="K26" s="261" t="n">
+      <c r="K26" s="288" t="n">
         <v>6</v>
       </c>
       <c r="L26" s="133" t="n">
         <v>6655</v>
       </c>
-      <c r="M26" s="261" t="n">
+      <c r="M26" s="288" t="n">
         <v>6</v>
       </c>
       <c r="N26" s="133" t="n">
@@ -2217,15 +2250,15 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="257" t="inlineStr">
+      <c r="A27" s="284" t="inlineStr">
         <is>
           <t>#LPR9RPCY9</t>
         </is>
       </c>
-      <c r="B27" s="257" t="n">
+      <c r="B27" s="284" t="n">
         <v>990</v>
       </c>
-      <c r="C27" s="254" t="n">
+      <c r="C27" s="281" t="n">
         <v>24</v>
       </c>
       <c r="D27" s="137" t="inlineStr">
@@ -2233,43 +2266,43 @@
           <t>sayhuss17</t>
         </is>
       </c>
-      <c r="E27" s="259" t="n">
+      <c r="E27" s="286" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="G27" s="259" t="n">
+      <c r="G27" s="286" t="n">
         <v>0</v>
       </c>
       <c r="H27" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="259" t="n">
+      <c r="I27" s="286" t="n">
         <v>0</v>
       </c>
       <c r="J27" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K27" s="264" t="n">
+      <c r="K27" s="291" t="n">
         <v>4</v>
       </c>
       <c r="L27" s="131" t="n">
         <v>4240</v>
       </c>
-      <c r="M27" s="257" t="n"/>
+      <c r="M27" s="284" t="n"/>
       <c r="N27" s="130" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="260" t="inlineStr">
+      <c r="A28" s="287" t="inlineStr">
         <is>
           <t>#QQL8C29CY</t>
         </is>
       </c>
-      <c r="B28" s="260" t="n">
+      <c r="B28" s="287" t="n">
         <v>918</v>
       </c>
-      <c r="C28" s="250" t="n">
+      <c r="C28" s="277" t="n">
         <v>25</v>
       </c>
       <c r="D28" s="148" t="inlineStr">
@@ -2277,31 +2310,31 @@
           <t>TypicalTeague#2</t>
         </is>
       </c>
-      <c r="E28" s="263" t="n">
+      <c r="E28" s="290" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="G28" s="263" t="n">
+      <c r="G28" s="290" t="n">
         <v>0</v>
       </c>
       <c r="H28" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="263" t="n">
+      <c r="I28" s="290" t="n">
         <v>0</v>
       </c>
       <c r="J28" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="K28" s="261" t="n">
+      <c r="K28" s="288" t="n">
         <v>5</v>
       </c>
       <c r="L28" s="139" t="n">
         <v>4070</v>
       </c>
-      <c r="M28" s="261" t="n">
+      <c r="M28" s="288" t="n">
         <v>6</v>
       </c>
       <c r="N28" s="133" t="n">
@@ -2309,15 +2342,15 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="257" t="inlineStr">
+      <c r="A29" s="284" t="inlineStr">
         <is>
           <t>#L9JJQY992</t>
         </is>
       </c>
-      <c r="B29" s="257" t="n">
+      <c r="B29" s="284" t="n">
         <v>773</v>
       </c>
-      <c r="C29" s="254" t="n">
+      <c r="C29" s="281" t="n">
         <v>26</v>
       </c>
       <c r="D29" s="137" t="inlineStr">
@@ -2325,43 +2358,43 @@
           <t>Fisted_Waffle</t>
         </is>
       </c>
-      <c r="E29" s="259" t="n">
+      <c r="E29" s="286" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="G29" s="259" t="n">
+      <c r="G29" s="286" t="n">
         <v>0</v>
       </c>
       <c r="H29" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="259" t="n">
+      <c r="I29" s="286" t="n">
         <v>0</v>
       </c>
       <c r="J29" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K29" s="259" t="n">
+      <c r="K29" s="286" t="n">
         <v>0</v>
       </c>
       <c r="L29" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="M29" s="257" t="n"/>
+      <c r="M29" s="284" t="n"/>
       <c r="N29" s="130" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="260" t="inlineStr">
+      <c r="A30" s="287" t="inlineStr">
         <is>
           <t>#L9QL9YQQY</t>
         </is>
       </c>
-      <c r="B30" s="260" t="n">
+      <c r="B30" s="287" t="n">
         <v>975</v>
       </c>
-      <c r="C30" s="250" t="n">
+      <c r="C30" s="277" t="n">
         <v>27</v>
       </c>
       <c r="D30" s="148" t="inlineStr">
@@ -2369,31 +2402,31 @@
           <t>Ima Chad</t>
         </is>
       </c>
-      <c r="E30" s="263" t="n">
+      <c r="E30" s="290" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="G30" s="263" t="n">
+      <c r="G30" s="290" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I30" s="263" t="n">
+      <c r="I30" s="290" t="n">
         <v>0</v>
       </c>
       <c r="J30" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="K30" s="263" t="n">
+      <c r="K30" s="290" t="n">
         <v>0</v>
       </c>
       <c r="L30" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="M30" s="261" t="n">
+      <c r="M30" s="288" t="n">
         <v>5</v>
       </c>
       <c r="N30" s="148" t="n">
@@ -2401,15 +2434,15 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="257" t="inlineStr">
+      <c r="A31" s="284" t="inlineStr">
         <is>
           <t>#PJYVV989R</t>
         </is>
       </c>
-      <c r="B31" s="257" t="n">
+      <c r="B31" s="284" t="n">
         <v>1584</v>
       </c>
-      <c r="C31" s="254" t="n">
+      <c r="C31" s="281" t="n">
         <v>28</v>
       </c>
       <c r="D31" s="137" t="inlineStr">
@@ -2417,43 +2450,43 @@
           <t>nx</t>
         </is>
       </c>
-      <c r="E31" s="259" t="n">
+      <c r="E31" s="286" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="G31" s="259" t="n">
+      <c r="G31" s="286" t="n">
         <v>0</v>
       </c>
       <c r="H31" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I31" s="259" t="n">
+      <c r="I31" s="286" t="n">
         <v>0</v>
       </c>
       <c r="J31" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K31" s="259" t="n">
+      <c r="K31" s="286" t="n">
         <v>0</v>
       </c>
       <c r="L31" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="M31" s="257" t="n"/>
+      <c r="M31" s="284" t="n"/>
       <c r="N31" s="130" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="260" t="inlineStr">
+      <c r="A32" s="287" t="inlineStr">
         <is>
           <t>#LC9GUPJJG</t>
         </is>
       </c>
-      <c r="B32" s="260" t="n">
+      <c r="B32" s="287" t="n">
         <v>966</v>
       </c>
-      <c r="C32" s="250" t="n">
+      <c r="C32" s="277" t="n">
         <v>29</v>
       </c>
       <c r="D32" s="148" t="inlineStr">
@@ -2461,23 +2494,23 @@
           <t>raptor2222a</t>
         </is>
       </c>
-      <c r="E32" s="263" t="n">
+      <c r="E32" s="290" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="G32" s="263" t="n">
+      <c r="G32" s="290" t="n">
         <v>0</v>
       </c>
       <c r="H32" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I32" s="260" t="n"/>
+      <c r="I32" s="287" t="n"/>
       <c r="J32" s="136" t="n"/>
-      <c r="K32" s="260" t="n"/>
+      <c r="K32" s="287" t="n"/>
       <c r="L32" s="136" t="n"/>
-      <c r="M32" s="260" t="n"/>
+      <c r="M32" s="287" t="n"/>
       <c r="N32" s="136" t="n"/>
     </row>
     <row r="33">
@@ -2513,15 +2546,15 @@
       <c r="N33" s="235" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="263" t="inlineStr">
+      <c r="A34" s="290" t="inlineStr">
         <is>
           <t>#UVCCQC02</t>
         </is>
       </c>
-      <c r="B34" s="260" t="n">
+      <c r="B34" s="287" t="n">
         <v>1806</v>
       </c>
-      <c r="C34" s="250" t="n">
+      <c r="C34" s="277" t="n">
         <v>31</v>
       </c>
       <c r="D34" s="136" t="inlineStr">
@@ -2529,23 +2562,23 @@
           <t>lordshisha</t>
         </is>
       </c>
-      <c r="E34" s="260" t="n"/>
+      <c r="E34" s="287" t="n"/>
       <c r="F34" s="136" t="n"/>
-      <c r="G34" s="260" t="n"/>
+      <c r="G34" s="287" t="n"/>
       <c r="H34" s="136" t="n"/>
-      <c r="I34" s="261" t="n">
+      <c r="I34" s="288" t="n">
         <v>6</v>
       </c>
       <c r="J34" s="133" t="n">
         <v>8496</v>
       </c>
-      <c r="K34" s="261" t="n">
+      <c r="K34" s="288" t="n">
         <v>6</v>
       </c>
       <c r="L34" s="133" t="n">
         <v>6310</v>
       </c>
-      <c r="M34" s="261" t="n">
+      <c r="M34" s="288" t="n">
         <v>6</v>
       </c>
       <c r="N34" s="133" t="n">
@@ -2553,15 +2586,15 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="259" t="inlineStr">
+      <c r="A35" s="286" t="inlineStr">
         <is>
           <t>#P2CPRPQU</t>
         </is>
       </c>
-      <c r="B35" s="257" t="n">
+      <c r="B35" s="284" t="n">
         <v>2232</v>
       </c>
-      <c r="C35" s="254" t="n">
+      <c r="C35" s="281" t="n">
         <v>32</v>
       </c>
       <c r="D35" s="130" t="inlineStr">
@@ -2569,23 +2602,23 @@
           <t>The Drift King</t>
         </is>
       </c>
-      <c r="E35" s="257" t="n"/>
+      <c r="E35" s="284" t="n"/>
       <c r="F35" s="130" t="n"/>
-      <c r="G35" s="257" t="n"/>
+      <c r="G35" s="284" t="n"/>
       <c r="H35" s="130" t="n"/>
-      <c r="I35" s="258" t="n">
+      <c r="I35" s="285" t="n">
         <v>6</v>
       </c>
       <c r="J35" s="127" t="n">
         <v>8023</v>
       </c>
-      <c r="K35" s="258" t="n">
+      <c r="K35" s="285" t="n">
         <v>6</v>
       </c>
       <c r="L35" s="127" t="n">
         <v>7625</v>
       </c>
-      <c r="M35" s="258" t="n">
+      <c r="M35" s="285" t="n">
         <v>6</v>
       </c>
       <c r="N35" s="127" t="n">
@@ -2593,15 +2626,15 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="263" t="inlineStr">
+      <c r="A36" s="290" t="inlineStr">
         <is>
           <t>#QJVL0LYQQ</t>
         </is>
       </c>
-      <c r="B36" s="260" t="n">
+      <c r="B36" s="287" t="n">
         <v>921</v>
       </c>
-      <c r="C36" s="250" t="n">
+      <c r="C36" s="277" t="n">
         <v>33</v>
       </c>
       <c r="D36" s="136" t="inlineStr">
@@ -2609,23 +2642,23 @@
           <t>mobbb341</t>
         </is>
       </c>
-      <c r="E36" s="260" t="n"/>
+      <c r="E36" s="287" t="n"/>
       <c r="F36" s="136" t="n"/>
-      <c r="G36" s="260" t="n"/>
+      <c r="G36" s="287" t="n"/>
       <c r="H36" s="136" t="n"/>
-      <c r="I36" s="261" t="n">
+      <c r="I36" s="288" t="n">
         <v>6</v>
       </c>
       <c r="J36" s="133" t="n">
         <v>7710</v>
       </c>
-      <c r="K36" s="261" t="n">
+      <c r="K36" s="288" t="n">
         <v>6</v>
       </c>
       <c r="L36" s="133" t="n">
         <v>8810</v>
       </c>
-      <c r="M36" s="261" t="n">
+      <c r="M36" s="288" t="n">
         <v>6</v>
       </c>
       <c r="N36" s="139" t="n">
@@ -2633,15 +2666,15 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="259" t="inlineStr">
+      <c r="A37" s="286" t="inlineStr">
         <is>
           <t>#L8R82C8VC</t>
         </is>
       </c>
-      <c r="B37" s="257" t="n">
+      <c r="B37" s="284" t="n">
         <v>1162</v>
       </c>
-      <c r="C37" s="254" t="n">
+      <c r="C37" s="281" t="n">
         <v>34</v>
       </c>
       <c r="D37" s="130" t="inlineStr">
@@ -2649,23 +2682,23 @@
           <t>caden asue</t>
         </is>
       </c>
-      <c r="E37" s="257" t="n"/>
+      <c r="E37" s="284" t="n"/>
       <c r="F37" s="130" t="n"/>
-      <c r="G37" s="257" t="n"/>
+      <c r="G37" s="284" t="n"/>
       <c r="H37" s="130" t="n"/>
-      <c r="I37" s="258" t="n">
+      <c r="I37" s="285" t="n">
         <v>6</v>
       </c>
       <c r="J37" s="131" t="n">
         <v>5112</v>
       </c>
-      <c r="K37" s="258" t="n">
+      <c r="K37" s="285" t="n">
         <v>6</v>
       </c>
       <c r="L37" s="131" t="n">
         <v>4283</v>
       </c>
-      <c r="M37" s="258" t="n">
+      <c r="M37" s="285" t="n">
         <v>6</v>
       </c>
       <c r="N37" s="131" t="n">
@@ -2673,15 +2706,15 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="263" t="inlineStr">
+      <c r="A38" s="290" t="inlineStr">
         <is>
           <t>#L9Q8VLLQG</t>
         </is>
       </c>
-      <c r="B38" s="260" t="n">
+      <c r="B38" s="287" t="n">
         <v>1130</v>
       </c>
-      <c r="C38" s="250" t="n">
+      <c r="C38" s="277" t="n">
         <v>35</v>
       </c>
       <c r="D38" s="136" t="inlineStr">
@@ -2689,15 +2722,15 @@
           <t>cat</t>
         </is>
       </c>
-      <c r="E38" s="260" t="n"/>
+      <c r="E38" s="287" t="n"/>
       <c r="F38" s="136" t="n"/>
-      <c r="G38" s="260" t="n"/>
+      <c r="G38" s="287" t="n"/>
       <c r="H38" s="136" t="n"/>
-      <c r="I38" s="260" t="n"/>
+      <c r="I38" s="287" t="n"/>
       <c r="J38" s="136" t="n"/>
-      <c r="K38" s="260" t="n"/>
+      <c r="K38" s="287" t="n"/>
       <c r="L38" s="136" t="n"/>
-      <c r="M38" s="261" t="n">
+      <c r="M38" s="288" t="n">
         <v>6</v>
       </c>
       <c r="N38" s="139" t="n">
@@ -2705,15 +2738,15 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="259" t="inlineStr">
+      <c r="A39" s="286" t="inlineStr">
         <is>
           <t>#QV0PQC9JU</t>
         </is>
       </c>
-      <c r="B39" s="257" t="n">
+      <c r="B39" s="284" t="n">
         <v>539</v>
       </c>
-      <c r="C39" s="254" t="n">
+      <c r="C39" s="281" t="n">
         <v>36</v>
       </c>
       <c r="D39" s="130" t="inlineStr">
@@ -2721,15 +2754,15 @@
           <t>Superman</t>
         </is>
       </c>
-      <c r="E39" s="257" t="n"/>
+      <c r="E39" s="284" t="n"/>
       <c r="F39" s="130" t="n"/>
-      <c r="G39" s="257" t="n"/>
+      <c r="G39" s="284" t="n"/>
       <c r="H39" s="130" t="n"/>
-      <c r="I39" s="257" t="n"/>
+      <c r="I39" s="284" t="n"/>
       <c r="J39" s="130" t="n"/>
-      <c r="K39" s="257" t="n"/>
+      <c r="K39" s="284" t="n"/>
       <c r="L39" s="130" t="n"/>
-      <c r="M39" s="258" t="n">
+      <c r="M39" s="285" t="n">
         <v>6</v>
       </c>
       <c r="N39" s="131" t="n">
@@ -2737,15 +2770,15 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="263" t="inlineStr">
+      <c r="A40" s="290" t="inlineStr">
         <is>
           <t>#LU0CRP09L</t>
         </is>
       </c>
-      <c r="B40" s="260" t="n">
+      <c r="B40" s="287" t="n">
         <v>809</v>
       </c>
-      <c r="C40" s="250" t="n">
+      <c r="C40" s="277" t="n">
         <v>37</v>
       </c>
       <c r="D40" s="136" t="inlineStr">
@@ -2753,15 +2786,15 @@
           <t>I Dont Know</t>
         </is>
       </c>
-      <c r="E40" s="260" t="n"/>
+      <c r="E40" s="287" t="n"/>
       <c r="F40" s="136" t="n"/>
-      <c r="G40" s="260" t="n"/>
+      <c r="G40" s="287" t="n"/>
       <c r="H40" s="136" t="n"/>
-      <c r="I40" s="260" t="n"/>
+      <c r="I40" s="287" t="n"/>
       <c r="J40" s="136" t="n"/>
-      <c r="K40" s="260" t="n"/>
+      <c r="K40" s="287" t="n"/>
       <c r="L40" s="136" t="n"/>
-      <c r="M40" s="262" t="n">
+      <c r="M40" s="289" t="n">
         <v>3</v>
       </c>
       <c r="N40" s="148" t="n">
@@ -2769,15 +2802,15 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="259" t="inlineStr">
+      <c r="A41" s="286" t="inlineStr">
         <is>
           <t>#YCPP0QPP8</t>
         </is>
       </c>
-      <c r="B41" s="257" t="n">
+      <c r="B41" s="284" t="n">
         <v>3327</v>
       </c>
-      <c r="C41" s="254" t="n">
+      <c r="C41" s="281" t="n">
         <v>38</v>
       </c>
       <c r="D41" s="130" t="inlineStr">
@@ -2785,15 +2818,15 @@
           <t>Coach</t>
         </is>
       </c>
-      <c r="E41" s="257" t="n"/>
+      <c r="E41" s="284" t="n"/>
       <c r="F41" s="130" t="n"/>
-      <c r="G41" s="257" t="n"/>
+      <c r="G41" s="284" t="n"/>
       <c r="H41" s="130" t="n"/>
-      <c r="I41" s="257" t="n"/>
+      <c r="I41" s="284" t="n"/>
       <c r="J41" s="130" t="n"/>
-      <c r="K41" s="257" t="n"/>
+      <c r="K41" s="284" t="n"/>
       <c r="L41" s="130" t="n"/>
-      <c r="M41" s="259" t="n">
+      <c r="M41" s="286" t="n">
         <v>0</v>
       </c>
       <c r="N41" s="137" t="n">
@@ -3660,12 +3693,12 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="238" t="inlineStr">
+      <c r="B4" s="265" t="inlineStr">
         <is>
           <t>#98JG2UJQL</t>
         </is>
       </c>
-      <c r="C4" s="239" t="inlineStr">
+      <c r="C4" s="266" t="inlineStr">
         <is>
           <t>Dragonux</t>
         </is>
@@ -3682,12 +3715,12 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="240" t="inlineStr">
+      <c r="B5" s="267" t="inlineStr">
         <is>
           <t>#82QLQCJRJ</t>
         </is>
       </c>
-      <c r="C5" s="240" t="inlineStr">
+      <c r="C5" s="267" t="inlineStr">
         <is>
           <t>Raging Fury</t>
         </is>
@@ -3696,12 +3729,12 @@
       <c r="E5" s="93" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" s="241" t="inlineStr">
+      <c r="B6" s="268" t="inlineStr">
         <is>
           <t>#90U0VPU9U</t>
         </is>
       </c>
-      <c r="C6" s="242" t="inlineStr">
+      <c r="C6" s="269" t="inlineStr">
         <is>
           <t>KYANI7E</t>
         </is>
@@ -3718,12 +3751,12 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="240" t="inlineStr">
+      <c r="B7" s="267" t="inlineStr">
         <is>
           <t>#PJYVV989R</t>
         </is>
       </c>
-      <c r="C7" s="240" t="inlineStr">
+      <c r="C7" s="267" t="inlineStr">
         <is>
           <t>nx</t>
         </is>
@@ -3732,12 +3765,12 @@
       <c r="E7" s="93" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="241" t="inlineStr">
+      <c r="B8" s="268" t="inlineStr">
         <is>
           <t>#QLJ2U20Y2</t>
         </is>
       </c>
-      <c r="C8" s="242" t="inlineStr">
+      <c r="C8" s="269" t="inlineStr">
         <is>
           <t>DeadLeaf</t>
         </is>
@@ -3754,12 +3787,12 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="240" t="inlineStr">
+      <c r="B9" s="267" t="inlineStr">
         <is>
           <t>#L2QQL9QVJ</t>
         </is>
       </c>
-      <c r="C9" s="240" t="inlineStr">
+      <c r="C9" s="267" t="inlineStr">
         <is>
           <t>JustPre10d</t>
         </is>
@@ -3768,12 +3801,12 @@
       <c r="E9" s="112" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="241" t="inlineStr">
+      <c r="B10" s="268" t="inlineStr">
         <is>
           <t>#YJ20CRJYQ</t>
         </is>
       </c>
-      <c r="C10" s="242" t="inlineStr">
+      <c r="C10" s="269" t="inlineStr">
         <is>
           <t>UnluckGod</t>
         </is>
@@ -3790,12 +3823,12 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="243" t="inlineStr">
+      <c r="B11" s="270" t="inlineStr">
         <is>
           <t>#YRGRRJQCY</t>
         </is>
       </c>
-      <c r="C11" s="244" t="inlineStr">
+      <c r="C11" s="271" t="inlineStr">
         <is>
           <t>DoubleSpice</t>
         </is>
@@ -3812,12 +3845,12 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="241" t="inlineStr">
+      <c r="B12" s="268" t="inlineStr">
         <is>
           <t>#Q8CLCUCC2</t>
         </is>
       </c>
-      <c r="C12" s="242" t="inlineStr">
+      <c r="C12" s="269" t="inlineStr">
         <is>
           <t>Moxxi</t>
         </is>
@@ -3834,12 +3867,12 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="240" t="inlineStr">
+      <c r="B13" s="267" t="inlineStr">
         <is>
           <t>#G0JPUQGYR</t>
         </is>
       </c>
-      <c r="C13" s="245" t="inlineStr">
+      <c r="C13" s="272" t="inlineStr">
         <is>
           <t>Collin</t>
         </is>
@@ -3856,12 +3889,12 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="238" t="inlineStr">
+      <c r="B14" s="265" t="inlineStr">
         <is>
           <t>#QLG0VJG2J</t>
         </is>
       </c>
-      <c r="C14" s="238" t="inlineStr">
+      <c r="C14" s="265" t="inlineStr">
         <is>
           <t>PocketRocket</t>
         </is>
@@ -3870,12 +3903,12 @@
       <c r="E14" s="107" t="n"/>
     </row>
     <row r="15">
-      <c r="B15" s="240" t="inlineStr">
+      <c r="B15" s="267" t="inlineStr">
         <is>
           <t>#QJC8LQU9U</t>
         </is>
       </c>
-      <c r="C15" s="240" t="inlineStr">
+      <c r="C15" s="267" t="inlineStr">
         <is>
           <t>Master01</t>
         </is>
@@ -3884,12 +3917,12 @@
       <c r="E15" s="93" t="n"/>
     </row>
     <row r="16">
-      <c r="B16" s="238" t="inlineStr">
+      <c r="B16" s="265" t="inlineStr">
         <is>
           <t>#QRPRYR8LL</t>
         </is>
       </c>
-      <c r="C16" s="238" t="inlineStr">
+      <c r="C16" s="265" t="inlineStr">
         <is>
           <t>FidelCashflow</t>
         </is>
@@ -3898,12 +3931,12 @@
       <c r="E16" s="97" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="240" t="inlineStr">
+      <c r="B17" s="267" t="inlineStr">
         <is>
           <t>#LPR9RPCY9</t>
         </is>
       </c>
-      <c r="C17" s="246" t="inlineStr">
+      <c r="C17" s="273" t="inlineStr">
         <is>
           <t>sayhuss17</t>
         </is>
@@ -3920,12 +3953,12 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="238" t="inlineStr">
+      <c r="B18" s="265" t="inlineStr">
         <is>
           <t>#L9QL9YQQY</t>
         </is>
       </c>
-      <c r="C18" s="238" t="inlineStr">
+      <c r="C18" s="265" t="inlineStr">
         <is>
           <t>Ima Chad</t>
         </is>
@@ -3934,12 +3967,12 @@
       <c r="E18" s="107" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="240" t="inlineStr">
+      <c r="B19" s="267" t="inlineStr">
         <is>
           <t>#LC9GUPJJG</t>
         </is>
       </c>
-      <c r="C19" s="240" t="inlineStr">
+      <c r="C19" s="267" t="inlineStr">
         <is>
           <t>raptor2222a</t>
         </is>
@@ -3948,12 +3981,12 @@
       <c r="E19" s="112" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="241" t="inlineStr">
+      <c r="B20" s="268" t="inlineStr">
         <is>
           <t>#QUG8QQJ92</t>
         </is>
       </c>
-      <c r="C20" s="242" t="inlineStr">
+      <c r="C20" s="269" t="inlineStr">
         <is>
           <t>Karma</t>
         </is>
@@ -3970,12 +4003,12 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="243" t="inlineStr">
+      <c r="B21" s="270" t="inlineStr">
         <is>
           <t>#QUYG0PQC8</t>
         </is>
       </c>
-      <c r="C21" s="244" t="inlineStr">
+      <c r="C21" s="271" t="inlineStr">
         <is>
           <t>Luffy</t>
         </is>
@@ -3992,12 +4025,12 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="238" t="inlineStr">
+      <c r="B22" s="265" t="inlineStr">
         <is>
           <t>#QQL8C29CY</t>
         </is>
       </c>
-      <c r="C22" s="238" t="inlineStr">
+      <c r="C22" s="265" t="inlineStr">
         <is>
           <t>TypicalTeague#2</t>
         </is>
@@ -4006,12 +4039,12 @@
       <c r="E22" s="97" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="240" t="inlineStr">
+      <c r="B23" s="267" t="inlineStr">
         <is>
           <t>#QY8L2GLUR</t>
         </is>
       </c>
-      <c r="C23" s="240" t="inlineStr">
+      <c r="C23" s="267" t="inlineStr">
         <is>
           <t>Huy</t>
         </is>
@@ -4020,12 +4053,12 @@
       <c r="E23" s="93" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="238" t="inlineStr">
+      <c r="B24" s="265" t="inlineStr">
         <is>
           <t>#QU0U2Q99G</t>
         </is>
       </c>
-      <c r="C24" s="238" t="inlineStr">
+      <c r="C24" s="265" t="inlineStr">
         <is>
           <t>big coc</t>
         </is>
@@ -4034,12 +4067,12 @@
       <c r="E24" s="97" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="240" t="inlineStr">
+      <c r="B25" s="267" t="inlineStr">
         <is>
           <t>#QL8LVLYG8</t>
         </is>
       </c>
-      <c r="C25" s="240" t="inlineStr">
+      <c r="C25" s="267" t="inlineStr">
         <is>
           <t>Some guy</t>
         </is>
@@ -4048,12 +4081,12 @@
       <c r="E25" s="93" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="238" t="inlineStr">
+      <c r="B26" s="265" t="inlineStr">
         <is>
           <t>#L9JJQY992</t>
         </is>
       </c>
-      <c r="C26" s="238" t="inlineStr">
+      <c r="C26" s="265" t="inlineStr">
         <is>
           <t>Fisted_Waffle</t>
         </is>
@@ -4062,12 +4095,12 @@
       <c r="E26" s="97" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="243" t="inlineStr">
+      <c r="B27" s="270" t="inlineStr">
         <is>
           <t>#G0QPVJY9L</t>
         </is>
       </c>
-      <c r="C27" s="244" t="inlineStr">
+      <c r="C27" s="271" t="inlineStr">
         <is>
           <t>Zoro</t>
         </is>
@@ -4084,12 +4117,12 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="238" t="inlineStr">
+      <c r="B28" s="265" t="inlineStr">
         <is>
           <t>#QV8JJ0URU</t>
         </is>
       </c>
-      <c r="C28" s="238" t="inlineStr">
+      <c r="C28" s="265" t="inlineStr">
         <is>
           <t>✨Jacob</t>
         </is>
@@ -4098,12 +4131,12 @@
       <c r="E28" s="97" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="243" t="inlineStr">
+      <c r="B29" s="270" t="inlineStr">
         <is>
           <t>#QLR088LC9</t>
         </is>
       </c>
-      <c r="C29" s="244" t="inlineStr">
+      <c r="C29" s="271" t="inlineStr">
         <is>
           <t>Sanji</t>
         </is>
@@ -4120,12 +4153,12 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="241" t="inlineStr">
+      <c r="B30" s="268" t="inlineStr">
         <is>
           <t>#QCV22VP0G</t>
         </is>
       </c>
-      <c r="C30" s="242" t="inlineStr">
+      <c r="C30" s="269" t="inlineStr">
         <is>
           <t>Nami</t>
         </is>
@@ -4142,12 +4175,12 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="243" t="inlineStr">
+      <c r="B31" s="270" t="inlineStr">
         <is>
           <t>#QUV2GP88U</t>
         </is>
       </c>
-      <c r="C31" s="244" t="inlineStr">
+      <c r="C31" s="271" t="inlineStr">
         <is>
           <t>Nico Robin</t>
         </is>
@@ -4164,12 +4197,12 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="247" t="inlineStr">
+      <c r="B32" s="274" t="inlineStr">
         <is>
           <t>#Q0JG2RJQ8</t>
         </is>
       </c>
-      <c r="C32" s="248" t="inlineStr">
+      <c r="C32" s="275" t="inlineStr">
         <is>
           <t>bozo</t>
         </is>

--- a/Clash.xlsx
+++ b/Clash.xlsx
@@ -179,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -290,11 +290,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="515">
+  <cellXfs count="542">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -928,6 +930,37 @@
     <xf numFmtId="164" fontId="5" fillId="25" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="24" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="23" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="18" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="21" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="22" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="21" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="24" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="22" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="25" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="18" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="24" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="21" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="22" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="25" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="21" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="22" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="25" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="24" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="23" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1476,15 +1509,15 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="499" t="inlineStr">
+      <c r="A4" s="526" t="inlineStr">
         <is>
           <t>#QLJ2U20Y2</t>
         </is>
       </c>
-      <c r="B4" s="499" t="n">
+      <c r="B4" s="526" t="n">
         <v>1486</v>
       </c>
-      <c r="C4" s="500" t="n">
+      <c r="C4" s="527" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="116" t="inlineStr">
@@ -1492,37 +1525,37 @@
           <t>DeadLeaf</t>
         </is>
       </c>
-      <c r="E4" s="501" t="n">
+      <c r="E4" s="528" t="n">
         <v>6</v>
       </c>
       <c r="F4" s="116" t="n">
         <v>13763</v>
       </c>
-      <c r="G4" s="502" t="n">
+      <c r="G4" s="529" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="119" t="n">
         <v>30</v>
       </c>
-      <c r="I4" s="501" t="n">
+      <c r="I4" s="528" t="n">
         <v>6</v>
       </c>
       <c r="J4" s="116" t="n">
         <v>11140</v>
       </c>
-      <c r="K4" s="501" t="n">
+      <c r="K4" s="528" t="n">
         <v>6</v>
       </c>
       <c r="L4" s="116" t="n">
         <v>15509</v>
       </c>
-      <c r="M4" s="501" t="n">
+      <c r="M4" s="528" t="n">
         <v>6</v>
       </c>
       <c r="N4" s="116" t="n">
         <v>8567</v>
       </c>
-      <c r="O4" s="501" t="n">
+      <c r="O4" s="528" t="n">
         <v>6</v>
       </c>
       <c r="P4" s="116" t="n">
@@ -1530,15 +1563,15 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="503" t="inlineStr">
+      <c r="A5" s="530" t="inlineStr">
         <is>
           <t>#G0QPVJY9L</t>
         </is>
       </c>
-      <c r="B5" s="503" t="n">
+      <c r="B5" s="530" t="n">
         <v>840</v>
       </c>
-      <c r="C5" s="504" t="n">
+      <c r="C5" s="531" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="122" t="inlineStr">
@@ -1546,37 +1579,37 @@
           <t>Zoro</t>
         </is>
       </c>
-      <c r="E5" s="505" t="n">
+      <c r="E5" s="532" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="122" t="n">
         <v>13432</v>
       </c>
-      <c r="G5" s="506" t="n">
+      <c r="G5" s="533" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="505" t="n">
+      <c r="I5" s="532" t="n">
         <v>6</v>
       </c>
       <c r="J5" s="122" t="n">
         <v>8855</v>
       </c>
-      <c r="K5" s="505" t="n">
+      <c r="K5" s="532" t="n">
         <v>6</v>
       </c>
       <c r="L5" s="122" t="n">
         <v>10965</v>
       </c>
-      <c r="M5" s="505" t="n">
+      <c r="M5" s="532" t="n">
         <v>6</v>
       </c>
       <c r="N5" s="122" t="n">
         <v>7905</v>
       </c>
-      <c r="O5" s="505" t="n">
+      <c r="O5" s="532" t="n">
         <v>6</v>
       </c>
       <c r="P5" s="122" t="n">
@@ -1584,15 +1617,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="499" t="inlineStr">
+      <c r="A6" s="526" t="inlineStr">
         <is>
           <t>#90U0VPU9U</t>
         </is>
       </c>
-      <c r="B6" s="499" t="n">
+      <c r="B6" s="526" t="n">
         <v>2509</v>
       </c>
-      <c r="C6" s="500" t="n">
+      <c r="C6" s="527" t="n">
         <v>3</v>
       </c>
       <c r="D6" s="116" t="inlineStr">
@@ -1600,37 +1633,37 @@
           <t>KYANI7E</t>
         </is>
       </c>
-      <c r="E6" s="501" t="n">
+      <c r="E6" s="528" t="n">
         <v>6</v>
       </c>
       <c r="F6" s="116" t="n">
         <v>13260</v>
       </c>
-      <c r="G6" s="502" t="n">
+      <c r="G6" s="529" t="n">
         <v>61</v>
       </c>
       <c r="H6" s="119" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="501" t="n">
+      <c r="I6" s="528" t="n">
         <v>6</v>
       </c>
       <c r="J6" s="116" t="n">
         <v>12144</v>
       </c>
-      <c r="K6" s="501" t="n">
+      <c r="K6" s="528" t="n">
         <v>6</v>
       </c>
       <c r="L6" s="116" t="n">
         <v>12835</v>
       </c>
-      <c r="M6" s="501" t="n">
+      <c r="M6" s="528" t="n">
         <v>6</v>
       </c>
       <c r="N6" s="116" t="n">
         <v>7696</v>
       </c>
-      <c r="O6" s="501" t="n">
+      <c r="O6" s="528" t="n">
         <v>6</v>
       </c>
       <c r="P6" s="116" t="n">
@@ -1638,15 +1671,15 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="503" t="inlineStr">
+      <c r="A7" s="530" t="inlineStr">
         <is>
           <t>#YJ20CRJYQ</t>
         </is>
       </c>
-      <c r="B7" s="503" t="n">
+      <c r="B7" s="530" t="n">
         <v>1350</v>
       </c>
-      <c r="C7" s="504" t="n">
+      <c r="C7" s="531" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="122" t="inlineStr">
@@ -1654,37 +1687,37 @@
           <t>UnluckGod</t>
         </is>
       </c>
-      <c r="E7" s="505" t="n">
+      <c r="E7" s="532" t="n">
         <v>6</v>
       </c>
       <c r="F7" s="122" t="n">
         <v>12824</v>
       </c>
-      <c r="G7" s="506" t="n">
+      <c r="G7" s="533" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="125" t="n">
         <v>61</v>
       </c>
-      <c r="I7" s="505" t="n">
+      <c r="I7" s="532" t="n">
         <v>6</v>
       </c>
       <c r="J7" s="122" t="n">
         <v>11999</v>
       </c>
-      <c r="K7" s="505" t="n">
+      <c r="K7" s="532" t="n">
         <v>6</v>
       </c>
       <c r="L7" s="122" t="n">
         <v>12972</v>
       </c>
-      <c r="M7" s="505" t="n">
+      <c r="M7" s="532" t="n">
         <v>6</v>
       </c>
       <c r="N7" s="122" t="n">
         <v>8286</v>
       </c>
-      <c r="O7" s="505" t="n">
+      <c r="O7" s="532" t="n">
         <v>6</v>
       </c>
       <c r="P7" s="122" t="n">
@@ -1692,15 +1725,15 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="499" t="inlineStr">
+      <c r="A8" s="526" t="inlineStr">
         <is>
           <t>#QUV2GP88U</t>
         </is>
       </c>
-      <c r="B8" s="499" t="n">
+      <c r="B8" s="526" t="n">
         <v>729</v>
       </c>
-      <c r="C8" s="500" t="n">
+      <c r="C8" s="527" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="116" t="inlineStr">
@@ -1708,37 +1741,37 @@
           <t>Nico Robin</t>
         </is>
       </c>
-      <c r="E8" s="501" t="n">
+      <c r="E8" s="528" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="116" t="n">
         <v>12612</v>
       </c>
-      <c r="G8" s="502" t="n">
+      <c r="G8" s="529" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="501" t="n">
+      <c r="I8" s="528" t="n">
         <v>6</v>
       </c>
       <c r="J8" s="116" t="n">
         <v>11338</v>
       </c>
-      <c r="K8" s="501" t="n">
+      <c r="K8" s="528" t="n">
         <v>6</v>
       </c>
       <c r="L8" s="116" t="n">
         <v>10997</v>
       </c>
-      <c r="M8" s="501" t="n">
+      <c r="M8" s="528" t="n">
         <v>6</v>
       </c>
       <c r="N8" s="116" t="n">
         <v>11087</v>
       </c>
-      <c r="O8" s="501" t="n">
+      <c r="O8" s="528" t="n">
         <v>6</v>
       </c>
       <c r="P8" s="116" t="n">
@@ -1746,15 +1779,15 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="503" t="inlineStr">
+      <c r="A9" s="530" t="inlineStr">
         <is>
           <t>#QCV22VP0G</t>
         </is>
       </c>
-      <c r="B9" s="503" t="n">
+      <c r="B9" s="530" t="n">
         <v>778</v>
       </c>
-      <c r="C9" s="504" t="n">
+      <c r="C9" s="531" t="n">
         <v>6</v>
       </c>
       <c r="D9" s="122" t="inlineStr">
@@ -1762,37 +1795,37 @@
           <t>Nami</t>
         </is>
       </c>
-      <c r="E9" s="505" t="n">
+      <c r="E9" s="532" t="n">
         <v>6</v>
       </c>
       <c r="F9" s="122" t="n">
         <v>11795</v>
       </c>
-      <c r="G9" s="506" t="n">
+      <c r="G9" s="533" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="505" t="n">
+      <c r="I9" s="532" t="n">
         <v>6</v>
       </c>
       <c r="J9" s="122" t="n">
         <v>10769</v>
       </c>
-      <c r="K9" s="505" t="n">
+      <c r="K9" s="532" t="n">
         <v>6</v>
       </c>
       <c r="L9" s="122" t="n">
         <v>12486</v>
       </c>
-      <c r="M9" s="505" t="n">
+      <c r="M9" s="532" t="n">
         <v>6</v>
       </c>
       <c r="N9" s="122" t="n">
         <v>8472</v>
       </c>
-      <c r="O9" s="505" t="n">
+      <c r="O9" s="532" t="n">
         <v>6</v>
       </c>
       <c r="P9" s="122" t="n">
@@ -1800,15 +1833,15 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="499" t="inlineStr">
+      <c r="A10" s="526" t="inlineStr">
         <is>
           <t>#YRGRRJQCY</t>
         </is>
       </c>
-      <c r="B10" s="499" t="n">
+      <c r="B10" s="526" t="n">
         <v>1337</v>
       </c>
-      <c r="C10" s="500" t="n">
+      <c r="C10" s="527" t="n">
         <v>7</v>
       </c>
       <c r="D10" s="116" t="inlineStr">
@@ -1816,37 +1849,37 @@
           <t>DoubleSpice</t>
         </is>
       </c>
-      <c r="E10" s="501" t="n">
+      <c r="E10" s="528" t="n">
         <v>6</v>
       </c>
       <c r="F10" s="116" t="n">
         <v>11620</v>
       </c>
-      <c r="G10" s="502" t="n">
+      <c r="G10" s="529" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="119" t="n">
         <v>60</v>
       </c>
-      <c r="I10" s="501" t="n">
+      <c r="I10" s="528" t="n">
         <v>6</v>
       </c>
       <c r="J10" s="116" t="n">
         <v>14095</v>
       </c>
-      <c r="K10" s="501" t="n">
+      <c r="K10" s="528" t="n">
         <v>6</v>
       </c>
       <c r="L10" s="116" t="n">
         <v>12379</v>
       </c>
-      <c r="M10" s="501" t="n">
+      <c r="M10" s="528" t="n">
         <v>6</v>
       </c>
       <c r="N10" s="116" t="n">
         <v>8256</v>
       </c>
-      <c r="O10" s="501" t="n">
+      <c r="O10" s="528" t="n">
         <v>6</v>
       </c>
       <c r="P10" s="116" t="n">
@@ -1854,15 +1887,15 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="503" t="inlineStr">
+      <c r="A11" s="530" t="inlineStr">
         <is>
           <t>#QUG8QQJ92</t>
         </is>
       </c>
-      <c r="B11" s="503" t="n">
+      <c r="B11" s="530" t="n">
         <v>920</v>
       </c>
-      <c r="C11" s="504" t="n">
+      <c r="C11" s="531" t="n">
         <v>8</v>
       </c>
       <c r="D11" s="122" t="inlineStr">
@@ -1870,37 +1903,37 @@
           <t>Karma</t>
         </is>
       </c>
-      <c r="E11" s="505" t="n">
+      <c r="E11" s="532" t="n">
         <v>6</v>
       </c>
       <c r="F11" s="122" t="n">
         <v>11355</v>
       </c>
-      <c r="G11" s="506" t="n">
+      <c r="G11" s="533" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="505" t="n">
+      <c r="I11" s="532" t="n">
         <v>6</v>
       </c>
       <c r="J11" s="122" t="n">
         <v>10003</v>
       </c>
-      <c r="K11" s="505" t="n">
+      <c r="K11" s="532" t="n">
         <v>6</v>
       </c>
       <c r="L11" s="122" t="n">
         <v>10595</v>
       </c>
-      <c r="M11" s="505" t="n">
+      <c r="M11" s="532" t="n">
         <v>6</v>
       </c>
       <c r="N11" s="122" t="n">
         <v>9240</v>
       </c>
-      <c r="O11" s="505" t="n">
+      <c r="O11" s="532" t="n">
         <v>6</v>
       </c>
       <c r="P11" s="122" t="n">
@@ -1908,15 +1941,15 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="507" t="inlineStr">
+      <c r="A12" s="534" t="inlineStr">
         <is>
           <t>#98JG2UJQL</t>
         </is>
       </c>
-      <c r="B12" s="507" t="n">
+      <c r="B12" s="534" t="n">
         <v>2957</v>
       </c>
-      <c r="C12" s="500" t="n">
+      <c r="C12" s="527" t="n">
         <v>9</v>
       </c>
       <c r="D12" s="133" t="inlineStr">
@@ -1924,37 +1957,37 @@
           <t>Dragonux</t>
         </is>
       </c>
-      <c r="E12" s="508" t="n">
+      <c r="E12" s="535" t="n">
         <v>6</v>
       </c>
       <c r="F12" s="133" t="n">
         <v>10910</v>
       </c>
-      <c r="G12" s="509" t="n">
+      <c r="G12" s="536" t="n">
         <v>211</v>
       </c>
       <c r="H12" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="508" t="n">
+      <c r="I12" s="535" t="n">
         <v>6</v>
       </c>
       <c r="J12" s="133" t="n">
         <v>8750</v>
       </c>
-      <c r="K12" s="508" t="n">
+      <c r="K12" s="535" t="n">
         <v>6</v>
       </c>
       <c r="L12" s="133" t="n">
         <v>10865</v>
       </c>
-      <c r="M12" s="508" t="n">
+      <c r="M12" s="535" t="n">
         <v>6</v>
       </c>
       <c r="N12" s="133" t="n">
         <v>8025</v>
       </c>
-      <c r="O12" s="508" t="n">
+      <c r="O12" s="535" t="n">
         <v>6</v>
       </c>
       <c r="P12" s="133" t="n">
@@ -1962,15 +1995,15 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="503" t="inlineStr">
+      <c r="A13" s="530" t="inlineStr">
         <is>
           <t>#QLR088LC9</t>
         </is>
       </c>
-      <c r="B13" s="503" t="n">
+      <c r="B13" s="530" t="n">
         <v>857</v>
       </c>
-      <c r="C13" s="504" t="n">
+      <c r="C13" s="531" t="n">
         <v>10</v>
       </c>
       <c r="D13" s="122" t="inlineStr">
@@ -1978,37 +2011,37 @@
           <t>Sanji</t>
         </is>
       </c>
-      <c r="E13" s="505" t="n">
+      <c r="E13" s="532" t="n">
         <v>6</v>
       </c>
       <c r="F13" s="122" t="n">
         <v>10910</v>
       </c>
-      <c r="G13" s="506" t="n">
+      <c r="G13" s="533" t="n">
         <v>0</v>
       </c>
       <c r="H13" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="505" t="n">
+      <c r="I13" s="532" t="n">
         <v>6</v>
       </c>
       <c r="J13" s="122" t="n">
         <v>9550</v>
       </c>
-      <c r="K13" s="505" t="n">
+      <c r="K13" s="532" t="n">
         <v>6</v>
       </c>
       <c r="L13" s="122" t="n">
         <v>9138</v>
       </c>
-      <c r="M13" s="505" t="n">
+      <c r="M13" s="532" t="n">
         <v>6</v>
       </c>
       <c r="N13" s="122" t="n">
         <v>8897</v>
       </c>
-      <c r="O13" s="505" t="n">
+      <c r="O13" s="532" t="n">
         <v>6</v>
       </c>
       <c r="P13" s="122" t="n">
@@ -2016,15 +2049,15 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="499" t="inlineStr">
+      <c r="A14" s="526" t="inlineStr">
         <is>
           <t>#QUYG0PQC8</t>
         </is>
       </c>
-      <c r="B14" s="499" t="n">
+      <c r="B14" s="526" t="n">
         <v>940</v>
       </c>
-      <c r="C14" s="500" t="n">
+      <c r="C14" s="527" t="n">
         <v>11</v>
       </c>
       <c r="D14" s="116" t="inlineStr">
@@ -2032,37 +2065,37 @@
           <t>Luffy</t>
         </is>
       </c>
-      <c r="E14" s="501" t="n">
+      <c r="E14" s="528" t="n">
         <v>6</v>
       </c>
       <c r="F14" s="116" t="n">
         <v>10879</v>
       </c>
-      <c r="G14" s="502" t="n">
+      <c r="G14" s="529" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="501" t="n">
+      <c r="I14" s="528" t="n">
         <v>6</v>
       </c>
       <c r="J14" s="116" t="n">
         <v>9114</v>
       </c>
-      <c r="K14" s="501" t="n">
+      <c r="K14" s="528" t="n">
         <v>6</v>
       </c>
       <c r="L14" s="116" t="n">
         <v>13385</v>
       </c>
-      <c r="M14" s="501" t="n">
+      <c r="M14" s="528" t="n">
         <v>6</v>
       </c>
       <c r="N14" s="116" t="n">
         <v>7877</v>
       </c>
-      <c r="O14" s="501" t="n">
+      <c r="O14" s="528" t="n">
         <v>6</v>
       </c>
       <c r="P14" s="116" t="n">
@@ -2070,15 +2103,15 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="510" t="inlineStr">
+      <c r="A15" s="537" t="inlineStr">
         <is>
           <t>#G0JPUQGYR</t>
         </is>
       </c>
-      <c r="B15" s="510" t="n">
+      <c r="B15" s="537" t="n">
         <v>1286</v>
       </c>
-      <c r="C15" s="504" t="n">
+      <c r="C15" s="531" t="n">
         <v>12</v>
       </c>
       <c r="D15" s="127" t="inlineStr">
@@ -2086,37 +2119,37 @@
           <t>Collin</t>
         </is>
       </c>
-      <c r="E15" s="511" t="n">
+      <c r="E15" s="538" t="n">
         <v>6</v>
       </c>
       <c r="F15" s="127" t="n">
         <v>8833</v>
       </c>
-      <c r="G15" s="512" t="n">
+      <c r="G15" s="539" t="n">
         <v>20</v>
       </c>
       <c r="H15" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="511" t="n">
+      <c r="I15" s="538" t="n">
         <v>6</v>
       </c>
       <c r="J15" s="127" t="n">
         <v>9238</v>
       </c>
-      <c r="K15" s="511" t="n">
+      <c r="K15" s="538" t="n">
         <v>6</v>
       </c>
       <c r="L15" s="127" t="n">
         <v>7756</v>
       </c>
-      <c r="M15" s="511" t="n">
+      <c r="M15" s="538" t="n">
         <v>6</v>
       </c>
       <c r="N15" s="131" t="n">
         <v>5943</v>
       </c>
-      <c r="O15" s="511" t="n">
+      <c r="O15" s="538" t="n">
         <v>6</v>
       </c>
       <c r="P15" s="127" t="n">
@@ -2124,15 +2157,15 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="507" t="inlineStr">
+      <c r="A16" s="534" t="inlineStr">
         <is>
           <t>#82QLQCJRJ</t>
         </is>
       </c>
-      <c r="B16" s="507" t="n">
+      <c r="B16" s="534" t="n">
         <v>2919</v>
       </c>
-      <c r="C16" s="500" t="n">
+      <c r="C16" s="527" t="n">
         <v>13</v>
       </c>
       <c r="D16" s="133" t="inlineStr">
@@ -2140,37 +2173,37 @@
           <t>Raging Fury</t>
         </is>
       </c>
-      <c r="E16" s="508" t="n">
+      <c r="E16" s="535" t="n">
         <v>6</v>
       </c>
       <c r="F16" s="133" t="n">
         <v>8055</v>
       </c>
-      <c r="G16" s="513" t="n">
+      <c r="G16" s="540" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="508" t="n">
+      <c r="I16" s="535" t="n">
         <v>6</v>
       </c>
       <c r="J16" s="133" t="n">
         <v>7115</v>
       </c>
-      <c r="K16" s="513" t="n">
+      <c r="K16" s="540" t="n">
         <v>2</v>
       </c>
       <c r="L16" s="148" t="n">
         <v>2320</v>
       </c>
-      <c r="M16" s="508" t="n">
+      <c r="M16" s="535" t="n">
         <v>6</v>
       </c>
       <c r="N16" s="139" t="n">
         <v>4920</v>
       </c>
-      <c r="O16" s="508" t="n">
+      <c r="O16" s="535" t="n">
         <v>6</v>
       </c>
       <c r="P16" s="139" t="n">
@@ -2178,15 +2211,15 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="503" t="inlineStr">
+      <c r="A17" s="530" t="inlineStr">
         <is>
           <t>#Q8CLCUCC2</t>
         </is>
       </c>
-      <c r="B17" s="503" t="n">
+      <c r="B17" s="530" t="n">
         <v>1327</v>
       </c>
-      <c r="C17" s="504" t="n">
+      <c r="C17" s="531" t="n">
         <v>14</v>
       </c>
       <c r="D17" s="122" t="inlineStr">
@@ -2194,37 +2227,37 @@
           <t>Moxxi</t>
         </is>
       </c>
-      <c r="E17" s="505" t="n">
+      <c r="E17" s="532" t="n">
         <v>6</v>
       </c>
       <c r="F17" s="122" t="n">
         <v>8015</v>
       </c>
-      <c r="G17" s="506" t="n">
+      <c r="G17" s="533" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="125" t="n">
         <v>60</v>
       </c>
-      <c r="I17" s="505" t="n">
+      <c r="I17" s="532" t="n">
         <v>6</v>
       </c>
       <c r="J17" s="122" t="n">
         <v>11010</v>
       </c>
-      <c r="K17" s="505" t="n">
+      <c r="K17" s="532" t="n">
         <v>6</v>
       </c>
       <c r="L17" s="122" t="n">
         <v>13857</v>
       </c>
-      <c r="M17" s="505" t="n">
+      <c r="M17" s="532" t="n">
         <v>6</v>
       </c>
       <c r="N17" s="122" t="n">
         <v>7905</v>
       </c>
-      <c r="O17" s="505" t="n">
+      <c r="O17" s="532" t="n">
         <v>6</v>
       </c>
       <c r="P17" s="122" t="n">
@@ -2232,15 +2265,15 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="507" t="inlineStr">
+      <c r="A18" s="534" t="inlineStr">
         <is>
           <t>#QU0U2Q99G</t>
         </is>
       </c>
-      <c r="B18" s="507" t="n">
+      <c r="B18" s="534" t="n">
         <v>913</v>
       </c>
-      <c r="C18" s="500" t="n">
+      <c r="C18" s="527" t="n">
         <v>15</v>
       </c>
       <c r="D18" s="133" t="inlineStr">
@@ -2248,45 +2281,45 @@
           <t>big coc</t>
         </is>
       </c>
-      <c r="E18" s="508" t="n">
+      <c r="E18" s="535" t="n">
         <v>6</v>
       </c>
       <c r="F18" s="133" t="n">
         <v>7420</v>
       </c>
-      <c r="G18" s="513" t="n">
+      <c r="G18" s="540" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="136" t="n">
         <v>40</v>
       </c>
-      <c r="I18" s="508" t="n">
+      <c r="I18" s="535" t="n">
         <v>5</v>
       </c>
       <c r="J18" s="139" t="n">
         <v>5150</v>
       </c>
-      <c r="K18" s="508" t="n">
+      <c r="K18" s="535" t="n">
         <v>6</v>
       </c>
       <c r="L18" s="133" t="n">
         <v>9075</v>
       </c>
-      <c r="M18" s="507" t="n"/>
+      <c r="M18" s="534" t="n"/>
       <c r="N18" s="136" t="n"/>
-      <c r="O18" s="507" t="n"/>
+      <c r="O18" s="534" t="n"/>
       <c r="P18" s="136" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="510" t="inlineStr">
+      <c r="A19" s="537" t="inlineStr">
         <is>
           <t>#QRPRYR8LL</t>
         </is>
       </c>
-      <c r="B19" s="510" t="n">
+      <c r="B19" s="537" t="n">
         <v>1086</v>
       </c>
-      <c r="C19" s="504" t="n">
+      <c r="C19" s="531" t="n">
         <v>16</v>
       </c>
       <c r="D19" s="127" t="inlineStr">
@@ -2294,37 +2327,37 @@
           <t>FidelCashflow</t>
         </is>
       </c>
-      <c r="E19" s="511" t="n">
+      <c r="E19" s="538" t="n">
         <v>6</v>
       </c>
       <c r="F19" s="127" t="n">
         <v>6415</v>
       </c>
-      <c r="G19" s="512" t="n">
+      <c r="G19" s="539" t="n">
         <v>4</v>
       </c>
       <c r="H19" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="511" t="n">
+      <c r="I19" s="538" t="n">
         <v>6</v>
       </c>
       <c r="J19" s="127" t="n">
         <v>6547</v>
       </c>
-      <c r="K19" s="511" t="n">
+      <c r="K19" s="538" t="n">
         <v>6</v>
       </c>
       <c r="L19" s="127" t="n">
         <v>6811</v>
       </c>
-      <c r="M19" s="511" t="n">
+      <c r="M19" s="538" t="n">
         <v>6</v>
       </c>
       <c r="N19" s="131" t="n">
         <v>4239</v>
       </c>
-      <c r="O19" s="511" t="n">
+      <c r="O19" s="538" t="n">
         <v>6</v>
       </c>
       <c r="P19" s="131" t="n">
@@ -2332,15 +2365,15 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="507" t="inlineStr">
+      <c r="A20" s="534" t="inlineStr">
         <is>
           <t>#QY0VGPQGQ</t>
         </is>
       </c>
-      <c r="B20" s="507" t="n">
+      <c r="B20" s="534" t="n">
         <v>570</v>
       </c>
-      <c r="C20" s="500" t="n">
+      <c r="C20" s="527" t="n">
         <v>17</v>
       </c>
       <c r="D20" s="133" t="inlineStr">
@@ -2348,37 +2381,37 @@
           <t>killerjones</t>
         </is>
       </c>
-      <c r="E20" s="508" t="n">
+      <c r="E20" s="535" t="n">
         <v>6</v>
       </c>
       <c r="F20" s="133" t="n">
         <v>6320</v>
       </c>
-      <c r="G20" s="513" t="n">
+      <c r="G20" s="540" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="136" t="n">
         <v>15</v>
       </c>
-      <c r="I20" s="507" t="n"/>
+      <c r="I20" s="534" t="n"/>
       <c r="J20" s="136" t="n"/>
-      <c r="K20" s="507" t="n"/>
+      <c r="K20" s="534" t="n"/>
       <c r="L20" s="136" t="n"/>
-      <c r="M20" s="507" t="n"/>
+      <c r="M20" s="534" t="n"/>
       <c r="N20" s="136" t="n"/>
-      <c r="O20" s="507" t="n"/>
+      <c r="O20" s="534" t="n"/>
       <c r="P20" s="136" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="510" t="inlineStr">
+      <c r="A21" s="537" t="inlineStr">
         <is>
           <t>#LC9GUPJJG</t>
         </is>
       </c>
-      <c r="B21" s="510" t="n">
+      <c r="B21" s="537" t="n">
         <v>953</v>
       </c>
-      <c r="C21" s="504" t="n">
+      <c r="C21" s="531" t="n">
         <v>18</v>
       </c>
       <c r="D21" s="127" t="inlineStr">
@@ -2386,41 +2419,41 @@
           <t>raptor2222a</t>
         </is>
       </c>
-      <c r="E21" s="511" t="n">
+      <c r="E21" s="538" t="n">
         <v>5</v>
       </c>
       <c r="F21" s="131" t="n">
         <v>4350</v>
       </c>
-      <c r="G21" s="512" t="n">
+      <c r="G21" s="539" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="512" t="n">
+      <c r="I21" s="539" t="n">
         <v>0</v>
       </c>
       <c r="J21" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K21" s="510" t="n"/>
+      <c r="K21" s="537" t="n"/>
       <c r="L21" s="130" t="n"/>
-      <c r="M21" s="510" t="n"/>
+      <c r="M21" s="537" t="n"/>
       <c r="N21" s="130" t="n"/>
-      <c r="O21" s="510" t="n"/>
+      <c r="O21" s="537" t="n"/>
       <c r="P21" s="130" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="507" t="inlineStr">
+      <c r="A22" s="534" t="inlineStr">
         <is>
           <t>#QLG0VJG2J</t>
         </is>
       </c>
-      <c r="B22" s="507" t="n">
+      <c r="B22" s="534" t="n">
         <v>1092</v>
       </c>
-      <c r="C22" s="500" t="n">
+      <c r="C22" s="527" t="n">
         <v>19</v>
       </c>
       <c r="D22" s="139" t="inlineStr">
@@ -2428,41 +2461,41 @@
           <t>PocketRocket</t>
         </is>
       </c>
-      <c r="E22" s="509" t="n">
+      <c r="E22" s="536" t="n">
         <v>4</v>
       </c>
       <c r="F22" s="139" t="n">
         <v>4327</v>
       </c>
-      <c r="G22" s="513" t="n">
+      <c r="G22" s="540" t="n">
         <v>20</v>
       </c>
       <c r="H22" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="509" t="n">
+      <c r="I22" s="536" t="n">
         <v>4</v>
       </c>
       <c r="J22" s="139" t="n">
         <v>5215</v>
       </c>
-      <c r="K22" s="507" t="n"/>
+      <c r="K22" s="534" t="n"/>
       <c r="L22" s="136" t="n"/>
-      <c r="M22" s="507" t="n"/>
+      <c r="M22" s="534" t="n"/>
       <c r="N22" s="136" t="n"/>
-      <c r="O22" s="507" t="n"/>
+      <c r="O22" s="534" t="n"/>
       <c r="P22" s="136" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="510" t="inlineStr">
+      <c r="A23" s="537" t="inlineStr">
         <is>
           <t>#QL8LVLYG8</t>
         </is>
       </c>
-      <c r="B23" s="510" t="n">
+      <c r="B23" s="537" t="n">
         <v>876</v>
       </c>
-      <c r="C23" s="504" t="n">
+      <c r="C23" s="531" t="n">
         <v>20</v>
       </c>
       <c r="D23" s="137" t="inlineStr">
@@ -2470,37 +2503,37 @@
           <t>Some guy</t>
         </is>
       </c>
-      <c r="E23" s="512" t="n">
+      <c r="E23" s="539" t="n">
         <v>2</v>
       </c>
       <c r="F23" s="137" t="n">
         <v>2650</v>
       </c>
-      <c r="G23" s="512" t="n">
+      <c r="G23" s="539" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="130" t="n">
         <v>20</v>
       </c>
-      <c r="I23" s="512" t="n">
+      <c r="I23" s="539" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K23" s="511" t="n">
+      <c r="K23" s="538" t="n">
         <v>6</v>
       </c>
       <c r="L23" s="127" t="n">
         <v>6917</v>
       </c>
-      <c r="M23" s="512" t="n">
+      <c r="M23" s="539" t="n">
         <v>0</v>
       </c>
       <c r="N23" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="O23" s="512" t="n">
+      <c r="O23" s="539" t="n">
         <v>2</v>
       </c>
       <c r="P23" s="137" t="n">
@@ -2562,15 +2595,15 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="510" t="inlineStr">
+      <c r="A25" s="537" t="inlineStr">
         <is>
           <t>#QV8JJ0URU</t>
         </is>
       </c>
-      <c r="B25" s="510" t="n">
+      <c r="B25" s="537" t="n">
         <v>741</v>
       </c>
-      <c r="C25" s="504" t="n">
+      <c r="C25" s="531" t="n">
         <v>22</v>
       </c>
       <c r="D25" s="137" t="inlineStr">
@@ -2578,37 +2611,37 @@
           <t>✨Jacob</t>
         </is>
       </c>
-      <c r="E25" s="512" t="n">
+      <c r="E25" s="539" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="G25" s="512" t="n">
+      <c r="G25" s="539" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="512" t="n">
+      <c r="I25" s="539" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K25" s="512" t="n">
+      <c r="K25" s="539" t="n">
         <v>0</v>
       </c>
       <c r="L25" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="M25" s="511" t="n">
+      <c r="M25" s="538" t="n">
         <v>6</v>
       </c>
       <c r="N25" s="127" t="n">
         <v>7385</v>
       </c>
-      <c r="O25" s="511" t="n">
+      <c r="O25" s="538" t="n">
         <v>6</v>
       </c>
       <c r="P25" s="127" t="n">
@@ -2616,15 +2649,15 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="507" t="inlineStr">
+      <c r="A26" s="534" t="inlineStr">
         <is>
           <t>#QY8L2GLUR</t>
         </is>
       </c>
-      <c r="B26" s="507" t="n">
+      <c r="B26" s="534" t="n">
         <v>907</v>
       </c>
-      <c r="C26" s="500" t="n">
+      <c r="C26" s="527" t="n">
         <v>23</v>
       </c>
       <c r="D26" s="148" t="inlineStr">
@@ -2632,37 +2665,37 @@
           <t>Huy</t>
         </is>
       </c>
-      <c r="E26" s="513" t="n">
+      <c r="E26" s="540" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="513" t="n">
+      <c r="G26" s="540" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="513" t="n">
+      <c r="I26" s="540" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="K26" s="513" t="n">
+      <c r="K26" s="540" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="M26" s="508" t="n">
+      <c r="M26" s="535" t="n">
         <v>6</v>
       </c>
       <c r="N26" s="133" t="n">
         <v>6995</v>
       </c>
-      <c r="O26" s="508" t="n">
+      <c r="O26" s="535" t="n">
         <v>6</v>
       </c>
       <c r="P26" s="133" t="n">
@@ -2670,15 +2703,15 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="510" t="inlineStr">
+      <c r="A27" s="537" t="inlineStr">
         <is>
           <t>#L2QQL9QVJ</t>
         </is>
       </c>
-      <c r="B27" s="510" t="n">
+      <c r="B27" s="537" t="n">
         <v>1450</v>
       </c>
-      <c r="C27" s="504" t="n">
+      <c r="C27" s="531" t="n">
         <v>24</v>
       </c>
       <c r="D27" s="137" t="inlineStr">
@@ -2686,37 +2719,37 @@
           <t>JustPre10d</t>
         </is>
       </c>
-      <c r="E27" s="512" t="n">
+      <c r="E27" s="539" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="G27" s="512" t="n">
+      <c r="G27" s="539" t="n">
         <v>0</v>
       </c>
       <c r="H27" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="512" t="n">
+      <c r="I27" s="539" t="n">
         <v>0</v>
       </c>
       <c r="J27" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K27" s="512" t="n">
+      <c r="K27" s="539" t="n">
         <v>0</v>
       </c>
       <c r="L27" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="M27" s="511" t="n">
+      <c r="M27" s="538" t="n">
         <v>6</v>
       </c>
       <c r="N27" s="127" t="n">
         <v>6655</v>
       </c>
-      <c r="O27" s="511" t="n">
+      <c r="O27" s="538" t="n">
         <v>6</v>
       </c>
       <c r="P27" s="127" t="n">
@@ -2724,15 +2757,15 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="507" t="inlineStr">
+      <c r="A28" s="534" t="inlineStr">
         <is>
           <t>#LPR9RPCY9</t>
         </is>
       </c>
-      <c r="B28" s="507" t="n">
+      <c r="B28" s="534" t="n">
         <v>990</v>
       </c>
-      <c r="C28" s="500" t="n">
+      <c r="C28" s="527" t="n">
         <v>25</v>
       </c>
       <c r="D28" s="148" t="inlineStr">
@@ -2740,49 +2773,49 @@
           <t>sayhuss17</t>
         </is>
       </c>
-      <c r="E28" s="513" t="n">
+      <c r="E28" s="540" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="G28" s="513" t="n">
+      <c r="G28" s="540" t="n">
         <v>0</v>
       </c>
       <c r="H28" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="513" t="n">
+      <c r="I28" s="540" t="n">
         <v>0</v>
       </c>
       <c r="J28" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="K28" s="513" t="n">
+      <c r="K28" s="540" t="n">
         <v>0</v>
       </c>
       <c r="L28" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="M28" s="509" t="n">
+      <c r="M28" s="536" t="n">
         <v>4</v>
       </c>
       <c r="N28" s="139" t="n">
         <v>4240</v>
       </c>
-      <c r="O28" s="507" t="n"/>
+      <c r="O28" s="534" t="n"/>
       <c r="P28" s="136" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="510" t="inlineStr">
+      <c r="A29" s="537" t="inlineStr">
         <is>
           <t>#QQL8C29CY</t>
         </is>
       </c>
-      <c r="B29" s="510" t="n">
+      <c r="B29" s="537" t="n">
         <v>891</v>
       </c>
-      <c r="C29" s="504" t="n">
+      <c r="C29" s="531" t="n">
         <v>26</v>
       </c>
       <c r="D29" s="137" t="inlineStr">
@@ -2790,37 +2823,37 @@
           <t>TypicalTeague#2</t>
         </is>
       </c>
-      <c r="E29" s="512" t="n">
+      <c r="E29" s="539" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="G29" s="512" t="n">
+      <c r="G29" s="539" t="n">
         <v>0</v>
       </c>
       <c r="H29" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="512" t="n">
+      <c r="I29" s="539" t="n">
         <v>0</v>
       </c>
       <c r="J29" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K29" s="512" t="n">
+      <c r="K29" s="539" t="n">
         <v>0</v>
       </c>
       <c r="L29" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="M29" s="511" t="n">
+      <c r="M29" s="538" t="n">
         <v>5</v>
       </c>
       <c r="N29" s="131" t="n">
         <v>4070</v>
       </c>
-      <c r="O29" s="511" t="n">
+      <c r="O29" s="538" t="n">
         <v>6</v>
       </c>
       <c r="P29" s="127" t="n">
@@ -2828,15 +2861,15 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="507" t="inlineStr">
+      <c r="A30" s="534" t="inlineStr">
         <is>
           <t>#PJYVV989R</t>
         </is>
       </c>
-      <c r="B30" s="507" t="n">
+      <c r="B30" s="534" t="n">
         <v>1584</v>
       </c>
-      <c r="C30" s="500" t="n">
+      <c r="C30" s="527" t="n">
         <v>27</v>
       </c>
       <c r="D30" s="148" t="inlineStr">
@@ -2844,49 +2877,49 @@
           <t>nx</t>
         </is>
       </c>
-      <c r="E30" s="513" t="n">
+      <c r="E30" s="540" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="G30" s="513" t="n">
+      <c r="G30" s="540" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I30" s="513" t="n">
+      <c r="I30" s="540" t="n">
         <v>0</v>
       </c>
       <c r="J30" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="K30" s="513" t="n">
+      <c r="K30" s="540" t="n">
         <v>0</v>
       </c>
       <c r="L30" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="M30" s="513" t="n">
+      <c r="M30" s="540" t="n">
         <v>0</v>
       </c>
       <c r="N30" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="O30" s="507" t="n"/>
+      <c r="O30" s="534" t="n"/>
       <c r="P30" s="136" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="510" t="inlineStr">
+      <c r="A31" s="537" t="inlineStr">
         <is>
           <t>#L9JJQY992</t>
         </is>
       </c>
-      <c r="B31" s="510" t="n">
+      <c r="B31" s="537" t="n">
         <v>773</v>
       </c>
-      <c r="C31" s="504" t="n">
+      <c r="C31" s="531" t="n">
         <v>28</v>
       </c>
       <c r="D31" s="137" t="inlineStr">
@@ -2894,49 +2927,49 @@
           <t>Fisted_Waffle</t>
         </is>
       </c>
-      <c r="E31" s="512" t="n">
+      <c r="E31" s="539" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="G31" s="512" t="n">
+      <c r="G31" s="539" t="n">
         <v>0</v>
       </c>
       <c r="H31" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I31" s="512" t="n">
+      <c r="I31" s="539" t="n">
         <v>0</v>
       </c>
       <c r="J31" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K31" s="512" t="n">
+      <c r="K31" s="539" t="n">
         <v>0</v>
       </c>
       <c r="L31" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="M31" s="512" t="n">
+      <c r="M31" s="539" t="n">
         <v>0</v>
       </c>
       <c r="N31" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="O31" s="510" t="n"/>
+      <c r="O31" s="537" t="n"/>
       <c r="P31" s="130" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="507" t="inlineStr">
+      <c r="A32" s="534" t="inlineStr">
         <is>
           <t>#L9QL9YQQY</t>
         </is>
       </c>
-      <c r="B32" s="507" t="n">
+      <c r="B32" s="534" t="n">
         <v>975</v>
       </c>
-      <c r="C32" s="500" t="n">
+      <c r="C32" s="527" t="n">
         <v>29</v>
       </c>
       <c r="D32" s="148" t="inlineStr">
@@ -2944,37 +2977,37 @@
           <t>Ima Chad</t>
         </is>
       </c>
-      <c r="E32" s="513" t="n">
+      <c r="E32" s="540" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="G32" s="513" t="n">
+      <c r="G32" s="540" t="n">
         <v>0</v>
       </c>
       <c r="H32" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I32" s="513" t="n">
+      <c r="I32" s="540" t="n">
         <v>0</v>
       </c>
       <c r="J32" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="K32" s="513" t="n">
+      <c r="K32" s="540" t="n">
         <v>0</v>
       </c>
       <c r="L32" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="M32" s="513" t="n">
+      <c r="M32" s="540" t="n">
         <v>0</v>
       </c>
       <c r="N32" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="O32" s="508" t="n">
+      <c r="O32" s="535" t="n">
         <v>5</v>
       </c>
       <c r="P32" s="148" t="n">
@@ -3016,15 +3049,15 @@
       <c r="P33" s="235" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="513" t="inlineStr">
+      <c r="A34" s="540" t="inlineStr">
         <is>
           <t>#Q0JG2RJQ8</t>
         </is>
       </c>
-      <c r="B34" s="507" t="n">
+      <c r="B34" s="534" t="n">
         <v>997</v>
       </c>
-      <c r="C34" s="500" t="n">
+      <c r="C34" s="527" t="n">
         <v>31</v>
       </c>
       <c r="D34" s="136" t="inlineStr">
@@ -3032,33 +3065,33 @@
           <t>bozo</t>
         </is>
       </c>
-      <c r="E34" s="507" t="n"/>
+      <c r="E34" s="534" t="n"/>
       <c r="F34" s="136" t="n"/>
-      <c r="G34" s="507" t="n"/>
+      <c r="G34" s="534" t="n"/>
       <c r="H34" s="136" t="n"/>
-      <c r="I34" s="507" t="n"/>
+      <c r="I34" s="534" t="n"/>
       <c r="J34" s="136" t="n"/>
-      <c r="K34" s="508" t="n">
+      <c r="K34" s="535" t="n">
         <v>6</v>
       </c>
       <c r="L34" s="133" t="n">
         <v>6495</v>
       </c>
-      <c r="M34" s="507" t="n"/>
+      <c r="M34" s="534" t="n"/>
       <c r="N34" s="136" t="n"/>
-      <c r="O34" s="507" t="n"/>
+      <c r="O34" s="534" t="n"/>
       <c r="P34" s="136" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="512" t="inlineStr">
+      <c r="A35" s="539" t="inlineStr">
         <is>
           <t>#UVCCQC02</t>
         </is>
       </c>
-      <c r="B35" s="510" t="n">
+      <c r="B35" s="537" t="n">
         <v>1806</v>
       </c>
-      <c r="C35" s="504" t="n">
+      <c r="C35" s="531" t="n">
         <v>32</v>
       </c>
       <c r="D35" s="130" t="inlineStr">
@@ -3066,25 +3099,25 @@
           <t>lordshisha</t>
         </is>
       </c>
-      <c r="E35" s="510" t="n"/>
+      <c r="E35" s="537" t="n"/>
       <c r="F35" s="130" t="n"/>
-      <c r="G35" s="510" t="n"/>
+      <c r="G35" s="537" t="n"/>
       <c r="H35" s="130" t="n"/>
-      <c r="I35" s="510" t="n"/>
+      <c r="I35" s="537" t="n"/>
       <c r="J35" s="130" t="n"/>
-      <c r="K35" s="511" t="n">
+      <c r="K35" s="538" t="n">
         <v>6</v>
       </c>
       <c r="L35" s="127" t="n">
         <v>8496</v>
       </c>
-      <c r="M35" s="511" t="n">
+      <c r="M35" s="538" t="n">
         <v>6</v>
       </c>
       <c r="N35" s="127" t="n">
         <v>6310</v>
       </c>
-      <c r="O35" s="511" t="n">
+      <c r="O35" s="538" t="n">
         <v>6</v>
       </c>
       <c r="P35" s="127" t="n">
@@ -3092,15 +3125,15 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="513" t="inlineStr">
+      <c r="A36" s="540" t="inlineStr">
         <is>
           <t>#P2CPRPQU</t>
         </is>
       </c>
-      <c r="B36" s="507" t="n">
+      <c r="B36" s="534" t="n">
         <v>2232</v>
       </c>
-      <c r="C36" s="500" t="n">
+      <c r="C36" s="527" t="n">
         <v>33</v>
       </c>
       <c r="D36" s="136" t="inlineStr">
@@ -3108,25 +3141,25 @@
           <t>The Drift King</t>
         </is>
       </c>
-      <c r="E36" s="507" t="n"/>
+      <c r="E36" s="534" t="n"/>
       <c r="F36" s="136" t="n"/>
-      <c r="G36" s="507" t="n"/>
+      <c r="G36" s="534" t="n"/>
       <c r="H36" s="136" t="n"/>
-      <c r="I36" s="507" t="n"/>
+      <c r="I36" s="534" t="n"/>
       <c r="J36" s="136" t="n"/>
-      <c r="K36" s="508" t="n">
+      <c r="K36" s="535" t="n">
         <v>6</v>
       </c>
       <c r="L36" s="133" t="n">
         <v>8023</v>
       </c>
-      <c r="M36" s="508" t="n">
+      <c r="M36" s="535" t="n">
         <v>6</v>
       </c>
       <c r="N36" s="133" t="n">
         <v>7625</v>
       </c>
-      <c r="O36" s="508" t="n">
+      <c r="O36" s="535" t="n">
         <v>6</v>
       </c>
       <c r="P36" s="133" t="n">
@@ -3134,15 +3167,15 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="512" t="inlineStr">
+      <c r="A37" s="539" t="inlineStr">
         <is>
           <t>#QJVL0LYQQ</t>
         </is>
       </c>
-      <c r="B37" s="510" t="n">
+      <c r="B37" s="537" t="n">
         <v>921</v>
       </c>
-      <c r="C37" s="504" t="n">
+      <c r="C37" s="531" t="n">
         <v>34</v>
       </c>
       <c r="D37" s="130" t="inlineStr">
@@ -3150,25 +3183,25 @@
           <t>mobbb341</t>
         </is>
       </c>
-      <c r="E37" s="510" t="n"/>
+      <c r="E37" s="537" t="n"/>
       <c r="F37" s="130" t="n"/>
-      <c r="G37" s="510" t="n"/>
+      <c r="G37" s="537" t="n"/>
       <c r="H37" s="130" t="n"/>
-      <c r="I37" s="510" t="n"/>
+      <c r="I37" s="537" t="n"/>
       <c r="J37" s="130" t="n"/>
-      <c r="K37" s="511" t="n">
+      <c r="K37" s="538" t="n">
         <v>6</v>
       </c>
       <c r="L37" s="127" t="n">
         <v>7710</v>
       </c>
-      <c r="M37" s="511" t="n">
+      <c r="M37" s="538" t="n">
         <v>6</v>
       </c>
       <c r="N37" s="127" t="n">
         <v>8810</v>
       </c>
-      <c r="O37" s="511" t="n">
+      <c r="O37" s="538" t="n">
         <v>6</v>
       </c>
       <c r="P37" s="131" t="n">
@@ -3176,15 +3209,15 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="513" t="inlineStr">
+      <c r="A38" s="540" t="inlineStr">
         <is>
           <t>#L8R82C8VC</t>
         </is>
       </c>
-      <c r="B38" s="507" t="n">
+      <c r="B38" s="534" t="n">
         <v>1162</v>
       </c>
-      <c r="C38" s="500" t="n">
+      <c r="C38" s="527" t="n">
         <v>35</v>
       </c>
       <c r="D38" s="136" t="inlineStr">
@@ -3192,25 +3225,25 @@
           <t>caden asue</t>
         </is>
       </c>
-      <c r="E38" s="507" t="n"/>
+      <c r="E38" s="534" t="n"/>
       <c r="F38" s="136" t="n"/>
-      <c r="G38" s="507" t="n"/>
+      <c r="G38" s="534" t="n"/>
       <c r="H38" s="136" t="n"/>
-      <c r="I38" s="507" t="n"/>
+      <c r="I38" s="534" t="n"/>
       <c r="J38" s="136" t="n"/>
-      <c r="K38" s="508" t="n">
+      <c r="K38" s="535" t="n">
         <v>6</v>
       </c>
       <c r="L38" s="139" t="n">
         <v>5112</v>
       </c>
-      <c r="M38" s="508" t="n">
+      <c r="M38" s="535" t="n">
         <v>6</v>
       </c>
       <c r="N38" s="139" t="n">
         <v>4283</v>
       </c>
-      <c r="O38" s="508" t="n">
+      <c r="O38" s="535" t="n">
         <v>6</v>
       </c>
       <c r="P38" s="139" t="n">
@@ -3218,15 +3251,15 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="512" t="inlineStr">
+      <c r="A39" s="539" t="inlineStr">
         <is>
           <t>#L9Q8VLLQG</t>
         </is>
       </c>
-      <c r="B39" s="510" t="n">
+      <c r="B39" s="537" t="n">
         <v>1130</v>
       </c>
-      <c r="C39" s="504" t="n">
+      <c r="C39" s="531" t="n">
         <v>36</v>
       </c>
       <c r="D39" s="130" t="inlineStr">
@@ -3234,17 +3267,17 @@
           <t>cat</t>
         </is>
       </c>
-      <c r="E39" s="510" t="n"/>
+      <c r="E39" s="537" t="n"/>
       <c r="F39" s="130" t="n"/>
-      <c r="G39" s="510" t="n"/>
+      <c r="G39" s="537" t="n"/>
       <c r="H39" s="130" t="n"/>
-      <c r="I39" s="510" t="n"/>
+      <c r="I39" s="537" t="n"/>
       <c r="J39" s="130" t="n"/>
-      <c r="K39" s="510" t="n"/>
+      <c r="K39" s="537" t="n"/>
       <c r="L39" s="130" t="n"/>
-      <c r="M39" s="510" t="n"/>
+      <c r="M39" s="537" t="n"/>
       <c r="N39" s="130" t="n"/>
-      <c r="O39" s="511" t="n">
+      <c r="O39" s="538" t="n">
         <v>6</v>
       </c>
       <c r="P39" s="131" t="n">
@@ -3252,15 +3285,15 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="513" t="inlineStr">
+      <c r="A40" s="540" t="inlineStr">
         <is>
           <t>#QV0PQC9JU</t>
         </is>
       </c>
-      <c r="B40" s="507" t="n">
+      <c r="B40" s="534" t="n">
         <v>539</v>
       </c>
-      <c r="C40" s="500" t="n">
+      <c r="C40" s="527" t="n">
         <v>37</v>
       </c>
       <c r="D40" s="136" t="inlineStr">
@@ -3268,17 +3301,17 @@
           <t>Superman</t>
         </is>
       </c>
-      <c r="E40" s="507" t="n"/>
+      <c r="E40" s="534" t="n"/>
       <c r="F40" s="136" t="n"/>
-      <c r="G40" s="507" t="n"/>
+      <c r="G40" s="534" t="n"/>
       <c r="H40" s="136" t="n"/>
-      <c r="I40" s="507" t="n"/>
+      <c r="I40" s="534" t="n"/>
       <c r="J40" s="136" t="n"/>
-      <c r="K40" s="507" t="n"/>
+      <c r="K40" s="534" t="n"/>
       <c r="L40" s="136" t="n"/>
-      <c r="M40" s="507" t="n"/>
+      <c r="M40" s="534" t="n"/>
       <c r="N40" s="136" t="n"/>
-      <c r="O40" s="508" t="n">
+      <c r="O40" s="535" t="n">
         <v>6</v>
       </c>
       <c r="P40" s="139" t="n">
@@ -3286,15 +3319,15 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="512" t="inlineStr">
+      <c r="A41" s="539" t="inlineStr">
         <is>
           <t>#LU0CRP09L</t>
         </is>
       </c>
-      <c r="B41" s="510" t="n">
+      <c r="B41" s="537" t="n">
         <v>809</v>
       </c>
-      <c r="C41" s="504" t="n">
+      <c r="C41" s="531" t="n">
         <v>38</v>
       </c>
       <c r="D41" s="130" t="inlineStr">
@@ -3302,17 +3335,17 @@
           <t>I Dont Know</t>
         </is>
       </c>
-      <c r="E41" s="510" t="n"/>
+      <c r="E41" s="537" t="n"/>
       <c r="F41" s="130" t="n"/>
-      <c r="G41" s="510" t="n"/>
+      <c r="G41" s="537" t="n"/>
       <c r="H41" s="130" t="n"/>
-      <c r="I41" s="510" t="n"/>
+      <c r="I41" s="537" t="n"/>
       <c r="J41" s="130" t="n"/>
-      <c r="K41" s="510" t="n"/>
+      <c r="K41" s="537" t="n"/>
       <c r="L41" s="130" t="n"/>
-      <c r="M41" s="510" t="n"/>
+      <c r="M41" s="537" t="n"/>
       <c r="N41" s="130" t="n"/>
-      <c r="O41" s="514" t="n">
+      <c r="O41" s="541" t="n">
         <v>3</v>
       </c>
       <c r="P41" s="137" t="n">
@@ -3320,15 +3353,15 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="513" t="inlineStr">
+      <c r="A42" s="540" t="inlineStr">
         <is>
           <t>#YCPP0QPP8</t>
         </is>
       </c>
-      <c r="B42" s="507" t="n">
+      <c r="B42" s="534" t="n">
         <v>3327</v>
       </c>
-      <c r="C42" s="500" t="n">
+      <c r="C42" s="527" t="n">
         <v>39</v>
       </c>
       <c r="D42" s="136" t="inlineStr">
@@ -3336,17 +3369,17 @@
           <t>Coach</t>
         </is>
       </c>
-      <c r="E42" s="507" t="n"/>
+      <c r="E42" s="534" t="n"/>
       <c r="F42" s="136" t="n"/>
-      <c r="G42" s="507" t="n"/>
+      <c r="G42" s="534" t="n"/>
       <c r="H42" s="136" t="n"/>
-      <c r="I42" s="507" t="n"/>
+      <c r="I42" s="534" t="n"/>
       <c r="J42" s="136" t="n"/>
-      <c r="K42" s="507" t="n"/>
+      <c r="K42" s="534" t="n"/>
       <c r="L42" s="136" t="n"/>
-      <c r="M42" s="507" t="n"/>
+      <c r="M42" s="534" t="n"/>
       <c r="N42" s="136" t="n"/>
-      <c r="O42" s="513" t="n">
+      <c r="O42" s="540" t="n">
         <v>0</v>
       </c>
       <c r="P42" s="148" t="n">
@@ -3466,259 +3499,259 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="488" t="inlineStr">
+      <c r="B4" s="515" t="inlineStr">
         <is>
           <t>#QUYG0PQC8</t>
         </is>
       </c>
-      <c r="C4" s="488" t="n">
+      <c r="C4" s="515" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="489" t="inlineStr">
+      <c r="D4" s="516" t="inlineStr">
         <is>
           <t>Luffy</t>
         </is>
       </c>
-      <c r="E4" s="489" t="n">
+      <c r="E4" s="516" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="116" t="n">
         <v>6</v>
       </c>
-      <c r="G4" s="488" t="n"/>
+      <c r="G4" s="515" t="n"/>
       <c r="H4" s="119" t="n"/>
-      <c r="I4" s="488" t="n"/>
+      <c r="I4" s="515" t="n"/>
       <c r="J4" s="119" t="n"/>
-      <c r="K4" s="488" t="n"/>
+      <c r="K4" s="515" t="n"/>
       <c r="L4" s="119" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="490" t="inlineStr">
+      <c r="B5" s="517" t="inlineStr">
         <is>
           <t>#G0QPVJY9L</t>
         </is>
       </c>
-      <c r="C5" s="490" t="n">
+      <c r="C5" s="517" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="491" t="inlineStr">
+      <c r="D5" s="518" t="inlineStr">
         <is>
           <t>Zoro</t>
         </is>
       </c>
-      <c r="E5" s="491" t="n">
+      <c r="E5" s="518" t="n">
         <v>2</v>
       </c>
       <c r="F5" s="122" t="n">
         <v>6</v>
       </c>
-      <c r="G5" s="490" t="n"/>
+      <c r="G5" s="517" t="n"/>
       <c r="H5" s="125" t="n"/>
-      <c r="I5" s="490" t="n"/>
+      <c r="I5" s="517" t="n"/>
       <c r="J5" s="125" t="n"/>
-      <c r="K5" s="490" t="n"/>
+      <c r="K5" s="517" t="n"/>
       <c r="L5" s="125" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" s="488" t="inlineStr">
+      <c r="B6" s="515" t="inlineStr">
         <is>
           <t>#QLR088LC9</t>
         </is>
       </c>
-      <c r="C6" s="488" t="n">
+      <c r="C6" s="515" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="489" t="inlineStr">
+      <c r="D6" s="516" t="inlineStr">
         <is>
           <t>Sanji</t>
         </is>
       </c>
-      <c r="E6" s="489" t="n">
+      <c r="E6" s="516" t="n">
         <v>2</v>
       </c>
       <c r="F6" s="116" t="n">
         <v>6</v>
       </c>
-      <c r="G6" s="488" t="n"/>
+      <c r="G6" s="515" t="n"/>
       <c r="H6" s="119" t="n"/>
-      <c r="I6" s="488" t="n"/>
+      <c r="I6" s="515" t="n"/>
       <c r="J6" s="119" t="n"/>
-      <c r="K6" s="488" t="n"/>
+      <c r="K6" s="515" t="n"/>
       <c r="L6" s="119" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="490" t="inlineStr">
+      <c r="B7" s="517" t="inlineStr">
         <is>
           <t>#QCV22VP0G</t>
         </is>
       </c>
-      <c r="C7" s="490" t="n">
+      <c r="C7" s="517" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="491" t="inlineStr">
+      <c r="D7" s="518" t="inlineStr">
         <is>
           <t>Nami</t>
         </is>
       </c>
-      <c r="E7" s="491" t="n">
+      <c r="E7" s="518" t="n">
         <v>2</v>
       </c>
       <c r="F7" s="122" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="490" t="n"/>
+      <c r="G7" s="517" t="n"/>
       <c r="H7" s="125" t="n"/>
-      <c r="I7" s="490" t="n"/>
+      <c r="I7" s="517" t="n"/>
       <c r="J7" s="125" t="n"/>
-      <c r="K7" s="490" t="n"/>
+      <c r="K7" s="517" t="n"/>
       <c r="L7" s="125" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="488" t="inlineStr">
+      <c r="B8" s="515" t="inlineStr">
         <is>
           <t>#QUV2GP88U</t>
         </is>
       </c>
-      <c r="C8" s="488" t="n">
+      <c r="C8" s="515" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="489" t="inlineStr">
+      <c r="D8" s="516" t="inlineStr">
         <is>
           <t>Nico Robin</t>
         </is>
       </c>
-      <c r="E8" s="489" t="n">
+      <c r="E8" s="516" t="n">
         <v>2</v>
       </c>
       <c r="F8" s="116" t="n">
         <v>6</v>
       </c>
-      <c r="G8" s="488" t="n"/>
+      <c r="G8" s="515" t="n"/>
       <c r="H8" s="119" t="n"/>
-      <c r="I8" s="488" t="n"/>
+      <c r="I8" s="515" t="n"/>
       <c r="J8" s="119" t="n"/>
-      <c r="K8" s="488" t="n"/>
+      <c r="K8" s="515" t="n"/>
       <c r="L8" s="119" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" s="492" t="inlineStr">
+      <c r="B9" s="519" t="inlineStr">
         <is>
           <t>#98JG2UJQL</t>
         </is>
       </c>
-      <c r="C9" s="492" t="n"/>
-      <c r="D9" s="492" t="inlineStr">
+      <c r="C9" s="519" t="n"/>
+      <c r="D9" s="519" t="inlineStr">
         <is>
           <t>Dragonux</t>
         </is>
       </c>
-      <c r="E9" s="492" t="n"/>
+      <c r="E9" s="519" t="n"/>
       <c r="F9" s="130" t="n"/>
-      <c r="G9" s="492" t="n"/>
+      <c r="G9" s="519" t="n"/>
       <c r="H9" s="130" t="n"/>
-      <c r="I9" s="492" t="n"/>
+      <c r="I9" s="519" t="n"/>
       <c r="J9" s="130" t="n"/>
-      <c r="K9" s="492" t="n"/>
+      <c r="K9" s="519" t="n"/>
       <c r="L9" s="130" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="493" t="inlineStr">
+      <c r="B10" s="520" t="inlineStr">
         <is>
           <t>#82QLQCJRJ</t>
         </is>
       </c>
-      <c r="C10" s="493" t="n"/>
-      <c r="D10" s="493" t="inlineStr">
+      <c r="C10" s="520" t="n"/>
+      <c r="D10" s="520" t="inlineStr">
         <is>
           <t>Raging Fury</t>
         </is>
       </c>
-      <c r="E10" s="493" t="n"/>
+      <c r="E10" s="520" t="n"/>
       <c r="F10" s="136" t="n"/>
-      <c r="G10" s="493" t="n"/>
+      <c r="G10" s="520" t="n"/>
       <c r="H10" s="136" t="n"/>
-      <c r="I10" s="493" t="n"/>
+      <c r="I10" s="520" t="n"/>
       <c r="J10" s="136" t="n"/>
-      <c r="K10" s="493" t="n"/>
+      <c r="K10" s="520" t="n"/>
       <c r="L10" s="136" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="490" t="inlineStr">
+      <c r="B11" s="517" t="inlineStr">
         <is>
           <t>#90U0VPU9U</t>
         </is>
       </c>
-      <c r="C11" s="490" t="n"/>
-      <c r="D11" s="490" t="inlineStr">
+      <c r="C11" s="517" t="n"/>
+      <c r="D11" s="517" t="inlineStr">
         <is>
           <t>KYANI7E</t>
         </is>
       </c>
-      <c r="E11" s="490" t="n"/>
+      <c r="E11" s="517" t="n"/>
       <c r="F11" s="125" t="n"/>
-      <c r="G11" s="490" t="n"/>
+      <c r="G11" s="517" t="n"/>
       <c r="H11" s="125" t="n"/>
-      <c r="I11" s="490" t="n"/>
+      <c r="I11" s="517" t="n"/>
       <c r="J11" s="125" t="n"/>
-      <c r="K11" s="490" t="n"/>
+      <c r="K11" s="517" t="n"/>
       <c r="L11" s="125" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="493" t="inlineStr">
+      <c r="B12" s="520" t="inlineStr">
         <is>
           <t>#PJYVV989R</t>
         </is>
       </c>
-      <c r="C12" s="493" t="n"/>
-      <c r="D12" s="493" t="inlineStr">
+      <c r="C12" s="520" t="n"/>
+      <c r="D12" s="520" t="inlineStr">
         <is>
           <t>nx</t>
         </is>
       </c>
-      <c r="E12" s="493" t="n"/>
+      <c r="E12" s="520" t="n"/>
       <c r="F12" s="136" t="n"/>
-      <c r="G12" s="494" t="n">
+      <c r="G12" s="521" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="139" t="n">
         <v>3</v>
       </c>
-      <c r="I12" s="494" t="n">
+      <c r="I12" s="521" t="n">
         <v>1</v>
       </c>
       <c r="J12" s="139" t="n">
         <v>3</v>
       </c>
-      <c r="K12" s="493" t="n"/>
+      <c r="K12" s="520" t="n"/>
       <c r="L12" s="136" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="490" t="inlineStr">
+      <c r="B13" s="517" t="inlineStr">
         <is>
           <t>#QLJ2U20Y2</t>
         </is>
       </c>
-      <c r="C13" s="490" t="n"/>
-      <c r="D13" s="490" t="inlineStr">
+      <c r="C13" s="517" t="n"/>
+      <c r="D13" s="517" t="inlineStr">
         <is>
           <t>DeadLeaf</t>
         </is>
       </c>
-      <c r="E13" s="490" t="n"/>
+      <c r="E13" s="517" t="n"/>
       <c r="F13" s="125" t="n"/>
-      <c r="G13" s="491" t="n">
+      <c r="G13" s="518" t="n">
         <v>2</v>
       </c>
       <c r="H13" s="122" t="n">
         <v>5</v>
       </c>
-      <c r="I13" s="491" t="n">
+      <c r="I13" s="518" t="n">
         <v>2</v>
       </c>
       <c r="J13" s="122" t="n">
         <v>5</v>
       </c>
-      <c r="K13" s="491" t="n">
+      <c r="K13" s="518" t="n">
         <v>2</v>
       </c>
       <c r="L13" s="122" t="n">
@@ -3726,28 +3759,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="493" t="inlineStr">
+      <c r="B14" s="520" t="inlineStr">
         <is>
           <t>#L2QQL9QVJ</t>
         </is>
       </c>
-      <c r="C14" s="493" t="n"/>
-      <c r="D14" s="493" t="inlineStr">
+      <c r="C14" s="520" t="n"/>
+      <c r="D14" s="520" t="inlineStr">
         <is>
           <t>JustPre10d</t>
         </is>
       </c>
-      <c r="E14" s="493" t="n"/>
+      <c r="E14" s="520" t="n"/>
       <c r="F14" s="136" t="n"/>
-      <c r="G14" s="493" t="n"/>
+      <c r="G14" s="520" t="n"/>
       <c r="H14" s="136" t="n"/>
-      <c r="I14" s="495" t="n">
+      <c r="I14" s="522" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="K14" s="494" t="n">
+      <c r="K14" s="521" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="148" t="n">
@@ -3755,32 +3788,32 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="490" t="inlineStr">
+      <c r="B15" s="517" t="inlineStr">
         <is>
           <t>#YJ20CRJYQ</t>
         </is>
       </c>
-      <c r="C15" s="490" t="n"/>
-      <c r="D15" s="490" t="inlineStr">
+      <c r="C15" s="517" t="n"/>
+      <c r="D15" s="517" t="inlineStr">
         <is>
           <t>UnluckGod</t>
         </is>
       </c>
-      <c r="E15" s="490" t="n"/>
+      <c r="E15" s="517" t="n"/>
       <c r="F15" s="125" t="n"/>
-      <c r="G15" s="491" t="n">
+      <c r="G15" s="518" t="n">
         <v>2</v>
       </c>
       <c r="H15" s="122" t="n">
         <v>6</v>
       </c>
-      <c r="I15" s="491" t="n">
+      <c r="I15" s="518" t="n">
         <v>2</v>
       </c>
       <c r="J15" s="122" t="n">
         <v>4</v>
       </c>
-      <c r="K15" s="491" t="n">
+      <c r="K15" s="518" t="n">
         <v>2</v>
       </c>
       <c r="L15" s="122" t="n">
@@ -3788,61 +3821,61 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="488" t="inlineStr">
+      <c r="B16" s="515" t="inlineStr">
         <is>
           <t>#YRGRRJQCY</t>
         </is>
       </c>
-      <c r="C16" s="488" t="n"/>
-      <c r="D16" s="488" t="inlineStr">
+      <c r="C16" s="515" t="n"/>
+      <c r="D16" s="515" t="inlineStr">
         <is>
           <t>DoubleSpice</t>
         </is>
       </c>
-      <c r="E16" s="488" t="n"/>
+      <c r="E16" s="515" t="n"/>
       <c r="F16" s="119" t="n"/>
-      <c r="G16" s="489" t="n">
+      <c r="G16" s="516" t="n">
         <v>2</v>
       </c>
       <c r="H16" s="116" t="n">
         <v>5</v>
       </c>
-      <c r="I16" s="489" t="n">
+      <c r="I16" s="516" t="n">
         <v>2</v>
       </c>
       <c r="J16" s="116" t="n">
         <v>6</v>
       </c>
-      <c r="K16" s="488" t="n"/>
+      <c r="K16" s="515" t="n"/>
       <c r="L16" s="119" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="490" t="inlineStr">
+      <c r="B17" s="517" t="inlineStr">
         <is>
           <t>#Q8CLCUCC2</t>
         </is>
       </c>
-      <c r="C17" s="490" t="n"/>
-      <c r="D17" s="490" t="inlineStr">
+      <c r="C17" s="517" t="n"/>
+      <c r="D17" s="517" t="inlineStr">
         <is>
           <t>Moxxi</t>
         </is>
       </c>
-      <c r="E17" s="490" t="n"/>
+      <c r="E17" s="517" t="n"/>
       <c r="F17" s="125" t="n"/>
-      <c r="G17" s="491" t="n">
+      <c r="G17" s="518" t="n">
         <v>2</v>
       </c>
       <c r="H17" s="122" t="n">
         <v>6</v>
       </c>
-      <c r="I17" s="491" t="n">
+      <c r="I17" s="518" t="n">
         <v>2</v>
       </c>
       <c r="J17" s="122" t="n">
         <v>5</v>
       </c>
-      <c r="K17" s="491" t="n">
+      <c r="K17" s="518" t="n">
         <v>2</v>
       </c>
       <c r="L17" s="122" t="n">
@@ -3850,396 +3883,396 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="493" t="inlineStr">
+      <c r="B18" s="520" t="inlineStr">
         <is>
           <t>#G0JPUQGYR</t>
         </is>
       </c>
-      <c r="C18" s="493" t="n"/>
-      <c r="D18" s="493" t="inlineStr">
+      <c r="C18" s="520" t="n"/>
+      <c r="D18" s="520" t="inlineStr">
         <is>
           <t>Collin</t>
         </is>
       </c>
-      <c r="E18" s="493" t="n"/>
+      <c r="E18" s="520" t="n"/>
       <c r="F18" s="136" t="n"/>
-      <c r="G18" s="493" t="n"/>
+      <c r="G18" s="520" t="n"/>
       <c r="H18" s="136" t="n"/>
-      <c r="I18" s="493" t="n"/>
+      <c r="I18" s="520" t="n"/>
       <c r="J18" s="136" t="n"/>
-      <c r="K18" s="493" t="n"/>
+      <c r="K18" s="520" t="n"/>
       <c r="L18" s="136" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="492" t="inlineStr">
+      <c r="B19" s="519" t="inlineStr">
         <is>
           <t>#QLG0VJG2J</t>
         </is>
       </c>
-      <c r="C19" s="492" t="n"/>
-      <c r="D19" s="492" t="inlineStr">
+      <c r="C19" s="519" t="n"/>
+      <c r="D19" s="519" t="inlineStr">
         <is>
           <t>PocketRocket</t>
         </is>
       </c>
-      <c r="E19" s="492" t="n"/>
+      <c r="E19" s="519" t="n"/>
       <c r="F19" s="130" t="n"/>
-      <c r="G19" s="492" t="n"/>
+      <c r="G19" s="519" t="n"/>
       <c r="H19" s="130" t="n"/>
-      <c r="I19" s="492" t="n"/>
+      <c r="I19" s="519" t="n"/>
       <c r="J19" s="130" t="n"/>
-      <c r="K19" s="492" t="n"/>
+      <c r="K19" s="519" t="n"/>
       <c r="L19" s="130" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="493" t="inlineStr">
+      <c r="B20" s="520" t="inlineStr">
         <is>
           <t>#QRPRYR8LL</t>
         </is>
       </c>
-      <c r="C20" s="493" t="n"/>
-      <c r="D20" s="493" t="inlineStr">
+      <c r="C20" s="520" t="n"/>
+      <c r="D20" s="520" t="inlineStr">
         <is>
           <t>FidelCashflow</t>
         </is>
       </c>
-      <c r="E20" s="493" t="n"/>
+      <c r="E20" s="520" t="n"/>
       <c r="F20" s="136" t="n"/>
-      <c r="G20" s="493" t="n"/>
+      <c r="G20" s="520" t="n"/>
       <c r="H20" s="136" t="n"/>
-      <c r="I20" s="493" t="n"/>
+      <c r="I20" s="520" t="n"/>
       <c r="J20" s="136" t="n"/>
-      <c r="K20" s="493" t="n"/>
+      <c r="K20" s="520" t="n"/>
       <c r="L20" s="136" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="492" t="inlineStr">
+      <c r="B21" s="519" t="inlineStr">
         <is>
           <t>#QJC8LQU9U</t>
         </is>
       </c>
-      <c r="C21" s="492" t="n"/>
-      <c r="D21" s="492" t="inlineStr">
+      <c r="C21" s="519" t="n"/>
+      <c r="D21" s="519" t="inlineStr">
         <is>
           <t>Master01</t>
         </is>
       </c>
-      <c r="E21" s="492" t="n"/>
+      <c r="E21" s="519" t="n"/>
       <c r="F21" s="130" t="n"/>
-      <c r="G21" s="496" t="n">
+      <c r="G21" s="523" t="n">
         <v>2</v>
       </c>
       <c r="H21" s="127" t="n">
         <v>4</v>
       </c>
-      <c r="I21" s="492" t="n"/>
+      <c r="I21" s="519" t="n"/>
       <c r="J21" s="130" t="n"/>
-      <c r="K21" s="492" t="n"/>
+      <c r="K21" s="519" t="n"/>
       <c r="L21" s="130" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="493" t="inlineStr">
+      <c r="B22" s="520" t="inlineStr">
         <is>
           <t>#LPR9RPCY9</t>
         </is>
       </c>
-      <c r="C22" s="493" t="n"/>
-      <c r="D22" s="493" t="inlineStr">
+      <c r="C22" s="520" t="n"/>
+      <c r="D22" s="520" t="inlineStr">
         <is>
           <t>sayhuss17</t>
         </is>
       </c>
-      <c r="E22" s="493" t="n"/>
+      <c r="E22" s="520" t="n"/>
       <c r="F22" s="136" t="n"/>
-      <c r="G22" s="495" t="n">
+      <c r="G22" s="522" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="495" t="n">
+      <c r="I22" s="522" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="K22" s="493" t="n"/>
+      <c r="K22" s="520" t="n"/>
       <c r="L22" s="136" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="492" t="inlineStr">
+      <c r="B23" s="519" t="inlineStr">
         <is>
           <t>#L9QL9YQQY</t>
         </is>
       </c>
-      <c r="C23" s="492" t="n"/>
-      <c r="D23" s="492" t="inlineStr">
+      <c r="C23" s="519" t="n"/>
+      <c r="D23" s="519" t="inlineStr">
         <is>
           <t>Ima Chad</t>
         </is>
       </c>
-      <c r="E23" s="492" t="n"/>
+      <c r="E23" s="519" t="n"/>
       <c r="F23" s="130" t="n"/>
-      <c r="G23" s="492" t="n"/>
+      <c r="G23" s="519" t="n"/>
       <c r="H23" s="130" t="n"/>
-      <c r="I23" s="492" t="n"/>
+      <c r="I23" s="519" t="n"/>
       <c r="J23" s="130" t="n"/>
-      <c r="K23" s="492" t="n"/>
+      <c r="K23" s="519" t="n"/>
       <c r="L23" s="130" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="493" t="inlineStr">
+      <c r="B24" s="520" t="inlineStr">
         <is>
           <t>#LC9GUPJJG</t>
         </is>
       </c>
-      <c r="C24" s="493" t="n"/>
-      <c r="D24" s="493" t="inlineStr">
+      <c r="C24" s="520" t="n"/>
+      <c r="D24" s="520" t="inlineStr">
         <is>
           <t>raptor2222a</t>
         </is>
       </c>
-      <c r="E24" s="493" t="n"/>
+      <c r="E24" s="520" t="n"/>
       <c r="F24" s="136" t="n"/>
-      <c r="G24" s="493" t="n"/>
+      <c r="G24" s="520" t="n"/>
       <c r="H24" s="136" t="n"/>
-      <c r="I24" s="493" t="n"/>
+      <c r="I24" s="520" t="n"/>
       <c r="J24" s="136" t="n"/>
-      <c r="K24" s="493" t="n"/>
+      <c r="K24" s="520" t="n"/>
       <c r="L24" s="136" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="490" t="inlineStr">
+      <c r="B25" s="517" t="inlineStr">
         <is>
           <t>#QUG8QQJ92</t>
         </is>
       </c>
-      <c r="C25" s="490" t="n"/>
-      <c r="D25" s="490" t="inlineStr">
+      <c r="C25" s="517" t="n"/>
+      <c r="D25" s="517" t="inlineStr">
         <is>
           <t>Karma</t>
         </is>
       </c>
-      <c r="E25" s="490" t="n"/>
+      <c r="E25" s="517" t="n"/>
       <c r="F25" s="125" t="n"/>
-      <c r="G25" s="490" t="n"/>
+      <c r="G25" s="517" t="n"/>
       <c r="H25" s="125" t="n"/>
-      <c r="I25" s="490" t="n"/>
+      <c r="I25" s="517" t="n"/>
       <c r="J25" s="125" t="n"/>
-      <c r="K25" s="490" t="n"/>
+      <c r="K25" s="517" t="n"/>
       <c r="L25" s="125" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="493" t="inlineStr">
+      <c r="B26" s="520" t="inlineStr">
         <is>
           <t>#QU0U2Q99G</t>
         </is>
       </c>
-      <c r="C26" s="493" t="n"/>
-      <c r="D26" s="493" t="inlineStr">
+      <c r="C26" s="520" t="n"/>
+      <c r="D26" s="520" t="inlineStr">
         <is>
           <t>big coc</t>
         </is>
       </c>
-      <c r="E26" s="493" t="n"/>
+      <c r="E26" s="520" t="n"/>
       <c r="F26" s="136" t="n"/>
-      <c r="G26" s="493" t="n"/>
+      <c r="G26" s="520" t="n"/>
       <c r="H26" s="136" t="n"/>
-      <c r="I26" s="493" t="n"/>
+      <c r="I26" s="520" t="n"/>
       <c r="J26" s="136" t="n"/>
-      <c r="K26" s="493" t="n"/>
+      <c r="K26" s="520" t="n"/>
       <c r="L26" s="136" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="492" t="inlineStr">
+      <c r="B27" s="519" t="inlineStr">
         <is>
           <t>#QY8L2GLUR</t>
         </is>
       </c>
-      <c r="C27" s="492" t="n"/>
-      <c r="D27" s="492" t="inlineStr">
+      <c r="C27" s="519" t="n"/>
+      <c r="D27" s="519" t="inlineStr">
         <is>
           <t>Huy</t>
         </is>
       </c>
-      <c r="E27" s="492" t="n"/>
+      <c r="E27" s="519" t="n"/>
       <c r="F27" s="130" t="n"/>
-      <c r="G27" s="497" t="n">
+      <c r="G27" s="524" t="n">
         <v>0</v>
       </c>
       <c r="H27" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="492" t="n"/>
+      <c r="I27" s="519" t="n"/>
       <c r="J27" s="130" t="n"/>
-      <c r="K27" s="492" t="n"/>
+      <c r="K27" s="519" t="n"/>
       <c r="L27" s="130" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="493" t="inlineStr">
+      <c r="B28" s="520" t="inlineStr">
         <is>
           <t>#QQL8C29CY</t>
         </is>
       </c>
-      <c r="C28" s="493" t="n"/>
-      <c r="D28" s="493" t="inlineStr">
+      <c r="C28" s="520" t="n"/>
+      <c r="D28" s="520" t="inlineStr">
         <is>
           <t>TypicalTeague#2</t>
         </is>
       </c>
-      <c r="E28" s="493" t="n"/>
+      <c r="E28" s="520" t="n"/>
       <c r="F28" s="136" t="n"/>
-      <c r="G28" s="493" t="n"/>
+      <c r="G28" s="520" t="n"/>
       <c r="H28" s="136" t="n"/>
-      <c r="I28" s="493" t="n"/>
+      <c r="I28" s="520" t="n"/>
       <c r="J28" s="136" t="n"/>
-      <c r="K28" s="493" t="n"/>
+      <c r="K28" s="520" t="n"/>
       <c r="L28" s="136" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="492" t="inlineStr">
+      <c r="B29" s="519" t="inlineStr">
         <is>
           <t>#QL8LVLYG8</t>
         </is>
       </c>
-      <c r="C29" s="492" t="n"/>
-      <c r="D29" s="492" t="inlineStr">
+      <c r="C29" s="519" t="n"/>
+      <c r="D29" s="519" t="inlineStr">
         <is>
           <t>Some guy</t>
         </is>
       </c>
-      <c r="E29" s="492" t="n"/>
+      <c r="E29" s="519" t="n"/>
       <c r="F29" s="130" t="n"/>
-      <c r="G29" s="492" t="n"/>
+      <c r="G29" s="519" t="n"/>
       <c r="H29" s="130" t="n"/>
-      <c r="I29" s="492" t="n"/>
+      <c r="I29" s="519" t="n"/>
       <c r="J29" s="130" t="n"/>
-      <c r="K29" s="492" t="n"/>
+      <c r="K29" s="519" t="n"/>
       <c r="L29" s="130" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="493" t="inlineStr">
+      <c r="B30" s="520" t="inlineStr">
         <is>
           <t>#L9JJQY992</t>
         </is>
       </c>
-      <c r="C30" s="493" t="n"/>
-      <c r="D30" s="493" t="inlineStr">
+      <c r="C30" s="520" t="n"/>
+      <c r="D30" s="520" t="inlineStr">
         <is>
           <t>Fisted_Waffle</t>
         </is>
       </c>
-      <c r="E30" s="493" t="n"/>
+      <c r="E30" s="520" t="n"/>
       <c r="F30" s="136" t="n"/>
-      <c r="G30" s="493" t="n"/>
+      <c r="G30" s="520" t="n"/>
       <c r="H30" s="136" t="n"/>
-      <c r="I30" s="493" t="n"/>
+      <c r="I30" s="520" t="n"/>
       <c r="J30" s="136" t="n"/>
-      <c r="K30" s="493" t="n"/>
+      <c r="K30" s="520" t="n"/>
       <c r="L30" s="136" t="n"/>
     </row>
     <row r="31">
-      <c r="B31" s="492" t="inlineStr">
+      <c r="B31" s="519" t="inlineStr">
         <is>
           <t>#QV8JJ0URU</t>
         </is>
       </c>
-      <c r="C31" s="492" t="n"/>
-      <c r="D31" s="492" t="inlineStr">
+      <c r="C31" s="519" t="n"/>
+      <c r="D31" s="519" t="inlineStr">
         <is>
           <t>✨Jacob</t>
         </is>
       </c>
-      <c r="E31" s="492" t="n"/>
+      <c r="E31" s="519" t="n"/>
       <c r="F31" s="130" t="n"/>
-      <c r="G31" s="492" t="n"/>
+      <c r="G31" s="519" t="n"/>
       <c r="H31" s="130" t="n"/>
-      <c r="I31" s="497" t="n">
+      <c r="I31" s="524" t="n">
         <v>0</v>
       </c>
       <c r="J31" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K31" s="492" t="n"/>
+      <c r="K31" s="519" t="n"/>
       <c r="L31" s="130" t="n"/>
     </row>
     <row r="32">
-      <c r="B32" s="493" t="inlineStr">
+      <c r="B32" s="520" t="inlineStr">
         <is>
           <t>#QY0VGPQGQ</t>
         </is>
       </c>
-      <c r="C32" s="493" t="n"/>
-      <c r="D32" s="493" t="inlineStr">
+      <c r="C32" s="520" t="n"/>
+      <c r="D32" s="520" t="inlineStr">
         <is>
           <t>killerjones</t>
         </is>
       </c>
-      <c r="E32" s="493" t="n"/>
+      <c r="E32" s="520" t="n"/>
       <c r="F32" s="136" t="n"/>
-      <c r="G32" s="493" t="n"/>
+      <c r="G32" s="520" t="n"/>
       <c r="H32" s="136" t="n"/>
-      <c r="I32" s="493" t="n"/>
+      <c r="I32" s="520" t="n"/>
       <c r="J32" s="136" t="n"/>
-      <c r="K32" s="493" t="n"/>
+      <c r="K32" s="520" t="n"/>
       <c r="L32" s="136" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" s="497" t="inlineStr">
+      <c r="B33" s="524" t="inlineStr">
         <is>
           <t>#P2CPRPQU</t>
         </is>
       </c>
-      <c r="C33" s="492" t="n"/>
-      <c r="D33" s="492" t="inlineStr">
+      <c r="C33" s="519" t="n"/>
+      <c r="D33" s="519" t="inlineStr">
         <is>
           <t>The Drift King</t>
         </is>
       </c>
-      <c r="E33" s="492" t="n"/>
+      <c r="E33" s="519" t="n"/>
       <c r="F33" s="130" t="n"/>
-      <c r="G33" s="496" t="n">
+      <c r="G33" s="523" t="n">
         <v>2</v>
       </c>
       <c r="H33" s="127" t="n">
         <v>6</v>
       </c>
-      <c r="I33" s="496" t="n">
+      <c r="I33" s="523" t="n">
         <v>2</v>
       </c>
       <c r="J33" s="127" t="n">
         <v>6</v>
       </c>
-      <c r="K33" s="492" t="n"/>
+      <c r="K33" s="519" t="n"/>
       <c r="L33" s="130" t="n"/>
     </row>
     <row r="34">
-      <c r="B34" s="495" t="inlineStr">
+      <c r="B34" s="522" t="inlineStr">
         <is>
           <t>#UVCCQC02</t>
         </is>
       </c>
-      <c r="C34" s="493" t="n"/>
-      <c r="D34" s="493" t="inlineStr">
+      <c r="C34" s="520" t="n"/>
+      <c r="D34" s="520" t="inlineStr">
         <is>
           <t>lordshisha</t>
         </is>
       </c>
-      <c r="E34" s="493" t="n"/>
+      <c r="E34" s="520" t="n"/>
       <c r="F34" s="136" t="n"/>
-      <c r="G34" s="498" t="n">
+      <c r="G34" s="525" t="n">
         <v>2</v>
       </c>
       <c r="H34" s="133" t="n">
         <v>6</v>
       </c>
-      <c r="I34" s="498" t="n">
+      <c r="I34" s="525" t="n">
         <v>2</v>
       </c>
       <c r="J34" s="139" t="n">
         <v>3</v>
       </c>
-      <c r="K34" s="498" t="n">
+      <c r="K34" s="525" t="n">
         <v>2</v>
       </c>
       <c r="L34" s="148" t="n">
@@ -4247,66 +4280,66 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="497" t="inlineStr">
+      <c r="B35" s="524" t="inlineStr">
         <is>
           <t>#Q0JG2RJQ8</t>
         </is>
       </c>
-      <c r="C35" s="492" t="n"/>
-      <c r="D35" s="492" t="inlineStr">
+      <c r="C35" s="519" t="n"/>
+      <c r="D35" s="519" t="inlineStr">
         <is>
           <t>bozo</t>
         </is>
       </c>
-      <c r="E35" s="492" t="n"/>
+      <c r="E35" s="519" t="n"/>
       <c r="F35" s="130" t="n"/>
-      <c r="G35" s="492" t="n"/>
+      <c r="G35" s="519" t="n"/>
       <c r="H35" s="130" t="n"/>
-      <c r="I35" s="492" t="n"/>
+      <c r="I35" s="519" t="n"/>
       <c r="J35" s="130" t="n"/>
-      <c r="K35" s="492" t="n"/>
+      <c r="K35" s="519" t="n"/>
       <c r="L35" s="130" t="n"/>
     </row>
     <row r="36">
-      <c r="B36" s="495" t="inlineStr">
+      <c r="B36" s="522" t="inlineStr">
         <is>
           <t>#QJVL0LYQQ</t>
         </is>
       </c>
-      <c r="C36" s="493" t="n"/>
-      <c r="D36" s="493" t="inlineStr">
+      <c r="C36" s="520" t="n"/>
+      <c r="D36" s="520" t="inlineStr">
         <is>
           <t>mobbb341</t>
         </is>
       </c>
-      <c r="E36" s="493" t="n"/>
+      <c r="E36" s="520" t="n"/>
       <c r="F36" s="136" t="n"/>
-      <c r="G36" s="493" t="n"/>
+      <c r="G36" s="520" t="n"/>
       <c r="H36" s="136" t="n"/>
-      <c r="I36" s="493" t="n"/>
+      <c r="I36" s="520" t="n"/>
       <c r="J36" s="136" t="n"/>
-      <c r="K36" s="493" t="n"/>
+      <c r="K36" s="520" t="n"/>
       <c r="L36" s="136" t="n"/>
     </row>
     <row r="37">
-      <c r="B37" s="497" t="inlineStr">
+      <c r="B37" s="524" t="inlineStr">
         <is>
           <t>#L8R82C8VC</t>
         </is>
       </c>
-      <c r="C37" s="492" t="n"/>
-      <c r="D37" s="492" t="inlineStr">
+      <c r="C37" s="519" t="n"/>
+      <c r="D37" s="519" t="inlineStr">
         <is>
           <t>caden asue</t>
         </is>
       </c>
-      <c r="E37" s="492" t="n"/>
+      <c r="E37" s="519" t="n"/>
       <c r="F37" s="130" t="n"/>
-      <c r="G37" s="492" t="n"/>
+      <c r="G37" s="519" t="n"/>
       <c r="H37" s="130" t="n"/>
-      <c r="I37" s="492" t="n"/>
+      <c r="I37" s="519" t="n"/>
       <c r="J37" s="130" t="n"/>
-      <c r="K37" s="492" t="n"/>
+      <c r="K37" s="519" t="n"/>
       <c r="L37" s="130" t="n"/>
     </row>
   </sheetData>

--- a/Clash.xlsx
+++ b/Clash.xlsx
@@ -179,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -292,11 +292,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="542">
+  <cellXfs count="569">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -961,6 +963,37 @@
     <xf numFmtId="164" fontId="5" fillId="25" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="24" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="23" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="18" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="21" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="22" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="21" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="24" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="22" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="25" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="18" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="24" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="21" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="22" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="25" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="21" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="22" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="25" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="24" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="23" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1509,15 +1542,15 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="526" t="inlineStr">
+      <c r="A4" s="553" t="inlineStr">
         <is>
           <t>#QLJ2U20Y2</t>
         </is>
       </c>
-      <c r="B4" s="526" t="n">
+      <c r="B4" s="553" t="n">
         <v>1486</v>
       </c>
-      <c r="C4" s="527" t="n">
+      <c r="C4" s="554" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="116" t="inlineStr">
@@ -1525,37 +1558,37 @@
           <t>DeadLeaf</t>
         </is>
       </c>
-      <c r="E4" s="528" t="n">
+      <c r="E4" s="555" t="n">
         <v>6</v>
       </c>
       <c r="F4" s="116" t="n">
         <v>13763</v>
       </c>
-      <c r="G4" s="529" t="n">
+      <c r="G4" s="556" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="119" t="n">
         <v>30</v>
       </c>
-      <c r="I4" s="528" t="n">
+      <c r="I4" s="555" t="n">
         <v>6</v>
       </c>
       <c r="J4" s="116" t="n">
         <v>11140</v>
       </c>
-      <c r="K4" s="528" t="n">
+      <c r="K4" s="555" t="n">
         <v>6</v>
       </c>
       <c r="L4" s="116" t="n">
         <v>15509</v>
       </c>
-      <c r="M4" s="528" t="n">
+      <c r="M4" s="555" t="n">
         <v>6</v>
       </c>
       <c r="N4" s="116" t="n">
         <v>8567</v>
       </c>
-      <c r="O4" s="528" t="n">
+      <c r="O4" s="555" t="n">
         <v>6</v>
       </c>
       <c r="P4" s="116" t="n">
@@ -1563,15 +1596,15 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="530" t="inlineStr">
+      <c r="A5" s="557" t="inlineStr">
         <is>
           <t>#G0QPVJY9L</t>
         </is>
       </c>
-      <c r="B5" s="530" t="n">
+      <c r="B5" s="557" t="n">
         <v>840</v>
       </c>
-      <c r="C5" s="531" t="n">
+      <c r="C5" s="558" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="122" t="inlineStr">
@@ -1579,37 +1612,37 @@
           <t>Zoro</t>
         </is>
       </c>
-      <c r="E5" s="532" t="n">
+      <c r="E5" s="559" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="122" t="n">
         <v>13432</v>
       </c>
-      <c r="G5" s="533" t="n">
+      <c r="G5" s="560" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="532" t="n">
+      <c r="I5" s="559" t="n">
         <v>6</v>
       </c>
       <c r="J5" s="122" t="n">
         <v>8855</v>
       </c>
-      <c r="K5" s="532" t="n">
+      <c r="K5" s="559" t="n">
         <v>6</v>
       </c>
       <c r="L5" s="122" t="n">
         <v>10965</v>
       </c>
-      <c r="M5" s="532" t="n">
+      <c r="M5" s="559" t="n">
         <v>6</v>
       </c>
       <c r="N5" s="122" t="n">
         <v>7905</v>
       </c>
-      <c r="O5" s="532" t="n">
+      <c r="O5" s="559" t="n">
         <v>6</v>
       </c>
       <c r="P5" s="122" t="n">
@@ -1617,15 +1650,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="526" t="inlineStr">
+      <c r="A6" s="553" t="inlineStr">
         <is>
           <t>#90U0VPU9U</t>
         </is>
       </c>
-      <c r="B6" s="526" t="n">
-        <v>2509</v>
-      </c>
-      <c r="C6" s="527" t="n">
+      <c r="B6" s="553" t="n">
+        <v>2523</v>
+      </c>
+      <c r="C6" s="554" t="n">
         <v>3</v>
       </c>
       <c r="D6" s="116" t="inlineStr">
@@ -1633,37 +1666,37 @@
           <t>KYANI7E</t>
         </is>
       </c>
-      <c r="E6" s="528" t="n">
+      <c r="E6" s="555" t="n">
         <v>6</v>
       </c>
       <c r="F6" s="116" t="n">
         <v>13260</v>
       </c>
-      <c r="G6" s="529" t="n">
+      <c r="G6" s="556" t="n">
         <v>61</v>
       </c>
       <c r="H6" s="119" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="528" t="n">
+      <c r="I6" s="555" t="n">
         <v>6</v>
       </c>
       <c r="J6" s="116" t="n">
         <v>12144</v>
       </c>
-      <c r="K6" s="528" t="n">
+      <c r="K6" s="555" t="n">
         <v>6</v>
       </c>
       <c r="L6" s="116" t="n">
         <v>12835</v>
       </c>
-      <c r="M6" s="528" t="n">
+      <c r="M6" s="555" t="n">
         <v>6</v>
       </c>
       <c r="N6" s="116" t="n">
         <v>7696</v>
       </c>
-      <c r="O6" s="528" t="n">
+      <c r="O6" s="555" t="n">
         <v>6</v>
       </c>
       <c r="P6" s="116" t="n">
@@ -1671,15 +1704,15 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="530" t="inlineStr">
+      <c r="A7" s="557" t="inlineStr">
         <is>
           <t>#YJ20CRJYQ</t>
         </is>
       </c>
-      <c r="B7" s="530" t="n">
+      <c r="B7" s="557" t="n">
         <v>1350</v>
       </c>
-      <c r="C7" s="531" t="n">
+      <c r="C7" s="558" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="122" t="inlineStr">
@@ -1687,37 +1720,37 @@
           <t>UnluckGod</t>
         </is>
       </c>
-      <c r="E7" s="532" t="n">
+      <c r="E7" s="559" t="n">
         <v>6</v>
       </c>
       <c r="F7" s="122" t="n">
         <v>12824</v>
       </c>
-      <c r="G7" s="533" t="n">
+      <c r="G7" s="560" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="125" t="n">
         <v>61</v>
       </c>
-      <c r="I7" s="532" t="n">
+      <c r="I7" s="559" t="n">
         <v>6</v>
       </c>
       <c r="J7" s="122" t="n">
         <v>11999</v>
       </c>
-      <c r="K7" s="532" t="n">
+      <c r="K7" s="559" t="n">
         <v>6</v>
       </c>
       <c r="L7" s="122" t="n">
         <v>12972</v>
       </c>
-      <c r="M7" s="532" t="n">
+      <c r="M7" s="559" t="n">
         <v>6</v>
       </c>
       <c r="N7" s="122" t="n">
         <v>8286</v>
       </c>
-      <c r="O7" s="532" t="n">
+      <c r="O7" s="559" t="n">
         <v>6</v>
       </c>
       <c r="P7" s="122" t="n">
@@ -1725,15 +1758,15 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="526" t="inlineStr">
+      <c r="A8" s="553" t="inlineStr">
         <is>
           <t>#QUV2GP88U</t>
         </is>
       </c>
-      <c r="B8" s="526" t="n">
+      <c r="B8" s="553" t="n">
         <v>729</v>
       </c>
-      <c r="C8" s="527" t="n">
+      <c r="C8" s="554" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="116" t="inlineStr">
@@ -1741,37 +1774,37 @@
           <t>Nico Robin</t>
         </is>
       </c>
-      <c r="E8" s="528" t="n">
+      <c r="E8" s="555" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="116" t="n">
         <v>12612</v>
       </c>
-      <c r="G8" s="529" t="n">
+      <c r="G8" s="556" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="528" t="n">
+      <c r="I8" s="555" t="n">
         <v>6</v>
       </c>
       <c r="J8" s="116" t="n">
         <v>11338</v>
       </c>
-      <c r="K8" s="528" t="n">
+      <c r="K8" s="555" t="n">
         <v>6</v>
       </c>
       <c r="L8" s="116" t="n">
         <v>10997</v>
       </c>
-      <c r="M8" s="528" t="n">
+      <c r="M8" s="555" t="n">
         <v>6</v>
       </c>
       <c r="N8" s="116" t="n">
         <v>11087</v>
       </c>
-      <c r="O8" s="528" t="n">
+      <c r="O8" s="555" t="n">
         <v>6</v>
       </c>
       <c r="P8" s="116" t="n">
@@ -1779,15 +1812,15 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="530" t="inlineStr">
+      <c r="A9" s="557" t="inlineStr">
         <is>
           <t>#QCV22VP0G</t>
         </is>
       </c>
-      <c r="B9" s="530" t="n">
+      <c r="B9" s="557" t="n">
         <v>778</v>
       </c>
-      <c r="C9" s="531" t="n">
+      <c r="C9" s="558" t="n">
         <v>6</v>
       </c>
       <c r="D9" s="122" t="inlineStr">
@@ -1795,37 +1828,37 @@
           <t>Nami</t>
         </is>
       </c>
-      <c r="E9" s="532" t="n">
+      <c r="E9" s="559" t="n">
         <v>6</v>
       </c>
       <c r="F9" s="122" t="n">
         <v>11795</v>
       </c>
-      <c r="G9" s="533" t="n">
+      <c r="G9" s="560" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="532" t="n">
+      <c r="I9" s="559" t="n">
         <v>6</v>
       </c>
       <c r="J9" s="122" t="n">
         <v>10769</v>
       </c>
-      <c r="K9" s="532" t="n">
+      <c r="K9" s="559" t="n">
         <v>6</v>
       </c>
       <c r="L9" s="122" t="n">
         <v>12486</v>
       </c>
-      <c r="M9" s="532" t="n">
+      <c r="M9" s="559" t="n">
         <v>6</v>
       </c>
       <c r="N9" s="122" t="n">
         <v>8472</v>
       </c>
-      <c r="O9" s="532" t="n">
+      <c r="O9" s="559" t="n">
         <v>6</v>
       </c>
       <c r="P9" s="122" t="n">
@@ -1833,15 +1866,15 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="526" t="inlineStr">
+      <c r="A10" s="553" t="inlineStr">
         <is>
           <t>#YRGRRJQCY</t>
         </is>
       </c>
-      <c r="B10" s="526" t="n">
+      <c r="B10" s="553" t="n">
         <v>1337</v>
       </c>
-      <c r="C10" s="527" t="n">
+      <c r="C10" s="554" t="n">
         <v>7</v>
       </c>
       <c r="D10" s="116" t="inlineStr">
@@ -1849,37 +1882,37 @@
           <t>DoubleSpice</t>
         </is>
       </c>
-      <c r="E10" s="528" t="n">
+      <c r="E10" s="555" t="n">
         <v>6</v>
       </c>
       <c r="F10" s="116" t="n">
         <v>11620</v>
       </c>
-      <c r="G10" s="529" t="n">
+      <c r="G10" s="556" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="119" t="n">
         <v>60</v>
       </c>
-      <c r="I10" s="528" t="n">
+      <c r="I10" s="555" t="n">
         <v>6</v>
       </c>
       <c r="J10" s="116" t="n">
         <v>14095</v>
       </c>
-      <c r="K10" s="528" t="n">
+      <c r="K10" s="555" t="n">
         <v>6</v>
       </c>
       <c r="L10" s="116" t="n">
         <v>12379</v>
       </c>
-      <c r="M10" s="528" t="n">
+      <c r="M10" s="555" t="n">
         <v>6</v>
       </c>
       <c r="N10" s="116" t="n">
         <v>8256</v>
       </c>
-      <c r="O10" s="528" t="n">
+      <c r="O10" s="555" t="n">
         <v>6</v>
       </c>
       <c r="P10" s="116" t="n">
@@ -1887,15 +1920,15 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="530" t="inlineStr">
+      <c r="A11" s="557" t="inlineStr">
         <is>
           <t>#QUG8QQJ92</t>
         </is>
       </c>
-      <c r="B11" s="530" t="n">
+      <c r="B11" s="557" t="n">
         <v>920</v>
       </c>
-      <c r="C11" s="531" t="n">
+      <c r="C11" s="558" t="n">
         <v>8</v>
       </c>
       <c r="D11" s="122" t="inlineStr">
@@ -1903,37 +1936,37 @@
           <t>Karma</t>
         </is>
       </c>
-      <c r="E11" s="532" t="n">
+      <c r="E11" s="559" t="n">
         <v>6</v>
       </c>
       <c r="F11" s="122" t="n">
         <v>11355</v>
       </c>
-      <c r="G11" s="533" t="n">
+      <c r="G11" s="560" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="532" t="n">
+      <c r="I11" s="559" t="n">
         <v>6</v>
       </c>
       <c r="J11" s="122" t="n">
         <v>10003</v>
       </c>
-      <c r="K11" s="532" t="n">
+      <c r="K11" s="559" t="n">
         <v>6</v>
       </c>
       <c r="L11" s="122" t="n">
         <v>10595</v>
       </c>
-      <c r="M11" s="532" t="n">
+      <c r="M11" s="559" t="n">
         <v>6</v>
       </c>
       <c r="N11" s="122" t="n">
         <v>9240</v>
       </c>
-      <c r="O11" s="532" t="n">
+      <c r="O11" s="559" t="n">
         <v>6</v>
       </c>
       <c r="P11" s="122" t="n">
@@ -1941,15 +1974,15 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="534" t="inlineStr">
+      <c r="A12" s="561" t="inlineStr">
         <is>
           <t>#98JG2UJQL</t>
         </is>
       </c>
-      <c r="B12" s="534" t="n">
+      <c r="B12" s="561" t="n">
         <v>2957</v>
       </c>
-      <c r="C12" s="527" t="n">
+      <c r="C12" s="554" t="n">
         <v>9</v>
       </c>
       <c r="D12" s="133" t="inlineStr">
@@ -1957,37 +1990,37 @@
           <t>Dragonux</t>
         </is>
       </c>
-      <c r="E12" s="535" t="n">
+      <c r="E12" s="562" t="n">
         <v>6</v>
       </c>
       <c r="F12" s="133" t="n">
         <v>10910</v>
       </c>
-      <c r="G12" s="536" t="n">
+      <c r="G12" s="563" t="n">
         <v>211</v>
       </c>
       <c r="H12" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="535" t="n">
+      <c r="I12" s="562" t="n">
         <v>6</v>
       </c>
       <c r="J12" s="133" t="n">
         <v>8750</v>
       </c>
-      <c r="K12" s="535" t="n">
+      <c r="K12" s="562" t="n">
         <v>6</v>
       </c>
       <c r="L12" s="133" t="n">
         <v>10865</v>
       </c>
-      <c r="M12" s="535" t="n">
+      <c r="M12" s="562" t="n">
         <v>6</v>
       </c>
       <c r="N12" s="133" t="n">
         <v>8025</v>
       </c>
-      <c r="O12" s="535" t="n">
+      <c r="O12" s="562" t="n">
         <v>6</v>
       </c>
       <c r="P12" s="133" t="n">
@@ -1995,15 +2028,15 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="530" t="inlineStr">
+      <c r="A13" s="557" t="inlineStr">
         <is>
           <t>#QLR088LC9</t>
         </is>
       </c>
-      <c r="B13" s="530" t="n">
+      <c r="B13" s="557" t="n">
         <v>857</v>
       </c>
-      <c r="C13" s="531" t="n">
+      <c r="C13" s="558" t="n">
         <v>10</v>
       </c>
       <c r="D13" s="122" t="inlineStr">
@@ -2011,37 +2044,37 @@
           <t>Sanji</t>
         </is>
       </c>
-      <c r="E13" s="532" t="n">
+      <c r="E13" s="559" t="n">
         <v>6</v>
       </c>
       <c r="F13" s="122" t="n">
         <v>10910</v>
       </c>
-      <c r="G13" s="533" t="n">
+      <c r="G13" s="560" t="n">
         <v>0</v>
       </c>
       <c r="H13" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="532" t="n">
+      <c r="I13" s="559" t="n">
         <v>6</v>
       </c>
       <c r="J13" s="122" t="n">
         <v>9550</v>
       </c>
-      <c r="K13" s="532" t="n">
+      <c r="K13" s="559" t="n">
         <v>6</v>
       </c>
       <c r="L13" s="122" t="n">
         <v>9138</v>
       </c>
-      <c r="M13" s="532" t="n">
+      <c r="M13" s="559" t="n">
         <v>6</v>
       </c>
       <c r="N13" s="122" t="n">
         <v>8897</v>
       </c>
-      <c r="O13" s="532" t="n">
+      <c r="O13" s="559" t="n">
         <v>6</v>
       </c>
       <c r="P13" s="122" t="n">
@@ -2049,15 +2082,15 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="526" t="inlineStr">
+      <c r="A14" s="553" t="inlineStr">
         <is>
           <t>#QUYG0PQC8</t>
         </is>
       </c>
-      <c r="B14" s="526" t="n">
+      <c r="B14" s="553" t="n">
         <v>940</v>
       </c>
-      <c r="C14" s="527" t="n">
+      <c r="C14" s="554" t="n">
         <v>11</v>
       </c>
       <c r="D14" s="116" t="inlineStr">
@@ -2065,37 +2098,37 @@
           <t>Luffy</t>
         </is>
       </c>
-      <c r="E14" s="528" t="n">
+      <c r="E14" s="555" t="n">
         <v>6</v>
       </c>
       <c r="F14" s="116" t="n">
         <v>10879</v>
       </c>
-      <c r="G14" s="529" t="n">
+      <c r="G14" s="556" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="528" t="n">
+      <c r="I14" s="555" t="n">
         <v>6</v>
       </c>
       <c r="J14" s="116" t="n">
         <v>9114</v>
       </c>
-      <c r="K14" s="528" t="n">
+      <c r="K14" s="555" t="n">
         <v>6</v>
       </c>
       <c r="L14" s="116" t="n">
         <v>13385</v>
       </c>
-      <c r="M14" s="528" t="n">
+      <c r="M14" s="555" t="n">
         <v>6</v>
       </c>
       <c r="N14" s="116" t="n">
         <v>7877</v>
       </c>
-      <c r="O14" s="528" t="n">
+      <c r="O14" s="555" t="n">
         <v>6</v>
       </c>
       <c r="P14" s="116" t="n">
@@ -2103,15 +2136,15 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="537" t="inlineStr">
+      <c r="A15" s="564" t="inlineStr">
         <is>
           <t>#G0JPUQGYR</t>
         </is>
       </c>
-      <c r="B15" s="537" t="n">
+      <c r="B15" s="564" t="n">
         <v>1286</v>
       </c>
-      <c r="C15" s="531" t="n">
+      <c r="C15" s="558" t="n">
         <v>12</v>
       </c>
       <c r="D15" s="127" t="inlineStr">
@@ -2119,37 +2152,37 @@
           <t>Collin</t>
         </is>
       </c>
-      <c r="E15" s="538" t="n">
+      <c r="E15" s="565" t="n">
         <v>6</v>
       </c>
       <c r="F15" s="127" t="n">
         <v>8833</v>
       </c>
-      <c r="G15" s="539" t="n">
+      <c r="G15" s="566" t="n">
         <v>20</v>
       </c>
       <c r="H15" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="538" t="n">
+      <c r="I15" s="565" t="n">
         <v>6</v>
       </c>
       <c r="J15" s="127" t="n">
         <v>9238</v>
       </c>
-      <c r="K15" s="538" t="n">
+      <c r="K15" s="565" t="n">
         <v>6</v>
       </c>
       <c r="L15" s="127" t="n">
         <v>7756</v>
       </c>
-      <c r="M15" s="538" t="n">
+      <c r="M15" s="565" t="n">
         <v>6</v>
       </c>
       <c r="N15" s="131" t="n">
         <v>5943</v>
       </c>
-      <c r="O15" s="538" t="n">
+      <c r="O15" s="565" t="n">
         <v>6</v>
       </c>
       <c r="P15" s="127" t="n">
@@ -2157,15 +2190,15 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="534" t="inlineStr">
+      <c r="A16" s="561" t="inlineStr">
         <is>
           <t>#82QLQCJRJ</t>
         </is>
       </c>
-      <c r="B16" s="534" t="n">
+      <c r="B16" s="561" t="n">
         <v>2919</v>
       </c>
-      <c r="C16" s="527" t="n">
+      <c r="C16" s="554" t="n">
         <v>13</v>
       </c>
       <c r="D16" s="133" t="inlineStr">
@@ -2173,37 +2206,37 @@
           <t>Raging Fury</t>
         </is>
       </c>
-      <c r="E16" s="535" t="n">
+      <c r="E16" s="562" t="n">
         <v>6</v>
       </c>
       <c r="F16" s="133" t="n">
         <v>8055</v>
       </c>
-      <c r="G16" s="540" t="n">
+      <c r="G16" s="567" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="535" t="n">
+      <c r="I16" s="562" t="n">
         <v>6</v>
       </c>
       <c r="J16" s="133" t="n">
         <v>7115</v>
       </c>
-      <c r="K16" s="540" t="n">
+      <c r="K16" s="567" t="n">
         <v>2</v>
       </c>
       <c r="L16" s="148" t="n">
         <v>2320</v>
       </c>
-      <c r="M16" s="535" t="n">
+      <c r="M16" s="562" t="n">
         <v>6</v>
       </c>
       <c r="N16" s="139" t="n">
         <v>4920</v>
       </c>
-      <c r="O16" s="535" t="n">
+      <c r="O16" s="562" t="n">
         <v>6</v>
       </c>
       <c r="P16" s="139" t="n">
@@ -2211,15 +2244,15 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="530" t="inlineStr">
+      <c r="A17" s="557" t="inlineStr">
         <is>
           <t>#Q8CLCUCC2</t>
         </is>
       </c>
-      <c r="B17" s="530" t="n">
+      <c r="B17" s="557" t="n">
         <v>1327</v>
       </c>
-      <c r="C17" s="531" t="n">
+      <c r="C17" s="558" t="n">
         <v>14</v>
       </c>
       <c r="D17" s="122" t="inlineStr">
@@ -2227,37 +2260,37 @@
           <t>Moxxi</t>
         </is>
       </c>
-      <c r="E17" s="532" t="n">
+      <c r="E17" s="559" t="n">
         <v>6</v>
       </c>
       <c r="F17" s="122" t="n">
         <v>8015</v>
       </c>
-      <c r="G17" s="533" t="n">
+      <c r="G17" s="560" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="125" t="n">
         <v>60</v>
       </c>
-      <c r="I17" s="532" t="n">
+      <c r="I17" s="559" t="n">
         <v>6</v>
       </c>
       <c r="J17" s="122" t="n">
         <v>11010</v>
       </c>
-      <c r="K17" s="532" t="n">
+      <c r="K17" s="559" t="n">
         <v>6</v>
       </c>
       <c r="L17" s="122" t="n">
         <v>13857</v>
       </c>
-      <c r="M17" s="532" t="n">
+      <c r="M17" s="559" t="n">
         <v>6</v>
       </c>
       <c r="N17" s="122" t="n">
         <v>7905</v>
       </c>
-      <c r="O17" s="532" t="n">
+      <c r="O17" s="559" t="n">
         <v>6</v>
       </c>
       <c r="P17" s="122" t="n">
@@ -2265,15 +2298,15 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="534" t="inlineStr">
+      <c r="A18" s="561" t="inlineStr">
         <is>
           <t>#QU0U2Q99G</t>
         </is>
       </c>
-      <c r="B18" s="534" t="n">
+      <c r="B18" s="561" t="n">
         <v>913</v>
       </c>
-      <c r="C18" s="527" t="n">
+      <c r="C18" s="554" t="n">
         <v>15</v>
       </c>
       <c r="D18" s="133" t="inlineStr">
@@ -2281,45 +2314,45 @@
           <t>big coc</t>
         </is>
       </c>
-      <c r="E18" s="535" t="n">
+      <c r="E18" s="562" t="n">
         <v>6</v>
       </c>
       <c r="F18" s="133" t="n">
         <v>7420</v>
       </c>
-      <c r="G18" s="540" t="n">
+      <c r="G18" s="567" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="136" t="n">
         <v>40</v>
       </c>
-      <c r="I18" s="535" t="n">
+      <c r="I18" s="562" t="n">
         <v>5</v>
       </c>
       <c r="J18" s="139" t="n">
         <v>5150</v>
       </c>
-      <c r="K18" s="535" t="n">
+      <c r="K18" s="562" t="n">
         <v>6</v>
       </c>
       <c r="L18" s="133" t="n">
         <v>9075</v>
       </c>
-      <c r="M18" s="534" t="n"/>
+      <c r="M18" s="561" t="n"/>
       <c r="N18" s="136" t="n"/>
-      <c r="O18" s="534" t="n"/>
+      <c r="O18" s="561" t="n"/>
       <c r="P18" s="136" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="537" t="inlineStr">
+      <c r="A19" s="564" t="inlineStr">
         <is>
           <t>#QRPRYR8LL</t>
         </is>
       </c>
-      <c r="B19" s="537" t="n">
-        <v>1086</v>
-      </c>
-      <c r="C19" s="531" t="n">
+      <c r="B19" s="564" t="n">
+        <v>1124</v>
+      </c>
+      <c r="C19" s="558" t="n">
         <v>16</v>
       </c>
       <c r="D19" s="127" t="inlineStr">
@@ -2327,37 +2360,37 @@
           <t>FidelCashflow</t>
         </is>
       </c>
-      <c r="E19" s="538" t="n">
+      <c r="E19" s="565" t="n">
         <v>6</v>
       </c>
       <c r="F19" s="127" t="n">
         <v>6415</v>
       </c>
-      <c r="G19" s="539" t="n">
+      <c r="G19" s="566" t="n">
         <v>4</v>
       </c>
       <c r="H19" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="538" t="n">
+      <c r="I19" s="565" t="n">
         <v>6</v>
       </c>
       <c r="J19" s="127" t="n">
         <v>6547</v>
       </c>
-      <c r="K19" s="538" t="n">
+      <c r="K19" s="565" t="n">
         <v>6</v>
       </c>
       <c r="L19" s="127" t="n">
         <v>6811</v>
       </c>
-      <c r="M19" s="538" t="n">
+      <c r="M19" s="565" t="n">
         <v>6</v>
       </c>
       <c r="N19" s="131" t="n">
         <v>4239</v>
       </c>
-      <c r="O19" s="538" t="n">
+      <c r="O19" s="565" t="n">
         <v>6</v>
       </c>
       <c r="P19" s="131" t="n">
@@ -2365,15 +2398,15 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="534" t="inlineStr">
+      <c r="A20" s="561" t="inlineStr">
         <is>
           <t>#QY0VGPQGQ</t>
         </is>
       </c>
-      <c r="B20" s="534" t="n">
+      <c r="B20" s="561" t="n">
         <v>570</v>
       </c>
-      <c r="C20" s="527" t="n">
+      <c r="C20" s="554" t="n">
         <v>17</v>
       </c>
       <c r="D20" s="133" t="inlineStr">
@@ -2381,37 +2414,37 @@
           <t>killerjones</t>
         </is>
       </c>
-      <c r="E20" s="535" t="n">
+      <c r="E20" s="562" t="n">
         <v>6</v>
       </c>
       <c r="F20" s="133" t="n">
         <v>6320</v>
       </c>
-      <c r="G20" s="540" t="n">
+      <c r="G20" s="567" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="136" t="n">
         <v>15</v>
       </c>
-      <c r="I20" s="534" t="n"/>
+      <c r="I20" s="561" t="n"/>
       <c r="J20" s="136" t="n"/>
-      <c r="K20" s="534" t="n"/>
+      <c r="K20" s="561" t="n"/>
       <c r="L20" s="136" t="n"/>
-      <c r="M20" s="534" t="n"/>
+      <c r="M20" s="561" t="n"/>
       <c r="N20" s="136" t="n"/>
-      <c r="O20" s="534" t="n"/>
+      <c r="O20" s="561" t="n"/>
       <c r="P20" s="136" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="537" t="inlineStr">
+      <c r="A21" s="564" t="inlineStr">
         <is>
           <t>#LC9GUPJJG</t>
         </is>
       </c>
-      <c r="B21" s="537" t="n">
+      <c r="B21" s="564" t="n">
         <v>953</v>
       </c>
-      <c r="C21" s="531" t="n">
+      <c r="C21" s="558" t="n">
         <v>18</v>
       </c>
       <c r="D21" s="127" t="inlineStr">
@@ -2419,41 +2452,41 @@
           <t>raptor2222a</t>
         </is>
       </c>
-      <c r="E21" s="538" t="n">
+      <c r="E21" s="565" t="n">
         <v>5</v>
       </c>
       <c r="F21" s="131" t="n">
         <v>4350</v>
       </c>
-      <c r="G21" s="539" t="n">
+      <c r="G21" s="566" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="539" t="n">
+      <c r="I21" s="566" t="n">
         <v>0</v>
       </c>
       <c r="J21" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K21" s="537" t="n"/>
+      <c r="K21" s="564" t="n"/>
       <c r="L21" s="130" t="n"/>
-      <c r="M21" s="537" t="n"/>
+      <c r="M21" s="564" t="n"/>
       <c r="N21" s="130" t="n"/>
-      <c r="O21" s="537" t="n"/>
+      <c r="O21" s="564" t="n"/>
       <c r="P21" s="130" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="534" t="inlineStr">
+      <c r="A22" s="561" t="inlineStr">
         <is>
           <t>#QLG0VJG2J</t>
         </is>
       </c>
-      <c r="B22" s="534" t="n">
+      <c r="B22" s="561" t="n">
         <v>1092</v>
       </c>
-      <c r="C22" s="527" t="n">
+      <c r="C22" s="554" t="n">
         <v>19</v>
       </c>
       <c r="D22" s="139" t="inlineStr">
@@ -2461,41 +2494,41 @@
           <t>PocketRocket</t>
         </is>
       </c>
-      <c r="E22" s="536" t="n">
+      <c r="E22" s="563" t="n">
         <v>4</v>
       </c>
       <c r="F22" s="139" t="n">
         <v>4327</v>
       </c>
-      <c r="G22" s="540" t="n">
+      <c r="G22" s="567" t="n">
         <v>20</v>
       </c>
       <c r="H22" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="536" t="n">
+      <c r="I22" s="563" t="n">
         <v>4</v>
       </c>
       <c r="J22" s="139" t="n">
         <v>5215</v>
       </c>
-      <c r="K22" s="534" t="n"/>
+      <c r="K22" s="561" t="n"/>
       <c r="L22" s="136" t="n"/>
-      <c r="M22" s="534" t="n"/>
+      <c r="M22" s="561" t="n"/>
       <c r="N22" s="136" t="n"/>
-      <c r="O22" s="534" t="n"/>
+      <c r="O22" s="561" t="n"/>
       <c r="P22" s="136" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="537" t="inlineStr">
+      <c r="A23" s="564" t="inlineStr">
         <is>
           <t>#QL8LVLYG8</t>
         </is>
       </c>
-      <c r="B23" s="537" t="n">
+      <c r="B23" s="564" t="n">
         <v>876</v>
       </c>
-      <c r="C23" s="531" t="n">
+      <c r="C23" s="558" t="n">
         <v>20</v>
       </c>
       <c r="D23" s="137" t="inlineStr">
@@ -2503,37 +2536,37 @@
           <t>Some guy</t>
         </is>
       </c>
-      <c r="E23" s="539" t="n">
+      <c r="E23" s="566" t="n">
         <v>2</v>
       </c>
       <c r="F23" s="137" t="n">
         <v>2650</v>
       </c>
-      <c r="G23" s="539" t="n">
+      <c r="G23" s="566" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="130" t="n">
         <v>20</v>
       </c>
-      <c r="I23" s="539" t="n">
+      <c r="I23" s="566" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K23" s="538" t="n">
+      <c r="K23" s="565" t="n">
         <v>6</v>
       </c>
       <c r="L23" s="127" t="n">
         <v>6917</v>
       </c>
-      <c r="M23" s="539" t="n">
+      <c r="M23" s="566" t="n">
         <v>0</v>
       </c>
       <c r="N23" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="O23" s="539" t="n">
+      <c r="O23" s="566" t="n">
         <v>2</v>
       </c>
       <c r="P23" s="137" t="n">
@@ -2595,15 +2628,15 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="537" t="inlineStr">
+      <c r="A25" s="564" t="inlineStr">
         <is>
           <t>#QV8JJ0URU</t>
         </is>
       </c>
-      <c r="B25" s="537" t="n">
+      <c r="B25" s="564" t="n">
         <v>741</v>
       </c>
-      <c r="C25" s="531" t="n">
+      <c r="C25" s="558" t="n">
         <v>22</v>
       </c>
       <c r="D25" s="137" t="inlineStr">
@@ -2611,37 +2644,37 @@
           <t>✨Jacob</t>
         </is>
       </c>
-      <c r="E25" s="539" t="n">
+      <c r="E25" s="566" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="G25" s="539" t="n">
+      <c r="G25" s="566" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="539" t="n">
+      <c r="I25" s="566" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K25" s="539" t="n">
+      <c r="K25" s="566" t="n">
         <v>0</v>
       </c>
       <c r="L25" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="M25" s="538" t="n">
+      <c r="M25" s="565" t="n">
         <v>6</v>
       </c>
       <c r="N25" s="127" t="n">
         <v>7385</v>
       </c>
-      <c r="O25" s="538" t="n">
+      <c r="O25" s="565" t="n">
         <v>6</v>
       </c>
       <c r="P25" s="127" t="n">
@@ -2649,15 +2682,15 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="534" t="inlineStr">
+      <c r="A26" s="561" t="inlineStr">
         <is>
           <t>#QY8L2GLUR</t>
         </is>
       </c>
-      <c r="B26" s="534" t="n">
+      <c r="B26" s="561" t="n">
         <v>907</v>
       </c>
-      <c r="C26" s="527" t="n">
+      <c r="C26" s="554" t="n">
         <v>23</v>
       </c>
       <c r="D26" s="148" t="inlineStr">
@@ -2665,37 +2698,37 @@
           <t>Huy</t>
         </is>
       </c>
-      <c r="E26" s="540" t="n">
+      <c r="E26" s="567" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="540" t="n">
+      <c r="G26" s="567" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="540" t="n">
+      <c r="I26" s="567" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="K26" s="540" t="n">
+      <c r="K26" s="567" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="M26" s="535" t="n">
+      <c r="M26" s="562" t="n">
         <v>6</v>
       </c>
       <c r="N26" s="133" t="n">
         <v>6995</v>
       </c>
-      <c r="O26" s="535" t="n">
+      <c r="O26" s="562" t="n">
         <v>6</v>
       </c>
       <c r="P26" s="133" t="n">
@@ -2703,15 +2736,15 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="537" t="inlineStr">
+      <c r="A27" s="564" t="inlineStr">
         <is>
           <t>#L2QQL9QVJ</t>
         </is>
       </c>
-      <c r="B27" s="537" t="n">
+      <c r="B27" s="564" t="n">
         <v>1450</v>
       </c>
-      <c r="C27" s="531" t="n">
+      <c r="C27" s="558" t="n">
         <v>24</v>
       </c>
       <c r="D27" s="137" t="inlineStr">
@@ -2719,37 +2752,37 @@
           <t>JustPre10d</t>
         </is>
       </c>
-      <c r="E27" s="539" t="n">
+      <c r="E27" s="566" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="G27" s="539" t="n">
+      <c r="G27" s="566" t="n">
         <v>0</v>
       </c>
       <c r="H27" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="539" t="n">
+      <c r="I27" s="566" t="n">
         <v>0</v>
       </c>
       <c r="J27" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K27" s="539" t="n">
+      <c r="K27" s="566" t="n">
         <v>0</v>
       </c>
       <c r="L27" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="M27" s="538" t="n">
+      <c r="M27" s="565" t="n">
         <v>6</v>
       </c>
       <c r="N27" s="127" t="n">
         <v>6655</v>
       </c>
-      <c r="O27" s="538" t="n">
+      <c r="O27" s="565" t="n">
         <v>6</v>
       </c>
       <c r="P27" s="127" t="n">
@@ -2757,15 +2790,15 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="534" t="inlineStr">
+      <c r="A28" s="561" t="inlineStr">
         <is>
           <t>#LPR9RPCY9</t>
         </is>
       </c>
-      <c r="B28" s="534" t="n">
+      <c r="B28" s="561" t="n">
         <v>990</v>
       </c>
-      <c r="C28" s="527" t="n">
+      <c r="C28" s="554" t="n">
         <v>25</v>
       </c>
       <c r="D28" s="148" t="inlineStr">
@@ -2773,49 +2806,49 @@
           <t>sayhuss17</t>
         </is>
       </c>
-      <c r="E28" s="540" t="n">
+      <c r="E28" s="567" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="G28" s="540" t="n">
+      <c r="G28" s="567" t="n">
         <v>0</v>
       </c>
       <c r="H28" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="540" t="n">
+      <c r="I28" s="567" t="n">
         <v>0</v>
       </c>
       <c r="J28" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="K28" s="540" t="n">
+      <c r="K28" s="567" t="n">
         <v>0</v>
       </c>
       <c r="L28" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="M28" s="536" t="n">
+      <c r="M28" s="563" t="n">
         <v>4</v>
       </c>
       <c r="N28" s="139" t="n">
         <v>4240</v>
       </c>
-      <c r="O28" s="534" t="n"/>
+      <c r="O28" s="561" t="n"/>
       <c r="P28" s="136" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="537" t="inlineStr">
+      <c r="A29" s="564" t="inlineStr">
         <is>
           <t>#QQL8C29CY</t>
         </is>
       </c>
-      <c r="B29" s="537" t="n">
-        <v>891</v>
-      </c>
-      <c r="C29" s="531" t="n">
+      <c r="B29" s="564" t="n">
+        <v>920</v>
+      </c>
+      <c r="C29" s="558" t="n">
         <v>26</v>
       </c>
       <c r="D29" s="137" t="inlineStr">
@@ -2823,37 +2856,37 @@
           <t>TypicalTeague#2</t>
         </is>
       </c>
-      <c r="E29" s="539" t="n">
+      <c r="E29" s="566" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="G29" s="539" t="n">
+      <c r="G29" s="566" t="n">
         <v>0</v>
       </c>
       <c r="H29" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="539" t="n">
+      <c r="I29" s="566" t="n">
         <v>0</v>
       </c>
       <c r="J29" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K29" s="539" t="n">
+      <c r="K29" s="566" t="n">
         <v>0</v>
       </c>
       <c r="L29" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="M29" s="538" t="n">
+      <c r="M29" s="565" t="n">
         <v>5</v>
       </c>
       <c r="N29" s="131" t="n">
         <v>4070</v>
       </c>
-      <c r="O29" s="538" t="n">
+      <c r="O29" s="565" t="n">
         <v>6</v>
       </c>
       <c r="P29" s="127" t="n">
@@ -2861,158 +2894,158 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="534" t="inlineStr">
+      <c r="A30" s="561" t="inlineStr">
+        <is>
+          <t>#L9QL9YQQY</t>
+        </is>
+      </c>
+      <c r="B30" s="561" t="n">
+        <v>975</v>
+      </c>
+      <c r="C30" s="554" t="n">
+        <v>27</v>
+      </c>
+      <c r="D30" s="148" t="inlineStr">
+        <is>
+          <t>Ima Chad</t>
+        </is>
+      </c>
+      <c r="E30" s="567" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="567" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="567" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="567" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="567" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="562" t="n">
+        <v>5</v>
+      </c>
+      <c r="P30" s="148" t="n">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="564" t="inlineStr">
+        <is>
+          <t>#L9JJQY992</t>
+        </is>
+      </c>
+      <c r="B31" s="564" t="n">
+        <v>773</v>
+      </c>
+      <c r="C31" s="558" t="n">
+        <v>28</v>
+      </c>
+      <c r="D31" s="137" t="inlineStr">
+        <is>
+          <t>Fisted_Waffle</t>
+        </is>
+      </c>
+      <c r="E31" s="566" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="566" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="566" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="566" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="566" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="564" t="n"/>
+      <c r="P31" s="130" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="561" t="inlineStr">
         <is>
           <t>#PJYVV989R</t>
         </is>
       </c>
-      <c r="B30" s="534" t="n">
+      <c r="B32" s="561" t="n">
         <v>1584</v>
       </c>
-      <c r="C30" s="527" t="n">
-        <v>27</v>
-      </c>
-      <c r="D30" s="148" t="inlineStr">
+      <c r="C32" s="554" t="n">
+        <v>29</v>
+      </c>
+      <c r="D32" s="148" t="inlineStr">
         <is>
           <t>nx</t>
         </is>
       </c>
-      <c r="E30" s="540" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="540" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="540" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="540" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="540" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" s="534" t="n"/>
-      <c r="P30" s="136" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="537" t="inlineStr">
-        <is>
-          <t>#L9JJQY992</t>
-        </is>
-      </c>
-      <c r="B31" s="537" t="n">
-        <v>773</v>
-      </c>
-      <c r="C31" s="531" t="n">
-        <v>28</v>
-      </c>
-      <c r="D31" s="137" t="inlineStr">
-        <is>
-          <t>Fisted_Waffle</t>
-        </is>
-      </c>
-      <c r="E31" s="539" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="539" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="539" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="539" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="539" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" s="537" t="n"/>
-      <c r="P31" s="130" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="534" t="inlineStr">
-        <is>
-          <t>#L9QL9YQQY</t>
-        </is>
-      </c>
-      <c r="B32" s="534" t="n">
-        <v>975</v>
-      </c>
-      <c r="C32" s="527" t="n">
-        <v>29</v>
-      </c>
-      <c r="D32" s="148" t="inlineStr">
-        <is>
-          <t>Ima Chad</t>
-        </is>
-      </c>
-      <c r="E32" s="540" t="n">
+      <c r="E32" s="567" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="G32" s="540" t="n">
+      <c r="G32" s="567" t="n">
         <v>0</v>
       </c>
       <c r="H32" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I32" s="540" t="n">
+      <c r="I32" s="567" t="n">
         <v>0</v>
       </c>
       <c r="J32" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="K32" s="540" t="n">
+      <c r="K32" s="567" t="n">
         <v>0</v>
       </c>
       <c r="L32" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="M32" s="540" t="n">
+      <c r="M32" s="567" t="n">
         <v>0</v>
       </c>
       <c r="N32" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="O32" s="535" t="n">
-        <v>5</v>
-      </c>
-      <c r="P32" s="148" t="n">
-        <v>3360</v>
-      </c>
+      <c r="O32" s="561" t="n"/>
+      <c r="P32" s="136" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="232" t="inlineStr">
@@ -3049,15 +3082,15 @@
       <c r="P33" s="235" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="540" t="inlineStr">
+      <c r="A34" s="567" t="inlineStr">
         <is>
           <t>#Q0JG2RJQ8</t>
         </is>
       </c>
-      <c r="B34" s="534" t="n">
+      <c r="B34" s="561" t="n">
         <v>997</v>
       </c>
-      <c r="C34" s="527" t="n">
+      <c r="C34" s="554" t="n">
         <v>31</v>
       </c>
       <c r="D34" s="136" t="inlineStr">
@@ -3065,33 +3098,33 @@
           <t>bozo</t>
         </is>
       </c>
-      <c r="E34" s="534" t="n"/>
+      <c r="E34" s="561" t="n"/>
       <c r="F34" s="136" t="n"/>
-      <c r="G34" s="534" t="n"/>
+      <c r="G34" s="561" t="n"/>
       <c r="H34" s="136" t="n"/>
-      <c r="I34" s="534" t="n"/>
+      <c r="I34" s="561" t="n"/>
       <c r="J34" s="136" t="n"/>
-      <c r="K34" s="535" t="n">
+      <c r="K34" s="562" t="n">
         <v>6</v>
       </c>
       <c r="L34" s="133" t="n">
         <v>6495</v>
       </c>
-      <c r="M34" s="534" t="n"/>
+      <c r="M34" s="561" t="n"/>
       <c r="N34" s="136" t="n"/>
-      <c r="O34" s="534" t="n"/>
+      <c r="O34" s="561" t="n"/>
       <c r="P34" s="136" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="539" t="inlineStr">
+      <c r="A35" s="566" t="inlineStr">
         <is>
           <t>#UVCCQC02</t>
         </is>
       </c>
-      <c r="B35" s="537" t="n">
+      <c r="B35" s="564" t="n">
         <v>1806</v>
       </c>
-      <c r="C35" s="531" t="n">
+      <c r="C35" s="558" t="n">
         <v>32</v>
       </c>
       <c r="D35" s="130" t="inlineStr">
@@ -3099,25 +3132,25 @@
           <t>lordshisha</t>
         </is>
       </c>
-      <c r="E35" s="537" t="n"/>
+      <c r="E35" s="564" t="n"/>
       <c r="F35" s="130" t="n"/>
-      <c r="G35" s="537" t="n"/>
+      <c r="G35" s="564" t="n"/>
       <c r="H35" s="130" t="n"/>
-      <c r="I35" s="537" t="n"/>
+      <c r="I35" s="564" t="n"/>
       <c r="J35" s="130" t="n"/>
-      <c r="K35" s="538" t="n">
+      <c r="K35" s="565" t="n">
         <v>6</v>
       </c>
       <c r="L35" s="127" t="n">
         <v>8496</v>
       </c>
-      <c r="M35" s="538" t="n">
+      <c r="M35" s="565" t="n">
         <v>6</v>
       </c>
       <c r="N35" s="127" t="n">
         <v>6310</v>
       </c>
-      <c r="O35" s="538" t="n">
+      <c r="O35" s="565" t="n">
         <v>6</v>
       </c>
       <c r="P35" s="127" t="n">
@@ -3125,15 +3158,15 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="540" t="inlineStr">
+      <c r="A36" s="567" t="inlineStr">
         <is>
           <t>#P2CPRPQU</t>
         </is>
       </c>
-      <c r="B36" s="534" t="n">
+      <c r="B36" s="561" t="n">
         <v>2232</v>
       </c>
-      <c r="C36" s="527" t="n">
+      <c r="C36" s="554" t="n">
         <v>33</v>
       </c>
       <c r="D36" s="136" t="inlineStr">
@@ -3141,25 +3174,25 @@
           <t>The Drift King</t>
         </is>
       </c>
-      <c r="E36" s="534" t="n"/>
+      <c r="E36" s="561" t="n"/>
       <c r="F36" s="136" t="n"/>
-      <c r="G36" s="534" t="n"/>
+      <c r="G36" s="561" t="n"/>
       <c r="H36" s="136" t="n"/>
-      <c r="I36" s="534" t="n"/>
+      <c r="I36" s="561" t="n"/>
       <c r="J36" s="136" t="n"/>
-      <c r="K36" s="535" t="n">
+      <c r="K36" s="562" t="n">
         <v>6</v>
       </c>
       <c r="L36" s="133" t="n">
         <v>8023</v>
       </c>
-      <c r="M36" s="535" t="n">
+      <c r="M36" s="562" t="n">
         <v>6</v>
       </c>
       <c r="N36" s="133" t="n">
         <v>7625</v>
       </c>
-      <c r="O36" s="535" t="n">
+      <c r="O36" s="562" t="n">
         <v>6</v>
       </c>
       <c r="P36" s="133" t="n">
@@ -3167,15 +3200,15 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="539" t="inlineStr">
+      <c r="A37" s="566" t="inlineStr">
         <is>
           <t>#QJVL0LYQQ</t>
         </is>
       </c>
-      <c r="B37" s="537" t="n">
+      <c r="B37" s="564" t="n">
         <v>921</v>
       </c>
-      <c r="C37" s="531" t="n">
+      <c r="C37" s="558" t="n">
         <v>34</v>
       </c>
       <c r="D37" s="130" t="inlineStr">
@@ -3183,25 +3216,25 @@
           <t>mobbb341</t>
         </is>
       </c>
-      <c r="E37" s="537" t="n"/>
+      <c r="E37" s="564" t="n"/>
       <c r="F37" s="130" t="n"/>
-      <c r="G37" s="537" t="n"/>
+      <c r="G37" s="564" t="n"/>
       <c r="H37" s="130" t="n"/>
-      <c r="I37" s="537" t="n"/>
+      <c r="I37" s="564" t="n"/>
       <c r="J37" s="130" t="n"/>
-      <c r="K37" s="538" t="n">
+      <c r="K37" s="565" t="n">
         <v>6</v>
       </c>
       <c r="L37" s="127" t="n">
         <v>7710</v>
       </c>
-      <c r="M37" s="538" t="n">
+      <c r="M37" s="565" t="n">
         <v>6</v>
       </c>
       <c r="N37" s="127" t="n">
         <v>8810</v>
       </c>
-      <c r="O37" s="538" t="n">
+      <c r="O37" s="565" t="n">
         <v>6</v>
       </c>
       <c r="P37" s="131" t="n">
@@ -3209,15 +3242,15 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="540" t="inlineStr">
+      <c r="A38" s="567" t="inlineStr">
         <is>
           <t>#L8R82C8VC</t>
         </is>
       </c>
-      <c r="B38" s="534" t="n">
+      <c r="B38" s="561" t="n">
         <v>1162</v>
       </c>
-      <c r="C38" s="527" t="n">
+      <c r="C38" s="554" t="n">
         <v>35</v>
       </c>
       <c r="D38" s="136" t="inlineStr">
@@ -3225,25 +3258,25 @@
           <t>caden asue</t>
         </is>
       </c>
-      <c r="E38" s="534" t="n"/>
+      <c r="E38" s="561" t="n"/>
       <c r="F38" s="136" t="n"/>
-      <c r="G38" s="534" t="n"/>
+      <c r="G38" s="561" t="n"/>
       <c r="H38" s="136" t="n"/>
-      <c r="I38" s="534" t="n"/>
+      <c r="I38" s="561" t="n"/>
       <c r="J38" s="136" t="n"/>
-      <c r="K38" s="535" t="n">
+      <c r="K38" s="562" t="n">
         <v>6</v>
       </c>
       <c r="L38" s="139" t="n">
         <v>5112</v>
       </c>
-      <c r="M38" s="535" t="n">
+      <c r="M38" s="562" t="n">
         <v>6</v>
       </c>
       <c r="N38" s="139" t="n">
         <v>4283</v>
       </c>
-      <c r="O38" s="535" t="n">
+      <c r="O38" s="562" t="n">
         <v>6</v>
       </c>
       <c r="P38" s="139" t="n">
@@ -3251,15 +3284,15 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="539" t="inlineStr">
+      <c r="A39" s="566" t="inlineStr">
         <is>
           <t>#L9Q8VLLQG</t>
         </is>
       </c>
-      <c r="B39" s="537" t="n">
+      <c r="B39" s="564" t="n">
         <v>1130</v>
       </c>
-      <c r="C39" s="531" t="n">
+      <c r="C39" s="558" t="n">
         <v>36</v>
       </c>
       <c r="D39" s="130" t="inlineStr">
@@ -3267,17 +3300,17 @@
           <t>cat</t>
         </is>
       </c>
-      <c r="E39" s="537" t="n"/>
+      <c r="E39" s="564" t="n"/>
       <c r="F39" s="130" t="n"/>
-      <c r="G39" s="537" t="n"/>
+      <c r="G39" s="564" t="n"/>
       <c r="H39" s="130" t="n"/>
-      <c r="I39" s="537" t="n"/>
+      <c r="I39" s="564" t="n"/>
       <c r="J39" s="130" t="n"/>
-      <c r="K39" s="537" t="n"/>
+      <c r="K39" s="564" t="n"/>
       <c r="L39" s="130" t="n"/>
-      <c r="M39" s="537" t="n"/>
+      <c r="M39" s="564" t="n"/>
       <c r="N39" s="130" t="n"/>
-      <c r="O39" s="538" t="n">
+      <c r="O39" s="565" t="n">
         <v>6</v>
       </c>
       <c r="P39" s="131" t="n">
@@ -3285,15 +3318,15 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="540" t="inlineStr">
+      <c r="A40" s="567" t="inlineStr">
         <is>
           <t>#QV0PQC9JU</t>
         </is>
       </c>
-      <c r="B40" s="534" t="n">
+      <c r="B40" s="561" t="n">
         <v>539</v>
       </c>
-      <c r="C40" s="527" t="n">
+      <c r="C40" s="554" t="n">
         <v>37</v>
       </c>
       <c r="D40" s="136" t="inlineStr">
@@ -3301,17 +3334,17 @@
           <t>Superman</t>
         </is>
       </c>
-      <c r="E40" s="534" t="n"/>
+      <c r="E40" s="561" t="n"/>
       <c r="F40" s="136" t="n"/>
-      <c r="G40" s="534" t="n"/>
+      <c r="G40" s="561" t="n"/>
       <c r="H40" s="136" t="n"/>
-      <c r="I40" s="534" t="n"/>
+      <c r="I40" s="561" t="n"/>
       <c r="J40" s="136" t="n"/>
-      <c r="K40" s="534" t="n"/>
+      <c r="K40" s="561" t="n"/>
       <c r="L40" s="136" t="n"/>
-      <c r="M40" s="534" t="n"/>
+      <c r="M40" s="561" t="n"/>
       <c r="N40" s="136" t="n"/>
-      <c r="O40" s="535" t="n">
+      <c r="O40" s="562" t="n">
         <v>6</v>
       </c>
       <c r="P40" s="139" t="n">
@@ -3319,15 +3352,15 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="539" t="inlineStr">
+      <c r="A41" s="566" t="inlineStr">
         <is>
           <t>#LU0CRP09L</t>
         </is>
       </c>
-      <c r="B41" s="537" t="n">
+      <c r="B41" s="564" t="n">
         <v>809</v>
       </c>
-      <c r="C41" s="531" t="n">
+      <c r="C41" s="558" t="n">
         <v>38</v>
       </c>
       <c r="D41" s="130" t="inlineStr">
@@ -3335,17 +3368,17 @@
           <t>I Dont Know</t>
         </is>
       </c>
-      <c r="E41" s="537" t="n"/>
+      <c r="E41" s="564" t="n"/>
       <c r="F41" s="130" t="n"/>
-      <c r="G41" s="537" t="n"/>
+      <c r="G41" s="564" t="n"/>
       <c r="H41" s="130" t="n"/>
-      <c r="I41" s="537" t="n"/>
+      <c r="I41" s="564" t="n"/>
       <c r="J41" s="130" t="n"/>
-      <c r="K41" s="537" t="n"/>
+      <c r="K41" s="564" t="n"/>
       <c r="L41" s="130" t="n"/>
-      <c r="M41" s="537" t="n"/>
+      <c r="M41" s="564" t="n"/>
       <c r="N41" s="130" t="n"/>
-      <c r="O41" s="541" t="n">
+      <c r="O41" s="568" t="n">
         <v>3</v>
       </c>
       <c r="P41" s="137" t="n">
@@ -3353,15 +3386,15 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="540" t="inlineStr">
+      <c r="A42" s="567" t="inlineStr">
         <is>
           <t>#YCPP0QPP8</t>
         </is>
       </c>
-      <c r="B42" s="534" t="n">
+      <c r="B42" s="561" t="n">
         <v>3327</v>
       </c>
-      <c r="C42" s="527" t="n">
+      <c r="C42" s="554" t="n">
         <v>39</v>
       </c>
       <c r="D42" s="136" t="inlineStr">
@@ -3369,17 +3402,17 @@
           <t>Coach</t>
         </is>
       </c>
-      <c r="E42" s="534" t="n"/>
+      <c r="E42" s="561" t="n"/>
       <c r="F42" s="136" t="n"/>
-      <c r="G42" s="534" t="n"/>
+      <c r="G42" s="561" t="n"/>
       <c r="H42" s="136" t="n"/>
-      <c r="I42" s="534" t="n"/>
+      <c r="I42" s="561" t="n"/>
       <c r="J42" s="136" t="n"/>
-      <c r="K42" s="534" t="n"/>
+      <c r="K42" s="561" t="n"/>
       <c r="L42" s="136" t="n"/>
-      <c r="M42" s="534" t="n"/>
+      <c r="M42" s="561" t="n"/>
       <c r="N42" s="136" t="n"/>
-      <c r="O42" s="540" t="n">
+      <c r="O42" s="567" t="n">
         <v>0</v>
       </c>
       <c r="P42" s="148" t="n">
@@ -3499,259 +3532,259 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="515" t="inlineStr">
+      <c r="B4" s="542" t="inlineStr">
         <is>
           <t>#QUYG0PQC8</t>
         </is>
       </c>
-      <c r="C4" s="515" t="n">
+      <c r="C4" s="542" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="516" t="inlineStr">
+      <c r="D4" s="543" t="inlineStr">
         <is>
           <t>Luffy</t>
         </is>
       </c>
-      <c r="E4" s="516" t="n">
+      <c r="E4" s="543" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="116" t="n">
         <v>6</v>
       </c>
-      <c r="G4" s="515" t="n"/>
+      <c r="G4" s="542" t="n"/>
       <c r="H4" s="119" t="n"/>
-      <c r="I4" s="515" t="n"/>
+      <c r="I4" s="542" t="n"/>
       <c r="J4" s="119" t="n"/>
-      <c r="K4" s="515" t="n"/>
+      <c r="K4" s="542" t="n"/>
       <c r="L4" s="119" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="517" t="inlineStr">
+      <c r="B5" s="544" t="inlineStr">
         <is>
           <t>#G0QPVJY9L</t>
         </is>
       </c>
-      <c r="C5" s="517" t="n">
+      <c r="C5" s="544" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="518" t="inlineStr">
+      <c r="D5" s="545" t="inlineStr">
         <is>
           <t>Zoro</t>
         </is>
       </c>
-      <c r="E5" s="518" t="n">
+      <c r="E5" s="545" t="n">
         <v>2</v>
       </c>
       <c r="F5" s="122" t="n">
         <v>6</v>
       </c>
-      <c r="G5" s="517" t="n"/>
+      <c r="G5" s="544" t="n"/>
       <c r="H5" s="125" t="n"/>
-      <c r="I5" s="517" t="n"/>
+      <c r="I5" s="544" t="n"/>
       <c r="J5" s="125" t="n"/>
-      <c r="K5" s="517" t="n"/>
+      <c r="K5" s="544" t="n"/>
       <c r="L5" s="125" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" s="515" t="inlineStr">
+      <c r="B6" s="542" t="inlineStr">
         <is>
           <t>#QLR088LC9</t>
         </is>
       </c>
-      <c r="C6" s="515" t="n">
+      <c r="C6" s="542" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="516" t="inlineStr">
+      <c r="D6" s="543" t="inlineStr">
         <is>
           <t>Sanji</t>
         </is>
       </c>
-      <c r="E6" s="516" t="n">
+      <c r="E6" s="543" t="n">
         <v>2</v>
       </c>
       <c r="F6" s="116" t="n">
         <v>6</v>
       </c>
-      <c r="G6" s="515" t="n"/>
+      <c r="G6" s="542" t="n"/>
       <c r="H6" s="119" t="n"/>
-      <c r="I6" s="515" t="n"/>
+      <c r="I6" s="542" t="n"/>
       <c r="J6" s="119" t="n"/>
-      <c r="K6" s="515" t="n"/>
+      <c r="K6" s="542" t="n"/>
       <c r="L6" s="119" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="517" t="inlineStr">
+      <c r="B7" s="544" t="inlineStr">
         <is>
           <t>#QCV22VP0G</t>
         </is>
       </c>
-      <c r="C7" s="517" t="n">
+      <c r="C7" s="544" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="518" t="inlineStr">
+      <c r="D7" s="545" t="inlineStr">
         <is>
           <t>Nami</t>
         </is>
       </c>
-      <c r="E7" s="518" t="n">
+      <c r="E7" s="545" t="n">
         <v>2</v>
       </c>
       <c r="F7" s="122" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="517" t="n"/>
+      <c r="G7" s="544" t="n"/>
       <c r="H7" s="125" t="n"/>
-      <c r="I7" s="517" t="n"/>
+      <c r="I7" s="544" t="n"/>
       <c r="J7" s="125" t="n"/>
-      <c r="K7" s="517" t="n"/>
+      <c r="K7" s="544" t="n"/>
       <c r="L7" s="125" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="515" t="inlineStr">
+      <c r="B8" s="542" t="inlineStr">
         <is>
           <t>#QUV2GP88U</t>
         </is>
       </c>
-      <c r="C8" s="515" t="n">
+      <c r="C8" s="542" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="516" t="inlineStr">
+      <c r="D8" s="543" t="inlineStr">
         <is>
           <t>Nico Robin</t>
         </is>
       </c>
-      <c r="E8" s="516" t="n">
+      <c r="E8" s="543" t="n">
         <v>2</v>
       </c>
       <c r="F8" s="116" t="n">
         <v>6</v>
       </c>
-      <c r="G8" s="515" t="n"/>
+      <c r="G8" s="542" t="n"/>
       <c r="H8" s="119" t="n"/>
-      <c r="I8" s="515" t="n"/>
+      <c r="I8" s="542" t="n"/>
       <c r="J8" s="119" t="n"/>
-      <c r="K8" s="515" t="n"/>
+      <c r="K8" s="542" t="n"/>
       <c r="L8" s="119" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" s="519" t="inlineStr">
+      <c r="B9" s="546" t="inlineStr">
         <is>
           <t>#98JG2UJQL</t>
         </is>
       </c>
-      <c r="C9" s="519" t="n"/>
-      <c r="D9" s="519" t="inlineStr">
+      <c r="C9" s="546" t="n"/>
+      <c r="D9" s="546" t="inlineStr">
         <is>
           <t>Dragonux</t>
         </is>
       </c>
-      <c r="E9" s="519" t="n"/>
+      <c r="E9" s="546" t="n"/>
       <c r="F9" s="130" t="n"/>
-      <c r="G9" s="519" t="n"/>
+      <c r="G9" s="546" t="n"/>
       <c r="H9" s="130" t="n"/>
-      <c r="I9" s="519" t="n"/>
+      <c r="I9" s="546" t="n"/>
       <c r="J9" s="130" t="n"/>
-      <c r="K9" s="519" t="n"/>
+      <c r="K9" s="546" t="n"/>
       <c r="L9" s="130" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="520" t="inlineStr">
+      <c r="B10" s="547" t="inlineStr">
         <is>
           <t>#82QLQCJRJ</t>
         </is>
       </c>
-      <c r="C10" s="520" t="n"/>
-      <c r="D10" s="520" t="inlineStr">
+      <c r="C10" s="547" t="n"/>
+      <c r="D10" s="547" t="inlineStr">
         <is>
           <t>Raging Fury</t>
         </is>
       </c>
-      <c r="E10" s="520" t="n"/>
+      <c r="E10" s="547" t="n"/>
       <c r="F10" s="136" t="n"/>
-      <c r="G10" s="520" t="n"/>
+      <c r="G10" s="547" t="n"/>
       <c r="H10" s="136" t="n"/>
-      <c r="I10" s="520" t="n"/>
+      <c r="I10" s="547" t="n"/>
       <c r="J10" s="136" t="n"/>
-      <c r="K10" s="520" t="n"/>
+      <c r="K10" s="547" t="n"/>
       <c r="L10" s="136" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="517" t="inlineStr">
+      <c r="B11" s="544" t="inlineStr">
         <is>
           <t>#90U0VPU9U</t>
         </is>
       </c>
-      <c r="C11" s="517" t="n"/>
-      <c r="D11" s="517" t="inlineStr">
+      <c r="C11" s="544" t="n"/>
+      <c r="D11" s="544" t="inlineStr">
         <is>
           <t>KYANI7E</t>
         </is>
       </c>
-      <c r="E11" s="517" t="n"/>
+      <c r="E11" s="544" t="n"/>
       <c r="F11" s="125" t="n"/>
-      <c r="G11" s="517" t="n"/>
+      <c r="G11" s="544" t="n"/>
       <c r="H11" s="125" t="n"/>
-      <c r="I11" s="517" t="n"/>
+      <c r="I11" s="544" t="n"/>
       <c r="J11" s="125" t="n"/>
-      <c r="K11" s="517" t="n"/>
+      <c r="K11" s="544" t="n"/>
       <c r="L11" s="125" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="520" t="inlineStr">
+      <c r="B12" s="547" t="inlineStr">
         <is>
           <t>#PJYVV989R</t>
         </is>
       </c>
-      <c r="C12" s="520" t="n"/>
-      <c r="D12" s="520" t="inlineStr">
+      <c r="C12" s="547" t="n"/>
+      <c r="D12" s="547" t="inlineStr">
         <is>
           <t>nx</t>
         </is>
       </c>
-      <c r="E12" s="520" t="n"/>
+      <c r="E12" s="547" t="n"/>
       <c r="F12" s="136" t="n"/>
-      <c r="G12" s="521" t="n">
+      <c r="G12" s="548" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="139" t="n">
         <v>3</v>
       </c>
-      <c r="I12" s="521" t="n">
+      <c r="I12" s="548" t="n">
         <v>1</v>
       </c>
       <c r="J12" s="139" t="n">
         <v>3</v>
       </c>
-      <c r="K12" s="520" t="n"/>
+      <c r="K12" s="547" t="n"/>
       <c r="L12" s="136" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="517" t="inlineStr">
+      <c r="B13" s="544" t="inlineStr">
         <is>
           <t>#QLJ2U20Y2</t>
         </is>
       </c>
-      <c r="C13" s="517" t="n"/>
-      <c r="D13" s="517" t="inlineStr">
+      <c r="C13" s="544" t="n"/>
+      <c r="D13" s="544" t="inlineStr">
         <is>
           <t>DeadLeaf</t>
         </is>
       </c>
-      <c r="E13" s="517" t="n"/>
+      <c r="E13" s="544" t="n"/>
       <c r="F13" s="125" t="n"/>
-      <c r="G13" s="518" t="n">
+      <c r="G13" s="545" t="n">
         <v>2</v>
       </c>
       <c r="H13" s="122" t="n">
         <v>5</v>
       </c>
-      <c r="I13" s="518" t="n">
+      <c r="I13" s="545" t="n">
         <v>2</v>
       </c>
       <c r="J13" s="122" t="n">
         <v>5</v>
       </c>
-      <c r="K13" s="518" t="n">
+      <c r="K13" s="545" t="n">
         <v>2</v>
       </c>
       <c r="L13" s="122" t="n">
@@ -3759,28 +3792,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="520" t="inlineStr">
+      <c r="B14" s="547" t="inlineStr">
         <is>
           <t>#L2QQL9QVJ</t>
         </is>
       </c>
-      <c r="C14" s="520" t="n"/>
-      <c r="D14" s="520" t="inlineStr">
+      <c r="C14" s="547" t="n"/>
+      <c r="D14" s="547" t="inlineStr">
         <is>
           <t>JustPre10d</t>
         </is>
       </c>
-      <c r="E14" s="520" t="n"/>
+      <c r="E14" s="547" t="n"/>
       <c r="F14" s="136" t="n"/>
-      <c r="G14" s="520" t="n"/>
+      <c r="G14" s="547" t="n"/>
       <c r="H14" s="136" t="n"/>
-      <c r="I14" s="522" t="n">
+      <c r="I14" s="549" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="K14" s="521" t="n">
+      <c r="K14" s="548" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="148" t="n">
@@ -3788,32 +3821,32 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="517" t="inlineStr">
+      <c r="B15" s="544" t="inlineStr">
         <is>
           <t>#YJ20CRJYQ</t>
         </is>
       </c>
-      <c r="C15" s="517" t="n"/>
-      <c r="D15" s="517" t="inlineStr">
+      <c r="C15" s="544" t="n"/>
+      <c r="D15" s="544" t="inlineStr">
         <is>
           <t>UnluckGod</t>
         </is>
       </c>
-      <c r="E15" s="517" t="n"/>
+      <c r="E15" s="544" t="n"/>
       <c r="F15" s="125" t="n"/>
-      <c r="G15" s="518" t="n">
+      <c r="G15" s="545" t="n">
         <v>2</v>
       </c>
       <c r="H15" s="122" t="n">
         <v>6</v>
       </c>
-      <c r="I15" s="518" t="n">
+      <c r="I15" s="545" t="n">
         <v>2</v>
       </c>
       <c r="J15" s="122" t="n">
         <v>4</v>
       </c>
-      <c r="K15" s="518" t="n">
+      <c r="K15" s="545" t="n">
         <v>2</v>
       </c>
       <c r="L15" s="122" t="n">
@@ -3821,61 +3854,61 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="515" t="inlineStr">
+      <c r="B16" s="542" t="inlineStr">
         <is>
           <t>#YRGRRJQCY</t>
         </is>
       </c>
-      <c r="C16" s="515" t="n"/>
-      <c r="D16" s="515" t="inlineStr">
+      <c r="C16" s="542" t="n"/>
+      <c r="D16" s="542" t="inlineStr">
         <is>
           <t>DoubleSpice</t>
         </is>
       </c>
-      <c r="E16" s="515" t="n"/>
+      <c r="E16" s="542" t="n"/>
       <c r="F16" s="119" t="n"/>
-      <c r="G16" s="516" t="n">
+      <c r="G16" s="543" t="n">
         <v>2</v>
       </c>
       <c r="H16" s="116" t="n">
         <v>5</v>
       </c>
-      <c r="I16" s="516" t="n">
+      <c r="I16" s="543" t="n">
         <v>2</v>
       </c>
       <c r="J16" s="116" t="n">
         <v>6</v>
       </c>
-      <c r="K16" s="515" t="n"/>
+      <c r="K16" s="542" t="n"/>
       <c r="L16" s="119" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="517" t="inlineStr">
+      <c r="B17" s="544" t="inlineStr">
         <is>
           <t>#Q8CLCUCC2</t>
         </is>
       </c>
-      <c r="C17" s="517" t="n"/>
-      <c r="D17" s="517" t="inlineStr">
+      <c r="C17" s="544" t="n"/>
+      <c r="D17" s="544" t="inlineStr">
         <is>
           <t>Moxxi</t>
         </is>
       </c>
-      <c r="E17" s="517" t="n"/>
+      <c r="E17" s="544" t="n"/>
       <c r="F17" s="125" t="n"/>
-      <c r="G17" s="518" t="n">
+      <c r="G17" s="545" t="n">
         <v>2</v>
       </c>
       <c r="H17" s="122" t="n">
         <v>6</v>
       </c>
-      <c r="I17" s="518" t="n">
+      <c r="I17" s="545" t="n">
         <v>2</v>
       </c>
       <c r="J17" s="122" t="n">
         <v>5</v>
       </c>
-      <c r="K17" s="518" t="n">
+      <c r="K17" s="545" t="n">
         <v>2</v>
       </c>
       <c r="L17" s="122" t="n">
@@ -3883,396 +3916,396 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="520" t="inlineStr">
+      <c r="B18" s="547" t="inlineStr">
         <is>
           <t>#G0JPUQGYR</t>
         </is>
       </c>
-      <c r="C18" s="520" t="n"/>
-      <c r="D18" s="520" t="inlineStr">
+      <c r="C18" s="547" t="n"/>
+      <c r="D18" s="547" t="inlineStr">
         <is>
           <t>Collin</t>
         </is>
       </c>
-      <c r="E18" s="520" t="n"/>
+      <c r="E18" s="547" t="n"/>
       <c r="F18" s="136" t="n"/>
-      <c r="G18" s="520" t="n"/>
+      <c r="G18" s="547" t="n"/>
       <c r="H18" s="136" t="n"/>
-      <c r="I18" s="520" t="n"/>
+      <c r="I18" s="547" t="n"/>
       <c r="J18" s="136" t="n"/>
-      <c r="K18" s="520" t="n"/>
+      <c r="K18" s="547" t="n"/>
       <c r="L18" s="136" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="519" t="inlineStr">
+      <c r="B19" s="546" t="inlineStr">
+        <is>
+          <t>#QRPRYR8LL</t>
+        </is>
+      </c>
+      <c r="C19" s="546" t="n"/>
+      <c r="D19" s="546" t="inlineStr">
+        <is>
+          <t>FidelCashflow</t>
+        </is>
+      </c>
+      <c r="E19" s="546" t="n"/>
+      <c r="F19" s="130" t="n"/>
+      <c r="G19" s="546" t="n"/>
+      <c r="H19" s="130" t="n"/>
+      <c r="I19" s="546" t="n"/>
+      <c r="J19" s="130" t="n"/>
+      <c r="K19" s="546" t="n"/>
+      <c r="L19" s="130" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="547" t="inlineStr">
         <is>
           <t>#QLG0VJG2J</t>
         </is>
       </c>
-      <c r="C19" s="519" t="n"/>
-      <c r="D19" s="519" t="inlineStr">
+      <c r="C20" s="547" t="n"/>
+      <c r="D20" s="547" t="inlineStr">
         <is>
           <t>PocketRocket</t>
         </is>
       </c>
-      <c r="E19" s="519" t="n"/>
-      <c r="F19" s="130" t="n"/>
-      <c r="G19" s="519" t="n"/>
-      <c r="H19" s="130" t="n"/>
-      <c r="I19" s="519" t="n"/>
-      <c r="J19" s="130" t="n"/>
-      <c r="K19" s="519" t="n"/>
-      <c r="L19" s="130" t="n"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="520" t="inlineStr">
-        <is>
-          <t>#QRPRYR8LL</t>
-        </is>
-      </c>
-      <c r="C20" s="520" t="n"/>
-      <c r="D20" s="520" t="inlineStr">
-        <is>
-          <t>FidelCashflow</t>
-        </is>
-      </c>
-      <c r="E20" s="520" t="n"/>
+      <c r="E20" s="547" t="n"/>
       <c r="F20" s="136" t="n"/>
-      <c r="G20" s="520" t="n"/>
+      <c r="G20" s="547" t="n"/>
       <c r="H20" s="136" t="n"/>
-      <c r="I20" s="520" t="n"/>
+      <c r="I20" s="547" t="n"/>
       <c r="J20" s="136" t="n"/>
-      <c r="K20" s="520" t="n"/>
+      <c r="K20" s="547" t="n"/>
       <c r="L20" s="136" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="519" t="inlineStr">
+      <c r="B21" s="546" t="inlineStr">
         <is>
           <t>#QJC8LQU9U</t>
         </is>
       </c>
-      <c r="C21" s="519" t="n"/>
-      <c r="D21" s="519" t="inlineStr">
+      <c r="C21" s="546" t="n"/>
+      <c r="D21" s="546" t="inlineStr">
         <is>
           <t>Master01</t>
         </is>
       </c>
-      <c r="E21" s="519" t="n"/>
+      <c r="E21" s="546" t="n"/>
       <c r="F21" s="130" t="n"/>
-      <c r="G21" s="523" t="n">
+      <c r="G21" s="550" t="n">
         <v>2</v>
       </c>
       <c r="H21" s="127" t="n">
         <v>4</v>
       </c>
-      <c r="I21" s="519" t="n"/>
+      <c r="I21" s="546" t="n"/>
       <c r="J21" s="130" t="n"/>
-      <c r="K21" s="519" t="n"/>
+      <c r="K21" s="546" t="n"/>
       <c r="L21" s="130" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="520" t="inlineStr">
+      <c r="B22" s="547" t="inlineStr">
         <is>
           <t>#LPR9RPCY9</t>
         </is>
       </c>
-      <c r="C22" s="520" t="n"/>
-      <c r="D22" s="520" t="inlineStr">
+      <c r="C22" s="547" t="n"/>
+      <c r="D22" s="547" t="inlineStr">
         <is>
           <t>sayhuss17</t>
         </is>
       </c>
-      <c r="E22" s="520" t="n"/>
+      <c r="E22" s="547" t="n"/>
       <c r="F22" s="136" t="n"/>
-      <c r="G22" s="522" t="n">
+      <c r="G22" s="549" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="522" t="n">
+      <c r="I22" s="549" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="K22" s="520" t="n"/>
+      <c r="K22" s="547" t="n"/>
       <c r="L22" s="136" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="519" t="inlineStr">
+      <c r="B23" s="546" t="inlineStr">
         <is>
           <t>#L9QL9YQQY</t>
         </is>
       </c>
-      <c r="C23" s="519" t="n"/>
-      <c r="D23" s="519" t="inlineStr">
+      <c r="C23" s="546" t="n"/>
+      <c r="D23" s="546" t="inlineStr">
         <is>
           <t>Ima Chad</t>
         </is>
       </c>
-      <c r="E23" s="519" t="n"/>
+      <c r="E23" s="546" t="n"/>
       <c r="F23" s="130" t="n"/>
-      <c r="G23" s="519" t="n"/>
+      <c r="G23" s="546" t="n"/>
       <c r="H23" s="130" t="n"/>
-      <c r="I23" s="519" t="n"/>
+      <c r="I23" s="546" t="n"/>
       <c r="J23" s="130" t="n"/>
-      <c r="K23" s="519" t="n"/>
+      <c r="K23" s="546" t="n"/>
       <c r="L23" s="130" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="520" t="inlineStr">
+      <c r="B24" s="547" t="inlineStr">
         <is>
           <t>#LC9GUPJJG</t>
         </is>
       </c>
-      <c r="C24" s="520" t="n"/>
-      <c r="D24" s="520" t="inlineStr">
+      <c r="C24" s="547" t="n"/>
+      <c r="D24" s="547" t="inlineStr">
         <is>
           <t>raptor2222a</t>
         </is>
       </c>
-      <c r="E24" s="520" t="n"/>
+      <c r="E24" s="547" t="n"/>
       <c r="F24" s="136" t="n"/>
-      <c r="G24" s="520" t="n"/>
+      <c r="G24" s="547" t="n"/>
       <c r="H24" s="136" t="n"/>
-      <c r="I24" s="520" t="n"/>
+      <c r="I24" s="547" t="n"/>
       <c r="J24" s="136" t="n"/>
-      <c r="K24" s="520" t="n"/>
+      <c r="K24" s="547" t="n"/>
       <c r="L24" s="136" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="517" t="inlineStr">
+      <c r="B25" s="544" t="inlineStr">
         <is>
           <t>#QUG8QQJ92</t>
         </is>
       </c>
-      <c r="C25" s="517" t="n"/>
-      <c r="D25" s="517" t="inlineStr">
+      <c r="C25" s="544" t="n"/>
+      <c r="D25" s="544" t="inlineStr">
         <is>
           <t>Karma</t>
         </is>
       </c>
-      <c r="E25" s="517" t="n"/>
+      <c r="E25" s="544" t="n"/>
       <c r="F25" s="125" t="n"/>
-      <c r="G25" s="517" t="n"/>
+      <c r="G25" s="544" t="n"/>
       <c r="H25" s="125" t="n"/>
-      <c r="I25" s="517" t="n"/>
+      <c r="I25" s="544" t="n"/>
       <c r="J25" s="125" t="n"/>
-      <c r="K25" s="517" t="n"/>
+      <c r="K25" s="544" t="n"/>
       <c r="L25" s="125" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="520" t="inlineStr">
+      <c r="B26" s="547" t="inlineStr">
+        <is>
+          <t>#QQL8C29CY</t>
+        </is>
+      </c>
+      <c r="C26" s="547" t="n"/>
+      <c r="D26" s="547" t="inlineStr">
+        <is>
+          <t>TypicalTeague#2</t>
+        </is>
+      </c>
+      <c r="E26" s="547" t="n"/>
+      <c r="F26" s="136" t="n"/>
+      <c r="G26" s="547" t="n"/>
+      <c r="H26" s="136" t="n"/>
+      <c r="I26" s="547" t="n"/>
+      <c r="J26" s="136" t="n"/>
+      <c r="K26" s="547" t="n"/>
+      <c r="L26" s="136" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="546" t="inlineStr">
         <is>
           <t>#QU0U2Q99G</t>
         </is>
       </c>
-      <c r="C26" s="520" t="n"/>
-      <c r="D26" s="520" t="inlineStr">
+      <c r="C27" s="546" t="n"/>
+      <c r="D27" s="546" t="inlineStr">
         <is>
           <t>big coc</t>
         </is>
       </c>
-      <c r="E26" s="520" t="n"/>
-      <c r="F26" s="136" t="n"/>
-      <c r="G26" s="520" t="n"/>
-      <c r="H26" s="136" t="n"/>
-      <c r="I26" s="520" t="n"/>
-      <c r="J26" s="136" t="n"/>
-      <c r="K26" s="520" t="n"/>
-      <c r="L26" s="136" t="n"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="519" t="inlineStr">
+      <c r="E27" s="546" t="n"/>
+      <c r="F27" s="130" t="n"/>
+      <c r="G27" s="546" t="n"/>
+      <c r="H27" s="130" t="n"/>
+      <c r="I27" s="546" t="n"/>
+      <c r="J27" s="130" t="n"/>
+      <c r="K27" s="546" t="n"/>
+      <c r="L27" s="130" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="547" t="inlineStr">
         <is>
           <t>#QY8L2GLUR</t>
         </is>
       </c>
-      <c r="C27" s="519" t="n"/>
-      <c r="D27" s="519" t="inlineStr">
+      <c r="C28" s="547" t="n"/>
+      <c r="D28" s="547" t="inlineStr">
         <is>
           <t>Huy</t>
         </is>
       </c>
-      <c r="E27" s="519" t="n"/>
-      <c r="F27" s="130" t="n"/>
-      <c r="G27" s="524" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="519" t="n"/>
-      <c r="J27" s="130" t="n"/>
-      <c r="K27" s="519" t="n"/>
-      <c r="L27" s="130" t="n"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="520" t="inlineStr">
-        <is>
-          <t>#QQL8C29CY</t>
-        </is>
-      </c>
-      <c r="C28" s="520" t="n"/>
-      <c r="D28" s="520" t="inlineStr">
-        <is>
-          <t>TypicalTeague#2</t>
-        </is>
-      </c>
-      <c r="E28" s="520" t="n"/>
+      <c r="E28" s="547" t="n"/>
       <c r="F28" s="136" t="n"/>
-      <c r="G28" s="520" t="n"/>
-      <c r="H28" s="136" t="n"/>
-      <c r="I28" s="520" t="n"/>
+      <c r="G28" s="549" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="547" t="n"/>
       <c r="J28" s="136" t="n"/>
-      <c r="K28" s="520" t="n"/>
+      <c r="K28" s="547" t="n"/>
       <c r="L28" s="136" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="519" t="inlineStr">
+      <c r="B29" s="546" t="inlineStr">
         <is>
           <t>#QL8LVLYG8</t>
         </is>
       </c>
-      <c r="C29" s="519" t="n"/>
-      <c r="D29" s="519" t="inlineStr">
+      <c r="C29" s="546" t="n"/>
+      <c r="D29" s="546" t="inlineStr">
         <is>
           <t>Some guy</t>
         </is>
       </c>
-      <c r="E29" s="519" t="n"/>
+      <c r="E29" s="546" t="n"/>
       <c r="F29" s="130" t="n"/>
-      <c r="G29" s="519" t="n"/>
+      <c r="G29" s="546" t="n"/>
       <c r="H29" s="130" t="n"/>
-      <c r="I29" s="519" t="n"/>
+      <c r="I29" s="546" t="n"/>
       <c r="J29" s="130" t="n"/>
-      <c r="K29" s="519" t="n"/>
+      <c r="K29" s="546" t="n"/>
       <c r="L29" s="130" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="520" t="inlineStr">
+      <c r="B30" s="547" t="inlineStr">
         <is>
           <t>#L9JJQY992</t>
         </is>
       </c>
-      <c r="C30" s="520" t="n"/>
-      <c r="D30" s="520" t="inlineStr">
+      <c r="C30" s="547" t="n"/>
+      <c r="D30" s="547" t="inlineStr">
         <is>
           <t>Fisted_Waffle</t>
         </is>
       </c>
-      <c r="E30" s="520" t="n"/>
+      <c r="E30" s="547" t="n"/>
       <c r="F30" s="136" t="n"/>
-      <c r="G30" s="520" t="n"/>
+      <c r="G30" s="547" t="n"/>
       <c r="H30" s="136" t="n"/>
-      <c r="I30" s="520" t="n"/>
+      <c r="I30" s="547" t="n"/>
       <c r="J30" s="136" t="n"/>
-      <c r="K30" s="520" t="n"/>
+      <c r="K30" s="547" t="n"/>
       <c r="L30" s="136" t="n"/>
     </row>
     <row r="31">
-      <c r="B31" s="519" t="inlineStr">
+      <c r="B31" s="546" t="inlineStr">
         <is>
           <t>#QV8JJ0URU</t>
         </is>
       </c>
-      <c r="C31" s="519" t="n"/>
-      <c r="D31" s="519" t="inlineStr">
+      <c r="C31" s="546" t="n"/>
+      <c r="D31" s="546" t="inlineStr">
         <is>
           <t>✨Jacob</t>
         </is>
       </c>
-      <c r="E31" s="519" t="n"/>
+      <c r="E31" s="546" t="n"/>
       <c r="F31" s="130" t="n"/>
-      <c r="G31" s="519" t="n"/>
+      <c r="G31" s="546" t="n"/>
       <c r="H31" s="130" t="n"/>
-      <c r="I31" s="524" t="n">
+      <c r="I31" s="551" t="n">
         <v>0</v>
       </c>
       <c r="J31" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K31" s="519" t="n"/>
+      <c r="K31" s="546" t="n"/>
       <c r="L31" s="130" t="n"/>
     </row>
     <row r="32">
-      <c r="B32" s="520" t="inlineStr">
+      <c r="B32" s="547" t="inlineStr">
         <is>
           <t>#QY0VGPQGQ</t>
         </is>
       </c>
-      <c r="C32" s="520" t="n"/>
-      <c r="D32" s="520" t="inlineStr">
+      <c r="C32" s="547" t="n"/>
+      <c r="D32" s="547" t="inlineStr">
         <is>
           <t>killerjones</t>
         </is>
       </c>
-      <c r="E32" s="520" t="n"/>
+      <c r="E32" s="547" t="n"/>
       <c r="F32" s="136" t="n"/>
-      <c r="G32" s="520" t="n"/>
+      <c r="G32" s="547" t="n"/>
       <c r="H32" s="136" t="n"/>
-      <c r="I32" s="520" t="n"/>
+      <c r="I32" s="547" t="n"/>
       <c r="J32" s="136" t="n"/>
-      <c r="K32" s="520" t="n"/>
+      <c r="K32" s="547" t="n"/>
       <c r="L32" s="136" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" s="524" t="inlineStr">
+      <c r="B33" s="551" t="inlineStr">
         <is>
           <t>#P2CPRPQU</t>
         </is>
       </c>
-      <c r="C33" s="519" t="n"/>
-      <c r="D33" s="519" t="inlineStr">
+      <c r="C33" s="546" t="n"/>
+      <c r="D33" s="546" t="inlineStr">
         <is>
           <t>The Drift King</t>
         </is>
       </c>
-      <c r="E33" s="519" t="n"/>
+      <c r="E33" s="546" t="n"/>
       <c r="F33" s="130" t="n"/>
-      <c r="G33" s="523" t="n">
+      <c r="G33" s="550" t="n">
         <v>2</v>
       </c>
       <c r="H33" s="127" t="n">
         <v>6</v>
       </c>
-      <c r="I33" s="523" t="n">
+      <c r="I33" s="550" t="n">
         <v>2</v>
       </c>
       <c r="J33" s="127" t="n">
         <v>6</v>
       </c>
-      <c r="K33" s="519" t="n"/>
+      <c r="K33" s="546" t="n"/>
       <c r="L33" s="130" t="n"/>
     </row>
     <row r="34">
-      <c r="B34" s="522" t="inlineStr">
+      <c r="B34" s="549" t="inlineStr">
         <is>
           <t>#UVCCQC02</t>
         </is>
       </c>
-      <c r="C34" s="520" t="n"/>
-      <c r="D34" s="520" t="inlineStr">
+      <c r="C34" s="547" t="n"/>
+      <c r="D34" s="547" t="inlineStr">
         <is>
           <t>lordshisha</t>
         </is>
       </c>
-      <c r="E34" s="520" t="n"/>
+      <c r="E34" s="547" t="n"/>
       <c r="F34" s="136" t="n"/>
-      <c r="G34" s="525" t="n">
+      <c r="G34" s="552" t="n">
         <v>2</v>
       </c>
       <c r="H34" s="133" t="n">
         <v>6</v>
       </c>
-      <c r="I34" s="525" t="n">
+      <c r="I34" s="552" t="n">
         <v>2</v>
       </c>
       <c r="J34" s="139" t="n">
         <v>3</v>
       </c>
-      <c r="K34" s="525" t="n">
+      <c r="K34" s="552" t="n">
         <v>2</v>
       </c>
       <c r="L34" s="148" t="n">
@@ -4280,66 +4313,66 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="524" t="inlineStr">
+      <c r="B35" s="551" t="inlineStr">
         <is>
           <t>#Q0JG2RJQ8</t>
         </is>
       </c>
-      <c r="C35" s="519" t="n"/>
-      <c r="D35" s="519" t="inlineStr">
+      <c r="C35" s="546" t="n"/>
+      <c r="D35" s="546" t="inlineStr">
         <is>
           <t>bozo</t>
         </is>
       </c>
-      <c r="E35" s="519" t="n"/>
+      <c r="E35" s="546" t="n"/>
       <c r="F35" s="130" t="n"/>
-      <c r="G35" s="519" t="n"/>
+      <c r="G35" s="546" t="n"/>
       <c r="H35" s="130" t="n"/>
-      <c r="I35" s="519" t="n"/>
+      <c r="I35" s="546" t="n"/>
       <c r="J35" s="130" t="n"/>
-      <c r="K35" s="519" t="n"/>
+      <c r="K35" s="546" t="n"/>
       <c r="L35" s="130" t="n"/>
     </row>
     <row r="36">
-      <c r="B36" s="522" t="inlineStr">
+      <c r="B36" s="549" t="inlineStr">
         <is>
           <t>#QJVL0LYQQ</t>
         </is>
       </c>
-      <c r="C36" s="520" t="n"/>
-      <c r="D36" s="520" t="inlineStr">
+      <c r="C36" s="547" t="n"/>
+      <c r="D36" s="547" t="inlineStr">
         <is>
           <t>mobbb341</t>
         </is>
       </c>
-      <c r="E36" s="520" t="n"/>
+      <c r="E36" s="547" t="n"/>
       <c r="F36" s="136" t="n"/>
-      <c r="G36" s="520" t="n"/>
+      <c r="G36" s="547" t="n"/>
       <c r="H36" s="136" t="n"/>
-      <c r="I36" s="520" t="n"/>
+      <c r="I36" s="547" t="n"/>
       <c r="J36" s="136" t="n"/>
-      <c r="K36" s="520" t="n"/>
+      <c r="K36" s="547" t="n"/>
       <c r="L36" s="136" t="n"/>
     </row>
     <row r="37">
-      <c r="B37" s="524" t="inlineStr">
+      <c r="B37" s="551" t="inlineStr">
         <is>
           <t>#L8R82C8VC</t>
         </is>
       </c>
-      <c r="C37" s="519" t="n"/>
-      <c r="D37" s="519" t="inlineStr">
+      <c r="C37" s="546" t="n"/>
+      <c r="D37" s="546" t="inlineStr">
         <is>
           <t>caden asue</t>
         </is>
       </c>
-      <c r="E37" s="519" t="n"/>
+      <c r="E37" s="546" t="n"/>
       <c r="F37" s="130" t="n"/>
-      <c r="G37" s="519" t="n"/>
+      <c r="G37" s="546" t="n"/>
       <c r="H37" s="130" t="n"/>
-      <c r="I37" s="519" t="n"/>
+      <c r="I37" s="546" t="n"/>
       <c r="J37" s="130" t="n"/>
-      <c r="K37" s="519" t="n"/>
+      <c r="K37" s="546" t="n"/>
       <c r="L37" s="130" t="n"/>
     </row>
   </sheetData>

--- a/Clash.xlsx
+++ b/Clash.xlsx
@@ -179,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -294,11 +294,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="569">
+  <cellXfs count="596">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -994,6 +996,37 @@
     <xf numFmtId="164" fontId="5" fillId="25" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="24" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="23" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="18" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="21" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="22" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="21" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="23" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="25" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="24" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="22" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="18" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="24" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="21" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="22" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="25" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="21" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="22" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="25" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="24" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="23" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1359,7 +1392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1542,15 +1575,15 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="553" t="inlineStr">
+      <c r="A4" s="580" t="inlineStr">
         <is>
           <t>#QLJ2U20Y2</t>
         </is>
       </c>
-      <c r="B4" s="553" t="n">
-        <v>1486</v>
-      </c>
-      <c r="C4" s="554" t="n">
+      <c r="B4" s="580" t="n">
+        <v>1480</v>
+      </c>
+      <c r="C4" s="581" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="116" t="inlineStr">
@@ -1558,37 +1591,37 @@
           <t>DeadLeaf</t>
         </is>
       </c>
-      <c r="E4" s="555" t="n">
+      <c r="E4" s="582" t="n">
         <v>6</v>
       </c>
       <c r="F4" s="116" t="n">
         <v>13763</v>
       </c>
-      <c r="G4" s="556" t="n">
+      <c r="G4" s="583" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="119" t="n">
         <v>30</v>
       </c>
-      <c r="I4" s="555" t="n">
+      <c r="I4" s="582" t="n">
         <v>6</v>
       </c>
       <c r="J4" s="116" t="n">
         <v>11140</v>
       </c>
-      <c r="K4" s="555" t="n">
+      <c r="K4" s="582" t="n">
         <v>6</v>
       </c>
       <c r="L4" s="116" t="n">
         <v>15509</v>
       </c>
-      <c r="M4" s="555" t="n">
+      <c r="M4" s="582" t="n">
         <v>6</v>
       </c>
       <c r="N4" s="116" t="n">
         <v>8567</v>
       </c>
-      <c r="O4" s="555" t="n">
+      <c r="O4" s="582" t="n">
         <v>6</v>
       </c>
       <c r="P4" s="116" t="n">
@@ -1596,15 +1629,15 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="557" t="inlineStr">
+      <c r="A5" s="584" t="inlineStr">
         <is>
           <t>#G0QPVJY9L</t>
         </is>
       </c>
-      <c r="B5" s="557" t="n">
+      <c r="B5" s="584" t="n">
         <v>840</v>
       </c>
-      <c r="C5" s="558" t="n">
+      <c r="C5" s="585" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="122" t="inlineStr">
@@ -1612,37 +1645,37 @@
           <t>Zoro</t>
         </is>
       </c>
-      <c r="E5" s="559" t="n">
+      <c r="E5" s="586" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="122" t="n">
         <v>13432</v>
       </c>
-      <c r="G5" s="560" t="n">
+      <c r="G5" s="587" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="559" t="n">
+      <c r="I5" s="586" t="n">
         <v>6</v>
       </c>
       <c r="J5" s="122" t="n">
         <v>8855</v>
       </c>
-      <c r="K5" s="559" t="n">
+      <c r="K5" s="586" t="n">
         <v>6</v>
       </c>
       <c r="L5" s="122" t="n">
         <v>10965</v>
       </c>
-      <c r="M5" s="559" t="n">
+      <c r="M5" s="586" t="n">
         <v>6</v>
       </c>
       <c r="N5" s="122" t="n">
         <v>7905</v>
       </c>
-      <c r="O5" s="559" t="n">
+      <c r="O5" s="586" t="n">
         <v>6</v>
       </c>
       <c r="P5" s="122" t="n">
@@ -1650,15 +1683,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="553" t="inlineStr">
+      <c r="A6" s="580" t="inlineStr">
         <is>
           <t>#90U0VPU9U</t>
         </is>
       </c>
-      <c r="B6" s="553" t="n">
+      <c r="B6" s="580" t="n">
         <v>2523</v>
       </c>
-      <c r="C6" s="554" t="n">
+      <c r="C6" s="581" t="n">
         <v>3</v>
       </c>
       <c r="D6" s="116" t="inlineStr">
@@ -1666,37 +1699,37 @@
           <t>KYANI7E</t>
         </is>
       </c>
-      <c r="E6" s="555" t="n">
+      <c r="E6" s="582" t="n">
         <v>6</v>
       </c>
       <c r="F6" s="116" t="n">
         <v>13260</v>
       </c>
-      <c r="G6" s="556" t="n">
+      <c r="G6" s="583" t="n">
         <v>61</v>
       </c>
       <c r="H6" s="119" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="555" t="n">
+      <c r="I6" s="582" t="n">
         <v>6</v>
       </c>
       <c r="J6" s="116" t="n">
         <v>12144</v>
       </c>
-      <c r="K6" s="555" t="n">
+      <c r="K6" s="582" t="n">
         <v>6</v>
       </c>
       <c r="L6" s="116" t="n">
         <v>12835</v>
       </c>
-      <c r="M6" s="555" t="n">
+      <c r="M6" s="582" t="n">
         <v>6</v>
       </c>
       <c r="N6" s="116" t="n">
         <v>7696</v>
       </c>
-      <c r="O6" s="555" t="n">
+      <c r="O6" s="582" t="n">
         <v>6</v>
       </c>
       <c r="P6" s="116" t="n">
@@ -1704,15 +1737,15 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="557" t="inlineStr">
+      <c r="A7" s="584" t="inlineStr">
         <is>
           <t>#YJ20CRJYQ</t>
         </is>
       </c>
-      <c r="B7" s="557" t="n">
+      <c r="B7" s="584" t="n">
         <v>1350</v>
       </c>
-      <c r="C7" s="558" t="n">
+      <c r="C7" s="585" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="122" t="inlineStr">
@@ -1720,37 +1753,37 @@
           <t>UnluckGod</t>
         </is>
       </c>
-      <c r="E7" s="559" t="n">
+      <c r="E7" s="586" t="n">
         <v>6</v>
       </c>
       <c r="F7" s="122" t="n">
         <v>12824</v>
       </c>
-      <c r="G7" s="560" t="n">
+      <c r="G7" s="587" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="125" t="n">
         <v>61</v>
       </c>
-      <c r="I7" s="559" t="n">
+      <c r="I7" s="586" t="n">
         <v>6</v>
       </c>
       <c r="J7" s="122" t="n">
         <v>11999</v>
       </c>
-      <c r="K7" s="559" t="n">
+      <c r="K7" s="586" t="n">
         <v>6</v>
       </c>
       <c r="L7" s="122" t="n">
         <v>12972</v>
       </c>
-      <c r="M7" s="559" t="n">
+      <c r="M7" s="586" t="n">
         <v>6</v>
       </c>
       <c r="N7" s="122" t="n">
         <v>8286</v>
       </c>
-      <c r="O7" s="559" t="n">
+      <c r="O7" s="586" t="n">
         <v>6</v>
       </c>
       <c r="P7" s="122" t="n">
@@ -1758,15 +1791,15 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="553" t="inlineStr">
+      <c r="A8" s="580" t="inlineStr">
         <is>
           <t>#QUV2GP88U</t>
         </is>
       </c>
-      <c r="B8" s="553" t="n">
+      <c r="B8" s="580" t="n">
         <v>729</v>
       </c>
-      <c r="C8" s="554" t="n">
+      <c r="C8" s="581" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="116" t="inlineStr">
@@ -1774,37 +1807,37 @@
           <t>Nico Robin</t>
         </is>
       </c>
-      <c r="E8" s="555" t="n">
+      <c r="E8" s="582" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="116" t="n">
         <v>12612</v>
       </c>
-      <c r="G8" s="556" t="n">
+      <c r="G8" s="583" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="555" t="n">
+      <c r="I8" s="582" t="n">
         <v>6</v>
       </c>
       <c r="J8" s="116" t="n">
         <v>11338</v>
       </c>
-      <c r="K8" s="555" t="n">
+      <c r="K8" s="582" t="n">
         <v>6</v>
       </c>
       <c r="L8" s="116" t="n">
         <v>10997</v>
       </c>
-      <c r="M8" s="555" t="n">
+      <c r="M8" s="582" t="n">
         <v>6</v>
       </c>
       <c r="N8" s="116" t="n">
         <v>11087</v>
       </c>
-      <c r="O8" s="555" t="n">
+      <c r="O8" s="582" t="n">
         <v>6</v>
       </c>
       <c r="P8" s="116" t="n">
@@ -1812,15 +1845,15 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="557" t="inlineStr">
+      <c r="A9" s="584" t="inlineStr">
         <is>
           <t>#QCV22VP0G</t>
         </is>
       </c>
-      <c r="B9" s="557" t="n">
+      <c r="B9" s="584" t="n">
         <v>778</v>
       </c>
-      <c r="C9" s="558" t="n">
+      <c r="C9" s="585" t="n">
         <v>6</v>
       </c>
       <c r="D9" s="122" t="inlineStr">
@@ -1828,37 +1861,37 @@
           <t>Nami</t>
         </is>
       </c>
-      <c r="E9" s="559" t="n">
+      <c r="E9" s="586" t="n">
         <v>6</v>
       </c>
       <c r="F9" s="122" t="n">
         <v>11795</v>
       </c>
-      <c r="G9" s="560" t="n">
+      <c r="G9" s="587" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="559" t="n">
+      <c r="I9" s="586" t="n">
         <v>6</v>
       </c>
       <c r="J9" s="122" t="n">
         <v>10769</v>
       </c>
-      <c r="K9" s="559" t="n">
+      <c r="K9" s="586" t="n">
         <v>6</v>
       </c>
       <c r="L9" s="122" t="n">
         <v>12486</v>
       </c>
-      <c r="M9" s="559" t="n">
+      <c r="M9" s="586" t="n">
         <v>6</v>
       </c>
       <c r="N9" s="122" t="n">
         <v>8472</v>
       </c>
-      <c r="O9" s="559" t="n">
+      <c r="O9" s="586" t="n">
         <v>6</v>
       </c>
       <c r="P9" s="122" t="n">
@@ -1866,15 +1899,15 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="553" t="inlineStr">
+      <c r="A10" s="580" t="inlineStr">
         <is>
           <t>#YRGRRJQCY</t>
         </is>
       </c>
-      <c r="B10" s="553" t="n">
+      <c r="B10" s="580" t="n">
         <v>1337</v>
       </c>
-      <c r="C10" s="554" t="n">
+      <c r="C10" s="581" t="n">
         <v>7</v>
       </c>
       <c r="D10" s="116" t="inlineStr">
@@ -1882,37 +1915,37 @@
           <t>DoubleSpice</t>
         </is>
       </c>
-      <c r="E10" s="555" t="n">
+      <c r="E10" s="582" t="n">
         <v>6</v>
       </c>
       <c r="F10" s="116" t="n">
         <v>11620</v>
       </c>
-      <c r="G10" s="556" t="n">
+      <c r="G10" s="583" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="119" t="n">
         <v>60</v>
       </c>
-      <c r="I10" s="555" t="n">
+      <c r="I10" s="582" t="n">
         <v>6</v>
       </c>
       <c r="J10" s="116" t="n">
         <v>14095</v>
       </c>
-      <c r="K10" s="555" t="n">
+      <c r="K10" s="582" t="n">
         <v>6</v>
       </c>
       <c r="L10" s="116" t="n">
         <v>12379</v>
       </c>
-      <c r="M10" s="555" t="n">
+      <c r="M10" s="582" t="n">
         <v>6</v>
       </c>
       <c r="N10" s="116" t="n">
         <v>8256</v>
       </c>
-      <c r="O10" s="555" t="n">
+      <c r="O10" s="582" t="n">
         <v>6</v>
       </c>
       <c r="P10" s="116" t="n">
@@ -1920,15 +1953,15 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="557" t="inlineStr">
+      <c r="A11" s="584" t="inlineStr">
         <is>
           <t>#QUG8QQJ92</t>
         </is>
       </c>
-      <c r="B11" s="557" t="n">
+      <c r="B11" s="584" t="n">
         <v>920</v>
       </c>
-      <c r="C11" s="558" t="n">
+      <c r="C11" s="585" t="n">
         <v>8</v>
       </c>
       <c r="D11" s="122" t="inlineStr">
@@ -1936,37 +1969,37 @@
           <t>Karma</t>
         </is>
       </c>
-      <c r="E11" s="559" t="n">
+      <c r="E11" s="586" t="n">
         <v>6</v>
       </c>
       <c r="F11" s="122" t="n">
         <v>11355</v>
       </c>
-      <c r="G11" s="560" t="n">
+      <c r="G11" s="587" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="559" t="n">
+      <c r="I11" s="586" t="n">
         <v>6</v>
       </c>
       <c r="J11" s="122" t="n">
         <v>10003</v>
       </c>
-      <c r="K11" s="559" t="n">
+      <c r="K11" s="586" t="n">
         <v>6</v>
       </c>
       <c r="L11" s="122" t="n">
         <v>10595</v>
       </c>
-      <c r="M11" s="559" t="n">
+      <c r="M11" s="586" t="n">
         <v>6</v>
       </c>
       <c r="N11" s="122" t="n">
         <v>9240</v>
       </c>
-      <c r="O11" s="559" t="n">
+      <c r="O11" s="586" t="n">
         <v>6</v>
       </c>
       <c r="P11" s="122" t="n">
@@ -1974,15 +2007,15 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="561" t="inlineStr">
+      <c r="A12" s="588" t="inlineStr">
         <is>
           <t>#98JG2UJQL</t>
         </is>
       </c>
-      <c r="B12" s="561" t="n">
+      <c r="B12" s="588" t="n">
         <v>2957</v>
       </c>
-      <c r="C12" s="554" t="n">
+      <c r="C12" s="581" t="n">
         <v>9</v>
       </c>
       <c r="D12" s="133" t="inlineStr">
@@ -1990,37 +2023,37 @@
           <t>Dragonux</t>
         </is>
       </c>
-      <c r="E12" s="562" t="n">
+      <c r="E12" s="589" t="n">
         <v>6</v>
       </c>
       <c r="F12" s="133" t="n">
         <v>10910</v>
       </c>
-      <c r="G12" s="563" t="n">
+      <c r="G12" s="590" t="n">
         <v>211</v>
       </c>
       <c r="H12" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="562" t="n">
+      <c r="I12" s="589" t="n">
         <v>6</v>
       </c>
       <c r="J12" s="133" t="n">
         <v>8750</v>
       </c>
-      <c r="K12" s="562" t="n">
+      <c r="K12" s="589" t="n">
         <v>6</v>
       </c>
       <c r="L12" s="133" t="n">
         <v>10865</v>
       </c>
-      <c r="M12" s="562" t="n">
+      <c r="M12" s="589" t="n">
         <v>6</v>
       </c>
       <c r="N12" s="133" t="n">
         <v>8025</v>
       </c>
-      <c r="O12" s="562" t="n">
+      <c r="O12" s="589" t="n">
         <v>6</v>
       </c>
       <c r="P12" s="133" t="n">
@@ -2028,15 +2061,15 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="557" t="inlineStr">
+      <c r="A13" s="584" t="inlineStr">
         <is>
           <t>#QLR088LC9</t>
         </is>
       </c>
-      <c r="B13" s="557" t="n">
-        <v>857</v>
-      </c>
-      <c r="C13" s="558" t="n">
+      <c r="B13" s="584" t="n">
+        <v>851</v>
+      </c>
+      <c r="C13" s="585" t="n">
         <v>10</v>
       </c>
       <c r="D13" s="122" t="inlineStr">
@@ -2044,37 +2077,37 @@
           <t>Sanji</t>
         </is>
       </c>
-      <c r="E13" s="559" t="n">
+      <c r="E13" s="586" t="n">
         <v>6</v>
       </c>
       <c r="F13" s="122" t="n">
         <v>10910</v>
       </c>
-      <c r="G13" s="560" t="n">
+      <c r="G13" s="587" t="n">
         <v>0</v>
       </c>
       <c r="H13" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="559" t="n">
+      <c r="I13" s="586" t="n">
         <v>6</v>
       </c>
       <c r="J13" s="122" t="n">
         <v>9550</v>
       </c>
-      <c r="K13" s="559" t="n">
+      <c r="K13" s="586" t="n">
         <v>6</v>
       </c>
       <c r="L13" s="122" t="n">
         <v>9138</v>
       </c>
-      <c r="M13" s="559" t="n">
+      <c r="M13" s="586" t="n">
         <v>6</v>
       </c>
       <c r="N13" s="122" t="n">
         <v>8897</v>
       </c>
-      <c r="O13" s="559" t="n">
+      <c r="O13" s="586" t="n">
         <v>6</v>
       </c>
       <c r="P13" s="122" t="n">
@@ -2082,15 +2115,15 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="553" t="inlineStr">
+      <c r="A14" s="580" t="inlineStr">
         <is>
           <t>#QUYG0PQC8</t>
         </is>
       </c>
-      <c r="B14" s="553" t="n">
+      <c r="B14" s="580" t="n">
         <v>940</v>
       </c>
-      <c r="C14" s="554" t="n">
+      <c r="C14" s="581" t="n">
         <v>11</v>
       </c>
       <c r="D14" s="116" t="inlineStr">
@@ -2098,37 +2131,37 @@
           <t>Luffy</t>
         </is>
       </c>
-      <c r="E14" s="555" t="n">
+      <c r="E14" s="582" t="n">
         <v>6</v>
       </c>
       <c r="F14" s="116" t="n">
         <v>10879</v>
       </c>
-      <c r="G14" s="556" t="n">
+      <c r="G14" s="583" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="555" t="n">
+      <c r="I14" s="582" t="n">
         <v>6</v>
       </c>
       <c r="J14" s="116" t="n">
         <v>9114</v>
       </c>
-      <c r="K14" s="555" t="n">
+      <c r="K14" s="582" t="n">
         <v>6</v>
       </c>
       <c r="L14" s="116" t="n">
         <v>13385</v>
       </c>
-      <c r="M14" s="555" t="n">
+      <c r="M14" s="582" t="n">
         <v>6</v>
       </c>
       <c r="N14" s="116" t="n">
         <v>7877</v>
       </c>
-      <c r="O14" s="555" t="n">
+      <c r="O14" s="582" t="n">
         <v>6</v>
       </c>
       <c r="P14" s="116" t="n">
@@ -2136,15 +2169,15 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="564" t="inlineStr">
+      <c r="A15" s="591" t="inlineStr">
         <is>
           <t>#G0JPUQGYR</t>
         </is>
       </c>
-      <c r="B15" s="564" t="n">
+      <c r="B15" s="591" t="n">
         <v>1286</v>
       </c>
-      <c r="C15" s="558" t="n">
+      <c r="C15" s="585" t="n">
         <v>12</v>
       </c>
       <c r="D15" s="127" t="inlineStr">
@@ -2152,37 +2185,37 @@
           <t>Collin</t>
         </is>
       </c>
-      <c r="E15" s="565" t="n">
+      <c r="E15" s="592" t="n">
         <v>6</v>
       </c>
       <c r="F15" s="127" t="n">
         <v>8833</v>
       </c>
-      <c r="G15" s="566" t="n">
+      <c r="G15" s="593" t="n">
         <v>20</v>
       </c>
       <c r="H15" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="565" t="n">
+      <c r="I15" s="592" t="n">
         <v>6</v>
       </c>
       <c r="J15" s="127" t="n">
         <v>9238</v>
       </c>
-      <c r="K15" s="565" t="n">
+      <c r="K15" s="592" t="n">
         <v>6</v>
       </c>
       <c r="L15" s="127" t="n">
         <v>7756</v>
       </c>
-      <c r="M15" s="565" t="n">
+      <c r="M15" s="592" t="n">
         <v>6</v>
       </c>
       <c r="N15" s="131" t="n">
         <v>5943</v>
       </c>
-      <c r="O15" s="565" t="n">
+      <c r="O15" s="592" t="n">
         <v>6</v>
       </c>
       <c r="P15" s="127" t="n">
@@ -2190,15 +2223,15 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="561" t="inlineStr">
+      <c r="A16" s="588" t="inlineStr">
         <is>
           <t>#82QLQCJRJ</t>
         </is>
       </c>
-      <c r="B16" s="561" t="n">
-        <v>2919</v>
-      </c>
-      <c r="C16" s="554" t="n">
+      <c r="B16" s="588" t="n">
+        <v>2913</v>
+      </c>
+      <c r="C16" s="581" t="n">
         <v>13</v>
       </c>
       <c r="D16" s="133" t="inlineStr">
@@ -2206,37 +2239,37 @@
           <t>Raging Fury</t>
         </is>
       </c>
-      <c r="E16" s="562" t="n">
+      <c r="E16" s="589" t="n">
         <v>6</v>
       </c>
       <c r="F16" s="133" t="n">
         <v>8055</v>
       </c>
-      <c r="G16" s="567" t="n">
+      <c r="G16" s="594" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="562" t="n">
+      <c r="I16" s="589" t="n">
         <v>6</v>
       </c>
       <c r="J16" s="133" t="n">
         <v>7115</v>
       </c>
-      <c r="K16" s="567" t="n">
+      <c r="K16" s="594" t="n">
         <v>2</v>
       </c>
       <c r="L16" s="148" t="n">
         <v>2320</v>
       </c>
-      <c r="M16" s="562" t="n">
+      <c r="M16" s="589" t="n">
         <v>6</v>
       </c>
       <c r="N16" s="139" t="n">
         <v>4920</v>
       </c>
-      <c r="O16" s="562" t="n">
+      <c r="O16" s="589" t="n">
         <v>6</v>
       </c>
       <c r="P16" s="139" t="n">
@@ -2244,15 +2277,15 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="557" t="inlineStr">
+      <c r="A17" s="584" t="inlineStr">
         <is>
           <t>#Q8CLCUCC2</t>
         </is>
       </c>
-      <c r="B17" s="557" t="n">
+      <c r="B17" s="584" t="n">
         <v>1327</v>
       </c>
-      <c r="C17" s="558" t="n">
+      <c r="C17" s="585" t="n">
         <v>14</v>
       </c>
       <c r="D17" s="122" t="inlineStr">
@@ -2260,37 +2293,37 @@
           <t>Moxxi</t>
         </is>
       </c>
-      <c r="E17" s="559" t="n">
+      <c r="E17" s="586" t="n">
         <v>6</v>
       </c>
       <c r="F17" s="122" t="n">
         <v>8015</v>
       </c>
-      <c r="G17" s="560" t="n">
+      <c r="G17" s="587" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="125" t="n">
         <v>60</v>
       </c>
-      <c r="I17" s="559" t="n">
+      <c r="I17" s="586" t="n">
         <v>6</v>
       </c>
       <c r="J17" s="122" t="n">
         <v>11010</v>
       </c>
-      <c r="K17" s="559" t="n">
+      <c r="K17" s="586" t="n">
         <v>6</v>
       </c>
       <c r="L17" s="122" t="n">
         <v>13857</v>
       </c>
-      <c r="M17" s="559" t="n">
+      <c r="M17" s="586" t="n">
         <v>6</v>
       </c>
       <c r="N17" s="122" t="n">
         <v>7905</v>
       </c>
-      <c r="O17" s="559" t="n">
+      <c r="O17" s="586" t="n">
         <v>6</v>
       </c>
       <c r="P17" s="122" t="n">
@@ -2298,15 +2331,15 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="561" t="inlineStr">
+      <c r="A18" s="588" t="inlineStr">
         <is>
           <t>#QU0U2Q99G</t>
         </is>
       </c>
-      <c r="B18" s="561" t="n">
+      <c r="B18" s="588" t="n">
         <v>913</v>
       </c>
-      <c r="C18" s="554" t="n">
+      <c r="C18" s="581" t="n">
         <v>15</v>
       </c>
       <c r="D18" s="133" t="inlineStr">
@@ -2314,45 +2347,45 @@
           <t>big coc</t>
         </is>
       </c>
-      <c r="E18" s="562" t="n">
+      <c r="E18" s="589" t="n">
         <v>6</v>
       </c>
       <c r="F18" s="133" t="n">
         <v>7420</v>
       </c>
-      <c r="G18" s="567" t="n">
+      <c r="G18" s="594" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="136" t="n">
         <v>40</v>
       </c>
-      <c r="I18" s="562" t="n">
+      <c r="I18" s="589" t="n">
         <v>5</v>
       </c>
       <c r="J18" s="139" t="n">
         <v>5150</v>
       </c>
-      <c r="K18" s="562" t="n">
+      <c r="K18" s="589" t="n">
         <v>6</v>
       </c>
       <c r="L18" s="133" t="n">
         <v>9075</v>
       </c>
-      <c r="M18" s="561" t="n"/>
+      <c r="M18" s="588" t="n"/>
       <c r="N18" s="136" t="n"/>
-      <c r="O18" s="561" t="n"/>
+      <c r="O18" s="588" t="n"/>
       <c r="P18" s="136" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="564" t="inlineStr">
+      <c r="A19" s="591" t="inlineStr">
         <is>
           <t>#QRPRYR8LL</t>
         </is>
       </c>
-      <c r="B19" s="564" t="n">
-        <v>1124</v>
-      </c>
-      <c r="C19" s="558" t="n">
+      <c r="B19" s="591" t="n">
+        <v>1118</v>
+      </c>
+      <c r="C19" s="585" t="n">
         <v>16</v>
       </c>
       <c r="D19" s="127" t="inlineStr">
@@ -2360,37 +2393,37 @@
           <t>FidelCashflow</t>
         </is>
       </c>
-      <c r="E19" s="565" t="n">
+      <c r="E19" s="592" t="n">
         <v>6</v>
       </c>
       <c r="F19" s="127" t="n">
         <v>6415</v>
       </c>
-      <c r="G19" s="566" t="n">
+      <c r="G19" s="593" t="n">
         <v>4</v>
       </c>
       <c r="H19" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="565" t="n">
+      <c r="I19" s="592" t="n">
         <v>6</v>
       </c>
       <c r="J19" s="127" t="n">
         <v>6547</v>
       </c>
-      <c r="K19" s="565" t="n">
+      <c r="K19" s="592" t="n">
         <v>6</v>
       </c>
       <c r="L19" s="127" t="n">
         <v>6811</v>
       </c>
-      <c r="M19" s="565" t="n">
+      <c r="M19" s="592" t="n">
         <v>6</v>
       </c>
       <c r="N19" s="131" t="n">
         <v>4239</v>
       </c>
-      <c r="O19" s="565" t="n">
+      <c r="O19" s="592" t="n">
         <v>6</v>
       </c>
       <c r="P19" s="131" t="n">
@@ -2398,15 +2431,15 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="561" t="inlineStr">
+      <c r="A20" s="588" t="inlineStr">
         <is>
           <t>#QY0VGPQGQ</t>
         </is>
       </c>
-      <c r="B20" s="561" t="n">
-        <v>570</v>
-      </c>
-      <c r="C20" s="554" t="n">
+      <c r="B20" s="588" t="n">
+        <v>563</v>
+      </c>
+      <c r="C20" s="581" t="n">
         <v>17</v>
       </c>
       <c r="D20" s="133" t="inlineStr">
@@ -2414,37 +2447,37 @@
           <t>killerjones</t>
         </is>
       </c>
-      <c r="E20" s="562" t="n">
+      <c r="E20" s="589" t="n">
         <v>6</v>
       </c>
       <c r="F20" s="133" t="n">
         <v>6320</v>
       </c>
-      <c r="G20" s="567" t="n">
+      <c r="G20" s="594" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="136" t="n">
         <v>15</v>
       </c>
-      <c r="I20" s="561" t="n"/>
+      <c r="I20" s="588" t="n"/>
       <c r="J20" s="136" t="n"/>
-      <c r="K20" s="561" t="n"/>
+      <c r="K20" s="588" t="n"/>
       <c r="L20" s="136" t="n"/>
-      <c r="M20" s="561" t="n"/>
+      <c r="M20" s="588" t="n"/>
       <c r="N20" s="136" t="n"/>
-      <c r="O20" s="561" t="n"/>
+      <c r="O20" s="588" t="n"/>
       <c r="P20" s="136" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="564" t="inlineStr">
+      <c r="A21" s="591" t="inlineStr">
         <is>
           <t>#LC9GUPJJG</t>
         </is>
       </c>
-      <c r="B21" s="564" t="n">
+      <c r="B21" s="591" t="n">
         <v>953</v>
       </c>
-      <c r="C21" s="558" t="n">
+      <c r="C21" s="585" t="n">
         <v>18</v>
       </c>
       <c r="D21" s="127" t="inlineStr">
@@ -2452,41 +2485,41 @@
           <t>raptor2222a</t>
         </is>
       </c>
-      <c r="E21" s="565" t="n">
+      <c r="E21" s="592" t="n">
         <v>5</v>
       </c>
       <c r="F21" s="131" t="n">
         <v>4350</v>
       </c>
-      <c r="G21" s="566" t="n">
+      <c r="G21" s="593" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="566" t="n">
+      <c r="I21" s="593" t="n">
         <v>0</v>
       </c>
       <c r="J21" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K21" s="564" t="n"/>
+      <c r="K21" s="591" t="n"/>
       <c r="L21" s="130" t="n"/>
-      <c r="M21" s="564" t="n"/>
+      <c r="M21" s="591" t="n"/>
       <c r="N21" s="130" t="n"/>
-      <c r="O21" s="564" t="n"/>
+      <c r="O21" s="591" t="n"/>
       <c r="P21" s="130" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="561" t="inlineStr">
+      <c r="A22" s="588" t="inlineStr">
         <is>
           <t>#QLG0VJG2J</t>
         </is>
       </c>
-      <c r="B22" s="561" t="n">
-        <v>1092</v>
-      </c>
-      <c r="C22" s="554" t="n">
+      <c r="B22" s="588" t="n">
+        <v>1087</v>
+      </c>
+      <c r="C22" s="581" t="n">
         <v>19</v>
       </c>
       <c r="D22" s="139" t="inlineStr">
@@ -2494,41 +2527,41 @@
           <t>PocketRocket</t>
         </is>
       </c>
-      <c r="E22" s="563" t="n">
+      <c r="E22" s="590" t="n">
         <v>4</v>
       </c>
       <c r="F22" s="139" t="n">
         <v>4327</v>
       </c>
-      <c r="G22" s="567" t="n">
+      <c r="G22" s="594" t="n">
         <v>20</v>
       </c>
       <c r="H22" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="563" t="n">
+      <c r="I22" s="590" t="n">
         <v>4</v>
       </c>
       <c r="J22" s="139" t="n">
         <v>5215</v>
       </c>
-      <c r="K22" s="561" t="n"/>
+      <c r="K22" s="588" t="n"/>
       <c r="L22" s="136" t="n"/>
-      <c r="M22" s="561" t="n"/>
+      <c r="M22" s="588" t="n"/>
       <c r="N22" s="136" t="n"/>
-      <c r="O22" s="561" t="n"/>
+      <c r="O22" s="588" t="n"/>
       <c r="P22" s="136" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="564" t="inlineStr">
+      <c r="A23" s="591" t="inlineStr">
         <is>
           <t>#QL8LVLYG8</t>
         </is>
       </c>
-      <c r="B23" s="564" t="n">
-        <v>876</v>
-      </c>
-      <c r="C23" s="558" t="n">
+      <c r="B23" s="591" t="n">
+        <v>863</v>
+      </c>
+      <c r="C23" s="585" t="n">
         <v>20</v>
       </c>
       <c r="D23" s="137" t="inlineStr">
@@ -2536,37 +2569,37 @@
           <t>Some guy</t>
         </is>
       </c>
-      <c r="E23" s="566" t="n">
+      <c r="E23" s="593" t="n">
         <v>2</v>
       </c>
       <c r="F23" s="137" t="n">
         <v>2650</v>
       </c>
-      <c r="G23" s="566" t="n">
+      <c r="G23" s="593" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="130" t="n">
         <v>20</v>
       </c>
-      <c r="I23" s="566" t="n">
+      <c r="I23" s="593" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K23" s="565" t="n">
+      <c r="K23" s="592" t="n">
         <v>6</v>
       </c>
       <c r="L23" s="127" t="n">
         <v>6917</v>
       </c>
-      <c r="M23" s="566" t="n">
+      <c r="M23" s="593" t="n">
         <v>0</v>
       </c>
       <c r="N23" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="O23" s="566" t="n">
+      <c r="O23" s="593" t="n">
         <v>2</v>
       </c>
       <c r="P23" s="137" t="n">
@@ -2580,7 +2613,7 @@
         </is>
       </c>
       <c r="B24" s="141" t="n">
-        <v>1003</v>
+        <v>989</v>
       </c>
       <c r="C24" s="142" t="n">
         <v>21</v>
@@ -2628,15 +2661,15 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="564" t="inlineStr">
+      <c r="A25" s="591" t="inlineStr">
         <is>
           <t>#QV8JJ0URU</t>
         </is>
       </c>
-      <c r="B25" s="564" t="n">
+      <c r="B25" s="591" t="n">
         <v>741</v>
       </c>
-      <c r="C25" s="558" t="n">
+      <c r="C25" s="585" t="n">
         <v>22</v>
       </c>
       <c r="D25" s="137" t="inlineStr">
@@ -2644,37 +2677,37 @@
           <t>✨Jacob</t>
         </is>
       </c>
-      <c r="E25" s="566" t="n">
+      <c r="E25" s="593" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="G25" s="566" t="n">
+      <c r="G25" s="593" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="566" t="n">
+      <c r="I25" s="593" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K25" s="566" t="n">
+      <c r="K25" s="593" t="n">
         <v>0</v>
       </c>
       <c r="L25" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="M25" s="565" t="n">
+      <c r="M25" s="592" t="n">
         <v>6</v>
       </c>
       <c r="N25" s="127" t="n">
         <v>7385</v>
       </c>
-      <c r="O25" s="565" t="n">
+      <c r="O25" s="592" t="n">
         <v>6</v>
       </c>
       <c r="P25" s="127" t="n">
@@ -2682,15 +2715,15 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="561" t="inlineStr">
+      <c r="A26" s="588" t="inlineStr">
         <is>
           <t>#QY8L2GLUR</t>
         </is>
       </c>
-      <c r="B26" s="561" t="n">
+      <c r="B26" s="588" t="n">
         <v>907</v>
       </c>
-      <c r="C26" s="554" t="n">
+      <c r="C26" s="581" t="n">
         <v>23</v>
       </c>
       <c r="D26" s="148" t="inlineStr">
@@ -2698,37 +2731,37 @@
           <t>Huy</t>
         </is>
       </c>
-      <c r="E26" s="567" t="n">
+      <c r="E26" s="594" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="567" t="n">
+      <c r="G26" s="594" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="567" t="n">
+      <c r="I26" s="594" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="K26" s="567" t="n">
+      <c r="K26" s="594" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="M26" s="562" t="n">
+      <c r="M26" s="589" t="n">
         <v>6</v>
       </c>
       <c r="N26" s="133" t="n">
         <v>6995</v>
       </c>
-      <c r="O26" s="562" t="n">
+      <c r="O26" s="589" t="n">
         <v>6</v>
       </c>
       <c r="P26" s="133" t="n">
@@ -2736,15 +2769,15 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="564" t="inlineStr">
+      <c r="A27" s="591" t="inlineStr">
         <is>
           <t>#L2QQL9QVJ</t>
         </is>
       </c>
-      <c r="B27" s="564" t="n">
+      <c r="B27" s="591" t="n">
         <v>1450</v>
       </c>
-      <c r="C27" s="558" t="n">
+      <c r="C27" s="585" t="n">
         <v>24</v>
       </c>
       <c r="D27" s="137" t="inlineStr">
@@ -2752,37 +2785,37 @@
           <t>JustPre10d</t>
         </is>
       </c>
-      <c r="E27" s="566" t="n">
+      <c r="E27" s="593" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="G27" s="566" t="n">
+      <c r="G27" s="593" t="n">
         <v>0</v>
       </c>
       <c r="H27" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="566" t="n">
+      <c r="I27" s="593" t="n">
         <v>0</v>
       </c>
       <c r="J27" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K27" s="566" t="n">
+      <c r="K27" s="593" t="n">
         <v>0</v>
       </c>
       <c r="L27" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="M27" s="565" t="n">
+      <c r="M27" s="592" t="n">
         <v>6</v>
       </c>
       <c r="N27" s="127" t="n">
         <v>6655</v>
       </c>
-      <c r="O27" s="565" t="n">
+      <c r="O27" s="592" t="n">
         <v>6</v>
       </c>
       <c r="P27" s="127" t="n">
@@ -2790,15 +2823,15 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="561" t="inlineStr">
+      <c r="A28" s="588" t="inlineStr">
         <is>
           <t>#LPR9RPCY9</t>
         </is>
       </c>
-      <c r="B28" s="561" t="n">
+      <c r="B28" s="588" t="n">
         <v>990</v>
       </c>
-      <c r="C28" s="554" t="n">
+      <c r="C28" s="581" t="n">
         <v>25</v>
       </c>
       <c r="D28" s="148" t="inlineStr">
@@ -2806,49 +2839,49 @@
           <t>sayhuss17</t>
         </is>
       </c>
-      <c r="E28" s="567" t="n">
+      <c r="E28" s="594" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="G28" s="567" t="n">
+      <c r="G28" s="594" t="n">
         <v>0</v>
       </c>
       <c r="H28" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="567" t="n">
+      <c r="I28" s="594" t="n">
         <v>0</v>
       </c>
       <c r="J28" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="K28" s="567" t="n">
+      <c r="K28" s="594" t="n">
         <v>0</v>
       </c>
       <c r="L28" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="M28" s="563" t="n">
+      <c r="M28" s="590" t="n">
         <v>4</v>
       </c>
       <c r="N28" s="139" t="n">
         <v>4240</v>
       </c>
-      <c r="O28" s="561" t="n"/>
+      <c r="O28" s="588" t="n"/>
       <c r="P28" s="136" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="564" t="inlineStr">
+      <c r="A29" s="591" t="inlineStr">
         <is>
           <t>#QQL8C29CY</t>
         </is>
       </c>
-      <c r="B29" s="564" t="n">
+      <c r="B29" s="591" t="n">
         <v>920</v>
       </c>
-      <c r="C29" s="558" t="n">
+      <c r="C29" s="585" t="n">
         <v>26</v>
       </c>
       <c r="D29" s="137" t="inlineStr">
@@ -2856,37 +2889,37 @@
           <t>TypicalTeague#2</t>
         </is>
       </c>
-      <c r="E29" s="566" t="n">
+      <c r="E29" s="593" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="G29" s="566" t="n">
+      <c r="G29" s="593" t="n">
         <v>0</v>
       </c>
       <c r="H29" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="566" t="n">
+      <c r="I29" s="593" t="n">
         <v>0</v>
       </c>
       <c r="J29" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K29" s="566" t="n">
+      <c r="K29" s="593" t="n">
         <v>0</v>
       </c>
       <c r="L29" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="M29" s="565" t="n">
+      <c r="M29" s="592" t="n">
         <v>5</v>
       </c>
       <c r="N29" s="131" t="n">
         <v>4070</v>
       </c>
-      <c r="O29" s="565" t="n">
+      <c r="O29" s="592" t="n">
         <v>6</v>
       </c>
       <c r="P29" s="127" t="n">
@@ -2894,528 +2927,588 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="561" t="inlineStr">
+      <c r="A30" s="588" t="inlineStr">
+        <is>
+          <t>#L9JJQY992</t>
+        </is>
+      </c>
+      <c r="B30" s="588" t="n">
+        <v>773</v>
+      </c>
+      <c r="C30" s="581" t="n">
+        <v>27</v>
+      </c>
+      <c r="D30" s="148" t="inlineStr">
+        <is>
+          <t>Fisted_Waffle</t>
+        </is>
+      </c>
+      <c r="E30" s="594" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="594" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="594" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="594" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="594" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="588" t="n"/>
+      <c r="P30" s="136" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="591" t="inlineStr">
+        <is>
+          <t>#PJYVV989R</t>
+        </is>
+      </c>
+      <c r="B31" s="591" t="n">
+        <v>1584</v>
+      </c>
+      <c r="C31" s="585" t="n">
+        <v>28</v>
+      </c>
+      <c r="D31" s="137" t="inlineStr">
+        <is>
+          <t>nx</t>
+        </is>
+      </c>
+      <c r="E31" s="593" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="593" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="593" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="593" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="593" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="591" t="n"/>
+      <c r="P31" s="130" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="588" t="inlineStr">
         <is>
           <t>#L9QL9YQQY</t>
         </is>
       </c>
-      <c r="B30" s="561" t="n">
+      <c r="B32" s="588" t="n">
         <v>975</v>
       </c>
-      <c r="C30" s="554" t="n">
-        <v>27</v>
-      </c>
-      <c r="D30" s="148" t="inlineStr">
+      <c r="C32" s="581" t="n">
+        <v>29</v>
+      </c>
+      <c r="D32" s="148" t="inlineStr">
         <is>
           <t>Ima Chad</t>
         </is>
       </c>
-      <c r="E30" s="567" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="567" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="567" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="567" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="567" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" s="562" t="n">
+      <c r="E32" s="594" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="594" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="594" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="594" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="594" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="589" t="n">
         <v>5</v>
       </c>
-      <c r="P30" s="148" t="n">
+      <c r="P32" s="148" t="n">
         <v>3360</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="564" t="inlineStr">
-        <is>
-          <t>#L9JJQY992</t>
-        </is>
-      </c>
-      <c r="B31" s="564" t="n">
-        <v>773</v>
-      </c>
-      <c r="C31" s="558" t="n">
-        <v>28</v>
-      </c>
-      <c r="D31" s="137" t="inlineStr">
-        <is>
-          <t>Fisted_Waffle</t>
-        </is>
-      </c>
-      <c r="E31" s="566" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="566" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="566" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="566" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="566" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" s="564" t="n"/>
-      <c r="P31" s="130" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="561" t="inlineStr">
-        <is>
-          <t>#PJYVV989R</t>
-        </is>
-      </c>
-      <c r="B32" s="561" t="n">
-        <v>1584</v>
-      </c>
-      <c r="C32" s="554" t="n">
-        <v>29</v>
-      </c>
-      <c r="D32" s="148" t="inlineStr">
-        <is>
-          <t>nx</t>
-        </is>
-      </c>
-      <c r="E32" s="567" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="567" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="567" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="567" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="567" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" s="561" t="n"/>
-      <c r="P32" s="136" t="n"/>
-    </row>
     <row r="33">
-      <c r="A33" s="232" t="inlineStr">
+      <c r="A33" s="591" t="inlineStr">
+        <is>
+          <t>#QLL0PVCRV</t>
+        </is>
+      </c>
+      <c r="B33" s="591" t="n">
+        <v>1704</v>
+      </c>
+      <c r="C33" s="585" t="n">
+        <v>30</v>
+      </c>
+      <c r="D33" s="130" t="inlineStr">
+        <is>
+          <t>Harsh chhillar</t>
+        </is>
+      </c>
+      <c r="E33" s="591" t="n"/>
+      <c r="F33" s="130" t="n"/>
+      <c r="G33" s="591" t="n"/>
+      <c r="H33" s="130" t="n"/>
+      <c r="I33" s="591" t="n"/>
+      <c r="J33" s="130" t="n"/>
+      <c r="K33" s="591" t="n"/>
+      <c r="L33" s="130" t="n"/>
+      <c r="M33" s="591" t="n"/>
+      <c r="N33" s="130" t="n"/>
+      <c r="O33" s="591" t="n"/>
+      <c r="P33" s="130" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="588" t="inlineStr">
+        <is>
+          <t>#QQLVRJCGQ</t>
+        </is>
+      </c>
+      <c r="B34" s="588" t="n">
+        <v>1194</v>
+      </c>
+      <c r="C34" s="581" t="n">
+        <v>31</v>
+      </c>
+      <c r="D34" s="136" t="inlineStr">
+        <is>
+          <t>khant</t>
+        </is>
+      </c>
+      <c r="E34" s="588" t="n"/>
+      <c r="F34" s="136" t="n"/>
+      <c r="G34" s="588" t="n"/>
+      <c r="H34" s="136" t="n"/>
+      <c r="I34" s="588" t="n"/>
+      <c r="J34" s="136" t="n"/>
+      <c r="K34" s="588" t="n"/>
+      <c r="L34" s="136" t="n"/>
+      <c r="M34" s="588" t="n"/>
+      <c r="N34" s="136" t="n"/>
+      <c r="O34" s="588" t="n"/>
+      <c r="P34" s="136" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="232" t="inlineStr">
         <is>
           <t>#Q8YP9P8UJ</t>
         </is>
       </c>
-      <c r="B33" s="233" t="n">
+      <c r="B35" s="233" t="n">
         <v>945</v>
       </c>
-      <c r="C33" s="234" t="n">
-        <v>30</v>
-      </c>
-      <c r="D33" s="235" t="inlineStr">
+      <c r="C35" s="234" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" s="235" t="inlineStr">
         <is>
           <t>Ranger</t>
         </is>
       </c>
-      <c r="E33" s="233" t="n"/>
-      <c r="F33" s="235" t="n"/>
-      <c r="G33" s="233" t="n"/>
-      <c r="H33" s="235" t="n"/>
-      <c r="I33" s="236" t="n">
+      <c r="E35" s="233" t="n"/>
+      <c r="F35" s="235" t="n"/>
+      <c r="G35" s="233" t="n"/>
+      <c r="H35" s="235" t="n"/>
+      <c r="I35" s="236" t="n">
         <v>5</v>
       </c>
-      <c r="J33" s="342" t="n">
+      <c r="J35" s="342" t="n">
         <v>4680</v>
       </c>
-      <c r="K33" s="233" t="n"/>
-      <c r="L33" s="235" t="n"/>
-      <c r="M33" s="233" t="n"/>
-      <c r="N33" s="235" t="n"/>
-      <c r="O33" s="233" t="n"/>
-      <c r="P33" s="235" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="567" t="inlineStr">
+      <c r="K35" s="233" t="n"/>
+      <c r="L35" s="235" t="n"/>
+      <c r="M35" s="233" t="n"/>
+      <c r="N35" s="235" t="n"/>
+      <c r="O35" s="233" t="n"/>
+      <c r="P35" s="235" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="594" t="inlineStr">
         <is>
           <t>#Q0JG2RJQ8</t>
         </is>
       </c>
-      <c r="B34" s="561" t="n">
+      <c r="B36" s="588" t="n">
         <v>997</v>
       </c>
-      <c r="C34" s="554" t="n">
-        <v>31</v>
-      </c>
-      <c r="D34" s="136" t="inlineStr">
+      <c r="C36" s="581" t="n">
+        <v>33</v>
+      </c>
+      <c r="D36" s="136" t="inlineStr">
         <is>
           <t>bozo</t>
         </is>
       </c>
-      <c r="E34" s="561" t="n"/>
-      <c r="F34" s="136" t="n"/>
-      <c r="G34" s="561" t="n"/>
-      <c r="H34" s="136" t="n"/>
-      <c r="I34" s="561" t="n"/>
-      <c r="J34" s="136" t="n"/>
-      <c r="K34" s="562" t="n">
-        <v>6</v>
-      </c>
-      <c r="L34" s="133" t="n">
+      <c r="E36" s="588" t="n"/>
+      <c r="F36" s="136" t="n"/>
+      <c r="G36" s="588" t="n"/>
+      <c r="H36" s="136" t="n"/>
+      <c r="I36" s="588" t="n"/>
+      <c r="J36" s="136" t="n"/>
+      <c r="K36" s="589" t="n">
+        <v>6</v>
+      </c>
+      <c r="L36" s="133" t="n">
         <v>6495</v>
       </c>
-      <c r="M34" s="561" t="n"/>
-      <c r="N34" s="136" t="n"/>
-      <c r="O34" s="561" t="n"/>
-      <c r="P34" s="136" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="566" t="inlineStr">
+      <c r="M36" s="588" t="n"/>
+      <c r="N36" s="136" t="n"/>
+      <c r="O36" s="588" t="n"/>
+      <c r="P36" s="136" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="593" t="inlineStr">
         <is>
           <t>#UVCCQC02</t>
         </is>
       </c>
-      <c r="B35" s="564" t="n">
+      <c r="B37" s="591" t="n">
         <v>1806</v>
       </c>
-      <c r="C35" s="558" t="n">
-        <v>32</v>
-      </c>
-      <c r="D35" s="130" t="inlineStr">
+      <c r="C37" s="585" t="n">
+        <v>34</v>
+      </c>
+      <c r="D37" s="130" t="inlineStr">
         <is>
           <t>lordshisha</t>
         </is>
       </c>
-      <c r="E35" s="564" t="n"/>
-      <c r="F35" s="130" t="n"/>
-      <c r="G35" s="564" t="n"/>
-      <c r="H35" s="130" t="n"/>
-      <c r="I35" s="564" t="n"/>
-      <c r="J35" s="130" t="n"/>
-      <c r="K35" s="565" t="n">
-        <v>6</v>
-      </c>
-      <c r="L35" s="127" t="n">
+      <c r="E37" s="591" t="n"/>
+      <c r="F37" s="130" t="n"/>
+      <c r="G37" s="591" t="n"/>
+      <c r="H37" s="130" t="n"/>
+      <c r="I37" s="591" t="n"/>
+      <c r="J37" s="130" t="n"/>
+      <c r="K37" s="592" t="n">
+        <v>6</v>
+      </c>
+      <c r="L37" s="127" t="n">
         <v>8496</v>
       </c>
-      <c r="M35" s="565" t="n">
-        <v>6</v>
-      </c>
-      <c r="N35" s="127" t="n">
+      <c r="M37" s="592" t="n">
+        <v>6</v>
+      </c>
+      <c r="N37" s="127" t="n">
         <v>6310</v>
       </c>
-      <c r="O35" s="565" t="n">
-        <v>6</v>
-      </c>
-      <c r="P35" s="127" t="n">
+      <c r="O37" s="592" t="n">
+        <v>6</v>
+      </c>
+      <c r="P37" s="127" t="n">
         <v>6930</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="567" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="594" t="inlineStr">
         <is>
           <t>#P2CPRPQU</t>
         </is>
       </c>
-      <c r="B36" s="561" t="n">
+      <c r="B38" s="588" t="n">
         <v>2232</v>
       </c>
-      <c r="C36" s="554" t="n">
-        <v>33</v>
-      </c>
-      <c r="D36" s="136" t="inlineStr">
+      <c r="C38" s="581" t="n">
+        <v>35</v>
+      </c>
+      <c r="D38" s="136" t="inlineStr">
         <is>
           <t>The Drift King</t>
         </is>
       </c>
-      <c r="E36" s="561" t="n"/>
-      <c r="F36" s="136" t="n"/>
-      <c r="G36" s="561" t="n"/>
-      <c r="H36" s="136" t="n"/>
-      <c r="I36" s="561" t="n"/>
-      <c r="J36" s="136" t="n"/>
-      <c r="K36" s="562" t="n">
-        <v>6</v>
-      </c>
-      <c r="L36" s="133" t="n">
+      <c r="E38" s="588" t="n"/>
+      <c r="F38" s="136" t="n"/>
+      <c r="G38" s="588" t="n"/>
+      <c r="H38" s="136" t="n"/>
+      <c r="I38" s="588" t="n"/>
+      <c r="J38" s="136" t="n"/>
+      <c r="K38" s="589" t="n">
+        <v>6</v>
+      </c>
+      <c r="L38" s="133" t="n">
         <v>8023</v>
       </c>
-      <c r="M36" s="562" t="n">
-        <v>6</v>
-      </c>
-      <c r="N36" s="133" t="n">
+      <c r="M38" s="589" t="n">
+        <v>6</v>
+      </c>
+      <c r="N38" s="133" t="n">
         <v>7625</v>
       </c>
-      <c r="O36" s="562" t="n">
-        <v>6</v>
-      </c>
-      <c r="P36" s="133" t="n">
+      <c r="O38" s="589" t="n">
+        <v>6</v>
+      </c>
+      <c r="P38" s="133" t="n">
         <v>7375</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="566" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="593" t="inlineStr">
         <is>
           <t>#QJVL0LYQQ</t>
         </is>
       </c>
-      <c r="B37" s="564" t="n">
+      <c r="B39" s="591" t="n">
         <v>921</v>
       </c>
-      <c r="C37" s="558" t="n">
-        <v>34</v>
-      </c>
-      <c r="D37" s="130" t="inlineStr">
+      <c r="C39" s="585" t="n">
+        <v>36</v>
+      </c>
+      <c r="D39" s="130" t="inlineStr">
         <is>
           <t>mobbb341</t>
         </is>
       </c>
-      <c r="E37" s="564" t="n"/>
-      <c r="F37" s="130" t="n"/>
-      <c r="G37" s="564" t="n"/>
-      <c r="H37" s="130" t="n"/>
-      <c r="I37" s="564" t="n"/>
-      <c r="J37" s="130" t="n"/>
-      <c r="K37" s="565" t="n">
-        <v>6</v>
-      </c>
-      <c r="L37" s="127" t="n">
+      <c r="E39" s="591" t="n"/>
+      <c r="F39" s="130" t="n"/>
+      <c r="G39" s="591" t="n"/>
+      <c r="H39" s="130" t="n"/>
+      <c r="I39" s="591" t="n"/>
+      <c r="J39" s="130" t="n"/>
+      <c r="K39" s="592" t="n">
+        <v>6</v>
+      </c>
+      <c r="L39" s="127" t="n">
         <v>7710</v>
       </c>
-      <c r="M37" s="565" t="n">
-        <v>6</v>
-      </c>
-      <c r="N37" s="127" t="n">
+      <c r="M39" s="592" t="n">
+        <v>6</v>
+      </c>
+      <c r="N39" s="127" t="n">
         <v>8810</v>
       </c>
-      <c r="O37" s="565" t="n">
-        <v>6</v>
-      </c>
-      <c r="P37" s="131" t="n">
+      <c r="O39" s="592" t="n">
+        <v>6</v>
+      </c>
+      <c r="P39" s="131" t="n">
         <v>4505</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="567" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="594" t="inlineStr">
         <is>
           <t>#L8R82C8VC</t>
         </is>
       </c>
-      <c r="B38" s="561" t="n">
+      <c r="B40" s="588" t="n">
         <v>1162</v>
       </c>
-      <c r="C38" s="554" t="n">
-        <v>35</v>
-      </c>
-      <c r="D38" s="136" t="inlineStr">
+      <c r="C40" s="581" t="n">
+        <v>37</v>
+      </c>
+      <c r="D40" s="136" t="inlineStr">
         <is>
           <t>caden asue</t>
         </is>
       </c>
-      <c r="E38" s="561" t="n"/>
-      <c r="F38" s="136" t="n"/>
-      <c r="G38" s="561" t="n"/>
-      <c r="H38" s="136" t="n"/>
-      <c r="I38" s="561" t="n"/>
-      <c r="J38" s="136" t="n"/>
-      <c r="K38" s="562" t="n">
-        <v>6</v>
-      </c>
-      <c r="L38" s="139" t="n">
+      <c r="E40" s="588" t="n"/>
+      <c r="F40" s="136" t="n"/>
+      <c r="G40" s="588" t="n"/>
+      <c r="H40" s="136" t="n"/>
+      <c r="I40" s="588" t="n"/>
+      <c r="J40" s="136" t="n"/>
+      <c r="K40" s="589" t="n">
+        <v>6</v>
+      </c>
+      <c r="L40" s="139" t="n">
         <v>5112</v>
       </c>
-      <c r="M38" s="562" t="n">
-        <v>6</v>
-      </c>
-      <c r="N38" s="139" t="n">
+      <c r="M40" s="589" t="n">
+        <v>6</v>
+      </c>
+      <c r="N40" s="139" t="n">
         <v>4283</v>
       </c>
-      <c r="O38" s="562" t="n">
-        <v>6</v>
-      </c>
-      <c r="P38" s="139" t="n">
+      <c r="O40" s="589" t="n">
+        <v>6</v>
+      </c>
+      <c r="P40" s="139" t="n">
         <v>4338</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="566" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="593" t="inlineStr">
         <is>
           <t>#L9Q8VLLQG</t>
         </is>
       </c>
-      <c r="B39" s="564" t="n">
+      <c r="B41" s="591" t="n">
         <v>1130</v>
       </c>
-      <c r="C39" s="558" t="n">
-        <v>36</v>
-      </c>
-      <c r="D39" s="130" t="inlineStr">
+      <c r="C41" s="585" t="n">
+        <v>38</v>
+      </c>
+      <c r="D41" s="130" t="inlineStr">
         <is>
           <t>cat</t>
         </is>
       </c>
-      <c r="E39" s="564" t="n"/>
-      <c r="F39" s="130" t="n"/>
-      <c r="G39" s="564" t="n"/>
-      <c r="H39" s="130" t="n"/>
-      <c r="I39" s="564" t="n"/>
-      <c r="J39" s="130" t="n"/>
-      <c r="K39" s="564" t="n"/>
-      <c r="L39" s="130" t="n"/>
-      <c r="M39" s="564" t="n"/>
-      <c r="N39" s="130" t="n"/>
-      <c r="O39" s="565" t="n">
-        <v>6</v>
-      </c>
-      <c r="P39" s="131" t="n">
+      <c r="E41" s="591" t="n"/>
+      <c r="F41" s="130" t="n"/>
+      <c r="G41" s="591" t="n"/>
+      <c r="H41" s="130" t="n"/>
+      <c r="I41" s="591" t="n"/>
+      <c r="J41" s="130" t="n"/>
+      <c r="K41" s="591" t="n"/>
+      <c r="L41" s="130" t="n"/>
+      <c r="M41" s="591" t="n"/>
+      <c r="N41" s="130" t="n"/>
+      <c r="O41" s="592" t="n">
+        <v>6</v>
+      </c>
+      <c r="P41" s="131" t="n">
         <v>5908</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="567" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="594" t="inlineStr">
         <is>
           <t>#QV0PQC9JU</t>
         </is>
       </c>
-      <c r="B40" s="561" t="n">
+      <c r="B42" s="588" t="n">
         <v>539</v>
       </c>
-      <c r="C40" s="554" t="n">
-        <v>37</v>
-      </c>
-      <c r="D40" s="136" t="inlineStr">
+      <c r="C42" s="581" t="n">
+        <v>39</v>
+      </c>
+      <c r="D42" s="136" t="inlineStr">
         <is>
           <t>Superman</t>
         </is>
       </c>
-      <c r="E40" s="561" t="n"/>
-      <c r="F40" s="136" t="n"/>
-      <c r="G40" s="561" t="n"/>
-      <c r="H40" s="136" t="n"/>
-      <c r="I40" s="561" t="n"/>
-      <c r="J40" s="136" t="n"/>
-      <c r="K40" s="561" t="n"/>
-      <c r="L40" s="136" t="n"/>
-      <c r="M40" s="561" t="n"/>
-      <c r="N40" s="136" t="n"/>
-      <c r="O40" s="562" t="n">
-        <v>6</v>
-      </c>
-      <c r="P40" s="139" t="n">
+      <c r="E42" s="588" t="n"/>
+      <c r="F42" s="136" t="n"/>
+      <c r="G42" s="588" t="n"/>
+      <c r="H42" s="136" t="n"/>
+      <c r="I42" s="588" t="n"/>
+      <c r="J42" s="136" t="n"/>
+      <c r="K42" s="588" t="n"/>
+      <c r="L42" s="136" t="n"/>
+      <c r="M42" s="588" t="n"/>
+      <c r="N42" s="136" t="n"/>
+      <c r="O42" s="589" t="n">
+        <v>6</v>
+      </c>
+      <c r="P42" s="139" t="n">
         <v>4447</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="566" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="593" t="inlineStr">
         <is>
           <t>#LU0CRP09L</t>
         </is>
       </c>
-      <c r="B41" s="564" t="n">
+      <c r="B43" s="591" t="n">
         <v>809</v>
       </c>
-      <c r="C41" s="558" t="n">
-        <v>38</v>
-      </c>
-      <c r="D41" s="130" t="inlineStr">
+      <c r="C43" s="585" t="n">
+        <v>40</v>
+      </c>
+      <c r="D43" s="130" t="inlineStr">
         <is>
           <t>I Dont Know</t>
         </is>
       </c>
-      <c r="E41" s="564" t="n"/>
-      <c r="F41" s="130" t="n"/>
-      <c r="G41" s="564" t="n"/>
-      <c r="H41" s="130" t="n"/>
-      <c r="I41" s="564" t="n"/>
-      <c r="J41" s="130" t="n"/>
-      <c r="K41" s="564" t="n"/>
-      <c r="L41" s="130" t="n"/>
-      <c r="M41" s="564" t="n"/>
-      <c r="N41" s="130" t="n"/>
-      <c r="O41" s="568" t="n">
+      <c r="E43" s="591" t="n"/>
+      <c r="F43" s="130" t="n"/>
+      <c r="G43" s="591" t="n"/>
+      <c r="H43" s="130" t="n"/>
+      <c r="I43" s="591" t="n"/>
+      <c r="J43" s="130" t="n"/>
+      <c r="K43" s="591" t="n"/>
+      <c r="L43" s="130" t="n"/>
+      <c r="M43" s="591" t="n"/>
+      <c r="N43" s="130" t="n"/>
+      <c r="O43" s="595" t="n">
         <v>3</v>
       </c>
-      <c r="P41" s="137" t="n">
+      <c r="P43" s="137" t="n">
         <v>3435</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="567" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="594" t="inlineStr">
         <is>
           <t>#YCPP0QPP8</t>
         </is>
       </c>
-      <c r="B42" s="561" t="n">
+      <c r="B44" s="588" t="n">
         <v>3327</v>
       </c>
-      <c r="C42" s="554" t="n">
-        <v>39</v>
-      </c>
-      <c r="D42" s="136" t="inlineStr">
+      <c r="C44" s="581" t="n">
+        <v>41</v>
+      </c>
+      <c r="D44" s="136" t="inlineStr">
         <is>
           <t>Coach</t>
         </is>
       </c>
-      <c r="E42" s="561" t="n"/>
-      <c r="F42" s="136" t="n"/>
-      <c r="G42" s="561" t="n"/>
-      <c r="H42" s="136" t="n"/>
-      <c r="I42" s="561" t="n"/>
-      <c r="J42" s="136" t="n"/>
-      <c r="K42" s="561" t="n"/>
-      <c r="L42" s="136" t="n"/>
-      <c r="M42" s="561" t="n"/>
-      <c r="N42" s="136" t="n"/>
-      <c r="O42" s="567" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" s="148" t="n">
+      <c r="E44" s="588" t="n"/>
+      <c r="F44" s="136" t="n"/>
+      <c r="G44" s="588" t="n"/>
+      <c r="H44" s="136" t="n"/>
+      <c r="I44" s="588" t="n"/>
+      <c r="J44" s="136" t="n"/>
+      <c r="K44" s="588" t="n"/>
+      <c r="L44" s="136" t="n"/>
+      <c r="M44" s="588" t="n"/>
+      <c r="N44" s="136" t="n"/>
+      <c r="O44" s="594" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" s="148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3430,7 +3523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:L37"/>
+  <dimension ref="B2:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3532,848 +3625,890 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="542" t="inlineStr">
+      <c r="B4" s="569" t="inlineStr">
         <is>
           <t>#QUYG0PQC8</t>
         </is>
       </c>
-      <c r="C4" s="542" t="n">
+      <c r="C4" s="569" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="543" t="inlineStr">
+      <c r="D4" s="570" t="inlineStr">
         <is>
           <t>Luffy</t>
         </is>
       </c>
-      <c r="E4" s="543" t="n">
+      <c r="E4" s="570" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="116" t="n">
         <v>6</v>
       </c>
-      <c r="G4" s="542" t="n"/>
+      <c r="G4" s="569" t="n"/>
       <c r="H4" s="119" t="n"/>
-      <c r="I4" s="542" t="n"/>
+      <c r="I4" s="569" t="n"/>
       <c r="J4" s="119" t="n"/>
-      <c r="K4" s="542" t="n"/>
+      <c r="K4" s="569" t="n"/>
       <c r="L4" s="119" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="544" t="inlineStr">
+      <c r="B5" s="571" t="inlineStr">
         <is>
           <t>#G0QPVJY9L</t>
         </is>
       </c>
-      <c r="C5" s="544" t="n">
+      <c r="C5" s="571" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="545" t="inlineStr">
+      <c r="D5" s="572" t="inlineStr">
         <is>
           <t>Zoro</t>
         </is>
       </c>
-      <c r="E5" s="545" t="n">
+      <c r="E5" s="572" t="n">
         <v>2</v>
       </c>
       <c r="F5" s="122" t="n">
         <v>6</v>
       </c>
-      <c r="G5" s="544" t="n"/>
+      <c r="G5" s="571" t="n"/>
       <c r="H5" s="125" t="n"/>
-      <c r="I5" s="544" t="n"/>
+      <c r="I5" s="571" t="n"/>
       <c r="J5" s="125" t="n"/>
-      <c r="K5" s="544" t="n"/>
+      <c r="K5" s="571" t="n"/>
       <c r="L5" s="125" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" s="542" t="inlineStr">
+      <c r="B6" s="569" t="inlineStr">
         <is>
           <t>#QLR088LC9</t>
         </is>
       </c>
-      <c r="C6" s="542" t="n">
+      <c r="C6" s="569" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="543" t="inlineStr">
+      <c r="D6" s="570" t="inlineStr">
         <is>
           <t>Sanji</t>
         </is>
       </c>
-      <c r="E6" s="543" t="n">
+      <c r="E6" s="570" t="n">
         <v>2</v>
       </c>
       <c r="F6" s="116" t="n">
         <v>6</v>
       </c>
-      <c r="G6" s="542" t="n"/>
+      <c r="G6" s="569" t="n"/>
       <c r="H6" s="119" t="n"/>
-      <c r="I6" s="542" t="n"/>
+      <c r="I6" s="569" t="n"/>
       <c r="J6" s="119" t="n"/>
-      <c r="K6" s="542" t="n"/>
+      <c r="K6" s="569" t="n"/>
       <c r="L6" s="119" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="544" t="inlineStr">
+      <c r="B7" s="571" t="inlineStr">
         <is>
           <t>#QCV22VP0G</t>
         </is>
       </c>
-      <c r="C7" s="544" t="n">
+      <c r="C7" s="571" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="545" t="inlineStr">
+      <c r="D7" s="572" t="inlineStr">
         <is>
           <t>Nami</t>
         </is>
       </c>
-      <c r="E7" s="545" t="n">
+      <c r="E7" s="572" t="n">
         <v>2</v>
       </c>
       <c r="F7" s="122" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="544" t="n"/>
+      <c r="G7" s="571" t="n"/>
       <c r="H7" s="125" t="n"/>
-      <c r="I7" s="544" t="n"/>
+      <c r="I7" s="571" t="n"/>
       <c r="J7" s="125" t="n"/>
-      <c r="K7" s="544" t="n"/>
+      <c r="K7" s="571" t="n"/>
       <c r="L7" s="125" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="542" t="inlineStr">
+      <c r="B8" s="569" t="inlineStr">
         <is>
           <t>#QUV2GP88U</t>
         </is>
       </c>
-      <c r="C8" s="542" t="n">
+      <c r="C8" s="569" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="543" t="inlineStr">
+      <c r="D8" s="570" t="inlineStr">
         <is>
           <t>Nico Robin</t>
         </is>
       </c>
-      <c r="E8" s="543" t="n">
+      <c r="E8" s="570" t="n">
         <v>2</v>
       </c>
       <c r="F8" s="116" t="n">
         <v>6</v>
       </c>
-      <c r="G8" s="542" t="n"/>
+      <c r="G8" s="569" t="n"/>
       <c r="H8" s="119" t="n"/>
-      <c r="I8" s="542" t="n"/>
+      <c r="I8" s="569" t="n"/>
       <c r="J8" s="119" t="n"/>
-      <c r="K8" s="542" t="n"/>
+      <c r="K8" s="569" t="n"/>
       <c r="L8" s="119" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" s="546" t="inlineStr">
+      <c r="B9" s="573" t="inlineStr">
         <is>
           <t>#98JG2UJQL</t>
         </is>
       </c>
-      <c r="C9" s="546" t="n"/>
-      <c r="D9" s="546" t="inlineStr">
+      <c r="C9" s="573" t="n"/>
+      <c r="D9" s="573" t="inlineStr">
         <is>
           <t>Dragonux</t>
         </is>
       </c>
-      <c r="E9" s="546" t="n"/>
+      <c r="E9" s="573" t="n"/>
       <c r="F9" s="130" t="n"/>
-      <c r="G9" s="546" t="n"/>
+      <c r="G9" s="573" t="n"/>
       <c r="H9" s="130" t="n"/>
-      <c r="I9" s="546" t="n"/>
+      <c r="I9" s="573" t="n"/>
       <c r="J9" s="130" t="n"/>
-      <c r="K9" s="546" t="n"/>
+      <c r="K9" s="573" t="n"/>
       <c r="L9" s="130" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="547" t="inlineStr">
+      <c r="B10" s="574" t="inlineStr">
         <is>
           <t>#82QLQCJRJ</t>
         </is>
       </c>
-      <c r="C10" s="547" t="n"/>
-      <c r="D10" s="547" t="inlineStr">
+      <c r="C10" s="574" t="n"/>
+      <c r="D10" s="574" t="inlineStr">
         <is>
           <t>Raging Fury</t>
         </is>
       </c>
-      <c r="E10" s="547" t="n"/>
+      <c r="E10" s="574" t="n"/>
       <c r="F10" s="136" t="n"/>
-      <c r="G10" s="547" t="n"/>
+      <c r="G10" s="574" t="n"/>
       <c r="H10" s="136" t="n"/>
-      <c r="I10" s="547" t="n"/>
+      <c r="I10" s="574" t="n"/>
       <c r="J10" s="136" t="n"/>
-      <c r="K10" s="547" t="n"/>
+      <c r="K10" s="574" t="n"/>
       <c r="L10" s="136" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="544" t="inlineStr">
+      <c r="B11" s="571" t="inlineStr">
         <is>
           <t>#90U0VPU9U</t>
         </is>
       </c>
-      <c r="C11" s="544" t="n"/>
-      <c r="D11" s="544" t="inlineStr">
+      <c r="C11" s="571" t="n"/>
+      <c r="D11" s="571" t="inlineStr">
         <is>
           <t>KYANI7E</t>
         </is>
       </c>
-      <c r="E11" s="544" t="n"/>
+      <c r="E11" s="571" t="n"/>
       <c r="F11" s="125" t="n"/>
-      <c r="G11" s="544" t="n"/>
+      <c r="G11" s="571" t="n"/>
       <c r="H11" s="125" t="n"/>
-      <c r="I11" s="544" t="n"/>
+      <c r="I11" s="571" t="n"/>
       <c r="J11" s="125" t="n"/>
-      <c r="K11" s="544" t="n"/>
+      <c r="K11" s="571" t="n"/>
       <c r="L11" s="125" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="547" t="inlineStr">
+      <c r="B12" s="574" t="inlineStr">
+        <is>
+          <t>#QLL0PVCRV</t>
+        </is>
+      </c>
+      <c r="C12" s="574" t="n"/>
+      <c r="D12" s="574" t="inlineStr">
+        <is>
+          <t>Harsh chhillar</t>
+        </is>
+      </c>
+      <c r="E12" s="574" t="n"/>
+      <c r="F12" s="136" t="n"/>
+      <c r="G12" s="574" t="n"/>
+      <c r="H12" s="136" t="n"/>
+      <c r="I12" s="574" t="n"/>
+      <c r="J12" s="136" t="n"/>
+      <c r="K12" s="574" t="n"/>
+      <c r="L12" s="136" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="573" t="inlineStr">
         <is>
           <t>#PJYVV989R</t>
         </is>
       </c>
-      <c r="C12" s="547" t="n"/>
-      <c r="D12" s="547" t="inlineStr">
+      <c r="C13" s="573" t="n"/>
+      <c r="D13" s="573" t="inlineStr">
         <is>
           <t>nx</t>
         </is>
       </c>
-      <c r="E12" s="547" t="n"/>
-      <c r="F12" s="136" t="n"/>
-      <c r="G12" s="548" t="n">
+      <c r="E13" s="573" t="n"/>
+      <c r="F13" s="130" t="n"/>
+      <c r="G13" s="575" t="n">
         <v>1</v>
       </c>
-      <c r="H12" s="139" t="n">
+      <c r="H13" s="131" t="n">
         <v>3</v>
       </c>
-      <c r="I12" s="548" t="n">
+      <c r="I13" s="575" t="n">
         <v>1</v>
       </c>
-      <c r="J12" s="139" t="n">
+      <c r="J13" s="131" t="n">
         <v>3</v>
       </c>
-      <c r="K12" s="547" t="n"/>
-      <c r="L12" s="136" t="n"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="544" t="inlineStr">
+      <c r="K13" s="573" t="n"/>
+      <c r="L13" s="130" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="569" t="inlineStr">
         <is>
           <t>#QLJ2U20Y2</t>
         </is>
       </c>
-      <c r="C13" s="544" t="n"/>
-      <c r="D13" s="544" t="inlineStr">
+      <c r="C14" s="569" t="n"/>
+      <c r="D14" s="569" t="inlineStr">
         <is>
           <t>DeadLeaf</t>
         </is>
       </c>
-      <c r="E13" s="544" t="n"/>
-      <c r="F13" s="125" t="n"/>
-      <c r="G13" s="545" t="n">
+      <c r="E14" s="569" t="n"/>
+      <c r="F14" s="119" t="n"/>
+      <c r="G14" s="570" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="122" t="n">
+      <c r="H14" s="116" t="n">
         <v>5</v>
       </c>
-      <c r="I13" s="545" t="n">
+      <c r="I14" s="570" t="n">
         <v>2</v>
       </c>
-      <c r="J13" s="122" t="n">
+      <c r="J14" s="116" t="n">
         <v>5</v>
       </c>
-      <c r="K13" s="545" t="n">
+      <c r="K14" s="570" t="n">
         <v>2</v>
       </c>
-      <c r="L13" s="122" t="n">
+      <c r="L14" s="116" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="547" t="inlineStr">
+    <row r="15">
+      <c r="B15" s="573" t="inlineStr">
         <is>
           <t>#L2QQL9QVJ</t>
         </is>
       </c>
-      <c r="C14" s="547" t="n"/>
-      <c r="D14" s="547" t="inlineStr">
+      <c r="C15" s="573" t="n"/>
+      <c r="D15" s="573" t="inlineStr">
         <is>
           <t>JustPre10d</t>
         </is>
       </c>
-      <c r="E14" s="547" t="n"/>
-      <c r="F14" s="136" t="n"/>
-      <c r="G14" s="547" t="n"/>
-      <c r="H14" s="136" t="n"/>
-      <c r="I14" s="549" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="548" t="n">
+      <c r="E15" s="573" t="n"/>
+      <c r="F15" s="130" t="n"/>
+      <c r="G15" s="573" t="n"/>
+      <c r="H15" s="130" t="n"/>
+      <c r="I15" s="576" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="575" t="n">
         <v>1</v>
       </c>
-      <c r="L14" s="148" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="544" t="inlineStr">
+      <c r="L15" s="137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="569" t="inlineStr">
         <is>
           <t>#YJ20CRJYQ</t>
         </is>
       </c>
-      <c r="C15" s="544" t="n"/>
-      <c r="D15" s="544" t="inlineStr">
+      <c r="C16" s="569" t="n"/>
+      <c r="D16" s="569" t="inlineStr">
         <is>
           <t>UnluckGod</t>
         </is>
       </c>
-      <c r="E15" s="544" t="n"/>
-      <c r="F15" s="125" t="n"/>
-      <c r="G15" s="545" t="n">
+      <c r="E16" s="569" t="n"/>
+      <c r="F16" s="119" t="n"/>
+      <c r="G16" s="570" t="n">
         <v>2</v>
       </c>
-      <c r="H15" s="122" t="n">
-        <v>6</v>
-      </c>
-      <c r="I15" s="545" t="n">
+      <c r="H16" s="116" t="n">
+        <v>6</v>
+      </c>
+      <c r="I16" s="570" t="n">
         <v>2</v>
       </c>
-      <c r="J15" s="122" t="n">
+      <c r="J16" s="116" t="n">
         <v>4</v>
       </c>
-      <c r="K15" s="545" t="n">
+      <c r="K16" s="570" t="n">
         <v>2</v>
       </c>
-      <c r="L15" s="122" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="542" t="inlineStr">
+      <c r="L16" s="116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="571" t="inlineStr">
         <is>
           <t>#YRGRRJQCY</t>
         </is>
       </c>
-      <c r="C16" s="542" t="n"/>
-      <c r="D16" s="542" t="inlineStr">
+      <c r="C17" s="571" t="n"/>
+      <c r="D17" s="571" t="inlineStr">
         <is>
           <t>DoubleSpice</t>
         </is>
       </c>
-      <c r="E16" s="542" t="n"/>
-      <c r="F16" s="119" t="n"/>
-      <c r="G16" s="543" t="n">
+      <c r="E17" s="571" t="n"/>
+      <c r="F17" s="125" t="n"/>
+      <c r="G17" s="572" t="n">
         <v>2</v>
       </c>
-      <c r="H16" s="116" t="n">
+      <c r="H17" s="122" t="n">
         <v>5</v>
       </c>
-      <c r="I16" s="543" t="n">
+      <c r="I17" s="572" t="n">
         <v>2</v>
       </c>
-      <c r="J16" s="116" t="n">
-        <v>6</v>
-      </c>
-      <c r="K16" s="542" t="n"/>
-      <c r="L16" s="119" t="n"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="544" t="inlineStr">
+      <c r="J17" s="122" t="n">
+        <v>6</v>
+      </c>
+      <c r="K17" s="571" t="n"/>
+      <c r="L17" s="125" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="569" t="inlineStr">
         <is>
           <t>#Q8CLCUCC2</t>
         </is>
       </c>
-      <c r="C17" s="544" t="n"/>
-      <c r="D17" s="544" t="inlineStr">
+      <c r="C18" s="569" t="n"/>
+      <c r="D18" s="569" t="inlineStr">
         <is>
           <t>Moxxi</t>
         </is>
       </c>
-      <c r="E17" s="544" t="n"/>
-      <c r="F17" s="125" t="n"/>
-      <c r="G17" s="545" t="n">
+      <c r="E18" s="569" t="n"/>
+      <c r="F18" s="119" t="n"/>
+      <c r="G18" s="570" t="n">
         <v>2</v>
       </c>
-      <c r="H17" s="122" t="n">
-        <v>6</v>
-      </c>
-      <c r="I17" s="545" t="n">
+      <c r="H18" s="116" t="n">
+        <v>6</v>
+      </c>
+      <c r="I18" s="570" t="n">
         <v>2</v>
       </c>
-      <c r="J17" s="122" t="n">
+      <c r="J18" s="116" t="n">
         <v>5</v>
       </c>
-      <c r="K17" s="545" t="n">
+      <c r="K18" s="570" t="n">
         <v>2</v>
       </c>
-      <c r="L17" s="122" t="n">
+      <c r="L18" s="116" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="547" t="inlineStr">
+    <row r="19">
+      <c r="B19" s="573" t="inlineStr">
         <is>
           <t>#G0JPUQGYR</t>
         </is>
       </c>
-      <c r="C18" s="547" t="n"/>
-      <c r="D18" s="547" t="inlineStr">
+      <c r="C19" s="573" t="n"/>
+      <c r="D19" s="573" t="inlineStr">
         <is>
           <t>Collin</t>
         </is>
       </c>
-      <c r="E18" s="547" t="n"/>
-      <c r="F18" s="136" t="n"/>
-      <c r="G18" s="547" t="n"/>
-      <c r="H18" s="136" t="n"/>
-      <c r="I18" s="547" t="n"/>
-      <c r="J18" s="136" t="n"/>
-      <c r="K18" s="547" t="n"/>
-      <c r="L18" s="136" t="n"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="546" t="inlineStr">
+      <c r="E19" s="573" t="n"/>
+      <c r="F19" s="130" t="n"/>
+      <c r="G19" s="573" t="n"/>
+      <c r="H19" s="130" t="n"/>
+      <c r="I19" s="573" t="n"/>
+      <c r="J19" s="130" t="n"/>
+      <c r="K19" s="573" t="n"/>
+      <c r="L19" s="130" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="574" t="inlineStr">
+        <is>
+          <t>#QQLVRJCGQ</t>
+        </is>
+      </c>
+      <c r="C20" s="574" t="n"/>
+      <c r="D20" s="574" t="inlineStr">
+        <is>
+          <t>khant</t>
+        </is>
+      </c>
+      <c r="E20" s="574" t="n"/>
+      <c r="F20" s="136" t="n"/>
+      <c r="G20" s="574" t="n"/>
+      <c r="H20" s="136" t="n"/>
+      <c r="I20" s="574" t="n"/>
+      <c r="J20" s="136" t="n"/>
+      <c r="K20" s="574" t="n"/>
+      <c r="L20" s="136" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="573" t="inlineStr">
         <is>
           <t>#QRPRYR8LL</t>
         </is>
       </c>
-      <c r="C19" s="546" t="n"/>
-      <c r="D19" s="546" t="inlineStr">
+      <c r="C21" s="573" t="n"/>
+      <c r="D21" s="573" t="inlineStr">
         <is>
           <t>FidelCashflow</t>
         </is>
       </c>
-      <c r="E19" s="546" t="n"/>
-      <c r="F19" s="130" t="n"/>
-      <c r="G19" s="546" t="n"/>
-      <c r="H19" s="130" t="n"/>
-      <c r="I19" s="546" t="n"/>
-      <c r="J19" s="130" t="n"/>
-      <c r="K19" s="546" t="n"/>
-      <c r="L19" s="130" t="n"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="547" t="inlineStr">
+      <c r="E21" s="573" t="n"/>
+      <c r="F21" s="130" t="n"/>
+      <c r="G21" s="573" t="n"/>
+      <c r="H21" s="130" t="n"/>
+      <c r="I21" s="573" t="n"/>
+      <c r="J21" s="130" t="n"/>
+      <c r="K21" s="573" t="n"/>
+      <c r="L21" s="130" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="574" t="inlineStr">
         <is>
           <t>#QLG0VJG2J</t>
         </is>
       </c>
-      <c r="C20" s="547" t="n"/>
-      <c r="D20" s="547" t="inlineStr">
+      <c r="C22" s="574" t="n"/>
+      <c r="D22" s="574" t="inlineStr">
         <is>
           <t>PocketRocket</t>
         </is>
       </c>
-      <c r="E20" s="547" t="n"/>
-      <c r="F20" s="136" t="n"/>
-      <c r="G20" s="547" t="n"/>
-      <c r="H20" s="136" t="n"/>
-      <c r="I20" s="547" t="n"/>
-      <c r="J20" s="136" t="n"/>
-      <c r="K20" s="547" t="n"/>
-      <c r="L20" s="136" t="n"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="546" t="inlineStr">
+      <c r="E22" s="574" t="n"/>
+      <c r="F22" s="136" t="n"/>
+      <c r="G22" s="574" t="n"/>
+      <c r="H22" s="136" t="n"/>
+      <c r="I22" s="574" t="n"/>
+      <c r="J22" s="136" t="n"/>
+      <c r="K22" s="574" t="n"/>
+      <c r="L22" s="136" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="573" t="inlineStr">
+        <is>
+          <t>#LPR9RPCY9</t>
+        </is>
+      </c>
+      <c r="C23" s="573" t="n"/>
+      <c r="D23" s="573" t="inlineStr">
+        <is>
+          <t>sayhuss17</t>
+        </is>
+      </c>
+      <c r="E23" s="573" t="n"/>
+      <c r="F23" s="130" t="n"/>
+      <c r="G23" s="576" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="576" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="573" t="n"/>
+      <c r="L23" s="130" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="574" t="inlineStr">
         <is>
           <t>#QJC8LQU9U</t>
         </is>
       </c>
-      <c r="C21" s="546" t="n"/>
-      <c r="D21" s="546" t="inlineStr">
+      <c r="C24" s="574" t="n"/>
+      <c r="D24" s="574" t="inlineStr">
         <is>
           <t>Master01</t>
         </is>
       </c>
-      <c r="E21" s="546" t="n"/>
-      <c r="F21" s="130" t="n"/>
-      <c r="G21" s="550" t="n">
+      <c r="E24" s="574" t="n"/>
+      <c r="F24" s="136" t="n"/>
+      <c r="G24" s="577" t="n">
         <v>2</v>
       </c>
-      <c r="H21" s="127" t="n">
+      <c r="H24" s="133" t="n">
         <v>4</v>
       </c>
-      <c r="I21" s="546" t="n"/>
-      <c r="J21" s="130" t="n"/>
-      <c r="K21" s="546" t="n"/>
-      <c r="L21" s="130" t="n"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="547" t="inlineStr">
-        <is>
-          <t>#LPR9RPCY9</t>
-        </is>
-      </c>
-      <c r="C22" s="547" t="n"/>
-      <c r="D22" s="547" t="inlineStr">
-        <is>
-          <t>sayhuss17</t>
-        </is>
-      </c>
-      <c r="E22" s="547" t="n"/>
-      <c r="F22" s="136" t="n"/>
-      <c r="G22" s="549" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="549" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="547" t="n"/>
-      <c r="L22" s="136" t="n"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="546" t="inlineStr">
+      <c r="I24" s="574" t="n"/>
+      <c r="J24" s="136" t="n"/>
+      <c r="K24" s="574" t="n"/>
+      <c r="L24" s="136" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="573" t="inlineStr">
         <is>
           <t>#L9QL9YQQY</t>
         </is>
       </c>
-      <c r="C23" s="546" t="n"/>
-      <c r="D23" s="546" t="inlineStr">
+      <c r="C25" s="573" t="n"/>
+      <c r="D25" s="573" t="inlineStr">
         <is>
           <t>Ima Chad</t>
         </is>
       </c>
-      <c r="E23" s="546" t="n"/>
-      <c r="F23" s="130" t="n"/>
-      <c r="G23" s="546" t="n"/>
-      <c r="H23" s="130" t="n"/>
-      <c r="I23" s="546" t="n"/>
-      <c r="J23" s="130" t="n"/>
-      <c r="K23" s="546" t="n"/>
-      <c r="L23" s="130" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="547" t="inlineStr">
+      <c r="E25" s="573" t="n"/>
+      <c r="F25" s="130" t="n"/>
+      <c r="G25" s="573" t="n"/>
+      <c r="H25" s="130" t="n"/>
+      <c r="I25" s="573" t="n"/>
+      <c r="J25" s="130" t="n"/>
+      <c r="K25" s="573" t="n"/>
+      <c r="L25" s="130" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="574" t="inlineStr">
         <is>
           <t>#LC9GUPJJG</t>
         </is>
       </c>
-      <c r="C24" s="547" t="n"/>
-      <c r="D24" s="547" t="inlineStr">
+      <c r="C26" s="574" t="n"/>
+      <c r="D26" s="574" t="inlineStr">
         <is>
           <t>raptor2222a</t>
         </is>
       </c>
-      <c r="E24" s="547" t="n"/>
-      <c r="F24" s="136" t="n"/>
-      <c r="G24" s="547" t="n"/>
-      <c r="H24" s="136" t="n"/>
-      <c r="I24" s="547" t="n"/>
-      <c r="J24" s="136" t="n"/>
-      <c r="K24" s="547" t="n"/>
-      <c r="L24" s="136" t="n"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="544" t="inlineStr">
+      <c r="E26" s="574" t="n"/>
+      <c r="F26" s="136" t="n"/>
+      <c r="G26" s="574" t="n"/>
+      <c r="H26" s="136" t="n"/>
+      <c r="I26" s="574" t="n"/>
+      <c r="J26" s="136" t="n"/>
+      <c r="K26" s="574" t="n"/>
+      <c r="L26" s="136" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="571" t="inlineStr">
         <is>
           <t>#QUG8QQJ92</t>
         </is>
       </c>
-      <c r="C25" s="544" t="n"/>
-      <c r="D25" s="544" t="inlineStr">
+      <c r="C27" s="571" t="n"/>
+      <c r="D27" s="571" t="inlineStr">
         <is>
           <t>Karma</t>
         </is>
       </c>
-      <c r="E25" s="544" t="n"/>
-      <c r="F25" s="125" t="n"/>
-      <c r="G25" s="544" t="n"/>
-      <c r="H25" s="125" t="n"/>
-      <c r="I25" s="544" t="n"/>
-      <c r="J25" s="125" t="n"/>
-      <c r="K25" s="544" t="n"/>
-      <c r="L25" s="125" t="n"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="547" t="inlineStr">
+      <c r="E27" s="571" t="n"/>
+      <c r="F27" s="125" t="n"/>
+      <c r="G27" s="571" t="n"/>
+      <c r="H27" s="125" t="n"/>
+      <c r="I27" s="571" t="n"/>
+      <c r="J27" s="125" t="n"/>
+      <c r="K27" s="571" t="n"/>
+      <c r="L27" s="125" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="574" t="inlineStr">
         <is>
           <t>#QQL8C29CY</t>
         </is>
       </c>
-      <c r="C26" s="547" t="n"/>
-      <c r="D26" s="547" t="inlineStr">
+      <c r="C28" s="574" t="n"/>
+      <c r="D28" s="574" t="inlineStr">
         <is>
           <t>TypicalTeague#2</t>
         </is>
       </c>
-      <c r="E26" s="547" t="n"/>
-      <c r="F26" s="136" t="n"/>
-      <c r="G26" s="547" t="n"/>
-      <c r="H26" s="136" t="n"/>
-      <c r="I26" s="547" t="n"/>
-      <c r="J26" s="136" t="n"/>
-      <c r="K26" s="547" t="n"/>
-      <c r="L26" s="136" t="n"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="546" t="inlineStr">
+      <c r="E28" s="574" t="n"/>
+      <c r="F28" s="136" t="n"/>
+      <c r="G28" s="574" t="n"/>
+      <c r="H28" s="136" t="n"/>
+      <c r="I28" s="574" t="n"/>
+      <c r="J28" s="136" t="n"/>
+      <c r="K28" s="574" t="n"/>
+      <c r="L28" s="136" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="573" t="inlineStr">
         <is>
           <t>#QU0U2Q99G</t>
         </is>
       </c>
-      <c r="C27" s="546" t="n"/>
-      <c r="D27" s="546" t="inlineStr">
+      <c r="C29" s="573" t="n"/>
+      <c r="D29" s="573" t="inlineStr">
         <is>
           <t>big coc</t>
         </is>
       </c>
-      <c r="E27" s="546" t="n"/>
-      <c r="F27" s="130" t="n"/>
-      <c r="G27" s="546" t="n"/>
-      <c r="H27" s="130" t="n"/>
-      <c r="I27" s="546" t="n"/>
-      <c r="J27" s="130" t="n"/>
-      <c r="K27" s="546" t="n"/>
-      <c r="L27" s="130" t="n"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="547" t="inlineStr">
+      <c r="E29" s="573" t="n"/>
+      <c r="F29" s="130" t="n"/>
+      <c r="G29" s="573" t="n"/>
+      <c r="H29" s="130" t="n"/>
+      <c r="I29" s="573" t="n"/>
+      <c r="J29" s="130" t="n"/>
+      <c r="K29" s="573" t="n"/>
+      <c r="L29" s="130" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="574" t="inlineStr">
         <is>
           <t>#QY8L2GLUR</t>
         </is>
       </c>
-      <c r="C28" s="547" t="n"/>
-      <c r="D28" s="547" t="inlineStr">
+      <c r="C30" s="574" t="n"/>
+      <c r="D30" s="574" t="inlineStr">
         <is>
           <t>Huy</t>
         </is>
       </c>
-      <c r="E28" s="547" t="n"/>
-      <c r="F28" s="136" t="n"/>
-      <c r="G28" s="549" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="547" t="n"/>
-      <c r="J28" s="136" t="n"/>
-      <c r="K28" s="547" t="n"/>
-      <c r="L28" s="136" t="n"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="546" t="inlineStr">
+      <c r="E30" s="574" t="n"/>
+      <c r="F30" s="136" t="n"/>
+      <c r="G30" s="578" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="574" t="n"/>
+      <c r="J30" s="136" t="n"/>
+      <c r="K30" s="574" t="n"/>
+      <c r="L30" s="136" t="n"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="573" t="inlineStr">
         <is>
           <t>#QL8LVLYG8</t>
         </is>
       </c>
-      <c r="C29" s="546" t="n"/>
-      <c r="D29" s="546" t="inlineStr">
+      <c r="C31" s="573" t="n"/>
+      <c r="D31" s="573" t="inlineStr">
         <is>
           <t>Some guy</t>
         </is>
       </c>
-      <c r="E29" s="546" t="n"/>
-      <c r="F29" s="130" t="n"/>
-      <c r="G29" s="546" t="n"/>
-      <c r="H29" s="130" t="n"/>
-      <c r="I29" s="546" t="n"/>
-      <c r="J29" s="130" t="n"/>
-      <c r="K29" s="546" t="n"/>
-      <c r="L29" s="130" t="n"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="547" t="inlineStr">
+      <c r="E31" s="573" t="n"/>
+      <c r="F31" s="130" t="n"/>
+      <c r="G31" s="573" t="n"/>
+      <c r="H31" s="130" t="n"/>
+      <c r="I31" s="573" t="n"/>
+      <c r="J31" s="130" t="n"/>
+      <c r="K31" s="573" t="n"/>
+      <c r="L31" s="130" t="n"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="574" t="inlineStr">
         <is>
           <t>#L9JJQY992</t>
         </is>
       </c>
-      <c r="C30" s="547" t="n"/>
-      <c r="D30" s="547" t="inlineStr">
+      <c r="C32" s="574" t="n"/>
+      <c r="D32" s="574" t="inlineStr">
         <is>
           <t>Fisted_Waffle</t>
         </is>
       </c>
-      <c r="E30" s="547" t="n"/>
-      <c r="F30" s="136" t="n"/>
-      <c r="G30" s="547" t="n"/>
-      <c r="H30" s="136" t="n"/>
-      <c r="I30" s="547" t="n"/>
-      <c r="J30" s="136" t="n"/>
-      <c r="K30" s="547" t="n"/>
-      <c r="L30" s="136" t="n"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="546" t="inlineStr">
+      <c r="E32" s="574" t="n"/>
+      <c r="F32" s="136" t="n"/>
+      <c r="G32" s="574" t="n"/>
+      <c r="H32" s="136" t="n"/>
+      <c r="I32" s="574" t="n"/>
+      <c r="J32" s="136" t="n"/>
+      <c r="K32" s="574" t="n"/>
+      <c r="L32" s="136" t="n"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="573" t="inlineStr">
         <is>
           <t>#QV8JJ0URU</t>
         </is>
       </c>
-      <c r="C31" s="546" t="n"/>
-      <c r="D31" s="546" t="inlineStr">
+      <c r="C33" s="573" t="n"/>
+      <c r="D33" s="573" t="inlineStr">
         <is>
           <t>✨Jacob</t>
         </is>
       </c>
-      <c r="E31" s="546" t="n"/>
-      <c r="F31" s="130" t="n"/>
-      <c r="G31" s="546" t="n"/>
-      <c r="H31" s="130" t="n"/>
-      <c r="I31" s="551" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="546" t="n"/>
-      <c r="L31" s="130" t="n"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="547" t="inlineStr">
+      <c r="E33" s="573" t="n"/>
+      <c r="F33" s="130" t="n"/>
+      <c r="G33" s="573" t="n"/>
+      <c r="H33" s="130" t="n"/>
+      <c r="I33" s="576" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="573" t="n"/>
+      <c r="L33" s="130" t="n"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="574" t="inlineStr">
         <is>
           <t>#QY0VGPQGQ</t>
         </is>
       </c>
-      <c r="C32" s="547" t="n"/>
-      <c r="D32" s="547" t="inlineStr">
+      <c r="C34" s="574" t="n"/>
+      <c r="D34" s="574" t="inlineStr">
         <is>
           <t>killerjones</t>
         </is>
       </c>
-      <c r="E32" s="547" t="n"/>
-      <c r="F32" s="136" t="n"/>
-      <c r="G32" s="547" t="n"/>
-      <c r="H32" s="136" t="n"/>
-      <c r="I32" s="547" t="n"/>
-      <c r="J32" s="136" t="n"/>
-      <c r="K32" s="547" t="n"/>
-      <c r="L32" s="136" t="n"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="551" t="inlineStr">
+      <c r="E34" s="574" t="n"/>
+      <c r="F34" s="136" t="n"/>
+      <c r="G34" s="574" t="n"/>
+      <c r="H34" s="136" t="n"/>
+      <c r="I34" s="574" t="n"/>
+      <c r="J34" s="136" t="n"/>
+      <c r="K34" s="574" t="n"/>
+      <c r="L34" s="136" t="n"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="576" t="inlineStr">
         <is>
           <t>#P2CPRPQU</t>
         </is>
       </c>
-      <c r="C33" s="546" t="n"/>
-      <c r="D33" s="546" t="inlineStr">
+      <c r="C35" s="573" t="n"/>
+      <c r="D35" s="573" t="inlineStr">
         <is>
           <t>The Drift King</t>
         </is>
       </c>
-      <c r="E33" s="546" t="n"/>
-      <c r="F33" s="130" t="n"/>
-      <c r="G33" s="550" t="n">
+      <c r="E35" s="573" t="n"/>
+      <c r="F35" s="130" t="n"/>
+      <c r="G35" s="579" t="n">
         <v>2</v>
       </c>
-      <c r="H33" s="127" t="n">
-        <v>6</v>
-      </c>
-      <c r="I33" s="550" t="n">
+      <c r="H35" s="127" t="n">
+        <v>6</v>
+      </c>
+      <c r="I35" s="579" t="n">
         <v>2</v>
       </c>
-      <c r="J33" s="127" t="n">
-        <v>6</v>
-      </c>
-      <c r="K33" s="546" t="n"/>
-      <c r="L33" s="130" t="n"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="549" t="inlineStr">
+      <c r="J35" s="127" t="n">
+        <v>6</v>
+      </c>
+      <c r="K35" s="573" t="n"/>
+      <c r="L35" s="130" t="n"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="578" t="inlineStr">
         <is>
           <t>#UVCCQC02</t>
         </is>
       </c>
-      <c r="C34" s="547" t="n"/>
-      <c r="D34" s="547" t="inlineStr">
+      <c r="C36" s="574" t="n"/>
+      <c r="D36" s="574" t="inlineStr">
         <is>
           <t>lordshisha</t>
         </is>
       </c>
-      <c r="E34" s="547" t="n"/>
-      <c r="F34" s="136" t="n"/>
-      <c r="G34" s="552" t="n">
+      <c r="E36" s="574" t="n"/>
+      <c r="F36" s="136" t="n"/>
+      <c r="G36" s="577" t="n">
         <v>2</v>
       </c>
-      <c r="H34" s="133" t="n">
-        <v>6</v>
-      </c>
-      <c r="I34" s="552" t="n">
+      <c r="H36" s="133" t="n">
+        <v>6</v>
+      </c>
+      <c r="I36" s="577" t="n">
         <v>2</v>
       </c>
-      <c r="J34" s="139" t="n">
+      <c r="J36" s="139" t="n">
         <v>3</v>
       </c>
-      <c r="K34" s="552" t="n">
+      <c r="K36" s="577" t="n">
         <v>2</v>
       </c>
-      <c r="L34" s="148" t="n">
+      <c r="L36" s="148" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="35">
-      <c r="B35" s="551" t="inlineStr">
+    <row r="37">
+      <c r="B37" s="576" t="inlineStr">
         <is>
           <t>#Q0JG2RJQ8</t>
         </is>
       </c>
-      <c r="C35" s="546" t="n"/>
-      <c r="D35" s="546" t="inlineStr">
+      <c r="C37" s="573" t="n"/>
+      <c r="D37" s="573" t="inlineStr">
         <is>
           <t>bozo</t>
         </is>
       </c>
-      <c r="E35" s="546" t="n"/>
-      <c r="F35" s="130" t="n"/>
-      <c r="G35" s="546" t="n"/>
-      <c r="H35" s="130" t="n"/>
-      <c r="I35" s="546" t="n"/>
-      <c r="J35" s="130" t="n"/>
-      <c r="K35" s="546" t="n"/>
-      <c r="L35" s="130" t="n"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="549" t="inlineStr">
+      <c r="E37" s="573" t="n"/>
+      <c r="F37" s="130" t="n"/>
+      <c r="G37" s="573" t="n"/>
+      <c r="H37" s="130" t="n"/>
+      <c r="I37" s="573" t="n"/>
+      <c r="J37" s="130" t="n"/>
+      <c r="K37" s="573" t="n"/>
+      <c r="L37" s="130" t="n"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="578" t="inlineStr">
         <is>
           <t>#QJVL0LYQQ</t>
         </is>
       </c>
-      <c r="C36" s="547" t="n"/>
-      <c r="D36" s="547" t="inlineStr">
+      <c r="C38" s="574" t="n"/>
+      <c r="D38" s="574" t="inlineStr">
         <is>
           <t>mobbb341</t>
         </is>
       </c>
-      <c r="E36" s="547" t="n"/>
-      <c r="F36" s="136" t="n"/>
-      <c r="G36" s="547" t="n"/>
-      <c r="H36" s="136" t="n"/>
-      <c r="I36" s="547" t="n"/>
-      <c r="J36" s="136" t="n"/>
-      <c r="K36" s="547" t="n"/>
-      <c r="L36" s="136" t="n"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="551" t="inlineStr">
+      <c r="E38" s="574" t="n"/>
+      <c r="F38" s="136" t="n"/>
+      <c r="G38" s="574" t="n"/>
+      <c r="H38" s="136" t="n"/>
+      <c r="I38" s="574" t="n"/>
+      <c r="J38" s="136" t="n"/>
+      <c r="K38" s="574" t="n"/>
+      <c r="L38" s="136" t="n"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="576" t="inlineStr">
         <is>
           <t>#L8R82C8VC</t>
         </is>
       </c>
-      <c r="C37" s="546" t="n"/>
-      <c r="D37" s="546" t="inlineStr">
+      <c r="C39" s="573" t="n"/>
+      <c r="D39" s="573" t="inlineStr">
         <is>
           <t>caden asue</t>
         </is>
       </c>
-      <c r="E37" s="546" t="n"/>
-      <c r="F37" s="130" t="n"/>
-      <c r="G37" s="546" t="n"/>
-      <c r="H37" s="130" t="n"/>
-      <c r="I37" s="546" t="n"/>
-      <c r="J37" s="130" t="n"/>
-      <c r="K37" s="546" t="n"/>
-      <c r="L37" s="130" t="n"/>
+      <c r="E39" s="573" t="n"/>
+      <c r="F39" s="130" t="n"/>
+      <c r="G39" s="573" t="n"/>
+      <c r="H39" s="130" t="n"/>
+      <c r="I39" s="573" t="n"/>
+      <c r="J39" s="130" t="n"/>
+      <c r="K39" s="573" t="n"/>
+      <c r="L39" s="130" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Clash.xlsx
+++ b/Clash.xlsx
@@ -179,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -296,11 +296,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="596">
+  <cellXfs count="623">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1027,6 +1029,37 @@
     <xf numFmtId="164" fontId="5" fillId="25" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="24" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="23" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="18" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="21" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="22" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="21" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="24" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="25" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="22" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="18" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="24" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="21" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="22" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="25" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="21" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="22" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="25" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="24" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="23" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1392,7 +1425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1575,15 +1608,15 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="580" t="inlineStr">
+      <c r="A4" s="607" t="inlineStr">
         <is>
           <t>#QLJ2U20Y2</t>
         </is>
       </c>
-      <c r="B4" s="580" t="n">
+      <c r="B4" s="607" t="n">
         <v>1480</v>
       </c>
-      <c r="C4" s="581" t="n">
+      <c r="C4" s="608" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="116" t="inlineStr">
@@ -1591,37 +1624,37 @@
           <t>DeadLeaf</t>
         </is>
       </c>
-      <c r="E4" s="582" t="n">
+      <c r="E4" s="609" t="n">
         <v>6</v>
       </c>
       <c r="F4" s="116" t="n">
         <v>13763</v>
       </c>
-      <c r="G4" s="583" t="n">
+      <c r="G4" s="610" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="119" t="n">
         <v>30</v>
       </c>
-      <c r="I4" s="582" t="n">
+      <c r="I4" s="609" t="n">
         <v>6</v>
       </c>
       <c r="J4" s="116" t="n">
         <v>11140</v>
       </c>
-      <c r="K4" s="582" t="n">
+      <c r="K4" s="609" t="n">
         <v>6</v>
       </c>
       <c r="L4" s="116" t="n">
         <v>15509</v>
       </c>
-      <c r="M4" s="582" t="n">
+      <c r="M4" s="609" t="n">
         <v>6</v>
       </c>
       <c r="N4" s="116" t="n">
         <v>8567</v>
       </c>
-      <c r="O4" s="582" t="n">
+      <c r="O4" s="609" t="n">
         <v>6</v>
       </c>
       <c r="P4" s="116" t="n">
@@ -1629,15 +1662,15 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="584" t="inlineStr">
+      <c r="A5" s="611" t="inlineStr">
         <is>
           <t>#G0QPVJY9L</t>
         </is>
       </c>
-      <c r="B5" s="584" t="n">
-        <v>840</v>
-      </c>
-      <c r="C5" s="585" t="n">
+      <c r="B5" s="611" t="n">
+        <v>837</v>
+      </c>
+      <c r="C5" s="612" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="122" t="inlineStr">
@@ -1645,37 +1678,37 @@
           <t>Zoro</t>
         </is>
       </c>
-      <c r="E5" s="586" t="n">
+      <c r="E5" s="613" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="122" t="n">
         <v>13432</v>
       </c>
-      <c r="G5" s="587" t="n">
+      <c r="G5" s="614" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="586" t="n">
+      <c r="I5" s="613" t="n">
         <v>6</v>
       </c>
       <c r="J5" s="122" t="n">
         <v>8855</v>
       </c>
-      <c r="K5" s="586" t="n">
+      <c r="K5" s="613" t="n">
         <v>6</v>
       </c>
       <c r="L5" s="122" t="n">
         <v>10965</v>
       </c>
-      <c r="M5" s="586" t="n">
+      <c r="M5" s="613" t="n">
         <v>6</v>
       </c>
       <c r="N5" s="122" t="n">
         <v>7905</v>
       </c>
-      <c r="O5" s="586" t="n">
+      <c r="O5" s="613" t="n">
         <v>6</v>
       </c>
       <c r="P5" s="122" t="n">
@@ -1683,15 +1716,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="580" t="inlineStr">
+      <c r="A6" s="607" t="inlineStr">
         <is>
           <t>#90U0VPU9U</t>
         </is>
       </c>
-      <c r="B6" s="580" t="n">
-        <v>2523</v>
-      </c>
-      <c r="C6" s="581" t="n">
+      <c r="B6" s="607" t="n">
+        <v>2513</v>
+      </c>
+      <c r="C6" s="608" t="n">
         <v>3</v>
       </c>
       <c r="D6" s="116" t="inlineStr">
@@ -1699,37 +1732,37 @@
           <t>KYANI7E</t>
         </is>
       </c>
-      <c r="E6" s="582" t="n">
+      <c r="E6" s="609" t="n">
         <v>6</v>
       </c>
       <c r="F6" s="116" t="n">
         <v>13260</v>
       </c>
-      <c r="G6" s="583" t="n">
+      <c r="G6" s="610" t="n">
         <v>61</v>
       </c>
       <c r="H6" s="119" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="582" t="n">
+      <c r="I6" s="609" t="n">
         <v>6</v>
       </c>
       <c r="J6" s="116" t="n">
         <v>12144</v>
       </c>
-      <c r="K6" s="582" t="n">
+      <c r="K6" s="609" t="n">
         <v>6</v>
       </c>
       <c r="L6" s="116" t="n">
         <v>12835</v>
       </c>
-      <c r="M6" s="582" t="n">
+      <c r="M6" s="609" t="n">
         <v>6</v>
       </c>
       <c r="N6" s="116" t="n">
         <v>7696</v>
       </c>
-      <c r="O6" s="582" t="n">
+      <c r="O6" s="609" t="n">
         <v>6</v>
       </c>
       <c r="P6" s="116" t="n">
@@ -1737,15 +1770,15 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="584" t="inlineStr">
+      <c r="A7" s="611" t="inlineStr">
         <is>
           <t>#YJ20CRJYQ</t>
         </is>
       </c>
-      <c r="B7" s="584" t="n">
-        <v>1350</v>
-      </c>
-      <c r="C7" s="585" t="n">
+      <c r="B7" s="611" t="n">
+        <v>1323</v>
+      </c>
+      <c r="C7" s="612" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="122" t="inlineStr">
@@ -1753,37 +1786,37 @@
           <t>UnluckGod</t>
         </is>
       </c>
-      <c r="E7" s="586" t="n">
+      <c r="E7" s="613" t="n">
         <v>6</v>
       </c>
       <c r="F7" s="122" t="n">
         <v>12824</v>
       </c>
-      <c r="G7" s="587" t="n">
+      <c r="G7" s="614" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="125" t="n">
         <v>61</v>
       </c>
-      <c r="I7" s="586" t="n">
+      <c r="I7" s="613" t="n">
         <v>6</v>
       </c>
       <c r="J7" s="122" t="n">
         <v>11999</v>
       </c>
-      <c r="K7" s="586" t="n">
+      <c r="K7" s="613" t="n">
         <v>6</v>
       </c>
       <c r="L7" s="122" t="n">
         <v>12972</v>
       </c>
-      <c r="M7" s="586" t="n">
+      <c r="M7" s="613" t="n">
         <v>6</v>
       </c>
       <c r="N7" s="122" t="n">
         <v>8286</v>
       </c>
-      <c r="O7" s="586" t="n">
+      <c r="O7" s="613" t="n">
         <v>6</v>
       </c>
       <c r="P7" s="122" t="n">
@@ -1791,15 +1824,15 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="580" t="inlineStr">
+      <c r="A8" s="607" t="inlineStr">
         <is>
           <t>#QUV2GP88U</t>
         </is>
       </c>
-      <c r="B8" s="580" t="n">
+      <c r="B8" s="607" t="n">
         <v>729</v>
       </c>
-      <c r="C8" s="581" t="n">
+      <c r="C8" s="608" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="116" t="inlineStr">
@@ -1807,37 +1840,37 @@
           <t>Nico Robin</t>
         </is>
       </c>
-      <c r="E8" s="582" t="n">
+      <c r="E8" s="609" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="116" t="n">
         <v>12612</v>
       </c>
-      <c r="G8" s="583" t="n">
+      <c r="G8" s="610" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="582" t="n">
+      <c r="I8" s="609" t="n">
         <v>6</v>
       </c>
       <c r="J8" s="116" t="n">
         <v>11338</v>
       </c>
-      <c r="K8" s="582" t="n">
+      <c r="K8" s="609" t="n">
         <v>6</v>
       </c>
       <c r="L8" s="116" t="n">
         <v>10997</v>
       </c>
-      <c r="M8" s="582" t="n">
+      <c r="M8" s="609" t="n">
         <v>6</v>
       </c>
       <c r="N8" s="116" t="n">
         <v>11087</v>
       </c>
-      <c r="O8" s="582" t="n">
+      <c r="O8" s="609" t="n">
         <v>6</v>
       </c>
       <c r="P8" s="116" t="n">
@@ -1845,15 +1878,15 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="584" t="inlineStr">
+      <c r="A9" s="611" t="inlineStr">
         <is>
           <t>#QCV22VP0G</t>
         </is>
       </c>
-      <c r="B9" s="584" t="n">
-        <v>778</v>
-      </c>
-      <c r="C9" s="585" t="n">
+      <c r="B9" s="611" t="n">
+        <v>775</v>
+      </c>
+      <c r="C9" s="612" t="n">
         <v>6</v>
       </c>
       <c r="D9" s="122" t="inlineStr">
@@ -1861,37 +1894,37 @@
           <t>Nami</t>
         </is>
       </c>
-      <c r="E9" s="586" t="n">
+      <c r="E9" s="613" t="n">
         <v>6</v>
       </c>
       <c r="F9" s="122" t="n">
         <v>11795</v>
       </c>
-      <c r="G9" s="587" t="n">
+      <c r="G9" s="614" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="586" t="n">
+      <c r="I9" s="613" t="n">
         <v>6</v>
       </c>
       <c r="J9" s="122" t="n">
         <v>10769</v>
       </c>
-      <c r="K9" s="586" t="n">
+      <c r="K9" s="613" t="n">
         <v>6</v>
       </c>
       <c r="L9" s="122" t="n">
         <v>12486</v>
       </c>
-      <c r="M9" s="586" t="n">
+      <c r="M9" s="613" t="n">
         <v>6</v>
       </c>
       <c r="N9" s="122" t="n">
         <v>8472</v>
       </c>
-      <c r="O9" s="586" t="n">
+      <c r="O9" s="613" t="n">
         <v>6</v>
       </c>
       <c r="P9" s="122" t="n">
@@ -1899,15 +1932,15 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="580" t="inlineStr">
+      <c r="A10" s="607" t="inlineStr">
         <is>
           <t>#YRGRRJQCY</t>
         </is>
       </c>
-      <c r="B10" s="580" t="n">
-        <v>1337</v>
-      </c>
-      <c r="C10" s="581" t="n">
+      <c r="B10" s="607" t="n">
+        <v>1360</v>
+      </c>
+      <c r="C10" s="608" t="n">
         <v>7</v>
       </c>
       <c r="D10" s="116" t="inlineStr">
@@ -1915,37 +1948,37 @@
           <t>DoubleSpice</t>
         </is>
       </c>
-      <c r="E10" s="582" t="n">
+      <c r="E10" s="609" t="n">
         <v>6</v>
       </c>
       <c r="F10" s="116" t="n">
         <v>11620</v>
       </c>
-      <c r="G10" s="583" t="n">
+      <c r="G10" s="610" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="119" t="n">
         <v>60</v>
       </c>
-      <c r="I10" s="582" t="n">
+      <c r="I10" s="609" t="n">
         <v>6</v>
       </c>
       <c r="J10" s="116" t="n">
         <v>14095</v>
       </c>
-      <c r="K10" s="582" t="n">
+      <c r="K10" s="609" t="n">
         <v>6</v>
       </c>
       <c r="L10" s="116" t="n">
         <v>12379</v>
       </c>
-      <c r="M10" s="582" t="n">
+      <c r="M10" s="609" t="n">
         <v>6</v>
       </c>
       <c r="N10" s="116" t="n">
         <v>8256</v>
       </c>
-      <c r="O10" s="582" t="n">
+      <c r="O10" s="609" t="n">
         <v>6</v>
       </c>
       <c r="P10" s="116" t="n">
@@ -1953,15 +1986,15 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="584" t="inlineStr">
+      <c r="A11" s="611" t="inlineStr">
         <is>
           <t>#QUG8QQJ92</t>
         </is>
       </c>
-      <c r="B11" s="584" t="n">
+      <c r="B11" s="611" t="n">
         <v>920</v>
       </c>
-      <c r="C11" s="585" t="n">
+      <c r="C11" s="612" t="n">
         <v>8</v>
       </c>
       <c r="D11" s="122" t="inlineStr">
@@ -1969,37 +2002,37 @@
           <t>Karma</t>
         </is>
       </c>
-      <c r="E11" s="586" t="n">
+      <c r="E11" s="613" t="n">
         <v>6</v>
       </c>
       <c r="F11" s="122" t="n">
         <v>11355</v>
       </c>
-      <c r="G11" s="587" t="n">
+      <c r="G11" s="614" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="586" t="n">
+      <c r="I11" s="613" t="n">
         <v>6</v>
       </c>
       <c r="J11" s="122" t="n">
         <v>10003</v>
       </c>
-      <c r="K11" s="586" t="n">
+      <c r="K11" s="613" t="n">
         <v>6</v>
       </c>
       <c r="L11" s="122" t="n">
         <v>10595</v>
       </c>
-      <c r="M11" s="586" t="n">
+      <c r="M11" s="613" t="n">
         <v>6</v>
       </c>
       <c r="N11" s="122" t="n">
         <v>9240</v>
       </c>
-      <c r="O11" s="586" t="n">
+      <c r="O11" s="613" t="n">
         <v>6</v>
       </c>
       <c r="P11" s="122" t="n">
@@ -2007,15 +2040,15 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="588" t="inlineStr">
+      <c r="A12" s="615" t="inlineStr">
         <is>
           <t>#98JG2UJQL</t>
         </is>
       </c>
-      <c r="B12" s="588" t="n">
-        <v>2957</v>
-      </c>
-      <c r="C12" s="581" t="n">
+      <c r="B12" s="615" t="n">
+        <v>2941</v>
+      </c>
+      <c r="C12" s="608" t="n">
         <v>9</v>
       </c>
       <c r="D12" s="133" t="inlineStr">
@@ -2023,37 +2056,37 @@
           <t>Dragonux</t>
         </is>
       </c>
-      <c r="E12" s="589" t="n">
+      <c r="E12" s="616" t="n">
         <v>6</v>
       </c>
       <c r="F12" s="133" t="n">
         <v>10910</v>
       </c>
-      <c r="G12" s="590" t="n">
+      <c r="G12" s="617" t="n">
         <v>211</v>
       </c>
       <c r="H12" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="589" t="n">
+      <c r="I12" s="616" t="n">
         <v>6</v>
       </c>
       <c r="J12" s="133" t="n">
         <v>8750</v>
       </c>
-      <c r="K12" s="589" t="n">
+      <c r="K12" s="616" t="n">
         <v>6</v>
       </c>
       <c r="L12" s="133" t="n">
         <v>10865</v>
       </c>
-      <c r="M12" s="589" t="n">
+      <c r="M12" s="616" t="n">
         <v>6</v>
       </c>
       <c r="N12" s="133" t="n">
         <v>8025</v>
       </c>
-      <c r="O12" s="589" t="n">
+      <c r="O12" s="616" t="n">
         <v>6</v>
       </c>
       <c r="P12" s="133" t="n">
@@ -2061,15 +2094,15 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="584" t="inlineStr">
+      <c r="A13" s="611" t="inlineStr">
         <is>
           <t>#QLR088LC9</t>
         </is>
       </c>
-      <c r="B13" s="584" t="n">
+      <c r="B13" s="611" t="n">
         <v>851</v>
       </c>
-      <c r="C13" s="585" t="n">
+      <c r="C13" s="612" t="n">
         <v>10</v>
       </c>
       <c r="D13" s="122" t="inlineStr">
@@ -2077,37 +2110,37 @@
           <t>Sanji</t>
         </is>
       </c>
-      <c r="E13" s="586" t="n">
+      <c r="E13" s="613" t="n">
         <v>6</v>
       </c>
       <c r="F13" s="122" t="n">
         <v>10910</v>
       </c>
-      <c r="G13" s="587" t="n">
+      <c r="G13" s="614" t="n">
         <v>0</v>
       </c>
       <c r="H13" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="586" t="n">
+      <c r="I13" s="613" t="n">
         <v>6</v>
       </c>
       <c r="J13" s="122" t="n">
         <v>9550</v>
       </c>
-      <c r="K13" s="586" t="n">
+      <c r="K13" s="613" t="n">
         <v>6</v>
       </c>
       <c r="L13" s="122" t="n">
         <v>9138</v>
       </c>
-      <c r="M13" s="586" t="n">
+      <c r="M13" s="613" t="n">
         <v>6</v>
       </c>
       <c r="N13" s="122" t="n">
         <v>8897</v>
       </c>
-      <c r="O13" s="586" t="n">
+      <c r="O13" s="613" t="n">
         <v>6</v>
       </c>
       <c r="P13" s="122" t="n">
@@ -2115,15 +2148,15 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="580" t="inlineStr">
+      <c r="A14" s="607" t="inlineStr">
         <is>
           <t>#QUYG0PQC8</t>
         </is>
       </c>
-      <c r="B14" s="580" t="n">
-        <v>940</v>
-      </c>
-      <c r="C14" s="581" t="n">
+      <c r="B14" s="607" t="n">
+        <v>923</v>
+      </c>
+      <c r="C14" s="608" t="n">
         <v>11</v>
       </c>
       <c r="D14" s="116" t="inlineStr">
@@ -2131,37 +2164,37 @@
           <t>Luffy</t>
         </is>
       </c>
-      <c r="E14" s="582" t="n">
+      <c r="E14" s="609" t="n">
         <v>6</v>
       </c>
       <c r="F14" s="116" t="n">
         <v>10879</v>
       </c>
-      <c r="G14" s="583" t="n">
+      <c r="G14" s="610" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="582" t="n">
+      <c r="I14" s="609" t="n">
         <v>6</v>
       </c>
       <c r="J14" s="116" t="n">
         <v>9114</v>
       </c>
-      <c r="K14" s="582" t="n">
+      <c r="K14" s="609" t="n">
         <v>6</v>
       </c>
       <c r="L14" s="116" t="n">
         <v>13385</v>
       </c>
-      <c r="M14" s="582" t="n">
+      <c r="M14" s="609" t="n">
         <v>6</v>
       </c>
       <c r="N14" s="116" t="n">
         <v>7877</v>
       </c>
-      <c r="O14" s="582" t="n">
+      <c r="O14" s="609" t="n">
         <v>6</v>
       </c>
       <c r="P14" s="116" t="n">
@@ -2169,15 +2202,15 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="591" t="inlineStr">
+      <c r="A15" s="618" t="inlineStr">
         <is>
           <t>#G0JPUQGYR</t>
         </is>
       </c>
-      <c r="B15" s="591" t="n">
-        <v>1286</v>
-      </c>
-      <c r="C15" s="585" t="n">
+      <c r="B15" s="618" t="n">
+        <v>1305</v>
+      </c>
+      <c r="C15" s="612" t="n">
         <v>12</v>
       </c>
       <c r="D15" s="127" t="inlineStr">
@@ -2185,37 +2218,37 @@
           <t>Collin</t>
         </is>
       </c>
-      <c r="E15" s="592" t="n">
+      <c r="E15" s="619" t="n">
         <v>6</v>
       </c>
       <c r="F15" s="127" t="n">
         <v>8833</v>
       </c>
-      <c r="G15" s="593" t="n">
+      <c r="G15" s="620" t="n">
         <v>20</v>
       </c>
       <c r="H15" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="592" t="n">
+      <c r="I15" s="619" t="n">
         <v>6</v>
       </c>
       <c r="J15" s="127" t="n">
         <v>9238</v>
       </c>
-      <c r="K15" s="592" t="n">
+      <c r="K15" s="619" t="n">
         <v>6</v>
       </c>
       <c r="L15" s="127" t="n">
         <v>7756</v>
       </c>
-      <c r="M15" s="592" t="n">
+      <c r="M15" s="619" t="n">
         <v>6</v>
       </c>
       <c r="N15" s="131" t="n">
         <v>5943</v>
       </c>
-      <c r="O15" s="592" t="n">
+      <c r="O15" s="619" t="n">
         <v>6</v>
       </c>
       <c r="P15" s="127" t="n">
@@ -2223,15 +2256,15 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="588" t="inlineStr">
+      <c r="A16" s="615" t="inlineStr">
         <is>
           <t>#82QLQCJRJ</t>
         </is>
       </c>
-      <c r="B16" s="588" t="n">
+      <c r="B16" s="615" t="n">
         <v>2913</v>
       </c>
-      <c r="C16" s="581" t="n">
+      <c r="C16" s="608" t="n">
         <v>13</v>
       </c>
       <c r="D16" s="133" t="inlineStr">
@@ -2239,37 +2272,37 @@
           <t>Raging Fury</t>
         </is>
       </c>
-      <c r="E16" s="589" t="n">
+      <c r="E16" s="616" t="n">
         <v>6</v>
       </c>
       <c r="F16" s="133" t="n">
         <v>8055</v>
       </c>
-      <c r="G16" s="594" t="n">
+      <c r="G16" s="621" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="589" t="n">
+      <c r="I16" s="616" t="n">
         <v>6</v>
       </c>
       <c r="J16" s="133" t="n">
         <v>7115</v>
       </c>
-      <c r="K16" s="594" t="n">
+      <c r="K16" s="621" t="n">
         <v>2</v>
       </c>
       <c r="L16" s="148" t="n">
         <v>2320</v>
       </c>
-      <c r="M16" s="589" t="n">
+      <c r="M16" s="616" t="n">
         <v>6</v>
       </c>
       <c r="N16" s="139" t="n">
         <v>4920</v>
       </c>
-      <c r="O16" s="589" t="n">
+      <c r="O16" s="616" t="n">
         <v>6</v>
       </c>
       <c r="P16" s="139" t="n">
@@ -2277,15 +2310,15 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="584" t="inlineStr">
+      <c r="A17" s="611" t="inlineStr">
         <is>
           <t>#Q8CLCUCC2</t>
         </is>
       </c>
-      <c r="B17" s="584" t="n">
+      <c r="B17" s="611" t="n">
         <v>1327</v>
       </c>
-      <c r="C17" s="585" t="n">
+      <c r="C17" s="612" t="n">
         <v>14</v>
       </c>
       <c r="D17" s="122" t="inlineStr">
@@ -2293,37 +2326,37 @@
           <t>Moxxi</t>
         </is>
       </c>
-      <c r="E17" s="586" t="n">
+      <c r="E17" s="613" t="n">
         <v>6</v>
       </c>
       <c r="F17" s="122" t="n">
         <v>8015</v>
       </c>
-      <c r="G17" s="587" t="n">
+      <c r="G17" s="614" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="125" t="n">
         <v>60</v>
       </c>
-      <c r="I17" s="586" t="n">
+      <c r="I17" s="613" t="n">
         <v>6</v>
       </c>
       <c r="J17" s="122" t="n">
         <v>11010</v>
       </c>
-      <c r="K17" s="586" t="n">
+      <c r="K17" s="613" t="n">
         <v>6</v>
       </c>
       <c r="L17" s="122" t="n">
         <v>13857</v>
       </c>
-      <c r="M17" s="586" t="n">
+      <c r="M17" s="613" t="n">
         <v>6</v>
       </c>
       <c r="N17" s="122" t="n">
         <v>7905</v>
       </c>
-      <c r="O17" s="586" t="n">
+      <c r="O17" s="613" t="n">
         <v>6</v>
       </c>
       <c r="P17" s="122" t="n">
@@ -2331,15 +2364,15 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="588" t="inlineStr">
+      <c r="A18" s="615" t="inlineStr">
         <is>
           <t>#QU0U2Q99G</t>
         </is>
       </c>
-      <c r="B18" s="588" t="n">
-        <v>913</v>
-      </c>
-      <c r="C18" s="581" t="n">
+      <c r="B18" s="615" t="n">
+        <v>896</v>
+      </c>
+      <c r="C18" s="608" t="n">
         <v>15</v>
       </c>
       <c r="D18" s="133" t="inlineStr">
@@ -2347,45 +2380,45 @@
           <t>big coc</t>
         </is>
       </c>
-      <c r="E18" s="589" t="n">
+      <c r="E18" s="616" t="n">
         <v>6</v>
       </c>
       <c r="F18" s="133" t="n">
         <v>7420</v>
       </c>
-      <c r="G18" s="594" t="n">
+      <c r="G18" s="621" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="136" t="n">
         <v>40</v>
       </c>
-      <c r="I18" s="589" t="n">
+      <c r="I18" s="616" t="n">
         <v>5</v>
       </c>
       <c r="J18" s="139" t="n">
         <v>5150</v>
       </c>
-      <c r="K18" s="589" t="n">
+      <c r="K18" s="616" t="n">
         <v>6</v>
       </c>
       <c r="L18" s="133" t="n">
         <v>9075</v>
       </c>
-      <c r="M18" s="588" t="n"/>
+      <c r="M18" s="615" t="n"/>
       <c r="N18" s="136" t="n"/>
-      <c r="O18" s="588" t="n"/>
+      <c r="O18" s="615" t="n"/>
       <c r="P18" s="136" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="591" t="inlineStr">
+      <c r="A19" s="618" t="inlineStr">
         <is>
           <t>#QRPRYR8LL</t>
         </is>
       </c>
-      <c r="B19" s="591" t="n">
+      <c r="B19" s="618" t="n">
         <v>1118</v>
       </c>
-      <c r="C19" s="585" t="n">
+      <c r="C19" s="612" t="n">
         <v>16</v>
       </c>
       <c r="D19" s="127" t="inlineStr">
@@ -2393,37 +2426,37 @@
           <t>FidelCashflow</t>
         </is>
       </c>
-      <c r="E19" s="592" t="n">
+      <c r="E19" s="619" t="n">
         <v>6</v>
       </c>
       <c r="F19" s="127" t="n">
         <v>6415</v>
       </c>
-      <c r="G19" s="593" t="n">
+      <c r="G19" s="620" t="n">
         <v>4</v>
       </c>
       <c r="H19" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="592" t="n">
+      <c r="I19" s="619" t="n">
         <v>6</v>
       </c>
       <c r="J19" s="127" t="n">
         <v>6547</v>
       </c>
-      <c r="K19" s="592" t="n">
+      <c r="K19" s="619" t="n">
         <v>6</v>
       </c>
       <c r="L19" s="127" t="n">
         <v>6811</v>
       </c>
-      <c r="M19" s="592" t="n">
+      <c r="M19" s="619" t="n">
         <v>6</v>
       </c>
       <c r="N19" s="131" t="n">
         <v>4239</v>
       </c>
-      <c r="O19" s="592" t="n">
+      <c r="O19" s="619" t="n">
         <v>6</v>
       </c>
       <c r="P19" s="131" t="n">
@@ -2431,15 +2464,15 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="588" t="inlineStr">
+      <c r="A20" s="615" t="inlineStr">
         <is>
           <t>#QY0VGPQGQ</t>
         </is>
       </c>
-      <c r="B20" s="588" t="n">
+      <c r="B20" s="615" t="n">
         <v>563</v>
       </c>
-      <c r="C20" s="581" t="n">
+      <c r="C20" s="608" t="n">
         <v>17</v>
       </c>
       <c r="D20" s="133" t="inlineStr">
@@ -2447,37 +2480,37 @@
           <t>killerjones</t>
         </is>
       </c>
-      <c r="E20" s="589" t="n">
+      <c r="E20" s="616" t="n">
         <v>6</v>
       </c>
       <c r="F20" s="133" t="n">
         <v>6320</v>
       </c>
-      <c r="G20" s="594" t="n">
+      <c r="G20" s="621" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="136" t="n">
         <v>15</v>
       </c>
-      <c r="I20" s="588" t="n"/>
+      <c r="I20" s="615" t="n"/>
       <c r="J20" s="136" t="n"/>
-      <c r="K20" s="588" t="n"/>
+      <c r="K20" s="615" t="n"/>
       <c r="L20" s="136" t="n"/>
-      <c r="M20" s="588" t="n"/>
+      <c r="M20" s="615" t="n"/>
       <c r="N20" s="136" t="n"/>
-      <c r="O20" s="588" t="n"/>
+      <c r="O20" s="615" t="n"/>
       <c r="P20" s="136" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="591" t="inlineStr">
+      <c r="A21" s="618" t="inlineStr">
         <is>
           <t>#LC9GUPJJG</t>
         </is>
       </c>
-      <c r="B21" s="591" t="n">
-        <v>953</v>
-      </c>
-      <c r="C21" s="585" t="n">
+      <c r="B21" s="618" t="n">
+        <v>992</v>
+      </c>
+      <c r="C21" s="612" t="n">
         <v>18</v>
       </c>
       <c r="D21" s="127" t="inlineStr">
@@ -2485,41 +2518,41 @@
           <t>raptor2222a</t>
         </is>
       </c>
-      <c r="E21" s="592" t="n">
+      <c r="E21" s="619" t="n">
         <v>5</v>
       </c>
       <c r="F21" s="131" t="n">
         <v>4350</v>
       </c>
-      <c r="G21" s="593" t="n">
+      <c r="G21" s="620" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="593" t="n">
+      <c r="I21" s="620" t="n">
         <v>0</v>
       </c>
       <c r="J21" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K21" s="591" t="n"/>
+      <c r="K21" s="618" t="n"/>
       <c r="L21" s="130" t="n"/>
-      <c r="M21" s="591" t="n"/>
+      <c r="M21" s="618" t="n"/>
       <c r="N21" s="130" t="n"/>
-      <c r="O21" s="591" t="n"/>
+      <c r="O21" s="618" t="n"/>
       <c r="P21" s="130" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="588" t="inlineStr">
+      <c r="A22" s="615" t="inlineStr">
         <is>
           <t>#QLG0VJG2J</t>
         </is>
       </c>
-      <c r="B22" s="588" t="n">
-        <v>1087</v>
-      </c>
-      <c r="C22" s="581" t="n">
+      <c r="B22" s="615" t="n">
+        <v>1142</v>
+      </c>
+      <c r="C22" s="608" t="n">
         <v>19</v>
       </c>
       <c r="D22" s="139" t="inlineStr">
@@ -2527,41 +2560,41 @@
           <t>PocketRocket</t>
         </is>
       </c>
-      <c r="E22" s="590" t="n">
+      <c r="E22" s="617" t="n">
         <v>4</v>
       </c>
       <c r="F22" s="139" t="n">
         <v>4327</v>
       </c>
-      <c r="G22" s="594" t="n">
+      <c r="G22" s="621" t="n">
         <v>20</v>
       </c>
       <c r="H22" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="590" t="n">
+      <c r="I22" s="617" t="n">
         <v>4</v>
       </c>
       <c r="J22" s="139" t="n">
         <v>5215</v>
       </c>
-      <c r="K22" s="588" t="n"/>
+      <c r="K22" s="615" t="n"/>
       <c r="L22" s="136" t="n"/>
-      <c r="M22" s="588" t="n"/>
+      <c r="M22" s="615" t="n"/>
       <c r="N22" s="136" t="n"/>
-      <c r="O22" s="588" t="n"/>
+      <c r="O22" s="615" t="n"/>
       <c r="P22" s="136" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="591" t="inlineStr">
+      <c r="A23" s="618" t="inlineStr">
         <is>
           <t>#QL8LVLYG8</t>
         </is>
       </c>
-      <c r="B23" s="591" t="n">
+      <c r="B23" s="618" t="n">
         <v>863</v>
       </c>
-      <c r="C23" s="585" t="n">
+      <c r="C23" s="612" t="n">
         <v>20</v>
       </c>
       <c r="D23" s="137" t="inlineStr">
@@ -2569,37 +2602,37 @@
           <t>Some guy</t>
         </is>
       </c>
-      <c r="E23" s="593" t="n">
+      <c r="E23" s="620" t="n">
         <v>2</v>
       </c>
       <c r="F23" s="137" t="n">
         <v>2650</v>
       </c>
-      <c r="G23" s="593" t="n">
+      <c r="G23" s="620" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="130" t="n">
         <v>20</v>
       </c>
-      <c r="I23" s="593" t="n">
+      <c r="I23" s="620" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K23" s="592" t="n">
+      <c r="K23" s="619" t="n">
         <v>6</v>
       </c>
       <c r="L23" s="127" t="n">
         <v>6917</v>
       </c>
-      <c r="M23" s="593" t="n">
+      <c r="M23" s="620" t="n">
         <v>0</v>
       </c>
       <c r="N23" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="O23" s="593" t="n">
+      <c r="O23" s="620" t="n">
         <v>2</v>
       </c>
       <c r="P23" s="137" t="n">
@@ -2661,15 +2694,15 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="591" t="inlineStr">
+      <c r="A25" s="618" t="inlineStr">
         <is>
           <t>#QV8JJ0URU</t>
         </is>
       </c>
-      <c r="B25" s="591" t="n">
+      <c r="B25" s="618" t="n">
         <v>741</v>
       </c>
-      <c r="C25" s="585" t="n">
+      <c r="C25" s="612" t="n">
         <v>22</v>
       </c>
       <c r="D25" s="137" t="inlineStr">
@@ -2677,37 +2710,37 @@
           <t>✨Jacob</t>
         </is>
       </c>
-      <c r="E25" s="593" t="n">
+      <c r="E25" s="620" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="G25" s="593" t="n">
+      <c r="G25" s="620" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="593" t="n">
+      <c r="I25" s="620" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K25" s="593" t="n">
+      <c r="K25" s="620" t="n">
         <v>0</v>
       </c>
       <c r="L25" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="M25" s="592" t="n">
+      <c r="M25" s="619" t="n">
         <v>6</v>
       </c>
       <c r="N25" s="127" t="n">
         <v>7385</v>
       </c>
-      <c r="O25" s="592" t="n">
+      <c r="O25" s="619" t="n">
         <v>6</v>
       </c>
       <c r="P25" s="127" t="n">
@@ -2715,15 +2748,15 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="588" t="inlineStr">
+      <c r="A26" s="615" t="inlineStr">
         <is>
           <t>#QY8L2GLUR</t>
         </is>
       </c>
-      <c r="B26" s="588" t="n">
+      <c r="B26" s="615" t="n">
         <v>907</v>
       </c>
-      <c r="C26" s="581" t="n">
+      <c r="C26" s="608" t="n">
         <v>23</v>
       </c>
       <c r="D26" s="148" t="inlineStr">
@@ -2731,37 +2764,37 @@
           <t>Huy</t>
         </is>
       </c>
-      <c r="E26" s="594" t="n">
+      <c r="E26" s="621" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="594" t="n">
+      <c r="G26" s="621" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="594" t="n">
+      <c r="I26" s="621" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="K26" s="594" t="n">
+      <c r="K26" s="621" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="M26" s="589" t="n">
+      <c r="M26" s="616" t="n">
         <v>6</v>
       </c>
       <c r="N26" s="133" t="n">
         <v>6995</v>
       </c>
-      <c r="O26" s="589" t="n">
+      <c r="O26" s="616" t="n">
         <v>6</v>
       </c>
       <c r="P26" s="133" t="n">
@@ -2769,404 +2802,408 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="591" t="inlineStr">
+      <c r="A27" s="618" t="inlineStr">
+        <is>
+          <t>#QQLVRJCGQ</t>
+        </is>
+      </c>
+      <c r="B27" s="618" t="n">
+        <v>1209</v>
+      </c>
+      <c r="C27" s="612" t="n">
+        <v>24</v>
+      </c>
+      <c r="D27" s="137" t="inlineStr">
+        <is>
+          <t>khant</t>
+        </is>
+      </c>
+      <c r="E27" s="620" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="620" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="130" t="n">
+        <v>20</v>
+      </c>
+      <c r="I27" s="618" t="n"/>
+      <c r="J27" s="130" t="n"/>
+      <c r="K27" s="618" t="n"/>
+      <c r="L27" s="130" t="n"/>
+      <c r="M27" s="618" t="n"/>
+      <c r="N27" s="130" t="n"/>
+      <c r="O27" s="618" t="n"/>
+      <c r="P27" s="130" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="615" t="inlineStr">
         <is>
           <t>#L2QQL9QVJ</t>
         </is>
       </c>
-      <c r="B27" s="591" t="n">
+      <c r="B28" s="615" t="n">
         <v>1450</v>
       </c>
-      <c r="C27" s="585" t="n">
-        <v>24</v>
-      </c>
-      <c r="D27" s="137" t="inlineStr">
+      <c r="C28" s="608" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" s="148" t="inlineStr">
         <is>
           <t>JustPre10d</t>
         </is>
       </c>
-      <c r="E27" s="593" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="593" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="593" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="593" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="592" t="n">
-        <v>6</v>
-      </c>
-      <c r="N27" s="127" t="n">
+      <c r="E28" s="621" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="621" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="621" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="621" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="616" t="n">
+        <v>6</v>
+      </c>
+      <c r="N28" s="133" t="n">
         <v>6655</v>
       </c>
-      <c r="O27" s="592" t="n">
-        <v>6</v>
-      </c>
-      <c r="P27" s="127" t="n">
+      <c r="O28" s="616" t="n">
+        <v>6</v>
+      </c>
+      <c r="P28" s="133" t="n">
         <v>7675</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="588" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="618" t="inlineStr">
         <is>
           <t>#LPR9RPCY9</t>
         </is>
       </c>
-      <c r="B28" s="588" t="n">
+      <c r="B29" s="618" t="n">
         <v>990</v>
       </c>
-      <c r="C28" s="581" t="n">
-        <v>25</v>
-      </c>
-      <c r="D28" s="148" t="inlineStr">
+      <c r="C29" s="612" t="n">
+        <v>26</v>
+      </c>
+      <c r="D29" s="137" t="inlineStr">
         <is>
           <t>sayhuss17</t>
         </is>
       </c>
-      <c r="E28" s="594" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="594" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="594" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="594" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="590" t="n">
+      <c r="E29" s="620" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="620" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="620" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="620" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="622" t="n">
         <v>4</v>
       </c>
-      <c r="N28" s="139" t="n">
+      <c r="N29" s="131" t="n">
         <v>4240</v>
       </c>
-      <c r="O28" s="588" t="n"/>
-      <c r="P28" s="136" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="591" t="inlineStr">
+      <c r="O29" s="618" t="n"/>
+      <c r="P29" s="130" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="615" t="inlineStr">
         <is>
           <t>#QQL8C29CY</t>
         </is>
       </c>
-      <c r="B29" s="591" t="n">
-        <v>920</v>
-      </c>
-      <c r="C29" s="585" t="n">
-        <v>26</v>
-      </c>
-      <c r="D29" s="137" t="inlineStr">
+      <c r="B30" s="615" t="n">
+        <v>900</v>
+      </c>
+      <c r="C30" s="608" t="n">
+        <v>27</v>
+      </c>
+      <c r="D30" s="148" t="inlineStr">
         <is>
           <t>TypicalTeague#2</t>
         </is>
       </c>
-      <c r="E29" s="593" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="593" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="593" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="593" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="592" t="n">
+      <c r="E30" s="621" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="621" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="621" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="621" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="616" t="n">
         <v>5</v>
       </c>
-      <c r="N29" s="131" t="n">
+      <c r="N30" s="139" t="n">
         <v>4070</v>
       </c>
-      <c r="O29" s="592" t="n">
-        <v>6</v>
-      </c>
-      <c r="P29" s="127" t="n">
+      <c r="O30" s="616" t="n">
+        <v>6</v>
+      </c>
+      <c r="P30" s="133" t="n">
         <v>6410</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="588" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="618" t="inlineStr">
         <is>
           <t>#L9JJQY992</t>
         </is>
       </c>
-      <c r="B30" s="588" t="n">
+      <c r="B31" s="618" t="n">
         <v>773</v>
       </c>
-      <c r="C30" s="581" t="n">
-        <v>27</v>
-      </c>
-      <c r="D30" s="148" t="inlineStr">
+      <c r="C31" s="612" t="n">
+        <v>28</v>
+      </c>
+      <c r="D31" s="137" t="inlineStr">
         <is>
           <t>Fisted_Waffle</t>
         </is>
       </c>
-      <c r="E30" s="594" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="594" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="594" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="594" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="594" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" s="588" t="n"/>
-      <c r="P30" s="136" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="591" t="inlineStr">
+      <c r="E31" s="620" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="620" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="620" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="620" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="620" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="618" t="n"/>
+      <c r="P31" s="130" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="615" t="inlineStr">
         <is>
           <t>#PJYVV989R</t>
         </is>
       </c>
-      <c r="B31" s="591" t="n">
+      <c r="B32" s="615" t="n">
         <v>1584</v>
       </c>
-      <c r="C31" s="585" t="n">
-        <v>28</v>
-      </c>
-      <c r="D31" s="137" t="inlineStr">
+      <c r="C32" s="608" t="n">
+        <v>29</v>
+      </c>
+      <c r="D32" s="148" t="inlineStr">
         <is>
           <t>nx</t>
         </is>
       </c>
-      <c r="E31" s="593" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="593" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="593" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="593" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="593" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" s="591" t="n"/>
-      <c r="P31" s="130" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="588" t="inlineStr">
+      <c r="E32" s="621" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="621" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="621" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="621" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="621" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="615" t="n"/>
+      <c r="P32" s="136" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="618" t="inlineStr">
         <is>
           <t>#L9QL9YQQY</t>
         </is>
       </c>
-      <c r="B32" s="588" t="n">
+      <c r="B33" s="618" t="n">
         <v>975</v>
       </c>
-      <c r="C32" s="581" t="n">
-        <v>29</v>
-      </c>
-      <c r="D32" s="148" t="inlineStr">
+      <c r="C33" s="612" t="n">
+        <v>30</v>
+      </c>
+      <c r="D33" s="137" t="inlineStr">
         <is>
           <t>Ima Chad</t>
         </is>
       </c>
-      <c r="E32" s="594" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="594" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="594" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="594" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="594" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" s="589" t="n">
+      <c r="E33" s="620" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="620" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="620" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="620" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="620" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="619" t="n">
         <v>5</v>
       </c>
-      <c r="P32" s="148" t="n">
+      <c r="P33" s="137" t="n">
         <v>3360</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="591" t="inlineStr">
-        <is>
-          <t>#QLL0PVCRV</t>
-        </is>
-      </c>
-      <c r="B33" s="591" t="n">
-        <v>1704</v>
-      </c>
-      <c r="C33" s="585" t="n">
-        <v>30</v>
-      </c>
-      <c r="D33" s="130" t="inlineStr">
-        <is>
-          <t>Harsh chhillar</t>
-        </is>
-      </c>
-      <c r="E33" s="591" t="n"/>
-      <c r="F33" s="130" t="n"/>
-      <c r="G33" s="591" t="n"/>
-      <c r="H33" s="130" t="n"/>
-      <c r="I33" s="591" t="n"/>
-      <c r="J33" s="130" t="n"/>
-      <c r="K33" s="591" t="n"/>
-      <c r="L33" s="130" t="n"/>
-      <c r="M33" s="591" t="n"/>
-      <c r="N33" s="130" t="n"/>
-      <c r="O33" s="591" t="n"/>
-      <c r="P33" s="130" t="n"/>
-    </row>
     <row r="34">
-      <c r="A34" s="588" t="inlineStr">
-        <is>
-          <t>#QQLVRJCGQ</t>
-        </is>
-      </c>
-      <c r="B34" s="588" t="n">
-        <v>1194</v>
-      </c>
-      <c r="C34" s="581" t="n">
+      <c r="A34" s="615" t="inlineStr">
+        <is>
+          <t>#QLGYRVPU0</t>
+        </is>
+      </c>
+      <c r="B34" s="615" t="n">
+        <v>886</v>
+      </c>
+      <c r="C34" s="608" t="n">
         <v>31</v>
       </c>
       <c r="D34" s="136" t="inlineStr">
         <is>
-          <t>khant</t>
-        </is>
-      </c>
-      <c r="E34" s="588" t="n"/>
+          <t>Black.Boy.</t>
+        </is>
+      </c>
+      <c r="E34" s="615" t="n"/>
       <c r="F34" s="136" t="n"/>
-      <c r="G34" s="588" t="n"/>
+      <c r="G34" s="615" t="n"/>
       <c r="H34" s="136" t="n"/>
-      <c r="I34" s="588" t="n"/>
+      <c r="I34" s="615" t="n"/>
       <c r="J34" s="136" t="n"/>
-      <c r="K34" s="588" t="n"/>
+      <c r="K34" s="615" t="n"/>
       <c r="L34" s="136" t="n"/>
-      <c r="M34" s="588" t="n"/>
+      <c r="M34" s="615" t="n"/>
       <c r="N34" s="136" t="n"/>
-      <c r="O34" s="588" t="n"/>
+      <c r="O34" s="615" t="n"/>
       <c r="P34" s="136" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="232" t="inlineStr">
         <is>
-          <t>#Q8YP9P8UJ</t>
+          <t>#QLL0PVCRV</t>
         </is>
       </c>
       <c r="B35" s="233" t="n">
-        <v>945</v>
+        <v>1704</v>
       </c>
       <c r="C35" s="234" t="n">
         <v>32</v>
       </c>
       <c r="D35" s="235" t="inlineStr">
         <is>
-          <t>Ranger</t>
+          <t>Harsh chhillar</t>
         </is>
       </c>
       <c r="E35" s="233" t="n"/>
       <c r="F35" s="235" t="n"/>
       <c r="G35" s="233" t="n"/>
       <c r="H35" s="235" t="n"/>
-      <c r="I35" s="236" t="n">
-        <v>5</v>
-      </c>
-      <c r="J35" s="342" t="n">
-        <v>4680</v>
-      </c>
+      <c r="I35" s="233" t="n"/>
+      <c r="J35" s="235" t="n"/>
       <c r="K35" s="233" t="n"/>
       <c r="L35" s="235" t="n"/>
       <c r="M35" s="233" t="n"/>
@@ -3175,340 +3212,374 @@
       <c r="P35" s="235" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="594" t="inlineStr">
+      <c r="A36" s="621" t="inlineStr">
+        <is>
+          <t>#Q8YP9P8UJ</t>
+        </is>
+      </c>
+      <c r="B36" s="615" t="n">
+        <v>945</v>
+      </c>
+      <c r="C36" s="608" t="n">
+        <v>33</v>
+      </c>
+      <c r="D36" s="136" t="inlineStr">
+        <is>
+          <t>Ranger</t>
+        </is>
+      </c>
+      <c r="E36" s="615" t="n"/>
+      <c r="F36" s="136" t="n"/>
+      <c r="G36" s="615" t="n"/>
+      <c r="H36" s="136" t="n"/>
+      <c r="I36" s="616" t="n">
+        <v>5</v>
+      </c>
+      <c r="J36" s="139" t="n">
+        <v>4680</v>
+      </c>
+      <c r="K36" s="615" t="n"/>
+      <c r="L36" s="136" t="n"/>
+      <c r="M36" s="615" t="n"/>
+      <c r="N36" s="136" t="n"/>
+      <c r="O36" s="615" t="n"/>
+      <c r="P36" s="136" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="620" t="inlineStr">
         <is>
           <t>#Q0JG2RJQ8</t>
         </is>
       </c>
-      <c r="B36" s="588" t="n">
+      <c r="B37" s="618" t="n">
         <v>997</v>
       </c>
-      <c r="C36" s="581" t="n">
-        <v>33</v>
-      </c>
-      <c r="D36" s="136" t="inlineStr">
+      <c r="C37" s="612" t="n">
+        <v>34</v>
+      </c>
+      <c r="D37" s="130" t="inlineStr">
         <is>
           <t>bozo</t>
         </is>
       </c>
-      <c r="E36" s="588" t="n"/>
-      <c r="F36" s="136" t="n"/>
-      <c r="G36" s="588" t="n"/>
-      <c r="H36" s="136" t="n"/>
-      <c r="I36" s="588" t="n"/>
-      <c r="J36" s="136" t="n"/>
-      <c r="K36" s="589" t="n">
-        <v>6</v>
-      </c>
-      <c r="L36" s="133" t="n">
+      <c r="E37" s="618" t="n"/>
+      <c r="F37" s="130" t="n"/>
+      <c r="G37" s="618" t="n"/>
+      <c r="H37" s="130" t="n"/>
+      <c r="I37" s="618" t="n"/>
+      <c r="J37" s="130" t="n"/>
+      <c r="K37" s="619" t="n">
+        <v>6</v>
+      </c>
+      <c r="L37" s="127" t="n">
         <v>6495</v>
       </c>
-      <c r="M36" s="588" t="n"/>
-      <c r="N36" s="136" t="n"/>
-      <c r="O36" s="588" t="n"/>
-      <c r="P36" s="136" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="593" t="inlineStr">
+      <c r="M37" s="618" t="n"/>
+      <c r="N37" s="130" t="n"/>
+      <c r="O37" s="618" t="n"/>
+      <c r="P37" s="130" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="621" t="inlineStr">
         <is>
           <t>#UVCCQC02</t>
         </is>
       </c>
-      <c r="B37" s="591" t="n">
+      <c r="B38" s="615" t="n">
         <v>1806</v>
       </c>
-      <c r="C37" s="585" t="n">
-        <v>34</v>
-      </c>
-      <c r="D37" s="130" t="inlineStr">
+      <c r="C38" s="608" t="n">
+        <v>35</v>
+      </c>
+      <c r="D38" s="136" t="inlineStr">
         <is>
           <t>lordshisha</t>
         </is>
       </c>
-      <c r="E37" s="591" t="n"/>
-      <c r="F37" s="130" t="n"/>
-      <c r="G37" s="591" t="n"/>
-      <c r="H37" s="130" t="n"/>
-      <c r="I37" s="591" t="n"/>
-      <c r="J37" s="130" t="n"/>
-      <c r="K37" s="592" t="n">
-        <v>6</v>
-      </c>
-      <c r="L37" s="127" t="n">
+      <c r="E38" s="615" t="n"/>
+      <c r="F38" s="136" t="n"/>
+      <c r="G38" s="615" t="n"/>
+      <c r="H38" s="136" t="n"/>
+      <c r="I38" s="615" t="n"/>
+      <c r="J38" s="136" t="n"/>
+      <c r="K38" s="616" t="n">
+        <v>6</v>
+      </c>
+      <c r="L38" s="133" t="n">
         <v>8496</v>
       </c>
-      <c r="M37" s="592" t="n">
-        <v>6</v>
-      </c>
-      <c r="N37" s="127" t="n">
+      <c r="M38" s="616" t="n">
+        <v>6</v>
+      </c>
+      <c r="N38" s="133" t="n">
         <v>6310</v>
       </c>
-      <c r="O37" s="592" t="n">
-        <v>6</v>
-      </c>
-      <c r="P37" s="127" t="n">
+      <c r="O38" s="616" t="n">
+        <v>6</v>
+      </c>
+      <c r="P38" s="133" t="n">
         <v>6930</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="594" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="620" t="inlineStr">
         <is>
           <t>#P2CPRPQU</t>
         </is>
       </c>
-      <c r="B38" s="588" t="n">
+      <c r="B39" s="618" t="n">
         <v>2232</v>
       </c>
-      <c r="C38" s="581" t="n">
-        <v>35</v>
-      </c>
-      <c r="D38" s="136" t="inlineStr">
+      <c r="C39" s="612" t="n">
+        <v>36</v>
+      </c>
+      <c r="D39" s="130" t="inlineStr">
         <is>
           <t>The Drift King</t>
         </is>
       </c>
-      <c r="E38" s="588" t="n"/>
-      <c r="F38" s="136" t="n"/>
-      <c r="G38" s="588" t="n"/>
-      <c r="H38" s="136" t="n"/>
-      <c r="I38" s="588" t="n"/>
-      <c r="J38" s="136" t="n"/>
-      <c r="K38" s="589" t="n">
-        <v>6</v>
-      </c>
-      <c r="L38" s="133" t="n">
+      <c r="E39" s="618" t="n"/>
+      <c r="F39" s="130" t="n"/>
+      <c r="G39" s="618" t="n"/>
+      <c r="H39" s="130" t="n"/>
+      <c r="I39" s="618" t="n"/>
+      <c r="J39" s="130" t="n"/>
+      <c r="K39" s="619" t="n">
+        <v>6</v>
+      </c>
+      <c r="L39" s="127" t="n">
         <v>8023</v>
       </c>
-      <c r="M38" s="589" t="n">
-        <v>6</v>
-      </c>
-      <c r="N38" s="133" t="n">
+      <c r="M39" s="619" t="n">
+        <v>6</v>
+      </c>
+      <c r="N39" s="127" t="n">
         <v>7625</v>
       </c>
-      <c r="O38" s="589" t="n">
-        <v>6</v>
-      </c>
-      <c r="P38" s="133" t="n">
+      <c r="O39" s="619" t="n">
+        <v>6</v>
+      </c>
+      <c r="P39" s="127" t="n">
         <v>7375</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="593" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="621" t="inlineStr">
         <is>
           <t>#QJVL0LYQQ</t>
         </is>
       </c>
-      <c r="B39" s="591" t="n">
+      <c r="B40" s="615" t="n">
         <v>921</v>
       </c>
-      <c r="C39" s="585" t="n">
-        <v>36</v>
-      </c>
-      <c r="D39" s="130" t="inlineStr">
+      <c r="C40" s="608" t="n">
+        <v>37</v>
+      </c>
+      <c r="D40" s="136" t="inlineStr">
         <is>
           <t>mobbb341</t>
         </is>
       </c>
-      <c r="E39" s="591" t="n"/>
-      <c r="F39" s="130" t="n"/>
-      <c r="G39" s="591" t="n"/>
-      <c r="H39" s="130" t="n"/>
-      <c r="I39" s="591" t="n"/>
-      <c r="J39" s="130" t="n"/>
-      <c r="K39" s="592" t="n">
-        <v>6</v>
-      </c>
-      <c r="L39" s="127" t="n">
+      <c r="E40" s="615" t="n"/>
+      <c r="F40" s="136" t="n"/>
+      <c r="G40" s="615" t="n"/>
+      <c r="H40" s="136" t="n"/>
+      <c r="I40" s="615" t="n"/>
+      <c r="J40" s="136" t="n"/>
+      <c r="K40" s="616" t="n">
+        <v>6</v>
+      </c>
+      <c r="L40" s="133" t="n">
         <v>7710</v>
       </c>
-      <c r="M39" s="592" t="n">
-        <v>6</v>
-      </c>
-      <c r="N39" s="127" t="n">
+      <c r="M40" s="616" t="n">
+        <v>6</v>
+      </c>
+      <c r="N40" s="133" t="n">
         <v>8810</v>
       </c>
-      <c r="O39" s="592" t="n">
-        <v>6</v>
-      </c>
-      <c r="P39" s="131" t="n">
+      <c r="O40" s="616" t="n">
+        <v>6</v>
+      </c>
+      <c r="P40" s="139" t="n">
         <v>4505</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="594" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="620" t="inlineStr">
         <is>
           <t>#L8R82C8VC</t>
         </is>
       </c>
-      <c r="B40" s="588" t="n">
+      <c r="B41" s="618" t="n">
         <v>1162</v>
       </c>
-      <c r="C40" s="581" t="n">
-        <v>37</v>
-      </c>
-      <c r="D40" s="136" t="inlineStr">
+      <c r="C41" s="612" t="n">
+        <v>38</v>
+      </c>
+      <c r="D41" s="130" t="inlineStr">
         <is>
           <t>caden asue</t>
         </is>
       </c>
-      <c r="E40" s="588" t="n"/>
-      <c r="F40" s="136" t="n"/>
-      <c r="G40" s="588" t="n"/>
-      <c r="H40" s="136" t="n"/>
-      <c r="I40" s="588" t="n"/>
-      <c r="J40" s="136" t="n"/>
-      <c r="K40" s="589" t="n">
-        <v>6</v>
-      </c>
-      <c r="L40" s="139" t="n">
+      <c r="E41" s="618" t="n"/>
+      <c r="F41" s="130" t="n"/>
+      <c r="G41" s="618" t="n"/>
+      <c r="H41" s="130" t="n"/>
+      <c r="I41" s="618" t="n"/>
+      <c r="J41" s="130" t="n"/>
+      <c r="K41" s="619" t="n">
+        <v>6</v>
+      </c>
+      <c r="L41" s="131" t="n">
         <v>5112</v>
       </c>
-      <c r="M40" s="589" t="n">
-        <v>6</v>
-      </c>
-      <c r="N40" s="139" t="n">
+      <c r="M41" s="619" t="n">
+        <v>6</v>
+      </c>
+      <c r="N41" s="131" t="n">
         <v>4283</v>
       </c>
-      <c r="O40" s="589" t="n">
-        <v>6</v>
-      </c>
-      <c r="P40" s="139" t="n">
+      <c r="O41" s="619" t="n">
+        <v>6</v>
+      </c>
+      <c r="P41" s="131" t="n">
         <v>4338</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="593" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="621" t="inlineStr">
         <is>
           <t>#L9Q8VLLQG</t>
         </is>
       </c>
-      <c r="B41" s="591" t="n">
+      <c r="B42" s="615" t="n">
         <v>1130</v>
       </c>
-      <c r="C41" s="585" t="n">
-        <v>38</v>
-      </c>
-      <c r="D41" s="130" t="inlineStr">
+      <c r="C42" s="608" t="n">
+        <v>39</v>
+      </c>
+      <c r="D42" s="136" t="inlineStr">
         <is>
           <t>cat</t>
         </is>
       </c>
-      <c r="E41" s="591" t="n"/>
-      <c r="F41" s="130" t="n"/>
-      <c r="G41" s="591" t="n"/>
-      <c r="H41" s="130" t="n"/>
-      <c r="I41" s="591" t="n"/>
-      <c r="J41" s="130" t="n"/>
-      <c r="K41" s="591" t="n"/>
-      <c r="L41" s="130" t="n"/>
-      <c r="M41" s="591" t="n"/>
-      <c r="N41" s="130" t="n"/>
-      <c r="O41" s="592" t="n">
-        <v>6</v>
-      </c>
-      <c r="P41" s="131" t="n">
+      <c r="E42" s="615" t="n"/>
+      <c r="F42" s="136" t="n"/>
+      <c r="G42" s="615" t="n"/>
+      <c r="H42" s="136" t="n"/>
+      <c r="I42" s="615" t="n"/>
+      <c r="J42" s="136" t="n"/>
+      <c r="K42" s="615" t="n"/>
+      <c r="L42" s="136" t="n"/>
+      <c r="M42" s="615" t="n"/>
+      <c r="N42" s="136" t="n"/>
+      <c r="O42" s="616" t="n">
+        <v>6</v>
+      </c>
+      <c r="P42" s="139" t="n">
         <v>5908</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="594" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="620" t="inlineStr">
         <is>
           <t>#QV0PQC9JU</t>
         </is>
       </c>
-      <c r="B42" s="588" t="n">
+      <c r="B43" s="618" t="n">
         <v>539</v>
       </c>
-      <c r="C42" s="581" t="n">
-        <v>39</v>
-      </c>
-      <c r="D42" s="136" t="inlineStr">
+      <c r="C43" s="612" t="n">
+        <v>40</v>
+      </c>
+      <c r="D43" s="130" t="inlineStr">
         <is>
           <t>Superman</t>
         </is>
       </c>
-      <c r="E42" s="588" t="n"/>
-      <c r="F42" s="136" t="n"/>
-      <c r="G42" s="588" t="n"/>
-      <c r="H42" s="136" t="n"/>
-      <c r="I42" s="588" t="n"/>
-      <c r="J42" s="136" t="n"/>
-      <c r="K42" s="588" t="n"/>
-      <c r="L42" s="136" t="n"/>
-      <c r="M42" s="588" t="n"/>
-      <c r="N42" s="136" t="n"/>
-      <c r="O42" s="589" t="n">
-        <v>6</v>
-      </c>
-      <c r="P42" s="139" t="n">
+      <c r="E43" s="618" t="n"/>
+      <c r="F43" s="130" t="n"/>
+      <c r="G43" s="618" t="n"/>
+      <c r="H43" s="130" t="n"/>
+      <c r="I43" s="618" t="n"/>
+      <c r="J43" s="130" t="n"/>
+      <c r="K43" s="618" t="n"/>
+      <c r="L43" s="130" t="n"/>
+      <c r="M43" s="618" t="n"/>
+      <c r="N43" s="130" t="n"/>
+      <c r="O43" s="619" t="n">
+        <v>6</v>
+      </c>
+      <c r="P43" s="131" t="n">
         <v>4447</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="593" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="621" t="inlineStr">
         <is>
           <t>#LU0CRP09L</t>
         </is>
       </c>
-      <c r="B43" s="591" t="n">
+      <c r="B44" s="615" t="n">
         <v>809</v>
       </c>
-      <c r="C43" s="585" t="n">
-        <v>40</v>
-      </c>
-      <c r="D43" s="130" t="inlineStr">
+      <c r="C44" s="608" t="n">
+        <v>41</v>
+      </c>
+      <c r="D44" s="136" t="inlineStr">
         <is>
           <t>I Dont Know</t>
         </is>
       </c>
-      <c r="E43" s="591" t="n"/>
-      <c r="F43" s="130" t="n"/>
-      <c r="G43" s="591" t="n"/>
-      <c r="H43" s="130" t="n"/>
-      <c r="I43" s="591" t="n"/>
-      <c r="J43" s="130" t="n"/>
-      <c r="K43" s="591" t="n"/>
-      <c r="L43" s="130" t="n"/>
-      <c r="M43" s="591" t="n"/>
-      <c r="N43" s="130" t="n"/>
-      <c r="O43" s="595" t="n">
+      <c r="E44" s="615" t="n"/>
+      <c r="F44" s="136" t="n"/>
+      <c r="G44" s="615" t="n"/>
+      <c r="H44" s="136" t="n"/>
+      <c r="I44" s="615" t="n"/>
+      <c r="J44" s="136" t="n"/>
+      <c r="K44" s="615" t="n"/>
+      <c r="L44" s="136" t="n"/>
+      <c r="M44" s="615" t="n"/>
+      <c r="N44" s="136" t="n"/>
+      <c r="O44" s="617" t="n">
         <v>3</v>
       </c>
-      <c r="P43" s="137" t="n">
+      <c r="P44" s="148" t="n">
         <v>3435</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="594" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="620" t="inlineStr">
         <is>
           <t>#YCPP0QPP8</t>
         </is>
       </c>
-      <c r="B44" s="588" t="n">
+      <c r="B45" s="618" t="n">
         <v>3327</v>
       </c>
-      <c r="C44" s="581" t="n">
-        <v>41</v>
-      </c>
-      <c r="D44" s="136" t="inlineStr">
+      <c r="C45" s="612" t="n">
+        <v>42</v>
+      </c>
+      <c r="D45" s="130" t="inlineStr">
         <is>
           <t>Coach</t>
         </is>
       </c>
-      <c r="E44" s="588" t="n"/>
-      <c r="F44" s="136" t="n"/>
-      <c r="G44" s="588" t="n"/>
-      <c r="H44" s="136" t="n"/>
-      <c r="I44" s="588" t="n"/>
-      <c r="J44" s="136" t="n"/>
-      <c r="K44" s="588" t="n"/>
-      <c r="L44" s="136" t="n"/>
-      <c r="M44" s="588" t="n"/>
-      <c r="N44" s="136" t="n"/>
-      <c r="O44" s="594" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" s="148" t="n">
+      <c r="E45" s="618" t="n"/>
+      <c r="F45" s="130" t="n"/>
+      <c r="G45" s="618" t="n"/>
+      <c r="H45" s="130" t="n"/>
+      <c r="I45" s="618" t="n"/>
+      <c r="J45" s="130" t="n"/>
+      <c r="K45" s="618" t="n"/>
+      <c r="L45" s="130" t="n"/>
+      <c r="M45" s="618" t="n"/>
+      <c r="N45" s="130" t="n"/>
+      <c r="O45" s="620" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" s="137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3523,7 +3594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:L39"/>
+  <dimension ref="B2:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3625,890 +3696,911 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="569" t="inlineStr">
+      <c r="B4" s="596" t="inlineStr">
         <is>
           <t>#QUYG0PQC8</t>
         </is>
       </c>
-      <c r="C4" s="569" t="n">
+      <c r="C4" s="596" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="570" t="inlineStr">
+      <c r="D4" s="597" t="inlineStr">
         <is>
           <t>Luffy</t>
         </is>
       </c>
-      <c r="E4" s="570" t="n">
+      <c r="E4" s="597" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="116" t="n">
         <v>6</v>
       </c>
-      <c r="G4" s="569" t="n"/>
+      <c r="G4" s="596" t="n"/>
       <c r="H4" s="119" t="n"/>
-      <c r="I4" s="569" t="n"/>
+      <c r="I4" s="596" t="n"/>
       <c r="J4" s="119" t="n"/>
-      <c r="K4" s="569" t="n"/>
+      <c r="K4" s="596" t="n"/>
       <c r="L4" s="119" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="571" t="inlineStr">
+      <c r="B5" s="598" t="inlineStr">
         <is>
           <t>#G0QPVJY9L</t>
         </is>
       </c>
-      <c r="C5" s="571" t="n">
+      <c r="C5" s="598" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="572" t="inlineStr">
+      <c r="D5" s="599" t="inlineStr">
         <is>
           <t>Zoro</t>
         </is>
       </c>
-      <c r="E5" s="572" t="n">
+      <c r="E5" s="599" t="n">
         <v>2</v>
       </c>
       <c r="F5" s="122" t="n">
         <v>6</v>
       </c>
-      <c r="G5" s="571" t="n"/>
+      <c r="G5" s="598" t="n"/>
       <c r="H5" s="125" t="n"/>
-      <c r="I5" s="571" t="n"/>
+      <c r="I5" s="598" t="n"/>
       <c r="J5" s="125" t="n"/>
-      <c r="K5" s="571" t="n"/>
+      <c r="K5" s="598" t="n"/>
       <c r="L5" s="125" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" s="569" t="inlineStr">
+      <c r="B6" s="596" t="inlineStr">
         <is>
           <t>#QLR088LC9</t>
         </is>
       </c>
-      <c r="C6" s="569" t="n">
+      <c r="C6" s="596" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="570" t="inlineStr">
+      <c r="D6" s="597" t="inlineStr">
         <is>
           <t>Sanji</t>
         </is>
       </c>
-      <c r="E6" s="570" t="n">
+      <c r="E6" s="597" t="n">
         <v>2</v>
       </c>
       <c r="F6" s="116" t="n">
         <v>6</v>
       </c>
-      <c r="G6" s="569" t="n"/>
+      <c r="G6" s="596" t="n"/>
       <c r="H6" s="119" t="n"/>
-      <c r="I6" s="569" t="n"/>
+      <c r="I6" s="596" t="n"/>
       <c r="J6" s="119" t="n"/>
-      <c r="K6" s="569" t="n"/>
+      <c r="K6" s="596" t="n"/>
       <c r="L6" s="119" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="571" t="inlineStr">
+      <c r="B7" s="598" t="inlineStr">
         <is>
           <t>#QCV22VP0G</t>
         </is>
       </c>
-      <c r="C7" s="571" t="n">
+      <c r="C7" s="598" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="572" t="inlineStr">
+      <c r="D7" s="599" t="inlineStr">
         <is>
           <t>Nami</t>
         </is>
       </c>
-      <c r="E7" s="572" t="n">
+      <c r="E7" s="599" t="n">
         <v>2</v>
       </c>
       <c r="F7" s="122" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="571" t="n"/>
+      <c r="G7" s="598" t="n"/>
       <c r="H7" s="125" t="n"/>
-      <c r="I7" s="571" t="n"/>
+      <c r="I7" s="598" t="n"/>
       <c r="J7" s="125" t="n"/>
-      <c r="K7" s="571" t="n"/>
+      <c r="K7" s="598" t="n"/>
       <c r="L7" s="125" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="569" t="inlineStr">
+      <c r="B8" s="596" t="inlineStr">
         <is>
           <t>#QUV2GP88U</t>
         </is>
       </c>
-      <c r="C8" s="569" t="n">
+      <c r="C8" s="596" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="570" t="inlineStr">
+      <c r="D8" s="597" t="inlineStr">
         <is>
           <t>Nico Robin</t>
         </is>
       </c>
-      <c r="E8" s="570" t="n">
+      <c r="E8" s="597" t="n">
         <v>2</v>
       </c>
       <c r="F8" s="116" t="n">
         <v>6</v>
       </c>
-      <c r="G8" s="569" t="n"/>
+      <c r="G8" s="596" t="n"/>
       <c r="H8" s="119" t="n"/>
-      <c r="I8" s="569" t="n"/>
+      <c r="I8" s="596" t="n"/>
       <c r="J8" s="119" t="n"/>
-      <c r="K8" s="569" t="n"/>
+      <c r="K8" s="596" t="n"/>
       <c r="L8" s="119" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" s="573" t="inlineStr">
+      <c r="B9" s="600" t="inlineStr">
         <is>
           <t>#98JG2UJQL</t>
         </is>
       </c>
-      <c r="C9" s="573" t="n"/>
-      <c r="D9" s="573" t="inlineStr">
+      <c r="C9" s="600" t="n"/>
+      <c r="D9" s="600" t="inlineStr">
         <is>
           <t>Dragonux</t>
         </is>
       </c>
-      <c r="E9" s="573" t="n"/>
+      <c r="E9" s="600" t="n"/>
       <c r="F9" s="130" t="n"/>
-      <c r="G9" s="573" t="n"/>
+      <c r="G9" s="600" t="n"/>
       <c r="H9" s="130" t="n"/>
-      <c r="I9" s="573" t="n"/>
+      <c r="I9" s="600" t="n"/>
       <c r="J9" s="130" t="n"/>
-      <c r="K9" s="573" t="n"/>
+      <c r="K9" s="600" t="n"/>
       <c r="L9" s="130" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="574" t="inlineStr">
+      <c r="B10" s="601" t="inlineStr">
         <is>
           <t>#82QLQCJRJ</t>
         </is>
       </c>
-      <c r="C10" s="574" t="n"/>
-      <c r="D10" s="574" t="inlineStr">
+      <c r="C10" s="601" t="n"/>
+      <c r="D10" s="601" t="inlineStr">
         <is>
           <t>Raging Fury</t>
         </is>
       </c>
-      <c r="E10" s="574" t="n"/>
+      <c r="E10" s="601" t="n"/>
       <c r="F10" s="136" t="n"/>
-      <c r="G10" s="574" t="n"/>
+      <c r="G10" s="601" t="n"/>
       <c r="H10" s="136" t="n"/>
-      <c r="I10" s="574" t="n"/>
+      <c r="I10" s="601" t="n"/>
       <c r="J10" s="136" t="n"/>
-      <c r="K10" s="574" t="n"/>
+      <c r="K10" s="601" t="n"/>
       <c r="L10" s="136" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="571" t="inlineStr">
+      <c r="B11" s="598" t="inlineStr">
         <is>
           <t>#90U0VPU9U</t>
         </is>
       </c>
-      <c r="C11" s="571" t="n"/>
-      <c r="D11" s="571" t="inlineStr">
+      <c r="C11" s="598" t="n"/>
+      <c r="D11" s="598" t="inlineStr">
         <is>
           <t>KYANI7E</t>
         </is>
       </c>
-      <c r="E11" s="571" t="n"/>
+      <c r="E11" s="598" t="n"/>
       <c r="F11" s="125" t="n"/>
-      <c r="G11" s="571" t="n"/>
+      <c r="G11" s="598" t="n"/>
       <c r="H11" s="125" t="n"/>
-      <c r="I11" s="571" t="n"/>
+      <c r="I11" s="598" t="n"/>
       <c r="J11" s="125" t="n"/>
-      <c r="K11" s="571" t="n"/>
+      <c r="K11" s="598" t="n"/>
       <c r="L11" s="125" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="574" t="inlineStr">
-        <is>
-          <t>#QLL0PVCRV</t>
-        </is>
-      </c>
-      <c r="C12" s="574" t="n"/>
-      <c r="D12" s="574" t="inlineStr">
-        <is>
-          <t>Harsh chhillar</t>
-        </is>
-      </c>
-      <c r="E12" s="574" t="n"/>
+      <c r="B12" s="601" t="inlineStr">
+        <is>
+          <t>#PJYVV989R</t>
+        </is>
+      </c>
+      <c r="C12" s="601" t="n"/>
+      <c r="D12" s="601" t="inlineStr">
+        <is>
+          <t>nx</t>
+        </is>
+      </c>
+      <c r="E12" s="601" t="n"/>
       <c r="F12" s="136" t="n"/>
-      <c r="G12" s="574" t="n"/>
-      <c r="H12" s="136" t="n"/>
-      <c r="I12" s="574" t="n"/>
-      <c r="J12" s="136" t="n"/>
-      <c r="K12" s="574" t="n"/>
+      <c r="G12" s="602" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="139" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" s="602" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="139" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" s="601" t="n"/>
       <c r="L12" s="136" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="573" t="inlineStr">
-        <is>
-          <t>#PJYVV989R</t>
-        </is>
-      </c>
-      <c r="C13" s="573" t="n"/>
-      <c r="D13" s="573" t="inlineStr">
-        <is>
-          <t>nx</t>
-        </is>
-      </c>
-      <c r="E13" s="573" t="n"/>
-      <c r="F13" s="130" t="n"/>
-      <c r="G13" s="575" t="n">
+      <c r="B13" s="598" t="inlineStr">
+        <is>
+          <t>#QLJ2U20Y2</t>
+        </is>
+      </c>
+      <c r="C13" s="598" t="n"/>
+      <c r="D13" s="598" t="inlineStr">
+        <is>
+          <t>DeadLeaf</t>
+        </is>
+      </c>
+      <c r="E13" s="598" t="n"/>
+      <c r="F13" s="125" t="n"/>
+      <c r="G13" s="599" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" s="122" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" s="599" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" s="122" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" s="599" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" s="122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="601" t="inlineStr">
+        <is>
+          <t>#L2QQL9QVJ</t>
+        </is>
+      </c>
+      <c r="C14" s="601" t="n"/>
+      <c r="D14" s="601" t="inlineStr">
+        <is>
+          <t>JustPre10d</t>
+        </is>
+      </c>
+      <c r="E14" s="601" t="n"/>
+      <c r="F14" s="136" t="n"/>
+      <c r="G14" s="601" t="n"/>
+      <c r="H14" s="136" t="n"/>
+      <c r="I14" s="603" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="602" t="n">
         <v>1</v>
       </c>
-      <c r="H13" s="131" t="n">
-        <v>3</v>
-      </c>
-      <c r="I13" s="575" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="131" t="n">
-        <v>3</v>
-      </c>
-      <c r="K13" s="573" t="n"/>
-      <c r="L13" s="130" t="n"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="569" t="inlineStr">
-        <is>
-          <t>#QLJ2U20Y2</t>
-        </is>
-      </c>
-      <c r="C14" s="569" t="n"/>
-      <c r="D14" s="569" t="inlineStr">
-        <is>
-          <t>DeadLeaf</t>
-        </is>
-      </c>
-      <c r="E14" s="569" t="n"/>
-      <c r="F14" s="119" t="n"/>
-      <c r="G14" s="570" t="n">
+      <c r="L14" s="148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="598" t="inlineStr">
+        <is>
+          <t>#YRGRRJQCY</t>
+        </is>
+      </c>
+      <c r="C15" s="598" t="n"/>
+      <c r="D15" s="598" t="inlineStr">
+        <is>
+          <t>DoubleSpice</t>
+        </is>
+      </c>
+      <c r="E15" s="598" t="n"/>
+      <c r="F15" s="125" t="n"/>
+      <c r="G15" s="599" t="n">
         <v>2</v>
       </c>
-      <c r="H14" s="116" t="n">
+      <c r="H15" s="122" t="n">
         <v>5</v>
       </c>
-      <c r="I14" s="570" t="n">
+      <c r="I15" s="599" t="n">
         <v>2</v>
       </c>
-      <c r="J14" s="116" t="n">
+      <c r="J15" s="122" t="n">
+        <v>6</v>
+      </c>
+      <c r="K15" s="598" t="n"/>
+      <c r="L15" s="125" t="n"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="596" t="inlineStr">
+        <is>
+          <t>#Q8CLCUCC2</t>
+        </is>
+      </c>
+      <c r="C16" s="596" t="n"/>
+      <c r="D16" s="596" t="inlineStr">
+        <is>
+          <t>Moxxi</t>
+        </is>
+      </c>
+      <c r="E16" s="596" t="n"/>
+      <c r="F16" s="119" t="n"/>
+      <c r="G16" s="597" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" s="116" t="n">
+        <v>6</v>
+      </c>
+      <c r="I16" s="597" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" s="116" t="n">
         <v>5</v>
       </c>
-      <c r="K14" s="570" t="n">
+      <c r="K16" s="597" t="n">
         <v>2</v>
       </c>
-      <c r="L14" s="116" t="n">
+      <c r="L16" s="116" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="573" t="inlineStr">
-        <is>
-          <t>#L2QQL9QVJ</t>
-        </is>
-      </c>
-      <c r="C15" s="573" t="n"/>
-      <c r="D15" s="573" t="inlineStr">
-        <is>
-          <t>JustPre10d</t>
-        </is>
-      </c>
-      <c r="E15" s="573" t="n"/>
-      <c r="F15" s="130" t="n"/>
-      <c r="G15" s="573" t="n"/>
-      <c r="H15" s="130" t="n"/>
-      <c r="I15" s="576" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="575" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" s="137" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="569" t="inlineStr">
+    <row r="17">
+      <c r="B17" s="598" t="inlineStr">
         <is>
           <t>#YJ20CRJYQ</t>
         </is>
       </c>
-      <c r="C16" s="569" t="n"/>
-      <c r="D16" s="569" t="inlineStr">
+      <c r="C17" s="598" t="n"/>
+      <c r="D17" s="598" t="inlineStr">
         <is>
           <t>UnluckGod</t>
         </is>
       </c>
-      <c r="E16" s="569" t="n"/>
-      <c r="F16" s="119" t="n"/>
-      <c r="G16" s="570" t="n">
+      <c r="E17" s="598" t="n"/>
+      <c r="F17" s="125" t="n"/>
+      <c r="G17" s="599" t="n">
         <v>2</v>
       </c>
-      <c r="H16" s="116" t="n">
-        <v>6</v>
-      </c>
-      <c r="I16" s="570" t="n">
+      <c r="H17" s="122" t="n">
+        <v>6</v>
+      </c>
+      <c r="I17" s="599" t="n">
         <v>2</v>
       </c>
-      <c r="J16" s="116" t="n">
+      <c r="J17" s="122" t="n">
         <v>4</v>
       </c>
-      <c r="K16" s="570" t="n">
+      <c r="K17" s="599" t="n">
         <v>2</v>
       </c>
-      <c r="L16" s="116" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="571" t="inlineStr">
-        <is>
-          <t>#YRGRRJQCY</t>
-        </is>
-      </c>
-      <c r="C17" s="571" t="n"/>
-      <c r="D17" s="571" t="inlineStr">
-        <is>
-          <t>DoubleSpice</t>
-        </is>
-      </c>
-      <c r="E17" s="571" t="n"/>
-      <c r="F17" s="125" t="n"/>
-      <c r="G17" s="572" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17" s="122" t="n">
-        <v>5</v>
-      </c>
-      <c r="I17" s="572" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" s="122" t="n">
-        <v>6</v>
-      </c>
-      <c r="K17" s="571" t="n"/>
-      <c r="L17" s="125" t="n"/>
+      <c r="L17" s="122" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="18">
-      <c r="B18" s="569" t="inlineStr">
-        <is>
-          <t>#Q8CLCUCC2</t>
-        </is>
-      </c>
-      <c r="C18" s="569" t="n"/>
-      <c r="D18" s="569" t="inlineStr">
-        <is>
-          <t>Moxxi</t>
-        </is>
-      </c>
-      <c r="E18" s="569" t="n"/>
-      <c r="F18" s="119" t="n"/>
-      <c r="G18" s="570" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18" s="116" t="n">
-        <v>6</v>
-      </c>
-      <c r="I18" s="570" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" s="116" t="n">
-        <v>5</v>
-      </c>
-      <c r="K18" s="570" t="n">
-        <v>2</v>
-      </c>
-      <c r="L18" s="116" t="n">
-        <v>5</v>
-      </c>
+      <c r="B18" s="601" t="inlineStr">
+        <is>
+          <t>#G0JPUQGYR</t>
+        </is>
+      </c>
+      <c r="C18" s="601" t="n"/>
+      <c r="D18" s="601" t="inlineStr">
+        <is>
+          <t>Collin</t>
+        </is>
+      </c>
+      <c r="E18" s="601" t="n"/>
+      <c r="F18" s="136" t="n"/>
+      <c r="G18" s="601" t="n"/>
+      <c r="H18" s="136" t="n"/>
+      <c r="I18" s="601" t="n"/>
+      <c r="J18" s="136" t="n"/>
+      <c r="K18" s="601" t="n"/>
+      <c r="L18" s="136" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="573" t="inlineStr">
-        <is>
-          <t>#G0JPUQGYR</t>
-        </is>
-      </c>
-      <c r="C19" s="573" t="n"/>
-      <c r="D19" s="573" t="inlineStr">
-        <is>
-          <t>Collin</t>
-        </is>
-      </c>
-      <c r="E19" s="573" t="n"/>
+      <c r="B19" s="600" t="inlineStr">
+        <is>
+          <t>#QQLVRJCGQ</t>
+        </is>
+      </c>
+      <c r="C19" s="600" t="n"/>
+      <c r="D19" s="600" t="inlineStr">
+        <is>
+          <t>khant</t>
+        </is>
+      </c>
+      <c r="E19" s="600" t="n"/>
       <c r="F19" s="130" t="n"/>
-      <c r="G19" s="573" t="n"/>
+      <c r="G19" s="600" t="n"/>
       <c r="H19" s="130" t="n"/>
-      <c r="I19" s="573" t="n"/>
+      <c r="I19" s="600" t="n"/>
       <c r="J19" s="130" t="n"/>
-      <c r="K19" s="573" t="n"/>
+      <c r="K19" s="600" t="n"/>
       <c r="L19" s="130" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="574" t="inlineStr">
-        <is>
-          <t>#QQLVRJCGQ</t>
-        </is>
-      </c>
-      <c r="C20" s="574" t="n"/>
-      <c r="D20" s="574" t="inlineStr">
-        <is>
-          <t>khant</t>
-        </is>
-      </c>
-      <c r="E20" s="574" t="n"/>
+      <c r="B20" s="601" t="inlineStr">
+        <is>
+          <t>#QLG0VJG2J</t>
+        </is>
+      </c>
+      <c r="C20" s="601" t="n"/>
+      <c r="D20" s="601" t="inlineStr">
+        <is>
+          <t>PocketRocket</t>
+        </is>
+      </c>
+      <c r="E20" s="601" t="n"/>
       <c r="F20" s="136" t="n"/>
-      <c r="G20" s="574" t="n"/>
+      <c r="G20" s="601" t="n"/>
       <c r="H20" s="136" t="n"/>
-      <c r="I20" s="574" t="n"/>
+      <c r="I20" s="601" t="n"/>
       <c r="J20" s="136" t="n"/>
-      <c r="K20" s="574" t="n"/>
+      <c r="K20" s="601" t="n"/>
       <c r="L20" s="136" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="573" t="inlineStr">
+      <c r="B21" s="600" t="inlineStr">
         <is>
           <t>#QRPRYR8LL</t>
         </is>
       </c>
-      <c r="C21" s="573" t="n"/>
-      <c r="D21" s="573" t="inlineStr">
+      <c r="C21" s="600" t="n"/>
+      <c r="D21" s="600" t="inlineStr">
         <is>
           <t>FidelCashflow</t>
         </is>
       </c>
-      <c r="E21" s="573" t="n"/>
+      <c r="E21" s="600" t="n"/>
       <c r="F21" s="130" t="n"/>
-      <c r="G21" s="573" t="n"/>
+      <c r="G21" s="600" t="n"/>
       <c r="H21" s="130" t="n"/>
-      <c r="I21" s="573" t="n"/>
+      <c r="I21" s="600" t="n"/>
       <c r="J21" s="130" t="n"/>
-      <c r="K21" s="573" t="n"/>
+      <c r="K21" s="600" t="n"/>
       <c r="L21" s="130" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="574" t="inlineStr">
-        <is>
-          <t>#QLG0VJG2J</t>
-        </is>
-      </c>
-      <c r="C22" s="574" t="n"/>
-      <c r="D22" s="574" t="inlineStr">
-        <is>
-          <t>PocketRocket</t>
-        </is>
-      </c>
-      <c r="E22" s="574" t="n"/>
+      <c r="B22" s="601" t="inlineStr">
+        <is>
+          <t>#LC9GUPJJG</t>
+        </is>
+      </c>
+      <c r="C22" s="601" t="n"/>
+      <c r="D22" s="601" t="inlineStr">
+        <is>
+          <t>raptor2222a</t>
+        </is>
+      </c>
+      <c r="E22" s="601" t="n"/>
       <c r="F22" s="136" t="n"/>
-      <c r="G22" s="574" t="n"/>
+      <c r="G22" s="601" t="n"/>
       <c r="H22" s="136" t="n"/>
-      <c r="I22" s="574" t="n"/>
+      <c r="I22" s="601" t="n"/>
       <c r="J22" s="136" t="n"/>
-      <c r="K22" s="574" t="n"/>
+      <c r="K22" s="601" t="n"/>
       <c r="L22" s="136" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="573" t="inlineStr">
+      <c r="B23" s="600" t="inlineStr">
         <is>
           <t>#LPR9RPCY9</t>
         </is>
       </c>
-      <c r="C23" s="573" t="n"/>
-      <c r="D23" s="573" t="inlineStr">
+      <c r="C23" s="600" t="n"/>
+      <c r="D23" s="600" t="inlineStr">
         <is>
           <t>sayhuss17</t>
         </is>
       </c>
-      <c r="E23" s="573" t="n"/>
+      <c r="E23" s="600" t="n"/>
       <c r="F23" s="130" t="n"/>
-      <c r="G23" s="576" t="n">
+      <c r="G23" s="604" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="576" t="n">
+      <c r="I23" s="604" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K23" s="573" t="n"/>
+      <c r="K23" s="600" t="n"/>
       <c r="L23" s="130" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="574" t="inlineStr">
+      <c r="B24" s="601" t="inlineStr">
         <is>
           <t>#QJC8LQU9U</t>
         </is>
       </c>
-      <c r="C24" s="574" t="n"/>
-      <c r="D24" s="574" t="inlineStr">
+      <c r="C24" s="601" t="n"/>
+      <c r="D24" s="601" t="inlineStr">
         <is>
           <t>Master01</t>
         </is>
       </c>
-      <c r="E24" s="574" t="n"/>
+      <c r="E24" s="601" t="n"/>
       <c r="F24" s="136" t="n"/>
-      <c r="G24" s="577" t="n">
+      <c r="G24" s="605" t="n">
         <v>2</v>
       </c>
       <c r="H24" s="133" t="n">
         <v>4</v>
       </c>
-      <c r="I24" s="574" t="n"/>
+      <c r="I24" s="601" t="n"/>
       <c r="J24" s="136" t="n"/>
-      <c r="K24" s="574" t="n"/>
+      <c r="K24" s="601" t="n"/>
       <c r="L24" s="136" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="573" t="inlineStr">
+      <c r="B25" s="600" t="inlineStr">
         <is>
           <t>#L9QL9YQQY</t>
         </is>
       </c>
-      <c r="C25" s="573" t="n"/>
-      <c r="D25" s="573" t="inlineStr">
+      <c r="C25" s="600" t="n"/>
+      <c r="D25" s="600" t="inlineStr">
         <is>
           <t>Ima Chad</t>
         </is>
       </c>
-      <c r="E25" s="573" t="n"/>
+      <c r="E25" s="600" t="n"/>
       <c r="F25" s="130" t="n"/>
-      <c r="G25" s="573" t="n"/>
+      <c r="G25" s="600" t="n"/>
       <c r="H25" s="130" t="n"/>
-      <c r="I25" s="573" t="n"/>
+      <c r="I25" s="600" t="n"/>
       <c r="J25" s="130" t="n"/>
-      <c r="K25" s="573" t="n"/>
+      <c r="K25" s="600" t="n"/>
       <c r="L25" s="130" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="574" t="inlineStr">
-        <is>
-          <t>#LC9GUPJJG</t>
-        </is>
-      </c>
-      <c r="C26" s="574" t="n"/>
-      <c r="D26" s="574" t="inlineStr">
-        <is>
-          <t>raptor2222a</t>
-        </is>
-      </c>
-      <c r="E26" s="574" t="n"/>
-      <c r="F26" s="136" t="n"/>
-      <c r="G26" s="574" t="n"/>
-      <c r="H26" s="136" t="n"/>
-      <c r="I26" s="574" t="n"/>
-      <c r="J26" s="136" t="n"/>
-      <c r="K26" s="574" t="n"/>
-      <c r="L26" s="136" t="n"/>
+      <c r="B26" s="596" t="inlineStr">
+        <is>
+          <t>#QUG8QQJ92</t>
+        </is>
+      </c>
+      <c r="C26" s="596" t="n"/>
+      <c r="D26" s="596" t="inlineStr">
+        <is>
+          <t>Karma</t>
+        </is>
+      </c>
+      <c r="E26" s="596" t="n"/>
+      <c r="F26" s="119" t="n"/>
+      <c r="G26" s="596" t="n"/>
+      <c r="H26" s="119" t="n"/>
+      <c r="I26" s="596" t="n"/>
+      <c r="J26" s="119" t="n"/>
+      <c r="K26" s="596" t="n"/>
+      <c r="L26" s="119" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="571" t="inlineStr">
-        <is>
-          <t>#QUG8QQJ92</t>
-        </is>
-      </c>
-      <c r="C27" s="571" t="n"/>
-      <c r="D27" s="571" t="inlineStr">
-        <is>
-          <t>Karma</t>
-        </is>
-      </c>
-      <c r="E27" s="571" t="n"/>
-      <c r="F27" s="125" t="n"/>
-      <c r="G27" s="571" t="n"/>
-      <c r="H27" s="125" t="n"/>
-      <c r="I27" s="571" t="n"/>
-      <c r="J27" s="125" t="n"/>
-      <c r="K27" s="571" t="n"/>
-      <c r="L27" s="125" t="n"/>
+      <c r="B27" s="600" t="inlineStr">
+        <is>
+          <t>#QY8L2GLUR</t>
+        </is>
+      </c>
+      <c r="C27" s="600" t="n"/>
+      <c r="D27" s="600" t="inlineStr">
+        <is>
+          <t>Huy</t>
+        </is>
+      </c>
+      <c r="E27" s="600" t="n"/>
+      <c r="F27" s="130" t="n"/>
+      <c r="G27" s="604" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="600" t="n"/>
+      <c r="J27" s="130" t="n"/>
+      <c r="K27" s="600" t="n"/>
+      <c r="L27" s="130" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="574" t="inlineStr">
+      <c r="B28" s="601" t="inlineStr">
         <is>
           <t>#QQL8C29CY</t>
         </is>
       </c>
-      <c r="C28" s="574" t="n"/>
-      <c r="D28" s="574" t="inlineStr">
+      <c r="C28" s="601" t="n"/>
+      <c r="D28" s="601" t="inlineStr">
         <is>
           <t>TypicalTeague#2</t>
         </is>
       </c>
-      <c r="E28" s="574" t="n"/>
+      <c r="E28" s="601" t="n"/>
       <c r="F28" s="136" t="n"/>
-      <c r="G28" s="574" t="n"/>
+      <c r="G28" s="601" t="n"/>
       <c r="H28" s="136" t="n"/>
-      <c r="I28" s="574" t="n"/>
+      <c r="I28" s="601" t="n"/>
       <c r="J28" s="136" t="n"/>
-      <c r="K28" s="574" t="n"/>
+      <c r="K28" s="601" t="n"/>
       <c r="L28" s="136" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="573" t="inlineStr">
+      <c r="B29" s="600" t="inlineStr">
         <is>
           <t>#QU0U2Q99G</t>
         </is>
       </c>
-      <c r="C29" s="573" t="n"/>
-      <c r="D29" s="573" t="inlineStr">
+      <c r="C29" s="600" t="n"/>
+      <c r="D29" s="600" t="inlineStr">
         <is>
           <t>big coc</t>
         </is>
       </c>
-      <c r="E29" s="573" t="n"/>
+      <c r="E29" s="600" t="n"/>
       <c r="F29" s="130" t="n"/>
-      <c r="G29" s="573" t="n"/>
+      <c r="G29" s="600" t="n"/>
       <c r="H29" s="130" t="n"/>
-      <c r="I29" s="573" t="n"/>
+      <c r="I29" s="600" t="n"/>
       <c r="J29" s="130" t="n"/>
-      <c r="K29" s="573" t="n"/>
+      <c r="K29" s="600" t="n"/>
       <c r="L29" s="130" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="574" t="inlineStr">
-        <is>
-          <t>#QY8L2GLUR</t>
-        </is>
-      </c>
-      <c r="C30" s="574" t="n"/>
-      <c r="D30" s="574" t="inlineStr">
-        <is>
-          <t>Huy</t>
-        </is>
-      </c>
-      <c r="E30" s="574" t="n"/>
+      <c r="B30" s="601" t="inlineStr">
+        <is>
+          <t>#QLGYRVPU0</t>
+        </is>
+      </c>
+      <c r="C30" s="601" t="n"/>
+      <c r="D30" s="601" t="inlineStr">
+        <is>
+          <t>Black.Boy.</t>
+        </is>
+      </c>
+      <c r="E30" s="601" t="n"/>
       <c r="F30" s="136" t="n"/>
-      <c r="G30" s="578" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="574" t="n"/>
+      <c r="G30" s="601" t="n"/>
+      <c r="H30" s="136" t="n"/>
+      <c r="I30" s="601" t="n"/>
       <c r="J30" s="136" t="n"/>
-      <c r="K30" s="574" t="n"/>
+      <c r="K30" s="601" t="n"/>
       <c r="L30" s="136" t="n"/>
     </row>
     <row r="31">
-      <c r="B31" s="573" t="inlineStr">
+      <c r="B31" s="600" t="inlineStr">
         <is>
           <t>#QL8LVLYG8</t>
         </is>
       </c>
-      <c r="C31" s="573" t="n"/>
-      <c r="D31" s="573" t="inlineStr">
+      <c r="C31" s="600" t="n"/>
+      <c r="D31" s="600" t="inlineStr">
         <is>
           <t>Some guy</t>
         </is>
       </c>
-      <c r="E31" s="573" t="n"/>
+      <c r="E31" s="600" t="n"/>
       <c r="F31" s="130" t="n"/>
-      <c r="G31" s="573" t="n"/>
+      <c r="G31" s="600" t="n"/>
       <c r="H31" s="130" t="n"/>
-      <c r="I31" s="573" t="n"/>
+      <c r="I31" s="600" t="n"/>
       <c r="J31" s="130" t="n"/>
-      <c r="K31" s="573" t="n"/>
+      <c r="K31" s="600" t="n"/>
       <c r="L31" s="130" t="n"/>
     </row>
     <row r="32">
-      <c r="B32" s="574" t="inlineStr">
+      <c r="B32" s="601" t="inlineStr">
         <is>
           <t>#L9JJQY992</t>
         </is>
       </c>
-      <c r="C32" s="574" t="n"/>
-      <c r="D32" s="574" t="inlineStr">
+      <c r="C32" s="601" t="n"/>
+      <c r="D32" s="601" t="inlineStr">
         <is>
           <t>Fisted_Waffle</t>
         </is>
       </c>
-      <c r="E32" s="574" t="n"/>
+      <c r="E32" s="601" t="n"/>
       <c r="F32" s="136" t="n"/>
-      <c r="G32" s="574" t="n"/>
+      <c r="G32" s="601" t="n"/>
       <c r="H32" s="136" t="n"/>
-      <c r="I32" s="574" t="n"/>
+      <c r="I32" s="601" t="n"/>
       <c r="J32" s="136" t="n"/>
-      <c r="K32" s="574" t="n"/>
+      <c r="K32" s="601" t="n"/>
       <c r="L32" s="136" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" s="573" t="inlineStr">
+      <c r="B33" s="600" t="inlineStr">
         <is>
           <t>#QV8JJ0URU</t>
         </is>
       </c>
-      <c r="C33" s="573" t="n"/>
-      <c r="D33" s="573" t="inlineStr">
+      <c r="C33" s="600" t="n"/>
+      <c r="D33" s="600" t="inlineStr">
         <is>
           <t>✨Jacob</t>
         </is>
       </c>
-      <c r="E33" s="573" t="n"/>
+      <c r="E33" s="600" t="n"/>
       <c r="F33" s="130" t="n"/>
-      <c r="G33" s="573" t="n"/>
+      <c r="G33" s="600" t="n"/>
       <c r="H33" s="130" t="n"/>
-      <c r="I33" s="576" t="n">
+      <c r="I33" s="604" t="n">
         <v>0</v>
       </c>
       <c r="J33" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K33" s="573" t="n"/>
+      <c r="K33" s="600" t="n"/>
       <c r="L33" s="130" t="n"/>
     </row>
     <row r="34">
-      <c r="B34" s="574" t="inlineStr">
+      <c r="B34" s="601" t="inlineStr">
         <is>
           <t>#QY0VGPQGQ</t>
         </is>
       </c>
-      <c r="C34" s="574" t="n"/>
-      <c r="D34" s="574" t="inlineStr">
+      <c r="C34" s="601" t="n"/>
+      <c r="D34" s="601" t="inlineStr">
         <is>
           <t>killerjones</t>
         </is>
       </c>
-      <c r="E34" s="574" t="n"/>
+      <c r="E34" s="601" t="n"/>
       <c r="F34" s="136" t="n"/>
-      <c r="G34" s="574" t="n"/>
+      <c r="G34" s="601" t="n"/>
       <c r="H34" s="136" t="n"/>
-      <c r="I34" s="574" t="n"/>
+      <c r="I34" s="601" t="n"/>
       <c r="J34" s="136" t="n"/>
-      <c r="K34" s="574" t="n"/>
+      <c r="K34" s="601" t="n"/>
       <c r="L34" s="136" t="n"/>
     </row>
     <row r="35">
-      <c r="B35" s="576" t="inlineStr">
+      <c r="B35" s="604" t="inlineStr">
+        <is>
+          <t>#QLL0PVCRV</t>
+        </is>
+      </c>
+      <c r="C35" s="600" t="n"/>
+      <c r="D35" s="600" t="inlineStr">
+        <is>
+          <t>Harsh chhillar</t>
+        </is>
+      </c>
+      <c r="E35" s="600" t="n"/>
+      <c r="F35" s="130" t="n"/>
+      <c r="G35" s="600" t="n"/>
+      <c r="H35" s="130" t="n"/>
+      <c r="I35" s="600" t="n"/>
+      <c r="J35" s="130" t="n"/>
+      <c r="K35" s="600" t="n"/>
+      <c r="L35" s="130" t="n"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="603" t="inlineStr">
         <is>
           <t>#P2CPRPQU</t>
         </is>
       </c>
-      <c r="C35" s="573" t="n"/>
-      <c r="D35" s="573" t="inlineStr">
+      <c r="C36" s="601" t="n"/>
+      <c r="D36" s="601" t="inlineStr">
         <is>
           <t>The Drift King</t>
         </is>
       </c>
-      <c r="E35" s="573" t="n"/>
-      <c r="F35" s="130" t="n"/>
-      <c r="G35" s="579" t="n">
+      <c r="E36" s="601" t="n"/>
+      <c r="F36" s="136" t="n"/>
+      <c r="G36" s="605" t="n">
         <v>2</v>
       </c>
-      <c r="H35" s="127" t="n">
-        <v>6</v>
-      </c>
-      <c r="I35" s="579" t="n">
+      <c r="H36" s="133" t="n">
+        <v>6</v>
+      </c>
+      <c r="I36" s="605" t="n">
         <v>2</v>
       </c>
-      <c r="J35" s="127" t="n">
-        <v>6</v>
-      </c>
-      <c r="K35" s="573" t="n"/>
-      <c r="L35" s="130" t="n"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="578" t="inlineStr">
+      <c r="J36" s="133" t="n">
+        <v>6</v>
+      </c>
+      <c r="K36" s="601" t="n"/>
+      <c r="L36" s="136" t="n"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="604" t="inlineStr">
         <is>
           <t>#UVCCQC02</t>
         </is>
       </c>
-      <c r="C36" s="574" t="n"/>
-      <c r="D36" s="574" t="inlineStr">
+      <c r="C37" s="600" t="n"/>
+      <c r="D37" s="600" t="inlineStr">
         <is>
           <t>lordshisha</t>
         </is>
       </c>
-      <c r="E36" s="574" t="n"/>
-      <c r="F36" s="136" t="n"/>
-      <c r="G36" s="577" t="n">
+      <c r="E37" s="600" t="n"/>
+      <c r="F37" s="130" t="n"/>
+      <c r="G37" s="606" t="n">
         <v>2</v>
       </c>
-      <c r="H36" s="133" t="n">
-        <v>6</v>
-      </c>
-      <c r="I36" s="577" t="n">
+      <c r="H37" s="127" t="n">
+        <v>6</v>
+      </c>
+      <c r="I37" s="606" t="n">
         <v>2</v>
       </c>
-      <c r="J36" s="139" t="n">
+      <c r="J37" s="131" t="n">
         <v>3</v>
       </c>
-      <c r="K36" s="577" t="n">
+      <c r="K37" s="606" t="n">
         <v>2</v>
       </c>
-      <c r="L36" s="148" t="n">
+      <c r="L37" s="137" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="37">
-      <c r="B37" s="576" t="inlineStr">
+    <row r="38">
+      <c r="B38" s="603" t="inlineStr">
         <is>
           <t>#Q0JG2RJQ8</t>
         </is>
       </c>
-      <c r="C37" s="573" t="n"/>
-      <c r="D37" s="573" t="inlineStr">
+      <c r="C38" s="601" t="n"/>
+      <c r="D38" s="601" t="inlineStr">
         <is>
           <t>bozo</t>
         </is>
       </c>
-      <c r="E37" s="573" t="n"/>
-      <c r="F37" s="130" t="n"/>
-      <c r="G37" s="573" t="n"/>
-      <c r="H37" s="130" t="n"/>
-      <c r="I37" s="573" t="n"/>
-      <c r="J37" s="130" t="n"/>
-      <c r="K37" s="573" t="n"/>
-      <c r="L37" s="130" t="n"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="578" t="inlineStr">
+      <c r="E38" s="601" t="n"/>
+      <c r="F38" s="136" t="n"/>
+      <c r="G38" s="601" t="n"/>
+      <c r="H38" s="136" t="n"/>
+      <c r="I38" s="601" t="n"/>
+      <c r="J38" s="136" t="n"/>
+      <c r="K38" s="601" t="n"/>
+      <c r="L38" s="136" t="n"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="604" t="inlineStr">
         <is>
           <t>#QJVL0LYQQ</t>
         </is>
       </c>
-      <c r="C38" s="574" t="n"/>
-      <c r="D38" s="574" t="inlineStr">
+      <c r="C39" s="600" t="n"/>
+      <c r="D39" s="600" t="inlineStr">
         <is>
           <t>mobbb341</t>
         </is>
       </c>
-      <c r="E38" s="574" t="n"/>
-      <c r="F38" s="136" t="n"/>
-      <c r="G38" s="574" t="n"/>
-      <c r="H38" s="136" t="n"/>
-      <c r="I38" s="574" t="n"/>
-      <c r="J38" s="136" t="n"/>
-      <c r="K38" s="574" t="n"/>
-      <c r="L38" s="136" t="n"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="576" t="inlineStr">
+      <c r="E39" s="600" t="n"/>
+      <c r="F39" s="130" t="n"/>
+      <c r="G39" s="600" t="n"/>
+      <c r="H39" s="130" t="n"/>
+      <c r="I39" s="600" t="n"/>
+      <c r="J39" s="130" t="n"/>
+      <c r="K39" s="600" t="n"/>
+      <c r="L39" s="130" t="n"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="603" t="inlineStr">
         <is>
           <t>#L8R82C8VC</t>
         </is>
       </c>
-      <c r="C39" s="573" t="n"/>
-      <c r="D39" s="573" t="inlineStr">
+      <c r="C40" s="601" t="n"/>
+      <c r="D40" s="601" t="inlineStr">
         <is>
           <t>caden asue</t>
         </is>
       </c>
-      <c r="E39" s="573" t="n"/>
-      <c r="F39" s="130" t="n"/>
-      <c r="G39" s="573" t="n"/>
-      <c r="H39" s="130" t="n"/>
-      <c r="I39" s="573" t="n"/>
-      <c r="J39" s="130" t="n"/>
-      <c r="K39" s="573" t="n"/>
-      <c r="L39" s="130" t="n"/>
+      <c r="E40" s="601" t="n"/>
+      <c r="F40" s="136" t="n"/>
+      <c r="G40" s="601" t="n"/>
+      <c r="H40" s="136" t="n"/>
+      <c r="I40" s="601" t="n"/>
+      <c r="J40" s="136" t="n"/>
+      <c r="K40" s="601" t="n"/>
+      <c r="L40" s="136" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Clash.xlsx
+++ b/Clash.xlsx
@@ -179,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -298,11 +298,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="623">
+  <cellXfs count="649">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1060,6 +1062,36 @@
     <xf numFmtId="164" fontId="5" fillId="25" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="24" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="23" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="18" borderId="47" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="47" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="21" borderId="47" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="22" borderId="47" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="21" borderId="47" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="47" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="47" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="24" borderId="47" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="25" borderId="47" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="47" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="22" borderId="47" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="18" borderId="48" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="48" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="24" borderId="48" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="21" borderId="48" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="22" borderId="48" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="25" borderId="48" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="48" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="48" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="48" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="21" borderId="48" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="22" borderId="48" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="25" borderId="48" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="24" borderId="48" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1503,7 +1535,7 @@
         <v>189745</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="I2" t="n">
         <v>2.89</v>
@@ -1608,15 +1640,15 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="607" t="inlineStr">
+      <c r="A4" s="634" t="inlineStr">
         <is>
           <t>#QLJ2U20Y2</t>
         </is>
       </c>
-      <c r="B4" s="607" t="n">
+      <c r="B4" s="634" t="n">
         <v>1480</v>
       </c>
-      <c r="C4" s="608" t="n">
+      <c r="C4" s="635" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="116" t="inlineStr">
@@ -1624,37 +1656,37 @@
           <t>DeadLeaf</t>
         </is>
       </c>
-      <c r="E4" s="609" t="n">
+      <c r="E4" s="636" t="n">
         <v>6</v>
       </c>
       <c r="F4" s="116" t="n">
         <v>13763</v>
       </c>
-      <c r="G4" s="610" t="n">
+      <c r="G4" s="637" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="119" t="n">
         <v>30</v>
       </c>
-      <c r="I4" s="609" t="n">
+      <c r="I4" s="636" t="n">
         <v>6</v>
       </c>
       <c r="J4" s="116" t="n">
         <v>11140</v>
       </c>
-      <c r="K4" s="609" t="n">
+      <c r="K4" s="636" t="n">
         <v>6</v>
       </c>
       <c r="L4" s="116" t="n">
         <v>15509</v>
       </c>
-      <c r="M4" s="609" t="n">
+      <c r="M4" s="636" t="n">
         <v>6</v>
       </c>
       <c r="N4" s="116" t="n">
         <v>8567</v>
       </c>
-      <c r="O4" s="609" t="n">
+      <c r="O4" s="636" t="n">
         <v>6</v>
       </c>
       <c r="P4" s="116" t="n">
@@ -1662,15 +1694,15 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="611" t="inlineStr">
+      <c r="A5" s="638" t="inlineStr">
         <is>
           <t>#G0QPVJY9L</t>
         </is>
       </c>
-      <c r="B5" s="611" t="n">
+      <c r="B5" s="638" t="n">
         <v>837</v>
       </c>
-      <c r="C5" s="612" t="n">
+      <c r="C5" s="639" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="122" t="inlineStr">
@@ -1678,37 +1710,37 @@
           <t>Zoro</t>
         </is>
       </c>
-      <c r="E5" s="613" t="n">
+      <c r="E5" s="640" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="122" t="n">
         <v>13432</v>
       </c>
-      <c r="G5" s="614" t="n">
+      <c r="G5" s="641" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="613" t="n">
+      <c r="I5" s="640" t="n">
         <v>6</v>
       </c>
       <c r="J5" s="122" t="n">
         <v>8855</v>
       </c>
-      <c r="K5" s="613" t="n">
+      <c r="K5" s="640" t="n">
         <v>6</v>
       </c>
       <c r="L5" s="122" t="n">
         <v>10965</v>
       </c>
-      <c r="M5" s="613" t="n">
+      <c r="M5" s="640" t="n">
         <v>6</v>
       </c>
       <c r="N5" s="122" t="n">
         <v>7905</v>
       </c>
-      <c r="O5" s="613" t="n">
+      <c r="O5" s="640" t="n">
         <v>6</v>
       </c>
       <c r="P5" s="122" t="n">
@@ -1716,15 +1748,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="607" t="inlineStr">
+      <c r="A6" s="634" t="inlineStr">
         <is>
           <t>#90U0VPU9U</t>
         </is>
       </c>
-      <c r="B6" s="607" t="n">
+      <c r="B6" s="634" t="n">
         <v>2513</v>
       </c>
-      <c r="C6" s="608" t="n">
+      <c r="C6" s="635" t="n">
         <v>3</v>
       </c>
       <c r="D6" s="116" t="inlineStr">
@@ -1732,37 +1764,37 @@
           <t>KYANI7E</t>
         </is>
       </c>
-      <c r="E6" s="609" t="n">
+      <c r="E6" s="636" t="n">
         <v>6</v>
       </c>
       <c r="F6" s="116" t="n">
         <v>13260</v>
       </c>
-      <c r="G6" s="610" t="n">
-        <v>61</v>
+      <c r="G6" s="637" t="n">
+        <v>92</v>
       </c>
       <c r="H6" s="119" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="609" t="n">
+      <c r="I6" s="636" t="n">
         <v>6</v>
       </c>
       <c r="J6" s="116" t="n">
         <v>12144</v>
       </c>
-      <c r="K6" s="609" t="n">
+      <c r="K6" s="636" t="n">
         <v>6</v>
       </c>
       <c r="L6" s="116" t="n">
         <v>12835</v>
       </c>
-      <c r="M6" s="609" t="n">
+      <c r="M6" s="636" t="n">
         <v>6</v>
       </c>
       <c r="N6" s="116" t="n">
         <v>7696</v>
       </c>
-      <c r="O6" s="609" t="n">
+      <c r="O6" s="636" t="n">
         <v>6</v>
       </c>
       <c r="P6" s="116" t="n">
@@ -1770,15 +1802,15 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="611" t="inlineStr">
+      <c r="A7" s="638" t="inlineStr">
         <is>
           <t>#YJ20CRJYQ</t>
         </is>
       </c>
-      <c r="B7" s="611" t="n">
+      <c r="B7" s="638" t="n">
         <v>1323</v>
       </c>
-      <c r="C7" s="612" t="n">
+      <c r="C7" s="639" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="122" t="inlineStr">
@@ -1786,37 +1818,37 @@
           <t>UnluckGod</t>
         </is>
       </c>
-      <c r="E7" s="613" t="n">
+      <c r="E7" s="640" t="n">
         <v>6</v>
       </c>
       <c r="F7" s="122" t="n">
         <v>12824</v>
       </c>
-      <c r="G7" s="614" t="n">
+      <c r="G7" s="641" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="125" t="n">
         <v>61</v>
       </c>
-      <c r="I7" s="613" t="n">
+      <c r="I7" s="640" t="n">
         <v>6</v>
       </c>
       <c r="J7" s="122" t="n">
         <v>11999</v>
       </c>
-      <c r="K7" s="613" t="n">
+      <c r="K7" s="640" t="n">
         <v>6</v>
       </c>
       <c r="L7" s="122" t="n">
         <v>12972</v>
       </c>
-      <c r="M7" s="613" t="n">
+      <c r="M7" s="640" t="n">
         <v>6</v>
       </c>
       <c r="N7" s="122" t="n">
         <v>8286</v>
       </c>
-      <c r="O7" s="613" t="n">
+      <c r="O7" s="640" t="n">
         <v>6</v>
       </c>
       <c r="P7" s="122" t="n">
@@ -1824,15 +1856,15 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="607" t="inlineStr">
+      <c r="A8" s="634" t="inlineStr">
         <is>
           <t>#QUV2GP88U</t>
         </is>
       </c>
-      <c r="B8" s="607" t="n">
+      <c r="B8" s="634" t="n">
         <v>729</v>
       </c>
-      <c r="C8" s="608" t="n">
+      <c r="C8" s="635" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="116" t="inlineStr">
@@ -1840,37 +1872,37 @@
           <t>Nico Robin</t>
         </is>
       </c>
-      <c r="E8" s="609" t="n">
+      <c r="E8" s="636" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="116" t="n">
         <v>12612</v>
       </c>
-      <c r="G8" s="610" t="n">
+      <c r="G8" s="637" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="609" t="n">
+      <c r="I8" s="636" t="n">
         <v>6</v>
       </c>
       <c r="J8" s="116" t="n">
         <v>11338</v>
       </c>
-      <c r="K8" s="609" t="n">
+      <c r="K8" s="636" t="n">
         <v>6</v>
       </c>
       <c r="L8" s="116" t="n">
         <v>10997</v>
       </c>
-      <c r="M8" s="609" t="n">
+      <c r="M8" s="636" t="n">
         <v>6</v>
       </c>
       <c r="N8" s="116" t="n">
         <v>11087</v>
       </c>
-      <c r="O8" s="609" t="n">
+      <c r="O8" s="636" t="n">
         <v>6</v>
       </c>
       <c r="P8" s="116" t="n">
@@ -1878,15 +1910,15 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="611" t="inlineStr">
+      <c r="A9" s="638" t="inlineStr">
         <is>
           <t>#QCV22VP0G</t>
         </is>
       </c>
-      <c r="B9" s="611" t="n">
+      <c r="B9" s="638" t="n">
         <v>775</v>
       </c>
-      <c r="C9" s="612" t="n">
+      <c r="C9" s="639" t="n">
         <v>6</v>
       </c>
       <c r="D9" s="122" t="inlineStr">
@@ -1894,37 +1926,37 @@
           <t>Nami</t>
         </is>
       </c>
-      <c r="E9" s="613" t="n">
+      <c r="E9" s="640" t="n">
         <v>6</v>
       </c>
       <c r="F9" s="122" t="n">
         <v>11795</v>
       </c>
-      <c r="G9" s="614" t="n">
+      <c r="G9" s="641" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="613" t="n">
+      <c r="I9" s="640" t="n">
         <v>6</v>
       </c>
       <c r="J9" s="122" t="n">
         <v>10769</v>
       </c>
-      <c r="K9" s="613" t="n">
+      <c r="K9" s="640" t="n">
         <v>6</v>
       </c>
       <c r="L9" s="122" t="n">
         <v>12486</v>
       </c>
-      <c r="M9" s="613" t="n">
+      <c r="M9" s="640" t="n">
         <v>6</v>
       </c>
       <c r="N9" s="122" t="n">
         <v>8472</v>
       </c>
-      <c r="O9" s="613" t="n">
+      <c r="O9" s="640" t="n">
         <v>6</v>
       </c>
       <c r="P9" s="122" t="n">
@@ -1932,15 +1964,15 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="607" t="inlineStr">
+      <c r="A10" s="634" t="inlineStr">
         <is>
           <t>#YRGRRJQCY</t>
         </is>
       </c>
-      <c r="B10" s="607" t="n">
+      <c r="B10" s="634" t="n">
         <v>1360</v>
       </c>
-      <c r="C10" s="608" t="n">
+      <c r="C10" s="635" t="n">
         <v>7</v>
       </c>
       <c r="D10" s="116" t="inlineStr">
@@ -1948,37 +1980,37 @@
           <t>DoubleSpice</t>
         </is>
       </c>
-      <c r="E10" s="609" t="n">
+      <c r="E10" s="636" t="n">
         <v>6</v>
       </c>
       <c r="F10" s="116" t="n">
         <v>11620</v>
       </c>
-      <c r="G10" s="610" t="n">
+      <c r="G10" s="637" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="119" t="n">
         <v>60</v>
       </c>
-      <c r="I10" s="609" t="n">
+      <c r="I10" s="636" t="n">
         <v>6</v>
       </c>
       <c r="J10" s="116" t="n">
         <v>14095</v>
       </c>
-      <c r="K10" s="609" t="n">
+      <c r="K10" s="636" t="n">
         <v>6</v>
       </c>
       <c r="L10" s="116" t="n">
         <v>12379</v>
       </c>
-      <c r="M10" s="609" t="n">
+      <c r="M10" s="636" t="n">
         <v>6</v>
       </c>
       <c r="N10" s="116" t="n">
         <v>8256</v>
       </c>
-      <c r="O10" s="609" t="n">
+      <c r="O10" s="636" t="n">
         <v>6</v>
       </c>
       <c r="P10" s="116" t="n">
@@ -1986,15 +2018,15 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="611" t="inlineStr">
+      <c r="A11" s="638" t="inlineStr">
         <is>
           <t>#QUG8QQJ92</t>
         </is>
       </c>
-      <c r="B11" s="611" t="n">
+      <c r="B11" s="638" t="n">
         <v>920</v>
       </c>
-      <c r="C11" s="612" t="n">
+      <c r="C11" s="639" t="n">
         <v>8</v>
       </c>
       <c r="D11" s="122" t="inlineStr">
@@ -2002,37 +2034,37 @@
           <t>Karma</t>
         </is>
       </c>
-      <c r="E11" s="613" t="n">
+      <c r="E11" s="640" t="n">
         <v>6</v>
       </c>
       <c r="F11" s="122" t="n">
         <v>11355</v>
       </c>
-      <c r="G11" s="614" t="n">
+      <c r="G11" s="641" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="613" t="n">
+      <c r="I11" s="640" t="n">
         <v>6</v>
       </c>
       <c r="J11" s="122" t="n">
         <v>10003</v>
       </c>
-      <c r="K11" s="613" t="n">
+      <c r="K11" s="640" t="n">
         <v>6</v>
       </c>
       <c r="L11" s="122" t="n">
         <v>10595</v>
       </c>
-      <c r="M11" s="613" t="n">
+      <c r="M11" s="640" t="n">
         <v>6</v>
       </c>
       <c r="N11" s="122" t="n">
         <v>9240</v>
       </c>
-      <c r="O11" s="613" t="n">
+      <c r="O11" s="640" t="n">
         <v>6</v>
       </c>
       <c r="P11" s="122" t="n">
@@ -2040,15 +2072,15 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="615" t="inlineStr">
+      <c r="A12" s="642" t="inlineStr">
         <is>
           <t>#98JG2UJQL</t>
         </is>
       </c>
-      <c r="B12" s="615" t="n">
+      <c r="B12" s="642" t="n">
         <v>2941</v>
       </c>
-      <c r="C12" s="608" t="n">
+      <c r="C12" s="635" t="n">
         <v>9</v>
       </c>
       <c r="D12" s="133" t="inlineStr">
@@ -2056,37 +2088,37 @@
           <t>Dragonux</t>
         </is>
       </c>
-      <c r="E12" s="616" t="n">
+      <c r="E12" s="643" t="n">
         <v>6</v>
       </c>
       <c r="F12" s="133" t="n">
         <v>10910</v>
       </c>
-      <c r="G12" s="617" t="n">
+      <c r="G12" s="644" t="n">
         <v>211</v>
       </c>
       <c r="H12" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="616" t="n">
+      <c r="I12" s="643" t="n">
         <v>6</v>
       </c>
       <c r="J12" s="133" t="n">
         <v>8750</v>
       </c>
-      <c r="K12" s="616" t="n">
+      <c r="K12" s="643" t="n">
         <v>6</v>
       </c>
       <c r="L12" s="133" t="n">
         <v>10865</v>
       </c>
-      <c r="M12" s="616" t="n">
+      <c r="M12" s="643" t="n">
         <v>6</v>
       </c>
       <c r="N12" s="133" t="n">
         <v>8025</v>
       </c>
-      <c r="O12" s="616" t="n">
+      <c r="O12" s="643" t="n">
         <v>6</v>
       </c>
       <c r="P12" s="133" t="n">
@@ -2094,15 +2126,15 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="611" t="inlineStr">
+      <c r="A13" s="638" t="inlineStr">
         <is>
           <t>#QLR088LC9</t>
         </is>
       </c>
-      <c r="B13" s="611" t="n">
+      <c r="B13" s="638" t="n">
         <v>851</v>
       </c>
-      <c r="C13" s="612" t="n">
+      <c r="C13" s="639" t="n">
         <v>10</v>
       </c>
       <c r="D13" s="122" t="inlineStr">
@@ -2110,37 +2142,37 @@
           <t>Sanji</t>
         </is>
       </c>
-      <c r="E13" s="613" t="n">
+      <c r="E13" s="640" t="n">
         <v>6</v>
       </c>
       <c r="F13" s="122" t="n">
         <v>10910</v>
       </c>
-      <c r="G13" s="614" t="n">
+      <c r="G13" s="641" t="n">
         <v>0</v>
       </c>
       <c r="H13" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="613" t="n">
+      <c r="I13" s="640" t="n">
         <v>6</v>
       </c>
       <c r="J13" s="122" t="n">
         <v>9550</v>
       </c>
-      <c r="K13" s="613" t="n">
+      <c r="K13" s="640" t="n">
         <v>6</v>
       </c>
       <c r="L13" s="122" t="n">
         <v>9138</v>
       </c>
-      <c r="M13" s="613" t="n">
+      <c r="M13" s="640" t="n">
         <v>6</v>
       </c>
       <c r="N13" s="122" t="n">
         <v>8897</v>
       </c>
-      <c r="O13" s="613" t="n">
+      <c r="O13" s="640" t="n">
         <v>6</v>
       </c>
       <c r="P13" s="122" t="n">
@@ -2148,15 +2180,15 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="607" t="inlineStr">
+      <c r="A14" s="634" t="inlineStr">
         <is>
           <t>#QUYG0PQC8</t>
         </is>
       </c>
-      <c r="B14" s="607" t="n">
+      <c r="B14" s="634" t="n">
         <v>923</v>
       </c>
-      <c r="C14" s="608" t="n">
+      <c r="C14" s="635" t="n">
         <v>11</v>
       </c>
       <c r="D14" s="116" t="inlineStr">
@@ -2164,37 +2196,37 @@
           <t>Luffy</t>
         </is>
       </c>
-      <c r="E14" s="609" t="n">
+      <c r="E14" s="636" t="n">
         <v>6</v>
       </c>
       <c r="F14" s="116" t="n">
         <v>10879</v>
       </c>
-      <c r="G14" s="610" t="n">
+      <c r="G14" s="637" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="609" t="n">
+      <c r="I14" s="636" t="n">
         <v>6</v>
       </c>
       <c r="J14" s="116" t="n">
         <v>9114</v>
       </c>
-      <c r="K14" s="609" t="n">
+      <c r="K14" s="636" t="n">
         <v>6</v>
       </c>
       <c r="L14" s="116" t="n">
         <v>13385</v>
       </c>
-      <c r="M14" s="609" t="n">
+      <c r="M14" s="636" t="n">
         <v>6</v>
       </c>
       <c r="N14" s="116" t="n">
         <v>7877</v>
       </c>
-      <c r="O14" s="609" t="n">
+      <c r="O14" s="636" t="n">
         <v>6</v>
       </c>
       <c r="P14" s="116" t="n">
@@ -2202,15 +2234,15 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="618" t="inlineStr">
+      <c r="A15" s="645" t="inlineStr">
         <is>
           <t>#G0JPUQGYR</t>
         </is>
       </c>
-      <c r="B15" s="618" t="n">
+      <c r="B15" s="645" t="n">
         <v>1305</v>
       </c>
-      <c r="C15" s="612" t="n">
+      <c r="C15" s="639" t="n">
         <v>12</v>
       </c>
       <c r="D15" s="127" t="inlineStr">
@@ -2218,37 +2250,37 @@
           <t>Collin</t>
         </is>
       </c>
-      <c r="E15" s="619" t="n">
+      <c r="E15" s="646" t="n">
         <v>6</v>
       </c>
       <c r="F15" s="127" t="n">
         <v>8833</v>
       </c>
-      <c r="G15" s="620" t="n">
+      <c r="G15" s="647" t="n">
         <v>20</v>
       </c>
       <c r="H15" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="619" t="n">
+      <c r="I15" s="646" t="n">
         <v>6</v>
       </c>
       <c r="J15" s="127" t="n">
         <v>9238</v>
       </c>
-      <c r="K15" s="619" t="n">
+      <c r="K15" s="646" t="n">
         <v>6</v>
       </c>
       <c r="L15" s="127" t="n">
         <v>7756</v>
       </c>
-      <c r="M15" s="619" t="n">
+      <c r="M15" s="646" t="n">
         <v>6</v>
       </c>
       <c r="N15" s="131" t="n">
         <v>5943</v>
       </c>
-      <c r="O15" s="619" t="n">
+      <c r="O15" s="646" t="n">
         <v>6</v>
       </c>
       <c r="P15" s="127" t="n">
@@ -2256,15 +2288,15 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="615" t="inlineStr">
+      <c r="A16" s="642" t="inlineStr">
         <is>
           <t>#82QLQCJRJ</t>
         </is>
       </c>
-      <c r="B16" s="615" t="n">
+      <c r="B16" s="642" t="n">
         <v>2913</v>
       </c>
-      <c r="C16" s="608" t="n">
+      <c r="C16" s="635" t="n">
         <v>13</v>
       </c>
       <c r="D16" s="133" t="inlineStr">
@@ -2272,37 +2304,37 @@
           <t>Raging Fury</t>
         </is>
       </c>
-      <c r="E16" s="616" t="n">
+      <c r="E16" s="643" t="n">
         <v>6</v>
       </c>
       <c r="F16" s="133" t="n">
         <v>8055</v>
       </c>
-      <c r="G16" s="621" t="n">
+      <c r="G16" s="648" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="616" t="n">
+      <c r="I16" s="643" t="n">
         <v>6</v>
       </c>
       <c r="J16" s="133" t="n">
         <v>7115</v>
       </c>
-      <c r="K16" s="621" t="n">
+      <c r="K16" s="648" t="n">
         <v>2</v>
       </c>
       <c r="L16" s="148" t="n">
         <v>2320</v>
       </c>
-      <c r="M16" s="616" t="n">
+      <c r="M16" s="643" t="n">
         <v>6</v>
       </c>
       <c r="N16" s="139" t="n">
         <v>4920</v>
       </c>
-      <c r="O16" s="616" t="n">
+      <c r="O16" s="643" t="n">
         <v>6</v>
       </c>
       <c r="P16" s="139" t="n">
@@ -2310,15 +2342,15 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="611" t="inlineStr">
+      <c r="A17" s="638" t="inlineStr">
         <is>
           <t>#Q8CLCUCC2</t>
         </is>
       </c>
-      <c r="B17" s="611" t="n">
+      <c r="B17" s="638" t="n">
         <v>1327</v>
       </c>
-      <c r="C17" s="612" t="n">
+      <c r="C17" s="639" t="n">
         <v>14</v>
       </c>
       <c r="D17" s="122" t="inlineStr">
@@ -2326,37 +2358,37 @@
           <t>Moxxi</t>
         </is>
       </c>
-      <c r="E17" s="613" t="n">
+      <c r="E17" s="640" t="n">
         <v>6</v>
       </c>
       <c r="F17" s="122" t="n">
         <v>8015</v>
       </c>
-      <c r="G17" s="614" t="n">
+      <c r="G17" s="641" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="125" t="n">
         <v>60</v>
       </c>
-      <c r="I17" s="613" t="n">
+      <c r="I17" s="640" t="n">
         <v>6</v>
       </c>
       <c r="J17" s="122" t="n">
         <v>11010</v>
       </c>
-      <c r="K17" s="613" t="n">
+      <c r="K17" s="640" t="n">
         <v>6</v>
       </c>
       <c r="L17" s="122" t="n">
         <v>13857</v>
       </c>
-      <c r="M17" s="613" t="n">
+      <c r="M17" s="640" t="n">
         <v>6</v>
       </c>
       <c r="N17" s="122" t="n">
         <v>7905</v>
       </c>
-      <c r="O17" s="613" t="n">
+      <c r="O17" s="640" t="n">
         <v>6</v>
       </c>
       <c r="P17" s="122" t="n">
@@ -2364,15 +2396,15 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="615" t="inlineStr">
+      <c r="A18" s="642" t="inlineStr">
         <is>
           <t>#QU0U2Q99G</t>
         </is>
       </c>
-      <c r="B18" s="615" t="n">
+      <c r="B18" s="642" t="n">
         <v>896</v>
       </c>
-      <c r="C18" s="608" t="n">
+      <c r="C18" s="635" t="n">
         <v>15</v>
       </c>
       <c r="D18" s="133" t="inlineStr">
@@ -2380,45 +2412,45 @@
           <t>big coc</t>
         </is>
       </c>
-      <c r="E18" s="616" t="n">
+      <c r="E18" s="643" t="n">
         <v>6</v>
       </c>
       <c r="F18" s="133" t="n">
         <v>7420</v>
       </c>
-      <c r="G18" s="621" t="n">
+      <c r="G18" s="648" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="136" t="n">
         <v>40</v>
       </c>
-      <c r="I18" s="616" t="n">
+      <c r="I18" s="643" t="n">
         <v>5</v>
       </c>
       <c r="J18" s="139" t="n">
         <v>5150</v>
       </c>
-      <c r="K18" s="616" t="n">
+      <c r="K18" s="643" t="n">
         <v>6</v>
       </c>
       <c r="L18" s="133" t="n">
         <v>9075</v>
       </c>
-      <c r="M18" s="615" t="n"/>
+      <c r="M18" s="642" t="n"/>
       <c r="N18" s="136" t="n"/>
-      <c r="O18" s="615" t="n"/>
+      <c r="O18" s="642" t="n"/>
       <c r="P18" s="136" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="618" t="inlineStr">
+      <c r="A19" s="645" t="inlineStr">
         <is>
           <t>#QRPRYR8LL</t>
         </is>
       </c>
-      <c r="B19" s="618" t="n">
+      <c r="B19" s="645" t="n">
         <v>1118</v>
       </c>
-      <c r="C19" s="612" t="n">
+      <c r="C19" s="639" t="n">
         <v>16</v>
       </c>
       <c r="D19" s="127" t="inlineStr">
@@ -2426,37 +2458,37 @@
           <t>FidelCashflow</t>
         </is>
       </c>
-      <c r="E19" s="619" t="n">
+      <c r="E19" s="646" t="n">
         <v>6</v>
       </c>
       <c r="F19" s="127" t="n">
         <v>6415</v>
       </c>
-      <c r="G19" s="620" t="n">
+      <c r="G19" s="647" t="n">
         <v>4</v>
       </c>
       <c r="H19" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="619" t="n">
+      <c r="I19" s="646" t="n">
         <v>6</v>
       </c>
       <c r="J19" s="127" t="n">
         <v>6547</v>
       </c>
-      <c r="K19" s="619" t="n">
+      <c r="K19" s="646" t="n">
         <v>6</v>
       </c>
       <c r="L19" s="127" t="n">
         <v>6811</v>
       </c>
-      <c r="M19" s="619" t="n">
+      <c r="M19" s="646" t="n">
         <v>6</v>
       </c>
       <c r="N19" s="131" t="n">
         <v>4239</v>
       </c>
-      <c r="O19" s="619" t="n">
+      <c r="O19" s="646" t="n">
         <v>6</v>
       </c>
       <c r="P19" s="131" t="n">
@@ -2464,15 +2496,15 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="615" t="inlineStr">
+      <c r="A20" s="642" t="inlineStr">
         <is>
           <t>#QY0VGPQGQ</t>
         </is>
       </c>
-      <c r="B20" s="615" t="n">
+      <c r="B20" s="642" t="n">
         <v>563</v>
       </c>
-      <c r="C20" s="608" t="n">
+      <c r="C20" s="635" t="n">
         <v>17</v>
       </c>
       <c r="D20" s="133" t="inlineStr">
@@ -2480,37 +2512,37 @@
           <t>killerjones</t>
         </is>
       </c>
-      <c r="E20" s="616" t="n">
+      <c r="E20" s="643" t="n">
         <v>6</v>
       </c>
       <c r="F20" s="133" t="n">
         <v>6320</v>
       </c>
-      <c r="G20" s="621" t="n">
+      <c r="G20" s="648" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="136" t="n">
         <v>15</v>
       </c>
-      <c r="I20" s="615" t="n"/>
+      <c r="I20" s="642" t="n"/>
       <c r="J20" s="136" t="n"/>
-      <c r="K20" s="615" t="n"/>
+      <c r="K20" s="642" t="n"/>
       <c r="L20" s="136" t="n"/>
-      <c r="M20" s="615" t="n"/>
+      <c r="M20" s="642" t="n"/>
       <c r="N20" s="136" t="n"/>
-      <c r="O20" s="615" t="n"/>
+      <c r="O20" s="642" t="n"/>
       <c r="P20" s="136" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="618" t="inlineStr">
+      <c r="A21" s="645" t="inlineStr">
         <is>
           <t>#LC9GUPJJG</t>
         </is>
       </c>
-      <c r="B21" s="618" t="n">
+      <c r="B21" s="645" t="n">
         <v>992</v>
       </c>
-      <c r="C21" s="612" t="n">
+      <c r="C21" s="639" t="n">
         <v>18</v>
       </c>
       <c r="D21" s="127" t="inlineStr">
@@ -2518,41 +2550,41 @@
           <t>raptor2222a</t>
         </is>
       </c>
-      <c r="E21" s="619" t="n">
+      <c r="E21" s="646" t="n">
         <v>5</v>
       </c>
       <c r="F21" s="131" t="n">
         <v>4350</v>
       </c>
-      <c r="G21" s="620" t="n">
+      <c r="G21" s="647" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="620" t="n">
+      <c r="I21" s="647" t="n">
         <v>0</v>
       </c>
       <c r="J21" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K21" s="618" t="n"/>
+      <c r="K21" s="645" t="n"/>
       <c r="L21" s="130" t="n"/>
-      <c r="M21" s="618" t="n"/>
+      <c r="M21" s="645" t="n"/>
       <c r="N21" s="130" t="n"/>
-      <c r="O21" s="618" t="n"/>
+      <c r="O21" s="645" t="n"/>
       <c r="P21" s="130" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="615" t="inlineStr">
+      <c r="A22" s="642" t="inlineStr">
         <is>
           <t>#QLG0VJG2J</t>
         </is>
       </c>
-      <c r="B22" s="615" t="n">
+      <c r="B22" s="642" t="n">
         <v>1142</v>
       </c>
-      <c r="C22" s="608" t="n">
+      <c r="C22" s="635" t="n">
         <v>19</v>
       </c>
       <c r="D22" s="139" t="inlineStr">
@@ -2560,41 +2592,41 @@
           <t>PocketRocket</t>
         </is>
       </c>
-      <c r="E22" s="617" t="n">
+      <c r="E22" s="644" t="n">
         <v>4</v>
       </c>
       <c r="F22" s="139" t="n">
         <v>4327</v>
       </c>
-      <c r="G22" s="621" t="n">
+      <c r="G22" s="648" t="n">
         <v>20</v>
       </c>
       <c r="H22" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="617" t="n">
+      <c r="I22" s="644" t="n">
         <v>4</v>
       </c>
       <c r="J22" s="139" t="n">
         <v>5215</v>
       </c>
-      <c r="K22" s="615" t="n"/>
+      <c r="K22" s="642" t="n"/>
       <c r="L22" s="136" t="n"/>
-      <c r="M22" s="615" t="n"/>
+      <c r="M22" s="642" t="n"/>
       <c r="N22" s="136" t="n"/>
-      <c r="O22" s="615" t="n"/>
+      <c r="O22" s="642" t="n"/>
       <c r="P22" s="136" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="618" t="inlineStr">
+      <c r="A23" s="645" t="inlineStr">
         <is>
           <t>#QL8LVLYG8</t>
         </is>
       </c>
-      <c r="B23" s="618" t="n">
+      <c r="B23" s="645" t="n">
         <v>863</v>
       </c>
-      <c r="C23" s="612" t="n">
+      <c r="C23" s="639" t="n">
         <v>20</v>
       </c>
       <c r="D23" s="137" t="inlineStr">
@@ -2602,37 +2634,37 @@
           <t>Some guy</t>
         </is>
       </c>
-      <c r="E23" s="620" t="n">
+      <c r="E23" s="647" t="n">
         <v>2</v>
       </c>
       <c r="F23" s="137" t="n">
         <v>2650</v>
       </c>
-      <c r="G23" s="620" t="n">
+      <c r="G23" s="647" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="130" t="n">
         <v>20</v>
       </c>
-      <c r="I23" s="620" t="n">
+      <c r="I23" s="647" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K23" s="619" t="n">
+      <c r="K23" s="646" t="n">
         <v>6</v>
       </c>
       <c r="L23" s="127" t="n">
         <v>6917</v>
       </c>
-      <c r="M23" s="620" t="n">
+      <c r="M23" s="647" t="n">
         <v>0</v>
       </c>
       <c r="N23" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="O23" s="620" t="n">
+      <c r="O23" s="647" t="n">
         <v>2</v>
       </c>
       <c r="P23" s="137" t="n">
@@ -2694,15 +2726,15 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="618" t="inlineStr">
+      <c r="A25" s="645" t="inlineStr">
         <is>
           <t>#QV8JJ0URU</t>
         </is>
       </c>
-      <c r="B25" s="618" t="n">
+      <c r="B25" s="645" t="n">
         <v>741</v>
       </c>
-      <c r="C25" s="612" t="n">
+      <c r="C25" s="639" t="n">
         <v>22</v>
       </c>
       <c r="D25" s="137" t="inlineStr">
@@ -2710,37 +2742,37 @@
           <t>✨Jacob</t>
         </is>
       </c>
-      <c r="E25" s="620" t="n">
+      <c r="E25" s="647" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="G25" s="620" t="n">
+      <c r="G25" s="647" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="620" t="n">
+      <c r="I25" s="647" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K25" s="620" t="n">
+      <c r="K25" s="647" t="n">
         <v>0</v>
       </c>
       <c r="L25" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="M25" s="619" t="n">
+      <c r="M25" s="646" t="n">
         <v>6</v>
       </c>
       <c r="N25" s="127" t="n">
         <v>7385</v>
       </c>
-      <c r="O25" s="619" t="n">
+      <c r="O25" s="646" t="n">
         <v>6</v>
       </c>
       <c r="P25" s="127" t="n">
@@ -2748,438 +2780,446 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="615" t="inlineStr">
+      <c r="A26" s="642" t="inlineStr">
+        <is>
+          <t>#QLGYRVPU0</t>
+        </is>
+      </c>
+      <c r="B26" s="642" t="n">
+        <v>886</v>
+      </c>
+      <c r="C26" s="635" t="n">
+        <v>23</v>
+      </c>
+      <c r="D26" s="148" t="inlineStr">
+        <is>
+          <t>Black.Boy.</t>
+        </is>
+      </c>
+      <c r="E26" s="648" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="648" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="136" t="n">
+        <v>11</v>
+      </c>
+      <c r="I26" s="642" t="n"/>
+      <c r="J26" s="136" t="n"/>
+      <c r="K26" s="642" t="n"/>
+      <c r="L26" s="136" t="n"/>
+      <c r="M26" s="642" t="n"/>
+      <c r="N26" s="136" t="n"/>
+      <c r="O26" s="642" t="n"/>
+      <c r="P26" s="136" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="645" t="inlineStr">
         <is>
           <t>#QY8L2GLUR</t>
         </is>
       </c>
-      <c r="B26" s="615" t="n">
+      <c r="B27" s="645" t="n">
         <v>907</v>
       </c>
-      <c r="C26" s="608" t="n">
-        <v>23</v>
-      </c>
-      <c r="D26" s="148" t="inlineStr">
+      <c r="C27" s="639" t="n">
+        <v>24</v>
+      </c>
+      <c r="D27" s="137" t="inlineStr">
         <is>
           <t>Huy</t>
         </is>
       </c>
-      <c r="E26" s="621" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="621" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="621" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="621" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="616" t="n">
-        <v>6</v>
-      </c>
-      <c r="N26" s="133" t="n">
+      <c r="E27" s="647" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="647" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="647" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="647" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="646" t="n">
+        <v>6</v>
+      </c>
+      <c r="N27" s="127" t="n">
         <v>6995</v>
       </c>
-      <c r="O26" s="616" t="n">
-        <v>6</v>
-      </c>
-      <c r="P26" s="133" t="n">
+      <c r="O27" s="646" t="n">
+        <v>6</v>
+      </c>
+      <c r="P27" s="127" t="n">
         <v>6055</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="618" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="642" t="inlineStr">
         <is>
           <t>#QQLVRJCGQ</t>
         </is>
       </c>
-      <c r="B27" s="618" t="n">
+      <c r="B28" s="642" t="n">
         <v>1209</v>
       </c>
-      <c r="C27" s="612" t="n">
-        <v>24</v>
-      </c>
-      <c r="D27" s="137" t="inlineStr">
+      <c r="C28" s="635" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" s="148" t="inlineStr">
         <is>
           <t>khant</t>
         </is>
       </c>
-      <c r="E27" s="620" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="620" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="130" t="n">
-        <v>20</v>
-      </c>
-      <c r="I27" s="618" t="n"/>
-      <c r="J27" s="130" t="n"/>
-      <c r="K27" s="618" t="n"/>
-      <c r="L27" s="130" t="n"/>
-      <c r="M27" s="618" t="n"/>
-      <c r="N27" s="130" t="n"/>
-      <c r="O27" s="618" t="n"/>
-      <c r="P27" s="130" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="615" t="inlineStr">
+      <c r="E28" s="648" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="648" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="136" t="n">
+        <v>40</v>
+      </c>
+      <c r="I28" s="642" t="n"/>
+      <c r="J28" s="136" t="n"/>
+      <c r="K28" s="642" t="n"/>
+      <c r="L28" s="136" t="n"/>
+      <c r="M28" s="642" t="n"/>
+      <c r="N28" s="136" t="n"/>
+      <c r="O28" s="642" t="n"/>
+      <c r="P28" s="136" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="645" t="inlineStr">
         <is>
           <t>#L2QQL9QVJ</t>
         </is>
       </c>
-      <c r="B28" s="615" t="n">
+      <c r="B29" s="645" t="n">
         <v>1450</v>
       </c>
-      <c r="C28" s="608" t="n">
-        <v>25</v>
-      </c>
-      <c r="D28" s="148" t="inlineStr">
+      <c r="C29" s="639" t="n">
+        <v>26</v>
+      </c>
+      <c r="D29" s="137" t="inlineStr">
         <is>
           <t>JustPre10d</t>
         </is>
       </c>
-      <c r="E28" s="621" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="621" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="621" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="621" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="616" t="n">
-        <v>6</v>
-      </c>
-      <c r="N28" s="133" t="n">
+      <c r="E29" s="647" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="647" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="647" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="647" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="646" t="n">
+        <v>6</v>
+      </c>
+      <c r="N29" s="127" t="n">
         <v>6655</v>
       </c>
-      <c r="O28" s="616" t="n">
-        <v>6</v>
-      </c>
-      <c r="P28" s="133" t="n">
+      <c r="O29" s="646" t="n">
+        <v>6</v>
+      </c>
+      <c r="P29" s="127" t="n">
         <v>7675</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="618" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="642" t="inlineStr">
         <is>
           <t>#LPR9RPCY9</t>
         </is>
       </c>
-      <c r="B29" s="618" t="n">
+      <c r="B30" s="642" t="n">
         <v>990</v>
       </c>
-      <c r="C29" s="612" t="n">
-        <v>26</v>
-      </c>
-      <c r="D29" s="137" t="inlineStr">
+      <c r="C30" s="635" t="n">
+        <v>27</v>
+      </c>
+      <c r="D30" s="148" t="inlineStr">
         <is>
           <t>sayhuss17</t>
         </is>
       </c>
-      <c r="E29" s="620" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="620" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="620" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="620" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="622" t="n">
+      <c r="E30" s="648" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="648" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="648" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="648" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="644" t="n">
         <v>4</v>
       </c>
-      <c r="N29" s="131" t="n">
+      <c r="N30" s="139" t="n">
         <v>4240</v>
       </c>
-      <c r="O29" s="618" t="n"/>
-      <c r="P29" s="130" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="615" t="inlineStr">
+      <c r="O30" s="642" t="n"/>
+      <c r="P30" s="136" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="645" t="inlineStr">
         <is>
           <t>#QQL8C29CY</t>
         </is>
       </c>
-      <c r="B30" s="615" t="n">
+      <c r="B31" s="645" t="n">
         <v>900</v>
       </c>
-      <c r="C30" s="608" t="n">
-        <v>27</v>
-      </c>
-      <c r="D30" s="148" t="inlineStr">
+      <c r="C31" s="639" t="n">
+        <v>28</v>
+      </c>
+      <c r="D31" s="137" t="inlineStr">
         <is>
           <t>TypicalTeague#2</t>
         </is>
       </c>
-      <c r="E30" s="621" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="621" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="621" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="621" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="616" t="n">
+      <c r="E31" s="647" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="647" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="647" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="647" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="646" t="n">
         <v>5</v>
       </c>
-      <c r="N30" s="139" t="n">
+      <c r="N31" s="131" t="n">
         <v>4070</v>
       </c>
-      <c r="O30" s="616" t="n">
-        <v>6</v>
-      </c>
-      <c r="P30" s="133" t="n">
+      <c r="O31" s="646" t="n">
+        <v>6</v>
+      </c>
+      <c r="P31" s="127" t="n">
         <v>6410</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="618" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="642" t="inlineStr">
         <is>
           <t>#L9JJQY992</t>
         </is>
       </c>
-      <c r="B31" s="618" t="n">
+      <c r="B32" s="642" t="n">
         <v>773</v>
       </c>
-      <c r="C31" s="612" t="n">
-        <v>28</v>
-      </c>
-      <c r="D31" s="137" t="inlineStr">
+      <c r="C32" s="635" t="n">
+        <v>29</v>
+      </c>
+      <c r="D32" s="148" t="inlineStr">
         <is>
           <t>Fisted_Waffle</t>
         </is>
       </c>
-      <c r="E31" s="620" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="620" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="620" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="620" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="620" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" s="618" t="n"/>
-      <c r="P31" s="130" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="615" t="inlineStr">
+      <c r="E32" s="648" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="648" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="648" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="648" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="648" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="642" t="n"/>
+      <c r="P32" s="136" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="645" t="inlineStr">
         <is>
           <t>#PJYVV989R</t>
         </is>
       </c>
-      <c r="B32" s="615" t="n">
+      <c r="B33" s="645" t="n">
         <v>1584</v>
       </c>
-      <c r="C32" s="608" t="n">
-        <v>29</v>
-      </c>
-      <c r="D32" s="148" t="inlineStr">
+      <c r="C33" s="639" t="n">
+        <v>30</v>
+      </c>
+      <c r="D33" s="137" t="inlineStr">
         <is>
           <t>nx</t>
         </is>
       </c>
-      <c r="E32" s="621" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="621" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="621" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="621" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="621" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" s="615" t="n"/>
-      <c r="P32" s="136" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="618" t="inlineStr">
+      <c r="E33" s="647" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="647" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="647" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="647" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="647" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="645" t="n"/>
+      <c r="P33" s="130" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="642" t="inlineStr">
         <is>
           <t>#L9QL9YQQY</t>
         </is>
       </c>
-      <c r="B33" s="618" t="n">
+      <c r="B34" s="642" t="n">
         <v>975</v>
       </c>
-      <c r="C33" s="612" t="n">
-        <v>30</v>
-      </c>
-      <c r="D33" s="137" t="inlineStr">
+      <c r="C34" s="635" t="n">
+        <v>31</v>
+      </c>
+      <c r="D34" s="148" t="inlineStr">
         <is>
           <t>Ima Chad</t>
         </is>
       </c>
-      <c r="E33" s="620" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="620" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="620" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="620" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" s="620" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" s="619" t="n">
+      <c r="E34" s="648" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="648" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="648" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="648" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="648" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="643" t="n">
         <v>5</v>
       </c>
-      <c r="P33" s="137" t="n">
+      <c r="P34" s="148" t="n">
         <v>3360</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="615" t="inlineStr">
-        <is>
-          <t>#QLGYRVPU0</t>
-        </is>
-      </c>
-      <c r="B34" s="615" t="n">
-        <v>886</v>
-      </c>
-      <c r="C34" s="608" t="n">
-        <v>31</v>
-      </c>
-      <c r="D34" s="136" t="inlineStr">
-        <is>
-          <t>Black.Boy.</t>
-        </is>
-      </c>
-      <c r="E34" s="615" t="n"/>
-      <c r="F34" s="136" t="n"/>
-      <c r="G34" s="615" t="n"/>
-      <c r="H34" s="136" t="n"/>
-      <c r="I34" s="615" t="n"/>
-      <c r="J34" s="136" t="n"/>
-      <c r="K34" s="615" t="n"/>
-      <c r="L34" s="136" t="n"/>
-      <c r="M34" s="615" t="n"/>
-      <c r="N34" s="136" t="n"/>
-      <c r="O34" s="615" t="n"/>
-      <c r="P34" s="136" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="232" t="inlineStr">
@@ -3212,15 +3252,15 @@
       <c r="P35" s="235" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="621" t="inlineStr">
+      <c r="A36" s="648" t="inlineStr">
         <is>
           <t>#Q8YP9P8UJ</t>
         </is>
       </c>
-      <c r="B36" s="615" t="n">
+      <c r="B36" s="642" t="n">
         <v>945</v>
       </c>
-      <c r="C36" s="608" t="n">
+      <c r="C36" s="635" t="n">
         <v>33</v>
       </c>
       <c r="D36" s="136" t="inlineStr">
@@ -3228,33 +3268,33 @@
           <t>Ranger</t>
         </is>
       </c>
-      <c r="E36" s="615" t="n"/>
+      <c r="E36" s="642" t="n"/>
       <c r="F36" s="136" t="n"/>
-      <c r="G36" s="615" t="n"/>
+      <c r="G36" s="642" t="n"/>
       <c r="H36" s="136" t="n"/>
-      <c r="I36" s="616" t="n">
+      <c r="I36" s="643" t="n">
         <v>5</v>
       </c>
       <c r="J36" s="139" t="n">
         <v>4680</v>
       </c>
-      <c r="K36" s="615" t="n"/>
+      <c r="K36" s="642" t="n"/>
       <c r="L36" s="136" t="n"/>
-      <c r="M36" s="615" t="n"/>
+      <c r="M36" s="642" t="n"/>
       <c r="N36" s="136" t="n"/>
-      <c r="O36" s="615" t="n"/>
+      <c r="O36" s="642" t="n"/>
       <c r="P36" s="136" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="620" t="inlineStr">
+      <c r="A37" s="647" t="inlineStr">
         <is>
           <t>#Q0JG2RJQ8</t>
         </is>
       </c>
-      <c r="B37" s="618" t="n">
+      <c r="B37" s="645" t="n">
         <v>997</v>
       </c>
-      <c r="C37" s="612" t="n">
+      <c r="C37" s="639" t="n">
         <v>34</v>
       </c>
       <c r="D37" s="130" t="inlineStr">
@@ -3262,33 +3302,33 @@
           <t>bozo</t>
         </is>
       </c>
-      <c r="E37" s="618" t="n"/>
+      <c r="E37" s="645" t="n"/>
       <c r="F37" s="130" t="n"/>
-      <c r="G37" s="618" t="n"/>
+      <c r="G37" s="645" t="n"/>
       <c r="H37" s="130" t="n"/>
-      <c r="I37" s="618" t="n"/>
+      <c r="I37" s="645" t="n"/>
       <c r="J37" s="130" t="n"/>
-      <c r="K37" s="619" t="n">
+      <c r="K37" s="646" t="n">
         <v>6</v>
       </c>
       <c r="L37" s="127" t="n">
         <v>6495</v>
       </c>
-      <c r="M37" s="618" t="n"/>
+      <c r="M37" s="645" t="n"/>
       <c r="N37" s="130" t="n"/>
-      <c r="O37" s="618" t="n"/>
+      <c r="O37" s="645" t="n"/>
       <c r="P37" s="130" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="621" t="inlineStr">
+      <c r="A38" s="648" t="inlineStr">
         <is>
           <t>#UVCCQC02</t>
         </is>
       </c>
-      <c r="B38" s="615" t="n">
+      <c r="B38" s="642" t="n">
         <v>1806</v>
       </c>
-      <c r="C38" s="608" t="n">
+      <c r="C38" s="635" t="n">
         <v>35</v>
       </c>
       <c r="D38" s="136" t="inlineStr">
@@ -3296,25 +3336,25 @@
           <t>lordshisha</t>
         </is>
       </c>
-      <c r="E38" s="615" t="n"/>
+      <c r="E38" s="642" t="n"/>
       <c r="F38" s="136" t="n"/>
-      <c r="G38" s="615" t="n"/>
+      <c r="G38" s="642" t="n"/>
       <c r="H38" s="136" t="n"/>
-      <c r="I38" s="615" t="n"/>
+      <c r="I38" s="642" t="n"/>
       <c r="J38" s="136" t="n"/>
-      <c r="K38" s="616" t="n">
+      <c r="K38" s="643" t="n">
         <v>6</v>
       </c>
       <c r="L38" s="133" t="n">
         <v>8496</v>
       </c>
-      <c r="M38" s="616" t="n">
+      <c r="M38" s="643" t="n">
         <v>6</v>
       </c>
       <c r="N38" s="133" t="n">
         <v>6310</v>
       </c>
-      <c r="O38" s="616" t="n">
+      <c r="O38" s="643" t="n">
         <v>6</v>
       </c>
       <c r="P38" s="133" t="n">
@@ -3322,15 +3362,15 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="620" t="inlineStr">
+      <c r="A39" s="647" t="inlineStr">
         <is>
           <t>#P2CPRPQU</t>
         </is>
       </c>
-      <c r="B39" s="618" t="n">
+      <c r="B39" s="645" t="n">
         <v>2232</v>
       </c>
-      <c r="C39" s="612" t="n">
+      <c r="C39" s="639" t="n">
         <v>36</v>
       </c>
       <c r="D39" s="130" t="inlineStr">
@@ -3338,25 +3378,25 @@
           <t>The Drift King</t>
         </is>
       </c>
-      <c r="E39" s="618" t="n"/>
+      <c r="E39" s="645" t="n"/>
       <c r="F39" s="130" t="n"/>
-      <c r="G39" s="618" t="n"/>
+      <c r="G39" s="645" t="n"/>
       <c r="H39" s="130" t="n"/>
-      <c r="I39" s="618" t="n"/>
+      <c r="I39" s="645" t="n"/>
       <c r="J39" s="130" t="n"/>
-      <c r="K39" s="619" t="n">
+      <c r="K39" s="646" t="n">
         <v>6</v>
       </c>
       <c r="L39" s="127" t="n">
         <v>8023</v>
       </c>
-      <c r="M39" s="619" t="n">
+      <c r="M39" s="646" t="n">
         <v>6</v>
       </c>
       <c r="N39" s="127" t="n">
         <v>7625</v>
       </c>
-      <c r="O39" s="619" t="n">
+      <c r="O39" s="646" t="n">
         <v>6</v>
       </c>
       <c r="P39" s="127" t="n">
@@ -3364,15 +3404,15 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="621" t="inlineStr">
+      <c r="A40" s="648" t="inlineStr">
         <is>
           <t>#QJVL0LYQQ</t>
         </is>
       </c>
-      <c r="B40" s="615" t="n">
+      <c r="B40" s="642" t="n">
         <v>921</v>
       </c>
-      <c r="C40" s="608" t="n">
+      <c r="C40" s="635" t="n">
         <v>37</v>
       </c>
       <c r="D40" s="136" t="inlineStr">
@@ -3380,25 +3420,25 @@
           <t>mobbb341</t>
         </is>
       </c>
-      <c r="E40" s="615" t="n"/>
+      <c r="E40" s="642" t="n"/>
       <c r="F40" s="136" t="n"/>
-      <c r="G40" s="615" t="n"/>
+      <c r="G40" s="642" t="n"/>
       <c r="H40" s="136" t="n"/>
-      <c r="I40" s="615" t="n"/>
+      <c r="I40" s="642" t="n"/>
       <c r="J40" s="136" t="n"/>
-      <c r="K40" s="616" t="n">
+      <c r="K40" s="643" t="n">
         <v>6</v>
       </c>
       <c r="L40" s="133" t="n">
         <v>7710</v>
       </c>
-      <c r="M40" s="616" t="n">
+      <c r="M40" s="643" t="n">
         <v>6</v>
       </c>
       <c r="N40" s="133" t="n">
         <v>8810</v>
       </c>
-      <c r="O40" s="616" t="n">
+      <c r="O40" s="643" t="n">
         <v>6</v>
       </c>
       <c r="P40" s="139" t="n">
@@ -3406,15 +3446,15 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="620" t="inlineStr">
+      <c r="A41" s="647" t="inlineStr">
         <is>
           <t>#L8R82C8VC</t>
         </is>
       </c>
-      <c r="B41" s="618" t="n">
+      <c r="B41" s="645" t="n">
         <v>1162</v>
       </c>
-      <c r="C41" s="612" t="n">
+      <c r="C41" s="639" t="n">
         <v>38</v>
       </c>
       <c r="D41" s="130" t="inlineStr">
@@ -3422,25 +3462,25 @@
           <t>caden asue</t>
         </is>
       </c>
-      <c r="E41" s="618" t="n"/>
+      <c r="E41" s="645" t="n"/>
       <c r="F41" s="130" t="n"/>
-      <c r="G41" s="618" t="n"/>
+      <c r="G41" s="645" t="n"/>
       <c r="H41" s="130" t="n"/>
-      <c r="I41" s="618" t="n"/>
+      <c r="I41" s="645" t="n"/>
       <c r="J41" s="130" t="n"/>
-      <c r="K41" s="619" t="n">
+      <c r="K41" s="646" t="n">
         <v>6</v>
       </c>
       <c r="L41" s="131" t="n">
         <v>5112</v>
       </c>
-      <c r="M41" s="619" t="n">
+      <c r="M41" s="646" t="n">
         <v>6</v>
       </c>
       <c r="N41" s="131" t="n">
         <v>4283</v>
       </c>
-      <c r="O41" s="619" t="n">
+      <c r="O41" s="646" t="n">
         <v>6</v>
       </c>
       <c r="P41" s="131" t="n">
@@ -3448,15 +3488,15 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="621" t="inlineStr">
+      <c r="A42" s="648" t="inlineStr">
         <is>
           <t>#L9Q8VLLQG</t>
         </is>
       </c>
-      <c r="B42" s="615" t="n">
+      <c r="B42" s="642" t="n">
         <v>1130</v>
       </c>
-      <c r="C42" s="608" t="n">
+      <c r="C42" s="635" t="n">
         <v>39</v>
       </c>
       <c r="D42" s="136" t="inlineStr">
@@ -3464,17 +3504,17 @@
           <t>cat</t>
         </is>
       </c>
-      <c r="E42" s="615" t="n"/>
+      <c r="E42" s="642" t="n"/>
       <c r="F42" s="136" t="n"/>
-      <c r="G42" s="615" t="n"/>
+      <c r="G42" s="642" t="n"/>
       <c r="H42" s="136" t="n"/>
-      <c r="I42" s="615" t="n"/>
+      <c r="I42" s="642" t="n"/>
       <c r="J42" s="136" t="n"/>
-      <c r="K42" s="615" t="n"/>
+      <c r="K42" s="642" t="n"/>
       <c r="L42" s="136" t="n"/>
-      <c r="M42" s="615" t="n"/>
+      <c r="M42" s="642" t="n"/>
       <c r="N42" s="136" t="n"/>
-      <c r="O42" s="616" t="n">
+      <c r="O42" s="643" t="n">
         <v>6</v>
       </c>
       <c r="P42" s="139" t="n">
@@ -3482,15 +3522,15 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="620" t="inlineStr">
+      <c r="A43" s="647" t="inlineStr">
         <is>
           <t>#QV0PQC9JU</t>
         </is>
       </c>
-      <c r="B43" s="618" t="n">
+      <c r="B43" s="645" t="n">
         <v>539</v>
       </c>
-      <c r="C43" s="612" t="n">
+      <c r="C43" s="639" t="n">
         <v>40</v>
       </c>
       <c r="D43" s="130" t="inlineStr">
@@ -3498,17 +3538,17 @@
           <t>Superman</t>
         </is>
       </c>
-      <c r="E43" s="618" t="n"/>
+      <c r="E43" s="645" t="n"/>
       <c r="F43" s="130" t="n"/>
-      <c r="G43" s="618" t="n"/>
+      <c r="G43" s="645" t="n"/>
       <c r="H43" s="130" t="n"/>
-      <c r="I43" s="618" t="n"/>
+      <c r="I43" s="645" t="n"/>
       <c r="J43" s="130" t="n"/>
-      <c r="K43" s="618" t="n"/>
+      <c r="K43" s="645" t="n"/>
       <c r="L43" s="130" t="n"/>
-      <c r="M43" s="618" t="n"/>
+      <c r="M43" s="645" t="n"/>
       <c r="N43" s="130" t="n"/>
-      <c r="O43" s="619" t="n">
+      <c r="O43" s="646" t="n">
         <v>6</v>
       </c>
       <c r="P43" s="131" t="n">
@@ -3516,15 +3556,15 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="621" t="inlineStr">
+      <c r="A44" s="648" t="inlineStr">
         <is>
           <t>#LU0CRP09L</t>
         </is>
       </c>
-      <c r="B44" s="615" t="n">
+      <c r="B44" s="642" t="n">
         <v>809</v>
       </c>
-      <c r="C44" s="608" t="n">
+      <c r="C44" s="635" t="n">
         <v>41</v>
       </c>
       <c r="D44" s="136" t="inlineStr">
@@ -3532,17 +3572,17 @@
           <t>I Dont Know</t>
         </is>
       </c>
-      <c r="E44" s="615" t="n"/>
+      <c r="E44" s="642" t="n"/>
       <c r="F44" s="136" t="n"/>
-      <c r="G44" s="615" t="n"/>
+      <c r="G44" s="642" t="n"/>
       <c r="H44" s="136" t="n"/>
-      <c r="I44" s="615" t="n"/>
+      <c r="I44" s="642" t="n"/>
       <c r="J44" s="136" t="n"/>
-      <c r="K44" s="615" t="n"/>
+      <c r="K44" s="642" t="n"/>
       <c r="L44" s="136" t="n"/>
-      <c r="M44" s="615" t="n"/>
+      <c r="M44" s="642" t="n"/>
       <c r="N44" s="136" t="n"/>
-      <c r="O44" s="617" t="n">
+      <c r="O44" s="644" t="n">
         <v>3</v>
       </c>
       <c r="P44" s="148" t="n">
@@ -3550,15 +3590,15 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="620" t="inlineStr">
+      <c r="A45" s="647" t="inlineStr">
         <is>
           <t>#YCPP0QPP8</t>
         </is>
       </c>
-      <c r="B45" s="618" t="n">
+      <c r="B45" s="645" t="n">
         <v>3327</v>
       </c>
-      <c r="C45" s="612" t="n">
+      <c r="C45" s="639" t="n">
         <v>42</v>
       </c>
       <c r="D45" s="130" t="inlineStr">
@@ -3566,17 +3606,17 @@
           <t>Coach</t>
         </is>
       </c>
-      <c r="E45" s="618" t="n"/>
+      <c r="E45" s="645" t="n"/>
       <c r="F45" s="130" t="n"/>
-      <c r="G45" s="618" t="n"/>
+      <c r="G45" s="645" t="n"/>
       <c r="H45" s="130" t="n"/>
-      <c r="I45" s="618" t="n"/>
+      <c r="I45" s="645" t="n"/>
       <c r="J45" s="130" t="n"/>
-      <c r="K45" s="618" t="n"/>
+      <c r="K45" s="645" t="n"/>
       <c r="L45" s="130" t="n"/>
-      <c r="M45" s="618" t="n"/>
+      <c r="M45" s="645" t="n"/>
       <c r="N45" s="130" t="n"/>
-      <c r="O45" s="620" t="n">
+      <c r="O45" s="647" t="n">
         <v>0</v>
       </c>
       <c r="P45" s="137" t="n">
@@ -3696,259 +3736,259 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="596" t="inlineStr">
+      <c r="B4" s="623" t="inlineStr">
         <is>
           <t>#QUYG0PQC8</t>
         </is>
       </c>
-      <c r="C4" s="596" t="n">
+      <c r="C4" s="623" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="597" t="inlineStr">
+      <c r="D4" s="624" t="inlineStr">
         <is>
           <t>Luffy</t>
         </is>
       </c>
-      <c r="E4" s="597" t="n">
+      <c r="E4" s="624" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="116" t="n">
         <v>6</v>
       </c>
-      <c r="G4" s="596" t="n"/>
+      <c r="G4" s="623" t="n"/>
       <c r="H4" s="119" t="n"/>
-      <c r="I4" s="596" t="n"/>
+      <c r="I4" s="623" t="n"/>
       <c r="J4" s="119" t="n"/>
-      <c r="K4" s="596" t="n"/>
+      <c r="K4" s="623" t="n"/>
       <c r="L4" s="119" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="598" t="inlineStr">
+      <c r="B5" s="625" t="inlineStr">
         <is>
           <t>#G0QPVJY9L</t>
         </is>
       </c>
-      <c r="C5" s="598" t="n">
+      <c r="C5" s="625" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="599" t="inlineStr">
+      <c r="D5" s="626" t="inlineStr">
         <is>
           <t>Zoro</t>
         </is>
       </c>
-      <c r="E5" s="599" t="n">
+      <c r="E5" s="626" t="n">
         <v>2</v>
       </c>
       <c r="F5" s="122" t="n">
         <v>6</v>
       </c>
-      <c r="G5" s="598" t="n"/>
+      <c r="G5" s="625" t="n"/>
       <c r="H5" s="125" t="n"/>
-      <c r="I5" s="598" t="n"/>
+      <c r="I5" s="625" t="n"/>
       <c r="J5" s="125" t="n"/>
-      <c r="K5" s="598" t="n"/>
+      <c r="K5" s="625" t="n"/>
       <c r="L5" s="125" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" s="596" t="inlineStr">
+      <c r="B6" s="623" t="inlineStr">
         <is>
           <t>#QLR088LC9</t>
         </is>
       </c>
-      <c r="C6" s="596" t="n">
+      <c r="C6" s="623" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="597" t="inlineStr">
+      <c r="D6" s="624" t="inlineStr">
         <is>
           <t>Sanji</t>
         </is>
       </c>
-      <c r="E6" s="597" t="n">
+      <c r="E6" s="624" t="n">
         <v>2</v>
       </c>
       <c r="F6" s="116" t="n">
         <v>6</v>
       </c>
-      <c r="G6" s="596" t="n"/>
+      <c r="G6" s="623" t="n"/>
       <c r="H6" s="119" t="n"/>
-      <c r="I6" s="596" t="n"/>
+      <c r="I6" s="623" t="n"/>
       <c r="J6" s="119" t="n"/>
-      <c r="K6" s="596" t="n"/>
+      <c r="K6" s="623" t="n"/>
       <c r="L6" s="119" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="598" t="inlineStr">
+      <c r="B7" s="625" t="inlineStr">
         <is>
           <t>#QCV22VP0G</t>
         </is>
       </c>
-      <c r="C7" s="598" t="n">
+      <c r="C7" s="625" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="599" t="inlineStr">
+      <c r="D7" s="626" t="inlineStr">
         <is>
           <t>Nami</t>
         </is>
       </c>
-      <c r="E7" s="599" t="n">
+      <c r="E7" s="626" t="n">
         <v>2</v>
       </c>
       <c r="F7" s="122" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="598" t="n"/>
+      <c r="G7" s="625" t="n"/>
       <c r="H7" s="125" t="n"/>
-      <c r="I7" s="598" t="n"/>
+      <c r="I7" s="625" t="n"/>
       <c r="J7" s="125" t="n"/>
-      <c r="K7" s="598" t="n"/>
+      <c r="K7" s="625" t="n"/>
       <c r="L7" s="125" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="596" t="inlineStr">
+      <c r="B8" s="623" t="inlineStr">
         <is>
           <t>#QUV2GP88U</t>
         </is>
       </c>
-      <c r="C8" s="596" t="n">
+      <c r="C8" s="623" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="597" t="inlineStr">
+      <c r="D8" s="624" t="inlineStr">
         <is>
           <t>Nico Robin</t>
         </is>
       </c>
-      <c r="E8" s="597" t="n">
+      <c r="E8" s="624" t="n">
         <v>2</v>
       </c>
       <c r="F8" s="116" t="n">
         <v>6</v>
       </c>
-      <c r="G8" s="596" t="n"/>
+      <c r="G8" s="623" t="n"/>
       <c r="H8" s="119" t="n"/>
-      <c r="I8" s="596" t="n"/>
+      <c r="I8" s="623" t="n"/>
       <c r="J8" s="119" t="n"/>
-      <c r="K8" s="596" t="n"/>
+      <c r="K8" s="623" t="n"/>
       <c r="L8" s="119" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" s="600" t="inlineStr">
+      <c r="B9" s="627" t="inlineStr">
         <is>
           <t>#98JG2UJQL</t>
         </is>
       </c>
-      <c r="C9" s="600" t="n"/>
-      <c r="D9" s="600" t="inlineStr">
+      <c r="C9" s="627" t="n"/>
+      <c r="D9" s="627" t="inlineStr">
         <is>
           <t>Dragonux</t>
         </is>
       </c>
-      <c r="E9" s="600" t="n"/>
+      <c r="E9" s="627" t="n"/>
       <c r="F9" s="130" t="n"/>
-      <c r="G9" s="600" t="n"/>
+      <c r="G9" s="627" t="n"/>
       <c r="H9" s="130" t="n"/>
-      <c r="I9" s="600" t="n"/>
+      <c r="I9" s="627" t="n"/>
       <c r="J9" s="130" t="n"/>
-      <c r="K9" s="600" t="n"/>
+      <c r="K9" s="627" t="n"/>
       <c r="L9" s="130" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="601" t="inlineStr">
+      <c r="B10" s="628" t="inlineStr">
         <is>
           <t>#82QLQCJRJ</t>
         </is>
       </c>
-      <c r="C10" s="601" t="n"/>
-      <c r="D10" s="601" t="inlineStr">
+      <c r="C10" s="628" t="n"/>
+      <c r="D10" s="628" t="inlineStr">
         <is>
           <t>Raging Fury</t>
         </is>
       </c>
-      <c r="E10" s="601" t="n"/>
+      <c r="E10" s="628" t="n"/>
       <c r="F10" s="136" t="n"/>
-      <c r="G10" s="601" t="n"/>
+      <c r="G10" s="628" t="n"/>
       <c r="H10" s="136" t="n"/>
-      <c r="I10" s="601" t="n"/>
+      <c r="I10" s="628" t="n"/>
       <c r="J10" s="136" t="n"/>
-      <c r="K10" s="601" t="n"/>
+      <c r="K10" s="628" t="n"/>
       <c r="L10" s="136" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="598" t="inlineStr">
+      <c r="B11" s="625" t="inlineStr">
         <is>
           <t>#90U0VPU9U</t>
         </is>
       </c>
-      <c r="C11" s="598" t="n"/>
-      <c r="D11" s="598" t="inlineStr">
+      <c r="C11" s="625" t="n"/>
+      <c r="D11" s="625" t="inlineStr">
         <is>
           <t>KYANI7E</t>
         </is>
       </c>
-      <c r="E11" s="598" t="n"/>
+      <c r="E11" s="625" t="n"/>
       <c r="F11" s="125" t="n"/>
-      <c r="G11" s="598" t="n"/>
+      <c r="G11" s="625" t="n"/>
       <c r="H11" s="125" t="n"/>
-      <c r="I11" s="598" t="n"/>
+      <c r="I11" s="625" t="n"/>
       <c r="J11" s="125" t="n"/>
-      <c r="K11" s="598" t="n"/>
+      <c r="K11" s="625" t="n"/>
       <c r="L11" s="125" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="601" t="inlineStr">
+      <c r="B12" s="628" t="inlineStr">
         <is>
           <t>#PJYVV989R</t>
         </is>
       </c>
-      <c r="C12" s="601" t="n"/>
-      <c r="D12" s="601" t="inlineStr">
+      <c r="C12" s="628" t="n"/>
+      <c r="D12" s="628" t="inlineStr">
         <is>
           <t>nx</t>
         </is>
       </c>
-      <c r="E12" s="601" t="n"/>
+      <c r="E12" s="628" t="n"/>
       <c r="F12" s="136" t="n"/>
-      <c r="G12" s="602" t="n">
+      <c r="G12" s="629" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="139" t="n">
         <v>3</v>
       </c>
-      <c r="I12" s="602" t="n">
+      <c r="I12" s="629" t="n">
         <v>1</v>
       </c>
       <c r="J12" s="139" t="n">
         <v>3</v>
       </c>
-      <c r="K12" s="601" t="n"/>
+      <c r="K12" s="628" t="n"/>
       <c r="L12" s="136" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="598" t="inlineStr">
+      <c r="B13" s="625" t="inlineStr">
         <is>
           <t>#QLJ2U20Y2</t>
         </is>
       </c>
-      <c r="C13" s="598" t="n"/>
-      <c r="D13" s="598" t="inlineStr">
+      <c r="C13" s="625" t="n"/>
+      <c r="D13" s="625" t="inlineStr">
         <is>
           <t>DeadLeaf</t>
         </is>
       </c>
-      <c r="E13" s="598" t="n"/>
+      <c r="E13" s="625" t="n"/>
       <c r="F13" s="125" t="n"/>
-      <c r="G13" s="599" t="n">
+      <c r="G13" s="626" t="n">
         <v>2</v>
       </c>
       <c r="H13" s="122" t="n">
         <v>5</v>
       </c>
-      <c r="I13" s="599" t="n">
+      <c r="I13" s="626" t="n">
         <v>2</v>
       </c>
       <c r="J13" s="122" t="n">
         <v>5</v>
       </c>
-      <c r="K13" s="599" t="n">
+      <c r="K13" s="626" t="n">
         <v>2</v>
       </c>
       <c r="L13" s="122" t="n">
@@ -3956,28 +3996,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="601" t="inlineStr">
+      <c r="B14" s="628" t="inlineStr">
         <is>
           <t>#L2QQL9QVJ</t>
         </is>
       </c>
-      <c r="C14" s="601" t="n"/>
-      <c r="D14" s="601" t="inlineStr">
+      <c r="C14" s="628" t="n"/>
+      <c r="D14" s="628" t="inlineStr">
         <is>
           <t>JustPre10d</t>
         </is>
       </c>
-      <c r="E14" s="601" t="n"/>
+      <c r="E14" s="628" t="n"/>
       <c r="F14" s="136" t="n"/>
-      <c r="G14" s="601" t="n"/>
+      <c r="G14" s="628" t="n"/>
       <c r="H14" s="136" t="n"/>
-      <c r="I14" s="603" t="n">
+      <c r="I14" s="630" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="K14" s="602" t="n">
+      <c r="K14" s="629" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="148" t="n">
@@ -3985,61 +4025,61 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="598" t="inlineStr">
+      <c r="B15" s="625" t="inlineStr">
         <is>
           <t>#YRGRRJQCY</t>
         </is>
       </c>
-      <c r="C15" s="598" t="n"/>
-      <c r="D15" s="598" t="inlineStr">
+      <c r="C15" s="625" t="n"/>
+      <c r="D15" s="625" t="inlineStr">
         <is>
           <t>DoubleSpice</t>
         </is>
       </c>
-      <c r="E15" s="598" t="n"/>
+      <c r="E15" s="625" t="n"/>
       <c r="F15" s="125" t="n"/>
-      <c r="G15" s="599" t="n">
+      <c r="G15" s="626" t="n">
         <v>2</v>
       </c>
       <c r="H15" s="122" t="n">
         <v>5</v>
       </c>
-      <c r="I15" s="599" t="n">
+      <c r="I15" s="626" t="n">
         <v>2</v>
       </c>
       <c r="J15" s="122" t="n">
         <v>6</v>
       </c>
-      <c r="K15" s="598" t="n"/>
+      <c r="K15" s="625" t="n"/>
       <c r="L15" s="125" t="n"/>
     </row>
     <row r="16">
-      <c r="B16" s="596" t="inlineStr">
+      <c r="B16" s="623" t="inlineStr">
         <is>
           <t>#Q8CLCUCC2</t>
         </is>
       </c>
-      <c r="C16" s="596" t="n"/>
-      <c r="D16" s="596" t="inlineStr">
+      <c r="C16" s="623" t="n"/>
+      <c r="D16" s="623" t="inlineStr">
         <is>
           <t>Moxxi</t>
         </is>
       </c>
-      <c r="E16" s="596" t="n"/>
+      <c r="E16" s="623" t="n"/>
       <c r="F16" s="119" t="n"/>
-      <c r="G16" s="597" t="n">
+      <c r="G16" s="624" t="n">
         <v>2</v>
       </c>
       <c r="H16" s="116" t="n">
         <v>6</v>
       </c>
-      <c r="I16" s="597" t="n">
+      <c r="I16" s="624" t="n">
         <v>2</v>
       </c>
       <c r="J16" s="116" t="n">
         <v>5</v>
       </c>
-      <c r="K16" s="597" t="n">
+      <c r="K16" s="624" t="n">
         <v>2</v>
       </c>
       <c r="L16" s="116" t="n">
@@ -4047,32 +4087,32 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="598" t="inlineStr">
+      <c r="B17" s="625" t="inlineStr">
         <is>
           <t>#YJ20CRJYQ</t>
         </is>
       </c>
-      <c r="C17" s="598" t="n"/>
-      <c r="D17" s="598" t="inlineStr">
+      <c r="C17" s="625" t="n"/>
+      <c r="D17" s="625" t="inlineStr">
         <is>
           <t>UnluckGod</t>
         </is>
       </c>
-      <c r="E17" s="598" t="n"/>
+      <c r="E17" s="625" t="n"/>
       <c r="F17" s="125" t="n"/>
-      <c r="G17" s="599" t="n">
+      <c r="G17" s="626" t="n">
         <v>2</v>
       </c>
       <c r="H17" s="122" t="n">
         <v>6</v>
       </c>
-      <c r="I17" s="599" t="n">
+      <c r="I17" s="626" t="n">
         <v>2</v>
       </c>
       <c r="J17" s="122" t="n">
         <v>4</v>
       </c>
-      <c r="K17" s="599" t="n">
+      <c r="K17" s="626" t="n">
         <v>2</v>
       </c>
       <c r="L17" s="122" t="n">
@@ -4080,459 +4120,459 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="601" t="inlineStr">
+      <c r="B18" s="628" t="inlineStr">
         <is>
           <t>#G0JPUQGYR</t>
         </is>
       </c>
-      <c r="C18" s="601" t="n"/>
-      <c r="D18" s="601" t="inlineStr">
+      <c r="C18" s="628" t="n"/>
+      <c r="D18" s="628" t="inlineStr">
         <is>
           <t>Collin</t>
         </is>
       </c>
-      <c r="E18" s="601" t="n"/>
+      <c r="E18" s="628" t="n"/>
       <c r="F18" s="136" t="n"/>
-      <c r="G18" s="601" t="n"/>
+      <c r="G18" s="628" t="n"/>
       <c r="H18" s="136" t="n"/>
-      <c r="I18" s="601" t="n"/>
+      <c r="I18" s="628" t="n"/>
       <c r="J18" s="136" t="n"/>
-      <c r="K18" s="601" t="n"/>
+      <c r="K18" s="628" t="n"/>
       <c r="L18" s="136" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="600" t="inlineStr">
+      <c r="B19" s="627" t="inlineStr">
         <is>
           <t>#QQLVRJCGQ</t>
         </is>
       </c>
-      <c r="C19" s="600" t="n"/>
-      <c r="D19" s="600" t="inlineStr">
+      <c r="C19" s="627" t="n"/>
+      <c r="D19" s="627" t="inlineStr">
         <is>
           <t>khant</t>
         </is>
       </c>
-      <c r="E19" s="600" t="n"/>
+      <c r="E19" s="627" t="n"/>
       <c r="F19" s="130" t="n"/>
-      <c r="G19" s="600" t="n"/>
+      <c r="G19" s="627" t="n"/>
       <c r="H19" s="130" t="n"/>
-      <c r="I19" s="600" t="n"/>
+      <c r="I19" s="627" t="n"/>
       <c r="J19" s="130" t="n"/>
-      <c r="K19" s="600" t="n"/>
+      <c r="K19" s="627" t="n"/>
       <c r="L19" s="130" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="601" t="inlineStr">
+      <c r="B20" s="628" t="inlineStr">
         <is>
           <t>#QLG0VJG2J</t>
         </is>
       </c>
-      <c r="C20" s="601" t="n"/>
-      <c r="D20" s="601" t="inlineStr">
+      <c r="C20" s="628" t="n"/>
+      <c r="D20" s="628" t="inlineStr">
         <is>
           <t>PocketRocket</t>
         </is>
       </c>
-      <c r="E20" s="601" t="n"/>
+      <c r="E20" s="628" t="n"/>
       <c r="F20" s="136" t="n"/>
-      <c r="G20" s="601" t="n"/>
+      <c r="G20" s="628" t="n"/>
       <c r="H20" s="136" t="n"/>
-      <c r="I20" s="601" t="n"/>
+      <c r="I20" s="628" t="n"/>
       <c r="J20" s="136" t="n"/>
-      <c r="K20" s="601" t="n"/>
+      <c r="K20" s="628" t="n"/>
       <c r="L20" s="136" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="600" t="inlineStr">
+      <c r="B21" s="627" t="inlineStr">
         <is>
           <t>#QRPRYR8LL</t>
         </is>
       </c>
-      <c r="C21" s="600" t="n"/>
-      <c r="D21" s="600" t="inlineStr">
+      <c r="C21" s="627" t="n"/>
+      <c r="D21" s="627" t="inlineStr">
         <is>
           <t>FidelCashflow</t>
         </is>
       </c>
-      <c r="E21" s="600" t="n"/>
+      <c r="E21" s="627" t="n"/>
       <c r="F21" s="130" t="n"/>
-      <c r="G21" s="600" t="n"/>
+      <c r="G21" s="627" t="n"/>
       <c r="H21" s="130" t="n"/>
-      <c r="I21" s="600" t="n"/>
+      <c r="I21" s="627" t="n"/>
       <c r="J21" s="130" t="n"/>
-      <c r="K21" s="600" t="n"/>
+      <c r="K21" s="627" t="n"/>
       <c r="L21" s="130" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="601" t="inlineStr">
+      <c r="B22" s="628" t="inlineStr">
         <is>
           <t>#LC9GUPJJG</t>
         </is>
       </c>
-      <c r="C22" s="601" t="n"/>
-      <c r="D22" s="601" t="inlineStr">
+      <c r="C22" s="628" t="n"/>
+      <c r="D22" s="628" t="inlineStr">
         <is>
           <t>raptor2222a</t>
         </is>
       </c>
-      <c r="E22" s="601" t="n"/>
+      <c r="E22" s="628" t="n"/>
       <c r="F22" s="136" t="n"/>
-      <c r="G22" s="601" t="n"/>
+      <c r="G22" s="628" t="n"/>
       <c r="H22" s="136" t="n"/>
-      <c r="I22" s="601" t="n"/>
+      <c r="I22" s="628" t="n"/>
       <c r="J22" s="136" t="n"/>
-      <c r="K22" s="601" t="n"/>
+      <c r="K22" s="628" t="n"/>
       <c r="L22" s="136" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="600" t="inlineStr">
+      <c r="B23" s="627" t="inlineStr">
         <is>
           <t>#LPR9RPCY9</t>
         </is>
       </c>
-      <c r="C23" s="600" t="n"/>
-      <c r="D23" s="600" t="inlineStr">
+      <c r="C23" s="627" t="n"/>
+      <c r="D23" s="627" t="inlineStr">
         <is>
           <t>sayhuss17</t>
         </is>
       </c>
-      <c r="E23" s="600" t="n"/>
+      <c r="E23" s="627" t="n"/>
       <c r="F23" s="130" t="n"/>
-      <c r="G23" s="604" t="n">
+      <c r="G23" s="631" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="604" t="n">
+      <c r="I23" s="631" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K23" s="600" t="n"/>
+      <c r="K23" s="627" t="n"/>
       <c r="L23" s="130" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="601" t="inlineStr">
+      <c r="B24" s="628" t="inlineStr">
         <is>
           <t>#QJC8LQU9U</t>
         </is>
       </c>
-      <c r="C24" s="601" t="n"/>
-      <c r="D24" s="601" t="inlineStr">
+      <c r="C24" s="628" t="n"/>
+      <c r="D24" s="628" t="inlineStr">
         <is>
           <t>Master01</t>
         </is>
       </c>
-      <c r="E24" s="601" t="n"/>
+      <c r="E24" s="628" t="n"/>
       <c r="F24" s="136" t="n"/>
-      <c r="G24" s="605" t="n">
+      <c r="G24" s="632" t="n">
         <v>2</v>
       </c>
       <c r="H24" s="133" t="n">
         <v>4</v>
       </c>
-      <c r="I24" s="601" t="n"/>
+      <c r="I24" s="628" t="n"/>
       <c r="J24" s="136" t="n"/>
-      <c r="K24" s="601" t="n"/>
+      <c r="K24" s="628" t="n"/>
       <c r="L24" s="136" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="600" t="inlineStr">
+      <c r="B25" s="627" t="inlineStr">
         <is>
           <t>#L9QL9YQQY</t>
         </is>
       </c>
-      <c r="C25" s="600" t="n"/>
-      <c r="D25" s="600" t="inlineStr">
+      <c r="C25" s="627" t="n"/>
+      <c r="D25" s="627" t="inlineStr">
         <is>
           <t>Ima Chad</t>
         </is>
       </c>
-      <c r="E25" s="600" t="n"/>
+      <c r="E25" s="627" t="n"/>
       <c r="F25" s="130" t="n"/>
-      <c r="G25" s="600" t="n"/>
+      <c r="G25" s="627" t="n"/>
       <c r="H25" s="130" t="n"/>
-      <c r="I25" s="600" t="n"/>
+      <c r="I25" s="627" t="n"/>
       <c r="J25" s="130" t="n"/>
-      <c r="K25" s="600" t="n"/>
+      <c r="K25" s="627" t="n"/>
       <c r="L25" s="130" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="596" t="inlineStr">
+      <c r="B26" s="623" t="inlineStr">
         <is>
           <t>#QUG8QQJ92</t>
         </is>
       </c>
-      <c r="C26" s="596" t="n"/>
-      <c r="D26" s="596" t="inlineStr">
+      <c r="C26" s="623" t="n"/>
+      <c r="D26" s="623" t="inlineStr">
         <is>
           <t>Karma</t>
         </is>
       </c>
-      <c r="E26" s="596" t="n"/>
+      <c r="E26" s="623" t="n"/>
       <c r="F26" s="119" t="n"/>
-      <c r="G26" s="596" t="n"/>
+      <c r="G26" s="623" t="n"/>
       <c r="H26" s="119" t="n"/>
-      <c r="I26" s="596" t="n"/>
+      <c r="I26" s="623" t="n"/>
       <c r="J26" s="119" t="n"/>
-      <c r="K26" s="596" t="n"/>
+      <c r="K26" s="623" t="n"/>
       <c r="L26" s="119" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="600" t="inlineStr">
+      <c r="B27" s="627" t="inlineStr">
         <is>
           <t>#QY8L2GLUR</t>
         </is>
       </c>
-      <c r="C27" s="600" t="n"/>
-      <c r="D27" s="600" t="inlineStr">
+      <c r="C27" s="627" t="n"/>
+      <c r="D27" s="627" t="inlineStr">
         <is>
           <t>Huy</t>
         </is>
       </c>
-      <c r="E27" s="600" t="n"/>
+      <c r="E27" s="627" t="n"/>
       <c r="F27" s="130" t="n"/>
-      <c r="G27" s="604" t="n">
+      <c r="G27" s="631" t="n">
         <v>0</v>
       </c>
       <c r="H27" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="600" t="n"/>
+      <c r="I27" s="627" t="n"/>
       <c r="J27" s="130" t="n"/>
-      <c r="K27" s="600" t="n"/>
+      <c r="K27" s="627" t="n"/>
       <c r="L27" s="130" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="601" t="inlineStr">
+      <c r="B28" s="628" t="inlineStr">
         <is>
           <t>#QQL8C29CY</t>
         </is>
       </c>
-      <c r="C28" s="601" t="n"/>
-      <c r="D28" s="601" t="inlineStr">
+      <c r="C28" s="628" t="n"/>
+      <c r="D28" s="628" t="inlineStr">
         <is>
           <t>TypicalTeague#2</t>
         </is>
       </c>
-      <c r="E28" s="601" t="n"/>
+      <c r="E28" s="628" t="n"/>
       <c r="F28" s="136" t="n"/>
-      <c r="G28" s="601" t="n"/>
+      <c r="G28" s="628" t="n"/>
       <c r="H28" s="136" t="n"/>
-      <c r="I28" s="601" t="n"/>
+      <c r="I28" s="628" t="n"/>
       <c r="J28" s="136" t="n"/>
-      <c r="K28" s="601" t="n"/>
+      <c r="K28" s="628" t="n"/>
       <c r="L28" s="136" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="600" t="inlineStr">
+      <c r="B29" s="627" t="inlineStr">
         <is>
           <t>#QU0U2Q99G</t>
         </is>
       </c>
-      <c r="C29" s="600" t="n"/>
-      <c r="D29" s="600" t="inlineStr">
+      <c r="C29" s="627" t="n"/>
+      <c r="D29" s="627" t="inlineStr">
         <is>
           <t>big coc</t>
         </is>
       </c>
-      <c r="E29" s="600" t="n"/>
+      <c r="E29" s="627" t="n"/>
       <c r="F29" s="130" t="n"/>
-      <c r="G29" s="600" t="n"/>
+      <c r="G29" s="627" t="n"/>
       <c r="H29" s="130" t="n"/>
-      <c r="I29" s="600" t="n"/>
+      <c r="I29" s="627" t="n"/>
       <c r="J29" s="130" t="n"/>
-      <c r="K29" s="600" t="n"/>
+      <c r="K29" s="627" t="n"/>
       <c r="L29" s="130" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="601" t="inlineStr">
+      <c r="B30" s="628" t="inlineStr">
         <is>
           <t>#QLGYRVPU0</t>
         </is>
       </c>
-      <c r="C30" s="601" t="n"/>
-      <c r="D30" s="601" t="inlineStr">
+      <c r="C30" s="628" t="n"/>
+      <c r="D30" s="628" t="inlineStr">
         <is>
           <t>Black.Boy.</t>
         </is>
       </c>
-      <c r="E30" s="601" t="n"/>
+      <c r="E30" s="628" t="n"/>
       <c r="F30" s="136" t="n"/>
-      <c r="G30" s="601" t="n"/>
+      <c r="G30" s="628" t="n"/>
       <c r="H30" s="136" t="n"/>
-      <c r="I30" s="601" t="n"/>
+      <c r="I30" s="628" t="n"/>
       <c r="J30" s="136" t="n"/>
-      <c r="K30" s="601" t="n"/>
+      <c r="K30" s="628" t="n"/>
       <c r="L30" s="136" t="n"/>
     </row>
     <row r="31">
-      <c r="B31" s="600" t="inlineStr">
+      <c r="B31" s="627" t="inlineStr">
         <is>
           <t>#QL8LVLYG8</t>
         </is>
       </c>
-      <c r="C31" s="600" t="n"/>
-      <c r="D31" s="600" t="inlineStr">
+      <c r="C31" s="627" t="n"/>
+      <c r="D31" s="627" t="inlineStr">
         <is>
           <t>Some guy</t>
         </is>
       </c>
-      <c r="E31" s="600" t="n"/>
+      <c r="E31" s="627" t="n"/>
       <c r="F31" s="130" t="n"/>
-      <c r="G31" s="600" t="n"/>
+      <c r="G31" s="627" t="n"/>
       <c r="H31" s="130" t="n"/>
-      <c r="I31" s="600" t="n"/>
+      <c r="I31" s="627" t="n"/>
       <c r="J31" s="130" t="n"/>
-      <c r="K31" s="600" t="n"/>
+      <c r="K31" s="627" t="n"/>
       <c r="L31" s="130" t="n"/>
     </row>
     <row r="32">
-      <c r="B32" s="601" t="inlineStr">
+      <c r="B32" s="628" t="inlineStr">
         <is>
           <t>#L9JJQY992</t>
         </is>
       </c>
-      <c r="C32" s="601" t="n"/>
-      <c r="D32" s="601" t="inlineStr">
+      <c r="C32" s="628" t="n"/>
+      <c r="D32" s="628" t="inlineStr">
         <is>
           <t>Fisted_Waffle</t>
         </is>
       </c>
-      <c r="E32" s="601" t="n"/>
+      <c r="E32" s="628" t="n"/>
       <c r="F32" s="136" t="n"/>
-      <c r="G32" s="601" t="n"/>
+      <c r="G32" s="628" t="n"/>
       <c r="H32" s="136" t="n"/>
-      <c r="I32" s="601" t="n"/>
+      <c r="I32" s="628" t="n"/>
       <c r="J32" s="136" t="n"/>
-      <c r="K32" s="601" t="n"/>
+      <c r="K32" s="628" t="n"/>
       <c r="L32" s="136" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" s="600" t="inlineStr">
+      <c r="B33" s="627" t="inlineStr">
         <is>
           <t>#QV8JJ0URU</t>
         </is>
       </c>
-      <c r="C33" s="600" t="n"/>
-      <c r="D33" s="600" t="inlineStr">
+      <c r="C33" s="627" t="n"/>
+      <c r="D33" s="627" t="inlineStr">
         <is>
           <t>✨Jacob</t>
         </is>
       </c>
-      <c r="E33" s="600" t="n"/>
+      <c r="E33" s="627" t="n"/>
       <c r="F33" s="130" t="n"/>
-      <c r="G33" s="600" t="n"/>
+      <c r="G33" s="627" t="n"/>
       <c r="H33" s="130" t="n"/>
-      <c r="I33" s="604" t="n">
+      <c r="I33" s="631" t="n">
         <v>0</v>
       </c>
       <c r="J33" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K33" s="600" t="n"/>
+      <c r="K33" s="627" t="n"/>
       <c r="L33" s="130" t="n"/>
     </row>
     <row r="34">
-      <c r="B34" s="601" t="inlineStr">
+      <c r="B34" s="628" t="inlineStr">
         <is>
           <t>#QY0VGPQGQ</t>
         </is>
       </c>
-      <c r="C34" s="601" t="n"/>
-      <c r="D34" s="601" t="inlineStr">
+      <c r="C34" s="628" t="n"/>
+      <c r="D34" s="628" t="inlineStr">
         <is>
           <t>killerjones</t>
         </is>
       </c>
-      <c r="E34" s="601" t="n"/>
+      <c r="E34" s="628" t="n"/>
       <c r="F34" s="136" t="n"/>
-      <c r="G34" s="601" t="n"/>
+      <c r="G34" s="628" t="n"/>
       <c r="H34" s="136" t="n"/>
-      <c r="I34" s="601" t="n"/>
+      <c r="I34" s="628" t="n"/>
       <c r="J34" s="136" t="n"/>
-      <c r="K34" s="601" t="n"/>
+      <c r="K34" s="628" t="n"/>
       <c r="L34" s="136" t="n"/>
     </row>
     <row r="35">
-      <c r="B35" s="604" t="inlineStr">
+      <c r="B35" s="631" t="inlineStr">
         <is>
           <t>#QLL0PVCRV</t>
         </is>
       </c>
-      <c r="C35" s="600" t="n"/>
-      <c r="D35" s="600" t="inlineStr">
+      <c r="C35" s="627" t="n"/>
+      <c r="D35" s="627" t="inlineStr">
         <is>
           <t>Harsh chhillar</t>
         </is>
       </c>
-      <c r="E35" s="600" t="n"/>
+      <c r="E35" s="627" t="n"/>
       <c r="F35" s="130" t="n"/>
-      <c r="G35" s="600" t="n"/>
+      <c r="G35" s="627" t="n"/>
       <c r="H35" s="130" t="n"/>
-      <c r="I35" s="600" t="n"/>
+      <c r="I35" s="627" t="n"/>
       <c r="J35" s="130" t="n"/>
-      <c r="K35" s="600" t="n"/>
+      <c r="K35" s="627" t="n"/>
       <c r="L35" s="130" t="n"/>
     </row>
     <row r="36">
-      <c r="B36" s="603" t="inlineStr">
+      <c r="B36" s="630" t="inlineStr">
         <is>
           <t>#P2CPRPQU</t>
         </is>
       </c>
-      <c r="C36" s="601" t="n"/>
-      <c r="D36" s="601" t="inlineStr">
+      <c r="C36" s="628" t="n"/>
+      <c r="D36" s="628" t="inlineStr">
         <is>
           <t>The Drift King</t>
         </is>
       </c>
-      <c r="E36" s="601" t="n"/>
+      <c r="E36" s="628" t="n"/>
       <c r="F36" s="136" t="n"/>
-      <c r="G36" s="605" t="n">
+      <c r="G36" s="632" t="n">
         <v>2</v>
       </c>
       <c r="H36" s="133" t="n">
         <v>6</v>
       </c>
-      <c r="I36" s="605" t="n">
+      <c r="I36" s="632" t="n">
         <v>2</v>
       </c>
       <c r="J36" s="133" t="n">
         <v>6</v>
       </c>
-      <c r="K36" s="601" t="n"/>
+      <c r="K36" s="628" t="n"/>
       <c r="L36" s="136" t="n"/>
     </row>
     <row r="37">
-      <c r="B37" s="604" t="inlineStr">
+      <c r="B37" s="631" t="inlineStr">
         <is>
           <t>#UVCCQC02</t>
         </is>
       </c>
-      <c r="C37" s="600" t="n"/>
-      <c r="D37" s="600" t="inlineStr">
+      <c r="C37" s="627" t="n"/>
+      <c r="D37" s="627" t="inlineStr">
         <is>
           <t>lordshisha</t>
         </is>
       </c>
-      <c r="E37" s="600" t="n"/>
+      <c r="E37" s="627" t="n"/>
       <c r="F37" s="130" t="n"/>
-      <c r="G37" s="606" t="n">
+      <c r="G37" s="633" t="n">
         <v>2</v>
       </c>
       <c r="H37" s="127" t="n">
         <v>6</v>
       </c>
-      <c r="I37" s="606" t="n">
+      <c r="I37" s="633" t="n">
         <v>2</v>
       </c>
       <c r="J37" s="131" t="n">
         <v>3</v>
       </c>
-      <c r="K37" s="606" t="n">
+      <c r="K37" s="633" t="n">
         <v>2</v>
       </c>
       <c r="L37" s="137" t="n">
@@ -4540,66 +4580,66 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" s="603" t="inlineStr">
+      <c r="B38" s="630" t="inlineStr">
         <is>
           <t>#Q0JG2RJQ8</t>
         </is>
       </c>
-      <c r="C38" s="601" t="n"/>
-      <c r="D38" s="601" t="inlineStr">
+      <c r="C38" s="628" t="n"/>
+      <c r="D38" s="628" t="inlineStr">
         <is>
           <t>bozo</t>
         </is>
       </c>
-      <c r="E38" s="601" t="n"/>
+      <c r="E38" s="628" t="n"/>
       <c r="F38" s="136" t="n"/>
-      <c r="G38" s="601" t="n"/>
+      <c r="G38" s="628" t="n"/>
       <c r="H38" s="136" t="n"/>
-      <c r="I38" s="601" t="n"/>
+      <c r="I38" s="628" t="n"/>
       <c r="J38" s="136" t="n"/>
-      <c r="K38" s="601" t="n"/>
+      <c r="K38" s="628" t="n"/>
       <c r="L38" s="136" t="n"/>
     </row>
     <row r="39">
-      <c r="B39" s="604" t="inlineStr">
+      <c r="B39" s="631" t="inlineStr">
         <is>
           <t>#QJVL0LYQQ</t>
         </is>
       </c>
-      <c r="C39" s="600" t="n"/>
-      <c r="D39" s="600" t="inlineStr">
+      <c r="C39" s="627" t="n"/>
+      <c r="D39" s="627" t="inlineStr">
         <is>
           <t>mobbb341</t>
         </is>
       </c>
-      <c r="E39" s="600" t="n"/>
+      <c r="E39" s="627" t="n"/>
       <c r="F39" s="130" t="n"/>
-      <c r="G39" s="600" t="n"/>
+      <c r="G39" s="627" t="n"/>
       <c r="H39" s="130" t="n"/>
-      <c r="I39" s="600" t="n"/>
+      <c r="I39" s="627" t="n"/>
       <c r="J39" s="130" t="n"/>
-      <c r="K39" s="600" t="n"/>
+      <c r="K39" s="627" t="n"/>
       <c r="L39" s="130" t="n"/>
     </row>
     <row r="40">
-      <c r="B40" s="603" t="inlineStr">
+      <c r="B40" s="630" t="inlineStr">
         <is>
           <t>#L8R82C8VC</t>
         </is>
       </c>
-      <c r="C40" s="601" t="n"/>
-      <c r="D40" s="601" t="inlineStr">
+      <c r="C40" s="628" t="n"/>
+      <c r="D40" s="628" t="inlineStr">
         <is>
           <t>caden asue</t>
         </is>
       </c>
-      <c r="E40" s="601" t="n"/>
+      <c r="E40" s="628" t="n"/>
       <c r="F40" s="136" t="n"/>
-      <c r="G40" s="601" t="n"/>
+      <c r="G40" s="628" t="n"/>
       <c r="H40" s="136" t="n"/>
-      <c r="I40" s="601" t="n"/>
+      <c r="I40" s="628" t="n"/>
       <c r="J40" s="136" t="n"/>
-      <c r="K40" s="601" t="n"/>
+      <c r="K40" s="628" t="n"/>
       <c r="L40" s="136" t="n"/>
     </row>
   </sheetData>

--- a/Clash.xlsx
+++ b/Clash.xlsx
@@ -179,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -300,11 +300,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="649">
+  <cellXfs count="676">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1092,6 +1094,37 @@
     <xf numFmtId="164" fontId="5" fillId="22" borderId="48" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="25" borderId="48" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="24" borderId="48" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="18" borderId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="21" borderId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="22" borderId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="21" borderId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="24" borderId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="25" borderId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="22" borderId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="18" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="24" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="21" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="22" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="25" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="21" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="22" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="25" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="24" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="23" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1457,7 +1490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1535,7 +1568,7 @@
         <v>189745</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="I2" t="n">
         <v>2.89</v>
@@ -1640,15 +1673,15 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="634" t="inlineStr">
+      <c r="A4" s="660" t="inlineStr">
         <is>
           <t>#QLJ2U20Y2</t>
         </is>
       </c>
-      <c r="B4" s="634" t="n">
-        <v>1480</v>
-      </c>
-      <c r="C4" s="635" t="n">
+      <c r="B4" s="660" t="n">
+        <v>1494</v>
+      </c>
+      <c r="C4" s="661" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="116" t="inlineStr">
@@ -1656,37 +1689,37 @@
           <t>DeadLeaf</t>
         </is>
       </c>
-      <c r="E4" s="636" t="n">
+      <c r="E4" s="662" t="n">
         <v>6</v>
       </c>
       <c r="F4" s="116" t="n">
         <v>13763</v>
       </c>
-      <c r="G4" s="637" t="n">
+      <c r="G4" s="663" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="119" t="n">
         <v>30</v>
       </c>
-      <c r="I4" s="636" t="n">
+      <c r="I4" s="662" t="n">
         <v>6</v>
       </c>
       <c r="J4" s="116" t="n">
         <v>11140</v>
       </c>
-      <c r="K4" s="636" t="n">
+      <c r="K4" s="662" t="n">
         <v>6</v>
       </c>
       <c r="L4" s="116" t="n">
         <v>15509</v>
       </c>
-      <c r="M4" s="636" t="n">
+      <c r="M4" s="662" t="n">
         <v>6</v>
       </c>
       <c r="N4" s="116" t="n">
         <v>8567</v>
       </c>
-      <c r="O4" s="636" t="n">
+      <c r="O4" s="662" t="n">
         <v>6</v>
       </c>
       <c r="P4" s="116" t="n">
@@ -1694,15 +1727,15 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="638" t="inlineStr">
+      <c r="A5" s="664" t="inlineStr">
         <is>
           <t>#G0QPVJY9L</t>
         </is>
       </c>
-      <c r="B5" s="638" t="n">
-        <v>837</v>
-      </c>
-      <c r="C5" s="639" t="n">
+      <c r="B5" s="664" t="n">
+        <v>880</v>
+      </c>
+      <c r="C5" s="665" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="122" t="inlineStr">
@@ -1710,37 +1743,37 @@
           <t>Zoro</t>
         </is>
       </c>
-      <c r="E5" s="640" t="n">
+      <c r="E5" s="666" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="122" t="n">
         <v>13432</v>
       </c>
-      <c r="G5" s="641" t="n">
+      <c r="G5" s="667" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="640" t="n">
+      <c r="I5" s="666" t="n">
         <v>6</v>
       </c>
       <c r="J5" s="122" t="n">
         <v>8855</v>
       </c>
-      <c r="K5" s="640" t="n">
+      <c r="K5" s="666" t="n">
         <v>6</v>
       </c>
       <c r="L5" s="122" t="n">
         <v>10965</v>
       </c>
-      <c r="M5" s="640" t="n">
+      <c r="M5" s="666" t="n">
         <v>6</v>
       </c>
       <c r="N5" s="122" t="n">
         <v>7905</v>
       </c>
-      <c r="O5" s="640" t="n">
+      <c r="O5" s="666" t="n">
         <v>6</v>
       </c>
       <c r="P5" s="122" t="n">
@@ -1748,15 +1781,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="634" t="inlineStr">
+      <c r="A6" s="660" t="inlineStr">
         <is>
           <t>#90U0VPU9U</t>
         </is>
       </c>
-      <c r="B6" s="634" t="n">
-        <v>2513</v>
-      </c>
-      <c r="C6" s="635" t="n">
+      <c r="B6" s="660" t="n">
+        <v>2490</v>
+      </c>
+      <c r="C6" s="661" t="n">
         <v>3</v>
       </c>
       <c r="D6" s="116" t="inlineStr">
@@ -1764,37 +1797,37 @@
           <t>KYANI7E</t>
         </is>
       </c>
-      <c r="E6" s="636" t="n">
+      <c r="E6" s="662" t="n">
         <v>6</v>
       </c>
       <c r="F6" s="116" t="n">
         <v>13260</v>
       </c>
-      <c r="G6" s="637" t="n">
+      <c r="G6" s="663" t="n">
         <v>92</v>
       </c>
       <c r="H6" s="119" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="636" t="n">
+      <c r="I6" s="662" t="n">
         <v>6</v>
       </c>
       <c r="J6" s="116" t="n">
         <v>12144</v>
       </c>
-      <c r="K6" s="636" t="n">
+      <c r="K6" s="662" t="n">
         <v>6</v>
       </c>
       <c r="L6" s="116" t="n">
         <v>12835</v>
       </c>
-      <c r="M6" s="636" t="n">
+      <c r="M6" s="662" t="n">
         <v>6</v>
       </c>
       <c r="N6" s="116" t="n">
         <v>7696</v>
       </c>
-      <c r="O6" s="636" t="n">
+      <c r="O6" s="662" t="n">
         <v>6</v>
       </c>
       <c r="P6" s="116" t="n">
@@ -1802,15 +1835,15 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="638" t="inlineStr">
+      <c r="A7" s="664" t="inlineStr">
         <is>
           <t>#YJ20CRJYQ</t>
         </is>
       </c>
-      <c r="B7" s="638" t="n">
-        <v>1323</v>
-      </c>
-      <c r="C7" s="639" t="n">
+      <c r="B7" s="664" t="n">
+        <v>1327</v>
+      </c>
+      <c r="C7" s="665" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="122" t="inlineStr">
@@ -1818,37 +1851,37 @@
           <t>UnluckGod</t>
         </is>
       </c>
-      <c r="E7" s="640" t="n">
+      <c r="E7" s="666" t="n">
         <v>6</v>
       </c>
       <c r="F7" s="122" t="n">
         <v>12824</v>
       </c>
-      <c r="G7" s="641" t="n">
+      <c r="G7" s="667" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="125" t="n">
         <v>61</v>
       </c>
-      <c r="I7" s="640" t="n">
+      <c r="I7" s="666" t="n">
         <v>6</v>
       </c>
       <c r="J7" s="122" t="n">
         <v>11999</v>
       </c>
-      <c r="K7" s="640" t="n">
+      <c r="K7" s="666" t="n">
         <v>6</v>
       </c>
       <c r="L7" s="122" t="n">
         <v>12972</v>
       </c>
-      <c r="M7" s="640" t="n">
+      <c r="M7" s="666" t="n">
         <v>6</v>
       </c>
       <c r="N7" s="122" t="n">
         <v>8286</v>
       </c>
-      <c r="O7" s="640" t="n">
+      <c r="O7" s="666" t="n">
         <v>6</v>
       </c>
       <c r="P7" s="122" t="n">
@@ -1856,15 +1889,15 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="634" t="inlineStr">
+      <c r="A8" s="660" t="inlineStr">
         <is>
           <t>#QUV2GP88U</t>
         </is>
       </c>
-      <c r="B8" s="634" t="n">
-        <v>729</v>
-      </c>
-      <c r="C8" s="635" t="n">
+      <c r="B8" s="660" t="n">
+        <v>750</v>
+      </c>
+      <c r="C8" s="661" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="116" t="inlineStr">
@@ -1872,37 +1905,37 @@
           <t>Nico Robin</t>
         </is>
       </c>
-      <c r="E8" s="636" t="n">
+      <c r="E8" s="662" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="116" t="n">
         <v>12612</v>
       </c>
-      <c r="G8" s="637" t="n">
+      <c r="G8" s="663" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="636" t="n">
+      <c r="I8" s="662" t="n">
         <v>6</v>
       </c>
       <c r="J8" s="116" t="n">
         <v>11338</v>
       </c>
-      <c r="K8" s="636" t="n">
+      <c r="K8" s="662" t="n">
         <v>6</v>
       </c>
       <c r="L8" s="116" t="n">
         <v>10997</v>
       </c>
-      <c r="M8" s="636" t="n">
+      <c r="M8" s="662" t="n">
         <v>6</v>
       </c>
       <c r="N8" s="116" t="n">
         <v>11087</v>
       </c>
-      <c r="O8" s="636" t="n">
+      <c r="O8" s="662" t="n">
         <v>6</v>
       </c>
       <c r="P8" s="116" t="n">
@@ -1910,15 +1943,15 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="638" t="inlineStr">
+      <c r="A9" s="664" t="inlineStr">
         <is>
           <t>#QCV22VP0G</t>
         </is>
       </c>
-      <c r="B9" s="638" t="n">
-        <v>775</v>
-      </c>
-      <c r="C9" s="639" t="n">
+      <c r="B9" s="664" t="n">
+        <v>800</v>
+      </c>
+      <c r="C9" s="665" t="n">
         <v>6</v>
       </c>
       <c r="D9" s="122" t="inlineStr">
@@ -1926,37 +1959,37 @@
           <t>Nami</t>
         </is>
       </c>
-      <c r="E9" s="640" t="n">
+      <c r="E9" s="666" t="n">
         <v>6</v>
       </c>
       <c r="F9" s="122" t="n">
         <v>11795</v>
       </c>
-      <c r="G9" s="641" t="n">
+      <c r="G9" s="667" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="640" t="n">
+      <c r="I9" s="666" t="n">
         <v>6</v>
       </c>
       <c r="J9" s="122" t="n">
         <v>10769</v>
       </c>
-      <c r="K9" s="640" t="n">
+      <c r="K9" s="666" t="n">
         <v>6</v>
       </c>
       <c r="L9" s="122" t="n">
         <v>12486</v>
       </c>
-      <c r="M9" s="640" t="n">
+      <c r="M9" s="666" t="n">
         <v>6</v>
       </c>
       <c r="N9" s="122" t="n">
         <v>8472</v>
       </c>
-      <c r="O9" s="640" t="n">
+      <c r="O9" s="666" t="n">
         <v>6</v>
       </c>
       <c r="P9" s="122" t="n">
@@ -1964,15 +1997,15 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="634" t="inlineStr">
+      <c r="A10" s="660" t="inlineStr">
         <is>
           <t>#YRGRRJQCY</t>
         </is>
       </c>
-      <c r="B10" s="634" t="n">
-        <v>1360</v>
-      </c>
-      <c r="C10" s="635" t="n">
+      <c r="B10" s="660" t="n">
+        <v>1338</v>
+      </c>
+      <c r="C10" s="661" t="n">
         <v>7</v>
       </c>
       <c r="D10" s="116" t="inlineStr">
@@ -1980,37 +2013,37 @@
           <t>DoubleSpice</t>
         </is>
       </c>
-      <c r="E10" s="636" t="n">
+      <c r="E10" s="662" t="n">
         <v>6</v>
       </c>
       <c r="F10" s="116" t="n">
         <v>11620</v>
       </c>
-      <c r="G10" s="637" t="n">
+      <c r="G10" s="663" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="119" t="n">
         <v>60</v>
       </c>
-      <c r="I10" s="636" t="n">
+      <c r="I10" s="662" t="n">
         <v>6</v>
       </c>
       <c r="J10" s="116" t="n">
         <v>14095</v>
       </c>
-      <c r="K10" s="636" t="n">
+      <c r="K10" s="662" t="n">
         <v>6</v>
       </c>
       <c r="L10" s="116" t="n">
         <v>12379</v>
       </c>
-      <c r="M10" s="636" t="n">
+      <c r="M10" s="662" t="n">
         <v>6</v>
       </c>
       <c r="N10" s="116" t="n">
         <v>8256</v>
       </c>
-      <c r="O10" s="636" t="n">
+      <c r="O10" s="662" t="n">
         <v>6</v>
       </c>
       <c r="P10" s="116" t="n">
@@ -2018,15 +2051,15 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="638" t="inlineStr">
+      <c r="A11" s="664" t="inlineStr">
         <is>
           <t>#QUG8QQJ92</t>
         </is>
       </c>
-      <c r="B11" s="638" t="n">
-        <v>920</v>
-      </c>
-      <c r="C11" s="639" t="n">
+      <c r="B11" s="664" t="n">
+        <v>925</v>
+      </c>
+      <c r="C11" s="665" t="n">
         <v>8</v>
       </c>
       <c r="D11" s="122" t="inlineStr">
@@ -2034,37 +2067,37 @@
           <t>Karma</t>
         </is>
       </c>
-      <c r="E11" s="640" t="n">
+      <c r="E11" s="666" t="n">
         <v>6</v>
       </c>
       <c r="F11" s="122" t="n">
         <v>11355</v>
       </c>
-      <c r="G11" s="641" t="n">
+      <c r="G11" s="667" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="640" t="n">
+      <c r="I11" s="666" t="n">
         <v>6</v>
       </c>
       <c r="J11" s="122" t="n">
         <v>10003</v>
       </c>
-      <c r="K11" s="640" t="n">
+      <c r="K11" s="666" t="n">
         <v>6</v>
       </c>
       <c r="L11" s="122" t="n">
         <v>10595</v>
       </c>
-      <c r="M11" s="640" t="n">
+      <c r="M11" s="666" t="n">
         <v>6</v>
       </c>
       <c r="N11" s="122" t="n">
         <v>9240</v>
       </c>
-      <c r="O11" s="640" t="n">
+      <c r="O11" s="666" t="n">
         <v>6</v>
       </c>
       <c r="P11" s="122" t="n">
@@ -2072,15 +2105,15 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="642" t="inlineStr">
+      <c r="A12" s="668" t="inlineStr">
         <is>
           <t>#98JG2UJQL</t>
         </is>
       </c>
-      <c r="B12" s="642" t="n">
+      <c r="B12" s="668" t="n">
         <v>2941</v>
       </c>
-      <c r="C12" s="635" t="n">
+      <c r="C12" s="661" t="n">
         <v>9</v>
       </c>
       <c r="D12" s="133" t="inlineStr">
@@ -2088,37 +2121,37 @@
           <t>Dragonux</t>
         </is>
       </c>
-      <c r="E12" s="643" t="n">
+      <c r="E12" s="669" t="n">
         <v>6</v>
       </c>
       <c r="F12" s="133" t="n">
         <v>10910</v>
       </c>
-      <c r="G12" s="644" t="n">
+      <c r="G12" s="670" t="n">
         <v>211</v>
       </c>
       <c r="H12" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="643" t="n">
+      <c r="I12" s="669" t="n">
         <v>6</v>
       </c>
       <c r="J12" s="133" t="n">
         <v>8750</v>
       </c>
-      <c r="K12" s="643" t="n">
+      <c r="K12" s="669" t="n">
         <v>6</v>
       </c>
       <c r="L12" s="133" t="n">
         <v>10865</v>
       </c>
-      <c r="M12" s="643" t="n">
+      <c r="M12" s="669" t="n">
         <v>6</v>
       </c>
       <c r="N12" s="133" t="n">
         <v>8025</v>
       </c>
-      <c r="O12" s="643" t="n">
+      <c r="O12" s="669" t="n">
         <v>6</v>
       </c>
       <c r="P12" s="133" t="n">
@@ -2126,15 +2159,15 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="638" t="inlineStr">
+      <c r="A13" s="664" t="inlineStr">
         <is>
           <t>#QLR088LC9</t>
         </is>
       </c>
-      <c r="B13" s="638" t="n">
-        <v>851</v>
-      </c>
-      <c r="C13" s="639" t="n">
+      <c r="B13" s="664" t="n">
+        <v>870</v>
+      </c>
+      <c r="C13" s="665" t="n">
         <v>10</v>
       </c>
       <c r="D13" s="122" t="inlineStr">
@@ -2142,37 +2175,37 @@
           <t>Sanji</t>
         </is>
       </c>
-      <c r="E13" s="640" t="n">
+      <c r="E13" s="666" t="n">
         <v>6</v>
       </c>
       <c r="F13" s="122" t="n">
         <v>10910</v>
       </c>
-      <c r="G13" s="641" t="n">
+      <c r="G13" s="667" t="n">
         <v>0</v>
       </c>
       <c r="H13" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="640" t="n">
+      <c r="I13" s="666" t="n">
         <v>6</v>
       </c>
       <c r="J13" s="122" t="n">
         <v>9550</v>
       </c>
-      <c r="K13" s="640" t="n">
+      <c r="K13" s="666" t="n">
         <v>6</v>
       </c>
       <c r="L13" s="122" t="n">
         <v>9138</v>
       </c>
-      <c r="M13" s="640" t="n">
+      <c r="M13" s="666" t="n">
         <v>6</v>
       </c>
       <c r="N13" s="122" t="n">
         <v>8897</v>
       </c>
-      <c r="O13" s="640" t="n">
+      <c r="O13" s="666" t="n">
         <v>6</v>
       </c>
       <c r="P13" s="122" t="n">
@@ -2180,15 +2213,15 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="634" t="inlineStr">
+      <c r="A14" s="660" t="inlineStr">
         <is>
           <t>#QUYG0PQC8</t>
         </is>
       </c>
-      <c r="B14" s="634" t="n">
-        <v>923</v>
-      </c>
-      <c r="C14" s="635" t="n">
+      <c r="B14" s="660" t="n">
+        <v>948</v>
+      </c>
+      <c r="C14" s="661" t="n">
         <v>11</v>
       </c>
       <c r="D14" s="116" t="inlineStr">
@@ -2196,37 +2229,37 @@
           <t>Luffy</t>
         </is>
       </c>
-      <c r="E14" s="636" t="n">
+      <c r="E14" s="662" t="n">
         <v>6</v>
       </c>
       <c r="F14" s="116" t="n">
         <v>10879</v>
       </c>
-      <c r="G14" s="637" t="n">
+      <c r="G14" s="663" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="636" t="n">
+      <c r="I14" s="662" t="n">
         <v>6</v>
       </c>
       <c r="J14" s="116" t="n">
         <v>9114</v>
       </c>
-      <c r="K14" s="636" t="n">
+      <c r="K14" s="662" t="n">
         <v>6</v>
       </c>
       <c r="L14" s="116" t="n">
         <v>13385</v>
       </c>
-      <c r="M14" s="636" t="n">
+      <c r="M14" s="662" t="n">
         <v>6</v>
       </c>
       <c r="N14" s="116" t="n">
         <v>7877</v>
       </c>
-      <c r="O14" s="636" t="n">
+      <c r="O14" s="662" t="n">
         <v>6</v>
       </c>
       <c r="P14" s="116" t="n">
@@ -2234,15 +2267,15 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="645" t="inlineStr">
+      <c r="A15" s="671" t="inlineStr">
         <is>
           <t>#G0JPUQGYR</t>
         </is>
       </c>
-      <c r="B15" s="645" t="n">
+      <c r="B15" s="671" t="n">
         <v>1305</v>
       </c>
-      <c r="C15" s="639" t="n">
+      <c r="C15" s="665" t="n">
         <v>12</v>
       </c>
       <c r="D15" s="127" t="inlineStr">
@@ -2250,37 +2283,37 @@
           <t>Collin</t>
         </is>
       </c>
-      <c r="E15" s="646" t="n">
+      <c r="E15" s="672" t="n">
         <v>6</v>
       </c>
       <c r="F15" s="127" t="n">
         <v>8833</v>
       </c>
-      <c r="G15" s="647" t="n">
+      <c r="G15" s="673" t="n">
         <v>20</v>
       </c>
       <c r="H15" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="646" t="n">
+      <c r="I15" s="672" t="n">
         <v>6</v>
       </c>
       <c r="J15" s="127" t="n">
         <v>9238</v>
       </c>
-      <c r="K15" s="646" t="n">
+      <c r="K15" s="672" t="n">
         <v>6</v>
       </c>
       <c r="L15" s="127" t="n">
         <v>7756</v>
       </c>
-      <c r="M15" s="646" t="n">
+      <c r="M15" s="672" t="n">
         <v>6</v>
       </c>
       <c r="N15" s="131" t="n">
         <v>5943</v>
       </c>
-      <c r="O15" s="646" t="n">
+      <c r="O15" s="672" t="n">
         <v>6</v>
       </c>
       <c r="P15" s="127" t="n">
@@ -2288,15 +2321,15 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="642" t="inlineStr">
+      <c r="A16" s="668" t="inlineStr">
         <is>
           <t>#82QLQCJRJ</t>
         </is>
       </c>
-      <c r="B16" s="642" t="n">
-        <v>2913</v>
-      </c>
-      <c r="C16" s="635" t="n">
+      <c r="B16" s="668" t="n">
+        <v>2940</v>
+      </c>
+      <c r="C16" s="661" t="n">
         <v>13</v>
       </c>
       <c r="D16" s="133" t="inlineStr">
@@ -2304,37 +2337,37 @@
           <t>Raging Fury</t>
         </is>
       </c>
-      <c r="E16" s="643" t="n">
+      <c r="E16" s="669" t="n">
         <v>6</v>
       </c>
       <c r="F16" s="133" t="n">
         <v>8055</v>
       </c>
-      <c r="G16" s="648" t="n">
+      <c r="G16" s="674" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="643" t="n">
+      <c r="I16" s="669" t="n">
         <v>6</v>
       </c>
       <c r="J16" s="133" t="n">
         <v>7115</v>
       </c>
-      <c r="K16" s="648" t="n">
+      <c r="K16" s="674" t="n">
         <v>2</v>
       </c>
       <c r="L16" s="148" t="n">
         <v>2320</v>
       </c>
-      <c r="M16" s="643" t="n">
+      <c r="M16" s="669" t="n">
         <v>6</v>
       </c>
       <c r="N16" s="139" t="n">
         <v>4920</v>
       </c>
-      <c r="O16" s="643" t="n">
+      <c r="O16" s="669" t="n">
         <v>6</v>
       </c>
       <c r="P16" s="139" t="n">
@@ -2342,15 +2375,15 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="638" t="inlineStr">
+      <c r="A17" s="664" t="inlineStr">
         <is>
           <t>#Q8CLCUCC2</t>
         </is>
       </c>
-      <c r="B17" s="638" t="n">
-        <v>1327</v>
-      </c>
-      <c r="C17" s="639" t="n">
+      <c r="B17" s="664" t="n">
+        <v>1343</v>
+      </c>
+      <c r="C17" s="665" t="n">
         <v>14</v>
       </c>
       <c r="D17" s="122" t="inlineStr">
@@ -2358,37 +2391,37 @@
           <t>Moxxi</t>
         </is>
       </c>
-      <c r="E17" s="640" t="n">
+      <c r="E17" s="666" t="n">
         <v>6</v>
       </c>
       <c r="F17" s="122" t="n">
         <v>8015</v>
       </c>
-      <c r="G17" s="641" t="n">
+      <c r="G17" s="667" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="125" t="n">
         <v>60</v>
       </c>
-      <c r="I17" s="640" t="n">
+      <c r="I17" s="666" t="n">
         <v>6</v>
       </c>
       <c r="J17" s="122" t="n">
         <v>11010</v>
       </c>
-      <c r="K17" s="640" t="n">
+      <c r="K17" s="666" t="n">
         <v>6</v>
       </c>
       <c r="L17" s="122" t="n">
         <v>13857</v>
       </c>
-      <c r="M17" s="640" t="n">
+      <c r="M17" s="666" t="n">
         <v>6</v>
       </c>
       <c r="N17" s="122" t="n">
         <v>7905</v>
       </c>
-      <c r="O17" s="640" t="n">
+      <c r="O17" s="666" t="n">
         <v>6</v>
       </c>
       <c r="P17" s="122" t="n">
@@ -2396,15 +2429,15 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="642" t="inlineStr">
+      <c r="A18" s="668" t="inlineStr">
         <is>
           <t>#QU0U2Q99G</t>
         </is>
       </c>
-      <c r="B18" s="642" t="n">
-        <v>896</v>
-      </c>
-      <c r="C18" s="635" t="n">
+      <c r="B18" s="668" t="n">
+        <v>881</v>
+      </c>
+      <c r="C18" s="661" t="n">
         <v>15</v>
       </c>
       <c r="D18" s="133" t="inlineStr">
@@ -2412,45 +2445,45 @@
           <t>big coc</t>
         </is>
       </c>
-      <c r="E18" s="643" t="n">
+      <c r="E18" s="669" t="n">
         <v>6</v>
       </c>
       <c r="F18" s="133" t="n">
         <v>7420</v>
       </c>
-      <c r="G18" s="648" t="n">
+      <c r="G18" s="674" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="136" t="n">
         <v>40</v>
       </c>
-      <c r="I18" s="643" t="n">
+      <c r="I18" s="669" t="n">
         <v>5</v>
       </c>
       <c r="J18" s="139" t="n">
         <v>5150</v>
       </c>
-      <c r="K18" s="643" t="n">
+      <c r="K18" s="669" t="n">
         <v>6</v>
       </c>
       <c r="L18" s="133" t="n">
         <v>9075</v>
       </c>
-      <c r="M18" s="642" t="n"/>
+      <c r="M18" s="668" t="n"/>
       <c r="N18" s="136" t="n"/>
-      <c r="O18" s="642" t="n"/>
+      <c r="O18" s="668" t="n"/>
       <c r="P18" s="136" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="645" t="inlineStr">
+      <c r="A19" s="671" t="inlineStr">
         <is>
           <t>#QRPRYR8LL</t>
         </is>
       </c>
-      <c r="B19" s="645" t="n">
-        <v>1118</v>
-      </c>
-      <c r="C19" s="639" t="n">
+      <c r="B19" s="671" t="n">
+        <v>1136</v>
+      </c>
+      <c r="C19" s="665" t="n">
         <v>16</v>
       </c>
       <c r="D19" s="127" t="inlineStr">
@@ -2458,37 +2491,37 @@
           <t>FidelCashflow</t>
         </is>
       </c>
-      <c r="E19" s="646" t="n">
+      <c r="E19" s="672" t="n">
         <v>6</v>
       </c>
       <c r="F19" s="127" t="n">
         <v>6415</v>
       </c>
-      <c r="G19" s="647" t="n">
+      <c r="G19" s="673" t="n">
         <v>4</v>
       </c>
       <c r="H19" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="646" t="n">
+      <c r="I19" s="672" t="n">
         <v>6</v>
       </c>
       <c r="J19" s="127" t="n">
         <v>6547</v>
       </c>
-      <c r="K19" s="646" t="n">
+      <c r="K19" s="672" t="n">
         <v>6</v>
       </c>
       <c r="L19" s="127" t="n">
         <v>6811</v>
       </c>
-      <c r="M19" s="646" t="n">
+      <c r="M19" s="672" t="n">
         <v>6</v>
       </c>
       <c r="N19" s="131" t="n">
         <v>4239</v>
       </c>
-      <c r="O19" s="646" t="n">
+      <c r="O19" s="672" t="n">
         <v>6</v>
       </c>
       <c r="P19" s="131" t="n">
@@ -2496,15 +2529,15 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="642" t="inlineStr">
+      <c r="A20" s="668" t="inlineStr">
         <is>
           <t>#QY0VGPQGQ</t>
         </is>
       </c>
-      <c r="B20" s="642" t="n">
-        <v>563</v>
-      </c>
-      <c r="C20" s="635" t="n">
+      <c r="B20" s="668" t="n">
+        <v>556</v>
+      </c>
+      <c r="C20" s="661" t="n">
         <v>17</v>
       </c>
       <c r="D20" s="133" t="inlineStr">
@@ -2512,37 +2545,37 @@
           <t>killerjones</t>
         </is>
       </c>
-      <c r="E20" s="643" t="n">
+      <c r="E20" s="669" t="n">
         <v>6</v>
       </c>
       <c r="F20" s="133" t="n">
         <v>6320</v>
       </c>
-      <c r="G20" s="648" t="n">
+      <c r="G20" s="674" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="136" t="n">
         <v>15</v>
       </c>
-      <c r="I20" s="642" t="n"/>
+      <c r="I20" s="668" t="n"/>
       <c r="J20" s="136" t="n"/>
-      <c r="K20" s="642" t="n"/>
+      <c r="K20" s="668" t="n"/>
       <c r="L20" s="136" t="n"/>
-      <c r="M20" s="642" t="n"/>
+      <c r="M20" s="668" t="n"/>
       <c r="N20" s="136" t="n"/>
-      <c r="O20" s="642" t="n"/>
+      <c r="O20" s="668" t="n"/>
       <c r="P20" s="136" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="645" t="inlineStr">
+      <c r="A21" s="671" t="inlineStr">
         <is>
           <t>#LC9GUPJJG</t>
         </is>
       </c>
-      <c r="B21" s="645" t="n">
-        <v>992</v>
-      </c>
-      <c r="C21" s="639" t="n">
+      <c r="B21" s="671" t="n">
+        <v>1056</v>
+      </c>
+      <c r="C21" s="665" t="n">
         <v>18</v>
       </c>
       <c r="D21" s="127" t="inlineStr">
@@ -2550,41 +2583,41 @@
           <t>raptor2222a</t>
         </is>
       </c>
-      <c r="E21" s="646" t="n">
+      <c r="E21" s="672" t="n">
         <v>5</v>
       </c>
       <c r="F21" s="131" t="n">
         <v>4350</v>
       </c>
-      <c r="G21" s="647" t="n">
+      <c r="G21" s="673" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="647" t="n">
+      <c r="I21" s="673" t="n">
         <v>0</v>
       </c>
       <c r="J21" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K21" s="645" t="n"/>
+      <c r="K21" s="671" t="n"/>
       <c r="L21" s="130" t="n"/>
-      <c r="M21" s="645" t="n"/>
+      <c r="M21" s="671" t="n"/>
       <c r="N21" s="130" t="n"/>
-      <c r="O21" s="645" t="n"/>
+      <c r="O21" s="671" t="n"/>
       <c r="P21" s="130" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="642" t="inlineStr">
+      <c r="A22" s="668" t="inlineStr">
         <is>
           <t>#QLG0VJG2J</t>
         </is>
       </c>
-      <c r="B22" s="642" t="n">
-        <v>1142</v>
-      </c>
-      <c r="C22" s="635" t="n">
+      <c r="B22" s="668" t="n">
+        <v>1131</v>
+      </c>
+      <c r="C22" s="661" t="n">
         <v>19</v>
       </c>
       <c r="D22" s="139" t="inlineStr">
@@ -2592,41 +2625,41 @@
           <t>PocketRocket</t>
         </is>
       </c>
-      <c r="E22" s="644" t="n">
+      <c r="E22" s="670" t="n">
         <v>4</v>
       </c>
       <c r="F22" s="139" t="n">
         <v>4327</v>
       </c>
-      <c r="G22" s="648" t="n">
+      <c r="G22" s="674" t="n">
         <v>20</v>
       </c>
       <c r="H22" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="644" t="n">
+      <c r="I22" s="670" t="n">
         <v>4</v>
       </c>
       <c r="J22" s="139" t="n">
         <v>5215</v>
       </c>
-      <c r="K22" s="642" t="n"/>
+      <c r="K22" s="668" t="n"/>
       <c r="L22" s="136" t="n"/>
-      <c r="M22" s="642" t="n"/>
+      <c r="M22" s="668" t="n"/>
       <c r="N22" s="136" t="n"/>
-      <c r="O22" s="642" t="n"/>
+      <c r="O22" s="668" t="n"/>
       <c r="P22" s="136" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="645" t="inlineStr">
+      <c r="A23" s="671" t="inlineStr">
         <is>
           <t>#QL8LVLYG8</t>
         </is>
       </c>
-      <c r="B23" s="645" t="n">
-        <v>863</v>
-      </c>
-      <c r="C23" s="639" t="n">
+      <c r="B23" s="671" t="n">
+        <v>835</v>
+      </c>
+      <c r="C23" s="665" t="n">
         <v>20</v>
       </c>
       <c r="D23" s="137" t="inlineStr">
@@ -2634,37 +2667,37 @@
           <t>Some guy</t>
         </is>
       </c>
-      <c r="E23" s="647" t="n">
+      <c r="E23" s="673" t="n">
         <v>2</v>
       </c>
       <c r="F23" s="137" t="n">
         <v>2650</v>
       </c>
-      <c r="G23" s="647" t="n">
+      <c r="G23" s="673" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="130" t="n">
         <v>20</v>
       </c>
-      <c r="I23" s="647" t="n">
+      <c r="I23" s="673" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K23" s="646" t="n">
+      <c r="K23" s="672" t="n">
         <v>6</v>
       </c>
       <c r="L23" s="127" t="n">
         <v>6917</v>
       </c>
-      <c r="M23" s="647" t="n">
+      <c r="M23" s="673" t="n">
         <v>0</v>
       </c>
       <c r="N23" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="O23" s="647" t="n">
+      <c r="O23" s="673" t="n">
         <v>2</v>
       </c>
       <c r="P23" s="137" t="n">
@@ -2678,7 +2711,7 @@
         </is>
       </c>
       <c r="B24" s="141" t="n">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C24" s="142" t="n">
         <v>21</v>
@@ -2726,15 +2759,15 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="645" t="inlineStr">
+      <c r="A25" s="671" t="inlineStr">
         <is>
           <t>#QV8JJ0URU</t>
         </is>
       </c>
-      <c r="B25" s="645" t="n">
+      <c r="B25" s="671" t="n">
         <v>741</v>
       </c>
-      <c r="C25" s="639" t="n">
+      <c r="C25" s="665" t="n">
         <v>22</v>
       </c>
       <c r="D25" s="137" t="inlineStr">
@@ -2742,37 +2775,37 @@
           <t>✨Jacob</t>
         </is>
       </c>
-      <c r="E25" s="647" t="n">
+      <c r="E25" s="673" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="G25" s="647" t="n">
+      <c r="G25" s="673" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="647" t="n">
+      <c r="I25" s="673" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K25" s="647" t="n">
+      <c r="K25" s="673" t="n">
         <v>0</v>
       </c>
       <c r="L25" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="M25" s="646" t="n">
+      <c r="M25" s="672" t="n">
         <v>6</v>
       </c>
       <c r="N25" s="127" t="n">
         <v>7385</v>
       </c>
-      <c r="O25" s="646" t="n">
+      <c r="O25" s="672" t="n">
         <v>6</v>
       </c>
       <c r="P25" s="127" t="n">
@@ -2780,15 +2813,15 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="642" t="inlineStr">
+      <c r="A26" s="668" t="inlineStr">
         <is>
           <t>#QLGYRVPU0</t>
         </is>
       </c>
-      <c r="B26" s="642" t="n">
-        <v>886</v>
-      </c>
-      <c r="C26" s="635" t="n">
+      <c r="B26" s="668" t="n">
+        <v>901</v>
+      </c>
+      <c r="C26" s="661" t="n">
         <v>23</v>
       </c>
       <c r="D26" s="148" t="inlineStr">
@@ -2796,37 +2829,37 @@
           <t>Black.Boy.</t>
         </is>
       </c>
-      <c r="E26" s="648" t="n">
+      <c r="E26" s="674" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="648" t="n">
+      <c r="G26" s="674" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="136" t="n">
-        <v>11</v>
-      </c>
-      <c r="I26" s="642" t="n"/>
+        <v>15</v>
+      </c>
+      <c r="I26" s="668" t="n"/>
       <c r="J26" s="136" t="n"/>
-      <c r="K26" s="642" t="n"/>
+      <c r="K26" s="668" t="n"/>
       <c r="L26" s="136" t="n"/>
-      <c r="M26" s="642" t="n"/>
+      <c r="M26" s="668" t="n"/>
       <c r="N26" s="136" t="n"/>
-      <c r="O26" s="642" t="n"/>
+      <c r="O26" s="668" t="n"/>
       <c r="P26" s="136" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="645" t="inlineStr">
+      <c r="A27" s="671" t="inlineStr">
         <is>
           <t>#QY8L2GLUR</t>
         </is>
       </c>
-      <c r="B27" s="645" t="n">
+      <c r="B27" s="671" t="n">
         <v>907</v>
       </c>
-      <c r="C27" s="639" t="n">
+      <c r="C27" s="665" t="n">
         <v>24</v>
       </c>
       <c r="D27" s="137" t="inlineStr">
@@ -2834,37 +2867,37 @@
           <t>Huy</t>
         </is>
       </c>
-      <c r="E27" s="647" t="n">
+      <c r="E27" s="673" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="G27" s="647" t="n">
+      <c r="G27" s="673" t="n">
         <v>0</v>
       </c>
       <c r="H27" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="647" t="n">
+      <c r="I27" s="673" t="n">
         <v>0</v>
       </c>
       <c r="J27" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K27" s="647" t="n">
+      <c r="K27" s="673" t="n">
         <v>0</v>
       </c>
       <c r="L27" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="M27" s="646" t="n">
+      <c r="M27" s="672" t="n">
         <v>6</v>
       </c>
       <c r="N27" s="127" t="n">
         <v>6995</v>
       </c>
-      <c r="O27" s="646" t="n">
+      <c r="O27" s="672" t="n">
         <v>6</v>
       </c>
       <c r="P27" s="127" t="n">
@@ -2872,157 +2905,157 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="642" t="inlineStr">
+      <c r="A28" s="668" t="inlineStr">
+        <is>
+          <t>#L2QQL9QVJ</t>
+        </is>
+      </c>
+      <c r="B28" s="668" t="n">
+        <v>1450</v>
+      </c>
+      <c r="C28" s="661" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" s="148" t="inlineStr">
+        <is>
+          <t>JustPre10d</t>
+        </is>
+      </c>
+      <c r="E28" s="674" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="674" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="674" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="674" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="669" t="n">
+        <v>6</v>
+      </c>
+      <c r="N28" s="133" t="n">
+        <v>6655</v>
+      </c>
+      <c r="O28" s="669" t="n">
+        <v>6</v>
+      </c>
+      <c r="P28" s="133" t="n">
+        <v>7675</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="671" t="inlineStr">
+        <is>
+          <t>#LPR9RPCY9</t>
+        </is>
+      </c>
+      <c r="B29" s="671" t="n">
+        <v>990</v>
+      </c>
+      <c r="C29" s="665" t="n">
+        <v>26</v>
+      </c>
+      <c r="D29" s="137" t="inlineStr">
+        <is>
+          <t>sayhuss17</t>
+        </is>
+      </c>
+      <c r="E29" s="673" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="673" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="673" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="673" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="675" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" s="131" t="n">
+        <v>4240</v>
+      </c>
+      <c r="O29" s="671" t="n"/>
+      <c r="P29" s="130" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="668" t="inlineStr">
         <is>
           <t>#QQLVRJCGQ</t>
         </is>
       </c>
-      <c r="B28" s="642" t="n">
-        <v>1209</v>
-      </c>
-      <c r="C28" s="635" t="n">
-        <v>25</v>
-      </c>
-      <c r="D28" s="148" t="inlineStr">
+      <c r="B30" s="668" t="n">
+        <v>1240</v>
+      </c>
+      <c r="C30" s="661" t="n">
+        <v>27</v>
+      </c>
+      <c r="D30" s="148" t="inlineStr">
         <is>
           <t>khant</t>
         </is>
       </c>
-      <c r="E28" s="648" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="648" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="136" t="n">
+      <c r="E30" s="674" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="674" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="136" t="n">
         <v>40</v>
       </c>
-      <c r="I28" s="642" t="n"/>
-      <c r="J28" s="136" t="n"/>
-      <c r="K28" s="642" t="n"/>
-      <c r="L28" s="136" t="n"/>
-      <c r="M28" s="642" t="n"/>
-      <c r="N28" s="136" t="n"/>
-      <c r="O28" s="642" t="n"/>
-      <c r="P28" s="136" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="645" t="inlineStr">
-        <is>
-          <t>#L2QQL9QVJ</t>
-        </is>
-      </c>
-      <c r="B29" s="645" t="n">
-        <v>1450</v>
-      </c>
-      <c r="C29" s="639" t="n">
-        <v>26</v>
-      </c>
-      <c r="D29" s="137" t="inlineStr">
-        <is>
-          <t>JustPre10d</t>
-        </is>
-      </c>
-      <c r="E29" s="647" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="647" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="647" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="647" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="646" t="n">
-        <v>6</v>
-      </c>
-      <c r="N29" s="127" t="n">
-        <v>6655</v>
-      </c>
-      <c r="O29" s="646" t="n">
-        <v>6</v>
-      </c>
-      <c r="P29" s="127" t="n">
-        <v>7675</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="642" t="inlineStr">
-        <is>
-          <t>#LPR9RPCY9</t>
-        </is>
-      </c>
-      <c r="B30" s="642" t="n">
-        <v>990</v>
-      </c>
-      <c r="C30" s="635" t="n">
-        <v>27</v>
-      </c>
-      <c r="D30" s="148" t="inlineStr">
-        <is>
-          <t>sayhuss17</t>
-        </is>
-      </c>
-      <c r="E30" s="648" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="648" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="648" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="648" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="644" t="n">
-        <v>4</v>
-      </c>
-      <c r="N30" s="139" t="n">
-        <v>4240</v>
-      </c>
-      <c r="O30" s="642" t="n"/>
+      <c r="I30" s="668" t="n"/>
+      <c r="J30" s="136" t="n"/>
+      <c r="K30" s="668" t="n"/>
+      <c r="L30" s="136" t="n"/>
+      <c r="M30" s="668" t="n"/>
+      <c r="N30" s="136" t="n"/>
+      <c r="O30" s="668" t="n"/>
       <c r="P30" s="136" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="645" t="inlineStr">
+      <c r="A31" s="671" t="inlineStr">
         <is>
           <t>#QQL8C29CY</t>
         </is>
       </c>
-      <c r="B31" s="645" t="n">
-        <v>900</v>
-      </c>
-      <c r="C31" s="639" t="n">
+      <c r="B31" s="671" t="n">
+        <v>878</v>
+      </c>
+      <c r="C31" s="665" t="n">
         <v>28</v>
       </c>
       <c r="D31" s="137" t="inlineStr">
@@ -3030,37 +3063,37 @@
           <t>TypicalTeague#2</t>
         </is>
       </c>
-      <c r="E31" s="647" t="n">
+      <c r="E31" s="673" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="G31" s="647" t="n">
+      <c r="G31" s="673" t="n">
         <v>0</v>
       </c>
       <c r="H31" s="130" t="n">
         <v>0</v>
       </c>
-      <c r="I31" s="647" t="n">
+      <c r="I31" s="673" t="n">
         <v>0</v>
       </c>
       <c r="J31" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="K31" s="647" t="n">
+      <c r="K31" s="673" t="n">
         <v>0</v>
       </c>
       <c r="L31" s="137" t="n">
         <v>0</v>
       </c>
-      <c r="M31" s="646" t="n">
+      <c r="M31" s="672" t="n">
         <v>5</v>
       </c>
       <c r="N31" s="131" t="n">
         <v>4070</v>
       </c>
-      <c r="O31" s="646" t="n">
+      <c r="O31" s="672" t="n">
         <v>6</v>
       </c>
       <c r="P31" s="127" t="n">
@@ -3068,558 +3101,618 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="642" t="inlineStr">
+      <c r="A32" s="668" t="inlineStr">
+        <is>
+          <t>#L9QL9YQQY</t>
+        </is>
+      </c>
+      <c r="B32" s="668" t="n">
+        <v>975</v>
+      </c>
+      <c r="C32" s="661" t="n">
+        <v>29</v>
+      </c>
+      <c r="D32" s="148" t="inlineStr">
+        <is>
+          <t>Ima Chad</t>
+        </is>
+      </c>
+      <c r="E32" s="674" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="674" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="674" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="674" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="674" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="669" t="n">
+        <v>5</v>
+      </c>
+      <c r="P32" s="148" t="n">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="671" t="inlineStr">
         <is>
           <t>#L9JJQY992</t>
         </is>
       </c>
-      <c r="B32" s="642" t="n">
+      <c r="B33" s="671" t="n">
         <v>773</v>
       </c>
-      <c r="C32" s="635" t="n">
-        <v>29</v>
-      </c>
-      <c r="D32" s="148" t="inlineStr">
+      <c r="C33" s="665" t="n">
+        <v>30</v>
+      </c>
+      <c r="D33" s="137" t="inlineStr">
         <is>
           <t>Fisted_Waffle</t>
         </is>
       </c>
-      <c r="E32" s="648" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="648" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="648" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="648" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="648" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="148" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" s="642" t="n"/>
-      <c r="P32" s="136" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="645" t="inlineStr">
+      <c r="E33" s="673" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="673" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="673" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="673" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="673" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="671" t="n"/>
+      <c r="P33" s="130" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="668" t="inlineStr">
         <is>
           <t>#PJYVV989R</t>
         </is>
       </c>
-      <c r="B33" s="645" t="n">
-        <v>1584</v>
-      </c>
-      <c r="C33" s="639" t="n">
-        <v>30</v>
-      </c>
-      <c r="D33" s="137" t="inlineStr">
+      <c r="B34" s="668" t="n">
+        <v>1577</v>
+      </c>
+      <c r="C34" s="661" t="n">
+        <v>31</v>
+      </c>
+      <c r="D34" s="148" t="inlineStr">
         <is>
           <t>nx</t>
         </is>
       </c>
-      <c r="E33" s="647" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="647" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="647" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="647" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" s="647" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" s="645" t="n"/>
-      <c r="P33" s="130" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="642" t="inlineStr">
-        <is>
-          <t>#L9QL9YQQY</t>
-        </is>
-      </c>
-      <c r="B34" s="642" t="n">
-        <v>975</v>
-      </c>
-      <c r="C34" s="635" t="n">
-        <v>31</v>
-      </c>
-      <c r="D34" s="148" t="inlineStr">
-        <is>
-          <t>Ima Chad</t>
-        </is>
-      </c>
-      <c r="E34" s="648" t="n">
+      <c r="E34" s="674" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="G34" s="648" t="n">
-        <v>0</v>
+      <c r="G34" s="674" t="n">
+        <v>4</v>
       </c>
       <c r="H34" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="I34" s="648" t="n">
+      <c r="I34" s="674" t="n">
         <v>0</v>
       </c>
       <c r="J34" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="K34" s="648" t="n">
+      <c r="K34" s="674" t="n">
         <v>0</v>
       </c>
       <c r="L34" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="M34" s="648" t="n">
+      <c r="M34" s="674" t="n">
         <v>0</v>
       </c>
       <c r="N34" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="O34" s="643" t="n">
+      <c r="O34" s="668" t="n"/>
+      <c r="P34" s="136" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="671" t="inlineStr">
+        <is>
+          <t>#QQL28Y2UL</t>
+        </is>
+      </c>
+      <c r="B35" s="671" t="n">
+        <v>1103</v>
+      </c>
+      <c r="C35" s="665" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" s="130" t="inlineStr">
+        <is>
+          <t>SUPoT</t>
+        </is>
+      </c>
+      <c r="E35" s="671" t="n"/>
+      <c r="F35" s="130" t="n"/>
+      <c r="G35" s="671" t="n"/>
+      <c r="H35" s="130" t="n"/>
+      <c r="I35" s="671" t="n"/>
+      <c r="J35" s="130" t="n"/>
+      <c r="K35" s="671" t="n"/>
+      <c r="L35" s="130" t="n"/>
+      <c r="M35" s="671" t="n"/>
+      <c r="N35" s="130" t="n"/>
+      <c r="O35" s="671" t="n"/>
+      <c r="P35" s="130" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="668" t="inlineStr">
+        <is>
+          <t>#QUVJGC0VQ</t>
+        </is>
+      </c>
+      <c r="B36" s="668" t="n">
+        <v>1155</v>
+      </c>
+      <c r="C36" s="661" t="n">
+        <v>33</v>
+      </c>
+      <c r="D36" s="136" t="inlineStr">
+        <is>
+          <t>Cam</t>
+        </is>
+      </c>
+      <c r="E36" s="668" t="n"/>
+      <c r="F36" s="136" t="n"/>
+      <c r="G36" s="668" t="n"/>
+      <c r="H36" s="136" t="n"/>
+      <c r="I36" s="668" t="n"/>
+      <c r="J36" s="136" t="n"/>
+      <c r="K36" s="668" t="n"/>
+      <c r="L36" s="136" t="n"/>
+      <c r="M36" s="668" t="n"/>
+      <c r="N36" s="136" t="n"/>
+      <c r="O36" s="668" t="n"/>
+      <c r="P36" s="136" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="232" t="inlineStr">
+        <is>
+          <t>#QLL0PVCRV</t>
+        </is>
+      </c>
+      <c r="B37" s="233" t="n">
+        <v>1704</v>
+      </c>
+      <c r="C37" s="234" t="n">
+        <v>34</v>
+      </c>
+      <c r="D37" s="235" t="inlineStr">
+        <is>
+          <t>Harsh chhillar</t>
+        </is>
+      </c>
+      <c r="E37" s="233" t="n"/>
+      <c r="F37" s="235" t="n"/>
+      <c r="G37" s="233" t="n"/>
+      <c r="H37" s="235" t="n"/>
+      <c r="I37" s="233" t="n"/>
+      <c r="J37" s="235" t="n"/>
+      <c r="K37" s="233" t="n"/>
+      <c r="L37" s="235" t="n"/>
+      <c r="M37" s="233" t="n"/>
+      <c r="N37" s="235" t="n"/>
+      <c r="O37" s="233" t="n"/>
+      <c r="P37" s="235" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="674" t="inlineStr">
+        <is>
+          <t>#Q8YP9P8UJ</t>
+        </is>
+      </c>
+      <c r="B38" s="668" t="n">
+        <v>945</v>
+      </c>
+      <c r="C38" s="661" t="n">
+        <v>35</v>
+      </c>
+      <c r="D38" s="136" t="inlineStr">
+        <is>
+          <t>Ranger</t>
+        </is>
+      </c>
+      <c r="E38" s="668" t="n"/>
+      <c r="F38" s="136" t="n"/>
+      <c r="G38" s="668" t="n"/>
+      <c r="H38" s="136" t="n"/>
+      <c r="I38" s="669" t="n">
         <v>5</v>
       </c>
-      <c r="P34" s="148" t="n">
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="232" t="inlineStr">
-        <is>
-          <t>#QLL0PVCRV</t>
-        </is>
-      </c>
-      <c r="B35" s="233" t="n">
-        <v>1704</v>
-      </c>
-      <c r="C35" s="234" t="n">
-        <v>32</v>
-      </c>
-      <c r="D35" s="235" t="inlineStr">
-        <is>
-          <t>Harsh chhillar</t>
-        </is>
-      </c>
-      <c r="E35" s="233" t="n"/>
-      <c r="F35" s="235" t="n"/>
-      <c r="G35" s="233" t="n"/>
-      <c r="H35" s="235" t="n"/>
-      <c r="I35" s="233" t="n"/>
-      <c r="J35" s="235" t="n"/>
-      <c r="K35" s="233" t="n"/>
-      <c r="L35" s="235" t="n"/>
-      <c r="M35" s="233" t="n"/>
-      <c r="N35" s="235" t="n"/>
-      <c r="O35" s="233" t="n"/>
-      <c r="P35" s="235" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="648" t="inlineStr">
-        <is>
-          <t>#Q8YP9P8UJ</t>
-        </is>
-      </c>
-      <c r="B36" s="642" t="n">
-        <v>945</v>
-      </c>
-      <c r="C36" s="635" t="n">
-        <v>33</v>
-      </c>
-      <c r="D36" s="136" t="inlineStr">
-        <is>
-          <t>Ranger</t>
-        </is>
-      </c>
-      <c r="E36" s="642" t="n"/>
-      <c r="F36" s="136" t="n"/>
-      <c r="G36" s="642" t="n"/>
-      <c r="H36" s="136" t="n"/>
-      <c r="I36" s="643" t="n">
-        <v>5</v>
-      </c>
-      <c r="J36" s="139" t="n">
+      <c r="J38" s="139" t="n">
         <v>4680</v>
       </c>
-      <c r="K36" s="642" t="n"/>
-      <c r="L36" s="136" t="n"/>
-      <c r="M36" s="642" t="n"/>
-      <c r="N36" s="136" t="n"/>
-      <c r="O36" s="642" t="n"/>
-      <c r="P36" s="136" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="647" t="inlineStr">
+      <c r="K38" s="668" t="n"/>
+      <c r="L38" s="136" t="n"/>
+      <c r="M38" s="668" t="n"/>
+      <c r="N38" s="136" t="n"/>
+      <c r="O38" s="668" t="n"/>
+      <c r="P38" s="136" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="673" t="inlineStr">
         <is>
           <t>#Q0JG2RJQ8</t>
         </is>
       </c>
-      <c r="B37" s="645" t="n">
+      <c r="B39" s="671" t="n">
         <v>997</v>
       </c>
-      <c r="C37" s="639" t="n">
-        <v>34</v>
-      </c>
-      <c r="D37" s="130" t="inlineStr">
+      <c r="C39" s="665" t="n">
+        <v>36</v>
+      </c>
+      <c r="D39" s="130" t="inlineStr">
         <is>
           <t>bozo</t>
         </is>
       </c>
-      <c r="E37" s="645" t="n"/>
-      <c r="F37" s="130" t="n"/>
-      <c r="G37" s="645" t="n"/>
-      <c r="H37" s="130" t="n"/>
-      <c r="I37" s="645" t="n"/>
-      <c r="J37" s="130" t="n"/>
-      <c r="K37" s="646" t="n">
-        <v>6</v>
-      </c>
-      <c r="L37" s="127" t="n">
+      <c r="E39" s="671" t="n"/>
+      <c r="F39" s="130" t="n"/>
+      <c r="G39" s="671" t="n"/>
+      <c r="H39" s="130" t="n"/>
+      <c r="I39" s="671" t="n"/>
+      <c r="J39" s="130" t="n"/>
+      <c r="K39" s="672" t="n">
+        <v>6</v>
+      </c>
+      <c r="L39" s="127" t="n">
         <v>6495</v>
       </c>
-      <c r="M37" s="645" t="n"/>
-      <c r="N37" s="130" t="n"/>
-      <c r="O37" s="645" t="n"/>
-      <c r="P37" s="130" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="648" t="inlineStr">
+      <c r="M39" s="671" t="n"/>
+      <c r="N39" s="130" t="n"/>
+      <c r="O39" s="671" t="n"/>
+      <c r="P39" s="130" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="674" t="inlineStr">
         <is>
           <t>#UVCCQC02</t>
         </is>
       </c>
-      <c r="B38" s="642" t="n">
+      <c r="B40" s="668" t="n">
         <v>1806</v>
       </c>
-      <c r="C38" s="635" t="n">
-        <v>35</v>
-      </c>
-      <c r="D38" s="136" t="inlineStr">
+      <c r="C40" s="661" t="n">
+        <v>37</v>
+      </c>
+      <c r="D40" s="136" t="inlineStr">
         <is>
           <t>lordshisha</t>
         </is>
       </c>
-      <c r="E38" s="642" t="n"/>
-      <c r="F38" s="136" t="n"/>
-      <c r="G38" s="642" t="n"/>
-      <c r="H38" s="136" t="n"/>
-      <c r="I38" s="642" t="n"/>
-      <c r="J38" s="136" t="n"/>
-      <c r="K38" s="643" t="n">
-        <v>6</v>
-      </c>
-      <c r="L38" s="133" t="n">
+      <c r="E40" s="668" t="n"/>
+      <c r="F40" s="136" t="n"/>
+      <c r="G40" s="668" t="n"/>
+      <c r="H40" s="136" t="n"/>
+      <c r="I40" s="668" t="n"/>
+      <c r="J40" s="136" t="n"/>
+      <c r="K40" s="669" t="n">
+        <v>6</v>
+      </c>
+      <c r="L40" s="133" t="n">
         <v>8496</v>
       </c>
-      <c r="M38" s="643" t="n">
-        <v>6</v>
-      </c>
-      <c r="N38" s="133" t="n">
+      <c r="M40" s="669" t="n">
+        <v>6</v>
+      </c>
+      <c r="N40" s="133" t="n">
         <v>6310</v>
       </c>
-      <c r="O38" s="643" t="n">
-        <v>6</v>
-      </c>
-      <c r="P38" s="133" t="n">
+      <c r="O40" s="669" t="n">
+        <v>6</v>
+      </c>
+      <c r="P40" s="133" t="n">
         <v>6930</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="647" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="673" t="inlineStr">
         <is>
           <t>#P2CPRPQU</t>
         </is>
       </c>
-      <c r="B39" s="645" t="n">
+      <c r="B41" s="671" t="n">
         <v>2232</v>
       </c>
-      <c r="C39" s="639" t="n">
-        <v>36</v>
-      </c>
-      <c r="D39" s="130" t="inlineStr">
+      <c r="C41" s="665" t="n">
+        <v>38</v>
+      </c>
+      <c r="D41" s="130" t="inlineStr">
         <is>
           <t>The Drift King</t>
         </is>
       </c>
-      <c r="E39" s="645" t="n"/>
-      <c r="F39" s="130" t="n"/>
-      <c r="G39" s="645" t="n"/>
-      <c r="H39" s="130" t="n"/>
-      <c r="I39" s="645" t="n"/>
-      <c r="J39" s="130" t="n"/>
-      <c r="K39" s="646" t="n">
-        <v>6</v>
-      </c>
-      <c r="L39" s="127" t="n">
+      <c r="E41" s="671" t="n"/>
+      <c r="F41" s="130" t="n"/>
+      <c r="G41" s="671" t="n"/>
+      <c r="H41" s="130" t="n"/>
+      <c r="I41" s="671" t="n"/>
+      <c r="J41" s="130" t="n"/>
+      <c r="K41" s="672" t="n">
+        <v>6</v>
+      </c>
+      <c r="L41" s="127" t="n">
         <v>8023</v>
       </c>
-      <c r="M39" s="646" t="n">
-        <v>6</v>
-      </c>
-      <c r="N39" s="127" t="n">
+      <c r="M41" s="672" t="n">
+        <v>6</v>
+      </c>
+      <c r="N41" s="127" t="n">
         <v>7625</v>
       </c>
-      <c r="O39" s="646" t="n">
-        <v>6</v>
-      </c>
-      <c r="P39" s="127" t="n">
+      <c r="O41" s="672" t="n">
+        <v>6</v>
+      </c>
+      <c r="P41" s="127" t="n">
         <v>7375</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="648" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="674" t="inlineStr">
         <is>
           <t>#QJVL0LYQQ</t>
         </is>
       </c>
-      <c r="B40" s="642" t="n">
+      <c r="B42" s="668" t="n">
         <v>921</v>
       </c>
-      <c r="C40" s="635" t="n">
-        <v>37</v>
-      </c>
-      <c r="D40" s="136" t="inlineStr">
+      <c r="C42" s="661" t="n">
+        <v>39</v>
+      </c>
+      <c r="D42" s="136" t="inlineStr">
         <is>
           <t>mobbb341</t>
         </is>
       </c>
-      <c r="E40" s="642" t="n"/>
-      <c r="F40" s="136" t="n"/>
-      <c r="G40" s="642" t="n"/>
-      <c r="H40" s="136" t="n"/>
-      <c r="I40" s="642" t="n"/>
-      <c r="J40" s="136" t="n"/>
-      <c r="K40" s="643" t="n">
-        <v>6</v>
-      </c>
-      <c r="L40" s="133" t="n">
+      <c r="E42" s="668" t="n"/>
+      <c r="F42" s="136" t="n"/>
+      <c r="G42" s="668" t="n"/>
+      <c r="H42" s="136" t="n"/>
+      <c r="I42" s="668" t="n"/>
+      <c r="J42" s="136" t="n"/>
+      <c r="K42" s="669" t="n">
+        <v>6</v>
+      </c>
+      <c r="L42" s="133" t="n">
         <v>7710</v>
       </c>
-      <c r="M40" s="643" t="n">
-        <v>6</v>
-      </c>
-      <c r="N40" s="133" t="n">
+      <c r="M42" s="669" t="n">
+        <v>6</v>
+      </c>
+      <c r="N42" s="133" t="n">
         <v>8810</v>
       </c>
-      <c r="O40" s="643" t="n">
-        <v>6</v>
-      </c>
-      <c r="P40" s="139" t="n">
+      <c r="O42" s="669" t="n">
+        <v>6</v>
+      </c>
+      <c r="P42" s="139" t="n">
         <v>4505</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="647" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="673" t="inlineStr">
         <is>
           <t>#L8R82C8VC</t>
         </is>
       </c>
-      <c r="B41" s="645" t="n">
+      <c r="B43" s="671" t="n">
         <v>1162</v>
       </c>
-      <c r="C41" s="639" t="n">
-        <v>38</v>
-      </c>
-      <c r="D41" s="130" t="inlineStr">
+      <c r="C43" s="665" t="n">
+        <v>40</v>
+      </c>
+      <c r="D43" s="130" t="inlineStr">
         <is>
           <t>caden asue</t>
         </is>
       </c>
-      <c r="E41" s="645" t="n"/>
-      <c r="F41" s="130" t="n"/>
-      <c r="G41" s="645" t="n"/>
-      <c r="H41" s="130" t="n"/>
-      <c r="I41" s="645" t="n"/>
-      <c r="J41" s="130" t="n"/>
-      <c r="K41" s="646" t="n">
-        <v>6</v>
-      </c>
-      <c r="L41" s="131" t="n">
+      <c r="E43" s="671" t="n"/>
+      <c r="F43" s="130" t="n"/>
+      <c r="G43" s="671" t="n"/>
+      <c r="H43" s="130" t="n"/>
+      <c r="I43" s="671" t="n"/>
+      <c r="J43" s="130" t="n"/>
+      <c r="K43" s="672" t="n">
+        <v>6</v>
+      </c>
+      <c r="L43" s="131" t="n">
         <v>5112</v>
       </c>
-      <c r="M41" s="646" t="n">
-        <v>6</v>
-      </c>
-      <c r="N41" s="131" t="n">
+      <c r="M43" s="672" t="n">
+        <v>6</v>
+      </c>
+      <c r="N43" s="131" t="n">
         <v>4283</v>
       </c>
-      <c r="O41" s="646" t="n">
-        <v>6</v>
-      </c>
-      <c r="P41" s="131" t="n">
+      <c r="O43" s="672" t="n">
+        <v>6</v>
+      </c>
+      <c r="P43" s="131" t="n">
         <v>4338</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="648" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="674" t="inlineStr">
         <is>
           <t>#L9Q8VLLQG</t>
         </is>
       </c>
-      <c r="B42" s="642" t="n">
+      <c r="B44" s="668" t="n">
         <v>1130</v>
       </c>
-      <c r="C42" s="635" t="n">
-        <v>39</v>
-      </c>
-      <c r="D42" s="136" t="inlineStr">
+      <c r="C44" s="661" t="n">
+        <v>41</v>
+      </c>
+      <c r="D44" s="136" t="inlineStr">
         <is>
           <t>cat</t>
         </is>
       </c>
-      <c r="E42" s="642" t="n"/>
-      <c r="F42" s="136" t="n"/>
-      <c r="G42" s="642" t="n"/>
-      <c r="H42" s="136" t="n"/>
-      <c r="I42" s="642" t="n"/>
-      <c r="J42" s="136" t="n"/>
-      <c r="K42" s="642" t="n"/>
-      <c r="L42" s="136" t="n"/>
-      <c r="M42" s="642" t="n"/>
-      <c r="N42" s="136" t="n"/>
-      <c r="O42" s="643" t="n">
-        <v>6</v>
-      </c>
-      <c r="P42" s="139" t="n">
+      <c r="E44" s="668" t="n"/>
+      <c r="F44" s="136" t="n"/>
+      <c r="G44" s="668" t="n"/>
+      <c r="H44" s="136" t="n"/>
+      <c r="I44" s="668" t="n"/>
+      <c r="J44" s="136" t="n"/>
+      <c r="K44" s="668" t="n"/>
+      <c r="L44" s="136" t="n"/>
+      <c r="M44" s="668" t="n"/>
+      <c r="N44" s="136" t="n"/>
+      <c r="O44" s="669" t="n">
+        <v>6</v>
+      </c>
+      <c r="P44" s="139" t="n">
         <v>5908</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="647" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="673" t="inlineStr">
         <is>
           <t>#QV0PQC9JU</t>
         </is>
       </c>
-      <c r="B43" s="645" t="n">
+      <c r="B45" s="671" t="n">
         <v>539</v>
       </c>
-      <c r="C43" s="639" t="n">
-        <v>40</v>
-      </c>
-      <c r="D43" s="130" t="inlineStr">
+      <c r="C45" s="665" t="n">
+        <v>42</v>
+      </c>
+      <c r="D45" s="130" t="inlineStr">
         <is>
           <t>Superman</t>
         </is>
       </c>
-      <c r="E43" s="645" t="n"/>
-      <c r="F43" s="130" t="n"/>
-      <c r="G43" s="645" t="n"/>
-      <c r="H43" s="130" t="n"/>
-      <c r="I43" s="645" t="n"/>
-      <c r="J43" s="130" t="n"/>
-      <c r="K43" s="645" t="n"/>
-      <c r="L43" s="130" t="n"/>
-      <c r="M43" s="645" t="n"/>
-      <c r="N43" s="130" t="n"/>
-      <c r="O43" s="646" t="n">
-        <v>6</v>
-      </c>
-      <c r="P43" s="131" t="n">
+      <c r="E45" s="671" t="n"/>
+      <c r="F45" s="130" t="n"/>
+      <c r="G45" s="671" t="n"/>
+      <c r="H45" s="130" t="n"/>
+      <c r="I45" s="671" t="n"/>
+      <c r="J45" s="130" t="n"/>
+      <c r="K45" s="671" t="n"/>
+      <c r="L45" s="130" t="n"/>
+      <c r="M45" s="671" t="n"/>
+      <c r="N45" s="130" t="n"/>
+      <c r="O45" s="672" t="n">
+        <v>6</v>
+      </c>
+      <c r="P45" s="131" t="n">
         <v>4447</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="648" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="674" t="inlineStr">
         <is>
           <t>#LU0CRP09L</t>
         </is>
       </c>
-      <c r="B44" s="642" t="n">
+      <c r="B46" s="668" t="n">
         <v>809</v>
       </c>
-      <c r="C44" s="635" t="n">
-        <v>41</v>
-      </c>
-      <c r="D44" s="136" t="inlineStr">
+      <c r="C46" s="661" t="n">
+        <v>43</v>
+      </c>
+      <c r="D46" s="136" t="inlineStr">
         <is>
           <t>I Dont Know</t>
         </is>
       </c>
-      <c r="E44" s="642" t="n"/>
-      <c r="F44" s="136" t="n"/>
-      <c r="G44" s="642" t="n"/>
-      <c r="H44" s="136" t="n"/>
-      <c r="I44" s="642" t="n"/>
-      <c r="J44" s="136" t="n"/>
-      <c r="K44" s="642" t="n"/>
-      <c r="L44" s="136" t="n"/>
-      <c r="M44" s="642" t="n"/>
-      <c r="N44" s="136" t="n"/>
-      <c r="O44" s="644" t="n">
+      <c r="E46" s="668" t="n"/>
+      <c r="F46" s="136" t="n"/>
+      <c r="G46" s="668" t="n"/>
+      <c r="H46" s="136" t="n"/>
+      <c r="I46" s="668" t="n"/>
+      <c r="J46" s="136" t="n"/>
+      <c r="K46" s="668" t="n"/>
+      <c r="L46" s="136" t="n"/>
+      <c r="M46" s="668" t="n"/>
+      <c r="N46" s="136" t="n"/>
+      <c r="O46" s="670" t="n">
         <v>3</v>
       </c>
-      <c r="P44" s="148" t="n">
+      <c r="P46" s="148" t="n">
         <v>3435</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="647" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="673" t="inlineStr">
         <is>
           <t>#YCPP0QPP8</t>
         </is>
       </c>
-      <c r="B45" s="645" t="n">
+      <c r="B47" s="671" t="n">
         <v>3327</v>
       </c>
-      <c r="C45" s="639" t="n">
-        <v>42</v>
-      </c>
-      <c r="D45" s="130" t="inlineStr">
+      <c r="C47" s="665" t="n">
+        <v>44</v>
+      </c>
+      <c r="D47" s="130" t="inlineStr">
         <is>
           <t>Coach</t>
         </is>
       </c>
-      <c r="E45" s="645" t="n"/>
-      <c r="F45" s="130" t="n"/>
-      <c r="G45" s="645" t="n"/>
-      <c r="H45" s="130" t="n"/>
-      <c r="I45" s="645" t="n"/>
-      <c r="J45" s="130" t="n"/>
-      <c r="K45" s="645" t="n"/>
-      <c r="L45" s="130" t="n"/>
-      <c r="M45" s="645" t="n"/>
-      <c r="N45" s="130" t="n"/>
-      <c r="O45" s="647" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" s="137" t="n">
+      <c r="E47" s="671" t="n"/>
+      <c r="F47" s="130" t="n"/>
+      <c r="G47" s="671" t="n"/>
+      <c r="H47" s="130" t="n"/>
+      <c r="I47" s="671" t="n"/>
+      <c r="J47" s="130" t="n"/>
+      <c r="K47" s="671" t="n"/>
+      <c r="L47" s="130" t="n"/>
+      <c r="M47" s="671" t="n"/>
+      <c r="N47" s="130" t="n"/>
+      <c r="O47" s="673" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" s="137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3634,7 +3727,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:L40"/>
+  <dimension ref="B2:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3736,259 +3829,259 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="623" t="inlineStr">
+      <c r="B4" s="649" t="inlineStr">
         <is>
           <t>#QUYG0PQC8</t>
         </is>
       </c>
-      <c r="C4" s="623" t="n">
+      <c r="C4" s="649" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="624" t="inlineStr">
+      <c r="D4" s="650" t="inlineStr">
         <is>
           <t>Luffy</t>
         </is>
       </c>
-      <c r="E4" s="624" t="n">
+      <c r="E4" s="650" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="116" t="n">
         <v>6</v>
       </c>
-      <c r="G4" s="623" t="n"/>
+      <c r="G4" s="649" t="n"/>
       <c r="H4" s="119" t="n"/>
-      <c r="I4" s="623" t="n"/>
+      <c r="I4" s="649" t="n"/>
       <c r="J4" s="119" t="n"/>
-      <c r="K4" s="623" t="n"/>
+      <c r="K4" s="649" t="n"/>
       <c r="L4" s="119" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="625" t="inlineStr">
+      <c r="B5" s="651" t="inlineStr">
         <is>
           <t>#G0QPVJY9L</t>
         </is>
       </c>
-      <c r="C5" s="625" t="n">
+      <c r="C5" s="651" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="626" t="inlineStr">
+      <c r="D5" s="652" t="inlineStr">
         <is>
           <t>Zoro</t>
         </is>
       </c>
-      <c r="E5" s="626" t="n">
+      <c r="E5" s="652" t="n">
         <v>2</v>
       </c>
       <c r="F5" s="122" t="n">
         <v>6</v>
       </c>
-      <c r="G5" s="625" t="n"/>
+      <c r="G5" s="651" t="n"/>
       <c r="H5" s="125" t="n"/>
-      <c r="I5" s="625" t="n"/>
+      <c r="I5" s="651" t="n"/>
       <c r="J5" s="125" t="n"/>
-      <c r="K5" s="625" t="n"/>
+      <c r="K5" s="651" t="n"/>
       <c r="L5" s="125" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" s="623" t="inlineStr">
+      <c r="B6" s="649" t="inlineStr">
         <is>
           <t>#QLR088LC9</t>
         </is>
       </c>
-      <c r="C6" s="623" t="n">
+      <c r="C6" s="649" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="624" t="inlineStr">
+      <c r="D6" s="650" t="inlineStr">
         <is>
           <t>Sanji</t>
         </is>
       </c>
-      <c r="E6" s="624" t="n">
+      <c r="E6" s="650" t="n">
         <v>2</v>
       </c>
       <c r="F6" s="116" t="n">
         <v>6</v>
       </c>
-      <c r="G6" s="623" t="n"/>
+      <c r="G6" s="649" t="n"/>
       <c r="H6" s="119" t="n"/>
-      <c r="I6" s="623" t="n"/>
+      <c r="I6" s="649" t="n"/>
       <c r="J6" s="119" t="n"/>
-      <c r="K6" s="623" t="n"/>
+      <c r="K6" s="649" t="n"/>
       <c r="L6" s="119" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="625" t="inlineStr">
+      <c r="B7" s="651" t="inlineStr">
         <is>
           <t>#QCV22VP0G</t>
         </is>
       </c>
-      <c r="C7" s="625" t="n">
+      <c r="C7" s="651" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="626" t="inlineStr">
+      <c r="D7" s="652" t="inlineStr">
         <is>
           <t>Nami</t>
         </is>
       </c>
-      <c r="E7" s="626" t="n">
+      <c r="E7" s="652" t="n">
         <v>2</v>
       </c>
       <c r="F7" s="122" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="625" t="n"/>
+      <c r="G7" s="651" t="n"/>
       <c r="H7" s="125" t="n"/>
-      <c r="I7" s="625" t="n"/>
+      <c r="I7" s="651" t="n"/>
       <c r="J7" s="125" t="n"/>
-      <c r="K7" s="625" t="n"/>
+      <c r="K7" s="651" t="n"/>
       <c r="L7" s="125" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="623" t="inlineStr">
+      <c r="B8" s="649" t="inlineStr">
         <is>
           <t>#QUV2GP88U</t>
         </is>
       </c>
-      <c r="C8" s="623" t="n">
+      <c r="C8" s="649" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="624" t="inlineStr">
+      <c r="D8" s="650" t="inlineStr">
         <is>
           <t>Nico Robin</t>
         </is>
       </c>
-      <c r="E8" s="624" t="n">
+      <c r="E8" s="650" t="n">
         <v>2</v>
       </c>
       <c r="F8" s="116" t="n">
         <v>6</v>
       </c>
-      <c r="G8" s="623" t="n"/>
+      <c r="G8" s="649" t="n"/>
       <c r="H8" s="119" t="n"/>
-      <c r="I8" s="623" t="n"/>
+      <c r="I8" s="649" t="n"/>
       <c r="J8" s="119" t="n"/>
-      <c r="K8" s="623" t="n"/>
+      <c r="K8" s="649" t="n"/>
       <c r="L8" s="119" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" s="627" t="inlineStr">
+      <c r="B9" s="653" t="inlineStr">
         <is>
           <t>#98JG2UJQL</t>
         </is>
       </c>
-      <c r="C9" s="627" t="n"/>
-      <c r="D9" s="627" t="inlineStr">
+      <c r="C9" s="653" t="n"/>
+      <c r="D9" s="653" t="inlineStr">
         <is>
           <t>Dragonux</t>
         </is>
       </c>
-      <c r="E9" s="627" t="n"/>
+      <c r="E9" s="653" t="n"/>
       <c r="F9" s="130" t="n"/>
-      <c r="G9" s="627" t="n"/>
+      <c r="G9" s="653" t="n"/>
       <c r="H9" s="130" t="n"/>
-      <c r="I9" s="627" t="n"/>
+      <c r="I9" s="653" t="n"/>
       <c r="J9" s="130" t="n"/>
-      <c r="K9" s="627" t="n"/>
+      <c r="K9" s="653" t="n"/>
       <c r="L9" s="130" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="628" t="inlineStr">
+      <c r="B10" s="654" t="inlineStr">
         <is>
           <t>#82QLQCJRJ</t>
         </is>
       </c>
-      <c r="C10" s="628" t="n"/>
-      <c r="D10" s="628" t="inlineStr">
+      <c r="C10" s="654" t="n"/>
+      <c r="D10" s="654" t="inlineStr">
         <is>
           <t>Raging Fury</t>
         </is>
       </c>
-      <c r="E10" s="628" t="n"/>
+      <c r="E10" s="654" t="n"/>
       <c r="F10" s="136" t="n"/>
-      <c r="G10" s="628" t="n"/>
+      <c r="G10" s="654" t="n"/>
       <c r="H10" s="136" t="n"/>
-      <c r="I10" s="628" t="n"/>
+      <c r="I10" s="654" t="n"/>
       <c r="J10" s="136" t="n"/>
-      <c r="K10" s="628" t="n"/>
+      <c r="K10" s="654" t="n"/>
       <c r="L10" s="136" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="625" t="inlineStr">
+      <c r="B11" s="651" t="inlineStr">
         <is>
           <t>#90U0VPU9U</t>
         </is>
       </c>
-      <c r="C11" s="625" t="n"/>
-      <c r="D11" s="625" t="inlineStr">
+      <c r="C11" s="651" t="n"/>
+      <c r="D11" s="651" t="inlineStr">
         <is>
           <t>KYANI7E</t>
         </is>
       </c>
-      <c r="E11" s="625" t="n"/>
+      <c r="E11" s="651" t="n"/>
       <c r="F11" s="125" t="n"/>
-      <c r="G11" s="625" t="n"/>
+      <c r="G11" s="651" t="n"/>
       <c r="H11" s="125" t="n"/>
-      <c r="I11" s="625" t="n"/>
+      <c r="I11" s="651" t="n"/>
       <c r="J11" s="125" t="n"/>
-      <c r="K11" s="625" t="n"/>
+      <c r="K11" s="651" t="n"/>
       <c r="L11" s="125" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="628" t="inlineStr">
+      <c r="B12" s="654" t="inlineStr">
         <is>
           <t>#PJYVV989R</t>
         </is>
       </c>
-      <c r="C12" s="628" t="n"/>
-      <c r="D12" s="628" t="inlineStr">
+      <c r="C12" s="654" t="n"/>
+      <c r="D12" s="654" t="inlineStr">
         <is>
           <t>nx</t>
         </is>
       </c>
-      <c r="E12" s="628" t="n"/>
+      <c r="E12" s="654" t="n"/>
       <c r="F12" s="136" t="n"/>
-      <c r="G12" s="629" t="n">
+      <c r="G12" s="655" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="139" t="n">
         <v>3</v>
       </c>
-      <c r="I12" s="629" t="n">
+      <c r="I12" s="655" t="n">
         <v>1</v>
       </c>
       <c r="J12" s="139" t="n">
         <v>3</v>
       </c>
-      <c r="K12" s="628" t="n"/>
+      <c r="K12" s="654" t="n"/>
       <c r="L12" s="136" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="625" t="inlineStr">
+      <c r="B13" s="651" t="inlineStr">
         <is>
           <t>#QLJ2U20Y2</t>
         </is>
       </c>
-      <c r="C13" s="625" t="n"/>
-      <c r="D13" s="625" t="inlineStr">
+      <c r="C13" s="651" t="n"/>
+      <c r="D13" s="651" t="inlineStr">
         <is>
           <t>DeadLeaf</t>
         </is>
       </c>
-      <c r="E13" s="625" t="n"/>
+      <c r="E13" s="651" t="n"/>
       <c r="F13" s="125" t="n"/>
-      <c r="G13" s="626" t="n">
+      <c r="G13" s="652" t="n">
         <v>2</v>
       </c>
       <c r="H13" s="122" t="n">
         <v>5</v>
       </c>
-      <c r="I13" s="626" t="n">
+      <c r="I13" s="652" t="n">
         <v>2</v>
       </c>
       <c r="J13" s="122" t="n">
         <v>5</v>
       </c>
-      <c r="K13" s="626" t="n">
+      <c r="K13" s="652" t="n">
         <v>2</v>
       </c>
       <c r="L13" s="122" t="n">
@@ -3996,28 +4089,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="628" t="inlineStr">
+      <c r="B14" s="654" t="inlineStr">
         <is>
           <t>#L2QQL9QVJ</t>
         </is>
       </c>
-      <c r="C14" s="628" t="n"/>
-      <c r="D14" s="628" t="inlineStr">
+      <c r="C14" s="654" t="n"/>
+      <c r="D14" s="654" t="inlineStr">
         <is>
           <t>JustPre10d</t>
         </is>
       </c>
-      <c r="E14" s="628" t="n"/>
+      <c r="E14" s="654" t="n"/>
       <c r="F14" s="136" t="n"/>
-      <c r="G14" s="628" t="n"/>
+      <c r="G14" s="654" t="n"/>
       <c r="H14" s="136" t="n"/>
-      <c r="I14" s="630" t="n">
+      <c r="I14" s="656" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="148" t="n">
         <v>0</v>
       </c>
-      <c r="K14" s="629" t="n">
+      <c r="K14" s="655" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="148" t="n">
@@ -4025,94 +4118,94 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="625" t="inlineStr">
+      <c r="B15" s="651" t="inlineStr">
+        <is>
+          <t>#Q8CLCUCC2</t>
+        </is>
+      </c>
+      <c r="C15" s="651" t="n"/>
+      <c r="D15" s="651" t="inlineStr">
+        <is>
+          <t>Moxxi</t>
+        </is>
+      </c>
+      <c r="E15" s="651" t="n"/>
+      <c r="F15" s="125" t="n"/>
+      <c r="G15" s="652" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" s="122" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" s="652" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" s="122" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" s="652" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" s="122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="649" t="inlineStr">
         <is>
           <t>#YRGRRJQCY</t>
         </is>
       </c>
-      <c r="C15" s="625" t="n"/>
-      <c r="D15" s="625" t="inlineStr">
+      <c r="C16" s="649" t="n"/>
+      <c r="D16" s="649" t="inlineStr">
         <is>
           <t>DoubleSpice</t>
         </is>
       </c>
-      <c r="E15" s="625" t="n"/>
-      <c r="F15" s="125" t="n"/>
-      <c r="G15" s="626" t="n">
+      <c r="E16" s="649" t="n"/>
+      <c r="F16" s="119" t="n"/>
+      <c r="G16" s="650" t="n">
         <v>2</v>
       </c>
-      <c r="H15" s="122" t="n">
+      <c r="H16" s="116" t="n">
         <v>5</v>
       </c>
-      <c r="I15" s="626" t="n">
+      <c r="I16" s="650" t="n">
         <v>2</v>
       </c>
-      <c r="J15" s="122" t="n">
-        <v>6</v>
-      </c>
-      <c r="K15" s="625" t="n"/>
-      <c r="L15" s="125" t="n"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="623" t="inlineStr">
-        <is>
-          <t>#Q8CLCUCC2</t>
-        </is>
-      </c>
-      <c r="C16" s="623" t="n"/>
-      <c r="D16" s="623" t="inlineStr">
-        <is>
-          <t>Moxxi</t>
-        </is>
-      </c>
-      <c r="E16" s="623" t="n"/>
-      <c r="F16" s="119" t="n"/>
-      <c r="G16" s="624" t="n">
+      <c r="J16" s="116" t="n">
+        <v>6</v>
+      </c>
+      <c r="K16" s="649" t="n"/>
+      <c r="L16" s="119" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="651" t="inlineStr">
+        <is>
+          <t>#YJ20CRJYQ</t>
+        </is>
+      </c>
+      <c r="C17" s="651" t="n"/>
+      <c r="D17" s="651" t="inlineStr">
+        <is>
+          <t>UnluckGod</t>
+        </is>
+      </c>
+      <c r="E17" s="651" t="n"/>
+      <c r="F17" s="125" t="n"/>
+      <c r="G17" s="652" t="n">
         <v>2</v>
       </c>
-      <c r="H16" s="116" t="n">
-        <v>6</v>
-      </c>
-      <c r="I16" s="624" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" s="116" t="n">
-        <v>5</v>
-      </c>
-      <c r="K16" s="624" t="n">
-        <v>2</v>
-      </c>
-      <c r="L16" s="116" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="625" t="inlineStr">
-        <is>
-          <t>#YJ20CRJYQ</t>
-        </is>
-      </c>
-      <c r="C17" s="625" t="n"/>
-      <c r="D17" s="625" t="inlineStr">
-        <is>
-          <t>UnluckGod</t>
-        </is>
-      </c>
-      <c r="E17" s="625" t="n"/>
-      <c r="F17" s="125" t="n"/>
-      <c r="G17" s="626" t="n">
-        <v>2</v>
-      </c>
       <c r="H17" s="122" t="n">
         <v>6</v>
       </c>
-      <c r="I17" s="626" t="n">
+      <c r="I17" s="652" t="n">
         <v>2</v>
       </c>
       <c r="J17" s="122" t="n">
         <v>4</v>
       </c>
-      <c r="K17" s="626" t="n">
+      <c r="K17" s="652" t="n">
         <v>2</v>
       </c>
       <c r="L17" s="122" t="n">
@@ -4120,527 +4213,569 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="628" t="inlineStr">
+      <c r="B18" s="654" t="inlineStr">
         <is>
           <t>#G0JPUQGYR</t>
         </is>
       </c>
-      <c r="C18" s="628" t="n"/>
-      <c r="D18" s="628" t="inlineStr">
+      <c r="C18" s="654" t="n"/>
+      <c r="D18" s="654" t="inlineStr">
         <is>
           <t>Collin</t>
         </is>
       </c>
-      <c r="E18" s="628" t="n"/>
+      <c r="E18" s="654" t="n"/>
       <c r="F18" s="136" t="n"/>
-      <c r="G18" s="628" t="n"/>
+      <c r="G18" s="654" t="n"/>
       <c r="H18" s="136" t="n"/>
-      <c r="I18" s="628" t="n"/>
+      <c r="I18" s="654" t="n"/>
       <c r="J18" s="136" t="n"/>
-      <c r="K18" s="628" t="n"/>
+      <c r="K18" s="654" t="n"/>
       <c r="L18" s="136" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="627" t="inlineStr">
+      <c r="B19" s="653" t="inlineStr">
         <is>
           <t>#QQLVRJCGQ</t>
         </is>
       </c>
-      <c r="C19" s="627" t="n"/>
-      <c r="D19" s="627" t="inlineStr">
+      <c r="C19" s="653" t="n"/>
+      <c r="D19" s="653" t="inlineStr">
         <is>
           <t>khant</t>
         </is>
       </c>
-      <c r="E19" s="627" t="n"/>
+      <c r="E19" s="653" t="n"/>
       <c r="F19" s="130" t="n"/>
-      <c r="G19" s="627" t="n"/>
+      <c r="G19" s="653" t="n"/>
       <c r="H19" s="130" t="n"/>
-      <c r="I19" s="627" t="n"/>
+      <c r="I19" s="653" t="n"/>
       <c r="J19" s="130" t="n"/>
-      <c r="K19" s="627" t="n"/>
+      <c r="K19" s="653" t="n"/>
       <c r="L19" s="130" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="628" t="inlineStr">
+      <c r="B20" s="654" t="inlineStr">
+        <is>
+          <t>#QUVJGC0VQ</t>
+        </is>
+      </c>
+      <c r="C20" s="654" t="n"/>
+      <c r="D20" s="654" t="inlineStr">
+        <is>
+          <t>Cam</t>
+        </is>
+      </c>
+      <c r="E20" s="654" t="n"/>
+      <c r="F20" s="136" t="n"/>
+      <c r="G20" s="654" t="n"/>
+      <c r="H20" s="136" t="n"/>
+      <c r="I20" s="654" t="n"/>
+      <c r="J20" s="136" t="n"/>
+      <c r="K20" s="654" t="n"/>
+      <c r="L20" s="136" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="653" t="inlineStr">
+        <is>
+          <t>#QRPRYR8LL</t>
+        </is>
+      </c>
+      <c r="C21" s="653" t="n"/>
+      <c r="D21" s="653" t="inlineStr">
+        <is>
+          <t>FidelCashflow</t>
+        </is>
+      </c>
+      <c r="E21" s="653" t="n"/>
+      <c r="F21" s="130" t="n"/>
+      <c r="G21" s="653" t="n"/>
+      <c r="H21" s="130" t="n"/>
+      <c r="I21" s="653" t="n"/>
+      <c r="J21" s="130" t="n"/>
+      <c r="K21" s="653" t="n"/>
+      <c r="L21" s="130" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="654" t="inlineStr">
         <is>
           <t>#QLG0VJG2J</t>
         </is>
       </c>
-      <c r="C20" s="628" t="n"/>
-      <c r="D20" s="628" t="inlineStr">
+      <c r="C22" s="654" t="n"/>
+      <c r="D22" s="654" t="inlineStr">
         <is>
           <t>PocketRocket</t>
         </is>
       </c>
-      <c r="E20" s="628" t="n"/>
-      <c r="F20" s="136" t="n"/>
-      <c r="G20" s="628" t="n"/>
-      <c r="H20" s="136" t="n"/>
-      <c r="I20" s="628" t="n"/>
-      <c r="J20" s="136" t="n"/>
-      <c r="K20" s="628" t="n"/>
-      <c r="L20" s="136" t="n"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="627" t="inlineStr">
-        <is>
-          <t>#QRPRYR8LL</t>
-        </is>
-      </c>
-      <c r="C21" s="627" t="n"/>
-      <c r="D21" s="627" t="inlineStr">
-        <is>
-          <t>FidelCashflow</t>
-        </is>
-      </c>
-      <c r="E21" s="627" t="n"/>
-      <c r="F21" s="130" t="n"/>
-      <c r="G21" s="627" t="n"/>
-      <c r="H21" s="130" t="n"/>
-      <c r="I21" s="627" t="n"/>
-      <c r="J21" s="130" t="n"/>
-      <c r="K21" s="627" t="n"/>
-      <c r="L21" s="130" t="n"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="628" t="inlineStr">
+      <c r="E22" s="654" t="n"/>
+      <c r="F22" s="136" t="n"/>
+      <c r="G22" s="654" t="n"/>
+      <c r="H22" s="136" t="n"/>
+      <c r="I22" s="654" t="n"/>
+      <c r="J22" s="136" t="n"/>
+      <c r="K22" s="654" t="n"/>
+      <c r="L22" s="136" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="653" t="inlineStr">
+        <is>
+          <t>#QQL28Y2UL</t>
+        </is>
+      </c>
+      <c r="C23" s="653" t="n"/>
+      <c r="D23" s="653" t="inlineStr">
+        <is>
+          <t>SUPoT</t>
+        </is>
+      </c>
+      <c r="E23" s="653" t="n"/>
+      <c r="F23" s="130" t="n"/>
+      <c r="G23" s="653" t="n"/>
+      <c r="H23" s="130" t="n"/>
+      <c r="I23" s="653" t="n"/>
+      <c r="J23" s="130" t="n"/>
+      <c r="K23" s="653" t="n"/>
+      <c r="L23" s="130" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="654" t="inlineStr">
         <is>
           <t>#LC9GUPJJG</t>
         </is>
       </c>
-      <c r="C22" s="628" t="n"/>
-      <c r="D22" s="628" t="inlineStr">
+      <c r="C24" s="654" t="n"/>
+      <c r="D24" s="654" t="inlineStr">
         <is>
           <t>raptor2222a</t>
         </is>
       </c>
-      <c r="E22" s="628" t="n"/>
-      <c r="F22" s="136" t="n"/>
-      <c r="G22" s="628" t="n"/>
-      <c r="H22" s="136" t="n"/>
-      <c r="I22" s="628" t="n"/>
-      <c r="J22" s="136" t="n"/>
-      <c r="K22" s="628" t="n"/>
-      <c r="L22" s="136" t="n"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="627" t="inlineStr">
+      <c r="E24" s="654" t="n"/>
+      <c r="F24" s="136" t="n"/>
+      <c r="G24" s="654" t="n"/>
+      <c r="H24" s="136" t="n"/>
+      <c r="I24" s="654" t="n"/>
+      <c r="J24" s="136" t="n"/>
+      <c r="K24" s="654" t="n"/>
+      <c r="L24" s="136" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="653" t="inlineStr">
         <is>
           <t>#LPR9RPCY9</t>
         </is>
       </c>
-      <c r="C23" s="627" t="n"/>
-      <c r="D23" s="627" t="inlineStr">
+      <c r="C25" s="653" t="n"/>
+      <c r="D25" s="653" t="inlineStr">
         <is>
           <t>sayhuss17</t>
         </is>
       </c>
-      <c r="E23" s="627" t="n"/>
-      <c r="F23" s="130" t="n"/>
-      <c r="G23" s="631" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="631" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="627" t="n"/>
-      <c r="L23" s="130" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="628" t="inlineStr">
+      <c r="E25" s="653" t="n"/>
+      <c r="F25" s="130" t="n"/>
+      <c r="G25" s="657" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="657" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="653" t="n"/>
+      <c r="L25" s="130" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="654" t="inlineStr">
         <is>
           <t>#QJC8LQU9U</t>
         </is>
       </c>
-      <c r="C24" s="628" t="n"/>
-      <c r="D24" s="628" t="inlineStr">
+      <c r="C26" s="654" t="n"/>
+      <c r="D26" s="654" t="inlineStr">
         <is>
           <t>Master01</t>
         </is>
       </c>
-      <c r="E24" s="628" t="n"/>
-      <c r="F24" s="136" t="n"/>
-      <c r="G24" s="632" t="n">
+      <c r="E26" s="654" t="n"/>
+      <c r="F26" s="136" t="n"/>
+      <c r="G26" s="658" t="n">
         <v>2</v>
       </c>
-      <c r="H24" s="133" t="n">
+      <c r="H26" s="133" t="n">
         <v>4</v>
       </c>
-      <c r="I24" s="628" t="n"/>
-      <c r="J24" s="136" t="n"/>
-      <c r="K24" s="628" t="n"/>
-      <c r="L24" s="136" t="n"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="627" t="inlineStr">
+      <c r="I26" s="654" t="n"/>
+      <c r="J26" s="136" t="n"/>
+      <c r="K26" s="654" t="n"/>
+      <c r="L26" s="136" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="653" t="inlineStr">
         <is>
           <t>#L9QL9YQQY</t>
         </is>
       </c>
-      <c r="C25" s="627" t="n"/>
-      <c r="D25" s="627" t="inlineStr">
+      <c r="C27" s="653" t="n"/>
+      <c r="D27" s="653" t="inlineStr">
         <is>
           <t>Ima Chad</t>
         </is>
       </c>
-      <c r="E25" s="627" t="n"/>
-      <c r="F25" s="130" t="n"/>
-      <c r="G25" s="627" t="n"/>
-      <c r="H25" s="130" t="n"/>
-      <c r="I25" s="627" t="n"/>
-      <c r="J25" s="130" t="n"/>
-      <c r="K25" s="627" t="n"/>
-      <c r="L25" s="130" t="n"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="623" t="inlineStr">
+      <c r="E27" s="653" t="n"/>
+      <c r="F27" s="130" t="n"/>
+      <c r="G27" s="653" t="n"/>
+      <c r="H27" s="130" t="n"/>
+      <c r="I27" s="653" t="n"/>
+      <c r="J27" s="130" t="n"/>
+      <c r="K27" s="653" t="n"/>
+      <c r="L27" s="130" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="649" t="inlineStr">
         <is>
           <t>#QUG8QQJ92</t>
         </is>
       </c>
-      <c r="C26" s="623" t="n"/>
-      <c r="D26" s="623" t="inlineStr">
+      <c r="C28" s="649" t="n"/>
+      <c r="D28" s="649" t="inlineStr">
         <is>
           <t>Karma</t>
         </is>
       </c>
-      <c r="E26" s="623" t="n"/>
-      <c r="F26" s="119" t="n"/>
-      <c r="G26" s="623" t="n"/>
-      <c r="H26" s="119" t="n"/>
-      <c r="I26" s="623" t="n"/>
-      <c r="J26" s="119" t="n"/>
-      <c r="K26" s="623" t="n"/>
-      <c r="L26" s="119" t="n"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="627" t="inlineStr">
+      <c r="E28" s="649" t="n"/>
+      <c r="F28" s="119" t="n"/>
+      <c r="G28" s="649" t="n"/>
+      <c r="H28" s="119" t="n"/>
+      <c r="I28" s="649" t="n"/>
+      <c r="J28" s="119" t="n"/>
+      <c r="K28" s="649" t="n"/>
+      <c r="L28" s="119" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="653" t="inlineStr">
         <is>
           <t>#QY8L2GLUR</t>
         </is>
       </c>
-      <c r="C27" s="627" t="n"/>
-      <c r="D27" s="627" t="inlineStr">
+      <c r="C29" s="653" t="n"/>
+      <c r="D29" s="653" t="inlineStr">
         <is>
           <t>Huy</t>
         </is>
       </c>
-      <c r="E27" s="627" t="n"/>
-      <c r="F27" s="130" t="n"/>
-      <c r="G27" s="631" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="627" t="n"/>
-      <c r="J27" s="130" t="n"/>
-      <c r="K27" s="627" t="n"/>
-      <c r="L27" s="130" t="n"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="628" t="inlineStr">
+      <c r="E29" s="653" t="n"/>
+      <c r="F29" s="130" t="n"/>
+      <c r="G29" s="657" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="653" t="n"/>
+      <c r="J29" s="130" t="n"/>
+      <c r="K29" s="653" t="n"/>
+      <c r="L29" s="130" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="654" t="inlineStr">
+        <is>
+          <t>#QLGYRVPU0</t>
+        </is>
+      </c>
+      <c r="C30" s="654" t="n"/>
+      <c r="D30" s="654" t="inlineStr">
+        <is>
+          <t>Black.Boy.</t>
+        </is>
+      </c>
+      <c r="E30" s="654" t="n"/>
+      <c r="F30" s="136" t="n"/>
+      <c r="G30" s="654" t="n"/>
+      <c r="H30" s="136" t="n"/>
+      <c r="I30" s="654" t="n"/>
+      <c r="J30" s="136" t="n"/>
+      <c r="K30" s="654" t="n"/>
+      <c r="L30" s="136" t="n"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="653" t="inlineStr">
+        <is>
+          <t>#QU0U2Q99G</t>
+        </is>
+      </c>
+      <c r="C31" s="653" t="n"/>
+      <c r="D31" s="653" t="inlineStr">
+        <is>
+          <t>big coc</t>
+        </is>
+      </c>
+      <c r="E31" s="653" t="n"/>
+      <c r="F31" s="130" t="n"/>
+      <c r="G31" s="653" t="n"/>
+      <c r="H31" s="130" t="n"/>
+      <c r="I31" s="653" t="n"/>
+      <c r="J31" s="130" t="n"/>
+      <c r="K31" s="653" t="n"/>
+      <c r="L31" s="130" t="n"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="654" t="inlineStr">
         <is>
           <t>#QQL8C29CY</t>
         </is>
       </c>
-      <c r="C28" s="628" t="n"/>
-      <c r="D28" s="628" t="inlineStr">
+      <c r="C32" s="654" t="n"/>
+      <c r="D32" s="654" t="inlineStr">
         <is>
           <t>TypicalTeague#2</t>
         </is>
       </c>
-      <c r="E28" s="628" t="n"/>
-      <c r="F28" s="136" t="n"/>
-      <c r="G28" s="628" t="n"/>
-      <c r="H28" s="136" t="n"/>
-      <c r="I28" s="628" t="n"/>
-      <c r="J28" s="136" t="n"/>
-      <c r="K28" s="628" t="n"/>
-      <c r="L28" s="136" t="n"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="627" t="inlineStr">
-        <is>
-          <t>#QU0U2Q99G</t>
-        </is>
-      </c>
-      <c r="C29" s="627" t="n"/>
-      <c r="D29" s="627" t="inlineStr">
-        <is>
-          <t>big coc</t>
-        </is>
-      </c>
-      <c r="E29" s="627" t="n"/>
-      <c r="F29" s="130" t="n"/>
-      <c r="G29" s="627" t="n"/>
-      <c r="H29" s="130" t="n"/>
-      <c r="I29" s="627" t="n"/>
-      <c r="J29" s="130" t="n"/>
-      <c r="K29" s="627" t="n"/>
-      <c r="L29" s="130" t="n"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="628" t="inlineStr">
-        <is>
-          <t>#QLGYRVPU0</t>
-        </is>
-      </c>
-      <c r="C30" s="628" t="n"/>
-      <c r="D30" s="628" t="inlineStr">
-        <is>
-          <t>Black.Boy.</t>
-        </is>
-      </c>
-      <c r="E30" s="628" t="n"/>
-      <c r="F30" s="136" t="n"/>
-      <c r="G30" s="628" t="n"/>
-      <c r="H30" s="136" t="n"/>
-      <c r="I30" s="628" t="n"/>
-      <c r="J30" s="136" t="n"/>
-      <c r="K30" s="628" t="n"/>
-      <c r="L30" s="136" t="n"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="627" t="inlineStr">
+      <c r="E32" s="654" t="n"/>
+      <c r="F32" s="136" t="n"/>
+      <c r="G32" s="654" t="n"/>
+      <c r="H32" s="136" t="n"/>
+      <c r="I32" s="654" t="n"/>
+      <c r="J32" s="136" t="n"/>
+      <c r="K32" s="654" t="n"/>
+      <c r="L32" s="136" t="n"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="653" t="inlineStr">
         <is>
           <t>#QL8LVLYG8</t>
         </is>
       </c>
-      <c r="C31" s="627" t="n"/>
-      <c r="D31" s="627" t="inlineStr">
+      <c r="C33" s="653" t="n"/>
+      <c r="D33" s="653" t="inlineStr">
         <is>
           <t>Some guy</t>
         </is>
       </c>
-      <c r="E31" s="627" t="n"/>
-      <c r="F31" s="130" t="n"/>
-      <c r="G31" s="627" t="n"/>
-      <c r="H31" s="130" t="n"/>
-      <c r="I31" s="627" t="n"/>
-      <c r="J31" s="130" t="n"/>
-      <c r="K31" s="627" t="n"/>
-      <c r="L31" s="130" t="n"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="628" t="inlineStr">
+      <c r="E33" s="653" t="n"/>
+      <c r="F33" s="130" t="n"/>
+      <c r="G33" s="653" t="n"/>
+      <c r="H33" s="130" t="n"/>
+      <c r="I33" s="653" t="n"/>
+      <c r="J33" s="130" t="n"/>
+      <c r="K33" s="653" t="n"/>
+      <c r="L33" s="130" t="n"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="654" t="inlineStr">
         <is>
           <t>#L9JJQY992</t>
         </is>
       </c>
-      <c r="C32" s="628" t="n"/>
-      <c r="D32" s="628" t="inlineStr">
+      <c r="C34" s="654" t="n"/>
+      <c r="D34" s="654" t="inlineStr">
         <is>
           <t>Fisted_Waffle</t>
         </is>
       </c>
-      <c r="E32" s="628" t="n"/>
-      <c r="F32" s="136" t="n"/>
-      <c r="G32" s="628" t="n"/>
-      <c r="H32" s="136" t="n"/>
-      <c r="I32" s="628" t="n"/>
-      <c r="J32" s="136" t="n"/>
-      <c r="K32" s="628" t="n"/>
-      <c r="L32" s="136" t="n"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="627" t="inlineStr">
+      <c r="E34" s="654" t="n"/>
+      <c r="F34" s="136" t="n"/>
+      <c r="G34" s="654" t="n"/>
+      <c r="H34" s="136" t="n"/>
+      <c r="I34" s="654" t="n"/>
+      <c r="J34" s="136" t="n"/>
+      <c r="K34" s="654" t="n"/>
+      <c r="L34" s="136" t="n"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="653" t="inlineStr">
         <is>
           <t>#QV8JJ0URU</t>
         </is>
       </c>
-      <c r="C33" s="627" t="n"/>
-      <c r="D33" s="627" t="inlineStr">
+      <c r="C35" s="653" t="n"/>
+      <c r="D35" s="653" t="inlineStr">
         <is>
           <t>✨Jacob</t>
         </is>
       </c>
-      <c r="E33" s="627" t="n"/>
-      <c r="F33" s="130" t="n"/>
-      <c r="G33" s="627" t="n"/>
-      <c r="H33" s="130" t="n"/>
-      <c r="I33" s="631" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="627" t="n"/>
-      <c r="L33" s="130" t="n"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="628" t="inlineStr">
+      <c r="E35" s="653" t="n"/>
+      <c r="F35" s="130" t="n"/>
+      <c r="G35" s="653" t="n"/>
+      <c r="H35" s="130" t="n"/>
+      <c r="I35" s="657" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="653" t="n"/>
+      <c r="L35" s="130" t="n"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="654" t="inlineStr">
         <is>
           <t>#QY0VGPQGQ</t>
         </is>
       </c>
-      <c r="C34" s="628" t="n"/>
-      <c r="D34" s="628" t="inlineStr">
+      <c r="C36" s="654" t="n"/>
+      <c r="D36" s="654" t="inlineStr">
         <is>
           <t>killerjones</t>
         </is>
       </c>
-      <c r="E34" s="628" t="n"/>
-      <c r="F34" s="136" t="n"/>
-      <c r="G34" s="628" t="n"/>
-      <c r="H34" s="136" t="n"/>
-      <c r="I34" s="628" t="n"/>
-      <c r="J34" s="136" t="n"/>
-      <c r="K34" s="628" t="n"/>
-      <c r="L34" s="136" t="n"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="631" t="inlineStr">
+      <c r="E36" s="654" t="n"/>
+      <c r="F36" s="136" t="n"/>
+      <c r="G36" s="654" t="n"/>
+      <c r="H36" s="136" t="n"/>
+      <c r="I36" s="654" t="n"/>
+      <c r="J36" s="136" t="n"/>
+      <c r="K36" s="654" t="n"/>
+      <c r="L36" s="136" t="n"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="657" t="inlineStr">
         <is>
           <t>#QLL0PVCRV</t>
         </is>
       </c>
-      <c r="C35" s="627" t="n"/>
-      <c r="D35" s="627" t="inlineStr">
+      <c r="C37" s="653" t="n"/>
+      <c r="D37" s="653" t="inlineStr">
         <is>
           <t>Harsh chhillar</t>
         </is>
       </c>
-      <c r="E35" s="627" t="n"/>
-      <c r="F35" s="130" t="n"/>
-      <c r="G35" s="627" t="n"/>
-      <c r="H35" s="130" t="n"/>
-      <c r="I35" s="627" t="n"/>
-      <c r="J35" s="130" t="n"/>
-      <c r="K35" s="627" t="n"/>
-      <c r="L35" s="130" t="n"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="630" t="inlineStr">
+      <c r="E37" s="653" t="n"/>
+      <c r="F37" s="130" t="n"/>
+      <c r="G37" s="653" t="n"/>
+      <c r="H37" s="130" t="n"/>
+      <c r="I37" s="653" t="n"/>
+      <c r="J37" s="130" t="n"/>
+      <c r="K37" s="653" t="n"/>
+      <c r="L37" s="130" t="n"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="656" t="inlineStr">
         <is>
           <t>#P2CPRPQU</t>
         </is>
       </c>
-      <c r="C36" s="628" t="n"/>
-      <c r="D36" s="628" t="inlineStr">
+      <c r="C38" s="654" t="n"/>
+      <c r="D38" s="654" t="inlineStr">
         <is>
           <t>The Drift King</t>
         </is>
       </c>
-      <c r="E36" s="628" t="n"/>
-      <c r="F36" s="136" t="n"/>
-      <c r="G36" s="632" t="n">
+      <c r="E38" s="654" t="n"/>
+      <c r="F38" s="136" t="n"/>
+      <c r="G38" s="658" t="n">
         <v>2</v>
       </c>
-      <c r="H36" s="133" t="n">
-        <v>6</v>
-      </c>
-      <c r="I36" s="632" t="n">
+      <c r="H38" s="133" t="n">
+        <v>6</v>
+      </c>
+      <c r="I38" s="658" t="n">
         <v>2</v>
       </c>
-      <c r="J36" s="133" t="n">
-        <v>6</v>
-      </c>
-      <c r="K36" s="628" t="n"/>
-      <c r="L36" s="136" t="n"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="631" t="inlineStr">
+      <c r="J38" s="133" t="n">
+        <v>6</v>
+      </c>
+      <c r="K38" s="654" t="n"/>
+      <c r="L38" s="136" t="n"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="657" t="inlineStr">
         <is>
           <t>#UVCCQC02</t>
         </is>
       </c>
-      <c r="C37" s="627" t="n"/>
-      <c r="D37" s="627" t="inlineStr">
+      <c r="C39" s="653" t="n"/>
+      <c r="D39" s="653" t="inlineStr">
         <is>
           <t>lordshisha</t>
         </is>
       </c>
-      <c r="E37" s="627" t="n"/>
-      <c r="F37" s="130" t="n"/>
-      <c r="G37" s="633" t="n">
+      <c r="E39" s="653" t="n"/>
+      <c r="F39" s="130" t="n"/>
+      <c r="G39" s="659" t="n">
         <v>2</v>
       </c>
-      <c r="H37" s="127" t="n">
-        <v>6</v>
-      </c>
-      <c r="I37" s="633" t="n">
+      <c r="H39" s="127" t="n">
+        <v>6</v>
+      </c>
+      <c r="I39" s="659" t="n">
         <v>2</v>
       </c>
-      <c r="J37" s="131" t="n">
+      <c r="J39" s="131" t="n">
         <v>3</v>
       </c>
-      <c r="K37" s="633" t="n">
+      <c r="K39" s="659" t="n">
         <v>2</v>
       </c>
-      <c r="L37" s="137" t="n">
+      <c r="L39" s="137" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="38">
-      <c r="B38" s="630" t="inlineStr">
+    <row r="40">
+      <c r="B40" s="656" t="inlineStr">
         <is>
           <t>#Q0JG2RJQ8</t>
         </is>
       </c>
-      <c r="C38" s="628" t="n"/>
-      <c r="D38" s="628" t="inlineStr">
+      <c r="C40" s="654" t="n"/>
+      <c r="D40" s="654" t="inlineStr">
         <is>
           <t>bozo</t>
         </is>
       </c>
-      <c r="E38" s="628" t="n"/>
-      <c r="F38" s="136" t="n"/>
-      <c r="G38" s="628" t="n"/>
-      <c r="H38" s="136" t="n"/>
-      <c r="I38" s="628" t="n"/>
-      <c r="J38" s="136" t="n"/>
-      <c r="K38" s="628" t="n"/>
-      <c r="L38" s="136" t="n"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="631" t="inlineStr">
+      <c r="E40" s="654" t="n"/>
+      <c r="F40" s="136" t="n"/>
+      <c r="G40" s="654" t="n"/>
+      <c r="H40" s="136" t="n"/>
+      <c r="I40" s="654" t="n"/>
+      <c r="J40" s="136" t="n"/>
+      <c r="K40" s="654" t="n"/>
+      <c r="L40" s="136" t="n"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="657" t="inlineStr">
         <is>
           <t>#QJVL0LYQQ</t>
         </is>
       </c>
-      <c r="C39" s="627" t="n"/>
-      <c r="D39" s="627" t="inlineStr">
+      <c r="C41" s="653" t="n"/>
+      <c r="D41" s="653" t="inlineStr">
         <is>
           <t>mobbb341</t>
         </is>
       </c>
-      <c r="E39" s="627" t="n"/>
-      <c r="F39" s="130" t="n"/>
-      <c r="G39" s="627" t="n"/>
-      <c r="H39" s="130" t="n"/>
-      <c r="I39" s="627" t="n"/>
-      <c r="J39" s="130" t="n"/>
-      <c r="K39" s="627" t="n"/>
-      <c r="L39" s="130" t="n"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="630" t="inlineStr">
+      <c r="E41" s="653" t="n"/>
+      <c r="F41" s="130" t="n"/>
+      <c r="G41" s="653" t="n"/>
+      <c r="H41" s="130" t="n"/>
+      <c r="I41" s="653" t="n"/>
+      <c r="J41" s="130" t="n"/>
+      <c r="K41" s="653" t="n"/>
+      <c r="L41" s="130" t="n"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="656" t="inlineStr">
         <is>
           <t>#L8R82C8VC</t>
         </is>
       </c>
-      <c r="C40" s="628" t="n"/>
-      <c r="D40" s="628" t="inlineStr">
+      <c r="C42" s="654" t="n"/>
+      <c r="D42" s="654" t="inlineStr">
         <is>
           <t>caden asue</t>
         </is>
       </c>
-      <c r="E40" s="628" t="n"/>
-      <c r="F40" s="136" t="n"/>
-      <c r="G40" s="628" t="n"/>
-      <c r="H40" s="136" t="n"/>
-      <c r="I40" s="628" t="n"/>
-      <c r="J40" s="136" t="n"/>
-      <c r="K40" s="628" t="n"/>
-      <c r="L40" s="136" t="n"/>
+      <c r="E42" s="654" t="n"/>
+      <c r="F42" s="136" t="n"/>
+      <c r="G42" s="654" t="n"/>
+      <c r="H42" s="136" t="n"/>
+      <c r="I42" s="654" t="n"/>
+      <c r="J42" s="136" t="n"/>
+      <c r="K42" s="654" t="n"/>
+      <c r="L42" s="136" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Clash.xlsx
+++ b/Clash.xlsx
@@ -130,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -207,11 +207,13 @@
       <right style="medium"/>
       <top style="thick"/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -384,6 +386,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="12" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -930,15 +963,15 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="103" t="inlineStr">
+      <c r="A4" s="141" t="inlineStr">
         <is>
           <t>#QLJ2U20Y2</t>
         </is>
       </c>
-      <c r="B4" s="103" t="n">
+      <c r="B4" s="141" t="n">
         <v>1494</v>
       </c>
-      <c r="C4" s="104" t="n">
+      <c r="C4" s="142" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="82" t="inlineStr">
@@ -946,37 +979,37 @@
           <t>DeadLeaf</t>
         </is>
       </c>
-      <c r="E4" s="105" t="n">
+      <c r="E4" s="143" t="n">
         <v>6</v>
       </c>
       <c r="F4" s="82" t="n">
         <v>13763</v>
       </c>
-      <c r="G4" s="106" t="n">
+      <c r="G4" s="144" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="83" t="n">
         <v>30</v>
       </c>
-      <c r="I4" s="105" t="n">
+      <c r="I4" s="143" t="n">
         <v>6</v>
       </c>
       <c r="J4" s="82" t="n">
         <v>11140</v>
       </c>
-      <c r="K4" s="105" t="n">
+      <c r="K4" s="143" t="n">
         <v>6</v>
       </c>
       <c r="L4" s="82" t="n">
         <v>15509</v>
       </c>
-      <c r="M4" s="105" t="n">
+      <c r="M4" s="143" t="n">
         <v>6</v>
       </c>
       <c r="N4" s="82" t="n">
         <v>8567</v>
       </c>
-      <c r="O4" s="105" t="n">
+      <c r="O4" s="143" t="n">
         <v>6</v>
       </c>
       <c r="P4" s="82" t="n">
@@ -984,15 +1017,15 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="107" t="inlineStr">
+      <c r="A5" s="145" t="inlineStr">
         <is>
           <t>#G0QPVJY9L</t>
         </is>
       </c>
-      <c r="B5" s="107" t="n">
+      <c r="B5" s="145" t="n">
         <v>880</v>
       </c>
-      <c r="C5" s="108" t="n">
+      <c r="C5" s="146" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="86" t="inlineStr">
@@ -1000,37 +1033,37 @@
           <t>Zoro</t>
         </is>
       </c>
-      <c r="E5" s="109" t="n">
+      <c r="E5" s="147" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="86" t="n">
         <v>13432</v>
       </c>
-      <c r="G5" s="110" t="n">
+      <c r="G5" s="148" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="109" t="n">
+      <c r="I5" s="147" t="n">
         <v>6</v>
       </c>
       <c r="J5" s="86" t="n">
         <v>8855</v>
       </c>
-      <c r="K5" s="109" t="n">
+      <c r="K5" s="147" t="n">
         <v>6</v>
       </c>
       <c r="L5" s="86" t="n">
         <v>10965</v>
       </c>
-      <c r="M5" s="109" t="n">
+      <c r="M5" s="147" t="n">
         <v>6</v>
       </c>
       <c r="N5" s="86" t="n">
         <v>7905</v>
       </c>
-      <c r="O5" s="109" t="n">
+      <c r="O5" s="147" t="n">
         <v>6</v>
       </c>
       <c r="P5" s="86" t="n">
@@ -1038,15 +1071,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="103" t="inlineStr">
+      <c r="A6" s="141" t="inlineStr">
         <is>
           <t>#90U0VPU9U</t>
         </is>
       </c>
-      <c r="B6" s="103" t="n">
+      <c r="B6" s="141" t="n">
         <v>2490</v>
       </c>
-      <c r="C6" s="104" t="n">
+      <c r="C6" s="142" t="n">
         <v>3</v>
       </c>
       <c r="D6" s="82" t="inlineStr">
@@ -1054,37 +1087,37 @@
           <t>KYANI7E</t>
         </is>
       </c>
-      <c r="E6" s="105" t="n">
+      <c r="E6" s="143" t="n">
         <v>6</v>
       </c>
       <c r="F6" s="82" t="n">
         <v>13260</v>
       </c>
-      <c r="G6" s="111" t="n">
+      <c r="G6" s="149" t="n">
         <v>149</v>
       </c>
       <c r="H6" s="83" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="105" t="n">
+      <c r="I6" s="143" t="n">
         <v>6</v>
       </c>
       <c r="J6" s="82" t="n">
         <v>12144</v>
       </c>
-      <c r="K6" s="105" t="n">
+      <c r="K6" s="143" t="n">
         <v>6</v>
       </c>
       <c r="L6" s="82" t="n">
         <v>12835</v>
       </c>
-      <c r="M6" s="105" t="n">
+      <c r="M6" s="143" t="n">
         <v>6</v>
       </c>
       <c r="N6" s="82" t="n">
         <v>7696</v>
       </c>
-      <c r="O6" s="105" t="n">
+      <c r="O6" s="143" t="n">
         <v>6</v>
       </c>
       <c r="P6" s="82" t="n">
@@ -1092,15 +1125,15 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="107" t="inlineStr">
+      <c r="A7" s="145" t="inlineStr">
         <is>
           <t>#YJ20CRJYQ</t>
         </is>
       </c>
-      <c r="B7" s="107" t="n">
+      <c r="B7" s="145" t="n">
         <v>1327</v>
       </c>
-      <c r="C7" s="108" t="n">
+      <c r="C7" s="146" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="86" t="inlineStr">
@@ -1108,37 +1141,37 @@
           <t>UnluckGod</t>
         </is>
       </c>
-      <c r="E7" s="109" t="n">
+      <c r="E7" s="147" t="n">
         <v>6</v>
       </c>
       <c r="F7" s="86" t="n">
         <v>12824</v>
       </c>
-      <c r="G7" s="110" t="n">
+      <c r="G7" s="148" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="87" t="n">
         <v>61</v>
       </c>
-      <c r="I7" s="109" t="n">
+      <c r="I7" s="147" t="n">
         <v>6</v>
       </c>
       <c r="J7" s="86" t="n">
         <v>11999</v>
       </c>
-      <c r="K7" s="109" t="n">
+      <c r="K7" s="147" t="n">
         <v>6</v>
       </c>
       <c r="L7" s="86" t="n">
         <v>12972</v>
       </c>
-      <c r="M7" s="109" t="n">
+      <c r="M7" s="147" t="n">
         <v>6</v>
       </c>
       <c r="N7" s="86" t="n">
         <v>8286</v>
       </c>
-      <c r="O7" s="109" t="n">
+      <c r="O7" s="147" t="n">
         <v>6</v>
       </c>
       <c r="P7" s="86" t="n">
@@ -1146,15 +1179,15 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="103" t="inlineStr">
+      <c r="A8" s="141" t="inlineStr">
         <is>
           <t>#QUV2GP88U</t>
         </is>
       </c>
-      <c r="B8" s="103" t="n">
+      <c r="B8" s="141" t="n">
         <v>750</v>
       </c>
-      <c r="C8" s="104" t="n">
+      <c r="C8" s="142" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="82" t="inlineStr">
@@ -1162,37 +1195,37 @@
           <t>Nico Robin</t>
         </is>
       </c>
-      <c r="E8" s="105" t="n">
+      <c r="E8" s="143" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="82" t="n">
         <v>12612</v>
       </c>
-      <c r="G8" s="106" t="n">
+      <c r="G8" s="144" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="105" t="n">
+      <c r="I8" s="143" t="n">
         <v>6</v>
       </c>
       <c r="J8" s="82" t="n">
         <v>11338</v>
       </c>
-      <c r="K8" s="105" t="n">
+      <c r="K8" s="143" t="n">
         <v>6</v>
       </c>
       <c r="L8" s="82" t="n">
         <v>10997</v>
       </c>
-      <c r="M8" s="105" t="n">
+      <c r="M8" s="143" t="n">
         <v>6</v>
       </c>
       <c r="N8" s="82" t="n">
         <v>11087</v>
       </c>
-      <c r="O8" s="105" t="n">
+      <c r="O8" s="143" t="n">
         <v>6</v>
       </c>
       <c r="P8" s="82" t="n">
@@ -1200,15 +1233,15 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="107" t="inlineStr">
+      <c r="A9" s="145" t="inlineStr">
         <is>
           <t>#QCV22VP0G</t>
         </is>
       </c>
-      <c r="B9" s="107" t="n">
+      <c r="B9" s="145" t="n">
         <v>800</v>
       </c>
-      <c r="C9" s="108" t="n">
+      <c r="C9" s="146" t="n">
         <v>6</v>
       </c>
       <c r="D9" s="86" t="inlineStr">
@@ -1216,37 +1249,37 @@
           <t>Nami</t>
         </is>
       </c>
-      <c r="E9" s="109" t="n">
+      <c r="E9" s="147" t="n">
         <v>6</v>
       </c>
       <c r="F9" s="86" t="n">
         <v>11795</v>
       </c>
-      <c r="G9" s="110" t="n">
+      <c r="G9" s="148" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="109" t="n">
+      <c r="I9" s="147" t="n">
         <v>6</v>
       </c>
       <c r="J9" s="86" t="n">
         <v>10769</v>
       </c>
-      <c r="K9" s="109" t="n">
+      <c r="K9" s="147" t="n">
         <v>6</v>
       </c>
       <c r="L9" s="86" t="n">
         <v>12486</v>
       </c>
-      <c r="M9" s="109" t="n">
+      <c r="M9" s="147" t="n">
         <v>6</v>
       </c>
       <c r="N9" s="86" t="n">
         <v>8472</v>
       </c>
-      <c r="O9" s="109" t="n">
+      <c r="O9" s="147" t="n">
         <v>6</v>
       </c>
       <c r="P9" s="86" t="n">
@@ -1254,15 +1287,15 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="103" t="inlineStr">
+      <c r="A10" s="141" t="inlineStr">
         <is>
           <t>#YRGRRJQCY</t>
         </is>
       </c>
-      <c r="B10" s="103" t="n">
+      <c r="B10" s="141" t="n">
         <v>1338</v>
       </c>
-      <c r="C10" s="104" t="n">
+      <c r="C10" s="142" t="n">
         <v>7</v>
       </c>
       <c r="D10" s="82" t="inlineStr">
@@ -1270,37 +1303,37 @@
           <t>DoubleSpice</t>
         </is>
       </c>
-      <c r="E10" s="105" t="n">
+      <c r="E10" s="143" t="n">
         <v>6</v>
       </c>
       <c r="F10" s="82" t="n">
         <v>11620</v>
       </c>
-      <c r="G10" s="106" t="n">
+      <c r="G10" s="144" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="83" t="n">
         <v>60</v>
       </c>
-      <c r="I10" s="105" t="n">
+      <c r="I10" s="143" t="n">
         <v>6</v>
       </c>
       <c r="J10" s="82" t="n">
         <v>14095</v>
       </c>
-      <c r="K10" s="105" t="n">
+      <c r="K10" s="143" t="n">
         <v>6</v>
       </c>
       <c r="L10" s="82" t="n">
         <v>12379</v>
       </c>
-      <c r="M10" s="105" t="n">
+      <c r="M10" s="143" t="n">
         <v>6</v>
       </c>
       <c r="N10" s="82" t="n">
         <v>8256</v>
       </c>
-      <c r="O10" s="105" t="n">
+      <c r="O10" s="143" t="n">
         <v>6</v>
       </c>
       <c r="P10" s="82" t="n">
@@ -1308,15 +1341,15 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="107" t="inlineStr">
+      <c r="A11" s="145" t="inlineStr">
         <is>
           <t>#QUG8QQJ92</t>
         </is>
       </c>
-      <c r="B11" s="107" t="n">
+      <c r="B11" s="145" t="n">
         <v>925</v>
       </c>
-      <c r="C11" s="108" t="n">
+      <c r="C11" s="146" t="n">
         <v>8</v>
       </c>
       <c r="D11" s="86" t="inlineStr">
@@ -1324,37 +1357,37 @@
           <t>Karma</t>
         </is>
       </c>
-      <c r="E11" s="109" t="n">
+      <c r="E11" s="147" t="n">
         <v>6</v>
       </c>
       <c r="F11" s="86" t="n">
         <v>11355</v>
       </c>
-      <c r="G11" s="110" t="n">
+      <c r="G11" s="148" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="109" t="n">
+      <c r="I11" s="147" t="n">
         <v>6</v>
       </c>
       <c r="J11" s="86" t="n">
         <v>10003</v>
       </c>
-      <c r="K11" s="109" t="n">
+      <c r="K11" s="147" t="n">
         <v>6</v>
       </c>
       <c r="L11" s="86" t="n">
         <v>10595</v>
       </c>
-      <c r="M11" s="109" t="n">
+      <c r="M11" s="147" t="n">
         <v>6</v>
       </c>
       <c r="N11" s="86" t="n">
         <v>9240</v>
       </c>
-      <c r="O11" s="109" t="n">
+      <c r="O11" s="147" t="n">
         <v>6</v>
       </c>
       <c r="P11" s="86" t="n">
@@ -1362,15 +1395,15 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="112" t="inlineStr">
+      <c r="A12" s="150" t="inlineStr">
         <is>
           <t>#98JG2UJQL</t>
         </is>
       </c>
-      <c r="B12" s="112" t="n">
+      <c r="B12" s="150" t="n">
         <v>2941</v>
       </c>
-      <c r="C12" s="104" t="n">
+      <c r="C12" s="142" t="n">
         <v>9</v>
       </c>
       <c r="D12" s="99" t="inlineStr">
@@ -1378,37 +1411,37 @@
           <t>Dragonux</t>
         </is>
       </c>
-      <c r="E12" s="113" t="n">
+      <c r="E12" s="151" t="n">
         <v>6</v>
       </c>
       <c r="F12" s="99" t="n">
         <v>10910</v>
       </c>
-      <c r="G12" s="114" t="n">
+      <c r="G12" s="152" t="n">
         <v>211</v>
       </c>
       <c r="H12" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="113" t="n">
+      <c r="I12" s="151" t="n">
         <v>6</v>
       </c>
       <c r="J12" s="99" t="n">
         <v>8750</v>
       </c>
-      <c r="K12" s="113" t="n">
+      <c r="K12" s="151" t="n">
         <v>6</v>
       </c>
       <c r="L12" s="99" t="n">
         <v>10865</v>
       </c>
-      <c r="M12" s="113" t="n">
+      <c r="M12" s="151" t="n">
         <v>6</v>
       </c>
       <c r="N12" s="99" t="n">
         <v>8025</v>
       </c>
-      <c r="O12" s="113" t="n">
+      <c r="O12" s="151" t="n">
         <v>6</v>
       </c>
       <c r="P12" s="99" t="n">
@@ -1416,15 +1449,15 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="107" t="inlineStr">
+      <c r="A13" s="145" t="inlineStr">
         <is>
           <t>#QLR088LC9</t>
         </is>
       </c>
-      <c r="B13" s="107" t="n">
+      <c r="B13" s="145" t="n">
         <v>870</v>
       </c>
-      <c r="C13" s="108" t="n">
+      <c r="C13" s="146" t="n">
         <v>10</v>
       </c>
       <c r="D13" s="86" t="inlineStr">
@@ -1432,37 +1465,37 @@
           <t>Sanji</t>
         </is>
       </c>
-      <c r="E13" s="109" t="n">
+      <c r="E13" s="147" t="n">
         <v>6</v>
       </c>
       <c r="F13" s="86" t="n">
         <v>10910</v>
       </c>
-      <c r="G13" s="110" t="n">
+      <c r="G13" s="148" t="n">
         <v>0</v>
       </c>
       <c r="H13" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="109" t="n">
+      <c r="I13" s="147" t="n">
         <v>6</v>
       </c>
       <c r="J13" s="86" t="n">
         <v>9550</v>
       </c>
-      <c r="K13" s="109" t="n">
+      <c r="K13" s="147" t="n">
         <v>6</v>
       </c>
       <c r="L13" s="86" t="n">
         <v>9138</v>
       </c>
-      <c r="M13" s="109" t="n">
+      <c r="M13" s="147" t="n">
         <v>6</v>
       </c>
       <c r="N13" s="86" t="n">
         <v>8897</v>
       </c>
-      <c r="O13" s="109" t="n">
+      <c r="O13" s="147" t="n">
         <v>6</v>
       </c>
       <c r="P13" s="86" t="n">
@@ -1470,15 +1503,15 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="103" t="inlineStr">
+      <c r="A14" s="141" t="inlineStr">
         <is>
           <t>#QUYG0PQC8</t>
         </is>
       </c>
-      <c r="B14" s="103" t="n">
+      <c r="B14" s="141" t="n">
         <v>948</v>
       </c>
-      <c r="C14" s="104" t="n">
+      <c r="C14" s="142" t="n">
         <v>11</v>
       </c>
       <c r="D14" s="82" t="inlineStr">
@@ -1486,37 +1519,37 @@
           <t>Luffy</t>
         </is>
       </c>
-      <c r="E14" s="105" t="n">
+      <c r="E14" s="143" t="n">
         <v>6</v>
       </c>
       <c r="F14" s="82" t="n">
         <v>10879</v>
       </c>
-      <c r="G14" s="106" t="n">
+      <c r="G14" s="144" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="105" t="n">
+      <c r="I14" s="143" t="n">
         <v>6</v>
       </c>
       <c r="J14" s="82" t="n">
         <v>9114</v>
       </c>
-      <c r="K14" s="105" t="n">
+      <c r="K14" s="143" t="n">
         <v>6</v>
       </c>
       <c r="L14" s="82" t="n">
         <v>13385</v>
       </c>
-      <c r="M14" s="105" t="n">
+      <c r="M14" s="143" t="n">
         <v>6</v>
       </c>
       <c r="N14" s="82" t="n">
         <v>7877</v>
       </c>
-      <c r="O14" s="105" t="n">
+      <c r="O14" s="143" t="n">
         <v>6</v>
       </c>
       <c r="P14" s="82" t="n">
@@ -1524,15 +1557,15 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="115" t="inlineStr">
+      <c r="A15" s="153" t="inlineStr">
         <is>
           <t>#G0JPUQGYR</t>
         </is>
       </c>
-      <c r="B15" s="115" t="n">
+      <c r="B15" s="153" t="n">
         <v>1305</v>
       </c>
-      <c r="C15" s="108" t="n">
+      <c r="C15" s="146" t="n">
         <v>12</v>
       </c>
       <c r="D15" s="101" t="inlineStr">
@@ -1540,37 +1573,37 @@
           <t>Collin</t>
         </is>
       </c>
-      <c r="E15" s="116" t="n">
+      <c r="E15" s="154" t="n">
         <v>6</v>
       </c>
       <c r="F15" s="101" t="n">
         <v>8833</v>
       </c>
-      <c r="G15" s="117" t="n">
+      <c r="G15" s="155" t="n">
         <v>20</v>
       </c>
       <c r="H15" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="116" t="n">
+      <c r="I15" s="154" t="n">
         <v>6</v>
       </c>
       <c r="J15" s="101" t="n">
         <v>9238</v>
       </c>
-      <c r="K15" s="116" t="n">
+      <c r="K15" s="154" t="n">
         <v>6</v>
       </c>
       <c r="L15" s="101" t="n">
         <v>7756</v>
       </c>
-      <c r="M15" s="116" t="n">
+      <c r="M15" s="154" t="n">
         <v>6</v>
       </c>
       <c r="N15" s="102" t="n">
         <v>5943</v>
       </c>
-      <c r="O15" s="116" t="n">
+      <c r="O15" s="154" t="n">
         <v>6</v>
       </c>
       <c r="P15" s="101" t="n">
@@ -1578,15 +1611,15 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="112" t="inlineStr">
+      <c r="A16" s="150" t="inlineStr">
         <is>
           <t>#82QLQCJRJ</t>
         </is>
       </c>
-      <c r="B16" s="112" t="n">
+      <c r="B16" s="150" t="n">
         <v>2940</v>
       </c>
-      <c r="C16" s="104" t="n">
+      <c r="C16" s="142" t="n">
         <v>13</v>
       </c>
       <c r="D16" s="99" t="inlineStr">
@@ -1594,37 +1627,37 @@
           <t>Raging Fury</t>
         </is>
       </c>
-      <c r="E16" s="113" t="n">
+      <c r="E16" s="151" t="n">
         <v>6</v>
       </c>
       <c r="F16" s="99" t="n">
         <v>8055</v>
       </c>
-      <c r="G16" s="118" t="n">
+      <c r="G16" s="156" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="113" t="n">
+      <c r="I16" s="151" t="n">
         <v>6</v>
       </c>
       <c r="J16" s="99" t="n">
         <v>7115</v>
       </c>
-      <c r="K16" s="118" t="n">
+      <c r="K16" s="156" t="n">
         <v>2</v>
       </c>
       <c r="L16" s="95" t="n">
         <v>2320</v>
       </c>
-      <c r="M16" s="113" t="n">
+      <c r="M16" s="151" t="n">
         <v>6</v>
       </c>
       <c r="N16" s="93" t="n">
         <v>4920</v>
       </c>
-      <c r="O16" s="113" t="n">
+      <c r="O16" s="151" t="n">
         <v>6</v>
       </c>
       <c r="P16" s="93" t="n">
@@ -1632,15 +1665,15 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="107" t="inlineStr">
+      <c r="A17" s="145" t="inlineStr">
         <is>
           <t>#Q8CLCUCC2</t>
         </is>
       </c>
-      <c r="B17" s="107" t="n">
+      <c r="B17" s="145" t="n">
         <v>1343</v>
       </c>
-      <c r="C17" s="108" t="n">
+      <c r="C17" s="146" t="n">
         <v>14</v>
       </c>
       <c r="D17" s="86" t="inlineStr">
@@ -1648,37 +1681,37 @@
           <t>Moxxi</t>
         </is>
       </c>
-      <c r="E17" s="109" t="n">
+      <c r="E17" s="147" t="n">
         <v>6</v>
       </c>
       <c r="F17" s="86" t="n">
         <v>8015</v>
       </c>
-      <c r="G17" s="110" t="n">
+      <c r="G17" s="148" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="87" t="n">
         <v>60</v>
       </c>
-      <c r="I17" s="109" t="n">
+      <c r="I17" s="147" t="n">
         <v>6</v>
       </c>
       <c r="J17" s="86" t="n">
         <v>11010</v>
       </c>
-      <c r="K17" s="109" t="n">
+      <c r="K17" s="147" t="n">
         <v>6</v>
       </c>
       <c r="L17" s="86" t="n">
         <v>13857</v>
       </c>
-      <c r="M17" s="109" t="n">
+      <c r="M17" s="147" t="n">
         <v>6</v>
       </c>
       <c r="N17" s="86" t="n">
         <v>7905</v>
       </c>
-      <c r="O17" s="109" t="n">
+      <c r="O17" s="147" t="n">
         <v>6</v>
       </c>
       <c r="P17" s="86" t="n">
@@ -1686,15 +1719,15 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="112" t="inlineStr">
+      <c r="A18" s="150" t="inlineStr">
         <is>
           <t>#QU0U2Q99G</t>
         </is>
       </c>
-      <c r="B18" s="112" t="n">
+      <c r="B18" s="150" t="n">
         <v>881</v>
       </c>
-      <c r="C18" s="104" t="n">
+      <c r="C18" s="142" t="n">
         <v>15</v>
       </c>
       <c r="D18" s="99" t="inlineStr">
@@ -1702,45 +1735,45 @@
           <t>big coc</t>
         </is>
       </c>
-      <c r="E18" s="113" t="n">
+      <c r="E18" s="151" t="n">
         <v>6</v>
       </c>
       <c r="F18" s="99" t="n">
         <v>7420</v>
       </c>
-      <c r="G18" s="118" t="n">
+      <c r="G18" s="156" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="91" t="n">
         <v>40</v>
       </c>
-      <c r="I18" s="113" t="n">
+      <c r="I18" s="151" t="n">
         <v>5</v>
       </c>
       <c r="J18" s="93" t="n">
         <v>5150</v>
       </c>
-      <c r="K18" s="113" t="n">
+      <c r="K18" s="151" t="n">
         <v>6</v>
       </c>
       <c r="L18" s="99" t="n">
         <v>9075</v>
       </c>
-      <c r="M18" s="112" t="n"/>
+      <c r="M18" s="150" t="n"/>
       <c r="N18" s="91" t="n"/>
-      <c r="O18" s="112" t="n"/>
+      <c r="O18" s="150" t="n"/>
       <c r="P18" s="91" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="115" t="inlineStr">
+      <c r="A19" s="153" t="inlineStr">
         <is>
           <t>#QRPRYR8LL</t>
         </is>
       </c>
-      <c r="B19" s="115" t="n">
+      <c r="B19" s="153" t="n">
         <v>1130</v>
       </c>
-      <c r="C19" s="108" t="n">
+      <c r="C19" s="146" t="n">
         <v>16</v>
       </c>
       <c r="D19" s="101" t="inlineStr">
@@ -1748,37 +1781,37 @@
           <t>FidelCashflow</t>
         </is>
       </c>
-      <c r="E19" s="116" t="n">
+      <c r="E19" s="154" t="n">
         <v>6</v>
       </c>
       <c r="F19" s="101" t="n">
         <v>6415</v>
       </c>
-      <c r="G19" s="117" t="n">
+      <c r="G19" s="155" t="n">
         <v>4</v>
       </c>
       <c r="H19" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="116" t="n">
+      <c r="I19" s="154" t="n">
         <v>6</v>
       </c>
       <c r="J19" s="101" t="n">
         <v>6547</v>
       </c>
-      <c r="K19" s="116" t="n">
+      <c r="K19" s="154" t="n">
         <v>6</v>
       </c>
       <c r="L19" s="101" t="n">
         <v>6811</v>
       </c>
-      <c r="M19" s="116" t="n">
+      <c r="M19" s="154" t="n">
         <v>6</v>
       </c>
       <c r="N19" s="102" t="n">
         <v>4239</v>
       </c>
-      <c r="O19" s="116" t="n">
+      <c r="O19" s="154" t="n">
         <v>6</v>
       </c>
       <c r="P19" s="102" t="n">
@@ -1786,15 +1819,15 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="112" t="inlineStr">
+      <c r="A20" s="150" t="inlineStr">
         <is>
           <t>#QY0VGPQGQ</t>
         </is>
       </c>
-      <c r="B20" s="112" t="n">
+      <c r="B20" s="150" t="n">
         <v>556</v>
       </c>
-      <c r="C20" s="104" t="n">
+      <c r="C20" s="142" t="n">
         <v>17</v>
       </c>
       <c r="D20" s="99" t="inlineStr">
@@ -1802,37 +1835,37 @@
           <t>killerjones</t>
         </is>
       </c>
-      <c r="E20" s="113" t="n">
+      <c r="E20" s="151" t="n">
         <v>6</v>
       </c>
       <c r="F20" s="99" t="n">
         <v>6320</v>
       </c>
-      <c r="G20" s="118" t="n">
+      <c r="G20" s="156" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="91" t="n">
         <v>15</v>
       </c>
-      <c r="I20" s="112" t="n"/>
+      <c r="I20" s="150" t="n"/>
       <c r="J20" s="91" t="n"/>
-      <c r="K20" s="112" t="n"/>
+      <c r="K20" s="150" t="n"/>
       <c r="L20" s="91" t="n"/>
-      <c r="M20" s="112" t="n"/>
+      <c r="M20" s="150" t="n"/>
       <c r="N20" s="91" t="n"/>
-      <c r="O20" s="112" t="n"/>
+      <c r="O20" s="150" t="n"/>
       <c r="P20" s="91" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="115" t="inlineStr">
+      <c r="A21" s="153" t="inlineStr">
         <is>
           <t>#LC9GUPJJG</t>
         </is>
       </c>
-      <c r="B21" s="115" t="n">
+      <c r="B21" s="153" t="n">
         <v>1056</v>
       </c>
-      <c r="C21" s="108" t="n">
+      <c r="C21" s="146" t="n">
         <v>18</v>
       </c>
       <c r="D21" s="101" t="inlineStr">
@@ -1840,41 +1873,41 @@
           <t>raptor2222a</t>
         </is>
       </c>
-      <c r="E21" s="116" t="n">
+      <c r="E21" s="154" t="n">
         <v>5</v>
       </c>
       <c r="F21" s="102" t="n">
         <v>4350</v>
       </c>
-      <c r="G21" s="117" t="n">
+      <c r="G21" s="155" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="117" t="n">
+      <c r="I21" s="155" t="n">
         <v>0</v>
       </c>
       <c r="J21" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="K21" s="115" t="n"/>
+      <c r="K21" s="153" t="n"/>
       <c r="L21" s="89" t="n"/>
-      <c r="M21" s="115" t="n"/>
+      <c r="M21" s="153" t="n"/>
       <c r="N21" s="89" t="n"/>
-      <c r="O21" s="115" t="n"/>
+      <c r="O21" s="153" t="n"/>
       <c r="P21" s="89" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="112" t="inlineStr">
+      <c r="A22" s="150" t="inlineStr">
         <is>
           <t>#QLG0VJG2J</t>
         </is>
       </c>
-      <c r="B22" s="112" t="n">
+      <c r="B22" s="150" t="n">
         <v>1131</v>
       </c>
-      <c r="C22" s="104" t="n">
+      <c r="C22" s="142" t="n">
         <v>19</v>
       </c>
       <c r="D22" s="93" t="inlineStr">
@@ -1882,41 +1915,41 @@
           <t>PocketRocket</t>
         </is>
       </c>
-      <c r="E22" s="114" t="n">
+      <c r="E22" s="152" t="n">
         <v>4</v>
       </c>
       <c r="F22" s="93" t="n">
         <v>4327</v>
       </c>
-      <c r="G22" s="118" t="n">
+      <c r="G22" s="156" t="n">
         <v>20</v>
       </c>
       <c r="H22" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="114" t="n">
+      <c r="I22" s="152" t="n">
         <v>4</v>
       </c>
       <c r="J22" s="93" t="n">
         <v>5215</v>
       </c>
-      <c r="K22" s="112" t="n"/>
+      <c r="K22" s="150" t="n"/>
       <c r="L22" s="91" t="n"/>
-      <c r="M22" s="112" t="n"/>
+      <c r="M22" s="150" t="n"/>
       <c r="N22" s="91" t="n"/>
-      <c r="O22" s="112" t="n"/>
+      <c r="O22" s="150" t="n"/>
       <c r="P22" s="91" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="115" t="inlineStr">
+      <c r="A23" s="153" t="inlineStr">
         <is>
           <t>#QL8LVLYG8</t>
         </is>
       </c>
-      <c r="B23" s="115" t="n">
+      <c r="B23" s="153" t="n">
         <v>835</v>
       </c>
-      <c r="C23" s="108" t="n">
+      <c r="C23" s="146" t="n">
         <v>20</v>
       </c>
       <c r="D23" s="97" t="inlineStr">
@@ -1924,37 +1957,37 @@
           <t>Some guy</t>
         </is>
       </c>
-      <c r="E23" s="117" t="n">
+      <c r="E23" s="155" t="n">
         <v>2</v>
       </c>
       <c r="F23" s="97" t="n">
         <v>2650</v>
       </c>
-      <c r="G23" s="117" t="n">
+      <c r="G23" s="155" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="89" t="n">
         <v>20</v>
       </c>
-      <c r="I23" s="117" t="n">
+      <c r="I23" s="155" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="K23" s="116" t="n">
+      <c r="K23" s="154" t="n">
         <v>6</v>
       </c>
       <c r="L23" s="101" t="n">
         <v>6917</v>
       </c>
-      <c r="M23" s="117" t="n">
+      <c r="M23" s="155" t="n">
         <v>0</v>
       </c>
       <c r="N23" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="O23" s="117" t="n">
+      <c r="O23" s="155" t="n">
         <v>2</v>
       </c>
       <c r="P23" s="97" t="n">
@@ -2016,15 +2049,15 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="115" t="inlineStr">
+      <c r="A25" s="153" t="inlineStr">
         <is>
           <t>#QV8JJ0URU</t>
         </is>
       </c>
-      <c r="B25" s="115" t="n">
+      <c r="B25" s="153" t="n">
         <v>741</v>
       </c>
-      <c r="C25" s="108" t="n">
+      <c r="C25" s="146" t="n">
         <v>22</v>
       </c>
       <c r="D25" s="97" t="inlineStr">
@@ -2032,37 +2065,37 @@
           <t>✨Jacob</t>
         </is>
       </c>
-      <c r="E25" s="117" t="n">
+      <c r="E25" s="155" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="G25" s="117" t="n">
+      <c r="G25" s="155" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="117" t="n">
+      <c r="I25" s="155" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="K25" s="117" t="n">
+      <c r="K25" s="155" t="n">
         <v>0</v>
       </c>
       <c r="L25" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="M25" s="116" t="n">
+      <c r="M25" s="154" t="n">
         <v>6</v>
       </c>
       <c r="N25" s="101" t="n">
         <v>7385</v>
       </c>
-      <c r="O25" s="116" t="n">
+      <c r="O25" s="154" t="n">
         <v>6</v>
       </c>
       <c r="P25" s="101" t="n">
@@ -2070,15 +2103,15 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="112" t="inlineStr">
+      <c r="A26" s="150" t="inlineStr">
         <is>
           <t>#QLGYRVPU0</t>
         </is>
       </c>
-      <c r="B26" s="112" t="n">
+      <c r="B26" s="150" t="n">
         <v>901</v>
       </c>
-      <c r="C26" s="104" t="n">
+      <c r="C26" s="142" t="n">
         <v>23</v>
       </c>
       <c r="D26" s="95" t="inlineStr">
@@ -2086,37 +2119,37 @@
           <t>Black.Boy.</t>
         </is>
       </c>
-      <c r="E26" s="118" t="n">
+      <c r="E26" s="156" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="118" t="n">
+      <c r="G26" s="156" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="91" t="n">
         <v>26</v>
       </c>
-      <c r="I26" s="112" t="n"/>
+      <c r="I26" s="150" t="n"/>
       <c r="J26" s="91" t="n"/>
-      <c r="K26" s="112" t="n"/>
+      <c r="K26" s="150" t="n"/>
       <c r="L26" s="91" t="n"/>
-      <c r="M26" s="112" t="n"/>
+      <c r="M26" s="150" t="n"/>
       <c r="N26" s="91" t="n"/>
-      <c r="O26" s="112" t="n"/>
+      <c r="O26" s="150" t="n"/>
       <c r="P26" s="91" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="115" t="inlineStr">
+      <c r="A27" s="153" t="inlineStr">
         <is>
           <t>#QQL28Y2UL</t>
         </is>
       </c>
-      <c r="B27" s="115" t="n">
+      <c r="B27" s="153" t="n">
         <v>1103</v>
       </c>
-      <c r="C27" s="108" t="n">
+      <c r="C27" s="146" t="n">
         <v>24</v>
       </c>
       <c r="D27" s="97" t="inlineStr">
@@ -2124,37 +2157,37 @@
           <t>SUPoT</t>
         </is>
       </c>
-      <c r="E27" s="117" t="n">
+      <c r="E27" s="155" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="G27" s="117" t="n">
+      <c r="G27" s="155" t="n">
         <v>0</v>
       </c>
       <c r="H27" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="115" t="n"/>
+      <c r="I27" s="153" t="n"/>
       <c r="J27" s="89" t="n"/>
-      <c r="K27" s="115" t="n"/>
+      <c r="K27" s="153" t="n"/>
       <c r="L27" s="89" t="n"/>
-      <c r="M27" s="115" t="n"/>
+      <c r="M27" s="153" t="n"/>
       <c r="N27" s="89" t="n"/>
-      <c r="O27" s="115" t="n"/>
+      <c r="O27" s="153" t="n"/>
       <c r="P27" s="89" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="112" t="inlineStr">
+      <c r="A28" s="150" t="inlineStr">
         <is>
           <t>#QY8L2GLUR</t>
         </is>
       </c>
-      <c r="B28" s="112" t="n">
+      <c r="B28" s="150" t="n">
         <v>907</v>
       </c>
-      <c r="C28" s="104" t="n">
+      <c r="C28" s="142" t="n">
         <v>25</v>
       </c>
       <c r="D28" s="95" t="inlineStr">
@@ -2162,37 +2195,37 @@
           <t>Huy</t>
         </is>
       </c>
-      <c r="E28" s="118" t="n">
+      <c r="E28" s="156" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="G28" s="118" t="n">
+      <c r="G28" s="156" t="n">
         <v>0</v>
       </c>
       <c r="H28" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="118" t="n">
+      <c r="I28" s="156" t="n">
         <v>0</v>
       </c>
       <c r="J28" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="K28" s="118" t="n">
+      <c r="K28" s="156" t="n">
         <v>0</v>
       </c>
       <c r="L28" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="M28" s="113" t="n">
+      <c r="M28" s="151" t="n">
         <v>6</v>
       </c>
       <c r="N28" s="99" t="n">
         <v>6995</v>
       </c>
-      <c r="O28" s="113" t="n">
+      <c r="O28" s="151" t="n">
         <v>6</v>
       </c>
       <c r="P28" s="99" t="n">
@@ -2200,15 +2233,15 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="115" t="inlineStr">
+      <c r="A29" s="153" t="inlineStr">
         <is>
           <t>#L2QQL9QVJ</t>
         </is>
       </c>
-      <c r="B29" s="115" t="n">
+      <c r="B29" s="153" t="n">
         <v>1450</v>
       </c>
-      <c r="C29" s="108" t="n">
+      <c r="C29" s="146" t="n">
         <v>26</v>
       </c>
       <c r="D29" s="97" t="inlineStr">
@@ -2216,37 +2249,37 @@
           <t>JustPre10d</t>
         </is>
       </c>
-      <c r="E29" s="117" t="n">
+      <c r="E29" s="155" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="G29" s="117" t="n">
+      <c r="G29" s="155" t="n">
         <v>0</v>
       </c>
       <c r="H29" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="117" t="n">
+      <c r="I29" s="155" t="n">
         <v>0</v>
       </c>
       <c r="J29" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="K29" s="117" t="n">
+      <c r="K29" s="155" t="n">
         <v>0</v>
       </c>
       <c r="L29" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="M29" s="116" t="n">
+      <c r="M29" s="154" t="n">
         <v>6</v>
       </c>
       <c r="N29" s="101" t="n">
         <v>6655</v>
       </c>
-      <c r="O29" s="116" t="n">
+      <c r="O29" s="154" t="n">
         <v>6</v>
       </c>
       <c r="P29" s="101" t="n">
@@ -2254,15 +2287,15 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="112" t="inlineStr">
+      <c r="A30" s="150" t="inlineStr">
         <is>
           <t>#QUVJGC0VQ</t>
         </is>
       </c>
-      <c r="B30" s="112" t="n">
+      <c r="B30" s="150" t="n">
         <v>1155</v>
       </c>
-      <c r="C30" s="104" t="n">
+      <c r="C30" s="142" t="n">
         <v>27</v>
       </c>
       <c r="D30" s="95" t="inlineStr">
@@ -2270,37 +2303,37 @@
           <t>Cam</t>
         </is>
       </c>
-      <c r="E30" s="118" t="n">
+      <c r="E30" s="156" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="G30" s="118" t="n">
+      <c r="G30" s="156" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="91" t="n">
         <v>26</v>
       </c>
-      <c r="I30" s="112" t="n"/>
+      <c r="I30" s="150" t="n"/>
       <c r="J30" s="91" t="n"/>
-      <c r="K30" s="112" t="n"/>
+      <c r="K30" s="150" t="n"/>
       <c r="L30" s="91" t="n"/>
-      <c r="M30" s="112" t="n"/>
+      <c r="M30" s="150" t="n"/>
       <c r="N30" s="91" t="n"/>
-      <c r="O30" s="112" t="n"/>
+      <c r="O30" s="150" t="n"/>
       <c r="P30" s="91" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="115" t="inlineStr">
+      <c r="A31" s="153" t="inlineStr">
         <is>
           <t>#QQLVRJCGQ</t>
         </is>
       </c>
-      <c r="B31" s="115" t="n">
+      <c r="B31" s="153" t="n">
         <v>1240</v>
       </c>
-      <c r="C31" s="108" t="n">
+      <c r="C31" s="146" t="n">
         <v>28</v>
       </c>
       <c r="D31" s="97" t="inlineStr">
@@ -2308,37 +2341,37 @@
           <t>khant</t>
         </is>
       </c>
-      <c r="E31" s="117" t="n">
+      <c r="E31" s="155" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="G31" s="117" t="n">
+      <c r="G31" s="155" t="n">
         <v>0</v>
       </c>
       <c r="H31" s="89" t="n">
         <v>60</v>
       </c>
-      <c r="I31" s="115" t="n"/>
+      <c r="I31" s="153" t="n"/>
       <c r="J31" s="89" t="n"/>
-      <c r="K31" s="115" t="n"/>
+      <c r="K31" s="153" t="n"/>
       <c r="L31" s="89" t="n"/>
-      <c r="M31" s="115" t="n"/>
+      <c r="M31" s="153" t="n"/>
       <c r="N31" s="89" t="n"/>
-      <c r="O31" s="115" t="n"/>
+      <c r="O31" s="153" t="n"/>
       <c r="P31" s="89" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="112" t="inlineStr">
+      <c r="A32" s="150" t="inlineStr">
         <is>
           <t>#LPR9RPCY9</t>
         </is>
       </c>
-      <c r="B32" s="112" t="n">
+      <c r="B32" s="150" t="n">
         <v>990</v>
       </c>
-      <c r="C32" s="104" t="n">
+      <c r="C32" s="142" t="n">
         <v>29</v>
       </c>
       <c r="D32" s="95" t="inlineStr">
@@ -2346,49 +2379,49 @@
           <t>sayhuss17</t>
         </is>
       </c>
-      <c r="E32" s="118" t="n">
+      <c r="E32" s="156" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="G32" s="118" t="n">
+      <c r="G32" s="156" t="n">
         <v>0</v>
       </c>
       <c r="H32" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="I32" s="118" t="n">
+      <c r="I32" s="156" t="n">
         <v>0</v>
       </c>
       <c r="J32" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="K32" s="118" t="n">
+      <c r="K32" s="156" t="n">
         <v>0</v>
       </c>
       <c r="L32" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="M32" s="114" t="n">
+      <c r="M32" s="152" t="n">
         <v>4</v>
       </c>
       <c r="N32" s="93" t="n">
         <v>4240</v>
       </c>
-      <c r="O32" s="112" t="n"/>
+      <c r="O32" s="150" t="n"/>
       <c r="P32" s="91" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="115" t="inlineStr">
+      <c r="A33" s="153" t="inlineStr">
         <is>
           <t>#QQL8C29CY</t>
         </is>
       </c>
-      <c r="B33" s="115" t="n">
+      <c r="B33" s="153" t="n">
         <v>878</v>
       </c>
-      <c r="C33" s="108" t="n">
+      <c r="C33" s="146" t="n">
         <v>30</v>
       </c>
       <c r="D33" s="97" t="inlineStr">
@@ -2396,37 +2429,37 @@
           <t>TypicalTeague#2</t>
         </is>
       </c>
-      <c r="E33" s="117" t="n">
+      <c r="E33" s="155" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="G33" s="117" t="n">
+      <c r="G33" s="155" t="n">
         <v>0</v>
       </c>
       <c r="H33" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="I33" s="117" t="n">
+      <c r="I33" s="155" t="n">
         <v>0</v>
       </c>
       <c r="J33" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="K33" s="117" t="n">
+      <c r="K33" s="155" t="n">
         <v>0</v>
       </c>
       <c r="L33" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="M33" s="116" t="n">
+      <c r="M33" s="154" t="n">
         <v>5</v>
       </c>
       <c r="N33" s="102" t="n">
         <v>4070</v>
       </c>
-      <c r="O33" s="116" t="n">
+      <c r="O33" s="154" t="n">
         <v>6</v>
       </c>
       <c r="P33" s="101" t="n">
@@ -2434,15 +2467,15 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="112" t="inlineStr">
+      <c r="A34" s="150" t="inlineStr">
         <is>
           <t>#PJYVV989R</t>
         </is>
       </c>
-      <c r="B34" s="112" t="n">
+      <c r="B34" s="150" t="n">
         <v>1577</v>
       </c>
-      <c r="C34" s="104" t="n">
+      <c r="C34" s="142" t="n">
         <v>31</v>
       </c>
       <c r="D34" s="95" t="inlineStr">
@@ -2450,49 +2483,49 @@
           <t>nx</t>
         </is>
       </c>
-      <c r="E34" s="118" t="n">
+      <c r="E34" s="156" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="G34" s="118" t="n">
+      <c r="G34" s="156" t="n">
         <v>4</v>
       </c>
       <c r="H34" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="I34" s="118" t="n">
+      <c r="I34" s="156" t="n">
         <v>0</v>
       </c>
       <c r="J34" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="K34" s="118" t="n">
+      <c r="K34" s="156" t="n">
         <v>0</v>
       </c>
       <c r="L34" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="M34" s="118" t="n">
+      <c r="M34" s="156" t="n">
         <v>0</v>
       </c>
       <c r="N34" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="O34" s="112" t="n"/>
+      <c r="O34" s="150" t="n"/>
       <c r="P34" s="91" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="115" t="inlineStr">
+      <c r="A35" s="153" t="inlineStr">
         <is>
           <t>#L9QL9YQQY</t>
         </is>
       </c>
-      <c r="B35" s="115" t="n">
+      <c r="B35" s="153" t="n">
         <v>975</v>
       </c>
-      <c r="C35" s="108" t="n">
+      <c r="C35" s="146" t="n">
         <v>32</v>
       </c>
       <c r="D35" s="97" t="inlineStr">
@@ -2500,37 +2533,37 @@
           <t>Ima Chad</t>
         </is>
       </c>
-      <c r="E35" s="117" t="n">
+      <c r="E35" s="155" t="n">
         <v>0</v>
       </c>
       <c r="F35" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="G35" s="117" t="n">
+      <c r="G35" s="155" t="n">
         <v>0</v>
       </c>
       <c r="H35" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="I35" s="117" t="n">
+      <c r="I35" s="155" t="n">
         <v>0</v>
       </c>
       <c r="J35" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="K35" s="117" t="n">
+      <c r="K35" s="155" t="n">
         <v>0</v>
       </c>
       <c r="L35" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="M35" s="117" t="n">
+      <c r="M35" s="155" t="n">
         <v>0</v>
       </c>
       <c r="N35" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="O35" s="116" t="n">
+      <c r="O35" s="154" t="n">
         <v>5</v>
       </c>
       <c r="P35" s="97" t="n">
@@ -2538,15 +2571,15 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="112" t="inlineStr">
+      <c r="A36" s="150" t="inlineStr">
         <is>
           <t>#L9JJQY992</t>
         </is>
       </c>
-      <c r="B36" s="112" t="n">
+      <c r="B36" s="150" t="n">
         <v>773</v>
       </c>
-      <c r="C36" s="104" t="n">
+      <c r="C36" s="142" t="n">
         <v>33</v>
       </c>
       <c r="D36" s="95" t="inlineStr">
@@ -2554,37 +2587,37 @@
           <t>Fisted_Waffle</t>
         </is>
       </c>
-      <c r="E36" s="118" t="n">
+      <c r="E36" s="156" t="n">
         <v>0</v>
       </c>
       <c r="F36" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="G36" s="118" t="n">
+      <c r="G36" s="156" t="n">
         <v>0</v>
       </c>
       <c r="H36" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="I36" s="118" t="n">
+      <c r="I36" s="156" t="n">
         <v>0</v>
       </c>
       <c r="J36" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="K36" s="118" t="n">
+      <c r="K36" s="156" t="n">
         <v>0</v>
       </c>
       <c r="L36" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="M36" s="118" t="n">
+      <c r="M36" s="156" t="n">
         <v>0</v>
       </c>
       <c r="N36" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="O36" s="112" t="n"/>
+      <c r="O36" s="150" t="n"/>
       <c r="P36" s="91" t="n"/>
     </row>
     <row r="37">
@@ -2618,15 +2651,15 @@
       <c r="P37" s="129" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="118" t="inlineStr">
+      <c r="A38" s="156" t="inlineStr">
         <is>
           <t>#Q8YP9P8UJ</t>
         </is>
       </c>
-      <c r="B38" s="112" t="n">
+      <c r="B38" s="150" t="n">
         <v>945</v>
       </c>
-      <c r="C38" s="104" t="n">
+      <c r="C38" s="142" t="n">
         <v>35</v>
       </c>
       <c r="D38" s="91" t="inlineStr">
@@ -2634,33 +2667,33 @@
           <t>Ranger</t>
         </is>
       </c>
-      <c r="E38" s="112" t="n"/>
+      <c r="E38" s="150" t="n"/>
       <c r="F38" s="91" t="n"/>
-      <c r="G38" s="112" t="n"/>
+      <c r="G38" s="150" t="n"/>
       <c r="H38" s="91" t="n"/>
-      <c r="I38" s="113" t="n">
+      <c r="I38" s="151" t="n">
         <v>5</v>
       </c>
       <c r="J38" s="93" t="n">
         <v>4680</v>
       </c>
-      <c r="K38" s="112" t="n"/>
+      <c r="K38" s="150" t="n"/>
       <c r="L38" s="91" t="n"/>
-      <c r="M38" s="112" t="n"/>
+      <c r="M38" s="150" t="n"/>
       <c r="N38" s="91" t="n"/>
-      <c r="O38" s="112" t="n"/>
+      <c r="O38" s="150" t="n"/>
       <c r="P38" s="91" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="117" t="inlineStr">
+      <c r="A39" s="155" t="inlineStr">
         <is>
           <t>#Q0JG2RJQ8</t>
         </is>
       </c>
-      <c r="B39" s="115" t="n">
+      <c r="B39" s="153" t="n">
         <v>997</v>
       </c>
-      <c r="C39" s="108" t="n">
+      <c r="C39" s="146" t="n">
         <v>36</v>
       </c>
       <c r="D39" s="89" t="inlineStr">
@@ -2668,33 +2701,33 @@
           <t>bozo</t>
         </is>
       </c>
-      <c r="E39" s="115" t="n"/>
+      <c r="E39" s="153" t="n"/>
       <c r="F39" s="89" t="n"/>
-      <c r="G39" s="115" t="n"/>
+      <c r="G39" s="153" t="n"/>
       <c r="H39" s="89" t="n"/>
-      <c r="I39" s="115" t="n"/>
+      <c r="I39" s="153" t="n"/>
       <c r="J39" s="89" t="n"/>
-      <c r="K39" s="116" t="n">
+      <c r="K39" s="154" t="n">
         <v>6</v>
       </c>
       <c r="L39" s="101" t="n">
         <v>6495</v>
       </c>
-      <c r="M39" s="115" t="n"/>
+      <c r="M39" s="153" t="n"/>
       <c r="N39" s="89" t="n"/>
-      <c r="O39" s="115" t="n"/>
+      <c r="O39" s="153" t="n"/>
       <c r="P39" s="89" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="118" t="inlineStr">
+      <c r="A40" s="156" t="inlineStr">
         <is>
           <t>#UVCCQC02</t>
         </is>
       </c>
-      <c r="B40" s="112" t="n">
+      <c r="B40" s="150" t="n">
         <v>1806</v>
       </c>
-      <c r="C40" s="104" t="n">
+      <c r="C40" s="142" t="n">
         <v>37</v>
       </c>
       <c r="D40" s="91" t="inlineStr">
@@ -2702,25 +2735,25 @@
           <t>lordshisha</t>
         </is>
       </c>
-      <c r="E40" s="112" t="n"/>
+      <c r="E40" s="150" t="n"/>
       <c r="F40" s="91" t="n"/>
-      <c r="G40" s="112" t="n"/>
+      <c r="G40" s="150" t="n"/>
       <c r="H40" s="91" t="n"/>
-      <c r="I40" s="112" t="n"/>
+      <c r="I40" s="150" t="n"/>
       <c r="J40" s="91" t="n"/>
-      <c r="K40" s="113" t="n">
+      <c r="K40" s="151" t="n">
         <v>6</v>
       </c>
       <c r="L40" s="99" t="n">
         <v>8496</v>
       </c>
-      <c r="M40" s="113" t="n">
+      <c r="M40" s="151" t="n">
         <v>6</v>
       </c>
       <c r="N40" s="99" t="n">
         <v>6310</v>
       </c>
-      <c r="O40" s="113" t="n">
+      <c r="O40" s="151" t="n">
         <v>6</v>
       </c>
       <c r="P40" s="99" t="n">
@@ -2728,15 +2761,15 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="117" t="inlineStr">
+      <c r="A41" s="155" t="inlineStr">
         <is>
           <t>#P2CPRPQU</t>
         </is>
       </c>
-      <c r="B41" s="115" t="n">
+      <c r="B41" s="153" t="n">
         <v>2232</v>
       </c>
-      <c r="C41" s="108" t="n">
+      <c r="C41" s="146" t="n">
         <v>38</v>
       </c>
       <c r="D41" s="89" t="inlineStr">
@@ -2744,25 +2777,25 @@
           <t>The Drift King</t>
         </is>
       </c>
-      <c r="E41" s="115" t="n"/>
+      <c r="E41" s="153" t="n"/>
       <c r="F41" s="89" t="n"/>
-      <c r="G41" s="115" t="n"/>
+      <c r="G41" s="153" t="n"/>
       <c r="H41" s="89" t="n"/>
-      <c r="I41" s="115" t="n"/>
+      <c r="I41" s="153" t="n"/>
       <c r="J41" s="89" t="n"/>
-      <c r="K41" s="116" t="n">
+      <c r="K41" s="154" t="n">
         <v>6</v>
       </c>
       <c r="L41" s="101" t="n">
         <v>8023</v>
       </c>
-      <c r="M41" s="116" t="n">
+      <c r="M41" s="154" t="n">
         <v>6</v>
       </c>
       <c r="N41" s="101" t="n">
         <v>7625</v>
       </c>
-      <c r="O41" s="116" t="n">
+      <c r="O41" s="154" t="n">
         <v>6</v>
       </c>
       <c r="P41" s="101" t="n">
@@ -2770,15 +2803,15 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="118" t="inlineStr">
+      <c r="A42" s="156" t="inlineStr">
         <is>
           <t>#QJVL0LYQQ</t>
         </is>
       </c>
-      <c r="B42" s="112" t="n">
+      <c r="B42" s="150" t="n">
         <v>921</v>
       </c>
-      <c r="C42" s="104" t="n">
+      <c r="C42" s="142" t="n">
         <v>39</v>
       </c>
       <c r="D42" s="91" t="inlineStr">
@@ -2786,25 +2819,25 @@
           <t>mobbb341</t>
         </is>
       </c>
-      <c r="E42" s="112" t="n"/>
+      <c r="E42" s="150" t="n"/>
       <c r="F42" s="91" t="n"/>
-      <c r="G42" s="112" t="n"/>
+      <c r="G42" s="150" t="n"/>
       <c r="H42" s="91" t="n"/>
-      <c r="I42" s="112" t="n"/>
+      <c r="I42" s="150" t="n"/>
       <c r="J42" s="91" t="n"/>
-      <c r="K42" s="113" t="n">
+      <c r="K42" s="151" t="n">
         <v>6</v>
       </c>
       <c r="L42" s="99" t="n">
         <v>7710</v>
       </c>
-      <c r="M42" s="113" t="n">
+      <c r="M42" s="151" t="n">
         <v>6</v>
       </c>
       <c r="N42" s="99" t="n">
         <v>8810</v>
       </c>
-      <c r="O42" s="113" t="n">
+      <c r="O42" s="151" t="n">
         <v>6</v>
       </c>
       <c r="P42" s="93" t="n">
@@ -2812,15 +2845,15 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="117" t="inlineStr">
+      <c r="A43" s="155" t="inlineStr">
         <is>
           <t>#L8R82C8VC</t>
         </is>
       </c>
-      <c r="B43" s="115" t="n">
+      <c r="B43" s="153" t="n">
         <v>1162</v>
       </c>
-      <c r="C43" s="108" t="n">
+      <c r="C43" s="146" t="n">
         <v>40</v>
       </c>
       <c r="D43" s="89" t="inlineStr">
@@ -2828,25 +2861,25 @@
           <t>caden asue</t>
         </is>
       </c>
-      <c r="E43" s="115" t="n"/>
+      <c r="E43" s="153" t="n"/>
       <c r="F43" s="89" t="n"/>
-      <c r="G43" s="115" t="n"/>
+      <c r="G43" s="153" t="n"/>
       <c r="H43" s="89" t="n"/>
-      <c r="I43" s="115" t="n"/>
+      <c r="I43" s="153" t="n"/>
       <c r="J43" s="89" t="n"/>
-      <c r="K43" s="116" t="n">
+      <c r="K43" s="154" t="n">
         <v>6</v>
       </c>
       <c r="L43" s="102" t="n">
         <v>5112</v>
       </c>
-      <c r="M43" s="116" t="n">
+      <c r="M43" s="154" t="n">
         <v>6</v>
       </c>
       <c r="N43" s="102" t="n">
         <v>4283</v>
       </c>
-      <c r="O43" s="116" t="n">
+      <c r="O43" s="154" t="n">
         <v>6</v>
       </c>
       <c r="P43" s="102" t="n">
@@ -2854,15 +2887,15 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="118" t="inlineStr">
+      <c r="A44" s="156" t="inlineStr">
         <is>
           <t>#L9Q8VLLQG</t>
         </is>
       </c>
-      <c r="B44" s="112" t="n">
+      <c r="B44" s="150" t="n">
         <v>1130</v>
       </c>
-      <c r="C44" s="104" t="n">
+      <c r="C44" s="142" t="n">
         <v>41</v>
       </c>
       <c r="D44" s="91" t="inlineStr">
@@ -2870,17 +2903,17 @@
           <t>cat</t>
         </is>
       </c>
-      <c r="E44" s="112" t="n"/>
+      <c r="E44" s="150" t="n"/>
       <c r="F44" s="91" t="n"/>
-      <c r="G44" s="112" t="n"/>
+      <c r="G44" s="150" t="n"/>
       <c r="H44" s="91" t="n"/>
-      <c r="I44" s="112" t="n"/>
+      <c r="I44" s="150" t="n"/>
       <c r="J44" s="91" t="n"/>
-      <c r="K44" s="112" t="n"/>
+      <c r="K44" s="150" t="n"/>
       <c r="L44" s="91" t="n"/>
-      <c r="M44" s="112" t="n"/>
+      <c r="M44" s="150" t="n"/>
       <c r="N44" s="91" t="n"/>
-      <c r="O44" s="113" t="n">
+      <c r="O44" s="151" t="n">
         <v>6</v>
       </c>
       <c r="P44" s="93" t="n">
@@ -2888,15 +2921,15 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="117" t="inlineStr">
+      <c r="A45" s="155" t="inlineStr">
         <is>
           <t>#QV0PQC9JU</t>
         </is>
       </c>
-      <c r="B45" s="115" t="n">
+      <c r="B45" s="153" t="n">
         <v>539</v>
       </c>
-      <c r="C45" s="108" t="n">
+      <c r="C45" s="146" t="n">
         <v>42</v>
       </c>
       <c r="D45" s="89" t="inlineStr">
@@ -2904,17 +2937,17 @@
           <t>Superman</t>
         </is>
       </c>
-      <c r="E45" s="115" t="n"/>
+      <c r="E45" s="153" t="n"/>
       <c r="F45" s="89" t="n"/>
-      <c r="G45" s="115" t="n"/>
+      <c r="G45" s="153" t="n"/>
       <c r="H45" s="89" t="n"/>
-      <c r="I45" s="115" t="n"/>
+      <c r="I45" s="153" t="n"/>
       <c r="J45" s="89" t="n"/>
-      <c r="K45" s="115" t="n"/>
+      <c r="K45" s="153" t="n"/>
       <c r="L45" s="89" t="n"/>
-      <c r="M45" s="115" t="n"/>
+      <c r="M45" s="153" t="n"/>
       <c r="N45" s="89" t="n"/>
-      <c r="O45" s="116" t="n">
+      <c r="O45" s="154" t="n">
         <v>6</v>
       </c>
       <c r="P45" s="102" t="n">
@@ -2922,15 +2955,15 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="118" t="inlineStr">
+      <c r="A46" s="156" t="inlineStr">
         <is>
           <t>#LU0CRP09L</t>
         </is>
       </c>
-      <c r="B46" s="112" t="n">
+      <c r="B46" s="150" t="n">
         <v>809</v>
       </c>
-      <c r="C46" s="104" t="n">
+      <c r="C46" s="142" t="n">
         <v>43</v>
       </c>
       <c r="D46" s="91" t="inlineStr">
@@ -2938,17 +2971,17 @@
           <t>I Dont Know</t>
         </is>
       </c>
-      <c r="E46" s="112" t="n"/>
+      <c r="E46" s="150" t="n"/>
       <c r="F46" s="91" t="n"/>
-      <c r="G46" s="112" t="n"/>
+      <c r="G46" s="150" t="n"/>
       <c r="H46" s="91" t="n"/>
-      <c r="I46" s="112" t="n"/>
+      <c r="I46" s="150" t="n"/>
       <c r="J46" s="91" t="n"/>
-      <c r="K46" s="112" t="n"/>
+      <c r="K46" s="150" t="n"/>
       <c r="L46" s="91" t="n"/>
-      <c r="M46" s="112" t="n"/>
+      <c r="M46" s="150" t="n"/>
       <c r="N46" s="91" t="n"/>
-      <c r="O46" s="114" t="n">
+      <c r="O46" s="152" t="n">
         <v>3</v>
       </c>
       <c r="P46" s="95" t="n">
@@ -2956,15 +2989,15 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="117" t="inlineStr">
+      <c r="A47" s="155" t="inlineStr">
         <is>
           <t>#YCPP0QPP8</t>
         </is>
       </c>
-      <c r="B47" s="115" t="n">
+      <c r="B47" s="153" t="n">
         <v>3327</v>
       </c>
-      <c r="C47" s="108" t="n">
+      <c r="C47" s="146" t="n">
         <v>44</v>
       </c>
       <c r="D47" s="89" t="inlineStr">
@@ -2972,17 +3005,17 @@
           <t>Coach</t>
         </is>
       </c>
-      <c r="E47" s="115" t="n"/>
+      <c r="E47" s="153" t="n"/>
       <c r="F47" s="89" t="n"/>
-      <c r="G47" s="115" t="n"/>
+      <c r="G47" s="153" t="n"/>
       <c r="H47" s="89" t="n"/>
-      <c r="I47" s="115" t="n"/>
+      <c r="I47" s="153" t="n"/>
       <c r="J47" s="89" t="n"/>
-      <c r="K47" s="115" t="n"/>
+      <c r="K47" s="153" t="n"/>
       <c r="L47" s="89" t="n"/>
-      <c r="M47" s="115" t="n"/>
+      <c r="M47" s="153" t="n"/>
       <c r="N47" s="89" t="n"/>
-      <c r="O47" s="117" t="n">
+      <c r="O47" s="155" t="n">
         <v>0</v>
       </c>
       <c r="P47" s="97" t="n">
@@ -3102,259 +3135,259 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="80" t="inlineStr">
+      <c r="B4" s="130" t="inlineStr">
         <is>
           <t>#QUYG0PQC8</t>
         </is>
       </c>
-      <c r="C4" s="80" t="n">
+      <c r="C4" s="130" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="81" t="inlineStr">
+      <c r="D4" s="131" t="inlineStr">
         <is>
           <t>Luffy</t>
         </is>
       </c>
-      <c r="E4" s="81" t="n">
+      <c r="E4" s="131" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="82" t="n">
         <v>6</v>
       </c>
-      <c r="G4" s="80" t="n"/>
+      <c r="G4" s="130" t="n"/>
       <c r="H4" s="83" t="n"/>
-      <c r="I4" s="80" t="n"/>
+      <c r="I4" s="130" t="n"/>
       <c r="J4" s="83" t="n"/>
-      <c r="K4" s="80" t="n"/>
+      <c r="K4" s="130" t="n"/>
       <c r="L4" s="83" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="84" t="inlineStr">
+      <c r="B5" s="132" t="inlineStr">
         <is>
           <t>#G0QPVJY9L</t>
         </is>
       </c>
-      <c r="C5" s="84" t="n">
+      <c r="C5" s="132" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="85" t="inlineStr">
+      <c r="D5" s="133" t="inlineStr">
         <is>
           <t>Zoro</t>
         </is>
       </c>
-      <c r="E5" s="85" t="n">
+      <c r="E5" s="133" t="n">
         <v>2</v>
       </c>
       <c r="F5" s="86" t="n">
         <v>6</v>
       </c>
-      <c r="G5" s="84" t="n"/>
+      <c r="G5" s="132" t="n"/>
       <c r="H5" s="87" t="n"/>
-      <c r="I5" s="84" t="n"/>
+      <c r="I5" s="132" t="n"/>
       <c r="J5" s="87" t="n"/>
-      <c r="K5" s="84" t="n"/>
+      <c r="K5" s="132" t="n"/>
       <c r="L5" s="87" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" s="80" t="inlineStr">
+      <c r="B6" s="130" t="inlineStr">
         <is>
           <t>#QLR088LC9</t>
         </is>
       </c>
-      <c r="C6" s="80" t="n">
+      <c r="C6" s="130" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="81" t="inlineStr">
+      <c r="D6" s="131" t="inlineStr">
         <is>
           <t>Sanji</t>
         </is>
       </c>
-      <c r="E6" s="81" t="n">
+      <c r="E6" s="131" t="n">
         <v>2</v>
       </c>
       <c r="F6" s="82" t="n">
         <v>6</v>
       </c>
-      <c r="G6" s="80" t="n"/>
+      <c r="G6" s="130" t="n"/>
       <c r="H6" s="83" t="n"/>
-      <c r="I6" s="80" t="n"/>
+      <c r="I6" s="130" t="n"/>
       <c r="J6" s="83" t="n"/>
-      <c r="K6" s="80" t="n"/>
+      <c r="K6" s="130" t="n"/>
       <c r="L6" s="83" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="84" t="inlineStr">
+      <c r="B7" s="132" t="inlineStr">
         <is>
           <t>#QCV22VP0G</t>
         </is>
       </c>
-      <c r="C7" s="84" t="n">
+      <c r="C7" s="132" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="85" t="inlineStr">
+      <c r="D7" s="133" t="inlineStr">
         <is>
           <t>Nami</t>
         </is>
       </c>
-      <c r="E7" s="85" t="n">
+      <c r="E7" s="133" t="n">
         <v>2</v>
       </c>
       <c r="F7" s="86" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="84" t="n"/>
+      <c r="G7" s="132" t="n"/>
       <c r="H7" s="87" t="n"/>
-      <c r="I7" s="84" t="n"/>
+      <c r="I7" s="132" t="n"/>
       <c r="J7" s="87" t="n"/>
-      <c r="K7" s="84" t="n"/>
+      <c r="K7" s="132" t="n"/>
       <c r="L7" s="87" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="80" t="inlineStr">
+      <c r="B8" s="130" t="inlineStr">
         <is>
           <t>#QUV2GP88U</t>
         </is>
       </c>
-      <c r="C8" s="80" t="n">
+      <c r="C8" s="130" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="81" t="inlineStr">
+      <c r="D8" s="131" t="inlineStr">
         <is>
           <t>Nico Robin</t>
         </is>
       </c>
-      <c r="E8" s="81" t="n">
+      <c r="E8" s="131" t="n">
         <v>2</v>
       </c>
       <c r="F8" s="82" t="n">
         <v>6</v>
       </c>
-      <c r="G8" s="80" t="n"/>
+      <c r="G8" s="130" t="n"/>
       <c r="H8" s="83" t="n"/>
-      <c r="I8" s="80" t="n"/>
+      <c r="I8" s="130" t="n"/>
       <c r="J8" s="83" t="n"/>
-      <c r="K8" s="80" t="n"/>
+      <c r="K8" s="130" t="n"/>
       <c r="L8" s="83" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" s="88" t="inlineStr">
+      <c r="B9" s="134" t="inlineStr">
         <is>
           <t>#98JG2UJQL</t>
         </is>
       </c>
-      <c r="C9" s="88" t="n"/>
-      <c r="D9" s="88" t="inlineStr">
+      <c r="C9" s="134" t="n"/>
+      <c r="D9" s="134" t="inlineStr">
         <is>
           <t>Dragonux</t>
         </is>
       </c>
-      <c r="E9" s="88" t="n"/>
+      <c r="E9" s="134" t="n"/>
       <c r="F9" s="89" t="n"/>
-      <c r="G9" s="88" t="n"/>
+      <c r="G9" s="134" t="n"/>
       <c r="H9" s="89" t="n"/>
-      <c r="I9" s="88" t="n"/>
+      <c r="I9" s="134" t="n"/>
       <c r="J9" s="89" t="n"/>
-      <c r="K9" s="88" t="n"/>
+      <c r="K9" s="134" t="n"/>
       <c r="L9" s="89" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="90" t="inlineStr">
+      <c r="B10" s="135" t="inlineStr">
         <is>
           <t>#82QLQCJRJ</t>
         </is>
       </c>
-      <c r="C10" s="90" t="n"/>
-      <c r="D10" s="90" t="inlineStr">
+      <c r="C10" s="135" t="n"/>
+      <c r="D10" s="135" t="inlineStr">
         <is>
           <t>Raging Fury</t>
         </is>
       </c>
-      <c r="E10" s="90" t="n"/>
+      <c r="E10" s="135" t="n"/>
       <c r="F10" s="91" t="n"/>
-      <c r="G10" s="90" t="n"/>
+      <c r="G10" s="135" t="n"/>
       <c r="H10" s="91" t="n"/>
-      <c r="I10" s="90" t="n"/>
+      <c r="I10" s="135" t="n"/>
       <c r="J10" s="91" t="n"/>
-      <c r="K10" s="90" t="n"/>
+      <c r="K10" s="135" t="n"/>
       <c r="L10" s="91" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="84" t="inlineStr">
+      <c r="B11" s="132" t="inlineStr">
         <is>
           <t>#90U0VPU9U</t>
         </is>
       </c>
-      <c r="C11" s="84" t="n"/>
-      <c r="D11" s="84" t="inlineStr">
+      <c r="C11" s="132" t="n"/>
+      <c r="D11" s="132" t="inlineStr">
         <is>
           <t>KYANI7E</t>
         </is>
       </c>
-      <c r="E11" s="84" t="n"/>
+      <c r="E11" s="132" t="n"/>
       <c r="F11" s="87" t="n"/>
-      <c r="G11" s="84" t="n"/>
+      <c r="G11" s="132" t="n"/>
       <c r="H11" s="87" t="n"/>
-      <c r="I11" s="84" t="n"/>
+      <c r="I11" s="132" t="n"/>
       <c r="J11" s="87" t="n"/>
-      <c r="K11" s="84" t="n"/>
+      <c r="K11" s="132" t="n"/>
       <c r="L11" s="87" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="90" t="inlineStr">
+      <c r="B12" s="135" t="inlineStr">
         <is>
           <t>#PJYVV989R</t>
         </is>
       </c>
-      <c r="C12" s="90" t="n"/>
-      <c r="D12" s="90" t="inlineStr">
+      <c r="C12" s="135" t="n"/>
+      <c r="D12" s="135" t="inlineStr">
         <is>
           <t>nx</t>
         </is>
       </c>
-      <c r="E12" s="90" t="n"/>
+      <c r="E12" s="135" t="n"/>
       <c r="F12" s="91" t="n"/>
-      <c r="G12" s="92" t="n">
+      <c r="G12" s="136" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="93" t="n">
         <v>3</v>
       </c>
-      <c r="I12" s="92" t="n">
+      <c r="I12" s="136" t="n">
         <v>1</v>
       </c>
       <c r="J12" s="93" t="n">
         <v>3</v>
       </c>
-      <c r="K12" s="90" t="n"/>
+      <c r="K12" s="135" t="n"/>
       <c r="L12" s="91" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="84" t="inlineStr">
+      <c r="B13" s="132" t="inlineStr">
         <is>
           <t>#QLJ2U20Y2</t>
         </is>
       </c>
-      <c r="C13" s="84" t="n"/>
-      <c r="D13" s="84" t="inlineStr">
+      <c r="C13" s="132" t="n"/>
+      <c r="D13" s="132" t="inlineStr">
         <is>
           <t>DeadLeaf</t>
         </is>
       </c>
-      <c r="E13" s="84" t="n"/>
+      <c r="E13" s="132" t="n"/>
       <c r="F13" s="87" t="n"/>
-      <c r="G13" s="85" t="n">
+      <c r="G13" s="133" t="n">
         <v>2</v>
       </c>
       <c r="H13" s="86" t="n">
         <v>5</v>
       </c>
-      <c r="I13" s="85" t="n">
+      <c r="I13" s="133" t="n">
         <v>2</v>
       </c>
       <c r="J13" s="86" t="n">
         <v>5</v>
       </c>
-      <c r="K13" s="85" t="n">
+      <c r="K13" s="133" t="n">
         <v>2</v>
       </c>
       <c r="L13" s="86" t="n">
@@ -3362,28 +3395,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="90" t="inlineStr">
+      <c r="B14" s="135" t="inlineStr">
         <is>
           <t>#L2QQL9QVJ</t>
         </is>
       </c>
-      <c r="C14" s="90" t="n"/>
-      <c r="D14" s="90" t="inlineStr">
+      <c r="C14" s="135" t="n"/>
+      <c r="D14" s="135" t="inlineStr">
         <is>
           <t>JustPre10d</t>
         </is>
       </c>
-      <c r="E14" s="90" t="n"/>
+      <c r="E14" s="135" t="n"/>
       <c r="F14" s="91" t="n"/>
-      <c r="G14" s="90" t="n"/>
+      <c r="G14" s="135" t="n"/>
       <c r="H14" s="91" t="n"/>
-      <c r="I14" s="94" t="n">
+      <c r="I14" s="137" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="K14" s="92" t="n">
+      <c r="K14" s="136" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="95" t="n">
@@ -3391,32 +3424,32 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="84" t="inlineStr">
+      <c r="B15" s="132" t="inlineStr">
         <is>
           <t>#Q8CLCUCC2</t>
         </is>
       </c>
-      <c r="C15" s="84" t="n"/>
-      <c r="D15" s="84" t="inlineStr">
+      <c r="C15" s="132" t="n"/>
+      <c r="D15" s="132" t="inlineStr">
         <is>
           <t>Moxxi</t>
         </is>
       </c>
-      <c r="E15" s="84" t="n"/>
+      <c r="E15" s="132" t="n"/>
       <c r="F15" s="87" t="n"/>
-      <c r="G15" s="85" t="n">
+      <c r="G15" s="133" t="n">
         <v>2</v>
       </c>
       <c r="H15" s="86" t="n">
         <v>6</v>
       </c>
-      <c r="I15" s="85" t="n">
+      <c r="I15" s="133" t="n">
         <v>2</v>
       </c>
       <c r="J15" s="86" t="n">
         <v>5</v>
       </c>
-      <c r="K15" s="85" t="n">
+      <c r="K15" s="133" t="n">
         <v>2</v>
       </c>
       <c r="L15" s="86" t="n">
@@ -3424,61 +3457,61 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="80" t="inlineStr">
+      <c r="B16" s="130" t="inlineStr">
         <is>
           <t>#YRGRRJQCY</t>
         </is>
       </c>
-      <c r="C16" s="80" t="n"/>
-      <c r="D16" s="80" t="inlineStr">
+      <c r="C16" s="130" t="n"/>
+      <c r="D16" s="130" t="inlineStr">
         <is>
           <t>DoubleSpice</t>
         </is>
       </c>
-      <c r="E16" s="80" t="n"/>
+      <c r="E16" s="130" t="n"/>
       <c r="F16" s="83" t="n"/>
-      <c r="G16" s="81" t="n">
+      <c r="G16" s="131" t="n">
         <v>2</v>
       </c>
       <c r="H16" s="82" t="n">
         <v>5</v>
       </c>
-      <c r="I16" s="81" t="n">
+      <c r="I16" s="131" t="n">
         <v>2</v>
       </c>
       <c r="J16" s="82" t="n">
         <v>6</v>
       </c>
-      <c r="K16" s="80" t="n"/>
+      <c r="K16" s="130" t="n"/>
       <c r="L16" s="83" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="84" t="inlineStr">
+      <c r="B17" s="132" t="inlineStr">
         <is>
           <t>#YJ20CRJYQ</t>
         </is>
       </c>
-      <c r="C17" s="84" t="n"/>
-      <c r="D17" s="84" t="inlineStr">
+      <c r="C17" s="132" t="n"/>
+      <c r="D17" s="132" t="inlineStr">
         <is>
           <t>UnluckGod</t>
         </is>
       </c>
-      <c r="E17" s="84" t="n"/>
+      <c r="E17" s="132" t="n"/>
       <c r="F17" s="87" t="n"/>
-      <c r="G17" s="85" t="n">
+      <c r="G17" s="133" t="n">
         <v>2</v>
       </c>
       <c r="H17" s="86" t="n">
         <v>6</v>
       </c>
-      <c r="I17" s="85" t="n">
+      <c r="I17" s="133" t="n">
         <v>2</v>
       </c>
       <c r="J17" s="86" t="n">
         <v>4</v>
       </c>
-      <c r="K17" s="85" t="n">
+      <c r="K17" s="133" t="n">
         <v>2</v>
       </c>
       <c r="L17" s="86" t="n">
@@ -3486,501 +3519,501 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="90" t="inlineStr">
+      <c r="B18" s="135" t="inlineStr">
         <is>
           <t>#G0JPUQGYR</t>
         </is>
       </c>
-      <c r="C18" s="90" t="n"/>
-      <c r="D18" s="90" t="inlineStr">
+      <c r="C18" s="135" t="n"/>
+      <c r="D18" s="135" t="inlineStr">
         <is>
           <t>Collin</t>
         </is>
       </c>
-      <c r="E18" s="90" t="n"/>
+      <c r="E18" s="135" t="n"/>
       <c r="F18" s="91" t="n"/>
-      <c r="G18" s="90" t="n"/>
+      <c r="G18" s="135" t="n"/>
       <c r="H18" s="91" t="n"/>
-      <c r="I18" s="90" t="n"/>
+      <c r="I18" s="135" t="n"/>
       <c r="J18" s="91" t="n"/>
-      <c r="K18" s="90" t="n"/>
+      <c r="K18" s="135" t="n"/>
       <c r="L18" s="91" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="88" t="inlineStr">
+      <c r="B19" s="134" t="inlineStr">
         <is>
           <t>#QQLVRJCGQ</t>
         </is>
       </c>
-      <c r="C19" s="88" t="n"/>
-      <c r="D19" s="88" t="inlineStr">
+      <c r="C19" s="134" t="n"/>
+      <c r="D19" s="134" t="inlineStr">
         <is>
           <t>khant</t>
         </is>
       </c>
-      <c r="E19" s="88" t="n"/>
+      <c r="E19" s="134" t="n"/>
       <c r="F19" s="89" t="n"/>
-      <c r="G19" s="88" t="n"/>
+      <c r="G19" s="134" t="n"/>
       <c r="H19" s="89" t="n"/>
-      <c r="I19" s="88" t="n"/>
+      <c r="I19" s="134" t="n"/>
       <c r="J19" s="89" t="n"/>
-      <c r="K19" s="88" t="n"/>
+      <c r="K19" s="134" t="n"/>
       <c r="L19" s="89" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="90" t="inlineStr">
+      <c r="B20" s="135" t="inlineStr">
         <is>
           <t>#QUVJGC0VQ</t>
         </is>
       </c>
-      <c r="C20" s="90" t="n"/>
-      <c r="D20" s="90" t="inlineStr">
+      <c r="C20" s="135" t="n"/>
+      <c r="D20" s="135" t="inlineStr">
         <is>
           <t>Cam</t>
         </is>
       </c>
-      <c r="E20" s="90" t="n"/>
+      <c r="E20" s="135" t="n"/>
       <c r="F20" s="91" t="n"/>
-      <c r="G20" s="90" t="n"/>
+      <c r="G20" s="135" t="n"/>
       <c r="H20" s="91" t="n"/>
-      <c r="I20" s="90" t="n"/>
+      <c r="I20" s="135" t="n"/>
       <c r="J20" s="91" t="n"/>
-      <c r="K20" s="90" t="n"/>
+      <c r="K20" s="135" t="n"/>
       <c r="L20" s="91" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="88" t="inlineStr">
+      <c r="B21" s="134" t="inlineStr">
         <is>
           <t>#QLG0VJG2J</t>
         </is>
       </c>
-      <c r="C21" s="88" t="n"/>
-      <c r="D21" s="88" t="inlineStr">
+      <c r="C21" s="134" t="n"/>
+      <c r="D21" s="134" t="inlineStr">
         <is>
           <t>PocketRocket</t>
         </is>
       </c>
-      <c r="E21" s="88" t="n"/>
+      <c r="E21" s="134" t="n"/>
       <c r="F21" s="89" t="n"/>
-      <c r="G21" s="88" t="n"/>
+      <c r="G21" s="134" t="n"/>
       <c r="H21" s="89" t="n"/>
-      <c r="I21" s="88" t="n"/>
+      <c r="I21" s="134" t="n"/>
       <c r="J21" s="89" t="n"/>
-      <c r="K21" s="88" t="n"/>
+      <c r="K21" s="134" t="n"/>
       <c r="L21" s="89" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="90" t="inlineStr">
+      <c r="B22" s="135" t="inlineStr">
         <is>
           <t>#QRPRYR8LL</t>
         </is>
       </c>
-      <c r="C22" s="90" t="n"/>
-      <c r="D22" s="90" t="inlineStr">
+      <c r="C22" s="135" t="n"/>
+      <c r="D22" s="135" t="inlineStr">
         <is>
           <t>FidelCashflow</t>
         </is>
       </c>
-      <c r="E22" s="90" t="n"/>
+      <c r="E22" s="135" t="n"/>
       <c r="F22" s="91" t="n"/>
-      <c r="G22" s="90" t="n"/>
+      <c r="G22" s="135" t="n"/>
       <c r="H22" s="91" t="n"/>
-      <c r="I22" s="90" t="n"/>
+      <c r="I22" s="135" t="n"/>
       <c r="J22" s="91" t="n"/>
-      <c r="K22" s="90" t="n"/>
+      <c r="K22" s="135" t="n"/>
       <c r="L22" s="91" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="88" t="inlineStr">
+      <c r="B23" s="134" t="inlineStr">
         <is>
           <t>#QQL28Y2UL</t>
         </is>
       </c>
-      <c r="C23" s="88" t="n"/>
-      <c r="D23" s="88" t="inlineStr">
+      <c r="C23" s="134" t="n"/>
+      <c r="D23" s="134" t="inlineStr">
         <is>
           <t>SUPoT</t>
         </is>
       </c>
-      <c r="E23" s="88" t="n"/>
+      <c r="E23" s="134" t="n"/>
       <c r="F23" s="89" t="n"/>
-      <c r="G23" s="88" t="n"/>
+      <c r="G23" s="134" t="n"/>
       <c r="H23" s="89" t="n"/>
-      <c r="I23" s="88" t="n"/>
+      <c r="I23" s="134" t="n"/>
       <c r="J23" s="89" t="n"/>
-      <c r="K23" s="88" t="n"/>
+      <c r="K23" s="134" t="n"/>
       <c r="L23" s="89" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="90" t="inlineStr">
+      <c r="B24" s="135" t="inlineStr">
         <is>
           <t>#LC9GUPJJG</t>
         </is>
       </c>
-      <c r="C24" s="90" t="n"/>
-      <c r="D24" s="90" t="inlineStr">
+      <c r="C24" s="135" t="n"/>
+      <c r="D24" s="135" t="inlineStr">
         <is>
           <t>raptor2222a</t>
         </is>
       </c>
-      <c r="E24" s="90" t="n"/>
+      <c r="E24" s="135" t="n"/>
       <c r="F24" s="91" t="n"/>
-      <c r="G24" s="90" t="n"/>
+      <c r="G24" s="135" t="n"/>
       <c r="H24" s="91" t="n"/>
-      <c r="I24" s="90" t="n"/>
+      <c r="I24" s="135" t="n"/>
       <c r="J24" s="91" t="n"/>
-      <c r="K24" s="90" t="n"/>
+      <c r="K24" s="135" t="n"/>
       <c r="L24" s="91" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="88" t="inlineStr">
+      <c r="B25" s="134" t="inlineStr">
         <is>
           <t>#LPR9RPCY9</t>
         </is>
       </c>
-      <c r="C25" s="88" t="n"/>
-      <c r="D25" s="88" t="inlineStr">
+      <c r="C25" s="134" t="n"/>
+      <c r="D25" s="134" t="inlineStr">
         <is>
           <t>sayhuss17</t>
         </is>
       </c>
-      <c r="E25" s="88" t="n"/>
+      <c r="E25" s="134" t="n"/>
       <c r="F25" s="89" t="n"/>
-      <c r="G25" s="96" t="n">
+      <c r="G25" s="138" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="96" t="n">
+      <c r="I25" s="138" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="K25" s="88" t="n"/>
+      <c r="K25" s="134" t="n"/>
       <c r="L25" s="89" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="90" t="inlineStr">
+      <c r="B26" s="135" t="inlineStr">
         <is>
           <t>#QJC8LQU9U</t>
         </is>
       </c>
-      <c r="C26" s="90" t="n"/>
-      <c r="D26" s="90" t="inlineStr">
+      <c r="C26" s="135" t="n"/>
+      <c r="D26" s="135" t="inlineStr">
         <is>
           <t>Master01</t>
         </is>
       </c>
-      <c r="E26" s="90" t="n"/>
+      <c r="E26" s="135" t="n"/>
       <c r="F26" s="91" t="n"/>
-      <c r="G26" s="98" t="n">
+      <c r="G26" s="139" t="n">
         <v>2</v>
       </c>
       <c r="H26" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="I26" s="90" t="n"/>
+      <c r="I26" s="135" t="n"/>
       <c r="J26" s="91" t="n"/>
-      <c r="K26" s="90" t="n"/>
+      <c r="K26" s="135" t="n"/>
       <c r="L26" s="91" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="88" t="inlineStr">
+      <c r="B27" s="134" t="inlineStr">
         <is>
           <t>#L9QL9YQQY</t>
         </is>
       </c>
-      <c r="C27" s="88" t="n"/>
-      <c r="D27" s="88" t="inlineStr">
+      <c r="C27" s="134" t="n"/>
+      <c r="D27" s="134" t="inlineStr">
         <is>
           <t>Ima Chad</t>
         </is>
       </c>
-      <c r="E27" s="88" t="n"/>
+      <c r="E27" s="134" t="n"/>
       <c r="F27" s="89" t="n"/>
-      <c r="G27" s="88" t="n"/>
+      <c r="G27" s="134" t="n"/>
       <c r="H27" s="89" t="n"/>
-      <c r="I27" s="88" t="n"/>
+      <c r="I27" s="134" t="n"/>
       <c r="J27" s="89" t="n"/>
-      <c r="K27" s="88" t="n"/>
+      <c r="K27" s="134" t="n"/>
       <c r="L27" s="89" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="80" t="inlineStr">
+      <c r="B28" s="130" t="inlineStr">
         <is>
           <t>#QUG8QQJ92</t>
         </is>
       </c>
-      <c r="C28" s="80" t="n"/>
-      <c r="D28" s="80" t="inlineStr">
+      <c r="C28" s="130" t="n"/>
+      <c r="D28" s="130" t="inlineStr">
         <is>
           <t>Karma</t>
         </is>
       </c>
-      <c r="E28" s="80" t="n"/>
+      <c r="E28" s="130" t="n"/>
       <c r="F28" s="83" t="n"/>
-      <c r="G28" s="80" t="n"/>
+      <c r="G28" s="130" t="n"/>
       <c r="H28" s="83" t="n"/>
-      <c r="I28" s="80" t="n"/>
+      <c r="I28" s="130" t="n"/>
       <c r="J28" s="83" t="n"/>
-      <c r="K28" s="80" t="n"/>
+      <c r="K28" s="130" t="n"/>
       <c r="L28" s="83" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="88" t="inlineStr">
+      <c r="B29" s="134" t="inlineStr">
         <is>
           <t>#QY8L2GLUR</t>
         </is>
       </c>
-      <c r="C29" s="88" t="n"/>
-      <c r="D29" s="88" t="inlineStr">
+      <c r="C29" s="134" t="n"/>
+      <c r="D29" s="134" t="inlineStr">
         <is>
           <t>Huy</t>
         </is>
       </c>
-      <c r="E29" s="88" t="n"/>
+      <c r="E29" s="134" t="n"/>
       <c r="F29" s="89" t="n"/>
-      <c r="G29" s="96" t="n">
+      <c r="G29" s="138" t="n">
         <v>0</v>
       </c>
       <c r="H29" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="88" t="n"/>
+      <c r="I29" s="134" t="n"/>
       <c r="J29" s="89" t="n"/>
-      <c r="K29" s="88" t="n"/>
+      <c r="K29" s="134" t="n"/>
       <c r="L29" s="89" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="90" t="inlineStr">
+      <c r="B30" s="135" t="inlineStr">
         <is>
           <t>#QLGYRVPU0</t>
         </is>
       </c>
-      <c r="C30" s="90" t="n"/>
-      <c r="D30" s="90" t="inlineStr">
+      <c r="C30" s="135" t="n"/>
+      <c r="D30" s="135" t="inlineStr">
         <is>
           <t>Black.Boy.</t>
         </is>
       </c>
-      <c r="E30" s="90" t="n"/>
+      <c r="E30" s="135" t="n"/>
       <c r="F30" s="91" t="n"/>
-      <c r="G30" s="90" t="n"/>
+      <c r="G30" s="135" t="n"/>
       <c r="H30" s="91" t="n"/>
-      <c r="I30" s="90" t="n"/>
+      <c r="I30" s="135" t="n"/>
       <c r="J30" s="91" t="n"/>
-      <c r="K30" s="90" t="n"/>
+      <c r="K30" s="135" t="n"/>
       <c r="L30" s="91" t="n"/>
     </row>
     <row r="31">
-      <c r="B31" s="88" t="inlineStr">
+      <c r="B31" s="134" t="inlineStr">
         <is>
           <t>#QU0U2Q99G</t>
         </is>
       </c>
-      <c r="C31" s="88" t="n"/>
-      <c r="D31" s="88" t="inlineStr">
+      <c r="C31" s="134" t="n"/>
+      <c r="D31" s="134" t="inlineStr">
         <is>
           <t>big coc</t>
         </is>
       </c>
-      <c r="E31" s="88" t="n"/>
+      <c r="E31" s="134" t="n"/>
       <c r="F31" s="89" t="n"/>
-      <c r="G31" s="88" t="n"/>
+      <c r="G31" s="134" t="n"/>
       <c r="H31" s="89" t="n"/>
-      <c r="I31" s="88" t="n"/>
+      <c r="I31" s="134" t="n"/>
       <c r="J31" s="89" t="n"/>
-      <c r="K31" s="88" t="n"/>
+      <c r="K31" s="134" t="n"/>
       <c r="L31" s="89" t="n"/>
     </row>
     <row r="32">
-      <c r="B32" s="90" t="inlineStr">
+      <c r="B32" s="135" t="inlineStr">
         <is>
           <t>#QQL8C29CY</t>
         </is>
       </c>
-      <c r="C32" s="90" t="n"/>
-      <c r="D32" s="90" t="inlineStr">
+      <c r="C32" s="135" t="n"/>
+      <c r="D32" s="135" t="inlineStr">
         <is>
           <t>TypicalTeague#2</t>
         </is>
       </c>
-      <c r="E32" s="90" t="n"/>
+      <c r="E32" s="135" t="n"/>
       <c r="F32" s="91" t="n"/>
-      <c r="G32" s="90" t="n"/>
+      <c r="G32" s="135" t="n"/>
       <c r="H32" s="91" t="n"/>
-      <c r="I32" s="90" t="n"/>
+      <c r="I32" s="135" t="n"/>
       <c r="J32" s="91" t="n"/>
-      <c r="K32" s="90" t="n"/>
+      <c r="K32" s="135" t="n"/>
       <c r="L32" s="91" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" s="88" t="inlineStr">
+      <c r="B33" s="134" t="inlineStr">
         <is>
           <t>#QL8LVLYG8</t>
         </is>
       </c>
-      <c r="C33" s="88" t="n"/>
-      <c r="D33" s="88" t="inlineStr">
+      <c r="C33" s="134" t="n"/>
+      <c r="D33" s="134" t="inlineStr">
         <is>
           <t>Some guy</t>
         </is>
       </c>
-      <c r="E33" s="88" t="n"/>
+      <c r="E33" s="134" t="n"/>
       <c r="F33" s="89" t="n"/>
-      <c r="G33" s="88" t="n"/>
+      <c r="G33" s="134" t="n"/>
       <c r="H33" s="89" t="n"/>
-      <c r="I33" s="88" t="n"/>
+      <c r="I33" s="134" t="n"/>
       <c r="J33" s="89" t="n"/>
-      <c r="K33" s="88" t="n"/>
+      <c r="K33" s="134" t="n"/>
       <c r="L33" s="89" t="n"/>
     </row>
     <row r="34">
-      <c r="B34" s="90" t="inlineStr">
+      <c r="B34" s="135" t="inlineStr">
         <is>
           <t>#L9JJQY992</t>
         </is>
       </c>
-      <c r="C34" s="90" t="n"/>
-      <c r="D34" s="90" t="inlineStr">
+      <c r="C34" s="135" t="n"/>
+      <c r="D34" s="135" t="inlineStr">
         <is>
           <t>Fisted_Waffle</t>
         </is>
       </c>
-      <c r="E34" s="90" t="n"/>
+      <c r="E34" s="135" t="n"/>
       <c r="F34" s="91" t="n"/>
-      <c r="G34" s="90" t="n"/>
+      <c r="G34" s="135" t="n"/>
       <c r="H34" s="91" t="n"/>
-      <c r="I34" s="90" t="n"/>
+      <c r="I34" s="135" t="n"/>
       <c r="J34" s="91" t="n"/>
-      <c r="K34" s="90" t="n"/>
+      <c r="K34" s="135" t="n"/>
       <c r="L34" s="91" t="n"/>
     </row>
     <row r="35">
-      <c r="B35" s="88" t="inlineStr">
+      <c r="B35" s="134" t="inlineStr">
         <is>
           <t>#QV8JJ0URU</t>
         </is>
       </c>
-      <c r="C35" s="88" t="n"/>
-      <c r="D35" s="88" t="inlineStr">
+      <c r="C35" s="134" t="n"/>
+      <c r="D35" s="134" t="inlineStr">
         <is>
           <t>✨Jacob</t>
         </is>
       </c>
-      <c r="E35" s="88" t="n"/>
+      <c r="E35" s="134" t="n"/>
       <c r="F35" s="89" t="n"/>
-      <c r="G35" s="88" t="n"/>
+      <c r="G35" s="134" t="n"/>
       <c r="H35" s="89" t="n"/>
-      <c r="I35" s="96" t="n">
+      <c r="I35" s="138" t="n">
         <v>0</v>
       </c>
       <c r="J35" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="K35" s="88" t="n"/>
+      <c r="K35" s="134" t="n"/>
       <c r="L35" s="89" t="n"/>
     </row>
     <row r="36">
-      <c r="B36" s="90" t="inlineStr">
+      <c r="B36" s="135" t="inlineStr">
         <is>
           <t>#QY0VGPQGQ</t>
         </is>
       </c>
-      <c r="C36" s="90" t="n"/>
-      <c r="D36" s="90" t="inlineStr">
+      <c r="C36" s="135" t="n"/>
+      <c r="D36" s="135" t="inlineStr">
         <is>
           <t>killerjones</t>
         </is>
       </c>
-      <c r="E36" s="90" t="n"/>
+      <c r="E36" s="135" t="n"/>
       <c r="F36" s="91" t="n"/>
-      <c r="G36" s="90" t="n"/>
+      <c r="G36" s="135" t="n"/>
       <c r="H36" s="91" t="n"/>
-      <c r="I36" s="90" t="n"/>
+      <c r="I36" s="135" t="n"/>
       <c r="J36" s="91" t="n"/>
-      <c r="K36" s="90" t="n"/>
+      <c r="K36" s="135" t="n"/>
       <c r="L36" s="91" t="n"/>
     </row>
     <row r="37">
-      <c r="B37" s="96" t="inlineStr">
+      <c r="B37" s="138" t="inlineStr">
         <is>
           <t>#QLL0PVCRV</t>
         </is>
       </c>
-      <c r="C37" s="88" t="n"/>
-      <c r="D37" s="88" t="inlineStr">
+      <c r="C37" s="134" t="n"/>
+      <c r="D37" s="134" t="inlineStr">
         <is>
           <t>Harsh chhillar</t>
         </is>
       </c>
-      <c r="E37" s="88" t="n"/>
+      <c r="E37" s="134" t="n"/>
       <c r="F37" s="89" t="n"/>
-      <c r="G37" s="88" t="n"/>
+      <c r="G37" s="134" t="n"/>
       <c r="H37" s="89" t="n"/>
-      <c r="I37" s="88" t="n"/>
+      <c r="I37" s="134" t="n"/>
       <c r="J37" s="89" t="n"/>
-      <c r="K37" s="88" t="n"/>
+      <c r="K37" s="134" t="n"/>
       <c r="L37" s="89" t="n"/>
     </row>
     <row r="38">
-      <c r="B38" s="94" t="inlineStr">
+      <c r="B38" s="137" t="inlineStr">
         <is>
           <t>#P2CPRPQU</t>
         </is>
       </c>
-      <c r="C38" s="90" t="n"/>
-      <c r="D38" s="90" t="inlineStr">
+      <c r="C38" s="135" t="n"/>
+      <c r="D38" s="135" t="inlineStr">
         <is>
           <t>The Drift King</t>
         </is>
       </c>
-      <c r="E38" s="90" t="n"/>
+      <c r="E38" s="135" t="n"/>
       <c r="F38" s="91" t="n"/>
-      <c r="G38" s="98" t="n">
+      <c r="G38" s="139" t="n">
         <v>2</v>
       </c>
       <c r="H38" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="I38" s="98" t="n">
+      <c r="I38" s="139" t="n">
         <v>2</v>
       </c>
       <c r="J38" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="K38" s="90" t="n"/>
+      <c r="K38" s="135" t="n"/>
       <c r="L38" s="91" t="n"/>
     </row>
     <row r="39">
-      <c r="B39" s="96" t="inlineStr">
+      <c r="B39" s="138" t="inlineStr">
         <is>
           <t>#UVCCQC02</t>
         </is>
       </c>
-      <c r="C39" s="88" t="n"/>
-      <c r="D39" s="88" t="inlineStr">
+      <c r="C39" s="134" t="n"/>
+      <c r="D39" s="134" t="inlineStr">
         <is>
           <t>lordshisha</t>
         </is>
       </c>
-      <c r="E39" s="88" t="n"/>
+      <c r="E39" s="134" t="n"/>
       <c r="F39" s="89" t="n"/>
-      <c r="G39" s="100" t="n">
+      <c r="G39" s="140" t="n">
         <v>2</v>
       </c>
       <c r="H39" s="101" t="n">
         <v>6</v>
       </c>
-      <c r="I39" s="100" t="n">
+      <c r="I39" s="140" t="n">
         <v>2</v>
       </c>
       <c r="J39" s="102" t="n">
         <v>3</v>
       </c>
-      <c r="K39" s="100" t="n">
+      <c r="K39" s="140" t="n">
         <v>2</v>
       </c>
       <c r="L39" s="97" t="n">
@@ -3988,66 +4021,66 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="94" t="inlineStr">
+      <c r="B40" s="137" t="inlineStr">
         <is>
           <t>#Q0JG2RJQ8</t>
         </is>
       </c>
-      <c r="C40" s="90" t="n"/>
-      <c r="D40" s="90" t="inlineStr">
+      <c r="C40" s="135" t="n"/>
+      <c r="D40" s="135" t="inlineStr">
         <is>
           <t>bozo</t>
         </is>
       </c>
-      <c r="E40" s="90" t="n"/>
+      <c r="E40" s="135" t="n"/>
       <c r="F40" s="91" t="n"/>
-      <c r="G40" s="90" t="n"/>
+      <c r="G40" s="135" t="n"/>
       <c r="H40" s="91" t="n"/>
-      <c r="I40" s="90" t="n"/>
+      <c r="I40" s="135" t="n"/>
       <c r="J40" s="91" t="n"/>
-      <c r="K40" s="90" t="n"/>
+      <c r="K40" s="135" t="n"/>
       <c r="L40" s="91" t="n"/>
     </row>
     <row r="41">
-      <c r="B41" s="96" t="inlineStr">
+      <c r="B41" s="138" t="inlineStr">
         <is>
           <t>#QJVL0LYQQ</t>
         </is>
       </c>
-      <c r="C41" s="88" t="n"/>
-      <c r="D41" s="88" t="inlineStr">
+      <c r="C41" s="134" t="n"/>
+      <c r="D41" s="134" t="inlineStr">
         <is>
           <t>mobbb341</t>
         </is>
       </c>
-      <c r="E41" s="88" t="n"/>
+      <c r="E41" s="134" t="n"/>
       <c r="F41" s="89" t="n"/>
-      <c r="G41" s="88" t="n"/>
+      <c r="G41" s="134" t="n"/>
       <c r="H41" s="89" t="n"/>
-      <c r="I41" s="88" t="n"/>
+      <c r="I41" s="134" t="n"/>
       <c r="J41" s="89" t="n"/>
-      <c r="K41" s="88" t="n"/>
+      <c r="K41" s="134" t="n"/>
       <c r="L41" s="89" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="94" t="inlineStr">
+      <c r="B42" s="137" t="inlineStr">
         <is>
           <t>#L8R82C8VC</t>
         </is>
       </c>
-      <c r="C42" s="90" t="n"/>
-      <c r="D42" s="90" t="inlineStr">
+      <c r="C42" s="135" t="n"/>
+      <c r="D42" s="135" t="inlineStr">
         <is>
           <t>caden asue</t>
         </is>
       </c>
-      <c r="E42" s="90" t="n"/>
+      <c r="E42" s="135" t="n"/>
       <c r="F42" s="91" t="n"/>
-      <c r="G42" s="90" t="n"/>
+      <c r="G42" s="135" t="n"/>
       <c r="H42" s="91" t="n"/>
-      <c r="I42" s="90" t="n"/>
+      <c r="I42" s="135" t="n"/>
       <c r="J42" s="91" t="n"/>
-      <c r="K42" s="90" t="n"/>
+      <c r="K42" s="135" t="n"/>
       <c r="L42" s="91" t="n"/>
     </row>
   </sheetData>

--- a/Clash.xlsx
+++ b/Clash.xlsx
@@ -130,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -209,11 +209,13 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -417,6 +419,38 @@
     <xf numFmtId="164" fontId="4" fillId="13" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="16" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="15" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="17" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,7 +816,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -963,15 +997,15 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="141" t="inlineStr">
+      <c r="A4" s="168" t="inlineStr">
         <is>
           <t>#QLJ2U20Y2</t>
         </is>
       </c>
-      <c r="B4" s="141" t="n">
-        <v>1494</v>
-      </c>
-      <c r="C4" s="142" t="n">
+      <c r="B4" s="168" t="n">
+        <v>1515</v>
+      </c>
+      <c r="C4" s="169" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="82" t="inlineStr">
@@ -979,37 +1013,37 @@
           <t>DeadLeaf</t>
         </is>
       </c>
-      <c r="E4" s="143" t="n">
+      <c r="E4" s="170" t="n">
         <v>6</v>
       </c>
       <c r="F4" s="82" t="n">
         <v>13763</v>
       </c>
-      <c r="G4" s="144" t="n">
+      <c r="G4" s="171" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="83" t="n">
         <v>30</v>
       </c>
-      <c r="I4" s="143" t="n">
+      <c r="I4" s="170" t="n">
         <v>6</v>
       </c>
       <c r="J4" s="82" t="n">
         <v>11140</v>
       </c>
-      <c r="K4" s="143" t="n">
+      <c r="K4" s="170" t="n">
         <v>6</v>
       </c>
       <c r="L4" s="82" t="n">
         <v>15509</v>
       </c>
-      <c r="M4" s="143" t="n">
+      <c r="M4" s="170" t="n">
         <v>6</v>
       </c>
       <c r="N4" s="82" t="n">
         <v>8567</v>
       </c>
-      <c r="O4" s="143" t="n">
+      <c r="O4" s="170" t="n">
         <v>6</v>
       </c>
       <c r="P4" s="82" t="n">
@@ -1017,15 +1051,15 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="145" t="inlineStr">
+      <c r="A5" s="172" t="inlineStr">
         <is>
           <t>#G0QPVJY9L</t>
         </is>
       </c>
-      <c r="B5" s="145" t="n">
-        <v>880</v>
-      </c>
-      <c r="C5" s="146" t="n">
+      <c r="B5" s="172" t="n">
+        <v>856</v>
+      </c>
+      <c r="C5" s="173" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="86" t="inlineStr">
@@ -1033,37 +1067,37 @@
           <t>Zoro</t>
         </is>
       </c>
-      <c r="E5" s="147" t="n">
+      <c r="E5" s="174" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="86" t="n">
         <v>13432</v>
       </c>
-      <c r="G5" s="148" t="n">
+      <c r="G5" s="175" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="147" t="n">
+      <c r="I5" s="174" t="n">
         <v>6</v>
       </c>
       <c r="J5" s="86" t="n">
         <v>8855</v>
       </c>
-      <c r="K5" s="147" t="n">
+      <c r="K5" s="174" t="n">
         <v>6</v>
       </c>
       <c r="L5" s="86" t="n">
         <v>10965</v>
       </c>
-      <c r="M5" s="147" t="n">
+      <c r="M5" s="174" t="n">
         <v>6</v>
       </c>
       <c r="N5" s="86" t="n">
         <v>7905</v>
       </c>
-      <c r="O5" s="147" t="n">
+      <c r="O5" s="174" t="n">
         <v>6</v>
       </c>
       <c r="P5" s="86" t="n">
@@ -1071,15 +1105,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="141" t="inlineStr">
+      <c r="A6" s="168" t="inlineStr">
         <is>
           <t>#90U0VPU9U</t>
         </is>
       </c>
-      <c r="B6" s="141" t="n">
-        <v>2490</v>
-      </c>
-      <c r="C6" s="142" t="n">
+      <c r="B6" s="168" t="n">
+        <v>2486</v>
+      </c>
+      <c r="C6" s="169" t="n">
         <v>3</v>
       </c>
       <c r="D6" s="82" t="inlineStr">
@@ -1087,37 +1121,37 @@
           <t>KYANI7E</t>
         </is>
       </c>
-      <c r="E6" s="143" t="n">
+      <c r="E6" s="170" t="n">
         <v>6</v>
       </c>
       <c r="F6" s="82" t="n">
         <v>13260</v>
       </c>
-      <c r="G6" s="149" t="n">
+      <c r="G6" s="176" t="n">
         <v>149</v>
       </c>
       <c r="H6" s="83" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="143" t="n">
+      <c r="I6" s="170" t="n">
         <v>6</v>
       </c>
       <c r="J6" s="82" t="n">
         <v>12144</v>
       </c>
-      <c r="K6" s="143" t="n">
+      <c r="K6" s="170" t="n">
         <v>6</v>
       </c>
       <c r="L6" s="82" t="n">
         <v>12835</v>
       </c>
-      <c r="M6" s="143" t="n">
+      <c r="M6" s="170" t="n">
         <v>6</v>
       </c>
       <c r="N6" s="82" t="n">
         <v>7696</v>
       </c>
-      <c r="O6" s="143" t="n">
+      <c r="O6" s="170" t="n">
         <v>6</v>
       </c>
       <c r="P6" s="82" t="n">
@@ -1125,15 +1159,15 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="145" t="inlineStr">
+      <c r="A7" s="172" t="inlineStr">
         <is>
           <t>#YJ20CRJYQ</t>
         </is>
       </c>
-      <c r="B7" s="145" t="n">
-        <v>1327</v>
-      </c>
-      <c r="C7" s="146" t="n">
+      <c r="B7" s="172" t="n">
+        <v>1318</v>
+      </c>
+      <c r="C7" s="173" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="86" t="inlineStr">
@@ -1141,37 +1175,37 @@
           <t>UnluckGod</t>
         </is>
       </c>
-      <c r="E7" s="147" t="n">
+      <c r="E7" s="174" t="n">
         <v>6</v>
       </c>
       <c r="F7" s="86" t="n">
         <v>12824</v>
       </c>
-      <c r="G7" s="148" t="n">
+      <c r="G7" s="175" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="87" t="n">
         <v>61</v>
       </c>
-      <c r="I7" s="147" t="n">
+      <c r="I7" s="174" t="n">
         <v>6</v>
       </c>
       <c r="J7" s="86" t="n">
         <v>11999</v>
       </c>
-      <c r="K7" s="147" t="n">
+      <c r="K7" s="174" t="n">
         <v>6</v>
       </c>
       <c r="L7" s="86" t="n">
         <v>12972</v>
       </c>
-      <c r="M7" s="147" t="n">
+      <c r="M7" s="174" t="n">
         <v>6</v>
       </c>
       <c r="N7" s="86" t="n">
         <v>8286</v>
       </c>
-      <c r="O7" s="147" t="n">
+      <c r="O7" s="174" t="n">
         <v>6</v>
       </c>
       <c r="P7" s="86" t="n">
@@ -1179,15 +1213,15 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="141" t="inlineStr">
+      <c r="A8" s="168" t="inlineStr">
         <is>
           <t>#QUV2GP88U</t>
         </is>
       </c>
-      <c r="B8" s="141" t="n">
+      <c r="B8" s="168" t="n">
         <v>750</v>
       </c>
-      <c r="C8" s="142" t="n">
+      <c r="C8" s="169" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="82" t="inlineStr">
@@ -1195,37 +1229,37 @@
           <t>Nico Robin</t>
         </is>
       </c>
-      <c r="E8" s="143" t="n">
+      <c r="E8" s="170" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="82" t="n">
         <v>12612</v>
       </c>
-      <c r="G8" s="144" t="n">
+      <c r="G8" s="171" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="143" t="n">
+      <c r="I8" s="170" t="n">
         <v>6</v>
       </c>
       <c r="J8" s="82" t="n">
         <v>11338</v>
       </c>
-      <c r="K8" s="143" t="n">
+      <c r="K8" s="170" t="n">
         <v>6</v>
       </c>
       <c r="L8" s="82" t="n">
         <v>10997</v>
       </c>
-      <c r="M8" s="143" t="n">
+      <c r="M8" s="170" t="n">
         <v>6</v>
       </c>
       <c r="N8" s="82" t="n">
         <v>11087</v>
       </c>
-      <c r="O8" s="143" t="n">
+      <c r="O8" s="170" t="n">
         <v>6</v>
       </c>
       <c r="P8" s="82" t="n">
@@ -1233,15 +1267,15 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="145" t="inlineStr">
+      <c r="A9" s="172" t="inlineStr">
         <is>
           <t>#QCV22VP0G</t>
         </is>
       </c>
-      <c r="B9" s="145" t="n">
-        <v>800</v>
-      </c>
-      <c r="C9" s="146" t="n">
+      <c r="B9" s="172" t="n">
+        <v>790</v>
+      </c>
+      <c r="C9" s="173" t="n">
         <v>6</v>
       </c>
       <c r="D9" s="86" t="inlineStr">
@@ -1249,37 +1283,37 @@
           <t>Nami</t>
         </is>
       </c>
-      <c r="E9" s="147" t="n">
+      <c r="E9" s="174" t="n">
         <v>6</v>
       </c>
       <c r="F9" s="86" t="n">
         <v>11795</v>
       </c>
-      <c r="G9" s="148" t="n">
+      <c r="G9" s="175" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="147" t="n">
+      <c r="I9" s="174" t="n">
         <v>6</v>
       </c>
       <c r="J9" s="86" t="n">
         <v>10769</v>
       </c>
-      <c r="K9" s="147" t="n">
+      <c r="K9" s="174" t="n">
         <v>6</v>
       </c>
       <c r="L9" s="86" t="n">
         <v>12486</v>
       </c>
-      <c r="M9" s="147" t="n">
+      <c r="M9" s="174" t="n">
         <v>6</v>
       </c>
       <c r="N9" s="86" t="n">
         <v>8472</v>
       </c>
-      <c r="O9" s="147" t="n">
+      <c r="O9" s="174" t="n">
         <v>6</v>
       </c>
       <c r="P9" s="86" t="n">
@@ -1287,15 +1321,15 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="141" t="inlineStr">
+      <c r="A10" s="168" t="inlineStr">
         <is>
           <t>#YRGRRJQCY</t>
         </is>
       </c>
-      <c r="B10" s="141" t="n">
-        <v>1338</v>
-      </c>
-      <c r="C10" s="142" t="n">
+      <c r="B10" s="168" t="n">
+        <v>1366</v>
+      </c>
+      <c r="C10" s="169" t="n">
         <v>7</v>
       </c>
       <c r="D10" s="82" t="inlineStr">
@@ -1303,37 +1337,37 @@
           <t>DoubleSpice</t>
         </is>
       </c>
-      <c r="E10" s="143" t="n">
+      <c r="E10" s="170" t="n">
         <v>6</v>
       </c>
       <c r="F10" s="82" t="n">
         <v>11620</v>
       </c>
-      <c r="G10" s="144" t="n">
+      <c r="G10" s="171" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="83" t="n">
         <v>60</v>
       </c>
-      <c r="I10" s="143" t="n">
+      <c r="I10" s="170" t="n">
         <v>6</v>
       </c>
       <c r="J10" s="82" t="n">
         <v>14095</v>
       </c>
-      <c r="K10" s="143" t="n">
+      <c r="K10" s="170" t="n">
         <v>6</v>
       </c>
       <c r="L10" s="82" t="n">
         <v>12379</v>
       </c>
-      <c r="M10" s="143" t="n">
+      <c r="M10" s="170" t="n">
         <v>6</v>
       </c>
       <c r="N10" s="82" t="n">
         <v>8256</v>
       </c>
-      <c r="O10" s="143" t="n">
+      <c r="O10" s="170" t="n">
         <v>6</v>
       </c>
       <c r="P10" s="82" t="n">
@@ -1341,15 +1375,15 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="145" t="inlineStr">
+      <c r="A11" s="172" t="inlineStr">
         <is>
           <t>#QUG8QQJ92</t>
         </is>
       </c>
-      <c r="B11" s="145" t="n">
-        <v>925</v>
-      </c>
-      <c r="C11" s="146" t="n">
+      <c r="B11" s="172" t="n">
+        <v>913</v>
+      </c>
+      <c r="C11" s="173" t="n">
         <v>8</v>
       </c>
       <c r="D11" s="86" t="inlineStr">
@@ -1357,37 +1391,37 @@
           <t>Karma</t>
         </is>
       </c>
-      <c r="E11" s="147" t="n">
+      <c r="E11" s="174" t="n">
         <v>6</v>
       </c>
       <c r="F11" s="86" t="n">
         <v>11355</v>
       </c>
-      <c r="G11" s="148" t="n">
+      <c r="G11" s="175" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="147" t="n">
+      <c r="I11" s="174" t="n">
         <v>6</v>
       </c>
       <c r="J11" s="86" t="n">
         <v>10003</v>
       </c>
-      <c r="K11" s="147" t="n">
+      <c r="K11" s="174" t="n">
         <v>6</v>
       </c>
       <c r="L11" s="86" t="n">
         <v>10595</v>
       </c>
-      <c r="M11" s="147" t="n">
+      <c r="M11" s="174" t="n">
         <v>6</v>
       </c>
       <c r="N11" s="86" t="n">
         <v>9240</v>
       </c>
-      <c r="O11" s="147" t="n">
+      <c r="O11" s="174" t="n">
         <v>6</v>
       </c>
       <c r="P11" s="86" t="n">
@@ -1395,15 +1429,15 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="150" t="inlineStr">
+      <c r="A12" s="177" t="inlineStr">
         <is>
           <t>#98JG2UJQL</t>
         </is>
       </c>
-      <c r="B12" s="150" t="n">
-        <v>2941</v>
-      </c>
-      <c r="C12" s="142" t="n">
+      <c r="B12" s="177" t="n">
+        <v>2935</v>
+      </c>
+      <c r="C12" s="169" t="n">
         <v>9</v>
       </c>
       <c r="D12" s="99" t="inlineStr">
@@ -1411,37 +1445,37 @@
           <t>Dragonux</t>
         </is>
       </c>
-      <c r="E12" s="151" t="n">
+      <c r="E12" s="178" t="n">
         <v>6</v>
       </c>
       <c r="F12" s="99" t="n">
         <v>10910</v>
       </c>
-      <c r="G12" s="152" t="n">
+      <c r="G12" s="179" t="n">
         <v>211</v>
       </c>
       <c r="H12" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="151" t="n">
+      <c r="I12" s="178" t="n">
         <v>6</v>
       </c>
       <c r="J12" s="99" t="n">
         <v>8750</v>
       </c>
-      <c r="K12" s="151" t="n">
+      <c r="K12" s="178" t="n">
         <v>6</v>
       </c>
       <c r="L12" s="99" t="n">
         <v>10865</v>
       </c>
-      <c r="M12" s="151" t="n">
+      <c r="M12" s="178" t="n">
         <v>6</v>
       </c>
       <c r="N12" s="99" t="n">
         <v>8025</v>
       </c>
-      <c r="O12" s="151" t="n">
+      <c r="O12" s="178" t="n">
         <v>6</v>
       </c>
       <c r="P12" s="99" t="n">
@@ -1449,15 +1483,15 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="145" t="inlineStr">
+      <c r="A13" s="172" t="inlineStr">
         <is>
           <t>#QLR088LC9</t>
         </is>
       </c>
-      <c r="B13" s="145" t="n">
-        <v>870</v>
-      </c>
-      <c r="C13" s="146" t="n">
+      <c r="B13" s="172" t="n">
+        <v>881</v>
+      </c>
+      <c r="C13" s="173" t="n">
         <v>10</v>
       </c>
       <c r="D13" s="86" t="inlineStr">
@@ -1465,37 +1499,37 @@
           <t>Sanji</t>
         </is>
       </c>
-      <c r="E13" s="147" t="n">
+      <c r="E13" s="174" t="n">
         <v>6</v>
       </c>
       <c r="F13" s="86" t="n">
         <v>10910</v>
       </c>
-      <c r="G13" s="148" t="n">
+      <c r="G13" s="175" t="n">
         <v>0</v>
       </c>
       <c r="H13" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="147" t="n">
+      <c r="I13" s="174" t="n">
         <v>6</v>
       </c>
       <c r="J13" s="86" t="n">
         <v>9550</v>
       </c>
-      <c r="K13" s="147" t="n">
+      <c r="K13" s="174" t="n">
         <v>6</v>
       </c>
       <c r="L13" s="86" t="n">
         <v>9138</v>
       </c>
-      <c r="M13" s="147" t="n">
+      <c r="M13" s="174" t="n">
         <v>6</v>
       </c>
       <c r="N13" s="86" t="n">
         <v>8897</v>
       </c>
-      <c r="O13" s="147" t="n">
+      <c r="O13" s="174" t="n">
         <v>6</v>
       </c>
       <c r="P13" s="86" t="n">
@@ -1503,15 +1537,15 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="141" t="inlineStr">
+      <c r="A14" s="168" t="inlineStr">
         <is>
           <t>#QUYG0PQC8</t>
         </is>
       </c>
-      <c r="B14" s="141" t="n">
-        <v>948</v>
-      </c>
-      <c r="C14" s="142" t="n">
+      <c r="B14" s="168" t="n">
+        <v>930</v>
+      </c>
+      <c r="C14" s="169" t="n">
         <v>11</v>
       </c>
       <c r="D14" s="82" t="inlineStr">
@@ -1519,37 +1553,37 @@
           <t>Luffy</t>
         </is>
       </c>
-      <c r="E14" s="143" t="n">
+      <c r="E14" s="170" t="n">
         <v>6</v>
       </c>
       <c r="F14" s="82" t="n">
         <v>10879</v>
       </c>
-      <c r="G14" s="144" t="n">
+      <c r="G14" s="171" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="143" t="n">
+      <c r="I14" s="170" t="n">
         <v>6</v>
       </c>
       <c r="J14" s="82" t="n">
         <v>9114</v>
       </c>
-      <c r="K14" s="143" t="n">
+      <c r="K14" s="170" t="n">
         <v>6</v>
       </c>
       <c r="L14" s="82" t="n">
         <v>13385</v>
       </c>
-      <c r="M14" s="143" t="n">
+      <c r="M14" s="170" t="n">
         <v>6</v>
       </c>
       <c r="N14" s="82" t="n">
         <v>7877</v>
       </c>
-      <c r="O14" s="143" t="n">
+      <c r="O14" s="170" t="n">
         <v>6</v>
       </c>
       <c r="P14" s="82" t="n">
@@ -1557,15 +1591,15 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="153" t="inlineStr">
+      <c r="A15" s="180" t="inlineStr">
         <is>
           <t>#G0JPUQGYR</t>
         </is>
       </c>
-      <c r="B15" s="153" t="n">
-        <v>1305</v>
-      </c>
-      <c r="C15" s="146" t="n">
+      <c r="B15" s="180" t="n">
+        <v>1298</v>
+      </c>
+      <c r="C15" s="173" t="n">
         <v>12</v>
       </c>
       <c r="D15" s="101" t="inlineStr">
@@ -1573,37 +1607,37 @@
           <t>Collin</t>
         </is>
       </c>
-      <c r="E15" s="154" t="n">
+      <c r="E15" s="181" t="n">
         <v>6</v>
       </c>
       <c r="F15" s="101" t="n">
         <v>8833</v>
       </c>
-      <c r="G15" s="155" t="n">
+      <c r="G15" s="182" t="n">
         <v>20</v>
       </c>
       <c r="H15" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="154" t="n">
+      <c r="I15" s="181" t="n">
         <v>6</v>
       </c>
       <c r="J15" s="101" t="n">
         <v>9238</v>
       </c>
-      <c r="K15" s="154" t="n">
+      <c r="K15" s="181" t="n">
         <v>6</v>
       </c>
       <c r="L15" s="101" t="n">
         <v>7756</v>
       </c>
-      <c r="M15" s="154" t="n">
+      <c r="M15" s="181" t="n">
         <v>6</v>
       </c>
       <c r="N15" s="102" t="n">
         <v>5943</v>
       </c>
-      <c r="O15" s="154" t="n">
+      <c r="O15" s="181" t="n">
         <v>6</v>
       </c>
       <c r="P15" s="101" t="n">
@@ -1611,15 +1645,15 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="150" t="inlineStr">
+      <c r="A16" s="177" t="inlineStr">
         <is>
           <t>#82QLQCJRJ</t>
         </is>
       </c>
-      <c r="B16" s="150" t="n">
-        <v>2940</v>
-      </c>
-      <c r="C16" s="142" t="n">
+      <c r="B16" s="177" t="n">
+        <v>2928</v>
+      </c>
+      <c r="C16" s="169" t="n">
         <v>13</v>
       </c>
       <c r="D16" s="99" t="inlineStr">
@@ -1627,37 +1661,37 @@
           <t>Raging Fury</t>
         </is>
       </c>
-      <c r="E16" s="151" t="n">
+      <c r="E16" s="178" t="n">
         <v>6</v>
       </c>
       <c r="F16" s="99" t="n">
         <v>8055</v>
       </c>
-      <c r="G16" s="156" t="n">
+      <c r="G16" s="183" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="151" t="n">
+      <c r="I16" s="178" t="n">
         <v>6</v>
       </c>
       <c r="J16" s="99" t="n">
         <v>7115</v>
       </c>
-      <c r="K16" s="156" t="n">
+      <c r="K16" s="183" t="n">
         <v>2</v>
       </c>
       <c r="L16" s="95" t="n">
         <v>2320</v>
       </c>
-      <c r="M16" s="151" t="n">
+      <c r="M16" s="178" t="n">
         <v>6</v>
       </c>
       <c r="N16" s="93" t="n">
         <v>4920</v>
       </c>
-      <c r="O16" s="151" t="n">
+      <c r="O16" s="178" t="n">
         <v>6</v>
       </c>
       <c r="P16" s="93" t="n">
@@ -1665,15 +1699,15 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="145" t="inlineStr">
+      <c r="A17" s="172" t="inlineStr">
         <is>
           <t>#Q8CLCUCC2</t>
         </is>
       </c>
-      <c r="B17" s="145" t="n">
+      <c r="B17" s="172" t="n">
         <v>1343</v>
       </c>
-      <c r="C17" s="146" t="n">
+      <c r="C17" s="173" t="n">
         <v>14</v>
       </c>
       <c r="D17" s="86" t="inlineStr">
@@ -1681,37 +1715,37 @@
           <t>Moxxi</t>
         </is>
       </c>
-      <c r="E17" s="147" t="n">
+      <c r="E17" s="174" t="n">
         <v>6</v>
       </c>
       <c r="F17" s="86" t="n">
         <v>8015</v>
       </c>
-      <c r="G17" s="148" t="n">
+      <c r="G17" s="175" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="87" t="n">
         <v>60</v>
       </c>
-      <c r="I17" s="147" t="n">
+      <c r="I17" s="174" t="n">
         <v>6</v>
       </c>
       <c r="J17" s="86" t="n">
         <v>11010</v>
       </c>
-      <c r="K17" s="147" t="n">
+      <c r="K17" s="174" t="n">
         <v>6</v>
       </c>
       <c r="L17" s="86" t="n">
         <v>13857</v>
       </c>
-      <c r="M17" s="147" t="n">
+      <c r="M17" s="174" t="n">
         <v>6</v>
       </c>
       <c r="N17" s="86" t="n">
         <v>7905</v>
       </c>
-      <c r="O17" s="147" t="n">
+      <c r="O17" s="174" t="n">
         <v>6</v>
       </c>
       <c r="P17" s="86" t="n">
@@ -1719,15 +1753,15 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="150" t="inlineStr">
+      <c r="A18" s="177" t="inlineStr">
         <is>
           <t>#QU0U2Q99G</t>
         </is>
       </c>
-      <c r="B18" s="150" t="n">
-        <v>881</v>
-      </c>
-      <c r="C18" s="142" t="n">
+      <c r="B18" s="177" t="n">
+        <v>923</v>
+      </c>
+      <c r="C18" s="169" t="n">
         <v>15</v>
       </c>
       <c r="D18" s="99" t="inlineStr">
@@ -1735,45 +1769,45 @@
           <t>big coc</t>
         </is>
       </c>
-      <c r="E18" s="151" t="n">
+      <c r="E18" s="178" t="n">
         <v>6</v>
       </c>
       <c r="F18" s="99" t="n">
         <v>7420</v>
       </c>
-      <c r="G18" s="156" t="n">
+      <c r="G18" s="183" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="91" t="n">
         <v>40</v>
       </c>
-      <c r="I18" s="151" t="n">
+      <c r="I18" s="178" t="n">
         <v>5</v>
       </c>
       <c r="J18" s="93" t="n">
         <v>5150</v>
       </c>
-      <c r="K18" s="151" t="n">
+      <c r="K18" s="178" t="n">
         <v>6</v>
       </c>
       <c r="L18" s="99" t="n">
         <v>9075</v>
       </c>
-      <c r="M18" s="150" t="n"/>
+      <c r="M18" s="177" t="n"/>
       <c r="N18" s="91" t="n"/>
-      <c r="O18" s="150" t="n"/>
+      <c r="O18" s="177" t="n"/>
       <c r="P18" s="91" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="153" t="inlineStr">
+      <c r="A19" s="180" t="inlineStr">
         <is>
           <t>#QRPRYR8LL</t>
         </is>
       </c>
-      <c r="B19" s="153" t="n">
-        <v>1130</v>
-      </c>
-      <c r="C19" s="146" t="n">
+      <c r="B19" s="180" t="n">
+        <v>1109</v>
+      </c>
+      <c r="C19" s="173" t="n">
         <v>16</v>
       </c>
       <c r="D19" s="101" t="inlineStr">
@@ -1781,37 +1815,37 @@
           <t>FidelCashflow</t>
         </is>
       </c>
-      <c r="E19" s="154" t="n">
+      <c r="E19" s="181" t="n">
         <v>6</v>
       </c>
       <c r="F19" s="101" t="n">
         <v>6415</v>
       </c>
-      <c r="G19" s="155" t="n">
+      <c r="G19" s="182" t="n">
         <v>4</v>
       </c>
       <c r="H19" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="154" t="n">
+      <c r="I19" s="181" t="n">
         <v>6</v>
       </c>
       <c r="J19" s="101" t="n">
         <v>6547</v>
       </c>
-      <c r="K19" s="154" t="n">
+      <c r="K19" s="181" t="n">
         <v>6</v>
       </c>
       <c r="L19" s="101" t="n">
         <v>6811</v>
       </c>
-      <c r="M19" s="154" t="n">
+      <c r="M19" s="181" t="n">
         <v>6</v>
       </c>
       <c r="N19" s="102" t="n">
         <v>4239</v>
       </c>
-      <c r="O19" s="154" t="n">
+      <c r="O19" s="181" t="n">
         <v>6</v>
       </c>
       <c r="P19" s="102" t="n">
@@ -1819,15 +1853,15 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="150" t="inlineStr">
+      <c r="A20" s="177" t="inlineStr">
         <is>
           <t>#QY0VGPQGQ</t>
         </is>
       </c>
-      <c r="B20" s="150" t="n">
-        <v>556</v>
-      </c>
-      <c r="C20" s="142" t="n">
+      <c r="B20" s="177" t="n">
+        <v>572</v>
+      </c>
+      <c r="C20" s="169" t="n">
         <v>17</v>
       </c>
       <c r="D20" s="99" t="inlineStr">
@@ -1835,37 +1869,37 @@
           <t>killerjones</t>
         </is>
       </c>
-      <c r="E20" s="151" t="n">
+      <c r="E20" s="178" t="n">
         <v>6</v>
       </c>
       <c r="F20" s="99" t="n">
         <v>6320</v>
       </c>
-      <c r="G20" s="156" t="n">
+      <c r="G20" s="183" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="91" t="n">
         <v>15</v>
       </c>
-      <c r="I20" s="150" t="n"/>
+      <c r="I20" s="177" t="n"/>
       <c r="J20" s="91" t="n"/>
-      <c r="K20" s="150" t="n"/>
+      <c r="K20" s="177" t="n"/>
       <c r="L20" s="91" t="n"/>
-      <c r="M20" s="150" t="n"/>
+      <c r="M20" s="177" t="n"/>
       <c r="N20" s="91" t="n"/>
-      <c r="O20" s="150" t="n"/>
+      <c r="O20" s="177" t="n"/>
       <c r="P20" s="91" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="153" t="inlineStr">
+      <c r="A21" s="180" t="inlineStr">
         <is>
           <t>#LC9GUPJJG</t>
         </is>
       </c>
-      <c r="B21" s="153" t="n">
-        <v>1056</v>
-      </c>
-      <c r="C21" s="146" t="n">
+      <c r="B21" s="180" t="n">
+        <v>1031</v>
+      </c>
+      <c r="C21" s="173" t="n">
         <v>18</v>
       </c>
       <c r="D21" s="101" t="inlineStr">
@@ -1873,41 +1907,41 @@
           <t>raptor2222a</t>
         </is>
       </c>
-      <c r="E21" s="154" t="n">
+      <c r="E21" s="181" t="n">
         <v>5</v>
       </c>
       <c r="F21" s="102" t="n">
         <v>4350</v>
       </c>
-      <c r="G21" s="155" t="n">
+      <c r="G21" s="182" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="155" t="n">
+      <c r="I21" s="182" t="n">
         <v>0</v>
       </c>
       <c r="J21" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="K21" s="153" t="n"/>
+      <c r="K21" s="180" t="n"/>
       <c r="L21" s="89" t="n"/>
-      <c r="M21" s="153" t="n"/>
+      <c r="M21" s="180" t="n"/>
       <c r="N21" s="89" t="n"/>
-      <c r="O21" s="153" t="n"/>
+      <c r="O21" s="180" t="n"/>
       <c r="P21" s="89" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="150" t="inlineStr">
+      <c r="A22" s="177" t="inlineStr">
         <is>
           <t>#QLG0VJG2J</t>
         </is>
       </c>
-      <c r="B22" s="150" t="n">
-        <v>1131</v>
-      </c>
-      <c r="C22" s="142" t="n">
+      <c r="B22" s="177" t="n">
+        <v>1111</v>
+      </c>
+      <c r="C22" s="169" t="n">
         <v>19</v>
       </c>
       <c r="D22" s="93" t="inlineStr">
@@ -1915,41 +1949,41 @@
           <t>PocketRocket</t>
         </is>
       </c>
-      <c r="E22" s="152" t="n">
+      <c r="E22" s="179" t="n">
         <v>4</v>
       </c>
       <c r="F22" s="93" t="n">
         <v>4327</v>
       </c>
-      <c r="G22" s="156" t="n">
+      <c r="G22" s="183" t="n">
         <v>20</v>
       </c>
       <c r="H22" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="152" t="n">
+      <c r="I22" s="179" t="n">
         <v>4</v>
       </c>
       <c r="J22" s="93" t="n">
         <v>5215</v>
       </c>
-      <c r="K22" s="150" t="n"/>
+      <c r="K22" s="177" t="n"/>
       <c r="L22" s="91" t="n"/>
-      <c r="M22" s="150" t="n"/>
+      <c r="M22" s="177" t="n"/>
       <c r="N22" s="91" t="n"/>
-      <c r="O22" s="150" t="n"/>
+      <c r="O22" s="177" t="n"/>
       <c r="P22" s="91" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="153" t="inlineStr">
+      <c r="A23" s="180" t="inlineStr">
         <is>
           <t>#QL8LVLYG8</t>
         </is>
       </c>
-      <c r="B23" s="153" t="n">
-        <v>835</v>
-      </c>
-      <c r="C23" s="146" t="n">
+      <c r="B23" s="180" t="n">
+        <v>892</v>
+      </c>
+      <c r="C23" s="173" t="n">
         <v>20</v>
       </c>
       <c r="D23" s="97" t="inlineStr">
@@ -1957,37 +1991,37 @@
           <t>Some guy</t>
         </is>
       </c>
-      <c r="E23" s="155" t="n">
+      <c r="E23" s="182" t="n">
         <v>2</v>
       </c>
       <c r="F23" s="97" t="n">
         <v>2650</v>
       </c>
-      <c r="G23" s="155" t="n">
+      <c r="G23" s="182" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="89" t="n">
         <v>20</v>
       </c>
-      <c r="I23" s="155" t="n">
+      <c r="I23" s="182" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="K23" s="154" t="n">
+      <c r="K23" s="181" t="n">
         <v>6</v>
       </c>
       <c r="L23" s="101" t="n">
         <v>6917</v>
       </c>
-      <c r="M23" s="155" t="n">
+      <c r="M23" s="182" t="n">
         <v>0</v>
       </c>
       <c r="N23" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="O23" s="155" t="n">
+      <c r="O23" s="182" t="n">
         <v>2</v>
       </c>
       <c r="P23" s="97" t="n">
@@ -2001,7 +2035,7 @@
         </is>
       </c>
       <c r="B24" s="119" t="n">
-        <v>986</v>
+        <v>1015</v>
       </c>
       <c r="C24" s="120" t="n">
         <v>21</v>
@@ -2049,483 +2083,495 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="153" t="inlineStr">
+      <c r="A25" s="180" t="inlineStr">
+        <is>
+          <t>#QQL28Y2UL</t>
+        </is>
+      </c>
+      <c r="B25" s="180" t="n">
+        <v>1099</v>
+      </c>
+      <c r="C25" s="173" t="n">
+        <v>22</v>
+      </c>
+      <c r="D25" s="97" t="inlineStr">
+        <is>
+          <t>SUPoT</t>
+        </is>
+      </c>
+      <c r="E25" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="180" t="n"/>
+      <c r="J25" s="89" t="n"/>
+      <c r="K25" s="180" t="n"/>
+      <c r="L25" s="89" t="n"/>
+      <c r="M25" s="180" t="n"/>
+      <c r="N25" s="89" t="n"/>
+      <c r="O25" s="180" t="n"/>
+      <c r="P25" s="89" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="177" t="inlineStr">
         <is>
           <t>#QV8JJ0URU</t>
         </is>
       </c>
-      <c r="B25" s="153" t="n">
+      <c r="B26" s="177" t="n">
         <v>741</v>
       </c>
-      <c r="C25" s="146" t="n">
-        <v>22</v>
-      </c>
-      <c r="D25" s="97" t="inlineStr">
+      <c r="C26" s="169" t="n">
+        <v>23</v>
+      </c>
+      <c r="D26" s="95" t="inlineStr">
         <is>
           <t>✨Jacob</t>
         </is>
       </c>
-      <c r="E25" s="155" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="155" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="155" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="154" t="n">
-        <v>6</v>
-      </c>
-      <c r="N25" s="101" t="n">
+      <c r="E26" s="183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="N26" s="99" t="n">
         <v>7385</v>
       </c>
-      <c r="O25" s="154" t="n">
-        <v>6</v>
-      </c>
-      <c r="P25" s="101" t="n">
+      <c r="O26" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="P26" s="99" t="n">
         <v>9155</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="150" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="180" t="inlineStr">
+        <is>
+          <t>#QUVJGC0VQ</t>
+        </is>
+      </c>
+      <c r="B27" s="180" t="n">
+        <v>1141</v>
+      </c>
+      <c r="C27" s="173" t="n">
+        <v>24</v>
+      </c>
+      <c r="D27" s="97" t="inlineStr">
+        <is>
+          <t>Cam</t>
+        </is>
+      </c>
+      <c r="E27" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="89" t="n">
+        <v>26</v>
+      </c>
+      <c r="I27" s="180" t="n"/>
+      <c r="J27" s="89" t="n"/>
+      <c r="K27" s="180" t="n"/>
+      <c r="L27" s="89" t="n"/>
+      <c r="M27" s="180" t="n"/>
+      <c r="N27" s="89" t="n"/>
+      <c r="O27" s="180" t="n"/>
+      <c r="P27" s="89" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="177" t="inlineStr">
         <is>
           <t>#QLGYRVPU0</t>
         </is>
       </c>
-      <c r="B26" s="150" t="n">
-        <v>901</v>
-      </c>
-      <c r="C26" s="142" t="n">
-        <v>23</v>
-      </c>
-      <c r="D26" s="95" t="inlineStr">
+      <c r="B28" s="177" t="n">
+        <v>880</v>
+      </c>
+      <c r="C28" s="169" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" s="95" t="inlineStr">
         <is>
           <t>Black.Boy.</t>
         </is>
       </c>
-      <c r="E26" s="156" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="156" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="91" t="n">
+      <c r="E28" s="183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="91" t="n">
         <v>26</v>
       </c>
-      <c r="I26" s="150" t="n"/>
-      <c r="J26" s="91" t="n"/>
-      <c r="K26" s="150" t="n"/>
-      <c r="L26" s="91" t="n"/>
-      <c r="M26" s="150" t="n"/>
-      <c r="N26" s="91" t="n"/>
-      <c r="O26" s="150" t="n"/>
-      <c r="P26" s="91" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="153" t="inlineStr">
-        <is>
-          <t>#QQL28Y2UL</t>
-        </is>
-      </c>
-      <c r="B27" s="153" t="n">
-        <v>1103</v>
-      </c>
-      <c r="C27" s="146" t="n">
-        <v>24</v>
-      </c>
-      <c r="D27" s="97" t="inlineStr">
-        <is>
-          <t>SUPoT</t>
-        </is>
-      </c>
-      <c r="E27" s="155" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="155" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="153" t="n"/>
-      <c r="J27" s="89" t="n"/>
-      <c r="K27" s="153" t="n"/>
-      <c r="L27" s="89" t="n"/>
-      <c r="M27" s="153" t="n"/>
-      <c r="N27" s="89" t="n"/>
-      <c r="O27" s="153" t="n"/>
-      <c r="P27" s="89" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="150" t="inlineStr">
+      <c r="I28" s="177" t="n"/>
+      <c r="J28" s="91" t="n"/>
+      <c r="K28" s="177" t="n"/>
+      <c r="L28" s="91" t="n"/>
+      <c r="M28" s="177" t="n"/>
+      <c r="N28" s="91" t="n"/>
+      <c r="O28" s="177" t="n"/>
+      <c r="P28" s="91" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="180" t="inlineStr">
         <is>
           <t>#QY8L2GLUR</t>
         </is>
       </c>
-      <c r="B28" s="150" t="n">
+      <c r="B29" s="180" t="n">
         <v>907</v>
       </c>
-      <c r="C28" s="142" t="n">
-        <v>25</v>
-      </c>
-      <c r="D28" s="95" t="inlineStr">
+      <c r="C29" s="173" t="n">
+        <v>26</v>
+      </c>
+      <c r="D29" s="97" t="inlineStr">
         <is>
           <t>Huy</t>
         </is>
       </c>
-      <c r="E28" s="156" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="156" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="156" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="151" t="n">
-        <v>6</v>
-      </c>
-      <c r="N28" s="99" t="n">
+      <c r="E29" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="181" t="n">
+        <v>6</v>
+      </c>
+      <c r="N29" s="101" t="n">
         <v>6995</v>
       </c>
-      <c r="O28" s="151" t="n">
-        <v>6</v>
-      </c>
-      <c r="P28" s="99" t="n">
+      <c r="O29" s="181" t="n">
+        <v>6</v>
+      </c>
+      <c r="P29" s="101" t="n">
         <v>6055</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="153" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="177" t="inlineStr">
         <is>
           <t>#L2QQL9QVJ</t>
         </is>
       </c>
-      <c r="B29" s="153" t="n">
+      <c r="B30" s="177" t="n">
         <v>1450</v>
       </c>
-      <c r="C29" s="146" t="n">
-        <v>26</v>
-      </c>
-      <c r="D29" s="97" t="inlineStr">
+      <c r="C30" s="169" t="n">
+        <v>27</v>
+      </c>
+      <c r="D30" s="95" t="inlineStr">
         <is>
           <t>JustPre10d</t>
         </is>
       </c>
-      <c r="E29" s="155" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="155" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="155" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="154" t="n">
-        <v>6</v>
-      </c>
-      <c r="N29" s="101" t="n">
+      <c r="E30" s="183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="N30" s="99" t="n">
         <v>6655</v>
       </c>
-      <c r="O29" s="154" t="n">
-        <v>6</v>
-      </c>
-      <c r="P29" s="101" t="n">
+      <c r="O30" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="P30" s="99" t="n">
         <v>7675</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="150" t="inlineStr">
-        <is>
-          <t>#QUVJGC0VQ</t>
-        </is>
-      </c>
-      <c r="B30" s="150" t="n">
-        <v>1155</v>
-      </c>
-      <c r="C30" s="142" t="n">
-        <v>27</v>
-      </c>
-      <c r="D30" s="95" t="inlineStr">
-        <is>
-          <t>Cam</t>
-        </is>
-      </c>
-      <c r="E30" s="156" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="156" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="91" t="n">
-        <v>26</v>
-      </c>
-      <c r="I30" s="150" t="n"/>
-      <c r="J30" s="91" t="n"/>
-      <c r="K30" s="150" t="n"/>
-      <c r="L30" s="91" t="n"/>
-      <c r="M30" s="150" t="n"/>
-      <c r="N30" s="91" t="n"/>
-      <c r="O30" s="150" t="n"/>
-      <c r="P30" s="91" t="n"/>
-    </row>
     <row r="31">
-      <c r="A31" s="153" t="inlineStr">
-        <is>
-          <t>#QQLVRJCGQ</t>
-        </is>
-      </c>
-      <c r="B31" s="153" t="n">
-        <v>1240</v>
-      </c>
-      <c r="C31" s="146" t="n">
+      <c r="A31" s="180" t="inlineStr">
+        <is>
+          <t>#LPR9RPCY9</t>
+        </is>
+      </c>
+      <c r="B31" s="180" t="n">
+        <v>990</v>
+      </c>
+      <c r="C31" s="173" t="n">
         <v>28</v>
       </c>
       <c r="D31" s="97" t="inlineStr">
         <is>
-          <t>khant</t>
-        </is>
-      </c>
-      <c r="E31" s="155" t="n">
+          <t>sayhuss17</t>
+        </is>
+      </c>
+      <c r="E31" s="182" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="G31" s="155" t="n">
+      <c r="G31" s="182" t="n">
         <v>0</v>
       </c>
       <c r="H31" s="89" t="n">
-        <v>60</v>
-      </c>
-      <c r="I31" s="153" t="n"/>
-      <c r="J31" s="89" t="n"/>
-      <c r="K31" s="153" t="n"/>
-      <c r="L31" s="89" t="n"/>
-      <c r="M31" s="153" t="n"/>
-      <c r="N31" s="89" t="n"/>
-      <c r="O31" s="153" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="184" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" s="102" t="n">
+        <v>4240</v>
+      </c>
+      <c r="O31" s="180" t="n"/>
       <c r="P31" s="89" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="150" t="inlineStr">
-        <is>
-          <t>#LPR9RPCY9</t>
-        </is>
-      </c>
-      <c r="B32" s="150" t="n">
-        <v>990</v>
-      </c>
-      <c r="C32" s="142" t="n">
+      <c r="A32" s="177" t="inlineStr">
+        <is>
+          <t>#QQL8C29CY</t>
+        </is>
+      </c>
+      <c r="B32" s="177" t="n">
+        <v>866</v>
+      </c>
+      <c r="C32" s="169" t="n">
         <v>29</v>
       </c>
       <c r="D32" s="95" t="inlineStr">
         <is>
-          <t>sayhuss17</t>
-        </is>
-      </c>
-      <c r="E32" s="156" t="n">
+          <t>TypicalTeague#2</t>
+        </is>
+      </c>
+      <c r="E32" s="183" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="G32" s="156" t="n">
+      <c r="G32" s="183" t="n">
         <v>0</v>
       </c>
       <c r="H32" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="I32" s="156" t="n">
+      <c r="I32" s="183" t="n">
         <v>0</v>
       </c>
       <c r="J32" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="K32" s="156" t="n">
+      <c r="K32" s="183" t="n">
         <v>0</v>
       </c>
       <c r="L32" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="M32" s="152" t="n">
+      <c r="M32" s="178" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" s="93" t="n">
+        <v>4070</v>
+      </c>
+      <c r="O32" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="P32" s="99" t="n">
+        <v>6410</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="180" t="inlineStr">
+        <is>
+          <t>#L9JJQY992</t>
+        </is>
+      </c>
+      <c r="B33" s="180" t="n">
+        <v>773</v>
+      </c>
+      <c r="C33" s="173" t="n">
+        <v>30</v>
+      </c>
+      <c r="D33" s="97" t="inlineStr">
+        <is>
+          <t>Fisted_Waffle</t>
+        </is>
+      </c>
+      <c r="E33" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="180" t="n"/>
+      <c r="P33" s="89" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="177" t="inlineStr">
+        <is>
+          <t>#PJYVV989R</t>
+        </is>
+      </c>
+      <c r="B34" s="177" t="n">
+        <v>1559</v>
+      </c>
+      <c r="C34" s="169" t="n">
+        <v>31</v>
+      </c>
+      <c r="D34" s="95" t="inlineStr">
+        <is>
+          <t>nx</t>
+        </is>
+      </c>
+      <c r="E34" s="183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="183" t="n">
         <v>4</v>
       </c>
-      <c r="N32" s="93" t="n">
-        <v>4240</v>
-      </c>
-      <c r="O32" s="150" t="n"/>
-      <c r="P32" s="91" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="153" t="inlineStr">
-        <is>
-          <t>#QQL8C29CY</t>
-        </is>
-      </c>
-      <c r="B33" s="153" t="n">
-        <v>878</v>
-      </c>
-      <c r="C33" s="146" t="n">
-        <v>30</v>
-      </c>
-      <c r="D33" s="97" t="inlineStr">
-        <is>
-          <t>TypicalTeague#2</t>
-        </is>
-      </c>
-      <c r="E33" s="155" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="155" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="155" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" s="154" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" s="102" t="n">
-        <v>4070</v>
-      </c>
-      <c r="O33" s="154" t="n">
-        <v>6</v>
-      </c>
-      <c r="P33" s="101" t="n">
-        <v>6410</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="150" t="inlineStr">
-        <is>
-          <t>#PJYVV989R</t>
-        </is>
-      </c>
-      <c r="B34" s="150" t="n">
-        <v>1577</v>
-      </c>
-      <c r="C34" s="142" t="n">
-        <v>31</v>
-      </c>
-      <c r="D34" s="95" t="inlineStr">
-        <is>
-          <t>nx</t>
-        </is>
-      </c>
-      <c r="E34" s="156" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="156" t="n">
-        <v>4</v>
-      </c>
       <c r="H34" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="I34" s="156" t="n">
+      <c r="I34" s="183" t="n">
         <v>0</v>
       </c>
       <c r="J34" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="K34" s="156" t="n">
+      <c r="K34" s="183" t="n">
         <v>0</v>
       </c>
       <c r="L34" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="M34" s="156" t="n">
+      <c r="M34" s="183" t="n">
         <v>0</v>
       </c>
       <c r="N34" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="O34" s="150" t="n"/>
+      <c r="O34" s="177" t="n"/>
       <c r="P34" s="91" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="153" t="inlineStr">
+      <c r="A35" s="180" t="inlineStr">
         <is>
           <t>#L9QL9YQQY</t>
         </is>
       </c>
-      <c r="B35" s="153" t="n">
+      <c r="B35" s="180" t="n">
         <v>975</v>
       </c>
-      <c r="C35" s="146" t="n">
+      <c r="C35" s="173" t="n">
         <v>32</v>
       </c>
       <c r="D35" s="97" t="inlineStr">
@@ -2533,37 +2579,37 @@
           <t>Ima Chad</t>
         </is>
       </c>
-      <c r="E35" s="155" t="n">
+      <c r="E35" s="182" t="n">
         <v>0</v>
       </c>
       <c r="F35" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="G35" s="155" t="n">
+      <c r="G35" s="182" t="n">
         <v>0</v>
       </c>
       <c r="H35" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="I35" s="155" t="n">
+      <c r="I35" s="182" t="n">
         <v>0</v>
       </c>
       <c r="J35" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="K35" s="155" t="n">
+      <c r="K35" s="182" t="n">
         <v>0</v>
       </c>
       <c r="L35" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="M35" s="155" t="n">
+      <c r="M35" s="182" t="n">
         <v>0</v>
       </c>
       <c r="N35" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="O35" s="154" t="n">
+      <c r="O35" s="181" t="n">
         <v>5</v>
       </c>
       <c r="P35" s="97" t="n">
@@ -2571,70 +2617,50 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="150" t="inlineStr">
-        <is>
-          <t>#L9JJQY992</t>
-        </is>
-      </c>
-      <c r="B36" s="150" t="n">
-        <v>773</v>
-      </c>
-      <c r="C36" s="142" t="n">
+      <c r="A36" s="177" t="inlineStr">
+        <is>
+          <t>#LPCLQUCCY</t>
+        </is>
+      </c>
+      <c r="B36" s="177" t="n">
+        <v>952</v>
+      </c>
+      <c r="C36" s="169" t="n">
         <v>33</v>
       </c>
-      <c r="D36" s="95" t="inlineStr">
-        <is>
-          <t>Fisted_Waffle</t>
-        </is>
-      </c>
-      <c r="E36" s="156" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="156" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" s="156" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" s="156" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" s="150" t="n"/>
+      <c r="D36" s="91" t="inlineStr">
+        <is>
+          <t>Zodiac</t>
+        </is>
+      </c>
+      <c r="E36" s="177" t="n"/>
+      <c r="F36" s="91" t="n"/>
+      <c r="G36" s="177" t="n"/>
+      <c r="H36" s="91" t="n"/>
+      <c r="I36" s="177" t="n"/>
+      <c r="J36" s="91" t="n"/>
+      <c r="K36" s="177" t="n"/>
+      <c r="L36" s="91" t="n"/>
+      <c r="M36" s="177" t="n"/>
+      <c r="N36" s="91" t="n"/>
+      <c r="O36" s="177" t="n"/>
       <c r="P36" s="91" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="126" t="inlineStr">
         <is>
-          <t>#QLL0PVCRV</t>
+          <t>#QQLVRJCGQ</t>
         </is>
       </c>
       <c r="B37" s="127" t="n">
-        <v>1704</v>
+        <v>1240</v>
       </c>
       <c r="C37" s="128" t="n">
         <v>34</v>
       </c>
       <c r="D37" s="129" t="inlineStr">
         <is>
-          <t>Harsh chhillar</t>
+          <t>khant</t>
         </is>
       </c>
       <c r="E37" s="127" t="n"/>
@@ -2651,374 +2677,404 @@
       <c r="P37" s="129" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="156" t="inlineStr">
+      <c r="A38" s="183" t="inlineStr">
+        <is>
+          <t>#QLL0PVCRV</t>
+        </is>
+      </c>
+      <c r="B38" s="177" t="n">
+        <v>1704</v>
+      </c>
+      <c r="C38" s="169" t="n">
+        <v>35</v>
+      </c>
+      <c r="D38" s="91" t="inlineStr">
+        <is>
+          <t>Harsh chhillar</t>
+        </is>
+      </c>
+      <c r="E38" s="177" t="n"/>
+      <c r="F38" s="91" t="n"/>
+      <c r="G38" s="177" t="n"/>
+      <c r="H38" s="91" t="n"/>
+      <c r="I38" s="177" t="n"/>
+      <c r="J38" s="91" t="n"/>
+      <c r="K38" s="177" t="n"/>
+      <c r="L38" s="91" t="n"/>
+      <c r="M38" s="177" t="n"/>
+      <c r="N38" s="91" t="n"/>
+      <c r="O38" s="177" t="n"/>
+      <c r="P38" s="91" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="182" t="inlineStr">
         <is>
           <t>#Q8YP9P8UJ</t>
         </is>
       </c>
-      <c r="B38" s="150" t="n">
+      <c r="B39" s="180" t="n">
         <v>945</v>
       </c>
-      <c r="C38" s="142" t="n">
-        <v>35</v>
-      </c>
-      <c r="D38" s="91" t="inlineStr">
+      <c r="C39" s="173" t="n">
+        <v>36</v>
+      </c>
+      <c r="D39" s="89" t="inlineStr">
         <is>
           <t>Ranger</t>
         </is>
       </c>
-      <c r="E38" s="150" t="n"/>
-      <c r="F38" s="91" t="n"/>
-      <c r="G38" s="150" t="n"/>
-      <c r="H38" s="91" t="n"/>
-      <c r="I38" s="151" t="n">
+      <c r="E39" s="180" t="n"/>
+      <c r="F39" s="89" t="n"/>
+      <c r="G39" s="180" t="n"/>
+      <c r="H39" s="89" t="n"/>
+      <c r="I39" s="181" t="n">
         <v>5</v>
       </c>
-      <c r="J38" s="93" t="n">
+      <c r="J39" s="102" t="n">
         <v>4680</v>
       </c>
-      <c r="K38" s="150" t="n"/>
-      <c r="L38" s="91" t="n"/>
-      <c r="M38" s="150" t="n"/>
-      <c r="N38" s="91" t="n"/>
-      <c r="O38" s="150" t="n"/>
-      <c r="P38" s="91" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="155" t="inlineStr">
+      <c r="K39" s="180" t="n"/>
+      <c r="L39" s="89" t="n"/>
+      <c r="M39" s="180" t="n"/>
+      <c r="N39" s="89" t="n"/>
+      <c r="O39" s="180" t="n"/>
+      <c r="P39" s="89" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="183" t="inlineStr">
         <is>
           <t>#Q0JG2RJQ8</t>
         </is>
       </c>
-      <c r="B39" s="153" t="n">
+      <c r="B40" s="177" t="n">
         <v>997</v>
       </c>
-      <c r="C39" s="146" t="n">
-        <v>36</v>
-      </c>
-      <c r="D39" s="89" t="inlineStr">
+      <c r="C40" s="169" t="n">
+        <v>37</v>
+      </c>
+      <c r="D40" s="91" t="inlineStr">
         <is>
           <t>bozo</t>
         </is>
       </c>
-      <c r="E39" s="153" t="n"/>
-      <c r="F39" s="89" t="n"/>
-      <c r="G39" s="153" t="n"/>
-      <c r="H39" s="89" t="n"/>
-      <c r="I39" s="153" t="n"/>
-      <c r="J39" s="89" t="n"/>
-      <c r="K39" s="154" t="n">
-        <v>6</v>
-      </c>
-      <c r="L39" s="101" t="n">
+      <c r="E40" s="177" t="n"/>
+      <c r="F40" s="91" t="n"/>
+      <c r="G40" s="177" t="n"/>
+      <c r="H40" s="91" t="n"/>
+      <c r="I40" s="177" t="n"/>
+      <c r="J40" s="91" t="n"/>
+      <c r="K40" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="L40" s="99" t="n">
         <v>6495</v>
       </c>
-      <c r="M39" s="153" t="n"/>
-      <c r="N39" s="89" t="n"/>
-      <c r="O39" s="153" t="n"/>
-      <c r="P39" s="89" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="156" t="inlineStr">
+      <c r="M40" s="177" t="n"/>
+      <c r="N40" s="91" t="n"/>
+      <c r="O40" s="177" t="n"/>
+      <c r="P40" s="91" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="182" t="inlineStr">
         <is>
           <t>#UVCCQC02</t>
         </is>
       </c>
-      <c r="B40" s="150" t="n">
+      <c r="B41" s="180" t="n">
         <v>1806</v>
       </c>
-      <c r="C40" s="142" t="n">
-        <v>37</v>
-      </c>
-      <c r="D40" s="91" t="inlineStr">
+      <c r="C41" s="173" t="n">
+        <v>38</v>
+      </c>
+      <c r="D41" s="89" t="inlineStr">
         <is>
           <t>lordshisha</t>
         </is>
       </c>
-      <c r="E40" s="150" t="n"/>
-      <c r="F40" s="91" t="n"/>
-      <c r="G40" s="150" t="n"/>
-      <c r="H40" s="91" t="n"/>
-      <c r="I40" s="150" t="n"/>
-      <c r="J40" s="91" t="n"/>
-      <c r="K40" s="151" t="n">
-        <v>6</v>
-      </c>
-      <c r="L40" s="99" t="n">
+      <c r="E41" s="180" t="n"/>
+      <c r="F41" s="89" t="n"/>
+      <c r="G41" s="180" t="n"/>
+      <c r="H41" s="89" t="n"/>
+      <c r="I41" s="180" t="n"/>
+      <c r="J41" s="89" t="n"/>
+      <c r="K41" s="181" t="n">
+        <v>6</v>
+      </c>
+      <c r="L41" s="101" t="n">
         <v>8496</v>
       </c>
-      <c r="M40" s="151" t="n">
-        <v>6</v>
-      </c>
-      <c r="N40" s="99" t="n">
+      <c r="M41" s="181" t="n">
+        <v>6</v>
+      </c>
+      <c r="N41" s="101" t="n">
         <v>6310</v>
       </c>
-      <c r="O40" s="151" t="n">
-        <v>6</v>
-      </c>
-      <c r="P40" s="99" t="n">
+      <c r="O41" s="181" t="n">
+        <v>6</v>
+      </c>
+      <c r="P41" s="101" t="n">
         <v>6930</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="155" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="183" t="inlineStr">
         <is>
           <t>#P2CPRPQU</t>
         </is>
       </c>
-      <c r="B41" s="153" t="n">
+      <c r="B42" s="177" t="n">
         <v>2232</v>
       </c>
-      <c r="C41" s="146" t="n">
-        <v>38</v>
-      </c>
-      <c r="D41" s="89" t="inlineStr">
+      <c r="C42" s="169" t="n">
+        <v>39</v>
+      </c>
+      <c r="D42" s="91" t="inlineStr">
         <is>
           <t>The Drift King</t>
         </is>
       </c>
-      <c r="E41" s="153" t="n"/>
-      <c r="F41" s="89" t="n"/>
-      <c r="G41" s="153" t="n"/>
-      <c r="H41" s="89" t="n"/>
-      <c r="I41" s="153" t="n"/>
-      <c r="J41" s="89" t="n"/>
-      <c r="K41" s="154" t="n">
-        <v>6</v>
-      </c>
-      <c r="L41" s="101" t="n">
+      <c r="E42" s="177" t="n"/>
+      <c r="F42" s="91" t="n"/>
+      <c r="G42" s="177" t="n"/>
+      <c r="H42" s="91" t="n"/>
+      <c r="I42" s="177" t="n"/>
+      <c r="J42" s="91" t="n"/>
+      <c r="K42" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="L42" s="99" t="n">
         <v>8023</v>
       </c>
-      <c r="M41" s="154" t="n">
-        <v>6</v>
-      </c>
-      <c r="N41" s="101" t="n">
+      <c r="M42" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="N42" s="99" t="n">
         <v>7625</v>
       </c>
-      <c r="O41" s="154" t="n">
-        <v>6</v>
-      </c>
-      <c r="P41" s="101" t="n">
+      <c r="O42" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="P42" s="99" t="n">
         <v>7375</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="156" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="182" t="inlineStr">
         <is>
           <t>#QJVL0LYQQ</t>
         </is>
       </c>
-      <c r="B42" s="150" t="n">
+      <c r="B43" s="180" t="n">
         <v>921</v>
       </c>
-      <c r="C42" s="142" t="n">
-        <v>39</v>
-      </c>
-      <c r="D42" s="91" t="inlineStr">
+      <c r="C43" s="173" t="n">
+        <v>40</v>
+      </c>
+      <c r="D43" s="89" t="inlineStr">
         <is>
           <t>mobbb341</t>
         </is>
       </c>
-      <c r="E42" s="150" t="n"/>
-      <c r="F42" s="91" t="n"/>
-      <c r="G42" s="150" t="n"/>
-      <c r="H42" s="91" t="n"/>
-      <c r="I42" s="150" t="n"/>
-      <c r="J42" s="91" t="n"/>
-      <c r="K42" s="151" t="n">
-        <v>6</v>
-      </c>
-      <c r="L42" s="99" t="n">
+      <c r="E43" s="180" t="n"/>
+      <c r="F43" s="89" t="n"/>
+      <c r="G43" s="180" t="n"/>
+      <c r="H43" s="89" t="n"/>
+      <c r="I43" s="180" t="n"/>
+      <c r="J43" s="89" t="n"/>
+      <c r="K43" s="181" t="n">
+        <v>6</v>
+      </c>
+      <c r="L43" s="101" t="n">
         <v>7710</v>
       </c>
-      <c r="M42" s="151" t="n">
-        <v>6</v>
-      </c>
-      <c r="N42" s="99" t="n">
+      <c r="M43" s="181" t="n">
+        <v>6</v>
+      </c>
+      <c r="N43" s="101" t="n">
         <v>8810</v>
       </c>
-      <c r="O42" s="151" t="n">
-        <v>6</v>
-      </c>
-      <c r="P42" s="93" t="n">
+      <c r="O43" s="181" t="n">
+        <v>6</v>
+      </c>
+      <c r="P43" s="102" t="n">
         <v>4505</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="155" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="183" t="inlineStr">
         <is>
           <t>#L8R82C8VC</t>
         </is>
       </c>
-      <c r="B43" s="153" t="n">
+      <c r="B44" s="177" t="n">
         <v>1162</v>
       </c>
-      <c r="C43" s="146" t="n">
-        <v>40</v>
-      </c>
-      <c r="D43" s="89" t="inlineStr">
+      <c r="C44" s="169" t="n">
+        <v>41</v>
+      </c>
+      <c r="D44" s="91" t="inlineStr">
         <is>
           <t>caden asue</t>
         </is>
       </c>
-      <c r="E43" s="153" t="n"/>
-      <c r="F43" s="89" t="n"/>
-      <c r="G43" s="153" t="n"/>
-      <c r="H43" s="89" t="n"/>
-      <c r="I43" s="153" t="n"/>
-      <c r="J43" s="89" t="n"/>
-      <c r="K43" s="154" t="n">
-        <v>6</v>
-      </c>
-      <c r="L43" s="102" t="n">
+      <c r="E44" s="177" t="n"/>
+      <c r="F44" s="91" t="n"/>
+      <c r="G44" s="177" t="n"/>
+      <c r="H44" s="91" t="n"/>
+      <c r="I44" s="177" t="n"/>
+      <c r="J44" s="91" t="n"/>
+      <c r="K44" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="L44" s="93" t="n">
         <v>5112</v>
       </c>
-      <c r="M43" s="154" t="n">
-        <v>6</v>
-      </c>
-      <c r="N43" s="102" t="n">
+      <c r="M44" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="N44" s="93" t="n">
         <v>4283</v>
       </c>
-      <c r="O43" s="154" t="n">
-        <v>6</v>
-      </c>
-      <c r="P43" s="102" t="n">
+      <c r="O44" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="P44" s="93" t="n">
         <v>4338</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="156" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="182" t="inlineStr">
         <is>
           <t>#L9Q8VLLQG</t>
         </is>
       </c>
-      <c r="B44" s="150" t="n">
+      <c r="B45" s="180" t="n">
         <v>1130</v>
       </c>
-      <c r="C44" s="142" t="n">
-        <v>41</v>
-      </c>
-      <c r="D44" s="91" t="inlineStr">
+      <c r="C45" s="173" t="n">
+        <v>42</v>
+      </c>
+      <c r="D45" s="89" t="inlineStr">
         <is>
           <t>cat</t>
         </is>
       </c>
-      <c r="E44" s="150" t="n"/>
-      <c r="F44" s="91" t="n"/>
-      <c r="G44" s="150" t="n"/>
-      <c r="H44" s="91" t="n"/>
-      <c r="I44" s="150" t="n"/>
-      <c r="J44" s="91" t="n"/>
-      <c r="K44" s="150" t="n"/>
-      <c r="L44" s="91" t="n"/>
-      <c r="M44" s="150" t="n"/>
-      <c r="N44" s="91" t="n"/>
-      <c r="O44" s="151" t="n">
-        <v>6</v>
-      </c>
-      <c r="P44" s="93" t="n">
+      <c r="E45" s="180" t="n"/>
+      <c r="F45" s="89" t="n"/>
+      <c r="G45" s="180" t="n"/>
+      <c r="H45" s="89" t="n"/>
+      <c r="I45" s="180" t="n"/>
+      <c r="J45" s="89" t="n"/>
+      <c r="K45" s="180" t="n"/>
+      <c r="L45" s="89" t="n"/>
+      <c r="M45" s="180" t="n"/>
+      <c r="N45" s="89" t="n"/>
+      <c r="O45" s="181" t="n">
+        <v>6</v>
+      </c>
+      <c r="P45" s="102" t="n">
         <v>5908</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="155" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="183" t="inlineStr">
         <is>
           <t>#QV0PQC9JU</t>
         </is>
       </c>
-      <c r="B45" s="153" t="n">
+      <c r="B46" s="177" t="n">
         <v>539</v>
       </c>
-      <c r="C45" s="146" t="n">
-        <v>42</v>
-      </c>
-      <c r="D45" s="89" t="inlineStr">
+      <c r="C46" s="169" t="n">
+        <v>43</v>
+      </c>
+      <c r="D46" s="91" t="inlineStr">
         <is>
           <t>Superman</t>
         </is>
       </c>
-      <c r="E45" s="153" t="n"/>
-      <c r="F45" s="89" t="n"/>
-      <c r="G45" s="153" t="n"/>
-      <c r="H45" s="89" t="n"/>
-      <c r="I45" s="153" t="n"/>
-      <c r="J45" s="89" t="n"/>
-      <c r="K45" s="153" t="n"/>
-      <c r="L45" s="89" t="n"/>
-      <c r="M45" s="153" t="n"/>
-      <c r="N45" s="89" t="n"/>
-      <c r="O45" s="154" t="n">
-        <v>6</v>
-      </c>
-      <c r="P45" s="102" t="n">
+      <c r="E46" s="177" t="n"/>
+      <c r="F46" s="91" t="n"/>
+      <c r="G46" s="177" t="n"/>
+      <c r="H46" s="91" t="n"/>
+      <c r="I46" s="177" t="n"/>
+      <c r="J46" s="91" t="n"/>
+      <c r="K46" s="177" t="n"/>
+      <c r="L46" s="91" t="n"/>
+      <c r="M46" s="177" t="n"/>
+      <c r="N46" s="91" t="n"/>
+      <c r="O46" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="P46" s="93" t="n">
         <v>4447</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="156" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="182" t="inlineStr">
         <is>
           <t>#LU0CRP09L</t>
         </is>
       </c>
-      <c r="B46" s="150" t="n">
+      <c r="B47" s="180" t="n">
         <v>809</v>
       </c>
-      <c r="C46" s="142" t="n">
-        <v>43</v>
-      </c>
-      <c r="D46" s="91" t="inlineStr">
+      <c r="C47" s="173" t="n">
+        <v>44</v>
+      </c>
+      <c r="D47" s="89" t="inlineStr">
         <is>
           <t>I Dont Know</t>
         </is>
       </c>
-      <c r="E46" s="150" t="n"/>
-      <c r="F46" s="91" t="n"/>
-      <c r="G46" s="150" t="n"/>
-      <c r="H46" s="91" t="n"/>
-      <c r="I46" s="150" t="n"/>
-      <c r="J46" s="91" t="n"/>
-      <c r="K46" s="150" t="n"/>
-      <c r="L46" s="91" t="n"/>
-      <c r="M46" s="150" t="n"/>
-      <c r="N46" s="91" t="n"/>
-      <c r="O46" s="152" t="n">
+      <c r="E47" s="180" t="n"/>
+      <c r="F47" s="89" t="n"/>
+      <c r="G47" s="180" t="n"/>
+      <c r="H47" s="89" t="n"/>
+      <c r="I47" s="180" t="n"/>
+      <c r="J47" s="89" t="n"/>
+      <c r="K47" s="180" t="n"/>
+      <c r="L47" s="89" t="n"/>
+      <c r="M47" s="180" t="n"/>
+      <c r="N47" s="89" t="n"/>
+      <c r="O47" s="184" t="n">
         <v>3</v>
       </c>
-      <c r="P46" s="95" t="n">
+      <c r="P47" s="97" t="n">
         <v>3435</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="155" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="183" t="inlineStr">
         <is>
           <t>#YCPP0QPP8</t>
         </is>
       </c>
-      <c r="B47" s="153" t="n">
+      <c r="B48" s="177" t="n">
         <v>3327</v>
       </c>
-      <c r="C47" s="146" t="n">
-        <v>44</v>
-      </c>
-      <c r="D47" s="89" t="inlineStr">
+      <c r="C48" s="169" t="n">
+        <v>45</v>
+      </c>
+      <c r="D48" s="91" t="inlineStr">
         <is>
           <t>Coach</t>
         </is>
       </c>
-      <c r="E47" s="153" t="n"/>
-      <c r="F47" s="89" t="n"/>
-      <c r="G47" s="153" t="n"/>
-      <c r="H47" s="89" t="n"/>
-      <c r="I47" s="153" t="n"/>
-      <c r="J47" s="89" t="n"/>
-      <c r="K47" s="153" t="n"/>
-      <c r="L47" s="89" t="n"/>
-      <c r="M47" s="153" t="n"/>
-      <c r="N47" s="89" t="n"/>
-      <c r="O47" s="155" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" s="97" t="n">
+      <c r="E48" s="177" t="n"/>
+      <c r="F48" s="91" t="n"/>
+      <c r="G48" s="177" t="n"/>
+      <c r="H48" s="91" t="n"/>
+      <c r="I48" s="177" t="n"/>
+      <c r="J48" s="91" t="n"/>
+      <c r="K48" s="177" t="n"/>
+      <c r="L48" s="91" t="n"/>
+      <c r="M48" s="177" t="n"/>
+      <c r="N48" s="91" t="n"/>
+      <c r="O48" s="183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" s="95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3033,7 +3089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:L42"/>
+  <dimension ref="B2:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3135,259 +3191,259 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="130" t="inlineStr">
+      <c r="B4" s="157" t="inlineStr">
         <is>
           <t>#QUYG0PQC8</t>
         </is>
       </c>
-      <c r="C4" s="130" t="n">
+      <c r="C4" s="157" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="131" t="inlineStr">
+      <c r="D4" s="158" t="inlineStr">
         <is>
           <t>Luffy</t>
         </is>
       </c>
-      <c r="E4" s="131" t="n">
+      <c r="E4" s="158" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="82" t="n">
         <v>6</v>
       </c>
-      <c r="G4" s="130" t="n"/>
+      <c r="G4" s="157" t="n"/>
       <c r="H4" s="83" t="n"/>
-      <c r="I4" s="130" t="n"/>
+      <c r="I4" s="157" t="n"/>
       <c r="J4" s="83" t="n"/>
-      <c r="K4" s="130" t="n"/>
+      <c r="K4" s="157" t="n"/>
       <c r="L4" s="83" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="132" t="inlineStr">
+      <c r="B5" s="159" t="inlineStr">
         <is>
           <t>#G0QPVJY9L</t>
         </is>
       </c>
-      <c r="C5" s="132" t="n">
+      <c r="C5" s="159" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="133" t="inlineStr">
+      <c r="D5" s="160" t="inlineStr">
         <is>
           <t>Zoro</t>
         </is>
       </c>
-      <c r="E5" s="133" t="n">
+      <c r="E5" s="160" t="n">
         <v>2</v>
       </c>
       <c r="F5" s="86" t="n">
         <v>6</v>
       </c>
-      <c r="G5" s="132" t="n"/>
+      <c r="G5" s="159" t="n"/>
       <c r="H5" s="87" t="n"/>
-      <c r="I5" s="132" t="n"/>
+      <c r="I5" s="159" t="n"/>
       <c r="J5" s="87" t="n"/>
-      <c r="K5" s="132" t="n"/>
+      <c r="K5" s="159" t="n"/>
       <c r="L5" s="87" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" s="130" t="inlineStr">
+      <c r="B6" s="157" t="inlineStr">
         <is>
           <t>#QLR088LC9</t>
         </is>
       </c>
-      <c r="C6" s="130" t="n">
+      <c r="C6" s="157" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="131" t="inlineStr">
+      <c r="D6" s="158" t="inlineStr">
         <is>
           <t>Sanji</t>
         </is>
       </c>
-      <c r="E6" s="131" t="n">
+      <c r="E6" s="158" t="n">
         <v>2</v>
       </c>
       <c r="F6" s="82" t="n">
         <v>6</v>
       </c>
-      <c r="G6" s="130" t="n"/>
+      <c r="G6" s="157" t="n"/>
       <c r="H6" s="83" t="n"/>
-      <c r="I6" s="130" t="n"/>
+      <c r="I6" s="157" t="n"/>
       <c r="J6" s="83" t="n"/>
-      <c r="K6" s="130" t="n"/>
+      <c r="K6" s="157" t="n"/>
       <c r="L6" s="83" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="132" t="inlineStr">
+      <c r="B7" s="159" t="inlineStr">
         <is>
           <t>#QCV22VP0G</t>
         </is>
       </c>
-      <c r="C7" s="132" t="n">
+      <c r="C7" s="159" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="133" t="inlineStr">
+      <c r="D7" s="160" t="inlineStr">
         <is>
           <t>Nami</t>
         </is>
       </c>
-      <c r="E7" s="133" t="n">
+      <c r="E7" s="160" t="n">
         <v>2</v>
       </c>
       <c r="F7" s="86" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="132" t="n"/>
+      <c r="G7" s="159" t="n"/>
       <c r="H7" s="87" t="n"/>
-      <c r="I7" s="132" t="n"/>
+      <c r="I7" s="159" t="n"/>
       <c r="J7" s="87" t="n"/>
-      <c r="K7" s="132" t="n"/>
+      <c r="K7" s="159" t="n"/>
       <c r="L7" s="87" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="130" t="inlineStr">
+      <c r="B8" s="157" t="inlineStr">
         <is>
           <t>#QUV2GP88U</t>
         </is>
       </c>
-      <c r="C8" s="130" t="n">
+      <c r="C8" s="157" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="131" t="inlineStr">
+      <c r="D8" s="158" t="inlineStr">
         <is>
           <t>Nico Robin</t>
         </is>
       </c>
-      <c r="E8" s="131" t="n">
+      <c r="E8" s="158" t="n">
         <v>2</v>
       </c>
       <c r="F8" s="82" t="n">
         <v>6</v>
       </c>
-      <c r="G8" s="130" t="n"/>
+      <c r="G8" s="157" t="n"/>
       <c r="H8" s="83" t="n"/>
-      <c r="I8" s="130" t="n"/>
+      <c r="I8" s="157" t="n"/>
       <c r="J8" s="83" t="n"/>
-      <c r="K8" s="130" t="n"/>
+      <c r="K8" s="157" t="n"/>
       <c r="L8" s="83" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" s="134" t="inlineStr">
+      <c r="B9" s="161" t="inlineStr">
         <is>
           <t>#98JG2UJQL</t>
         </is>
       </c>
-      <c r="C9" s="134" t="n"/>
-      <c r="D9" s="134" t="inlineStr">
+      <c r="C9" s="161" t="n"/>
+      <c r="D9" s="161" t="inlineStr">
         <is>
           <t>Dragonux</t>
         </is>
       </c>
-      <c r="E9" s="134" t="n"/>
+      <c r="E9" s="161" t="n"/>
       <c r="F9" s="89" t="n"/>
-      <c r="G9" s="134" t="n"/>
+      <c r="G9" s="161" t="n"/>
       <c r="H9" s="89" t="n"/>
-      <c r="I9" s="134" t="n"/>
+      <c r="I9" s="161" t="n"/>
       <c r="J9" s="89" t="n"/>
-      <c r="K9" s="134" t="n"/>
+      <c r="K9" s="161" t="n"/>
       <c r="L9" s="89" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="135" t="inlineStr">
+      <c r="B10" s="162" t="inlineStr">
         <is>
           <t>#82QLQCJRJ</t>
         </is>
       </c>
-      <c r="C10" s="135" t="n"/>
-      <c r="D10" s="135" t="inlineStr">
+      <c r="C10" s="162" t="n"/>
+      <c r="D10" s="162" t="inlineStr">
         <is>
           <t>Raging Fury</t>
         </is>
       </c>
-      <c r="E10" s="135" t="n"/>
+      <c r="E10" s="162" t="n"/>
       <c r="F10" s="91" t="n"/>
-      <c r="G10" s="135" t="n"/>
+      <c r="G10" s="162" t="n"/>
       <c r="H10" s="91" t="n"/>
-      <c r="I10" s="135" t="n"/>
+      <c r="I10" s="162" t="n"/>
       <c r="J10" s="91" t="n"/>
-      <c r="K10" s="135" t="n"/>
+      <c r="K10" s="162" t="n"/>
       <c r="L10" s="91" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="132" t="inlineStr">
+      <c r="B11" s="159" t="inlineStr">
         <is>
           <t>#90U0VPU9U</t>
         </is>
       </c>
-      <c r="C11" s="132" t="n"/>
-      <c r="D11" s="132" t="inlineStr">
+      <c r="C11" s="159" t="n"/>
+      <c r="D11" s="159" t="inlineStr">
         <is>
           <t>KYANI7E</t>
         </is>
       </c>
-      <c r="E11" s="132" t="n"/>
+      <c r="E11" s="159" t="n"/>
       <c r="F11" s="87" t="n"/>
-      <c r="G11" s="132" t="n"/>
+      <c r="G11" s="159" t="n"/>
       <c r="H11" s="87" t="n"/>
-      <c r="I11" s="132" t="n"/>
+      <c r="I11" s="159" t="n"/>
       <c r="J11" s="87" t="n"/>
-      <c r="K11" s="132" t="n"/>
+      <c r="K11" s="159" t="n"/>
       <c r="L11" s="87" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="135" t="inlineStr">
+      <c r="B12" s="162" t="inlineStr">
         <is>
           <t>#PJYVV989R</t>
         </is>
       </c>
-      <c r="C12" s="135" t="n"/>
-      <c r="D12" s="135" t="inlineStr">
+      <c r="C12" s="162" t="n"/>
+      <c r="D12" s="162" t="inlineStr">
         <is>
           <t>nx</t>
         </is>
       </c>
-      <c r="E12" s="135" t="n"/>
+      <c r="E12" s="162" t="n"/>
       <c r="F12" s="91" t="n"/>
-      <c r="G12" s="136" t="n">
+      <c r="G12" s="163" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="93" t="n">
         <v>3</v>
       </c>
-      <c r="I12" s="136" t="n">
+      <c r="I12" s="163" t="n">
         <v>1</v>
       </c>
       <c r="J12" s="93" t="n">
         <v>3</v>
       </c>
-      <c r="K12" s="135" t="n"/>
+      <c r="K12" s="162" t="n"/>
       <c r="L12" s="91" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="132" t="inlineStr">
+      <c r="B13" s="159" t="inlineStr">
         <is>
           <t>#QLJ2U20Y2</t>
         </is>
       </c>
-      <c r="C13" s="132" t="n"/>
-      <c r="D13" s="132" t="inlineStr">
+      <c r="C13" s="159" t="n"/>
+      <c r="D13" s="159" t="inlineStr">
         <is>
           <t>DeadLeaf</t>
         </is>
       </c>
-      <c r="E13" s="132" t="n"/>
+      <c r="E13" s="159" t="n"/>
       <c r="F13" s="87" t="n"/>
-      <c r="G13" s="133" t="n">
+      <c r="G13" s="160" t="n">
         <v>2</v>
       </c>
       <c r="H13" s="86" t="n">
         <v>5</v>
       </c>
-      <c r="I13" s="133" t="n">
+      <c r="I13" s="160" t="n">
         <v>2</v>
       </c>
       <c r="J13" s="86" t="n">
         <v>5</v>
       </c>
-      <c r="K13" s="133" t="n">
+      <c r="K13" s="160" t="n">
         <v>2</v>
       </c>
       <c r="L13" s="86" t="n">
@@ -3395,28 +3451,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="135" t="inlineStr">
+      <c r="B14" s="162" t="inlineStr">
         <is>
           <t>#L2QQL9QVJ</t>
         </is>
       </c>
-      <c r="C14" s="135" t="n"/>
-      <c r="D14" s="135" t="inlineStr">
+      <c r="C14" s="162" t="n"/>
+      <c r="D14" s="162" t="inlineStr">
         <is>
           <t>JustPre10d</t>
         </is>
       </c>
-      <c r="E14" s="135" t="n"/>
+      <c r="E14" s="162" t="n"/>
       <c r="F14" s="91" t="n"/>
-      <c r="G14" s="135" t="n"/>
+      <c r="G14" s="162" t="n"/>
       <c r="H14" s="91" t="n"/>
-      <c r="I14" s="137" t="n">
+      <c r="I14" s="164" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="K14" s="136" t="n">
+      <c r="K14" s="163" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="95" t="n">
@@ -3424,94 +3480,94 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="132" t="inlineStr">
+      <c r="B15" s="159" t="inlineStr">
+        <is>
+          <t>#YRGRRJQCY</t>
+        </is>
+      </c>
+      <c r="C15" s="159" t="n"/>
+      <c r="D15" s="159" t="inlineStr">
+        <is>
+          <t>DoubleSpice</t>
+        </is>
+      </c>
+      <c r="E15" s="159" t="n"/>
+      <c r="F15" s="87" t="n"/>
+      <c r="G15" s="160" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" s="86" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" s="160" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" s="86" t="n">
+        <v>6</v>
+      </c>
+      <c r="K15" s="159" t="n"/>
+      <c r="L15" s="87" t="n"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="157" t="inlineStr">
         <is>
           <t>#Q8CLCUCC2</t>
         </is>
       </c>
-      <c r="C15" s="132" t="n"/>
-      <c r="D15" s="132" t="inlineStr">
+      <c r="C16" s="157" t="n"/>
+      <c r="D16" s="157" t="inlineStr">
         <is>
           <t>Moxxi</t>
         </is>
       </c>
-      <c r="E15" s="132" t="n"/>
-      <c r="F15" s="87" t="n"/>
-      <c r="G15" s="133" t="n">
+      <c r="E16" s="157" t="n"/>
+      <c r="F16" s="83" t="n"/>
+      <c r="G16" s="158" t="n">
         <v>2</v>
       </c>
-      <c r="H15" s="86" t="n">
-        <v>6</v>
-      </c>
-      <c r="I15" s="133" t="n">
+      <c r="H16" s="82" t="n">
+        <v>6</v>
+      </c>
+      <c r="I16" s="158" t="n">
         <v>2</v>
       </c>
-      <c r="J15" s="86" t="n">
+      <c r="J16" s="82" t="n">
         <v>5</v>
       </c>
-      <c r="K15" s="133" t="n">
+      <c r="K16" s="158" t="n">
         <v>2</v>
       </c>
-      <c r="L15" s="86" t="n">
+      <c r="L16" s="82" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="130" t="inlineStr">
-        <is>
-          <t>#YRGRRJQCY</t>
-        </is>
-      </c>
-      <c r="C16" s="130" t="n"/>
-      <c r="D16" s="130" t="inlineStr">
-        <is>
-          <t>DoubleSpice</t>
-        </is>
-      </c>
-      <c r="E16" s="130" t="n"/>
-      <c r="F16" s="83" t="n"/>
-      <c r="G16" s="131" t="n">
+    <row r="17">
+      <c r="B17" s="159" t="inlineStr">
+        <is>
+          <t>#YJ20CRJYQ</t>
+        </is>
+      </c>
+      <c r="C17" s="159" t="n"/>
+      <c r="D17" s="159" t="inlineStr">
+        <is>
+          <t>UnluckGod</t>
+        </is>
+      </c>
+      <c r="E17" s="159" t="n"/>
+      <c r="F17" s="87" t="n"/>
+      <c r="G17" s="160" t="n">
         <v>2</v>
       </c>
-      <c r="H16" s="82" t="n">
-        <v>5</v>
-      </c>
-      <c r="I16" s="131" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" s="82" t="n">
-        <v>6</v>
-      </c>
-      <c r="K16" s="130" t="n"/>
-      <c r="L16" s="83" t="n"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="132" t="inlineStr">
-        <is>
-          <t>#YJ20CRJYQ</t>
-        </is>
-      </c>
-      <c r="C17" s="132" t="n"/>
-      <c r="D17" s="132" t="inlineStr">
-        <is>
-          <t>UnluckGod</t>
-        </is>
-      </c>
-      <c r="E17" s="132" t="n"/>
-      <c r="F17" s="87" t="n"/>
-      <c r="G17" s="133" t="n">
-        <v>2</v>
-      </c>
       <c r="H17" s="86" t="n">
         <v>6</v>
       </c>
-      <c r="I17" s="133" t="n">
+      <c r="I17" s="160" t="n">
         <v>2</v>
       </c>
       <c r="J17" s="86" t="n">
         <v>4</v>
       </c>
-      <c r="K17" s="133" t="n">
+      <c r="K17" s="160" t="n">
         <v>2</v>
       </c>
       <c r="L17" s="86" t="n">
@@ -3519,569 +3575,590 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="135" t="inlineStr">
+      <c r="B18" s="162" t="inlineStr">
         <is>
           <t>#G0JPUQGYR</t>
         </is>
       </c>
-      <c r="C18" s="135" t="n"/>
-      <c r="D18" s="135" t="inlineStr">
+      <c r="C18" s="162" t="n"/>
+      <c r="D18" s="162" t="inlineStr">
         <is>
           <t>Collin</t>
         </is>
       </c>
-      <c r="E18" s="135" t="n"/>
+      <c r="E18" s="162" t="n"/>
       <c r="F18" s="91" t="n"/>
-      <c r="G18" s="135" t="n"/>
+      <c r="G18" s="162" t="n"/>
       <c r="H18" s="91" t="n"/>
-      <c r="I18" s="135" t="n"/>
+      <c r="I18" s="162" t="n"/>
       <c r="J18" s="91" t="n"/>
-      <c r="K18" s="135" t="n"/>
+      <c r="K18" s="162" t="n"/>
       <c r="L18" s="91" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="134" t="inlineStr">
+      <c r="B19" s="161" t="inlineStr">
+        <is>
+          <t>#QUVJGC0VQ</t>
+        </is>
+      </c>
+      <c r="C19" s="161" t="n"/>
+      <c r="D19" s="161" t="inlineStr">
+        <is>
+          <t>Cam</t>
+        </is>
+      </c>
+      <c r="E19" s="161" t="n"/>
+      <c r="F19" s="89" t="n"/>
+      <c r="G19" s="161" t="n"/>
+      <c r="H19" s="89" t="n"/>
+      <c r="I19" s="161" t="n"/>
+      <c r="J19" s="89" t="n"/>
+      <c r="K19" s="161" t="n"/>
+      <c r="L19" s="89" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="162" t="inlineStr">
+        <is>
+          <t>#QLG0VJG2J</t>
+        </is>
+      </c>
+      <c r="C20" s="162" t="n"/>
+      <c r="D20" s="162" t="inlineStr">
+        <is>
+          <t>PocketRocket</t>
+        </is>
+      </c>
+      <c r="E20" s="162" t="n"/>
+      <c r="F20" s="91" t="n"/>
+      <c r="G20" s="162" t="n"/>
+      <c r="H20" s="91" t="n"/>
+      <c r="I20" s="162" t="n"/>
+      <c r="J20" s="91" t="n"/>
+      <c r="K20" s="162" t="n"/>
+      <c r="L20" s="91" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="161" t="inlineStr">
+        <is>
+          <t>#QRPRYR8LL</t>
+        </is>
+      </c>
+      <c r="C21" s="161" t="n"/>
+      <c r="D21" s="161" t="inlineStr">
+        <is>
+          <t>FidelCashflow</t>
+        </is>
+      </c>
+      <c r="E21" s="161" t="n"/>
+      <c r="F21" s="89" t="n"/>
+      <c r="G21" s="161" t="n"/>
+      <c r="H21" s="89" t="n"/>
+      <c r="I21" s="161" t="n"/>
+      <c r="J21" s="89" t="n"/>
+      <c r="K21" s="161" t="n"/>
+      <c r="L21" s="89" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="162" t="inlineStr">
+        <is>
+          <t>#QQL28Y2UL</t>
+        </is>
+      </c>
+      <c r="C22" s="162" t="n"/>
+      <c r="D22" s="162" t="inlineStr">
+        <is>
+          <t>SUPoT</t>
+        </is>
+      </c>
+      <c r="E22" s="162" t="n"/>
+      <c r="F22" s="91" t="n"/>
+      <c r="G22" s="162" t="n"/>
+      <c r="H22" s="91" t="n"/>
+      <c r="I22" s="162" t="n"/>
+      <c r="J22" s="91" t="n"/>
+      <c r="K22" s="162" t="n"/>
+      <c r="L22" s="91" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="161" t="inlineStr">
+        <is>
+          <t>#LC9GUPJJG</t>
+        </is>
+      </c>
+      <c r="C23" s="161" t="n"/>
+      <c r="D23" s="161" t="inlineStr">
+        <is>
+          <t>raptor2222a</t>
+        </is>
+      </c>
+      <c r="E23" s="161" t="n"/>
+      <c r="F23" s="89" t="n"/>
+      <c r="G23" s="161" t="n"/>
+      <c r="H23" s="89" t="n"/>
+      <c r="I23" s="161" t="n"/>
+      <c r="J23" s="89" t="n"/>
+      <c r="K23" s="161" t="n"/>
+      <c r="L23" s="89" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="162" t="inlineStr">
+        <is>
+          <t>#QJC8LQU9U</t>
+        </is>
+      </c>
+      <c r="C24" s="162" t="n"/>
+      <c r="D24" s="162" t="inlineStr">
+        <is>
+          <t>Master01</t>
+        </is>
+      </c>
+      <c r="E24" s="162" t="n"/>
+      <c r="F24" s="91" t="n"/>
+      <c r="G24" s="165" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="99" t="n">
+        <v>4</v>
+      </c>
+      <c r="I24" s="162" t="n"/>
+      <c r="J24" s="91" t="n"/>
+      <c r="K24" s="162" t="n"/>
+      <c r="L24" s="91" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="161" t="inlineStr">
+        <is>
+          <t>#LPR9RPCY9</t>
+        </is>
+      </c>
+      <c r="C25" s="161" t="n"/>
+      <c r="D25" s="161" t="inlineStr">
+        <is>
+          <t>sayhuss17</t>
+        </is>
+      </c>
+      <c r="E25" s="161" t="n"/>
+      <c r="F25" s="89" t="n"/>
+      <c r="G25" s="166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="161" t="n"/>
+      <c r="L25" s="89" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="162" t="inlineStr">
+        <is>
+          <t>#L9QL9YQQY</t>
+        </is>
+      </c>
+      <c r="C26" s="162" t="n"/>
+      <c r="D26" s="162" t="inlineStr">
+        <is>
+          <t>Ima Chad</t>
+        </is>
+      </c>
+      <c r="E26" s="162" t="n"/>
+      <c r="F26" s="91" t="n"/>
+      <c r="G26" s="162" t="n"/>
+      <c r="H26" s="91" t="n"/>
+      <c r="I26" s="162" t="n"/>
+      <c r="J26" s="91" t="n"/>
+      <c r="K26" s="162" t="n"/>
+      <c r="L26" s="91" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="161" t="inlineStr">
+        <is>
+          <t>#LPCLQUCCY</t>
+        </is>
+      </c>
+      <c r="C27" s="161" t="n"/>
+      <c r="D27" s="161" t="inlineStr">
+        <is>
+          <t>Zodiac</t>
+        </is>
+      </c>
+      <c r="E27" s="161" t="n"/>
+      <c r="F27" s="89" t="n"/>
+      <c r="G27" s="161" t="n"/>
+      <c r="H27" s="89" t="n"/>
+      <c r="I27" s="161" t="n"/>
+      <c r="J27" s="89" t="n"/>
+      <c r="K27" s="161" t="n"/>
+      <c r="L27" s="89" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="162" t="inlineStr">
+        <is>
+          <t>#QU0U2Q99G</t>
+        </is>
+      </c>
+      <c r="C28" s="162" t="n"/>
+      <c r="D28" s="162" t="inlineStr">
+        <is>
+          <t>big coc</t>
+        </is>
+      </c>
+      <c r="E28" s="162" t="n"/>
+      <c r="F28" s="91" t="n"/>
+      <c r="G28" s="162" t="n"/>
+      <c r="H28" s="91" t="n"/>
+      <c r="I28" s="162" t="n"/>
+      <c r="J28" s="91" t="n"/>
+      <c r="K28" s="162" t="n"/>
+      <c r="L28" s="91" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="159" t="inlineStr">
+        <is>
+          <t>#QUG8QQJ92</t>
+        </is>
+      </c>
+      <c r="C29" s="159" t="n"/>
+      <c r="D29" s="159" t="inlineStr">
+        <is>
+          <t>Karma</t>
+        </is>
+      </c>
+      <c r="E29" s="159" t="n"/>
+      <c r="F29" s="87" t="n"/>
+      <c r="G29" s="159" t="n"/>
+      <c r="H29" s="87" t="n"/>
+      <c r="I29" s="159" t="n"/>
+      <c r="J29" s="87" t="n"/>
+      <c r="K29" s="159" t="n"/>
+      <c r="L29" s="87" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="162" t="inlineStr">
+        <is>
+          <t>#QY8L2GLUR</t>
+        </is>
+      </c>
+      <c r="C30" s="162" t="n"/>
+      <c r="D30" s="162" t="inlineStr">
+        <is>
+          <t>Huy</t>
+        </is>
+      </c>
+      <c r="E30" s="162" t="n"/>
+      <c r="F30" s="91" t="n"/>
+      <c r="G30" s="164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="162" t="n"/>
+      <c r="J30" s="91" t="n"/>
+      <c r="K30" s="162" t="n"/>
+      <c r="L30" s="91" t="n"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="161" t="inlineStr">
+        <is>
+          <t>#QL8LVLYG8</t>
+        </is>
+      </c>
+      <c r="C31" s="161" t="n"/>
+      <c r="D31" s="161" t="inlineStr">
+        <is>
+          <t>Some guy</t>
+        </is>
+      </c>
+      <c r="E31" s="161" t="n"/>
+      <c r="F31" s="89" t="n"/>
+      <c r="G31" s="161" t="n"/>
+      <c r="H31" s="89" t="n"/>
+      <c r="I31" s="161" t="n"/>
+      <c r="J31" s="89" t="n"/>
+      <c r="K31" s="161" t="n"/>
+      <c r="L31" s="89" t="n"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="162" t="inlineStr">
+        <is>
+          <t>#QLGYRVPU0</t>
+        </is>
+      </c>
+      <c r="C32" s="162" t="n"/>
+      <c r="D32" s="162" t="inlineStr">
+        <is>
+          <t>Black.Boy.</t>
+        </is>
+      </c>
+      <c r="E32" s="162" t="n"/>
+      <c r="F32" s="91" t="n"/>
+      <c r="G32" s="162" t="n"/>
+      <c r="H32" s="91" t="n"/>
+      <c r="I32" s="162" t="n"/>
+      <c r="J32" s="91" t="n"/>
+      <c r="K32" s="162" t="n"/>
+      <c r="L32" s="91" t="n"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="161" t="inlineStr">
+        <is>
+          <t>#QQL8C29CY</t>
+        </is>
+      </c>
+      <c r="C33" s="161" t="n"/>
+      <c r="D33" s="161" t="inlineStr">
+        <is>
+          <t>TypicalTeague#2</t>
+        </is>
+      </c>
+      <c r="E33" s="161" t="n"/>
+      <c r="F33" s="89" t="n"/>
+      <c r="G33" s="161" t="n"/>
+      <c r="H33" s="89" t="n"/>
+      <c r="I33" s="161" t="n"/>
+      <c r="J33" s="89" t="n"/>
+      <c r="K33" s="161" t="n"/>
+      <c r="L33" s="89" t="n"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="162" t="inlineStr">
+        <is>
+          <t>#L9JJQY992</t>
+        </is>
+      </c>
+      <c r="C34" s="162" t="n"/>
+      <c r="D34" s="162" t="inlineStr">
+        <is>
+          <t>Fisted_Waffle</t>
+        </is>
+      </c>
+      <c r="E34" s="162" t="n"/>
+      <c r="F34" s="91" t="n"/>
+      <c r="G34" s="162" t="n"/>
+      <c r="H34" s="91" t="n"/>
+      <c r="I34" s="162" t="n"/>
+      <c r="J34" s="91" t="n"/>
+      <c r="K34" s="162" t="n"/>
+      <c r="L34" s="91" t="n"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="161" t="inlineStr">
+        <is>
+          <t>#QV8JJ0URU</t>
+        </is>
+      </c>
+      <c r="C35" s="161" t="n"/>
+      <c r="D35" s="161" t="inlineStr">
+        <is>
+          <t>✨Jacob</t>
+        </is>
+      </c>
+      <c r="E35" s="161" t="n"/>
+      <c r="F35" s="89" t="n"/>
+      <c r="G35" s="161" t="n"/>
+      <c r="H35" s="89" t="n"/>
+      <c r="I35" s="166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="161" t="n"/>
+      <c r="L35" s="89" t="n"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="162" t="inlineStr">
+        <is>
+          <t>#QY0VGPQGQ</t>
+        </is>
+      </c>
+      <c r="C36" s="162" t="n"/>
+      <c r="D36" s="162" t="inlineStr">
+        <is>
+          <t>killerjones</t>
+        </is>
+      </c>
+      <c r="E36" s="162" t="n"/>
+      <c r="F36" s="91" t="n"/>
+      <c r="G36" s="162" t="n"/>
+      <c r="H36" s="91" t="n"/>
+      <c r="I36" s="162" t="n"/>
+      <c r="J36" s="91" t="n"/>
+      <c r="K36" s="162" t="n"/>
+      <c r="L36" s="91" t="n"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="166" t="inlineStr">
         <is>
           <t>#QQLVRJCGQ</t>
         </is>
       </c>
-      <c r="C19" s="134" t="n"/>
-      <c r="D19" s="134" t="inlineStr">
+      <c r="C37" s="161" t="n"/>
+      <c r="D37" s="161" t="inlineStr">
         <is>
           <t>khant</t>
         </is>
       </c>
-      <c r="E19" s="134" t="n"/>
-      <c r="F19" s="89" t="n"/>
-      <c r="G19" s="134" t="n"/>
-      <c r="H19" s="89" t="n"/>
-      <c r="I19" s="134" t="n"/>
-      <c r="J19" s="89" t="n"/>
-      <c r="K19" s="134" t="n"/>
-      <c r="L19" s="89" t="n"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="135" t="inlineStr">
-        <is>
-          <t>#QUVJGC0VQ</t>
-        </is>
-      </c>
-      <c r="C20" s="135" t="n"/>
-      <c r="D20" s="135" t="inlineStr">
-        <is>
-          <t>Cam</t>
-        </is>
-      </c>
-      <c r="E20" s="135" t="n"/>
-      <c r="F20" s="91" t="n"/>
-      <c r="G20" s="135" t="n"/>
-      <c r="H20" s="91" t="n"/>
-      <c r="I20" s="135" t="n"/>
-      <c r="J20" s="91" t="n"/>
-      <c r="K20" s="135" t="n"/>
-      <c r="L20" s="91" t="n"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="134" t="inlineStr">
-        <is>
-          <t>#QLG0VJG2J</t>
-        </is>
-      </c>
-      <c r="C21" s="134" t="n"/>
-      <c r="D21" s="134" t="inlineStr">
-        <is>
-          <t>PocketRocket</t>
-        </is>
-      </c>
-      <c r="E21" s="134" t="n"/>
-      <c r="F21" s="89" t="n"/>
-      <c r="G21" s="134" t="n"/>
-      <c r="H21" s="89" t="n"/>
-      <c r="I21" s="134" t="n"/>
-      <c r="J21" s="89" t="n"/>
-      <c r="K21" s="134" t="n"/>
-      <c r="L21" s="89" t="n"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="135" t="inlineStr">
-        <is>
-          <t>#QRPRYR8LL</t>
-        </is>
-      </c>
-      <c r="C22" s="135" t="n"/>
-      <c r="D22" s="135" t="inlineStr">
-        <is>
-          <t>FidelCashflow</t>
-        </is>
-      </c>
-      <c r="E22" s="135" t="n"/>
-      <c r="F22" s="91" t="n"/>
-      <c r="G22" s="135" t="n"/>
-      <c r="H22" s="91" t="n"/>
-      <c r="I22" s="135" t="n"/>
-      <c r="J22" s="91" t="n"/>
-      <c r="K22" s="135" t="n"/>
-      <c r="L22" s="91" t="n"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="134" t="inlineStr">
-        <is>
-          <t>#QQL28Y2UL</t>
-        </is>
-      </c>
-      <c r="C23" s="134" t="n"/>
-      <c r="D23" s="134" t="inlineStr">
-        <is>
-          <t>SUPoT</t>
-        </is>
-      </c>
-      <c r="E23" s="134" t="n"/>
-      <c r="F23" s="89" t="n"/>
-      <c r="G23" s="134" t="n"/>
-      <c r="H23" s="89" t="n"/>
-      <c r="I23" s="134" t="n"/>
-      <c r="J23" s="89" t="n"/>
-      <c r="K23" s="134" t="n"/>
-      <c r="L23" s="89" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="135" t="inlineStr">
-        <is>
-          <t>#LC9GUPJJG</t>
-        </is>
-      </c>
-      <c r="C24" s="135" t="n"/>
-      <c r="D24" s="135" t="inlineStr">
-        <is>
-          <t>raptor2222a</t>
-        </is>
-      </c>
-      <c r="E24" s="135" t="n"/>
-      <c r="F24" s="91" t="n"/>
-      <c r="G24" s="135" t="n"/>
-      <c r="H24" s="91" t="n"/>
-      <c r="I24" s="135" t="n"/>
-      <c r="J24" s="91" t="n"/>
-      <c r="K24" s="135" t="n"/>
-      <c r="L24" s="91" t="n"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="134" t="inlineStr">
-        <is>
-          <t>#LPR9RPCY9</t>
-        </is>
-      </c>
-      <c r="C25" s="134" t="n"/>
-      <c r="D25" s="134" t="inlineStr">
-        <is>
-          <t>sayhuss17</t>
-        </is>
-      </c>
-      <c r="E25" s="134" t="n"/>
-      <c r="F25" s="89" t="n"/>
-      <c r="G25" s="138" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="134" t="n"/>
-      <c r="L25" s="89" t="n"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="135" t="inlineStr">
-        <is>
-          <t>#QJC8LQU9U</t>
-        </is>
-      </c>
-      <c r="C26" s="135" t="n"/>
-      <c r="D26" s="135" t="inlineStr">
-        <is>
-          <t>Master01</t>
-        </is>
-      </c>
-      <c r="E26" s="135" t="n"/>
-      <c r="F26" s="91" t="n"/>
-      <c r="G26" s="139" t="n">
+      <c r="E37" s="161" t="n"/>
+      <c r="F37" s="89" t="n"/>
+      <c r="G37" s="161" t="n"/>
+      <c r="H37" s="89" t="n"/>
+      <c r="I37" s="161" t="n"/>
+      <c r="J37" s="89" t="n"/>
+      <c r="K37" s="161" t="n"/>
+      <c r="L37" s="89" t="n"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="164" t="inlineStr">
+        <is>
+          <t>#QLL0PVCRV</t>
+        </is>
+      </c>
+      <c r="C38" s="162" t="n"/>
+      <c r="D38" s="162" t="inlineStr">
+        <is>
+          <t>Harsh chhillar</t>
+        </is>
+      </c>
+      <c r="E38" s="162" t="n"/>
+      <c r="F38" s="91" t="n"/>
+      <c r="G38" s="162" t="n"/>
+      <c r="H38" s="91" t="n"/>
+      <c r="I38" s="162" t="n"/>
+      <c r="J38" s="91" t="n"/>
+      <c r="K38" s="162" t="n"/>
+      <c r="L38" s="91" t="n"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="166" t="inlineStr">
+        <is>
+          <t>#P2CPRPQU</t>
+        </is>
+      </c>
+      <c r="C39" s="161" t="n"/>
+      <c r="D39" s="161" t="inlineStr">
+        <is>
+          <t>The Drift King</t>
+        </is>
+      </c>
+      <c r="E39" s="161" t="n"/>
+      <c r="F39" s="89" t="n"/>
+      <c r="G39" s="167" t="n">
         <v>2</v>
       </c>
-      <c r="H26" s="99" t="n">
-        <v>4</v>
-      </c>
-      <c r="I26" s="135" t="n"/>
-      <c r="J26" s="91" t="n"/>
-      <c r="K26" s="135" t="n"/>
-      <c r="L26" s="91" t="n"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="134" t="inlineStr">
-        <is>
-          <t>#L9QL9YQQY</t>
-        </is>
-      </c>
-      <c r="C27" s="134" t="n"/>
-      <c r="D27" s="134" t="inlineStr">
-        <is>
-          <t>Ima Chad</t>
-        </is>
-      </c>
-      <c r="E27" s="134" t="n"/>
-      <c r="F27" s="89" t="n"/>
-      <c r="G27" s="134" t="n"/>
-      <c r="H27" s="89" t="n"/>
-      <c r="I27" s="134" t="n"/>
-      <c r="J27" s="89" t="n"/>
-      <c r="K27" s="134" t="n"/>
-      <c r="L27" s="89" t="n"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="130" t="inlineStr">
-        <is>
-          <t>#QUG8QQJ92</t>
-        </is>
-      </c>
-      <c r="C28" s="130" t="n"/>
-      <c r="D28" s="130" t="inlineStr">
-        <is>
-          <t>Karma</t>
-        </is>
-      </c>
-      <c r="E28" s="130" t="n"/>
-      <c r="F28" s="83" t="n"/>
-      <c r="G28" s="130" t="n"/>
-      <c r="H28" s="83" t="n"/>
-      <c r="I28" s="130" t="n"/>
-      <c r="J28" s="83" t="n"/>
-      <c r="K28" s="130" t="n"/>
-      <c r="L28" s="83" t="n"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="134" t="inlineStr">
-        <is>
-          <t>#QY8L2GLUR</t>
-        </is>
-      </c>
-      <c r="C29" s="134" t="n"/>
-      <c r="D29" s="134" t="inlineStr">
-        <is>
-          <t>Huy</t>
-        </is>
-      </c>
-      <c r="E29" s="134" t="n"/>
-      <c r="F29" s="89" t="n"/>
-      <c r="G29" s="138" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="134" t="n"/>
-      <c r="J29" s="89" t="n"/>
-      <c r="K29" s="134" t="n"/>
-      <c r="L29" s="89" t="n"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="135" t="inlineStr">
-        <is>
-          <t>#QLGYRVPU0</t>
-        </is>
-      </c>
-      <c r="C30" s="135" t="n"/>
-      <c r="D30" s="135" t="inlineStr">
-        <is>
-          <t>Black.Boy.</t>
-        </is>
-      </c>
-      <c r="E30" s="135" t="n"/>
-      <c r="F30" s="91" t="n"/>
-      <c r="G30" s="135" t="n"/>
-      <c r="H30" s="91" t="n"/>
-      <c r="I30" s="135" t="n"/>
-      <c r="J30" s="91" t="n"/>
-      <c r="K30" s="135" t="n"/>
-      <c r="L30" s="91" t="n"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="134" t="inlineStr">
-        <is>
-          <t>#QU0U2Q99G</t>
-        </is>
-      </c>
-      <c r="C31" s="134" t="n"/>
-      <c r="D31" s="134" t="inlineStr">
-        <is>
-          <t>big coc</t>
-        </is>
-      </c>
-      <c r="E31" s="134" t="n"/>
-      <c r="F31" s="89" t="n"/>
-      <c r="G31" s="134" t="n"/>
-      <c r="H31" s="89" t="n"/>
-      <c r="I31" s="134" t="n"/>
-      <c r="J31" s="89" t="n"/>
-      <c r="K31" s="134" t="n"/>
-      <c r="L31" s="89" t="n"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="135" t="inlineStr">
-        <is>
-          <t>#QQL8C29CY</t>
-        </is>
-      </c>
-      <c r="C32" s="135" t="n"/>
-      <c r="D32" s="135" t="inlineStr">
-        <is>
-          <t>TypicalTeague#2</t>
-        </is>
-      </c>
-      <c r="E32" s="135" t="n"/>
-      <c r="F32" s="91" t="n"/>
-      <c r="G32" s="135" t="n"/>
-      <c r="H32" s="91" t="n"/>
-      <c r="I32" s="135" t="n"/>
-      <c r="J32" s="91" t="n"/>
-      <c r="K32" s="135" t="n"/>
-      <c r="L32" s="91" t="n"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="134" t="inlineStr">
-        <is>
-          <t>#QL8LVLYG8</t>
-        </is>
-      </c>
-      <c r="C33" s="134" t="n"/>
-      <c r="D33" s="134" t="inlineStr">
-        <is>
-          <t>Some guy</t>
-        </is>
-      </c>
-      <c r="E33" s="134" t="n"/>
-      <c r="F33" s="89" t="n"/>
-      <c r="G33" s="134" t="n"/>
-      <c r="H33" s="89" t="n"/>
-      <c r="I33" s="134" t="n"/>
-      <c r="J33" s="89" t="n"/>
-      <c r="K33" s="134" t="n"/>
-      <c r="L33" s="89" t="n"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="135" t="inlineStr">
-        <is>
-          <t>#L9JJQY992</t>
-        </is>
-      </c>
-      <c r="C34" s="135" t="n"/>
-      <c r="D34" s="135" t="inlineStr">
-        <is>
-          <t>Fisted_Waffle</t>
-        </is>
-      </c>
-      <c r="E34" s="135" t="n"/>
-      <c r="F34" s="91" t="n"/>
-      <c r="G34" s="135" t="n"/>
-      <c r="H34" s="91" t="n"/>
-      <c r="I34" s="135" t="n"/>
-      <c r="J34" s="91" t="n"/>
-      <c r="K34" s="135" t="n"/>
-      <c r="L34" s="91" t="n"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="134" t="inlineStr">
-        <is>
-          <t>#QV8JJ0URU</t>
-        </is>
-      </c>
-      <c r="C35" s="134" t="n"/>
-      <c r="D35" s="134" t="inlineStr">
-        <is>
-          <t>✨Jacob</t>
-        </is>
-      </c>
-      <c r="E35" s="134" t="n"/>
-      <c r="F35" s="89" t="n"/>
-      <c r="G35" s="134" t="n"/>
-      <c r="H35" s="89" t="n"/>
-      <c r="I35" s="138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="134" t="n"/>
-      <c r="L35" s="89" t="n"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="135" t="inlineStr">
-        <is>
-          <t>#QY0VGPQGQ</t>
-        </is>
-      </c>
-      <c r="C36" s="135" t="n"/>
-      <c r="D36" s="135" t="inlineStr">
-        <is>
-          <t>killerjones</t>
-        </is>
-      </c>
-      <c r="E36" s="135" t="n"/>
-      <c r="F36" s="91" t="n"/>
-      <c r="G36" s="135" t="n"/>
-      <c r="H36" s="91" t="n"/>
-      <c r="I36" s="135" t="n"/>
-      <c r="J36" s="91" t="n"/>
-      <c r="K36" s="135" t="n"/>
-      <c r="L36" s="91" t="n"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="138" t="inlineStr">
-        <is>
-          <t>#QLL0PVCRV</t>
-        </is>
-      </c>
-      <c r="C37" s="134" t="n"/>
-      <c r="D37" s="134" t="inlineStr">
-        <is>
-          <t>Harsh chhillar</t>
-        </is>
-      </c>
-      <c r="E37" s="134" t="n"/>
-      <c r="F37" s="89" t="n"/>
-      <c r="G37" s="134" t="n"/>
-      <c r="H37" s="89" t="n"/>
-      <c r="I37" s="134" t="n"/>
-      <c r="J37" s="89" t="n"/>
-      <c r="K37" s="134" t="n"/>
-      <c r="L37" s="89" t="n"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="137" t="inlineStr">
-        <is>
-          <t>#P2CPRPQU</t>
-        </is>
-      </c>
-      <c r="C38" s="135" t="n"/>
-      <c r="D38" s="135" t="inlineStr">
-        <is>
-          <t>The Drift King</t>
-        </is>
-      </c>
-      <c r="E38" s="135" t="n"/>
-      <c r="F38" s="91" t="n"/>
-      <c r="G38" s="139" t="n">
+      <c r="H39" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="I39" s="167" t="n">
         <v>2</v>
       </c>
-      <c r="H38" s="99" t="n">
-        <v>6</v>
-      </c>
-      <c r="I38" s="139" t="n">
+      <c r="J39" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="K39" s="161" t="n"/>
+      <c r="L39" s="89" t="n"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="164" t="inlineStr">
+        <is>
+          <t>#UVCCQC02</t>
+        </is>
+      </c>
+      <c r="C40" s="162" t="n"/>
+      <c r="D40" s="162" t="inlineStr">
+        <is>
+          <t>lordshisha</t>
+        </is>
+      </c>
+      <c r="E40" s="162" t="n"/>
+      <c r="F40" s="91" t="n"/>
+      <c r="G40" s="165" t="n">
         <v>2</v>
       </c>
-      <c r="J38" s="99" t="n">
-        <v>6</v>
-      </c>
-      <c r="K38" s="135" t="n"/>
-      <c r="L38" s="91" t="n"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="138" t="inlineStr">
-        <is>
-          <t>#UVCCQC02</t>
-        </is>
-      </c>
-      <c r="C39" s="134" t="n"/>
-      <c r="D39" s="134" t="inlineStr">
-        <is>
-          <t>lordshisha</t>
-        </is>
-      </c>
-      <c r="E39" s="134" t="n"/>
-      <c r="F39" s="89" t="n"/>
-      <c r="G39" s="140" t="n">
+      <c r="H40" s="99" t="n">
+        <v>6</v>
+      </c>
+      <c r="I40" s="165" t="n">
         <v>2</v>
       </c>
-      <c r="H39" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="I39" s="140" t="n">
+      <c r="J40" s="93" t="n">
+        <v>3</v>
+      </c>
+      <c r="K40" s="165" t="n">
         <v>2</v>
       </c>
-      <c r="J39" s="102" t="n">
-        <v>3</v>
-      </c>
-      <c r="K39" s="140" t="n">
+      <c r="L40" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="L39" s="97" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="137" t="inlineStr">
+    </row>
+    <row r="41">
+      <c r="B41" s="166" t="inlineStr">
         <is>
           <t>#Q0JG2RJQ8</t>
         </is>
       </c>
-      <c r="C40" s="135" t="n"/>
-      <c r="D40" s="135" t="inlineStr">
+      <c r="C41" s="161" t="n"/>
+      <c r="D41" s="161" t="inlineStr">
         <is>
           <t>bozo</t>
         </is>
       </c>
-      <c r="E40" s="135" t="n"/>
-      <c r="F40" s="91" t="n"/>
-      <c r="G40" s="135" t="n"/>
-      <c r="H40" s="91" t="n"/>
-      <c r="I40" s="135" t="n"/>
-      <c r="J40" s="91" t="n"/>
-      <c r="K40" s="135" t="n"/>
-      <c r="L40" s="91" t="n"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="138" t="inlineStr">
+      <c r="E41" s="161" t="n"/>
+      <c r="F41" s="89" t="n"/>
+      <c r="G41" s="161" t="n"/>
+      <c r="H41" s="89" t="n"/>
+      <c r="I41" s="161" t="n"/>
+      <c r="J41" s="89" t="n"/>
+      <c r="K41" s="161" t="n"/>
+      <c r="L41" s="89" t="n"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="164" t="inlineStr">
         <is>
           <t>#QJVL0LYQQ</t>
         </is>
       </c>
-      <c r="C41" s="134" t="n"/>
-      <c r="D41" s="134" t="inlineStr">
+      <c r="C42" s="162" t="n"/>
+      <c r="D42" s="162" t="inlineStr">
         <is>
           <t>mobbb341</t>
         </is>
       </c>
-      <c r="E41" s="134" t="n"/>
-      <c r="F41" s="89" t="n"/>
-      <c r="G41" s="134" t="n"/>
-      <c r="H41" s="89" t="n"/>
-      <c r="I41" s="134" t="n"/>
-      <c r="J41" s="89" t="n"/>
-      <c r="K41" s="134" t="n"/>
-      <c r="L41" s="89" t="n"/>
-    </row>
-    <row r="42">
-      <c r="B42" s="137" t="inlineStr">
+      <c r="E42" s="162" t="n"/>
+      <c r="F42" s="91" t="n"/>
+      <c r="G42" s="162" t="n"/>
+      <c r="H42" s="91" t="n"/>
+      <c r="I42" s="162" t="n"/>
+      <c r="J42" s="91" t="n"/>
+      <c r="K42" s="162" t="n"/>
+      <c r="L42" s="91" t="n"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="166" t="inlineStr">
         <is>
           <t>#L8R82C8VC</t>
         </is>
       </c>
-      <c r="C42" s="135" t="n"/>
-      <c r="D42" s="135" t="inlineStr">
+      <c r="C43" s="161" t="n"/>
+      <c r="D43" s="161" t="inlineStr">
         <is>
           <t>caden asue</t>
         </is>
       </c>
-      <c r="E42" s="135" t="n"/>
-      <c r="F42" s="91" t="n"/>
-      <c r="G42" s="135" t="n"/>
-      <c r="H42" s="91" t="n"/>
-      <c r="I42" s="135" t="n"/>
-      <c r="J42" s="91" t="n"/>
-      <c r="K42" s="135" t="n"/>
-      <c r="L42" s="91" t="n"/>
+      <c r="E43" s="161" t="n"/>
+      <c r="F43" s="89" t="n"/>
+      <c r="G43" s="161" t="n"/>
+      <c r="H43" s="89" t="n"/>
+      <c r="I43" s="161" t="n"/>
+      <c r="J43" s="89" t="n"/>
+      <c r="K43" s="161" t="n"/>
+      <c r="L43" s="89" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Clash.xlsx
+++ b/Clash.xlsx
@@ -130,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -211,11 +211,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -451,6 +453,48 @@
     <xf numFmtId="164" fontId="4" fillId="16" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="15" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="17" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="17" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="17" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,7 +860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -892,7 +936,7 @@
         <v>189745</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>408</v>
+        <v>469</v>
       </c>
       <c r="I2" t="n">
         <v>2.89</v>
@@ -997,15 +1041,15 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="168" t="inlineStr">
+      <c r="A4" s="202" t="inlineStr">
         <is>
           <t>#QLJ2U20Y2</t>
         </is>
       </c>
-      <c r="B4" s="168" t="n">
-        <v>1515</v>
-      </c>
-      <c r="C4" s="169" t="n">
+      <c r="B4" s="202" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C4" s="203" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="82" t="inlineStr">
@@ -1013,37 +1057,37 @@
           <t>DeadLeaf</t>
         </is>
       </c>
-      <c r="E4" s="170" t="n">
+      <c r="E4" s="204" t="n">
         <v>6</v>
       </c>
       <c r="F4" s="82" t="n">
         <v>13763</v>
       </c>
-      <c r="G4" s="171" t="n">
+      <c r="G4" s="205" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="83" t="n">
         <v>30</v>
       </c>
-      <c r="I4" s="170" t="n">
+      <c r="I4" s="204" t="n">
         <v>6</v>
       </c>
       <c r="J4" s="82" t="n">
         <v>11140</v>
       </c>
-      <c r="K4" s="170" t="n">
+      <c r="K4" s="204" t="n">
         <v>6</v>
       </c>
       <c r="L4" s="82" t="n">
         <v>15509</v>
       </c>
-      <c r="M4" s="170" t="n">
+      <c r="M4" s="204" t="n">
         <v>6</v>
       </c>
       <c r="N4" s="82" t="n">
         <v>8567</v>
       </c>
-      <c r="O4" s="170" t="n">
+      <c r="O4" s="204" t="n">
         <v>6</v>
       </c>
       <c r="P4" s="82" t="n">
@@ -1051,15 +1095,15 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="172" t="inlineStr">
+      <c r="A5" s="206" t="inlineStr">
         <is>
           <t>#G0QPVJY9L</t>
         </is>
       </c>
-      <c r="B5" s="172" t="n">
-        <v>856</v>
-      </c>
-      <c r="C5" s="173" t="n">
+      <c r="B5" s="206" t="n">
+        <v>862</v>
+      </c>
+      <c r="C5" s="207" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="86" t="inlineStr">
@@ -1067,37 +1111,37 @@
           <t>Zoro</t>
         </is>
       </c>
-      <c r="E5" s="174" t="n">
+      <c r="E5" s="208" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="86" t="n">
         <v>13432</v>
       </c>
-      <c r="G5" s="175" t="n">
+      <c r="G5" s="209" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="174" t="n">
+      <c r="I5" s="208" t="n">
         <v>6</v>
       </c>
       <c r="J5" s="86" t="n">
         <v>8855</v>
       </c>
-      <c r="K5" s="174" t="n">
+      <c r="K5" s="208" t="n">
         <v>6</v>
       </c>
       <c r="L5" s="86" t="n">
         <v>10965</v>
       </c>
-      <c r="M5" s="174" t="n">
+      <c r="M5" s="208" t="n">
         <v>6</v>
       </c>
       <c r="N5" s="86" t="n">
         <v>7905</v>
       </c>
-      <c r="O5" s="174" t="n">
+      <c r="O5" s="208" t="n">
         <v>6</v>
       </c>
       <c r="P5" s="86" t="n">
@@ -1105,15 +1149,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="168" t="inlineStr">
+      <c r="A6" s="202" t="inlineStr">
         <is>
           <t>#90U0VPU9U</t>
         </is>
       </c>
-      <c r="B6" s="168" t="n">
-        <v>2486</v>
-      </c>
-      <c r="C6" s="169" t="n">
+      <c r="B6" s="202" t="n">
+        <v>2538</v>
+      </c>
+      <c r="C6" s="203" t="n">
         <v>3</v>
       </c>
       <c r="D6" s="82" t="inlineStr">
@@ -1121,37 +1165,37 @@
           <t>KYANI7E</t>
         </is>
       </c>
-      <c r="E6" s="170" t="n">
+      <c r="E6" s="204" t="n">
         <v>6</v>
       </c>
       <c r="F6" s="82" t="n">
         <v>13260</v>
       </c>
-      <c r="G6" s="176" t="n">
-        <v>149</v>
+      <c r="G6" s="210" t="n">
+        <v>197</v>
       </c>
       <c r="H6" s="83" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="170" t="n">
+      <c r="I6" s="204" t="n">
         <v>6</v>
       </c>
       <c r="J6" s="82" t="n">
         <v>12144</v>
       </c>
-      <c r="K6" s="170" t="n">
+      <c r="K6" s="204" t="n">
         <v>6</v>
       </c>
       <c r="L6" s="82" t="n">
         <v>12835</v>
       </c>
-      <c r="M6" s="170" t="n">
+      <c r="M6" s="204" t="n">
         <v>6</v>
       </c>
       <c r="N6" s="82" t="n">
         <v>7696</v>
       </c>
-      <c r="O6" s="170" t="n">
+      <c r="O6" s="204" t="n">
         <v>6</v>
       </c>
       <c r="P6" s="82" t="n">
@@ -1159,15 +1203,15 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="172" t="inlineStr">
+      <c r="A7" s="206" t="inlineStr">
         <is>
           <t>#YJ20CRJYQ</t>
         </is>
       </c>
-      <c r="B7" s="172" t="n">
-        <v>1318</v>
-      </c>
-      <c r="C7" s="173" t="n">
+      <c r="B7" s="206" t="n">
+        <v>1291</v>
+      </c>
+      <c r="C7" s="207" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="86" t="inlineStr">
@@ -1175,37 +1219,37 @@
           <t>UnluckGod</t>
         </is>
       </c>
-      <c r="E7" s="174" t="n">
+      <c r="E7" s="208" t="n">
         <v>6</v>
       </c>
       <c r="F7" s="86" t="n">
         <v>12824</v>
       </c>
-      <c r="G7" s="175" t="n">
+      <c r="G7" s="209" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="87" t="n">
         <v>61</v>
       </c>
-      <c r="I7" s="174" t="n">
+      <c r="I7" s="208" t="n">
         <v>6</v>
       </c>
       <c r="J7" s="86" t="n">
         <v>11999</v>
       </c>
-      <c r="K7" s="174" t="n">
+      <c r="K7" s="208" t="n">
         <v>6</v>
       </c>
       <c r="L7" s="86" t="n">
         <v>12972</v>
       </c>
-      <c r="M7" s="174" t="n">
+      <c r="M7" s="208" t="n">
         <v>6</v>
       </c>
       <c r="N7" s="86" t="n">
         <v>8286</v>
       </c>
-      <c r="O7" s="174" t="n">
+      <c r="O7" s="208" t="n">
         <v>6</v>
       </c>
       <c r="P7" s="86" t="n">
@@ -1213,15 +1257,15 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="168" t="inlineStr">
+      <c r="A8" s="202" t="inlineStr">
         <is>
           <t>#QUV2GP88U</t>
         </is>
       </c>
-      <c r="B8" s="168" t="n">
-        <v>750</v>
-      </c>
-      <c r="C8" s="169" t="n">
+      <c r="B8" s="202" t="n">
+        <v>762</v>
+      </c>
+      <c r="C8" s="203" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="82" t="inlineStr">
@@ -1229,37 +1273,37 @@
           <t>Nico Robin</t>
         </is>
       </c>
-      <c r="E8" s="170" t="n">
+      <c r="E8" s="204" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="82" t="n">
         <v>12612</v>
       </c>
-      <c r="G8" s="171" t="n">
+      <c r="G8" s="205" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="170" t="n">
+      <c r="I8" s="204" t="n">
         <v>6</v>
       </c>
       <c r="J8" s="82" t="n">
         <v>11338</v>
       </c>
-      <c r="K8" s="170" t="n">
+      <c r="K8" s="204" t="n">
         <v>6</v>
       </c>
       <c r="L8" s="82" t="n">
         <v>10997</v>
       </c>
-      <c r="M8" s="170" t="n">
+      <c r="M8" s="204" t="n">
         <v>6</v>
       </c>
       <c r="N8" s="82" t="n">
         <v>11087</v>
       </c>
-      <c r="O8" s="170" t="n">
+      <c r="O8" s="204" t="n">
         <v>6</v>
       </c>
       <c r="P8" s="82" t="n">
@@ -1267,15 +1311,15 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="172" t="inlineStr">
+      <c r="A9" s="206" t="inlineStr">
         <is>
           <t>#QCV22VP0G</t>
         </is>
       </c>
-      <c r="B9" s="172" t="n">
-        <v>790</v>
-      </c>
-      <c r="C9" s="173" t="n">
+      <c r="B9" s="206" t="n">
+        <v>819</v>
+      </c>
+      <c r="C9" s="207" t="n">
         <v>6</v>
       </c>
       <c r="D9" s="86" t="inlineStr">
@@ -1283,37 +1327,37 @@
           <t>Nami</t>
         </is>
       </c>
-      <c r="E9" s="174" t="n">
+      <c r="E9" s="208" t="n">
         <v>6</v>
       </c>
       <c r="F9" s="86" t="n">
         <v>11795</v>
       </c>
-      <c r="G9" s="175" t="n">
+      <c r="G9" s="209" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="174" t="n">
+      <c r="I9" s="208" t="n">
         <v>6</v>
       </c>
       <c r="J9" s="86" t="n">
         <v>10769</v>
       </c>
-      <c r="K9" s="174" t="n">
+      <c r="K9" s="208" t="n">
         <v>6</v>
       </c>
       <c r="L9" s="86" t="n">
         <v>12486</v>
       </c>
-      <c r="M9" s="174" t="n">
+      <c r="M9" s="208" t="n">
         <v>6</v>
       </c>
       <c r="N9" s="86" t="n">
         <v>8472</v>
       </c>
-      <c r="O9" s="174" t="n">
+      <c r="O9" s="208" t="n">
         <v>6</v>
       </c>
       <c r="P9" s="86" t="n">
@@ -1321,15 +1365,15 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="168" t="inlineStr">
+      <c r="A10" s="202" t="inlineStr">
         <is>
           <t>#YRGRRJQCY</t>
         </is>
       </c>
-      <c r="B10" s="168" t="n">
+      <c r="B10" s="202" t="n">
         <v>1366</v>
       </c>
-      <c r="C10" s="169" t="n">
+      <c r="C10" s="203" t="n">
         <v>7</v>
       </c>
       <c r="D10" s="82" t="inlineStr">
@@ -1337,37 +1381,37 @@
           <t>DoubleSpice</t>
         </is>
       </c>
-      <c r="E10" s="170" t="n">
+      <c r="E10" s="204" t="n">
         <v>6</v>
       </c>
       <c r="F10" s="82" t="n">
         <v>11620</v>
       </c>
-      <c r="G10" s="171" t="n">
+      <c r="G10" s="205" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="83" t="n">
         <v>60</v>
       </c>
-      <c r="I10" s="170" t="n">
+      <c r="I10" s="204" t="n">
         <v>6</v>
       </c>
       <c r="J10" s="82" t="n">
         <v>14095</v>
       </c>
-      <c r="K10" s="170" t="n">
+      <c r="K10" s="204" t="n">
         <v>6</v>
       </c>
       <c r="L10" s="82" t="n">
         <v>12379</v>
       </c>
-      <c r="M10" s="170" t="n">
+      <c r="M10" s="204" t="n">
         <v>6</v>
       </c>
       <c r="N10" s="82" t="n">
         <v>8256</v>
       </c>
-      <c r="O10" s="170" t="n">
+      <c r="O10" s="204" t="n">
         <v>6</v>
       </c>
       <c r="P10" s="82" t="n">
@@ -1375,15 +1419,15 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="172" t="inlineStr">
+      <c r="A11" s="206" t="inlineStr">
         <is>
           <t>#QUG8QQJ92</t>
         </is>
       </c>
-      <c r="B11" s="172" t="n">
-        <v>913</v>
-      </c>
-      <c r="C11" s="173" t="n">
+      <c r="B11" s="206" t="n">
+        <v>905</v>
+      </c>
+      <c r="C11" s="207" t="n">
         <v>8</v>
       </c>
       <c r="D11" s="86" t="inlineStr">
@@ -1391,37 +1435,37 @@
           <t>Karma</t>
         </is>
       </c>
-      <c r="E11" s="174" t="n">
+      <c r="E11" s="208" t="n">
         <v>6</v>
       </c>
       <c r="F11" s="86" t="n">
         <v>11355</v>
       </c>
-      <c r="G11" s="175" t="n">
+      <c r="G11" s="209" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="174" t="n">
+      <c r="I11" s="208" t="n">
         <v>6</v>
       </c>
       <c r="J11" s="86" t="n">
         <v>10003</v>
       </c>
-      <c r="K11" s="174" t="n">
+      <c r="K11" s="208" t="n">
         <v>6</v>
       </c>
       <c r="L11" s="86" t="n">
         <v>10595</v>
       </c>
-      <c r="M11" s="174" t="n">
+      <c r="M11" s="208" t="n">
         <v>6</v>
       </c>
       <c r="N11" s="86" t="n">
         <v>9240</v>
       </c>
-      <c r="O11" s="174" t="n">
+      <c r="O11" s="208" t="n">
         <v>6</v>
       </c>
       <c r="P11" s="86" t="n">
@@ -1429,15 +1473,15 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="177" t="inlineStr">
+      <c r="A12" s="211" t="inlineStr">
         <is>
           <t>#98JG2UJQL</t>
         </is>
       </c>
-      <c r="B12" s="177" t="n">
-        <v>2935</v>
-      </c>
-      <c r="C12" s="169" t="n">
+      <c r="B12" s="211" t="n">
+        <v>2917</v>
+      </c>
+      <c r="C12" s="203" t="n">
         <v>9</v>
       </c>
       <c r="D12" s="99" t="inlineStr">
@@ -1445,37 +1489,37 @@
           <t>Dragonux</t>
         </is>
       </c>
-      <c r="E12" s="178" t="n">
+      <c r="E12" s="212" t="n">
         <v>6</v>
       </c>
       <c r="F12" s="99" t="n">
         <v>10910</v>
       </c>
-      <c r="G12" s="179" t="n">
+      <c r="G12" s="213" t="n">
         <v>211</v>
       </c>
       <c r="H12" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="178" t="n">
+      <c r="I12" s="212" t="n">
         <v>6</v>
       </c>
       <c r="J12" s="99" t="n">
         <v>8750</v>
       </c>
-      <c r="K12" s="178" t="n">
+      <c r="K12" s="212" t="n">
         <v>6</v>
       </c>
       <c r="L12" s="99" t="n">
         <v>10865</v>
       </c>
-      <c r="M12" s="178" t="n">
+      <c r="M12" s="212" t="n">
         <v>6</v>
       </c>
       <c r="N12" s="99" t="n">
         <v>8025</v>
       </c>
-      <c r="O12" s="178" t="n">
+      <c r="O12" s="212" t="n">
         <v>6</v>
       </c>
       <c r="P12" s="99" t="n">
@@ -1483,15 +1527,15 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="172" t="inlineStr">
+      <c r="A13" s="206" t="inlineStr">
         <is>
           <t>#QLR088LC9</t>
         </is>
       </c>
-      <c r="B13" s="172" t="n">
-        <v>881</v>
-      </c>
-      <c r="C13" s="173" t="n">
+      <c r="B13" s="206" t="n">
+        <v>896</v>
+      </c>
+      <c r="C13" s="207" t="n">
         <v>10</v>
       </c>
       <c r="D13" s="86" t="inlineStr">
@@ -1499,37 +1543,37 @@
           <t>Sanji</t>
         </is>
       </c>
-      <c r="E13" s="174" t="n">
+      <c r="E13" s="208" t="n">
         <v>6</v>
       </c>
       <c r="F13" s="86" t="n">
         <v>10910</v>
       </c>
-      <c r="G13" s="175" t="n">
-        <v>0</v>
+      <c r="G13" s="209" t="n">
+        <v>6</v>
       </c>
       <c r="H13" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="174" t="n">
+      <c r="I13" s="208" t="n">
         <v>6</v>
       </c>
       <c r="J13" s="86" t="n">
         <v>9550</v>
       </c>
-      <c r="K13" s="174" t="n">
+      <c r="K13" s="208" t="n">
         <v>6</v>
       </c>
       <c r="L13" s="86" t="n">
         <v>9138</v>
       </c>
-      <c r="M13" s="174" t="n">
+      <c r="M13" s="208" t="n">
         <v>6</v>
       </c>
       <c r="N13" s="86" t="n">
         <v>8897</v>
       </c>
-      <c r="O13" s="174" t="n">
+      <c r="O13" s="208" t="n">
         <v>6</v>
       </c>
       <c r="P13" s="86" t="n">
@@ -1537,15 +1581,15 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="168" t="inlineStr">
+      <c r="A14" s="202" t="inlineStr">
         <is>
           <t>#QUYG0PQC8</t>
         </is>
       </c>
-      <c r="B14" s="168" t="n">
-        <v>930</v>
-      </c>
-      <c r="C14" s="169" t="n">
+      <c r="B14" s="202" t="n">
+        <v>874</v>
+      </c>
+      <c r="C14" s="203" t="n">
         <v>11</v>
       </c>
       <c r="D14" s="82" t="inlineStr">
@@ -1553,37 +1597,37 @@
           <t>Luffy</t>
         </is>
       </c>
-      <c r="E14" s="170" t="n">
+      <c r="E14" s="204" t="n">
         <v>6</v>
       </c>
       <c r="F14" s="82" t="n">
         <v>10879</v>
       </c>
-      <c r="G14" s="171" t="n">
+      <c r="G14" s="205" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="170" t="n">
+      <c r="I14" s="204" t="n">
         <v>6</v>
       </c>
       <c r="J14" s="82" t="n">
         <v>9114</v>
       </c>
-      <c r="K14" s="170" t="n">
+      <c r="K14" s="204" t="n">
         <v>6</v>
       </c>
       <c r="L14" s="82" t="n">
         <v>13385</v>
       </c>
-      <c r="M14" s="170" t="n">
+      <c r="M14" s="204" t="n">
         <v>6</v>
       </c>
       <c r="N14" s="82" t="n">
         <v>7877</v>
       </c>
-      <c r="O14" s="170" t="n">
+      <c r="O14" s="204" t="n">
         <v>6</v>
       </c>
       <c r="P14" s="82" t="n">
@@ -1591,15 +1635,15 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="180" t="inlineStr">
+      <c r="A15" s="214" t="inlineStr">
         <is>
           <t>#G0JPUQGYR</t>
         </is>
       </c>
-      <c r="B15" s="180" t="n">
-        <v>1298</v>
-      </c>
-      <c r="C15" s="173" t="n">
+      <c r="B15" s="214" t="n">
+        <v>1369</v>
+      </c>
+      <c r="C15" s="207" t="n">
         <v>12</v>
       </c>
       <c r="D15" s="101" t="inlineStr">
@@ -1607,37 +1651,37 @@
           <t>Collin</t>
         </is>
       </c>
-      <c r="E15" s="181" t="n">
+      <c r="E15" s="215" t="n">
         <v>6</v>
       </c>
       <c r="F15" s="101" t="n">
         <v>8833</v>
       </c>
-      <c r="G15" s="182" t="n">
+      <c r="G15" s="216" t="n">
         <v>20</v>
       </c>
       <c r="H15" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="181" t="n">
+      <c r="I15" s="215" t="n">
         <v>6</v>
       </c>
       <c r="J15" s="101" t="n">
         <v>9238</v>
       </c>
-      <c r="K15" s="181" t="n">
+      <c r="K15" s="215" t="n">
         <v>6</v>
       </c>
       <c r="L15" s="101" t="n">
         <v>7756</v>
       </c>
-      <c r="M15" s="181" t="n">
+      <c r="M15" s="215" t="n">
         <v>6</v>
       </c>
       <c r="N15" s="102" t="n">
         <v>5943</v>
       </c>
-      <c r="O15" s="181" t="n">
+      <c r="O15" s="215" t="n">
         <v>6</v>
       </c>
       <c r="P15" s="101" t="n">
@@ -1645,15 +1689,15 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="177" t="inlineStr">
+      <c r="A16" s="211" t="inlineStr">
         <is>
           <t>#82QLQCJRJ</t>
         </is>
       </c>
-      <c r="B16" s="177" t="n">
-        <v>2928</v>
-      </c>
-      <c r="C16" s="169" t="n">
+      <c r="B16" s="211" t="n">
+        <v>2910</v>
+      </c>
+      <c r="C16" s="203" t="n">
         <v>13</v>
       </c>
       <c r="D16" s="99" t="inlineStr">
@@ -1661,37 +1705,37 @@
           <t>Raging Fury</t>
         </is>
       </c>
-      <c r="E16" s="178" t="n">
+      <c r="E16" s="212" t="n">
         <v>6</v>
       </c>
       <c r="F16" s="99" t="n">
         <v>8055</v>
       </c>
-      <c r="G16" s="183" t="n">
+      <c r="G16" s="217" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="178" t="n">
+      <c r="I16" s="212" t="n">
         <v>6</v>
       </c>
       <c r="J16" s="99" t="n">
         <v>7115</v>
       </c>
-      <c r="K16" s="183" t="n">
+      <c r="K16" s="217" t="n">
         <v>2</v>
       </c>
       <c r="L16" s="95" t="n">
         <v>2320</v>
       </c>
-      <c r="M16" s="178" t="n">
+      <c r="M16" s="212" t="n">
         <v>6</v>
       </c>
       <c r="N16" s="93" t="n">
         <v>4920</v>
       </c>
-      <c r="O16" s="178" t="n">
+      <c r="O16" s="212" t="n">
         <v>6</v>
       </c>
       <c r="P16" s="93" t="n">
@@ -1699,15 +1743,15 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="172" t="inlineStr">
+      <c r="A17" s="206" t="inlineStr">
         <is>
           <t>#Q8CLCUCC2</t>
         </is>
       </c>
-      <c r="B17" s="172" t="n">
-        <v>1343</v>
-      </c>
-      <c r="C17" s="173" t="n">
+      <c r="B17" s="206" t="n">
+        <v>1373</v>
+      </c>
+      <c r="C17" s="207" t="n">
         <v>14</v>
       </c>
       <c r="D17" s="86" t="inlineStr">
@@ -1715,37 +1759,37 @@
           <t>Moxxi</t>
         </is>
       </c>
-      <c r="E17" s="174" t="n">
+      <c r="E17" s="208" t="n">
         <v>6</v>
       </c>
       <c r="F17" s="86" t="n">
         <v>8015</v>
       </c>
-      <c r="G17" s="175" t="n">
+      <c r="G17" s="209" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="87" t="n">
         <v>60</v>
       </c>
-      <c r="I17" s="174" t="n">
+      <c r="I17" s="208" t="n">
         <v>6</v>
       </c>
       <c r="J17" s="86" t="n">
         <v>11010</v>
       </c>
-      <c r="K17" s="174" t="n">
+      <c r="K17" s="208" t="n">
         <v>6</v>
       </c>
       <c r="L17" s="86" t="n">
         <v>13857</v>
       </c>
-      <c r="M17" s="174" t="n">
+      <c r="M17" s="208" t="n">
         <v>6</v>
       </c>
       <c r="N17" s="86" t="n">
         <v>7905</v>
       </c>
-      <c r="O17" s="174" t="n">
+      <c r="O17" s="208" t="n">
         <v>6</v>
       </c>
       <c r="P17" s="86" t="n">
@@ -1753,15 +1797,15 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="177" t="inlineStr">
+      <c r="A18" s="211" t="inlineStr">
         <is>
           <t>#QU0U2Q99G</t>
         </is>
       </c>
-      <c r="B18" s="177" t="n">
-        <v>923</v>
-      </c>
-      <c r="C18" s="169" t="n">
+      <c r="B18" s="211" t="n">
+        <v>936</v>
+      </c>
+      <c r="C18" s="203" t="n">
         <v>15</v>
       </c>
       <c r="D18" s="99" t="inlineStr">
@@ -1769,45 +1813,45 @@
           <t>big coc</t>
         </is>
       </c>
-      <c r="E18" s="178" t="n">
+      <c r="E18" s="212" t="n">
         <v>6</v>
       </c>
       <c r="F18" s="99" t="n">
         <v>7420</v>
       </c>
-      <c r="G18" s="183" t="n">
+      <c r="G18" s="217" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="91" t="n">
-        <v>40</v>
-      </c>
-      <c r="I18" s="178" t="n">
+        <v>60</v>
+      </c>
+      <c r="I18" s="212" t="n">
         <v>5</v>
       </c>
       <c r="J18" s="93" t="n">
         <v>5150</v>
       </c>
-      <c r="K18" s="178" t="n">
+      <c r="K18" s="212" t="n">
         <v>6</v>
       </c>
       <c r="L18" s="99" t="n">
         <v>9075</v>
       </c>
-      <c r="M18" s="177" t="n"/>
+      <c r="M18" s="211" t="n"/>
       <c r="N18" s="91" t="n"/>
-      <c r="O18" s="177" t="n"/>
+      <c r="O18" s="211" t="n"/>
       <c r="P18" s="91" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="180" t="inlineStr">
+      <c r="A19" s="214" t="inlineStr">
         <is>
           <t>#QRPRYR8LL</t>
         </is>
       </c>
-      <c r="B19" s="180" t="n">
-        <v>1109</v>
-      </c>
-      <c r="C19" s="173" t="n">
+      <c r="B19" s="214" t="n">
+        <v>1186</v>
+      </c>
+      <c r="C19" s="207" t="n">
         <v>16</v>
       </c>
       <c r="D19" s="101" t="inlineStr">
@@ -1815,37 +1859,37 @@
           <t>FidelCashflow</t>
         </is>
       </c>
-      <c r="E19" s="181" t="n">
+      <c r="E19" s="215" t="n">
         <v>6</v>
       </c>
       <c r="F19" s="101" t="n">
         <v>6415</v>
       </c>
-      <c r="G19" s="182" t="n">
+      <c r="G19" s="216" t="n">
         <v>4</v>
       </c>
       <c r="H19" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="181" t="n">
+      <c r="I19" s="215" t="n">
         <v>6</v>
       </c>
       <c r="J19" s="101" t="n">
         <v>6547</v>
       </c>
-      <c r="K19" s="181" t="n">
+      <c r="K19" s="215" t="n">
         <v>6</v>
       </c>
       <c r="L19" s="101" t="n">
         <v>6811</v>
       </c>
-      <c r="M19" s="181" t="n">
+      <c r="M19" s="215" t="n">
         <v>6</v>
       </c>
       <c r="N19" s="102" t="n">
         <v>4239</v>
       </c>
-      <c r="O19" s="181" t="n">
+      <c r="O19" s="215" t="n">
         <v>6</v>
       </c>
       <c r="P19" s="102" t="n">
@@ -1853,15 +1897,15 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="177" t="inlineStr">
+      <c r="A20" s="211" t="inlineStr">
         <is>
           <t>#QY0VGPQGQ</t>
         </is>
       </c>
-      <c r="B20" s="177" t="n">
-        <v>572</v>
-      </c>
-      <c r="C20" s="169" t="n">
+      <c r="B20" s="211" t="n">
+        <v>547</v>
+      </c>
+      <c r="C20" s="203" t="n">
         <v>17</v>
       </c>
       <c r="D20" s="99" t="inlineStr">
@@ -1869,37 +1913,37 @@
           <t>killerjones</t>
         </is>
       </c>
-      <c r="E20" s="178" t="n">
+      <c r="E20" s="212" t="n">
         <v>6</v>
       </c>
       <c r="F20" s="99" t="n">
         <v>6320</v>
       </c>
-      <c r="G20" s="183" t="n">
+      <c r="G20" s="217" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="91" t="n">
         <v>15</v>
       </c>
-      <c r="I20" s="177" t="n"/>
+      <c r="I20" s="211" t="n"/>
       <c r="J20" s="91" t="n"/>
-      <c r="K20" s="177" t="n"/>
+      <c r="K20" s="211" t="n"/>
       <c r="L20" s="91" t="n"/>
-      <c r="M20" s="177" t="n"/>
+      <c r="M20" s="211" t="n"/>
       <c r="N20" s="91" t="n"/>
-      <c r="O20" s="177" t="n"/>
+      <c r="O20" s="211" t="n"/>
       <c r="P20" s="91" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="180" t="inlineStr">
+      <c r="A21" s="214" t="inlineStr">
         <is>
           <t>#LC9GUPJJG</t>
         </is>
       </c>
-      <c r="B21" s="180" t="n">
-        <v>1031</v>
-      </c>
-      <c r="C21" s="173" t="n">
+      <c r="B21" s="214" t="n">
+        <v>1071</v>
+      </c>
+      <c r="C21" s="207" t="n">
         <v>18</v>
       </c>
       <c r="D21" s="101" t="inlineStr">
@@ -1907,41 +1951,41 @@
           <t>raptor2222a</t>
         </is>
       </c>
-      <c r="E21" s="181" t="n">
+      <c r="E21" s="215" t="n">
         <v>5</v>
       </c>
       <c r="F21" s="102" t="n">
         <v>4350</v>
       </c>
-      <c r="G21" s="182" t="n">
+      <c r="G21" s="216" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="182" t="n">
+      <c r="I21" s="216" t="n">
         <v>0</v>
       </c>
       <c r="J21" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="K21" s="180" t="n"/>
+      <c r="K21" s="214" t="n"/>
       <c r="L21" s="89" t="n"/>
-      <c r="M21" s="180" t="n"/>
+      <c r="M21" s="214" t="n"/>
       <c r="N21" s="89" t="n"/>
-      <c r="O21" s="180" t="n"/>
+      <c r="O21" s="214" t="n"/>
       <c r="P21" s="89" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="177" t="inlineStr">
+      <c r="A22" s="211" t="inlineStr">
         <is>
           <t>#QLG0VJG2J</t>
         </is>
       </c>
-      <c r="B22" s="177" t="n">
-        <v>1111</v>
-      </c>
-      <c r="C22" s="169" t="n">
+      <c r="B22" s="211" t="n">
+        <v>1175</v>
+      </c>
+      <c r="C22" s="203" t="n">
         <v>19</v>
       </c>
       <c r="D22" s="93" t="inlineStr">
@@ -1949,41 +1993,41 @@
           <t>PocketRocket</t>
         </is>
       </c>
-      <c r="E22" s="179" t="n">
+      <c r="E22" s="213" t="n">
         <v>4</v>
       </c>
       <c r="F22" s="93" t="n">
         <v>4327</v>
       </c>
-      <c r="G22" s="183" t="n">
+      <c r="G22" s="217" t="n">
         <v>20</v>
       </c>
       <c r="H22" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="179" t="n">
+      <c r="I22" s="213" t="n">
         <v>4</v>
       </c>
       <c r="J22" s="93" t="n">
         <v>5215</v>
       </c>
-      <c r="K22" s="177" t="n"/>
+      <c r="K22" s="211" t="n"/>
       <c r="L22" s="91" t="n"/>
-      <c r="M22" s="177" t="n"/>
+      <c r="M22" s="211" t="n"/>
       <c r="N22" s="91" t="n"/>
-      <c r="O22" s="177" t="n"/>
+      <c r="O22" s="211" t="n"/>
       <c r="P22" s="91" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="180" t="inlineStr">
+      <c r="A23" s="214" t="inlineStr">
         <is>
           <t>#QL8LVLYG8</t>
         </is>
       </c>
-      <c r="B23" s="180" t="n">
-        <v>892</v>
-      </c>
-      <c r="C23" s="173" t="n">
+      <c r="B23" s="214" t="n">
+        <v>949</v>
+      </c>
+      <c r="C23" s="207" t="n">
         <v>20</v>
       </c>
       <c r="D23" s="97" t="inlineStr">
@@ -1991,37 +2035,37 @@
           <t>Some guy</t>
         </is>
       </c>
-      <c r="E23" s="182" t="n">
+      <c r="E23" s="216" t="n">
         <v>2</v>
       </c>
       <c r="F23" s="97" t="n">
         <v>2650</v>
       </c>
-      <c r="G23" s="182" t="n">
+      <c r="G23" s="216" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="89" t="n">
         <v>20</v>
       </c>
-      <c r="I23" s="182" t="n">
+      <c r="I23" s="216" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="K23" s="181" t="n">
+      <c r="K23" s="215" t="n">
         <v>6</v>
       </c>
       <c r="L23" s="101" t="n">
         <v>6917</v>
       </c>
-      <c r="M23" s="182" t="n">
+      <c r="M23" s="216" t="n">
         <v>0</v>
       </c>
       <c r="N23" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="O23" s="182" t="n">
+      <c r="O23" s="216" t="n">
         <v>2</v>
       </c>
       <c r="P23" s="97" t="n">
@@ -2035,7 +2079,7 @@
         </is>
       </c>
       <c r="B24" s="119" t="n">
-        <v>1015</v>
+        <v>998</v>
       </c>
       <c r="C24" s="120" t="n">
         <v>21</v>
@@ -2083,237 +2127,237 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="180" t="inlineStr">
+      <c r="A25" s="214" t="inlineStr">
+        <is>
+          <t>#QV8JJ0URU</t>
+        </is>
+      </c>
+      <c r="B25" s="214" t="n">
+        <v>741</v>
+      </c>
+      <c r="C25" s="207" t="n">
+        <v>22</v>
+      </c>
+      <c r="D25" s="97" t="inlineStr">
+        <is>
+          <t>✨Jacob</t>
+        </is>
+      </c>
+      <c r="E25" s="216" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="215" t="n">
+        <v>6</v>
+      </c>
+      <c r="N25" s="101" t="n">
+        <v>7385</v>
+      </c>
+      <c r="O25" s="215" t="n">
+        <v>6</v>
+      </c>
+      <c r="P25" s="101" t="n">
+        <v>9155</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="211" t="inlineStr">
+        <is>
+          <t>#QUGYGY88C</t>
+        </is>
+      </c>
+      <c r="B26" s="211" t="n">
+        <v>946</v>
+      </c>
+      <c r="C26" s="203" t="n">
+        <v>23</v>
+      </c>
+      <c r="D26" s="95" t="inlineStr">
+        <is>
+          <t>Kingsman</t>
+        </is>
+      </c>
+      <c r="E26" s="217" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="211" t="n"/>
+      <c r="J26" s="91" t="n"/>
+      <c r="K26" s="211" t="n"/>
+      <c r="L26" s="91" t="n"/>
+      <c r="M26" s="211" t="n"/>
+      <c r="N26" s="91" t="n"/>
+      <c r="O26" s="211" t="n"/>
+      <c r="P26" s="91" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="214" t="inlineStr">
         <is>
           <t>#QQL28Y2UL</t>
         </is>
       </c>
-      <c r="B25" s="180" t="n">
+      <c r="B27" s="214" t="n">
         <v>1099</v>
       </c>
-      <c r="C25" s="173" t="n">
-        <v>22</v>
-      </c>
-      <c r="D25" s="97" t="inlineStr">
+      <c r="C27" s="207" t="n">
+        <v>24</v>
+      </c>
+      <c r="D27" s="97" t="inlineStr">
         <is>
           <t>SUPoT</t>
         </is>
       </c>
-      <c r="E25" s="182" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="182" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="180" t="n"/>
-      <c r="J25" s="89" t="n"/>
-      <c r="K25" s="180" t="n"/>
-      <c r="L25" s="89" t="n"/>
-      <c r="M25" s="180" t="n"/>
-      <c r="N25" s="89" t="n"/>
-      <c r="O25" s="180" t="n"/>
-      <c r="P25" s="89" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="177" t="inlineStr">
-        <is>
-          <t>#QV8JJ0URU</t>
-        </is>
-      </c>
-      <c r="B26" s="177" t="n">
-        <v>741</v>
-      </c>
-      <c r="C26" s="169" t="n">
-        <v>23</v>
-      </c>
-      <c r="D26" s="95" t="inlineStr">
-        <is>
-          <t>✨Jacob</t>
-        </is>
-      </c>
-      <c r="E26" s="183" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="183" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="183" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="N26" s="99" t="n">
-        <v>7385</v>
-      </c>
-      <c r="O26" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="P26" s="99" t="n">
-        <v>9155</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="180" t="inlineStr">
-        <is>
-          <t>#QUVJGC0VQ</t>
-        </is>
-      </c>
-      <c r="B27" s="180" t="n">
-        <v>1141</v>
-      </c>
-      <c r="C27" s="173" t="n">
-        <v>24</v>
-      </c>
-      <c r="D27" s="97" t="inlineStr">
-        <is>
-          <t>Cam</t>
-        </is>
-      </c>
-      <c r="E27" s="182" t="n">
+      <c r="E27" s="216" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="G27" s="182" t="n">
+      <c r="G27" s="216" t="n">
         <v>0</v>
       </c>
       <c r="H27" s="89" t="n">
+        <v>25</v>
+      </c>
+      <c r="I27" s="214" t="n"/>
+      <c r="J27" s="89" t="n"/>
+      <c r="K27" s="214" t="n"/>
+      <c r="L27" s="89" t="n"/>
+      <c r="M27" s="214" t="n"/>
+      <c r="N27" s="89" t="n"/>
+      <c r="O27" s="214" t="n"/>
+      <c r="P27" s="89" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="211" t="inlineStr">
+        <is>
+          <t>#QY8L2GLUR</t>
+        </is>
+      </c>
+      <c r="B28" s="211" t="n">
+        <v>907</v>
+      </c>
+      <c r="C28" s="203" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" s="95" t="inlineStr">
+        <is>
+          <t>Huy</t>
+        </is>
+      </c>
+      <c r="E28" s="217" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="N28" s="99" t="n">
+        <v>6995</v>
+      </c>
+      <c r="O28" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="P28" s="99" t="n">
+        <v>6055</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="214" t="inlineStr">
+        <is>
+          <t>#LPCLQUCCY</t>
+        </is>
+      </c>
+      <c r="B29" s="214" t="n">
+        <v>992</v>
+      </c>
+      <c r="C29" s="207" t="n">
         <v>26</v>
       </c>
-      <c r="I27" s="180" t="n"/>
-      <c r="J27" s="89" t="n"/>
-      <c r="K27" s="180" t="n"/>
-      <c r="L27" s="89" t="n"/>
-      <c r="M27" s="180" t="n"/>
-      <c r="N27" s="89" t="n"/>
-      <c r="O27" s="180" t="n"/>
-      <c r="P27" s="89" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="177" t="inlineStr">
-        <is>
-          <t>#QLGYRVPU0</t>
-        </is>
-      </c>
-      <c r="B28" s="177" t="n">
-        <v>880</v>
-      </c>
-      <c r="C28" s="169" t="n">
-        <v>25</v>
-      </c>
-      <c r="D28" s="95" t="inlineStr">
-        <is>
-          <t>Black.Boy.</t>
-        </is>
-      </c>
-      <c r="E28" s="183" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="183" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="91" t="n">
-        <v>26</v>
-      </c>
-      <c r="I28" s="177" t="n"/>
-      <c r="J28" s="91" t="n"/>
-      <c r="K28" s="177" t="n"/>
-      <c r="L28" s="91" t="n"/>
-      <c r="M28" s="177" t="n"/>
-      <c r="N28" s="91" t="n"/>
-      <c r="O28" s="177" t="n"/>
-      <c r="P28" s="91" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="180" t="inlineStr">
-        <is>
-          <t>#QY8L2GLUR</t>
-        </is>
-      </c>
-      <c r="B29" s="180" t="n">
-        <v>907</v>
-      </c>
-      <c r="C29" s="173" t="n">
-        <v>26</v>
-      </c>
       <c r="D29" s="97" t="inlineStr">
         <is>
-          <t>Huy</t>
-        </is>
-      </c>
-      <c r="E29" s="182" t="n">
+          <t>Zodiac</t>
+        </is>
+      </c>
+      <c r="E29" s="216" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="G29" s="182" t="n">
+      <c r="G29" s="216" t="n">
         <v>0</v>
       </c>
       <c r="H29" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="182" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="181" t="n">
-        <v>6</v>
-      </c>
-      <c r="N29" s="101" t="n">
-        <v>6995</v>
-      </c>
-      <c r="O29" s="181" t="n">
-        <v>6</v>
-      </c>
-      <c r="P29" s="101" t="n">
-        <v>6055</v>
-      </c>
+      <c r="I29" s="214" t="n"/>
+      <c r="J29" s="89" t="n"/>
+      <c r="K29" s="214" t="n"/>
+      <c r="L29" s="89" t="n"/>
+      <c r="M29" s="214" t="n"/>
+      <c r="N29" s="89" t="n"/>
+      <c r="O29" s="214" t="n"/>
+      <c r="P29" s="89" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="177" t="inlineStr">
+      <c r="A30" s="211" t="inlineStr">
         <is>
           <t>#L2QQL9QVJ</t>
         </is>
       </c>
-      <c r="B30" s="177" t="n">
+      <c r="B30" s="211" t="n">
         <v>1450</v>
       </c>
-      <c r="C30" s="169" t="n">
+      <c r="C30" s="203" t="n">
         <v>27</v>
       </c>
       <c r="D30" s="95" t="inlineStr">
@@ -2321,37 +2365,37 @@
           <t>JustPre10d</t>
         </is>
       </c>
-      <c r="E30" s="183" t="n">
+      <c r="E30" s="217" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="G30" s="183" t="n">
+      <c r="G30" s="217" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="I30" s="183" t="n">
+      <c r="I30" s="217" t="n">
         <v>0</v>
       </c>
       <c r="J30" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="K30" s="183" t="n">
+      <c r="K30" s="217" t="n">
         <v>0</v>
       </c>
       <c r="L30" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="M30" s="178" t="n">
+      <c r="M30" s="212" t="n">
         <v>6</v>
       </c>
       <c r="N30" s="99" t="n">
         <v>6655</v>
       </c>
-      <c r="O30" s="178" t="n">
+      <c r="O30" s="212" t="n">
         <v>6</v>
       </c>
       <c r="P30" s="99" t="n">
@@ -2359,15 +2403,15 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="180" t="inlineStr">
+      <c r="A31" s="214" t="inlineStr">
         <is>
           <t>#LPR9RPCY9</t>
         </is>
       </c>
-      <c r="B31" s="180" t="n">
+      <c r="B31" s="214" t="n">
         <v>990</v>
       </c>
-      <c r="C31" s="173" t="n">
+      <c r="C31" s="207" t="n">
         <v>28</v>
       </c>
       <c r="D31" s="97" t="inlineStr">
@@ -2375,706 +2419,866 @@
           <t>sayhuss17</t>
         </is>
       </c>
-      <c r="E31" s="182" t="n">
+      <c r="E31" s="216" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="G31" s="182" t="n">
+      <c r="G31" s="216" t="n">
         <v>0</v>
       </c>
       <c r="H31" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="I31" s="182" t="n">
+      <c r="I31" s="216" t="n">
         <v>0</v>
       </c>
       <c r="J31" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="K31" s="182" t="n">
+      <c r="K31" s="216" t="n">
         <v>0</v>
       </c>
       <c r="L31" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="M31" s="184" t="n">
+      <c r="M31" s="218" t="n">
         <v>4</v>
       </c>
       <c r="N31" s="102" t="n">
         <v>4240</v>
       </c>
-      <c r="O31" s="180" t="n"/>
+      <c r="O31" s="214" t="n"/>
       <c r="P31" s="89" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="177" t="inlineStr">
+      <c r="A32" s="211" t="inlineStr">
+        <is>
+          <t>#QLGYRVPU0</t>
+        </is>
+      </c>
+      <c r="B32" s="211" t="n">
+        <v>866</v>
+      </c>
+      <c r="C32" s="203" t="n">
+        <v>29</v>
+      </c>
+      <c r="D32" s="95" t="inlineStr">
+        <is>
+          <t>Black.Boy.</t>
+        </is>
+      </c>
+      <c r="E32" s="217" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="91" t="n">
+        <v>71</v>
+      </c>
+      <c r="I32" s="211" t="n"/>
+      <c r="J32" s="91" t="n"/>
+      <c r="K32" s="211" t="n"/>
+      <c r="L32" s="91" t="n"/>
+      <c r="M32" s="211" t="n"/>
+      <c r="N32" s="91" t="n"/>
+      <c r="O32" s="211" t="n"/>
+      <c r="P32" s="91" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="214" t="inlineStr">
+        <is>
+          <t>#QUVJGC0VQ</t>
+        </is>
+      </c>
+      <c r="B33" s="214" t="n">
+        <v>1182</v>
+      </c>
+      <c r="C33" s="207" t="n">
+        <v>30</v>
+      </c>
+      <c r="D33" s="97" t="inlineStr">
+        <is>
+          <t>Cam</t>
+        </is>
+      </c>
+      <c r="E33" s="216" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="89" t="n">
+        <v>72</v>
+      </c>
+      <c r="I33" s="214" t="n"/>
+      <c r="J33" s="89" t="n"/>
+      <c r="K33" s="214" t="n"/>
+      <c r="L33" s="89" t="n"/>
+      <c r="M33" s="214" t="n"/>
+      <c r="N33" s="89" t="n"/>
+      <c r="O33" s="214" t="n"/>
+      <c r="P33" s="89" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="211" t="inlineStr">
         <is>
           <t>#QQL8C29CY</t>
         </is>
       </c>
-      <c r="B32" s="177" t="n">
-        <v>866</v>
-      </c>
-      <c r="C32" s="169" t="n">
-        <v>29</v>
-      </c>
-      <c r="D32" s="95" t="inlineStr">
+      <c r="B34" s="211" t="n">
+        <v>857</v>
+      </c>
+      <c r="C34" s="203" t="n">
+        <v>31</v>
+      </c>
+      <c r="D34" s="95" t="inlineStr">
         <is>
           <t>TypicalTeague#2</t>
         </is>
       </c>
-      <c r="E32" s="183" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="183" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="183" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="178" t="n">
+      <c r="E34" s="217" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="212" t="n">
         <v>5</v>
       </c>
-      <c r="N32" s="93" t="n">
+      <c r="N34" s="93" t="n">
         <v>4070</v>
       </c>
-      <c r="O32" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="P32" s="99" t="n">
+      <c r="O34" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="P34" s="99" t="n">
         <v>6410</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="180" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="214" t="inlineStr">
+        <is>
+          <t>#QV8RY9UC8</t>
+        </is>
+      </c>
+      <c r="B35" s="214" t="n">
+        <v>834</v>
+      </c>
+      <c r="C35" s="207" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" s="97" t="inlineStr">
+        <is>
+          <t>Apollo</t>
+        </is>
+      </c>
+      <c r="E35" s="216" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="214" t="n"/>
+      <c r="J35" s="89" t="n"/>
+      <c r="K35" s="214" t="n"/>
+      <c r="L35" s="89" t="n"/>
+      <c r="M35" s="214" t="n"/>
+      <c r="N35" s="89" t="n"/>
+      <c r="O35" s="214" t="n"/>
+      <c r="P35" s="89" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="211" t="inlineStr">
+        <is>
+          <t>#8U9CRC8G</t>
+        </is>
+      </c>
+      <c r="B36" s="211" t="n">
+        <v>1471</v>
+      </c>
+      <c r="C36" s="203" t="n">
+        <v>33</v>
+      </c>
+      <c r="D36" s="95" t="inlineStr">
+        <is>
+          <t>CEO JACK</t>
+        </is>
+      </c>
+      <c r="E36" s="217" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="211" t="n"/>
+      <c r="J36" s="91" t="n"/>
+      <c r="K36" s="211" t="n"/>
+      <c r="L36" s="91" t="n"/>
+      <c r="M36" s="211" t="n"/>
+      <c r="N36" s="91" t="n"/>
+      <c r="O36" s="211" t="n"/>
+      <c r="P36" s="91" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="214" t="inlineStr">
         <is>
           <t>#L9JJQY992</t>
         </is>
       </c>
-      <c r="B33" s="180" t="n">
+      <c r="B37" s="214" t="n">
         <v>773</v>
       </c>
-      <c r="C33" s="173" t="n">
-        <v>30</v>
-      </c>
-      <c r="D33" s="97" t="inlineStr">
+      <c r="C37" s="207" t="n">
+        <v>34</v>
+      </c>
+      <c r="D37" s="97" t="inlineStr">
         <is>
           <t>Fisted_Waffle</t>
         </is>
       </c>
-      <c r="E33" s="182" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="182" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="182" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" s="182" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" s="180" t="n"/>
-      <c r="P33" s="89" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="177" t="inlineStr">
+      <c r="E37" s="216" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" s="214" t="n"/>
+      <c r="P37" s="89" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="211" t="inlineStr">
+        <is>
+          <t>#L9QL9YQQY</t>
+        </is>
+      </c>
+      <c r="B38" s="211" t="n">
+        <v>975</v>
+      </c>
+      <c r="C38" s="203" t="n">
+        <v>35</v>
+      </c>
+      <c r="D38" s="95" t="inlineStr">
+        <is>
+          <t>Ima Chad</t>
+        </is>
+      </c>
+      <c r="E38" s="217" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="212" t="n">
+        <v>5</v>
+      </c>
+      <c r="P38" s="95" t="n">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="214" t="inlineStr">
         <is>
           <t>#PJYVV989R</t>
         </is>
       </c>
-      <c r="B34" s="177" t="n">
-        <v>1559</v>
-      </c>
-      <c r="C34" s="169" t="n">
-        <v>31</v>
-      </c>
-      <c r="D34" s="95" t="inlineStr">
+      <c r="B39" s="214" t="n">
+        <v>1536</v>
+      </c>
+      <c r="C39" s="207" t="n">
+        <v>36</v>
+      </c>
+      <c r="D39" s="97" t="inlineStr">
         <is>
           <t>nx</t>
         </is>
       </c>
-      <c r="E34" s="183" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="183" t="n">
-        <v>4</v>
-      </c>
-      <c r="H34" s="91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="183" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" s="183" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="95" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" s="177" t="n"/>
-      <c r="P34" s="91" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="180" t="inlineStr">
-        <is>
-          <t>#L9QL9YQQY</t>
-        </is>
-      </c>
-      <c r="B35" s="180" t="n">
-        <v>975</v>
-      </c>
-      <c r="C35" s="173" t="n">
-        <v>32</v>
-      </c>
-      <c r="D35" s="97" t="inlineStr">
-        <is>
-          <t>Ima Chad</t>
-        </is>
-      </c>
-      <c r="E35" s="182" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="182" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="182" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" s="182" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" s="181" t="n">
+      <c r="E39" s="216" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="216" t="n">
+        <v>11</v>
+      </c>
+      <c r="H39" s="89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="214" t="n"/>
+      <c r="P39" s="89" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="211" t="inlineStr">
+        <is>
+          <t>#VGG9LYL0</t>
+        </is>
+      </c>
+      <c r="B40" s="211" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C40" s="203" t="n">
+        <v>37</v>
+      </c>
+      <c r="D40" s="95" t="inlineStr">
+        <is>
+          <t>ptripp1048</t>
+        </is>
+      </c>
+      <c r="E40" s="217" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="211" t="n"/>
+      <c r="J40" s="91" t="n"/>
+      <c r="K40" s="211" t="n"/>
+      <c r="L40" s="91" t="n"/>
+      <c r="M40" s="211" t="n"/>
+      <c r="N40" s="91" t="n"/>
+      <c r="O40" s="211" t="n"/>
+      <c r="P40" s="91" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="126" t="inlineStr">
+        <is>
+          <t>#QQLVRJCGQ</t>
+        </is>
+      </c>
+      <c r="B41" s="127" t="n">
+        <v>1240</v>
+      </c>
+      <c r="C41" s="128" t="n">
+        <v>38</v>
+      </c>
+      <c r="D41" s="129" t="inlineStr">
+        <is>
+          <t>khant</t>
+        </is>
+      </c>
+      <c r="E41" s="127" t="n"/>
+      <c r="F41" s="129" t="n"/>
+      <c r="G41" s="127" t="n"/>
+      <c r="H41" s="129" t="n"/>
+      <c r="I41" s="127" t="n"/>
+      <c r="J41" s="129" t="n"/>
+      <c r="K41" s="127" t="n"/>
+      <c r="L41" s="129" t="n"/>
+      <c r="M41" s="127" t="n"/>
+      <c r="N41" s="129" t="n"/>
+      <c r="O41" s="127" t="n"/>
+      <c r="P41" s="129" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="217" t="inlineStr">
+        <is>
+          <t>#QLL0PVCRV</t>
+        </is>
+      </c>
+      <c r="B42" s="211" t="n">
+        <v>1704</v>
+      </c>
+      <c r="C42" s="203" t="n">
+        <v>39</v>
+      </c>
+      <c r="D42" s="91" t="inlineStr">
+        <is>
+          <t>Harsh chhillar</t>
+        </is>
+      </c>
+      <c r="E42" s="211" t="n"/>
+      <c r="F42" s="91" t="n"/>
+      <c r="G42" s="211" t="n"/>
+      <c r="H42" s="91" t="n"/>
+      <c r="I42" s="211" t="n"/>
+      <c r="J42" s="91" t="n"/>
+      <c r="K42" s="211" t="n"/>
+      <c r="L42" s="91" t="n"/>
+      <c r="M42" s="211" t="n"/>
+      <c r="N42" s="91" t="n"/>
+      <c r="O42" s="211" t="n"/>
+      <c r="P42" s="91" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="216" t="inlineStr">
+        <is>
+          <t>#Q8YP9P8UJ</t>
+        </is>
+      </c>
+      <c r="B43" s="214" t="n">
+        <v>945</v>
+      </c>
+      <c r="C43" s="207" t="n">
+        <v>40</v>
+      </c>
+      <c r="D43" s="89" t="inlineStr">
+        <is>
+          <t>Ranger</t>
+        </is>
+      </c>
+      <c r="E43" s="214" t="n"/>
+      <c r="F43" s="89" t="n"/>
+      <c r="G43" s="214" t="n"/>
+      <c r="H43" s="89" t="n"/>
+      <c r="I43" s="215" t="n">
         <v>5</v>
       </c>
-      <c r="P35" s="97" t="n">
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="177" t="inlineStr">
-        <is>
-          <t>#LPCLQUCCY</t>
-        </is>
-      </c>
-      <c r="B36" s="177" t="n">
-        <v>952</v>
-      </c>
-      <c r="C36" s="169" t="n">
-        <v>33</v>
-      </c>
-      <c r="D36" s="91" t="inlineStr">
-        <is>
-          <t>Zodiac</t>
-        </is>
-      </c>
-      <c r="E36" s="177" t="n"/>
-      <c r="F36" s="91" t="n"/>
-      <c r="G36" s="177" t="n"/>
-      <c r="H36" s="91" t="n"/>
-      <c r="I36" s="177" t="n"/>
-      <c r="J36" s="91" t="n"/>
-      <c r="K36" s="177" t="n"/>
-      <c r="L36" s="91" t="n"/>
-      <c r="M36" s="177" t="n"/>
-      <c r="N36" s="91" t="n"/>
-      <c r="O36" s="177" t="n"/>
-      <c r="P36" s="91" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="126" t="inlineStr">
-        <is>
-          <t>#QQLVRJCGQ</t>
-        </is>
-      </c>
-      <c r="B37" s="127" t="n">
-        <v>1240</v>
-      </c>
-      <c r="C37" s="128" t="n">
-        <v>34</v>
-      </c>
-      <c r="D37" s="129" t="inlineStr">
-        <is>
-          <t>khant</t>
-        </is>
-      </c>
-      <c r="E37" s="127" t="n"/>
-      <c r="F37" s="129" t="n"/>
-      <c r="G37" s="127" t="n"/>
-      <c r="H37" s="129" t="n"/>
-      <c r="I37" s="127" t="n"/>
-      <c r="J37" s="129" t="n"/>
-      <c r="K37" s="127" t="n"/>
-      <c r="L37" s="129" t="n"/>
-      <c r="M37" s="127" t="n"/>
-      <c r="N37" s="129" t="n"/>
-      <c r="O37" s="127" t="n"/>
-      <c r="P37" s="129" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="183" t="inlineStr">
-        <is>
-          <t>#QLL0PVCRV</t>
-        </is>
-      </c>
-      <c r="B38" s="177" t="n">
-        <v>1704</v>
-      </c>
-      <c r="C38" s="169" t="n">
-        <v>35</v>
-      </c>
-      <c r="D38" s="91" t="inlineStr">
-        <is>
-          <t>Harsh chhillar</t>
-        </is>
-      </c>
-      <c r="E38" s="177" t="n"/>
-      <c r="F38" s="91" t="n"/>
-      <c r="G38" s="177" t="n"/>
-      <c r="H38" s="91" t="n"/>
-      <c r="I38" s="177" t="n"/>
-      <c r="J38" s="91" t="n"/>
-      <c r="K38" s="177" t="n"/>
-      <c r="L38" s="91" t="n"/>
-      <c r="M38" s="177" t="n"/>
-      <c r="N38" s="91" t="n"/>
-      <c r="O38" s="177" t="n"/>
-      <c r="P38" s="91" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="182" t="inlineStr">
-        <is>
-          <t>#Q8YP9P8UJ</t>
-        </is>
-      </c>
-      <c r="B39" s="180" t="n">
-        <v>945</v>
-      </c>
-      <c r="C39" s="173" t="n">
-        <v>36</v>
-      </c>
-      <c r="D39" s="89" t="inlineStr">
-        <is>
-          <t>Ranger</t>
-        </is>
-      </c>
-      <c r="E39" s="180" t="n"/>
-      <c r="F39" s="89" t="n"/>
-      <c r="G39" s="180" t="n"/>
-      <c r="H39" s="89" t="n"/>
-      <c r="I39" s="181" t="n">
-        <v>5</v>
-      </c>
-      <c r="J39" s="102" t="n">
+      <c r="J43" s="102" t="n">
         <v>4680</v>
       </c>
-      <c r="K39" s="180" t="n"/>
-      <c r="L39" s="89" t="n"/>
-      <c r="M39" s="180" t="n"/>
-      <c r="N39" s="89" t="n"/>
-      <c r="O39" s="180" t="n"/>
-      <c r="P39" s="89" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="183" t="inlineStr">
+      <c r="K43" s="214" t="n"/>
+      <c r="L43" s="89" t="n"/>
+      <c r="M43" s="214" t="n"/>
+      <c r="N43" s="89" t="n"/>
+      <c r="O43" s="214" t="n"/>
+      <c r="P43" s="89" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="217" t="inlineStr">
         <is>
           <t>#Q0JG2RJQ8</t>
         </is>
       </c>
-      <c r="B40" s="177" t="n">
+      <c r="B44" s="211" t="n">
         <v>997</v>
       </c>
-      <c r="C40" s="169" t="n">
-        <v>37</v>
-      </c>
-      <c r="D40" s="91" t="inlineStr">
+      <c r="C44" s="203" t="n">
+        <v>41</v>
+      </c>
+      <c r="D44" s="91" t="inlineStr">
         <is>
           <t>bozo</t>
         </is>
       </c>
-      <c r="E40" s="177" t="n"/>
-      <c r="F40" s="91" t="n"/>
-      <c r="G40" s="177" t="n"/>
-      <c r="H40" s="91" t="n"/>
-      <c r="I40" s="177" t="n"/>
-      <c r="J40" s="91" t="n"/>
-      <c r="K40" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="L40" s="99" t="n">
+      <c r="E44" s="211" t="n"/>
+      <c r="F44" s="91" t="n"/>
+      <c r="G44" s="211" t="n"/>
+      <c r="H44" s="91" t="n"/>
+      <c r="I44" s="211" t="n"/>
+      <c r="J44" s="91" t="n"/>
+      <c r="K44" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="L44" s="99" t="n">
         <v>6495</v>
       </c>
-      <c r="M40" s="177" t="n"/>
-      <c r="N40" s="91" t="n"/>
-      <c r="O40" s="177" t="n"/>
-      <c r="P40" s="91" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="182" t="inlineStr">
+      <c r="M44" s="211" t="n"/>
+      <c r="N44" s="91" t="n"/>
+      <c r="O44" s="211" t="n"/>
+      <c r="P44" s="91" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="216" t="inlineStr">
         <is>
           <t>#UVCCQC02</t>
         </is>
       </c>
-      <c r="B41" s="180" t="n">
+      <c r="B45" s="214" t="n">
         <v>1806</v>
       </c>
-      <c r="C41" s="173" t="n">
-        <v>38</v>
-      </c>
-      <c r="D41" s="89" t="inlineStr">
+      <c r="C45" s="207" t="n">
+        <v>42</v>
+      </c>
+      <c r="D45" s="89" t="inlineStr">
         <is>
           <t>lordshisha</t>
         </is>
       </c>
-      <c r="E41" s="180" t="n"/>
-      <c r="F41" s="89" t="n"/>
-      <c r="G41" s="180" t="n"/>
-      <c r="H41" s="89" t="n"/>
-      <c r="I41" s="180" t="n"/>
-      <c r="J41" s="89" t="n"/>
-      <c r="K41" s="181" t="n">
-        <v>6</v>
-      </c>
-      <c r="L41" s="101" t="n">
+      <c r="E45" s="214" t="n"/>
+      <c r="F45" s="89" t="n"/>
+      <c r="G45" s="214" t="n"/>
+      <c r="H45" s="89" t="n"/>
+      <c r="I45" s="214" t="n"/>
+      <c r="J45" s="89" t="n"/>
+      <c r="K45" s="215" t="n">
+        <v>6</v>
+      </c>
+      <c r="L45" s="101" t="n">
         <v>8496</v>
       </c>
-      <c r="M41" s="181" t="n">
-        <v>6</v>
-      </c>
-      <c r="N41" s="101" t="n">
+      <c r="M45" s="215" t="n">
+        <v>6</v>
+      </c>
+      <c r="N45" s="101" t="n">
         <v>6310</v>
       </c>
-      <c r="O41" s="181" t="n">
-        <v>6</v>
-      </c>
-      <c r="P41" s="101" t="n">
+      <c r="O45" s="215" t="n">
+        <v>6</v>
+      </c>
+      <c r="P45" s="101" t="n">
         <v>6930</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="183" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="217" t="inlineStr">
         <is>
           <t>#P2CPRPQU</t>
         </is>
       </c>
-      <c r="B42" s="177" t="n">
+      <c r="B46" s="211" t="n">
         <v>2232</v>
       </c>
-      <c r="C42" s="169" t="n">
-        <v>39</v>
-      </c>
-      <c r="D42" s="91" t="inlineStr">
+      <c r="C46" s="203" t="n">
+        <v>43</v>
+      </c>
+      <c r="D46" s="91" t="inlineStr">
         <is>
           <t>The Drift King</t>
         </is>
       </c>
-      <c r="E42" s="177" t="n"/>
-      <c r="F42" s="91" t="n"/>
-      <c r="G42" s="177" t="n"/>
-      <c r="H42" s="91" t="n"/>
-      <c r="I42" s="177" t="n"/>
-      <c r="J42" s="91" t="n"/>
-      <c r="K42" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="L42" s="99" t="n">
+      <c r="E46" s="211" t="n"/>
+      <c r="F46" s="91" t="n"/>
+      <c r="G46" s="211" t="n"/>
+      <c r="H46" s="91" t="n"/>
+      <c r="I46" s="211" t="n"/>
+      <c r="J46" s="91" t="n"/>
+      <c r="K46" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="L46" s="99" t="n">
         <v>8023</v>
       </c>
-      <c r="M42" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="N42" s="99" t="n">
+      <c r="M46" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="N46" s="99" t="n">
         <v>7625</v>
       </c>
-      <c r="O42" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="P42" s="99" t="n">
+      <c r="O46" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="P46" s="99" t="n">
         <v>7375</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="182" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="216" t="inlineStr">
         <is>
           <t>#QJVL0LYQQ</t>
         </is>
       </c>
-      <c r="B43" s="180" t="n">
+      <c r="B47" s="214" t="n">
         <v>921</v>
       </c>
-      <c r="C43" s="173" t="n">
-        <v>40</v>
-      </c>
-      <c r="D43" s="89" t="inlineStr">
+      <c r="C47" s="207" t="n">
+        <v>44</v>
+      </c>
+      <c r="D47" s="89" t="inlineStr">
         <is>
           <t>mobbb341</t>
         </is>
       </c>
-      <c r="E43" s="180" t="n"/>
-      <c r="F43" s="89" t="n"/>
-      <c r="G43" s="180" t="n"/>
-      <c r="H43" s="89" t="n"/>
-      <c r="I43" s="180" t="n"/>
-      <c r="J43" s="89" t="n"/>
-      <c r="K43" s="181" t="n">
-        <v>6</v>
-      </c>
-      <c r="L43" s="101" t="n">
+      <c r="E47" s="214" t="n"/>
+      <c r="F47" s="89" t="n"/>
+      <c r="G47" s="214" t="n"/>
+      <c r="H47" s="89" t="n"/>
+      <c r="I47" s="214" t="n"/>
+      <c r="J47" s="89" t="n"/>
+      <c r="K47" s="215" t="n">
+        <v>6</v>
+      </c>
+      <c r="L47" s="101" t="n">
         <v>7710</v>
       </c>
-      <c r="M43" s="181" t="n">
-        <v>6</v>
-      </c>
-      <c r="N43" s="101" t="n">
+      <c r="M47" s="215" t="n">
+        <v>6</v>
+      </c>
+      <c r="N47" s="101" t="n">
         <v>8810</v>
       </c>
-      <c r="O43" s="181" t="n">
-        <v>6</v>
-      </c>
-      <c r="P43" s="102" t="n">
+      <c r="O47" s="215" t="n">
+        <v>6</v>
+      </c>
+      <c r="P47" s="102" t="n">
         <v>4505</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="183" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="217" t="inlineStr">
         <is>
           <t>#L8R82C8VC</t>
         </is>
       </c>
-      <c r="B44" s="177" t="n">
+      <c r="B48" s="211" t="n">
         <v>1162</v>
       </c>
-      <c r="C44" s="169" t="n">
-        <v>41</v>
-      </c>
-      <c r="D44" s="91" t="inlineStr">
+      <c r="C48" s="203" t="n">
+        <v>45</v>
+      </c>
+      <c r="D48" s="91" t="inlineStr">
         <is>
           <t>caden asue</t>
         </is>
       </c>
-      <c r="E44" s="177" t="n"/>
-      <c r="F44" s="91" t="n"/>
-      <c r="G44" s="177" t="n"/>
-      <c r="H44" s="91" t="n"/>
-      <c r="I44" s="177" t="n"/>
-      <c r="J44" s="91" t="n"/>
-      <c r="K44" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="L44" s="93" t="n">
+      <c r="E48" s="211" t="n"/>
+      <c r="F48" s="91" t="n"/>
+      <c r="G48" s="211" t="n"/>
+      <c r="H48" s="91" t="n"/>
+      <c r="I48" s="211" t="n"/>
+      <c r="J48" s="91" t="n"/>
+      <c r="K48" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="L48" s="93" t="n">
         <v>5112</v>
       </c>
-      <c r="M44" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="N44" s="93" t="n">
+      <c r="M48" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="N48" s="93" t="n">
         <v>4283</v>
       </c>
-      <c r="O44" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="P44" s="93" t="n">
+      <c r="O48" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="P48" s="93" t="n">
         <v>4338</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="182" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="216" t="inlineStr">
         <is>
           <t>#L9Q8VLLQG</t>
         </is>
       </c>
-      <c r="B45" s="180" t="n">
+      <c r="B49" s="214" t="n">
         <v>1130</v>
       </c>
-      <c r="C45" s="173" t="n">
-        <v>42</v>
-      </c>
-      <c r="D45" s="89" t="inlineStr">
+      <c r="C49" s="207" t="n">
+        <v>46</v>
+      </c>
+      <c r="D49" s="89" t="inlineStr">
         <is>
           <t>cat</t>
         </is>
       </c>
-      <c r="E45" s="180" t="n"/>
-      <c r="F45" s="89" t="n"/>
-      <c r="G45" s="180" t="n"/>
-      <c r="H45" s="89" t="n"/>
-      <c r="I45" s="180" t="n"/>
-      <c r="J45" s="89" t="n"/>
-      <c r="K45" s="180" t="n"/>
-      <c r="L45" s="89" t="n"/>
-      <c r="M45" s="180" t="n"/>
-      <c r="N45" s="89" t="n"/>
-      <c r="O45" s="181" t="n">
-        <v>6</v>
-      </c>
-      <c r="P45" s="102" t="n">
+      <c r="E49" s="214" t="n"/>
+      <c r="F49" s="89" t="n"/>
+      <c r="G49" s="214" t="n"/>
+      <c r="H49" s="89" t="n"/>
+      <c r="I49" s="214" t="n"/>
+      <c r="J49" s="89" t="n"/>
+      <c r="K49" s="214" t="n"/>
+      <c r="L49" s="89" t="n"/>
+      <c r="M49" s="214" t="n"/>
+      <c r="N49" s="89" t="n"/>
+      <c r="O49" s="215" t="n">
+        <v>6</v>
+      </c>
+      <c r="P49" s="102" t="n">
         <v>5908</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="183" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="217" t="inlineStr">
         <is>
           <t>#QV0PQC9JU</t>
         </is>
       </c>
-      <c r="B46" s="177" t="n">
+      <c r="B50" s="211" t="n">
         <v>539</v>
       </c>
-      <c r="C46" s="169" t="n">
-        <v>43</v>
-      </c>
-      <c r="D46" s="91" t="inlineStr">
+      <c r="C50" s="203" t="n">
+        <v>47</v>
+      </c>
+      <c r="D50" s="91" t="inlineStr">
         <is>
           <t>Superman</t>
         </is>
       </c>
-      <c r="E46" s="177" t="n"/>
-      <c r="F46" s="91" t="n"/>
-      <c r="G46" s="177" t="n"/>
-      <c r="H46" s="91" t="n"/>
-      <c r="I46" s="177" t="n"/>
-      <c r="J46" s="91" t="n"/>
-      <c r="K46" s="177" t="n"/>
-      <c r="L46" s="91" t="n"/>
-      <c r="M46" s="177" t="n"/>
-      <c r="N46" s="91" t="n"/>
-      <c r="O46" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="P46" s="93" t="n">
+      <c r="E50" s="211" t="n"/>
+      <c r="F50" s="91" t="n"/>
+      <c r="G50" s="211" t="n"/>
+      <c r="H50" s="91" t="n"/>
+      <c r="I50" s="211" t="n"/>
+      <c r="J50" s="91" t="n"/>
+      <c r="K50" s="211" t="n"/>
+      <c r="L50" s="91" t="n"/>
+      <c r="M50" s="211" t="n"/>
+      <c r="N50" s="91" t="n"/>
+      <c r="O50" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="P50" s="93" t="n">
         <v>4447</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="182" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="216" t="inlineStr">
         <is>
           <t>#LU0CRP09L</t>
         </is>
       </c>
-      <c r="B47" s="180" t="n">
+      <c r="B51" s="214" t="n">
         <v>809</v>
       </c>
-      <c r="C47" s="173" t="n">
-        <v>44</v>
-      </c>
-      <c r="D47" s="89" t="inlineStr">
+      <c r="C51" s="207" t="n">
+        <v>48</v>
+      </c>
+      <c r="D51" s="89" t="inlineStr">
         <is>
           <t>I Dont Know</t>
         </is>
       </c>
-      <c r="E47" s="180" t="n"/>
-      <c r="F47" s="89" t="n"/>
-      <c r="G47" s="180" t="n"/>
-      <c r="H47" s="89" t="n"/>
-      <c r="I47" s="180" t="n"/>
-      <c r="J47" s="89" t="n"/>
-      <c r="K47" s="180" t="n"/>
-      <c r="L47" s="89" t="n"/>
-      <c r="M47" s="180" t="n"/>
-      <c r="N47" s="89" t="n"/>
-      <c r="O47" s="184" t="n">
+      <c r="E51" s="214" t="n"/>
+      <c r="F51" s="89" t="n"/>
+      <c r="G51" s="214" t="n"/>
+      <c r="H51" s="89" t="n"/>
+      <c r="I51" s="214" t="n"/>
+      <c r="J51" s="89" t="n"/>
+      <c r="K51" s="214" t="n"/>
+      <c r="L51" s="89" t="n"/>
+      <c r="M51" s="214" t="n"/>
+      <c r="N51" s="89" t="n"/>
+      <c r="O51" s="218" t="n">
         <v>3</v>
       </c>
-      <c r="P47" s="97" t="n">
+      <c r="P51" s="97" t="n">
         <v>3435</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="183" t="inlineStr">
+    <row r="52">
+      <c r="A52" s="217" t="inlineStr">
         <is>
           <t>#YCPP0QPP8</t>
         </is>
       </c>
-      <c r="B48" s="177" t="n">
+      <c r="B52" s="211" t="n">
         <v>3327</v>
       </c>
-      <c r="C48" s="169" t="n">
-        <v>45</v>
-      </c>
-      <c r="D48" s="91" t="inlineStr">
+      <c r="C52" s="203" t="n">
+        <v>49</v>
+      </c>
+      <c r="D52" s="91" t="inlineStr">
         <is>
           <t>Coach</t>
         </is>
       </c>
-      <c r="E48" s="177" t="n"/>
-      <c r="F48" s="91" t="n"/>
-      <c r="G48" s="177" t="n"/>
-      <c r="H48" s="91" t="n"/>
-      <c r="I48" s="177" t="n"/>
-      <c r="J48" s="91" t="n"/>
-      <c r="K48" s="177" t="n"/>
-      <c r="L48" s="91" t="n"/>
-      <c r="M48" s="177" t="n"/>
-      <c r="N48" s="91" t="n"/>
-      <c r="O48" s="183" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" s="95" t="n">
+      <c r="E52" s="211" t="n"/>
+      <c r="F52" s="91" t="n"/>
+      <c r="G52" s="211" t="n"/>
+      <c r="H52" s="91" t="n"/>
+      <c r="I52" s="211" t="n"/>
+      <c r="J52" s="91" t="n"/>
+      <c r="K52" s="211" t="n"/>
+      <c r="L52" s="91" t="n"/>
+      <c r="M52" s="211" t="n"/>
+      <c r="N52" s="91" t="n"/>
+      <c r="O52" s="217" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" s="95" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Clash.xlsx
+++ b/Clash.xlsx
@@ -20,7 +20,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -47,11 +47,20 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
     <font/>
   </fonts>
-  <fills count="26">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
@@ -135,6 +144,41 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90EE90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9C9C9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF86E486"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5C2C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFE0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF5F5D6"/>
       </patternFill>
     </fill>
@@ -179,7 +223,23 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -246,13 +306,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
     <border/>
     <border>
       <right style="medium"/>
@@ -266,9 +319,9 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -325,113 +378,124 @@
     <xf numFmtId="164" fontId="1" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="11" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="10" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="13" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="12" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="12" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="10" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="14" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="15" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="16" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="13" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="17" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="21" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="18" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="17" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="21" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="20" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="24" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="23" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="22" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="17" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="15" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="15" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="14" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="17" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="18" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="23" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="22" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="20" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="10" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="12" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="13" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="14" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="15" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="10" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="20" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="15" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="12" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="13" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="16" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="14" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="14" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="15" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="17" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="18" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="21" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="22" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="23" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="17" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="18" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="23" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="20" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="21" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="22" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="24" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="25" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="19" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="19" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="20" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="18" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="21" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="21" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="26" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="26" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="27" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="25" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="28" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="28" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="22" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="22" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="23" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="21" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="24" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="18" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="19" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="19" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="24" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="18" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="21" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="22" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="22" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="23" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="21" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="25" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="20" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="20" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="24" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="23" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="18" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="29" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="29" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="30" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="28" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="31" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="25" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="26" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="26" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="31" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="25" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="28" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="29" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="29" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="30" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="28" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="32" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="27" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="27" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="31" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="30" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="25" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="20" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="20" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="18" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="19" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="24" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="23" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="21" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="21" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="8" fillId="27" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="27" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="25" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="26" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="31" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="30" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="28" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="28" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="21" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="25" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="28" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="32" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,8 +863,8 @@
   </sheetPr>
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -808,8 +872,8 @@
     <col width="13.28515625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="13" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="5" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="13" bestFit="1" customWidth="1" min="4" max="6"/>
-    <col width="13" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="16.140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="13" bestFit="1" customWidth="1" min="5" max="6"/>
     <col width="13" bestFit="1" customWidth="1" min="6" max="6"/>
     <col width="7" bestFit="1" customWidth="1" min="7" max="8"/>
     <col width="7" bestFit="1" customWidth="1" min="8" max="8"/>
@@ -978,2424 +1042,2416 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="81" t="inlineStr">
+      <c r="A4" s="92" t="inlineStr">
         <is>
           <t>#QLJ2U20Y2</t>
         </is>
       </c>
-      <c r="B4" s="81" t="n">
+      <c r="B4" s="92" t="n">
         <v>1486</v>
       </c>
-      <c r="C4" s="82" t="n">
+      <c r="C4" s="93" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="83" t="inlineStr">
+      <c r="D4" s="94" t="inlineStr">
         <is>
           <t>DeadLeaf</t>
         </is>
       </c>
-      <c r="E4" s="84" t="n">
-        <v>6</v>
-      </c>
-      <c r="F4" s="83" t="n">
+      <c r="E4" s="95" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" s="94" t="n">
         <v>13763</v>
       </c>
-      <c r="G4" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="86" t="n">
+      <c r="G4" s="96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="97" t="n">
         <v>30</v>
       </c>
-      <c r="I4" s="84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" s="83" t="n">
+      <c r="I4" s="95" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" s="94" t="n">
         <v>11140</v>
       </c>
-      <c r="K4" s="84" t="n">
-        <v>6</v>
-      </c>
-      <c r="L4" s="83" t="n">
+      <c r="K4" s="95" t="n">
+        <v>6</v>
+      </c>
+      <c r="L4" s="94" t="n">
         <v>15509</v>
       </c>
-      <c r="M4" s="84" t="n">
-        <v>6</v>
-      </c>
-      <c r="N4" s="83" t="n">
+      <c r="M4" s="95" t="n">
+        <v>6</v>
+      </c>
+      <c r="N4" s="94" t="n">
         <v>8567</v>
       </c>
-      <c r="O4" s="84" t="n">
-        <v>6</v>
-      </c>
-      <c r="P4" s="83" t="n">
+      <c r="O4" s="95" t="n">
+        <v>6</v>
+      </c>
+      <c r="P4" s="94" t="n">
         <v>9729</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="87" t="inlineStr">
+      <c r="A5" s="98" t="inlineStr">
         <is>
           <t>#G0QPVJY9L</t>
         </is>
       </c>
-      <c r="B5" s="87" t="n">
+      <c r="B5" s="98" t="n">
         <v>838</v>
       </c>
-      <c r="C5" s="88" t="n">
+      <c r="C5" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="89" t="inlineStr">
+      <c r="D5" s="100" t="inlineStr">
         <is>
           <t>Zoro</t>
         </is>
       </c>
-      <c r="E5" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="F5" s="89" t="n">
+      <c r="E5" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" s="100" t="n">
         <v>13432</v>
       </c>
-      <c r="G5" s="91" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" s="89" t="n">
+      <c r="G5" s="102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" s="100" t="n">
         <v>8855</v>
       </c>
-      <c r="K5" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="L5" s="89" t="n">
+      <c r="K5" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="L5" s="100" t="n">
         <v>10965</v>
       </c>
-      <c r="M5" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="N5" s="89" t="n">
+      <c r="M5" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="N5" s="100" t="n">
         <v>7905</v>
       </c>
-      <c r="O5" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="P5" s="89" t="n">
+      <c r="O5" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="P5" s="100" t="n">
         <v>6744</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="81" t="inlineStr">
+      <c r="A6" s="92" t="inlineStr">
         <is>
           <t>#90U0VPU9U</t>
         </is>
       </c>
-      <c r="B6" s="81" t="n">
+      <c r="B6" s="92" t="n">
         <v>2534</v>
       </c>
-      <c r="C6" s="82" t="n">
+      <c r="C6" s="93" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="83" t="inlineStr">
+      <c r="D6" s="94" t="inlineStr">
         <is>
           <t>KYANI7E</t>
         </is>
       </c>
-      <c r="E6" s="84" t="n">
-        <v>6</v>
-      </c>
-      <c r="F6" s="83" t="n">
+      <c r="E6" s="95" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" s="94" t="n">
         <v>13260</v>
       </c>
-      <c r="G6" s="93" t="n">
+      <c r="G6" s="104" t="n">
         <v>206</v>
       </c>
-      <c r="H6" s="86" t="n">
+      <c r="H6" s="97" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" s="83" t="n">
+      <c r="I6" s="95" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" s="94" t="n">
         <v>12144</v>
       </c>
-      <c r="K6" s="84" t="n">
-        <v>6</v>
-      </c>
-      <c r="L6" s="83" t="n">
+      <c r="K6" s="95" t="n">
+        <v>6</v>
+      </c>
+      <c r="L6" s="94" t="n">
         <v>12835</v>
       </c>
-      <c r="M6" s="84" t="n">
-        <v>6</v>
-      </c>
-      <c r="N6" s="83" t="n">
+      <c r="M6" s="95" t="n">
+        <v>6</v>
+      </c>
+      <c r="N6" s="94" t="n">
         <v>7696</v>
       </c>
-      <c r="O6" s="84" t="n">
-        <v>6</v>
-      </c>
-      <c r="P6" s="83" t="n">
+      <c r="O6" s="95" t="n">
+        <v>6</v>
+      </c>
+      <c r="P6" s="94" t="n">
         <v>9188</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="87" t="inlineStr">
+      <c r="A7" s="98" t="inlineStr">
         <is>
           <t>#YJ20CRJYQ</t>
         </is>
       </c>
-      <c r="B7" s="87" t="n">
+      <c r="B7" s="98" t="n">
         <v>1265</v>
       </c>
-      <c r="C7" s="88" t="n">
+      <c r="C7" s="99" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="89" t="inlineStr">
+      <c r="D7" s="100" t="inlineStr">
         <is>
           <t>UnluckGod</t>
         </is>
       </c>
-      <c r="E7" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="F7" s="89" t="n">
+      <c r="E7" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="100" t="n">
         <v>12824</v>
       </c>
-      <c r="G7" s="91" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="92" t="n">
+      <c r="G7" s="102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="103" t="n">
         <v>61</v>
       </c>
-      <c r="I7" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="J7" s="89" t="n">
+      <c r="I7" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" s="100" t="n">
         <v>11999</v>
       </c>
-      <c r="K7" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="L7" s="89" t="n">
+      <c r="K7" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="L7" s="100" t="n">
         <v>12972</v>
       </c>
-      <c r="M7" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="N7" s="89" t="n">
+      <c r="M7" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="N7" s="100" t="n">
         <v>8286</v>
       </c>
-      <c r="O7" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="P7" s="89" t="n">
+      <c r="O7" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" s="100" t="n">
         <v>11406</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="81" t="inlineStr">
+      <c r="A8" s="92" t="inlineStr">
         <is>
           <t>#QUV2GP88U</t>
         </is>
       </c>
-      <c r="B8" s="81" t="n">
+      <c r="B8" s="92" t="n">
         <v>745</v>
       </c>
-      <c r="C8" s="82" t="n">
+      <c r="C8" s="93" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="83" t="inlineStr">
+      <c r="D8" s="94" t="inlineStr">
         <is>
           <t>Nico Robin</t>
         </is>
       </c>
-      <c r="E8" s="84" t="n">
-        <v>6</v>
-      </c>
-      <c r="F8" s="83" t="n">
+      <c r="E8" s="95" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" s="94" t="n">
         <v>12612</v>
       </c>
-      <c r="G8" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" s="83" t="n">
+      <c r="G8" s="96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="95" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" s="94" t="n">
         <v>11338</v>
       </c>
-      <c r="K8" s="84" t="n">
-        <v>6</v>
-      </c>
-      <c r="L8" s="83" t="n">
+      <c r="K8" s="95" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" s="94" t="n">
         <v>10997</v>
       </c>
-      <c r="M8" s="84" t="n">
-        <v>6</v>
-      </c>
-      <c r="N8" s="83" t="n">
+      <c r="M8" s="95" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" s="94" t="n">
         <v>11087</v>
       </c>
-      <c r="O8" s="84" t="n">
-        <v>6</v>
-      </c>
-      <c r="P8" s="83" t="n">
+      <c r="O8" s="95" t="n">
+        <v>6</v>
+      </c>
+      <c r="P8" s="94" t="n">
         <v>8089</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="87" t="inlineStr">
+      <c r="A9" s="98" t="inlineStr">
         <is>
           <t>#QCV22VP0G</t>
         </is>
       </c>
-      <c r="B9" s="87" t="n">
+      <c r="B9" s="98" t="n">
         <v>808</v>
       </c>
-      <c r="C9" s="88" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" s="89" t="inlineStr">
+      <c r="C9" s="99" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" s="100" t="inlineStr">
         <is>
           <t>Nami</t>
         </is>
       </c>
-      <c r="E9" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="F9" s="89" t="n">
+      <c r="E9" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" s="100" t="n">
         <v>11795</v>
       </c>
-      <c r="G9" s="91" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="J9" s="89" t="n">
+      <c r="G9" s="102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" s="100" t="n">
         <v>10769</v>
       </c>
-      <c r="K9" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="L9" s="89" t="n">
+      <c r="K9" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="L9" s="100" t="n">
         <v>12486</v>
       </c>
-      <c r="M9" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="N9" s="89" t="n">
+      <c r="M9" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="N9" s="100" t="n">
         <v>8472</v>
       </c>
-      <c r="O9" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="P9" s="89" t="n">
+      <c r="O9" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="P9" s="100" t="n">
         <v>9096</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="81" t="inlineStr">
+      <c r="A10" s="92" t="inlineStr">
         <is>
           <t>#YRGRRJQCY</t>
         </is>
       </c>
-      <c r="B10" s="81" t="n">
+      <c r="B10" s="92" t="n">
         <v>1366</v>
       </c>
-      <c r="C10" s="82" t="n">
+      <c r="C10" s="93" t="n">
         <v>7</v>
       </c>
-      <c r="D10" s="83" t="inlineStr">
+      <c r="D10" s="94" t="inlineStr">
         <is>
           <t>DoubleSpice</t>
         </is>
       </c>
-      <c r="E10" s="84" t="n">
-        <v>6</v>
-      </c>
-      <c r="F10" s="83" t="n">
+      <c r="E10" s="95" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" s="94" t="n">
         <v>11620</v>
       </c>
-      <c r="G10" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="86" t="n">
+      <c r="G10" s="96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="97" t="n">
         <v>60</v>
       </c>
-      <c r="I10" s="84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J10" s="83" t="n">
+      <c r="I10" s="95" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" s="94" t="n">
         <v>14095</v>
       </c>
-      <c r="K10" s="84" t="n">
-        <v>6</v>
-      </c>
-      <c r="L10" s="83" t="n">
+      <c r="K10" s="95" t="n">
+        <v>6</v>
+      </c>
+      <c r="L10" s="94" t="n">
         <v>12379</v>
       </c>
-      <c r="M10" s="84" t="n">
-        <v>6</v>
-      </c>
-      <c r="N10" s="83" t="n">
+      <c r="M10" s="95" t="n">
+        <v>6</v>
+      </c>
+      <c r="N10" s="94" t="n">
         <v>8256</v>
       </c>
-      <c r="O10" s="84" t="n">
-        <v>6</v>
-      </c>
-      <c r="P10" s="83" t="n">
+      <c r="O10" s="95" t="n">
+        <v>6</v>
+      </c>
+      <c r="P10" s="94" t="n">
         <v>7054</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="87" t="inlineStr">
+      <c r="A11" s="98" t="inlineStr">
         <is>
           <t>#QUG8QQJ92</t>
         </is>
       </c>
-      <c r="B11" s="87" t="n">
+      <c r="B11" s="98" t="n">
         <v>891</v>
       </c>
-      <c r="C11" s="88" t="n">
+      <c r="C11" s="99" t="n">
         <v>8</v>
       </c>
-      <c r="D11" s="89" t="inlineStr">
+      <c r="D11" s="100" t="inlineStr">
         <is>
           <t>Karma</t>
         </is>
       </c>
-      <c r="E11" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="F11" s="89" t="n">
+      <c r="E11" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" s="100" t="n">
         <v>11355</v>
       </c>
-      <c r="G11" s="91" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="J11" s="89" t="n">
+      <c r="G11" s="102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" s="100" t="n">
         <v>10003</v>
       </c>
-      <c r="K11" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="L11" s="89" t="n">
+      <c r="K11" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="L11" s="100" t="n">
         <v>10595</v>
       </c>
-      <c r="M11" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="N11" s="89" t="n">
+      <c r="M11" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="N11" s="100" t="n">
         <v>9240</v>
       </c>
-      <c r="O11" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="P11" s="89" t="n">
+      <c r="O11" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="P11" s="100" t="n">
         <v>10628</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="94" t="inlineStr">
+      <c r="A12" s="105" t="inlineStr">
         <is>
           <t>#98JG2UJQL</t>
         </is>
       </c>
-      <c r="B12" s="94" t="n">
+      <c r="B12" s="105" t="n">
         <v>2895</v>
       </c>
-      <c r="C12" s="82" t="n">
+      <c r="C12" s="93" t="n">
         <v>9</v>
       </c>
-      <c r="D12" s="95" t="inlineStr">
+      <c r="D12" s="106" t="inlineStr">
         <is>
           <t>Dragonux</t>
         </is>
       </c>
-      <c r="E12" s="96" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" s="95" t="n">
+      <c r="E12" s="107" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" s="106" t="n">
         <v>10910</v>
       </c>
-      <c r="G12" s="97" t="n">
+      <c r="G12" s="108" t="n">
         <v>211</v>
       </c>
-      <c r="H12" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="96" t="n">
-        <v>6</v>
-      </c>
-      <c r="J12" s="95" t="n">
+      <c r="H12" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="107" t="n">
+        <v>6</v>
+      </c>
+      <c r="J12" s="106" t="n">
         <v>8750</v>
       </c>
-      <c r="K12" s="96" t="n">
-        <v>6</v>
-      </c>
-      <c r="L12" s="95" t="n">
+      <c r="K12" s="107" t="n">
+        <v>6</v>
+      </c>
+      <c r="L12" s="106" t="n">
         <v>10865</v>
       </c>
-      <c r="M12" s="96" t="n">
-        <v>6</v>
-      </c>
-      <c r="N12" s="95" t="n">
+      <c r="M12" s="107" t="n">
+        <v>6</v>
+      </c>
+      <c r="N12" s="106" t="n">
         <v>8025</v>
       </c>
-      <c r="O12" s="96" t="n">
-        <v>6</v>
-      </c>
-      <c r="P12" s="95" t="n">
+      <c r="O12" s="107" t="n">
+        <v>6</v>
+      </c>
+      <c r="P12" s="106" t="n">
         <v>7000</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="87" t="inlineStr">
+      <c r="A13" s="98" t="inlineStr">
         <is>
           <t>#QLR088LC9</t>
         </is>
       </c>
-      <c r="B13" s="87" t="n">
-        <v>896</v>
-      </c>
-      <c r="C13" s="88" t="n">
+      <c r="B13" s="98" t="n">
+        <v>883</v>
+      </c>
+      <c r="C13" s="99" t="n">
         <v>10</v>
       </c>
-      <c r="D13" s="89" t="inlineStr">
+      <c r="D13" s="100" t="inlineStr">
         <is>
           <t>Sanji</t>
         </is>
       </c>
-      <c r="E13" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="F13" s="89" t="n">
+      <c r="E13" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" s="100" t="n">
         <v>10910</v>
       </c>
-      <c r="G13" s="91" t="n">
-        <v>6</v>
-      </c>
-      <c r="H13" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="J13" s="89" t="n">
+      <c r="G13" s="102" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" s="100" t="n">
         <v>9550</v>
       </c>
-      <c r="K13" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="L13" s="89" t="n">
+      <c r="K13" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="L13" s="100" t="n">
         <v>9138</v>
       </c>
-      <c r="M13" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="N13" s="89" t="n">
+      <c r="M13" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="N13" s="100" t="n">
         <v>8897</v>
       </c>
-      <c r="O13" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="P13" s="89" t="n">
+      <c r="O13" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="P13" s="100" t="n">
         <v>8512</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="81" t="inlineStr">
+      <c r="A14" s="92" t="inlineStr">
         <is>
           <t>#QUYG0PQC8</t>
         </is>
       </c>
-      <c r="B14" s="81" t="n">
+      <c r="B14" s="92" t="n">
         <v>852</v>
       </c>
-      <c r="C14" s="82" t="n">
+      <c r="C14" s="93" t="n">
         <v>11</v>
       </c>
-      <c r="D14" s="83" t="inlineStr">
+      <c r="D14" s="94" t="inlineStr">
         <is>
           <t>Luffy</t>
         </is>
       </c>
-      <c r="E14" s="84" t="n">
-        <v>6</v>
-      </c>
-      <c r="F14" s="83" t="n">
+      <c r="E14" s="95" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" s="94" t="n">
         <v>10879</v>
       </c>
-      <c r="G14" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" s="83" t="n">
+      <c r="G14" s="96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="95" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" s="94" t="n">
         <v>9114</v>
       </c>
-      <c r="K14" s="84" t="n">
-        <v>6</v>
-      </c>
-      <c r="L14" s="83" t="n">
+      <c r="K14" s="95" t="n">
+        <v>6</v>
+      </c>
+      <c r="L14" s="94" t="n">
         <v>13385</v>
       </c>
-      <c r="M14" s="84" t="n">
-        <v>6</v>
-      </c>
-      <c r="N14" s="83" t="n">
+      <c r="M14" s="95" t="n">
+        <v>6</v>
+      </c>
+      <c r="N14" s="94" t="n">
         <v>7877</v>
       </c>
-      <c r="O14" s="84" t="n">
-        <v>6</v>
-      </c>
-      <c r="P14" s="83" t="n">
+      <c r="O14" s="95" t="n">
+        <v>6</v>
+      </c>
+      <c r="P14" s="94" t="n">
         <v>8347</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="99" t="inlineStr">
+      <c r="A15" s="110" t="inlineStr">
         <is>
           <t>#G0JPUQGYR</t>
         </is>
       </c>
-      <c r="B15" s="99" t="n">
+      <c r="B15" s="110" t="n">
         <v>1394</v>
       </c>
-      <c r="C15" s="88" t="n">
+      <c r="C15" s="99" t="n">
         <v>12</v>
       </c>
-      <c r="D15" s="100" t="inlineStr">
+      <c r="D15" s="111" t="inlineStr">
         <is>
           <t>Collin</t>
         </is>
       </c>
-      <c r="E15" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="F15" s="100" t="n">
+      <c r="E15" s="112" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" s="111" t="n">
         <v>8833</v>
       </c>
-      <c r="G15" s="102" t="n">
+      <c r="G15" s="113" t="n">
         <v>20</v>
       </c>
-      <c r="H15" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="J15" s="100" t="n">
+      <c r="H15" s="114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="112" t="n">
+        <v>6</v>
+      </c>
+      <c r="J15" s="111" t="n">
         <v>9238</v>
       </c>
-      <c r="K15" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="L15" s="100" t="n">
+      <c r="K15" s="112" t="n">
+        <v>6</v>
+      </c>
+      <c r="L15" s="111" t="n">
         <v>7756</v>
       </c>
-      <c r="M15" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="N15" s="104" t="n">
+      <c r="M15" s="112" t="n">
+        <v>6</v>
+      </c>
+      <c r="N15" s="115" t="n">
         <v>5943</v>
       </c>
-      <c r="O15" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="P15" s="100" t="n">
+      <c r="O15" s="112" t="n">
+        <v>6</v>
+      </c>
+      <c r="P15" s="111" t="n">
         <v>8224</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="94" t="inlineStr">
+      <c r="A16" s="105" t="inlineStr">
         <is>
           <t>#82QLQCJRJ</t>
         </is>
       </c>
-      <c r="B16" s="94" t="n">
+      <c r="B16" s="105" t="n">
         <v>2903</v>
       </c>
-      <c r="C16" s="82" t="n">
+      <c r="C16" s="93" t="n">
         <v>13</v>
       </c>
-      <c r="D16" s="95" t="inlineStr">
+      <c r="D16" s="106" t="inlineStr">
         <is>
           <t>Raging Fury</t>
         </is>
       </c>
-      <c r="E16" s="96" t="n">
-        <v>6</v>
-      </c>
-      <c r="F16" s="95" t="n">
+      <c r="E16" s="107" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" s="106" t="n">
         <v>8055</v>
       </c>
-      <c r="G16" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="96" t="n">
-        <v>6</v>
-      </c>
-      <c r="J16" s="95" t="n">
+      <c r="G16" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="107" t="n">
+        <v>6</v>
+      </c>
+      <c r="J16" s="106" t="n">
         <v>7115</v>
       </c>
-      <c r="K16" s="105" t="n">
+      <c r="K16" s="116" t="n">
         <v>2</v>
       </c>
-      <c r="L16" s="106" t="n">
+      <c r="L16" s="117" t="n">
         <v>2320</v>
       </c>
-      <c r="M16" s="96" t="n">
-        <v>6</v>
-      </c>
-      <c r="N16" s="107" t="n">
+      <c r="M16" s="107" t="n">
+        <v>6</v>
+      </c>
+      <c r="N16" s="118" t="n">
         <v>4920</v>
       </c>
-      <c r="O16" s="96" t="n">
-        <v>6</v>
-      </c>
-      <c r="P16" s="107" t="n">
+      <c r="O16" s="107" t="n">
+        <v>6</v>
+      </c>
+      <c r="P16" s="118" t="n">
         <v>5135</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="87" t="inlineStr">
+      <c r="A17" s="98" t="inlineStr">
         <is>
           <t>#Q8CLCUCC2</t>
         </is>
       </c>
-      <c r="B17" s="87" t="n">
+      <c r="B17" s="98" t="n">
         <v>1373</v>
       </c>
-      <c r="C17" s="88" t="n">
+      <c r="C17" s="99" t="n">
         <v>14</v>
       </c>
-      <c r="D17" s="89" t="inlineStr">
+      <c r="D17" s="100" t="inlineStr">
         <is>
           <t>Moxxi</t>
         </is>
       </c>
-      <c r="E17" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="F17" s="89" t="n">
+      <c r="E17" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="F17" s="100" t="n">
         <v>8015</v>
       </c>
-      <c r="G17" s="91" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="92" t="n">
+      <c r="G17" s="102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="103" t="n">
         <v>60</v>
       </c>
-      <c r="I17" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="J17" s="89" t="n">
+      <c r="I17" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="J17" s="100" t="n">
         <v>11010</v>
       </c>
-      <c r="K17" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="L17" s="89" t="n">
+      <c r="K17" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="L17" s="100" t="n">
         <v>13857</v>
       </c>
-      <c r="M17" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="N17" s="89" t="n">
+      <c r="M17" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="N17" s="100" t="n">
         <v>7905</v>
       </c>
-      <c r="O17" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="P17" s="89" t="n">
+      <c r="O17" s="101" t="n">
+        <v>6</v>
+      </c>
+      <c r="P17" s="100" t="n">
         <v>7224</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="94" t="inlineStr">
+      <c r="A18" s="105" t="inlineStr">
         <is>
           <t>#QU0U2Q99G</t>
         </is>
       </c>
-      <c r="B18" s="94" t="n">
+      <c r="B18" s="105" t="n">
         <v>942</v>
       </c>
-      <c r="C18" s="82" t="n">
+      <c r="C18" s="93" t="n">
         <v>15</v>
       </c>
-      <c r="D18" s="95" t="inlineStr">
+      <c r="D18" s="106" t="inlineStr">
         <is>
           <t>big coc</t>
         </is>
       </c>
-      <c r="E18" s="96" t="n">
-        <v>6</v>
-      </c>
-      <c r="F18" s="95" t="n">
+      <c r="E18" s="107" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" s="106" t="n">
         <v>7420</v>
       </c>
-      <c r="G18" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="98" t="n">
+      <c r="G18" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="109" t="n">
         <v>60</v>
       </c>
-      <c r="I18" s="96" t="n">
+      <c r="I18" s="107" t="n">
         <v>5</v>
       </c>
-      <c r="J18" s="107" t="n">
+      <c r="J18" s="118" t="n">
         <v>5150</v>
       </c>
-      <c r="K18" s="96" t="n">
-        <v>6</v>
-      </c>
-      <c r="L18" s="95" t="n">
+      <c r="K18" s="107" t="n">
+        <v>6</v>
+      </c>
+      <c r="L18" s="106" t="n">
         <v>9075</v>
       </c>
-      <c r="M18" s="94" t="n"/>
-      <c r="N18" s="98" t="n"/>
-      <c r="O18" s="94" t="n"/>
-      <c r="P18" s="98" t="n"/>
+      <c r="M18" s="105" t="n"/>
+      <c r="N18" s="109" t="n"/>
+      <c r="O18" s="105" t="n"/>
+      <c r="P18" s="109" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="99" t="inlineStr">
+      <c r="A19" s="110" t="inlineStr">
         <is>
           <t>#QRPRYR8LL</t>
         </is>
       </c>
-      <c r="B19" s="99" t="n">
+      <c r="B19" s="110" t="n">
         <v>1193</v>
       </c>
-      <c r="C19" s="88" t="n">
+      <c r="C19" s="99" t="n">
         <v>16</v>
       </c>
-      <c r="D19" s="100" t="inlineStr">
+      <c r="D19" s="111" t="inlineStr">
         <is>
           <t>FidelCashflow</t>
         </is>
       </c>
-      <c r="E19" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="F19" s="100" t="n">
+      <c r="E19" s="112" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" s="111" t="n">
         <v>6415</v>
       </c>
-      <c r="G19" s="102" t="n">
+      <c r="G19" s="113" t="n">
         <v>4</v>
       </c>
-      <c r="H19" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="J19" s="100" t="n">
+      <c r="H19" s="114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="112" t="n">
+        <v>6</v>
+      </c>
+      <c r="J19" s="111" t="n">
         <v>6547</v>
       </c>
-      <c r="K19" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="L19" s="100" t="n">
+      <c r="K19" s="112" t="n">
+        <v>6</v>
+      </c>
+      <c r="L19" s="111" t="n">
         <v>6811</v>
       </c>
-      <c r="M19" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="N19" s="104" t="n">
+      <c r="M19" s="112" t="n">
+        <v>6</v>
+      </c>
+      <c r="N19" s="115" t="n">
         <v>4239</v>
       </c>
-      <c r="O19" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="P19" s="104" t="n">
+      <c r="O19" s="112" t="n">
+        <v>6</v>
+      </c>
+      <c r="P19" s="115" t="n">
         <v>4214</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="94" t="inlineStr">
+      <c r="A20" s="105" t="inlineStr">
         <is>
           <t>#QY0VGPQGQ</t>
         </is>
       </c>
-      <c r="B20" s="94" t="n">
+      <c r="B20" s="105" t="n">
         <v>540</v>
       </c>
-      <c r="C20" s="82" t="n">
+      <c r="C20" s="93" t="n">
         <v>17</v>
       </c>
-      <c r="D20" s="95" t="inlineStr">
+      <c r="D20" s="106" t="inlineStr">
         <is>
           <t>killerjones</t>
         </is>
       </c>
-      <c r="E20" s="96" t="n">
-        <v>6</v>
-      </c>
-      <c r="F20" s="95" t="n">
+      <c r="E20" s="107" t="n">
+        <v>6</v>
+      </c>
+      <c r="F20" s="106" t="n">
         <v>6320</v>
       </c>
-      <c r="G20" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="98" t="n">
+      <c r="G20" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="109" t="n">
         <v>15</v>
       </c>
-      <c r="I20" s="94" t="n"/>
-      <c r="J20" s="98" t="n"/>
-      <c r="K20" s="94" t="n"/>
-      <c r="L20" s="98" t="n"/>
-      <c r="M20" s="94" t="n"/>
-      <c r="N20" s="98" t="n"/>
-      <c r="O20" s="94" t="n"/>
-      <c r="P20" s="98" t="n"/>
+      <c r="I20" s="105" t="n"/>
+      <c r="J20" s="109" t="n"/>
+      <c r="K20" s="105" t="n"/>
+      <c r="L20" s="109" t="n"/>
+      <c r="M20" s="105" t="n"/>
+      <c r="N20" s="109" t="n"/>
+      <c r="O20" s="105" t="n"/>
+      <c r="P20" s="109" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="99" t="inlineStr">
+      <c r="A21" s="110" t="inlineStr">
         <is>
           <t>#LC9GUPJJG</t>
         </is>
       </c>
-      <c r="B21" s="99" t="n">
+      <c r="B21" s="110" t="n">
         <v>1050</v>
       </c>
-      <c r="C21" s="88" t="n">
+      <c r="C21" s="99" t="n">
         <v>18</v>
       </c>
-      <c r="D21" s="100" t="inlineStr">
+      <c r="D21" s="111" t="inlineStr">
         <is>
           <t>raptor2222a</t>
         </is>
       </c>
-      <c r="E21" s="101" t="n">
+      <c r="E21" s="112" t="n">
         <v>5</v>
       </c>
-      <c r="F21" s="104" t="n">
+      <c r="F21" s="115" t="n">
         <v>4350</v>
       </c>
-      <c r="G21" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="99" t="n"/>
-      <c r="L21" s="103" t="n"/>
-      <c r="M21" s="99" t="n"/>
-      <c r="N21" s="103" t="n"/>
-      <c r="O21" s="99" t="n"/>
-      <c r="P21" s="103" t="n"/>
+      <c r="G21" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="110" t="n"/>
+      <c r="L21" s="114" t="n"/>
+      <c r="M21" s="110" t="n"/>
+      <c r="N21" s="114" t="n"/>
+      <c r="O21" s="110" t="n"/>
+      <c r="P21" s="114" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="94" t="inlineStr">
+      <c r="A22" s="105" t="inlineStr">
         <is>
           <t>#QLG0VJG2J</t>
         </is>
       </c>
-      <c r="B22" s="94" t="n">
+      <c r="B22" s="105" t="n">
         <v>1167</v>
       </c>
-      <c r="C22" s="82" t="n">
+      <c r="C22" s="93" t="n">
         <v>19</v>
       </c>
-      <c r="D22" s="107" t="inlineStr">
+      <c r="D22" s="118" t="inlineStr">
         <is>
           <t>PocketRocket</t>
         </is>
       </c>
-      <c r="E22" s="97" t="n">
+      <c r="E22" s="108" t="n">
         <v>4</v>
       </c>
-      <c r="F22" s="107" t="n">
+      <c r="F22" s="118" t="n">
         <v>4327</v>
       </c>
-      <c r="G22" s="105" t="n">
+      <c r="G22" s="116" t="n">
         <v>20</v>
       </c>
-      <c r="H22" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="97" t="n">
+      <c r="H22" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="108" t="n">
         <v>4</v>
       </c>
-      <c r="J22" s="107" t="n">
+      <c r="J22" s="118" t="n">
         <v>5215</v>
       </c>
-      <c r="K22" s="94" t="n"/>
-      <c r="L22" s="98" t="n"/>
-      <c r="M22" s="94" t="n"/>
-      <c r="N22" s="98" t="n"/>
-      <c r="O22" s="94" t="n"/>
-      <c r="P22" s="98" t="n"/>
+      <c r="K22" s="105" t="n"/>
+      <c r="L22" s="109" t="n"/>
+      <c r="M22" s="105" t="n"/>
+      <c r="N22" s="109" t="n"/>
+      <c r="O22" s="105" t="n"/>
+      <c r="P22" s="109" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="99" t="inlineStr">
+      <c r="A23" s="110" t="inlineStr">
         <is>
           <t>#QL8LVLYG8</t>
         </is>
       </c>
-      <c r="B23" s="99" t="n">
+      <c r="B23" s="110" t="n">
         <v>930</v>
       </c>
-      <c r="C23" s="88" t="n">
+      <c r="C23" s="99" t="n">
         <v>20</v>
       </c>
-      <c r="D23" s="108" t="inlineStr">
+      <c r="D23" s="119" t="inlineStr">
         <is>
           <t>Some guy</t>
         </is>
       </c>
-      <c r="E23" s="102" t="n">
+      <c r="E23" s="113" t="n">
         <v>2</v>
       </c>
-      <c r="F23" s="108" t="n">
+      <c r="F23" s="119" t="n">
         <v>2650</v>
       </c>
-      <c r="G23" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="103" t="n">
+      <c r="G23" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="114" t="n">
         <v>20</v>
       </c>
-      <c r="I23" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="L23" s="100" t="n">
+      <c r="I23" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="112" t="n">
+        <v>6</v>
+      </c>
+      <c r="L23" s="111" t="n">
         <v>6917</v>
       </c>
-      <c r="M23" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" s="102" t="n">
+      <c r="M23" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="113" t="n">
         <v>2</v>
       </c>
-      <c r="P23" s="108" t="n">
+      <c r="P23" s="119" t="n">
         <v>1965</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="109" t="inlineStr">
+      <c r="A24" s="120" t="inlineStr">
         <is>
           <t>#QJC8LQU9U</t>
         </is>
       </c>
-      <c r="B24" s="109" t="n">
+      <c r="B24" s="120" t="n">
         <v>998</v>
       </c>
-      <c r="C24" s="110" t="n">
+      <c r="C24" s="121" t="n">
         <v>21</v>
       </c>
-      <c r="D24" s="111" t="inlineStr">
+      <c r="D24" s="122" t="inlineStr">
         <is>
           <t>Master01</t>
         </is>
       </c>
-      <c r="E24" s="112" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="112" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="114" t="n">
-        <v>6</v>
-      </c>
-      <c r="L24" s="115" t="n">
+      <c r="E24" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="125" t="n">
+        <v>6</v>
+      </c>
+      <c r="L24" s="126" t="n">
         <v>5415</v>
       </c>
-      <c r="M24" s="114" t="n">
-        <v>6</v>
-      </c>
-      <c r="N24" s="115" t="n">
+      <c r="M24" s="125" t="n">
+        <v>6</v>
+      </c>
+      <c r="N24" s="126" t="n">
         <v>4835</v>
       </c>
-      <c r="O24" s="114" t="n">
+      <c r="O24" s="125" t="n">
         <v>5</v>
       </c>
-      <c r="P24" s="115" t="n">
+      <c r="P24" s="126" t="n">
         <v>4055</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="99" t="inlineStr">
+      <c r="A25" s="110" t="inlineStr">
         <is>
           <t>#QV8JJ0URU</t>
         </is>
       </c>
-      <c r="B25" s="99" t="n">
+      <c r="B25" s="110" t="n">
         <v>741</v>
       </c>
-      <c r="C25" s="88" t="n">
+      <c r="C25" s="99" t="n">
         <v>22</v>
       </c>
-      <c r="D25" s="108" t="inlineStr">
+      <c r="D25" s="119" t="inlineStr">
         <is>
           <t>✨Jacob</t>
         </is>
       </c>
-      <c r="E25" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="N25" s="100" t="n">
+      <c r="E25" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="112" t="n">
+        <v>6</v>
+      </c>
+      <c r="N25" s="111" t="n">
         <v>7385</v>
       </c>
-      <c r="O25" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="P25" s="100" t="n">
+      <c r="O25" s="112" t="n">
+        <v>6</v>
+      </c>
+      <c r="P25" s="111" t="n">
         <v>9155</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="94" t="inlineStr">
+      <c r="A26" s="105" t="inlineStr">
         <is>
           <t>#QY8L2GLUR</t>
         </is>
       </c>
-      <c r="B26" s="94" t="n">
+      <c r="B26" s="105" t="n">
         <v>907</v>
       </c>
-      <c r="C26" s="82" t="n">
+      <c r="C26" s="93" t="n">
         <v>23</v>
       </c>
-      <c r="D26" s="106" t="inlineStr">
+      <c r="D26" s="117" t="inlineStr">
         <is>
           <t>Huy</t>
         </is>
       </c>
-      <c r="E26" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="96" t="n">
-        <v>6</v>
-      </c>
-      <c r="N26" s="95" t="n">
+      <c r="E26" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="107" t="n">
+        <v>6</v>
+      </c>
+      <c r="N26" s="106" t="n">
         <v>6995</v>
       </c>
-      <c r="O26" s="96" t="n">
-        <v>6</v>
-      </c>
-      <c r="P26" s="95" t="n">
+      <c r="O26" s="107" t="n">
+        <v>6</v>
+      </c>
+      <c r="P26" s="106" t="n">
         <v>6055</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="99" t="inlineStr">
+      <c r="A27" s="110" t="inlineStr">
+        <is>
+          <t>#L2QQL9QVJ</t>
+        </is>
+      </c>
+      <c r="B27" s="110" t="n">
+        <v>1450</v>
+      </c>
+      <c r="C27" s="99" t="n">
+        <v>24</v>
+      </c>
+      <c r="D27" s="119" t="inlineStr">
+        <is>
+          <t>JustPre10d</t>
+        </is>
+      </c>
+      <c r="E27" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="112" t="n">
+        <v>6</v>
+      </c>
+      <c r="N27" s="111" t="n">
+        <v>6655</v>
+      </c>
+      <c r="O27" s="112" t="n">
+        <v>6</v>
+      </c>
+      <c r="P27" s="111" t="n">
+        <v>7675</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="105" t="inlineStr">
+        <is>
+          <t>#LPR9RPCY9</t>
+        </is>
+      </c>
+      <c r="B28" s="105" t="n">
+        <v>990</v>
+      </c>
+      <c r="C28" s="93" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" s="117" t="inlineStr">
+        <is>
+          <t>sayhuss17</t>
+        </is>
+      </c>
+      <c r="E28" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" s="118" t="n">
+        <v>4240</v>
+      </c>
+      <c r="O28" s="105" t="n"/>
+      <c r="P28" s="109" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="110" t="inlineStr">
+        <is>
+          <t>#QQL8C29CY</t>
+        </is>
+      </c>
+      <c r="B29" s="110" t="n">
+        <v>876</v>
+      </c>
+      <c r="C29" s="99" t="n">
+        <v>26</v>
+      </c>
+      <c r="D29" s="119" t="inlineStr">
+        <is>
+          <t>TypicalTeague#2</t>
+        </is>
+      </c>
+      <c r="E29" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="112" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" s="115" t="n">
+        <v>4070</v>
+      </c>
+      <c r="O29" s="112" t="n">
+        <v>6</v>
+      </c>
+      <c r="P29" s="111" t="n">
+        <v>6410</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="105" t="inlineStr">
+        <is>
+          <t>#L9QL9YQQY</t>
+        </is>
+      </c>
+      <c r="B30" s="105" t="n">
+        <v>975</v>
+      </c>
+      <c r="C30" s="93" t="n">
+        <v>27</v>
+      </c>
+      <c r="D30" s="117" t="inlineStr">
+        <is>
+          <t>Ima Chad</t>
+        </is>
+      </c>
+      <c r="E30" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="107" t="n">
+        <v>5</v>
+      </c>
+      <c r="P30" s="117" t="n">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="110" t="inlineStr">
+        <is>
+          <t>#PJYVV989R</t>
+        </is>
+      </c>
+      <c r="B31" s="110" t="n">
+        <v>1528</v>
+      </c>
+      <c r="C31" s="99" t="n">
+        <v>28</v>
+      </c>
+      <c r="D31" s="119" t="inlineStr">
+        <is>
+          <t>nx</t>
+        </is>
+      </c>
+      <c r="E31" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="113" t="n">
+        <v>32</v>
+      </c>
+      <c r="H31" s="114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="110" t="n"/>
+      <c r="P31" s="114" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="105" t="inlineStr">
+        <is>
+          <t>#L9JJQY992</t>
+        </is>
+      </c>
+      <c r="B32" s="105" t="n">
+        <v>773</v>
+      </c>
+      <c r="C32" s="93" t="n">
+        <v>29</v>
+      </c>
+      <c r="D32" s="117" t="inlineStr">
+        <is>
+          <t>Fisted_Waffle</t>
+        </is>
+      </c>
+      <c r="E32" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="105" t="n"/>
+      <c r="P32" s="109" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="110" t="inlineStr">
+        <is>
+          <t>#QUVJGC0VQ</t>
+        </is>
+      </c>
+      <c r="B33" s="110" t="n">
+        <v>1203</v>
+      </c>
+      <c r="C33" s="99" t="n">
+        <v>30</v>
+      </c>
+      <c r="D33" s="114" t="inlineStr">
+        <is>
+          <t>Cam</t>
+        </is>
+      </c>
+      <c r="E33" s="110" t="n"/>
+      <c r="F33" s="114" t="n"/>
+      <c r="G33" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="114" t="n">
+        <v>73</v>
+      </c>
+      <c r="I33" s="110" t="n"/>
+      <c r="J33" s="114" t="n"/>
+      <c r="K33" s="110" t="n"/>
+      <c r="L33" s="114" t="n"/>
+      <c r="M33" s="110" t="n"/>
+      <c r="N33" s="114" t="n"/>
+      <c r="O33" s="110" t="n"/>
+      <c r="P33" s="114" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="105" t="inlineStr">
         <is>
           <t>#QUGYGY88C</t>
         </is>
       </c>
-      <c r="B27" s="99" t="n">
+      <c r="B34" s="105" t="n">
         <v>946</v>
       </c>
-      <c r="C27" s="88" t="n">
-        <v>24</v>
-      </c>
-      <c r="D27" s="108" t="inlineStr">
+      <c r="C34" s="93" t="n">
+        <v>31</v>
+      </c>
+      <c r="D34" s="109" t="inlineStr">
         <is>
           <t>Kingsman</t>
         </is>
       </c>
-      <c r="E27" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="99" t="n"/>
-      <c r="J27" s="103" t="n"/>
-      <c r="K27" s="99" t="n"/>
-      <c r="L27" s="103" t="n"/>
-      <c r="M27" s="99" t="n"/>
-      <c r="N27" s="103" t="n"/>
-      <c r="O27" s="99" t="n"/>
-      <c r="P27" s="103" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="94" t="inlineStr">
+      <c r="E34" s="105" t="n"/>
+      <c r="F34" s="109" t="n"/>
+      <c r="G34" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="105" t="n"/>
+      <c r="J34" s="109" t="n"/>
+      <c r="K34" s="105" t="n"/>
+      <c r="L34" s="109" t="n"/>
+      <c r="M34" s="105" t="n"/>
+      <c r="N34" s="109" t="n"/>
+      <c r="O34" s="105" t="n"/>
+      <c r="P34" s="109" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="110" t="inlineStr">
+        <is>
+          <t>#LGCVY0L9P</t>
+        </is>
+      </c>
+      <c r="B35" s="110" t="n">
+        <v>942</v>
+      </c>
+      <c r="C35" s="99" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" s="114" t="inlineStr">
+        <is>
+          <t>Death1wolf</t>
+        </is>
+      </c>
+      <c r="E35" s="110" t="n"/>
+      <c r="F35" s="114" t="n"/>
+      <c r="G35" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="110" t="n"/>
+      <c r="J35" s="114" t="n"/>
+      <c r="K35" s="110" t="n"/>
+      <c r="L35" s="114" t="n"/>
+      <c r="M35" s="110" t="n"/>
+      <c r="N35" s="114" t="n"/>
+      <c r="O35" s="110" t="n"/>
+      <c r="P35" s="114" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="105" t="inlineStr">
+        <is>
+          <t>#QLGYRVPU0</t>
+        </is>
+      </c>
+      <c r="B36" s="105" t="n">
+        <v>871</v>
+      </c>
+      <c r="C36" s="93" t="n">
+        <v>33</v>
+      </c>
+      <c r="D36" s="109" t="inlineStr">
+        <is>
+          <t>Black.Boy.</t>
+        </is>
+      </c>
+      <c r="E36" s="105" t="n"/>
+      <c r="F36" s="109" t="n"/>
+      <c r="G36" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="109" t="n">
+        <v>86</v>
+      </c>
+      <c r="I36" s="105" t="n"/>
+      <c r="J36" s="109" t="n"/>
+      <c r="K36" s="105" t="n"/>
+      <c r="L36" s="109" t="n"/>
+      <c r="M36" s="105" t="n"/>
+      <c r="N36" s="109" t="n"/>
+      <c r="O36" s="105" t="n"/>
+      <c r="P36" s="109" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="110" t="inlineStr">
+        <is>
+          <t>#QLUV29GGJ</t>
+        </is>
+      </c>
+      <c r="B37" s="110" t="n">
+        <v>994</v>
+      </c>
+      <c r="C37" s="99" t="n">
+        <v>34</v>
+      </c>
+      <c r="D37" s="114" t="inlineStr">
+        <is>
+          <t>Kukoshibo</t>
+        </is>
+      </c>
+      <c r="E37" s="110" t="n"/>
+      <c r="F37" s="114" t="n"/>
+      <c r="G37" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="110" t="n"/>
+      <c r="J37" s="114" t="n"/>
+      <c r="K37" s="110" t="n"/>
+      <c r="L37" s="114" t="n"/>
+      <c r="M37" s="110" t="n"/>
+      <c r="N37" s="114" t="n"/>
+      <c r="O37" s="110" t="n"/>
+      <c r="P37" s="114" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="105" t="inlineStr">
+        <is>
+          <t>#LPCLQUCCY</t>
+        </is>
+      </c>
+      <c r="B38" s="105" t="n">
+        <v>1013</v>
+      </c>
+      <c r="C38" s="93" t="n">
+        <v>35</v>
+      </c>
+      <c r="D38" s="109" t="inlineStr">
+        <is>
+          <t>Zodiac</t>
+        </is>
+      </c>
+      <c r="E38" s="105" t="n"/>
+      <c r="F38" s="109" t="n"/>
+      <c r="G38" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="105" t="n"/>
+      <c r="J38" s="109" t="n"/>
+      <c r="K38" s="105" t="n"/>
+      <c r="L38" s="109" t="n"/>
+      <c r="M38" s="105" t="n"/>
+      <c r="N38" s="109" t="n"/>
+      <c r="O38" s="105" t="n"/>
+      <c r="P38" s="109" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="110" t="inlineStr">
+        <is>
+          <t>#QV8RY9UC8</t>
+        </is>
+      </c>
+      <c r="B39" s="110" t="n">
+        <v>817</v>
+      </c>
+      <c r="C39" s="99" t="n">
+        <v>36</v>
+      </c>
+      <c r="D39" s="114" t="inlineStr">
+        <is>
+          <t>Apollo</t>
+        </is>
+      </c>
+      <c r="E39" s="110" t="n"/>
+      <c r="F39" s="114" t="n"/>
+      <c r="G39" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="110" t="n"/>
+      <c r="J39" s="114" t="n"/>
+      <c r="K39" s="110" t="n"/>
+      <c r="L39" s="114" t="n"/>
+      <c r="M39" s="110" t="n"/>
+      <c r="N39" s="114" t="n"/>
+      <c r="O39" s="110" t="n"/>
+      <c r="P39" s="114" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="105" t="inlineStr">
+        <is>
+          <t>#G0LJCVR2P</t>
+        </is>
+      </c>
+      <c r="B40" s="105" t="n">
+        <v>1051</v>
+      </c>
+      <c r="C40" s="93" t="n">
+        <v>37</v>
+      </c>
+      <c r="D40" s="109" t="inlineStr">
+        <is>
+          <t>DaddyChill</t>
+        </is>
+      </c>
+      <c r="E40" s="105" t="n"/>
+      <c r="F40" s="109" t="n"/>
+      <c r="G40" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="105" t="n"/>
+      <c r="J40" s="109" t="n"/>
+      <c r="K40" s="105" t="n"/>
+      <c r="L40" s="109" t="n"/>
+      <c r="M40" s="105" t="n"/>
+      <c r="N40" s="109" t="n"/>
+      <c r="O40" s="105" t="n"/>
+      <c r="P40" s="109" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="110" t="inlineStr">
+        <is>
+          <t>#QJQV82JG0</t>
+        </is>
+      </c>
+      <c r="B41" s="110" t="n">
+        <v>904</v>
+      </c>
+      <c r="C41" s="99" t="n">
+        <v>38</v>
+      </c>
+      <c r="D41" s="114" t="inlineStr">
+        <is>
+          <t>The UnknownYT</t>
+        </is>
+      </c>
+      <c r="E41" s="110" t="n"/>
+      <c r="F41" s="114" t="n"/>
+      <c r="G41" s="113" t="n">
+        <v>6</v>
+      </c>
+      <c r="H41" s="114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="110" t="n"/>
+      <c r="J41" s="114" t="n"/>
+      <c r="K41" s="110" t="n"/>
+      <c r="L41" s="114" t="n"/>
+      <c r="M41" s="110" t="n"/>
+      <c r="N41" s="114" t="n"/>
+      <c r="O41" s="110" t="n"/>
+      <c r="P41" s="114" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="105" t="inlineStr">
+        <is>
+          <t>#QUCCVCCJ0</t>
+        </is>
+      </c>
+      <c r="B42" s="105" t="n">
+        <v>756</v>
+      </c>
+      <c r="C42" s="93" t="n">
+        <v>39</v>
+      </c>
+      <c r="D42" s="109" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="E42" s="105" t="n"/>
+      <c r="F42" s="109" t="n"/>
+      <c r="G42" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="105" t="n"/>
+      <c r="J42" s="109" t="n"/>
+      <c r="K42" s="105" t="n"/>
+      <c r="L42" s="109" t="n"/>
+      <c r="M42" s="105" t="n"/>
+      <c r="N42" s="109" t="n"/>
+      <c r="O42" s="105" t="n"/>
+      <c r="P42" s="109" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="110" t="inlineStr">
+        <is>
+          <t>#8U9CRC8G</t>
+        </is>
+      </c>
+      <c r="B43" s="110" t="n">
+        <v>1515</v>
+      </c>
+      <c r="C43" s="99" t="n">
+        <v>40</v>
+      </c>
+      <c r="D43" s="114" t="inlineStr">
+        <is>
+          <t>CEO JACK</t>
+        </is>
+      </c>
+      <c r="E43" s="110" t="n"/>
+      <c r="F43" s="114" t="n"/>
+      <c r="G43" s="113" t="n">
+        <v>11</v>
+      </c>
+      <c r="H43" s="114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="110" t="n"/>
+      <c r="J43" s="114" t="n"/>
+      <c r="K43" s="110" t="n"/>
+      <c r="L43" s="114" t="n"/>
+      <c r="M43" s="110" t="n"/>
+      <c r="N43" s="114" t="n"/>
+      <c r="O43" s="110" t="n"/>
+      <c r="P43" s="114" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="105" t="inlineStr">
         <is>
           <t>#QQL28Y2UL</t>
         </is>
       </c>
-      <c r="B28" s="94" t="n">
+      <c r="B44" s="105" t="n">
         <v>1112</v>
       </c>
-      <c r="C28" s="82" t="n">
-        <v>25</v>
-      </c>
-      <c r="D28" s="106" t="inlineStr">
+      <c r="C44" s="93" t="n">
+        <v>41</v>
+      </c>
+      <c r="D44" s="109" t="inlineStr">
         <is>
           <t>SUPoT</t>
         </is>
       </c>
-      <c r="E28" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="98" t="n">
+      <c r="E44" s="105" t="n"/>
+      <c r="F44" s="109" t="n"/>
+      <c r="G44" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="109" t="n">
         <v>56</v>
       </c>
-      <c r="I28" s="94" t="n"/>
-      <c r="J28" s="98" t="n"/>
-      <c r="K28" s="94" t="n"/>
-      <c r="L28" s="98" t="n"/>
-      <c r="M28" s="94" t="n"/>
-      <c r="N28" s="98" t="n"/>
-      <c r="O28" s="94" t="n"/>
-      <c r="P28" s="98" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="99" t="inlineStr">
-        <is>
-          <t>#L2QQL9QVJ</t>
-        </is>
-      </c>
-      <c r="B29" s="99" t="n">
-        <v>1450</v>
-      </c>
-      <c r="C29" s="88" t="n">
-        <v>26</v>
-      </c>
-      <c r="D29" s="108" t="inlineStr">
-        <is>
-          <t>JustPre10d</t>
-        </is>
-      </c>
-      <c r="E29" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="N29" s="100" t="n">
-        <v>6655</v>
-      </c>
-      <c r="O29" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="P29" s="100" t="n">
-        <v>7675</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="94" t="inlineStr">
-        <is>
-          <t>#LPR9RPCY9</t>
-        </is>
-      </c>
-      <c r="B30" s="94" t="n">
-        <v>990</v>
-      </c>
-      <c r="C30" s="82" t="n">
-        <v>27</v>
-      </c>
-      <c r="D30" s="106" t="inlineStr">
-        <is>
-          <t>sayhuss17</t>
-        </is>
-      </c>
-      <c r="E30" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="97" t="n">
-        <v>4</v>
-      </c>
-      <c r="N30" s="107" t="n">
-        <v>4240</v>
-      </c>
-      <c r="O30" s="94" t="n"/>
-      <c r="P30" s="98" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="99" t="inlineStr">
-        <is>
-          <t>#QQL8C29CY</t>
-        </is>
-      </c>
-      <c r="B31" s="99" t="n">
-        <v>876</v>
-      </c>
-      <c r="C31" s="88" t="n">
-        <v>28</v>
-      </c>
-      <c r="D31" s="108" t="inlineStr">
-        <is>
-          <t>TypicalTeague#2</t>
-        </is>
-      </c>
-      <c r="E31" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="101" t="n">
+      <c r="I44" s="105" t="n"/>
+      <c r="J44" s="109" t="n"/>
+      <c r="K44" s="105" t="n"/>
+      <c r="L44" s="109" t="n"/>
+      <c r="M44" s="105" t="n"/>
+      <c r="N44" s="109" t="n"/>
+      <c r="O44" s="105" t="n"/>
+      <c r="P44" s="109" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="110" t="inlineStr">
+        <is>
+          <t>#Q0U0CRCGJ</t>
+        </is>
+      </c>
+      <c r="B45" s="110" t="n">
+        <v>723</v>
+      </c>
+      <c r="C45" s="99" t="n">
+        <v>42</v>
+      </c>
+      <c r="D45" s="114" t="inlineStr">
+        <is>
+          <t>Sn0wc0ne</t>
+        </is>
+      </c>
+      <c r="E45" s="110" t="n"/>
+      <c r="F45" s="114" t="n"/>
+      <c r="G45" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="110" t="n"/>
+      <c r="J45" s="114" t="n"/>
+      <c r="K45" s="110" t="n"/>
+      <c r="L45" s="114" t="n"/>
+      <c r="M45" s="110" t="n"/>
+      <c r="N45" s="114" t="n"/>
+      <c r="O45" s="110" t="n"/>
+      <c r="P45" s="114" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="105" t="inlineStr">
+        <is>
+          <t>#VGG9LYL0</t>
+        </is>
+      </c>
+      <c r="B46" s="105" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C46" s="93" t="n">
+        <v>43</v>
+      </c>
+      <c r="D46" s="109" t="inlineStr">
+        <is>
+          <t>ptripp1048</t>
+        </is>
+      </c>
+      <c r="E46" s="105" t="n"/>
+      <c r="F46" s="109" t="n"/>
+      <c r="G46" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="105" t="n"/>
+      <c r="J46" s="109" t="n"/>
+      <c r="K46" s="105" t="n"/>
+      <c r="L46" s="109" t="n"/>
+      <c r="M46" s="105" t="n"/>
+      <c r="N46" s="109" t="n"/>
+      <c r="O46" s="105" t="n"/>
+      <c r="P46" s="109" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="127" t="inlineStr">
+        <is>
+          <t>#QQLVRJCGQ</t>
+        </is>
+      </c>
+      <c r="B47" s="128" t="n">
+        <v>1240</v>
+      </c>
+      <c r="C47" s="129" t="n">
+        <v>44</v>
+      </c>
+      <c r="D47" s="130" t="inlineStr">
+        <is>
+          <t>khant</t>
+        </is>
+      </c>
+      <c r="E47" s="128" t="n"/>
+      <c r="F47" s="130" t="n"/>
+      <c r="G47" s="128" t="n"/>
+      <c r="H47" s="130" t="n"/>
+      <c r="I47" s="128" t="n"/>
+      <c r="J47" s="130" t="n"/>
+      <c r="K47" s="128" t="n"/>
+      <c r="L47" s="130" t="n"/>
+      <c r="M47" s="128" t="n"/>
+      <c r="N47" s="130" t="n"/>
+      <c r="O47" s="128" t="n"/>
+      <c r="P47" s="130" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="116" t="inlineStr">
+        <is>
+          <t>#QLL0PVCRV</t>
+        </is>
+      </c>
+      <c r="B48" s="105" t="n">
+        <v>1704</v>
+      </c>
+      <c r="C48" s="93" t="n">
+        <v>45</v>
+      </c>
+      <c r="D48" s="109" t="inlineStr">
+        <is>
+          <t>Harsh chhillar</t>
+        </is>
+      </c>
+      <c r="E48" s="105" t="n"/>
+      <c r="F48" s="109" t="n"/>
+      <c r="G48" s="105" t="n"/>
+      <c r="H48" s="109" t="n"/>
+      <c r="I48" s="105" t="n"/>
+      <c r="J48" s="109" t="n"/>
+      <c r="K48" s="105" t="n"/>
+      <c r="L48" s="109" t="n"/>
+      <c r="M48" s="105" t="n"/>
+      <c r="N48" s="109" t="n"/>
+      <c r="O48" s="105" t="n"/>
+      <c r="P48" s="109" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="113" t="inlineStr">
+        <is>
+          <t>#Q8YP9P8UJ</t>
+        </is>
+      </c>
+      <c r="B49" s="110" t="n">
+        <v>945</v>
+      </c>
+      <c r="C49" s="99" t="n">
+        <v>46</v>
+      </c>
+      <c r="D49" s="114" t="inlineStr">
+        <is>
+          <t>Ranger</t>
+        </is>
+      </c>
+      <c r="E49" s="110" t="n"/>
+      <c r="F49" s="114" t="n"/>
+      <c r="G49" s="110" t="n"/>
+      <c r="H49" s="114" t="n"/>
+      <c r="I49" s="112" t="n">
         <v>5</v>
       </c>
-      <c r="N31" s="104" t="n">
-        <v>4070</v>
-      </c>
-      <c r="O31" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="P31" s="100" t="n">
-        <v>6410</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="94" t="inlineStr">
-        <is>
-          <t>#QUVJGC0VQ</t>
-        </is>
-      </c>
-      <c r="B32" s="94" t="n">
-        <v>1203</v>
-      </c>
-      <c r="C32" s="82" t="n">
-        <v>29</v>
-      </c>
-      <c r="D32" s="106" t="inlineStr">
-        <is>
-          <t>Cam</t>
-        </is>
-      </c>
-      <c r="E32" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="98" t="n">
-        <v>73</v>
-      </c>
-      <c r="I32" s="94" t="n"/>
-      <c r="J32" s="98" t="n"/>
-      <c r="K32" s="94" t="n"/>
-      <c r="L32" s="98" t="n"/>
-      <c r="M32" s="94" t="n"/>
-      <c r="N32" s="98" t="n"/>
-      <c r="O32" s="94" t="n"/>
-      <c r="P32" s="98" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="99" t="inlineStr">
-        <is>
-          <t>#L9QL9YQQY</t>
-        </is>
-      </c>
-      <c r="B33" s="99" t="n">
-        <v>975</v>
-      </c>
-      <c r="C33" s="88" t="n">
-        <v>30</v>
-      </c>
-      <c r="D33" s="108" t="inlineStr">
-        <is>
-          <t>Ima Chad</t>
-        </is>
-      </c>
-      <c r="E33" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" s="101" t="n">
-        <v>5</v>
-      </c>
-      <c r="P33" s="108" t="n">
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="94" t="inlineStr">
-        <is>
-          <t>#QLGYRVPU0</t>
-        </is>
-      </c>
-      <c r="B34" s="94" t="n">
-        <v>871</v>
-      </c>
-      <c r="C34" s="82" t="n">
-        <v>31</v>
-      </c>
-      <c r="D34" s="106" t="inlineStr">
-        <is>
-          <t>Black.Boy.</t>
-        </is>
-      </c>
-      <c r="E34" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="98" t="n">
-        <v>86</v>
-      </c>
-      <c r="I34" s="94" t="n"/>
-      <c r="J34" s="98" t="n"/>
-      <c r="K34" s="94" t="n"/>
-      <c r="L34" s="98" t="n"/>
-      <c r="M34" s="94" t="n"/>
-      <c r="N34" s="98" t="n"/>
-      <c r="O34" s="94" t="n"/>
-      <c r="P34" s="98" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="99" t="inlineStr">
-        <is>
-          <t>#PJYVV989R</t>
-        </is>
-      </c>
-      <c r="B35" s="99" t="n">
-        <v>1528</v>
-      </c>
-      <c r="C35" s="88" t="n">
-        <v>32</v>
-      </c>
-      <c r="D35" s="108" t="inlineStr">
-        <is>
-          <t>nx</t>
-        </is>
-      </c>
-      <c r="E35" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="102" t="n">
-        <v>32</v>
-      </c>
-      <c r="H35" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" s="99" t="n"/>
-      <c r="P35" s="103" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="94" t="inlineStr">
-        <is>
-          <t>#LPCLQUCCY</t>
-        </is>
-      </c>
-      <c r="B36" s="94" t="n">
-        <v>1013</v>
-      </c>
-      <c r="C36" s="82" t="n">
-        <v>33</v>
-      </c>
-      <c r="D36" s="106" t="inlineStr">
-        <is>
-          <t>Zodiac</t>
-        </is>
-      </c>
-      <c r="E36" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="94" t="n"/>
-      <c r="J36" s="98" t="n"/>
-      <c r="K36" s="94" t="n"/>
-      <c r="L36" s="98" t="n"/>
-      <c r="M36" s="94" t="n"/>
-      <c r="N36" s="98" t="n"/>
-      <c r="O36" s="94" t="n"/>
-      <c r="P36" s="98" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="99" t="inlineStr">
-        <is>
-          <t>#QV8RY9UC8</t>
-        </is>
-      </c>
-      <c r="B37" s="99" t="n">
-        <v>817</v>
-      </c>
-      <c r="C37" s="88" t="n">
-        <v>34</v>
-      </c>
-      <c r="D37" s="108" t="inlineStr">
-        <is>
-          <t>Apollo</t>
-        </is>
-      </c>
-      <c r="E37" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="99" t="n"/>
-      <c r="J37" s="103" t="n"/>
-      <c r="K37" s="99" t="n"/>
-      <c r="L37" s="103" t="n"/>
-      <c r="M37" s="99" t="n"/>
-      <c r="N37" s="103" t="n"/>
-      <c r="O37" s="99" t="n"/>
-      <c r="P37" s="103" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="94" t="inlineStr">
-        <is>
-          <t>#L9JJQY992</t>
-        </is>
-      </c>
-      <c r="B38" s="94" t="n">
-        <v>773</v>
-      </c>
-      <c r="C38" s="82" t="n">
-        <v>35</v>
-      </c>
-      <c r="D38" s="106" t="inlineStr">
-        <is>
-          <t>Fisted_Waffle</t>
-        </is>
-      </c>
-      <c r="E38" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" s="94" t="n"/>
-      <c r="P38" s="98" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="99" t="inlineStr">
-        <is>
-          <t>#8U9CRC8G</t>
-        </is>
-      </c>
-      <c r="B39" s="99" t="n">
-        <v>1515</v>
-      </c>
-      <c r="C39" s="88" t="n">
-        <v>36</v>
-      </c>
-      <c r="D39" s="108" t="inlineStr">
-        <is>
-          <t>CEO JACK</t>
-        </is>
-      </c>
-      <c r="E39" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="108" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="102" t="n">
-        <v>11</v>
-      </c>
-      <c r="H39" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="99" t="n"/>
-      <c r="J39" s="103" t="n"/>
-      <c r="K39" s="99" t="n"/>
-      <c r="L39" s="103" t="n"/>
-      <c r="M39" s="99" t="n"/>
-      <c r="N39" s="103" t="n"/>
-      <c r="O39" s="99" t="n"/>
-      <c r="P39" s="103" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="94" t="inlineStr">
-        <is>
-          <t>#VGG9LYL0</t>
-        </is>
-      </c>
-      <c r="B40" s="94" t="n">
-        <v>1050</v>
-      </c>
-      <c r="C40" s="82" t="n">
-        <v>37</v>
-      </c>
-      <c r="D40" s="106" t="inlineStr">
-        <is>
-          <t>ptripp1048</t>
-        </is>
-      </c>
-      <c r="E40" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="94" t="n"/>
-      <c r="J40" s="98" t="n"/>
-      <c r="K40" s="94" t="n"/>
-      <c r="L40" s="98" t="n"/>
-      <c r="M40" s="94" t="n"/>
-      <c r="N40" s="98" t="n"/>
-      <c r="O40" s="94" t="n"/>
-      <c r="P40" s="98" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="99" t="inlineStr">
-        <is>
-          <t>#QJQV82JG0</t>
-        </is>
-      </c>
-      <c r="B41" s="99" t="n">
-        <v>904</v>
-      </c>
-      <c r="C41" s="88" t="n">
-        <v>38</v>
-      </c>
-      <c r="D41" s="103" t="inlineStr">
-        <is>
-          <t>The UnknownYT</t>
-        </is>
-      </c>
-      <c r="E41" s="99" t="n"/>
-      <c r="F41" s="103" t="n"/>
-      <c r="G41" s="99" t="n"/>
-      <c r="H41" s="103" t="n"/>
-      <c r="I41" s="99" t="n"/>
-      <c r="J41" s="103" t="n"/>
-      <c r="K41" s="99" t="n"/>
-      <c r="L41" s="103" t="n"/>
-      <c r="M41" s="99" t="n"/>
-      <c r="N41" s="103" t="n"/>
-      <c r="O41" s="99" t="n"/>
-      <c r="P41" s="103" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="94" t="inlineStr">
-        <is>
-          <t>#QUCCVCCJ0</t>
-        </is>
-      </c>
-      <c r="B42" s="94" t="n">
-        <v>756</v>
-      </c>
-      <c r="C42" s="82" t="n">
-        <v>39</v>
-      </c>
-      <c r="D42" s="98" t="inlineStr">
-        <is>
-          <t>koi</t>
-        </is>
-      </c>
-      <c r="E42" s="94" t="n"/>
-      <c r="F42" s="98" t="n"/>
-      <c r="G42" s="94" t="n"/>
-      <c r="H42" s="98" t="n"/>
-      <c r="I42" s="94" t="n"/>
-      <c r="J42" s="98" t="n"/>
-      <c r="K42" s="94" t="n"/>
-      <c r="L42" s="98" t="n"/>
-      <c r="M42" s="94" t="n"/>
-      <c r="N42" s="98" t="n"/>
-      <c r="O42" s="94" t="n"/>
-      <c r="P42" s="98" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="99" t="inlineStr">
-        <is>
-          <t>#LGCVY0L9P</t>
-        </is>
-      </c>
-      <c r="B43" s="99" t="n">
-        <v>942</v>
-      </c>
-      <c r="C43" s="88" t="n">
-        <v>40</v>
-      </c>
-      <c r="D43" s="103" t="inlineStr">
-        <is>
-          <t>Death1wolf</t>
-        </is>
-      </c>
-      <c r="E43" s="99" t="n"/>
-      <c r="F43" s="103" t="n"/>
-      <c r="G43" s="99" t="n"/>
-      <c r="H43" s="103" t="n"/>
-      <c r="I43" s="99" t="n"/>
-      <c r="J43" s="103" t="n"/>
-      <c r="K43" s="99" t="n"/>
-      <c r="L43" s="103" t="n"/>
-      <c r="M43" s="99" t="n"/>
-      <c r="N43" s="103" t="n"/>
-      <c r="O43" s="99" t="n"/>
-      <c r="P43" s="103" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="94" t="inlineStr">
-        <is>
-          <t>#QLUV29GGJ</t>
-        </is>
-      </c>
-      <c r="B44" s="94" t="n">
-        <v>994</v>
-      </c>
-      <c r="C44" s="82" t="n">
-        <v>41</v>
-      </c>
-      <c r="D44" s="98" t="inlineStr">
-        <is>
-          <t>Kukoshibo</t>
-        </is>
-      </c>
-      <c r="E44" s="94" t="n"/>
-      <c r="F44" s="98" t="n"/>
-      <c r="G44" s="94" t="n"/>
-      <c r="H44" s="98" t="n"/>
-      <c r="I44" s="94" t="n"/>
-      <c r="J44" s="98" t="n"/>
-      <c r="K44" s="94" t="n"/>
-      <c r="L44" s="98" t="n"/>
-      <c r="M44" s="94" t="n"/>
-      <c r="N44" s="98" t="n"/>
-      <c r="O44" s="94" t="n"/>
-      <c r="P44" s="98" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="99" t="inlineStr">
-        <is>
-          <t>#Q0U0CRCGJ</t>
-        </is>
-      </c>
-      <c r="B45" s="99" t="n">
-        <v>723</v>
-      </c>
-      <c r="C45" s="88" t="n">
-        <v>42</v>
-      </c>
-      <c r="D45" s="103" t="inlineStr">
-        <is>
-          <t>Sn0wc0ne</t>
-        </is>
-      </c>
-      <c r="E45" s="99" t="n"/>
-      <c r="F45" s="103" t="n"/>
-      <c r="G45" s="99" t="n"/>
-      <c r="H45" s="103" t="n"/>
-      <c r="I45" s="99" t="n"/>
-      <c r="J45" s="103" t="n"/>
-      <c r="K45" s="99" t="n"/>
-      <c r="L45" s="103" t="n"/>
-      <c r="M45" s="99" t="n"/>
-      <c r="N45" s="103" t="n"/>
-      <c r="O45" s="99" t="n"/>
-      <c r="P45" s="103" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="94" t="inlineStr">
-        <is>
-          <t>#G0LJCVR2P</t>
-        </is>
-      </c>
-      <c r="B46" s="94" t="n">
-        <v>1051</v>
-      </c>
-      <c r="C46" s="82" t="n">
-        <v>43</v>
-      </c>
-      <c r="D46" s="98" t="inlineStr">
-        <is>
-          <t>DaddyChill</t>
-        </is>
-      </c>
-      <c r="E46" s="94" t="n"/>
-      <c r="F46" s="98" t="n"/>
-      <c r="G46" s="94" t="n"/>
-      <c r="H46" s="98" t="n"/>
-      <c r="I46" s="94" t="n"/>
-      <c r="J46" s="98" t="n"/>
-      <c r="K46" s="94" t="n"/>
-      <c r="L46" s="98" t="n"/>
-      <c r="M46" s="94" t="n"/>
-      <c r="N46" s="98" t="n"/>
-      <c r="O46" s="94" t="n"/>
-      <c r="P46" s="98" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="116" t="inlineStr">
-        <is>
-          <t>#QQLVRJCGQ</t>
-        </is>
-      </c>
-      <c r="B47" s="117" t="n">
-        <v>1240</v>
-      </c>
-      <c r="C47" s="118" t="n">
-        <v>44</v>
-      </c>
-      <c r="D47" s="119" t="inlineStr">
-        <is>
-          <t>khant</t>
-        </is>
-      </c>
-      <c r="E47" s="117" t="n"/>
-      <c r="F47" s="119" t="n"/>
-      <c r="G47" s="117" t="n"/>
-      <c r="H47" s="119" t="n"/>
-      <c r="I47" s="117" t="n"/>
-      <c r="J47" s="119" t="n"/>
-      <c r="K47" s="117" t="n"/>
-      <c r="L47" s="119" t="n"/>
-      <c r="M47" s="117" t="n"/>
-      <c r="N47" s="119" t="n"/>
-      <c r="O47" s="117" t="n"/>
-      <c r="P47" s="119" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="105" t="inlineStr">
-        <is>
-          <t>#QLL0PVCRV</t>
-        </is>
-      </c>
-      <c r="B48" s="94" t="n">
-        <v>1704</v>
-      </c>
-      <c r="C48" s="82" t="n">
-        <v>45</v>
-      </c>
-      <c r="D48" s="98" t="inlineStr">
-        <is>
-          <t>Harsh chhillar</t>
-        </is>
-      </c>
-      <c r="E48" s="94" t="n"/>
-      <c r="F48" s="98" t="n"/>
-      <c r="G48" s="94" t="n"/>
-      <c r="H48" s="98" t="n"/>
-      <c r="I48" s="94" t="n"/>
-      <c r="J48" s="98" t="n"/>
-      <c r="K48" s="94" t="n"/>
-      <c r="L48" s="98" t="n"/>
-      <c r="M48" s="94" t="n"/>
-      <c r="N48" s="98" t="n"/>
-      <c r="O48" s="94" t="n"/>
-      <c r="P48" s="98" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="102" t="inlineStr">
-        <is>
-          <t>#Q8YP9P8UJ</t>
-        </is>
-      </c>
-      <c r="B49" s="99" t="n">
-        <v>945</v>
-      </c>
-      <c r="C49" s="88" t="n">
-        <v>46</v>
-      </c>
-      <c r="D49" s="103" t="inlineStr">
-        <is>
-          <t>Ranger</t>
-        </is>
-      </c>
-      <c r="E49" s="99" t="n"/>
-      <c r="F49" s="103" t="n"/>
-      <c r="G49" s="99" t="n"/>
-      <c r="H49" s="103" t="n"/>
-      <c r="I49" s="101" t="n">
-        <v>5</v>
-      </c>
-      <c r="J49" s="104" t="n">
+      <c r="J49" s="115" t="n">
         <v>4680</v>
       </c>
-      <c r="K49" s="99" t="n"/>
-      <c r="L49" s="103" t="n"/>
-      <c r="M49" s="99" t="n"/>
-      <c r="N49" s="103" t="n"/>
-      <c r="O49" s="99" t="n"/>
-      <c r="P49" s="103" t="n"/>
+      <c r="K49" s="110" t="n"/>
+      <c r="L49" s="114" t="n"/>
+      <c r="M49" s="110" t="n"/>
+      <c r="N49" s="114" t="n"/>
+      <c r="O49" s="110" t="n"/>
+      <c r="P49" s="114" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="105" t="inlineStr">
+      <c r="A50" s="116" t="inlineStr">
         <is>
           <t>#Q0JG2RJQ8</t>
         </is>
       </c>
-      <c r="B50" s="94" t="n">
+      <c r="B50" s="105" t="n">
         <v>997</v>
       </c>
-      <c r="C50" s="82" t="n">
+      <c r="C50" s="93" t="n">
         <v>47</v>
       </c>
-      <c r="D50" s="98" t="inlineStr">
+      <c r="D50" s="109" t="inlineStr">
         <is>
           <t>bozo</t>
         </is>
       </c>
-      <c r="E50" s="94" t="n"/>
-      <c r="F50" s="98" t="n"/>
-      <c r="G50" s="94" t="n"/>
-      <c r="H50" s="98" t="n"/>
-      <c r="I50" s="94" t="n"/>
-      <c r="J50" s="98" t="n"/>
-      <c r="K50" s="96" t="n">
-        <v>6</v>
-      </c>
-      <c r="L50" s="95" t="n">
+      <c r="E50" s="105" t="n"/>
+      <c r="F50" s="109" t="n"/>
+      <c r="G50" s="105" t="n"/>
+      <c r="H50" s="109" t="n"/>
+      <c r="I50" s="105" t="n"/>
+      <c r="J50" s="109" t="n"/>
+      <c r="K50" s="107" t="n">
+        <v>6</v>
+      </c>
+      <c r="L50" s="106" t="n">
         <v>6495</v>
       </c>
-      <c r="M50" s="94" t="n"/>
-      <c r="N50" s="98" t="n"/>
-      <c r="O50" s="94" t="n"/>
-      <c r="P50" s="98" t="n"/>
+      <c r="M50" s="105" t="n"/>
+      <c r="N50" s="109" t="n"/>
+      <c r="O50" s="105" t="n"/>
+      <c r="P50" s="109" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="102" t="inlineStr">
+      <c r="A51" s="113" t="inlineStr">
         <is>
           <t>#UVCCQC02</t>
         </is>
       </c>
-      <c r="B51" s="99" t="n">
+      <c r="B51" s="110" t="n">
         <v>1806</v>
       </c>
-      <c r="C51" s="88" t="n">
+      <c r="C51" s="99" t="n">
         <v>48</v>
       </c>
-      <c r="D51" s="103" t="inlineStr">
+      <c r="D51" s="114" t="inlineStr">
         <is>
           <t>lordshisha</t>
         </is>
       </c>
-      <c r="E51" s="99" t="n"/>
-      <c r="F51" s="103" t="n"/>
-      <c r="G51" s="99" t="n"/>
-      <c r="H51" s="103" t="n"/>
-      <c r="I51" s="99" t="n"/>
-      <c r="J51" s="103" t="n"/>
-      <c r="K51" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="L51" s="100" t="n">
+      <c r="E51" s="110" t="n"/>
+      <c r="F51" s="114" t="n"/>
+      <c r="G51" s="110" t="n"/>
+      <c r="H51" s="114" t="n"/>
+      <c r="I51" s="110" t="n"/>
+      <c r="J51" s="114" t="n"/>
+      <c r="K51" s="112" t="n">
+        <v>6</v>
+      </c>
+      <c r="L51" s="111" t="n">
         <v>8496</v>
       </c>
-      <c r="M51" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="N51" s="100" t="n">
+      <c r="M51" s="112" t="n">
+        <v>6</v>
+      </c>
+      <c r="N51" s="111" t="n">
         <v>6310</v>
       </c>
-      <c r="O51" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="P51" s="100" t="n">
+      <c r="O51" s="112" t="n">
+        <v>6</v>
+      </c>
+      <c r="P51" s="111" t="n">
         <v>6930</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="105" t="inlineStr">
+      <c r="A52" s="116" t="inlineStr">
         <is>
           <t>#P2CPRPQU</t>
         </is>
       </c>
-      <c r="B52" s="94" t="n">
+      <c r="B52" s="105" t="n">
         <v>2232</v>
       </c>
-      <c r="C52" s="82" t="n">
+      <c r="C52" s="93" t="n">
         <v>49</v>
       </c>
-      <c r="D52" s="98" t="inlineStr">
+      <c r="D52" s="109" t="inlineStr">
         <is>
           <t>The Drift King</t>
         </is>
       </c>
-      <c r="E52" s="94" t="n"/>
-      <c r="F52" s="98" t="n"/>
-      <c r="G52" s="94" t="n"/>
-      <c r="H52" s="98" t="n"/>
-      <c r="I52" s="94" t="n"/>
-      <c r="J52" s="98" t="n"/>
-      <c r="K52" s="96" t="n">
-        <v>6</v>
-      </c>
-      <c r="L52" s="95" t="n">
+      <c r="E52" s="105" t="n"/>
+      <c r="F52" s="109" t="n"/>
+      <c r="G52" s="105" t="n"/>
+      <c r="H52" s="109" t="n"/>
+      <c r="I52" s="105" t="n"/>
+      <c r="J52" s="109" t="n"/>
+      <c r="K52" s="107" t="n">
+        <v>6</v>
+      </c>
+      <c r="L52" s="106" t="n">
         <v>8023</v>
       </c>
-      <c r="M52" s="96" t="n">
-        <v>6</v>
-      </c>
-      <c r="N52" s="95" t="n">
+      <c r="M52" s="107" t="n">
+        <v>6</v>
+      </c>
+      <c r="N52" s="106" t="n">
         <v>7625</v>
       </c>
-      <c r="O52" s="96" t="n">
-        <v>6</v>
-      </c>
-      <c r="P52" s="95" t="n">
+      <c r="O52" s="107" t="n">
+        <v>6</v>
+      </c>
+      <c r="P52" s="106" t="n">
         <v>7375</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="102" t="inlineStr">
+      <c r="A53" s="113" t="inlineStr">
         <is>
           <t>#QJVL0LYQQ</t>
         </is>
       </c>
-      <c r="B53" s="99" t="n">
+      <c r="B53" s="110" t="n">
         <v>921</v>
       </c>
-      <c r="C53" s="88" t="n">
+      <c r="C53" s="99" t="n">
         <v>50</v>
       </c>
-      <c r="D53" s="103" t="inlineStr">
+      <c r="D53" s="114" t="inlineStr">
         <is>
           <t>mobbb341</t>
         </is>
       </c>
-      <c r="E53" s="99" t="n"/>
-      <c r="F53" s="103" t="n"/>
-      <c r="G53" s="99" t="n"/>
-      <c r="H53" s="103" t="n"/>
-      <c r="I53" s="99" t="n"/>
-      <c r="J53" s="103" t="n"/>
-      <c r="K53" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="L53" s="100" t="n">
+      <c r="E53" s="110" t="n"/>
+      <c r="F53" s="114" t="n"/>
+      <c r="G53" s="110" t="n"/>
+      <c r="H53" s="114" t="n"/>
+      <c r="I53" s="110" t="n"/>
+      <c r="J53" s="114" t="n"/>
+      <c r="K53" s="112" t="n">
+        <v>6</v>
+      </c>
+      <c r="L53" s="111" t="n">
         <v>7710</v>
       </c>
-      <c r="M53" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="N53" s="100" t="n">
+      <c r="M53" s="112" t="n">
+        <v>6</v>
+      </c>
+      <c r="N53" s="111" t="n">
         <v>8810</v>
       </c>
-      <c r="O53" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="P53" s="104" t="n">
+      <c r="O53" s="112" t="n">
+        <v>6</v>
+      </c>
+      <c r="P53" s="115" t="n">
         <v>4505</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="105" t="inlineStr">
+      <c r="A54" s="116" t="inlineStr">
         <is>
           <t>#L8R82C8VC</t>
         </is>
       </c>
-      <c r="B54" s="94" t="n">
+      <c r="B54" s="105" t="n">
         <v>1162</v>
       </c>
-      <c r="C54" s="82" t="n">
+      <c r="C54" s="93" t="n">
         <v>51</v>
       </c>
-      <c r="D54" s="98" t="inlineStr">
+      <c r="D54" s="109" t="inlineStr">
         <is>
           <t>caden asue</t>
         </is>
       </c>
-      <c r="E54" s="94" t="n"/>
-      <c r="F54" s="98" t="n"/>
-      <c r="G54" s="94" t="n"/>
-      <c r="H54" s="98" t="n"/>
-      <c r="I54" s="94" t="n"/>
-      <c r="J54" s="98" t="n"/>
-      <c r="K54" s="96" t="n">
-        <v>6</v>
-      </c>
-      <c r="L54" s="107" t="n">
+      <c r="E54" s="105" t="n"/>
+      <c r="F54" s="109" t="n"/>
+      <c r="G54" s="105" t="n"/>
+      <c r="H54" s="109" t="n"/>
+      <c r="I54" s="105" t="n"/>
+      <c r="J54" s="109" t="n"/>
+      <c r="K54" s="107" t="n">
+        <v>6</v>
+      </c>
+      <c r="L54" s="118" t="n">
         <v>5112</v>
       </c>
-      <c r="M54" s="96" t="n">
-        <v>6</v>
-      </c>
-      <c r="N54" s="107" t="n">
+      <c r="M54" s="107" t="n">
+        <v>6</v>
+      </c>
+      <c r="N54" s="118" t="n">
         <v>4283</v>
       </c>
-      <c r="O54" s="96" t="n">
-        <v>6</v>
-      </c>
-      <c r="P54" s="107" t="n">
+      <c r="O54" s="107" t="n">
+        <v>6</v>
+      </c>
+      <c r="P54" s="118" t="n">
         <v>4338</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="102" t="inlineStr">
+      <c r="A55" s="113" t="inlineStr">
         <is>
           <t>#L9Q8VLLQG</t>
         </is>
       </c>
-      <c r="B55" s="99" t="n">
+      <c r="B55" s="110" t="n">
         <v>1130</v>
       </c>
-      <c r="C55" s="88" t="n">
+      <c r="C55" s="99" t="n">
         <v>52</v>
       </c>
-      <c r="D55" s="103" t="inlineStr">
+      <c r="D55" s="114" t="inlineStr">
         <is>
           <t>cat</t>
         </is>
       </c>
-      <c r="E55" s="99" t="n"/>
-      <c r="F55" s="103" t="n"/>
-      <c r="G55" s="99" t="n"/>
-      <c r="H55" s="103" t="n"/>
-      <c r="I55" s="99" t="n"/>
-      <c r="J55" s="103" t="n"/>
-      <c r="K55" s="99" t="n"/>
-      <c r="L55" s="103" t="n"/>
-      <c r="M55" s="99" t="n"/>
-      <c r="N55" s="103" t="n"/>
-      <c r="O55" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="P55" s="104" t="n">
+      <c r="E55" s="110" t="n"/>
+      <c r="F55" s="114" t="n"/>
+      <c r="G55" s="110" t="n"/>
+      <c r="H55" s="114" t="n"/>
+      <c r="I55" s="110" t="n"/>
+      <c r="J55" s="114" t="n"/>
+      <c r="K55" s="110" t="n"/>
+      <c r="L55" s="114" t="n"/>
+      <c r="M55" s="110" t="n"/>
+      <c r="N55" s="114" t="n"/>
+      <c r="O55" s="112" t="n">
+        <v>6</v>
+      </c>
+      <c r="P55" s="115" t="n">
         <v>5908</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="105" t="inlineStr">
+      <c r="A56" s="116" t="inlineStr">
         <is>
           <t>#QV0PQC9JU</t>
         </is>
       </c>
-      <c r="B56" s="94" t="n">
+      <c r="B56" s="105" t="n">
         <v>539</v>
       </c>
-      <c r="C56" s="82" t="n">
+      <c r="C56" s="93" t="n">
         <v>53</v>
       </c>
-      <c r="D56" s="98" t="inlineStr">
+      <c r="D56" s="109" t="inlineStr">
         <is>
           <t>Superman</t>
         </is>
       </c>
-      <c r="E56" s="94" t="n"/>
-      <c r="F56" s="98" t="n"/>
-      <c r="G56" s="94" t="n"/>
-      <c r="H56" s="98" t="n"/>
-      <c r="I56" s="94" t="n"/>
-      <c r="J56" s="98" t="n"/>
-      <c r="K56" s="94" t="n"/>
-      <c r="L56" s="98" t="n"/>
-      <c r="M56" s="94" t="n"/>
-      <c r="N56" s="98" t="n"/>
-      <c r="O56" s="96" t="n">
-        <v>6</v>
-      </c>
-      <c r="P56" s="107" t="n">
+      <c r="E56" s="105" t="n"/>
+      <c r="F56" s="109" t="n"/>
+      <c r="G56" s="105" t="n"/>
+      <c r="H56" s="109" t="n"/>
+      <c r="I56" s="105" t="n"/>
+      <c r="J56" s="109" t="n"/>
+      <c r="K56" s="105" t="n"/>
+      <c r="L56" s="109" t="n"/>
+      <c r="M56" s="105" t="n"/>
+      <c r="N56" s="109" t="n"/>
+      <c r="O56" s="107" t="n">
+        <v>6</v>
+      </c>
+      <c r="P56" s="118" t="n">
         <v>4447</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="102" t="inlineStr">
+      <c r="A57" s="113" t="inlineStr">
         <is>
           <t>#LU0CRP09L</t>
         </is>
       </c>
-      <c r="B57" s="99" t="n">
+      <c r="B57" s="110" t="n">
         <v>809</v>
       </c>
-      <c r="C57" s="88" t="n">
+      <c r="C57" s="99" t="n">
         <v>54</v>
       </c>
-      <c r="D57" s="103" t="inlineStr">
+      <c r="D57" s="114" t="inlineStr">
         <is>
           <t>I Dont Know</t>
         </is>
       </c>
-      <c r="E57" s="99" t="n"/>
-      <c r="F57" s="103" t="n"/>
-      <c r="G57" s="99" t="n"/>
-      <c r="H57" s="103" t="n"/>
-      <c r="I57" s="99" t="n"/>
-      <c r="J57" s="103" t="n"/>
-      <c r="K57" s="99" t="n"/>
-      <c r="L57" s="103" t="n"/>
-      <c r="M57" s="99" t="n"/>
-      <c r="N57" s="103" t="n"/>
-      <c r="O57" s="120" t="n">
+      <c r="E57" s="110" t="n"/>
+      <c r="F57" s="114" t="n"/>
+      <c r="G57" s="110" t="n"/>
+      <c r="H57" s="114" t="n"/>
+      <c r="I57" s="110" t="n"/>
+      <c r="J57" s="114" t="n"/>
+      <c r="K57" s="110" t="n"/>
+      <c r="L57" s="114" t="n"/>
+      <c r="M57" s="110" t="n"/>
+      <c r="N57" s="114" t="n"/>
+      <c r="O57" s="131" t="n">
         <v>3</v>
       </c>
-      <c r="P57" s="108" t="n">
+      <c r="P57" s="119" t="n">
         <v>3435</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="105" t="inlineStr">
+      <c r="A58" s="116" t="inlineStr">
         <is>
           <t>#YCPP0QPP8</t>
         </is>
       </c>
-      <c r="B58" s="94" t="n">
+      <c r="B58" s="105" t="n">
         <v>3327</v>
       </c>
-      <c r="C58" s="82" t="n">
+      <c r="C58" s="93" t="n">
         <v>55</v>
       </c>
-      <c r="D58" s="98" t="inlineStr">
+      <c r="D58" s="109" t="inlineStr">
         <is>
           <t>Coach</t>
         </is>
       </c>
-      <c r="E58" s="94" t="n"/>
-      <c r="F58" s="98" t="n"/>
-      <c r="G58" s="94" t="n"/>
-      <c r="H58" s="98" t="n"/>
-      <c r="I58" s="94" t="n"/>
-      <c r="J58" s="98" t="n"/>
-      <c r="K58" s="94" t="n"/>
-      <c r="L58" s="98" t="n"/>
-      <c r="M58" s="94" t="n"/>
-      <c r="N58" s="98" t="n"/>
-      <c r="O58" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" s="106" t="n">
+      <c r="E58" s="105" t="n"/>
+      <c r="F58" s="109" t="n"/>
+      <c r="G58" s="105" t="n"/>
+      <c r="H58" s="109" t="n"/>
+      <c r="I58" s="105" t="n"/>
+      <c r="J58" s="109" t="n"/>
+      <c r="K58" s="105" t="n"/>
+      <c r="L58" s="109" t="n"/>
+      <c r="M58" s="105" t="n"/>
+      <c r="N58" s="109" t="n"/>
+      <c r="O58" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" s="117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3512,259 +3568,259 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="53" t="inlineStr">
+      <c r="B4" s="41" t="inlineStr">
         <is>
           <t>#QUYG0PQC8</t>
         </is>
       </c>
-      <c r="C4" s="53" t="n">
+      <c r="C4" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="54" t="inlineStr">
+      <c r="D4" s="42" t="inlineStr">
         <is>
           <t>Luffy</t>
         </is>
       </c>
-      <c r="E4" s="54" t="n">
+      <c r="E4" s="42" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="G4" s="53" t="n"/>
+      <c r="G4" s="41" t="n"/>
       <c r="H4" s="31" t="n"/>
-      <c r="I4" s="53" t="n"/>
+      <c r="I4" s="41" t="n"/>
       <c r="J4" s="31" t="n"/>
-      <c r="K4" s="53" t="n"/>
+      <c r="K4" s="41" t="n"/>
       <c r="L4" s="31" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="55" t="inlineStr">
+      <c r="B5" s="43" t="inlineStr">
         <is>
           <t>#G0QPVJY9L</t>
         </is>
       </c>
-      <c r="C5" s="55" t="n">
+      <c r="C5" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="56" t="inlineStr">
+      <c r="D5" s="44" t="inlineStr">
         <is>
           <t>Zoro</t>
         </is>
       </c>
-      <c r="E5" s="56" t="n">
+      <c r="E5" s="44" t="n">
         <v>2</v>
       </c>
       <c r="F5" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="G5" s="55" t="n"/>
+      <c r="G5" s="43" t="n"/>
       <c r="H5" s="33" t="n"/>
-      <c r="I5" s="55" t="n"/>
+      <c r="I5" s="43" t="n"/>
       <c r="J5" s="33" t="n"/>
-      <c r="K5" s="55" t="n"/>
+      <c r="K5" s="43" t="n"/>
       <c r="L5" s="33" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" s="53" t="inlineStr">
+      <c r="B6" s="41" t="inlineStr">
         <is>
           <t>#QLR088LC9</t>
         </is>
       </c>
-      <c r="C6" s="53" t="n">
+      <c r="C6" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="54" t="inlineStr">
+      <c r="D6" s="42" t="inlineStr">
         <is>
           <t>Sanji</t>
         </is>
       </c>
-      <c r="E6" s="54" t="n">
+      <c r="E6" s="42" t="n">
         <v>2</v>
       </c>
       <c r="F6" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="G6" s="53" t="n"/>
+      <c r="G6" s="41" t="n"/>
       <c r="H6" s="31" t="n"/>
-      <c r="I6" s="53" t="n"/>
+      <c r="I6" s="41" t="n"/>
       <c r="J6" s="31" t="n"/>
-      <c r="K6" s="53" t="n"/>
+      <c r="K6" s="41" t="n"/>
       <c r="L6" s="31" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="55" t="inlineStr">
+      <c r="B7" s="43" t="inlineStr">
         <is>
           <t>#QCV22VP0G</t>
         </is>
       </c>
-      <c r="C7" s="55" t="n">
+      <c r="C7" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="56" t="inlineStr">
+      <c r="D7" s="44" t="inlineStr">
         <is>
           <t>Nami</t>
         </is>
       </c>
-      <c r="E7" s="56" t="n">
+      <c r="E7" s="44" t="n">
         <v>2</v>
       </c>
       <c r="F7" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="55" t="n"/>
+      <c r="G7" s="43" t="n"/>
       <c r="H7" s="33" t="n"/>
-      <c r="I7" s="55" t="n"/>
+      <c r="I7" s="43" t="n"/>
       <c r="J7" s="33" t="n"/>
-      <c r="K7" s="55" t="n"/>
+      <c r="K7" s="43" t="n"/>
       <c r="L7" s="33" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="53" t="inlineStr">
+      <c r="B8" s="41" t="inlineStr">
         <is>
           <t>#QUV2GP88U</t>
         </is>
       </c>
-      <c r="C8" s="53" t="n">
+      <c r="C8" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="54" t="inlineStr">
+      <c r="D8" s="42" t="inlineStr">
         <is>
           <t>Nico Robin</t>
         </is>
       </c>
-      <c r="E8" s="54" t="n">
+      <c r="E8" s="42" t="n">
         <v>2</v>
       </c>
       <c r="F8" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="G8" s="53" t="n"/>
+      <c r="G8" s="41" t="n"/>
       <c r="H8" s="31" t="n"/>
-      <c r="I8" s="53" t="n"/>
+      <c r="I8" s="41" t="n"/>
       <c r="J8" s="31" t="n"/>
-      <c r="K8" s="53" t="n"/>
+      <c r="K8" s="41" t="n"/>
       <c r="L8" s="31" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" s="57" t="inlineStr">
+      <c r="B9" s="45" t="inlineStr">
         <is>
           <t>#98JG2UJQL</t>
         </is>
       </c>
-      <c r="C9" s="57" t="n"/>
-      <c r="D9" s="57" t="inlineStr">
+      <c r="C9" s="45" t="n"/>
+      <c r="D9" s="45" t="inlineStr">
         <is>
           <t>Dragonux</t>
         </is>
       </c>
-      <c r="E9" s="57" t="n"/>
+      <c r="E9" s="45" t="n"/>
       <c r="F9" s="34" t="n"/>
-      <c r="G9" s="57" t="n"/>
+      <c r="G9" s="45" t="n"/>
       <c r="H9" s="34" t="n"/>
-      <c r="I9" s="57" t="n"/>
+      <c r="I9" s="45" t="n"/>
       <c r="J9" s="34" t="n"/>
-      <c r="K9" s="57" t="n"/>
+      <c r="K9" s="45" t="n"/>
       <c r="L9" s="34" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="58" t="inlineStr">
+      <c r="B10" s="46" t="inlineStr">
         <is>
           <t>#82QLQCJRJ</t>
         </is>
       </c>
-      <c r="C10" s="58" t="n"/>
-      <c r="D10" s="58" t="inlineStr">
+      <c r="C10" s="46" t="n"/>
+      <c r="D10" s="46" t="inlineStr">
         <is>
           <t>Raging Fury</t>
         </is>
       </c>
-      <c r="E10" s="58" t="n"/>
+      <c r="E10" s="46" t="n"/>
       <c r="F10" s="35" t="n"/>
-      <c r="G10" s="58" t="n"/>
+      <c r="G10" s="46" t="n"/>
       <c r="H10" s="35" t="n"/>
-      <c r="I10" s="58" t="n"/>
+      <c r="I10" s="46" t="n"/>
       <c r="J10" s="35" t="n"/>
-      <c r="K10" s="58" t="n"/>
+      <c r="K10" s="46" t="n"/>
       <c r="L10" s="35" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="55" t="inlineStr">
+      <c r="B11" s="43" t="inlineStr">
         <is>
           <t>#90U0VPU9U</t>
         </is>
       </c>
-      <c r="C11" s="55" t="n"/>
-      <c r="D11" s="55" t="inlineStr">
+      <c r="C11" s="43" t="n"/>
+      <c r="D11" s="43" t="inlineStr">
         <is>
           <t>KYANI7E</t>
         </is>
       </c>
-      <c r="E11" s="55" t="n"/>
+      <c r="E11" s="43" t="n"/>
       <c r="F11" s="33" t="n"/>
-      <c r="G11" s="55" t="n"/>
+      <c r="G11" s="43" t="n"/>
       <c r="H11" s="33" t="n"/>
-      <c r="I11" s="55" t="n"/>
+      <c r="I11" s="43" t="n"/>
       <c r="J11" s="33" t="n"/>
-      <c r="K11" s="55" t="n"/>
+      <c r="K11" s="43" t="n"/>
       <c r="L11" s="33" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="58" t="inlineStr">
+      <c r="B12" s="46" t="inlineStr">
         <is>
           <t>#PJYVV989R</t>
         </is>
       </c>
-      <c r="C12" s="58" t="n"/>
-      <c r="D12" s="58" t="inlineStr">
+      <c r="C12" s="46" t="n"/>
+      <c r="D12" s="46" t="inlineStr">
         <is>
           <t>nx</t>
         </is>
       </c>
-      <c r="E12" s="58" t="n"/>
+      <c r="E12" s="46" t="n"/>
       <c r="F12" s="35" t="n"/>
-      <c r="G12" s="59" t="n">
+      <c r="G12" s="47" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="I12" s="59" t="n">
+      <c r="I12" s="47" t="n">
         <v>1</v>
       </c>
       <c r="J12" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="K12" s="58" t="n"/>
+      <c r="K12" s="46" t="n"/>
       <c r="L12" s="35" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="55" t="inlineStr">
+      <c r="B13" s="43" t="inlineStr">
         <is>
           <t>#QLJ2U20Y2</t>
         </is>
       </c>
-      <c r="C13" s="55" t="n"/>
-      <c r="D13" s="55" t="inlineStr">
+      <c r="C13" s="43" t="n"/>
+      <c r="D13" s="43" t="inlineStr">
         <is>
           <t>DeadLeaf</t>
         </is>
       </c>
-      <c r="E13" s="55" t="n"/>
+      <c r="E13" s="43" t="n"/>
       <c r="F13" s="33" t="n"/>
-      <c r="G13" s="56" t="n">
+      <c r="G13" s="44" t="n">
         <v>2</v>
       </c>
       <c r="H13" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="I13" s="56" t="n">
+      <c r="I13" s="44" t="n">
         <v>2</v>
       </c>
       <c r="J13" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="K13" s="56" t="n">
+      <c r="K13" s="44" t="n">
         <v>2</v>
       </c>
       <c r="L13" s="32" t="n">
@@ -3772,28 +3828,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="58" t="inlineStr">
+      <c r="B14" s="46" t="inlineStr">
         <is>
           <t>#L2QQL9QVJ</t>
         </is>
       </c>
-      <c r="C14" s="58" t="n"/>
-      <c r="D14" s="58" t="inlineStr">
+      <c r="C14" s="46" t="n"/>
+      <c r="D14" s="46" t="inlineStr">
         <is>
           <t>JustPre10d</t>
         </is>
       </c>
-      <c r="E14" s="58" t="n"/>
+      <c r="E14" s="46" t="n"/>
       <c r="F14" s="35" t="n"/>
-      <c r="G14" s="58" t="n"/>
+      <c r="G14" s="46" t="n"/>
       <c r="H14" s="35" t="n"/>
-      <c r="I14" s="60" t="n">
+      <c r="I14" s="48" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="K14" s="59" t="n">
+      <c r="K14" s="47" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="37" t="n">
@@ -3801,61 +3857,61 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="55" t="inlineStr">
+      <c r="B15" s="43" t="inlineStr">
         <is>
           <t>#YRGRRJQCY</t>
         </is>
       </c>
-      <c r="C15" s="55" t="n"/>
-      <c r="D15" s="55" t="inlineStr">
+      <c r="C15" s="43" t="n"/>
+      <c r="D15" s="43" t="inlineStr">
         <is>
           <t>DoubleSpice</t>
         </is>
       </c>
-      <c r="E15" s="55" t="n"/>
+      <c r="E15" s="43" t="n"/>
       <c r="F15" s="33" t="n"/>
-      <c r="G15" s="56" t="n">
+      <c r="G15" s="44" t="n">
         <v>2</v>
       </c>
       <c r="H15" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="I15" s="56" t="n">
+      <c r="I15" s="44" t="n">
         <v>2</v>
       </c>
       <c r="J15" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="K15" s="55" t="n"/>
+      <c r="K15" s="43" t="n"/>
       <c r="L15" s="33" t="n"/>
     </row>
     <row r="16">
-      <c r="B16" s="53" t="inlineStr">
+      <c r="B16" s="41" t="inlineStr">
         <is>
           <t>#Q8CLCUCC2</t>
         </is>
       </c>
-      <c r="C16" s="53" t="n"/>
-      <c r="D16" s="53" t="inlineStr">
+      <c r="C16" s="41" t="n"/>
+      <c r="D16" s="41" t="inlineStr">
         <is>
           <t>Moxxi</t>
         </is>
       </c>
-      <c r="E16" s="53" t="n"/>
+      <c r="E16" s="41" t="n"/>
       <c r="F16" s="31" t="n"/>
-      <c r="G16" s="54" t="n">
+      <c r="G16" s="42" t="n">
         <v>2</v>
       </c>
       <c r="H16" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="I16" s="54" t="n">
+      <c r="I16" s="42" t="n">
         <v>2</v>
       </c>
       <c r="J16" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="K16" s="54" t="n">
+      <c r="K16" s="42" t="n">
         <v>2</v>
       </c>
       <c r="L16" s="30" t="n">
@@ -3863,32 +3919,32 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="55" t="inlineStr">
+      <c r="B17" s="43" t="inlineStr">
         <is>
           <t>#YJ20CRJYQ</t>
         </is>
       </c>
-      <c r="C17" s="55" t="n"/>
-      <c r="D17" s="55" t="inlineStr">
+      <c r="C17" s="43" t="n"/>
+      <c r="D17" s="43" t="inlineStr">
         <is>
           <t>UnluckGod</t>
         </is>
       </c>
-      <c r="E17" s="55" t="n"/>
+      <c r="E17" s="43" t="n"/>
       <c r="F17" s="33" t="n"/>
-      <c r="G17" s="56" t="n">
+      <c r="G17" s="44" t="n">
         <v>2</v>
       </c>
       <c r="H17" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="I17" s="56" t="n">
+      <c r="I17" s="44" t="n">
         <v>2</v>
       </c>
       <c r="J17" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="K17" s="56" t="n">
+      <c r="K17" s="44" t="n">
         <v>2</v>
       </c>
       <c r="L17" s="32" t="n">
@@ -3896,522 +3952,522 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="58" t="inlineStr">
+      <c r="B18" s="46" t="inlineStr">
         <is>
           <t>#G0JPUQGYR</t>
         </is>
       </c>
-      <c r="C18" s="58" t="n"/>
-      <c r="D18" s="58" t="inlineStr">
+      <c r="C18" s="46" t="n"/>
+      <c r="D18" s="46" t="inlineStr">
         <is>
           <t>Collin</t>
         </is>
       </c>
-      <c r="E18" s="58" t="n"/>
+      <c r="E18" s="46" t="n"/>
       <c r="F18" s="35" t="n"/>
-      <c r="G18" s="58" t="n"/>
+      <c r="G18" s="46" t="n"/>
       <c r="H18" s="35" t="n"/>
-      <c r="I18" s="58" t="n"/>
+      <c r="I18" s="46" t="n"/>
       <c r="J18" s="35" t="n"/>
-      <c r="K18" s="58" t="n"/>
+      <c r="K18" s="46" t="n"/>
       <c r="L18" s="35" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="57" t="inlineStr">
+      <c r="B19" s="45" t="inlineStr">
         <is>
           <t>#QUVJGC0VQ</t>
         </is>
       </c>
-      <c r="C19" s="57" t="n"/>
-      <c r="D19" s="57" t="inlineStr">
+      <c r="C19" s="45" t="n"/>
+      <c r="D19" s="45" t="inlineStr">
         <is>
           <t>Cam</t>
         </is>
       </c>
-      <c r="E19" s="57" t="n"/>
+      <c r="E19" s="45" t="n"/>
       <c r="F19" s="34" t="n"/>
-      <c r="G19" s="57" t="n"/>
+      <c r="G19" s="45" t="n"/>
       <c r="H19" s="34" t="n"/>
-      <c r="I19" s="57" t="n"/>
+      <c r="I19" s="45" t="n"/>
       <c r="J19" s="34" t="n"/>
-      <c r="K19" s="57" t="n"/>
+      <c r="K19" s="45" t="n"/>
       <c r="L19" s="34" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="58" t="inlineStr">
+      <c r="B20" s="46" t="inlineStr">
         <is>
           <t>#QLG0VJG2J</t>
         </is>
       </c>
-      <c r="C20" s="58" t="n"/>
-      <c r="D20" s="58" t="inlineStr">
+      <c r="C20" s="46" t="n"/>
+      <c r="D20" s="46" t="inlineStr">
         <is>
           <t>PocketRocket</t>
         </is>
       </c>
-      <c r="E20" s="58" t="n"/>
+      <c r="E20" s="46" t="n"/>
       <c r="F20" s="35" t="n"/>
-      <c r="G20" s="58" t="n"/>
+      <c r="G20" s="46" t="n"/>
       <c r="H20" s="35" t="n"/>
-      <c r="I20" s="58" t="n"/>
+      <c r="I20" s="46" t="n"/>
       <c r="J20" s="35" t="n"/>
-      <c r="K20" s="58" t="n"/>
+      <c r="K20" s="46" t="n"/>
       <c r="L20" s="35" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="57" t="inlineStr">
+      <c r="B21" s="45" t="inlineStr">
         <is>
           <t>#QRPRYR8LL</t>
         </is>
       </c>
-      <c r="C21" s="57" t="n"/>
-      <c r="D21" s="57" t="inlineStr">
+      <c r="C21" s="45" t="n"/>
+      <c r="D21" s="45" t="inlineStr">
         <is>
           <t>FidelCashflow</t>
         </is>
       </c>
-      <c r="E21" s="57" t="n"/>
+      <c r="E21" s="45" t="n"/>
       <c r="F21" s="34" t="n"/>
-      <c r="G21" s="57" t="n"/>
+      <c r="G21" s="45" t="n"/>
       <c r="H21" s="34" t="n"/>
-      <c r="I21" s="57" t="n"/>
+      <c r="I21" s="45" t="n"/>
       <c r="J21" s="34" t="n"/>
-      <c r="K21" s="57" t="n"/>
+      <c r="K21" s="45" t="n"/>
       <c r="L21" s="34" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="58" t="inlineStr">
+      <c r="B22" s="46" t="inlineStr">
         <is>
           <t>#QQL28Y2UL</t>
         </is>
       </c>
-      <c r="C22" s="58" t="n"/>
-      <c r="D22" s="58" t="inlineStr">
+      <c r="C22" s="46" t="n"/>
+      <c r="D22" s="46" t="inlineStr">
         <is>
           <t>SUPoT</t>
         </is>
       </c>
-      <c r="E22" s="58" t="n"/>
+      <c r="E22" s="46" t="n"/>
       <c r="F22" s="35" t="n"/>
-      <c r="G22" s="58" t="n"/>
+      <c r="G22" s="46" t="n"/>
       <c r="H22" s="35" t="n"/>
-      <c r="I22" s="58" t="n"/>
+      <c r="I22" s="46" t="n"/>
       <c r="J22" s="35" t="n"/>
-      <c r="K22" s="58" t="n"/>
+      <c r="K22" s="46" t="n"/>
       <c r="L22" s="35" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="57" t="inlineStr">
+      <c r="B23" s="45" t="inlineStr">
         <is>
           <t>#LC9GUPJJG</t>
         </is>
       </c>
-      <c r="C23" s="57" t="n"/>
-      <c r="D23" s="57" t="inlineStr">
+      <c r="C23" s="45" t="n"/>
+      <c r="D23" s="45" t="inlineStr">
         <is>
           <t>raptor2222a</t>
         </is>
       </c>
-      <c r="E23" s="57" t="n"/>
+      <c r="E23" s="45" t="n"/>
       <c r="F23" s="34" t="n"/>
-      <c r="G23" s="57" t="n"/>
+      <c r="G23" s="45" t="n"/>
       <c r="H23" s="34" t="n"/>
-      <c r="I23" s="57" t="n"/>
+      <c r="I23" s="45" t="n"/>
       <c r="J23" s="34" t="n"/>
-      <c r="K23" s="57" t="n"/>
+      <c r="K23" s="45" t="n"/>
       <c r="L23" s="34" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="58" t="inlineStr">
+      <c r="B24" s="46" t="inlineStr">
         <is>
           <t>#QJC8LQU9U</t>
         </is>
       </c>
-      <c r="C24" s="58" t="n"/>
-      <c r="D24" s="58" t="inlineStr">
+      <c r="C24" s="46" t="n"/>
+      <c r="D24" s="46" t="inlineStr">
         <is>
           <t>Master01</t>
         </is>
       </c>
-      <c r="E24" s="58" t="n"/>
+      <c r="E24" s="46" t="n"/>
       <c r="F24" s="35" t="n"/>
-      <c r="G24" s="61" t="n">
+      <c r="G24" s="49" t="n">
         <v>2</v>
       </c>
       <c r="H24" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="I24" s="58" t="n"/>
+      <c r="I24" s="46" t="n"/>
       <c r="J24" s="35" t="n"/>
-      <c r="K24" s="58" t="n"/>
+      <c r="K24" s="46" t="n"/>
       <c r="L24" s="35" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="57" t="inlineStr">
+      <c r="B25" s="45" t="inlineStr">
         <is>
           <t>#LPR9RPCY9</t>
         </is>
       </c>
-      <c r="C25" s="57" t="n"/>
-      <c r="D25" s="57" t="inlineStr">
+      <c r="C25" s="45" t="n"/>
+      <c r="D25" s="45" t="inlineStr">
         <is>
           <t>sayhuss17</t>
         </is>
       </c>
-      <c r="E25" s="57" t="n"/>
+      <c r="E25" s="45" t="n"/>
       <c r="F25" s="34" t="n"/>
-      <c r="G25" s="62" t="n">
+      <c r="G25" s="50" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="62" t="n">
+      <c r="I25" s="50" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="K25" s="57" t="n"/>
+      <c r="K25" s="45" t="n"/>
       <c r="L25" s="34" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="58" t="inlineStr">
+      <c r="B26" s="46" t="inlineStr">
         <is>
           <t>#L9QL9YQQY</t>
         </is>
       </c>
-      <c r="C26" s="58" t="n"/>
-      <c r="D26" s="58" t="inlineStr">
+      <c r="C26" s="46" t="n"/>
+      <c r="D26" s="46" t="inlineStr">
         <is>
           <t>Ima Chad</t>
         </is>
       </c>
-      <c r="E26" s="58" t="n"/>
+      <c r="E26" s="46" t="n"/>
       <c r="F26" s="35" t="n"/>
-      <c r="G26" s="58" t="n"/>
+      <c r="G26" s="46" t="n"/>
       <c r="H26" s="35" t="n"/>
-      <c r="I26" s="58" t="n"/>
+      <c r="I26" s="46" t="n"/>
       <c r="J26" s="35" t="n"/>
-      <c r="K26" s="58" t="n"/>
+      <c r="K26" s="46" t="n"/>
       <c r="L26" s="35" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="57" t="inlineStr">
+      <c r="B27" s="45" t="inlineStr">
         <is>
           <t>#LPCLQUCCY</t>
         </is>
       </c>
-      <c r="C27" s="57" t="n"/>
-      <c r="D27" s="57" t="inlineStr">
+      <c r="C27" s="45" t="n"/>
+      <c r="D27" s="45" t="inlineStr">
         <is>
           <t>Zodiac</t>
         </is>
       </c>
-      <c r="E27" s="57" t="n"/>
+      <c r="E27" s="45" t="n"/>
       <c r="F27" s="34" t="n"/>
-      <c r="G27" s="57" t="n"/>
+      <c r="G27" s="45" t="n"/>
       <c r="H27" s="34" t="n"/>
-      <c r="I27" s="57" t="n"/>
+      <c r="I27" s="45" t="n"/>
       <c r="J27" s="34" t="n"/>
-      <c r="K27" s="57" t="n"/>
+      <c r="K27" s="45" t="n"/>
       <c r="L27" s="34" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="58" t="inlineStr">
+      <c r="B28" s="46" t="inlineStr">
         <is>
           <t>#QU0U2Q99G</t>
         </is>
       </c>
-      <c r="C28" s="58" t="n"/>
-      <c r="D28" s="58" t="inlineStr">
+      <c r="C28" s="46" t="n"/>
+      <c r="D28" s="46" t="inlineStr">
         <is>
           <t>big coc</t>
         </is>
       </c>
-      <c r="E28" s="58" t="n"/>
+      <c r="E28" s="46" t="n"/>
       <c r="F28" s="35" t="n"/>
-      <c r="G28" s="58" t="n"/>
+      <c r="G28" s="46" t="n"/>
       <c r="H28" s="35" t="n"/>
-      <c r="I28" s="58" t="n"/>
+      <c r="I28" s="46" t="n"/>
       <c r="J28" s="35" t="n"/>
-      <c r="K28" s="58" t="n"/>
+      <c r="K28" s="46" t="n"/>
       <c r="L28" s="35" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="55" t="inlineStr">
+      <c r="B29" s="43" t="inlineStr">
         <is>
           <t>#QUG8QQJ92</t>
         </is>
       </c>
-      <c r="C29" s="55" t="n"/>
-      <c r="D29" s="55" t="inlineStr">
+      <c r="C29" s="43" t="n"/>
+      <c r="D29" s="43" t="inlineStr">
         <is>
           <t>Karma</t>
         </is>
       </c>
-      <c r="E29" s="55" t="n"/>
+      <c r="E29" s="43" t="n"/>
       <c r="F29" s="33" t="n"/>
-      <c r="G29" s="55" t="n"/>
+      <c r="G29" s="43" t="n"/>
       <c r="H29" s="33" t="n"/>
-      <c r="I29" s="55" t="n"/>
+      <c r="I29" s="43" t="n"/>
       <c r="J29" s="33" t="n"/>
-      <c r="K29" s="55" t="n"/>
+      <c r="K29" s="43" t="n"/>
       <c r="L29" s="33" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="58" t="inlineStr">
+      <c r="B30" s="46" t="inlineStr">
         <is>
           <t>#QY8L2GLUR</t>
         </is>
       </c>
-      <c r="C30" s="58" t="n"/>
-      <c r="D30" s="58" t="inlineStr">
+      <c r="C30" s="46" t="n"/>
+      <c r="D30" s="46" t="inlineStr">
         <is>
           <t>Huy</t>
         </is>
       </c>
-      <c r="E30" s="58" t="n"/>
+      <c r="E30" s="46" t="n"/>
       <c r="F30" s="35" t="n"/>
-      <c r="G30" s="60" t="n">
+      <c r="G30" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="37" t="n">
         <v>0</v>
       </c>
-      <c r="I30" s="58" t="n"/>
+      <c r="I30" s="46" t="n"/>
       <c r="J30" s="35" t="n"/>
-      <c r="K30" s="58" t="n"/>
+      <c r="K30" s="46" t="n"/>
       <c r="L30" s="35" t="n"/>
     </row>
     <row r="31">
-      <c r="B31" s="57" t="inlineStr">
+      <c r="B31" s="45" t="inlineStr">
         <is>
           <t>#QL8LVLYG8</t>
         </is>
       </c>
-      <c r="C31" s="57" t="n"/>
-      <c r="D31" s="57" t="inlineStr">
+      <c r="C31" s="45" t="n"/>
+      <c r="D31" s="45" t="inlineStr">
         <is>
           <t>Some guy</t>
         </is>
       </c>
-      <c r="E31" s="57" t="n"/>
+      <c r="E31" s="45" t="n"/>
       <c r="F31" s="34" t="n"/>
-      <c r="G31" s="57" t="n"/>
+      <c r="G31" s="45" t="n"/>
       <c r="H31" s="34" t="n"/>
-      <c r="I31" s="57" t="n"/>
+      <c r="I31" s="45" t="n"/>
       <c r="J31" s="34" t="n"/>
-      <c r="K31" s="57" t="n"/>
+      <c r="K31" s="45" t="n"/>
       <c r="L31" s="34" t="n"/>
     </row>
     <row r="32">
-      <c r="B32" s="58" t="inlineStr">
+      <c r="B32" s="46" t="inlineStr">
         <is>
           <t>#QLGYRVPU0</t>
         </is>
       </c>
-      <c r="C32" s="58" t="n"/>
-      <c r="D32" s="58" t="inlineStr">
+      <c r="C32" s="46" t="n"/>
+      <c r="D32" s="46" t="inlineStr">
         <is>
           <t>Black.Boy.</t>
         </is>
       </c>
-      <c r="E32" s="58" t="n"/>
+      <c r="E32" s="46" t="n"/>
       <c r="F32" s="35" t="n"/>
-      <c r="G32" s="58" t="n"/>
+      <c r="G32" s="46" t="n"/>
       <c r="H32" s="35" t="n"/>
-      <c r="I32" s="58" t="n"/>
+      <c r="I32" s="46" t="n"/>
       <c r="J32" s="35" t="n"/>
-      <c r="K32" s="58" t="n"/>
+      <c r="K32" s="46" t="n"/>
       <c r="L32" s="35" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" s="57" t="inlineStr">
+      <c r="B33" s="45" t="inlineStr">
         <is>
           <t>#QQL8C29CY</t>
         </is>
       </c>
-      <c r="C33" s="57" t="n"/>
-      <c r="D33" s="57" t="inlineStr">
+      <c r="C33" s="45" t="n"/>
+      <c r="D33" s="45" t="inlineStr">
         <is>
           <t>TypicalTeague#2</t>
         </is>
       </c>
-      <c r="E33" s="57" t="n"/>
+      <c r="E33" s="45" t="n"/>
       <c r="F33" s="34" t="n"/>
-      <c r="G33" s="57" t="n"/>
+      <c r="G33" s="45" t="n"/>
       <c r="H33" s="34" t="n"/>
-      <c r="I33" s="57" t="n"/>
+      <c r="I33" s="45" t="n"/>
       <c r="J33" s="34" t="n"/>
-      <c r="K33" s="57" t="n"/>
+      <c r="K33" s="45" t="n"/>
       <c r="L33" s="34" t="n"/>
     </row>
     <row r="34">
-      <c r="B34" s="58" t="inlineStr">
+      <c r="B34" s="46" t="inlineStr">
         <is>
           <t>#L9JJQY992</t>
         </is>
       </c>
-      <c r="C34" s="58" t="n"/>
-      <c r="D34" s="58" t="inlineStr">
+      <c r="C34" s="46" t="n"/>
+      <c r="D34" s="46" t="inlineStr">
         <is>
           <t>Fisted_Waffle</t>
         </is>
       </c>
-      <c r="E34" s="58" t="n"/>
+      <c r="E34" s="46" t="n"/>
       <c r="F34" s="35" t="n"/>
-      <c r="G34" s="58" t="n"/>
+      <c r="G34" s="46" t="n"/>
       <c r="H34" s="35" t="n"/>
-      <c r="I34" s="58" t="n"/>
+      <c r="I34" s="46" t="n"/>
       <c r="J34" s="35" t="n"/>
-      <c r="K34" s="58" t="n"/>
+      <c r="K34" s="46" t="n"/>
       <c r="L34" s="35" t="n"/>
     </row>
     <row r="35">
-      <c r="B35" s="57" t="inlineStr">
+      <c r="B35" s="45" t="inlineStr">
         <is>
           <t>#QV8JJ0URU</t>
         </is>
       </c>
-      <c r="C35" s="57" t="n"/>
-      <c r="D35" s="57" t="inlineStr">
+      <c r="C35" s="45" t="n"/>
+      <c r="D35" s="45" t="inlineStr">
         <is>
           <t>✨Jacob</t>
         </is>
       </c>
-      <c r="E35" s="57" t="n"/>
+      <c r="E35" s="45" t="n"/>
       <c r="F35" s="34" t="n"/>
-      <c r="G35" s="57" t="n"/>
+      <c r="G35" s="45" t="n"/>
       <c r="H35" s="34" t="n"/>
-      <c r="I35" s="62" t="n">
+      <c r="I35" s="50" t="n">
         <v>0</v>
       </c>
       <c r="J35" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="K35" s="57" t="n"/>
+      <c r="K35" s="45" t="n"/>
       <c r="L35" s="34" t="n"/>
     </row>
     <row r="36">
-      <c r="B36" s="58" t="inlineStr">
+      <c r="B36" s="46" t="inlineStr">
         <is>
           <t>#QY0VGPQGQ</t>
         </is>
       </c>
-      <c r="C36" s="58" t="n"/>
-      <c r="D36" s="58" t="inlineStr">
+      <c r="C36" s="46" t="n"/>
+      <c r="D36" s="46" t="inlineStr">
         <is>
           <t>killerjones</t>
         </is>
       </c>
-      <c r="E36" s="58" t="n"/>
+      <c r="E36" s="46" t="n"/>
       <c r="F36" s="35" t="n"/>
-      <c r="G36" s="58" t="n"/>
+      <c r="G36" s="46" t="n"/>
       <c r="H36" s="35" t="n"/>
-      <c r="I36" s="58" t="n"/>
+      <c r="I36" s="46" t="n"/>
       <c r="J36" s="35" t="n"/>
-      <c r="K36" s="58" t="n"/>
+      <c r="K36" s="46" t="n"/>
       <c r="L36" s="35" t="n"/>
     </row>
     <row r="37">
-      <c r="B37" s="62" t="inlineStr">
+      <c r="B37" s="50" t="inlineStr">
         <is>
           <t>#QQLVRJCGQ</t>
         </is>
       </c>
-      <c r="C37" s="57" t="n"/>
-      <c r="D37" s="57" t="inlineStr">
+      <c r="C37" s="45" t="n"/>
+      <c r="D37" s="45" t="inlineStr">
         <is>
           <t>khant</t>
         </is>
       </c>
-      <c r="E37" s="57" t="n"/>
+      <c r="E37" s="45" t="n"/>
       <c r="F37" s="34" t="n"/>
-      <c r="G37" s="57" t="n"/>
+      <c r="G37" s="45" t="n"/>
       <c r="H37" s="34" t="n"/>
-      <c r="I37" s="57" t="n"/>
+      <c r="I37" s="45" t="n"/>
       <c r="J37" s="34" t="n"/>
-      <c r="K37" s="57" t="n"/>
+      <c r="K37" s="45" t="n"/>
       <c r="L37" s="34" t="n"/>
     </row>
     <row r="38">
-      <c r="B38" s="60" t="inlineStr">
+      <c r="B38" s="48" t="inlineStr">
         <is>
           <t>#QLL0PVCRV</t>
         </is>
       </c>
-      <c r="C38" s="58" t="n"/>
-      <c r="D38" s="58" t="inlineStr">
+      <c r="C38" s="46" t="n"/>
+      <c r="D38" s="46" t="inlineStr">
         <is>
           <t>Harsh chhillar</t>
         </is>
       </c>
-      <c r="E38" s="58" t="n"/>
+      <c r="E38" s="46" t="n"/>
       <c r="F38" s="35" t="n"/>
-      <c r="G38" s="58" t="n"/>
+      <c r="G38" s="46" t="n"/>
       <c r="H38" s="35" t="n"/>
-      <c r="I38" s="58" t="n"/>
+      <c r="I38" s="46" t="n"/>
       <c r="J38" s="35" t="n"/>
-      <c r="K38" s="58" t="n"/>
+      <c r="K38" s="46" t="n"/>
       <c r="L38" s="35" t="n"/>
     </row>
     <row r="39">
-      <c r="B39" s="62" t="inlineStr">
+      <c r="B39" s="50" t="inlineStr">
         <is>
           <t>#P2CPRPQU</t>
         </is>
       </c>
-      <c r="C39" s="57" t="n"/>
-      <c r="D39" s="57" t="inlineStr">
+      <c r="C39" s="45" t="n"/>
+      <c r="D39" s="45" t="inlineStr">
         <is>
           <t>The Drift King</t>
         </is>
       </c>
-      <c r="E39" s="57" t="n"/>
+      <c r="E39" s="45" t="n"/>
       <c r="F39" s="34" t="n"/>
-      <c r="G39" s="63" t="n">
+      <c r="G39" s="51" t="n">
         <v>2</v>
       </c>
       <c r="H39" s="40" t="n">
         <v>6</v>
       </c>
-      <c r="I39" s="63" t="n">
+      <c r="I39" s="51" t="n">
         <v>2</v>
       </c>
       <c r="J39" s="40" t="n">
         <v>6</v>
       </c>
-      <c r="K39" s="57" t="n"/>
+      <c r="K39" s="45" t="n"/>
       <c r="L39" s="34" t="n"/>
     </row>
     <row r="40">
-      <c r="B40" s="60" t="inlineStr">
+      <c r="B40" s="48" t="inlineStr">
         <is>
           <t>#UVCCQC02</t>
         </is>
       </c>
-      <c r="C40" s="58" t="n"/>
-      <c r="D40" s="58" t="inlineStr">
+      <c r="C40" s="46" t="n"/>
+      <c r="D40" s="46" t="inlineStr">
         <is>
           <t>lordshisha</t>
         </is>
       </c>
-      <c r="E40" s="58" t="n"/>
+      <c r="E40" s="46" t="n"/>
       <c r="F40" s="35" t="n"/>
-      <c r="G40" s="61" t="n">
+      <c r="G40" s="49" t="n">
         <v>2</v>
       </c>
       <c r="H40" s="39" t="n">
         <v>6</v>
       </c>
-      <c r="I40" s="61" t="n">
+      <c r="I40" s="49" t="n">
         <v>2</v>
       </c>
       <c r="J40" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="K40" s="61" t="n">
+      <c r="K40" s="49" t="n">
         <v>2</v>
       </c>
       <c r="L40" s="37" t="n">
@@ -4419,66 +4475,66 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="62" t="inlineStr">
+      <c r="B41" s="50" t="inlineStr">
         <is>
           <t>#Q0JG2RJQ8</t>
         </is>
       </c>
-      <c r="C41" s="57" t="n"/>
-      <c r="D41" s="57" t="inlineStr">
+      <c r="C41" s="45" t="n"/>
+      <c r="D41" s="45" t="inlineStr">
         <is>
           <t>bozo</t>
         </is>
       </c>
-      <c r="E41" s="57" t="n"/>
+      <c r="E41" s="45" t="n"/>
       <c r="F41" s="34" t="n"/>
-      <c r="G41" s="57" t="n"/>
+      <c r="G41" s="45" t="n"/>
       <c r="H41" s="34" t="n"/>
-      <c r="I41" s="57" t="n"/>
+      <c r="I41" s="45" t="n"/>
       <c r="J41" s="34" t="n"/>
-      <c r="K41" s="57" t="n"/>
+      <c r="K41" s="45" t="n"/>
       <c r="L41" s="34" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="60" t="inlineStr">
+      <c r="B42" s="48" t="inlineStr">
         <is>
           <t>#QJVL0LYQQ</t>
         </is>
       </c>
-      <c r="C42" s="58" t="n"/>
-      <c r="D42" s="58" t="inlineStr">
+      <c r="C42" s="46" t="n"/>
+      <c r="D42" s="46" t="inlineStr">
         <is>
           <t>mobbb341</t>
         </is>
       </c>
-      <c r="E42" s="58" t="n"/>
+      <c r="E42" s="46" t="n"/>
       <c r="F42" s="35" t="n"/>
-      <c r="G42" s="58" t="n"/>
+      <c r="G42" s="46" t="n"/>
       <c r="H42" s="35" t="n"/>
-      <c r="I42" s="58" t="n"/>
+      <c r="I42" s="46" t="n"/>
       <c r="J42" s="35" t="n"/>
-      <c r="K42" s="58" t="n"/>
+      <c r="K42" s="46" t="n"/>
       <c r="L42" s="35" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="62" t="inlineStr">
+      <c r="B43" s="50" t="inlineStr">
         <is>
           <t>#L8R82C8VC</t>
         </is>
       </c>
-      <c r="C43" s="57" t="n"/>
-      <c r="D43" s="57" t="inlineStr">
+      <c r="C43" s="45" t="n"/>
+      <c r="D43" s="45" t="inlineStr">
         <is>
           <t>caden asue</t>
         </is>
       </c>
-      <c r="E43" s="57" t="n"/>
+      <c r="E43" s="45" t="n"/>
       <c r="F43" s="34" t="n"/>
-      <c r="G43" s="57" t="n"/>
+      <c r="G43" s="45" t="n"/>
       <c r="H43" s="34" t="n"/>
-      <c r="I43" s="57" t="n"/>
+      <c r="I43" s="45" t="n"/>
       <c r="J43" s="34" t="n"/>
-      <c r="K43" s="57" t="n"/>
+      <c r="K43" s="45" t="n"/>
       <c r="L43" s="34" t="n"/>
     </row>
   </sheetData>

--- a/Clash.xlsx
+++ b/Clash.xlsx
@@ -223,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -317,11 +317,13 @@
       <right style="medium"/>
       <top style="thick"/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -496,6 +498,48 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="28" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="8" fillId="32" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="25" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="26" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="27" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="28" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="28" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="29" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="30" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="31" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="25" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="26" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="31" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="28" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="29" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="30" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="27" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="32" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="25" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="26" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="27" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="28" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="28" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="29" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="30" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="31" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="25" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="26" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="31" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="28" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="29" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="30" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="27" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="32" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -861,7 +905,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -885,82 +929,100 @@
     <col width="13" bestFit="1" customWidth="1" min="14" max="14"/>
     <col width="13" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="13" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="13" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="13" bestFit="1" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="E1" t="inlineStr">
         <is>
+          <t>2022-11-18</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>(Medals)</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>2022-11-11</t>
         </is>
       </c>
-      <c r="F1" t="n">
+      <c r="J1" t="n">
         <v>714</v>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>2022-11-04</t>
         </is>
       </c>
-      <c r="J1" t="n">
+      <c r="L1" t="n">
         <v>680</v>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>2022-10-28</t>
         </is>
       </c>
-      <c r="L1" t="n">
+      <c r="N1" t="n">
         <v>712</v>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="N1" t="n">
+      <c r="P1" t="n">
         <v>536</v>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>2022-10-14</t>
         </is>
       </c>
-      <c r="P1" t="n">
+      <c r="R1" t="n">
         <v>435</v>
       </c>
     </row>
     <row r="2">
       <c r="E2" t="n">
-        <v>2.83</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>189745</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>516</v>
       </c>
       <c r="I2" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>189745</v>
+      </c>
+      <c r="K2" t="n">
         <v>2.89</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="L2" s="1" t="n">
         <v>166712</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>2.63</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="N2" s="1" t="n">
         <v>220113</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>3.27</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="P2" s="1" t="n">
         <v>178523</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>3.4</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="R2" s="1" t="n">
         <v>203868</v>
       </c>
     </row>
@@ -1040,17 +1102,27 @@
           <t>Gold</t>
         </is>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Attacks</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="92" t="inlineStr">
+      <c r="A4" s="149" t="inlineStr">
         <is>
           <t>#QLJ2U20Y2</t>
         </is>
       </c>
-      <c r="B4" s="92" t="n">
+      <c r="B4" s="149" t="n">
         <v>1486</v>
       </c>
-      <c r="C4" s="93" t="n">
+      <c r="C4" s="150" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="94" t="inlineStr">
@@ -1058,53 +1130,59 @@
           <t>DeadLeaf</t>
         </is>
       </c>
-      <c r="E4" s="95" t="n">
+      <c r="E4" s="151" t="n">
         <v>6</v>
       </c>
       <c r="F4" s="94" t="n">
         <v>13763</v>
       </c>
-      <c r="G4" s="96" t="n">
+      <c r="G4" s="152" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="97" t="n">
         <v>30</v>
       </c>
-      <c r="I4" s="95" t="n">
+      <c r="I4" s="151" t="n">
         <v>6</v>
       </c>
       <c r="J4" s="94" t="n">
+        <v>13763</v>
+      </c>
+      <c r="K4" s="151" t="n">
+        <v>6</v>
+      </c>
+      <c r="L4" s="94" t="n">
         <v>11140</v>
       </c>
-      <c r="K4" s="95" t="n">
-        <v>6</v>
-      </c>
-      <c r="L4" s="94" t="n">
+      <c r="M4" s="151" t="n">
+        <v>6</v>
+      </c>
+      <c r="N4" s="94" t="n">
         <v>15509</v>
       </c>
-      <c r="M4" s="95" t="n">
-        <v>6</v>
-      </c>
-      <c r="N4" s="94" t="n">
+      <c r="O4" s="151" t="n">
+        <v>6</v>
+      </c>
+      <c r="P4" s="94" t="n">
         <v>8567</v>
       </c>
-      <c r="O4" s="95" t="n">
-        <v>6</v>
-      </c>
-      <c r="P4" s="94" t="n">
+      <c r="Q4" s="151" t="n">
+        <v>6</v>
+      </c>
+      <c r="R4" s="94" t="n">
         <v>9729</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="98" t="inlineStr">
+      <c r="A5" s="153" t="inlineStr">
         <is>
           <t>#G0QPVJY9L</t>
         </is>
       </c>
-      <c r="B5" s="98" t="n">
+      <c r="B5" s="153" t="n">
         <v>838</v>
       </c>
-      <c r="C5" s="99" t="n">
+      <c r="C5" s="154" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="100" t="inlineStr">
@@ -1112,53 +1190,59 @@
           <t>Zoro</t>
         </is>
       </c>
-      <c r="E5" s="101" t="n">
+      <c r="E5" s="155" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="100" t="n">
         <v>13432</v>
       </c>
-      <c r="G5" s="102" t="n">
+      <c r="G5" s="156" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="103" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="101" t="n">
+      <c r="I5" s="155" t="n">
         <v>6</v>
       </c>
       <c r="J5" s="100" t="n">
+        <v>13432</v>
+      </c>
+      <c r="K5" s="155" t="n">
+        <v>6</v>
+      </c>
+      <c r="L5" s="100" t="n">
         <v>8855</v>
       </c>
-      <c r="K5" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="L5" s="100" t="n">
+      <c r="M5" s="155" t="n">
+        <v>6</v>
+      </c>
+      <c r="N5" s="100" t="n">
         <v>10965</v>
       </c>
-      <c r="M5" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="N5" s="100" t="n">
+      <c r="O5" s="155" t="n">
+        <v>6</v>
+      </c>
+      <c r="P5" s="100" t="n">
         <v>7905</v>
       </c>
-      <c r="O5" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="P5" s="100" t="n">
+      <c r="Q5" s="155" t="n">
+        <v>6</v>
+      </c>
+      <c r="R5" s="100" t="n">
         <v>6744</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="92" t="inlineStr">
+      <c r="A6" s="149" t="inlineStr">
         <is>
           <t>#90U0VPU9U</t>
         </is>
       </c>
-      <c r="B6" s="92" t="n">
+      <c r="B6" s="149" t="n">
         <v>2534</v>
       </c>
-      <c r="C6" s="93" t="n">
+      <c r="C6" s="150" t="n">
         <v>3</v>
       </c>
       <c r="D6" s="94" t="inlineStr">
@@ -1166,53 +1250,59 @@
           <t>KYANI7E</t>
         </is>
       </c>
-      <c r="E6" s="95" t="n">
+      <c r="E6" s="151" t="n">
         <v>6</v>
       </c>
       <c r="F6" s="94" t="n">
         <v>13260</v>
       </c>
-      <c r="G6" s="104" t="n">
+      <c r="G6" s="157" t="n">
         <v>206</v>
       </c>
       <c r="H6" s="97" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="95" t="n">
+      <c r="I6" s="151" t="n">
         <v>6</v>
       </c>
       <c r="J6" s="94" t="n">
+        <v>13260</v>
+      </c>
+      <c r="K6" s="151" t="n">
+        <v>6</v>
+      </c>
+      <c r="L6" s="94" t="n">
         <v>12144</v>
       </c>
-      <c r="K6" s="95" t="n">
-        <v>6</v>
-      </c>
-      <c r="L6" s="94" t="n">
+      <c r="M6" s="151" t="n">
+        <v>6</v>
+      </c>
+      <c r="N6" s="94" t="n">
         <v>12835</v>
       </c>
-      <c r="M6" s="95" t="n">
-        <v>6</v>
-      </c>
-      <c r="N6" s="94" t="n">
+      <c r="O6" s="151" t="n">
+        <v>6</v>
+      </c>
+      <c r="P6" s="94" t="n">
         <v>7696</v>
       </c>
-      <c r="O6" s="95" t="n">
-        <v>6</v>
-      </c>
-      <c r="P6" s="94" t="n">
+      <c r="Q6" s="151" t="n">
+        <v>6</v>
+      </c>
+      <c r="R6" s="94" t="n">
         <v>9188</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="98" t="inlineStr">
+      <c r="A7" s="153" t="inlineStr">
         <is>
           <t>#YJ20CRJYQ</t>
         </is>
       </c>
-      <c r="B7" s="98" t="n">
+      <c r="B7" s="153" t="n">
         <v>1265</v>
       </c>
-      <c r="C7" s="99" t="n">
+      <c r="C7" s="154" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="100" t="inlineStr">
@@ -1220,53 +1310,59 @@
           <t>UnluckGod</t>
         </is>
       </c>
-      <c r="E7" s="101" t="n">
+      <c r="E7" s="155" t="n">
         <v>6</v>
       </c>
       <c r="F7" s="100" t="n">
         <v>12824</v>
       </c>
-      <c r="G7" s="102" t="n">
+      <c r="G7" s="156" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="103" t="n">
         <v>61</v>
       </c>
-      <c r="I7" s="101" t="n">
+      <c r="I7" s="155" t="n">
         <v>6</v>
       </c>
       <c r="J7" s="100" t="n">
+        <v>12824</v>
+      </c>
+      <c r="K7" s="155" t="n">
+        <v>6</v>
+      </c>
+      <c r="L7" s="100" t="n">
         <v>11999</v>
       </c>
-      <c r="K7" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="L7" s="100" t="n">
+      <c r="M7" s="155" t="n">
+        <v>6</v>
+      </c>
+      <c r="N7" s="100" t="n">
         <v>12972</v>
       </c>
-      <c r="M7" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="N7" s="100" t="n">
+      <c r="O7" s="155" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" s="100" t="n">
         <v>8286</v>
       </c>
-      <c r="O7" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="P7" s="100" t="n">
+      <c r="Q7" s="155" t="n">
+        <v>6</v>
+      </c>
+      <c r="R7" s="100" t="n">
         <v>11406</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="92" t="inlineStr">
+      <c r="A8" s="149" t="inlineStr">
         <is>
           <t>#QUV2GP88U</t>
         </is>
       </c>
-      <c r="B8" s="92" t="n">
+      <c r="B8" s="149" t="n">
         <v>745</v>
       </c>
-      <c r="C8" s="93" t="n">
+      <c r="C8" s="150" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="94" t="inlineStr">
@@ -1274,53 +1370,59 @@
           <t>Nico Robin</t>
         </is>
       </c>
-      <c r="E8" s="95" t="n">
+      <c r="E8" s="151" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="94" t="n">
         <v>12612</v>
       </c>
-      <c r="G8" s="96" t="n">
+      <c r="G8" s="152" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="95" t="n">
+      <c r="I8" s="151" t="n">
         <v>6</v>
       </c>
       <c r="J8" s="94" t="n">
+        <v>12612</v>
+      </c>
+      <c r="K8" s="151" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" s="94" t="n">
         <v>11338</v>
       </c>
-      <c r="K8" s="95" t="n">
-        <v>6</v>
-      </c>
-      <c r="L8" s="94" t="n">
+      <c r="M8" s="151" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" s="94" t="n">
         <v>10997</v>
       </c>
-      <c r="M8" s="95" t="n">
-        <v>6</v>
-      </c>
-      <c r="N8" s="94" t="n">
+      <c r="O8" s="151" t="n">
+        <v>6</v>
+      </c>
+      <c r="P8" s="94" t="n">
         <v>11087</v>
       </c>
-      <c r="O8" s="95" t="n">
-        <v>6</v>
-      </c>
-      <c r="P8" s="94" t="n">
+      <c r="Q8" s="151" t="n">
+        <v>6</v>
+      </c>
+      <c r="R8" s="94" t="n">
         <v>8089</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="98" t="inlineStr">
+      <c r="A9" s="153" t="inlineStr">
         <is>
           <t>#QCV22VP0G</t>
         </is>
       </c>
-      <c r="B9" s="98" t="n">
+      <c r="B9" s="153" t="n">
         <v>808</v>
       </c>
-      <c r="C9" s="99" t="n">
+      <c r="C9" s="154" t="n">
         <v>6</v>
       </c>
       <c r="D9" s="100" t="inlineStr">
@@ -1328,53 +1430,59 @@
           <t>Nami</t>
         </is>
       </c>
-      <c r="E9" s="101" t="n">
+      <c r="E9" s="155" t="n">
         <v>6</v>
       </c>
       <c r="F9" s="100" t="n">
         <v>11795</v>
       </c>
-      <c r="G9" s="102" t="n">
+      <c r="G9" s="156" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="103" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="101" t="n">
+      <c r="I9" s="155" t="n">
         <v>6</v>
       </c>
       <c r="J9" s="100" t="n">
+        <v>11795</v>
+      </c>
+      <c r="K9" s="155" t="n">
+        <v>6</v>
+      </c>
+      <c r="L9" s="100" t="n">
         <v>10769</v>
       </c>
-      <c r="K9" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="L9" s="100" t="n">
+      <c r="M9" s="155" t="n">
+        <v>6</v>
+      </c>
+      <c r="N9" s="100" t="n">
         <v>12486</v>
       </c>
-      <c r="M9" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="N9" s="100" t="n">
+      <c r="O9" s="155" t="n">
+        <v>6</v>
+      </c>
+      <c r="P9" s="100" t="n">
         <v>8472</v>
       </c>
-      <c r="O9" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="P9" s="100" t="n">
+      <c r="Q9" s="155" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" s="100" t="n">
         <v>9096</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="92" t="inlineStr">
+      <c r="A10" s="149" t="inlineStr">
         <is>
           <t>#YRGRRJQCY</t>
         </is>
       </c>
-      <c r="B10" s="92" t="n">
+      <c r="B10" s="149" t="n">
         <v>1366</v>
       </c>
-      <c r="C10" s="93" t="n">
+      <c r="C10" s="150" t="n">
         <v>7</v>
       </c>
       <c r="D10" s="94" t="inlineStr">
@@ -1382,53 +1490,59 @@
           <t>DoubleSpice</t>
         </is>
       </c>
-      <c r="E10" s="95" t="n">
+      <c r="E10" s="151" t="n">
         <v>6</v>
       </c>
       <c r="F10" s="94" t="n">
         <v>11620</v>
       </c>
-      <c r="G10" s="96" t="n">
+      <c r="G10" s="152" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="97" t="n">
         <v>60</v>
       </c>
-      <c r="I10" s="95" t="n">
+      <c r="I10" s="151" t="n">
         <v>6</v>
       </c>
       <c r="J10" s="94" t="n">
+        <v>11620</v>
+      </c>
+      <c r="K10" s="151" t="n">
+        <v>6</v>
+      </c>
+      <c r="L10" s="94" t="n">
         <v>14095</v>
       </c>
-      <c r="K10" s="95" t="n">
-        <v>6</v>
-      </c>
-      <c r="L10" s="94" t="n">
+      <c r="M10" s="151" t="n">
+        <v>6</v>
+      </c>
+      <c r="N10" s="94" t="n">
         <v>12379</v>
       </c>
-      <c r="M10" s="95" t="n">
-        <v>6</v>
-      </c>
-      <c r="N10" s="94" t="n">
+      <c r="O10" s="151" t="n">
+        <v>6</v>
+      </c>
+      <c r="P10" s="94" t="n">
         <v>8256</v>
       </c>
-      <c r="O10" s="95" t="n">
-        <v>6</v>
-      </c>
-      <c r="P10" s="94" t="n">
+      <c r="Q10" s="151" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" s="94" t="n">
         <v>7054</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="98" t="inlineStr">
+      <c r="A11" s="153" t="inlineStr">
         <is>
           <t>#QUG8QQJ92</t>
         </is>
       </c>
-      <c r="B11" s="98" t="n">
+      <c r="B11" s="153" t="n">
         <v>891</v>
       </c>
-      <c r="C11" s="99" t="n">
+      <c r="C11" s="154" t="n">
         <v>8</v>
       </c>
       <c r="D11" s="100" t="inlineStr">
@@ -1436,53 +1550,59 @@
           <t>Karma</t>
         </is>
       </c>
-      <c r="E11" s="101" t="n">
+      <c r="E11" s="155" t="n">
         <v>6</v>
       </c>
       <c r="F11" s="100" t="n">
         <v>11355</v>
       </c>
-      <c r="G11" s="102" t="n">
+      <c r="G11" s="156" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="103" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="101" t="n">
+      <c r="I11" s="155" t="n">
         <v>6</v>
       </c>
       <c r="J11" s="100" t="n">
+        <v>11355</v>
+      </c>
+      <c r="K11" s="155" t="n">
+        <v>6</v>
+      </c>
+      <c r="L11" s="100" t="n">
         <v>10003</v>
       </c>
-      <c r="K11" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="L11" s="100" t="n">
+      <c r="M11" s="155" t="n">
+        <v>6</v>
+      </c>
+      <c r="N11" s="100" t="n">
         <v>10595</v>
       </c>
-      <c r="M11" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="N11" s="100" t="n">
+      <c r="O11" s="155" t="n">
+        <v>6</v>
+      </c>
+      <c r="P11" s="100" t="n">
         <v>9240</v>
       </c>
-      <c r="O11" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="P11" s="100" t="n">
+      <c r="Q11" s="155" t="n">
+        <v>6</v>
+      </c>
+      <c r="R11" s="100" t="n">
         <v>10628</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="105" t="inlineStr">
+      <c r="A12" s="158" t="inlineStr">
         <is>
           <t>#98JG2UJQL</t>
         </is>
       </c>
-      <c r="B12" s="105" t="n">
+      <c r="B12" s="158" t="n">
         <v>2895</v>
       </c>
-      <c r="C12" s="93" t="n">
+      <c r="C12" s="150" t="n">
         <v>9</v>
       </c>
       <c r="D12" s="106" t="inlineStr">
@@ -1490,53 +1610,59 @@
           <t>Dragonux</t>
         </is>
       </c>
-      <c r="E12" s="107" t="n">
+      <c r="E12" s="159" t="n">
         <v>6</v>
       </c>
       <c r="F12" s="106" t="n">
         <v>10910</v>
       </c>
-      <c r="G12" s="108" t="n">
+      <c r="G12" s="160" t="n">
         <v>211</v>
       </c>
       <c r="H12" s="109" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="107" t="n">
+      <c r="I12" s="159" t="n">
         <v>6</v>
       </c>
       <c r="J12" s="106" t="n">
+        <v>10910</v>
+      </c>
+      <c r="K12" s="159" t="n">
+        <v>6</v>
+      </c>
+      <c r="L12" s="106" t="n">
         <v>8750</v>
       </c>
-      <c r="K12" s="107" t="n">
-        <v>6</v>
-      </c>
-      <c r="L12" s="106" t="n">
+      <c r="M12" s="159" t="n">
+        <v>6</v>
+      </c>
+      <c r="N12" s="106" t="n">
         <v>10865</v>
       </c>
-      <c r="M12" s="107" t="n">
-        <v>6</v>
-      </c>
-      <c r="N12" s="106" t="n">
+      <c r="O12" s="159" t="n">
+        <v>6</v>
+      </c>
+      <c r="P12" s="106" t="n">
         <v>8025</v>
       </c>
-      <c r="O12" s="107" t="n">
-        <v>6</v>
-      </c>
-      <c r="P12" s="106" t="n">
+      <c r="Q12" s="159" t="n">
+        <v>6</v>
+      </c>
+      <c r="R12" s="106" t="n">
         <v>7000</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="98" t="inlineStr">
+      <c r="A13" s="153" t="inlineStr">
         <is>
           <t>#QLR088LC9</t>
         </is>
       </c>
-      <c r="B13" s="98" t="n">
+      <c r="B13" s="153" t="n">
         <v>883</v>
       </c>
-      <c r="C13" s="99" t="n">
+      <c r="C13" s="154" t="n">
         <v>10</v>
       </c>
       <c r="D13" s="100" t="inlineStr">
@@ -1544,53 +1670,59 @@
           <t>Sanji</t>
         </is>
       </c>
-      <c r="E13" s="101" t="n">
+      <c r="E13" s="155" t="n">
         <v>6</v>
       </c>
       <c r="F13" s="100" t="n">
         <v>10910</v>
       </c>
-      <c r="G13" s="102" t="n">
+      <c r="G13" s="156" t="n">
         <v>6</v>
       </c>
       <c r="H13" s="103" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="101" t="n">
+      <c r="I13" s="155" t="n">
         <v>6</v>
       </c>
       <c r="J13" s="100" t="n">
+        <v>10910</v>
+      </c>
+      <c r="K13" s="155" t="n">
+        <v>6</v>
+      </c>
+      <c r="L13" s="100" t="n">
         <v>9550</v>
       </c>
-      <c r="K13" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="L13" s="100" t="n">
+      <c r="M13" s="155" t="n">
+        <v>6</v>
+      </c>
+      <c r="N13" s="100" t="n">
         <v>9138</v>
       </c>
-      <c r="M13" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="N13" s="100" t="n">
+      <c r="O13" s="155" t="n">
+        <v>6</v>
+      </c>
+      <c r="P13" s="100" t="n">
         <v>8897</v>
       </c>
-      <c r="O13" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="P13" s="100" t="n">
+      <c r="Q13" s="155" t="n">
+        <v>6</v>
+      </c>
+      <c r="R13" s="100" t="n">
         <v>8512</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="92" t="inlineStr">
+      <c r="A14" s="149" t="inlineStr">
         <is>
           <t>#QUYG0PQC8</t>
         </is>
       </c>
-      <c r="B14" s="92" t="n">
+      <c r="B14" s="149" t="n">
         <v>852</v>
       </c>
-      <c r="C14" s="93" t="n">
+      <c r="C14" s="150" t="n">
         <v>11</v>
       </c>
       <c r="D14" s="94" t="inlineStr">
@@ -1598,53 +1730,59 @@
           <t>Luffy</t>
         </is>
       </c>
-      <c r="E14" s="95" t="n">
+      <c r="E14" s="151" t="n">
         <v>6</v>
       </c>
       <c r="F14" s="94" t="n">
         <v>10879</v>
       </c>
-      <c r="G14" s="96" t="n">
+      <c r="G14" s="152" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="97" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="95" t="n">
+      <c r="I14" s="151" t="n">
         <v>6</v>
       </c>
       <c r="J14" s="94" t="n">
+        <v>10879</v>
+      </c>
+      <c r="K14" s="151" t="n">
+        <v>6</v>
+      </c>
+      <c r="L14" s="94" t="n">
         <v>9114</v>
       </c>
-      <c r="K14" s="95" t="n">
-        <v>6</v>
-      </c>
-      <c r="L14" s="94" t="n">
+      <c r="M14" s="151" t="n">
+        <v>6</v>
+      </c>
+      <c r="N14" s="94" t="n">
         <v>13385</v>
       </c>
-      <c r="M14" s="95" t="n">
-        <v>6</v>
-      </c>
-      <c r="N14" s="94" t="n">
+      <c r="O14" s="151" t="n">
+        <v>6</v>
+      </c>
+      <c r="P14" s="94" t="n">
         <v>7877</v>
       </c>
-      <c r="O14" s="95" t="n">
-        <v>6</v>
-      </c>
-      <c r="P14" s="94" t="n">
+      <c r="Q14" s="151" t="n">
+        <v>6</v>
+      </c>
+      <c r="R14" s="94" t="n">
         <v>8347</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="110" t="inlineStr">
+      <c r="A15" s="161" t="inlineStr">
         <is>
           <t>#G0JPUQGYR</t>
         </is>
       </c>
-      <c r="B15" s="110" t="n">
+      <c r="B15" s="161" t="n">
         <v>1394</v>
       </c>
-      <c r="C15" s="99" t="n">
+      <c r="C15" s="154" t="n">
         <v>12</v>
       </c>
       <c r="D15" s="111" t="inlineStr">
@@ -1652,53 +1790,59 @@
           <t>Collin</t>
         </is>
       </c>
-      <c r="E15" s="112" t="n">
+      <c r="E15" s="162" t="n">
         <v>6</v>
       </c>
       <c r="F15" s="111" t="n">
         <v>8833</v>
       </c>
-      <c r="G15" s="113" t="n">
+      <c r="G15" s="163" t="n">
         <v>20</v>
       </c>
       <c r="H15" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="112" t="n">
+      <c r="I15" s="162" t="n">
         <v>6</v>
       </c>
       <c r="J15" s="111" t="n">
+        <v>8833</v>
+      </c>
+      <c r="K15" s="162" t="n">
+        <v>6</v>
+      </c>
+      <c r="L15" s="111" t="n">
         <v>9238</v>
       </c>
-      <c r="K15" s="112" t="n">
-        <v>6</v>
-      </c>
-      <c r="L15" s="111" t="n">
+      <c r="M15" s="162" t="n">
+        <v>6</v>
+      </c>
+      <c r="N15" s="111" t="n">
         <v>7756</v>
       </c>
-      <c r="M15" s="112" t="n">
-        <v>6</v>
-      </c>
-      <c r="N15" s="115" t="n">
+      <c r="O15" s="162" t="n">
+        <v>6</v>
+      </c>
+      <c r="P15" s="115" t="n">
         <v>5943</v>
       </c>
-      <c r="O15" s="112" t="n">
-        <v>6</v>
-      </c>
-      <c r="P15" s="111" t="n">
+      <c r="Q15" s="162" t="n">
+        <v>6</v>
+      </c>
+      <c r="R15" s="111" t="n">
         <v>8224</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="105" t="inlineStr">
+      <c r="A16" s="158" t="inlineStr">
         <is>
           <t>#82QLQCJRJ</t>
         </is>
       </c>
-      <c r="B16" s="105" t="n">
+      <c r="B16" s="158" t="n">
         <v>2903</v>
       </c>
-      <c r="C16" s="93" t="n">
+      <c r="C16" s="150" t="n">
         <v>13</v>
       </c>
       <c r="D16" s="106" t="inlineStr">
@@ -1706,53 +1850,59 @@
           <t>Raging Fury</t>
         </is>
       </c>
-      <c r="E16" s="107" t="n">
+      <c r="E16" s="159" t="n">
         <v>6</v>
       </c>
       <c r="F16" s="106" t="n">
         <v>8055</v>
       </c>
-      <c r="G16" s="116" t="n">
+      <c r="G16" s="164" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="109" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="107" t="n">
+      <c r="I16" s="159" t="n">
         <v>6</v>
       </c>
       <c r="J16" s="106" t="n">
+        <v>8055</v>
+      </c>
+      <c r="K16" s="159" t="n">
+        <v>6</v>
+      </c>
+      <c r="L16" s="106" t="n">
         <v>7115</v>
       </c>
-      <c r="K16" s="116" t="n">
+      <c r="M16" s="164" t="n">
         <v>2</v>
       </c>
-      <c r="L16" s="117" t="n">
+      <c r="N16" s="117" t="n">
         <v>2320</v>
       </c>
-      <c r="M16" s="107" t="n">
-        <v>6</v>
-      </c>
-      <c r="N16" s="118" t="n">
+      <c r="O16" s="159" t="n">
+        <v>6</v>
+      </c>
+      <c r="P16" s="118" t="n">
         <v>4920</v>
       </c>
-      <c r="O16" s="107" t="n">
-        <v>6</v>
-      </c>
-      <c r="P16" s="118" t="n">
+      <c r="Q16" s="159" t="n">
+        <v>6</v>
+      </c>
+      <c r="R16" s="118" t="n">
         <v>5135</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="98" t="inlineStr">
+      <c r="A17" s="153" t="inlineStr">
         <is>
           <t>#Q8CLCUCC2</t>
         </is>
       </c>
-      <c r="B17" s="98" t="n">
+      <c r="B17" s="153" t="n">
         <v>1373</v>
       </c>
-      <c r="C17" s="99" t="n">
+      <c r="C17" s="154" t="n">
         <v>14</v>
       </c>
       <c r="D17" s="100" t="inlineStr">
@@ -1760,53 +1910,59 @@
           <t>Moxxi</t>
         </is>
       </c>
-      <c r="E17" s="101" t="n">
+      <c r="E17" s="155" t="n">
         <v>6</v>
       </c>
       <c r="F17" s="100" t="n">
         <v>8015</v>
       </c>
-      <c r="G17" s="102" t="n">
+      <c r="G17" s="156" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="103" t="n">
         <v>60</v>
       </c>
-      <c r="I17" s="101" t="n">
+      <c r="I17" s="155" t="n">
         <v>6</v>
       </c>
       <c r="J17" s="100" t="n">
+        <v>8015</v>
+      </c>
+      <c r="K17" s="155" t="n">
+        <v>6</v>
+      </c>
+      <c r="L17" s="100" t="n">
         <v>11010</v>
       </c>
-      <c r="K17" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="L17" s="100" t="n">
+      <c r="M17" s="155" t="n">
+        <v>6</v>
+      </c>
+      <c r="N17" s="100" t="n">
         <v>13857</v>
       </c>
-      <c r="M17" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="N17" s="100" t="n">
+      <c r="O17" s="155" t="n">
+        <v>6</v>
+      </c>
+      <c r="P17" s="100" t="n">
         <v>7905</v>
       </c>
-      <c r="O17" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="P17" s="100" t="n">
+      <c r="Q17" s="155" t="n">
+        <v>6</v>
+      </c>
+      <c r="R17" s="100" t="n">
         <v>7224</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="105" t="inlineStr">
+      <c r="A18" s="158" t="inlineStr">
         <is>
           <t>#QU0U2Q99G</t>
         </is>
       </c>
-      <c r="B18" s="105" t="n">
+      <c r="B18" s="158" t="n">
         <v>942</v>
       </c>
-      <c r="C18" s="93" t="n">
+      <c r="C18" s="150" t="n">
         <v>15</v>
       </c>
       <c r="D18" s="106" t="inlineStr">
@@ -1814,45 +1970,51 @@
           <t>big coc</t>
         </is>
       </c>
-      <c r="E18" s="107" t="n">
+      <c r="E18" s="159" t="n">
         <v>6</v>
       </c>
       <c r="F18" s="106" t="n">
         <v>7420</v>
       </c>
-      <c r="G18" s="116" t="n">
+      <c r="G18" s="164" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="109" t="n">
         <v>60</v>
       </c>
-      <c r="I18" s="107" t="n">
+      <c r="I18" s="159" t="n">
+        <v>6</v>
+      </c>
+      <c r="J18" s="106" t="n">
+        <v>7420</v>
+      </c>
+      <c r="K18" s="159" t="n">
         <v>5</v>
       </c>
-      <c r="J18" s="118" t="n">
+      <c r="L18" s="118" t="n">
         <v>5150</v>
       </c>
-      <c r="K18" s="107" t="n">
-        <v>6</v>
-      </c>
-      <c r="L18" s="106" t="n">
+      <c r="M18" s="159" t="n">
+        <v>6</v>
+      </c>
+      <c r="N18" s="106" t="n">
         <v>9075</v>
       </c>
-      <c r="M18" s="105" t="n"/>
-      <c r="N18" s="109" t="n"/>
-      <c r="O18" s="105" t="n"/>
+      <c r="O18" s="158" t="n"/>
       <c r="P18" s="109" t="n"/>
+      <c r="Q18" s="158" t="n"/>
+      <c r="R18" s="109" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="110" t="inlineStr">
+      <c r="A19" s="161" t="inlineStr">
         <is>
           <t>#QRPRYR8LL</t>
         </is>
       </c>
-      <c r="B19" s="110" t="n">
+      <c r="B19" s="161" t="n">
         <v>1193</v>
       </c>
-      <c r="C19" s="99" t="n">
+      <c r="C19" s="154" t="n">
         <v>16</v>
       </c>
       <c r="D19" s="111" t="inlineStr">
@@ -1860,53 +2022,59 @@
           <t>FidelCashflow</t>
         </is>
       </c>
-      <c r="E19" s="112" t="n">
+      <c r="E19" s="162" t="n">
         <v>6</v>
       </c>
       <c r="F19" s="111" t="n">
         <v>6415</v>
       </c>
-      <c r="G19" s="113" t="n">
+      <c r="G19" s="163" t="n">
         <v>4</v>
       </c>
       <c r="H19" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="112" t="n">
+      <c r="I19" s="162" t="n">
         <v>6</v>
       </c>
       <c r="J19" s="111" t="n">
+        <v>6415</v>
+      </c>
+      <c r="K19" s="162" t="n">
+        <v>6</v>
+      </c>
+      <c r="L19" s="111" t="n">
         <v>6547</v>
       </c>
-      <c r="K19" s="112" t="n">
-        <v>6</v>
-      </c>
-      <c r="L19" s="111" t="n">
+      <c r="M19" s="162" t="n">
+        <v>6</v>
+      </c>
+      <c r="N19" s="111" t="n">
         <v>6811</v>
       </c>
-      <c r="M19" s="112" t="n">
-        <v>6</v>
-      </c>
-      <c r="N19" s="115" t="n">
+      <c r="O19" s="162" t="n">
+        <v>6</v>
+      </c>
+      <c r="P19" s="115" t="n">
         <v>4239</v>
       </c>
-      <c r="O19" s="112" t="n">
-        <v>6</v>
-      </c>
-      <c r="P19" s="115" t="n">
+      <c r="Q19" s="162" t="n">
+        <v>6</v>
+      </c>
+      <c r="R19" s="115" t="n">
         <v>4214</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="105" t="inlineStr">
+      <c r="A20" s="158" t="inlineStr">
         <is>
           <t>#QY0VGPQGQ</t>
         </is>
       </c>
-      <c r="B20" s="105" t="n">
+      <c r="B20" s="158" t="n">
         <v>540</v>
       </c>
-      <c r="C20" s="93" t="n">
+      <c r="C20" s="150" t="n">
         <v>17</v>
       </c>
       <c r="D20" s="106" t="inlineStr">
@@ -1914,37 +2082,43 @@
           <t>killerjones</t>
         </is>
       </c>
-      <c r="E20" s="107" t="n">
+      <c r="E20" s="159" t="n">
         <v>6</v>
       </c>
       <c r="F20" s="106" t="n">
         <v>6320</v>
       </c>
-      <c r="G20" s="116" t="n">
+      <c r="G20" s="164" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="109" t="n">
         <v>15</v>
       </c>
-      <c r="I20" s="105" t="n"/>
-      <c r="J20" s="109" t="n"/>
-      <c r="K20" s="105" t="n"/>
+      <c r="I20" s="159" t="n">
+        <v>6</v>
+      </c>
+      <c r="J20" s="106" t="n">
+        <v>6320</v>
+      </c>
+      <c r="K20" s="158" t="n"/>
       <c r="L20" s="109" t="n"/>
-      <c r="M20" s="105" t="n"/>
+      <c r="M20" s="158" t="n"/>
       <c r="N20" s="109" t="n"/>
-      <c r="O20" s="105" t="n"/>
+      <c r="O20" s="158" t="n"/>
       <c r="P20" s="109" t="n"/>
+      <c r="Q20" s="158" t="n"/>
+      <c r="R20" s="109" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="110" t="inlineStr">
+      <c r="A21" s="161" t="inlineStr">
         <is>
           <t>#LC9GUPJJG</t>
         </is>
       </c>
-      <c r="B21" s="110" t="n">
+      <c r="B21" s="161" t="n">
         <v>1050</v>
       </c>
-      <c r="C21" s="99" t="n">
+      <c r="C21" s="154" t="n">
         <v>18</v>
       </c>
       <c r="D21" s="111" t="inlineStr">
@@ -1952,41 +2126,47 @@
           <t>raptor2222a</t>
         </is>
       </c>
-      <c r="E21" s="112" t="n">
+      <c r="E21" s="162" t="n">
         <v>5</v>
       </c>
       <c r="F21" s="115" t="n">
         <v>4350</v>
       </c>
-      <c r="G21" s="113" t="n">
+      <c r="G21" s="163" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="110" t="n"/>
-      <c r="L21" s="114" t="n"/>
-      <c r="M21" s="110" t="n"/>
+      <c r="I21" s="162" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" s="115" t="n">
+        <v>4350</v>
+      </c>
+      <c r="K21" s="163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="161" t="n"/>
       <c r="N21" s="114" t="n"/>
-      <c r="O21" s="110" t="n"/>
+      <c r="O21" s="161" t="n"/>
       <c r="P21" s="114" t="n"/>
+      <c r="Q21" s="161" t="n"/>
+      <c r="R21" s="114" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="105" t="inlineStr">
+      <c r="A22" s="158" t="inlineStr">
         <is>
           <t>#QLG0VJG2J</t>
         </is>
       </c>
-      <c r="B22" s="105" t="n">
+      <c r="B22" s="158" t="n">
         <v>1167</v>
       </c>
-      <c r="C22" s="93" t="n">
+      <c r="C22" s="150" t="n">
         <v>19</v>
       </c>
       <c r="D22" s="118" t="inlineStr">
@@ -1994,41 +2174,47 @@
           <t>PocketRocket</t>
         </is>
       </c>
-      <c r="E22" s="108" t="n">
+      <c r="E22" s="160" t="n">
         <v>4</v>
       </c>
       <c r="F22" s="118" t="n">
         <v>4327</v>
       </c>
-      <c r="G22" s="116" t="n">
+      <c r="G22" s="164" t="n">
         <v>20</v>
       </c>
       <c r="H22" s="109" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="108" t="n">
+      <c r="I22" s="160" t="n">
         <v>4</v>
       </c>
       <c r="J22" s="118" t="n">
+        <v>4327</v>
+      </c>
+      <c r="K22" s="160" t="n">
+        <v>4</v>
+      </c>
+      <c r="L22" s="118" t="n">
         <v>5215</v>
       </c>
-      <c r="K22" s="105" t="n"/>
-      <c r="L22" s="109" t="n"/>
-      <c r="M22" s="105" t="n"/>
+      <c r="M22" s="158" t="n"/>
       <c r="N22" s="109" t="n"/>
-      <c r="O22" s="105" t="n"/>
+      <c r="O22" s="158" t="n"/>
       <c r="P22" s="109" t="n"/>
+      <c r="Q22" s="158" t="n"/>
+      <c r="R22" s="109" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="110" t="inlineStr">
+      <c r="A23" s="161" t="inlineStr">
         <is>
           <t>#QL8LVLYG8</t>
         </is>
       </c>
-      <c r="B23" s="110" t="n">
+      <c r="B23" s="161" t="n">
         <v>930</v>
       </c>
-      <c r="C23" s="99" t="n">
+      <c r="C23" s="154" t="n">
         <v>20</v>
       </c>
       <c r="D23" s="119" t="inlineStr">
@@ -2036,40 +2222,46 @@
           <t>Some guy</t>
         </is>
       </c>
-      <c r="E23" s="113" t="n">
+      <c r="E23" s="163" t="n">
         <v>2</v>
       </c>
       <c r="F23" s="119" t="n">
         <v>2650</v>
       </c>
-      <c r="G23" s="113" t="n">
+      <c r="G23" s="163" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="114" t="n">
         <v>20</v>
       </c>
-      <c r="I23" s="113" t="n">
-        <v>0</v>
+      <c r="I23" s="163" t="n">
+        <v>2</v>
       </c>
       <c r="J23" s="119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="112" t="n">
-        <v>6</v>
-      </c>
-      <c r="L23" s="111" t="n">
+        <v>2650</v>
+      </c>
+      <c r="K23" s="163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="162" t="n">
+        <v>6</v>
+      </c>
+      <c r="N23" s="111" t="n">
         <v>6917</v>
       </c>
-      <c r="M23" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="119" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" s="113" t="n">
+      <c r="O23" s="163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="163" t="n">
         <v>2</v>
       </c>
-      <c r="P23" s="119" t="n">
+      <c r="R23" s="119" t="n">
         <v>1965</v>
       </c>
     </row>
@@ -2108,35 +2300,41 @@
       <c r="J24" s="122" t="n">
         <v>0</v>
       </c>
-      <c r="K24" s="125" t="n">
-        <v>6</v>
-      </c>
-      <c r="L24" s="126" t="n">
+      <c r="K24" s="123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="125" t="n">
+        <v>6</v>
+      </c>
+      <c r="N24" s="126" t="n">
         <v>5415</v>
       </c>
-      <c r="M24" s="125" t="n">
-        <v>6</v>
-      </c>
-      <c r="N24" s="126" t="n">
+      <c r="O24" s="125" t="n">
+        <v>6</v>
+      </c>
+      <c r="P24" s="126" t="n">
         <v>4835</v>
       </c>
-      <c r="O24" s="125" t="n">
+      <c r="Q24" s="125" t="n">
         <v>5</v>
       </c>
-      <c r="P24" s="126" t="n">
+      <c r="R24" s="126" t="n">
         <v>4055</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="110" t="inlineStr">
+      <c r="A25" s="161" t="inlineStr">
         <is>
           <t>#QV8JJ0URU</t>
         </is>
       </c>
-      <c r="B25" s="110" t="n">
+      <c r="B25" s="161" t="n">
         <v>741</v>
       </c>
-      <c r="C25" s="99" t="n">
+      <c r="C25" s="154" t="n">
         <v>22</v>
       </c>
       <c r="D25" s="119" t="inlineStr">
@@ -2144,53 +2342,59 @@
           <t>✨Jacob</t>
         </is>
       </c>
-      <c r="E25" s="113" t="n">
+      <c r="E25" s="163" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="G25" s="113" t="n">
+      <c r="G25" s="163" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="113" t="n">
+      <c r="I25" s="163" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="K25" s="113" t="n">
+      <c r="K25" s="163" t="n">
         <v>0</v>
       </c>
       <c r="L25" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="M25" s="112" t="n">
-        <v>6</v>
-      </c>
-      <c r="N25" s="111" t="n">
+      <c r="M25" s="163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="162" t="n">
+        <v>6</v>
+      </c>
+      <c r="P25" s="111" t="n">
         <v>7385</v>
       </c>
-      <c r="O25" s="112" t="n">
-        <v>6</v>
-      </c>
-      <c r="P25" s="111" t="n">
+      <c r="Q25" s="162" t="n">
+        <v>6</v>
+      </c>
+      <c r="R25" s="111" t="n">
         <v>9155</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="105" t="inlineStr">
+      <c r="A26" s="158" t="inlineStr">
         <is>
           <t>#QY8L2GLUR</t>
         </is>
       </c>
-      <c r="B26" s="105" t="n">
+      <c r="B26" s="158" t="n">
         <v>907</v>
       </c>
-      <c r="C26" s="93" t="n">
+      <c r="C26" s="150" t="n">
         <v>23</v>
       </c>
       <c r="D26" s="117" t="inlineStr">
@@ -2198,53 +2402,59 @@
           <t>Huy</t>
         </is>
       </c>
-      <c r="E26" s="116" t="n">
+      <c r="E26" s="164" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="116" t="n">
+      <c r="G26" s="164" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="109" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="116" t="n">
+      <c r="I26" s="164" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="K26" s="116" t="n">
+      <c r="K26" s="164" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="M26" s="107" t="n">
-        <v>6</v>
-      </c>
-      <c r="N26" s="106" t="n">
+      <c r="M26" s="164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="159" t="n">
+        <v>6</v>
+      </c>
+      <c r="P26" s="106" t="n">
         <v>6995</v>
       </c>
-      <c r="O26" s="107" t="n">
-        <v>6</v>
-      </c>
-      <c r="P26" s="106" t="n">
+      <c r="Q26" s="159" t="n">
+        <v>6</v>
+      </c>
+      <c r="R26" s="106" t="n">
         <v>6055</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="110" t="inlineStr">
+      <c r="A27" s="161" t="inlineStr">
         <is>
           <t>#L2QQL9QVJ</t>
         </is>
       </c>
-      <c r="B27" s="110" t="n">
+      <c r="B27" s="161" t="n">
         <v>1450</v>
       </c>
-      <c r="C27" s="99" t="n">
+      <c r="C27" s="154" t="n">
         <v>24</v>
       </c>
       <c r="D27" s="119" t="inlineStr">
@@ -2252,53 +2462,59 @@
           <t>JustPre10d</t>
         </is>
       </c>
-      <c r="E27" s="113" t="n">
+      <c r="E27" s="163" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="G27" s="113" t="n">
+      <c r="G27" s="163" t="n">
         <v>0</v>
       </c>
       <c r="H27" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="113" t="n">
+      <c r="I27" s="163" t="n">
         <v>0</v>
       </c>
       <c r="J27" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="K27" s="113" t="n">
+      <c r="K27" s="163" t="n">
         <v>0</v>
       </c>
       <c r="L27" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="M27" s="112" t="n">
-        <v>6</v>
-      </c>
-      <c r="N27" s="111" t="n">
+      <c r="M27" s="163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="162" t="n">
+        <v>6</v>
+      </c>
+      <c r="P27" s="111" t="n">
         <v>6655</v>
       </c>
-      <c r="O27" s="112" t="n">
-        <v>6</v>
-      </c>
-      <c r="P27" s="111" t="n">
+      <c r="Q27" s="162" t="n">
+        <v>6</v>
+      </c>
+      <c r="R27" s="111" t="n">
         <v>7675</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="105" t="inlineStr">
+      <c r="A28" s="158" t="inlineStr">
         <is>
           <t>#LPR9RPCY9</t>
         </is>
       </c>
-      <c r="B28" s="105" t="n">
+      <c r="B28" s="158" t="n">
         <v>990</v>
       </c>
-      <c r="C28" s="93" t="n">
+      <c r="C28" s="150" t="n">
         <v>25</v>
       </c>
       <c r="D28" s="117" t="inlineStr">
@@ -2306,49 +2522,55 @@
           <t>sayhuss17</t>
         </is>
       </c>
-      <c r="E28" s="116" t="n">
+      <c r="E28" s="164" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="G28" s="116" t="n">
+      <c r="G28" s="164" t="n">
         <v>0</v>
       </c>
       <c r="H28" s="109" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="116" t="n">
+      <c r="I28" s="164" t="n">
         <v>0</v>
       </c>
       <c r="J28" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="K28" s="116" t="n">
+      <c r="K28" s="164" t="n">
         <v>0</v>
       </c>
       <c r="L28" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="M28" s="108" t="n">
+      <c r="M28" s="164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="160" t="n">
         <v>4</v>
       </c>
-      <c r="N28" s="118" t="n">
+      <c r="P28" s="118" t="n">
         <v>4240</v>
       </c>
-      <c r="O28" s="105" t="n"/>
-      <c r="P28" s="109" t="n"/>
+      <c r="Q28" s="158" t="n"/>
+      <c r="R28" s="109" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="110" t="inlineStr">
+      <c r="A29" s="161" t="inlineStr">
         <is>
           <t>#QQL8C29CY</t>
         </is>
       </c>
-      <c r="B29" s="110" t="n">
+      <c r="B29" s="161" t="n">
         <v>876</v>
       </c>
-      <c r="C29" s="99" t="n">
+      <c r="C29" s="154" t="n">
         <v>26</v>
       </c>
       <c r="D29" s="119" t="inlineStr">
@@ -2356,53 +2578,59 @@
           <t>TypicalTeague#2</t>
         </is>
       </c>
-      <c r="E29" s="113" t="n">
+      <c r="E29" s="163" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="G29" s="113" t="n">
+      <c r="G29" s="163" t="n">
         <v>0</v>
       </c>
       <c r="H29" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="113" t="n">
+      <c r="I29" s="163" t="n">
         <v>0</v>
       </c>
       <c r="J29" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="K29" s="113" t="n">
+      <c r="K29" s="163" t="n">
         <v>0</v>
       </c>
       <c r="L29" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="M29" s="112" t="n">
+      <c r="M29" s="163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="162" t="n">
         <v>5</v>
       </c>
-      <c r="N29" s="115" t="n">
+      <c r="P29" s="115" t="n">
         <v>4070</v>
       </c>
-      <c r="O29" s="112" t="n">
-        <v>6</v>
-      </c>
-      <c r="P29" s="111" t="n">
+      <c r="Q29" s="162" t="n">
+        <v>6</v>
+      </c>
+      <c r="R29" s="111" t="n">
         <v>6410</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="105" t="inlineStr">
+      <c r="A30" s="158" t="inlineStr">
         <is>
           <t>#L9QL9YQQY</t>
         </is>
       </c>
-      <c r="B30" s="105" t="n">
+      <c r="B30" s="158" t="n">
         <v>975</v>
       </c>
-      <c r="C30" s="93" t="n">
+      <c r="C30" s="150" t="n">
         <v>27</v>
       </c>
       <c r="D30" s="117" t="inlineStr">
@@ -2410,53 +2638,59 @@
           <t>Ima Chad</t>
         </is>
       </c>
-      <c r="E30" s="116" t="n">
+      <c r="E30" s="164" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="G30" s="116" t="n">
+      <c r="G30" s="164" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="109" t="n">
         <v>0</v>
       </c>
-      <c r="I30" s="116" t="n">
+      <c r="I30" s="164" t="n">
         <v>0</v>
       </c>
       <c r="J30" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="K30" s="116" t="n">
+      <c r="K30" s="164" t="n">
         <v>0</v>
       </c>
       <c r="L30" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="M30" s="116" t="n">
+      <c r="M30" s="164" t="n">
         <v>0</v>
       </c>
       <c r="N30" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="O30" s="107" t="n">
+      <c r="O30" s="164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="159" t="n">
         <v>5</v>
       </c>
-      <c r="P30" s="117" t="n">
+      <c r="R30" s="117" t="n">
         <v>3360</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="110" t="inlineStr">
+      <c r="A31" s="161" t="inlineStr">
         <is>
           <t>#PJYVV989R</t>
         </is>
       </c>
-      <c r="B31" s="110" t="n">
+      <c r="B31" s="161" t="n">
         <v>1528</v>
       </c>
-      <c r="C31" s="99" t="n">
+      <c r="C31" s="154" t="n">
         <v>28</v>
       </c>
       <c r="D31" s="119" t="inlineStr">
@@ -2464,49 +2698,55 @@
           <t>nx</t>
         </is>
       </c>
-      <c r="E31" s="113" t="n">
+      <c r="E31" s="163" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="G31" s="113" t="n">
+      <c r="G31" s="163" t="n">
         <v>32</v>
       </c>
       <c r="H31" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="I31" s="113" t="n">
+      <c r="I31" s="163" t="n">
         <v>0</v>
       </c>
       <c r="J31" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="K31" s="113" t="n">
+      <c r="K31" s="163" t="n">
         <v>0</v>
       </c>
       <c r="L31" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="M31" s="113" t="n">
+      <c r="M31" s="163" t="n">
         <v>0</v>
       </c>
       <c r="N31" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="O31" s="110" t="n"/>
-      <c r="P31" s="114" t="n"/>
+      <c r="O31" s="163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="161" t="n"/>
+      <c r="R31" s="114" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="105" t="inlineStr">
+      <c r="A32" s="158" t="inlineStr">
         <is>
           <t>#L9JJQY992</t>
         </is>
       </c>
-      <c r="B32" s="105" t="n">
+      <c r="B32" s="158" t="n">
         <v>773</v>
       </c>
-      <c r="C32" s="93" t="n">
+      <c r="C32" s="150" t="n">
         <v>29</v>
       </c>
       <c r="D32" s="117" t="inlineStr">
@@ -2514,49 +2754,55 @@
           <t>Fisted_Waffle</t>
         </is>
       </c>
-      <c r="E32" s="116" t="n">
+      <c r="E32" s="164" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="G32" s="116" t="n">
+      <c r="G32" s="164" t="n">
         <v>0</v>
       </c>
       <c r="H32" s="109" t="n">
         <v>0</v>
       </c>
-      <c r="I32" s="116" t="n">
+      <c r="I32" s="164" t="n">
         <v>0</v>
       </c>
       <c r="J32" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="K32" s="116" t="n">
+      <c r="K32" s="164" t="n">
         <v>0</v>
       </c>
       <c r="L32" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="M32" s="116" t="n">
+      <c r="M32" s="164" t="n">
         <v>0</v>
       </c>
       <c r="N32" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="O32" s="105" t="n"/>
-      <c r="P32" s="109" t="n"/>
+      <c r="O32" s="164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="158" t="n"/>
+      <c r="R32" s="109" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="110" t="inlineStr">
+      <c r="A33" s="161" t="inlineStr">
         <is>
           <t>#QUVJGC0VQ</t>
         </is>
       </c>
-      <c r="B33" s="110" t="n">
+      <c r="B33" s="161" t="n">
         <v>1203</v>
       </c>
-      <c r="C33" s="99" t="n">
+      <c r="C33" s="154" t="n">
         <v>30</v>
       </c>
       <c r="D33" s="114" t="inlineStr">
@@ -2564,33 +2810,35 @@
           <t>Cam</t>
         </is>
       </c>
-      <c r="E33" s="110" t="n"/>
+      <c r="E33" s="161" t="n"/>
       <c r="F33" s="114" t="n"/>
-      <c r="G33" s="113" t="n">
+      <c r="G33" s="163" t="n">
         <v>0</v>
       </c>
       <c r="H33" s="114" t="n">
         <v>73</v>
       </c>
-      <c r="I33" s="110" t="n"/>
+      <c r="I33" s="161" t="n"/>
       <c r="J33" s="114" t="n"/>
-      <c r="K33" s="110" t="n"/>
+      <c r="K33" s="161" t="n"/>
       <c r="L33" s="114" t="n"/>
-      <c r="M33" s="110" t="n"/>
+      <c r="M33" s="161" t="n"/>
       <c r="N33" s="114" t="n"/>
-      <c r="O33" s="110" t="n"/>
+      <c r="O33" s="161" t="n"/>
       <c r="P33" s="114" t="n"/>
+      <c r="Q33" s="161" t="n"/>
+      <c r="R33" s="114" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="105" t="inlineStr">
+      <c r="A34" s="158" t="inlineStr">
         <is>
           <t>#QUGYGY88C</t>
         </is>
       </c>
-      <c r="B34" s="105" t="n">
+      <c r="B34" s="158" t="n">
         <v>946</v>
       </c>
-      <c r="C34" s="93" t="n">
+      <c r="C34" s="150" t="n">
         <v>31</v>
       </c>
       <c r="D34" s="109" t="inlineStr">
@@ -2598,33 +2846,35 @@
           <t>Kingsman</t>
         </is>
       </c>
-      <c r="E34" s="105" t="n"/>
+      <c r="E34" s="158" t="n"/>
       <c r="F34" s="109" t="n"/>
-      <c r="G34" s="116" t="n">
+      <c r="G34" s="164" t="n">
         <v>0</v>
       </c>
       <c r="H34" s="109" t="n">
         <v>0</v>
       </c>
-      <c r="I34" s="105" t="n"/>
+      <c r="I34" s="158" t="n"/>
       <c r="J34" s="109" t="n"/>
-      <c r="K34" s="105" t="n"/>
+      <c r="K34" s="158" t="n"/>
       <c r="L34" s="109" t="n"/>
-      <c r="M34" s="105" t="n"/>
+      <c r="M34" s="158" t="n"/>
       <c r="N34" s="109" t="n"/>
-      <c r="O34" s="105" t="n"/>
+      <c r="O34" s="158" t="n"/>
       <c r="P34" s="109" t="n"/>
+      <c r="Q34" s="158" t="n"/>
+      <c r="R34" s="109" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="110" t="inlineStr">
+      <c r="A35" s="161" t="inlineStr">
         <is>
           <t>#LGCVY0L9P</t>
         </is>
       </c>
-      <c r="B35" s="110" t="n">
+      <c r="B35" s="161" t="n">
         <v>942</v>
       </c>
-      <c r="C35" s="99" t="n">
+      <c r="C35" s="154" t="n">
         <v>32</v>
       </c>
       <c r="D35" s="114" t="inlineStr">
@@ -2632,33 +2882,35 @@
           <t>Death1wolf</t>
         </is>
       </c>
-      <c r="E35" s="110" t="n"/>
+      <c r="E35" s="161" t="n"/>
       <c r="F35" s="114" t="n"/>
-      <c r="G35" s="113" t="n">
+      <c r="G35" s="163" t="n">
         <v>0</v>
       </c>
       <c r="H35" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="I35" s="110" t="n"/>
+      <c r="I35" s="161" t="n"/>
       <c r="J35" s="114" t="n"/>
-      <c r="K35" s="110" t="n"/>
+      <c r="K35" s="161" t="n"/>
       <c r="L35" s="114" t="n"/>
-      <c r="M35" s="110" t="n"/>
+      <c r="M35" s="161" t="n"/>
       <c r="N35" s="114" t="n"/>
-      <c r="O35" s="110" t="n"/>
+      <c r="O35" s="161" t="n"/>
       <c r="P35" s="114" t="n"/>
+      <c r="Q35" s="161" t="n"/>
+      <c r="R35" s="114" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="105" t="inlineStr">
+      <c r="A36" s="158" t="inlineStr">
         <is>
           <t>#QLGYRVPU0</t>
         </is>
       </c>
-      <c r="B36" s="105" t="n">
+      <c r="B36" s="158" t="n">
         <v>871</v>
       </c>
-      <c r="C36" s="93" t="n">
+      <c r="C36" s="150" t="n">
         <v>33</v>
       </c>
       <c r="D36" s="109" t="inlineStr">
@@ -2666,33 +2918,35 @@
           <t>Black.Boy.</t>
         </is>
       </c>
-      <c r="E36" s="105" t="n"/>
+      <c r="E36" s="158" t="n"/>
       <c r="F36" s="109" t="n"/>
-      <c r="G36" s="116" t="n">
+      <c r="G36" s="164" t="n">
         <v>0</v>
       </c>
       <c r="H36" s="109" t="n">
         <v>86</v>
       </c>
-      <c r="I36" s="105" t="n"/>
+      <c r="I36" s="158" t="n"/>
       <c r="J36" s="109" t="n"/>
-      <c r="K36" s="105" t="n"/>
+      <c r="K36" s="158" t="n"/>
       <c r="L36" s="109" t="n"/>
-      <c r="M36" s="105" t="n"/>
+      <c r="M36" s="158" t="n"/>
       <c r="N36" s="109" t="n"/>
-      <c r="O36" s="105" t="n"/>
+      <c r="O36" s="158" t="n"/>
       <c r="P36" s="109" t="n"/>
+      <c r="Q36" s="158" t="n"/>
+      <c r="R36" s="109" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="110" t="inlineStr">
+      <c r="A37" s="161" t="inlineStr">
         <is>
           <t>#QLUV29GGJ</t>
         </is>
       </c>
-      <c r="B37" s="110" t="n">
+      <c r="B37" s="161" t="n">
         <v>994</v>
       </c>
-      <c r="C37" s="99" t="n">
+      <c r="C37" s="154" t="n">
         <v>34</v>
       </c>
       <c r="D37" s="114" t="inlineStr">
@@ -2700,33 +2954,35 @@
           <t>Kukoshibo</t>
         </is>
       </c>
-      <c r="E37" s="110" t="n"/>
+      <c r="E37" s="161" t="n"/>
       <c r="F37" s="114" t="n"/>
-      <c r="G37" s="113" t="n">
+      <c r="G37" s="163" t="n">
         <v>0</v>
       </c>
       <c r="H37" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="I37" s="110" t="n"/>
+      <c r="I37" s="161" t="n"/>
       <c r="J37" s="114" t="n"/>
-      <c r="K37" s="110" t="n"/>
+      <c r="K37" s="161" t="n"/>
       <c r="L37" s="114" t="n"/>
-      <c r="M37" s="110" t="n"/>
+      <c r="M37" s="161" t="n"/>
       <c r="N37" s="114" t="n"/>
-      <c r="O37" s="110" t="n"/>
+      <c r="O37" s="161" t="n"/>
       <c r="P37" s="114" t="n"/>
+      <c r="Q37" s="161" t="n"/>
+      <c r="R37" s="114" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="105" t="inlineStr">
+      <c r="A38" s="158" t="inlineStr">
         <is>
           <t>#LPCLQUCCY</t>
         </is>
       </c>
-      <c r="B38" s="105" t="n">
+      <c r="B38" s="158" t="n">
         <v>1013</v>
       </c>
-      <c r="C38" s="93" t="n">
+      <c r="C38" s="150" t="n">
         <v>35</v>
       </c>
       <c r="D38" s="109" t="inlineStr">
@@ -2734,33 +2990,35 @@
           <t>Zodiac</t>
         </is>
       </c>
-      <c r="E38" s="105" t="n"/>
+      <c r="E38" s="158" t="n"/>
       <c r="F38" s="109" t="n"/>
-      <c r="G38" s="116" t="n">
+      <c r="G38" s="164" t="n">
         <v>0</v>
       </c>
       <c r="H38" s="109" t="n">
         <v>0</v>
       </c>
-      <c r="I38" s="105" t="n"/>
+      <c r="I38" s="158" t="n"/>
       <c r="J38" s="109" t="n"/>
-      <c r="K38" s="105" t="n"/>
+      <c r="K38" s="158" t="n"/>
       <c r="L38" s="109" t="n"/>
-      <c r="M38" s="105" t="n"/>
+      <c r="M38" s="158" t="n"/>
       <c r="N38" s="109" t="n"/>
-      <c r="O38" s="105" t="n"/>
+      <c r="O38" s="158" t="n"/>
       <c r="P38" s="109" t="n"/>
+      <c r="Q38" s="158" t="n"/>
+      <c r="R38" s="109" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="110" t="inlineStr">
+      <c r="A39" s="161" t="inlineStr">
         <is>
           <t>#QV8RY9UC8</t>
         </is>
       </c>
-      <c r="B39" s="110" t="n">
+      <c r="B39" s="161" t="n">
         <v>817</v>
       </c>
-      <c r="C39" s="99" t="n">
+      <c r="C39" s="154" t="n">
         <v>36</v>
       </c>
       <c r="D39" s="114" t="inlineStr">
@@ -2768,33 +3026,35 @@
           <t>Apollo</t>
         </is>
       </c>
-      <c r="E39" s="110" t="n"/>
+      <c r="E39" s="161" t="n"/>
       <c r="F39" s="114" t="n"/>
-      <c r="G39" s="113" t="n">
+      <c r="G39" s="163" t="n">
         <v>0</v>
       </c>
       <c r="H39" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="I39" s="110" t="n"/>
+      <c r="I39" s="161" t="n"/>
       <c r="J39" s="114" t="n"/>
-      <c r="K39" s="110" t="n"/>
+      <c r="K39" s="161" t="n"/>
       <c r="L39" s="114" t="n"/>
-      <c r="M39" s="110" t="n"/>
+      <c r="M39" s="161" t="n"/>
       <c r="N39" s="114" t="n"/>
-      <c r="O39" s="110" t="n"/>
+      <c r="O39" s="161" t="n"/>
       <c r="P39" s="114" t="n"/>
+      <c r="Q39" s="161" t="n"/>
+      <c r="R39" s="114" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="105" t="inlineStr">
+      <c r="A40" s="158" t="inlineStr">
         <is>
           <t>#G0LJCVR2P</t>
         </is>
       </c>
-      <c r="B40" s="105" t="n">
+      <c r="B40" s="158" t="n">
         <v>1051</v>
       </c>
-      <c r="C40" s="93" t="n">
+      <c r="C40" s="150" t="n">
         <v>37</v>
       </c>
       <c r="D40" s="109" t="inlineStr">
@@ -2802,33 +3062,35 @@
           <t>DaddyChill</t>
         </is>
       </c>
-      <c r="E40" s="105" t="n"/>
+      <c r="E40" s="158" t="n"/>
       <c r="F40" s="109" t="n"/>
-      <c r="G40" s="116" t="n">
+      <c r="G40" s="164" t="n">
         <v>0</v>
       </c>
       <c r="H40" s="109" t="n">
         <v>0</v>
       </c>
-      <c r="I40" s="105" t="n"/>
+      <c r="I40" s="158" t="n"/>
       <c r="J40" s="109" t="n"/>
-      <c r="K40" s="105" t="n"/>
+      <c r="K40" s="158" t="n"/>
       <c r="L40" s="109" t="n"/>
-      <c r="M40" s="105" t="n"/>
+      <c r="M40" s="158" t="n"/>
       <c r="N40" s="109" t="n"/>
-      <c r="O40" s="105" t="n"/>
+      <c r="O40" s="158" t="n"/>
       <c r="P40" s="109" t="n"/>
+      <c r="Q40" s="158" t="n"/>
+      <c r="R40" s="109" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="110" t="inlineStr">
+      <c r="A41" s="161" t="inlineStr">
         <is>
           <t>#QJQV82JG0</t>
         </is>
       </c>
-      <c r="B41" s="110" t="n">
+      <c r="B41" s="161" t="n">
         <v>904</v>
       </c>
-      <c r="C41" s="99" t="n">
+      <c r="C41" s="154" t="n">
         <v>38</v>
       </c>
       <c r="D41" s="114" t="inlineStr">
@@ -2836,33 +3098,35 @@
           <t>The UnknownYT</t>
         </is>
       </c>
-      <c r="E41" s="110" t="n"/>
+      <c r="E41" s="161" t="n"/>
       <c r="F41" s="114" t="n"/>
-      <c r="G41" s="113" t="n">
+      <c r="G41" s="163" t="n">
         <v>6</v>
       </c>
       <c r="H41" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="I41" s="110" t="n"/>
+      <c r="I41" s="161" t="n"/>
       <c r="J41" s="114" t="n"/>
-      <c r="K41" s="110" t="n"/>
+      <c r="K41" s="161" t="n"/>
       <c r="L41" s="114" t="n"/>
-      <c r="M41" s="110" t="n"/>
+      <c r="M41" s="161" t="n"/>
       <c r="N41" s="114" t="n"/>
-      <c r="O41" s="110" t="n"/>
+      <c r="O41" s="161" t="n"/>
       <c r="P41" s="114" t="n"/>
+      <c r="Q41" s="161" t="n"/>
+      <c r="R41" s="114" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="105" t="inlineStr">
+      <c r="A42" s="158" t="inlineStr">
         <is>
           <t>#QUCCVCCJ0</t>
         </is>
       </c>
-      <c r="B42" s="105" t="n">
+      <c r="B42" s="158" t="n">
         <v>756</v>
       </c>
-      <c r="C42" s="93" t="n">
+      <c r="C42" s="150" t="n">
         <v>39</v>
       </c>
       <c r="D42" s="109" t="inlineStr">
@@ -2870,33 +3134,35 @@
           <t>koi</t>
         </is>
       </c>
-      <c r="E42" s="105" t="n"/>
+      <c r="E42" s="158" t="n"/>
       <c r="F42" s="109" t="n"/>
-      <c r="G42" s="116" t="n">
+      <c r="G42" s="164" t="n">
         <v>0</v>
       </c>
       <c r="H42" s="109" t="n">
         <v>0</v>
       </c>
-      <c r="I42" s="105" t="n"/>
+      <c r="I42" s="158" t="n"/>
       <c r="J42" s="109" t="n"/>
-      <c r="K42" s="105" t="n"/>
+      <c r="K42" s="158" t="n"/>
       <c r="L42" s="109" t="n"/>
-      <c r="M42" s="105" t="n"/>
+      <c r="M42" s="158" t="n"/>
       <c r="N42" s="109" t="n"/>
-      <c r="O42" s="105" t="n"/>
+      <c r="O42" s="158" t="n"/>
       <c r="P42" s="109" t="n"/>
+      <c r="Q42" s="158" t="n"/>
+      <c r="R42" s="109" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="110" t="inlineStr">
+      <c r="A43" s="161" t="inlineStr">
         <is>
           <t>#8U9CRC8G</t>
         </is>
       </c>
-      <c r="B43" s="110" t="n">
+      <c r="B43" s="161" t="n">
         <v>1515</v>
       </c>
-      <c r="C43" s="99" t="n">
+      <c r="C43" s="154" t="n">
         <v>40</v>
       </c>
       <c r="D43" s="114" t="inlineStr">
@@ -2904,33 +3170,35 @@
           <t>CEO JACK</t>
         </is>
       </c>
-      <c r="E43" s="110" t="n"/>
+      <c r="E43" s="161" t="n"/>
       <c r="F43" s="114" t="n"/>
-      <c r="G43" s="113" t="n">
+      <c r="G43" s="163" t="n">
         <v>11</v>
       </c>
       <c r="H43" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="I43" s="110" t="n"/>
+      <c r="I43" s="161" t="n"/>
       <c r="J43" s="114" t="n"/>
-      <c r="K43" s="110" t="n"/>
+      <c r="K43" s="161" t="n"/>
       <c r="L43" s="114" t="n"/>
-      <c r="M43" s="110" t="n"/>
+      <c r="M43" s="161" t="n"/>
       <c r="N43" s="114" t="n"/>
-      <c r="O43" s="110" t="n"/>
+      <c r="O43" s="161" t="n"/>
       <c r="P43" s="114" t="n"/>
+      <c r="Q43" s="161" t="n"/>
+      <c r="R43" s="114" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="105" t="inlineStr">
+      <c r="A44" s="158" t="inlineStr">
         <is>
           <t>#QQL28Y2UL</t>
         </is>
       </c>
-      <c r="B44" s="105" t="n">
+      <c r="B44" s="158" t="n">
         <v>1112</v>
       </c>
-      <c r="C44" s="93" t="n">
+      <c r="C44" s="150" t="n">
         <v>41</v>
       </c>
       <c r="D44" s="109" t="inlineStr">
@@ -2938,33 +3206,35 @@
           <t>SUPoT</t>
         </is>
       </c>
-      <c r="E44" s="105" t="n"/>
+      <c r="E44" s="158" t="n"/>
       <c r="F44" s="109" t="n"/>
-      <c r="G44" s="116" t="n">
+      <c r="G44" s="164" t="n">
         <v>0</v>
       </c>
       <c r="H44" s="109" t="n">
         <v>56</v>
       </c>
-      <c r="I44" s="105" t="n"/>
+      <c r="I44" s="158" t="n"/>
       <c r="J44" s="109" t="n"/>
-      <c r="K44" s="105" t="n"/>
+      <c r="K44" s="158" t="n"/>
       <c r="L44" s="109" t="n"/>
-      <c r="M44" s="105" t="n"/>
+      <c r="M44" s="158" t="n"/>
       <c r="N44" s="109" t="n"/>
-      <c r="O44" s="105" t="n"/>
+      <c r="O44" s="158" t="n"/>
       <c r="P44" s="109" t="n"/>
+      <c r="Q44" s="158" t="n"/>
+      <c r="R44" s="109" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="110" t="inlineStr">
+      <c r="A45" s="161" t="inlineStr">
         <is>
           <t>#Q0U0CRCGJ</t>
         </is>
       </c>
-      <c r="B45" s="110" t="n">
+      <c r="B45" s="161" t="n">
         <v>723</v>
       </c>
-      <c r="C45" s="99" t="n">
+      <c r="C45" s="154" t="n">
         <v>42</v>
       </c>
       <c r="D45" s="114" t="inlineStr">
@@ -2972,33 +3242,35 @@
           <t>Sn0wc0ne</t>
         </is>
       </c>
-      <c r="E45" s="110" t="n"/>
+      <c r="E45" s="161" t="n"/>
       <c r="F45" s="114" t="n"/>
-      <c r="G45" s="113" t="n">
+      <c r="G45" s="163" t="n">
         <v>0</v>
       </c>
       <c r="H45" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="I45" s="110" t="n"/>
+      <c r="I45" s="161" t="n"/>
       <c r="J45" s="114" t="n"/>
-      <c r="K45" s="110" t="n"/>
+      <c r="K45" s="161" t="n"/>
       <c r="L45" s="114" t="n"/>
-      <c r="M45" s="110" t="n"/>
+      <c r="M45" s="161" t="n"/>
       <c r="N45" s="114" t="n"/>
-      <c r="O45" s="110" t="n"/>
+      <c r="O45" s="161" t="n"/>
       <c r="P45" s="114" t="n"/>
+      <c r="Q45" s="161" t="n"/>
+      <c r="R45" s="114" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="105" t="inlineStr">
+      <c r="A46" s="158" t="inlineStr">
         <is>
           <t>#VGG9LYL0</t>
         </is>
       </c>
-      <c r="B46" s="105" t="n">
+      <c r="B46" s="158" t="n">
         <v>1050</v>
       </c>
-      <c r="C46" s="93" t="n">
+      <c r="C46" s="150" t="n">
         <v>43</v>
       </c>
       <c r="D46" s="109" t="inlineStr">
@@ -3006,22 +3278,24 @@
           <t>ptripp1048</t>
         </is>
       </c>
-      <c r="E46" s="105" t="n"/>
+      <c r="E46" s="158" t="n"/>
       <c r="F46" s="109" t="n"/>
-      <c r="G46" s="116" t="n">
+      <c r="G46" s="164" t="n">
         <v>0</v>
       </c>
       <c r="H46" s="109" t="n">
         <v>0</v>
       </c>
-      <c r="I46" s="105" t="n"/>
+      <c r="I46" s="158" t="n"/>
       <c r="J46" s="109" t="n"/>
-      <c r="K46" s="105" t="n"/>
+      <c r="K46" s="158" t="n"/>
       <c r="L46" s="109" t="n"/>
-      <c r="M46" s="105" t="n"/>
+      <c r="M46" s="158" t="n"/>
       <c r="N46" s="109" t="n"/>
-      <c r="O46" s="105" t="n"/>
+      <c r="O46" s="158" t="n"/>
       <c r="P46" s="109" t="n"/>
+      <c r="Q46" s="158" t="n"/>
+      <c r="R46" s="109" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="127" t="inlineStr">
@@ -3052,17 +3326,19 @@
       <c r="N47" s="130" t="n"/>
       <c r="O47" s="128" t="n"/>
       <c r="P47" s="130" t="n"/>
+      <c r="Q47" s="128" t="n"/>
+      <c r="R47" s="130" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="116" t="inlineStr">
+      <c r="A48" s="164" t="inlineStr">
         <is>
           <t>#QLL0PVCRV</t>
         </is>
       </c>
-      <c r="B48" s="105" t="n">
+      <c r="B48" s="158" t="n">
         <v>1704</v>
       </c>
-      <c r="C48" s="93" t="n">
+      <c r="C48" s="150" t="n">
         <v>45</v>
       </c>
       <c r="D48" s="109" t="inlineStr">
@@ -3070,29 +3346,31 @@
           <t>Harsh chhillar</t>
         </is>
       </c>
-      <c r="E48" s="105" t="n"/>
+      <c r="E48" s="158" t="n"/>
       <c r="F48" s="109" t="n"/>
-      <c r="G48" s="105" t="n"/>
+      <c r="G48" s="158" t="n"/>
       <c r="H48" s="109" t="n"/>
-      <c r="I48" s="105" t="n"/>
+      <c r="I48" s="158" t="n"/>
       <c r="J48" s="109" t="n"/>
-      <c r="K48" s="105" t="n"/>
+      <c r="K48" s="158" t="n"/>
       <c r="L48" s="109" t="n"/>
-      <c r="M48" s="105" t="n"/>
+      <c r="M48" s="158" t="n"/>
       <c r="N48" s="109" t="n"/>
-      <c r="O48" s="105" t="n"/>
+      <c r="O48" s="158" t="n"/>
       <c r="P48" s="109" t="n"/>
+      <c r="Q48" s="158" t="n"/>
+      <c r="R48" s="109" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="113" t="inlineStr">
+      <c r="A49" s="163" t="inlineStr">
         <is>
           <t>#Q8YP9P8UJ</t>
         </is>
       </c>
-      <c r="B49" s="110" t="n">
+      <c r="B49" s="161" t="n">
         <v>945</v>
       </c>
-      <c r="C49" s="99" t="n">
+      <c r="C49" s="154" t="n">
         <v>46</v>
       </c>
       <c r="D49" s="114" t="inlineStr">
@@ -3100,33 +3378,35 @@
           <t>Ranger</t>
         </is>
       </c>
-      <c r="E49" s="110" t="n"/>
+      <c r="E49" s="161" t="n"/>
       <c r="F49" s="114" t="n"/>
-      <c r="G49" s="110" t="n"/>
+      <c r="G49" s="161" t="n"/>
       <c r="H49" s="114" t="n"/>
-      <c r="I49" s="112" t="n">
+      <c r="I49" s="161" t="n"/>
+      <c r="J49" s="114" t="n"/>
+      <c r="K49" s="162" t="n">
         <v>5</v>
       </c>
-      <c r="J49" s="115" t="n">
+      <c r="L49" s="115" t="n">
         <v>4680</v>
       </c>
-      <c r="K49" s="110" t="n"/>
-      <c r="L49" s="114" t="n"/>
-      <c r="M49" s="110" t="n"/>
+      <c r="M49" s="161" t="n"/>
       <c r="N49" s="114" t="n"/>
-      <c r="O49" s="110" t="n"/>
+      <c r="O49" s="161" t="n"/>
       <c r="P49" s="114" t="n"/>
+      <c r="Q49" s="161" t="n"/>
+      <c r="R49" s="114" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="116" t="inlineStr">
+      <c r="A50" s="164" t="inlineStr">
         <is>
           <t>#Q0JG2RJQ8</t>
         </is>
       </c>
-      <c r="B50" s="105" t="n">
+      <c r="B50" s="158" t="n">
         <v>997</v>
       </c>
-      <c r="C50" s="93" t="n">
+      <c r="C50" s="150" t="n">
         <v>47</v>
       </c>
       <c r="D50" s="109" t="inlineStr">
@@ -3134,33 +3414,35 @@
           <t>bozo</t>
         </is>
       </c>
-      <c r="E50" s="105" t="n"/>
+      <c r="E50" s="158" t="n"/>
       <c r="F50" s="109" t="n"/>
-      <c r="G50" s="105" t="n"/>
+      <c r="G50" s="158" t="n"/>
       <c r="H50" s="109" t="n"/>
-      <c r="I50" s="105" t="n"/>
+      <c r="I50" s="158" t="n"/>
       <c r="J50" s="109" t="n"/>
-      <c r="K50" s="107" t="n">
-        <v>6</v>
-      </c>
-      <c r="L50" s="106" t="n">
+      <c r="K50" s="158" t="n"/>
+      <c r="L50" s="109" t="n"/>
+      <c r="M50" s="159" t="n">
+        <v>6</v>
+      </c>
+      <c r="N50" s="106" t="n">
         <v>6495</v>
       </c>
-      <c r="M50" s="105" t="n"/>
-      <c r="N50" s="109" t="n"/>
-      <c r="O50" s="105" t="n"/>
+      <c r="O50" s="158" t="n"/>
       <c r="P50" s="109" t="n"/>
+      <c r="Q50" s="158" t="n"/>
+      <c r="R50" s="109" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="113" t="inlineStr">
+      <c r="A51" s="163" t="inlineStr">
         <is>
           <t>#UVCCQC02</t>
         </is>
       </c>
-      <c r="B51" s="110" t="n">
+      <c r="B51" s="161" t="n">
         <v>1806</v>
       </c>
-      <c r="C51" s="99" t="n">
+      <c r="C51" s="154" t="n">
         <v>48</v>
       </c>
       <c r="D51" s="114" t="inlineStr">
@@ -3168,41 +3450,43 @@
           <t>lordshisha</t>
         </is>
       </c>
-      <c r="E51" s="110" t="n"/>
+      <c r="E51" s="161" t="n"/>
       <c r="F51" s="114" t="n"/>
-      <c r="G51" s="110" t="n"/>
+      <c r="G51" s="161" t="n"/>
       <c r="H51" s="114" t="n"/>
-      <c r="I51" s="110" t="n"/>
+      <c r="I51" s="161" t="n"/>
       <c r="J51" s="114" t="n"/>
-      <c r="K51" s="112" t="n">
-        <v>6</v>
-      </c>
-      <c r="L51" s="111" t="n">
+      <c r="K51" s="161" t="n"/>
+      <c r="L51" s="114" t="n"/>
+      <c r="M51" s="162" t="n">
+        <v>6</v>
+      </c>
+      <c r="N51" s="111" t="n">
         <v>8496</v>
       </c>
-      <c r="M51" s="112" t="n">
-        <v>6</v>
-      </c>
-      <c r="N51" s="111" t="n">
+      <c r="O51" s="162" t="n">
+        <v>6</v>
+      </c>
+      <c r="P51" s="111" t="n">
         <v>6310</v>
       </c>
-      <c r="O51" s="112" t="n">
-        <v>6</v>
-      </c>
-      <c r="P51" s="111" t="n">
+      <c r="Q51" s="162" t="n">
+        <v>6</v>
+      </c>
+      <c r="R51" s="111" t="n">
         <v>6930</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="116" t="inlineStr">
+      <c r="A52" s="164" t="inlineStr">
         <is>
           <t>#P2CPRPQU</t>
         </is>
       </c>
-      <c r="B52" s="105" t="n">
+      <c r="B52" s="158" t="n">
         <v>2232</v>
       </c>
-      <c r="C52" s="93" t="n">
+      <c r="C52" s="150" t="n">
         <v>49</v>
       </c>
       <c r="D52" s="109" t="inlineStr">
@@ -3210,41 +3494,43 @@
           <t>The Drift King</t>
         </is>
       </c>
-      <c r="E52" s="105" t="n"/>
+      <c r="E52" s="158" t="n"/>
       <c r="F52" s="109" t="n"/>
-      <c r="G52" s="105" t="n"/>
+      <c r="G52" s="158" t="n"/>
       <c r="H52" s="109" t="n"/>
-      <c r="I52" s="105" t="n"/>
+      <c r="I52" s="158" t="n"/>
       <c r="J52" s="109" t="n"/>
-      <c r="K52" s="107" t="n">
-        <v>6</v>
-      </c>
-      <c r="L52" s="106" t="n">
+      <c r="K52" s="158" t="n"/>
+      <c r="L52" s="109" t="n"/>
+      <c r="M52" s="159" t="n">
+        <v>6</v>
+      </c>
+      <c r="N52" s="106" t="n">
         <v>8023</v>
       </c>
-      <c r="M52" s="107" t="n">
-        <v>6</v>
-      </c>
-      <c r="N52" s="106" t="n">
+      <c r="O52" s="159" t="n">
+        <v>6</v>
+      </c>
+      <c r="P52" s="106" t="n">
         <v>7625</v>
       </c>
-      <c r="O52" s="107" t="n">
-        <v>6</v>
-      </c>
-      <c r="P52" s="106" t="n">
+      <c r="Q52" s="159" t="n">
+        <v>6</v>
+      </c>
+      <c r="R52" s="106" t="n">
         <v>7375</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="113" t="inlineStr">
+      <c r="A53" s="163" t="inlineStr">
         <is>
           <t>#QJVL0LYQQ</t>
         </is>
       </c>
-      <c r="B53" s="110" t="n">
+      <c r="B53" s="161" t="n">
         <v>921</v>
       </c>
-      <c r="C53" s="99" t="n">
+      <c r="C53" s="154" t="n">
         <v>50</v>
       </c>
       <c r="D53" s="114" t="inlineStr">
@@ -3252,41 +3538,43 @@
           <t>mobbb341</t>
         </is>
       </c>
-      <c r="E53" s="110" t="n"/>
+      <c r="E53" s="161" t="n"/>
       <c r="F53" s="114" t="n"/>
-      <c r="G53" s="110" t="n"/>
+      <c r="G53" s="161" t="n"/>
       <c r="H53" s="114" t="n"/>
-      <c r="I53" s="110" t="n"/>
+      <c r="I53" s="161" t="n"/>
       <c r="J53" s="114" t="n"/>
-      <c r="K53" s="112" t="n">
-        <v>6</v>
-      </c>
-      <c r="L53" s="111" t="n">
+      <c r="K53" s="161" t="n"/>
+      <c r="L53" s="114" t="n"/>
+      <c r="M53" s="162" t="n">
+        <v>6</v>
+      </c>
+      <c r="N53" s="111" t="n">
         <v>7710</v>
       </c>
-      <c r="M53" s="112" t="n">
-        <v>6</v>
-      </c>
-      <c r="N53" s="111" t="n">
+      <c r="O53" s="162" t="n">
+        <v>6</v>
+      </c>
+      <c r="P53" s="111" t="n">
         <v>8810</v>
       </c>
-      <c r="O53" s="112" t="n">
-        <v>6</v>
-      </c>
-      <c r="P53" s="115" t="n">
+      <c r="Q53" s="162" t="n">
+        <v>6</v>
+      </c>
+      <c r="R53" s="115" t="n">
         <v>4505</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="116" t="inlineStr">
+      <c r="A54" s="164" t="inlineStr">
         <is>
           <t>#L8R82C8VC</t>
         </is>
       </c>
-      <c r="B54" s="105" t="n">
+      <c r="B54" s="158" t="n">
         <v>1162</v>
       </c>
-      <c r="C54" s="93" t="n">
+      <c r="C54" s="150" t="n">
         <v>51</v>
       </c>
       <c r="D54" s="109" t="inlineStr">
@@ -3294,41 +3582,43 @@
           <t>caden asue</t>
         </is>
       </c>
-      <c r="E54" s="105" t="n"/>
+      <c r="E54" s="158" t="n"/>
       <c r="F54" s="109" t="n"/>
-      <c r="G54" s="105" t="n"/>
+      <c r="G54" s="158" t="n"/>
       <c r="H54" s="109" t="n"/>
-      <c r="I54" s="105" t="n"/>
+      <c r="I54" s="158" t="n"/>
       <c r="J54" s="109" t="n"/>
-      <c r="K54" s="107" t="n">
-        <v>6</v>
-      </c>
-      <c r="L54" s="118" t="n">
+      <c r="K54" s="158" t="n"/>
+      <c r="L54" s="109" t="n"/>
+      <c r="M54" s="159" t="n">
+        <v>6</v>
+      </c>
+      <c r="N54" s="118" t="n">
         <v>5112</v>
       </c>
-      <c r="M54" s="107" t="n">
-        <v>6</v>
-      </c>
-      <c r="N54" s="118" t="n">
+      <c r="O54" s="159" t="n">
+        <v>6</v>
+      </c>
+      <c r="P54" s="118" t="n">
         <v>4283</v>
       </c>
-      <c r="O54" s="107" t="n">
-        <v>6</v>
-      </c>
-      <c r="P54" s="118" t="n">
+      <c r="Q54" s="159" t="n">
+        <v>6</v>
+      </c>
+      <c r="R54" s="118" t="n">
         <v>4338</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="113" t="inlineStr">
+      <c r="A55" s="163" t="inlineStr">
         <is>
           <t>#L9Q8VLLQG</t>
         </is>
       </c>
-      <c r="B55" s="110" t="n">
+      <c r="B55" s="161" t="n">
         <v>1130</v>
       </c>
-      <c r="C55" s="99" t="n">
+      <c r="C55" s="154" t="n">
         <v>52</v>
       </c>
       <c r="D55" s="114" t="inlineStr">
@@ -3336,33 +3626,35 @@
           <t>cat</t>
         </is>
       </c>
-      <c r="E55" s="110" t="n"/>
+      <c r="E55" s="161" t="n"/>
       <c r="F55" s="114" t="n"/>
-      <c r="G55" s="110" t="n"/>
+      <c r="G55" s="161" t="n"/>
       <c r="H55" s="114" t="n"/>
-      <c r="I55" s="110" t="n"/>
+      <c r="I55" s="161" t="n"/>
       <c r="J55" s="114" t="n"/>
-      <c r="K55" s="110" t="n"/>
+      <c r="K55" s="161" t="n"/>
       <c r="L55" s="114" t="n"/>
-      <c r="M55" s="110" t="n"/>
+      <c r="M55" s="161" t="n"/>
       <c r="N55" s="114" t="n"/>
-      <c r="O55" s="112" t="n">
-        <v>6</v>
-      </c>
-      <c r="P55" s="115" t="n">
+      <c r="O55" s="161" t="n"/>
+      <c r="P55" s="114" t="n"/>
+      <c r="Q55" s="162" t="n">
+        <v>6</v>
+      </c>
+      <c r="R55" s="115" t="n">
         <v>5908</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="116" t="inlineStr">
+      <c r="A56" s="164" t="inlineStr">
         <is>
           <t>#QV0PQC9JU</t>
         </is>
       </c>
-      <c r="B56" s="105" t="n">
+      <c r="B56" s="158" t="n">
         <v>539</v>
       </c>
-      <c r="C56" s="93" t="n">
+      <c r="C56" s="150" t="n">
         <v>53</v>
       </c>
       <c r="D56" s="109" t="inlineStr">
@@ -3370,33 +3662,35 @@
           <t>Superman</t>
         </is>
       </c>
-      <c r="E56" s="105" t="n"/>
+      <c r="E56" s="158" t="n"/>
       <c r="F56" s="109" t="n"/>
-      <c r="G56" s="105" t="n"/>
+      <c r="G56" s="158" t="n"/>
       <c r="H56" s="109" t="n"/>
-      <c r="I56" s="105" t="n"/>
+      <c r="I56" s="158" t="n"/>
       <c r="J56" s="109" t="n"/>
-      <c r="K56" s="105" t="n"/>
+      <c r="K56" s="158" t="n"/>
       <c r="L56" s="109" t="n"/>
-      <c r="M56" s="105" t="n"/>
+      <c r="M56" s="158" t="n"/>
       <c r="N56" s="109" t="n"/>
-      <c r="O56" s="107" t="n">
-        <v>6</v>
-      </c>
-      <c r="P56" s="118" t="n">
+      <c r="O56" s="158" t="n"/>
+      <c r="P56" s="109" t="n"/>
+      <c r="Q56" s="159" t="n">
+        <v>6</v>
+      </c>
+      <c r="R56" s="118" t="n">
         <v>4447</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="113" t="inlineStr">
+      <c r="A57" s="163" t="inlineStr">
         <is>
           <t>#LU0CRP09L</t>
         </is>
       </c>
-      <c r="B57" s="110" t="n">
+      <c r="B57" s="161" t="n">
         <v>809</v>
       </c>
-      <c r="C57" s="99" t="n">
+      <c r="C57" s="154" t="n">
         <v>54</v>
       </c>
       <c r="D57" s="114" t="inlineStr">
@@ -3404,33 +3698,35 @@
           <t>I Dont Know</t>
         </is>
       </c>
-      <c r="E57" s="110" t="n"/>
+      <c r="E57" s="161" t="n"/>
       <c r="F57" s="114" t="n"/>
-      <c r="G57" s="110" t="n"/>
+      <c r="G57" s="161" t="n"/>
       <c r="H57" s="114" t="n"/>
-      <c r="I57" s="110" t="n"/>
+      <c r="I57" s="161" t="n"/>
       <c r="J57" s="114" t="n"/>
-      <c r="K57" s="110" t="n"/>
+      <c r="K57" s="161" t="n"/>
       <c r="L57" s="114" t="n"/>
-      <c r="M57" s="110" t="n"/>
+      <c r="M57" s="161" t="n"/>
       <c r="N57" s="114" t="n"/>
-      <c r="O57" s="131" t="n">
+      <c r="O57" s="161" t="n"/>
+      <c r="P57" s="114" t="n"/>
+      <c r="Q57" s="165" t="n">
         <v>3</v>
       </c>
-      <c r="P57" s="119" t="n">
+      <c r="R57" s="119" t="n">
         <v>3435</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="116" t="inlineStr">
+      <c r="A58" s="164" t="inlineStr">
         <is>
           <t>#YCPP0QPP8</t>
         </is>
       </c>
-      <c r="B58" s="105" t="n">
+      <c r="B58" s="158" t="n">
         <v>3327</v>
       </c>
-      <c r="C58" s="93" t="n">
+      <c r="C58" s="150" t="n">
         <v>55</v>
       </c>
       <c r="D58" s="109" t="inlineStr">
@@ -3438,20 +3734,22 @@
           <t>Coach</t>
         </is>
       </c>
-      <c r="E58" s="105" t="n"/>
+      <c r="E58" s="158" t="n"/>
       <c r="F58" s="109" t="n"/>
-      <c r="G58" s="105" t="n"/>
+      <c r="G58" s="158" t="n"/>
       <c r="H58" s="109" t="n"/>
-      <c r="I58" s="105" t="n"/>
+      <c r="I58" s="158" t="n"/>
       <c r="J58" s="109" t="n"/>
-      <c r="K58" s="105" t="n"/>
+      <c r="K58" s="158" t="n"/>
       <c r="L58" s="109" t="n"/>
-      <c r="M58" s="105" t="n"/>
+      <c r="M58" s="158" t="n"/>
       <c r="N58" s="109" t="n"/>
-      <c r="O58" s="116" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" s="117" t="n">
+      <c r="O58" s="158" t="n"/>
+      <c r="P58" s="109" t="n"/>
+      <c r="Q58" s="164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" s="117" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Clash.xlsx
+++ b/Clash.xlsx
@@ -876,7 +876,7 @@
     <col width="13.28515625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="13" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="5" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="13" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="15.85546875" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="13" bestFit="1" customWidth="1" min="5" max="6"/>
     <col width="13" bestFit="1" customWidth="1" min="6" max="6"/>
     <col width="7" bestFit="1" customWidth="1" min="7" max="8"/>
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="B12" s="116" t="n">
-        <v>2895</v>
+        <v>2922</v>
       </c>
       <c r="C12" s="109" t="n">
         <v>9</v>
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="B15" s="123" t="n">
-        <v>1394</v>
+        <v>1412</v>
       </c>
       <c r="C15" s="102" t="n">
         <v>12</v>
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B19" s="123" t="n">
-        <v>1193</v>
+        <v>1183</v>
       </c>
       <c r="C19" s="102" t="n">
         <v>16</v>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="B29" s="123" t="n">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="C29" s="102" t="n">
         <v>26</v>
@@ -2648,7 +2648,7 @@
         </is>
       </c>
       <c r="B31" s="123" t="n">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="C31" s="102" t="n">
         <v>28</v>
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="B33" s="123" t="n">
-        <v>1203</v>
+        <v>1192</v>
       </c>
       <c r="C33" s="102" t="n">
         <v>30</v>
@@ -2800,18 +2800,18 @@
     <row r="34">
       <c r="A34" s="116" t="inlineStr">
         <is>
-          <t>#QUGYGY88C</t>
+          <t>#QQL28Y2UL</t>
         </is>
       </c>
       <c r="B34" s="116" t="n">
-        <v>946</v>
+        <v>1112</v>
       </c>
       <c r="C34" s="109" t="n">
         <v>31</v>
       </c>
       <c r="D34" s="117" t="inlineStr">
         <is>
-          <t>Kingsman</t>
+          <t>SUPoT</t>
         </is>
       </c>
       <c r="E34" s="118" t="n">
@@ -2824,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="120" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="I34" s="118" t="n">
         <v>0</v>
@@ -2888,18 +2888,18 @@
     <row r="36">
       <c r="A36" s="116" t="inlineStr">
         <is>
-          <t>#LPCLQUCCY</t>
+          <t>#QV8RY9UC8</t>
         </is>
       </c>
       <c r="B36" s="116" t="n">
-        <v>1013</v>
+        <v>817</v>
       </c>
       <c r="C36" s="109" t="n">
         <v>33</v>
       </c>
       <c r="D36" s="117" t="inlineStr">
         <is>
-          <t>Zodiac</t>
+          <t>Apollo</t>
         </is>
       </c>
       <c r="E36" s="118" t="n">
@@ -2932,18 +2932,18 @@
     <row r="37">
       <c r="A37" s="123" t="inlineStr">
         <is>
-          <t>#QV8RY9UC8</t>
+          <t>#LPCLQUCCY</t>
         </is>
       </c>
       <c r="B37" s="123" t="n">
-        <v>817</v>
+        <v>1013</v>
       </c>
       <c r="C37" s="102" t="n">
         <v>34</v>
       </c>
       <c r="D37" s="124" t="inlineStr">
         <is>
-          <t>Apollo</t>
+          <t>Zodiac</t>
         </is>
       </c>
       <c r="E37" s="125" t="n">
@@ -3020,18 +3020,18 @@
     <row r="39">
       <c r="A39" s="123" t="inlineStr">
         <is>
-          <t>#QQL28Y2UL</t>
+          <t>#QUGYGY88C</t>
         </is>
       </c>
       <c r="B39" s="123" t="n">
-        <v>1112</v>
+        <v>941</v>
       </c>
       <c r="C39" s="102" t="n">
         <v>36</v>
       </c>
       <c r="D39" s="124" t="inlineStr">
         <is>
-          <t>SUPoT</t>
+          <t>Kingsman</t>
         </is>
       </c>
       <c r="E39" s="125" t="n">
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="126" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="I39" s="125" t="n">
         <v>0</v>
@@ -3188,18 +3188,18 @@
     <row r="43">
       <c r="A43" s="123" t="inlineStr">
         <is>
-          <t>#LGCVY0L9P</t>
+          <t>#G0LJCVR2P</t>
         </is>
       </c>
       <c r="B43" s="123" t="n">
-        <v>942</v>
+        <v>1051</v>
       </c>
       <c r="C43" s="102" t="n">
         <v>40</v>
       </c>
       <c r="D43" s="124" t="inlineStr">
         <is>
-          <t>Death1wolf</t>
+          <t>DaddyChill</t>
         </is>
       </c>
       <c r="E43" s="125" t="n">
@@ -3228,18 +3228,18 @@
     <row r="44">
       <c r="A44" s="116" t="inlineStr">
         <is>
-          <t>#QLUV29GGJ</t>
+          <t>#LGCVY0L9P</t>
         </is>
       </c>
       <c r="B44" s="116" t="n">
-        <v>994</v>
+        <v>935</v>
       </c>
       <c r="C44" s="109" t="n">
         <v>41</v>
       </c>
       <c r="D44" s="117" t="inlineStr">
         <is>
-          <t>Kukoshibo</t>
+          <t>Death1wolf</t>
         </is>
       </c>
       <c r="E44" s="118" t="n">
@@ -3308,18 +3308,18 @@
     <row r="46">
       <c r="A46" s="116" t="inlineStr">
         <is>
-          <t>#G0LJCVR2P</t>
+          <t>#QLUV29GGJ</t>
         </is>
       </c>
       <c r="B46" s="116" t="n">
-        <v>1051</v>
+        <v>994</v>
       </c>
       <c r="C46" s="109" t="n">
         <v>43</v>
       </c>
       <c r="D46" s="117" t="inlineStr">
         <is>
-          <t>DaddyChill</t>
+          <t>Kukoshibo</t>
         </is>
       </c>
       <c r="E46" s="118" t="n">

--- a/Clash.xlsx
+++ b/Clash.xlsx
@@ -223,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -317,11 +317,12 @@
     <border>
       <right style="medium"/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -500,6 +501,33 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="28" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="8" fillId="32" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="25" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="27" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="26" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="28" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="28" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="30" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="29" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="31" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="28" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="29" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="29" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="28" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="30" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="30" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="25" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="26" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="27" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="28" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="29" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="32" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="30" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="32" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,10 +975,10 @@
     </row>
     <row r="2">
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0</v>
+        <v>31544</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>516</v>
@@ -1074,1783 +1102,1783 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="94" t="inlineStr">
+      <c r="A4" s="136" t="inlineStr">
+        <is>
+          <t>#QU0U2Q99G</t>
+        </is>
+      </c>
+      <c r="B4" s="136" t="n">
+        <v>942</v>
+      </c>
+      <c r="C4" s="137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="122" t="inlineStr">
+        <is>
+          <t>big coc</t>
+        </is>
+      </c>
+      <c r="E4" s="138" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" s="122" t="n">
+        <v>7115</v>
+      </c>
+      <c r="G4" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="120" t="n">
+        <v>60</v>
+      </c>
+      <c r="I4" s="138" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" s="122" t="n">
+        <v>7420</v>
+      </c>
+      <c r="K4" s="138" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" s="130" t="n">
+        <v>5150</v>
+      </c>
+      <c r="M4" s="138" t="n">
+        <v>6</v>
+      </c>
+      <c r="N4" s="122" t="n">
+        <v>9075</v>
+      </c>
+      <c r="O4" s="136" t="n"/>
+      <c r="P4" s="120" t="n"/>
+      <c r="Q4" s="136" t="n"/>
+      <c r="R4" s="120" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="140" t="inlineStr">
+        <is>
+          <t>#8U9CRC8G</t>
+        </is>
+      </c>
+      <c r="B5" s="140" t="n">
+        <v>1512</v>
+      </c>
+      <c r="C5" s="141" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="128" t="inlineStr">
+        <is>
+          <t>CEO JACK</t>
+        </is>
+      </c>
+      <c r="E5" s="142" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" s="128" t="n">
+        <v>6980</v>
+      </c>
+      <c r="G5" s="143" t="n">
+        <v>11</v>
+      </c>
+      <c r="H5" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="140" t="n"/>
+      <c r="L5" s="126" t="n"/>
+      <c r="M5" s="140" t="n"/>
+      <c r="N5" s="126" t="n"/>
+      <c r="O5" s="140" t="n"/>
+      <c r="P5" s="126" t="n"/>
+      <c r="Q5" s="140" t="n"/>
+      <c r="R5" s="126" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="136" t="inlineStr">
+        <is>
+          <t>#LC9GUPJJG</t>
+        </is>
+      </c>
+      <c r="B6" s="136" t="n">
+        <v>1074</v>
+      </c>
+      <c r="C6" s="137" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="122" t="inlineStr">
+        <is>
+          <t>raptor2222a</t>
+        </is>
+      </c>
+      <c r="E6" s="138" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" s="122" t="n">
+        <v>6971</v>
+      </c>
+      <c r="G6" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="138" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" s="130" t="n">
+        <v>4350</v>
+      </c>
+      <c r="K6" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="136" t="n"/>
+      <c r="N6" s="120" t="n"/>
+      <c r="O6" s="136" t="n"/>
+      <c r="P6" s="120" t="n"/>
+      <c r="Q6" s="136" t="n"/>
+      <c r="R6" s="120" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="140" t="inlineStr">
+        <is>
+          <t>#VGG9LYL0</t>
+        </is>
+      </c>
+      <c r="B7" s="140" t="n">
+        <v>1059</v>
+      </c>
+      <c r="C7" s="141" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" s="128" t="inlineStr">
+        <is>
+          <t>ptripp1048</t>
+        </is>
+      </c>
+      <c r="E7" s="142" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="128" t="n">
+        <v>6023</v>
+      </c>
+      <c r="G7" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="140" t="n"/>
+      <c r="L7" s="126" t="n"/>
+      <c r="M7" s="140" t="n"/>
+      <c r="N7" s="126" t="n"/>
+      <c r="O7" s="140" t="n"/>
+      <c r="P7" s="126" t="n"/>
+      <c r="Q7" s="140" t="n"/>
+      <c r="R7" s="126" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="136" t="inlineStr">
+        <is>
+          <t>#G0JPUQGYR</t>
+        </is>
+      </c>
+      <c r="B8" s="136" t="n">
+        <v>1412</v>
+      </c>
+      <c r="C8" s="137" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="130" t="inlineStr">
+        <is>
+          <t>Collin</t>
+        </is>
+      </c>
+      <c r="E8" s="144" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" s="130" t="n">
+        <v>4455</v>
+      </c>
+      <c r="G8" s="139" t="n">
+        <v>20</v>
+      </c>
+      <c r="H8" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="138" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" s="122" t="n">
+        <v>8833</v>
+      </c>
+      <c r="K8" s="138" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" s="122" t="n">
+        <v>9238</v>
+      </c>
+      <c r="M8" s="138" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" s="122" t="n">
+        <v>7756</v>
+      </c>
+      <c r="O8" s="138" t="n">
+        <v>6</v>
+      </c>
+      <c r="P8" s="130" t="n">
+        <v>5943</v>
+      </c>
+      <c r="Q8" s="138" t="n">
+        <v>6</v>
+      </c>
+      <c r="R8" s="122" t="n">
+        <v>8224</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="145" t="inlineStr">
         <is>
           <t>#QLJ2U20Y2</t>
         </is>
       </c>
-      <c r="B4" s="94" t="n">
+      <c r="B9" s="145" t="n">
         <v>1486</v>
       </c>
-      <c r="C4" s="95" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="96" t="inlineStr">
+      <c r="C9" s="133" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" s="146" t="inlineStr">
         <is>
           <t>DeadLeaf</t>
         </is>
       </c>
-      <c r="E4" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="98" t="n">
+      <c r="E9" s="147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="148" t="n">
         <v>30</v>
       </c>
-      <c r="I4" s="99" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" s="100" t="n">
+      <c r="I9" s="149" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" s="150" t="n">
         <v>13763</v>
       </c>
-      <c r="K4" s="99" t="n">
-        <v>6</v>
-      </c>
-      <c r="L4" s="100" t="n">
+      <c r="K9" s="149" t="n">
+        <v>6</v>
+      </c>
+      <c r="L9" s="150" t="n">
         <v>11140</v>
       </c>
-      <c r="M4" s="99" t="n">
-        <v>6</v>
-      </c>
-      <c r="N4" s="100" t="n">
+      <c r="M9" s="149" t="n">
+        <v>6</v>
+      </c>
+      <c r="N9" s="150" t="n">
         <v>15509</v>
       </c>
-      <c r="O4" s="99" t="n">
-        <v>6</v>
-      </c>
-      <c r="P4" s="100" t="n">
+      <c r="O9" s="149" t="n">
+        <v>6</v>
+      </c>
+      <c r="P9" s="150" t="n">
         <v>8567</v>
       </c>
-      <c r="Q4" s="99" t="n">
-        <v>6</v>
-      </c>
-      <c r="R4" s="100" t="n">
+      <c r="Q9" s="149" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" s="150" t="n">
         <v>9729</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="101" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="151" t="inlineStr">
         <is>
           <t>#G0QPVJY9L</t>
         </is>
       </c>
-      <c r="B5" s="101" t="n">
-        <v>838</v>
-      </c>
-      <c r="C5" s="102" t="n">
+      <c r="B10" s="151" t="n">
+        <v>828</v>
+      </c>
+      <c r="C10" s="137" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" s="110" t="inlineStr">
+        <is>
+          <t>Zoro</t>
+        </is>
+      </c>
+      <c r="E10" s="152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="153" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" s="115" t="n">
+        <v>13432</v>
+      </c>
+      <c r="K10" s="153" t="n">
+        <v>6</v>
+      </c>
+      <c r="L10" s="115" t="n">
+        <v>8855</v>
+      </c>
+      <c r="M10" s="153" t="n">
+        <v>6</v>
+      </c>
+      <c r="N10" s="115" t="n">
+        <v>10965</v>
+      </c>
+      <c r="O10" s="153" t="n">
+        <v>6</v>
+      </c>
+      <c r="P10" s="115" t="n">
+        <v>7905</v>
+      </c>
+      <c r="Q10" s="153" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" s="115" t="n">
+        <v>6744</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="154" t="inlineStr">
+        <is>
+          <t>#90U0VPU9U</t>
+        </is>
+      </c>
+      <c r="B11" s="154" t="n">
+        <v>2534</v>
+      </c>
+      <c r="C11" s="141" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" s="103" t="inlineStr">
+        <is>
+          <t>KYANI7E</t>
+        </is>
+      </c>
+      <c r="E11" s="155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="156" t="n">
+        <v>206</v>
+      </c>
+      <c r="H11" s="105" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" s="157" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" s="107" t="n">
+        <v>13260</v>
+      </c>
+      <c r="K11" s="157" t="n">
+        <v>6</v>
+      </c>
+      <c r="L11" s="107" t="n">
+        <v>12144</v>
+      </c>
+      <c r="M11" s="157" t="n">
+        <v>6</v>
+      </c>
+      <c r="N11" s="107" t="n">
+        <v>12835</v>
+      </c>
+      <c r="O11" s="157" t="n">
+        <v>6</v>
+      </c>
+      <c r="P11" s="107" t="n">
+        <v>7696</v>
+      </c>
+      <c r="Q11" s="157" t="n">
+        <v>6</v>
+      </c>
+      <c r="R11" s="107" t="n">
+        <v>9188</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="151" t="inlineStr">
+        <is>
+          <t>#YJ20CRJYQ</t>
+        </is>
+      </c>
+      <c r="B12" s="151" t="n">
+        <v>1265</v>
+      </c>
+      <c r="C12" s="137" t="n">
+        <v>9</v>
+      </c>
+      <c r="D12" s="110" t="inlineStr">
+        <is>
+          <t>UnluckGod</t>
+        </is>
+      </c>
+      <c r="E12" s="152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="113" t="n">
+        <v>61</v>
+      </c>
+      <c r="I12" s="153" t="n">
+        <v>6</v>
+      </c>
+      <c r="J12" s="115" t="n">
+        <v>12824</v>
+      </c>
+      <c r="K12" s="153" t="n">
+        <v>6</v>
+      </c>
+      <c r="L12" s="115" t="n">
+        <v>11999</v>
+      </c>
+      <c r="M12" s="153" t="n">
+        <v>6</v>
+      </c>
+      <c r="N12" s="115" t="n">
+        <v>12972</v>
+      </c>
+      <c r="O12" s="153" t="n">
+        <v>6</v>
+      </c>
+      <c r="P12" s="115" t="n">
+        <v>8286</v>
+      </c>
+      <c r="Q12" s="153" t="n">
+        <v>6</v>
+      </c>
+      <c r="R12" s="115" t="n">
+        <v>11406</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="154" t="inlineStr">
+        <is>
+          <t>#QUV2GP88U</t>
+        </is>
+      </c>
+      <c r="B13" s="154" t="n">
+        <v>736</v>
+      </c>
+      <c r="C13" s="141" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" s="103" t="inlineStr">
+        <is>
+          <t>Nico Robin</t>
+        </is>
+      </c>
+      <c r="E13" s="155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="157" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" s="107" t="n">
+        <v>12612</v>
+      </c>
+      <c r="K13" s="157" t="n">
+        <v>6</v>
+      </c>
+      <c r="L13" s="107" t="n">
+        <v>11338</v>
+      </c>
+      <c r="M13" s="157" t="n">
+        <v>6</v>
+      </c>
+      <c r="N13" s="107" t="n">
+        <v>10997</v>
+      </c>
+      <c r="O13" s="157" t="n">
+        <v>6</v>
+      </c>
+      <c r="P13" s="107" t="n">
+        <v>11087</v>
+      </c>
+      <c r="Q13" s="157" t="n">
+        <v>6</v>
+      </c>
+      <c r="R13" s="107" t="n">
+        <v>8089</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="151" t="inlineStr">
+        <is>
+          <t>#QCV22VP0G</t>
+        </is>
+      </c>
+      <c r="B14" s="151" t="n">
+        <v>808</v>
+      </c>
+      <c r="C14" s="137" t="n">
+        <v>11</v>
+      </c>
+      <c r="D14" s="110" t="inlineStr">
+        <is>
+          <t>Nami</t>
+        </is>
+      </c>
+      <c r="E14" s="152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="153" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" s="115" t="n">
+        <v>11795</v>
+      </c>
+      <c r="K14" s="153" t="n">
+        <v>6</v>
+      </c>
+      <c r="L14" s="115" t="n">
+        <v>10769</v>
+      </c>
+      <c r="M14" s="153" t="n">
+        <v>6</v>
+      </c>
+      <c r="N14" s="115" t="n">
+        <v>12486</v>
+      </c>
+      <c r="O14" s="153" t="n">
+        <v>6</v>
+      </c>
+      <c r="P14" s="115" t="n">
+        <v>8472</v>
+      </c>
+      <c r="Q14" s="153" t="n">
+        <v>6</v>
+      </c>
+      <c r="R14" s="115" t="n">
+        <v>9096</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="154" t="inlineStr">
+        <is>
+          <t>#YRGRRJQCY</t>
+        </is>
+      </c>
+      <c r="B15" s="154" t="n">
+        <v>1366</v>
+      </c>
+      <c r="C15" s="141" t="n">
+        <v>12</v>
+      </c>
+      <c r="D15" s="103" t="inlineStr">
+        <is>
+          <t>DoubleSpice</t>
+        </is>
+      </c>
+      <c r="E15" s="155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="105" t="n">
+        <v>60</v>
+      </c>
+      <c r="I15" s="157" t="n">
+        <v>6</v>
+      </c>
+      <c r="J15" s="107" t="n">
+        <v>11620</v>
+      </c>
+      <c r="K15" s="157" t="n">
+        <v>6</v>
+      </c>
+      <c r="L15" s="107" t="n">
+        <v>14095</v>
+      </c>
+      <c r="M15" s="157" t="n">
+        <v>6</v>
+      </c>
+      <c r="N15" s="107" t="n">
+        <v>12379</v>
+      </c>
+      <c r="O15" s="157" t="n">
+        <v>6</v>
+      </c>
+      <c r="P15" s="107" t="n">
+        <v>8256</v>
+      </c>
+      <c r="Q15" s="157" t="n">
+        <v>6</v>
+      </c>
+      <c r="R15" s="107" t="n">
+        <v>7054</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="151" t="inlineStr">
+        <is>
+          <t>#QUG8QQJ92</t>
+        </is>
+      </c>
+      <c r="B16" s="151" t="n">
+        <v>891</v>
+      </c>
+      <c r="C16" s="137" t="n">
+        <v>13</v>
+      </c>
+      <c r="D16" s="110" t="inlineStr">
+        <is>
+          <t>Karma</t>
+        </is>
+      </c>
+      <c r="E16" s="152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="153" t="n">
+        <v>6</v>
+      </c>
+      <c r="J16" s="115" t="n">
+        <v>11355</v>
+      </c>
+      <c r="K16" s="153" t="n">
+        <v>6</v>
+      </c>
+      <c r="L16" s="115" t="n">
+        <v>10003</v>
+      </c>
+      <c r="M16" s="153" t="n">
+        <v>6</v>
+      </c>
+      <c r="N16" s="115" t="n">
+        <v>10595</v>
+      </c>
+      <c r="O16" s="153" t="n">
+        <v>6</v>
+      </c>
+      <c r="P16" s="115" t="n">
+        <v>9240</v>
+      </c>
+      <c r="Q16" s="153" t="n">
+        <v>6</v>
+      </c>
+      <c r="R16" s="115" t="n">
+        <v>10628</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="140" t="inlineStr">
+        <is>
+          <t>#98JG2UJQL</t>
+        </is>
+      </c>
+      <c r="B17" s="140" t="n">
+        <v>2922</v>
+      </c>
+      <c r="C17" s="141" t="n">
+        <v>14</v>
+      </c>
+      <c r="D17" s="124" t="inlineStr">
+        <is>
+          <t>Dragonux</t>
+        </is>
+      </c>
+      <c r="E17" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="158" t="n">
+        <v>211</v>
+      </c>
+      <c r="H17" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="142" t="n">
+        <v>6</v>
+      </c>
+      <c r="J17" s="128" t="n">
+        <v>10910</v>
+      </c>
+      <c r="K17" s="142" t="n">
+        <v>6</v>
+      </c>
+      <c r="L17" s="128" t="n">
+        <v>8750</v>
+      </c>
+      <c r="M17" s="142" t="n">
+        <v>6</v>
+      </c>
+      <c r="N17" s="128" t="n">
+        <v>10865</v>
+      </c>
+      <c r="O17" s="142" t="n">
+        <v>6</v>
+      </c>
+      <c r="P17" s="128" t="n">
+        <v>8025</v>
+      </c>
+      <c r="Q17" s="142" t="n">
+        <v>6</v>
+      </c>
+      <c r="R17" s="128" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="151" t="inlineStr">
+        <is>
+          <t>#QLR088LC9</t>
+        </is>
+      </c>
+      <c r="B18" s="151" t="n">
+        <v>883</v>
+      </c>
+      <c r="C18" s="137" t="n">
+        <v>15</v>
+      </c>
+      <c r="D18" s="110" t="inlineStr">
+        <is>
+          <t>Sanji</t>
+        </is>
+      </c>
+      <c r="E18" s="152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="152" t="n">
+        <v>6</v>
+      </c>
+      <c r="H18" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="153" t="n">
+        <v>6</v>
+      </c>
+      <c r="J18" s="115" t="n">
+        <v>10910</v>
+      </c>
+      <c r="K18" s="153" t="n">
+        <v>6</v>
+      </c>
+      <c r="L18" s="115" t="n">
+        <v>9550</v>
+      </c>
+      <c r="M18" s="153" t="n">
+        <v>6</v>
+      </c>
+      <c r="N18" s="115" t="n">
+        <v>9138</v>
+      </c>
+      <c r="O18" s="153" t="n">
+        <v>6</v>
+      </c>
+      <c r="P18" s="115" t="n">
+        <v>8897</v>
+      </c>
+      <c r="Q18" s="153" t="n">
+        <v>6</v>
+      </c>
+      <c r="R18" s="115" t="n">
+        <v>8512</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="154" t="inlineStr">
+        <is>
+          <t>#QUYG0PQC8</t>
+        </is>
+      </c>
+      <c r="B19" s="154" t="n">
+        <v>852</v>
+      </c>
+      <c r="C19" s="141" t="n">
+        <v>16</v>
+      </c>
+      <c r="D19" s="103" t="inlineStr">
+        <is>
+          <t>Luffy</t>
+        </is>
+      </c>
+      <c r="E19" s="155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="157" t="n">
+        <v>6</v>
+      </c>
+      <c r="J19" s="107" t="n">
+        <v>10879</v>
+      </c>
+      <c r="K19" s="157" t="n">
+        <v>6</v>
+      </c>
+      <c r="L19" s="107" t="n">
+        <v>9114</v>
+      </c>
+      <c r="M19" s="157" t="n">
+        <v>6</v>
+      </c>
+      <c r="N19" s="107" t="n">
+        <v>13385</v>
+      </c>
+      <c r="O19" s="157" t="n">
+        <v>6</v>
+      </c>
+      <c r="P19" s="107" t="n">
+        <v>7877</v>
+      </c>
+      <c r="Q19" s="157" t="n">
+        <v>6</v>
+      </c>
+      <c r="R19" s="107" t="n">
+        <v>8347</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="136" t="inlineStr">
+        <is>
+          <t>#82QLQCJRJ</t>
+        </is>
+      </c>
+      <c r="B20" s="136" t="n">
+        <v>2903</v>
+      </c>
+      <c r="C20" s="137" t="n">
+        <v>17</v>
+      </c>
+      <c r="D20" s="117" t="inlineStr">
+        <is>
+          <t>Raging Fury</t>
+        </is>
+      </c>
+      <c r="E20" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="138" t="n">
+        <v>6</v>
+      </c>
+      <c r="J20" s="122" t="n">
+        <v>8055</v>
+      </c>
+      <c r="K20" s="138" t="n">
+        <v>6</v>
+      </c>
+      <c r="L20" s="122" t="n">
+        <v>7115</v>
+      </c>
+      <c r="M20" s="139" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="103" t="inlineStr">
-        <is>
-          <t>Zoro</t>
-        </is>
-      </c>
-      <c r="E5" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" s="107" t="n">
-        <v>13432</v>
-      </c>
-      <c r="K5" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="L5" s="107" t="n">
-        <v>8855</v>
-      </c>
-      <c r="M5" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="N5" s="107" t="n">
-        <v>10965</v>
-      </c>
-      <c r="O5" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="P5" s="107" t="n">
+      <c r="N20" s="117" t="n">
+        <v>2320</v>
+      </c>
+      <c r="O20" s="138" t="n">
+        <v>6</v>
+      </c>
+      <c r="P20" s="130" t="n">
+        <v>4920</v>
+      </c>
+      <c r="Q20" s="138" t="n">
+        <v>6</v>
+      </c>
+      <c r="R20" s="130" t="n">
+        <v>5135</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="154" t="inlineStr">
+        <is>
+          <t>#Q8CLCUCC2</t>
+        </is>
+      </c>
+      <c r="B21" s="154" t="n">
+        <v>1373</v>
+      </c>
+      <c r="C21" s="141" t="n">
+        <v>18</v>
+      </c>
+      <c r="D21" s="103" t="inlineStr">
+        <is>
+          <t>Moxxi</t>
+        </is>
+      </c>
+      <c r="E21" s="155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="105" t="n">
+        <v>60</v>
+      </c>
+      <c r="I21" s="157" t="n">
+        <v>6</v>
+      </c>
+      <c r="J21" s="107" t="n">
+        <v>8015</v>
+      </c>
+      <c r="K21" s="157" t="n">
+        <v>6</v>
+      </c>
+      <c r="L21" s="107" t="n">
+        <v>11010</v>
+      </c>
+      <c r="M21" s="157" t="n">
+        <v>6</v>
+      </c>
+      <c r="N21" s="107" t="n">
+        <v>13857</v>
+      </c>
+      <c r="O21" s="157" t="n">
+        <v>6</v>
+      </c>
+      <c r="P21" s="107" t="n">
         <v>7905</v>
       </c>
-      <c r="Q5" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="R5" s="107" t="n">
-        <v>6744</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="108" t="inlineStr">
-        <is>
-          <t>#90U0VPU9U</t>
-        </is>
-      </c>
-      <c r="B6" s="108" t="n">
-        <v>2534</v>
-      </c>
-      <c r="C6" s="109" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="110" t="inlineStr">
-        <is>
-          <t>KYANI7E</t>
-        </is>
-      </c>
-      <c r="E6" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="112" t="n">
-        <v>206</v>
-      </c>
-      <c r="H6" s="113" t="n">
+      <c r="Q21" s="157" t="n">
+        <v>6</v>
+      </c>
+      <c r="R21" s="107" t="n">
+        <v>7224</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="136" t="inlineStr">
+        <is>
+          <t>#QRPRYR8LL</t>
+        </is>
+      </c>
+      <c r="B22" s="136" t="n">
+        <v>1183</v>
+      </c>
+      <c r="C22" s="137" t="n">
+        <v>19</v>
+      </c>
+      <c r="D22" s="117" t="inlineStr">
+        <is>
+          <t>FidelCashflow</t>
+        </is>
+      </c>
+      <c r="E22" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="139" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="114" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" s="115" t="n">
-        <v>13260</v>
-      </c>
-      <c r="K6" s="114" t="n">
-        <v>6</v>
-      </c>
-      <c r="L6" s="115" t="n">
-        <v>12144</v>
-      </c>
-      <c r="M6" s="114" t="n">
-        <v>6</v>
-      </c>
-      <c r="N6" s="115" t="n">
-        <v>12835</v>
-      </c>
-      <c r="O6" s="114" t="n">
-        <v>6</v>
-      </c>
-      <c r="P6" s="115" t="n">
-        <v>7696</v>
-      </c>
-      <c r="Q6" s="114" t="n">
-        <v>6</v>
-      </c>
-      <c r="R6" s="115" t="n">
-        <v>9188</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="101" t="inlineStr">
-        <is>
-          <t>#YJ20CRJYQ</t>
-        </is>
-      </c>
-      <c r="B7" s="101" t="n">
-        <v>1265</v>
-      </c>
-      <c r="C7" s="102" t="n">
+      <c r="H22" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="138" t="n">
+        <v>6</v>
+      </c>
+      <c r="J22" s="122" t="n">
+        <v>6415</v>
+      </c>
+      <c r="K22" s="138" t="n">
+        <v>6</v>
+      </c>
+      <c r="L22" s="122" t="n">
+        <v>6547</v>
+      </c>
+      <c r="M22" s="138" t="n">
+        <v>6</v>
+      </c>
+      <c r="N22" s="122" t="n">
+        <v>6811</v>
+      </c>
+      <c r="O22" s="138" t="n">
+        <v>6</v>
+      </c>
+      <c r="P22" s="130" t="n">
+        <v>4239</v>
+      </c>
+      <c r="Q22" s="138" t="n">
+        <v>6</v>
+      </c>
+      <c r="R22" s="130" t="n">
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="140" t="inlineStr">
+        <is>
+          <t>#QY0VGPQGQ</t>
+        </is>
+      </c>
+      <c r="B23" s="140" t="n">
+        <v>533</v>
+      </c>
+      <c r="C23" s="141" t="n">
+        <v>20</v>
+      </c>
+      <c r="D23" s="124" t="inlineStr">
+        <is>
+          <t>killerjones</t>
+        </is>
+      </c>
+      <c r="E23" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="126" t="n">
+        <v>15</v>
+      </c>
+      <c r="I23" s="142" t="n">
+        <v>6</v>
+      </c>
+      <c r="J23" s="128" t="n">
+        <v>6320</v>
+      </c>
+      <c r="K23" s="140" t="n"/>
+      <c r="L23" s="126" t="n"/>
+      <c r="M23" s="140" t="n"/>
+      <c r="N23" s="126" t="n"/>
+      <c r="O23" s="140" t="n"/>
+      <c r="P23" s="126" t="n"/>
+      <c r="Q23" s="140" t="n"/>
+      <c r="R23" s="126" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="136" t="inlineStr">
+        <is>
+          <t>#QLG0VJG2J</t>
+        </is>
+      </c>
+      <c r="B24" s="136" t="n">
+        <v>1167</v>
+      </c>
+      <c r="C24" s="137" t="n">
+        <v>21</v>
+      </c>
+      <c r="D24" s="117" t="inlineStr">
+        <is>
+          <t>PocketRocket</t>
+        </is>
+      </c>
+      <c r="E24" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="139" t="n">
+        <v>20</v>
+      </c>
+      <c r="H24" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="144" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="103" t="inlineStr">
-        <is>
-          <t>UnluckGod</t>
-        </is>
-      </c>
-      <c r="E7" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="105" t="n">
-        <v>61</v>
-      </c>
-      <c r="I7" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="J7" s="107" t="n">
-        <v>12824</v>
-      </c>
-      <c r="K7" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="L7" s="107" t="n">
-        <v>11999</v>
-      </c>
-      <c r="M7" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="N7" s="107" t="n">
-        <v>12972</v>
-      </c>
-      <c r="O7" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="P7" s="107" t="n">
-        <v>8286</v>
-      </c>
-      <c r="Q7" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="R7" s="107" t="n">
-        <v>11406</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="108" t="inlineStr">
-        <is>
-          <t>#QUV2GP88U</t>
-        </is>
-      </c>
-      <c r="B8" s="108" t="n">
-        <v>745</v>
-      </c>
-      <c r="C8" s="109" t="n">
+      <c r="J24" s="130" t="n">
+        <v>4327</v>
+      </c>
+      <c r="K24" s="144" t="n">
+        <v>4</v>
+      </c>
+      <c r="L24" s="130" t="n">
+        <v>5215</v>
+      </c>
+      <c r="M24" s="136" t="n"/>
+      <c r="N24" s="120" t="n"/>
+      <c r="O24" s="136" t="n"/>
+      <c r="P24" s="120" t="n"/>
+      <c r="Q24" s="136" t="n"/>
+      <c r="R24" s="120" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="140" t="inlineStr">
+        <is>
+          <t>#QL8LVLYG8</t>
+        </is>
+      </c>
+      <c r="B25" s="140" t="n">
+        <v>930</v>
+      </c>
+      <c r="C25" s="141" t="n">
+        <v>22</v>
+      </c>
+      <c r="D25" s="124" t="inlineStr">
+        <is>
+          <t>Some guy</t>
+        </is>
+      </c>
+      <c r="E25" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="126" t="n">
+        <v>20</v>
+      </c>
+      <c r="I25" s="143" t="n">
+        <v>2</v>
+      </c>
+      <c r="J25" s="124" t="n">
+        <v>2650</v>
+      </c>
+      <c r="K25" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="142" t="n">
+        <v>6</v>
+      </c>
+      <c r="N25" s="128" t="n">
+        <v>6917</v>
+      </c>
+      <c r="O25" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="143" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" s="124" t="n">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="136" t="inlineStr">
+        <is>
+          <t>#QJC8LQU9U</t>
+        </is>
+      </c>
+      <c r="B26" s="136" t="n">
+        <v>998</v>
+      </c>
+      <c r="C26" s="137" t="n">
+        <v>23</v>
+      </c>
+      <c r="D26" s="117" t="inlineStr">
+        <is>
+          <t>Master01</t>
+        </is>
+      </c>
+      <c r="E26" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="138" t="n">
+        <v>6</v>
+      </c>
+      <c r="N26" s="130" t="n">
+        <v>5415</v>
+      </c>
+      <c r="O26" s="138" t="n">
+        <v>6</v>
+      </c>
+      <c r="P26" s="130" t="n">
+        <v>4835</v>
+      </c>
+      <c r="Q26" s="138" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="110" t="inlineStr">
-        <is>
-          <t>Nico Robin</t>
-        </is>
-      </c>
-      <c r="E8" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="114" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" s="115" t="n">
-        <v>12612</v>
-      </c>
-      <c r="K8" s="114" t="n">
-        <v>6</v>
-      </c>
-      <c r="L8" s="115" t="n">
-        <v>11338</v>
-      </c>
-      <c r="M8" s="114" t="n">
-        <v>6</v>
-      </c>
-      <c r="N8" s="115" t="n">
-        <v>10997</v>
-      </c>
-      <c r="O8" s="114" t="n">
-        <v>6</v>
-      </c>
-      <c r="P8" s="115" t="n">
-        <v>11087</v>
-      </c>
-      <c r="Q8" s="114" t="n">
-        <v>6</v>
-      </c>
-      <c r="R8" s="115" t="n">
-        <v>8089</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="101" t="inlineStr">
-        <is>
-          <t>#QCV22VP0G</t>
-        </is>
-      </c>
-      <c r="B9" s="101" t="n">
-        <v>808</v>
-      </c>
-      <c r="C9" s="102" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" s="103" t="inlineStr">
-        <is>
-          <t>Nami</t>
-        </is>
-      </c>
-      <c r="E9" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="J9" s="107" t="n">
-        <v>11795</v>
-      </c>
-      <c r="K9" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="L9" s="107" t="n">
-        <v>10769</v>
-      </c>
-      <c r="M9" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="N9" s="107" t="n">
-        <v>12486</v>
-      </c>
-      <c r="O9" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="P9" s="107" t="n">
-        <v>8472</v>
-      </c>
-      <c r="Q9" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="R9" s="107" t="n">
-        <v>9096</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="108" t="inlineStr">
-        <is>
-          <t>#YRGRRJQCY</t>
-        </is>
-      </c>
-      <c r="B10" s="108" t="n">
-        <v>1366</v>
-      </c>
-      <c r="C10" s="109" t="n">
-        <v>7</v>
-      </c>
-      <c r="D10" s="110" t="inlineStr">
-        <is>
-          <t>DoubleSpice</t>
-        </is>
-      </c>
-      <c r="E10" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="113" t="n">
-        <v>60</v>
-      </c>
-      <c r="I10" s="114" t="n">
-        <v>6</v>
-      </c>
-      <c r="J10" s="115" t="n">
-        <v>11620</v>
-      </c>
-      <c r="K10" s="114" t="n">
-        <v>6</v>
-      </c>
-      <c r="L10" s="115" t="n">
-        <v>14095</v>
-      </c>
-      <c r="M10" s="114" t="n">
-        <v>6</v>
-      </c>
-      <c r="N10" s="115" t="n">
-        <v>12379</v>
-      </c>
-      <c r="O10" s="114" t="n">
-        <v>6</v>
-      </c>
-      <c r="P10" s="115" t="n">
-        <v>8256</v>
-      </c>
-      <c r="Q10" s="114" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" s="115" t="n">
-        <v>7054</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="101" t="inlineStr">
-        <is>
-          <t>#QUG8QQJ92</t>
-        </is>
-      </c>
-      <c r="B11" s="101" t="n">
-        <v>891</v>
-      </c>
-      <c r="C11" s="102" t="n">
-        <v>8</v>
-      </c>
-      <c r="D11" s="103" t="inlineStr">
-        <is>
-          <t>Karma</t>
-        </is>
-      </c>
-      <c r="E11" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="J11" s="107" t="n">
-        <v>11355</v>
-      </c>
-      <c r="K11" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="L11" s="107" t="n">
-        <v>10003</v>
-      </c>
-      <c r="M11" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="N11" s="107" t="n">
-        <v>10595</v>
-      </c>
-      <c r="O11" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="P11" s="107" t="n">
-        <v>9240</v>
-      </c>
-      <c r="Q11" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="R11" s="107" t="n">
-        <v>10628</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="116" t="inlineStr">
-        <is>
-          <t>#98JG2UJQL</t>
-        </is>
-      </c>
-      <c r="B12" s="116" t="n">
-        <v>2922</v>
-      </c>
-      <c r="C12" s="109" t="n">
-        <v>9</v>
-      </c>
-      <c r="D12" s="117" t="inlineStr">
-        <is>
-          <t>Dragonux</t>
-        </is>
-      </c>
-      <c r="E12" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="119" t="n">
-        <v>211</v>
-      </c>
-      <c r="H12" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="121" t="n">
-        <v>6</v>
-      </c>
-      <c r="J12" s="122" t="n">
-        <v>10910</v>
-      </c>
-      <c r="K12" s="121" t="n">
-        <v>6</v>
-      </c>
-      <c r="L12" s="122" t="n">
-        <v>8750</v>
-      </c>
-      <c r="M12" s="121" t="n">
-        <v>6</v>
-      </c>
-      <c r="N12" s="122" t="n">
-        <v>10865</v>
-      </c>
-      <c r="O12" s="121" t="n">
-        <v>6</v>
-      </c>
-      <c r="P12" s="122" t="n">
-        <v>8025</v>
-      </c>
-      <c r="Q12" s="121" t="n">
-        <v>6</v>
-      </c>
-      <c r="R12" s="122" t="n">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="101" t="inlineStr">
-        <is>
-          <t>#QLR088LC9</t>
-        </is>
-      </c>
-      <c r="B13" s="101" t="n">
-        <v>883</v>
-      </c>
-      <c r="C13" s="102" t="n">
-        <v>10</v>
-      </c>
-      <c r="D13" s="103" t="inlineStr">
-        <is>
-          <t>Sanji</t>
-        </is>
-      </c>
-      <c r="E13" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="104" t="n">
-        <v>6</v>
-      </c>
-      <c r="H13" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="J13" s="107" t="n">
-        <v>10910</v>
-      </c>
-      <c r="K13" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="L13" s="107" t="n">
-        <v>9550</v>
-      </c>
-      <c r="M13" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="N13" s="107" t="n">
-        <v>9138</v>
-      </c>
-      <c r="O13" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="P13" s="107" t="n">
-        <v>8897</v>
-      </c>
-      <c r="Q13" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="R13" s="107" t="n">
-        <v>8512</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="108" t="inlineStr">
-        <is>
-          <t>#QUYG0PQC8</t>
-        </is>
-      </c>
-      <c r="B14" s="108" t="n">
-        <v>852</v>
-      </c>
-      <c r="C14" s="109" t="n">
-        <v>11</v>
-      </c>
-      <c r="D14" s="110" t="inlineStr">
-        <is>
-          <t>Luffy</t>
-        </is>
-      </c>
-      <c r="E14" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="111" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="114" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" s="115" t="n">
-        <v>10879</v>
-      </c>
-      <c r="K14" s="114" t="n">
-        <v>6</v>
-      </c>
-      <c r="L14" s="115" t="n">
-        <v>9114</v>
-      </c>
-      <c r="M14" s="114" t="n">
-        <v>6</v>
-      </c>
-      <c r="N14" s="115" t="n">
-        <v>13385</v>
-      </c>
-      <c r="O14" s="114" t="n">
-        <v>6</v>
-      </c>
-      <c r="P14" s="115" t="n">
-        <v>7877</v>
-      </c>
-      <c r="Q14" s="114" t="n">
-        <v>6</v>
-      </c>
-      <c r="R14" s="115" t="n">
-        <v>8347</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="123" t="inlineStr">
-        <is>
-          <t>#G0JPUQGYR</t>
-        </is>
-      </c>
-      <c r="B15" s="123" t="n">
-        <v>1412</v>
-      </c>
-      <c r="C15" s="102" t="n">
-        <v>12</v>
-      </c>
-      <c r="D15" s="124" t="inlineStr">
-        <is>
-          <t>Collin</t>
-        </is>
-      </c>
-      <c r="E15" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="125" t="n">
-        <v>20</v>
-      </c>
-      <c r="H15" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="127" t="n">
-        <v>6</v>
-      </c>
-      <c r="J15" s="128" t="n">
-        <v>8833</v>
-      </c>
-      <c r="K15" s="127" t="n">
-        <v>6</v>
-      </c>
-      <c r="L15" s="128" t="n">
-        <v>9238</v>
-      </c>
-      <c r="M15" s="127" t="n">
-        <v>6</v>
-      </c>
-      <c r="N15" s="128" t="n">
-        <v>7756</v>
-      </c>
-      <c r="O15" s="127" t="n">
-        <v>6</v>
-      </c>
-      <c r="P15" s="129" t="n">
-        <v>5943</v>
-      </c>
-      <c r="Q15" s="127" t="n">
-        <v>6</v>
-      </c>
-      <c r="R15" s="128" t="n">
-        <v>8224</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="116" t="inlineStr">
-        <is>
-          <t>#82QLQCJRJ</t>
-        </is>
-      </c>
-      <c r="B16" s="116" t="n">
-        <v>2903</v>
-      </c>
-      <c r="C16" s="109" t="n">
-        <v>13</v>
-      </c>
-      <c r="D16" s="117" t="inlineStr">
-        <is>
-          <t>Raging Fury</t>
-        </is>
-      </c>
-      <c r="E16" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="121" t="n">
-        <v>6</v>
-      </c>
-      <c r="J16" s="122" t="n">
-        <v>8055</v>
-      </c>
-      <c r="K16" s="121" t="n">
-        <v>6</v>
-      </c>
-      <c r="L16" s="122" t="n">
-        <v>7115</v>
-      </c>
-      <c r="M16" s="118" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" s="117" t="n">
-        <v>2320</v>
-      </c>
-      <c r="O16" s="121" t="n">
-        <v>6</v>
-      </c>
-      <c r="P16" s="130" t="n">
-        <v>4920</v>
-      </c>
-      <c r="Q16" s="121" t="n">
-        <v>6</v>
-      </c>
-      <c r="R16" s="130" t="n">
-        <v>5135</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="101" t="inlineStr">
-        <is>
-          <t>#Q8CLCUCC2</t>
-        </is>
-      </c>
-      <c r="B17" s="101" t="n">
-        <v>1373</v>
-      </c>
-      <c r="C17" s="102" t="n">
-        <v>14</v>
-      </c>
-      <c r="D17" s="103" t="inlineStr">
-        <is>
-          <t>Moxxi</t>
-        </is>
-      </c>
-      <c r="E17" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="105" t="n">
-        <v>60</v>
-      </c>
-      <c r="I17" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="J17" s="107" t="n">
-        <v>8015</v>
-      </c>
-      <c r="K17" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="L17" s="107" t="n">
-        <v>11010</v>
-      </c>
-      <c r="M17" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="N17" s="107" t="n">
-        <v>13857</v>
-      </c>
-      <c r="O17" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="P17" s="107" t="n">
-        <v>7905</v>
-      </c>
-      <c r="Q17" s="106" t="n">
-        <v>6</v>
-      </c>
-      <c r="R17" s="107" t="n">
-        <v>7224</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="116" t="inlineStr">
-        <is>
-          <t>#QU0U2Q99G</t>
-        </is>
-      </c>
-      <c r="B18" s="116" t="n">
-        <v>942</v>
-      </c>
-      <c r="C18" s="109" t="n">
-        <v>15</v>
-      </c>
-      <c r="D18" s="117" t="inlineStr">
-        <is>
-          <t>big coc</t>
-        </is>
-      </c>
-      <c r="E18" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="120" t="n">
-        <v>60</v>
-      </c>
-      <c r="I18" s="121" t="n">
-        <v>6</v>
-      </c>
-      <c r="J18" s="122" t="n">
-        <v>7420</v>
-      </c>
-      <c r="K18" s="121" t="n">
+      <c r="R26" s="130" t="n">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="140" t="inlineStr">
+        <is>
+          <t>#QV8JJ0URU</t>
+        </is>
+      </c>
+      <c r="B27" s="140" t="n">
+        <v>741</v>
+      </c>
+      <c r="C27" s="141" t="n">
+        <v>24</v>
+      </c>
+      <c r="D27" s="124" t="inlineStr">
+        <is>
+          <t>✨Jacob</t>
+        </is>
+      </c>
+      <c r="E27" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="142" t="n">
+        <v>6</v>
+      </c>
+      <c r="P27" s="128" t="n">
+        <v>7385</v>
+      </c>
+      <c r="Q27" s="142" t="n">
+        <v>6</v>
+      </c>
+      <c r="R27" s="128" t="n">
+        <v>9155</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="136" t="inlineStr">
+        <is>
+          <t>#QY8L2GLUR</t>
+        </is>
+      </c>
+      <c r="B28" s="136" t="n">
+        <v>907</v>
+      </c>
+      <c r="C28" s="137" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" s="117" t="inlineStr">
+        <is>
+          <t>Huy</t>
+        </is>
+      </c>
+      <c r="E28" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="138" t="n">
+        <v>6</v>
+      </c>
+      <c r="P28" s="122" t="n">
+        <v>6995</v>
+      </c>
+      <c r="Q28" s="138" t="n">
+        <v>6</v>
+      </c>
+      <c r="R28" s="122" t="n">
+        <v>6055</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="140" t="inlineStr">
+        <is>
+          <t>#L2QQL9QVJ</t>
+        </is>
+      </c>
+      <c r="B29" s="140" t="n">
+        <v>1450</v>
+      </c>
+      <c r="C29" s="141" t="n">
+        <v>26</v>
+      </c>
+      <c r="D29" s="124" t="inlineStr">
+        <is>
+          <t>JustPre10d</t>
+        </is>
+      </c>
+      <c r="E29" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="142" t="n">
+        <v>6</v>
+      </c>
+      <c r="P29" s="128" t="n">
+        <v>6655</v>
+      </c>
+      <c r="Q29" s="142" t="n">
+        <v>6</v>
+      </c>
+      <c r="R29" s="128" t="n">
+        <v>7675</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="136" t="inlineStr">
+        <is>
+          <t>#LPR9RPCY9</t>
+        </is>
+      </c>
+      <c r="B30" s="136" t="n">
+        <v>990</v>
+      </c>
+      <c r="C30" s="137" t="n">
+        <v>27</v>
+      </c>
+      <c r="D30" s="117" t="inlineStr">
+        <is>
+          <t>sayhuss17</t>
+        </is>
+      </c>
+      <c r="E30" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="144" t="n">
+        <v>4</v>
+      </c>
+      <c r="P30" s="130" t="n">
+        <v>4240</v>
+      </c>
+      <c r="Q30" s="136" t="n"/>
+      <c r="R30" s="120" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="140" t="inlineStr">
+        <is>
+          <t>#QQL8C29CY</t>
+        </is>
+      </c>
+      <c r="B31" s="140" t="n">
+        <v>864</v>
+      </c>
+      <c r="C31" s="141" t="n">
+        <v>28</v>
+      </c>
+      <c r="D31" s="124" t="inlineStr">
+        <is>
+          <t>TypicalTeague#2</t>
+        </is>
+      </c>
+      <c r="E31" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="142" t="n">
         <v>5</v>
       </c>
-      <c r="L18" s="130" t="n">
-        <v>5150</v>
-      </c>
-      <c r="M18" s="121" t="n">
-        <v>6</v>
-      </c>
-      <c r="N18" s="122" t="n">
-        <v>9075</v>
-      </c>
-      <c r="O18" s="116" t="n"/>
-      <c r="P18" s="120" t="n"/>
-      <c r="Q18" s="116" t="n"/>
-      <c r="R18" s="120" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="123" t="inlineStr">
-        <is>
-          <t>#QRPRYR8LL</t>
-        </is>
-      </c>
-      <c r="B19" s="123" t="n">
-        <v>1183</v>
-      </c>
-      <c r="C19" s="102" t="n">
-        <v>16</v>
-      </c>
-      <c r="D19" s="124" t="inlineStr">
-        <is>
-          <t>FidelCashflow</t>
-        </is>
-      </c>
-      <c r="E19" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="125" t="n">
-        <v>4</v>
-      </c>
-      <c r="H19" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="127" t="n">
-        <v>6</v>
-      </c>
-      <c r="J19" s="128" t="n">
-        <v>6415</v>
-      </c>
-      <c r="K19" s="127" t="n">
-        <v>6</v>
-      </c>
-      <c r="L19" s="128" t="n">
-        <v>6547</v>
-      </c>
-      <c r="M19" s="127" t="n">
-        <v>6</v>
-      </c>
-      <c r="N19" s="128" t="n">
-        <v>6811</v>
-      </c>
-      <c r="O19" s="127" t="n">
-        <v>6</v>
-      </c>
-      <c r="P19" s="129" t="n">
-        <v>4239</v>
-      </c>
-      <c r="Q19" s="127" t="n">
-        <v>6</v>
-      </c>
-      <c r="R19" s="129" t="n">
-        <v>4214</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="116" t="inlineStr">
-        <is>
-          <t>#QY0VGPQGQ</t>
-        </is>
-      </c>
-      <c r="B20" s="116" t="n">
-        <v>540</v>
-      </c>
-      <c r="C20" s="109" t="n">
-        <v>17</v>
-      </c>
-      <c r="D20" s="117" t="inlineStr">
-        <is>
-          <t>killerjones</t>
-        </is>
-      </c>
-      <c r="E20" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="120" t="n">
-        <v>15</v>
-      </c>
-      <c r="I20" s="121" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" s="122" t="n">
-        <v>6320</v>
-      </c>
-      <c r="K20" s="116" t="n"/>
-      <c r="L20" s="120" t="n"/>
-      <c r="M20" s="116" t="n"/>
-      <c r="N20" s="120" t="n"/>
-      <c r="O20" s="116" t="n"/>
-      <c r="P20" s="120" t="n"/>
-      <c r="Q20" s="116" t="n"/>
-      <c r="R20" s="120" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="123" t="inlineStr">
-        <is>
-          <t>#LC9GUPJJG</t>
-        </is>
-      </c>
-      <c r="B21" s="123" t="n">
-        <v>1050</v>
-      </c>
-      <c r="C21" s="102" t="n">
-        <v>18</v>
-      </c>
-      <c r="D21" s="124" t="inlineStr">
-        <is>
-          <t>raptor2222a</t>
-        </is>
-      </c>
-      <c r="E21" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="127" t="n">
+      <c r="P31" s="129" t="n">
+        <v>4070</v>
+      </c>
+      <c r="Q31" s="142" t="n">
+        <v>6</v>
+      </c>
+      <c r="R31" s="128" t="n">
+        <v>6410</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="136" t="inlineStr">
+        <is>
+          <t>#L9QL9YQQY</t>
+        </is>
+      </c>
+      <c r="B32" s="136" t="n">
+        <v>975</v>
+      </c>
+      <c r="C32" s="137" t="n">
+        <v>29</v>
+      </c>
+      <c r="D32" s="117" t="inlineStr">
+        <is>
+          <t>Ima Chad</t>
+        </is>
+      </c>
+      <c r="E32" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="138" t="n">
         <v>5</v>
       </c>
-      <c r="J21" s="129" t="n">
-        <v>4350</v>
-      </c>
-      <c r="K21" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="123" t="n"/>
-      <c r="N21" s="126" t="n"/>
-      <c r="O21" s="123" t="n"/>
-      <c r="P21" s="126" t="n"/>
-      <c r="Q21" s="123" t="n"/>
-      <c r="R21" s="126" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="116" t="inlineStr">
-        <is>
-          <t>#QLG0VJG2J</t>
-        </is>
-      </c>
-      <c r="B22" s="116" t="n">
-        <v>1167</v>
-      </c>
-      <c r="C22" s="109" t="n">
-        <v>19</v>
-      </c>
-      <c r="D22" s="117" t="inlineStr">
-        <is>
-          <t>PocketRocket</t>
-        </is>
-      </c>
-      <c r="E22" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="118" t="n">
-        <v>20</v>
-      </c>
-      <c r="H22" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="119" t="n">
-        <v>4</v>
-      </c>
-      <c r="J22" s="130" t="n">
-        <v>4327</v>
-      </c>
-      <c r="K22" s="119" t="n">
-        <v>4</v>
-      </c>
-      <c r="L22" s="130" t="n">
-        <v>5215</v>
-      </c>
-      <c r="M22" s="116" t="n"/>
-      <c r="N22" s="120" t="n"/>
-      <c r="O22" s="116" t="n"/>
-      <c r="P22" s="120" t="n"/>
-      <c r="Q22" s="116" t="n"/>
-      <c r="R22" s="120" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="123" t="inlineStr">
-        <is>
-          <t>#QL8LVLYG8</t>
-        </is>
-      </c>
-      <c r="B23" s="123" t="n">
-        <v>930</v>
-      </c>
-      <c r="C23" s="102" t="n">
-        <v>20</v>
-      </c>
-      <c r="D23" s="124" t="inlineStr">
-        <is>
-          <t>Some guy</t>
-        </is>
-      </c>
-      <c r="E23" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="126" t="n">
-        <v>20</v>
-      </c>
-      <c r="I23" s="125" t="n">
-        <v>2</v>
-      </c>
-      <c r="J23" s="124" t="n">
-        <v>2650</v>
-      </c>
-      <c r="K23" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="127" t="n">
-        <v>6</v>
-      </c>
-      <c r="N23" s="128" t="n">
-        <v>6917</v>
-      </c>
-      <c r="O23" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="125" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" s="124" t="n">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="116" t="inlineStr">
-        <is>
-          <t>#QJC8LQU9U</t>
-        </is>
-      </c>
-      <c r="B24" s="116" t="n">
-        <v>998</v>
-      </c>
-      <c r="C24" s="109" t="n">
-        <v>21</v>
-      </c>
-      <c r="D24" s="117" t="inlineStr">
-        <is>
-          <t>Master01</t>
-        </is>
-      </c>
-      <c r="E24" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="121" t="n">
-        <v>6</v>
-      </c>
-      <c r="N24" s="130" t="n">
-        <v>5415</v>
-      </c>
-      <c r="O24" s="121" t="n">
-        <v>6</v>
-      </c>
-      <c r="P24" s="130" t="n">
-        <v>4835</v>
-      </c>
-      <c r="Q24" s="121" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" s="130" t="n">
-        <v>4055</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="123" t="inlineStr">
-        <is>
-          <t>#QV8JJ0URU</t>
-        </is>
-      </c>
-      <c r="B25" s="123" t="n">
-        <v>741</v>
-      </c>
-      <c r="C25" s="102" t="n">
-        <v>22</v>
-      </c>
-      <c r="D25" s="124" t="inlineStr">
-        <is>
-          <t>✨Jacob</t>
-        </is>
-      </c>
-      <c r="E25" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" s="127" t="n">
-        <v>6</v>
-      </c>
-      <c r="P25" s="128" t="n">
-        <v>7385</v>
-      </c>
-      <c r="Q25" s="127" t="n">
-        <v>6</v>
-      </c>
-      <c r="R25" s="128" t="n">
-        <v>9155</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="116" t="inlineStr">
-        <is>
-          <t>#QY8L2GLUR</t>
-        </is>
-      </c>
-      <c r="B26" s="116" t="n">
-        <v>907</v>
-      </c>
-      <c r="C26" s="109" t="n">
-        <v>23</v>
-      </c>
-      <c r="D26" s="117" t="inlineStr">
-        <is>
-          <t>Huy</t>
-        </is>
-      </c>
-      <c r="E26" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" s="121" t="n">
-        <v>6</v>
-      </c>
-      <c r="P26" s="122" t="n">
-        <v>6995</v>
-      </c>
-      <c r="Q26" s="121" t="n">
-        <v>6</v>
-      </c>
-      <c r="R26" s="122" t="n">
-        <v>6055</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="123" t="inlineStr">
-        <is>
-          <t>#L2QQL9QVJ</t>
-        </is>
-      </c>
-      <c r="B27" s="123" t="n">
-        <v>1450</v>
-      </c>
-      <c r="C27" s="102" t="n">
-        <v>24</v>
-      </c>
-      <c r="D27" s="124" t="inlineStr">
-        <is>
-          <t>JustPre10d</t>
-        </is>
-      </c>
-      <c r="E27" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" s="127" t="n">
-        <v>6</v>
-      </c>
-      <c r="P27" s="128" t="n">
-        <v>6655</v>
-      </c>
-      <c r="Q27" s="127" t="n">
-        <v>6</v>
-      </c>
-      <c r="R27" s="128" t="n">
-        <v>7675</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="116" t="inlineStr">
-        <is>
-          <t>#LPR9RPCY9</t>
-        </is>
-      </c>
-      <c r="B28" s="116" t="n">
-        <v>990</v>
-      </c>
-      <c r="C28" s="109" t="n">
-        <v>25</v>
-      </c>
-      <c r="D28" s="117" t="inlineStr">
-        <is>
-          <t>sayhuss17</t>
-        </is>
-      </c>
-      <c r="E28" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" s="119" t="n">
-        <v>4</v>
-      </c>
-      <c r="P28" s="130" t="n">
-        <v>4240</v>
-      </c>
-      <c r="Q28" s="116" t="n"/>
-      <c r="R28" s="120" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="123" t="inlineStr">
-        <is>
-          <t>#QQL8C29CY</t>
-        </is>
-      </c>
-      <c r="B29" s="123" t="n">
-        <v>864</v>
-      </c>
-      <c r="C29" s="102" t="n">
-        <v>26</v>
-      </c>
-      <c r="D29" s="124" t="inlineStr">
-        <is>
-          <t>TypicalTeague#2</t>
-        </is>
-      </c>
-      <c r="E29" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" s="127" t="n">
-        <v>5</v>
-      </c>
-      <c r="P29" s="129" t="n">
-        <v>4070</v>
-      </c>
-      <c r="Q29" s="127" t="n">
-        <v>6</v>
-      </c>
-      <c r="R29" s="128" t="n">
-        <v>6410</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="116" t="inlineStr">
-        <is>
-          <t>#L9QL9YQQY</t>
-        </is>
-      </c>
-      <c r="B30" s="116" t="n">
-        <v>975</v>
-      </c>
-      <c r="C30" s="109" t="n">
-        <v>27</v>
-      </c>
-      <c r="D30" s="117" t="inlineStr">
-        <is>
-          <t>Ima Chad</t>
-        </is>
-      </c>
-      <c r="E30" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="121" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" s="117" t="n">
+      <c r="R32" s="117" t="n">
         <v>3360</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="123" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="140" t="inlineStr">
         <is>
           <t>#PJYVV989R</t>
         </is>
       </c>
-      <c r="B31" s="123" t="n">
+      <c r="B33" s="140" t="n">
         <v>1531</v>
       </c>
-      <c r="C31" s="102" t="n">
-        <v>28</v>
-      </c>
-      <c r="D31" s="124" t="inlineStr">
+      <c r="C33" s="141" t="n">
+        <v>30</v>
+      </c>
+      <c r="D33" s="124" t="inlineStr">
         <is>
           <t>nx</t>
         </is>
       </c>
-      <c r="E31" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="125" t="n">
+      <c r="E33" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="143" t="n">
         <v>32</v>
       </c>
-      <c r="H31" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="123" t="n"/>
-      <c r="R31" s="126" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="116" t="inlineStr">
+      <c r="H33" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="140" t="n"/>
+      <c r="R33" s="126" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="136" t="inlineStr">
         <is>
           <t>#L9JJQY992</t>
         </is>
       </c>
-      <c r="B32" s="116" t="n">
+      <c r="B34" s="136" t="n">
         <v>773</v>
       </c>
-      <c r="C32" s="109" t="n">
-        <v>29</v>
-      </c>
-      <c r="D32" s="117" t="inlineStr">
+      <c r="C34" s="137" t="n">
+        <v>31</v>
+      </c>
+      <c r="D34" s="117" t="inlineStr">
         <is>
           <t>Fisted_Waffle</t>
         </is>
       </c>
-      <c r="E32" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="116" t="n"/>
-      <c r="R32" s="120" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="123" t="inlineStr">
-        <is>
-          <t>#QUVJGC0VQ</t>
-        </is>
-      </c>
-      <c r="B33" s="123" t="n">
-        <v>1192</v>
-      </c>
-      <c r="C33" s="102" t="n">
-        <v>30</v>
-      </c>
-      <c r="D33" s="124" t="inlineStr">
-        <is>
-          <t>Cam</t>
-        </is>
-      </c>
-      <c r="E33" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="126" t="n">
-        <v>73</v>
-      </c>
-      <c r="I33" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="123" t="n"/>
-      <c r="L33" s="126" t="n"/>
-      <c r="M33" s="123" t="n"/>
-      <c r="N33" s="126" t="n"/>
-      <c r="O33" s="123" t="n"/>
-      <c r="P33" s="126" t="n"/>
-      <c r="Q33" s="123" t="n"/>
-      <c r="R33" s="126" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="116" t="inlineStr">
-        <is>
-          <t>#QQL28Y2UL</t>
-        </is>
-      </c>
-      <c r="B34" s="116" t="n">
-        <v>1112</v>
-      </c>
-      <c r="C34" s="109" t="n">
-        <v>31</v>
-      </c>
-      <c r="D34" s="117" t="inlineStr">
-        <is>
-          <t>SUPoT</t>
-        </is>
-      </c>
-      <c r="E34" s="118" t="n">
+      <c r="E34" s="139" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="G34" s="118" t="n">
+      <c r="G34" s="139" t="n">
         <v>0</v>
       </c>
       <c r="H34" s="120" t="n">
-        <v>56</v>
-      </c>
-      <c r="I34" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="139" t="n">
         <v>0</v>
       </c>
       <c r="J34" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="K34" s="116" t="n"/>
-      <c r="L34" s="120" t="n"/>
-      <c r="M34" s="116" t="n"/>
-      <c r="N34" s="120" t="n"/>
-      <c r="O34" s="116" t="n"/>
-      <c r="P34" s="120" t="n"/>
-      <c r="Q34" s="116" t="n"/>
+      <c r="K34" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="136" t="n"/>
       <c r="R34" s="120" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="123" t="inlineStr">
+      <c r="A35" s="140" t="inlineStr">
         <is>
           <t>#QLGYRVPU0</t>
         </is>
       </c>
-      <c r="B35" s="123" t="n">
+      <c r="B35" s="140" t="n">
         <v>871</v>
       </c>
-      <c r="C35" s="102" t="n">
+      <c r="C35" s="141" t="n">
         <v>32</v>
       </c>
       <c r="D35" s="124" t="inlineStr">
@@ -2858,491 +2886,491 @@
           <t>Black.Boy.</t>
         </is>
       </c>
-      <c r="E35" s="125" t="n">
+      <c r="E35" s="143" t="n">
         <v>0</v>
       </c>
       <c r="F35" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="G35" s="125" t="n">
+      <c r="G35" s="143" t="n">
         <v>0</v>
       </c>
       <c r="H35" s="126" t="n">
         <v>86</v>
       </c>
-      <c r="I35" s="125" t="n">
+      <c r="I35" s="143" t="n">
         <v>0</v>
       </c>
       <c r="J35" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="K35" s="123" t="n"/>
+      <c r="K35" s="140" t="n"/>
       <c r="L35" s="126" t="n"/>
-      <c r="M35" s="123" t="n"/>
+      <c r="M35" s="140" t="n"/>
       <c r="N35" s="126" t="n"/>
-      <c r="O35" s="123" t="n"/>
+      <c r="O35" s="140" t="n"/>
       <c r="P35" s="126" t="n"/>
-      <c r="Q35" s="123" t="n"/>
+      <c r="Q35" s="140" t="n"/>
       <c r="R35" s="126" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="116" t="inlineStr">
+      <c r="A36" s="136" t="inlineStr">
+        <is>
+          <t>#QUGYGY88C</t>
+        </is>
+      </c>
+      <c r="B36" s="136" t="n">
+        <v>941</v>
+      </c>
+      <c r="C36" s="137" t="n">
+        <v>33</v>
+      </c>
+      <c r="D36" s="117" t="inlineStr">
+        <is>
+          <t>Kingsman</t>
+        </is>
+      </c>
+      <c r="E36" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="136" t="n"/>
+      <c r="L36" s="120" t="n"/>
+      <c r="M36" s="136" t="n"/>
+      <c r="N36" s="120" t="n"/>
+      <c r="O36" s="136" t="n"/>
+      <c r="P36" s="120" t="n"/>
+      <c r="Q36" s="136" t="n"/>
+      <c r="R36" s="120" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="140" t="inlineStr">
+        <is>
+          <t>#LPCLQUCCY</t>
+        </is>
+      </c>
+      <c r="B37" s="140" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C37" s="141" t="n">
+        <v>34</v>
+      </c>
+      <c r="D37" s="124" t="inlineStr">
+        <is>
+          <t>Zodiac</t>
+        </is>
+      </c>
+      <c r="E37" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="140" t="n"/>
+      <c r="L37" s="126" t="n"/>
+      <c r="M37" s="140" t="n"/>
+      <c r="N37" s="126" t="n"/>
+      <c r="O37" s="140" t="n"/>
+      <c r="P37" s="126" t="n"/>
+      <c r="Q37" s="140" t="n"/>
+      <c r="R37" s="126" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="136" t="inlineStr">
         <is>
           <t>#QV8RY9UC8</t>
         </is>
       </c>
-      <c r="B36" s="116" t="n">
-        <v>817</v>
-      </c>
-      <c r="C36" s="109" t="n">
-        <v>33</v>
-      </c>
-      <c r="D36" s="117" t="inlineStr">
+      <c r="B38" s="136" t="n">
+        <v>813</v>
+      </c>
+      <c r="C38" s="137" t="n">
+        <v>35</v>
+      </c>
+      <c r="D38" s="117" t="inlineStr">
         <is>
           <t>Apollo</t>
         </is>
       </c>
-      <c r="E36" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" s="116" t="n"/>
-      <c r="L36" s="120" t="n"/>
-      <c r="M36" s="116" t="n"/>
-      <c r="N36" s="120" t="n"/>
-      <c r="O36" s="116" t="n"/>
-      <c r="P36" s="120" t="n"/>
-      <c r="Q36" s="116" t="n"/>
-      <c r="R36" s="120" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="123" t="inlineStr">
-        <is>
-          <t>#LPCLQUCCY</t>
-        </is>
-      </c>
-      <c r="B37" s="123" t="n">
-        <v>1013</v>
-      </c>
-      <c r="C37" s="102" t="n">
-        <v>34</v>
-      </c>
-      <c r="D37" s="124" t="inlineStr">
-        <is>
-          <t>Zodiac</t>
-        </is>
-      </c>
-      <c r="E37" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="123" t="n"/>
-      <c r="L37" s="126" t="n"/>
-      <c r="M37" s="123" t="n"/>
-      <c r="N37" s="126" t="n"/>
-      <c r="O37" s="123" t="n"/>
-      <c r="P37" s="126" t="n"/>
-      <c r="Q37" s="123" t="n"/>
-      <c r="R37" s="126" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="116" t="inlineStr">
-        <is>
-          <t>#8U9CRC8G</t>
-        </is>
-      </c>
-      <c r="B38" s="116" t="n">
-        <v>1515</v>
-      </c>
-      <c r="C38" s="109" t="n">
-        <v>35</v>
-      </c>
-      <c r="D38" s="117" t="inlineStr">
-        <is>
-          <t>CEO JACK</t>
-        </is>
-      </c>
-      <c r="E38" s="118" t="n">
+      <c r="E38" s="139" t="n">
         <v>0</v>
       </c>
       <c r="F38" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="G38" s="118" t="n">
-        <v>11</v>
+      <c r="G38" s="139" t="n">
+        <v>0</v>
       </c>
       <c r="H38" s="120" t="n">
         <v>0</v>
       </c>
-      <c r="I38" s="118" t="n">
+      <c r="I38" s="139" t="n">
         <v>0</v>
       </c>
       <c r="J38" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="K38" s="116" t="n"/>
+      <c r="K38" s="136" t="n"/>
       <c r="L38" s="120" t="n"/>
-      <c r="M38" s="116" t="n"/>
+      <c r="M38" s="136" t="n"/>
       <c r="N38" s="120" t="n"/>
-      <c r="O38" s="116" t="n"/>
+      <c r="O38" s="136" t="n"/>
       <c r="P38" s="120" t="n"/>
-      <c r="Q38" s="116" t="n"/>
+      <c r="Q38" s="136" t="n"/>
       <c r="R38" s="120" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="123" t="inlineStr">
-        <is>
-          <t>#QUGYGY88C</t>
-        </is>
-      </c>
-      <c r="B39" s="123" t="n">
-        <v>941</v>
-      </c>
-      <c r="C39" s="102" t="n">
+      <c r="A39" s="140" t="inlineStr">
+        <is>
+          <t>#QQL28Y2UL</t>
+        </is>
+      </c>
+      <c r="B39" s="140" t="n">
+        <v>1112</v>
+      </c>
+      <c r="C39" s="141" t="n">
         <v>36</v>
       </c>
       <c r="D39" s="124" t="inlineStr">
         <is>
-          <t>Kingsman</t>
-        </is>
-      </c>
-      <c r="E39" s="125" t="n">
+          <t>SUPoT</t>
+        </is>
+      </c>
+      <c r="E39" s="143" t="n">
         <v>0</v>
       </c>
       <c r="F39" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="G39" s="125" t="n">
+      <c r="G39" s="143" t="n">
         <v>0</v>
       </c>
       <c r="H39" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="125" t="n">
+        <v>56</v>
+      </c>
+      <c r="I39" s="143" t="n">
         <v>0</v>
       </c>
       <c r="J39" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="K39" s="123" t="n"/>
+      <c r="K39" s="140" t="n"/>
       <c r="L39" s="126" t="n"/>
-      <c r="M39" s="123" t="n"/>
+      <c r="M39" s="140" t="n"/>
       <c r="N39" s="126" t="n"/>
-      <c r="O39" s="123" t="n"/>
+      <c r="O39" s="140" t="n"/>
       <c r="P39" s="126" t="n"/>
-      <c r="Q39" s="123" t="n"/>
+      <c r="Q39" s="140" t="n"/>
       <c r="R39" s="126" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="116" t="inlineStr">
-        <is>
-          <t>#VGG9LYL0</t>
-        </is>
-      </c>
-      <c r="B40" s="116" t="n">
-        <v>1050</v>
-      </c>
-      <c r="C40" s="109" t="n">
+      <c r="A40" s="136" t="inlineStr">
+        <is>
+          <t>#QUVJGC0VQ</t>
+        </is>
+      </c>
+      <c r="B40" s="136" t="n">
+        <v>1192</v>
+      </c>
+      <c r="C40" s="137" t="n">
         <v>37</v>
       </c>
       <c r="D40" s="117" t="inlineStr">
         <is>
-          <t>ptripp1048</t>
-        </is>
-      </c>
-      <c r="E40" s="118" t="n">
+          <t>Cam</t>
+        </is>
+      </c>
+      <c r="E40" s="139" t="n">
         <v>0</v>
       </c>
       <c r="F40" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="G40" s="118" t="n">
+      <c r="G40" s="139" t="n">
         <v>0</v>
       </c>
       <c r="H40" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="118" t="n">
+        <v>73</v>
+      </c>
+      <c r="I40" s="139" t="n">
         <v>0</v>
       </c>
       <c r="J40" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="K40" s="116" t="n"/>
+      <c r="K40" s="136" t="n"/>
       <c r="L40" s="120" t="n"/>
-      <c r="M40" s="116" t="n"/>
+      <c r="M40" s="136" t="n"/>
       <c r="N40" s="120" t="n"/>
-      <c r="O40" s="116" t="n"/>
+      <c r="O40" s="136" t="n"/>
       <c r="P40" s="120" t="n"/>
-      <c r="Q40" s="116" t="n"/>
+      <c r="Q40" s="136" t="n"/>
       <c r="R40" s="120" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="123" t="inlineStr">
+      <c r="A41" s="140" t="inlineStr">
+        <is>
+          <t>#LGCVY0L9P</t>
+        </is>
+      </c>
+      <c r="B41" s="140" t="n">
+        <v>935</v>
+      </c>
+      <c r="C41" s="141" t="n">
+        <v>38</v>
+      </c>
+      <c r="D41" s="124" t="inlineStr">
+        <is>
+          <t>Death1wolf</t>
+        </is>
+      </c>
+      <c r="E41" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="140" t="n"/>
+      <c r="J41" s="126" t="n"/>
+      <c r="K41" s="140" t="n"/>
+      <c r="L41" s="126" t="n"/>
+      <c r="M41" s="140" t="n"/>
+      <c r="N41" s="126" t="n"/>
+      <c r="O41" s="140" t="n"/>
+      <c r="P41" s="126" t="n"/>
+      <c r="Q41" s="140" t="n"/>
+      <c r="R41" s="126" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="136" t="inlineStr">
+        <is>
+          <t>#QUCCVCCJ0</t>
+        </is>
+      </c>
+      <c r="B42" s="136" t="n">
+        <v>756</v>
+      </c>
+      <c r="C42" s="137" t="n">
+        <v>39</v>
+      </c>
+      <c r="D42" s="117" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="E42" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="136" t="n"/>
+      <c r="J42" s="120" t="n"/>
+      <c r="K42" s="136" t="n"/>
+      <c r="L42" s="120" t="n"/>
+      <c r="M42" s="136" t="n"/>
+      <c r="N42" s="120" t="n"/>
+      <c r="O42" s="136" t="n"/>
+      <c r="P42" s="120" t="n"/>
+      <c r="Q42" s="136" t="n"/>
+      <c r="R42" s="120" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="140" t="inlineStr">
+        <is>
+          <t>#Q0U0CRCGJ</t>
+        </is>
+      </c>
+      <c r="B43" s="140" t="n">
+        <v>741</v>
+      </c>
+      <c r="C43" s="141" t="n">
+        <v>40</v>
+      </c>
+      <c r="D43" s="124" t="inlineStr">
+        <is>
+          <t>Sn0wc0ne</t>
+        </is>
+      </c>
+      <c r="E43" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="140" t="n"/>
+      <c r="J43" s="126" t="n"/>
+      <c r="K43" s="140" t="n"/>
+      <c r="L43" s="126" t="n"/>
+      <c r="M43" s="140" t="n"/>
+      <c r="N43" s="126" t="n"/>
+      <c r="O43" s="140" t="n"/>
+      <c r="P43" s="126" t="n"/>
+      <c r="Q43" s="140" t="n"/>
+      <c r="R43" s="126" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="136" t="inlineStr">
+        <is>
+          <t>#QLUV29GGJ</t>
+        </is>
+      </c>
+      <c r="B44" s="136" t="n">
+        <v>992</v>
+      </c>
+      <c r="C44" s="137" t="n">
+        <v>41</v>
+      </c>
+      <c r="D44" s="117" t="inlineStr">
+        <is>
+          <t>Kukoshibo</t>
+        </is>
+      </c>
+      <c r="E44" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="136" t="n"/>
+      <c r="J44" s="120" t="n"/>
+      <c r="K44" s="136" t="n"/>
+      <c r="L44" s="120" t="n"/>
+      <c r="M44" s="136" t="n"/>
+      <c r="N44" s="120" t="n"/>
+      <c r="O44" s="136" t="n"/>
+      <c r="P44" s="120" t="n"/>
+      <c r="Q44" s="136" t="n"/>
+      <c r="R44" s="120" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="140" t="inlineStr">
+        <is>
+          <t>#G0LJCVR2P</t>
+        </is>
+      </c>
+      <c r="B45" s="140" t="n">
+        <v>1036</v>
+      </c>
+      <c r="C45" s="141" t="n">
+        <v>42</v>
+      </c>
+      <c r="D45" s="124" t="inlineStr">
+        <is>
+          <t>DaddyChill</t>
+        </is>
+      </c>
+      <c r="E45" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="140" t="n"/>
+      <c r="J45" s="126" t="n"/>
+      <c r="K45" s="140" t="n"/>
+      <c r="L45" s="126" t="n"/>
+      <c r="M45" s="140" t="n"/>
+      <c r="N45" s="126" t="n"/>
+      <c r="O45" s="140" t="n"/>
+      <c r="P45" s="126" t="n"/>
+      <c r="Q45" s="140" t="n"/>
+      <c r="R45" s="126" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="136" t="inlineStr">
         <is>
           <t>#QJQV82JG0</t>
         </is>
       </c>
-      <c r="B41" s="123" t="n">
+      <c r="B46" s="136" t="n">
         <v>904</v>
       </c>
-      <c r="C41" s="102" t="n">
-        <v>38</v>
-      </c>
-      <c r="D41" s="124" t="inlineStr">
+      <c r="C46" s="137" t="n">
+        <v>43</v>
+      </c>
+      <c r="D46" s="117" t="inlineStr">
         <is>
           <t>The UnknownYT</t>
         </is>
       </c>
-      <c r="E41" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="125" t="n">
-        <v>6</v>
-      </c>
-      <c r="H41" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="123" t="n"/>
-      <c r="J41" s="126" t="n"/>
-      <c r="K41" s="123" t="n"/>
-      <c r="L41" s="126" t="n"/>
-      <c r="M41" s="123" t="n"/>
-      <c r="N41" s="126" t="n"/>
-      <c r="O41" s="123" t="n"/>
-      <c r="P41" s="126" t="n"/>
-      <c r="Q41" s="123" t="n"/>
-      <c r="R41" s="126" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="116" t="inlineStr">
-        <is>
-          <t>#QUCCVCCJ0</t>
-        </is>
-      </c>
-      <c r="B42" s="116" t="n">
-        <v>756</v>
-      </c>
-      <c r="C42" s="109" t="n">
-        <v>39</v>
-      </c>
-      <c r="D42" s="117" t="inlineStr">
-        <is>
-          <t>koi</t>
-        </is>
-      </c>
-      <c r="E42" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="116" t="n"/>
-      <c r="J42" s="120" t="n"/>
-      <c r="K42" s="116" t="n"/>
-      <c r="L42" s="120" t="n"/>
-      <c r="M42" s="116" t="n"/>
-      <c r="N42" s="120" t="n"/>
-      <c r="O42" s="116" t="n"/>
-      <c r="P42" s="120" t="n"/>
-      <c r="Q42" s="116" t="n"/>
-      <c r="R42" s="120" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="123" t="inlineStr">
-        <is>
-          <t>#G0LJCVR2P</t>
-        </is>
-      </c>
-      <c r="B43" s="123" t="n">
-        <v>1051</v>
-      </c>
-      <c r="C43" s="102" t="n">
-        <v>40</v>
-      </c>
-      <c r="D43" s="124" t="inlineStr">
-        <is>
-          <t>DaddyChill</t>
-        </is>
-      </c>
-      <c r="E43" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="123" t="n"/>
-      <c r="J43" s="126" t="n"/>
-      <c r="K43" s="123" t="n"/>
-      <c r="L43" s="126" t="n"/>
-      <c r="M43" s="123" t="n"/>
-      <c r="N43" s="126" t="n"/>
-      <c r="O43" s="123" t="n"/>
-      <c r="P43" s="126" t="n"/>
-      <c r="Q43" s="123" t="n"/>
-      <c r="R43" s="126" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="116" t="inlineStr">
-        <is>
-          <t>#LGCVY0L9P</t>
-        </is>
-      </c>
-      <c r="B44" s="116" t="n">
-        <v>935</v>
-      </c>
-      <c r="C44" s="109" t="n">
-        <v>41</v>
-      </c>
-      <c r="D44" s="117" t="inlineStr">
-        <is>
-          <t>Death1wolf</t>
-        </is>
-      </c>
-      <c r="E44" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="118" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="116" t="n"/>
-      <c r="J44" s="120" t="n"/>
-      <c r="K44" s="116" t="n"/>
-      <c r="L44" s="120" t="n"/>
-      <c r="M44" s="116" t="n"/>
-      <c r="N44" s="120" t="n"/>
-      <c r="O44" s="116" t="n"/>
-      <c r="P44" s="120" t="n"/>
-      <c r="Q44" s="116" t="n"/>
-      <c r="R44" s="120" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="123" t="inlineStr">
-        <is>
-          <t>#Q0U0CRCGJ</t>
-        </is>
-      </c>
-      <c r="B45" s="123" t="n">
-        <v>723</v>
-      </c>
-      <c r="C45" s="102" t="n">
-        <v>42</v>
-      </c>
-      <c r="D45" s="124" t="inlineStr">
-        <is>
-          <t>Sn0wc0ne</t>
-        </is>
-      </c>
-      <c r="E45" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="125" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="123" t="n"/>
-      <c r="J45" s="126" t="n"/>
-      <c r="K45" s="123" t="n"/>
-      <c r="L45" s="126" t="n"/>
-      <c r="M45" s="123" t="n"/>
-      <c r="N45" s="126" t="n"/>
-      <c r="O45" s="123" t="n"/>
-      <c r="P45" s="126" t="n"/>
-      <c r="Q45" s="123" t="n"/>
-      <c r="R45" s="126" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="116" t="inlineStr">
-        <is>
-          <t>#QLUV29GGJ</t>
-        </is>
-      </c>
-      <c r="B46" s="116" t="n">
-        <v>994</v>
-      </c>
-      <c r="C46" s="109" t="n">
-        <v>43</v>
-      </c>
-      <c r="D46" s="117" t="inlineStr">
-        <is>
-          <t>Kukoshibo</t>
-        </is>
-      </c>
-      <c r="E46" s="118" t="n">
+      <c r="E46" s="139" t="n">
         <v>0</v>
       </c>
       <c r="F46" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="G46" s="118" t="n">
-        <v>0</v>
+      <c r="G46" s="139" t="n">
+        <v>6</v>
       </c>
       <c r="H46" s="120" t="n">
         <v>0</v>
       </c>
-      <c r="I46" s="116" t="n"/>
+      <c r="I46" s="136" t="n"/>
       <c r="J46" s="120" t="n"/>
-      <c r="K46" s="116" t="n"/>
+      <c r="K46" s="136" t="n"/>
       <c r="L46" s="120" t="n"/>
-      <c r="M46" s="116" t="n"/>
+      <c r="M46" s="136" t="n"/>
       <c r="N46" s="120" t="n"/>
-      <c r="O46" s="116" t="n"/>
+      <c r="O46" s="136" t="n"/>
       <c r="P46" s="120" t="n"/>
-      <c r="Q46" s="116" t="n"/>
+      <c r="Q46" s="136" t="n"/>
       <c r="R46" s="120" t="n"/>
     </row>
     <row r="47">
@@ -3378,15 +3406,15 @@
       <c r="R47" s="134" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="118" t="inlineStr">
+      <c r="A48" s="139" t="inlineStr">
         <is>
           <t>#QLL0PVCRV</t>
         </is>
       </c>
-      <c r="B48" s="116" t="n">
+      <c r="B48" s="136" t="n">
         <v>1704</v>
       </c>
-      <c r="C48" s="109" t="n">
+      <c r="C48" s="137" t="n">
         <v>45</v>
       </c>
       <c r="D48" s="120" t="inlineStr">
@@ -3394,31 +3422,31 @@
           <t>Harsh chhillar</t>
         </is>
       </c>
-      <c r="E48" s="116" t="n"/>
+      <c r="E48" s="136" t="n"/>
       <c r="F48" s="120" t="n"/>
-      <c r="G48" s="116" t="n"/>
+      <c r="G48" s="136" t="n"/>
       <c r="H48" s="120" t="n"/>
-      <c r="I48" s="116" t="n"/>
+      <c r="I48" s="136" t="n"/>
       <c r="J48" s="120" t="n"/>
-      <c r="K48" s="116" t="n"/>
+      <c r="K48" s="136" t="n"/>
       <c r="L48" s="120" t="n"/>
-      <c r="M48" s="116" t="n"/>
+      <c r="M48" s="136" t="n"/>
       <c r="N48" s="120" t="n"/>
-      <c r="O48" s="116" t="n"/>
+      <c r="O48" s="136" t="n"/>
       <c r="P48" s="120" t="n"/>
-      <c r="Q48" s="116" t="n"/>
+      <c r="Q48" s="136" t="n"/>
       <c r="R48" s="120" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="125" t="inlineStr">
+      <c r="A49" s="143" t="inlineStr">
         <is>
           <t>#Q8YP9P8UJ</t>
         </is>
       </c>
-      <c r="B49" s="123" t="n">
+      <c r="B49" s="140" t="n">
         <v>945</v>
       </c>
-      <c r="C49" s="102" t="n">
+      <c r="C49" s="141" t="n">
         <v>46</v>
       </c>
       <c r="D49" s="126" t="inlineStr">
@@ -3426,35 +3454,35 @@
           <t>Ranger</t>
         </is>
       </c>
-      <c r="E49" s="123" t="n"/>
+      <c r="E49" s="140" t="n"/>
       <c r="F49" s="126" t="n"/>
-      <c r="G49" s="123" t="n"/>
+      <c r="G49" s="140" t="n"/>
       <c r="H49" s="126" t="n"/>
-      <c r="I49" s="123" t="n"/>
+      <c r="I49" s="140" t="n"/>
       <c r="J49" s="126" t="n"/>
-      <c r="K49" s="127" t="n">
+      <c r="K49" s="142" t="n">
         <v>5</v>
       </c>
       <c r="L49" s="129" t="n">
         <v>4680</v>
       </c>
-      <c r="M49" s="123" t="n"/>
+      <c r="M49" s="140" t="n"/>
       <c r="N49" s="126" t="n"/>
-      <c r="O49" s="123" t="n"/>
+      <c r="O49" s="140" t="n"/>
       <c r="P49" s="126" t="n"/>
-      <c r="Q49" s="123" t="n"/>
+      <c r="Q49" s="140" t="n"/>
       <c r="R49" s="126" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="118" t="inlineStr">
+      <c r="A50" s="139" t="inlineStr">
         <is>
           <t>#Q0JG2RJQ8</t>
         </is>
       </c>
-      <c r="B50" s="116" t="n">
+      <c r="B50" s="136" t="n">
         <v>997</v>
       </c>
-      <c r="C50" s="109" t="n">
+      <c r="C50" s="137" t="n">
         <v>47</v>
       </c>
       <c r="D50" s="120" t="inlineStr">
@@ -3462,35 +3490,35 @@
           <t>bozo</t>
         </is>
       </c>
-      <c r="E50" s="116" t="n"/>
+      <c r="E50" s="136" t="n"/>
       <c r="F50" s="120" t="n"/>
-      <c r="G50" s="116" t="n"/>
+      <c r="G50" s="136" t="n"/>
       <c r="H50" s="120" t="n"/>
-      <c r="I50" s="116" t="n"/>
+      <c r="I50" s="136" t="n"/>
       <c r="J50" s="120" t="n"/>
-      <c r="K50" s="116" t="n"/>
+      <c r="K50" s="136" t="n"/>
       <c r="L50" s="120" t="n"/>
-      <c r="M50" s="121" t="n">
+      <c r="M50" s="138" t="n">
         <v>6</v>
       </c>
       <c r="N50" s="122" t="n">
         <v>6495</v>
       </c>
-      <c r="O50" s="116" t="n"/>
+      <c r="O50" s="136" t="n"/>
       <c r="P50" s="120" t="n"/>
-      <c r="Q50" s="116" t="n"/>
+      <c r="Q50" s="136" t="n"/>
       <c r="R50" s="120" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="125" t="inlineStr">
+      <c r="A51" s="143" t="inlineStr">
         <is>
           <t>#UVCCQC02</t>
         </is>
       </c>
-      <c r="B51" s="123" t="n">
+      <c r="B51" s="140" t="n">
         <v>1806</v>
       </c>
-      <c r="C51" s="102" t="n">
+      <c r="C51" s="141" t="n">
         <v>48</v>
       </c>
       <c r="D51" s="126" t="inlineStr">
@@ -3498,27 +3526,27 @@
           <t>lordshisha</t>
         </is>
       </c>
-      <c r="E51" s="123" t="n"/>
+      <c r="E51" s="140" t="n"/>
       <c r="F51" s="126" t="n"/>
-      <c r="G51" s="123" t="n"/>
+      <c r="G51" s="140" t="n"/>
       <c r="H51" s="126" t="n"/>
-      <c r="I51" s="123" t="n"/>
+      <c r="I51" s="140" t="n"/>
       <c r="J51" s="126" t="n"/>
-      <c r="K51" s="123" t="n"/>
+      <c r="K51" s="140" t="n"/>
       <c r="L51" s="126" t="n"/>
-      <c r="M51" s="127" t="n">
+      <c r="M51" s="142" t="n">
         <v>6</v>
       </c>
       <c r="N51" s="128" t="n">
         <v>8496</v>
       </c>
-      <c r="O51" s="127" t="n">
+      <c r="O51" s="142" t="n">
         <v>6</v>
       </c>
       <c r="P51" s="128" t="n">
         <v>6310</v>
       </c>
-      <c r="Q51" s="127" t="n">
+      <c r="Q51" s="142" t="n">
         <v>6</v>
       </c>
       <c r="R51" s="128" t="n">
@@ -3526,15 +3554,15 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="118" t="inlineStr">
+      <c r="A52" s="139" t="inlineStr">
         <is>
           <t>#P2CPRPQU</t>
         </is>
       </c>
-      <c r="B52" s="116" t="n">
+      <c r="B52" s="136" t="n">
         <v>2232</v>
       </c>
-      <c r="C52" s="109" t="n">
+      <c r="C52" s="137" t="n">
         <v>49</v>
       </c>
       <c r="D52" s="120" t="inlineStr">
@@ -3542,27 +3570,27 @@
           <t>The Drift King</t>
         </is>
       </c>
-      <c r="E52" s="116" t="n"/>
+      <c r="E52" s="136" t="n"/>
       <c r="F52" s="120" t="n"/>
-      <c r="G52" s="116" t="n"/>
+      <c r="G52" s="136" t="n"/>
       <c r="H52" s="120" t="n"/>
-      <c r="I52" s="116" t="n"/>
+      <c r="I52" s="136" t="n"/>
       <c r="J52" s="120" t="n"/>
-      <c r="K52" s="116" t="n"/>
+      <c r="K52" s="136" t="n"/>
       <c r="L52" s="120" t="n"/>
-      <c r="M52" s="121" t="n">
+      <c r="M52" s="138" t="n">
         <v>6</v>
       </c>
       <c r="N52" s="122" t="n">
         <v>8023</v>
       </c>
-      <c r="O52" s="121" t="n">
+      <c r="O52" s="138" t="n">
         <v>6</v>
       </c>
       <c r="P52" s="122" t="n">
         <v>7625</v>
       </c>
-      <c r="Q52" s="121" t="n">
+      <c r="Q52" s="138" t="n">
         <v>6</v>
       </c>
       <c r="R52" s="122" t="n">
@@ -3570,15 +3598,15 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="125" t="inlineStr">
+      <c r="A53" s="143" t="inlineStr">
         <is>
           <t>#QJVL0LYQQ</t>
         </is>
       </c>
-      <c r="B53" s="123" t="n">
+      <c r="B53" s="140" t="n">
         <v>921</v>
       </c>
-      <c r="C53" s="102" t="n">
+      <c r="C53" s="141" t="n">
         <v>50</v>
       </c>
       <c r="D53" s="126" t="inlineStr">
@@ -3586,27 +3614,27 @@
           <t>mobbb341</t>
         </is>
       </c>
-      <c r="E53" s="123" t="n"/>
+      <c r="E53" s="140" t="n"/>
       <c r="F53" s="126" t="n"/>
-      <c r="G53" s="123" t="n"/>
+      <c r="G53" s="140" t="n"/>
       <c r="H53" s="126" t="n"/>
-      <c r="I53" s="123" t="n"/>
+      <c r="I53" s="140" t="n"/>
       <c r="J53" s="126" t="n"/>
-      <c r="K53" s="123" t="n"/>
+      <c r="K53" s="140" t="n"/>
       <c r="L53" s="126" t="n"/>
-      <c r="M53" s="127" t="n">
+      <c r="M53" s="142" t="n">
         <v>6</v>
       </c>
       <c r="N53" s="128" t="n">
         <v>7710</v>
       </c>
-      <c r="O53" s="127" t="n">
+      <c r="O53" s="142" t="n">
         <v>6</v>
       </c>
       <c r="P53" s="128" t="n">
         <v>8810</v>
       </c>
-      <c r="Q53" s="127" t="n">
+      <c r="Q53" s="142" t="n">
         <v>6</v>
       </c>
       <c r="R53" s="129" t="n">
@@ -3614,15 +3642,15 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="118" t="inlineStr">
+      <c r="A54" s="139" t="inlineStr">
         <is>
           <t>#L8R82C8VC</t>
         </is>
       </c>
-      <c r="B54" s="116" t="n">
+      <c r="B54" s="136" t="n">
         <v>1162</v>
       </c>
-      <c r="C54" s="109" t="n">
+      <c r="C54" s="137" t="n">
         <v>51</v>
       </c>
       <c r="D54" s="120" t="inlineStr">
@@ -3630,27 +3658,27 @@
           <t>caden asue</t>
         </is>
       </c>
-      <c r="E54" s="116" t="n"/>
+      <c r="E54" s="136" t="n"/>
       <c r="F54" s="120" t="n"/>
-      <c r="G54" s="116" t="n"/>
+      <c r="G54" s="136" t="n"/>
       <c r="H54" s="120" t="n"/>
-      <c r="I54" s="116" t="n"/>
+      <c r="I54" s="136" t="n"/>
       <c r="J54" s="120" t="n"/>
-      <c r="K54" s="116" t="n"/>
+      <c r="K54" s="136" t="n"/>
       <c r="L54" s="120" t="n"/>
-      <c r="M54" s="121" t="n">
+      <c r="M54" s="138" t="n">
         <v>6</v>
       </c>
       <c r="N54" s="130" t="n">
         <v>5112</v>
       </c>
-      <c r="O54" s="121" t="n">
+      <c r="O54" s="138" t="n">
         <v>6</v>
       </c>
       <c r="P54" s="130" t="n">
         <v>4283</v>
       </c>
-      <c r="Q54" s="121" t="n">
+      <c r="Q54" s="138" t="n">
         <v>6</v>
       </c>
       <c r="R54" s="130" t="n">
@@ -3658,15 +3686,15 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="125" t="inlineStr">
+      <c r="A55" s="143" t="inlineStr">
         <is>
           <t>#L9Q8VLLQG</t>
         </is>
       </c>
-      <c r="B55" s="123" t="n">
+      <c r="B55" s="140" t="n">
         <v>1130</v>
       </c>
-      <c r="C55" s="102" t="n">
+      <c r="C55" s="141" t="n">
         <v>52</v>
       </c>
       <c r="D55" s="126" t="inlineStr">
@@ -3674,19 +3702,19 @@
           <t>cat</t>
         </is>
       </c>
-      <c r="E55" s="123" t="n"/>
+      <c r="E55" s="140" t="n"/>
       <c r="F55" s="126" t="n"/>
-      <c r="G55" s="123" t="n"/>
+      <c r="G55" s="140" t="n"/>
       <c r="H55" s="126" t="n"/>
-      <c r="I55" s="123" t="n"/>
+      <c r="I55" s="140" t="n"/>
       <c r="J55" s="126" t="n"/>
-      <c r="K55" s="123" t="n"/>
+      <c r="K55" s="140" t="n"/>
       <c r="L55" s="126" t="n"/>
-      <c r="M55" s="123" t="n"/>
+      <c r="M55" s="140" t="n"/>
       <c r="N55" s="126" t="n"/>
-      <c r="O55" s="123" t="n"/>
+      <c r="O55" s="140" t="n"/>
       <c r="P55" s="126" t="n"/>
-      <c r="Q55" s="127" t="n">
+      <c r="Q55" s="142" t="n">
         <v>6</v>
       </c>
       <c r="R55" s="129" t="n">
@@ -3694,15 +3722,15 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="118" t="inlineStr">
+      <c r="A56" s="139" t="inlineStr">
         <is>
           <t>#QV0PQC9JU</t>
         </is>
       </c>
-      <c r="B56" s="116" t="n">
+      <c r="B56" s="136" t="n">
         <v>539</v>
       </c>
-      <c r="C56" s="109" t="n">
+      <c r="C56" s="137" t="n">
         <v>53</v>
       </c>
       <c r="D56" s="120" t="inlineStr">
@@ -3710,19 +3738,19 @@
           <t>Superman</t>
         </is>
       </c>
-      <c r="E56" s="116" t="n"/>
+      <c r="E56" s="136" t="n"/>
       <c r="F56" s="120" t="n"/>
-      <c r="G56" s="116" t="n"/>
+      <c r="G56" s="136" t="n"/>
       <c r="H56" s="120" t="n"/>
-      <c r="I56" s="116" t="n"/>
+      <c r="I56" s="136" t="n"/>
       <c r="J56" s="120" t="n"/>
-      <c r="K56" s="116" t="n"/>
+      <c r="K56" s="136" t="n"/>
       <c r="L56" s="120" t="n"/>
-      <c r="M56" s="116" t="n"/>
+      <c r="M56" s="136" t="n"/>
       <c r="N56" s="120" t="n"/>
-      <c r="O56" s="116" t="n"/>
+      <c r="O56" s="136" t="n"/>
       <c r="P56" s="120" t="n"/>
-      <c r="Q56" s="121" t="n">
+      <c r="Q56" s="138" t="n">
         <v>6</v>
       </c>
       <c r="R56" s="130" t="n">
@@ -3730,15 +3758,15 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="125" t="inlineStr">
+      <c r="A57" s="143" t="inlineStr">
         <is>
           <t>#LU0CRP09L</t>
         </is>
       </c>
-      <c r="B57" s="123" t="n">
+      <c r="B57" s="140" t="n">
         <v>809</v>
       </c>
-      <c r="C57" s="102" t="n">
+      <c r="C57" s="141" t="n">
         <v>54</v>
       </c>
       <c r="D57" s="126" t="inlineStr">
@@ -3746,19 +3774,19 @@
           <t>I Dont Know</t>
         </is>
       </c>
-      <c r="E57" s="123" t="n"/>
+      <c r="E57" s="140" t="n"/>
       <c r="F57" s="126" t="n"/>
-      <c r="G57" s="123" t="n"/>
+      <c r="G57" s="140" t="n"/>
       <c r="H57" s="126" t="n"/>
-      <c r="I57" s="123" t="n"/>
+      <c r="I57" s="140" t="n"/>
       <c r="J57" s="126" t="n"/>
-      <c r="K57" s="123" t="n"/>
+      <c r="K57" s="140" t="n"/>
       <c r="L57" s="126" t="n"/>
-      <c r="M57" s="123" t="n"/>
+      <c r="M57" s="140" t="n"/>
       <c r="N57" s="126" t="n"/>
-      <c r="O57" s="123" t="n"/>
+      <c r="O57" s="140" t="n"/>
       <c r="P57" s="126" t="n"/>
-      <c r="Q57" s="135" t="n">
+      <c r="Q57" s="158" t="n">
         <v>3</v>
       </c>
       <c r="R57" s="124" t="n">
@@ -3766,15 +3794,15 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="118" t="inlineStr">
+      <c r="A58" s="139" t="inlineStr">
         <is>
           <t>#YCPP0QPP8</t>
         </is>
       </c>
-      <c r="B58" s="116" t="n">
+      <c r="B58" s="136" t="n">
         <v>3327</v>
       </c>
-      <c r="C58" s="109" t="n">
+      <c r="C58" s="137" t="n">
         <v>55</v>
       </c>
       <c r="D58" s="120" t="inlineStr">
@@ -3782,19 +3810,19 @@
           <t>Coach</t>
         </is>
       </c>
-      <c r="E58" s="116" t="n"/>
+      <c r="E58" s="136" t="n"/>
       <c r="F58" s="120" t="n"/>
-      <c r="G58" s="116" t="n"/>
+      <c r="G58" s="136" t="n"/>
       <c r="H58" s="120" t="n"/>
-      <c r="I58" s="116" t="n"/>
+      <c r="I58" s="136" t="n"/>
       <c r="J58" s="120" t="n"/>
-      <c r="K58" s="116" t="n"/>
+      <c r="K58" s="136" t="n"/>
       <c r="L58" s="120" t="n"/>
-      <c r="M58" s="116" t="n"/>
+      <c r="M58" s="136" t="n"/>
       <c r="N58" s="120" t="n"/>
-      <c r="O58" s="116" t="n"/>
+      <c r="O58" s="136" t="n"/>
       <c r="P58" s="120" t="n"/>
-      <c r="Q58" s="118" t="n">
+      <c r="Q58" s="139" t="n">
         <v>0</v>
       </c>
       <c r="R58" s="117" t="n">

--- a/Clash.xlsx
+++ b/Clash.xlsx
@@ -223,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -318,11 +318,12 @@
       <right style="medium"/>
     </border>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -528,6 +529,27 @@
     <xf numFmtId="164" fontId="7" fillId="32" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="7" fillId="30" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="8" fillId="32" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="25" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="27" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="26" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="28" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="28" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="30" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="29" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="25" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="27" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="26" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="32" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="28" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="29" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="30" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="31" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="31" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -975,10 +997,10 @@
     </row>
     <row r="2">
       <c r="E2" t="n">
-        <v>3.86</v>
+        <v>3.67</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>31544</v>
+        <v>43201</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>516</v>
@@ -1102,623 +1124,623 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="136" t="inlineStr">
+      <c r="A4" s="159" t="inlineStr">
+        <is>
+          <t>#QCV22VP0G</t>
+        </is>
+      </c>
+      <c r="B4" s="159" t="n">
+        <v>823</v>
+      </c>
+      <c r="C4" s="160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="115" t="inlineStr">
+        <is>
+          <t>Nami</t>
+        </is>
+      </c>
+      <c r="E4" s="161" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" s="115" t="n">
+        <v>11657</v>
+      </c>
+      <c r="G4" s="162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="161" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" s="115" t="n">
+        <v>11795</v>
+      </c>
+      <c r="K4" s="161" t="n">
+        <v>6</v>
+      </c>
+      <c r="L4" s="115" t="n">
+        <v>10769</v>
+      </c>
+      <c r="M4" s="161" t="n">
+        <v>6</v>
+      </c>
+      <c r="N4" s="115" t="n">
+        <v>12486</v>
+      </c>
+      <c r="O4" s="161" t="n">
+        <v>6</v>
+      </c>
+      <c r="P4" s="115" t="n">
+        <v>8472</v>
+      </c>
+      <c r="Q4" s="161" t="n">
+        <v>6</v>
+      </c>
+      <c r="R4" s="115" t="n">
+        <v>9096</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="163" t="inlineStr">
         <is>
           <t>#QU0U2Q99G</t>
         </is>
       </c>
-      <c r="B4" s="136" t="n">
+      <c r="B5" s="163" t="n">
         <v>942</v>
       </c>
-      <c r="C4" s="137" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="122" t="inlineStr">
+      <c r="C5" s="164" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="128" t="inlineStr">
         <is>
           <t>big coc</t>
         </is>
       </c>
-      <c r="E4" s="138" t="n">
-        <v>6</v>
-      </c>
-      <c r="F4" s="122" t="n">
+      <c r="E5" s="165" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" s="128" t="n">
         <v>7115</v>
       </c>
-      <c r="G4" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="120" t="n">
+      <c r="G5" s="166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="126" t="n">
         <v>60</v>
       </c>
-      <c r="I4" s="138" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" s="122" t="n">
+      <c r="I5" s="165" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" s="128" t="n">
         <v>7420</v>
       </c>
-      <c r="K4" s="138" t="n">
+      <c r="K5" s="165" t="n">
         <v>5</v>
       </c>
-      <c r="L4" s="130" t="n">
+      <c r="L5" s="129" t="n">
         <v>5150</v>
       </c>
-      <c r="M4" s="138" t="n">
-        <v>6</v>
-      </c>
-      <c r="N4" s="122" t="n">
+      <c r="M5" s="165" t="n">
+        <v>6</v>
+      </c>
+      <c r="N5" s="128" t="n">
         <v>9075</v>
       </c>
-      <c r="O4" s="136" t="n"/>
-      <c r="P4" s="120" t="n"/>
-      <c r="Q4" s="136" t="n"/>
-      <c r="R4" s="120" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="140" t="inlineStr">
+      <c r="O5" s="163" t="n"/>
+      <c r="P5" s="126" t="n"/>
+      <c r="Q5" s="163" t="n"/>
+      <c r="R5" s="126" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="167" t="inlineStr">
         <is>
           <t>#8U9CRC8G</t>
         </is>
       </c>
-      <c r="B5" s="140" t="n">
+      <c r="B6" s="167" t="n">
         <v>1512</v>
       </c>
-      <c r="C5" s="141" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="128" t="inlineStr">
+      <c r="C6" s="160" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="122" t="inlineStr">
         <is>
           <t>CEO JACK</t>
         </is>
       </c>
-      <c r="E5" s="142" t="n">
-        <v>6</v>
-      </c>
-      <c r="F5" s="128" t="n">
+      <c r="E6" s="168" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" s="122" t="n">
         <v>6980</v>
       </c>
-      <c r="G5" s="143" t="n">
+      <c r="G6" s="169" t="n">
         <v>11</v>
       </c>
-      <c r="H5" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="140" t="n"/>
-      <c r="L5" s="126" t="n"/>
-      <c r="M5" s="140" t="n"/>
-      <c r="N5" s="126" t="n"/>
-      <c r="O5" s="140" t="n"/>
-      <c r="P5" s="126" t="n"/>
-      <c r="Q5" s="140" t="n"/>
-      <c r="R5" s="126" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="136" t="inlineStr">
+      <c r="H6" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="167" t="n"/>
+      <c r="L6" s="120" t="n"/>
+      <c r="M6" s="167" t="n"/>
+      <c r="N6" s="120" t="n"/>
+      <c r="O6" s="167" t="n"/>
+      <c r="P6" s="120" t="n"/>
+      <c r="Q6" s="167" t="n"/>
+      <c r="R6" s="120" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="163" t="inlineStr">
         <is>
           <t>#LC9GUPJJG</t>
         </is>
       </c>
-      <c r="B6" s="136" t="n">
+      <c r="B7" s="163" t="n">
         <v>1074</v>
       </c>
-      <c r="C6" s="137" t="n">
+      <c r="C7" s="164" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" s="128" t="inlineStr">
+        <is>
+          <t>raptor2222a</t>
+        </is>
+      </c>
+      <c r="E7" s="165" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="128" t="n">
+        <v>6971</v>
+      </c>
+      <c r="G7" s="166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="165" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" s="129" t="n">
+        <v>4350</v>
+      </c>
+      <c r="K7" s="166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="163" t="n"/>
+      <c r="N7" s="126" t="n"/>
+      <c r="O7" s="163" t="n"/>
+      <c r="P7" s="126" t="n"/>
+      <c r="Q7" s="163" t="n"/>
+      <c r="R7" s="126" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="167" t="inlineStr">
+        <is>
+          <t>#VGG9LYL0</t>
+        </is>
+      </c>
+      <c r="B8" s="167" t="n">
+        <v>1059</v>
+      </c>
+      <c r="C8" s="160" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="122" t="inlineStr">
+        <is>
+          <t>ptripp1048</t>
+        </is>
+      </c>
+      <c r="E8" s="168" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" s="122" t="n">
+        <v>6023</v>
+      </c>
+      <c r="G8" s="169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="167" t="n"/>
+      <c r="L8" s="120" t="n"/>
+      <c r="M8" s="167" t="n"/>
+      <c r="N8" s="120" t="n"/>
+      <c r="O8" s="167" t="n"/>
+      <c r="P8" s="120" t="n"/>
+      <c r="Q8" s="167" t="n"/>
+      <c r="R8" s="120" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="163" t="inlineStr">
+        <is>
+          <t>#G0JPUQGYR</t>
+        </is>
+      </c>
+      <c r="B9" s="163" t="n">
+        <v>1412</v>
+      </c>
+      <c r="C9" s="164" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" s="129" t="inlineStr">
+        <is>
+          <t>Collin</t>
+        </is>
+      </c>
+      <c r="E9" s="170" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="122" t="inlineStr">
-        <is>
-          <t>raptor2222a</t>
-        </is>
-      </c>
-      <c r="E6" s="138" t="n">
-        <v>6</v>
-      </c>
-      <c r="F6" s="122" t="n">
-        <v>6971</v>
-      </c>
-      <c r="G6" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="138" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" s="130" t="n">
-        <v>4350</v>
-      </c>
-      <c r="K6" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="136" t="n"/>
-      <c r="N6" s="120" t="n"/>
-      <c r="O6" s="136" t="n"/>
-      <c r="P6" s="120" t="n"/>
-      <c r="Q6" s="136" t="n"/>
-      <c r="R6" s="120" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="140" t="inlineStr">
-        <is>
-          <t>#VGG9LYL0</t>
-        </is>
-      </c>
-      <c r="B7" s="140" t="n">
-        <v>1059</v>
-      </c>
-      <c r="C7" s="141" t="n">
+      <c r="F9" s="129" t="n">
+        <v>4455</v>
+      </c>
+      <c r="G9" s="166" t="n">
+        <v>20</v>
+      </c>
+      <c r="H9" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="165" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" s="128" t="n">
+        <v>8833</v>
+      </c>
+      <c r="K9" s="165" t="n">
+        <v>6</v>
+      </c>
+      <c r="L9" s="128" t="n">
+        <v>9238</v>
+      </c>
+      <c r="M9" s="165" t="n">
+        <v>6</v>
+      </c>
+      <c r="N9" s="128" t="n">
+        <v>7756</v>
+      </c>
+      <c r="O9" s="165" t="n">
+        <v>6</v>
+      </c>
+      <c r="P9" s="129" t="n">
+        <v>5943</v>
+      </c>
+      <c r="Q9" s="165" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" s="128" t="n">
+        <v>8224</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="94" t="inlineStr">
+        <is>
+          <t>#QLJ2U20Y2</t>
+        </is>
+      </c>
+      <c r="B10" s="94" t="n">
+        <v>1486</v>
+      </c>
+      <c r="C10" s="95" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" s="96" t="inlineStr">
+        <is>
+          <t>DeadLeaf</t>
+        </is>
+      </c>
+      <c r="E10" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="98" t="n">
+        <v>30</v>
+      </c>
+      <c r="I10" s="99" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" s="100" t="n">
+        <v>13763</v>
+      </c>
+      <c r="K10" s="99" t="n">
+        <v>6</v>
+      </c>
+      <c r="L10" s="100" t="n">
+        <v>11140</v>
+      </c>
+      <c r="M10" s="99" t="n">
+        <v>6</v>
+      </c>
+      <c r="N10" s="100" t="n">
+        <v>15509</v>
+      </c>
+      <c r="O10" s="99" t="n">
+        <v>6</v>
+      </c>
+      <c r="P10" s="100" t="n">
+        <v>8567</v>
+      </c>
+      <c r="Q10" s="99" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" s="100" t="n">
+        <v>9729</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="171" t="inlineStr">
+        <is>
+          <t>#G0QPVJY9L</t>
+        </is>
+      </c>
+      <c r="B11" s="171" t="n">
+        <v>828</v>
+      </c>
+      <c r="C11" s="164" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" s="103" t="inlineStr">
+        <is>
+          <t>Zoro</t>
+        </is>
+      </c>
+      <c r="E11" s="172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="173" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" s="107" t="n">
+        <v>13432</v>
+      </c>
+      <c r="K11" s="173" t="n">
+        <v>6</v>
+      </c>
+      <c r="L11" s="107" t="n">
+        <v>8855</v>
+      </c>
+      <c r="M11" s="173" t="n">
+        <v>6</v>
+      </c>
+      <c r="N11" s="107" t="n">
+        <v>10965</v>
+      </c>
+      <c r="O11" s="173" t="n">
+        <v>6</v>
+      </c>
+      <c r="P11" s="107" t="n">
+        <v>7905</v>
+      </c>
+      <c r="Q11" s="173" t="n">
+        <v>6</v>
+      </c>
+      <c r="R11" s="107" t="n">
+        <v>6744</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="159" t="inlineStr">
+        <is>
+          <t>#90U0VPU9U</t>
+        </is>
+      </c>
+      <c r="B12" s="159" t="n">
+        <v>2534</v>
+      </c>
+      <c r="C12" s="160" t="n">
+        <v>9</v>
+      </c>
+      <c r="D12" s="110" t="inlineStr">
+        <is>
+          <t>KYANI7E</t>
+        </is>
+      </c>
+      <c r="E12" s="162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="174" t="n">
+        <v>206</v>
+      </c>
+      <c r="H12" s="113" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="128" t="inlineStr">
-        <is>
-          <t>ptripp1048</t>
-        </is>
-      </c>
-      <c r="E7" s="142" t="n">
-        <v>6</v>
-      </c>
-      <c r="F7" s="128" t="n">
-        <v>6023</v>
-      </c>
-      <c r="G7" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="140" t="n"/>
-      <c r="L7" s="126" t="n"/>
-      <c r="M7" s="140" t="n"/>
-      <c r="N7" s="126" t="n"/>
-      <c r="O7" s="140" t="n"/>
-      <c r="P7" s="126" t="n"/>
-      <c r="Q7" s="140" t="n"/>
-      <c r="R7" s="126" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="136" t="inlineStr">
-        <is>
-          <t>#G0JPUQGYR</t>
-        </is>
-      </c>
-      <c r="B8" s="136" t="n">
-        <v>1412</v>
-      </c>
-      <c r="C8" s="137" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" s="130" t="inlineStr">
-        <is>
-          <t>Collin</t>
-        </is>
-      </c>
-      <c r="E8" s="144" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" s="130" t="n">
-        <v>4455</v>
-      </c>
-      <c r="G8" s="139" t="n">
-        <v>20</v>
-      </c>
-      <c r="H8" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="138" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" s="122" t="n">
-        <v>8833</v>
-      </c>
-      <c r="K8" s="138" t="n">
-        <v>6</v>
-      </c>
-      <c r="L8" s="122" t="n">
-        <v>9238</v>
-      </c>
-      <c r="M8" s="138" t="n">
-        <v>6</v>
-      </c>
-      <c r="N8" s="122" t="n">
-        <v>7756</v>
-      </c>
-      <c r="O8" s="138" t="n">
-        <v>6</v>
-      </c>
-      <c r="P8" s="130" t="n">
-        <v>5943</v>
-      </c>
-      <c r="Q8" s="138" t="n">
-        <v>6</v>
-      </c>
-      <c r="R8" s="122" t="n">
-        <v>8224</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="145" t="inlineStr">
-        <is>
-          <t>#QLJ2U20Y2</t>
-        </is>
-      </c>
-      <c r="B9" s="145" t="n">
-        <v>1486</v>
-      </c>
-      <c r="C9" s="133" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" s="146" t="inlineStr">
-        <is>
-          <t>DeadLeaf</t>
-        </is>
-      </c>
-      <c r="E9" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="146" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="148" t="n">
-        <v>30</v>
-      </c>
-      <c r="I9" s="149" t="n">
-        <v>6</v>
-      </c>
-      <c r="J9" s="150" t="n">
-        <v>13763</v>
-      </c>
-      <c r="K9" s="149" t="n">
-        <v>6</v>
-      </c>
-      <c r="L9" s="150" t="n">
-        <v>11140</v>
-      </c>
-      <c r="M9" s="149" t="n">
-        <v>6</v>
-      </c>
-      <c r="N9" s="150" t="n">
-        <v>15509</v>
-      </c>
-      <c r="O9" s="149" t="n">
-        <v>6</v>
-      </c>
-      <c r="P9" s="150" t="n">
-        <v>8567</v>
-      </c>
-      <c r="Q9" s="149" t="n">
-        <v>6</v>
-      </c>
-      <c r="R9" s="150" t="n">
-        <v>9729</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="151" t="inlineStr">
-        <is>
-          <t>#G0QPVJY9L</t>
-        </is>
-      </c>
-      <c r="B10" s="151" t="n">
-        <v>828</v>
-      </c>
-      <c r="C10" s="137" t="n">
-        <v>7</v>
-      </c>
-      <c r="D10" s="110" t="inlineStr">
-        <is>
-          <t>Zoro</t>
-        </is>
-      </c>
-      <c r="E10" s="152" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="152" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="153" t="n">
-        <v>6</v>
-      </c>
-      <c r="J10" s="115" t="n">
-        <v>13432</v>
-      </c>
-      <c r="K10" s="153" t="n">
-        <v>6</v>
-      </c>
-      <c r="L10" s="115" t="n">
-        <v>8855</v>
-      </c>
-      <c r="M10" s="153" t="n">
-        <v>6</v>
-      </c>
-      <c r="N10" s="115" t="n">
-        <v>10965</v>
-      </c>
-      <c r="O10" s="153" t="n">
-        <v>6</v>
-      </c>
-      <c r="P10" s="115" t="n">
-        <v>7905</v>
-      </c>
-      <c r="Q10" s="153" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" s="115" t="n">
-        <v>6744</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="154" t="inlineStr">
-        <is>
-          <t>#90U0VPU9U</t>
-        </is>
-      </c>
-      <c r="B11" s="154" t="n">
-        <v>2534</v>
-      </c>
-      <c r="C11" s="141" t="n">
-        <v>8</v>
-      </c>
-      <c r="D11" s="103" t="inlineStr">
-        <is>
-          <t>KYANI7E</t>
-        </is>
-      </c>
-      <c r="E11" s="155" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="156" t="n">
-        <v>206</v>
-      </c>
-      <c r="H11" s="105" t="n">
-        <v>4</v>
-      </c>
-      <c r="I11" s="157" t="n">
-        <v>6</v>
-      </c>
-      <c r="J11" s="107" t="n">
+      <c r="I12" s="161" t="n">
+        <v>6</v>
+      </c>
+      <c r="J12" s="115" t="n">
         <v>13260</v>
       </c>
-      <c r="K11" s="157" t="n">
-        <v>6</v>
-      </c>
-      <c r="L11" s="107" t="n">
+      <c r="K12" s="161" t="n">
+        <v>6</v>
+      </c>
+      <c r="L12" s="115" t="n">
         <v>12144</v>
       </c>
-      <c r="M11" s="157" t="n">
-        <v>6</v>
-      </c>
-      <c r="N11" s="107" t="n">
+      <c r="M12" s="161" t="n">
+        <v>6</v>
+      </c>
+      <c r="N12" s="115" t="n">
         <v>12835</v>
       </c>
-      <c r="O11" s="157" t="n">
-        <v>6</v>
-      </c>
-      <c r="P11" s="107" t="n">
+      <c r="O12" s="161" t="n">
+        <v>6</v>
+      </c>
+      <c r="P12" s="115" t="n">
         <v>7696</v>
       </c>
-      <c r="Q11" s="157" t="n">
-        <v>6</v>
-      </c>
-      <c r="R11" s="107" t="n">
+      <c r="Q12" s="161" t="n">
+        <v>6</v>
+      </c>
+      <c r="R12" s="115" t="n">
         <v>9188</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="151" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="171" t="inlineStr">
         <is>
           <t>#YJ20CRJYQ</t>
         </is>
       </c>
-      <c r="B12" s="151" t="n">
+      <c r="B13" s="171" t="n">
         <v>1265</v>
       </c>
-      <c r="C12" s="137" t="n">
-        <v>9</v>
-      </c>
-      <c r="D12" s="110" t="inlineStr">
+      <c r="C13" s="164" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" s="103" t="inlineStr">
         <is>
           <t>UnluckGod</t>
         </is>
       </c>
-      <c r="E12" s="152" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="152" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="113" t="n">
+      <c r="E13" s="172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="105" t="n">
         <v>61</v>
       </c>
-      <c r="I12" s="153" t="n">
-        <v>6</v>
-      </c>
-      <c r="J12" s="115" t="n">
+      <c r="I13" s="173" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" s="107" t="n">
         <v>12824</v>
       </c>
-      <c r="K12" s="153" t="n">
-        <v>6</v>
-      </c>
-      <c r="L12" s="115" t="n">
+      <c r="K13" s="173" t="n">
+        <v>6</v>
+      </c>
+      <c r="L13" s="107" t="n">
         <v>11999</v>
       </c>
-      <c r="M12" s="153" t="n">
-        <v>6</v>
-      </c>
-      <c r="N12" s="115" t="n">
+      <c r="M13" s="173" t="n">
+        <v>6</v>
+      </c>
+      <c r="N13" s="107" t="n">
         <v>12972</v>
       </c>
-      <c r="O12" s="153" t="n">
-        <v>6</v>
-      </c>
-      <c r="P12" s="115" t="n">
+      <c r="O13" s="173" t="n">
+        <v>6</v>
+      </c>
+      <c r="P13" s="107" t="n">
         <v>8286</v>
       </c>
-      <c r="Q12" s="153" t="n">
-        <v>6</v>
-      </c>
-      <c r="R12" s="115" t="n">
+      <c r="Q13" s="173" t="n">
+        <v>6</v>
+      </c>
+      <c r="R13" s="107" t="n">
         <v>11406</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="154" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="159" t="inlineStr">
         <is>
           <t>#QUV2GP88U</t>
         </is>
       </c>
-      <c r="B13" s="154" t="n">
+      <c r="B14" s="159" t="n">
         <v>736</v>
       </c>
-      <c r="C13" s="141" t="n">
-        <v>10</v>
-      </c>
-      <c r="D13" s="103" t="inlineStr">
+      <c r="C14" s="160" t="n">
+        <v>11</v>
+      </c>
+      <c r="D14" s="110" t="inlineStr">
         <is>
           <t>Nico Robin</t>
         </is>
       </c>
-      <c r="E13" s="155" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="155" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="157" t="n">
-        <v>6</v>
-      </c>
-      <c r="J13" s="107" t="n">
+      <c r="E14" s="162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="161" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" s="115" t="n">
         <v>12612</v>
       </c>
-      <c r="K13" s="157" t="n">
-        <v>6</v>
-      </c>
-      <c r="L13" s="107" t="n">
+      <c r="K14" s="161" t="n">
+        <v>6</v>
+      </c>
+      <c r="L14" s="115" t="n">
         <v>11338</v>
       </c>
-      <c r="M13" s="157" t="n">
-        <v>6</v>
-      </c>
-      <c r="N13" s="107" t="n">
+      <c r="M14" s="161" t="n">
+        <v>6</v>
+      </c>
+      <c r="N14" s="115" t="n">
         <v>10997</v>
       </c>
-      <c r="O13" s="157" t="n">
-        <v>6</v>
-      </c>
-      <c r="P13" s="107" t="n">
+      <c r="O14" s="161" t="n">
+        <v>6</v>
+      </c>
+      <c r="P14" s="115" t="n">
         <v>11087</v>
       </c>
-      <c r="Q13" s="157" t="n">
-        <v>6</v>
-      </c>
-      <c r="R13" s="107" t="n">
+      <c r="Q14" s="161" t="n">
+        <v>6</v>
+      </c>
+      <c r="R14" s="115" t="n">
         <v>8089</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="151" t="inlineStr">
-        <is>
-          <t>#QCV22VP0G</t>
-        </is>
-      </c>
-      <c r="B14" s="151" t="n">
-        <v>808</v>
-      </c>
-      <c r="C14" s="137" t="n">
-        <v>11</v>
-      </c>
-      <c r="D14" s="110" t="inlineStr">
-        <is>
-          <t>Nami</t>
-        </is>
-      </c>
-      <c r="E14" s="152" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="152" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="153" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" s="115" t="n">
-        <v>11795</v>
-      </c>
-      <c r="K14" s="153" t="n">
-        <v>6</v>
-      </c>
-      <c r="L14" s="115" t="n">
-        <v>10769</v>
-      </c>
-      <c r="M14" s="153" t="n">
-        <v>6</v>
-      </c>
-      <c r="N14" s="115" t="n">
-        <v>12486</v>
-      </c>
-      <c r="O14" s="153" t="n">
-        <v>6</v>
-      </c>
-      <c r="P14" s="115" t="n">
-        <v>8472</v>
-      </c>
-      <c r="Q14" s="153" t="n">
-        <v>6</v>
-      </c>
-      <c r="R14" s="115" t="n">
-        <v>9096</v>
-      </c>
-    </row>
     <row r="15">
-      <c r="A15" s="154" t="inlineStr">
+      <c r="A15" s="171" t="inlineStr">
         <is>
           <t>#YRGRRJQCY</t>
         </is>
       </c>
-      <c r="B15" s="154" t="n">
+      <c r="B15" s="171" t="n">
         <v>1366</v>
       </c>
-      <c r="C15" s="141" t="n">
+      <c r="C15" s="164" t="n">
         <v>12</v>
       </c>
       <c r="D15" s="103" t="inlineStr">
@@ -1726,43 +1748,43 @@
           <t>DoubleSpice</t>
         </is>
       </c>
-      <c r="E15" s="155" t="n">
+      <c r="E15" s="172" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="103" t="n">
         <v>0</v>
       </c>
-      <c r="G15" s="155" t="n">
+      <c r="G15" s="172" t="n">
         <v>0</v>
       </c>
       <c r="H15" s="105" t="n">
         <v>60</v>
       </c>
-      <c r="I15" s="157" t="n">
+      <c r="I15" s="173" t="n">
         <v>6</v>
       </c>
       <c r="J15" s="107" t="n">
         <v>11620</v>
       </c>
-      <c r="K15" s="157" t="n">
+      <c r="K15" s="173" t="n">
         <v>6</v>
       </c>
       <c r="L15" s="107" t="n">
         <v>14095</v>
       </c>
-      <c r="M15" s="157" t="n">
+      <c r="M15" s="173" t="n">
         <v>6</v>
       </c>
       <c r="N15" s="107" t="n">
         <v>12379</v>
       </c>
-      <c r="O15" s="157" t="n">
+      <c r="O15" s="173" t="n">
         <v>6</v>
       </c>
       <c r="P15" s="107" t="n">
         <v>8256</v>
       </c>
-      <c r="Q15" s="157" t="n">
+      <c r="Q15" s="173" t="n">
         <v>6</v>
       </c>
       <c r="R15" s="107" t="n">
@@ -1770,15 +1792,15 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="151" t="inlineStr">
+      <c r="A16" s="159" t="inlineStr">
         <is>
           <t>#QUG8QQJ92</t>
         </is>
       </c>
-      <c r="B16" s="151" t="n">
+      <c r="B16" s="159" t="n">
         <v>891</v>
       </c>
-      <c r="C16" s="137" t="n">
+      <c r="C16" s="160" t="n">
         <v>13</v>
       </c>
       <c r="D16" s="110" t="inlineStr">
@@ -1786,43 +1808,43 @@
           <t>Karma</t>
         </is>
       </c>
-      <c r="E16" s="152" t="n">
+      <c r="E16" s="162" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="110" t="n">
         <v>0</v>
       </c>
-      <c r="G16" s="152" t="n">
+      <c r="G16" s="162" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="153" t="n">
+      <c r="I16" s="161" t="n">
         <v>6</v>
       </c>
       <c r="J16" s="115" t="n">
         <v>11355</v>
       </c>
-      <c r="K16" s="153" t="n">
+      <c r="K16" s="161" t="n">
         <v>6</v>
       </c>
       <c r="L16" s="115" t="n">
         <v>10003</v>
       </c>
-      <c r="M16" s="153" t="n">
+      <c r="M16" s="161" t="n">
         <v>6</v>
       </c>
       <c r="N16" s="115" t="n">
         <v>10595</v>
       </c>
-      <c r="O16" s="153" t="n">
+      <c r="O16" s="161" t="n">
         <v>6</v>
       </c>
       <c r="P16" s="115" t="n">
         <v>9240</v>
       </c>
-      <c r="Q16" s="153" t="n">
+      <c r="Q16" s="161" t="n">
         <v>6</v>
       </c>
       <c r="R16" s="115" t="n">
@@ -1830,15 +1852,15 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="140" t="inlineStr">
+      <c r="A17" s="163" t="inlineStr">
         <is>
           <t>#98JG2UJQL</t>
         </is>
       </c>
-      <c r="B17" s="140" t="n">
+      <c r="B17" s="163" t="n">
         <v>2922</v>
       </c>
-      <c r="C17" s="141" t="n">
+      <c r="C17" s="164" t="n">
         <v>14</v>
       </c>
       <c r="D17" s="124" t="inlineStr">
@@ -1846,43 +1868,43 @@
           <t>Dragonux</t>
         </is>
       </c>
-      <c r="E17" s="143" t="n">
+      <c r="E17" s="166" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="G17" s="158" t="n">
+      <c r="G17" s="170" t="n">
         <v>211</v>
       </c>
       <c r="H17" s="126" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="142" t="n">
+      <c r="I17" s="165" t="n">
         <v>6</v>
       </c>
       <c r="J17" s="128" t="n">
         <v>10910</v>
       </c>
-      <c r="K17" s="142" t="n">
+      <c r="K17" s="165" t="n">
         <v>6</v>
       </c>
       <c r="L17" s="128" t="n">
         <v>8750</v>
       </c>
-      <c r="M17" s="142" t="n">
+      <c r="M17" s="165" t="n">
         <v>6</v>
       </c>
       <c r="N17" s="128" t="n">
         <v>10865</v>
       </c>
-      <c r="O17" s="142" t="n">
+      <c r="O17" s="165" t="n">
         <v>6</v>
       </c>
       <c r="P17" s="128" t="n">
         <v>8025</v>
       </c>
-      <c r="Q17" s="142" t="n">
+      <c r="Q17" s="165" t="n">
         <v>6</v>
       </c>
       <c r="R17" s="128" t="n">
@@ -1890,15 +1912,15 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="151" t="inlineStr">
+      <c r="A18" s="159" t="inlineStr">
         <is>
           <t>#QLR088LC9</t>
         </is>
       </c>
-      <c r="B18" s="151" t="n">
+      <c r="B18" s="159" t="n">
         <v>883</v>
       </c>
-      <c r="C18" s="137" t="n">
+      <c r="C18" s="160" t="n">
         <v>15</v>
       </c>
       <c r="D18" s="110" t="inlineStr">
@@ -1906,43 +1928,43 @@
           <t>Sanji</t>
         </is>
       </c>
-      <c r="E18" s="152" t="n">
+      <c r="E18" s="162" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="110" t="n">
         <v>0</v>
       </c>
-      <c r="G18" s="152" t="n">
+      <c r="G18" s="162" t="n">
         <v>6</v>
       </c>
       <c r="H18" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="153" t="n">
+      <c r="I18" s="161" t="n">
         <v>6</v>
       </c>
       <c r="J18" s="115" t="n">
         <v>10910</v>
       </c>
-      <c r="K18" s="153" t="n">
+      <c r="K18" s="161" t="n">
         <v>6</v>
       </c>
       <c r="L18" s="115" t="n">
         <v>9550</v>
       </c>
-      <c r="M18" s="153" t="n">
+      <c r="M18" s="161" t="n">
         <v>6</v>
       </c>
       <c r="N18" s="115" t="n">
         <v>9138</v>
       </c>
-      <c r="O18" s="153" t="n">
+      <c r="O18" s="161" t="n">
         <v>6</v>
       </c>
       <c r="P18" s="115" t="n">
         <v>8897</v>
       </c>
-      <c r="Q18" s="153" t="n">
+      <c r="Q18" s="161" t="n">
         <v>6</v>
       </c>
       <c r="R18" s="115" t="n">
@@ -1950,15 +1972,15 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="154" t="inlineStr">
+      <c r="A19" s="171" t="inlineStr">
         <is>
           <t>#QUYG0PQC8</t>
         </is>
       </c>
-      <c r="B19" s="154" t="n">
+      <c r="B19" s="171" t="n">
         <v>852</v>
       </c>
-      <c r="C19" s="141" t="n">
+      <c r="C19" s="164" t="n">
         <v>16</v>
       </c>
       <c r="D19" s="103" t="inlineStr">
@@ -1966,43 +1988,43 @@
           <t>Luffy</t>
         </is>
       </c>
-      <c r="E19" s="155" t="n">
+      <c r="E19" s="172" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="103" t="n">
         <v>0</v>
       </c>
-      <c r="G19" s="155" t="n">
+      <c r="G19" s="172" t="n">
         <v>0</v>
       </c>
       <c r="H19" s="105" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="157" t="n">
+      <c r="I19" s="173" t="n">
         <v>6</v>
       </c>
       <c r="J19" s="107" t="n">
         <v>10879</v>
       </c>
-      <c r="K19" s="157" t="n">
+      <c r="K19" s="173" t="n">
         <v>6</v>
       </c>
       <c r="L19" s="107" t="n">
         <v>9114</v>
       </c>
-      <c r="M19" s="157" t="n">
+      <c r="M19" s="173" t="n">
         <v>6</v>
       </c>
       <c r="N19" s="107" t="n">
         <v>13385</v>
       </c>
-      <c r="O19" s="157" t="n">
+      <c r="O19" s="173" t="n">
         <v>6</v>
       </c>
       <c r="P19" s="107" t="n">
         <v>7877</v>
       </c>
-      <c r="Q19" s="157" t="n">
+      <c r="Q19" s="173" t="n">
         <v>6</v>
       </c>
       <c r="R19" s="107" t="n">
@@ -2010,15 +2032,15 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="136" t="inlineStr">
+      <c r="A20" s="167" t="inlineStr">
         <is>
           <t>#82QLQCJRJ</t>
         </is>
       </c>
-      <c r="B20" s="136" t="n">
+      <c r="B20" s="167" t="n">
         <v>2903</v>
       </c>
-      <c r="C20" s="137" t="n">
+      <c r="C20" s="160" t="n">
         <v>17</v>
       </c>
       <c r="D20" s="117" t="inlineStr">
@@ -2026,43 +2048,43 @@
           <t>Raging Fury</t>
         </is>
       </c>
-      <c r="E20" s="139" t="n">
+      <c r="E20" s="169" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="G20" s="139" t="n">
+      <c r="G20" s="169" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="120" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="138" t="n">
+      <c r="I20" s="168" t="n">
         <v>6</v>
       </c>
       <c r="J20" s="122" t="n">
         <v>8055</v>
       </c>
-      <c r="K20" s="138" t="n">
+      <c r="K20" s="168" t="n">
         <v>6</v>
       </c>
       <c r="L20" s="122" t="n">
         <v>7115</v>
       </c>
-      <c r="M20" s="139" t="n">
+      <c r="M20" s="169" t="n">
         <v>2</v>
       </c>
       <c r="N20" s="117" t="n">
         <v>2320</v>
       </c>
-      <c r="O20" s="138" t="n">
+      <c r="O20" s="168" t="n">
         <v>6</v>
       </c>
       <c r="P20" s="130" t="n">
         <v>4920</v>
       </c>
-      <c r="Q20" s="138" t="n">
+      <c r="Q20" s="168" t="n">
         <v>6</v>
       </c>
       <c r="R20" s="130" t="n">
@@ -2070,15 +2092,15 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="154" t="inlineStr">
+      <c r="A21" s="171" t="inlineStr">
         <is>
           <t>#Q8CLCUCC2</t>
         </is>
       </c>
-      <c r="B21" s="154" t="n">
+      <c r="B21" s="171" t="n">
         <v>1373</v>
       </c>
-      <c r="C21" s="141" t="n">
+      <c r="C21" s="164" t="n">
         <v>18</v>
       </c>
       <c r="D21" s="103" t="inlineStr">
@@ -2086,43 +2108,43 @@
           <t>Moxxi</t>
         </is>
       </c>
-      <c r="E21" s="155" t="n">
+      <c r="E21" s="172" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="103" t="n">
         <v>0</v>
       </c>
-      <c r="G21" s="155" t="n">
+      <c r="G21" s="172" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="105" t="n">
         <v>60</v>
       </c>
-      <c r="I21" s="157" t="n">
+      <c r="I21" s="173" t="n">
         <v>6</v>
       </c>
       <c r="J21" s="107" t="n">
         <v>8015</v>
       </c>
-      <c r="K21" s="157" t="n">
+      <c r="K21" s="173" t="n">
         <v>6</v>
       </c>
       <c r="L21" s="107" t="n">
         <v>11010</v>
       </c>
-      <c r="M21" s="157" t="n">
+      <c r="M21" s="173" t="n">
         <v>6</v>
       </c>
       <c r="N21" s="107" t="n">
         <v>13857</v>
       </c>
-      <c r="O21" s="157" t="n">
+      <c r="O21" s="173" t="n">
         <v>6</v>
       </c>
       <c r="P21" s="107" t="n">
         <v>7905</v>
       </c>
-      <c r="Q21" s="157" t="n">
+      <c r="Q21" s="173" t="n">
         <v>6</v>
       </c>
       <c r="R21" s="107" t="n">
@@ -2130,15 +2152,15 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="136" t="inlineStr">
+      <c r="A22" s="167" t="inlineStr">
         <is>
           <t>#QRPRYR8LL</t>
         </is>
       </c>
-      <c r="B22" s="136" t="n">
+      <c r="B22" s="167" t="n">
         <v>1183</v>
       </c>
-      <c r="C22" s="137" t="n">
+      <c r="C22" s="160" t="n">
         <v>19</v>
       </c>
       <c r="D22" s="117" t="inlineStr">
@@ -2146,43 +2168,43 @@
           <t>FidelCashflow</t>
         </is>
       </c>
-      <c r="E22" s="139" t="n">
+      <c r="E22" s="169" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="G22" s="139" t="n">
+      <c r="G22" s="169" t="n">
         <v>4</v>
       </c>
       <c r="H22" s="120" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="138" t="n">
+      <c r="I22" s="168" t="n">
         <v>6</v>
       </c>
       <c r="J22" s="122" t="n">
         <v>6415</v>
       </c>
-      <c r="K22" s="138" t="n">
+      <c r="K22" s="168" t="n">
         <v>6</v>
       </c>
       <c r="L22" s="122" t="n">
         <v>6547</v>
       </c>
-      <c r="M22" s="138" t="n">
+      <c r="M22" s="168" t="n">
         <v>6</v>
       </c>
       <c r="N22" s="122" t="n">
         <v>6811</v>
       </c>
-      <c r="O22" s="138" t="n">
+      <c r="O22" s="168" t="n">
         <v>6</v>
       </c>
       <c r="P22" s="130" t="n">
         <v>4239</v>
       </c>
-      <c r="Q22" s="138" t="n">
+      <c r="Q22" s="168" t="n">
         <v>6</v>
       </c>
       <c r="R22" s="130" t="n">
@@ -2190,15 +2212,15 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="140" t="inlineStr">
+      <c r="A23" s="163" t="inlineStr">
         <is>
           <t>#QY0VGPQGQ</t>
         </is>
       </c>
-      <c r="B23" s="140" t="n">
+      <c r="B23" s="163" t="n">
         <v>533</v>
       </c>
-      <c r="C23" s="141" t="n">
+      <c r="C23" s="164" t="n">
         <v>20</v>
       </c>
       <c r="D23" s="124" t="inlineStr">
@@ -2206,43 +2228,43 @@
           <t>killerjones</t>
         </is>
       </c>
-      <c r="E23" s="143" t="n">
+      <c r="E23" s="166" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="G23" s="143" t="n">
+      <c r="G23" s="166" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="126" t="n">
         <v>15</v>
       </c>
-      <c r="I23" s="142" t="n">
+      <c r="I23" s="165" t="n">
         <v>6</v>
       </c>
       <c r="J23" s="128" t="n">
         <v>6320</v>
       </c>
-      <c r="K23" s="140" t="n"/>
+      <c r="K23" s="163" t="n"/>
       <c r="L23" s="126" t="n"/>
-      <c r="M23" s="140" t="n"/>
+      <c r="M23" s="163" t="n"/>
       <c r="N23" s="126" t="n"/>
-      <c r="O23" s="140" t="n"/>
+      <c r="O23" s="163" t="n"/>
       <c r="P23" s="126" t="n"/>
-      <c r="Q23" s="140" t="n"/>
+      <c r="Q23" s="163" t="n"/>
       <c r="R23" s="126" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="136" t="inlineStr">
+      <c r="A24" s="167" t="inlineStr">
         <is>
           <t>#QLG0VJG2J</t>
         </is>
       </c>
-      <c r="B24" s="136" t="n">
+      <c r="B24" s="167" t="n">
         <v>1167</v>
       </c>
-      <c r="C24" s="137" t="n">
+      <c r="C24" s="160" t="n">
         <v>21</v>
       </c>
       <c r="D24" s="117" t="inlineStr">
@@ -2250,47 +2272,47 @@
           <t>PocketRocket</t>
         </is>
       </c>
-      <c r="E24" s="139" t="n">
+      <c r="E24" s="169" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="G24" s="139" t="n">
+      <c r="G24" s="169" t="n">
         <v>20</v>
       </c>
       <c r="H24" s="120" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="144" t="n">
+      <c r="I24" s="175" t="n">
         <v>4</v>
       </c>
       <c r="J24" s="130" t="n">
         <v>4327</v>
       </c>
-      <c r="K24" s="144" t="n">
+      <c r="K24" s="175" t="n">
         <v>4</v>
       </c>
       <c r="L24" s="130" t="n">
         <v>5215</v>
       </c>
-      <c r="M24" s="136" t="n"/>
+      <c r="M24" s="167" t="n"/>
       <c r="N24" s="120" t="n"/>
-      <c r="O24" s="136" t="n"/>
+      <c r="O24" s="167" t="n"/>
       <c r="P24" s="120" t="n"/>
-      <c r="Q24" s="136" t="n"/>
+      <c r="Q24" s="167" t="n"/>
       <c r="R24" s="120" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="140" t="inlineStr">
+      <c r="A25" s="163" t="inlineStr">
         <is>
           <t>#QL8LVLYG8</t>
         </is>
       </c>
-      <c r="B25" s="140" t="n">
+      <c r="B25" s="163" t="n">
         <v>930</v>
       </c>
-      <c r="C25" s="141" t="n">
+      <c r="C25" s="164" t="n">
         <v>22</v>
       </c>
       <c r="D25" s="124" t="inlineStr">
@@ -2298,43 +2320,43 @@
           <t>Some guy</t>
         </is>
       </c>
-      <c r="E25" s="143" t="n">
+      <c r="E25" s="166" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="G25" s="143" t="n">
+      <c r="G25" s="166" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="126" t="n">
         <v>20</v>
       </c>
-      <c r="I25" s="143" t="n">
+      <c r="I25" s="166" t="n">
         <v>2</v>
       </c>
       <c r="J25" s="124" t="n">
         <v>2650</v>
       </c>
-      <c r="K25" s="143" t="n">
+      <c r="K25" s="166" t="n">
         <v>0</v>
       </c>
       <c r="L25" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="M25" s="142" t="n">
+      <c r="M25" s="165" t="n">
         <v>6</v>
       </c>
       <c r="N25" s="128" t="n">
         <v>6917</v>
       </c>
-      <c r="O25" s="143" t="n">
+      <c r="O25" s="166" t="n">
         <v>0</v>
       </c>
       <c r="P25" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="Q25" s="143" t="n">
+      <c r="Q25" s="166" t="n">
         <v>2</v>
       </c>
       <c r="R25" s="124" t="n">
@@ -2342,15 +2364,15 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="136" t="inlineStr">
+      <c r="A26" s="167" t="inlineStr">
         <is>
           <t>#QJC8LQU9U</t>
         </is>
       </c>
-      <c r="B26" s="136" t="n">
+      <c r="B26" s="167" t="n">
         <v>998</v>
       </c>
-      <c r="C26" s="137" t="n">
+      <c r="C26" s="160" t="n">
         <v>23</v>
       </c>
       <c r="D26" s="117" t="inlineStr">
@@ -2358,43 +2380,43 @@
           <t>Master01</t>
         </is>
       </c>
-      <c r="E26" s="139" t="n">
+      <c r="E26" s="169" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="139" t="n">
+      <c r="G26" s="169" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="120" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="139" t="n">
+      <c r="I26" s="169" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="K26" s="139" t="n">
+      <c r="K26" s="169" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="M26" s="138" t="n">
+      <c r="M26" s="168" t="n">
         <v>6</v>
       </c>
       <c r="N26" s="130" t="n">
         <v>5415</v>
       </c>
-      <c r="O26" s="138" t="n">
+      <c r="O26" s="168" t="n">
         <v>6</v>
       </c>
       <c r="P26" s="130" t="n">
         <v>4835</v>
       </c>
-      <c r="Q26" s="138" t="n">
+      <c r="Q26" s="168" t="n">
         <v>5</v>
       </c>
       <c r="R26" s="130" t="n">
@@ -2402,15 +2424,15 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="140" t="inlineStr">
+      <c r="A27" s="163" t="inlineStr">
         <is>
           <t>#QV8JJ0URU</t>
         </is>
       </c>
-      <c r="B27" s="140" t="n">
+      <c r="B27" s="163" t="n">
         <v>741</v>
       </c>
-      <c r="C27" s="141" t="n">
+      <c r="C27" s="164" t="n">
         <v>24</v>
       </c>
       <c r="D27" s="124" t="inlineStr">
@@ -2418,43 +2440,43 @@
           <t>✨Jacob</t>
         </is>
       </c>
-      <c r="E27" s="143" t="n">
+      <c r="E27" s="166" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="G27" s="143" t="n">
+      <c r="G27" s="166" t="n">
         <v>0</v>
       </c>
       <c r="H27" s="126" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="143" t="n">
+      <c r="I27" s="166" t="n">
         <v>0</v>
       </c>
       <c r="J27" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="K27" s="143" t="n">
+      <c r="K27" s="166" t="n">
         <v>0</v>
       </c>
       <c r="L27" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="M27" s="143" t="n">
+      <c r="M27" s="166" t="n">
         <v>0</v>
       </c>
       <c r="N27" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="O27" s="142" t="n">
+      <c r="O27" s="165" t="n">
         <v>6</v>
       </c>
       <c r="P27" s="128" t="n">
         <v>7385</v>
       </c>
-      <c r="Q27" s="142" t="n">
+      <c r="Q27" s="165" t="n">
         <v>6</v>
       </c>
       <c r="R27" s="128" t="n">
@@ -2462,15 +2484,15 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="136" t="inlineStr">
+      <c r="A28" s="167" t="inlineStr">
         <is>
           <t>#QY8L2GLUR</t>
         </is>
       </c>
-      <c r="B28" s="136" t="n">
+      <c r="B28" s="167" t="n">
         <v>907</v>
       </c>
-      <c r="C28" s="137" t="n">
+      <c r="C28" s="160" t="n">
         <v>25</v>
       </c>
       <c r="D28" s="117" t="inlineStr">
@@ -2478,43 +2500,43 @@
           <t>Huy</t>
         </is>
       </c>
-      <c r="E28" s="139" t="n">
+      <c r="E28" s="169" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="G28" s="139" t="n">
+      <c r="G28" s="169" t="n">
         <v>0</v>
       </c>
       <c r="H28" s="120" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="139" t="n">
+      <c r="I28" s="169" t="n">
         <v>0</v>
       </c>
       <c r="J28" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="K28" s="139" t="n">
+      <c r="K28" s="169" t="n">
         <v>0</v>
       </c>
       <c r="L28" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="M28" s="139" t="n">
+      <c r="M28" s="169" t="n">
         <v>0</v>
       </c>
       <c r="N28" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="O28" s="138" t="n">
+      <c r="O28" s="168" t="n">
         <v>6</v>
       </c>
       <c r="P28" s="122" t="n">
         <v>6995</v>
       </c>
-      <c r="Q28" s="138" t="n">
+      <c r="Q28" s="168" t="n">
         <v>6</v>
       </c>
       <c r="R28" s="122" t="n">
@@ -2522,15 +2544,15 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="140" t="inlineStr">
+      <c r="A29" s="163" t="inlineStr">
         <is>
           <t>#L2QQL9QVJ</t>
         </is>
       </c>
-      <c r="B29" s="140" t="n">
+      <c r="B29" s="163" t="n">
         <v>1450</v>
       </c>
-      <c r="C29" s="141" t="n">
+      <c r="C29" s="164" t="n">
         <v>26</v>
       </c>
       <c r="D29" s="124" t="inlineStr">
@@ -2538,43 +2560,43 @@
           <t>JustPre10d</t>
         </is>
       </c>
-      <c r="E29" s="143" t="n">
+      <c r="E29" s="166" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="G29" s="143" t="n">
+      <c r="G29" s="166" t="n">
         <v>0</v>
       </c>
       <c r="H29" s="126" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="143" t="n">
+      <c r="I29" s="166" t="n">
         <v>0</v>
       </c>
       <c r="J29" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="K29" s="143" t="n">
+      <c r="K29" s="166" t="n">
         <v>0</v>
       </c>
       <c r="L29" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="M29" s="143" t="n">
+      <c r="M29" s="166" t="n">
         <v>0</v>
       </c>
       <c r="N29" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="O29" s="142" t="n">
+      <c r="O29" s="165" t="n">
         <v>6</v>
       </c>
       <c r="P29" s="128" t="n">
         <v>6655</v>
       </c>
-      <c r="Q29" s="142" t="n">
+      <c r="Q29" s="165" t="n">
         <v>6</v>
       </c>
       <c r="R29" s="128" t="n">
@@ -2582,15 +2604,15 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="136" t="inlineStr">
+      <c r="A30" s="167" t="inlineStr">
         <is>
           <t>#LPR9RPCY9</t>
         </is>
       </c>
-      <c r="B30" s="136" t="n">
+      <c r="B30" s="167" t="n">
         <v>990</v>
       </c>
-      <c r="C30" s="137" t="n">
+      <c r="C30" s="160" t="n">
         <v>27</v>
       </c>
       <c r="D30" s="117" t="inlineStr">
@@ -2598,55 +2620,55 @@
           <t>sayhuss17</t>
         </is>
       </c>
-      <c r="E30" s="139" t="n">
+      <c r="E30" s="169" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="G30" s="139" t="n">
+      <c r="G30" s="169" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="120" t="n">
         <v>0</v>
       </c>
-      <c r="I30" s="139" t="n">
+      <c r="I30" s="169" t="n">
         <v>0</v>
       </c>
       <c r="J30" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="K30" s="139" t="n">
+      <c r="K30" s="169" t="n">
         <v>0</v>
       </c>
       <c r="L30" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="M30" s="139" t="n">
+      <c r="M30" s="169" t="n">
         <v>0</v>
       </c>
       <c r="N30" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="O30" s="144" t="n">
+      <c r="O30" s="175" t="n">
         <v>4</v>
       </c>
       <c r="P30" s="130" t="n">
         <v>4240</v>
       </c>
-      <c r="Q30" s="136" t="n"/>
+      <c r="Q30" s="167" t="n"/>
       <c r="R30" s="120" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="140" t="inlineStr">
+      <c r="A31" s="163" t="inlineStr">
         <is>
           <t>#QQL8C29CY</t>
         </is>
       </c>
-      <c r="B31" s="140" t="n">
+      <c r="B31" s="163" t="n">
         <v>864</v>
       </c>
-      <c r="C31" s="141" t="n">
+      <c r="C31" s="164" t="n">
         <v>28</v>
       </c>
       <c r="D31" s="124" t="inlineStr">
@@ -2654,43 +2676,43 @@
           <t>TypicalTeague#2</t>
         </is>
       </c>
-      <c r="E31" s="143" t="n">
+      <c r="E31" s="166" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="G31" s="143" t="n">
+      <c r="G31" s="166" t="n">
         <v>0</v>
       </c>
       <c r="H31" s="126" t="n">
         <v>0</v>
       </c>
-      <c r="I31" s="143" t="n">
+      <c r="I31" s="166" t="n">
         <v>0</v>
       </c>
       <c r="J31" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="K31" s="143" t="n">
+      <c r="K31" s="166" t="n">
         <v>0</v>
       </c>
       <c r="L31" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="M31" s="143" t="n">
+      <c r="M31" s="166" t="n">
         <v>0</v>
       </c>
       <c r="N31" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="O31" s="142" t="n">
+      <c r="O31" s="165" t="n">
         <v>5</v>
       </c>
       <c r="P31" s="129" t="n">
         <v>4070</v>
       </c>
-      <c r="Q31" s="142" t="n">
+      <c r="Q31" s="165" t="n">
         <v>6</v>
       </c>
       <c r="R31" s="128" t="n">
@@ -2698,15 +2720,15 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="136" t="inlineStr">
+      <c r="A32" s="167" t="inlineStr">
         <is>
           <t>#L9QL9YQQY</t>
         </is>
       </c>
-      <c r="B32" s="136" t="n">
+      <c r="B32" s="167" t="n">
         <v>975</v>
       </c>
-      <c r="C32" s="137" t="n">
+      <c r="C32" s="160" t="n">
         <v>29</v>
       </c>
       <c r="D32" s="117" t="inlineStr">
@@ -2714,43 +2736,43 @@
           <t>Ima Chad</t>
         </is>
       </c>
-      <c r="E32" s="139" t="n">
+      <c r="E32" s="169" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="G32" s="139" t="n">
+      <c r="G32" s="169" t="n">
         <v>0</v>
       </c>
       <c r="H32" s="120" t="n">
         <v>0</v>
       </c>
-      <c r="I32" s="139" t="n">
+      <c r="I32" s="169" t="n">
         <v>0</v>
       </c>
       <c r="J32" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="K32" s="139" t="n">
+      <c r="K32" s="169" t="n">
         <v>0</v>
       </c>
       <c r="L32" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="M32" s="139" t="n">
+      <c r="M32" s="169" t="n">
         <v>0</v>
       </c>
       <c r="N32" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="O32" s="139" t="n">
+      <c r="O32" s="169" t="n">
         <v>0</v>
       </c>
       <c r="P32" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="Q32" s="138" t="n">
+      <c r="Q32" s="168" t="n">
         <v>5</v>
       </c>
       <c r="R32" s="117" t="n">
@@ -2758,15 +2780,15 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="140" t="inlineStr">
+      <c r="A33" s="163" t="inlineStr">
         <is>
           <t>#PJYVV989R</t>
         </is>
       </c>
-      <c r="B33" s="140" t="n">
+      <c r="B33" s="163" t="n">
         <v>1531</v>
       </c>
-      <c r="C33" s="141" t="n">
+      <c r="C33" s="164" t="n">
         <v>30</v>
       </c>
       <c r="D33" s="124" t="inlineStr">
@@ -2774,55 +2796,55 @@
           <t>nx</t>
         </is>
       </c>
-      <c r="E33" s="143" t="n">
+      <c r="E33" s="166" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="G33" s="143" t="n">
+      <c r="G33" s="166" t="n">
         <v>32</v>
       </c>
       <c r="H33" s="126" t="n">
         <v>0</v>
       </c>
-      <c r="I33" s="143" t="n">
+      <c r="I33" s="166" t="n">
         <v>0</v>
       </c>
       <c r="J33" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="K33" s="143" t="n">
+      <c r="K33" s="166" t="n">
         <v>0</v>
       </c>
       <c r="L33" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="M33" s="143" t="n">
+      <c r="M33" s="166" t="n">
         <v>0</v>
       </c>
       <c r="N33" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="O33" s="143" t="n">
+      <c r="O33" s="166" t="n">
         <v>0</v>
       </c>
       <c r="P33" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="Q33" s="140" t="n"/>
+      <c r="Q33" s="163" t="n"/>
       <c r="R33" s="126" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="136" t="inlineStr">
+      <c r="A34" s="167" t="inlineStr">
         <is>
           <t>#L9JJQY992</t>
         </is>
       </c>
-      <c r="B34" s="136" t="n">
+      <c r="B34" s="167" t="n">
         <v>773</v>
       </c>
-      <c r="C34" s="137" t="n">
+      <c r="C34" s="160" t="n">
         <v>31</v>
       </c>
       <c r="D34" s="117" t="inlineStr">
@@ -2830,55 +2852,55 @@
           <t>Fisted_Waffle</t>
         </is>
       </c>
-      <c r="E34" s="139" t="n">
+      <c r="E34" s="169" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="G34" s="139" t="n">
+      <c r="G34" s="169" t="n">
         <v>0</v>
       </c>
       <c r="H34" s="120" t="n">
         <v>0</v>
       </c>
-      <c r="I34" s="139" t="n">
+      <c r="I34" s="169" t="n">
         <v>0</v>
       </c>
       <c r="J34" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="K34" s="139" t="n">
+      <c r="K34" s="169" t="n">
         <v>0</v>
       </c>
       <c r="L34" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="M34" s="139" t="n">
+      <c r="M34" s="169" t="n">
         <v>0</v>
       </c>
       <c r="N34" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="O34" s="139" t="n">
+      <c r="O34" s="169" t="n">
         <v>0</v>
       </c>
       <c r="P34" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="Q34" s="136" t="n"/>
+      <c r="Q34" s="167" t="n"/>
       <c r="R34" s="120" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="140" t="inlineStr">
+      <c r="A35" s="163" t="inlineStr">
         <is>
           <t>#QLGYRVPU0</t>
         </is>
       </c>
-      <c r="B35" s="140" t="n">
+      <c r="B35" s="163" t="n">
         <v>871</v>
       </c>
-      <c r="C35" s="141" t="n">
+      <c r="C35" s="164" t="n">
         <v>32</v>
       </c>
       <c r="D35" s="124" t="inlineStr">
@@ -2886,43 +2908,43 @@
           <t>Black.Boy.</t>
         </is>
       </c>
-      <c r="E35" s="143" t="n">
+      <c r="E35" s="166" t="n">
         <v>0</v>
       </c>
       <c r="F35" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="G35" s="143" t="n">
+      <c r="G35" s="166" t="n">
         <v>0</v>
       </c>
       <c r="H35" s="126" t="n">
         <v>86</v>
       </c>
-      <c r="I35" s="143" t="n">
+      <c r="I35" s="166" t="n">
         <v>0</v>
       </c>
       <c r="J35" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="K35" s="140" t="n"/>
+      <c r="K35" s="163" t="n"/>
       <c r="L35" s="126" t="n"/>
-      <c r="M35" s="140" t="n"/>
+      <c r="M35" s="163" t="n"/>
       <c r="N35" s="126" t="n"/>
-      <c r="O35" s="140" t="n"/>
+      <c r="O35" s="163" t="n"/>
       <c r="P35" s="126" t="n"/>
-      <c r="Q35" s="140" t="n"/>
+      <c r="Q35" s="163" t="n"/>
       <c r="R35" s="126" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="136" t="inlineStr">
+      <c r="A36" s="167" t="inlineStr">
         <is>
           <t>#QUGYGY88C</t>
         </is>
       </c>
-      <c r="B36" s="136" t="n">
+      <c r="B36" s="167" t="n">
         <v>941</v>
       </c>
-      <c r="C36" s="137" t="n">
+      <c r="C36" s="160" t="n">
         <v>33</v>
       </c>
       <c r="D36" s="117" t="inlineStr">
@@ -2930,43 +2952,43 @@
           <t>Kingsman</t>
         </is>
       </c>
-      <c r="E36" s="139" t="n">
+      <c r="E36" s="169" t="n">
         <v>0</v>
       </c>
       <c r="F36" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="G36" s="139" t="n">
+      <c r="G36" s="169" t="n">
         <v>0</v>
       </c>
       <c r="H36" s="120" t="n">
         <v>0</v>
       </c>
-      <c r="I36" s="139" t="n">
+      <c r="I36" s="169" t="n">
         <v>0</v>
       </c>
       <c r="J36" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="K36" s="136" t="n"/>
+      <c r="K36" s="167" t="n"/>
       <c r="L36" s="120" t="n"/>
-      <c r="M36" s="136" t="n"/>
+      <c r="M36" s="167" t="n"/>
       <c r="N36" s="120" t="n"/>
-      <c r="O36" s="136" t="n"/>
+      <c r="O36" s="167" t="n"/>
       <c r="P36" s="120" t="n"/>
-      <c r="Q36" s="136" t="n"/>
+      <c r="Q36" s="167" t="n"/>
       <c r="R36" s="120" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="140" t="inlineStr">
+      <c r="A37" s="163" t="inlineStr">
         <is>
           <t>#LPCLQUCCY</t>
         </is>
       </c>
-      <c r="B37" s="140" t="n">
+      <c r="B37" s="163" t="n">
         <v>1012</v>
       </c>
-      <c r="C37" s="141" t="n">
+      <c r="C37" s="164" t="n">
         <v>34</v>
       </c>
       <c r="D37" s="124" t="inlineStr">
@@ -2974,43 +2996,43 @@
           <t>Zodiac</t>
         </is>
       </c>
-      <c r="E37" s="143" t="n">
+      <c r="E37" s="166" t="n">
         <v>0</v>
       </c>
       <c r="F37" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="G37" s="143" t="n">
+      <c r="G37" s="166" t="n">
         <v>0</v>
       </c>
       <c r="H37" s="126" t="n">
         <v>0</v>
       </c>
-      <c r="I37" s="143" t="n">
+      <c r="I37" s="166" t="n">
         <v>0</v>
       </c>
       <c r="J37" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="K37" s="140" t="n"/>
+      <c r="K37" s="163" t="n"/>
       <c r="L37" s="126" t="n"/>
-      <c r="M37" s="140" t="n"/>
+      <c r="M37" s="163" t="n"/>
       <c r="N37" s="126" t="n"/>
-      <c r="O37" s="140" t="n"/>
+      <c r="O37" s="163" t="n"/>
       <c r="P37" s="126" t="n"/>
-      <c r="Q37" s="140" t="n"/>
+      <c r="Q37" s="163" t="n"/>
       <c r="R37" s="126" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="136" t="inlineStr">
+      <c r="A38" s="167" t="inlineStr">
         <is>
           <t>#QV8RY9UC8</t>
         </is>
       </c>
-      <c r="B38" s="136" t="n">
+      <c r="B38" s="167" t="n">
         <v>813</v>
       </c>
-      <c r="C38" s="137" t="n">
+      <c r="C38" s="160" t="n">
         <v>35</v>
       </c>
       <c r="D38" s="117" t="inlineStr">
@@ -3018,43 +3040,43 @@
           <t>Apollo</t>
         </is>
       </c>
-      <c r="E38" s="139" t="n">
+      <c r="E38" s="169" t="n">
         <v>0</v>
       </c>
       <c r="F38" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="G38" s="139" t="n">
+      <c r="G38" s="169" t="n">
         <v>0</v>
       </c>
       <c r="H38" s="120" t="n">
         <v>0</v>
       </c>
-      <c r="I38" s="139" t="n">
+      <c r="I38" s="169" t="n">
         <v>0</v>
       </c>
       <c r="J38" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="K38" s="136" t="n"/>
+      <c r="K38" s="167" t="n"/>
       <c r="L38" s="120" t="n"/>
-      <c r="M38" s="136" t="n"/>
+      <c r="M38" s="167" t="n"/>
       <c r="N38" s="120" t="n"/>
-      <c r="O38" s="136" t="n"/>
+      <c r="O38" s="167" t="n"/>
       <c r="P38" s="120" t="n"/>
-      <c r="Q38" s="136" t="n"/>
+      <c r="Q38" s="167" t="n"/>
       <c r="R38" s="120" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="140" t="inlineStr">
+      <c r="A39" s="163" t="inlineStr">
         <is>
           <t>#QQL28Y2UL</t>
         </is>
       </c>
-      <c r="B39" s="140" t="n">
+      <c r="B39" s="163" t="n">
         <v>1112</v>
       </c>
-      <c r="C39" s="141" t="n">
+      <c r="C39" s="164" t="n">
         <v>36</v>
       </c>
       <c r="D39" s="124" t="inlineStr">
@@ -3062,43 +3084,43 @@
           <t>SUPoT</t>
         </is>
       </c>
-      <c r="E39" s="143" t="n">
+      <c r="E39" s="166" t="n">
         <v>0</v>
       </c>
       <c r="F39" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="G39" s="143" t="n">
+      <c r="G39" s="166" t="n">
         <v>0</v>
       </c>
       <c r="H39" s="126" t="n">
         <v>56</v>
       </c>
-      <c r="I39" s="143" t="n">
+      <c r="I39" s="166" t="n">
         <v>0</v>
       </c>
       <c r="J39" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="K39" s="140" t="n"/>
+      <c r="K39" s="163" t="n"/>
       <c r="L39" s="126" t="n"/>
-      <c r="M39" s="140" t="n"/>
+      <c r="M39" s="163" t="n"/>
       <c r="N39" s="126" t="n"/>
-      <c r="O39" s="140" t="n"/>
+      <c r="O39" s="163" t="n"/>
       <c r="P39" s="126" t="n"/>
-      <c r="Q39" s="140" t="n"/>
+      <c r="Q39" s="163" t="n"/>
       <c r="R39" s="126" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="136" t="inlineStr">
+      <c r="A40" s="167" t="inlineStr">
         <is>
           <t>#QUVJGC0VQ</t>
         </is>
       </c>
-      <c r="B40" s="136" t="n">
+      <c r="B40" s="167" t="n">
         <v>1192</v>
       </c>
-      <c r="C40" s="137" t="n">
+      <c r="C40" s="160" t="n">
         <v>37</v>
       </c>
       <c r="D40" s="117" t="inlineStr">
@@ -3106,243 +3128,243 @@
           <t>Cam</t>
         </is>
       </c>
-      <c r="E40" s="139" t="n">
+      <c r="E40" s="169" t="n">
         <v>0</v>
       </c>
       <c r="F40" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="G40" s="139" t="n">
+      <c r="G40" s="169" t="n">
         <v>0</v>
       </c>
       <c r="H40" s="120" t="n">
         <v>73</v>
       </c>
-      <c r="I40" s="139" t="n">
+      <c r="I40" s="169" t="n">
         <v>0</v>
       </c>
       <c r="J40" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="K40" s="136" t="n"/>
+      <c r="K40" s="167" t="n"/>
       <c r="L40" s="120" t="n"/>
-      <c r="M40" s="136" t="n"/>
+      <c r="M40" s="167" t="n"/>
       <c r="N40" s="120" t="n"/>
-      <c r="O40" s="136" t="n"/>
+      <c r="O40" s="167" t="n"/>
       <c r="P40" s="120" t="n"/>
-      <c r="Q40" s="136" t="n"/>
+      <c r="Q40" s="167" t="n"/>
       <c r="R40" s="120" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="140" t="inlineStr">
+      <c r="A41" s="163" t="inlineStr">
+        <is>
+          <t>#QLUV29GGJ</t>
+        </is>
+      </c>
+      <c r="B41" s="163" t="n">
+        <v>992</v>
+      </c>
+      <c r="C41" s="164" t="n">
+        <v>38</v>
+      </c>
+      <c r="D41" s="124" t="inlineStr">
+        <is>
+          <t>Kukoshibo</t>
+        </is>
+      </c>
+      <c r="E41" s="166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="163" t="n"/>
+      <c r="J41" s="126" t="n"/>
+      <c r="K41" s="163" t="n"/>
+      <c r="L41" s="126" t="n"/>
+      <c r="M41" s="163" t="n"/>
+      <c r="N41" s="126" t="n"/>
+      <c r="O41" s="163" t="n"/>
+      <c r="P41" s="126" t="n"/>
+      <c r="Q41" s="163" t="n"/>
+      <c r="R41" s="126" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="167" t="inlineStr">
+        <is>
+          <t>#QUCCVCCJ0</t>
+        </is>
+      </c>
+      <c r="B42" s="167" t="n">
+        <v>756</v>
+      </c>
+      <c r="C42" s="160" t="n">
+        <v>39</v>
+      </c>
+      <c r="D42" s="117" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="E42" s="169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="167" t="n"/>
+      <c r="J42" s="120" t="n"/>
+      <c r="K42" s="167" t="n"/>
+      <c r="L42" s="120" t="n"/>
+      <c r="M42" s="167" t="n"/>
+      <c r="N42" s="120" t="n"/>
+      <c r="O42" s="167" t="n"/>
+      <c r="P42" s="120" t="n"/>
+      <c r="Q42" s="167" t="n"/>
+      <c r="R42" s="120" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="163" t="inlineStr">
+        <is>
+          <t>#Q0U0CRCGJ</t>
+        </is>
+      </c>
+      <c r="B43" s="163" t="n">
+        <v>741</v>
+      </c>
+      <c r="C43" s="164" t="n">
+        <v>40</v>
+      </c>
+      <c r="D43" s="124" t="inlineStr">
+        <is>
+          <t>Sn0wc0ne</t>
+        </is>
+      </c>
+      <c r="E43" s="166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="163" t="n"/>
+      <c r="J43" s="126" t="n"/>
+      <c r="K43" s="163" t="n"/>
+      <c r="L43" s="126" t="n"/>
+      <c r="M43" s="163" t="n"/>
+      <c r="N43" s="126" t="n"/>
+      <c r="O43" s="163" t="n"/>
+      <c r="P43" s="126" t="n"/>
+      <c r="Q43" s="163" t="n"/>
+      <c r="R43" s="126" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="167" t="inlineStr">
+        <is>
+          <t>#G0LJCVR2P</t>
+        </is>
+      </c>
+      <c r="B44" s="167" t="n">
+        <v>1036</v>
+      </c>
+      <c r="C44" s="160" t="n">
+        <v>41</v>
+      </c>
+      <c r="D44" s="117" t="inlineStr">
+        <is>
+          <t>DaddyChill</t>
+        </is>
+      </c>
+      <c r="E44" s="169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="167" t="n"/>
+      <c r="J44" s="120" t="n"/>
+      <c r="K44" s="167" t="n"/>
+      <c r="L44" s="120" t="n"/>
+      <c r="M44" s="167" t="n"/>
+      <c r="N44" s="120" t="n"/>
+      <c r="O44" s="167" t="n"/>
+      <c r="P44" s="120" t="n"/>
+      <c r="Q44" s="167" t="n"/>
+      <c r="R44" s="120" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="163" t="inlineStr">
         <is>
           <t>#LGCVY0L9P</t>
         </is>
       </c>
-      <c r="B41" s="140" t="n">
+      <c r="B45" s="163" t="n">
         <v>935</v>
       </c>
-      <c r="C41" s="141" t="n">
-        <v>38</v>
-      </c>
-      <c r="D41" s="124" t="inlineStr">
+      <c r="C45" s="164" t="n">
+        <v>42</v>
+      </c>
+      <c r="D45" s="124" t="inlineStr">
         <is>
           <t>Death1wolf</t>
         </is>
       </c>
-      <c r="E41" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="140" t="n"/>
-      <c r="J41" s="126" t="n"/>
-      <c r="K41" s="140" t="n"/>
-      <c r="L41" s="126" t="n"/>
-      <c r="M41" s="140" t="n"/>
-      <c r="N41" s="126" t="n"/>
-      <c r="O41" s="140" t="n"/>
-      <c r="P41" s="126" t="n"/>
-      <c r="Q41" s="140" t="n"/>
-      <c r="R41" s="126" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="136" t="inlineStr">
-        <is>
-          <t>#QUCCVCCJ0</t>
-        </is>
-      </c>
-      <c r="B42" s="136" t="n">
-        <v>756</v>
-      </c>
-      <c r="C42" s="137" t="n">
-        <v>39</v>
-      </c>
-      <c r="D42" s="117" t="inlineStr">
-        <is>
-          <t>koi</t>
-        </is>
-      </c>
-      <c r="E42" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="136" t="n"/>
-      <c r="J42" s="120" t="n"/>
-      <c r="K42" s="136" t="n"/>
-      <c r="L42" s="120" t="n"/>
-      <c r="M42" s="136" t="n"/>
-      <c r="N42" s="120" t="n"/>
-      <c r="O42" s="136" t="n"/>
-      <c r="P42" s="120" t="n"/>
-      <c r="Q42" s="136" t="n"/>
-      <c r="R42" s="120" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="140" t="inlineStr">
-        <is>
-          <t>#Q0U0CRCGJ</t>
-        </is>
-      </c>
-      <c r="B43" s="140" t="n">
-        <v>741</v>
-      </c>
-      <c r="C43" s="141" t="n">
-        <v>40</v>
-      </c>
-      <c r="D43" s="124" t="inlineStr">
-        <is>
-          <t>Sn0wc0ne</t>
-        </is>
-      </c>
-      <c r="E43" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="140" t="n"/>
-      <c r="J43" s="126" t="n"/>
-      <c r="K43" s="140" t="n"/>
-      <c r="L43" s="126" t="n"/>
-      <c r="M43" s="140" t="n"/>
-      <c r="N43" s="126" t="n"/>
-      <c r="O43" s="140" t="n"/>
-      <c r="P43" s="126" t="n"/>
-      <c r="Q43" s="140" t="n"/>
-      <c r="R43" s="126" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="136" t="inlineStr">
-        <is>
-          <t>#QLUV29GGJ</t>
-        </is>
-      </c>
-      <c r="B44" s="136" t="n">
-        <v>992</v>
-      </c>
-      <c r="C44" s="137" t="n">
-        <v>41</v>
-      </c>
-      <c r="D44" s="117" t="inlineStr">
-        <is>
-          <t>Kukoshibo</t>
-        </is>
-      </c>
-      <c r="E44" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="136" t="n"/>
-      <c r="J44" s="120" t="n"/>
-      <c r="K44" s="136" t="n"/>
-      <c r="L44" s="120" t="n"/>
-      <c r="M44" s="136" t="n"/>
-      <c r="N44" s="120" t="n"/>
-      <c r="O44" s="136" t="n"/>
-      <c r="P44" s="120" t="n"/>
-      <c r="Q44" s="136" t="n"/>
-      <c r="R44" s="120" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="140" t="inlineStr">
-        <is>
-          <t>#G0LJCVR2P</t>
-        </is>
-      </c>
-      <c r="B45" s="140" t="n">
-        <v>1036</v>
-      </c>
-      <c r="C45" s="141" t="n">
-        <v>42</v>
-      </c>
-      <c r="D45" s="124" t="inlineStr">
-        <is>
-          <t>DaddyChill</t>
-        </is>
-      </c>
-      <c r="E45" s="143" t="n">
+      <c r="E45" s="166" t="n">
         <v>0</v>
       </c>
       <c r="F45" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="G45" s="143" t="n">
+      <c r="G45" s="166" t="n">
         <v>0</v>
       </c>
       <c r="H45" s="126" t="n">
         <v>0</v>
       </c>
-      <c r="I45" s="140" t="n"/>
+      <c r="I45" s="163" t="n"/>
       <c r="J45" s="126" t="n"/>
-      <c r="K45" s="140" t="n"/>
+      <c r="K45" s="163" t="n"/>
       <c r="L45" s="126" t="n"/>
-      <c r="M45" s="140" t="n"/>
+      <c r="M45" s="163" t="n"/>
       <c r="N45" s="126" t="n"/>
-      <c r="O45" s="140" t="n"/>
+      <c r="O45" s="163" t="n"/>
       <c r="P45" s="126" t="n"/>
-      <c r="Q45" s="140" t="n"/>
+      <c r="Q45" s="163" t="n"/>
       <c r="R45" s="126" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="136" t="inlineStr">
+      <c r="A46" s="167" t="inlineStr">
         <is>
           <t>#QJQV82JG0</t>
         </is>
       </c>
-      <c r="B46" s="136" t="n">
+      <c r="B46" s="167" t="n">
         <v>904</v>
       </c>
-      <c r="C46" s="137" t="n">
+      <c r="C46" s="160" t="n">
         <v>43</v>
       </c>
       <c r="D46" s="117" t="inlineStr">
@@ -3350,27 +3372,27 @@
           <t>The UnknownYT</t>
         </is>
       </c>
-      <c r="E46" s="139" t="n">
+      <c r="E46" s="169" t="n">
         <v>0</v>
       </c>
       <c r="F46" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="G46" s="139" t="n">
+      <c r="G46" s="169" t="n">
         <v>6</v>
       </c>
       <c r="H46" s="120" t="n">
         <v>0</v>
       </c>
-      <c r="I46" s="136" t="n"/>
+      <c r="I46" s="167" t="n"/>
       <c r="J46" s="120" t="n"/>
-      <c r="K46" s="136" t="n"/>
+      <c r="K46" s="167" t="n"/>
       <c r="L46" s="120" t="n"/>
-      <c r="M46" s="136" t="n"/>
+      <c r="M46" s="167" t="n"/>
       <c r="N46" s="120" t="n"/>
-      <c r="O46" s="136" t="n"/>
+      <c r="O46" s="167" t="n"/>
       <c r="P46" s="120" t="n"/>
-      <c r="Q46" s="136" t="n"/>
+      <c r="Q46" s="167" t="n"/>
       <c r="R46" s="120" t="n"/>
     </row>
     <row r="47">
@@ -3406,15 +3428,15 @@
       <c r="R47" s="134" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="139" t="inlineStr">
+      <c r="A48" s="169" t="inlineStr">
         <is>
           <t>#QLL0PVCRV</t>
         </is>
       </c>
-      <c r="B48" s="136" t="n">
+      <c r="B48" s="167" t="n">
         <v>1704</v>
       </c>
-      <c r="C48" s="137" t="n">
+      <c r="C48" s="160" t="n">
         <v>45</v>
       </c>
       <c r="D48" s="120" t="inlineStr">
@@ -3422,31 +3444,31 @@
           <t>Harsh chhillar</t>
         </is>
       </c>
-      <c r="E48" s="136" t="n"/>
+      <c r="E48" s="167" t="n"/>
       <c r="F48" s="120" t="n"/>
-      <c r="G48" s="136" t="n"/>
+      <c r="G48" s="167" t="n"/>
       <c r="H48" s="120" t="n"/>
-      <c r="I48" s="136" t="n"/>
+      <c r="I48" s="167" t="n"/>
       <c r="J48" s="120" t="n"/>
-      <c r="K48" s="136" t="n"/>
+      <c r="K48" s="167" t="n"/>
       <c r="L48" s="120" t="n"/>
-      <c r="M48" s="136" t="n"/>
+      <c r="M48" s="167" t="n"/>
       <c r="N48" s="120" t="n"/>
-      <c r="O48" s="136" t="n"/>
+      <c r="O48" s="167" t="n"/>
       <c r="P48" s="120" t="n"/>
-      <c r="Q48" s="136" t="n"/>
+      <c r="Q48" s="167" t="n"/>
       <c r="R48" s="120" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="143" t="inlineStr">
+      <c r="A49" s="166" t="inlineStr">
         <is>
           <t>#Q8YP9P8UJ</t>
         </is>
       </c>
-      <c r="B49" s="140" t="n">
+      <c r="B49" s="163" t="n">
         <v>945</v>
       </c>
-      <c r="C49" s="141" t="n">
+      <c r="C49" s="164" t="n">
         <v>46</v>
       </c>
       <c r="D49" s="126" t="inlineStr">
@@ -3454,35 +3476,35 @@
           <t>Ranger</t>
         </is>
       </c>
-      <c r="E49" s="140" t="n"/>
+      <c r="E49" s="163" t="n"/>
       <c r="F49" s="126" t="n"/>
-      <c r="G49" s="140" t="n"/>
+      <c r="G49" s="163" t="n"/>
       <c r="H49" s="126" t="n"/>
-      <c r="I49" s="140" t="n"/>
+      <c r="I49" s="163" t="n"/>
       <c r="J49" s="126" t="n"/>
-      <c r="K49" s="142" t="n">
+      <c r="K49" s="165" t="n">
         <v>5</v>
       </c>
       <c r="L49" s="129" t="n">
         <v>4680</v>
       </c>
-      <c r="M49" s="140" t="n"/>
+      <c r="M49" s="163" t="n"/>
       <c r="N49" s="126" t="n"/>
-      <c r="O49" s="140" t="n"/>
+      <c r="O49" s="163" t="n"/>
       <c r="P49" s="126" t="n"/>
-      <c r="Q49" s="140" t="n"/>
+      <c r="Q49" s="163" t="n"/>
       <c r="R49" s="126" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="139" t="inlineStr">
+      <c r="A50" s="169" t="inlineStr">
         <is>
           <t>#Q0JG2RJQ8</t>
         </is>
       </c>
-      <c r="B50" s="136" t="n">
+      <c r="B50" s="167" t="n">
         <v>997</v>
       </c>
-      <c r="C50" s="137" t="n">
+      <c r="C50" s="160" t="n">
         <v>47</v>
       </c>
       <c r="D50" s="120" t="inlineStr">
@@ -3490,35 +3512,35 @@
           <t>bozo</t>
         </is>
       </c>
-      <c r="E50" s="136" t="n"/>
+      <c r="E50" s="167" t="n"/>
       <c r="F50" s="120" t="n"/>
-      <c r="G50" s="136" t="n"/>
+      <c r="G50" s="167" t="n"/>
       <c r="H50" s="120" t="n"/>
-      <c r="I50" s="136" t="n"/>
+      <c r="I50" s="167" t="n"/>
       <c r="J50" s="120" t="n"/>
-      <c r="K50" s="136" t="n"/>
+      <c r="K50" s="167" t="n"/>
       <c r="L50" s="120" t="n"/>
-      <c r="M50" s="138" t="n">
+      <c r="M50" s="168" t="n">
         <v>6</v>
       </c>
       <c r="N50" s="122" t="n">
         <v>6495</v>
       </c>
-      <c r="O50" s="136" t="n"/>
+      <c r="O50" s="167" t="n"/>
       <c r="P50" s="120" t="n"/>
-      <c r="Q50" s="136" t="n"/>
+      <c r="Q50" s="167" t="n"/>
       <c r="R50" s="120" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="143" t="inlineStr">
+      <c r="A51" s="166" t="inlineStr">
         <is>
           <t>#UVCCQC02</t>
         </is>
       </c>
-      <c r="B51" s="140" t="n">
+      <c r="B51" s="163" t="n">
         <v>1806</v>
       </c>
-      <c r="C51" s="141" t="n">
+      <c r="C51" s="164" t="n">
         <v>48</v>
       </c>
       <c r="D51" s="126" t="inlineStr">
@@ -3526,27 +3548,27 @@
           <t>lordshisha</t>
         </is>
       </c>
-      <c r="E51" s="140" t="n"/>
+      <c r="E51" s="163" t="n"/>
       <c r="F51" s="126" t="n"/>
-      <c r="G51" s="140" t="n"/>
+      <c r="G51" s="163" t="n"/>
       <c r="H51" s="126" t="n"/>
-      <c r="I51" s="140" t="n"/>
+      <c r="I51" s="163" t="n"/>
       <c r="J51" s="126" t="n"/>
-      <c r="K51" s="140" t="n"/>
+      <c r="K51" s="163" t="n"/>
       <c r="L51" s="126" t="n"/>
-      <c r="M51" s="142" t="n">
+      <c r="M51" s="165" t="n">
         <v>6</v>
       </c>
       <c r="N51" s="128" t="n">
         <v>8496</v>
       </c>
-      <c r="O51" s="142" t="n">
+      <c r="O51" s="165" t="n">
         <v>6</v>
       </c>
       <c r="P51" s="128" t="n">
         <v>6310</v>
       </c>
-      <c r="Q51" s="142" t="n">
+      <c r="Q51" s="165" t="n">
         <v>6</v>
       </c>
       <c r="R51" s="128" t="n">
@@ -3554,15 +3576,15 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="139" t="inlineStr">
+      <c r="A52" s="169" t="inlineStr">
         <is>
           <t>#P2CPRPQU</t>
         </is>
       </c>
-      <c r="B52" s="136" t="n">
+      <c r="B52" s="167" t="n">
         <v>2232</v>
       </c>
-      <c r="C52" s="137" t="n">
+      <c r="C52" s="160" t="n">
         <v>49</v>
       </c>
       <c r="D52" s="120" t="inlineStr">
@@ -3570,27 +3592,27 @@
           <t>The Drift King</t>
         </is>
       </c>
-      <c r="E52" s="136" t="n"/>
+      <c r="E52" s="167" t="n"/>
       <c r="F52" s="120" t="n"/>
-      <c r="G52" s="136" t="n"/>
+      <c r="G52" s="167" t="n"/>
       <c r="H52" s="120" t="n"/>
-      <c r="I52" s="136" t="n"/>
+      <c r="I52" s="167" t="n"/>
       <c r="J52" s="120" t="n"/>
-      <c r="K52" s="136" t="n"/>
+      <c r="K52" s="167" t="n"/>
       <c r="L52" s="120" t="n"/>
-      <c r="M52" s="138" t="n">
+      <c r="M52" s="168" t="n">
         <v>6</v>
       </c>
       <c r="N52" s="122" t="n">
         <v>8023</v>
       </c>
-      <c r="O52" s="138" t="n">
+      <c r="O52" s="168" t="n">
         <v>6</v>
       </c>
       <c r="P52" s="122" t="n">
         <v>7625</v>
       </c>
-      <c r="Q52" s="138" t="n">
+      <c r="Q52" s="168" t="n">
         <v>6</v>
       </c>
       <c r="R52" s="122" t="n">
@@ -3598,15 +3620,15 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="143" t="inlineStr">
+      <c r="A53" s="166" t="inlineStr">
         <is>
           <t>#QJVL0LYQQ</t>
         </is>
       </c>
-      <c r="B53" s="140" t="n">
+      <c r="B53" s="163" t="n">
         <v>921</v>
       </c>
-      <c r="C53" s="141" t="n">
+      <c r="C53" s="164" t="n">
         <v>50</v>
       </c>
       <c r="D53" s="126" t="inlineStr">
@@ -3614,27 +3636,27 @@
           <t>mobbb341</t>
         </is>
       </c>
-      <c r="E53" s="140" t="n"/>
+      <c r="E53" s="163" t="n"/>
       <c r="F53" s="126" t="n"/>
-      <c r="G53" s="140" t="n"/>
+      <c r="G53" s="163" t="n"/>
       <c r="H53" s="126" t="n"/>
-      <c r="I53" s="140" t="n"/>
+      <c r="I53" s="163" t="n"/>
       <c r="J53" s="126" t="n"/>
-      <c r="K53" s="140" t="n"/>
+      <c r="K53" s="163" t="n"/>
       <c r="L53" s="126" t="n"/>
-      <c r="M53" s="142" t="n">
+      <c r="M53" s="165" t="n">
         <v>6</v>
       </c>
       <c r="N53" s="128" t="n">
         <v>7710</v>
       </c>
-      <c r="O53" s="142" t="n">
+      <c r="O53" s="165" t="n">
         <v>6</v>
       </c>
       <c r="P53" s="128" t="n">
         <v>8810</v>
       </c>
-      <c r="Q53" s="142" t="n">
+      <c r="Q53" s="165" t="n">
         <v>6</v>
       </c>
       <c r="R53" s="129" t="n">
@@ -3642,15 +3664,15 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="139" t="inlineStr">
+      <c r="A54" s="169" t="inlineStr">
         <is>
           <t>#L8R82C8VC</t>
         </is>
       </c>
-      <c r="B54" s="136" t="n">
+      <c r="B54" s="167" t="n">
         <v>1162</v>
       </c>
-      <c r="C54" s="137" t="n">
+      <c r="C54" s="160" t="n">
         <v>51</v>
       </c>
       <c r="D54" s="120" t="inlineStr">
@@ -3658,27 +3680,27 @@
           <t>caden asue</t>
         </is>
       </c>
-      <c r="E54" s="136" t="n"/>
+      <c r="E54" s="167" t="n"/>
       <c r="F54" s="120" t="n"/>
-      <c r="G54" s="136" t="n"/>
+      <c r="G54" s="167" t="n"/>
       <c r="H54" s="120" t="n"/>
-      <c r="I54" s="136" t="n"/>
+      <c r="I54" s="167" t="n"/>
       <c r="J54" s="120" t="n"/>
-      <c r="K54" s="136" t="n"/>
+      <c r="K54" s="167" t="n"/>
       <c r="L54" s="120" t="n"/>
-      <c r="M54" s="138" t="n">
+      <c r="M54" s="168" t="n">
         <v>6</v>
       </c>
       <c r="N54" s="130" t="n">
         <v>5112</v>
       </c>
-      <c r="O54" s="138" t="n">
+      <c r="O54" s="168" t="n">
         <v>6</v>
       </c>
       <c r="P54" s="130" t="n">
         <v>4283</v>
       </c>
-      <c r="Q54" s="138" t="n">
+      <c r="Q54" s="168" t="n">
         <v>6</v>
       </c>
       <c r="R54" s="130" t="n">
@@ -3686,15 +3708,15 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="143" t="inlineStr">
+      <c r="A55" s="166" t="inlineStr">
         <is>
           <t>#L9Q8VLLQG</t>
         </is>
       </c>
-      <c r="B55" s="140" t="n">
+      <c r="B55" s="163" t="n">
         <v>1130</v>
       </c>
-      <c r="C55" s="141" t="n">
+      <c r="C55" s="164" t="n">
         <v>52</v>
       </c>
       <c r="D55" s="126" t="inlineStr">
@@ -3702,19 +3724,19 @@
           <t>cat</t>
         </is>
       </c>
-      <c r="E55" s="140" t="n"/>
+      <c r="E55" s="163" t="n"/>
       <c r="F55" s="126" t="n"/>
-      <c r="G55" s="140" t="n"/>
+      <c r="G55" s="163" t="n"/>
       <c r="H55" s="126" t="n"/>
-      <c r="I55" s="140" t="n"/>
+      <c r="I55" s="163" t="n"/>
       <c r="J55" s="126" t="n"/>
-      <c r="K55" s="140" t="n"/>
+      <c r="K55" s="163" t="n"/>
       <c r="L55" s="126" t="n"/>
-      <c r="M55" s="140" t="n"/>
+      <c r="M55" s="163" t="n"/>
       <c r="N55" s="126" t="n"/>
-      <c r="O55" s="140" t="n"/>
+      <c r="O55" s="163" t="n"/>
       <c r="P55" s="126" t="n"/>
-      <c r="Q55" s="142" t="n">
+      <c r="Q55" s="165" t="n">
         <v>6</v>
       </c>
       <c r="R55" s="129" t="n">
@@ -3722,15 +3744,15 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="139" t="inlineStr">
+      <c r="A56" s="169" t="inlineStr">
         <is>
           <t>#QV0PQC9JU</t>
         </is>
       </c>
-      <c r="B56" s="136" t="n">
+      <c r="B56" s="167" t="n">
         <v>539</v>
       </c>
-      <c r="C56" s="137" t="n">
+      <c r="C56" s="160" t="n">
         <v>53</v>
       </c>
       <c r="D56" s="120" t="inlineStr">
@@ -3738,19 +3760,19 @@
           <t>Superman</t>
         </is>
       </c>
-      <c r="E56" s="136" t="n"/>
+      <c r="E56" s="167" t="n"/>
       <c r="F56" s="120" t="n"/>
-      <c r="G56" s="136" t="n"/>
+      <c r="G56" s="167" t="n"/>
       <c r="H56" s="120" t="n"/>
-      <c r="I56" s="136" t="n"/>
+      <c r="I56" s="167" t="n"/>
       <c r="J56" s="120" t="n"/>
-      <c r="K56" s="136" t="n"/>
+      <c r="K56" s="167" t="n"/>
       <c r="L56" s="120" t="n"/>
-      <c r="M56" s="136" t="n"/>
+      <c r="M56" s="167" t="n"/>
       <c r="N56" s="120" t="n"/>
-      <c r="O56" s="136" t="n"/>
+      <c r="O56" s="167" t="n"/>
       <c r="P56" s="120" t="n"/>
-      <c r="Q56" s="138" t="n">
+      <c r="Q56" s="168" t="n">
         <v>6</v>
       </c>
       <c r="R56" s="130" t="n">
@@ -3758,15 +3780,15 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="143" t="inlineStr">
+      <c r="A57" s="166" t="inlineStr">
         <is>
           <t>#LU0CRP09L</t>
         </is>
       </c>
-      <c r="B57" s="140" t="n">
+      <c r="B57" s="163" t="n">
         <v>809</v>
       </c>
-      <c r="C57" s="141" t="n">
+      <c r="C57" s="164" t="n">
         <v>54</v>
       </c>
       <c r="D57" s="126" t="inlineStr">
@@ -3774,19 +3796,19 @@
           <t>I Dont Know</t>
         </is>
       </c>
-      <c r="E57" s="140" t="n"/>
+      <c r="E57" s="163" t="n"/>
       <c r="F57" s="126" t="n"/>
-      <c r="G57" s="140" t="n"/>
+      <c r="G57" s="163" t="n"/>
       <c r="H57" s="126" t="n"/>
-      <c r="I57" s="140" t="n"/>
+      <c r="I57" s="163" t="n"/>
       <c r="J57" s="126" t="n"/>
-      <c r="K57" s="140" t="n"/>
+      <c r="K57" s="163" t="n"/>
       <c r="L57" s="126" t="n"/>
-      <c r="M57" s="140" t="n"/>
+      <c r="M57" s="163" t="n"/>
       <c r="N57" s="126" t="n"/>
-      <c r="O57" s="140" t="n"/>
+      <c r="O57" s="163" t="n"/>
       <c r="P57" s="126" t="n"/>
-      <c r="Q57" s="158" t="n">
+      <c r="Q57" s="170" t="n">
         <v>3</v>
       </c>
       <c r="R57" s="124" t="n">
@@ -3794,15 +3816,15 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="139" t="inlineStr">
+      <c r="A58" s="169" t="inlineStr">
         <is>
           <t>#YCPP0QPP8</t>
         </is>
       </c>
-      <c r="B58" s="136" t="n">
+      <c r="B58" s="167" t="n">
         <v>3327</v>
       </c>
-      <c r="C58" s="137" t="n">
+      <c r="C58" s="160" t="n">
         <v>55</v>
       </c>
       <c r="D58" s="120" t="inlineStr">
@@ -3810,19 +3832,19 @@
           <t>Coach</t>
         </is>
       </c>
-      <c r="E58" s="136" t="n"/>
+      <c r="E58" s="167" t="n"/>
       <c r="F58" s="120" t="n"/>
-      <c r="G58" s="136" t="n"/>
+      <c r="G58" s="167" t="n"/>
       <c r="H58" s="120" t="n"/>
-      <c r="I58" s="136" t="n"/>
+      <c r="I58" s="167" t="n"/>
       <c r="J58" s="120" t="n"/>
-      <c r="K58" s="136" t="n"/>
+      <c r="K58" s="167" t="n"/>
       <c r="L58" s="120" t="n"/>
-      <c r="M58" s="136" t="n"/>
+      <c r="M58" s="167" t="n"/>
       <c r="N58" s="120" t="n"/>
-      <c r="O58" s="136" t="n"/>
+      <c r="O58" s="167" t="n"/>
       <c r="P58" s="120" t="n"/>
-      <c r="Q58" s="139" t="n">
+      <c r="Q58" s="169" t="n">
         <v>0</v>
       </c>
       <c r="R58" s="117" t="n">

--- a/Clash.xlsx
+++ b/Clash.xlsx
@@ -223,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -319,11 +319,12 @@
     </border>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -550,6 +551,27 @@
     <xf numFmtId="164" fontId="7" fillId="30" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="7" fillId="31" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="8" fillId="31" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="25" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="27" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="26" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="28" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="28" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="30" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="29" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="25" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="27" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="26" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="28" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="30" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="29" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="31" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="32" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="31" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -997,10 +1019,10 @@
     </row>
     <row r="2">
       <c r="E2" t="n">
-        <v>3.67</v>
+        <v>3.5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>43201</v>
+        <v>57020</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>516</v>
@@ -1124,15 +1146,15 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="159" t="inlineStr">
+      <c r="A4" s="176" t="inlineStr">
         <is>
           <t>#QCV22VP0G</t>
         </is>
       </c>
-      <c r="B4" s="159" t="n">
+      <c r="B4" s="176" t="n">
         <v>823</v>
       </c>
-      <c r="C4" s="160" t="n">
+      <c r="C4" s="177" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="115" t="inlineStr">
@@ -1140,43 +1162,43 @@
           <t>Nami</t>
         </is>
       </c>
-      <c r="E4" s="161" t="n">
+      <c r="E4" s="178" t="n">
         <v>6</v>
       </c>
       <c r="F4" s="115" t="n">
         <v>11657</v>
       </c>
-      <c r="G4" s="162" t="n">
+      <c r="G4" s="179" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="161" t="n">
+      <c r="I4" s="178" t="n">
         <v>6</v>
       </c>
       <c r="J4" s="115" t="n">
         <v>11795</v>
       </c>
-      <c r="K4" s="161" t="n">
+      <c r="K4" s="178" t="n">
         <v>6</v>
       </c>
       <c r="L4" s="115" t="n">
         <v>10769</v>
       </c>
-      <c r="M4" s="161" t="n">
+      <c r="M4" s="178" t="n">
         <v>6</v>
       </c>
       <c r="N4" s="115" t="n">
         <v>12486</v>
       </c>
-      <c r="O4" s="161" t="n">
+      <c r="O4" s="178" t="n">
         <v>6</v>
       </c>
       <c r="P4" s="115" t="n">
         <v>8472</v>
       </c>
-      <c r="Q4" s="161" t="n">
+      <c r="Q4" s="178" t="n">
         <v>6</v>
       </c>
       <c r="R4" s="115" t="n">
@@ -1184,2215 +1206,2215 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="163" t="inlineStr">
+      <c r="A5" s="180" t="inlineStr">
+        <is>
+          <t>#QUV2GP88U</t>
+        </is>
+      </c>
+      <c r="B5" s="180" t="n">
+        <v>736</v>
+      </c>
+      <c r="C5" s="181" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="107" t="inlineStr">
+        <is>
+          <t>Nico Robin</t>
+        </is>
+      </c>
+      <c r="E5" s="182" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" s="107" t="n">
+        <v>10389</v>
+      </c>
+      <c r="G5" s="183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="182" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" s="107" t="n">
+        <v>12612</v>
+      </c>
+      <c r="K5" s="182" t="n">
+        <v>6</v>
+      </c>
+      <c r="L5" s="107" t="n">
+        <v>11338</v>
+      </c>
+      <c r="M5" s="182" t="n">
+        <v>6</v>
+      </c>
+      <c r="N5" s="107" t="n">
+        <v>10997</v>
+      </c>
+      <c r="O5" s="182" t="n">
+        <v>6</v>
+      </c>
+      <c r="P5" s="107" t="n">
+        <v>11087</v>
+      </c>
+      <c r="Q5" s="182" t="n">
+        <v>6</v>
+      </c>
+      <c r="R5" s="107" t="n">
+        <v>8089</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="184" t="inlineStr">
         <is>
           <t>#QU0U2Q99G</t>
         </is>
       </c>
-      <c r="B5" s="163" t="n">
-        <v>942</v>
-      </c>
-      <c r="C5" s="164" t="n">
+      <c r="B6" s="184" t="n">
+        <v>975</v>
+      </c>
+      <c r="C6" s="177" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="122" t="inlineStr">
+        <is>
+          <t>big coc</t>
+        </is>
+      </c>
+      <c r="E6" s="185" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" s="122" t="n">
+        <v>7115</v>
+      </c>
+      <c r="G6" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="120" t="n">
+        <v>60</v>
+      </c>
+      <c r="I6" s="185" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" s="122" t="n">
+        <v>7420</v>
+      </c>
+      <c r="K6" s="185" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" s="130" t="n">
+        <v>5150</v>
+      </c>
+      <c r="M6" s="185" t="n">
+        <v>6</v>
+      </c>
+      <c r="N6" s="122" t="n">
+        <v>9075</v>
+      </c>
+      <c r="O6" s="184" t="n"/>
+      <c r="P6" s="120" t="n"/>
+      <c r="Q6" s="184" t="n"/>
+      <c r="R6" s="120" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="187" t="inlineStr">
+        <is>
+          <t>#8U9CRC8G</t>
+        </is>
+      </c>
+      <c r="B7" s="187" t="n">
+        <v>1548</v>
+      </c>
+      <c r="C7" s="181" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" s="128" t="inlineStr">
+        <is>
+          <t>CEO JACK</t>
+        </is>
+      </c>
+      <c r="E7" s="188" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="128" t="n">
+        <v>6980</v>
+      </c>
+      <c r="G7" s="189" t="n">
+        <v>11</v>
+      </c>
+      <c r="H7" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="187" t="n"/>
+      <c r="L7" s="126" t="n"/>
+      <c r="M7" s="187" t="n"/>
+      <c r="N7" s="126" t="n"/>
+      <c r="O7" s="187" t="n"/>
+      <c r="P7" s="126" t="n"/>
+      <c r="Q7" s="187" t="n"/>
+      <c r="R7" s="126" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="184" t="inlineStr">
+        <is>
+          <t>#LC9GUPJJG</t>
+        </is>
+      </c>
+      <c r="B8" s="184" t="n">
+        <v>1074</v>
+      </c>
+      <c r="C8" s="177" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="122" t="inlineStr">
+        <is>
+          <t>raptor2222a</t>
+        </is>
+      </c>
+      <c r="E8" s="185" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" s="122" t="n">
+        <v>6971</v>
+      </c>
+      <c r="G8" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="185" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" s="130" t="n">
+        <v>4350</v>
+      </c>
+      <c r="K8" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="184" t="n"/>
+      <c r="N8" s="120" t="n"/>
+      <c r="O8" s="184" t="n"/>
+      <c r="P8" s="120" t="n"/>
+      <c r="Q8" s="184" t="n"/>
+      <c r="R8" s="120" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="187" t="inlineStr">
+        <is>
+          <t>#VGG9LYL0</t>
+        </is>
+      </c>
+      <c r="B9" s="187" t="n">
+        <v>1059</v>
+      </c>
+      <c r="C9" s="181" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" s="128" t="inlineStr">
+        <is>
+          <t>ptripp1048</t>
+        </is>
+      </c>
+      <c r="E9" s="188" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" s="128" t="n">
+        <v>6023</v>
+      </c>
+      <c r="G9" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="187" t="n"/>
+      <c r="L9" s="126" t="n"/>
+      <c r="M9" s="187" t="n"/>
+      <c r="N9" s="126" t="n"/>
+      <c r="O9" s="187" t="n"/>
+      <c r="P9" s="126" t="n"/>
+      <c r="Q9" s="187" t="n"/>
+      <c r="R9" s="126" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="184" t="inlineStr">
+        <is>
+          <t>#G0JPUQGYR</t>
+        </is>
+      </c>
+      <c r="B10" s="184" t="n">
+        <v>1412</v>
+      </c>
+      <c r="C10" s="177" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" s="130" t="inlineStr">
+        <is>
+          <t>Collin</t>
+        </is>
+      </c>
+      <c r="E10" s="190" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" s="130" t="n">
+        <v>4455</v>
+      </c>
+      <c r="G10" s="186" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="185" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" s="122" t="n">
+        <v>8833</v>
+      </c>
+      <c r="K10" s="185" t="n">
+        <v>6</v>
+      </c>
+      <c r="L10" s="122" t="n">
+        <v>9238</v>
+      </c>
+      <c r="M10" s="185" t="n">
+        <v>6</v>
+      </c>
+      <c r="N10" s="122" t="n">
+        <v>7756</v>
+      </c>
+      <c r="O10" s="185" t="n">
+        <v>6</v>
+      </c>
+      <c r="P10" s="130" t="n">
+        <v>5943</v>
+      </c>
+      <c r="Q10" s="185" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" s="122" t="n">
+        <v>8224</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="187" t="inlineStr">
+        <is>
+          <t>#QUVJGC0VQ</t>
+        </is>
+      </c>
+      <c r="B11" s="187" t="n">
+        <v>1192</v>
+      </c>
+      <c r="C11" s="181" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" s="124" t="inlineStr">
+        <is>
+          <t>Cam</t>
+        </is>
+      </c>
+      <c r="E11" s="191" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" s="124" t="n">
+        <v>3430</v>
+      </c>
+      <c r="G11" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="126" t="n">
+        <v>73</v>
+      </c>
+      <c r="I11" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="187" t="n"/>
+      <c r="L11" s="126" t="n"/>
+      <c r="M11" s="187" t="n"/>
+      <c r="N11" s="126" t="n"/>
+      <c r="O11" s="187" t="n"/>
+      <c r="P11" s="126" t="n"/>
+      <c r="Q11" s="187" t="n"/>
+      <c r="R11" s="126" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="94" t="inlineStr">
+        <is>
+          <t>#QLJ2U20Y2</t>
+        </is>
+      </c>
+      <c r="B12" s="94" t="n">
+        <v>1486</v>
+      </c>
+      <c r="C12" s="95" t="n">
+        <v>9</v>
+      </c>
+      <c r="D12" s="96" t="inlineStr">
+        <is>
+          <t>DeadLeaf</t>
+        </is>
+      </c>
+      <c r="E12" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="98" t="n">
+        <v>30</v>
+      </c>
+      <c r="I12" s="99" t="n">
+        <v>6</v>
+      </c>
+      <c r="J12" s="100" t="n">
+        <v>13763</v>
+      </c>
+      <c r="K12" s="99" t="n">
+        <v>6</v>
+      </c>
+      <c r="L12" s="100" t="n">
+        <v>11140</v>
+      </c>
+      <c r="M12" s="99" t="n">
+        <v>6</v>
+      </c>
+      <c r="N12" s="100" t="n">
+        <v>15509</v>
+      </c>
+      <c r="O12" s="99" t="n">
+        <v>6</v>
+      </c>
+      <c r="P12" s="100" t="n">
+        <v>8567</v>
+      </c>
+      <c r="Q12" s="99" t="n">
+        <v>6</v>
+      </c>
+      <c r="R12" s="100" t="n">
+        <v>9729</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="180" t="inlineStr">
+        <is>
+          <t>#G0QPVJY9L</t>
+        </is>
+      </c>
+      <c r="B13" s="180" t="n">
+        <v>828</v>
+      </c>
+      <c r="C13" s="181" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" s="103" t="inlineStr">
+        <is>
+          <t>Zoro</t>
+        </is>
+      </c>
+      <c r="E13" s="183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="182" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" s="107" t="n">
+        <v>13432</v>
+      </c>
+      <c r="K13" s="182" t="n">
+        <v>6</v>
+      </c>
+      <c r="L13" s="107" t="n">
+        <v>8855</v>
+      </c>
+      <c r="M13" s="182" t="n">
+        <v>6</v>
+      </c>
+      <c r="N13" s="107" t="n">
+        <v>10965</v>
+      </c>
+      <c r="O13" s="182" t="n">
+        <v>6</v>
+      </c>
+      <c r="P13" s="107" t="n">
+        <v>7905</v>
+      </c>
+      <c r="Q13" s="182" t="n">
+        <v>6</v>
+      </c>
+      <c r="R13" s="107" t="n">
+        <v>6744</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="176" t="inlineStr">
+        <is>
+          <t>#90U0VPU9U</t>
+        </is>
+      </c>
+      <c r="B14" s="176" t="n">
+        <v>2534</v>
+      </c>
+      <c r="C14" s="177" t="n">
+        <v>11</v>
+      </c>
+      <c r="D14" s="110" t="inlineStr">
+        <is>
+          <t>KYANI7E</t>
+        </is>
+      </c>
+      <c r="E14" s="179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="192" t="n">
+        <v>206</v>
+      </c>
+      <c r="H14" s="113" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" s="115" t="n">
+        <v>13260</v>
+      </c>
+      <c r="K14" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="L14" s="115" t="n">
+        <v>12144</v>
+      </c>
+      <c r="M14" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="N14" s="115" t="n">
+        <v>12835</v>
+      </c>
+      <c r="O14" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="P14" s="115" t="n">
+        <v>7696</v>
+      </c>
+      <c r="Q14" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="R14" s="115" t="n">
+        <v>9188</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="180" t="inlineStr">
+        <is>
+          <t>#YJ20CRJYQ</t>
+        </is>
+      </c>
+      <c r="B15" s="180" t="n">
+        <v>1265</v>
+      </c>
+      <c r="C15" s="181" t="n">
+        <v>12</v>
+      </c>
+      <c r="D15" s="103" t="inlineStr">
+        <is>
+          <t>UnluckGod</t>
+        </is>
+      </c>
+      <c r="E15" s="183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="105" t="n">
+        <v>61</v>
+      </c>
+      <c r="I15" s="182" t="n">
+        <v>6</v>
+      </c>
+      <c r="J15" s="107" t="n">
+        <v>12824</v>
+      </c>
+      <c r="K15" s="182" t="n">
+        <v>6</v>
+      </c>
+      <c r="L15" s="107" t="n">
+        <v>11999</v>
+      </c>
+      <c r="M15" s="182" t="n">
+        <v>6</v>
+      </c>
+      <c r="N15" s="107" t="n">
+        <v>12972</v>
+      </c>
+      <c r="O15" s="182" t="n">
+        <v>6</v>
+      </c>
+      <c r="P15" s="107" t="n">
+        <v>8286</v>
+      </c>
+      <c r="Q15" s="182" t="n">
+        <v>6</v>
+      </c>
+      <c r="R15" s="107" t="n">
+        <v>11406</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="176" t="inlineStr">
+        <is>
+          <t>#YRGRRJQCY</t>
+        </is>
+      </c>
+      <c r="B16" s="176" t="n">
+        <v>1366</v>
+      </c>
+      <c r="C16" s="177" t="n">
+        <v>13</v>
+      </c>
+      <c r="D16" s="110" t="inlineStr">
+        <is>
+          <t>DoubleSpice</t>
+        </is>
+      </c>
+      <c r="E16" s="179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="113" t="n">
+        <v>60</v>
+      </c>
+      <c r="I16" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="J16" s="115" t="n">
+        <v>11620</v>
+      </c>
+      <c r="K16" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="L16" s="115" t="n">
+        <v>14095</v>
+      </c>
+      <c r="M16" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="N16" s="115" t="n">
+        <v>12379</v>
+      </c>
+      <c r="O16" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="P16" s="115" t="n">
+        <v>8256</v>
+      </c>
+      <c r="Q16" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="R16" s="115" t="n">
+        <v>7054</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="180" t="inlineStr">
+        <is>
+          <t>#QUG8QQJ92</t>
+        </is>
+      </c>
+      <c r="B17" s="180" t="n">
+        <v>891</v>
+      </c>
+      <c r="C17" s="181" t="n">
+        <v>14</v>
+      </c>
+      <c r="D17" s="103" t="inlineStr">
+        <is>
+          <t>Karma</t>
+        </is>
+      </c>
+      <c r="E17" s="183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="182" t="n">
+        <v>6</v>
+      </c>
+      <c r="J17" s="107" t="n">
+        <v>11355</v>
+      </c>
+      <c r="K17" s="182" t="n">
+        <v>6</v>
+      </c>
+      <c r="L17" s="107" t="n">
+        <v>10003</v>
+      </c>
+      <c r="M17" s="182" t="n">
+        <v>6</v>
+      </c>
+      <c r="N17" s="107" t="n">
+        <v>10595</v>
+      </c>
+      <c r="O17" s="182" t="n">
+        <v>6</v>
+      </c>
+      <c r="P17" s="107" t="n">
+        <v>9240</v>
+      </c>
+      <c r="Q17" s="182" t="n">
+        <v>6</v>
+      </c>
+      <c r="R17" s="107" t="n">
+        <v>10628</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="184" t="inlineStr">
+        <is>
+          <t>#98JG2UJQL</t>
+        </is>
+      </c>
+      <c r="B18" s="184" t="n">
+        <v>2922</v>
+      </c>
+      <c r="C18" s="177" t="n">
+        <v>15</v>
+      </c>
+      <c r="D18" s="117" t="inlineStr">
+        <is>
+          <t>Dragonux</t>
+        </is>
+      </c>
+      <c r="E18" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="190" t="n">
+        <v>211</v>
+      </c>
+      <c r="H18" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="185" t="n">
+        <v>6</v>
+      </c>
+      <c r="J18" s="122" t="n">
+        <v>10910</v>
+      </c>
+      <c r="K18" s="185" t="n">
+        <v>6</v>
+      </c>
+      <c r="L18" s="122" t="n">
+        <v>8750</v>
+      </c>
+      <c r="M18" s="185" t="n">
+        <v>6</v>
+      </c>
+      <c r="N18" s="122" t="n">
+        <v>10865</v>
+      </c>
+      <c r="O18" s="185" t="n">
+        <v>6</v>
+      </c>
+      <c r="P18" s="122" t="n">
+        <v>8025</v>
+      </c>
+      <c r="Q18" s="185" t="n">
+        <v>6</v>
+      </c>
+      <c r="R18" s="122" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="180" t="inlineStr">
+        <is>
+          <t>#QLR088LC9</t>
+        </is>
+      </c>
+      <c r="B19" s="180" t="n">
+        <v>883</v>
+      </c>
+      <c r="C19" s="181" t="n">
+        <v>16</v>
+      </c>
+      <c r="D19" s="103" t="inlineStr">
+        <is>
+          <t>Sanji</t>
+        </is>
+      </c>
+      <c r="E19" s="183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="183" t="n">
+        <v>6</v>
+      </c>
+      <c r="H19" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="182" t="n">
+        <v>6</v>
+      </c>
+      <c r="J19" s="107" t="n">
+        <v>10910</v>
+      </c>
+      <c r="K19" s="182" t="n">
+        <v>6</v>
+      </c>
+      <c r="L19" s="107" t="n">
+        <v>9550</v>
+      </c>
+      <c r="M19" s="182" t="n">
+        <v>6</v>
+      </c>
+      <c r="N19" s="107" t="n">
+        <v>9138</v>
+      </c>
+      <c r="O19" s="182" t="n">
+        <v>6</v>
+      </c>
+      <c r="P19" s="107" t="n">
+        <v>8897</v>
+      </c>
+      <c r="Q19" s="182" t="n">
+        <v>6</v>
+      </c>
+      <c r="R19" s="107" t="n">
+        <v>8512</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="176" t="inlineStr">
+        <is>
+          <t>#QUYG0PQC8</t>
+        </is>
+      </c>
+      <c r="B20" s="176" t="n">
+        <v>852</v>
+      </c>
+      <c r="C20" s="177" t="n">
+        <v>17</v>
+      </c>
+      <c r="D20" s="110" t="inlineStr">
+        <is>
+          <t>Luffy</t>
+        </is>
+      </c>
+      <c r="E20" s="179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="J20" s="115" t="n">
+        <v>10879</v>
+      </c>
+      <c r="K20" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="L20" s="115" t="n">
+        <v>9114</v>
+      </c>
+      <c r="M20" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="N20" s="115" t="n">
+        <v>13385</v>
+      </c>
+      <c r="O20" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="P20" s="115" t="n">
+        <v>7877</v>
+      </c>
+      <c r="Q20" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="R20" s="115" t="n">
+        <v>8347</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="187" t="inlineStr">
+        <is>
+          <t>#82QLQCJRJ</t>
+        </is>
+      </c>
+      <c r="B21" s="187" t="n">
+        <v>2903</v>
+      </c>
+      <c r="C21" s="181" t="n">
+        <v>18</v>
+      </c>
+      <c r="D21" s="124" t="inlineStr">
+        <is>
+          <t>Raging Fury</t>
+        </is>
+      </c>
+      <c r="E21" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="188" t="n">
+        <v>6</v>
+      </c>
+      <c r="J21" s="128" t="n">
+        <v>8055</v>
+      </c>
+      <c r="K21" s="188" t="n">
+        <v>6</v>
+      </c>
+      <c r="L21" s="128" t="n">
+        <v>7115</v>
+      </c>
+      <c r="M21" s="189" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="128" t="inlineStr">
-        <is>
-          <t>big coc</t>
-        </is>
-      </c>
-      <c r="E5" s="165" t="n">
-        <v>6</v>
-      </c>
-      <c r="F5" s="128" t="n">
-        <v>7115</v>
-      </c>
-      <c r="G5" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="126" t="n">
+      <c r="N21" s="124" t="n">
+        <v>2320</v>
+      </c>
+      <c r="O21" s="188" t="n">
+        <v>6</v>
+      </c>
+      <c r="P21" s="129" t="n">
+        <v>4920</v>
+      </c>
+      <c r="Q21" s="188" t="n">
+        <v>6</v>
+      </c>
+      <c r="R21" s="129" t="n">
+        <v>5135</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="176" t="inlineStr">
+        <is>
+          <t>#Q8CLCUCC2</t>
+        </is>
+      </c>
+      <c r="B22" s="176" t="n">
+        <v>1373</v>
+      </c>
+      <c r="C22" s="177" t="n">
+        <v>19</v>
+      </c>
+      <c r="D22" s="110" t="inlineStr">
+        <is>
+          <t>Moxxi</t>
+        </is>
+      </c>
+      <c r="E22" s="179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="113" t="n">
         <v>60</v>
       </c>
-      <c r="I5" s="165" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" s="128" t="n">
-        <v>7420</v>
-      </c>
-      <c r="K5" s="165" t="n">
+      <c r="I22" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="J22" s="115" t="n">
+        <v>8015</v>
+      </c>
+      <c r="K22" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="L22" s="115" t="n">
+        <v>11010</v>
+      </c>
+      <c r="M22" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="N22" s="115" t="n">
+        <v>13857</v>
+      </c>
+      <c r="O22" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="P22" s="115" t="n">
+        <v>7905</v>
+      </c>
+      <c r="Q22" s="178" t="n">
+        <v>6</v>
+      </c>
+      <c r="R22" s="115" t="n">
+        <v>7224</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="187" t="inlineStr">
+        <is>
+          <t>#QRPRYR8LL</t>
+        </is>
+      </c>
+      <c r="B23" s="187" t="n">
+        <v>1183</v>
+      </c>
+      <c r="C23" s="181" t="n">
+        <v>20</v>
+      </c>
+      <c r="D23" s="124" t="inlineStr">
+        <is>
+          <t>FidelCashflow</t>
+        </is>
+      </c>
+      <c r="E23" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="189" t="n">
+        <v>4</v>
+      </c>
+      <c r="H23" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="188" t="n">
+        <v>6</v>
+      </c>
+      <c r="J23" s="128" t="n">
+        <v>6415</v>
+      </c>
+      <c r="K23" s="188" t="n">
+        <v>6</v>
+      </c>
+      <c r="L23" s="128" t="n">
+        <v>6547</v>
+      </c>
+      <c r="M23" s="188" t="n">
+        <v>6</v>
+      </c>
+      <c r="N23" s="128" t="n">
+        <v>6811</v>
+      </c>
+      <c r="O23" s="188" t="n">
+        <v>6</v>
+      </c>
+      <c r="P23" s="129" t="n">
+        <v>4239</v>
+      </c>
+      <c r="Q23" s="188" t="n">
+        <v>6</v>
+      </c>
+      <c r="R23" s="129" t="n">
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="184" t="inlineStr">
+        <is>
+          <t>#QY0VGPQGQ</t>
+        </is>
+      </c>
+      <c r="B24" s="184" t="n">
+        <v>533</v>
+      </c>
+      <c r="C24" s="177" t="n">
+        <v>21</v>
+      </c>
+      <c r="D24" s="117" t="inlineStr">
+        <is>
+          <t>killerjones</t>
+        </is>
+      </c>
+      <c r="E24" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="120" t="n">
+        <v>15</v>
+      </c>
+      <c r="I24" s="185" t="n">
+        <v>6</v>
+      </c>
+      <c r="J24" s="122" t="n">
+        <v>6320</v>
+      </c>
+      <c r="K24" s="184" t="n"/>
+      <c r="L24" s="120" t="n"/>
+      <c r="M24" s="184" t="n"/>
+      <c r="N24" s="120" t="n"/>
+      <c r="O24" s="184" t="n"/>
+      <c r="P24" s="120" t="n"/>
+      <c r="Q24" s="184" t="n"/>
+      <c r="R24" s="120" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="187" t="inlineStr">
+        <is>
+          <t>#QLG0VJG2J</t>
+        </is>
+      </c>
+      <c r="B25" s="187" t="n">
+        <v>1167</v>
+      </c>
+      <c r="C25" s="181" t="n">
+        <v>22</v>
+      </c>
+      <c r="D25" s="124" t="inlineStr">
+        <is>
+          <t>PocketRocket</t>
+        </is>
+      </c>
+      <c r="E25" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="189" t="n">
+        <v>20</v>
+      </c>
+      <c r="H25" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="191" t="n">
+        <v>4</v>
+      </c>
+      <c r="J25" s="129" t="n">
+        <v>4327</v>
+      </c>
+      <c r="K25" s="191" t="n">
+        <v>4</v>
+      </c>
+      <c r="L25" s="129" t="n">
+        <v>5215</v>
+      </c>
+      <c r="M25" s="187" t="n"/>
+      <c r="N25" s="126" t="n"/>
+      <c r="O25" s="187" t="n"/>
+      <c r="P25" s="126" t="n"/>
+      <c r="Q25" s="187" t="n"/>
+      <c r="R25" s="126" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="184" t="inlineStr">
+        <is>
+          <t>#QL8LVLYG8</t>
+        </is>
+      </c>
+      <c r="B26" s="184" t="n">
+        <v>930</v>
+      </c>
+      <c r="C26" s="177" t="n">
+        <v>23</v>
+      </c>
+      <c r="D26" s="117" t="inlineStr">
+        <is>
+          <t>Some guy</t>
+        </is>
+      </c>
+      <c r="E26" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="120" t="n">
+        <v>20</v>
+      </c>
+      <c r="I26" s="186" t="n">
+        <v>2</v>
+      </c>
+      <c r="J26" s="117" t="n">
+        <v>2650</v>
+      </c>
+      <c r="K26" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="185" t="n">
+        <v>6</v>
+      </c>
+      <c r="N26" s="122" t="n">
+        <v>6917</v>
+      </c>
+      <c r="O26" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="186" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" s="117" t="n">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="187" t="inlineStr">
+        <is>
+          <t>#QJC8LQU9U</t>
+        </is>
+      </c>
+      <c r="B27" s="187" t="n">
+        <v>998</v>
+      </c>
+      <c r="C27" s="181" t="n">
+        <v>24</v>
+      </c>
+      <c r="D27" s="124" t="inlineStr">
+        <is>
+          <t>Master01</t>
+        </is>
+      </c>
+      <c r="E27" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="188" t="n">
+        <v>6</v>
+      </c>
+      <c r="N27" s="129" t="n">
+        <v>5415</v>
+      </c>
+      <c r="O27" s="188" t="n">
+        <v>6</v>
+      </c>
+      <c r="P27" s="129" t="n">
+        <v>4835</v>
+      </c>
+      <c r="Q27" s="188" t="n">
         <v>5</v>
       </c>
-      <c r="L5" s="129" t="n">
-        <v>5150</v>
-      </c>
-      <c r="M5" s="165" t="n">
-        <v>6</v>
-      </c>
-      <c r="N5" s="128" t="n">
-        <v>9075</v>
-      </c>
-      <c r="O5" s="163" t="n"/>
-      <c r="P5" s="126" t="n"/>
-      <c r="Q5" s="163" t="n"/>
-      <c r="R5" s="126" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="167" t="inlineStr">
-        <is>
-          <t>#8U9CRC8G</t>
-        </is>
-      </c>
-      <c r="B6" s="167" t="n">
-        <v>1512</v>
-      </c>
-      <c r="C6" s="160" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="122" t="inlineStr">
-        <is>
-          <t>CEO JACK</t>
-        </is>
-      </c>
-      <c r="E6" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="F6" s="122" t="n">
-        <v>6980</v>
-      </c>
-      <c r="G6" s="169" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="167" t="n"/>
-      <c r="L6" s="120" t="n"/>
-      <c r="M6" s="167" t="n"/>
-      <c r="N6" s="120" t="n"/>
-      <c r="O6" s="167" t="n"/>
-      <c r="P6" s="120" t="n"/>
-      <c r="Q6" s="167" t="n"/>
-      <c r="R6" s="120" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="163" t="inlineStr">
-        <is>
-          <t>#LC9GUPJJG</t>
-        </is>
-      </c>
-      <c r="B7" s="163" t="n">
-        <v>1074</v>
-      </c>
-      <c r="C7" s="164" t="n">
+      <c r="R27" s="129" t="n">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="184" t="inlineStr">
+        <is>
+          <t>#QV8JJ0URU</t>
+        </is>
+      </c>
+      <c r="B28" s="184" t="n">
+        <v>741</v>
+      </c>
+      <c r="C28" s="177" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" s="117" t="inlineStr">
+        <is>
+          <t>✨Jacob</t>
+        </is>
+      </c>
+      <c r="E28" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="185" t="n">
+        <v>6</v>
+      </c>
+      <c r="P28" s="122" t="n">
+        <v>7385</v>
+      </c>
+      <c r="Q28" s="185" t="n">
+        <v>6</v>
+      </c>
+      <c r="R28" s="122" t="n">
+        <v>9155</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="187" t="inlineStr">
+        <is>
+          <t>#QY8L2GLUR</t>
+        </is>
+      </c>
+      <c r="B29" s="187" t="n">
+        <v>907</v>
+      </c>
+      <c r="C29" s="181" t="n">
+        <v>26</v>
+      </c>
+      <c r="D29" s="124" t="inlineStr">
+        <is>
+          <t>Huy</t>
+        </is>
+      </c>
+      <c r="E29" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="188" t="n">
+        <v>6</v>
+      </c>
+      <c r="P29" s="128" t="n">
+        <v>6995</v>
+      </c>
+      <c r="Q29" s="188" t="n">
+        <v>6</v>
+      </c>
+      <c r="R29" s="128" t="n">
+        <v>6055</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="184" t="inlineStr">
+        <is>
+          <t>#L2QQL9QVJ</t>
+        </is>
+      </c>
+      <c r="B30" s="184" t="n">
+        <v>1450</v>
+      </c>
+      <c r="C30" s="177" t="n">
+        <v>27</v>
+      </c>
+      <c r="D30" s="117" t="inlineStr">
+        <is>
+          <t>JustPre10d</t>
+        </is>
+      </c>
+      <c r="E30" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="185" t="n">
+        <v>6</v>
+      </c>
+      <c r="P30" s="122" t="n">
+        <v>6655</v>
+      </c>
+      <c r="Q30" s="185" t="n">
+        <v>6</v>
+      </c>
+      <c r="R30" s="122" t="n">
+        <v>7675</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="187" t="inlineStr">
+        <is>
+          <t>#LPR9RPCY9</t>
+        </is>
+      </c>
+      <c r="B31" s="187" t="n">
+        <v>990</v>
+      </c>
+      <c r="C31" s="181" t="n">
+        <v>28</v>
+      </c>
+      <c r="D31" s="124" t="inlineStr">
+        <is>
+          <t>sayhuss17</t>
+        </is>
+      </c>
+      <c r="E31" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="191" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="128" t="inlineStr">
-        <is>
-          <t>raptor2222a</t>
-        </is>
-      </c>
-      <c r="E7" s="165" t="n">
-        <v>6</v>
-      </c>
-      <c r="F7" s="128" t="n">
-        <v>6971</v>
-      </c>
-      <c r="G7" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="165" t="n">
+      <c r="P31" s="129" t="n">
+        <v>4240</v>
+      </c>
+      <c r="Q31" s="187" t="n"/>
+      <c r="R31" s="126" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="184" t="inlineStr">
+        <is>
+          <t>#QQL8C29CY</t>
+        </is>
+      </c>
+      <c r="B32" s="184" t="n">
+        <v>864</v>
+      </c>
+      <c r="C32" s="177" t="n">
+        <v>29</v>
+      </c>
+      <c r="D32" s="117" t="inlineStr">
+        <is>
+          <t>TypicalTeague#2</t>
+        </is>
+      </c>
+      <c r="E32" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="185" t="n">
         <v>5</v>
       </c>
-      <c r="J7" s="129" t="n">
-        <v>4350</v>
-      </c>
-      <c r="K7" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="163" t="n"/>
-      <c r="N7" s="126" t="n"/>
-      <c r="O7" s="163" t="n"/>
-      <c r="P7" s="126" t="n"/>
-      <c r="Q7" s="163" t="n"/>
-      <c r="R7" s="126" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="167" t="inlineStr">
-        <is>
-          <t>#VGG9LYL0</t>
-        </is>
-      </c>
-      <c r="B8" s="167" t="n">
-        <v>1059</v>
-      </c>
-      <c r="C8" s="160" t="n">
+      <c r="P32" s="130" t="n">
+        <v>4070</v>
+      </c>
+      <c r="Q32" s="185" t="n">
+        <v>6</v>
+      </c>
+      <c r="R32" s="122" t="n">
+        <v>6410</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="187" t="inlineStr">
+        <is>
+          <t>#L9QL9YQQY</t>
+        </is>
+      </c>
+      <c r="B33" s="187" t="n">
+        <v>975</v>
+      </c>
+      <c r="C33" s="181" t="n">
+        <v>30</v>
+      </c>
+      <c r="D33" s="124" t="inlineStr">
+        <is>
+          <t>Ima Chad</t>
+        </is>
+      </c>
+      <c r="E33" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="188" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="122" t="inlineStr">
-        <is>
-          <t>ptripp1048</t>
-        </is>
-      </c>
-      <c r="E8" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="F8" s="122" t="n">
-        <v>6023</v>
-      </c>
-      <c r="G8" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="167" t="n"/>
-      <c r="L8" s="120" t="n"/>
-      <c r="M8" s="167" t="n"/>
-      <c r="N8" s="120" t="n"/>
-      <c r="O8" s="167" t="n"/>
-      <c r="P8" s="120" t="n"/>
-      <c r="Q8" s="167" t="n"/>
-      <c r="R8" s="120" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="163" t="inlineStr">
-        <is>
-          <t>#G0JPUQGYR</t>
-        </is>
-      </c>
-      <c r="B9" s="163" t="n">
-        <v>1412</v>
-      </c>
-      <c r="C9" s="164" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" s="129" t="inlineStr">
-        <is>
-          <t>Collin</t>
-        </is>
-      </c>
-      <c r="E9" s="170" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" s="129" t="n">
-        <v>4455</v>
-      </c>
-      <c r="G9" s="166" t="n">
-        <v>20</v>
-      </c>
-      <c r="H9" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="165" t="n">
-        <v>6</v>
-      </c>
-      <c r="J9" s="128" t="n">
-        <v>8833</v>
-      </c>
-      <c r="K9" s="165" t="n">
-        <v>6</v>
-      </c>
-      <c r="L9" s="128" t="n">
-        <v>9238</v>
-      </c>
-      <c r="M9" s="165" t="n">
-        <v>6</v>
-      </c>
-      <c r="N9" s="128" t="n">
-        <v>7756</v>
-      </c>
-      <c r="O9" s="165" t="n">
-        <v>6</v>
-      </c>
-      <c r="P9" s="129" t="n">
-        <v>5943</v>
-      </c>
-      <c r="Q9" s="165" t="n">
-        <v>6</v>
-      </c>
-      <c r="R9" s="128" t="n">
-        <v>8224</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="94" t="inlineStr">
-        <is>
-          <t>#QLJ2U20Y2</t>
-        </is>
-      </c>
-      <c r="B10" s="94" t="n">
-        <v>1486</v>
-      </c>
-      <c r="C10" s="95" t="n">
-        <v>7</v>
-      </c>
-      <c r="D10" s="96" t="inlineStr">
-        <is>
-          <t>DeadLeaf</t>
-        </is>
-      </c>
-      <c r="E10" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="98" t="n">
-        <v>30</v>
-      </c>
-      <c r="I10" s="99" t="n">
-        <v>6</v>
-      </c>
-      <c r="J10" s="100" t="n">
-        <v>13763</v>
-      </c>
-      <c r="K10" s="99" t="n">
-        <v>6</v>
-      </c>
-      <c r="L10" s="100" t="n">
-        <v>11140</v>
-      </c>
-      <c r="M10" s="99" t="n">
-        <v>6</v>
-      </c>
-      <c r="N10" s="100" t="n">
-        <v>15509</v>
-      </c>
-      <c r="O10" s="99" t="n">
-        <v>6</v>
-      </c>
-      <c r="P10" s="100" t="n">
-        <v>8567</v>
-      </c>
-      <c r="Q10" s="99" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" s="100" t="n">
-        <v>9729</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="171" t="inlineStr">
-        <is>
-          <t>#G0QPVJY9L</t>
-        </is>
-      </c>
-      <c r="B11" s="171" t="n">
-        <v>828</v>
-      </c>
-      <c r="C11" s="164" t="n">
-        <v>8</v>
-      </c>
-      <c r="D11" s="103" t="inlineStr">
-        <is>
-          <t>Zoro</t>
-        </is>
-      </c>
-      <c r="E11" s="172" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="172" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="173" t="n">
-        <v>6</v>
-      </c>
-      <c r="J11" s="107" t="n">
-        <v>13432</v>
-      </c>
-      <c r="K11" s="173" t="n">
-        <v>6</v>
-      </c>
-      <c r="L11" s="107" t="n">
-        <v>8855</v>
-      </c>
-      <c r="M11" s="173" t="n">
-        <v>6</v>
-      </c>
-      <c r="N11" s="107" t="n">
-        <v>10965</v>
-      </c>
-      <c r="O11" s="173" t="n">
-        <v>6</v>
-      </c>
-      <c r="P11" s="107" t="n">
-        <v>7905</v>
-      </c>
-      <c r="Q11" s="173" t="n">
-        <v>6</v>
-      </c>
-      <c r="R11" s="107" t="n">
-        <v>6744</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="159" t="inlineStr">
-        <is>
-          <t>#90U0VPU9U</t>
-        </is>
-      </c>
-      <c r="B12" s="159" t="n">
-        <v>2534</v>
-      </c>
-      <c r="C12" s="160" t="n">
-        <v>9</v>
-      </c>
-      <c r="D12" s="110" t="inlineStr">
-        <is>
-          <t>KYANI7E</t>
-        </is>
-      </c>
-      <c r="E12" s="162" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="174" t="n">
-        <v>206</v>
-      </c>
-      <c r="H12" s="113" t="n">
-        <v>4</v>
-      </c>
-      <c r="I12" s="161" t="n">
-        <v>6</v>
-      </c>
-      <c r="J12" s="115" t="n">
-        <v>13260</v>
-      </c>
-      <c r="K12" s="161" t="n">
-        <v>6</v>
-      </c>
-      <c r="L12" s="115" t="n">
-        <v>12144</v>
-      </c>
-      <c r="M12" s="161" t="n">
-        <v>6</v>
-      </c>
-      <c r="N12" s="115" t="n">
-        <v>12835</v>
-      </c>
-      <c r="O12" s="161" t="n">
-        <v>6</v>
-      </c>
-      <c r="P12" s="115" t="n">
-        <v>7696</v>
-      </c>
-      <c r="Q12" s="161" t="n">
-        <v>6</v>
-      </c>
-      <c r="R12" s="115" t="n">
-        <v>9188</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="171" t="inlineStr">
-        <is>
-          <t>#YJ20CRJYQ</t>
-        </is>
-      </c>
-      <c r="B13" s="171" t="n">
-        <v>1265</v>
-      </c>
-      <c r="C13" s="164" t="n">
-        <v>10</v>
-      </c>
-      <c r="D13" s="103" t="inlineStr">
-        <is>
-          <t>UnluckGod</t>
-        </is>
-      </c>
-      <c r="E13" s="172" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="172" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="105" t="n">
-        <v>61</v>
-      </c>
-      <c r="I13" s="173" t="n">
-        <v>6</v>
-      </c>
-      <c r="J13" s="107" t="n">
-        <v>12824</v>
-      </c>
-      <c r="K13" s="173" t="n">
-        <v>6</v>
-      </c>
-      <c r="L13" s="107" t="n">
-        <v>11999</v>
-      </c>
-      <c r="M13" s="173" t="n">
-        <v>6</v>
-      </c>
-      <c r="N13" s="107" t="n">
-        <v>12972</v>
-      </c>
-      <c r="O13" s="173" t="n">
-        <v>6</v>
-      </c>
-      <c r="P13" s="107" t="n">
-        <v>8286</v>
-      </c>
-      <c r="Q13" s="173" t="n">
-        <v>6</v>
-      </c>
-      <c r="R13" s="107" t="n">
-        <v>11406</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="159" t="inlineStr">
-        <is>
-          <t>#QUV2GP88U</t>
-        </is>
-      </c>
-      <c r="B14" s="159" t="n">
-        <v>736</v>
-      </c>
-      <c r="C14" s="160" t="n">
-        <v>11</v>
-      </c>
-      <c r="D14" s="110" t="inlineStr">
-        <is>
-          <t>Nico Robin</t>
-        </is>
-      </c>
-      <c r="E14" s="162" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="162" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="161" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" s="115" t="n">
-        <v>12612</v>
-      </c>
-      <c r="K14" s="161" t="n">
-        <v>6</v>
-      </c>
-      <c r="L14" s="115" t="n">
-        <v>11338</v>
-      </c>
-      <c r="M14" s="161" t="n">
-        <v>6</v>
-      </c>
-      <c r="N14" s="115" t="n">
-        <v>10997</v>
-      </c>
-      <c r="O14" s="161" t="n">
-        <v>6</v>
-      </c>
-      <c r="P14" s="115" t="n">
-        <v>11087</v>
-      </c>
-      <c r="Q14" s="161" t="n">
-        <v>6</v>
-      </c>
-      <c r="R14" s="115" t="n">
-        <v>8089</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="171" t="inlineStr">
-        <is>
-          <t>#YRGRRJQCY</t>
-        </is>
-      </c>
-      <c r="B15" s="171" t="n">
-        <v>1366</v>
-      </c>
-      <c r="C15" s="164" t="n">
-        <v>12</v>
-      </c>
-      <c r="D15" s="103" t="inlineStr">
-        <is>
-          <t>DoubleSpice</t>
-        </is>
-      </c>
-      <c r="E15" s="172" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="172" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="105" t="n">
-        <v>60</v>
-      </c>
-      <c r="I15" s="173" t="n">
-        <v>6</v>
-      </c>
-      <c r="J15" s="107" t="n">
-        <v>11620</v>
-      </c>
-      <c r="K15" s="173" t="n">
-        <v>6</v>
-      </c>
-      <c r="L15" s="107" t="n">
-        <v>14095</v>
-      </c>
-      <c r="M15" s="173" t="n">
-        <v>6</v>
-      </c>
-      <c r="N15" s="107" t="n">
-        <v>12379</v>
-      </c>
-      <c r="O15" s="173" t="n">
-        <v>6</v>
-      </c>
-      <c r="P15" s="107" t="n">
-        <v>8256</v>
-      </c>
-      <c r="Q15" s="173" t="n">
-        <v>6</v>
-      </c>
-      <c r="R15" s="107" t="n">
-        <v>7054</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="159" t="inlineStr">
-        <is>
-          <t>#QUG8QQJ92</t>
-        </is>
-      </c>
-      <c r="B16" s="159" t="n">
-        <v>891</v>
-      </c>
-      <c r="C16" s="160" t="n">
-        <v>13</v>
-      </c>
-      <c r="D16" s="110" t="inlineStr">
-        <is>
-          <t>Karma</t>
-        </is>
-      </c>
-      <c r="E16" s="162" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="162" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="161" t="n">
-        <v>6</v>
-      </c>
-      <c r="J16" s="115" t="n">
-        <v>11355</v>
-      </c>
-      <c r="K16" s="161" t="n">
-        <v>6</v>
-      </c>
-      <c r="L16" s="115" t="n">
-        <v>10003</v>
-      </c>
-      <c r="M16" s="161" t="n">
-        <v>6</v>
-      </c>
-      <c r="N16" s="115" t="n">
-        <v>10595</v>
-      </c>
-      <c r="O16" s="161" t="n">
-        <v>6</v>
-      </c>
-      <c r="P16" s="115" t="n">
-        <v>9240</v>
-      </c>
-      <c r="Q16" s="161" t="n">
-        <v>6</v>
-      </c>
-      <c r="R16" s="115" t="n">
-        <v>10628</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="163" t="inlineStr">
-        <is>
-          <t>#98JG2UJQL</t>
-        </is>
-      </c>
-      <c r="B17" s="163" t="n">
-        <v>2922</v>
-      </c>
-      <c r="C17" s="164" t="n">
-        <v>14</v>
-      </c>
-      <c r="D17" s="124" t="inlineStr">
-        <is>
-          <t>Dragonux</t>
-        </is>
-      </c>
-      <c r="E17" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="170" t="n">
-        <v>211</v>
-      </c>
-      <c r="H17" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="165" t="n">
-        <v>6</v>
-      </c>
-      <c r="J17" s="128" t="n">
-        <v>10910</v>
-      </c>
-      <c r="K17" s="165" t="n">
-        <v>6</v>
-      </c>
-      <c r="L17" s="128" t="n">
-        <v>8750</v>
-      </c>
-      <c r="M17" s="165" t="n">
-        <v>6</v>
-      </c>
-      <c r="N17" s="128" t="n">
-        <v>10865</v>
-      </c>
-      <c r="O17" s="165" t="n">
-        <v>6</v>
-      </c>
-      <c r="P17" s="128" t="n">
-        <v>8025</v>
-      </c>
-      <c r="Q17" s="165" t="n">
-        <v>6</v>
-      </c>
-      <c r="R17" s="128" t="n">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="159" t="inlineStr">
-        <is>
-          <t>#QLR088LC9</t>
-        </is>
-      </c>
-      <c r="B18" s="159" t="n">
-        <v>883</v>
-      </c>
-      <c r="C18" s="160" t="n">
-        <v>15</v>
-      </c>
-      <c r="D18" s="110" t="inlineStr">
-        <is>
-          <t>Sanji</t>
-        </is>
-      </c>
-      <c r="E18" s="162" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="162" t="n">
-        <v>6</v>
-      </c>
-      <c r="H18" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="161" t="n">
-        <v>6</v>
-      </c>
-      <c r="J18" s="115" t="n">
-        <v>10910</v>
-      </c>
-      <c r="K18" s="161" t="n">
-        <v>6</v>
-      </c>
-      <c r="L18" s="115" t="n">
-        <v>9550</v>
-      </c>
-      <c r="M18" s="161" t="n">
-        <v>6</v>
-      </c>
-      <c r="N18" s="115" t="n">
-        <v>9138</v>
-      </c>
-      <c r="O18" s="161" t="n">
-        <v>6</v>
-      </c>
-      <c r="P18" s="115" t="n">
-        <v>8897</v>
-      </c>
-      <c r="Q18" s="161" t="n">
-        <v>6</v>
-      </c>
-      <c r="R18" s="115" t="n">
-        <v>8512</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="171" t="inlineStr">
-        <is>
-          <t>#QUYG0PQC8</t>
-        </is>
-      </c>
-      <c r="B19" s="171" t="n">
-        <v>852</v>
-      </c>
-      <c r="C19" s="164" t="n">
-        <v>16</v>
-      </c>
-      <c r="D19" s="103" t="inlineStr">
-        <is>
-          <t>Luffy</t>
-        </is>
-      </c>
-      <c r="E19" s="172" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="172" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="173" t="n">
-        <v>6</v>
-      </c>
-      <c r="J19" s="107" t="n">
-        <v>10879</v>
-      </c>
-      <c r="K19" s="173" t="n">
-        <v>6</v>
-      </c>
-      <c r="L19" s="107" t="n">
-        <v>9114</v>
-      </c>
-      <c r="M19" s="173" t="n">
-        <v>6</v>
-      </c>
-      <c r="N19" s="107" t="n">
-        <v>13385</v>
-      </c>
-      <c r="O19" s="173" t="n">
-        <v>6</v>
-      </c>
-      <c r="P19" s="107" t="n">
-        <v>7877</v>
-      </c>
-      <c r="Q19" s="173" t="n">
-        <v>6</v>
-      </c>
-      <c r="R19" s="107" t="n">
-        <v>8347</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="167" t="inlineStr">
-        <is>
-          <t>#82QLQCJRJ</t>
-        </is>
-      </c>
-      <c r="B20" s="167" t="n">
-        <v>2903</v>
-      </c>
-      <c r="C20" s="160" t="n">
-        <v>17</v>
-      </c>
-      <c r="D20" s="117" t="inlineStr">
-        <is>
-          <t>Raging Fury</t>
-        </is>
-      </c>
-      <c r="E20" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" s="122" t="n">
-        <v>8055</v>
-      </c>
-      <c r="K20" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="L20" s="122" t="n">
-        <v>7115</v>
-      </c>
-      <c r="M20" s="169" t="n">
-        <v>2</v>
-      </c>
-      <c r="N20" s="117" t="n">
-        <v>2320</v>
-      </c>
-      <c r="O20" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="P20" s="130" t="n">
-        <v>4920</v>
-      </c>
-      <c r="Q20" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="R20" s="130" t="n">
-        <v>5135</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="171" t="inlineStr">
-        <is>
-          <t>#Q8CLCUCC2</t>
-        </is>
-      </c>
-      <c r="B21" s="171" t="n">
-        <v>1373</v>
-      </c>
-      <c r="C21" s="164" t="n">
-        <v>18</v>
-      </c>
-      <c r="D21" s="103" t="inlineStr">
-        <is>
-          <t>Moxxi</t>
-        </is>
-      </c>
-      <c r="E21" s="172" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="172" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="105" t="n">
-        <v>60</v>
-      </c>
-      <c r="I21" s="173" t="n">
-        <v>6</v>
-      </c>
-      <c r="J21" s="107" t="n">
-        <v>8015</v>
-      </c>
-      <c r="K21" s="173" t="n">
-        <v>6</v>
-      </c>
-      <c r="L21" s="107" t="n">
-        <v>11010</v>
-      </c>
-      <c r="M21" s="173" t="n">
-        <v>6</v>
-      </c>
-      <c r="N21" s="107" t="n">
-        <v>13857</v>
-      </c>
-      <c r="O21" s="173" t="n">
-        <v>6</v>
-      </c>
-      <c r="P21" s="107" t="n">
-        <v>7905</v>
-      </c>
-      <c r="Q21" s="173" t="n">
-        <v>6</v>
-      </c>
-      <c r="R21" s="107" t="n">
-        <v>7224</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="167" t="inlineStr">
-        <is>
-          <t>#QRPRYR8LL</t>
-        </is>
-      </c>
-      <c r="B22" s="167" t="n">
-        <v>1183</v>
-      </c>
-      <c r="C22" s="160" t="n">
-        <v>19</v>
-      </c>
-      <c r="D22" s="117" t="inlineStr">
-        <is>
-          <t>FidelCashflow</t>
-        </is>
-      </c>
-      <c r="E22" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="169" t="n">
-        <v>4</v>
-      </c>
-      <c r="H22" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="J22" s="122" t="n">
-        <v>6415</v>
-      </c>
-      <c r="K22" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="L22" s="122" t="n">
-        <v>6547</v>
-      </c>
-      <c r="M22" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="N22" s="122" t="n">
-        <v>6811</v>
-      </c>
-      <c r="O22" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="P22" s="130" t="n">
-        <v>4239</v>
-      </c>
-      <c r="Q22" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="R22" s="130" t="n">
-        <v>4214</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="163" t="inlineStr">
-        <is>
-          <t>#QY0VGPQGQ</t>
-        </is>
-      </c>
-      <c r="B23" s="163" t="n">
-        <v>533</v>
-      </c>
-      <c r="C23" s="164" t="n">
-        <v>20</v>
-      </c>
-      <c r="D23" s="124" t="inlineStr">
-        <is>
-          <t>killerjones</t>
-        </is>
-      </c>
-      <c r="E23" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="126" t="n">
-        <v>15</v>
-      </c>
-      <c r="I23" s="165" t="n">
-        <v>6</v>
-      </c>
-      <c r="J23" s="128" t="n">
-        <v>6320</v>
-      </c>
-      <c r="K23" s="163" t="n"/>
-      <c r="L23" s="126" t="n"/>
-      <c r="M23" s="163" t="n"/>
-      <c r="N23" s="126" t="n"/>
-      <c r="O23" s="163" t="n"/>
-      <c r="P23" s="126" t="n"/>
-      <c r="Q23" s="163" t="n"/>
-      <c r="R23" s="126" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="167" t="inlineStr">
-        <is>
-          <t>#QLG0VJG2J</t>
-        </is>
-      </c>
-      <c r="B24" s="167" t="n">
-        <v>1167</v>
-      </c>
-      <c r="C24" s="160" t="n">
-        <v>21</v>
-      </c>
-      <c r="D24" s="117" t="inlineStr">
-        <is>
-          <t>PocketRocket</t>
-        </is>
-      </c>
-      <c r="E24" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="169" t="n">
-        <v>20</v>
-      </c>
-      <c r="H24" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="175" t="n">
-        <v>4</v>
-      </c>
-      <c r="J24" s="130" t="n">
-        <v>4327</v>
-      </c>
-      <c r="K24" s="175" t="n">
-        <v>4</v>
-      </c>
-      <c r="L24" s="130" t="n">
-        <v>5215</v>
-      </c>
-      <c r="M24" s="167" t="n"/>
-      <c r="N24" s="120" t="n"/>
-      <c r="O24" s="167" t="n"/>
-      <c r="P24" s="120" t="n"/>
-      <c r="Q24" s="167" t="n"/>
-      <c r="R24" s="120" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="163" t="inlineStr">
-        <is>
-          <t>#QL8LVLYG8</t>
-        </is>
-      </c>
-      <c r="B25" s="163" t="n">
-        <v>930</v>
-      </c>
-      <c r="C25" s="164" t="n">
-        <v>22</v>
-      </c>
-      <c r="D25" s="124" t="inlineStr">
-        <is>
-          <t>Some guy</t>
-        </is>
-      </c>
-      <c r="E25" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="126" t="n">
-        <v>20</v>
-      </c>
-      <c r="I25" s="166" t="n">
-        <v>2</v>
-      </c>
-      <c r="J25" s="124" t="n">
-        <v>2650</v>
-      </c>
-      <c r="K25" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="165" t="n">
-        <v>6</v>
-      </c>
-      <c r="N25" s="128" t="n">
-        <v>6917</v>
-      </c>
-      <c r="O25" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="166" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" s="124" t="n">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="167" t="inlineStr">
-        <is>
-          <t>#QJC8LQU9U</t>
-        </is>
-      </c>
-      <c r="B26" s="167" t="n">
-        <v>998</v>
-      </c>
-      <c r="C26" s="160" t="n">
-        <v>23</v>
-      </c>
-      <c r="D26" s="117" t="inlineStr">
-        <is>
-          <t>Master01</t>
-        </is>
-      </c>
-      <c r="E26" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="N26" s="130" t="n">
-        <v>5415</v>
-      </c>
-      <c r="O26" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="P26" s="130" t="n">
-        <v>4835</v>
-      </c>
-      <c r="Q26" s="168" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" s="130" t="n">
-        <v>4055</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="163" t="inlineStr">
-        <is>
-          <t>#QV8JJ0URU</t>
-        </is>
-      </c>
-      <c r="B27" s="163" t="n">
+      <c r="R33" s="124" t="n">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="184" t="inlineStr">
+        <is>
+          <t>#PJYVV989R</t>
+        </is>
+      </c>
+      <c r="B34" s="184" t="n">
+        <v>1531</v>
+      </c>
+      <c r="C34" s="177" t="n">
+        <v>31</v>
+      </c>
+      <c r="D34" s="117" t="inlineStr">
+        <is>
+          <t>nx</t>
+        </is>
+      </c>
+      <c r="E34" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="186" t="n">
+        <v>32</v>
+      </c>
+      <c r="H34" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="184" t="n"/>
+      <c r="R34" s="120" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="187" t="inlineStr">
+        <is>
+          <t>#L9JJQY992</t>
+        </is>
+      </c>
+      <c r="B35" s="187" t="n">
+        <v>773</v>
+      </c>
+      <c r="C35" s="181" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" s="124" t="inlineStr">
+        <is>
+          <t>Fisted_Waffle</t>
+        </is>
+      </c>
+      <c r="E35" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="187" t="n"/>
+      <c r="R35" s="126" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="184" t="inlineStr">
+        <is>
+          <t>#LPCLQUCCY</t>
+        </is>
+      </c>
+      <c r="B36" s="184" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C36" s="177" t="n">
+        <v>33</v>
+      </c>
+      <c r="D36" s="117" t="inlineStr">
+        <is>
+          <t>Zodiac</t>
+        </is>
+      </c>
+      <c r="E36" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="184" t="n"/>
+      <c r="L36" s="120" t="n"/>
+      <c r="M36" s="184" t="n"/>
+      <c r="N36" s="120" t="n"/>
+      <c r="O36" s="184" t="n"/>
+      <c r="P36" s="120" t="n"/>
+      <c r="Q36" s="184" t="n"/>
+      <c r="R36" s="120" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="187" t="inlineStr">
+        <is>
+          <t>#QQL28Y2UL</t>
+        </is>
+      </c>
+      <c r="B37" s="187" t="n">
+        <v>1107</v>
+      </c>
+      <c r="C37" s="181" t="n">
+        <v>34</v>
+      </c>
+      <c r="D37" s="124" t="inlineStr">
+        <is>
+          <t>SUPoT</t>
+        </is>
+      </c>
+      <c r="E37" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="126" t="n">
+        <v>56</v>
+      </c>
+      <c r="I37" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="187" t="n"/>
+      <c r="L37" s="126" t="n"/>
+      <c r="M37" s="187" t="n"/>
+      <c r="N37" s="126" t="n"/>
+      <c r="O37" s="187" t="n"/>
+      <c r="P37" s="126" t="n"/>
+      <c r="Q37" s="187" t="n"/>
+      <c r="R37" s="126" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="184" t="inlineStr">
+        <is>
+          <t>#QV8RY9UC8</t>
+        </is>
+      </c>
+      <c r="B38" s="184" t="n">
+        <v>813</v>
+      </c>
+      <c r="C38" s="177" t="n">
+        <v>35</v>
+      </c>
+      <c r="D38" s="117" t="inlineStr">
+        <is>
+          <t>Apollo</t>
+        </is>
+      </c>
+      <c r="E38" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="184" t="n"/>
+      <c r="L38" s="120" t="n"/>
+      <c r="M38" s="184" t="n"/>
+      <c r="N38" s="120" t="n"/>
+      <c r="O38" s="184" t="n"/>
+      <c r="P38" s="120" t="n"/>
+      <c r="Q38" s="184" t="n"/>
+      <c r="R38" s="120" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="187" t="inlineStr">
+        <is>
+          <t>#QLGYRVPU0</t>
+        </is>
+      </c>
+      <c r="B39" s="187" t="n">
+        <v>871</v>
+      </c>
+      <c r="C39" s="181" t="n">
+        <v>36</v>
+      </c>
+      <c r="D39" s="124" t="inlineStr">
+        <is>
+          <t>Black.Boy.</t>
+        </is>
+      </c>
+      <c r="E39" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="126" t="n">
+        <v>86</v>
+      </c>
+      <c r="I39" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="187" t="n"/>
+      <c r="L39" s="126" t="n"/>
+      <c r="M39" s="187" t="n"/>
+      <c r="N39" s="126" t="n"/>
+      <c r="O39" s="187" t="n"/>
+      <c r="P39" s="126" t="n"/>
+      <c r="Q39" s="187" t="n"/>
+      <c r="R39" s="126" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="184" t="inlineStr">
+        <is>
+          <t>#QUGYGY88C</t>
+        </is>
+      </c>
+      <c r="B40" s="184" t="n">
+        <v>941</v>
+      </c>
+      <c r="C40" s="177" t="n">
+        <v>37</v>
+      </c>
+      <c r="D40" s="117" t="inlineStr">
+        <is>
+          <t>Kingsman</t>
+        </is>
+      </c>
+      <c r="E40" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="184" t="n"/>
+      <c r="L40" s="120" t="n"/>
+      <c r="M40" s="184" t="n"/>
+      <c r="N40" s="120" t="n"/>
+      <c r="O40" s="184" t="n"/>
+      <c r="P40" s="120" t="n"/>
+      <c r="Q40" s="184" t="n"/>
+      <c r="R40" s="120" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="187" t="inlineStr">
+        <is>
+          <t>#QJQV82JG0</t>
+        </is>
+      </c>
+      <c r="B41" s="187" t="n">
+        <v>904</v>
+      </c>
+      <c r="C41" s="181" t="n">
+        <v>38</v>
+      </c>
+      <c r="D41" s="124" t="inlineStr">
+        <is>
+          <t>The UnknownYT</t>
+        </is>
+      </c>
+      <c r="E41" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="189" t="n">
+        <v>6</v>
+      </c>
+      <c r="H41" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="187" t="n"/>
+      <c r="J41" s="126" t="n"/>
+      <c r="K41" s="187" t="n"/>
+      <c r="L41" s="126" t="n"/>
+      <c r="M41" s="187" t="n"/>
+      <c r="N41" s="126" t="n"/>
+      <c r="O41" s="187" t="n"/>
+      <c r="P41" s="126" t="n"/>
+      <c r="Q41" s="187" t="n"/>
+      <c r="R41" s="126" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="184" t="inlineStr">
+        <is>
+          <t>#Q0U0CRCGJ</t>
+        </is>
+      </c>
+      <c r="B42" s="184" t="n">
         <v>741</v>
       </c>
-      <c r="C27" s="164" t="n">
-        <v>24</v>
-      </c>
-      <c r="D27" s="124" t="inlineStr">
-        <is>
-          <t>✨Jacob</t>
-        </is>
-      </c>
-      <c r="E27" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" s="165" t="n">
-        <v>6</v>
-      </c>
-      <c r="P27" s="128" t="n">
-        <v>7385</v>
-      </c>
-      <c r="Q27" s="165" t="n">
-        <v>6</v>
-      </c>
-      <c r="R27" s="128" t="n">
-        <v>9155</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="167" t="inlineStr">
-        <is>
-          <t>#QY8L2GLUR</t>
-        </is>
-      </c>
-      <c r="B28" s="167" t="n">
-        <v>907</v>
-      </c>
-      <c r="C28" s="160" t="n">
-        <v>25</v>
-      </c>
-      <c r="D28" s="117" t="inlineStr">
-        <is>
-          <t>Huy</t>
-        </is>
-      </c>
-      <c r="E28" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="P28" s="122" t="n">
-        <v>6995</v>
-      </c>
-      <c r="Q28" s="168" t="n">
-        <v>6</v>
-      </c>
-      <c r="R28" s="122" t="n">
-        <v>6055</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="163" t="inlineStr">
-        <is>
-          <t>#L2QQL9QVJ</t>
-        </is>
-      </c>
-      <c r="B29" s="163" t="n">
-        <v>1450</v>
-      </c>
-      <c r="C29" s="164" t="n">
-        <v>26</v>
-      </c>
-      <c r="D29" s="124" t="inlineStr">
-        <is>
-          <t>JustPre10d</t>
-        </is>
-      </c>
-      <c r="E29" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" s="165" t="n">
-        <v>6</v>
-      </c>
-      <c r="P29" s="128" t="n">
-        <v>6655</v>
-      </c>
-      <c r="Q29" s="165" t="n">
-        <v>6</v>
-      </c>
-      <c r="R29" s="128" t="n">
-        <v>7675</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="167" t="inlineStr">
-        <is>
-          <t>#LPR9RPCY9</t>
-        </is>
-      </c>
-      <c r="B30" s="167" t="n">
-        <v>990</v>
-      </c>
-      <c r="C30" s="160" t="n">
-        <v>27</v>
-      </c>
-      <c r="D30" s="117" t="inlineStr">
-        <is>
-          <t>sayhuss17</t>
-        </is>
-      </c>
-      <c r="E30" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" s="175" t="n">
-        <v>4</v>
-      </c>
-      <c r="P30" s="130" t="n">
-        <v>4240</v>
-      </c>
-      <c r="Q30" s="167" t="n"/>
-      <c r="R30" s="120" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="163" t="inlineStr">
-        <is>
-          <t>#QQL8C29CY</t>
-        </is>
-      </c>
-      <c r="B31" s="163" t="n">
-        <v>864</v>
-      </c>
-      <c r="C31" s="164" t="n">
-        <v>28</v>
-      </c>
-      <c r="D31" s="124" t="inlineStr">
-        <is>
-          <t>TypicalTeague#2</t>
-        </is>
-      </c>
-      <c r="E31" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" s="165" t="n">
-        <v>5</v>
-      </c>
-      <c r="P31" s="129" t="n">
-        <v>4070</v>
-      </c>
-      <c r="Q31" s="165" t="n">
-        <v>6</v>
-      </c>
-      <c r="R31" s="128" t="n">
-        <v>6410</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="167" t="inlineStr">
-        <is>
-          <t>#L9QL9YQQY</t>
-        </is>
-      </c>
-      <c r="B32" s="167" t="n">
-        <v>975</v>
-      </c>
-      <c r="C32" s="160" t="n">
-        <v>29</v>
-      </c>
-      <c r="D32" s="117" t="inlineStr">
-        <is>
-          <t>Ima Chad</t>
-        </is>
-      </c>
-      <c r="E32" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="168" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" s="117" t="n">
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="163" t="inlineStr">
-        <is>
-          <t>#PJYVV989R</t>
-        </is>
-      </c>
-      <c r="B33" s="163" t="n">
-        <v>1531</v>
-      </c>
-      <c r="C33" s="164" t="n">
-        <v>30</v>
-      </c>
-      <c r="D33" s="124" t="inlineStr">
-        <is>
-          <t>nx</t>
-        </is>
-      </c>
-      <c r="E33" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="166" t="n">
-        <v>32</v>
-      </c>
-      <c r="H33" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="163" t="n"/>
-      <c r="R33" s="126" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="167" t="inlineStr">
-        <is>
-          <t>#L9JJQY992</t>
-        </is>
-      </c>
-      <c r="B34" s="167" t="n">
-        <v>773</v>
-      </c>
-      <c r="C34" s="160" t="n">
-        <v>31</v>
-      </c>
-      <c r="D34" s="117" t="inlineStr">
-        <is>
-          <t>Fisted_Waffle</t>
-        </is>
-      </c>
-      <c r="E34" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="167" t="n"/>
-      <c r="R34" s="120" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="163" t="inlineStr">
-        <is>
-          <t>#QLGYRVPU0</t>
-        </is>
-      </c>
-      <c r="B35" s="163" t="n">
-        <v>871</v>
-      </c>
-      <c r="C35" s="164" t="n">
-        <v>32</v>
-      </c>
-      <c r="D35" s="124" t="inlineStr">
-        <is>
-          <t>Black.Boy.</t>
-        </is>
-      </c>
-      <c r="E35" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="126" t="n">
-        <v>86</v>
-      </c>
-      <c r="I35" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="163" t="n"/>
-      <c r="L35" s="126" t="n"/>
-      <c r="M35" s="163" t="n"/>
-      <c r="N35" s="126" t="n"/>
-      <c r="O35" s="163" t="n"/>
-      <c r="P35" s="126" t="n"/>
-      <c r="Q35" s="163" t="n"/>
-      <c r="R35" s="126" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="167" t="inlineStr">
-        <is>
-          <t>#QUGYGY88C</t>
-        </is>
-      </c>
-      <c r="B36" s="167" t="n">
-        <v>941</v>
-      </c>
-      <c r="C36" s="160" t="n">
-        <v>33</v>
-      </c>
-      <c r="D36" s="117" t="inlineStr">
-        <is>
-          <t>Kingsman</t>
-        </is>
-      </c>
-      <c r="E36" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" s="167" t="n"/>
-      <c r="L36" s="120" t="n"/>
-      <c r="M36" s="167" t="n"/>
-      <c r="N36" s="120" t="n"/>
-      <c r="O36" s="167" t="n"/>
-      <c r="P36" s="120" t="n"/>
-      <c r="Q36" s="167" t="n"/>
-      <c r="R36" s="120" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="163" t="inlineStr">
-        <is>
-          <t>#LPCLQUCCY</t>
-        </is>
-      </c>
-      <c r="B37" s="163" t="n">
-        <v>1012</v>
-      </c>
-      <c r="C37" s="164" t="n">
-        <v>34</v>
-      </c>
-      <c r="D37" s="124" t="inlineStr">
-        <is>
-          <t>Zodiac</t>
-        </is>
-      </c>
-      <c r="E37" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="163" t="n"/>
-      <c r="L37" s="126" t="n"/>
-      <c r="M37" s="163" t="n"/>
-      <c r="N37" s="126" t="n"/>
-      <c r="O37" s="163" t="n"/>
-      <c r="P37" s="126" t="n"/>
-      <c r="Q37" s="163" t="n"/>
-      <c r="R37" s="126" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="167" t="inlineStr">
-        <is>
-          <t>#QV8RY9UC8</t>
-        </is>
-      </c>
-      <c r="B38" s="167" t="n">
-        <v>813</v>
-      </c>
-      <c r="C38" s="160" t="n">
-        <v>35</v>
-      </c>
-      <c r="D38" s="117" t="inlineStr">
-        <is>
-          <t>Apollo</t>
-        </is>
-      </c>
-      <c r="E38" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" s="167" t="n"/>
-      <c r="L38" s="120" t="n"/>
-      <c r="M38" s="167" t="n"/>
-      <c r="N38" s="120" t="n"/>
-      <c r="O38" s="167" t="n"/>
-      <c r="P38" s="120" t="n"/>
-      <c r="Q38" s="167" t="n"/>
-      <c r="R38" s="120" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="163" t="inlineStr">
-        <is>
-          <t>#QQL28Y2UL</t>
-        </is>
-      </c>
-      <c r="B39" s="163" t="n">
-        <v>1112</v>
-      </c>
-      <c r="C39" s="164" t="n">
-        <v>36</v>
-      </c>
-      <c r="D39" s="124" t="inlineStr">
-        <is>
-          <t>SUPoT</t>
-        </is>
-      </c>
-      <c r="E39" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="126" t="n">
-        <v>56</v>
-      </c>
-      <c r="I39" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" s="163" t="n"/>
-      <c r="L39" s="126" t="n"/>
-      <c r="M39" s="163" t="n"/>
-      <c r="N39" s="126" t="n"/>
-      <c r="O39" s="163" t="n"/>
-      <c r="P39" s="126" t="n"/>
-      <c r="Q39" s="163" t="n"/>
-      <c r="R39" s="126" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="167" t="inlineStr">
-        <is>
-          <t>#QUVJGC0VQ</t>
-        </is>
-      </c>
-      <c r="B40" s="167" t="n">
-        <v>1192</v>
-      </c>
-      <c r="C40" s="160" t="n">
-        <v>37</v>
-      </c>
-      <c r="D40" s="117" t="inlineStr">
-        <is>
-          <t>Cam</t>
-        </is>
-      </c>
-      <c r="E40" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="120" t="n">
-        <v>73</v>
-      </c>
-      <c r="I40" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" s="167" t="n"/>
-      <c r="L40" s="120" t="n"/>
-      <c r="M40" s="167" t="n"/>
-      <c r="N40" s="120" t="n"/>
-      <c r="O40" s="167" t="n"/>
-      <c r="P40" s="120" t="n"/>
-      <c r="Q40" s="167" t="n"/>
-      <c r="R40" s="120" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="163" t="inlineStr">
+      <c r="C42" s="177" t="n">
+        <v>39</v>
+      </c>
+      <c r="D42" s="117" t="inlineStr">
+        <is>
+          <t>Sn0wc0ne</t>
+        </is>
+      </c>
+      <c r="E42" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="184" t="n"/>
+      <c r="J42" s="120" t="n"/>
+      <c r="K42" s="184" t="n"/>
+      <c r="L42" s="120" t="n"/>
+      <c r="M42" s="184" t="n"/>
+      <c r="N42" s="120" t="n"/>
+      <c r="O42" s="184" t="n"/>
+      <c r="P42" s="120" t="n"/>
+      <c r="Q42" s="184" t="n"/>
+      <c r="R42" s="120" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="187" t="inlineStr">
+        <is>
+          <t>#LGCVY0L9P</t>
+        </is>
+      </c>
+      <c r="B43" s="187" t="n">
+        <v>935</v>
+      </c>
+      <c r="C43" s="181" t="n">
+        <v>40</v>
+      </c>
+      <c r="D43" s="124" t="inlineStr">
+        <is>
+          <t>Death1wolf</t>
+        </is>
+      </c>
+      <c r="E43" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="187" t="n"/>
+      <c r="J43" s="126" t="n"/>
+      <c r="K43" s="187" t="n"/>
+      <c r="L43" s="126" t="n"/>
+      <c r="M43" s="187" t="n"/>
+      <c r="N43" s="126" t="n"/>
+      <c r="O43" s="187" t="n"/>
+      <c r="P43" s="126" t="n"/>
+      <c r="Q43" s="187" t="n"/>
+      <c r="R43" s="126" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="184" t="inlineStr">
+        <is>
+          <t>#QUCCVCCJ0</t>
+        </is>
+      </c>
+      <c r="B44" s="184" t="n">
+        <v>738</v>
+      </c>
+      <c r="C44" s="177" t="n">
+        <v>41</v>
+      </c>
+      <c r="D44" s="117" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="E44" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="184" t="n"/>
+      <c r="J44" s="120" t="n"/>
+      <c r="K44" s="184" t="n"/>
+      <c r="L44" s="120" t="n"/>
+      <c r="M44" s="184" t="n"/>
+      <c r="N44" s="120" t="n"/>
+      <c r="O44" s="184" t="n"/>
+      <c r="P44" s="120" t="n"/>
+      <c r="Q44" s="184" t="n"/>
+      <c r="R44" s="120" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="187" t="inlineStr">
+        <is>
+          <t>#G0LJCVR2P</t>
+        </is>
+      </c>
+      <c r="B45" s="187" t="n">
+        <v>1036</v>
+      </c>
+      <c r="C45" s="181" t="n">
+        <v>42</v>
+      </c>
+      <c r="D45" s="124" t="inlineStr">
+        <is>
+          <t>DaddyChill</t>
+        </is>
+      </c>
+      <c r="E45" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="187" t="n"/>
+      <c r="J45" s="126" t="n"/>
+      <c r="K45" s="187" t="n"/>
+      <c r="L45" s="126" t="n"/>
+      <c r="M45" s="187" t="n"/>
+      <c r="N45" s="126" t="n"/>
+      <c r="O45" s="187" t="n"/>
+      <c r="P45" s="126" t="n"/>
+      <c r="Q45" s="187" t="n"/>
+      <c r="R45" s="126" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="184" t="inlineStr">
         <is>
           <t>#QLUV29GGJ</t>
         </is>
       </c>
-      <c r="B41" s="163" t="n">
+      <c r="B46" s="184" t="n">
         <v>992</v>
       </c>
-      <c r="C41" s="164" t="n">
-        <v>38</v>
-      </c>
-      <c r="D41" s="124" t="inlineStr">
+      <c r="C46" s="177" t="n">
+        <v>43</v>
+      </c>
+      <c r="D46" s="117" t="inlineStr">
         <is>
           <t>Kukoshibo</t>
         </is>
       </c>
-      <c r="E41" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="163" t="n"/>
-      <c r="J41" s="126" t="n"/>
-      <c r="K41" s="163" t="n"/>
-      <c r="L41" s="126" t="n"/>
-      <c r="M41" s="163" t="n"/>
-      <c r="N41" s="126" t="n"/>
-      <c r="O41" s="163" t="n"/>
-      <c r="P41" s="126" t="n"/>
-      <c r="Q41" s="163" t="n"/>
-      <c r="R41" s="126" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="167" t="inlineStr">
-        <is>
-          <t>#QUCCVCCJ0</t>
-        </is>
-      </c>
-      <c r="B42" s="167" t="n">
-        <v>756</v>
-      </c>
-      <c r="C42" s="160" t="n">
-        <v>39</v>
-      </c>
-      <c r="D42" s="117" t="inlineStr">
-        <is>
-          <t>koi</t>
-        </is>
-      </c>
-      <c r="E42" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="167" t="n"/>
-      <c r="J42" s="120" t="n"/>
-      <c r="K42" s="167" t="n"/>
-      <c r="L42" s="120" t="n"/>
-      <c r="M42" s="167" t="n"/>
-      <c r="N42" s="120" t="n"/>
-      <c r="O42" s="167" t="n"/>
-      <c r="P42" s="120" t="n"/>
-      <c r="Q42" s="167" t="n"/>
-      <c r="R42" s="120" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="163" t="inlineStr">
-        <is>
-          <t>#Q0U0CRCGJ</t>
-        </is>
-      </c>
-      <c r="B43" s="163" t="n">
-        <v>741</v>
-      </c>
-      <c r="C43" s="164" t="n">
-        <v>40</v>
-      </c>
-      <c r="D43" s="124" t="inlineStr">
-        <is>
-          <t>Sn0wc0ne</t>
-        </is>
-      </c>
-      <c r="E43" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="163" t="n"/>
-      <c r="J43" s="126" t="n"/>
-      <c r="K43" s="163" t="n"/>
-      <c r="L43" s="126" t="n"/>
-      <c r="M43" s="163" t="n"/>
-      <c r="N43" s="126" t="n"/>
-      <c r="O43" s="163" t="n"/>
-      <c r="P43" s="126" t="n"/>
-      <c r="Q43" s="163" t="n"/>
-      <c r="R43" s="126" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="167" t="inlineStr">
-        <is>
-          <t>#G0LJCVR2P</t>
-        </is>
-      </c>
-      <c r="B44" s="167" t="n">
-        <v>1036</v>
-      </c>
-      <c r="C44" s="160" t="n">
-        <v>41</v>
-      </c>
-      <c r="D44" s="117" t="inlineStr">
-        <is>
-          <t>DaddyChill</t>
-        </is>
-      </c>
-      <c r="E44" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="169" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="167" t="n"/>
-      <c r="J44" s="120" t="n"/>
-      <c r="K44" s="167" t="n"/>
-      <c r="L44" s="120" t="n"/>
-      <c r="M44" s="167" t="n"/>
-      <c r="N44" s="120" t="n"/>
-      <c r="O44" s="167" t="n"/>
-      <c r="P44" s="120" t="n"/>
-      <c r="Q44" s="167" t="n"/>
-      <c r="R44" s="120" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="163" t="inlineStr">
-        <is>
-          <t>#LGCVY0L9P</t>
-        </is>
-      </c>
-      <c r="B45" s="163" t="n">
-        <v>935</v>
-      </c>
-      <c r="C45" s="164" t="n">
-        <v>42</v>
-      </c>
-      <c r="D45" s="124" t="inlineStr">
-        <is>
-          <t>Death1wolf</t>
-        </is>
-      </c>
-      <c r="E45" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="163" t="n"/>
-      <c r="J45" s="126" t="n"/>
-      <c r="K45" s="163" t="n"/>
-      <c r="L45" s="126" t="n"/>
-      <c r="M45" s="163" t="n"/>
-      <c r="N45" s="126" t="n"/>
-      <c r="O45" s="163" t="n"/>
-      <c r="P45" s="126" t="n"/>
-      <c r="Q45" s="163" t="n"/>
-      <c r="R45" s="126" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="167" t="inlineStr">
-        <is>
-          <t>#QJQV82JG0</t>
-        </is>
-      </c>
-      <c r="B46" s="167" t="n">
-        <v>904</v>
-      </c>
-      <c r="C46" s="160" t="n">
-        <v>43</v>
-      </c>
-      <c r="D46" s="117" t="inlineStr">
-        <is>
-          <t>The UnknownYT</t>
-        </is>
-      </c>
-      <c r="E46" s="169" t="n">
+      <c r="E46" s="186" t="n">
         <v>0</v>
       </c>
       <c r="F46" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="G46" s="169" t="n">
-        <v>6</v>
+      <c r="G46" s="186" t="n">
+        <v>0</v>
       </c>
       <c r="H46" s="120" t="n">
         <v>0</v>
       </c>
-      <c r="I46" s="167" t="n"/>
+      <c r="I46" s="184" t="n"/>
       <c r="J46" s="120" t="n"/>
-      <c r="K46" s="167" t="n"/>
+      <c r="K46" s="184" t="n"/>
       <c r="L46" s="120" t="n"/>
-      <c r="M46" s="167" t="n"/>
+      <c r="M46" s="184" t="n"/>
       <c r="N46" s="120" t="n"/>
-      <c r="O46" s="167" t="n"/>
+      <c r="O46" s="184" t="n"/>
       <c r="P46" s="120" t="n"/>
-      <c r="Q46" s="167" t="n"/>
+      <c r="Q46" s="184" t="n"/>
       <c r="R46" s="120" t="n"/>
     </row>
     <row r="47">
@@ -3428,15 +3450,15 @@
       <c r="R47" s="134" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="169" t="inlineStr">
+      <c r="A48" s="186" t="inlineStr">
         <is>
           <t>#QLL0PVCRV</t>
         </is>
       </c>
-      <c r="B48" s="167" t="n">
+      <c r="B48" s="184" t="n">
         <v>1704</v>
       </c>
-      <c r="C48" s="160" t="n">
+      <c r="C48" s="177" t="n">
         <v>45</v>
       </c>
       <c r="D48" s="120" t="inlineStr">
@@ -3444,31 +3466,31 @@
           <t>Harsh chhillar</t>
         </is>
       </c>
-      <c r="E48" s="167" t="n"/>
+      <c r="E48" s="184" t="n"/>
       <c r="F48" s="120" t="n"/>
-      <c r="G48" s="167" t="n"/>
+      <c r="G48" s="184" t="n"/>
       <c r="H48" s="120" t="n"/>
-      <c r="I48" s="167" t="n"/>
+      <c r="I48" s="184" t="n"/>
       <c r="J48" s="120" t="n"/>
-      <c r="K48" s="167" t="n"/>
+      <c r="K48" s="184" t="n"/>
       <c r="L48" s="120" t="n"/>
-      <c r="M48" s="167" t="n"/>
+      <c r="M48" s="184" t="n"/>
       <c r="N48" s="120" t="n"/>
-      <c r="O48" s="167" t="n"/>
+      <c r="O48" s="184" t="n"/>
       <c r="P48" s="120" t="n"/>
-      <c r="Q48" s="167" t="n"/>
+      <c r="Q48" s="184" t="n"/>
       <c r="R48" s="120" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="166" t="inlineStr">
+      <c r="A49" s="189" t="inlineStr">
         <is>
           <t>#Q8YP9P8UJ</t>
         </is>
       </c>
-      <c r="B49" s="163" t="n">
+      <c r="B49" s="187" t="n">
         <v>945</v>
       </c>
-      <c r="C49" s="164" t="n">
+      <c r="C49" s="181" t="n">
         <v>46</v>
       </c>
       <c r="D49" s="126" t="inlineStr">
@@ -3476,35 +3498,35 @@
           <t>Ranger</t>
         </is>
       </c>
-      <c r="E49" s="163" t="n"/>
+      <c r="E49" s="187" t="n"/>
       <c r="F49" s="126" t="n"/>
-      <c r="G49" s="163" t="n"/>
+      <c r="G49" s="187" t="n"/>
       <c r="H49" s="126" t="n"/>
-      <c r="I49" s="163" t="n"/>
+      <c r="I49" s="187" t="n"/>
       <c r="J49" s="126" t="n"/>
-      <c r="K49" s="165" t="n">
+      <c r="K49" s="188" t="n">
         <v>5</v>
       </c>
       <c r="L49" s="129" t="n">
         <v>4680</v>
       </c>
-      <c r="M49" s="163" t="n"/>
+      <c r="M49" s="187" t="n"/>
       <c r="N49" s="126" t="n"/>
-      <c r="O49" s="163" t="n"/>
+      <c r="O49" s="187" t="n"/>
       <c r="P49" s="126" t="n"/>
-      <c r="Q49" s="163" t="n"/>
+      <c r="Q49" s="187" t="n"/>
       <c r="R49" s="126" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="169" t="inlineStr">
+      <c r="A50" s="186" t="inlineStr">
         <is>
           <t>#Q0JG2RJQ8</t>
         </is>
       </c>
-      <c r="B50" s="167" t="n">
+      <c r="B50" s="184" t="n">
         <v>997</v>
       </c>
-      <c r="C50" s="160" t="n">
+      <c r="C50" s="177" t="n">
         <v>47</v>
       </c>
       <c r="D50" s="120" t="inlineStr">
@@ -3512,35 +3534,35 @@
           <t>bozo</t>
         </is>
       </c>
-      <c r="E50" s="167" t="n"/>
+      <c r="E50" s="184" t="n"/>
       <c r="F50" s="120" t="n"/>
-      <c r="G50" s="167" t="n"/>
+      <c r="G50" s="184" t="n"/>
       <c r="H50" s="120" t="n"/>
-      <c r="I50" s="167" t="n"/>
+      <c r="I50" s="184" t="n"/>
       <c r="J50" s="120" t="n"/>
-      <c r="K50" s="167" t="n"/>
+      <c r="K50" s="184" t="n"/>
       <c r="L50" s="120" t="n"/>
-      <c r="M50" s="168" t="n">
+      <c r="M50" s="185" t="n">
         <v>6</v>
       </c>
       <c r="N50" s="122" t="n">
         <v>6495</v>
       </c>
-      <c r="O50" s="167" t="n"/>
+      <c r="O50" s="184" t="n"/>
       <c r="P50" s="120" t="n"/>
-      <c r="Q50" s="167" t="n"/>
+      <c r="Q50" s="184" t="n"/>
       <c r="R50" s="120" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="166" t="inlineStr">
+      <c r="A51" s="189" t="inlineStr">
         <is>
           <t>#UVCCQC02</t>
         </is>
       </c>
-      <c r="B51" s="163" t="n">
+      <c r="B51" s="187" t="n">
         <v>1806</v>
       </c>
-      <c r="C51" s="164" t="n">
+      <c r="C51" s="181" t="n">
         <v>48</v>
       </c>
       <c r="D51" s="126" t="inlineStr">
@@ -3548,27 +3570,27 @@
           <t>lordshisha</t>
         </is>
       </c>
-      <c r="E51" s="163" t="n"/>
+      <c r="E51" s="187" t="n"/>
       <c r="F51" s="126" t="n"/>
-      <c r="G51" s="163" t="n"/>
+      <c r="G51" s="187" t="n"/>
       <c r="H51" s="126" t="n"/>
-      <c r="I51" s="163" t="n"/>
+      <c r="I51" s="187" t="n"/>
       <c r="J51" s="126" t="n"/>
-      <c r="K51" s="163" t="n"/>
+      <c r="K51" s="187" t="n"/>
       <c r="L51" s="126" t="n"/>
-      <c r="M51" s="165" t="n">
+      <c r="M51" s="188" t="n">
         <v>6</v>
       </c>
       <c r="N51" s="128" t="n">
         <v>8496</v>
       </c>
-      <c r="O51" s="165" t="n">
+      <c r="O51" s="188" t="n">
         <v>6</v>
       </c>
       <c r="P51" s="128" t="n">
         <v>6310</v>
       </c>
-      <c r="Q51" s="165" t="n">
+      <c r="Q51" s="188" t="n">
         <v>6</v>
       </c>
       <c r="R51" s="128" t="n">
@@ -3576,15 +3598,15 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="169" t="inlineStr">
+      <c r="A52" s="186" t="inlineStr">
         <is>
           <t>#P2CPRPQU</t>
         </is>
       </c>
-      <c r="B52" s="167" t="n">
+      <c r="B52" s="184" t="n">
         <v>2232</v>
       </c>
-      <c r="C52" s="160" t="n">
+      <c r="C52" s="177" t="n">
         <v>49</v>
       </c>
       <c r="D52" s="120" t="inlineStr">
@@ -3592,27 +3614,27 @@
           <t>The Drift King</t>
         </is>
       </c>
-      <c r="E52" s="167" t="n"/>
+      <c r="E52" s="184" t="n"/>
       <c r="F52" s="120" t="n"/>
-      <c r="G52" s="167" t="n"/>
+      <c r="G52" s="184" t="n"/>
       <c r="H52" s="120" t="n"/>
-      <c r="I52" s="167" t="n"/>
+      <c r="I52" s="184" t="n"/>
       <c r="J52" s="120" t="n"/>
-      <c r="K52" s="167" t="n"/>
+      <c r="K52" s="184" t="n"/>
       <c r="L52" s="120" t="n"/>
-      <c r="M52" s="168" t="n">
+      <c r="M52" s="185" t="n">
         <v>6</v>
       </c>
       <c r="N52" s="122" t="n">
         <v>8023</v>
       </c>
-      <c r="O52" s="168" t="n">
+      <c r="O52" s="185" t="n">
         <v>6</v>
       </c>
       <c r="P52" s="122" t="n">
         <v>7625</v>
       </c>
-      <c r="Q52" s="168" t="n">
+      <c r="Q52" s="185" t="n">
         <v>6</v>
       </c>
       <c r="R52" s="122" t="n">
@@ -3620,15 +3642,15 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="166" t="inlineStr">
+      <c r="A53" s="189" t="inlineStr">
         <is>
           <t>#QJVL0LYQQ</t>
         </is>
       </c>
-      <c r="B53" s="163" t="n">
+      <c r="B53" s="187" t="n">
         <v>921</v>
       </c>
-      <c r="C53" s="164" t="n">
+      <c r="C53" s="181" t="n">
         <v>50</v>
       </c>
       <c r="D53" s="126" t="inlineStr">
@@ -3636,27 +3658,27 @@
           <t>mobbb341</t>
         </is>
       </c>
-      <c r="E53" s="163" t="n"/>
+      <c r="E53" s="187" t="n"/>
       <c r="F53" s="126" t="n"/>
-      <c r="G53" s="163" t="n"/>
+      <c r="G53" s="187" t="n"/>
       <c r="H53" s="126" t="n"/>
-      <c r="I53" s="163" t="n"/>
+      <c r="I53" s="187" t="n"/>
       <c r="J53" s="126" t="n"/>
-      <c r="K53" s="163" t="n"/>
+      <c r="K53" s="187" t="n"/>
       <c r="L53" s="126" t="n"/>
-      <c r="M53" s="165" t="n">
+      <c r="M53" s="188" t="n">
         <v>6</v>
       </c>
       <c r="N53" s="128" t="n">
         <v>7710</v>
       </c>
-      <c r="O53" s="165" t="n">
+      <c r="O53" s="188" t="n">
         <v>6</v>
       </c>
       <c r="P53" s="128" t="n">
         <v>8810</v>
       </c>
-      <c r="Q53" s="165" t="n">
+      <c r="Q53" s="188" t="n">
         <v>6</v>
       </c>
       <c r="R53" s="129" t="n">
@@ -3664,15 +3686,15 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="169" t="inlineStr">
+      <c r="A54" s="186" t="inlineStr">
         <is>
           <t>#L8R82C8VC</t>
         </is>
       </c>
-      <c r="B54" s="167" t="n">
+      <c r="B54" s="184" t="n">
         <v>1162</v>
       </c>
-      <c r="C54" s="160" t="n">
+      <c r="C54" s="177" t="n">
         <v>51</v>
       </c>
       <c r="D54" s="120" t="inlineStr">
@@ -3680,27 +3702,27 @@
           <t>caden asue</t>
         </is>
       </c>
-      <c r="E54" s="167" t="n"/>
+      <c r="E54" s="184" t="n"/>
       <c r="F54" s="120" t="n"/>
-      <c r="G54" s="167" t="n"/>
+      <c r="G54" s="184" t="n"/>
       <c r="H54" s="120" t="n"/>
-      <c r="I54" s="167" t="n"/>
+      <c r="I54" s="184" t="n"/>
       <c r="J54" s="120" t="n"/>
-      <c r="K54" s="167" t="n"/>
+      <c r="K54" s="184" t="n"/>
       <c r="L54" s="120" t="n"/>
-      <c r="M54" s="168" t="n">
+      <c r="M54" s="185" t="n">
         <v>6</v>
       </c>
       <c r="N54" s="130" t="n">
         <v>5112</v>
       </c>
-      <c r="O54" s="168" t="n">
+      <c r="O54" s="185" t="n">
         <v>6</v>
       </c>
       <c r="P54" s="130" t="n">
         <v>4283</v>
       </c>
-      <c r="Q54" s="168" t="n">
+      <c r="Q54" s="185" t="n">
         <v>6</v>
       </c>
       <c r="R54" s="130" t="n">
@@ -3708,15 +3730,15 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="166" t="inlineStr">
+      <c r="A55" s="189" t="inlineStr">
         <is>
           <t>#L9Q8VLLQG</t>
         </is>
       </c>
-      <c r="B55" s="163" t="n">
+      <c r="B55" s="187" t="n">
         <v>1130</v>
       </c>
-      <c r="C55" s="164" t="n">
+      <c r="C55" s="181" t="n">
         <v>52</v>
       </c>
       <c r="D55" s="126" t="inlineStr">
@@ -3724,19 +3746,19 @@
           <t>cat</t>
         </is>
       </c>
-      <c r="E55" s="163" t="n"/>
+      <c r="E55" s="187" t="n"/>
       <c r="F55" s="126" t="n"/>
-      <c r="G55" s="163" t="n"/>
+      <c r="G55" s="187" t="n"/>
       <c r="H55" s="126" t="n"/>
-      <c r="I55" s="163" t="n"/>
+      <c r="I55" s="187" t="n"/>
       <c r="J55" s="126" t="n"/>
-      <c r="K55" s="163" t="n"/>
+      <c r="K55" s="187" t="n"/>
       <c r="L55" s="126" t="n"/>
-      <c r="M55" s="163" t="n"/>
+      <c r="M55" s="187" t="n"/>
       <c r="N55" s="126" t="n"/>
-      <c r="O55" s="163" t="n"/>
+      <c r="O55" s="187" t="n"/>
       <c r="P55" s="126" t="n"/>
-      <c r="Q55" s="165" t="n">
+      <c r="Q55" s="188" t="n">
         <v>6</v>
       </c>
       <c r="R55" s="129" t="n">
@@ -3744,15 +3766,15 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="169" t="inlineStr">
+      <c r="A56" s="186" t="inlineStr">
         <is>
           <t>#QV0PQC9JU</t>
         </is>
       </c>
-      <c r="B56" s="167" t="n">
+      <c r="B56" s="184" t="n">
         <v>539</v>
       </c>
-      <c r="C56" s="160" t="n">
+      <c r="C56" s="177" t="n">
         <v>53</v>
       </c>
       <c r="D56" s="120" t="inlineStr">
@@ -3760,19 +3782,19 @@
           <t>Superman</t>
         </is>
       </c>
-      <c r="E56" s="167" t="n"/>
+      <c r="E56" s="184" t="n"/>
       <c r="F56" s="120" t="n"/>
-      <c r="G56" s="167" t="n"/>
+      <c r="G56" s="184" t="n"/>
       <c r="H56" s="120" t="n"/>
-      <c r="I56" s="167" t="n"/>
+      <c r="I56" s="184" t="n"/>
       <c r="J56" s="120" t="n"/>
-      <c r="K56" s="167" t="n"/>
+      <c r="K56" s="184" t="n"/>
       <c r="L56" s="120" t="n"/>
-      <c r="M56" s="167" t="n"/>
+      <c r="M56" s="184" t="n"/>
       <c r="N56" s="120" t="n"/>
-      <c r="O56" s="167" t="n"/>
+      <c r="O56" s="184" t="n"/>
       <c r="P56" s="120" t="n"/>
-      <c r="Q56" s="168" t="n">
+      <c r="Q56" s="185" t="n">
         <v>6</v>
       </c>
       <c r="R56" s="130" t="n">
@@ -3780,15 +3802,15 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="166" t="inlineStr">
+      <c r="A57" s="189" t="inlineStr">
         <is>
           <t>#LU0CRP09L</t>
         </is>
       </c>
-      <c r="B57" s="163" t="n">
+      <c r="B57" s="187" t="n">
         <v>809</v>
       </c>
-      <c r="C57" s="164" t="n">
+      <c r="C57" s="181" t="n">
         <v>54</v>
       </c>
       <c r="D57" s="126" t="inlineStr">
@@ -3796,19 +3818,19 @@
           <t>I Dont Know</t>
         </is>
       </c>
-      <c r="E57" s="163" t="n"/>
+      <c r="E57" s="187" t="n"/>
       <c r="F57" s="126" t="n"/>
-      <c r="G57" s="163" t="n"/>
+      <c r="G57" s="187" t="n"/>
       <c r="H57" s="126" t="n"/>
-      <c r="I57" s="163" t="n"/>
+      <c r="I57" s="187" t="n"/>
       <c r="J57" s="126" t="n"/>
-      <c r="K57" s="163" t="n"/>
+      <c r="K57" s="187" t="n"/>
       <c r="L57" s="126" t="n"/>
-      <c r="M57" s="163" t="n"/>
+      <c r="M57" s="187" t="n"/>
       <c r="N57" s="126" t="n"/>
-      <c r="O57" s="163" t="n"/>
+      <c r="O57" s="187" t="n"/>
       <c r="P57" s="126" t="n"/>
-      <c r="Q57" s="170" t="n">
+      <c r="Q57" s="191" t="n">
         <v>3</v>
       </c>
       <c r="R57" s="124" t="n">
@@ -3816,15 +3838,15 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="169" t="inlineStr">
+      <c r="A58" s="186" t="inlineStr">
         <is>
           <t>#YCPP0QPP8</t>
         </is>
       </c>
-      <c r="B58" s="167" t="n">
+      <c r="B58" s="184" t="n">
         <v>3327</v>
       </c>
-      <c r="C58" s="160" t="n">
+      <c r="C58" s="177" t="n">
         <v>55</v>
       </c>
       <c r="D58" s="120" t="inlineStr">
@@ -3832,19 +3854,19 @@
           <t>Coach</t>
         </is>
       </c>
-      <c r="E58" s="167" t="n"/>
+      <c r="E58" s="184" t="n"/>
       <c r="F58" s="120" t="n"/>
-      <c r="G58" s="167" t="n"/>
+      <c r="G58" s="184" t="n"/>
       <c r="H58" s="120" t="n"/>
-      <c r="I58" s="167" t="n"/>
+      <c r="I58" s="184" t="n"/>
       <c r="J58" s="120" t="n"/>
-      <c r="K58" s="167" t="n"/>
+      <c r="K58" s="184" t="n"/>
       <c r="L58" s="120" t="n"/>
-      <c r="M58" s="167" t="n"/>
+      <c r="M58" s="184" t="n"/>
       <c r="N58" s="120" t="n"/>
-      <c r="O58" s="167" t="n"/>
+      <c r="O58" s="184" t="n"/>
       <c r="P58" s="120" t="n"/>
-      <c r="Q58" s="169" t="n">
+      <c r="Q58" s="186" t="n">
         <v>0</v>
       </c>
       <c r="R58" s="117" t="n">

--- a/Clash.xlsx
+++ b/Clash.xlsx
@@ -223,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -320,11 +320,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -572,6 +573,27 @@
     <xf numFmtId="164" fontId="8" fillId="31" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="8" fillId="32" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="7" fillId="31" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="25" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="27" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="26" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="28" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="28" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="30" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="29" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="25" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="27" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="26" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="28" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="30" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="29" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="31" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="32" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="31" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -937,7 +959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R58"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
@@ -1019,13 +1041,13 @@
     </row>
     <row r="2">
       <c r="E2" t="n">
-        <v>3.5</v>
+        <v>3.09</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>57020</v>
+        <v>151693</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="I2" t="n">
         <v>2.83</v>
@@ -1146,2730 +1168,2862 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="176" t="inlineStr">
+      <c r="A4" s="193" t="inlineStr">
+        <is>
+          <t>#QLJ2U20Y2</t>
+        </is>
+      </c>
+      <c r="B4" s="193" t="n">
+        <v>1461</v>
+      </c>
+      <c r="C4" s="194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="115" t="inlineStr">
+        <is>
+          <t>DeadLeaf</t>
+        </is>
+      </c>
+      <c r="E4" s="195" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" s="115" t="n">
+        <v>12676</v>
+      </c>
+      <c r="G4" s="196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="113" t="n">
+        <v>30</v>
+      </c>
+      <c r="I4" s="195" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" s="115" t="n">
+        <v>13763</v>
+      </c>
+      <c r="K4" s="195" t="n">
+        <v>6</v>
+      </c>
+      <c r="L4" s="115" t="n">
+        <v>11140</v>
+      </c>
+      <c r="M4" s="195" t="n">
+        <v>6</v>
+      </c>
+      <c r="N4" s="115" t="n">
+        <v>15509</v>
+      </c>
+      <c r="O4" s="195" t="n">
+        <v>6</v>
+      </c>
+      <c r="P4" s="115" t="n">
+        <v>8567</v>
+      </c>
+      <c r="Q4" s="195" t="n">
+        <v>6</v>
+      </c>
+      <c r="R4" s="115" t="n">
+        <v>9729</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="197" t="inlineStr">
+        <is>
+          <t>#QUG8QQJ92</t>
+        </is>
+      </c>
+      <c r="B5" s="197" t="n">
+        <v>935</v>
+      </c>
+      <c r="C5" s="198" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="107" t="inlineStr">
+        <is>
+          <t>Karma</t>
+        </is>
+      </c>
+      <c r="E5" s="199" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" s="107" t="n">
+        <v>12204</v>
+      </c>
+      <c r="G5" s="200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="199" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" s="107" t="n">
+        <v>11355</v>
+      </c>
+      <c r="K5" s="199" t="n">
+        <v>6</v>
+      </c>
+      <c r="L5" s="107" t="n">
+        <v>10003</v>
+      </c>
+      <c r="M5" s="199" t="n">
+        <v>6</v>
+      </c>
+      <c r="N5" s="107" t="n">
+        <v>10595</v>
+      </c>
+      <c r="O5" s="199" t="n">
+        <v>6</v>
+      </c>
+      <c r="P5" s="107" t="n">
+        <v>9240</v>
+      </c>
+      <c r="Q5" s="199" t="n">
+        <v>6</v>
+      </c>
+      <c r="R5" s="107" t="n">
+        <v>10628</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="193" t="inlineStr">
+        <is>
+          <t>#G0QPVJY9L</t>
+        </is>
+      </c>
+      <c r="B6" s="193" t="n">
+        <v>854</v>
+      </c>
+      <c r="C6" s="194" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="115" t="inlineStr">
+        <is>
+          <t>Zoro</t>
+        </is>
+      </c>
+      <c r="E6" s="195" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" s="115" t="n">
+        <v>12116</v>
+      </c>
+      <c r="G6" s="196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="195" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" s="115" t="n">
+        <v>13432</v>
+      </c>
+      <c r="K6" s="195" t="n">
+        <v>6</v>
+      </c>
+      <c r="L6" s="115" t="n">
+        <v>8855</v>
+      </c>
+      <c r="M6" s="195" t="n">
+        <v>6</v>
+      </c>
+      <c r="N6" s="115" t="n">
+        <v>10965</v>
+      </c>
+      <c r="O6" s="195" t="n">
+        <v>6</v>
+      </c>
+      <c r="P6" s="115" t="n">
+        <v>7905</v>
+      </c>
+      <c r="Q6" s="195" t="n">
+        <v>6</v>
+      </c>
+      <c r="R6" s="115" t="n">
+        <v>6744</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="197" t="inlineStr">
         <is>
           <t>#QCV22VP0G</t>
         </is>
       </c>
-      <c r="B4" s="176" t="n">
-        <v>823</v>
-      </c>
-      <c r="C4" s="177" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="115" t="inlineStr">
+      <c r="B7" s="197" t="n">
+        <v>821</v>
+      </c>
+      <c r="C7" s="198" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" s="107" t="inlineStr">
         <is>
           <t>Nami</t>
         </is>
       </c>
-      <c r="E4" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="F4" s="115" t="n">
+      <c r="E7" s="199" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="107" t="n">
         <v>11657</v>
       </c>
-      <c r="G4" s="179" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" s="115" t="n">
+      <c r="G7" s="200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="199" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" s="107" t="n">
         <v>11795</v>
       </c>
-      <c r="K4" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="L4" s="115" t="n">
+      <c r="K7" s="199" t="n">
+        <v>6</v>
+      </c>
+      <c r="L7" s="107" t="n">
         <v>10769</v>
       </c>
-      <c r="M4" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="N4" s="115" t="n">
+      <c r="M7" s="199" t="n">
+        <v>6</v>
+      </c>
+      <c r="N7" s="107" t="n">
         <v>12486</v>
       </c>
-      <c r="O4" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="P4" s="115" t="n">
+      <c r="O7" s="199" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" s="107" t="n">
         <v>8472</v>
       </c>
-      <c r="Q4" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="R4" s="115" t="n">
+      <c r="Q7" s="199" t="n">
+        <v>6</v>
+      </c>
+      <c r="R7" s="107" t="n">
         <v>9096</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="180" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="193" t="inlineStr">
+        <is>
+          <t>#QUYG0PQC8</t>
+        </is>
+      </c>
+      <c r="B8" s="193" t="n">
+        <v>835</v>
+      </c>
+      <c r="C8" s="194" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="115" t="inlineStr">
+        <is>
+          <t>Luffy</t>
+        </is>
+      </c>
+      <c r="E8" s="195" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" s="115" t="n">
+        <v>11357</v>
+      </c>
+      <c r="G8" s="196" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="195" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" s="115" t="n">
+        <v>10879</v>
+      </c>
+      <c r="K8" s="195" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" s="115" t="n">
+        <v>9114</v>
+      </c>
+      <c r="M8" s="195" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" s="115" t="n">
+        <v>13385</v>
+      </c>
+      <c r="O8" s="195" t="n">
+        <v>6</v>
+      </c>
+      <c r="P8" s="115" t="n">
+        <v>7877</v>
+      </c>
+      <c r="Q8" s="195" t="n">
+        <v>6</v>
+      </c>
+      <c r="R8" s="115" t="n">
+        <v>8347</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="197" t="inlineStr">
         <is>
           <t>#QUV2GP88U</t>
         </is>
       </c>
-      <c r="B5" s="180" t="n">
+      <c r="B9" s="197" t="n">
         <v>736</v>
       </c>
-      <c r="C5" s="181" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="107" t="inlineStr">
+      <c r="C9" s="198" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" s="107" t="inlineStr">
         <is>
           <t>Nico Robin</t>
         </is>
       </c>
-      <c r="E5" s="182" t="n">
-        <v>6</v>
-      </c>
-      <c r="F5" s="107" t="n">
+      <c r="E9" s="199" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" s="107" t="n">
         <v>10389</v>
       </c>
-      <c r="G5" s="183" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="182" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" s="107" t="n">
+      <c r="G9" s="200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="199" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" s="107" t="n">
         <v>12612</v>
       </c>
-      <c r="K5" s="182" t="n">
-        <v>6</v>
-      </c>
-      <c r="L5" s="107" t="n">
+      <c r="K9" s="199" t="n">
+        <v>6</v>
+      </c>
+      <c r="L9" s="107" t="n">
         <v>11338</v>
       </c>
-      <c r="M5" s="182" t="n">
-        <v>6</v>
-      </c>
-      <c r="N5" s="107" t="n">
+      <c r="M9" s="199" t="n">
+        <v>6</v>
+      </c>
+      <c r="N9" s="107" t="n">
         <v>10997</v>
       </c>
-      <c r="O5" s="182" t="n">
-        <v>6</v>
-      </c>
-      <c r="P5" s="107" t="n">
+      <c r="O9" s="199" t="n">
+        <v>6</v>
+      </c>
+      <c r="P9" s="107" t="n">
         <v>11087</v>
       </c>
-      <c r="Q5" s="182" t="n">
-        <v>6</v>
-      </c>
-      <c r="R5" s="107" t="n">
+      <c r="Q9" s="199" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" s="107" t="n">
         <v>8089</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="184" t="inlineStr">
-        <is>
-          <t>#QU0U2Q99G</t>
-        </is>
-      </c>
-      <c r="B6" s="184" t="n">
-        <v>975</v>
-      </c>
-      <c r="C6" s="177" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="122" t="inlineStr">
-        <is>
-          <t>big coc</t>
-        </is>
-      </c>
-      <c r="E6" s="185" t="n">
-        <v>6</v>
-      </c>
-      <c r="F6" s="122" t="n">
-        <v>7115</v>
-      </c>
-      <c r="G6" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="120" t="n">
-        <v>60</v>
-      </c>
-      <c r="I6" s="185" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" s="122" t="n">
-        <v>7420</v>
-      </c>
-      <c r="K6" s="185" t="n">
-        <v>5</v>
-      </c>
-      <c r="L6" s="130" t="n">
-        <v>5150</v>
-      </c>
-      <c r="M6" s="185" t="n">
-        <v>6</v>
-      </c>
-      <c r="N6" s="122" t="n">
-        <v>9075</v>
-      </c>
-      <c r="O6" s="184" t="n"/>
-      <c r="P6" s="120" t="n"/>
-      <c r="Q6" s="184" t="n"/>
-      <c r="R6" s="120" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="187" t="inlineStr">
-        <is>
-          <t>#8U9CRC8G</t>
-        </is>
-      </c>
-      <c r="B7" s="187" t="n">
-        <v>1548</v>
-      </c>
-      <c r="C7" s="181" t="n">
+    <row r="10">
+      <c r="A10" s="201" t="inlineStr">
+        <is>
+          <t>#QRPRYR8LL</t>
+        </is>
+      </c>
+      <c r="B10" s="201" t="n">
+        <v>1151</v>
+      </c>
+      <c r="C10" s="194" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" s="122" t="inlineStr">
+        <is>
+          <t>FidelCashflow</t>
+        </is>
+      </c>
+      <c r="E10" s="202" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" s="122" t="n">
+        <v>8298</v>
+      </c>
+      <c r="G10" s="203" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="128" t="inlineStr">
-        <is>
-          <t>CEO JACK</t>
-        </is>
-      </c>
-      <c r="E7" s="188" t="n">
-        <v>6</v>
-      </c>
-      <c r="F7" s="128" t="n">
-        <v>6980</v>
-      </c>
-      <c r="G7" s="189" t="n">
-        <v>11</v>
-      </c>
-      <c r="H7" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="187" t="n"/>
-      <c r="L7" s="126" t="n"/>
-      <c r="M7" s="187" t="n"/>
-      <c r="N7" s="126" t="n"/>
-      <c r="O7" s="187" t="n"/>
-      <c r="P7" s="126" t="n"/>
-      <c r="Q7" s="187" t="n"/>
-      <c r="R7" s="126" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="184" t="inlineStr">
-        <is>
-          <t>#LC9GUPJJG</t>
-        </is>
-      </c>
-      <c r="B8" s="184" t="n">
-        <v>1074</v>
-      </c>
-      <c r="C8" s="177" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" s="122" t="inlineStr">
-        <is>
-          <t>raptor2222a</t>
-        </is>
-      </c>
-      <c r="E8" s="185" t="n">
-        <v>6</v>
-      </c>
-      <c r="F8" s="122" t="n">
-        <v>6971</v>
-      </c>
-      <c r="G8" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="185" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" s="130" t="n">
-        <v>4350</v>
-      </c>
-      <c r="K8" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="184" t="n"/>
-      <c r="N8" s="120" t="n"/>
-      <c r="O8" s="184" t="n"/>
-      <c r="P8" s="120" t="n"/>
-      <c r="Q8" s="184" t="n"/>
-      <c r="R8" s="120" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="187" t="inlineStr">
-        <is>
-          <t>#VGG9LYL0</t>
-        </is>
-      </c>
-      <c r="B9" s="187" t="n">
-        <v>1059</v>
-      </c>
-      <c r="C9" s="181" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" s="128" t="inlineStr">
-        <is>
-          <t>ptripp1048</t>
-        </is>
-      </c>
-      <c r="E9" s="188" t="n">
-        <v>6</v>
-      </c>
-      <c r="F9" s="128" t="n">
-        <v>6023</v>
-      </c>
-      <c r="G9" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="187" t="n"/>
-      <c r="L9" s="126" t="n"/>
-      <c r="M9" s="187" t="n"/>
-      <c r="N9" s="126" t="n"/>
-      <c r="O9" s="187" t="n"/>
-      <c r="P9" s="126" t="n"/>
-      <c r="Q9" s="187" t="n"/>
-      <c r="R9" s="126" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="184" t="inlineStr">
-        <is>
-          <t>#G0JPUQGYR</t>
-        </is>
-      </c>
-      <c r="B10" s="184" t="n">
-        <v>1412</v>
-      </c>
-      <c r="C10" s="177" t="n">
-        <v>7</v>
-      </c>
-      <c r="D10" s="130" t="inlineStr">
-        <is>
-          <t>Collin</t>
-        </is>
-      </c>
-      <c r="E10" s="190" t="n">
-        <v>3</v>
-      </c>
-      <c r="F10" s="130" t="n">
-        <v>4455</v>
-      </c>
-      <c r="G10" s="186" t="n">
-        <v>20</v>
-      </c>
       <c r="H10" s="120" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="185" t="n">
+      <c r="I10" s="202" t="n">
         <v>6</v>
       </c>
       <c r="J10" s="122" t="n">
-        <v>8833</v>
-      </c>
-      <c r="K10" s="185" t="n">
+        <v>6415</v>
+      </c>
+      <c r="K10" s="202" t="n">
         <v>6</v>
       </c>
       <c r="L10" s="122" t="n">
-        <v>9238</v>
-      </c>
-      <c r="M10" s="185" t="n">
+        <v>6547</v>
+      </c>
+      <c r="M10" s="202" t="n">
         <v>6</v>
       </c>
       <c r="N10" s="122" t="n">
-        <v>7756</v>
-      </c>
-      <c r="O10" s="185" t="n">
+        <v>6811</v>
+      </c>
+      <c r="O10" s="202" t="n">
         <v>6</v>
       </c>
       <c r="P10" s="130" t="n">
-        <v>5943</v>
-      </c>
-      <c r="Q10" s="185" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" s="122" t="n">
-        <v>8224</v>
+        <v>4239</v>
+      </c>
+      <c r="Q10" s="202" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" s="130" t="n">
+        <v>4214</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="187" t="inlineStr">
+      <c r="A11" s="204" t="inlineStr">
         <is>
           <t>#QUVJGC0VQ</t>
         </is>
       </c>
-      <c r="B11" s="187" t="n">
-        <v>1192</v>
-      </c>
-      <c r="C11" s="181" t="n">
+      <c r="B11" s="204" t="n">
+        <v>1187</v>
+      </c>
+      <c r="C11" s="198" t="n">
         <v>8</v>
       </c>
-      <c r="D11" s="124" t="inlineStr">
+      <c r="D11" s="128" t="inlineStr">
         <is>
           <t>Cam</t>
         </is>
       </c>
-      <c r="E11" s="191" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" s="124" t="n">
-        <v>3430</v>
-      </c>
-      <c r="G11" s="189" t="n">
+      <c r="E11" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" s="128" t="n">
+        <v>8080</v>
+      </c>
+      <c r="G11" s="206" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="126" t="n">
         <v>73</v>
       </c>
-      <c r="I11" s="189" t="n">
+      <c r="I11" s="206" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="K11" s="187" t="n"/>
+      <c r="K11" s="204" t="n"/>
       <c r="L11" s="126" t="n"/>
-      <c r="M11" s="187" t="n"/>
+      <c r="M11" s="204" t="n"/>
       <c r="N11" s="126" t="n"/>
-      <c r="O11" s="187" t="n"/>
+      <c r="O11" s="204" t="n"/>
       <c r="P11" s="126" t="n"/>
-      <c r="Q11" s="187" t="n"/>
+      <c r="Q11" s="204" t="n"/>
       <c r="R11" s="126" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="94" t="inlineStr">
-        <is>
-          <t>#QLJ2U20Y2</t>
-        </is>
-      </c>
-      <c r="B12" s="94" t="n">
-        <v>1486</v>
-      </c>
-      <c r="C12" s="95" t="n">
+      <c r="A12" s="201" t="inlineStr">
+        <is>
+          <t>#LGCVY0L9P</t>
+        </is>
+      </c>
+      <c r="B12" s="201" t="n">
+        <v>935</v>
+      </c>
+      <c r="C12" s="194" t="n">
         <v>9</v>
       </c>
-      <c r="D12" s="96" t="inlineStr">
-        <is>
-          <t>DeadLeaf</t>
-        </is>
-      </c>
-      <c r="E12" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="98" t="n">
+      <c r="D12" s="122" t="inlineStr">
+        <is>
+          <t>Death1wolf</t>
+        </is>
+      </c>
+      <c r="E12" s="202" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" s="122" t="n">
+        <v>7998</v>
+      </c>
+      <c r="G12" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="201" t="n"/>
+      <c r="J12" s="120" t="n"/>
+      <c r="K12" s="201" t="n"/>
+      <c r="L12" s="120" t="n"/>
+      <c r="M12" s="201" t="n"/>
+      <c r="N12" s="120" t="n"/>
+      <c r="O12" s="201" t="n"/>
+      <c r="P12" s="120" t="n"/>
+      <c r="Q12" s="201" t="n"/>
+      <c r="R12" s="120" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="204" t="inlineStr">
+        <is>
+          <t>#LPCLQUCCY</t>
+        </is>
+      </c>
+      <c r="B13" s="204" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C13" s="198" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" s="128" t="inlineStr">
+        <is>
+          <t>Zodiac</t>
+        </is>
+      </c>
+      <c r="E13" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" s="128" t="n">
+        <v>7463</v>
+      </c>
+      <c r="G13" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="204" t="n"/>
+      <c r="L13" s="126" t="n"/>
+      <c r="M13" s="204" t="n"/>
+      <c r="N13" s="126" t="n"/>
+      <c r="O13" s="204" t="n"/>
+      <c r="P13" s="126" t="n"/>
+      <c r="Q13" s="204" t="n"/>
+      <c r="R13" s="126" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="201" t="inlineStr">
+        <is>
+          <t>#QU0U2Q99G</t>
+        </is>
+      </c>
+      <c r="B14" s="201" t="n">
+        <v>941</v>
+      </c>
+      <c r="C14" s="194" t="n">
+        <v>11</v>
+      </c>
+      <c r="D14" s="122" t="inlineStr">
+        <is>
+          <t>big coc</t>
+        </is>
+      </c>
+      <c r="E14" s="202" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" s="122" t="n">
+        <v>7115</v>
+      </c>
+      <c r="G14" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="120" t="n">
+        <v>60</v>
+      </c>
+      <c r="I14" s="202" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" s="122" t="n">
+        <v>7420</v>
+      </c>
+      <c r="K14" s="202" t="n">
+        <v>5</v>
+      </c>
+      <c r="L14" s="130" t="n">
+        <v>5150</v>
+      </c>
+      <c r="M14" s="202" t="n">
+        <v>6</v>
+      </c>
+      <c r="N14" s="122" t="n">
+        <v>9075</v>
+      </c>
+      <c r="O14" s="201" t="n"/>
+      <c r="P14" s="120" t="n"/>
+      <c r="Q14" s="201" t="n"/>
+      <c r="R14" s="120" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="204" t="inlineStr">
+        <is>
+          <t>#8U9CRC8G</t>
+        </is>
+      </c>
+      <c r="B15" s="204" t="n">
+        <v>1647</v>
+      </c>
+      <c r="C15" s="198" t="n">
+        <v>12</v>
+      </c>
+      <c r="D15" s="128" t="inlineStr">
+        <is>
+          <t>CEO JACK</t>
+        </is>
+      </c>
+      <c r="E15" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" s="128" t="n">
+        <v>6980</v>
+      </c>
+      <c r="G15" s="206" t="n">
+        <v>11</v>
+      </c>
+      <c r="H15" s="126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="204" t="n"/>
+      <c r="L15" s="126" t="n"/>
+      <c r="M15" s="204" t="n"/>
+      <c r="N15" s="126" t="n"/>
+      <c r="O15" s="204" t="n"/>
+      <c r="P15" s="126" t="n"/>
+      <c r="Q15" s="204" t="n"/>
+      <c r="R15" s="126" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="201" t="inlineStr">
+        <is>
+          <t>#LC9GUPJJG</t>
+        </is>
+      </c>
+      <c r="B16" s="201" t="n">
+        <v>1068</v>
+      </c>
+      <c r="C16" s="194" t="n">
+        <v>13</v>
+      </c>
+      <c r="D16" s="122" t="inlineStr">
+        <is>
+          <t>raptor2222a</t>
+        </is>
+      </c>
+      <c r="E16" s="202" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" s="122" t="n">
+        <v>6971</v>
+      </c>
+      <c r="G16" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="202" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" s="130" t="n">
+        <v>4350</v>
+      </c>
+      <c r="K16" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="201" t="n"/>
+      <c r="N16" s="120" t="n"/>
+      <c r="O16" s="201" t="n"/>
+      <c r="P16" s="120" t="n"/>
+      <c r="Q16" s="201" t="n"/>
+      <c r="R16" s="120" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="204" t="inlineStr">
+        <is>
+          <t>#82QLQCJRJ</t>
+        </is>
+      </c>
+      <c r="B17" s="204" t="n">
+        <v>2925</v>
+      </c>
+      <c r="C17" s="198" t="n">
+        <v>14</v>
+      </c>
+      <c r="D17" s="128" t="inlineStr">
+        <is>
+          <t>Raging Fury</t>
+        </is>
+      </c>
+      <c r="E17" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="F17" s="128" t="n">
+        <v>6145</v>
+      </c>
+      <c r="G17" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="J17" s="128" t="n">
+        <v>8055</v>
+      </c>
+      <c r="K17" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="L17" s="128" t="n">
+        <v>7115</v>
+      </c>
+      <c r="M17" s="206" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" s="124" t="n">
+        <v>2320</v>
+      </c>
+      <c r="O17" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="P17" s="129" t="n">
+        <v>4920</v>
+      </c>
+      <c r="Q17" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="R17" s="129" t="n">
+        <v>5135</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="201" t="inlineStr">
+        <is>
+          <t>#Q9QUUVQ02</t>
+        </is>
+      </c>
+      <c r="B18" s="201" t="n">
+        <v>1455</v>
+      </c>
+      <c r="C18" s="194" t="n">
+        <v>15</v>
+      </c>
+      <c r="D18" s="122" t="inlineStr">
+        <is>
+          <t>zach</t>
+        </is>
+      </c>
+      <c r="E18" s="202" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" s="122" t="n">
+        <v>6106</v>
+      </c>
+      <c r="G18" s="201" t="n"/>
+      <c r="H18" s="120" t="n"/>
+      <c r="I18" s="201" t="n"/>
+      <c r="J18" s="120" t="n"/>
+      <c r="K18" s="201" t="n"/>
+      <c r="L18" s="120" t="n"/>
+      <c r="M18" s="201" t="n"/>
+      <c r="N18" s="120" t="n"/>
+      <c r="O18" s="201" t="n"/>
+      <c r="P18" s="120" t="n"/>
+      <c r="Q18" s="201" t="n"/>
+      <c r="R18" s="120" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="204" t="inlineStr">
+        <is>
+          <t>#VGG9LYL0</t>
+        </is>
+      </c>
+      <c r="B19" s="204" t="n">
+        <v>1073</v>
+      </c>
+      <c r="C19" s="198" t="n">
+        <v>16</v>
+      </c>
+      <c r="D19" s="128" t="inlineStr">
+        <is>
+          <t>ptripp1048</t>
+        </is>
+      </c>
+      <c r="E19" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" s="128" t="n">
+        <v>6023</v>
+      </c>
+      <c r="G19" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="204" t="n"/>
+      <c r="L19" s="126" t="n"/>
+      <c r="M19" s="204" t="n"/>
+      <c r="N19" s="126" t="n"/>
+      <c r="O19" s="204" t="n"/>
+      <c r="P19" s="126" t="n"/>
+      <c r="Q19" s="204" t="n"/>
+      <c r="R19" s="126" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="201" t="inlineStr">
+        <is>
+          <t>#QLG0VJG2J</t>
+        </is>
+      </c>
+      <c r="B20" s="201" t="n">
+        <v>1229</v>
+      </c>
+      <c r="C20" s="194" t="n">
+        <v>17</v>
+      </c>
+      <c r="D20" s="122" t="inlineStr">
+        <is>
+          <t>PocketRocket</t>
+        </is>
+      </c>
+      <c r="E20" s="202" t="n">
+        <v>6</v>
+      </c>
+      <c r="F20" s="130" t="n">
+        <v>5660</v>
+      </c>
+      <c r="G20" s="203" t="n">
+        <v>27</v>
+      </c>
+      <c r="H20" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="207" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" s="130" t="n">
+        <v>4327</v>
+      </c>
+      <c r="K20" s="207" t="n">
+        <v>4</v>
+      </c>
+      <c r="L20" s="130" t="n">
+        <v>5215</v>
+      </c>
+      <c r="M20" s="201" t="n"/>
+      <c r="N20" s="120" t="n"/>
+      <c r="O20" s="201" t="n"/>
+      <c r="P20" s="120" t="n"/>
+      <c r="Q20" s="201" t="n"/>
+      <c r="R20" s="120" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="204" t="inlineStr">
+        <is>
+          <t>#G0JPUQGYR</t>
+        </is>
+      </c>
+      <c r="B21" s="204" t="n">
+        <v>1412</v>
+      </c>
+      <c r="C21" s="198" t="n">
+        <v>18</v>
+      </c>
+      <c r="D21" s="129" t="inlineStr">
+        <is>
+          <t>Collin</t>
+        </is>
+      </c>
+      <c r="E21" s="208" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" s="129" t="n">
+        <v>4455</v>
+      </c>
+      <c r="G21" s="206" t="n">
+        <v>20</v>
+      </c>
+      <c r="H21" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="J21" s="128" t="n">
+        <v>8833</v>
+      </c>
+      <c r="K21" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="L21" s="128" t="n">
+        <v>9238</v>
+      </c>
+      <c r="M21" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="N21" s="128" t="n">
+        <v>7756</v>
+      </c>
+      <c r="O21" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="P21" s="129" t="n">
+        <v>5943</v>
+      </c>
+      <c r="Q21" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="R21" s="128" t="n">
+        <v>8224</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="94" t="inlineStr">
+        <is>
+          <t>#90U0VPU9U</t>
+        </is>
+      </c>
+      <c r="B22" s="94" t="n">
+        <v>2555</v>
+      </c>
+      <c r="C22" s="95" t="n">
+        <v>19</v>
+      </c>
+      <c r="D22" s="96" t="inlineStr">
+        <is>
+          <t>KYANI7E</t>
+        </is>
+      </c>
+      <c r="E22" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="209" t="n">
+        <v>221</v>
+      </c>
+      <c r="H22" s="98" t="n">
+        <v>4</v>
+      </c>
+      <c r="I22" s="99" t="n">
+        <v>6</v>
+      </c>
+      <c r="J22" s="100" t="n">
+        <v>13260</v>
+      </c>
+      <c r="K22" s="99" t="n">
+        <v>6</v>
+      </c>
+      <c r="L22" s="100" t="n">
+        <v>12144</v>
+      </c>
+      <c r="M22" s="99" t="n">
+        <v>6</v>
+      </c>
+      <c r="N22" s="100" t="n">
+        <v>12835</v>
+      </c>
+      <c r="O22" s="99" t="n">
+        <v>6</v>
+      </c>
+      <c r="P22" s="100" t="n">
+        <v>7696</v>
+      </c>
+      <c r="Q22" s="99" t="n">
+        <v>6</v>
+      </c>
+      <c r="R22" s="100" t="n">
+        <v>9188</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="197" t="inlineStr">
+        <is>
+          <t>#YJ20CRJYQ</t>
+        </is>
+      </c>
+      <c r="B23" s="197" t="n">
+        <v>1265</v>
+      </c>
+      <c r="C23" s="198" t="n">
+        <v>20</v>
+      </c>
+      <c r="D23" s="103" t="inlineStr">
+        <is>
+          <t>UnluckGod</t>
+        </is>
+      </c>
+      <c r="E23" s="200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="105" t="n">
+        <v>61</v>
+      </c>
+      <c r="I23" s="199" t="n">
+        <v>6</v>
+      </c>
+      <c r="J23" s="107" t="n">
+        <v>12824</v>
+      </c>
+      <c r="K23" s="199" t="n">
+        <v>6</v>
+      </c>
+      <c r="L23" s="107" t="n">
+        <v>11999</v>
+      </c>
+      <c r="M23" s="199" t="n">
+        <v>6</v>
+      </c>
+      <c r="N23" s="107" t="n">
+        <v>12972</v>
+      </c>
+      <c r="O23" s="199" t="n">
+        <v>6</v>
+      </c>
+      <c r="P23" s="107" t="n">
+        <v>8286</v>
+      </c>
+      <c r="Q23" s="199" t="n">
+        <v>6</v>
+      </c>
+      <c r="R23" s="107" t="n">
+        <v>11406</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="193" t="inlineStr">
+        <is>
+          <t>#YRGRRJQCY</t>
+        </is>
+      </c>
+      <c r="B24" s="193" t="n">
+        <v>1358</v>
+      </c>
+      <c r="C24" s="194" t="n">
+        <v>21</v>
+      </c>
+      <c r="D24" s="110" t="inlineStr">
+        <is>
+          <t>DoubleSpice</t>
+        </is>
+      </c>
+      <c r="E24" s="196" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="113" t="n">
+        <v>60</v>
+      </c>
+      <c r="I24" s="195" t="n">
+        <v>6</v>
+      </c>
+      <c r="J24" s="115" t="n">
+        <v>11620</v>
+      </c>
+      <c r="K24" s="195" t="n">
+        <v>6</v>
+      </c>
+      <c r="L24" s="115" t="n">
+        <v>14095</v>
+      </c>
+      <c r="M24" s="195" t="n">
+        <v>6</v>
+      </c>
+      <c r="N24" s="115" t="n">
+        <v>12379</v>
+      </c>
+      <c r="O24" s="195" t="n">
+        <v>6</v>
+      </c>
+      <c r="P24" s="115" t="n">
+        <v>8256</v>
+      </c>
+      <c r="Q24" s="195" t="n">
+        <v>6</v>
+      </c>
+      <c r="R24" s="115" t="n">
+        <v>7054</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="204" t="inlineStr">
+        <is>
+          <t>#98JG2UJQL</t>
+        </is>
+      </c>
+      <c r="B25" s="204" t="n">
+        <v>2922</v>
+      </c>
+      <c r="C25" s="198" t="n">
+        <v>22</v>
+      </c>
+      <c r="D25" s="124" t="inlineStr">
+        <is>
+          <t>Dragonux</t>
+        </is>
+      </c>
+      <c r="E25" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="208" t="n">
+        <v>211</v>
+      </c>
+      <c r="H25" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="J25" s="128" t="n">
+        <v>10910</v>
+      </c>
+      <c r="K25" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="L25" s="128" t="n">
+        <v>8750</v>
+      </c>
+      <c r="M25" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="N25" s="128" t="n">
+        <v>10865</v>
+      </c>
+      <c r="O25" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="P25" s="128" t="n">
+        <v>8025</v>
+      </c>
+      <c r="Q25" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="R25" s="128" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="193" t="inlineStr">
+        <is>
+          <t>#QLR088LC9</t>
+        </is>
+      </c>
+      <c r="B26" s="193" t="n">
+        <v>914</v>
+      </c>
+      <c r="C26" s="194" t="n">
+        <v>23</v>
+      </c>
+      <c r="D26" s="110" t="inlineStr">
+        <is>
+          <t>Sanji</t>
+        </is>
+      </c>
+      <c r="E26" s="196" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="196" t="n">
+        <v>6</v>
+      </c>
+      <c r="H26" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="195" t="n">
+        <v>6</v>
+      </c>
+      <c r="J26" s="115" t="n">
+        <v>10910</v>
+      </c>
+      <c r="K26" s="195" t="n">
+        <v>6</v>
+      </c>
+      <c r="L26" s="115" t="n">
+        <v>9550</v>
+      </c>
+      <c r="M26" s="195" t="n">
+        <v>6</v>
+      </c>
+      <c r="N26" s="115" t="n">
+        <v>9138</v>
+      </c>
+      <c r="O26" s="195" t="n">
+        <v>6</v>
+      </c>
+      <c r="P26" s="115" t="n">
+        <v>8897</v>
+      </c>
+      <c r="Q26" s="195" t="n">
+        <v>6</v>
+      </c>
+      <c r="R26" s="115" t="n">
+        <v>8512</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="197" t="inlineStr">
+        <is>
+          <t>#Q8CLCUCC2</t>
+        </is>
+      </c>
+      <c r="B27" s="197" t="n">
+        <v>1364</v>
+      </c>
+      <c r="C27" s="198" t="n">
+        <v>24</v>
+      </c>
+      <c r="D27" s="103" t="inlineStr">
+        <is>
+          <t>Moxxi</t>
+        </is>
+      </c>
+      <c r="E27" s="200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="105" t="n">
+        <v>60</v>
+      </c>
+      <c r="I27" s="199" t="n">
+        <v>6</v>
+      </c>
+      <c r="J27" s="107" t="n">
+        <v>8015</v>
+      </c>
+      <c r="K27" s="199" t="n">
+        <v>6</v>
+      </c>
+      <c r="L27" s="107" t="n">
+        <v>11010</v>
+      </c>
+      <c r="M27" s="199" t="n">
+        <v>6</v>
+      </c>
+      <c r="N27" s="107" t="n">
+        <v>13857</v>
+      </c>
+      <c r="O27" s="199" t="n">
+        <v>6</v>
+      </c>
+      <c r="P27" s="107" t="n">
+        <v>7905</v>
+      </c>
+      <c r="Q27" s="199" t="n">
+        <v>6</v>
+      </c>
+      <c r="R27" s="107" t="n">
+        <v>7224</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="201" t="inlineStr">
+        <is>
+          <t>#QY0VGPQGQ</t>
+        </is>
+      </c>
+      <c r="B28" s="201" t="n">
+        <v>528</v>
+      </c>
+      <c r="C28" s="194" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" s="117" t="inlineStr">
+        <is>
+          <t>killerjones</t>
+        </is>
+      </c>
+      <c r="E28" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="120" t="n">
+        <v>15</v>
+      </c>
+      <c r="I28" s="202" t="n">
+        <v>6</v>
+      </c>
+      <c r="J28" s="122" t="n">
+        <v>6320</v>
+      </c>
+      <c r="K28" s="201" t="n"/>
+      <c r="L28" s="120" t="n"/>
+      <c r="M28" s="201" t="n"/>
+      <c r="N28" s="120" t="n"/>
+      <c r="O28" s="201" t="n"/>
+      <c r="P28" s="120" t="n"/>
+      <c r="Q28" s="201" t="n"/>
+      <c r="R28" s="120" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="204" t="inlineStr">
+        <is>
+          <t>#QL8LVLYG8</t>
+        </is>
+      </c>
+      <c r="B29" s="204" t="n">
+        <v>968</v>
+      </c>
+      <c r="C29" s="198" t="n">
+        <v>26</v>
+      </c>
+      <c r="D29" s="124" t="inlineStr">
+        <is>
+          <t>Some guy</t>
+        </is>
+      </c>
+      <c r="E29" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="126" t="n">
+        <v>20</v>
+      </c>
+      <c r="I29" s="206" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" s="124" t="n">
+        <v>2650</v>
+      </c>
+      <c r="K29" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="N29" s="128" t="n">
+        <v>6917</v>
+      </c>
+      <c r="O29" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="206" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" s="124" t="n">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="201" t="inlineStr">
+        <is>
+          <t>#QJC8LQU9U</t>
+        </is>
+      </c>
+      <c r="B30" s="201" t="n">
+        <v>998</v>
+      </c>
+      <c r="C30" s="194" t="n">
+        <v>27</v>
+      </c>
+      <c r="D30" s="117" t="inlineStr">
+        <is>
+          <t>Master01</t>
+        </is>
+      </c>
+      <c r="E30" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="202" t="n">
+        <v>6</v>
+      </c>
+      <c r="N30" s="130" t="n">
+        <v>5415</v>
+      </c>
+      <c r="O30" s="202" t="n">
+        <v>6</v>
+      </c>
+      <c r="P30" s="130" t="n">
+        <v>4835</v>
+      </c>
+      <c r="Q30" s="202" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" s="130" t="n">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="204" t="inlineStr">
+        <is>
+          <t>#QV8JJ0URU</t>
+        </is>
+      </c>
+      <c r="B31" s="204" t="n">
+        <v>741</v>
+      </c>
+      <c r="C31" s="198" t="n">
+        <v>28</v>
+      </c>
+      <c r="D31" s="124" t="inlineStr">
+        <is>
+          <t>✨Jacob</t>
+        </is>
+      </c>
+      <c r="E31" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="P31" s="128" t="n">
+        <v>7385</v>
+      </c>
+      <c r="Q31" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="R31" s="128" t="n">
+        <v>9155</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="201" t="inlineStr">
+        <is>
+          <t>#QY8L2GLUR</t>
+        </is>
+      </c>
+      <c r="B32" s="201" t="n">
+        <v>907</v>
+      </c>
+      <c r="C32" s="194" t="n">
+        <v>29</v>
+      </c>
+      <c r="D32" s="117" t="inlineStr">
+        <is>
+          <t>Huy</t>
+        </is>
+      </c>
+      <c r="E32" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="202" t="n">
+        <v>6</v>
+      </c>
+      <c r="P32" s="122" t="n">
+        <v>6995</v>
+      </c>
+      <c r="Q32" s="202" t="n">
+        <v>6</v>
+      </c>
+      <c r="R32" s="122" t="n">
+        <v>6055</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="204" t="inlineStr">
+        <is>
+          <t>#L2QQL9QVJ</t>
+        </is>
+      </c>
+      <c r="B33" s="204" t="n">
+        <v>1450</v>
+      </c>
+      <c r="C33" s="198" t="n">
         <v>30</v>
       </c>
-      <c r="I12" s="99" t="n">
-        <v>6</v>
-      </c>
-      <c r="J12" s="100" t="n">
-        <v>13763</v>
-      </c>
-      <c r="K12" s="99" t="n">
-        <v>6</v>
-      </c>
-      <c r="L12" s="100" t="n">
-        <v>11140</v>
-      </c>
-      <c r="M12" s="99" t="n">
-        <v>6</v>
-      </c>
-      <c r="N12" s="100" t="n">
-        <v>15509</v>
-      </c>
-      <c r="O12" s="99" t="n">
-        <v>6</v>
-      </c>
-      <c r="P12" s="100" t="n">
-        <v>8567</v>
-      </c>
-      <c r="Q12" s="99" t="n">
-        <v>6</v>
-      </c>
-      <c r="R12" s="100" t="n">
-        <v>9729</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="180" t="inlineStr">
-        <is>
-          <t>#G0QPVJY9L</t>
-        </is>
-      </c>
-      <c r="B13" s="180" t="n">
-        <v>828</v>
-      </c>
-      <c r="C13" s="181" t="n">
-        <v>10</v>
-      </c>
-      <c r="D13" s="103" t="inlineStr">
-        <is>
-          <t>Zoro</t>
-        </is>
-      </c>
-      <c r="E13" s="183" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="183" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="182" t="n">
-        <v>6</v>
-      </c>
-      <c r="J13" s="107" t="n">
-        <v>13432</v>
-      </c>
-      <c r="K13" s="182" t="n">
-        <v>6</v>
-      </c>
-      <c r="L13" s="107" t="n">
-        <v>8855</v>
-      </c>
-      <c r="M13" s="182" t="n">
-        <v>6</v>
-      </c>
-      <c r="N13" s="107" t="n">
-        <v>10965</v>
-      </c>
-      <c r="O13" s="182" t="n">
-        <v>6</v>
-      </c>
-      <c r="P13" s="107" t="n">
-        <v>7905</v>
-      </c>
-      <c r="Q13" s="182" t="n">
-        <v>6</v>
-      </c>
-      <c r="R13" s="107" t="n">
-        <v>6744</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="176" t="inlineStr">
-        <is>
-          <t>#90U0VPU9U</t>
-        </is>
-      </c>
-      <c r="B14" s="176" t="n">
-        <v>2534</v>
-      </c>
-      <c r="C14" s="177" t="n">
-        <v>11</v>
-      </c>
-      <c r="D14" s="110" t="inlineStr">
-        <is>
-          <t>KYANI7E</t>
-        </is>
-      </c>
-      <c r="E14" s="179" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="192" t="n">
-        <v>206</v>
-      </c>
-      <c r="H14" s="113" t="n">
+      <c r="D33" s="124" t="inlineStr">
+        <is>
+          <t>JustPre10d</t>
+        </is>
+      </c>
+      <c r="E33" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="P33" s="128" t="n">
+        <v>6655</v>
+      </c>
+      <c r="Q33" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="R33" s="128" t="n">
+        <v>7675</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="201" t="inlineStr">
+        <is>
+          <t>#LPR9RPCY9</t>
+        </is>
+      </c>
+      <c r="B34" s="201" t="n">
+        <v>990</v>
+      </c>
+      <c r="C34" s="194" t="n">
+        <v>31</v>
+      </c>
+      <c r="D34" s="117" t="inlineStr">
+        <is>
+          <t>sayhuss17</t>
+        </is>
+      </c>
+      <c r="E34" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="207" t="n">
         <v>4</v>
       </c>
-      <c r="I14" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" s="115" t="n">
-        <v>13260</v>
-      </c>
-      <c r="K14" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="L14" s="115" t="n">
-        <v>12144</v>
-      </c>
-      <c r="M14" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="N14" s="115" t="n">
-        <v>12835</v>
-      </c>
-      <c r="O14" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="P14" s="115" t="n">
-        <v>7696</v>
-      </c>
-      <c r="Q14" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="R14" s="115" t="n">
-        <v>9188</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="180" t="inlineStr">
-        <is>
-          <t>#YJ20CRJYQ</t>
-        </is>
-      </c>
-      <c r="B15" s="180" t="n">
-        <v>1265</v>
-      </c>
-      <c r="C15" s="181" t="n">
-        <v>12</v>
-      </c>
-      <c r="D15" s="103" t="inlineStr">
-        <is>
-          <t>UnluckGod</t>
-        </is>
-      </c>
-      <c r="E15" s="183" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="183" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="105" t="n">
-        <v>61</v>
-      </c>
-      <c r="I15" s="182" t="n">
-        <v>6</v>
-      </c>
-      <c r="J15" s="107" t="n">
-        <v>12824</v>
-      </c>
-      <c r="K15" s="182" t="n">
-        <v>6</v>
-      </c>
-      <c r="L15" s="107" t="n">
-        <v>11999</v>
-      </c>
-      <c r="M15" s="182" t="n">
-        <v>6</v>
-      </c>
-      <c r="N15" s="107" t="n">
-        <v>12972</v>
-      </c>
-      <c r="O15" s="182" t="n">
-        <v>6</v>
-      </c>
-      <c r="P15" s="107" t="n">
-        <v>8286</v>
-      </c>
-      <c r="Q15" s="182" t="n">
-        <v>6</v>
-      </c>
-      <c r="R15" s="107" t="n">
-        <v>11406</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="176" t="inlineStr">
-        <is>
-          <t>#YRGRRJQCY</t>
-        </is>
-      </c>
-      <c r="B16" s="176" t="n">
-        <v>1366</v>
-      </c>
-      <c r="C16" s="177" t="n">
-        <v>13</v>
-      </c>
-      <c r="D16" s="110" t="inlineStr">
-        <is>
-          <t>DoubleSpice</t>
-        </is>
-      </c>
-      <c r="E16" s="179" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="179" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="113" t="n">
-        <v>60</v>
-      </c>
-      <c r="I16" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="J16" s="115" t="n">
-        <v>11620</v>
-      </c>
-      <c r="K16" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="L16" s="115" t="n">
-        <v>14095</v>
-      </c>
-      <c r="M16" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="N16" s="115" t="n">
-        <v>12379</v>
-      </c>
-      <c r="O16" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="P16" s="115" t="n">
-        <v>8256</v>
-      </c>
-      <c r="Q16" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="R16" s="115" t="n">
-        <v>7054</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="180" t="inlineStr">
-        <is>
-          <t>#QUG8QQJ92</t>
-        </is>
-      </c>
-      <c r="B17" s="180" t="n">
-        <v>891</v>
-      </c>
-      <c r="C17" s="181" t="n">
-        <v>14</v>
-      </c>
-      <c r="D17" s="103" t="inlineStr">
-        <is>
-          <t>Karma</t>
-        </is>
-      </c>
-      <c r="E17" s="183" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="183" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="182" t="n">
-        <v>6</v>
-      </c>
-      <c r="J17" s="107" t="n">
-        <v>11355</v>
-      </c>
-      <c r="K17" s="182" t="n">
-        <v>6</v>
-      </c>
-      <c r="L17" s="107" t="n">
-        <v>10003</v>
-      </c>
-      <c r="M17" s="182" t="n">
-        <v>6</v>
-      </c>
-      <c r="N17" s="107" t="n">
-        <v>10595</v>
-      </c>
-      <c r="O17" s="182" t="n">
-        <v>6</v>
-      </c>
-      <c r="P17" s="107" t="n">
-        <v>9240</v>
-      </c>
-      <c r="Q17" s="182" t="n">
-        <v>6</v>
-      </c>
-      <c r="R17" s="107" t="n">
-        <v>10628</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="184" t="inlineStr">
-        <is>
-          <t>#98JG2UJQL</t>
-        </is>
-      </c>
-      <c r="B18" s="184" t="n">
-        <v>2922</v>
-      </c>
-      <c r="C18" s="177" t="n">
+      <c r="P34" s="130" t="n">
+        <v>4240</v>
+      </c>
+      <c r="Q34" s="201" t="n"/>
+      <c r="R34" s="120" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="204" t="inlineStr">
+        <is>
+          <t>#QQL8C29CY</t>
+        </is>
+      </c>
+      <c r="B35" s="204" t="n">
+        <v>864</v>
+      </c>
+      <c r="C35" s="198" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" s="124" t="inlineStr">
+        <is>
+          <t>TypicalTeague#2</t>
+        </is>
+      </c>
+      <c r="E35" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="205" t="n">
+        <v>5</v>
+      </c>
+      <c r="P35" s="129" t="n">
+        <v>4070</v>
+      </c>
+      <c r="Q35" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="R35" s="128" t="n">
+        <v>6410</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="201" t="inlineStr">
+        <is>
+          <t>#L9QL9YQQY</t>
+        </is>
+      </c>
+      <c r="B36" s="201" t="n">
+        <v>975</v>
+      </c>
+      <c r="C36" s="194" t="n">
+        <v>33</v>
+      </c>
+      <c r="D36" s="117" t="inlineStr">
+        <is>
+          <t>Ima Chad</t>
+        </is>
+      </c>
+      <c r="E36" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="202" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" s="117" t="n">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="204" t="inlineStr">
+        <is>
+          <t>#L9JJQY992</t>
+        </is>
+      </c>
+      <c r="B37" s="204" t="n">
+        <v>773</v>
+      </c>
+      <c r="C37" s="198" t="n">
+        <v>34</v>
+      </c>
+      <c r="D37" s="124" t="inlineStr">
+        <is>
+          <t>Fisted_Waffle</t>
+        </is>
+      </c>
+      <c r="E37" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="204" t="n"/>
+      <c r="R37" s="126" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="201" t="inlineStr">
+        <is>
+          <t>#PJYVV989R</t>
+        </is>
+      </c>
+      <c r="B38" s="201" t="n">
+        <v>1533</v>
+      </c>
+      <c r="C38" s="194" t="n">
+        <v>35</v>
+      </c>
+      <c r="D38" s="117" t="inlineStr">
+        <is>
+          <t>nx</t>
+        </is>
+      </c>
+      <c r="E38" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="203" t="n">
+        <v>32</v>
+      </c>
+      <c r="H38" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="201" t="n"/>
+      <c r="R38" s="120" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="204" t="inlineStr">
+        <is>
+          <t>#QV8RY9UC8</t>
+        </is>
+      </c>
+      <c r="B39" s="204" t="n">
+        <v>813</v>
+      </c>
+      <c r="C39" s="198" t="n">
+        <v>36</v>
+      </c>
+      <c r="D39" s="124" t="inlineStr">
+        <is>
+          <t>Apollo</t>
+        </is>
+      </c>
+      <c r="E39" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="204" t="n"/>
+      <c r="L39" s="126" t="n"/>
+      <c r="M39" s="204" t="n"/>
+      <c r="N39" s="126" t="n"/>
+      <c r="O39" s="204" t="n"/>
+      <c r="P39" s="126" t="n"/>
+      <c r="Q39" s="204" t="n"/>
+      <c r="R39" s="126" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="201" t="inlineStr">
+        <is>
+          <t>#QQL28Y2UL</t>
+        </is>
+      </c>
+      <c r="B40" s="201" t="n">
+        <v>1107</v>
+      </c>
+      <c r="C40" s="194" t="n">
+        <v>37</v>
+      </c>
+      <c r="D40" s="117" t="inlineStr">
+        <is>
+          <t>SUPoT</t>
+        </is>
+      </c>
+      <c r="E40" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="120" t="n">
+        <v>56</v>
+      </c>
+      <c r="I40" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="201" t="n"/>
+      <c r="L40" s="120" t="n"/>
+      <c r="M40" s="201" t="n"/>
+      <c r="N40" s="120" t="n"/>
+      <c r="O40" s="201" t="n"/>
+      <c r="P40" s="120" t="n"/>
+      <c r="Q40" s="201" t="n"/>
+      <c r="R40" s="120" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="204" t="inlineStr">
+        <is>
+          <t>#QLGYRVPU0</t>
+        </is>
+      </c>
+      <c r="B41" s="204" t="n">
+        <v>885</v>
+      </c>
+      <c r="C41" s="198" t="n">
+        <v>38</v>
+      </c>
+      <c r="D41" s="124" t="inlineStr">
+        <is>
+          <t>Black.Boy.</t>
+        </is>
+      </c>
+      <c r="E41" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="126" t="n">
+        <v>95</v>
+      </c>
+      <c r="I41" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="204" t="n"/>
+      <c r="L41" s="126" t="n"/>
+      <c r="M41" s="204" t="n"/>
+      <c r="N41" s="126" t="n"/>
+      <c r="O41" s="204" t="n"/>
+      <c r="P41" s="126" t="n"/>
+      <c r="Q41" s="204" t="n"/>
+      <c r="R41" s="126" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="201" t="inlineStr">
+        <is>
+          <t>#QUGYGY88C</t>
+        </is>
+      </c>
+      <c r="B42" s="201" t="n">
+        <v>939</v>
+      </c>
+      <c r="C42" s="194" t="n">
+        <v>39</v>
+      </c>
+      <c r="D42" s="117" t="inlineStr">
+        <is>
+          <t>Kingsman</t>
+        </is>
+      </c>
+      <c r="E42" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="201" t="n"/>
+      <c r="L42" s="120" t="n"/>
+      <c r="M42" s="201" t="n"/>
+      <c r="N42" s="120" t="n"/>
+      <c r="O42" s="201" t="n"/>
+      <c r="P42" s="120" t="n"/>
+      <c r="Q42" s="201" t="n"/>
+      <c r="R42" s="120" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="204" t="inlineStr">
+        <is>
+          <t>#QLUV29GGJ</t>
+        </is>
+      </c>
+      <c r="B43" s="204" t="n">
+        <v>973</v>
+      </c>
+      <c r="C43" s="198" t="n">
+        <v>40</v>
+      </c>
+      <c r="D43" s="124" t="inlineStr">
+        <is>
+          <t>Kukoshibo</t>
+        </is>
+      </c>
+      <c r="E43" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="204" t="n"/>
+      <c r="J43" s="126" t="n"/>
+      <c r="K43" s="204" t="n"/>
+      <c r="L43" s="126" t="n"/>
+      <c r="M43" s="204" t="n"/>
+      <c r="N43" s="126" t="n"/>
+      <c r="O43" s="204" t="n"/>
+      <c r="P43" s="126" t="n"/>
+      <c r="Q43" s="204" t="n"/>
+      <c r="R43" s="126" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="201" t="inlineStr">
+        <is>
+          <t>#QJQV82JG0</t>
+        </is>
+      </c>
+      <c r="B44" s="201" t="n">
+        <v>892</v>
+      </c>
+      <c r="C44" s="194" t="n">
+        <v>41</v>
+      </c>
+      <c r="D44" s="117" t="inlineStr">
+        <is>
+          <t>The UnknownYT</t>
+        </is>
+      </c>
+      <c r="E44" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="203" t="n">
+        <v>6</v>
+      </c>
+      <c r="H44" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="201" t="n"/>
+      <c r="J44" s="120" t="n"/>
+      <c r="K44" s="201" t="n"/>
+      <c r="L44" s="120" t="n"/>
+      <c r="M44" s="201" t="n"/>
+      <c r="N44" s="120" t="n"/>
+      <c r="O44" s="201" t="n"/>
+      <c r="P44" s="120" t="n"/>
+      <c r="Q44" s="201" t="n"/>
+      <c r="R44" s="120" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="204" t="inlineStr">
+        <is>
+          <t>#QUCCVCCJ0</t>
+        </is>
+      </c>
+      <c r="B45" s="204" t="n">
+        <v>738</v>
+      </c>
+      <c r="C45" s="198" t="n">
+        <v>42</v>
+      </c>
+      <c r="D45" s="124" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="E45" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="126" t="n">
         <v>15</v>
       </c>
-      <c r="D18" s="117" t="inlineStr">
-        <is>
-          <t>Dragonux</t>
-        </is>
-      </c>
-      <c r="E18" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="190" t="n">
-        <v>211</v>
-      </c>
-      <c r="H18" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="185" t="n">
-        <v>6</v>
-      </c>
-      <c r="J18" s="122" t="n">
-        <v>10910</v>
-      </c>
-      <c r="K18" s="185" t="n">
-        <v>6</v>
-      </c>
-      <c r="L18" s="122" t="n">
-        <v>8750</v>
-      </c>
-      <c r="M18" s="185" t="n">
-        <v>6</v>
-      </c>
-      <c r="N18" s="122" t="n">
-        <v>10865</v>
-      </c>
-      <c r="O18" s="185" t="n">
-        <v>6</v>
-      </c>
-      <c r="P18" s="122" t="n">
-        <v>8025</v>
-      </c>
-      <c r="Q18" s="185" t="n">
-        <v>6</v>
-      </c>
-      <c r="R18" s="122" t="n">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="180" t="inlineStr">
-        <is>
-          <t>#QLR088LC9</t>
-        </is>
-      </c>
-      <c r="B19" s="180" t="n">
-        <v>883</v>
-      </c>
-      <c r="C19" s="181" t="n">
-        <v>16</v>
-      </c>
-      <c r="D19" s="103" t="inlineStr">
-        <is>
-          <t>Sanji</t>
-        </is>
-      </c>
-      <c r="E19" s="183" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="183" t="n">
-        <v>6</v>
-      </c>
-      <c r="H19" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="182" t="n">
-        <v>6</v>
-      </c>
-      <c r="J19" s="107" t="n">
-        <v>10910</v>
-      </c>
-      <c r="K19" s="182" t="n">
-        <v>6</v>
-      </c>
-      <c r="L19" s="107" t="n">
-        <v>9550</v>
-      </c>
-      <c r="M19" s="182" t="n">
-        <v>6</v>
-      </c>
-      <c r="N19" s="107" t="n">
-        <v>9138</v>
-      </c>
-      <c r="O19" s="182" t="n">
-        <v>6</v>
-      </c>
-      <c r="P19" s="107" t="n">
-        <v>8897</v>
-      </c>
-      <c r="Q19" s="182" t="n">
-        <v>6</v>
-      </c>
-      <c r="R19" s="107" t="n">
-        <v>8512</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="176" t="inlineStr">
-        <is>
-          <t>#QUYG0PQC8</t>
-        </is>
-      </c>
-      <c r="B20" s="176" t="n">
-        <v>852</v>
-      </c>
-      <c r="C20" s="177" t="n">
-        <v>17</v>
-      </c>
-      <c r="D20" s="110" t="inlineStr">
-        <is>
-          <t>Luffy</t>
-        </is>
-      </c>
-      <c r="E20" s="179" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="179" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" s="115" t="n">
-        <v>10879</v>
-      </c>
-      <c r="K20" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="L20" s="115" t="n">
-        <v>9114</v>
-      </c>
-      <c r="M20" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="N20" s="115" t="n">
-        <v>13385</v>
-      </c>
-      <c r="O20" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="P20" s="115" t="n">
-        <v>7877</v>
-      </c>
-      <c r="Q20" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="R20" s="115" t="n">
-        <v>8347</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="187" t="inlineStr">
-        <is>
-          <t>#82QLQCJRJ</t>
-        </is>
-      </c>
-      <c r="B21" s="187" t="n">
-        <v>2903</v>
-      </c>
-      <c r="C21" s="181" t="n">
-        <v>18</v>
-      </c>
-      <c r="D21" s="124" t="inlineStr">
-        <is>
-          <t>Raging Fury</t>
-        </is>
-      </c>
-      <c r="E21" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="188" t="n">
-        <v>6</v>
-      </c>
-      <c r="J21" s="128" t="n">
-        <v>8055</v>
-      </c>
-      <c r="K21" s="188" t="n">
-        <v>6</v>
-      </c>
-      <c r="L21" s="128" t="n">
-        <v>7115</v>
-      </c>
-      <c r="M21" s="189" t="n">
-        <v>2</v>
-      </c>
-      <c r="N21" s="124" t="n">
-        <v>2320</v>
-      </c>
-      <c r="O21" s="188" t="n">
-        <v>6</v>
-      </c>
-      <c r="P21" s="129" t="n">
-        <v>4920</v>
-      </c>
-      <c r="Q21" s="188" t="n">
-        <v>6</v>
-      </c>
-      <c r="R21" s="129" t="n">
-        <v>5135</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="176" t="inlineStr">
-        <is>
-          <t>#Q8CLCUCC2</t>
-        </is>
-      </c>
-      <c r="B22" s="176" t="n">
-        <v>1373</v>
-      </c>
-      <c r="C22" s="177" t="n">
-        <v>19</v>
-      </c>
-      <c r="D22" s="110" t="inlineStr">
-        <is>
-          <t>Moxxi</t>
-        </is>
-      </c>
-      <c r="E22" s="179" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="179" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="113" t="n">
-        <v>60</v>
-      </c>
-      <c r="I22" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="J22" s="115" t="n">
-        <v>8015</v>
-      </c>
-      <c r="K22" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="L22" s="115" t="n">
-        <v>11010</v>
-      </c>
-      <c r="M22" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="N22" s="115" t="n">
-        <v>13857</v>
-      </c>
-      <c r="O22" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="P22" s="115" t="n">
-        <v>7905</v>
-      </c>
-      <c r="Q22" s="178" t="n">
-        <v>6</v>
-      </c>
-      <c r="R22" s="115" t="n">
-        <v>7224</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="187" t="inlineStr">
-        <is>
-          <t>#QRPRYR8LL</t>
-        </is>
-      </c>
-      <c r="B23" s="187" t="n">
-        <v>1183</v>
-      </c>
-      <c r="C23" s="181" t="n">
-        <v>20</v>
-      </c>
-      <c r="D23" s="124" t="inlineStr">
-        <is>
-          <t>FidelCashflow</t>
-        </is>
-      </c>
-      <c r="E23" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="189" t="n">
-        <v>4</v>
-      </c>
-      <c r="H23" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="188" t="n">
-        <v>6</v>
-      </c>
-      <c r="J23" s="128" t="n">
-        <v>6415</v>
-      </c>
-      <c r="K23" s="188" t="n">
-        <v>6</v>
-      </c>
-      <c r="L23" s="128" t="n">
-        <v>6547</v>
-      </c>
-      <c r="M23" s="188" t="n">
-        <v>6</v>
-      </c>
-      <c r="N23" s="128" t="n">
-        <v>6811</v>
-      </c>
-      <c r="O23" s="188" t="n">
-        <v>6</v>
-      </c>
-      <c r="P23" s="129" t="n">
-        <v>4239</v>
-      </c>
-      <c r="Q23" s="188" t="n">
-        <v>6</v>
-      </c>
-      <c r="R23" s="129" t="n">
-        <v>4214</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="184" t="inlineStr">
-        <is>
-          <t>#QY0VGPQGQ</t>
-        </is>
-      </c>
-      <c r="B24" s="184" t="n">
-        <v>533</v>
-      </c>
-      <c r="C24" s="177" t="n">
-        <v>21</v>
-      </c>
-      <c r="D24" s="117" t="inlineStr">
-        <is>
-          <t>killerjones</t>
-        </is>
-      </c>
-      <c r="E24" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="120" t="n">
-        <v>15</v>
-      </c>
-      <c r="I24" s="185" t="n">
-        <v>6</v>
-      </c>
-      <c r="J24" s="122" t="n">
-        <v>6320</v>
-      </c>
-      <c r="K24" s="184" t="n"/>
-      <c r="L24" s="120" t="n"/>
-      <c r="M24" s="184" t="n"/>
-      <c r="N24" s="120" t="n"/>
-      <c r="O24" s="184" t="n"/>
-      <c r="P24" s="120" t="n"/>
-      <c r="Q24" s="184" t="n"/>
-      <c r="R24" s="120" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="187" t="inlineStr">
-        <is>
-          <t>#QLG0VJG2J</t>
-        </is>
-      </c>
-      <c r="B25" s="187" t="n">
-        <v>1167</v>
-      </c>
-      <c r="C25" s="181" t="n">
-        <v>22</v>
-      </c>
-      <c r="D25" s="124" t="inlineStr">
-        <is>
-          <t>PocketRocket</t>
-        </is>
-      </c>
-      <c r="E25" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="189" t="n">
-        <v>20</v>
-      </c>
-      <c r="H25" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="191" t="n">
-        <v>4</v>
-      </c>
-      <c r="J25" s="129" t="n">
-        <v>4327</v>
-      </c>
-      <c r="K25" s="191" t="n">
-        <v>4</v>
-      </c>
-      <c r="L25" s="129" t="n">
-        <v>5215</v>
-      </c>
-      <c r="M25" s="187" t="n"/>
-      <c r="N25" s="126" t="n"/>
-      <c r="O25" s="187" t="n"/>
-      <c r="P25" s="126" t="n"/>
-      <c r="Q25" s="187" t="n"/>
-      <c r="R25" s="126" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="184" t="inlineStr">
-        <is>
-          <t>#QL8LVLYG8</t>
-        </is>
-      </c>
-      <c r="B26" s="184" t="n">
-        <v>930</v>
-      </c>
-      <c r="C26" s="177" t="n">
-        <v>23</v>
-      </c>
-      <c r="D26" s="117" t="inlineStr">
-        <is>
-          <t>Some guy</t>
-        </is>
-      </c>
-      <c r="E26" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="120" t="n">
-        <v>20</v>
-      </c>
-      <c r="I26" s="186" t="n">
-        <v>2</v>
-      </c>
-      <c r="J26" s="117" t="n">
-        <v>2650</v>
-      </c>
-      <c r="K26" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="185" t="n">
-        <v>6</v>
-      </c>
-      <c r="N26" s="122" t="n">
-        <v>6917</v>
-      </c>
-      <c r="O26" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="186" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" s="117" t="n">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="187" t="inlineStr">
-        <is>
-          <t>#QJC8LQU9U</t>
-        </is>
-      </c>
-      <c r="B27" s="187" t="n">
-        <v>998</v>
-      </c>
-      <c r="C27" s="181" t="n">
-        <v>24</v>
-      </c>
-      <c r="D27" s="124" t="inlineStr">
-        <is>
-          <t>Master01</t>
-        </is>
-      </c>
-      <c r="E27" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="188" t="n">
-        <v>6</v>
-      </c>
-      <c r="N27" s="129" t="n">
-        <v>5415</v>
-      </c>
-      <c r="O27" s="188" t="n">
-        <v>6</v>
-      </c>
-      <c r="P27" s="129" t="n">
-        <v>4835</v>
-      </c>
-      <c r="Q27" s="188" t="n">
+      <c r="I45" s="204" t="n"/>
+      <c r="J45" s="126" t="n"/>
+      <c r="K45" s="204" t="n"/>
+      <c r="L45" s="126" t="n"/>
+      <c r="M45" s="204" t="n"/>
+      <c r="N45" s="126" t="n"/>
+      <c r="O45" s="204" t="n"/>
+      <c r="P45" s="126" t="n"/>
+      <c r="Q45" s="204" t="n"/>
+      <c r="R45" s="126" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="201" t="inlineStr">
+        <is>
+          <t>#Q0U0CRCGJ</t>
+        </is>
+      </c>
+      <c r="B46" s="201" t="n">
+        <v>727</v>
+      </c>
+      <c r="C46" s="194" t="n">
+        <v>43</v>
+      </c>
+      <c r="D46" s="117" t="inlineStr">
+        <is>
+          <t>Sn0wc0ne</t>
+        </is>
+      </c>
+      <c r="E46" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="201" t="n"/>
+      <c r="J46" s="120" t="n"/>
+      <c r="K46" s="201" t="n"/>
+      <c r="L46" s="120" t="n"/>
+      <c r="M46" s="201" t="n"/>
+      <c r="N46" s="120" t="n"/>
+      <c r="O46" s="201" t="n"/>
+      <c r="P46" s="120" t="n"/>
+      <c r="Q46" s="201" t="n"/>
+      <c r="R46" s="120" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="204" t="inlineStr">
+        <is>
+          <t>#G0LJCVR2P</t>
+        </is>
+      </c>
+      <c r="B47" s="204" t="n">
+        <v>1028</v>
+      </c>
+      <c r="C47" s="198" t="n">
+        <v>44</v>
+      </c>
+      <c r="D47" s="124" t="inlineStr">
+        <is>
+          <t>DaddyChill</t>
+        </is>
+      </c>
+      <c r="E47" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="204" t="n"/>
+      <c r="J47" s="126" t="n"/>
+      <c r="K47" s="204" t="n"/>
+      <c r="L47" s="126" t="n"/>
+      <c r="M47" s="204" t="n"/>
+      <c r="N47" s="126" t="n"/>
+      <c r="O47" s="204" t="n"/>
+      <c r="P47" s="126" t="n"/>
+      <c r="Q47" s="204" t="n"/>
+      <c r="R47" s="126" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="201" t="inlineStr">
+        <is>
+          <t>#9JUR0JQV2</t>
+        </is>
+      </c>
+      <c r="B48" s="201" t="n">
+        <v>1134</v>
+      </c>
+      <c r="C48" s="194" t="n">
+        <v>45</v>
+      </c>
+      <c r="D48" s="120" t="inlineStr">
+        <is>
+          <t>atley</t>
+        </is>
+      </c>
+      <c r="E48" s="201" t="n"/>
+      <c r="F48" s="120" t="n"/>
+      <c r="G48" s="201" t="n"/>
+      <c r="H48" s="120" t="n"/>
+      <c r="I48" s="201" t="n"/>
+      <c r="J48" s="120" t="n"/>
+      <c r="K48" s="201" t="n"/>
+      <c r="L48" s="120" t="n"/>
+      <c r="M48" s="201" t="n"/>
+      <c r="N48" s="120" t="n"/>
+      <c r="O48" s="201" t="n"/>
+      <c r="P48" s="120" t="n"/>
+      <c r="Q48" s="201" t="n"/>
+      <c r="R48" s="120" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="204" t="inlineStr">
+        <is>
+          <t>#QPRYCJVJL</t>
+        </is>
+      </c>
+      <c r="B49" s="204" t="n">
+        <v>702</v>
+      </c>
+      <c r="C49" s="198" t="n">
+        <v>46</v>
+      </c>
+      <c r="D49" s="126" t="inlineStr">
+        <is>
+          <t>cris</t>
+        </is>
+      </c>
+      <c r="E49" s="204" t="n"/>
+      <c r="F49" s="126" t="n"/>
+      <c r="G49" s="204" t="n"/>
+      <c r="H49" s="126" t="n"/>
+      <c r="I49" s="204" t="n"/>
+      <c r="J49" s="126" t="n"/>
+      <c r="K49" s="204" t="n"/>
+      <c r="L49" s="126" t="n"/>
+      <c r="M49" s="204" t="n"/>
+      <c r="N49" s="126" t="n"/>
+      <c r="O49" s="204" t="n"/>
+      <c r="P49" s="126" t="n"/>
+      <c r="Q49" s="204" t="n"/>
+      <c r="R49" s="126" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="201" t="inlineStr">
+        <is>
+          <t>#QLGUYQPL0</t>
+        </is>
+      </c>
+      <c r="B50" s="201" t="n">
+        <v>1615</v>
+      </c>
+      <c r="C50" s="194" t="n">
+        <v>47</v>
+      </c>
+      <c r="D50" s="120" t="inlineStr">
+        <is>
+          <t>i got time</t>
+        </is>
+      </c>
+      <c r="E50" s="201" t="n"/>
+      <c r="F50" s="120" t="n"/>
+      <c r="G50" s="201" t="n"/>
+      <c r="H50" s="120" t="n"/>
+      <c r="I50" s="201" t="n"/>
+      <c r="J50" s="120" t="n"/>
+      <c r="K50" s="201" t="n"/>
+      <c r="L50" s="120" t="n"/>
+      <c r="M50" s="201" t="n"/>
+      <c r="N50" s="120" t="n"/>
+      <c r="O50" s="201" t="n"/>
+      <c r="P50" s="120" t="n"/>
+      <c r="Q50" s="201" t="n"/>
+      <c r="R50" s="120" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="131" t="inlineStr">
+        <is>
+          <t>#QQLVRJCGQ</t>
+        </is>
+      </c>
+      <c r="B51" s="132" t="n">
+        <v>1240</v>
+      </c>
+      <c r="C51" s="133" t="n">
+        <v>48</v>
+      </c>
+      <c r="D51" s="134" t="inlineStr">
+        <is>
+          <t>khant</t>
+        </is>
+      </c>
+      <c r="E51" s="132" t="n"/>
+      <c r="F51" s="134" t="n"/>
+      <c r="G51" s="132" t="n"/>
+      <c r="H51" s="134" t="n"/>
+      <c r="I51" s="132" t="n"/>
+      <c r="J51" s="134" t="n"/>
+      <c r="K51" s="132" t="n"/>
+      <c r="L51" s="134" t="n"/>
+      <c r="M51" s="132" t="n"/>
+      <c r="N51" s="134" t="n"/>
+      <c r="O51" s="132" t="n"/>
+      <c r="P51" s="134" t="n"/>
+      <c r="Q51" s="132" t="n"/>
+      <c r="R51" s="134" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="203" t="inlineStr">
+        <is>
+          <t>#QLL0PVCRV</t>
+        </is>
+      </c>
+      <c r="B52" s="201" t="n">
+        <v>1704</v>
+      </c>
+      <c r="C52" s="194" t="n">
+        <v>49</v>
+      </c>
+      <c r="D52" s="120" t="inlineStr">
+        <is>
+          <t>Harsh chhillar</t>
+        </is>
+      </c>
+      <c r="E52" s="201" t="n"/>
+      <c r="F52" s="120" t="n"/>
+      <c r="G52" s="201" t="n"/>
+      <c r="H52" s="120" t="n"/>
+      <c r="I52" s="201" t="n"/>
+      <c r="J52" s="120" t="n"/>
+      <c r="K52" s="201" t="n"/>
+      <c r="L52" s="120" t="n"/>
+      <c r="M52" s="201" t="n"/>
+      <c r="N52" s="120" t="n"/>
+      <c r="O52" s="201" t="n"/>
+      <c r="P52" s="120" t="n"/>
+      <c r="Q52" s="201" t="n"/>
+      <c r="R52" s="120" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="206" t="inlineStr">
+        <is>
+          <t>#Q8YP9P8UJ</t>
+        </is>
+      </c>
+      <c r="B53" s="204" t="n">
+        <v>945</v>
+      </c>
+      <c r="C53" s="198" t="n">
+        <v>50</v>
+      </c>
+      <c r="D53" s="126" t="inlineStr">
+        <is>
+          <t>Ranger</t>
+        </is>
+      </c>
+      <c r="E53" s="204" t="n"/>
+      <c r="F53" s="126" t="n"/>
+      <c r="G53" s="204" t="n"/>
+      <c r="H53" s="126" t="n"/>
+      <c r="I53" s="204" t="n"/>
+      <c r="J53" s="126" t="n"/>
+      <c r="K53" s="205" t="n">
         <v>5</v>
       </c>
-      <c r="R27" s="129" t="n">
-        <v>4055</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="184" t="inlineStr">
-        <is>
-          <t>#QV8JJ0URU</t>
-        </is>
-      </c>
-      <c r="B28" s="184" t="n">
-        <v>741</v>
-      </c>
-      <c r="C28" s="177" t="n">
-        <v>25</v>
-      </c>
-      <c r="D28" s="117" t="inlineStr">
-        <is>
-          <t>✨Jacob</t>
-        </is>
-      </c>
-      <c r="E28" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" s="185" t="n">
-        <v>6</v>
-      </c>
-      <c r="P28" s="122" t="n">
-        <v>7385</v>
-      </c>
-      <c r="Q28" s="185" t="n">
-        <v>6</v>
-      </c>
-      <c r="R28" s="122" t="n">
-        <v>9155</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="187" t="inlineStr">
-        <is>
-          <t>#QY8L2GLUR</t>
-        </is>
-      </c>
-      <c r="B29" s="187" t="n">
-        <v>907</v>
-      </c>
-      <c r="C29" s="181" t="n">
-        <v>26</v>
-      </c>
-      <c r="D29" s="124" t="inlineStr">
-        <is>
-          <t>Huy</t>
-        </is>
-      </c>
-      <c r="E29" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" s="188" t="n">
-        <v>6</v>
-      </c>
-      <c r="P29" s="128" t="n">
-        <v>6995</v>
-      </c>
-      <c r="Q29" s="188" t="n">
-        <v>6</v>
-      </c>
-      <c r="R29" s="128" t="n">
-        <v>6055</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="184" t="inlineStr">
-        <is>
-          <t>#L2QQL9QVJ</t>
-        </is>
-      </c>
-      <c r="B30" s="184" t="n">
-        <v>1450</v>
-      </c>
-      <c r="C30" s="177" t="n">
-        <v>27</v>
-      </c>
-      <c r="D30" s="117" t="inlineStr">
-        <is>
-          <t>JustPre10d</t>
-        </is>
-      </c>
-      <c r="E30" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" s="185" t="n">
-        <v>6</v>
-      </c>
-      <c r="P30" s="122" t="n">
-        <v>6655</v>
-      </c>
-      <c r="Q30" s="185" t="n">
-        <v>6</v>
-      </c>
-      <c r="R30" s="122" t="n">
-        <v>7675</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="187" t="inlineStr">
-        <is>
-          <t>#LPR9RPCY9</t>
-        </is>
-      </c>
-      <c r="B31" s="187" t="n">
-        <v>990</v>
-      </c>
-      <c r="C31" s="181" t="n">
-        <v>28</v>
-      </c>
-      <c r="D31" s="124" t="inlineStr">
-        <is>
-          <t>sayhuss17</t>
-        </is>
-      </c>
-      <c r="E31" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" s="191" t="n">
-        <v>4</v>
-      </c>
-      <c r="P31" s="129" t="n">
-        <v>4240</v>
-      </c>
-      <c r="Q31" s="187" t="n"/>
-      <c r="R31" s="126" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="184" t="inlineStr">
-        <is>
-          <t>#QQL8C29CY</t>
-        </is>
-      </c>
-      <c r="B32" s="184" t="n">
-        <v>864</v>
-      </c>
-      <c r="C32" s="177" t="n">
-        <v>29</v>
-      </c>
-      <c r="D32" s="117" t="inlineStr">
-        <is>
-          <t>TypicalTeague#2</t>
-        </is>
-      </c>
-      <c r="E32" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" s="185" t="n">
-        <v>5</v>
-      </c>
-      <c r="P32" s="130" t="n">
-        <v>4070</v>
-      </c>
-      <c r="Q32" s="185" t="n">
-        <v>6</v>
-      </c>
-      <c r="R32" s="122" t="n">
-        <v>6410</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="187" t="inlineStr">
-        <is>
-          <t>#L9QL9YQQY</t>
-        </is>
-      </c>
-      <c r="B33" s="187" t="n">
-        <v>975</v>
-      </c>
-      <c r="C33" s="181" t="n">
-        <v>30</v>
-      </c>
-      <c r="D33" s="124" t="inlineStr">
-        <is>
-          <t>Ima Chad</t>
-        </is>
-      </c>
-      <c r="E33" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="188" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" s="124" t="n">
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="184" t="inlineStr">
-        <is>
-          <t>#PJYVV989R</t>
-        </is>
-      </c>
-      <c r="B34" s="184" t="n">
-        <v>1531</v>
-      </c>
-      <c r="C34" s="177" t="n">
-        <v>31</v>
-      </c>
-      <c r="D34" s="117" t="inlineStr">
-        <is>
-          <t>nx</t>
-        </is>
-      </c>
-      <c r="E34" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="186" t="n">
-        <v>32</v>
-      </c>
-      <c r="H34" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="184" t="n"/>
-      <c r="R34" s="120" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="187" t="inlineStr">
-        <is>
-          <t>#L9JJQY992</t>
-        </is>
-      </c>
-      <c r="B35" s="187" t="n">
-        <v>773</v>
-      </c>
-      <c r="C35" s="181" t="n">
-        <v>32</v>
-      </c>
-      <c r="D35" s="124" t="inlineStr">
-        <is>
-          <t>Fisted_Waffle</t>
-        </is>
-      </c>
-      <c r="E35" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="187" t="n"/>
-      <c r="R35" s="126" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="184" t="inlineStr">
-        <is>
-          <t>#LPCLQUCCY</t>
-        </is>
-      </c>
-      <c r="B36" s="184" t="n">
-        <v>1012</v>
-      </c>
-      <c r="C36" s="177" t="n">
-        <v>33</v>
-      </c>
-      <c r="D36" s="117" t="inlineStr">
-        <is>
-          <t>Zodiac</t>
-        </is>
-      </c>
-      <c r="E36" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" s="184" t="n"/>
-      <c r="L36" s="120" t="n"/>
-      <c r="M36" s="184" t="n"/>
-      <c r="N36" s="120" t="n"/>
-      <c r="O36" s="184" t="n"/>
-      <c r="P36" s="120" t="n"/>
-      <c r="Q36" s="184" t="n"/>
-      <c r="R36" s="120" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="187" t="inlineStr">
-        <is>
-          <t>#QQL28Y2UL</t>
-        </is>
-      </c>
-      <c r="B37" s="187" t="n">
-        <v>1107</v>
-      </c>
-      <c r="C37" s="181" t="n">
-        <v>34</v>
-      </c>
-      <c r="D37" s="124" t="inlineStr">
-        <is>
-          <t>SUPoT</t>
-        </is>
-      </c>
-      <c r="E37" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="126" t="n">
+      <c r="L53" s="129" t="n">
+        <v>4680</v>
+      </c>
+      <c r="M53" s="204" t="n"/>
+      <c r="N53" s="126" t="n"/>
+      <c r="O53" s="204" t="n"/>
+      <c r="P53" s="126" t="n"/>
+      <c r="Q53" s="204" t="n"/>
+      <c r="R53" s="126" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="203" t="inlineStr">
+        <is>
+          <t>#Q0JG2RJQ8</t>
+        </is>
+      </c>
+      <c r="B54" s="201" t="n">
+        <v>997</v>
+      </c>
+      <c r="C54" s="194" t="n">
+        <v>51</v>
+      </c>
+      <c r="D54" s="120" t="inlineStr">
+        <is>
+          <t>bozo</t>
+        </is>
+      </c>
+      <c r="E54" s="201" t="n"/>
+      <c r="F54" s="120" t="n"/>
+      <c r="G54" s="201" t="n"/>
+      <c r="H54" s="120" t="n"/>
+      <c r="I54" s="201" t="n"/>
+      <c r="J54" s="120" t="n"/>
+      <c r="K54" s="201" t="n"/>
+      <c r="L54" s="120" t="n"/>
+      <c r="M54" s="202" t="n">
+        <v>6</v>
+      </c>
+      <c r="N54" s="122" t="n">
+        <v>6495</v>
+      </c>
+      <c r="O54" s="201" t="n"/>
+      <c r="P54" s="120" t="n"/>
+      <c r="Q54" s="201" t="n"/>
+      <c r="R54" s="120" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="206" t="inlineStr">
+        <is>
+          <t>#UVCCQC02</t>
+        </is>
+      </c>
+      <c r="B55" s="204" t="n">
+        <v>1806</v>
+      </c>
+      <c r="C55" s="198" t="n">
+        <v>52</v>
+      </c>
+      <c r="D55" s="126" t="inlineStr">
+        <is>
+          <t>lordshisha</t>
+        </is>
+      </c>
+      <c r="E55" s="204" t="n"/>
+      <c r="F55" s="126" t="n"/>
+      <c r="G55" s="204" t="n"/>
+      <c r="H55" s="126" t="n"/>
+      <c r="I55" s="204" t="n"/>
+      <c r="J55" s="126" t="n"/>
+      <c r="K55" s="204" t="n"/>
+      <c r="L55" s="126" t="n"/>
+      <c r="M55" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="N55" s="128" t="n">
+        <v>8496</v>
+      </c>
+      <c r="O55" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="P55" s="128" t="n">
+        <v>6310</v>
+      </c>
+      <c r="Q55" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="R55" s="128" t="n">
+        <v>6930</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="203" t="inlineStr">
+        <is>
+          <t>#P2CPRPQU</t>
+        </is>
+      </c>
+      <c r="B56" s="201" t="n">
+        <v>2232</v>
+      </c>
+      <c r="C56" s="194" t="n">
+        <v>53</v>
+      </c>
+      <c r="D56" s="120" t="inlineStr">
+        <is>
+          <t>The Drift King</t>
+        </is>
+      </c>
+      <c r="E56" s="201" t="n"/>
+      <c r="F56" s="120" t="n"/>
+      <c r="G56" s="201" t="n"/>
+      <c r="H56" s="120" t="n"/>
+      <c r="I56" s="201" t="n"/>
+      <c r="J56" s="120" t="n"/>
+      <c r="K56" s="201" t="n"/>
+      <c r="L56" s="120" t="n"/>
+      <c r="M56" s="202" t="n">
+        <v>6</v>
+      </c>
+      <c r="N56" s="122" t="n">
+        <v>8023</v>
+      </c>
+      <c r="O56" s="202" t="n">
+        <v>6</v>
+      </c>
+      <c r="P56" s="122" t="n">
+        <v>7625</v>
+      </c>
+      <c r="Q56" s="202" t="n">
+        <v>6</v>
+      </c>
+      <c r="R56" s="122" t="n">
+        <v>7375</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="206" t="inlineStr">
+        <is>
+          <t>#QJVL0LYQQ</t>
+        </is>
+      </c>
+      <c r="B57" s="204" t="n">
+        <v>921</v>
+      </c>
+      <c r="C57" s="198" t="n">
+        <v>54</v>
+      </c>
+      <c r="D57" s="126" t="inlineStr">
+        <is>
+          <t>mobbb341</t>
+        </is>
+      </c>
+      <c r="E57" s="204" t="n"/>
+      <c r="F57" s="126" t="n"/>
+      <c r="G57" s="204" t="n"/>
+      <c r="H57" s="126" t="n"/>
+      <c r="I57" s="204" t="n"/>
+      <c r="J57" s="126" t="n"/>
+      <c r="K57" s="204" t="n"/>
+      <c r="L57" s="126" t="n"/>
+      <c r="M57" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="N57" s="128" t="n">
+        <v>7710</v>
+      </c>
+      <c r="O57" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="P57" s="128" t="n">
+        <v>8810</v>
+      </c>
+      <c r="Q57" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="R57" s="129" t="n">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="203" t="inlineStr">
+        <is>
+          <t>#L8R82C8VC</t>
+        </is>
+      </c>
+      <c r="B58" s="201" t="n">
+        <v>1162</v>
+      </c>
+      <c r="C58" s="194" t="n">
+        <v>55</v>
+      </c>
+      <c r="D58" s="120" t="inlineStr">
+        <is>
+          <t>caden asue</t>
+        </is>
+      </c>
+      <c r="E58" s="201" t="n"/>
+      <c r="F58" s="120" t="n"/>
+      <c r="G58" s="201" t="n"/>
+      <c r="H58" s="120" t="n"/>
+      <c r="I58" s="201" t="n"/>
+      <c r="J58" s="120" t="n"/>
+      <c r="K58" s="201" t="n"/>
+      <c r="L58" s="120" t="n"/>
+      <c r="M58" s="202" t="n">
+        <v>6</v>
+      </c>
+      <c r="N58" s="130" t="n">
+        <v>5112</v>
+      </c>
+      <c r="O58" s="202" t="n">
+        <v>6</v>
+      </c>
+      <c r="P58" s="130" t="n">
+        <v>4283</v>
+      </c>
+      <c r="Q58" s="202" t="n">
+        <v>6</v>
+      </c>
+      <c r="R58" s="130" t="n">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="206" t="inlineStr">
+        <is>
+          <t>#L9Q8VLLQG</t>
+        </is>
+      </c>
+      <c r="B59" s="204" t="n">
+        <v>1130</v>
+      </c>
+      <c r="C59" s="198" t="n">
         <v>56</v>
       </c>
-      <c r="I37" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="187" t="n"/>
-      <c r="L37" s="126" t="n"/>
-      <c r="M37" s="187" t="n"/>
-      <c r="N37" s="126" t="n"/>
-      <c r="O37" s="187" t="n"/>
-      <c r="P37" s="126" t="n"/>
-      <c r="Q37" s="187" t="n"/>
-      <c r="R37" s="126" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="184" t="inlineStr">
-        <is>
-          <t>#QV8RY9UC8</t>
-        </is>
-      </c>
-      <c r="B38" s="184" t="n">
-        <v>813</v>
-      </c>
-      <c r="C38" s="177" t="n">
-        <v>35</v>
-      </c>
-      <c r="D38" s="117" t="inlineStr">
-        <is>
-          <t>Apollo</t>
-        </is>
-      </c>
-      <c r="E38" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" s="184" t="n"/>
-      <c r="L38" s="120" t="n"/>
-      <c r="M38" s="184" t="n"/>
-      <c r="N38" s="120" t="n"/>
-      <c r="O38" s="184" t="n"/>
-      <c r="P38" s="120" t="n"/>
-      <c r="Q38" s="184" t="n"/>
-      <c r="R38" s="120" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="187" t="inlineStr">
-        <is>
-          <t>#QLGYRVPU0</t>
-        </is>
-      </c>
-      <c r="B39" s="187" t="n">
-        <v>871</v>
-      </c>
-      <c r="C39" s="181" t="n">
-        <v>36</v>
-      </c>
-      <c r="D39" s="124" t="inlineStr">
-        <is>
-          <t>Black.Boy.</t>
-        </is>
-      </c>
-      <c r="E39" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="126" t="n">
-        <v>86</v>
-      </c>
-      <c r="I39" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" s="187" t="n"/>
-      <c r="L39" s="126" t="n"/>
-      <c r="M39" s="187" t="n"/>
-      <c r="N39" s="126" t="n"/>
-      <c r="O39" s="187" t="n"/>
-      <c r="P39" s="126" t="n"/>
-      <c r="Q39" s="187" t="n"/>
-      <c r="R39" s="126" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="184" t="inlineStr">
-        <is>
-          <t>#QUGYGY88C</t>
-        </is>
-      </c>
-      <c r="B40" s="184" t="n">
-        <v>941</v>
-      </c>
-      <c r="C40" s="177" t="n">
-        <v>37</v>
-      </c>
-      <c r="D40" s="117" t="inlineStr">
-        <is>
-          <t>Kingsman</t>
-        </is>
-      </c>
-      <c r="E40" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" s="184" t="n"/>
-      <c r="L40" s="120" t="n"/>
-      <c r="M40" s="184" t="n"/>
-      <c r="N40" s="120" t="n"/>
-      <c r="O40" s="184" t="n"/>
-      <c r="P40" s="120" t="n"/>
-      <c r="Q40" s="184" t="n"/>
-      <c r="R40" s="120" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="187" t="inlineStr">
-        <is>
-          <t>#QJQV82JG0</t>
-        </is>
-      </c>
-      <c r="B41" s="187" t="n">
-        <v>904</v>
-      </c>
-      <c r="C41" s="181" t="n">
-        <v>38</v>
-      </c>
-      <c r="D41" s="124" t="inlineStr">
-        <is>
-          <t>The UnknownYT</t>
-        </is>
-      </c>
-      <c r="E41" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="189" t="n">
-        <v>6</v>
-      </c>
-      <c r="H41" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="187" t="n"/>
-      <c r="J41" s="126" t="n"/>
-      <c r="K41" s="187" t="n"/>
-      <c r="L41" s="126" t="n"/>
-      <c r="M41" s="187" t="n"/>
-      <c r="N41" s="126" t="n"/>
-      <c r="O41" s="187" t="n"/>
-      <c r="P41" s="126" t="n"/>
-      <c r="Q41" s="187" t="n"/>
-      <c r="R41" s="126" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="184" t="inlineStr">
-        <is>
-          <t>#Q0U0CRCGJ</t>
-        </is>
-      </c>
-      <c r="B42" s="184" t="n">
-        <v>741</v>
-      </c>
-      <c r="C42" s="177" t="n">
-        <v>39</v>
-      </c>
-      <c r="D42" s="117" t="inlineStr">
-        <is>
-          <t>Sn0wc0ne</t>
-        </is>
-      </c>
-      <c r="E42" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="184" t="n"/>
-      <c r="J42" s="120" t="n"/>
-      <c r="K42" s="184" t="n"/>
-      <c r="L42" s="120" t="n"/>
-      <c r="M42" s="184" t="n"/>
-      <c r="N42" s="120" t="n"/>
-      <c r="O42" s="184" t="n"/>
-      <c r="P42" s="120" t="n"/>
-      <c r="Q42" s="184" t="n"/>
-      <c r="R42" s="120" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="187" t="inlineStr">
-        <is>
-          <t>#LGCVY0L9P</t>
-        </is>
-      </c>
-      <c r="B43" s="187" t="n">
-        <v>935</v>
-      </c>
-      <c r="C43" s="181" t="n">
-        <v>40</v>
-      </c>
-      <c r="D43" s="124" t="inlineStr">
-        <is>
-          <t>Death1wolf</t>
-        </is>
-      </c>
-      <c r="E43" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="187" t="n"/>
-      <c r="J43" s="126" t="n"/>
-      <c r="K43" s="187" t="n"/>
-      <c r="L43" s="126" t="n"/>
-      <c r="M43" s="187" t="n"/>
-      <c r="N43" s="126" t="n"/>
-      <c r="O43" s="187" t="n"/>
-      <c r="P43" s="126" t="n"/>
-      <c r="Q43" s="187" t="n"/>
-      <c r="R43" s="126" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="184" t="inlineStr">
-        <is>
-          <t>#QUCCVCCJ0</t>
-        </is>
-      </c>
-      <c r="B44" s="184" t="n">
-        <v>738</v>
-      </c>
-      <c r="C44" s="177" t="n">
-        <v>41</v>
-      </c>
-      <c r="D44" s="117" t="inlineStr">
-        <is>
-          <t>koi</t>
-        </is>
-      </c>
-      <c r="E44" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="184" t="n"/>
-      <c r="J44" s="120" t="n"/>
-      <c r="K44" s="184" t="n"/>
-      <c r="L44" s="120" t="n"/>
-      <c r="M44" s="184" t="n"/>
-      <c r="N44" s="120" t="n"/>
-      <c r="O44" s="184" t="n"/>
-      <c r="P44" s="120" t="n"/>
-      <c r="Q44" s="184" t="n"/>
-      <c r="R44" s="120" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="187" t="inlineStr">
-        <is>
-          <t>#G0LJCVR2P</t>
-        </is>
-      </c>
-      <c r="B45" s="187" t="n">
-        <v>1036</v>
-      </c>
-      <c r="C45" s="181" t="n">
-        <v>42</v>
-      </c>
-      <c r="D45" s="124" t="inlineStr">
-        <is>
-          <t>DaddyChill</t>
-        </is>
-      </c>
-      <c r="E45" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="189" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="187" t="n"/>
-      <c r="J45" s="126" t="n"/>
-      <c r="K45" s="187" t="n"/>
-      <c r="L45" s="126" t="n"/>
-      <c r="M45" s="187" t="n"/>
-      <c r="N45" s="126" t="n"/>
-      <c r="O45" s="187" t="n"/>
-      <c r="P45" s="126" t="n"/>
-      <c r="Q45" s="187" t="n"/>
-      <c r="R45" s="126" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="184" t="inlineStr">
-        <is>
-          <t>#QLUV29GGJ</t>
-        </is>
-      </c>
-      <c r="B46" s="184" t="n">
-        <v>992</v>
-      </c>
-      <c r="C46" s="177" t="n">
-        <v>43</v>
-      </c>
-      <c r="D46" s="117" t="inlineStr">
-        <is>
-          <t>Kukoshibo</t>
-        </is>
-      </c>
-      <c r="E46" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="184" t="n"/>
-      <c r="J46" s="120" t="n"/>
-      <c r="K46" s="184" t="n"/>
-      <c r="L46" s="120" t="n"/>
-      <c r="M46" s="184" t="n"/>
-      <c r="N46" s="120" t="n"/>
-      <c r="O46" s="184" t="n"/>
-      <c r="P46" s="120" t="n"/>
-      <c r="Q46" s="184" t="n"/>
-      <c r="R46" s="120" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="131" t="inlineStr">
-        <is>
-          <t>#QQLVRJCGQ</t>
-        </is>
-      </c>
-      <c r="B47" s="132" t="n">
-        <v>1240</v>
-      </c>
-      <c r="C47" s="133" t="n">
-        <v>44</v>
-      </c>
-      <c r="D47" s="134" t="inlineStr">
-        <is>
-          <t>khant</t>
-        </is>
-      </c>
-      <c r="E47" s="132" t="n"/>
-      <c r="F47" s="134" t="n"/>
-      <c r="G47" s="132" t="n"/>
-      <c r="H47" s="134" t="n"/>
-      <c r="I47" s="132" t="n"/>
-      <c r="J47" s="134" t="n"/>
-      <c r="K47" s="132" t="n"/>
-      <c r="L47" s="134" t="n"/>
-      <c r="M47" s="132" t="n"/>
-      <c r="N47" s="134" t="n"/>
-      <c r="O47" s="132" t="n"/>
-      <c r="P47" s="134" t="n"/>
-      <c r="Q47" s="132" t="n"/>
-      <c r="R47" s="134" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="186" t="inlineStr">
-        <is>
-          <t>#QLL0PVCRV</t>
-        </is>
-      </c>
-      <c r="B48" s="184" t="n">
-        <v>1704</v>
-      </c>
-      <c r="C48" s="177" t="n">
-        <v>45</v>
-      </c>
-      <c r="D48" s="120" t="inlineStr">
-        <is>
-          <t>Harsh chhillar</t>
-        </is>
-      </c>
-      <c r="E48" s="184" t="n"/>
-      <c r="F48" s="120" t="n"/>
-      <c r="G48" s="184" t="n"/>
-      <c r="H48" s="120" t="n"/>
-      <c r="I48" s="184" t="n"/>
-      <c r="J48" s="120" t="n"/>
-      <c r="K48" s="184" t="n"/>
-      <c r="L48" s="120" t="n"/>
-      <c r="M48" s="184" t="n"/>
-      <c r="N48" s="120" t="n"/>
-      <c r="O48" s="184" t="n"/>
-      <c r="P48" s="120" t="n"/>
-      <c r="Q48" s="184" t="n"/>
-      <c r="R48" s="120" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="189" t="inlineStr">
-        <is>
-          <t>#Q8YP9P8UJ</t>
-        </is>
-      </c>
-      <c r="B49" s="187" t="n">
-        <v>945</v>
-      </c>
-      <c r="C49" s="181" t="n">
-        <v>46</v>
-      </c>
-      <c r="D49" s="126" t="inlineStr">
-        <is>
-          <t>Ranger</t>
-        </is>
-      </c>
-      <c r="E49" s="187" t="n"/>
-      <c r="F49" s="126" t="n"/>
-      <c r="G49" s="187" t="n"/>
-      <c r="H49" s="126" t="n"/>
-      <c r="I49" s="187" t="n"/>
-      <c r="J49" s="126" t="n"/>
-      <c r="K49" s="188" t="n">
-        <v>5</v>
-      </c>
-      <c r="L49" s="129" t="n">
-        <v>4680</v>
-      </c>
-      <c r="M49" s="187" t="n"/>
-      <c r="N49" s="126" t="n"/>
-      <c r="O49" s="187" t="n"/>
-      <c r="P49" s="126" t="n"/>
-      <c r="Q49" s="187" t="n"/>
-      <c r="R49" s="126" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="186" t="inlineStr">
-        <is>
-          <t>#Q0JG2RJQ8</t>
-        </is>
-      </c>
-      <c r="B50" s="184" t="n">
-        <v>997</v>
-      </c>
-      <c r="C50" s="177" t="n">
-        <v>47</v>
-      </c>
-      <c r="D50" s="120" t="inlineStr">
-        <is>
-          <t>bozo</t>
-        </is>
-      </c>
-      <c r="E50" s="184" t="n"/>
-      <c r="F50" s="120" t="n"/>
-      <c r="G50" s="184" t="n"/>
-      <c r="H50" s="120" t="n"/>
-      <c r="I50" s="184" t="n"/>
-      <c r="J50" s="120" t="n"/>
-      <c r="K50" s="184" t="n"/>
-      <c r="L50" s="120" t="n"/>
-      <c r="M50" s="185" t="n">
-        <v>6</v>
-      </c>
-      <c r="N50" s="122" t="n">
-        <v>6495</v>
-      </c>
-      <c r="O50" s="184" t="n"/>
-      <c r="P50" s="120" t="n"/>
-      <c r="Q50" s="184" t="n"/>
-      <c r="R50" s="120" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="189" t="inlineStr">
-        <is>
-          <t>#UVCCQC02</t>
-        </is>
-      </c>
-      <c r="B51" s="187" t="n">
-        <v>1806</v>
-      </c>
-      <c r="C51" s="181" t="n">
-        <v>48</v>
-      </c>
-      <c r="D51" s="126" t="inlineStr">
-        <is>
-          <t>lordshisha</t>
-        </is>
-      </c>
-      <c r="E51" s="187" t="n"/>
-      <c r="F51" s="126" t="n"/>
-      <c r="G51" s="187" t="n"/>
-      <c r="H51" s="126" t="n"/>
-      <c r="I51" s="187" t="n"/>
-      <c r="J51" s="126" t="n"/>
-      <c r="K51" s="187" t="n"/>
-      <c r="L51" s="126" t="n"/>
-      <c r="M51" s="188" t="n">
-        <v>6</v>
-      </c>
-      <c r="N51" s="128" t="n">
-        <v>8496</v>
-      </c>
-      <c r="O51" s="188" t="n">
-        <v>6</v>
-      </c>
-      <c r="P51" s="128" t="n">
-        <v>6310</v>
-      </c>
-      <c r="Q51" s="188" t="n">
-        <v>6</v>
-      </c>
-      <c r="R51" s="128" t="n">
-        <v>6930</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="186" t="inlineStr">
-        <is>
-          <t>#P2CPRPQU</t>
-        </is>
-      </c>
-      <c r="B52" s="184" t="n">
-        <v>2232</v>
-      </c>
-      <c r="C52" s="177" t="n">
-        <v>49</v>
-      </c>
-      <c r="D52" s="120" t="inlineStr">
-        <is>
-          <t>The Drift King</t>
-        </is>
-      </c>
-      <c r="E52" s="184" t="n"/>
-      <c r="F52" s="120" t="n"/>
-      <c r="G52" s="184" t="n"/>
-      <c r="H52" s="120" t="n"/>
-      <c r="I52" s="184" t="n"/>
-      <c r="J52" s="120" t="n"/>
-      <c r="K52" s="184" t="n"/>
-      <c r="L52" s="120" t="n"/>
-      <c r="M52" s="185" t="n">
-        <v>6</v>
-      </c>
-      <c r="N52" s="122" t="n">
-        <v>8023</v>
-      </c>
-      <c r="O52" s="185" t="n">
-        <v>6</v>
-      </c>
-      <c r="P52" s="122" t="n">
-        <v>7625</v>
-      </c>
-      <c r="Q52" s="185" t="n">
-        <v>6</v>
-      </c>
-      <c r="R52" s="122" t="n">
-        <v>7375</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="189" t="inlineStr">
-        <is>
-          <t>#QJVL0LYQQ</t>
-        </is>
-      </c>
-      <c r="B53" s="187" t="n">
-        <v>921</v>
-      </c>
-      <c r="C53" s="181" t="n">
-        <v>50</v>
-      </c>
-      <c r="D53" s="126" t="inlineStr">
-        <is>
-          <t>mobbb341</t>
-        </is>
-      </c>
-      <c r="E53" s="187" t="n"/>
-      <c r="F53" s="126" t="n"/>
-      <c r="G53" s="187" t="n"/>
-      <c r="H53" s="126" t="n"/>
-      <c r="I53" s="187" t="n"/>
-      <c r="J53" s="126" t="n"/>
-      <c r="K53" s="187" t="n"/>
-      <c r="L53" s="126" t="n"/>
-      <c r="M53" s="188" t="n">
-        <v>6</v>
-      </c>
-      <c r="N53" s="128" t="n">
-        <v>7710</v>
-      </c>
-      <c r="O53" s="188" t="n">
-        <v>6</v>
-      </c>
-      <c r="P53" s="128" t="n">
-        <v>8810</v>
-      </c>
-      <c r="Q53" s="188" t="n">
-        <v>6</v>
-      </c>
-      <c r="R53" s="129" t="n">
-        <v>4505</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="186" t="inlineStr">
-        <is>
-          <t>#L8R82C8VC</t>
-        </is>
-      </c>
-      <c r="B54" s="184" t="n">
-        <v>1162</v>
-      </c>
-      <c r="C54" s="177" t="n">
-        <v>51</v>
-      </c>
-      <c r="D54" s="120" t="inlineStr">
-        <is>
-          <t>caden asue</t>
-        </is>
-      </c>
-      <c r="E54" s="184" t="n"/>
-      <c r="F54" s="120" t="n"/>
-      <c r="G54" s="184" t="n"/>
-      <c r="H54" s="120" t="n"/>
-      <c r="I54" s="184" t="n"/>
-      <c r="J54" s="120" t="n"/>
-      <c r="K54" s="184" t="n"/>
-      <c r="L54" s="120" t="n"/>
-      <c r="M54" s="185" t="n">
-        <v>6</v>
-      </c>
-      <c r="N54" s="130" t="n">
-        <v>5112</v>
-      </c>
-      <c r="O54" s="185" t="n">
-        <v>6</v>
-      </c>
-      <c r="P54" s="130" t="n">
-        <v>4283</v>
-      </c>
-      <c r="Q54" s="185" t="n">
-        <v>6</v>
-      </c>
-      <c r="R54" s="130" t="n">
-        <v>4338</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="189" t="inlineStr">
-        <is>
-          <t>#L9Q8VLLQG</t>
-        </is>
-      </c>
-      <c r="B55" s="187" t="n">
-        <v>1130</v>
-      </c>
-      <c r="C55" s="181" t="n">
-        <v>52</v>
-      </c>
-      <c r="D55" s="126" t="inlineStr">
+      <c r="D59" s="126" t="inlineStr">
         <is>
           <t>cat</t>
         </is>
       </c>
-      <c r="E55" s="187" t="n"/>
-      <c r="F55" s="126" t="n"/>
-      <c r="G55" s="187" t="n"/>
-      <c r="H55" s="126" t="n"/>
-      <c r="I55" s="187" t="n"/>
-      <c r="J55" s="126" t="n"/>
-      <c r="K55" s="187" t="n"/>
-      <c r="L55" s="126" t="n"/>
-      <c r="M55" s="187" t="n"/>
-      <c r="N55" s="126" t="n"/>
-      <c r="O55" s="187" t="n"/>
-      <c r="P55" s="126" t="n"/>
-      <c r="Q55" s="188" t="n">
-        <v>6</v>
-      </c>
-      <c r="R55" s="129" t="n">
+      <c r="E59" s="204" t="n"/>
+      <c r="F59" s="126" t="n"/>
+      <c r="G59" s="204" t="n"/>
+      <c r="H59" s="126" t="n"/>
+      <c r="I59" s="204" t="n"/>
+      <c r="J59" s="126" t="n"/>
+      <c r="K59" s="204" t="n"/>
+      <c r="L59" s="126" t="n"/>
+      <c r="M59" s="204" t="n"/>
+      <c r="N59" s="126" t="n"/>
+      <c r="O59" s="204" t="n"/>
+      <c r="P59" s="126" t="n"/>
+      <c r="Q59" s="205" t="n">
+        <v>6</v>
+      </c>
+      <c r="R59" s="129" t="n">
         <v>5908</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="186" t="inlineStr">
+    <row r="60">
+      <c r="A60" s="203" t="inlineStr">
         <is>
           <t>#QV0PQC9JU</t>
         </is>
       </c>
-      <c r="B56" s="184" t="n">
+      <c r="B60" s="201" t="n">
         <v>539</v>
       </c>
-      <c r="C56" s="177" t="n">
-        <v>53</v>
-      </c>
-      <c r="D56" s="120" t="inlineStr">
+      <c r="C60" s="194" t="n">
+        <v>57</v>
+      </c>
+      <c r="D60" s="120" t="inlineStr">
         <is>
           <t>Superman</t>
         </is>
       </c>
-      <c r="E56" s="184" t="n"/>
-      <c r="F56" s="120" t="n"/>
-      <c r="G56" s="184" t="n"/>
-      <c r="H56" s="120" t="n"/>
-      <c r="I56" s="184" t="n"/>
-      <c r="J56" s="120" t="n"/>
-      <c r="K56" s="184" t="n"/>
-      <c r="L56" s="120" t="n"/>
-      <c r="M56" s="184" t="n"/>
-      <c r="N56" s="120" t="n"/>
-      <c r="O56" s="184" t="n"/>
-      <c r="P56" s="120" t="n"/>
-      <c r="Q56" s="185" t="n">
-        <v>6</v>
-      </c>
-      <c r="R56" s="130" t="n">
+      <c r="E60" s="201" t="n"/>
+      <c r="F60" s="120" t="n"/>
+      <c r="G60" s="201" t="n"/>
+      <c r="H60" s="120" t="n"/>
+      <c r="I60" s="201" t="n"/>
+      <c r="J60" s="120" t="n"/>
+      <c r="K60" s="201" t="n"/>
+      <c r="L60" s="120" t="n"/>
+      <c r="M60" s="201" t="n"/>
+      <c r="N60" s="120" t="n"/>
+      <c r="O60" s="201" t="n"/>
+      <c r="P60" s="120" t="n"/>
+      <c r="Q60" s="202" t="n">
+        <v>6</v>
+      </c>
+      <c r="R60" s="130" t="n">
         <v>4447</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="189" t="inlineStr">
+    <row r="61">
+      <c r="A61" s="206" t="inlineStr">
         <is>
           <t>#LU0CRP09L</t>
         </is>
       </c>
-      <c r="B57" s="187" t="n">
+      <c r="B61" s="204" t="n">
         <v>809</v>
       </c>
-      <c r="C57" s="181" t="n">
-        <v>54</v>
-      </c>
-      <c r="D57" s="126" t="inlineStr">
+      <c r="C61" s="198" t="n">
+        <v>58</v>
+      </c>
+      <c r="D61" s="126" t="inlineStr">
         <is>
           <t>I Dont Know</t>
         </is>
       </c>
-      <c r="E57" s="187" t="n"/>
-      <c r="F57" s="126" t="n"/>
-      <c r="G57" s="187" t="n"/>
-      <c r="H57" s="126" t="n"/>
-      <c r="I57" s="187" t="n"/>
-      <c r="J57" s="126" t="n"/>
-      <c r="K57" s="187" t="n"/>
-      <c r="L57" s="126" t="n"/>
-      <c r="M57" s="187" t="n"/>
-      <c r="N57" s="126" t="n"/>
-      <c r="O57" s="187" t="n"/>
-      <c r="P57" s="126" t="n"/>
-      <c r="Q57" s="191" t="n">
+      <c r="E61" s="204" t="n"/>
+      <c r="F61" s="126" t="n"/>
+      <c r="G61" s="204" t="n"/>
+      <c r="H61" s="126" t="n"/>
+      <c r="I61" s="204" t="n"/>
+      <c r="J61" s="126" t="n"/>
+      <c r="K61" s="204" t="n"/>
+      <c r="L61" s="126" t="n"/>
+      <c r="M61" s="204" t="n"/>
+      <c r="N61" s="126" t="n"/>
+      <c r="O61" s="204" t="n"/>
+      <c r="P61" s="126" t="n"/>
+      <c r="Q61" s="208" t="n">
         <v>3</v>
       </c>
-      <c r="R57" s="124" t="n">
+      <c r="R61" s="124" t="n">
         <v>3435</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="186" t="inlineStr">
+    <row r="62">
+      <c r="A62" s="203" t="inlineStr">
         <is>
           <t>#YCPP0QPP8</t>
         </is>
       </c>
-      <c r="B58" s="184" t="n">
+      <c r="B62" s="201" t="n">
         <v>3327</v>
       </c>
-      <c r="C58" s="177" t="n">
-        <v>55</v>
-      </c>
-      <c r="D58" s="120" t="inlineStr">
+      <c r="C62" s="194" t="n">
+        <v>59</v>
+      </c>
+      <c r="D62" s="120" t="inlineStr">
         <is>
           <t>Coach</t>
         </is>
       </c>
-      <c r="E58" s="184" t="n"/>
-      <c r="F58" s="120" t="n"/>
-      <c r="G58" s="184" t="n"/>
-      <c r="H58" s="120" t="n"/>
-      <c r="I58" s="184" t="n"/>
-      <c r="J58" s="120" t="n"/>
-      <c r="K58" s="184" t="n"/>
-      <c r="L58" s="120" t="n"/>
-      <c r="M58" s="184" t="n"/>
-      <c r="N58" s="120" t="n"/>
-      <c r="O58" s="184" t="n"/>
-      <c r="P58" s="120" t="n"/>
-      <c r="Q58" s="186" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" s="117" t="n">
+      <c r="E62" s="201" t="n"/>
+      <c r="F62" s="120" t="n"/>
+      <c r="G62" s="201" t="n"/>
+      <c r="H62" s="120" t="n"/>
+      <c r="I62" s="201" t="n"/>
+      <c r="J62" s="120" t="n"/>
+      <c r="K62" s="201" t="n"/>
+      <c r="L62" s="120" t="n"/>
+      <c r="M62" s="201" t="n"/>
+      <c r="N62" s="120" t="n"/>
+      <c r="O62" s="201" t="n"/>
+      <c r="P62" s="120" t="n"/>
+      <c r="Q62" s="203" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" s="117" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Clash.xlsx
+++ b/Clash.xlsx
@@ -223,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -321,11 +321,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -594,6 +595,33 @@
     <xf numFmtId="164" fontId="8" fillId="31" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="8" fillId="32" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="7" fillId="31" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="25" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="27" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="26" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="28" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="28" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="30" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="29" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="31" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="28" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="30" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="32" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="25" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="27" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="26" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="29" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="31" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="25" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="26" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="26" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="25" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="27" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="27" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1041,13 +1069,13 @@
     </row>
     <row r="2">
       <c r="E2" t="n">
-        <v>3.09</v>
+        <v>2.9</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>151693</v>
+        <v>230885</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>541</v>
+        <v>597</v>
       </c>
       <c r="I2" t="n">
         <v>2.83</v>
@@ -1168,2407 +1196,2431 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="193" t="inlineStr">
+      <c r="A4" s="210" t="inlineStr">
+        <is>
+          <t>#Q8CLCUCC2</t>
+        </is>
+      </c>
+      <c r="B4" s="210" t="n">
+        <v>1359</v>
+      </c>
+      <c r="C4" s="211" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="115" t="inlineStr">
+        <is>
+          <t>Moxxi</t>
+        </is>
+      </c>
+      <c r="E4" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" s="115" t="n">
+        <v>12912</v>
+      </c>
+      <c r="G4" s="213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="113" t="n">
+        <v>60</v>
+      </c>
+      <c r="I4" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" s="115" t="n">
+        <v>8015</v>
+      </c>
+      <c r="K4" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="L4" s="115" t="n">
+        <v>11010</v>
+      </c>
+      <c r="M4" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="N4" s="115" t="n">
+        <v>13857</v>
+      </c>
+      <c r="O4" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="P4" s="115" t="n">
+        <v>7905</v>
+      </c>
+      <c r="Q4" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="R4" s="115" t="n">
+        <v>7224</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="214" t="inlineStr">
         <is>
           <t>#QLJ2U20Y2</t>
         </is>
       </c>
-      <c r="B4" s="193" t="n">
+      <c r="B5" s="214" t="n">
         <v>1461</v>
       </c>
-      <c r="C4" s="194" t="n">
+      <c r="C5" s="215" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="107" t="inlineStr">
+        <is>
+          <t>DeadLeaf</t>
+        </is>
+      </c>
+      <c r="E5" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" s="107" t="n">
+        <v>12676</v>
+      </c>
+      <c r="G5" s="217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="105" t="n">
+        <v>30</v>
+      </c>
+      <c r="I5" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" s="107" t="n">
+        <v>13763</v>
+      </c>
+      <c r="K5" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="L5" s="107" t="n">
+        <v>11140</v>
+      </c>
+      <c r="M5" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="N5" s="107" t="n">
+        <v>15509</v>
+      </c>
+      <c r="O5" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="P5" s="107" t="n">
+        <v>8567</v>
+      </c>
+      <c r="Q5" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="R5" s="107" t="n">
+        <v>9729</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="210" t="inlineStr">
+        <is>
+          <t>#90U0VPU9U</t>
+        </is>
+      </c>
+      <c r="B6" s="210" t="n">
+        <v>2544</v>
+      </c>
+      <c r="C6" s="211" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="115" t="inlineStr">
+        <is>
+          <t>KYANI7E</t>
+        </is>
+      </c>
+      <c r="E6" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" s="115" t="n">
+        <v>12477</v>
+      </c>
+      <c r="G6" s="218" t="n">
+        <v>258</v>
+      </c>
+      <c r="H6" s="113" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" s="115" t="n">
+        <v>13260</v>
+      </c>
+      <c r="K6" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="L6" s="115" t="n">
+        <v>12144</v>
+      </c>
+      <c r="M6" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="N6" s="115" t="n">
+        <v>12835</v>
+      </c>
+      <c r="O6" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="P6" s="115" t="n">
+        <v>7696</v>
+      </c>
+      <c r="Q6" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="R6" s="115" t="n">
+        <v>9188</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="214" t="inlineStr">
+        <is>
+          <t>#QUG8QQJ92</t>
+        </is>
+      </c>
+      <c r="B7" s="214" t="n">
+        <v>907</v>
+      </c>
+      <c r="C7" s="215" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" s="107" t="inlineStr">
+        <is>
+          <t>Karma</t>
+        </is>
+      </c>
+      <c r="E7" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="107" t="n">
+        <v>12204</v>
+      </c>
+      <c r="G7" s="217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" s="107" t="n">
+        <v>11355</v>
+      </c>
+      <c r="K7" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="L7" s="107" t="n">
+        <v>10003</v>
+      </c>
+      <c r="M7" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="N7" s="107" t="n">
+        <v>10595</v>
+      </c>
+      <c r="O7" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" s="107" t="n">
+        <v>9240</v>
+      </c>
+      <c r="Q7" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="R7" s="107" t="n">
+        <v>10628</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="210" t="inlineStr">
+        <is>
+          <t>#G0QPVJY9L</t>
+        </is>
+      </c>
+      <c r="B8" s="210" t="n">
+        <v>816</v>
+      </c>
+      <c r="C8" s="211" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="115" t="inlineStr">
+        <is>
+          <t>Zoro</t>
+        </is>
+      </c>
+      <c r="E8" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" s="115" t="n">
+        <v>12116</v>
+      </c>
+      <c r="G8" s="213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" s="115" t="n">
+        <v>13432</v>
+      </c>
+      <c r="K8" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" s="115" t="n">
+        <v>8855</v>
+      </c>
+      <c r="M8" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" s="115" t="n">
+        <v>10965</v>
+      </c>
+      <c r="O8" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="P8" s="115" t="n">
+        <v>7905</v>
+      </c>
+      <c r="Q8" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="R8" s="115" t="n">
+        <v>6744</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="214" t="inlineStr">
+        <is>
+          <t>#QLR088LC9</t>
+        </is>
+      </c>
+      <c r="B9" s="214" t="n">
+        <v>908</v>
+      </c>
+      <c r="C9" s="215" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" s="107" t="inlineStr">
+        <is>
+          <t>Sanji</t>
+        </is>
+      </c>
+      <c r="E9" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" s="107" t="n">
+        <v>11960</v>
+      </c>
+      <c r="G9" s="217" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" s="107" t="n">
+        <v>10910</v>
+      </c>
+      <c r="K9" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="L9" s="107" t="n">
+        <v>9550</v>
+      </c>
+      <c r="M9" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="N9" s="107" t="n">
+        <v>9138</v>
+      </c>
+      <c r="O9" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="P9" s="107" t="n">
+        <v>8897</v>
+      </c>
+      <c r="Q9" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" s="107" t="n">
+        <v>8512</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="210" t="inlineStr">
+        <is>
+          <t>#QCV22VP0G</t>
+        </is>
+      </c>
+      <c r="B10" s="210" t="n">
+        <v>797</v>
+      </c>
+      <c r="C10" s="211" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" s="115" t="inlineStr">
+        <is>
+          <t>Nami</t>
+        </is>
+      </c>
+      <c r="E10" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" s="115" t="n">
+        <v>11657</v>
+      </c>
+      <c r="G10" s="213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" s="115" t="n">
+        <v>11795</v>
+      </c>
+      <c r="K10" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="L10" s="115" t="n">
+        <v>10769</v>
+      </c>
+      <c r="M10" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="N10" s="115" t="n">
+        <v>12486</v>
+      </c>
+      <c r="O10" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="P10" s="115" t="n">
+        <v>8472</v>
+      </c>
+      <c r="Q10" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" s="115" t="n">
+        <v>9096</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="214" t="inlineStr">
+        <is>
+          <t>#QUYG0PQC8</t>
+        </is>
+      </c>
+      <c r="B11" s="214" t="n">
+        <v>824</v>
+      </c>
+      <c r="C11" s="215" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" s="107" t="inlineStr">
+        <is>
+          <t>Luffy</t>
+        </is>
+      </c>
+      <c r="E11" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" s="107" t="n">
+        <v>11357</v>
+      </c>
+      <c r="G11" s="217" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" s="107" t="n">
+        <v>10879</v>
+      </c>
+      <c r="K11" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="L11" s="107" t="n">
+        <v>9114</v>
+      </c>
+      <c r="M11" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="N11" s="107" t="n">
+        <v>13385</v>
+      </c>
+      <c r="O11" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="P11" s="107" t="n">
+        <v>7877</v>
+      </c>
+      <c r="Q11" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="R11" s="107" t="n">
+        <v>8347</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="210" t="inlineStr">
+        <is>
+          <t>#QUV2GP88U</t>
+        </is>
+      </c>
+      <c r="B12" s="210" t="n">
+        <v>728</v>
+      </c>
+      <c r="C12" s="211" t="n">
+        <v>9</v>
+      </c>
+      <c r="D12" s="115" t="inlineStr">
+        <is>
+          <t>Nico Robin</t>
+        </is>
+      </c>
+      <c r="E12" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" s="115" t="n">
+        <v>10389</v>
+      </c>
+      <c r="G12" s="213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="J12" s="115" t="n">
+        <v>12612</v>
+      </c>
+      <c r="K12" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="L12" s="115" t="n">
+        <v>11338</v>
+      </c>
+      <c r="M12" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="N12" s="115" t="n">
+        <v>10997</v>
+      </c>
+      <c r="O12" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="P12" s="115" t="n">
+        <v>11087</v>
+      </c>
+      <c r="Q12" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="R12" s="115" t="n">
+        <v>8089</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="219" t="inlineStr">
+        <is>
+          <t>#98JG2UJQL</t>
+        </is>
+      </c>
+      <c r="B13" s="219" t="n">
+        <v>2910</v>
+      </c>
+      <c r="C13" s="215" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" s="128" t="inlineStr">
+        <is>
+          <t>Dragonux</t>
+        </is>
+      </c>
+      <c r="E13" s="220" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" s="128" t="n">
+        <v>10385</v>
+      </c>
+      <c r="G13" s="221" t="n">
+        <v>211</v>
+      </c>
+      <c r="H13" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="220" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" s="128" t="n">
+        <v>10910</v>
+      </c>
+      <c r="K13" s="220" t="n">
+        <v>6</v>
+      </c>
+      <c r="L13" s="128" t="n">
+        <v>8750</v>
+      </c>
+      <c r="M13" s="220" t="n">
+        <v>6</v>
+      </c>
+      <c r="N13" s="128" t="n">
+        <v>10865</v>
+      </c>
+      <c r="O13" s="220" t="n">
+        <v>6</v>
+      </c>
+      <c r="P13" s="128" t="n">
+        <v>8025</v>
+      </c>
+      <c r="Q13" s="220" t="n">
+        <v>6</v>
+      </c>
+      <c r="R13" s="128" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="222" t="inlineStr">
+        <is>
+          <t>#G0JPUQGYR</t>
+        </is>
+      </c>
+      <c r="B14" s="222" t="n">
+        <v>1403</v>
+      </c>
+      <c r="C14" s="211" t="n">
+        <v>11</v>
+      </c>
+      <c r="D14" s="122" t="inlineStr">
+        <is>
+          <t>Collin</t>
+        </is>
+      </c>
+      <c r="E14" s="223" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" s="122" t="n">
+        <v>10299</v>
+      </c>
+      <c r="G14" s="224" t="n">
+        <v>20</v>
+      </c>
+      <c r="H14" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="223" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" s="122" t="n">
+        <v>8833</v>
+      </c>
+      <c r="K14" s="223" t="n">
+        <v>6</v>
+      </c>
+      <c r="L14" s="122" t="n">
+        <v>9238</v>
+      </c>
+      <c r="M14" s="223" t="n">
+        <v>6</v>
+      </c>
+      <c r="N14" s="122" t="n">
+        <v>7756</v>
+      </c>
+      <c r="O14" s="223" t="n">
+        <v>6</v>
+      </c>
+      <c r="P14" s="130" t="n">
+        <v>5943</v>
+      </c>
+      <c r="Q14" s="223" t="n">
+        <v>6</v>
+      </c>
+      <c r="R14" s="122" t="n">
+        <v>8224</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="214" t="inlineStr">
+        <is>
+          <t>#YRGRRJQCY</t>
+        </is>
+      </c>
+      <c r="B15" s="214" t="n">
+        <v>1351</v>
+      </c>
+      <c r="C15" s="215" t="n">
+        <v>12</v>
+      </c>
+      <c r="D15" s="107" t="inlineStr">
+        <is>
+          <t>DoubleSpice</t>
+        </is>
+      </c>
+      <c r="E15" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" s="107" t="n">
+        <v>10016</v>
+      </c>
+      <c r="G15" s="217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="105" t="n">
+        <v>60</v>
+      </c>
+      <c r="I15" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="J15" s="107" t="n">
+        <v>11620</v>
+      </c>
+      <c r="K15" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="L15" s="107" t="n">
+        <v>14095</v>
+      </c>
+      <c r="M15" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="N15" s="107" t="n">
+        <v>12379</v>
+      </c>
+      <c r="O15" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="P15" s="107" t="n">
+        <v>8256</v>
+      </c>
+      <c r="Q15" s="216" t="n">
+        <v>6</v>
+      </c>
+      <c r="R15" s="107" t="n">
+        <v>7054</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="210" t="inlineStr">
+        <is>
+          <t>#YJ20CRJYQ</t>
+        </is>
+      </c>
+      <c r="B16" s="210" t="n">
+        <v>1265</v>
+      </c>
+      <c r="C16" s="211" t="n">
+        <v>13</v>
+      </c>
+      <c r="D16" s="115" t="inlineStr">
+        <is>
+          <t>UnluckGod</t>
+        </is>
+      </c>
+      <c r="E16" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" s="115" t="n">
+        <v>8886</v>
+      </c>
+      <c r="G16" s="213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="113" t="n">
+        <v>61</v>
+      </c>
+      <c r="I16" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="J16" s="115" t="n">
+        <v>12824</v>
+      </c>
+      <c r="K16" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="L16" s="115" t="n">
+        <v>11999</v>
+      </c>
+      <c r="M16" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="N16" s="115" t="n">
+        <v>12972</v>
+      </c>
+      <c r="O16" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="P16" s="115" t="n">
+        <v>8286</v>
+      </c>
+      <c r="Q16" s="212" t="n">
+        <v>6</v>
+      </c>
+      <c r="R16" s="115" t="n">
+        <v>11406</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="219" t="inlineStr">
+        <is>
+          <t>#QRPRYR8LL</t>
+        </is>
+      </c>
+      <c r="B17" s="219" t="n">
+        <v>1147</v>
+      </c>
+      <c r="C17" s="215" t="n">
+        <v>14</v>
+      </c>
+      <c r="D17" s="128" t="inlineStr">
+        <is>
+          <t>FidelCashflow</t>
+        </is>
+      </c>
+      <c r="E17" s="220" t="n">
+        <v>6</v>
+      </c>
+      <c r="F17" s="128" t="n">
+        <v>8298</v>
+      </c>
+      <c r="G17" s="225" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="220" t="n">
+        <v>6</v>
+      </c>
+      <c r="J17" s="128" t="n">
+        <v>6415</v>
+      </c>
+      <c r="K17" s="220" t="n">
+        <v>6</v>
+      </c>
+      <c r="L17" s="128" t="n">
+        <v>6547</v>
+      </c>
+      <c r="M17" s="220" t="n">
+        <v>6</v>
+      </c>
+      <c r="N17" s="128" t="n">
+        <v>6811</v>
+      </c>
+      <c r="O17" s="220" t="n">
+        <v>6</v>
+      </c>
+      <c r="P17" s="129" t="n">
+        <v>4239</v>
+      </c>
+      <c r="Q17" s="220" t="n">
+        <v>6</v>
+      </c>
+      <c r="R17" s="129" t="n">
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="222" t="inlineStr">
+        <is>
+          <t>#QUVJGC0VQ</t>
+        </is>
+      </c>
+      <c r="B18" s="222" t="n">
+        <v>1201</v>
+      </c>
+      <c r="C18" s="211" t="n">
+        <v>15</v>
+      </c>
+      <c r="D18" s="122" t="inlineStr">
+        <is>
+          <t>Cam</t>
+        </is>
+      </c>
+      <c r="E18" s="223" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" s="122" t="n">
+        <v>8080</v>
+      </c>
+      <c r="G18" s="224" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" s="120" t="n">
+        <v>73</v>
+      </c>
+      <c r="I18" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="222" t="n"/>
+      <c r="L18" s="120" t="n"/>
+      <c r="M18" s="222" t="n"/>
+      <c r="N18" s="120" t="n"/>
+      <c r="O18" s="222" t="n"/>
+      <c r="P18" s="120" t="n"/>
+      <c r="Q18" s="222" t="n"/>
+      <c r="R18" s="120" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="219" t="inlineStr">
+        <is>
+          <t>#LGCVY0L9P</t>
+        </is>
+      </c>
+      <c r="B19" s="219" t="n">
+        <v>923</v>
+      </c>
+      <c r="C19" s="215" t="n">
+        <v>16</v>
+      </c>
+      <c r="D19" s="128" t="inlineStr">
+        <is>
+          <t>Death1wolf</t>
+        </is>
+      </c>
+      <c r="E19" s="220" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" s="128" t="n">
+        <v>7998</v>
+      </c>
+      <c r="G19" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="219" t="n"/>
+      <c r="J19" s="126" t="n"/>
+      <c r="K19" s="219" t="n"/>
+      <c r="L19" s="126" t="n"/>
+      <c r="M19" s="219" t="n"/>
+      <c r="N19" s="126" t="n"/>
+      <c r="O19" s="219" t="n"/>
+      <c r="P19" s="126" t="n"/>
+      <c r="Q19" s="219" t="n"/>
+      <c r="R19" s="126" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="222" t="inlineStr">
+        <is>
+          <t>#LPCLQUCCY</t>
+        </is>
+      </c>
+      <c r="B20" s="222" t="n">
+        <v>997</v>
+      </c>
+      <c r="C20" s="211" t="n">
+        <v>17</v>
+      </c>
+      <c r="D20" s="122" t="inlineStr">
+        <is>
+          <t>Zodiac</t>
+        </is>
+      </c>
+      <c r="E20" s="223" t="n">
+        <v>6</v>
+      </c>
+      <c r="F20" s="122" t="n">
+        <v>7463</v>
+      </c>
+      <c r="G20" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="222" t="n"/>
+      <c r="L20" s="120" t="n"/>
+      <c r="M20" s="222" t="n"/>
+      <c r="N20" s="120" t="n"/>
+      <c r="O20" s="222" t="n"/>
+      <c r="P20" s="120" t="n"/>
+      <c r="Q20" s="222" t="n"/>
+      <c r="R20" s="120" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="219" t="inlineStr">
+        <is>
+          <t>#QU0U2Q99G</t>
+        </is>
+      </c>
+      <c r="B21" s="219" t="n">
+        <v>924</v>
+      </c>
+      <c r="C21" s="215" t="n">
+        <v>18</v>
+      </c>
+      <c r="D21" s="128" t="inlineStr">
+        <is>
+          <t>big coc</t>
+        </is>
+      </c>
+      <c r="E21" s="220" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" s="128" t="n">
+        <v>7115</v>
+      </c>
+      <c r="G21" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="126" t="n">
+        <v>60</v>
+      </c>
+      <c r="I21" s="220" t="n">
+        <v>6</v>
+      </c>
+      <c r="J21" s="128" t="n">
+        <v>7420</v>
+      </c>
+      <c r="K21" s="220" t="n">
+        <v>5</v>
+      </c>
+      <c r="L21" s="129" t="n">
+        <v>5150</v>
+      </c>
+      <c r="M21" s="220" t="n">
+        <v>6</v>
+      </c>
+      <c r="N21" s="128" t="n">
+        <v>9075</v>
+      </c>
+      <c r="O21" s="219" t="n"/>
+      <c r="P21" s="126" t="n"/>
+      <c r="Q21" s="219" t="n"/>
+      <c r="R21" s="126" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="222" t="inlineStr">
+        <is>
+          <t>#8U9CRC8G</t>
+        </is>
+      </c>
+      <c r="B22" s="222" t="n">
+        <v>1647</v>
+      </c>
+      <c r="C22" s="211" t="n">
+        <v>19</v>
+      </c>
+      <c r="D22" s="122" t="inlineStr">
+        <is>
+          <t>CEO JACK</t>
+        </is>
+      </c>
+      <c r="E22" s="223" t="n">
+        <v>6</v>
+      </c>
+      <c r="F22" s="122" t="n">
+        <v>6980</v>
+      </c>
+      <c r="G22" s="224" t="n">
+        <v>11</v>
+      </c>
+      <c r="H22" s="120" t="n">
+        <v>31</v>
+      </c>
+      <c r="I22" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="222" t="n"/>
+      <c r="L22" s="120" t="n"/>
+      <c r="M22" s="222" t="n"/>
+      <c r="N22" s="120" t="n"/>
+      <c r="O22" s="222" t="n"/>
+      <c r="P22" s="120" t="n"/>
+      <c r="Q22" s="222" t="n"/>
+      <c r="R22" s="120" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="219" t="inlineStr">
+        <is>
+          <t>#LC9GUPJJG</t>
+        </is>
+      </c>
+      <c r="B23" s="219" t="n">
+        <v>1053</v>
+      </c>
+      <c r="C23" s="215" t="n">
+        <v>20</v>
+      </c>
+      <c r="D23" s="128" t="inlineStr">
+        <is>
+          <t>raptor2222a</t>
+        </is>
+      </c>
+      <c r="E23" s="220" t="n">
+        <v>6</v>
+      </c>
+      <c r="F23" s="128" t="n">
+        <v>6971</v>
+      </c>
+      <c r="G23" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="220" t="n">
+        <v>5</v>
+      </c>
+      <c r="J23" s="129" t="n">
+        <v>4350</v>
+      </c>
+      <c r="K23" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="219" t="n"/>
+      <c r="N23" s="126" t="n"/>
+      <c r="O23" s="219" t="n"/>
+      <c r="P23" s="126" t="n"/>
+      <c r="Q23" s="219" t="n"/>
+      <c r="R23" s="126" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="222" t="inlineStr">
+        <is>
+          <t>#82QLQCJRJ</t>
+        </is>
+      </c>
+      <c r="B24" s="222" t="n">
+        <v>2946</v>
+      </c>
+      <c r="C24" s="211" t="n">
+        <v>21</v>
+      </c>
+      <c r="D24" s="122" t="inlineStr">
+        <is>
+          <t>Raging Fury</t>
+        </is>
+      </c>
+      <c r="E24" s="223" t="n">
+        <v>6</v>
+      </c>
+      <c r="F24" s="122" t="n">
+        <v>6145</v>
+      </c>
+      <c r="G24" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="223" t="n">
+        <v>6</v>
+      </c>
+      <c r="J24" s="122" t="n">
+        <v>8055</v>
+      </c>
+      <c r="K24" s="223" t="n">
+        <v>6</v>
+      </c>
+      <c r="L24" s="122" t="n">
+        <v>7115</v>
+      </c>
+      <c r="M24" s="224" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" s="117" t="n">
+        <v>2320</v>
+      </c>
+      <c r="O24" s="223" t="n">
+        <v>6</v>
+      </c>
+      <c r="P24" s="130" t="n">
+        <v>4920</v>
+      </c>
+      <c r="Q24" s="223" t="n">
+        <v>6</v>
+      </c>
+      <c r="R24" s="130" t="n">
+        <v>5135</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="219" t="inlineStr">
+        <is>
+          <t>#Q9QUUVQ02</t>
+        </is>
+      </c>
+      <c r="B25" s="219" t="n">
+        <v>1450</v>
+      </c>
+      <c r="C25" s="215" t="n">
+        <v>22</v>
+      </c>
+      <c r="D25" s="128" t="inlineStr">
+        <is>
+          <t>zach</t>
+        </is>
+      </c>
+      <c r="E25" s="220" t="n">
+        <v>6</v>
+      </c>
+      <c r="F25" s="128" t="n">
+        <v>6106</v>
+      </c>
+      <c r="G25" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="219" t="n"/>
+      <c r="J25" s="126" t="n"/>
+      <c r="K25" s="219" t="n"/>
+      <c r="L25" s="126" t="n"/>
+      <c r="M25" s="219" t="n"/>
+      <c r="N25" s="126" t="n"/>
+      <c r="O25" s="219" t="n"/>
+      <c r="P25" s="126" t="n"/>
+      <c r="Q25" s="219" t="n"/>
+      <c r="R25" s="126" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="222" t="inlineStr">
+        <is>
+          <t>#VGG9LYL0</t>
+        </is>
+      </c>
+      <c r="B26" s="222" t="n">
+        <v>1073</v>
+      </c>
+      <c r="C26" s="211" t="n">
+        <v>23</v>
+      </c>
+      <c r="D26" s="122" t="inlineStr">
+        <is>
+          <t>ptripp1048</t>
+        </is>
+      </c>
+      <c r="E26" s="223" t="n">
+        <v>6</v>
+      </c>
+      <c r="F26" s="122" t="n">
+        <v>6023</v>
+      </c>
+      <c r="G26" s="224" t="n">
+        <v>6</v>
+      </c>
+      <c r="H26" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="222" t="n"/>
+      <c r="L26" s="120" t="n"/>
+      <c r="M26" s="222" t="n"/>
+      <c r="N26" s="120" t="n"/>
+      <c r="O26" s="222" t="n"/>
+      <c r="P26" s="120" t="n"/>
+      <c r="Q26" s="222" t="n"/>
+      <c r="R26" s="120" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="219" t="inlineStr">
+        <is>
+          <t>#QLG0VJG2J</t>
+        </is>
+      </c>
+      <c r="B27" s="219" t="n">
+        <v>1223</v>
+      </c>
+      <c r="C27" s="215" t="n">
+        <v>24</v>
+      </c>
+      <c r="D27" s="128" t="inlineStr">
+        <is>
+          <t>PocketRocket</t>
+        </is>
+      </c>
+      <c r="E27" s="220" t="n">
+        <v>6</v>
+      </c>
+      <c r="F27" s="129" t="n">
+        <v>5660</v>
+      </c>
+      <c r="G27" s="225" t="n">
+        <v>27</v>
+      </c>
+      <c r="H27" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="221" t="n">
+        <v>4</v>
+      </c>
+      <c r="J27" s="129" t="n">
+        <v>4327</v>
+      </c>
+      <c r="K27" s="221" t="n">
+        <v>4</v>
+      </c>
+      <c r="L27" s="129" t="n">
+        <v>5215</v>
+      </c>
+      <c r="M27" s="219" t="n"/>
+      <c r="N27" s="126" t="n"/>
+      <c r="O27" s="219" t="n"/>
+      <c r="P27" s="126" t="n"/>
+      <c r="Q27" s="219" t="n"/>
+      <c r="R27" s="126" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="224" t="inlineStr">
+        <is>
+          <t>#9JUR0JQV2</t>
+        </is>
+      </c>
+      <c r="B28" s="222" t="n">
+        <v>1134</v>
+      </c>
+      <c r="C28" s="211" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" s="130" t="inlineStr">
+        <is>
+          <t>atley</t>
+        </is>
+      </c>
+      <c r="E28" s="226" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" s="130" t="n">
+        <v>5277</v>
+      </c>
+      <c r="G28" s="222" t="n"/>
+      <c r="H28" s="120" t="n"/>
+      <c r="I28" s="222" t="n"/>
+      <c r="J28" s="120" t="n"/>
+      <c r="K28" s="222" t="n"/>
+      <c r="L28" s="120" t="n"/>
+      <c r="M28" s="222" t="n"/>
+      <c r="N28" s="120" t="n"/>
+      <c r="O28" s="222" t="n"/>
+      <c r="P28" s="120" t="n"/>
+      <c r="Q28" s="222" t="n"/>
+      <c r="R28" s="120" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="219" t="inlineStr">
+        <is>
+          <t>#QLGUYQPL0</t>
+        </is>
+      </c>
+      <c r="B29" s="219" t="n">
+        <v>1597</v>
+      </c>
+      <c r="C29" s="215" t="n">
+        <v>26</v>
+      </c>
+      <c r="D29" s="124" t="inlineStr">
+        <is>
+          <t>i got time</t>
+        </is>
+      </c>
+      <c r="E29" s="225" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="115" t="inlineStr">
-        <is>
-          <t>DeadLeaf</t>
-        </is>
-      </c>
-      <c r="E4" s="195" t="n">
-        <v>6</v>
-      </c>
-      <c r="F4" s="115" t="n">
-        <v>12676</v>
-      </c>
-      <c r="G4" s="196" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="113" t="n">
+      <c r="F29" s="124" t="n">
+        <v>1435</v>
+      </c>
+      <c r="G29" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="126" t="n">
+        <v>5</v>
+      </c>
+      <c r="I29" s="219" t="n"/>
+      <c r="J29" s="126" t="n"/>
+      <c r="K29" s="219" t="n"/>
+      <c r="L29" s="126" t="n"/>
+      <c r="M29" s="219" t="n"/>
+      <c r="N29" s="126" t="n"/>
+      <c r="O29" s="219" t="n"/>
+      <c r="P29" s="126" t="n"/>
+      <c r="Q29" s="219" t="n"/>
+      <c r="R29" s="126" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="227" t="inlineStr">
+        <is>
+          <t>#QY0VGPQGQ</t>
+        </is>
+      </c>
+      <c r="B30" s="227" t="n">
+        <v>521</v>
+      </c>
+      <c r="C30" s="95" t="n">
+        <v>27</v>
+      </c>
+      <c r="D30" s="228" t="inlineStr">
+        <is>
+          <t>killerjones</t>
+        </is>
+      </c>
+      <c r="E30" s="229" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="228" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="230" t="n">
+        <v>15</v>
+      </c>
+      <c r="I30" s="231" t="n">
+        <v>6</v>
+      </c>
+      <c r="J30" s="232" t="n">
+        <v>6320</v>
+      </c>
+      <c r="K30" s="227" t="n"/>
+      <c r="L30" s="230" t="n"/>
+      <c r="M30" s="227" t="n"/>
+      <c r="N30" s="230" t="n"/>
+      <c r="O30" s="227" t="n"/>
+      <c r="P30" s="230" t="n"/>
+      <c r="Q30" s="227" t="n"/>
+      <c r="R30" s="230" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="219" t="inlineStr">
+        <is>
+          <t>#QL8LVLYG8</t>
+        </is>
+      </c>
+      <c r="B31" s="219" t="n">
+        <v>939</v>
+      </c>
+      <c r="C31" s="215" t="n">
+        <v>28</v>
+      </c>
+      <c r="D31" s="124" t="inlineStr">
+        <is>
+          <t>Some guy</t>
+        </is>
+      </c>
+      <c r="E31" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="126" t="n">
+        <v>20</v>
+      </c>
+      <c r="I31" s="225" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" s="124" t="n">
+        <v>2650</v>
+      </c>
+      <c r="K31" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="220" t="n">
+        <v>6</v>
+      </c>
+      <c r="N31" s="128" t="n">
+        <v>6917</v>
+      </c>
+      <c r="O31" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="225" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" s="124" t="n">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="222" t="inlineStr">
+        <is>
+          <t>#QJC8LQU9U</t>
+        </is>
+      </c>
+      <c r="B32" s="222" t="n">
+        <v>998</v>
+      </c>
+      <c r="C32" s="211" t="n">
+        <v>29</v>
+      </c>
+      <c r="D32" s="117" t="inlineStr">
+        <is>
+          <t>Master01</t>
+        </is>
+      </c>
+      <c r="E32" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="223" t="n">
+        <v>6</v>
+      </c>
+      <c r="N32" s="130" t="n">
+        <v>5415</v>
+      </c>
+      <c r="O32" s="223" t="n">
+        <v>6</v>
+      </c>
+      <c r="P32" s="130" t="n">
+        <v>4835</v>
+      </c>
+      <c r="Q32" s="223" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" s="130" t="n">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="219" t="inlineStr">
+        <is>
+          <t>#QV8JJ0URU</t>
+        </is>
+      </c>
+      <c r="B33" s="219" t="n">
+        <v>741</v>
+      </c>
+      <c r="C33" s="215" t="n">
         <v>30</v>
       </c>
-      <c r="I4" s="195" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" s="115" t="n">
-        <v>13763</v>
-      </c>
-      <c r="K4" s="195" t="n">
-        <v>6</v>
-      </c>
-      <c r="L4" s="115" t="n">
-        <v>11140</v>
-      </c>
-      <c r="M4" s="195" t="n">
-        <v>6</v>
-      </c>
-      <c r="N4" s="115" t="n">
-        <v>15509</v>
-      </c>
-      <c r="O4" s="195" t="n">
-        <v>6</v>
-      </c>
-      <c r="P4" s="115" t="n">
-        <v>8567</v>
-      </c>
-      <c r="Q4" s="195" t="n">
-        <v>6</v>
-      </c>
-      <c r="R4" s="115" t="n">
-        <v>9729</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="197" t="inlineStr">
-        <is>
-          <t>#QUG8QQJ92</t>
-        </is>
-      </c>
-      <c r="B5" s="197" t="n">
-        <v>935</v>
-      </c>
-      <c r="C5" s="198" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="107" t="inlineStr">
-        <is>
-          <t>Karma</t>
-        </is>
-      </c>
-      <c r="E5" s="199" t="n">
-        <v>6</v>
-      </c>
-      <c r="F5" s="107" t="n">
-        <v>12204</v>
-      </c>
-      <c r="G5" s="200" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="199" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" s="107" t="n">
-        <v>11355</v>
-      </c>
-      <c r="K5" s="199" t="n">
-        <v>6</v>
-      </c>
-      <c r="L5" s="107" t="n">
-        <v>10003</v>
-      </c>
-      <c r="M5" s="199" t="n">
-        <v>6</v>
-      </c>
-      <c r="N5" s="107" t="n">
-        <v>10595</v>
-      </c>
-      <c r="O5" s="199" t="n">
-        <v>6</v>
-      </c>
-      <c r="P5" s="107" t="n">
-        <v>9240</v>
-      </c>
-      <c r="Q5" s="199" t="n">
-        <v>6</v>
-      </c>
-      <c r="R5" s="107" t="n">
-        <v>10628</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="193" t="inlineStr">
-        <is>
-          <t>#G0QPVJY9L</t>
-        </is>
-      </c>
-      <c r="B6" s="193" t="n">
-        <v>854</v>
-      </c>
-      <c r="C6" s="194" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="115" t="inlineStr">
-        <is>
-          <t>Zoro</t>
-        </is>
-      </c>
-      <c r="E6" s="195" t="n">
-        <v>6</v>
-      </c>
-      <c r="F6" s="115" t="n">
-        <v>12116</v>
-      </c>
-      <c r="G6" s="196" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="195" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" s="115" t="n">
-        <v>13432</v>
-      </c>
-      <c r="K6" s="195" t="n">
-        <v>6</v>
-      </c>
-      <c r="L6" s="115" t="n">
-        <v>8855</v>
-      </c>
-      <c r="M6" s="195" t="n">
-        <v>6</v>
-      </c>
-      <c r="N6" s="115" t="n">
-        <v>10965</v>
-      </c>
-      <c r="O6" s="195" t="n">
-        <v>6</v>
-      </c>
-      <c r="P6" s="115" t="n">
-        <v>7905</v>
-      </c>
-      <c r="Q6" s="195" t="n">
-        <v>6</v>
-      </c>
-      <c r="R6" s="115" t="n">
-        <v>6744</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="197" t="inlineStr">
-        <is>
-          <t>#QCV22VP0G</t>
-        </is>
-      </c>
-      <c r="B7" s="197" t="n">
-        <v>821</v>
-      </c>
-      <c r="C7" s="198" t="n">
+      <c r="D33" s="124" t="inlineStr">
+        <is>
+          <t>✨Jacob</t>
+        </is>
+      </c>
+      <c r="E33" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="220" t="n">
+        <v>6</v>
+      </c>
+      <c r="P33" s="128" t="n">
+        <v>7385</v>
+      </c>
+      <c r="Q33" s="220" t="n">
+        <v>6</v>
+      </c>
+      <c r="R33" s="128" t="n">
+        <v>9155</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="222" t="inlineStr">
+        <is>
+          <t>#QY8L2GLUR</t>
+        </is>
+      </c>
+      <c r="B34" s="222" t="n">
+        <v>907</v>
+      </c>
+      <c r="C34" s="211" t="n">
+        <v>31</v>
+      </c>
+      <c r="D34" s="117" t="inlineStr">
+        <is>
+          <t>Huy</t>
+        </is>
+      </c>
+      <c r="E34" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="223" t="n">
+        <v>6</v>
+      </c>
+      <c r="P34" s="122" t="n">
+        <v>6995</v>
+      </c>
+      <c r="Q34" s="223" t="n">
+        <v>6</v>
+      </c>
+      <c r="R34" s="122" t="n">
+        <v>6055</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="219" t="inlineStr">
+        <is>
+          <t>#L2QQL9QVJ</t>
+        </is>
+      </c>
+      <c r="B35" s="219" t="n">
+        <v>1450</v>
+      </c>
+      <c r="C35" s="215" t="n">
+        <v>32</v>
+      </c>
+      <c r="D35" s="124" t="inlineStr">
+        <is>
+          <t>JustPre10d</t>
+        </is>
+      </c>
+      <c r="E35" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="220" t="n">
+        <v>6</v>
+      </c>
+      <c r="P35" s="128" t="n">
+        <v>6655</v>
+      </c>
+      <c r="Q35" s="220" t="n">
+        <v>6</v>
+      </c>
+      <c r="R35" s="128" t="n">
+        <v>7675</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="222" t="inlineStr">
+        <is>
+          <t>#LPR9RPCY9</t>
+        </is>
+      </c>
+      <c r="B36" s="222" t="n">
+        <v>990</v>
+      </c>
+      <c r="C36" s="211" t="n">
+        <v>33</v>
+      </c>
+      <c r="D36" s="117" t="inlineStr">
+        <is>
+          <t>sayhuss17</t>
+        </is>
+      </c>
+      <c r="E36" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="226" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="107" t="inlineStr">
-        <is>
-          <t>Nami</t>
-        </is>
-      </c>
-      <c r="E7" s="199" t="n">
-        <v>6</v>
-      </c>
-      <c r="F7" s="107" t="n">
-        <v>11657</v>
-      </c>
-      <c r="G7" s="200" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="199" t="n">
-        <v>6</v>
-      </c>
-      <c r="J7" s="107" t="n">
-        <v>11795</v>
-      </c>
-      <c r="K7" s="199" t="n">
-        <v>6</v>
-      </c>
-      <c r="L7" s="107" t="n">
-        <v>10769</v>
-      </c>
-      <c r="M7" s="199" t="n">
-        <v>6</v>
-      </c>
-      <c r="N7" s="107" t="n">
-        <v>12486</v>
-      </c>
-      <c r="O7" s="199" t="n">
-        <v>6</v>
-      </c>
-      <c r="P7" s="107" t="n">
-        <v>8472</v>
-      </c>
-      <c r="Q7" s="199" t="n">
-        <v>6</v>
-      </c>
-      <c r="R7" s="107" t="n">
-        <v>9096</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="193" t="inlineStr">
-        <is>
-          <t>#QUYG0PQC8</t>
-        </is>
-      </c>
-      <c r="B8" s="193" t="n">
-        <v>835</v>
-      </c>
-      <c r="C8" s="194" t="n">
+      <c r="P36" s="130" t="n">
+        <v>4240</v>
+      </c>
+      <c r="Q36" s="222" t="n"/>
+      <c r="R36" s="120" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="219" t="inlineStr">
+        <is>
+          <t>#QQL8C29CY</t>
+        </is>
+      </c>
+      <c r="B37" s="219" t="n">
+        <v>864</v>
+      </c>
+      <c r="C37" s="215" t="n">
+        <v>34</v>
+      </c>
+      <c r="D37" s="124" t="inlineStr">
+        <is>
+          <t>TypicalTeague#2</t>
+        </is>
+      </c>
+      <c r="E37" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" s="220" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="115" t="inlineStr">
-        <is>
-          <t>Luffy</t>
-        </is>
-      </c>
-      <c r="E8" s="195" t="n">
-        <v>6</v>
-      </c>
-      <c r="F8" s="115" t="n">
-        <v>11357</v>
-      </c>
-      <c r="G8" s="196" t="n">
-        <v>3</v>
-      </c>
-      <c r="H8" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="195" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" s="115" t="n">
-        <v>10879</v>
-      </c>
-      <c r="K8" s="195" t="n">
-        <v>6</v>
-      </c>
-      <c r="L8" s="115" t="n">
-        <v>9114</v>
-      </c>
-      <c r="M8" s="195" t="n">
-        <v>6</v>
-      </c>
-      <c r="N8" s="115" t="n">
-        <v>13385</v>
-      </c>
-      <c r="O8" s="195" t="n">
-        <v>6</v>
-      </c>
-      <c r="P8" s="115" t="n">
-        <v>7877</v>
-      </c>
-      <c r="Q8" s="195" t="n">
-        <v>6</v>
-      </c>
-      <c r="R8" s="115" t="n">
-        <v>8347</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="197" t="inlineStr">
-        <is>
-          <t>#QUV2GP88U</t>
-        </is>
-      </c>
-      <c r="B9" s="197" t="n">
-        <v>736</v>
-      </c>
-      <c r="C9" s="198" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" s="107" t="inlineStr">
-        <is>
-          <t>Nico Robin</t>
-        </is>
-      </c>
-      <c r="E9" s="199" t="n">
-        <v>6</v>
-      </c>
-      <c r="F9" s="107" t="n">
-        <v>10389</v>
-      </c>
-      <c r="G9" s="200" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="199" t="n">
-        <v>6</v>
-      </c>
-      <c r="J9" s="107" t="n">
-        <v>12612</v>
-      </c>
-      <c r="K9" s="199" t="n">
-        <v>6</v>
-      </c>
-      <c r="L9" s="107" t="n">
-        <v>11338</v>
-      </c>
-      <c r="M9" s="199" t="n">
-        <v>6</v>
-      </c>
-      <c r="N9" s="107" t="n">
-        <v>10997</v>
-      </c>
-      <c r="O9" s="199" t="n">
-        <v>6</v>
-      </c>
-      <c r="P9" s="107" t="n">
-        <v>11087</v>
-      </c>
-      <c r="Q9" s="199" t="n">
-        <v>6</v>
-      </c>
-      <c r="R9" s="107" t="n">
-        <v>8089</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="201" t="inlineStr">
-        <is>
-          <t>#QRPRYR8LL</t>
-        </is>
-      </c>
-      <c r="B10" s="201" t="n">
-        <v>1151</v>
-      </c>
-      <c r="C10" s="194" t="n">
-        <v>7</v>
-      </c>
-      <c r="D10" s="122" t="inlineStr">
-        <is>
-          <t>FidelCashflow</t>
-        </is>
-      </c>
-      <c r="E10" s="202" t="n">
-        <v>6</v>
-      </c>
-      <c r="F10" s="122" t="n">
-        <v>8298</v>
-      </c>
-      <c r="G10" s="203" t="n">
-        <v>4</v>
-      </c>
-      <c r="H10" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="202" t="n">
-        <v>6</v>
-      </c>
-      <c r="J10" s="122" t="n">
-        <v>6415</v>
-      </c>
-      <c r="K10" s="202" t="n">
-        <v>6</v>
-      </c>
-      <c r="L10" s="122" t="n">
-        <v>6547</v>
-      </c>
-      <c r="M10" s="202" t="n">
-        <v>6</v>
-      </c>
-      <c r="N10" s="122" t="n">
-        <v>6811</v>
-      </c>
-      <c r="O10" s="202" t="n">
-        <v>6</v>
-      </c>
-      <c r="P10" s="130" t="n">
-        <v>4239</v>
-      </c>
-      <c r="Q10" s="202" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" s="130" t="n">
-        <v>4214</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="204" t="inlineStr">
-        <is>
-          <t>#QUVJGC0VQ</t>
-        </is>
-      </c>
-      <c r="B11" s="204" t="n">
-        <v>1187</v>
-      </c>
-      <c r="C11" s="198" t="n">
+      <c r="P37" s="129" t="n">
+        <v>4070</v>
+      </c>
+      <c r="Q37" s="220" t="n">
+        <v>6</v>
+      </c>
+      <c r="R37" s="128" t="n">
+        <v>6410</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="222" t="inlineStr">
+        <is>
+          <t>#L9QL9YQQY</t>
+        </is>
+      </c>
+      <c r="B38" s="222" t="n">
+        <v>975</v>
+      </c>
+      <c r="C38" s="211" t="n">
+        <v>35</v>
+      </c>
+      <c r="D38" s="117" t="inlineStr">
+        <is>
+          <t>Ima Chad</t>
+        </is>
+      </c>
+      <c r="E38" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="223" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" s="117" t="n">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="219" t="inlineStr">
+        <is>
+          <t>#L9JJQY992</t>
+        </is>
+      </c>
+      <c r="B39" s="219" t="n">
+        <v>773</v>
+      </c>
+      <c r="C39" s="215" t="n">
+        <v>36</v>
+      </c>
+      <c r="D39" s="124" t="inlineStr">
+        <is>
+          <t>Fisted_Waffle</t>
+        </is>
+      </c>
+      <c r="E39" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="219" t="n"/>
+      <c r="R39" s="126" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="222" t="inlineStr">
+        <is>
+          <t>#PJYVV989R</t>
+        </is>
+      </c>
+      <c r="B40" s="222" t="n">
+        <v>1533</v>
+      </c>
+      <c r="C40" s="211" t="n">
+        <v>37</v>
+      </c>
+      <c r="D40" s="117" t="inlineStr">
+        <is>
+          <t>nx</t>
+        </is>
+      </c>
+      <c r="E40" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="224" t="n">
+        <v>38</v>
+      </c>
+      <c r="H40" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="222" t="n"/>
+      <c r="R40" s="120" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="219" t="inlineStr">
+        <is>
+          <t>#QV8RY9UC8</t>
+        </is>
+      </c>
+      <c r="B41" s="219" t="n">
+        <v>793</v>
+      </c>
+      <c r="C41" s="215" t="n">
+        <v>38</v>
+      </c>
+      <c r="D41" s="124" t="inlineStr">
+        <is>
+          <t>Apollo</t>
+        </is>
+      </c>
+      <c r="E41" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="219" t="n"/>
+      <c r="L41" s="126" t="n"/>
+      <c r="M41" s="219" t="n"/>
+      <c r="N41" s="126" t="n"/>
+      <c r="O41" s="219" t="n"/>
+      <c r="P41" s="126" t="n"/>
+      <c r="Q41" s="219" t="n"/>
+      <c r="R41" s="126" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="222" t="inlineStr">
+        <is>
+          <t>#QLGYRVPU0</t>
+        </is>
+      </c>
+      <c r="B42" s="222" t="n">
+        <v>920</v>
+      </c>
+      <c r="C42" s="211" t="n">
+        <v>39</v>
+      </c>
+      <c r="D42" s="117" t="inlineStr">
+        <is>
+          <t>Black.Boy.</t>
+        </is>
+      </c>
+      <c r="E42" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="120" t="n">
+        <v>116</v>
+      </c>
+      <c r="I42" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="222" t="n"/>
+      <c r="L42" s="120" t="n"/>
+      <c r="M42" s="222" t="n"/>
+      <c r="N42" s="120" t="n"/>
+      <c r="O42" s="222" t="n"/>
+      <c r="P42" s="120" t="n"/>
+      <c r="Q42" s="222" t="n"/>
+      <c r="R42" s="120" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="219" t="inlineStr">
+        <is>
+          <t>#QQL28Y2UL</t>
+        </is>
+      </c>
+      <c r="B43" s="219" t="n">
+        <v>1107</v>
+      </c>
+      <c r="C43" s="215" t="n">
+        <v>40</v>
+      </c>
+      <c r="D43" s="124" t="inlineStr">
+        <is>
+          <t>SUPoT</t>
+        </is>
+      </c>
+      <c r="E43" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="126" t="n">
+        <v>56</v>
+      </c>
+      <c r="I43" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="219" t="n"/>
+      <c r="L43" s="126" t="n"/>
+      <c r="M43" s="219" t="n"/>
+      <c r="N43" s="126" t="n"/>
+      <c r="O43" s="219" t="n"/>
+      <c r="P43" s="126" t="n"/>
+      <c r="Q43" s="219" t="n"/>
+      <c r="R43" s="126" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="222" t="inlineStr">
+        <is>
+          <t>#QUGYGY88C</t>
+        </is>
+      </c>
+      <c r="B44" s="222" t="n">
+        <v>950</v>
+      </c>
+      <c r="C44" s="211" t="n">
+        <v>41</v>
+      </c>
+      <c r="D44" s="117" t="inlineStr">
+        <is>
+          <t>Kingsman</t>
+        </is>
+      </c>
+      <c r="E44" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="222" t="n"/>
+      <c r="L44" s="120" t="n"/>
+      <c r="M44" s="222" t="n"/>
+      <c r="N44" s="120" t="n"/>
+      <c r="O44" s="222" t="n"/>
+      <c r="P44" s="120" t="n"/>
+      <c r="Q44" s="222" t="n"/>
+      <c r="R44" s="120" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="219" t="inlineStr">
+        <is>
+          <t>#QJQV82JG0</t>
+        </is>
+      </c>
+      <c r="B45" s="219" t="n">
+        <v>886</v>
+      </c>
+      <c r="C45" s="215" t="n">
+        <v>42</v>
+      </c>
+      <c r="D45" s="124" t="inlineStr">
+        <is>
+          <t>The UnknownYT</t>
+        </is>
+      </c>
+      <c r="E45" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="225" t="n">
         <v>8</v>
       </c>
-      <c r="D11" s="128" t="inlineStr">
-        <is>
-          <t>Cam</t>
-        </is>
-      </c>
-      <c r="E11" s="205" t="n">
-        <v>6</v>
-      </c>
-      <c r="F11" s="128" t="n">
-        <v>8080</v>
-      </c>
-      <c r="G11" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="126" t="n">
-        <v>73</v>
-      </c>
-      <c r="I11" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="204" t="n"/>
-      <c r="L11" s="126" t="n"/>
-      <c r="M11" s="204" t="n"/>
-      <c r="N11" s="126" t="n"/>
-      <c r="O11" s="204" t="n"/>
-      <c r="P11" s="126" t="n"/>
-      <c r="Q11" s="204" t="n"/>
-      <c r="R11" s="126" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="201" t="inlineStr">
-        <is>
-          <t>#LGCVY0L9P</t>
-        </is>
-      </c>
-      <c r="B12" s="201" t="n">
-        <v>935</v>
-      </c>
-      <c r="C12" s="194" t="n">
-        <v>9</v>
-      </c>
-      <c r="D12" s="122" t="inlineStr">
-        <is>
-          <t>Death1wolf</t>
-        </is>
-      </c>
-      <c r="E12" s="202" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" s="122" t="n">
-        <v>7998</v>
-      </c>
-      <c r="G12" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="201" t="n"/>
-      <c r="J12" s="120" t="n"/>
-      <c r="K12" s="201" t="n"/>
-      <c r="L12" s="120" t="n"/>
-      <c r="M12" s="201" t="n"/>
-      <c r="N12" s="120" t="n"/>
-      <c r="O12" s="201" t="n"/>
-      <c r="P12" s="120" t="n"/>
-      <c r="Q12" s="201" t="n"/>
-      <c r="R12" s="120" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="204" t="inlineStr">
-        <is>
-          <t>#LPCLQUCCY</t>
-        </is>
-      </c>
-      <c r="B13" s="204" t="n">
-        <v>1024</v>
-      </c>
-      <c r="C13" s="198" t="n">
-        <v>10</v>
-      </c>
-      <c r="D13" s="128" t="inlineStr">
-        <is>
-          <t>Zodiac</t>
-        </is>
-      </c>
-      <c r="E13" s="205" t="n">
-        <v>6</v>
-      </c>
-      <c r="F13" s="128" t="n">
-        <v>7463</v>
-      </c>
-      <c r="G13" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="204" t="n"/>
-      <c r="L13" s="126" t="n"/>
-      <c r="M13" s="204" t="n"/>
-      <c r="N13" s="126" t="n"/>
-      <c r="O13" s="204" t="n"/>
-      <c r="P13" s="126" t="n"/>
-      <c r="Q13" s="204" t="n"/>
-      <c r="R13" s="126" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="201" t="inlineStr">
-        <is>
-          <t>#QU0U2Q99G</t>
-        </is>
-      </c>
-      <c r="B14" s="201" t="n">
-        <v>941</v>
-      </c>
-      <c r="C14" s="194" t="n">
-        <v>11</v>
-      </c>
-      <c r="D14" s="122" t="inlineStr">
-        <is>
-          <t>big coc</t>
-        </is>
-      </c>
-      <c r="E14" s="202" t="n">
-        <v>6</v>
-      </c>
-      <c r="F14" s="122" t="n">
-        <v>7115</v>
-      </c>
-      <c r="G14" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="120" t="n">
-        <v>60</v>
-      </c>
-      <c r="I14" s="202" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" s="122" t="n">
-        <v>7420</v>
-      </c>
-      <c r="K14" s="202" t="n">
-        <v>5</v>
-      </c>
-      <c r="L14" s="130" t="n">
-        <v>5150</v>
-      </c>
-      <c r="M14" s="202" t="n">
-        <v>6</v>
-      </c>
-      <c r="N14" s="122" t="n">
-        <v>9075</v>
-      </c>
-      <c r="O14" s="201" t="n"/>
-      <c r="P14" s="120" t="n"/>
-      <c r="Q14" s="201" t="n"/>
-      <c r="R14" s="120" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="204" t="inlineStr">
-        <is>
-          <t>#8U9CRC8G</t>
-        </is>
-      </c>
-      <c r="B15" s="204" t="n">
-        <v>1647</v>
-      </c>
-      <c r="C15" s="198" t="n">
-        <v>12</v>
-      </c>
-      <c r="D15" s="128" t="inlineStr">
-        <is>
-          <t>CEO JACK</t>
-        </is>
-      </c>
-      <c r="E15" s="205" t="n">
-        <v>6</v>
-      </c>
-      <c r="F15" s="128" t="n">
-        <v>6980</v>
-      </c>
-      <c r="G15" s="206" t="n">
-        <v>11</v>
-      </c>
-      <c r="H15" s="126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="204" t="n"/>
-      <c r="L15" s="126" t="n"/>
-      <c r="M15" s="204" t="n"/>
-      <c r="N15" s="126" t="n"/>
-      <c r="O15" s="204" t="n"/>
-      <c r="P15" s="126" t="n"/>
-      <c r="Q15" s="204" t="n"/>
-      <c r="R15" s="126" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="201" t="inlineStr">
-        <is>
-          <t>#LC9GUPJJG</t>
-        </is>
-      </c>
-      <c r="B16" s="201" t="n">
-        <v>1068</v>
-      </c>
-      <c r="C16" s="194" t="n">
-        <v>13</v>
-      </c>
-      <c r="D16" s="122" t="inlineStr">
-        <is>
-          <t>raptor2222a</t>
-        </is>
-      </c>
-      <c r="E16" s="202" t="n">
-        <v>6</v>
-      </c>
-      <c r="F16" s="122" t="n">
-        <v>6971</v>
-      </c>
-      <c r="G16" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="202" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" s="130" t="n">
-        <v>4350</v>
-      </c>
-      <c r="K16" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="201" t="n"/>
-      <c r="N16" s="120" t="n"/>
-      <c r="O16" s="201" t="n"/>
-      <c r="P16" s="120" t="n"/>
-      <c r="Q16" s="201" t="n"/>
-      <c r="R16" s="120" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="204" t="inlineStr">
-        <is>
-          <t>#82QLQCJRJ</t>
-        </is>
-      </c>
-      <c r="B17" s="204" t="n">
-        <v>2925</v>
-      </c>
-      <c r="C17" s="198" t="n">
-        <v>14</v>
-      </c>
-      <c r="D17" s="128" t="inlineStr">
-        <is>
-          <t>Raging Fury</t>
-        </is>
-      </c>
-      <c r="E17" s="205" t="n">
-        <v>6</v>
-      </c>
-      <c r="F17" s="128" t="n">
-        <v>6145</v>
-      </c>
-      <c r="G17" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="205" t="n">
-        <v>6</v>
-      </c>
-      <c r="J17" s="128" t="n">
-        <v>8055</v>
-      </c>
-      <c r="K17" s="205" t="n">
-        <v>6</v>
-      </c>
-      <c r="L17" s="128" t="n">
-        <v>7115</v>
-      </c>
-      <c r="M17" s="206" t="n">
-        <v>2</v>
-      </c>
-      <c r="N17" s="124" t="n">
-        <v>2320</v>
-      </c>
-      <c r="O17" s="205" t="n">
-        <v>6</v>
-      </c>
-      <c r="P17" s="129" t="n">
-        <v>4920</v>
-      </c>
-      <c r="Q17" s="205" t="n">
-        <v>6</v>
-      </c>
-      <c r="R17" s="129" t="n">
-        <v>5135</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="201" t="inlineStr">
-        <is>
-          <t>#Q9QUUVQ02</t>
-        </is>
-      </c>
-      <c r="B18" s="201" t="n">
-        <v>1455</v>
-      </c>
-      <c r="C18" s="194" t="n">
+      <c r="H45" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="219" t="n"/>
+      <c r="J45" s="126" t="n"/>
+      <c r="K45" s="219" t="n"/>
+      <c r="L45" s="126" t="n"/>
+      <c r="M45" s="219" t="n"/>
+      <c r="N45" s="126" t="n"/>
+      <c r="O45" s="219" t="n"/>
+      <c r="P45" s="126" t="n"/>
+      <c r="Q45" s="219" t="n"/>
+      <c r="R45" s="126" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="222" t="inlineStr">
+        <is>
+          <t>#QUCCVCCJ0</t>
+        </is>
+      </c>
+      <c r="B46" s="222" t="n">
+        <v>808</v>
+      </c>
+      <c r="C46" s="211" t="n">
+        <v>43</v>
+      </c>
+      <c r="D46" s="117" t="inlineStr">
+        <is>
+          <t>koi</t>
+        </is>
+      </c>
+      <c r="E46" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="120" t="n">
         <v>15</v>
       </c>
-      <c r="D18" s="122" t="inlineStr">
-        <is>
-          <t>zach</t>
-        </is>
-      </c>
-      <c r="E18" s="202" t="n">
-        <v>6</v>
-      </c>
-      <c r="F18" s="122" t="n">
-        <v>6106</v>
-      </c>
-      <c r="G18" s="201" t="n"/>
-      <c r="H18" s="120" t="n"/>
-      <c r="I18" s="201" t="n"/>
-      <c r="J18" s="120" t="n"/>
-      <c r="K18" s="201" t="n"/>
-      <c r="L18" s="120" t="n"/>
-      <c r="M18" s="201" t="n"/>
-      <c r="N18" s="120" t="n"/>
-      <c r="O18" s="201" t="n"/>
-      <c r="P18" s="120" t="n"/>
-      <c r="Q18" s="201" t="n"/>
-      <c r="R18" s="120" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="204" t="inlineStr">
-        <is>
-          <t>#VGG9LYL0</t>
-        </is>
-      </c>
-      <c r="B19" s="204" t="n">
-        <v>1073</v>
-      </c>
-      <c r="C19" s="198" t="n">
-        <v>16</v>
-      </c>
-      <c r="D19" s="128" t="inlineStr">
-        <is>
-          <t>ptripp1048</t>
-        </is>
-      </c>
-      <c r="E19" s="205" t="n">
-        <v>6</v>
-      </c>
-      <c r="F19" s="128" t="n">
-        <v>6023</v>
-      </c>
-      <c r="G19" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="204" t="n"/>
-      <c r="L19" s="126" t="n"/>
-      <c r="M19" s="204" t="n"/>
-      <c r="N19" s="126" t="n"/>
-      <c r="O19" s="204" t="n"/>
-      <c r="P19" s="126" t="n"/>
-      <c r="Q19" s="204" t="n"/>
-      <c r="R19" s="126" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="201" t="inlineStr">
-        <is>
-          <t>#QLG0VJG2J</t>
-        </is>
-      </c>
-      <c r="B20" s="201" t="n">
-        <v>1229</v>
-      </c>
-      <c r="C20" s="194" t="n">
-        <v>17</v>
-      </c>
-      <c r="D20" s="122" t="inlineStr">
-        <is>
-          <t>PocketRocket</t>
-        </is>
-      </c>
-      <c r="E20" s="202" t="n">
-        <v>6</v>
-      </c>
-      <c r="F20" s="130" t="n">
-        <v>5660</v>
-      </c>
-      <c r="G20" s="203" t="n">
-        <v>27</v>
-      </c>
-      <c r="H20" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="207" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" s="130" t="n">
-        <v>4327</v>
-      </c>
-      <c r="K20" s="207" t="n">
-        <v>4</v>
-      </c>
-      <c r="L20" s="130" t="n">
-        <v>5215</v>
-      </c>
-      <c r="M20" s="201" t="n"/>
-      <c r="N20" s="120" t="n"/>
-      <c r="O20" s="201" t="n"/>
-      <c r="P20" s="120" t="n"/>
-      <c r="Q20" s="201" t="n"/>
-      <c r="R20" s="120" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="204" t="inlineStr">
-        <is>
-          <t>#G0JPUQGYR</t>
-        </is>
-      </c>
-      <c r="B21" s="204" t="n">
-        <v>1412</v>
-      </c>
-      <c r="C21" s="198" t="n">
-        <v>18</v>
-      </c>
-      <c r="D21" s="129" t="inlineStr">
-        <is>
-          <t>Collin</t>
-        </is>
-      </c>
-      <c r="E21" s="208" t="n">
-        <v>3</v>
-      </c>
-      <c r="F21" s="129" t="n">
-        <v>4455</v>
-      </c>
-      <c r="G21" s="206" t="n">
-        <v>20</v>
-      </c>
-      <c r="H21" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="205" t="n">
-        <v>6</v>
-      </c>
-      <c r="J21" s="128" t="n">
-        <v>8833</v>
-      </c>
-      <c r="K21" s="205" t="n">
-        <v>6</v>
-      </c>
-      <c r="L21" s="128" t="n">
-        <v>9238</v>
-      </c>
-      <c r="M21" s="205" t="n">
-        <v>6</v>
-      </c>
-      <c r="N21" s="128" t="n">
-        <v>7756</v>
-      </c>
-      <c r="O21" s="205" t="n">
-        <v>6</v>
-      </c>
-      <c r="P21" s="129" t="n">
-        <v>5943</v>
-      </c>
-      <c r="Q21" s="205" t="n">
-        <v>6</v>
-      </c>
-      <c r="R21" s="128" t="n">
-        <v>8224</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="94" t="inlineStr">
-        <is>
-          <t>#90U0VPU9U</t>
-        </is>
-      </c>
-      <c r="B22" s="94" t="n">
-        <v>2555</v>
-      </c>
-      <c r="C22" s="95" t="n">
-        <v>19</v>
-      </c>
-      <c r="D22" s="96" t="inlineStr">
-        <is>
-          <t>KYANI7E</t>
-        </is>
-      </c>
-      <c r="E22" s="97" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="96" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="209" t="n">
-        <v>221</v>
-      </c>
-      <c r="H22" s="98" t="n">
-        <v>4</v>
-      </c>
-      <c r="I22" s="99" t="n">
-        <v>6</v>
-      </c>
-      <c r="J22" s="100" t="n">
-        <v>13260</v>
-      </c>
-      <c r="K22" s="99" t="n">
-        <v>6</v>
-      </c>
-      <c r="L22" s="100" t="n">
-        <v>12144</v>
-      </c>
-      <c r="M22" s="99" t="n">
-        <v>6</v>
-      </c>
-      <c r="N22" s="100" t="n">
-        <v>12835</v>
-      </c>
-      <c r="O22" s="99" t="n">
-        <v>6</v>
-      </c>
-      <c r="P22" s="100" t="n">
-        <v>7696</v>
-      </c>
-      <c r="Q22" s="99" t="n">
-        <v>6</v>
-      </c>
-      <c r="R22" s="100" t="n">
-        <v>9188</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="197" t="inlineStr">
-        <is>
-          <t>#YJ20CRJYQ</t>
-        </is>
-      </c>
-      <c r="B23" s="197" t="n">
-        <v>1265</v>
-      </c>
-      <c r="C23" s="198" t="n">
-        <v>20</v>
-      </c>
-      <c r="D23" s="103" t="inlineStr">
-        <is>
-          <t>UnluckGod</t>
-        </is>
-      </c>
-      <c r="E23" s="200" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="200" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="105" t="n">
-        <v>61</v>
-      </c>
-      <c r="I23" s="199" t="n">
-        <v>6</v>
-      </c>
-      <c r="J23" s="107" t="n">
-        <v>12824</v>
-      </c>
-      <c r="K23" s="199" t="n">
-        <v>6</v>
-      </c>
-      <c r="L23" s="107" t="n">
-        <v>11999</v>
-      </c>
-      <c r="M23" s="199" t="n">
-        <v>6</v>
-      </c>
-      <c r="N23" s="107" t="n">
-        <v>12972</v>
-      </c>
-      <c r="O23" s="199" t="n">
-        <v>6</v>
-      </c>
-      <c r="P23" s="107" t="n">
-        <v>8286</v>
-      </c>
-      <c r="Q23" s="199" t="n">
-        <v>6</v>
-      </c>
-      <c r="R23" s="107" t="n">
-        <v>11406</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="193" t="inlineStr">
-        <is>
-          <t>#YRGRRJQCY</t>
-        </is>
-      </c>
-      <c r="B24" s="193" t="n">
-        <v>1358</v>
-      </c>
-      <c r="C24" s="194" t="n">
-        <v>21</v>
-      </c>
-      <c r="D24" s="110" t="inlineStr">
-        <is>
-          <t>DoubleSpice</t>
-        </is>
-      </c>
-      <c r="E24" s="196" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="196" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="113" t="n">
-        <v>60</v>
-      </c>
-      <c r="I24" s="195" t="n">
-        <v>6</v>
-      </c>
-      <c r="J24" s="115" t="n">
-        <v>11620</v>
-      </c>
-      <c r="K24" s="195" t="n">
-        <v>6</v>
-      </c>
-      <c r="L24" s="115" t="n">
-        <v>14095</v>
-      </c>
-      <c r="M24" s="195" t="n">
-        <v>6</v>
-      </c>
-      <c r="N24" s="115" t="n">
-        <v>12379</v>
-      </c>
-      <c r="O24" s="195" t="n">
-        <v>6</v>
-      </c>
-      <c r="P24" s="115" t="n">
-        <v>8256</v>
-      </c>
-      <c r="Q24" s="195" t="n">
-        <v>6</v>
-      </c>
-      <c r="R24" s="115" t="n">
-        <v>7054</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="204" t="inlineStr">
-        <is>
-          <t>#98JG2UJQL</t>
-        </is>
-      </c>
-      <c r="B25" s="204" t="n">
-        <v>2922</v>
-      </c>
-      <c r="C25" s="198" t="n">
-        <v>22</v>
-      </c>
-      <c r="D25" s="124" t="inlineStr">
-        <is>
-          <t>Dragonux</t>
-        </is>
-      </c>
-      <c r="E25" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="208" t="n">
-        <v>211</v>
-      </c>
-      <c r="H25" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="205" t="n">
-        <v>6</v>
-      </c>
-      <c r="J25" s="128" t="n">
-        <v>10910</v>
-      </c>
-      <c r="K25" s="205" t="n">
-        <v>6</v>
-      </c>
-      <c r="L25" s="128" t="n">
-        <v>8750</v>
-      </c>
-      <c r="M25" s="205" t="n">
-        <v>6</v>
-      </c>
-      <c r="N25" s="128" t="n">
-        <v>10865</v>
-      </c>
-      <c r="O25" s="205" t="n">
-        <v>6</v>
-      </c>
-      <c r="P25" s="128" t="n">
-        <v>8025</v>
-      </c>
-      <c r="Q25" s="205" t="n">
-        <v>6</v>
-      </c>
-      <c r="R25" s="128" t="n">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="193" t="inlineStr">
-        <is>
-          <t>#QLR088LC9</t>
-        </is>
-      </c>
-      <c r="B26" s="193" t="n">
-        <v>914</v>
-      </c>
-      <c r="C26" s="194" t="n">
-        <v>23</v>
-      </c>
-      <c r="D26" s="110" t="inlineStr">
-        <is>
-          <t>Sanji</t>
-        </is>
-      </c>
-      <c r="E26" s="196" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="196" t="n">
-        <v>6</v>
-      </c>
-      <c r="H26" s="113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="195" t="n">
-        <v>6</v>
-      </c>
-      <c r="J26" s="115" t="n">
-        <v>10910</v>
-      </c>
-      <c r="K26" s="195" t="n">
-        <v>6</v>
-      </c>
-      <c r="L26" s="115" t="n">
-        <v>9550</v>
-      </c>
-      <c r="M26" s="195" t="n">
-        <v>6</v>
-      </c>
-      <c r="N26" s="115" t="n">
-        <v>9138</v>
-      </c>
-      <c r="O26" s="195" t="n">
-        <v>6</v>
-      </c>
-      <c r="P26" s="115" t="n">
-        <v>8897</v>
-      </c>
-      <c r="Q26" s="195" t="n">
-        <v>6</v>
-      </c>
-      <c r="R26" s="115" t="n">
-        <v>8512</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="197" t="inlineStr">
-        <is>
-          <t>#Q8CLCUCC2</t>
-        </is>
-      </c>
-      <c r="B27" s="197" t="n">
-        <v>1364</v>
-      </c>
-      <c r="C27" s="198" t="n">
-        <v>24</v>
-      </c>
-      <c r="D27" s="103" t="inlineStr">
-        <is>
-          <t>Moxxi</t>
-        </is>
-      </c>
-      <c r="E27" s="200" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="200" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="105" t="n">
-        <v>60</v>
-      </c>
-      <c r="I27" s="199" t="n">
-        <v>6</v>
-      </c>
-      <c r="J27" s="107" t="n">
-        <v>8015</v>
-      </c>
-      <c r="K27" s="199" t="n">
-        <v>6</v>
-      </c>
-      <c r="L27" s="107" t="n">
-        <v>11010</v>
-      </c>
-      <c r="M27" s="199" t="n">
-        <v>6</v>
-      </c>
-      <c r="N27" s="107" t="n">
-        <v>13857</v>
-      </c>
-      <c r="O27" s="199" t="n">
-        <v>6</v>
-      </c>
-      <c r="P27" s="107" t="n">
-        <v>7905</v>
-      </c>
-      <c r="Q27" s="199" t="n">
-        <v>6</v>
-      </c>
-      <c r="R27" s="107" t="n">
-        <v>7224</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="201" t="inlineStr">
-        <is>
-          <t>#QY0VGPQGQ</t>
-        </is>
-      </c>
-      <c r="B28" s="201" t="n">
-        <v>528</v>
-      </c>
-      <c r="C28" s="194" t="n">
-        <v>25</v>
-      </c>
-      <c r="D28" s="117" t="inlineStr">
-        <is>
-          <t>killerjones</t>
-        </is>
-      </c>
-      <c r="E28" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="120" t="n">
-        <v>15</v>
-      </c>
-      <c r="I28" s="202" t="n">
-        <v>6</v>
-      </c>
-      <c r="J28" s="122" t="n">
-        <v>6320</v>
-      </c>
-      <c r="K28" s="201" t="n"/>
-      <c r="L28" s="120" t="n"/>
-      <c r="M28" s="201" t="n"/>
-      <c r="N28" s="120" t="n"/>
-      <c r="O28" s="201" t="n"/>
-      <c r="P28" s="120" t="n"/>
-      <c r="Q28" s="201" t="n"/>
-      <c r="R28" s="120" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="204" t="inlineStr">
-        <is>
-          <t>#QL8LVLYG8</t>
-        </is>
-      </c>
-      <c r="B29" s="204" t="n">
+      <c r="I46" s="222" t="n"/>
+      <c r="J46" s="120" t="n"/>
+      <c r="K46" s="222" t="n"/>
+      <c r="L46" s="120" t="n"/>
+      <c r="M46" s="222" t="n"/>
+      <c r="N46" s="120" t="n"/>
+      <c r="O46" s="222" t="n"/>
+      <c r="P46" s="120" t="n"/>
+      <c r="Q46" s="222" t="n"/>
+      <c r="R46" s="120" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="219" t="inlineStr">
+        <is>
+          <t>#Q0U0CRCGJ</t>
+        </is>
+      </c>
+      <c r="B47" s="219" t="n">
+        <v>717</v>
+      </c>
+      <c r="C47" s="215" t="n">
+        <v>44</v>
+      </c>
+      <c r="D47" s="124" t="inlineStr">
+        <is>
+          <t>Sn0wc0ne</t>
+        </is>
+      </c>
+      <c r="E47" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="219" t="n"/>
+      <c r="J47" s="126" t="n"/>
+      <c r="K47" s="219" t="n"/>
+      <c r="L47" s="126" t="n"/>
+      <c r="M47" s="219" t="n"/>
+      <c r="N47" s="126" t="n"/>
+      <c r="O47" s="219" t="n"/>
+      <c r="P47" s="126" t="n"/>
+      <c r="Q47" s="219" t="n"/>
+      <c r="R47" s="126" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="222" t="inlineStr">
+        <is>
+          <t>#QPRYCJVJL</t>
+        </is>
+      </c>
+      <c r="B48" s="222" t="n">
+        <v>702</v>
+      </c>
+      <c r="C48" s="211" t="n">
+        <v>45</v>
+      </c>
+      <c r="D48" s="117" t="inlineStr">
+        <is>
+          <t>cris</t>
+        </is>
+      </c>
+      <c r="E48" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="222" t="n"/>
+      <c r="J48" s="120" t="n"/>
+      <c r="K48" s="222" t="n"/>
+      <c r="L48" s="120" t="n"/>
+      <c r="M48" s="222" t="n"/>
+      <c r="N48" s="120" t="n"/>
+      <c r="O48" s="222" t="n"/>
+      <c r="P48" s="120" t="n"/>
+      <c r="Q48" s="222" t="n"/>
+      <c r="R48" s="120" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="219" t="inlineStr">
+        <is>
+          <t>#G0LJCVR2P</t>
+        </is>
+      </c>
+      <c r="B49" s="219" t="n">
+        <v>1011</v>
+      </c>
+      <c r="C49" s="215" t="n">
+        <v>46</v>
+      </c>
+      <c r="D49" s="124" t="inlineStr">
+        <is>
+          <t>DaddyChill</t>
+        </is>
+      </c>
+      <c r="E49" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="219" t="n"/>
+      <c r="J49" s="126" t="n"/>
+      <c r="K49" s="219" t="n"/>
+      <c r="L49" s="126" t="n"/>
+      <c r="M49" s="219" t="n"/>
+      <c r="N49" s="126" t="n"/>
+      <c r="O49" s="219" t="n"/>
+      <c r="P49" s="126" t="n"/>
+      <c r="Q49" s="219" t="n"/>
+      <c r="R49" s="126" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="222" t="inlineStr">
+        <is>
+          <t>#QLUV29GGJ</t>
+        </is>
+      </c>
+      <c r="B50" s="222" t="n">
         <v>968</v>
       </c>
-      <c r="C29" s="198" t="n">
-        <v>26</v>
-      </c>
-      <c r="D29" s="124" t="inlineStr">
-        <is>
-          <t>Some guy</t>
-        </is>
-      </c>
-      <c r="E29" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="126" t="n">
-        <v>20</v>
-      </c>
-      <c r="I29" s="206" t="n">
-        <v>2</v>
-      </c>
-      <c r="J29" s="124" t="n">
-        <v>2650</v>
-      </c>
-      <c r="K29" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="205" t="n">
-        <v>6</v>
-      </c>
-      <c r="N29" s="128" t="n">
-        <v>6917</v>
-      </c>
-      <c r="O29" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="206" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" s="124" t="n">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="201" t="inlineStr">
-        <is>
-          <t>#QJC8LQU9U</t>
-        </is>
-      </c>
-      <c r="B30" s="201" t="n">
-        <v>998</v>
-      </c>
-      <c r="C30" s="194" t="n">
-        <v>27</v>
-      </c>
-      <c r="D30" s="117" t="inlineStr">
-        <is>
-          <t>Master01</t>
-        </is>
-      </c>
-      <c r="E30" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="202" t="n">
-        <v>6</v>
-      </c>
-      <c r="N30" s="130" t="n">
-        <v>5415</v>
-      </c>
-      <c r="O30" s="202" t="n">
-        <v>6</v>
-      </c>
-      <c r="P30" s="130" t="n">
-        <v>4835</v>
-      </c>
-      <c r="Q30" s="202" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" s="130" t="n">
-        <v>4055</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="204" t="inlineStr">
-        <is>
-          <t>#QV8JJ0URU</t>
-        </is>
-      </c>
-      <c r="B31" s="204" t="n">
-        <v>741</v>
-      </c>
-      <c r="C31" s="198" t="n">
-        <v>28</v>
-      </c>
-      <c r="D31" s="124" t="inlineStr">
-        <is>
-          <t>✨Jacob</t>
-        </is>
-      </c>
-      <c r="E31" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" s="205" t="n">
-        <v>6</v>
-      </c>
-      <c r="P31" s="128" t="n">
-        <v>7385</v>
-      </c>
-      <c r="Q31" s="205" t="n">
-        <v>6</v>
-      </c>
-      <c r="R31" s="128" t="n">
-        <v>9155</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="201" t="inlineStr">
-        <is>
-          <t>#QY8L2GLUR</t>
-        </is>
-      </c>
-      <c r="B32" s="201" t="n">
-        <v>907</v>
-      </c>
-      <c r="C32" s="194" t="n">
-        <v>29</v>
-      </c>
-      <c r="D32" s="117" t="inlineStr">
-        <is>
-          <t>Huy</t>
-        </is>
-      </c>
-      <c r="E32" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" s="202" t="n">
-        <v>6</v>
-      </c>
-      <c r="P32" s="122" t="n">
-        <v>6995</v>
-      </c>
-      <c r="Q32" s="202" t="n">
-        <v>6</v>
-      </c>
-      <c r="R32" s="122" t="n">
-        <v>6055</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="204" t="inlineStr">
-        <is>
-          <t>#L2QQL9QVJ</t>
-        </is>
-      </c>
-      <c r="B33" s="204" t="n">
-        <v>1450</v>
-      </c>
-      <c r="C33" s="198" t="n">
-        <v>30</v>
-      </c>
-      <c r="D33" s="124" t="inlineStr">
-        <is>
-          <t>JustPre10d</t>
-        </is>
-      </c>
-      <c r="E33" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" s="205" t="n">
-        <v>6</v>
-      </c>
-      <c r="P33" s="128" t="n">
-        <v>6655</v>
-      </c>
-      <c r="Q33" s="205" t="n">
-        <v>6</v>
-      </c>
-      <c r="R33" s="128" t="n">
-        <v>7675</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="201" t="inlineStr">
-        <is>
-          <t>#LPR9RPCY9</t>
-        </is>
-      </c>
-      <c r="B34" s="201" t="n">
-        <v>990</v>
-      </c>
-      <c r="C34" s="194" t="n">
-        <v>31</v>
-      </c>
-      <c r="D34" s="117" t="inlineStr">
-        <is>
-          <t>sayhuss17</t>
-        </is>
-      </c>
-      <c r="E34" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" s="207" t="n">
-        <v>4</v>
-      </c>
-      <c r="P34" s="130" t="n">
-        <v>4240</v>
-      </c>
-      <c r="Q34" s="201" t="n"/>
-      <c r="R34" s="120" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="204" t="inlineStr">
-        <is>
-          <t>#QQL8C29CY</t>
-        </is>
-      </c>
-      <c r="B35" s="204" t="n">
-        <v>864</v>
-      </c>
-      <c r="C35" s="198" t="n">
-        <v>32</v>
-      </c>
-      <c r="D35" s="124" t="inlineStr">
-        <is>
-          <t>TypicalTeague#2</t>
-        </is>
-      </c>
-      <c r="E35" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" s="205" t="n">
-        <v>5</v>
-      </c>
-      <c r="P35" s="129" t="n">
-        <v>4070</v>
-      </c>
-      <c r="Q35" s="205" t="n">
-        <v>6</v>
-      </c>
-      <c r="R35" s="128" t="n">
-        <v>6410</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="201" t="inlineStr">
-        <is>
-          <t>#L9QL9YQQY</t>
-        </is>
-      </c>
-      <c r="B36" s="201" t="n">
-        <v>975</v>
-      </c>
-      <c r="C36" s="194" t="n">
-        <v>33</v>
-      </c>
-      <c r="D36" s="117" t="inlineStr">
-        <is>
-          <t>Ima Chad</t>
-        </is>
-      </c>
-      <c r="E36" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="202" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" s="117" t="n">
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="204" t="inlineStr">
-        <is>
-          <t>#L9JJQY992</t>
-        </is>
-      </c>
-      <c r="B37" s="204" t="n">
-        <v>773</v>
-      </c>
-      <c r="C37" s="198" t="n">
-        <v>34</v>
-      </c>
-      <c r="D37" s="124" t="inlineStr">
-        <is>
-          <t>Fisted_Waffle</t>
-        </is>
-      </c>
-      <c r="E37" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="204" t="n"/>
-      <c r="R37" s="126" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="201" t="inlineStr">
-        <is>
-          <t>#PJYVV989R</t>
-        </is>
-      </c>
-      <c r="B38" s="201" t="n">
-        <v>1533</v>
-      </c>
-      <c r="C38" s="194" t="n">
-        <v>35</v>
-      </c>
-      <c r="D38" s="117" t="inlineStr">
-        <is>
-          <t>nx</t>
-        </is>
-      </c>
-      <c r="E38" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="203" t="n">
-        <v>32</v>
-      </c>
-      <c r="H38" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="201" t="n"/>
-      <c r="R38" s="120" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="204" t="inlineStr">
-        <is>
-          <t>#QV8RY9UC8</t>
-        </is>
-      </c>
-      <c r="B39" s="204" t="n">
-        <v>813</v>
-      </c>
-      <c r="C39" s="198" t="n">
-        <v>36</v>
-      </c>
-      <c r="D39" s="124" t="inlineStr">
-        <is>
-          <t>Apollo</t>
-        </is>
-      </c>
-      <c r="E39" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" s="204" t="n"/>
-      <c r="L39" s="126" t="n"/>
-      <c r="M39" s="204" t="n"/>
-      <c r="N39" s="126" t="n"/>
-      <c r="O39" s="204" t="n"/>
-      <c r="P39" s="126" t="n"/>
-      <c r="Q39" s="204" t="n"/>
-      <c r="R39" s="126" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="201" t="inlineStr">
-        <is>
-          <t>#QQL28Y2UL</t>
-        </is>
-      </c>
-      <c r="B40" s="201" t="n">
-        <v>1107</v>
-      </c>
-      <c r="C40" s="194" t="n">
-        <v>37</v>
-      </c>
-      <c r="D40" s="117" t="inlineStr">
-        <is>
-          <t>SUPoT</t>
-        </is>
-      </c>
-      <c r="E40" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="120" t="n">
-        <v>56</v>
-      </c>
-      <c r="I40" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" s="201" t="n"/>
-      <c r="L40" s="120" t="n"/>
-      <c r="M40" s="201" t="n"/>
-      <c r="N40" s="120" t="n"/>
-      <c r="O40" s="201" t="n"/>
-      <c r="P40" s="120" t="n"/>
-      <c r="Q40" s="201" t="n"/>
-      <c r="R40" s="120" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="204" t="inlineStr">
-        <is>
-          <t>#QLGYRVPU0</t>
-        </is>
-      </c>
-      <c r="B41" s="204" t="n">
-        <v>885</v>
-      </c>
-      <c r="C41" s="198" t="n">
-        <v>38</v>
-      </c>
-      <c r="D41" s="124" t="inlineStr">
-        <is>
-          <t>Black.Boy.</t>
-        </is>
-      </c>
-      <c r="E41" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="126" t="n">
-        <v>95</v>
-      </c>
-      <c r="I41" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" s="204" t="n"/>
-      <c r="L41" s="126" t="n"/>
-      <c r="M41" s="204" t="n"/>
-      <c r="N41" s="126" t="n"/>
-      <c r="O41" s="204" t="n"/>
-      <c r="P41" s="126" t="n"/>
-      <c r="Q41" s="204" t="n"/>
-      <c r="R41" s="126" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="201" t="inlineStr">
-        <is>
-          <t>#QUGYGY88C</t>
-        </is>
-      </c>
-      <c r="B42" s="201" t="n">
-        <v>939</v>
-      </c>
-      <c r="C42" s="194" t="n">
-        <v>39</v>
-      </c>
-      <c r="D42" s="117" t="inlineStr">
-        <is>
-          <t>Kingsman</t>
-        </is>
-      </c>
-      <c r="E42" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" s="201" t="n"/>
-      <c r="L42" s="120" t="n"/>
-      <c r="M42" s="201" t="n"/>
-      <c r="N42" s="120" t="n"/>
-      <c r="O42" s="201" t="n"/>
-      <c r="P42" s="120" t="n"/>
-      <c r="Q42" s="201" t="n"/>
-      <c r="R42" s="120" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="204" t="inlineStr">
-        <is>
-          <t>#QLUV29GGJ</t>
-        </is>
-      </c>
-      <c r="B43" s="204" t="n">
-        <v>973</v>
-      </c>
-      <c r="C43" s="198" t="n">
-        <v>40</v>
-      </c>
-      <c r="D43" s="124" t="inlineStr">
+      <c r="C50" s="211" t="n">
+        <v>47</v>
+      </c>
+      <c r="D50" s="117" t="inlineStr">
         <is>
           <t>Kukoshibo</t>
         </is>
       </c>
-      <c r="E43" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="204" t="n"/>
-      <c r="J43" s="126" t="n"/>
-      <c r="K43" s="204" t="n"/>
-      <c r="L43" s="126" t="n"/>
-      <c r="M43" s="204" t="n"/>
-      <c r="N43" s="126" t="n"/>
-      <c r="O43" s="204" t="n"/>
-      <c r="P43" s="126" t="n"/>
-      <c r="Q43" s="204" t="n"/>
-      <c r="R43" s="126" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="201" t="inlineStr">
-        <is>
-          <t>#QJQV82JG0</t>
-        </is>
-      </c>
-      <c r="B44" s="201" t="n">
-        <v>892</v>
-      </c>
-      <c r="C44" s="194" t="n">
-        <v>41</v>
-      </c>
-      <c r="D44" s="117" t="inlineStr">
-        <is>
-          <t>The UnknownYT</t>
-        </is>
-      </c>
-      <c r="E44" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="203" t="n">
-        <v>6</v>
-      </c>
-      <c r="H44" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="201" t="n"/>
-      <c r="J44" s="120" t="n"/>
-      <c r="K44" s="201" t="n"/>
-      <c r="L44" s="120" t="n"/>
-      <c r="M44" s="201" t="n"/>
-      <c r="N44" s="120" t="n"/>
-      <c r="O44" s="201" t="n"/>
-      <c r="P44" s="120" t="n"/>
-      <c r="Q44" s="201" t="n"/>
-      <c r="R44" s="120" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="204" t="inlineStr">
-        <is>
-          <t>#QUCCVCCJ0</t>
-        </is>
-      </c>
-      <c r="B45" s="204" t="n">
-        <v>738</v>
-      </c>
-      <c r="C45" s="198" t="n">
-        <v>42</v>
-      </c>
-      <c r="D45" s="124" t="inlineStr">
-        <is>
-          <t>koi</t>
-        </is>
-      </c>
-      <c r="E45" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="126" t="n">
-        <v>15</v>
-      </c>
-      <c r="I45" s="204" t="n"/>
-      <c r="J45" s="126" t="n"/>
-      <c r="K45" s="204" t="n"/>
-      <c r="L45" s="126" t="n"/>
-      <c r="M45" s="204" t="n"/>
-      <c r="N45" s="126" t="n"/>
-      <c r="O45" s="204" t="n"/>
-      <c r="P45" s="126" t="n"/>
-      <c r="Q45" s="204" t="n"/>
-      <c r="R45" s="126" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="201" t="inlineStr">
-        <is>
-          <t>#Q0U0CRCGJ</t>
-        </is>
-      </c>
-      <c r="B46" s="201" t="n">
-        <v>727</v>
-      </c>
-      <c r="C46" s="194" t="n">
-        <v>43</v>
-      </c>
-      <c r="D46" s="117" t="inlineStr">
-        <is>
-          <t>Sn0wc0ne</t>
-        </is>
-      </c>
-      <c r="E46" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="203" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="201" t="n"/>
-      <c r="J46" s="120" t="n"/>
-      <c r="K46" s="201" t="n"/>
-      <c r="L46" s="120" t="n"/>
-      <c r="M46" s="201" t="n"/>
-      <c r="N46" s="120" t="n"/>
-      <c r="O46" s="201" t="n"/>
-      <c r="P46" s="120" t="n"/>
-      <c r="Q46" s="201" t="n"/>
-      <c r="R46" s="120" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="204" t="inlineStr">
-        <is>
-          <t>#G0LJCVR2P</t>
-        </is>
-      </c>
-      <c r="B47" s="204" t="n">
-        <v>1028</v>
-      </c>
-      <c r="C47" s="198" t="n">
-        <v>44</v>
-      </c>
-      <c r="D47" s="124" t="inlineStr">
-        <is>
-          <t>DaddyChill</t>
-        </is>
-      </c>
-      <c r="E47" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="206" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" s="126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="204" t="n"/>
-      <c r="J47" s="126" t="n"/>
-      <c r="K47" s="204" t="n"/>
-      <c r="L47" s="126" t="n"/>
-      <c r="M47" s="204" t="n"/>
-      <c r="N47" s="126" t="n"/>
-      <c r="O47" s="204" t="n"/>
-      <c r="P47" s="126" t="n"/>
-      <c r="Q47" s="204" t="n"/>
-      <c r="R47" s="126" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="201" t="inlineStr">
-        <is>
-          <t>#9JUR0JQV2</t>
-        </is>
-      </c>
-      <c r="B48" s="201" t="n">
-        <v>1134</v>
-      </c>
-      <c r="C48" s="194" t="n">
-        <v>45</v>
-      </c>
-      <c r="D48" s="120" t="inlineStr">
-        <is>
-          <t>atley</t>
-        </is>
-      </c>
-      <c r="E48" s="201" t="n"/>
-      <c r="F48" s="120" t="n"/>
-      <c r="G48" s="201" t="n"/>
-      <c r="H48" s="120" t="n"/>
-      <c r="I48" s="201" t="n"/>
-      <c r="J48" s="120" t="n"/>
-      <c r="K48" s="201" t="n"/>
-      <c r="L48" s="120" t="n"/>
-      <c r="M48" s="201" t="n"/>
-      <c r="N48" s="120" t="n"/>
-      <c r="O48" s="201" t="n"/>
-      <c r="P48" s="120" t="n"/>
-      <c r="Q48" s="201" t="n"/>
-      <c r="R48" s="120" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="204" t="inlineStr">
-        <is>
-          <t>#QPRYCJVJL</t>
-        </is>
-      </c>
-      <c r="B49" s="204" t="n">
-        <v>702</v>
-      </c>
-      <c r="C49" s="198" t="n">
-        <v>46</v>
-      </c>
-      <c r="D49" s="126" t="inlineStr">
-        <is>
-          <t>cris</t>
-        </is>
-      </c>
-      <c r="E49" s="204" t="n"/>
-      <c r="F49" s="126" t="n"/>
-      <c r="G49" s="204" t="n"/>
-      <c r="H49" s="126" t="n"/>
-      <c r="I49" s="204" t="n"/>
-      <c r="J49" s="126" t="n"/>
-      <c r="K49" s="204" t="n"/>
-      <c r="L49" s="126" t="n"/>
-      <c r="M49" s="204" t="n"/>
-      <c r="N49" s="126" t="n"/>
-      <c r="O49" s="204" t="n"/>
-      <c r="P49" s="126" t="n"/>
-      <c r="Q49" s="204" t="n"/>
-      <c r="R49" s="126" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="201" t="inlineStr">
-        <is>
-          <t>#QLGUYQPL0</t>
-        </is>
-      </c>
-      <c r="B50" s="201" t="n">
-        <v>1615</v>
-      </c>
-      <c r="C50" s="194" t="n">
-        <v>47</v>
-      </c>
-      <c r="D50" s="120" t="inlineStr">
-        <is>
-          <t>i got time</t>
-        </is>
-      </c>
-      <c r="E50" s="201" t="n"/>
-      <c r="F50" s="120" t="n"/>
-      <c r="G50" s="201" t="n"/>
-      <c r="H50" s="120" t="n"/>
-      <c r="I50" s="201" t="n"/>
+      <c r="E50" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="222" t="n"/>
       <c r="J50" s="120" t="n"/>
-      <c r="K50" s="201" t="n"/>
+      <c r="K50" s="222" t="n"/>
       <c r="L50" s="120" t="n"/>
-      <c r="M50" s="201" t="n"/>
+      <c r="M50" s="222" t="n"/>
       <c r="N50" s="120" t="n"/>
-      <c r="O50" s="201" t="n"/>
+      <c r="O50" s="222" t="n"/>
       <c r="P50" s="120" t="n"/>
-      <c r="Q50" s="201" t="n"/>
+      <c r="Q50" s="222" t="n"/>
       <c r="R50" s="120" t="n"/>
     </row>
     <row r="51">
@@ -3604,15 +3656,15 @@
       <c r="R51" s="134" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="203" t="inlineStr">
+      <c r="A52" s="224" t="inlineStr">
         <is>
           <t>#QLL0PVCRV</t>
         </is>
       </c>
-      <c r="B52" s="201" t="n">
+      <c r="B52" s="222" t="n">
         <v>1704</v>
       </c>
-      <c r="C52" s="194" t="n">
+      <c r="C52" s="211" t="n">
         <v>49</v>
       </c>
       <c r="D52" s="120" t="inlineStr">
@@ -3620,31 +3672,31 @@
           <t>Harsh chhillar</t>
         </is>
       </c>
-      <c r="E52" s="201" t="n"/>
+      <c r="E52" s="222" t="n"/>
       <c r="F52" s="120" t="n"/>
-      <c r="G52" s="201" t="n"/>
+      <c r="G52" s="222" t="n"/>
       <c r="H52" s="120" t="n"/>
-      <c r="I52" s="201" t="n"/>
+      <c r="I52" s="222" t="n"/>
       <c r="J52" s="120" t="n"/>
-      <c r="K52" s="201" t="n"/>
+      <c r="K52" s="222" t="n"/>
       <c r="L52" s="120" t="n"/>
-      <c r="M52" s="201" t="n"/>
+      <c r="M52" s="222" t="n"/>
       <c r="N52" s="120" t="n"/>
-      <c r="O52" s="201" t="n"/>
+      <c r="O52" s="222" t="n"/>
       <c r="P52" s="120" t="n"/>
-      <c r="Q52" s="201" t="n"/>
+      <c r="Q52" s="222" t="n"/>
       <c r="R52" s="120" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="206" t="inlineStr">
+      <c r="A53" s="225" t="inlineStr">
         <is>
           <t>#Q8YP9P8UJ</t>
         </is>
       </c>
-      <c r="B53" s="204" t="n">
+      <c r="B53" s="219" t="n">
         <v>945</v>
       </c>
-      <c r="C53" s="198" t="n">
+      <c r="C53" s="215" t="n">
         <v>50</v>
       </c>
       <c r="D53" s="126" t="inlineStr">
@@ -3652,35 +3704,35 @@
           <t>Ranger</t>
         </is>
       </c>
-      <c r="E53" s="204" t="n"/>
+      <c r="E53" s="219" t="n"/>
       <c r="F53" s="126" t="n"/>
-      <c r="G53" s="204" t="n"/>
+      <c r="G53" s="219" t="n"/>
       <c r="H53" s="126" t="n"/>
-      <c r="I53" s="204" t="n"/>
+      <c r="I53" s="219" t="n"/>
       <c r="J53" s="126" t="n"/>
-      <c r="K53" s="205" t="n">
+      <c r="K53" s="220" t="n">
         <v>5</v>
       </c>
       <c r="L53" s="129" t="n">
         <v>4680</v>
       </c>
-      <c r="M53" s="204" t="n"/>
+      <c r="M53" s="219" t="n"/>
       <c r="N53" s="126" t="n"/>
-      <c r="O53" s="204" t="n"/>
+      <c r="O53" s="219" t="n"/>
       <c r="P53" s="126" t="n"/>
-      <c r="Q53" s="204" t="n"/>
+      <c r="Q53" s="219" t="n"/>
       <c r="R53" s="126" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="203" t="inlineStr">
+      <c r="A54" s="224" t="inlineStr">
         <is>
           <t>#Q0JG2RJQ8</t>
         </is>
       </c>
-      <c r="B54" s="201" t="n">
+      <c r="B54" s="222" t="n">
         <v>997</v>
       </c>
-      <c r="C54" s="194" t="n">
+      <c r="C54" s="211" t="n">
         <v>51</v>
       </c>
       <c r="D54" s="120" t="inlineStr">
@@ -3688,35 +3740,35 @@
           <t>bozo</t>
         </is>
       </c>
-      <c r="E54" s="201" t="n"/>
+      <c r="E54" s="222" t="n"/>
       <c r="F54" s="120" t="n"/>
-      <c r="G54" s="201" t="n"/>
+      <c r="G54" s="222" t="n"/>
       <c r="H54" s="120" t="n"/>
-      <c r="I54" s="201" t="n"/>
+      <c r="I54" s="222" t="n"/>
       <c r="J54" s="120" t="n"/>
-      <c r="K54" s="201" t="n"/>
+      <c r="K54" s="222" t="n"/>
       <c r="L54" s="120" t="n"/>
-      <c r="M54" s="202" t="n">
+      <c r="M54" s="223" t="n">
         <v>6</v>
       </c>
       <c r="N54" s="122" t="n">
         <v>6495</v>
       </c>
-      <c r="O54" s="201" t="n"/>
+      <c r="O54" s="222" t="n"/>
       <c r="P54" s="120" t="n"/>
-      <c r="Q54" s="201" t="n"/>
+      <c r="Q54" s="222" t="n"/>
       <c r="R54" s="120" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="206" t="inlineStr">
+      <c r="A55" s="225" t="inlineStr">
         <is>
           <t>#UVCCQC02</t>
         </is>
       </c>
-      <c r="B55" s="204" t="n">
+      <c r="B55" s="219" t="n">
         <v>1806</v>
       </c>
-      <c r="C55" s="198" t="n">
+      <c r="C55" s="215" t="n">
         <v>52</v>
       </c>
       <c r="D55" s="126" t="inlineStr">
@@ -3724,27 +3776,27 @@
           <t>lordshisha</t>
         </is>
       </c>
-      <c r="E55" s="204" t="n"/>
+      <c r="E55" s="219" t="n"/>
       <c r="F55" s="126" t="n"/>
-      <c r="G55" s="204" t="n"/>
+      <c r="G55" s="219" t="n"/>
       <c r="H55" s="126" t="n"/>
-      <c r="I55" s="204" t="n"/>
+      <c r="I55" s="219" t="n"/>
       <c r="J55" s="126" t="n"/>
-      <c r="K55" s="204" t="n"/>
+      <c r="K55" s="219" t="n"/>
       <c r="L55" s="126" t="n"/>
-      <c r="M55" s="205" t="n">
+      <c r="M55" s="220" t="n">
         <v>6</v>
       </c>
       <c r="N55" s="128" t="n">
         <v>8496</v>
       </c>
-      <c r="O55" s="205" t="n">
+      <c r="O55" s="220" t="n">
         <v>6</v>
       </c>
       <c r="P55" s="128" t="n">
         <v>6310</v>
       </c>
-      <c r="Q55" s="205" t="n">
+      <c r="Q55" s="220" t="n">
         <v>6</v>
       </c>
       <c r="R55" s="128" t="n">
@@ -3752,15 +3804,15 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="203" t="inlineStr">
+      <c r="A56" s="224" t="inlineStr">
         <is>
           <t>#P2CPRPQU</t>
         </is>
       </c>
-      <c r="B56" s="201" t="n">
+      <c r="B56" s="222" t="n">
         <v>2232</v>
       </c>
-      <c r="C56" s="194" t="n">
+      <c r="C56" s="211" t="n">
         <v>53</v>
       </c>
       <c r="D56" s="120" t="inlineStr">
@@ -3768,27 +3820,27 @@
           <t>The Drift King</t>
         </is>
       </c>
-      <c r="E56" s="201" t="n"/>
+      <c r="E56" s="222" t="n"/>
       <c r="F56" s="120" t="n"/>
-      <c r="G56" s="201" t="n"/>
+      <c r="G56" s="222" t="n"/>
       <c r="H56" s="120" t="n"/>
-      <c r="I56" s="201" t="n"/>
+      <c r="I56" s="222" t="n"/>
       <c r="J56" s="120" t="n"/>
-      <c r="K56" s="201" t="n"/>
+      <c r="K56" s="222" t="n"/>
       <c r="L56" s="120" t="n"/>
-      <c r="M56" s="202" t="n">
+      <c r="M56" s="223" t="n">
         <v>6</v>
       </c>
       <c r="N56" s="122" t="n">
         <v>8023</v>
       </c>
-      <c r="O56" s="202" t="n">
+      <c r="O56" s="223" t="n">
         <v>6</v>
       </c>
       <c r="P56" s="122" t="n">
         <v>7625</v>
       </c>
-      <c r="Q56" s="202" t="n">
+      <c r="Q56" s="223" t="n">
         <v>6</v>
       </c>
       <c r="R56" s="122" t="n">
@@ -3796,15 +3848,15 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="206" t="inlineStr">
+      <c r="A57" s="225" t="inlineStr">
         <is>
           <t>#QJVL0LYQQ</t>
         </is>
       </c>
-      <c r="B57" s="204" t="n">
+      <c r="B57" s="219" t="n">
         <v>921</v>
       </c>
-      <c r="C57" s="198" t="n">
+      <c r="C57" s="215" t="n">
         <v>54</v>
       </c>
       <c r="D57" s="126" t="inlineStr">
@@ -3812,27 +3864,27 @@
           <t>mobbb341</t>
         </is>
       </c>
-      <c r="E57" s="204" t="n"/>
+      <c r="E57" s="219" t="n"/>
       <c r="F57" s="126" t="n"/>
-      <c r="G57" s="204" t="n"/>
+      <c r="G57" s="219" t="n"/>
       <c r="H57" s="126" t="n"/>
-      <c r="I57" s="204" t="n"/>
+      <c r="I57" s="219" t="n"/>
       <c r="J57" s="126" t="n"/>
-      <c r="K57" s="204" t="n"/>
+      <c r="K57" s="219" t="n"/>
       <c r="L57" s="126" t="n"/>
-      <c r="M57" s="205" t="n">
+      <c r="M57" s="220" t="n">
         <v>6</v>
       </c>
       <c r="N57" s="128" t="n">
         <v>7710</v>
       </c>
-      <c r="O57" s="205" t="n">
+      <c r="O57" s="220" t="n">
         <v>6</v>
       </c>
       <c r="P57" s="128" t="n">
         <v>8810</v>
       </c>
-      <c r="Q57" s="205" t="n">
+      <c r="Q57" s="220" t="n">
         <v>6</v>
       </c>
       <c r="R57" s="129" t="n">
@@ -3840,15 +3892,15 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="203" t="inlineStr">
+      <c r="A58" s="224" t="inlineStr">
         <is>
           <t>#L8R82C8VC</t>
         </is>
       </c>
-      <c r="B58" s="201" t="n">
+      <c r="B58" s="222" t="n">
         <v>1162</v>
       </c>
-      <c r="C58" s="194" t="n">
+      <c r="C58" s="211" t="n">
         <v>55</v>
       </c>
       <c r="D58" s="120" t="inlineStr">
@@ -3856,27 +3908,27 @@
           <t>caden asue</t>
         </is>
       </c>
-      <c r="E58" s="201" t="n"/>
+      <c r="E58" s="222" t="n"/>
       <c r="F58" s="120" t="n"/>
-      <c r="G58" s="201" t="n"/>
+      <c r="G58" s="222" t="n"/>
       <c r="H58" s="120" t="n"/>
-      <c r="I58" s="201" t="n"/>
+      <c r="I58" s="222" t="n"/>
       <c r="J58" s="120" t="n"/>
-      <c r="K58" s="201" t="n"/>
+      <c r="K58" s="222" t="n"/>
       <c r="L58" s="120" t="n"/>
-      <c r="M58" s="202" t="n">
+      <c r="M58" s="223" t="n">
         <v>6</v>
       </c>
       <c r="N58" s="130" t="n">
         <v>5112</v>
       </c>
-      <c r="O58" s="202" t="n">
+      <c r="O58" s="223" t="n">
         <v>6</v>
       </c>
       <c r="P58" s="130" t="n">
         <v>4283</v>
       </c>
-      <c r="Q58" s="202" t="n">
+      <c r="Q58" s="223" t="n">
         <v>6</v>
       </c>
       <c r="R58" s="130" t="n">
@@ -3884,15 +3936,15 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="206" t="inlineStr">
+      <c r="A59" s="225" t="inlineStr">
         <is>
           <t>#L9Q8VLLQG</t>
         </is>
       </c>
-      <c r="B59" s="204" t="n">
+      <c r="B59" s="219" t="n">
         <v>1130</v>
       </c>
-      <c r="C59" s="198" t="n">
+      <c r="C59" s="215" t="n">
         <v>56</v>
       </c>
       <c r="D59" s="126" t="inlineStr">
@@ -3900,19 +3952,19 @@
           <t>cat</t>
         </is>
       </c>
-      <c r="E59" s="204" t="n"/>
+      <c r="E59" s="219" t="n"/>
       <c r="F59" s="126" t="n"/>
-      <c r="G59" s="204" t="n"/>
+      <c r="G59" s="219" t="n"/>
       <c r="H59" s="126" t="n"/>
-      <c r="I59" s="204" t="n"/>
+      <c r="I59" s="219" t="n"/>
       <c r="J59" s="126" t="n"/>
-      <c r="K59" s="204" t="n"/>
+      <c r="K59" s="219" t="n"/>
       <c r="L59" s="126" t="n"/>
-      <c r="M59" s="204" t="n"/>
+      <c r="M59" s="219" t="n"/>
       <c r="N59" s="126" t="n"/>
-      <c r="O59" s="204" t="n"/>
+      <c r="O59" s="219" t="n"/>
       <c r="P59" s="126" t="n"/>
-      <c r="Q59" s="205" t="n">
+      <c r="Q59" s="220" t="n">
         <v>6</v>
       </c>
       <c r="R59" s="129" t="n">
@@ -3920,15 +3972,15 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="203" t="inlineStr">
+      <c r="A60" s="224" t="inlineStr">
         <is>
           <t>#QV0PQC9JU</t>
         </is>
       </c>
-      <c r="B60" s="201" t="n">
+      <c r="B60" s="222" t="n">
         <v>539</v>
       </c>
-      <c r="C60" s="194" t="n">
+      <c r="C60" s="211" t="n">
         <v>57</v>
       </c>
       <c r="D60" s="120" t="inlineStr">
@@ -3936,19 +3988,19 @@
           <t>Superman</t>
         </is>
       </c>
-      <c r="E60" s="201" t="n"/>
+      <c r="E60" s="222" t="n"/>
       <c r="F60" s="120" t="n"/>
-      <c r="G60" s="201" t="n"/>
+      <c r="G60" s="222" t="n"/>
       <c r="H60" s="120" t="n"/>
-      <c r="I60" s="201" t="n"/>
+      <c r="I60" s="222" t="n"/>
       <c r="J60" s="120" t="n"/>
-      <c r="K60" s="201" t="n"/>
+      <c r="K60" s="222" t="n"/>
       <c r="L60" s="120" t="n"/>
-      <c r="M60" s="201" t="n"/>
+      <c r="M60" s="222" t="n"/>
       <c r="N60" s="120" t="n"/>
-      <c r="O60" s="201" t="n"/>
+      <c r="O60" s="222" t="n"/>
       <c r="P60" s="120" t="n"/>
-      <c r="Q60" s="202" t="n">
+      <c r="Q60" s="223" t="n">
         <v>6</v>
       </c>
       <c r="R60" s="130" t="n">
@@ -3956,15 +4008,15 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="206" t="inlineStr">
+      <c r="A61" s="225" t="inlineStr">
         <is>
           <t>#LU0CRP09L</t>
         </is>
       </c>
-      <c r="B61" s="204" t="n">
+      <c r="B61" s="219" t="n">
         <v>809</v>
       </c>
-      <c r="C61" s="198" t="n">
+      <c r="C61" s="215" t="n">
         <v>58</v>
       </c>
       <c r="D61" s="126" t="inlineStr">
@@ -3972,19 +4024,19 @@
           <t>I Dont Know</t>
         </is>
       </c>
-      <c r="E61" s="204" t="n"/>
+      <c r="E61" s="219" t="n"/>
       <c r="F61" s="126" t="n"/>
-      <c r="G61" s="204" t="n"/>
+      <c r="G61" s="219" t="n"/>
       <c r="H61" s="126" t="n"/>
-      <c r="I61" s="204" t="n"/>
+      <c r="I61" s="219" t="n"/>
       <c r="J61" s="126" t="n"/>
-      <c r="K61" s="204" t="n"/>
+      <c r="K61" s="219" t="n"/>
       <c r="L61" s="126" t="n"/>
-      <c r="M61" s="204" t="n"/>
+      <c r="M61" s="219" t="n"/>
       <c r="N61" s="126" t="n"/>
-      <c r="O61" s="204" t="n"/>
+      <c r="O61" s="219" t="n"/>
       <c r="P61" s="126" t="n"/>
-      <c r="Q61" s="208" t="n">
+      <c r="Q61" s="221" t="n">
         <v>3</v>
       </c>
       <c r="R61" s="124" t="n">
@@ -3992,15 +4044,15 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="203" t="inlineStr">
+      <c r="A62" s="224" t="inlineStr">
         <is>
           <t>#YCPP0QPP8</t>
         </is>
       </c>
-      <c r="B62" s="201" t="n">
+      <c r="B62" s="222" t="n">
         <v>3327</v>
       </c>
-      <c r="C62" s="194" t="n">
+      <c r="C62" s="211" t="n">
         <v>59</v>
       </c>
       <c r="D62" s="120" t="inlineStr">
@@ -4008,19 +4060,19 @@
           <t>Coach</t>
         </is>
       </c>
-      <c r="E62" s="201" t="n"/>
+      <c r="E62" s="222" t="n"/>
       <c r="F62" s="120" t="n"/>
-      <c r="G62" s="201" t="n"/>
+      <c r="G62" s="222" t="n"/>
       <c r="H62" s="120" t="n"/>
-      <c r="I62" s="201" t="n"/>
+      <c r="I62" s="222" t="n"/>
       <c r="J62" s="120" t="n"/>
-      <c r="K62" s="201" t="n"/>
+      <c r="K62" s="222" t="n"/>
       <c r="L62" s="120" t="n"/>
-      <c r="M62" s="201" t="n"/>
+      <c r="M62" s="222" t="n"/>
       <c r="N62" s="120" t="n"/>
-      <c r="O62" s="201" t="n"/>
+      <c r="O62" s="222" t="n"/>
       <c r="P62" s="120" t="n"/>
-      <c r="Q62" s="203" t="n">
+      <c r="Q62" s="224" t="n">
         <v>0</v>
       </c>
       <c r="R62" s="117" t="n">

--- a/Clash.xlsx
+++ b/Clash.xlsx
@@ -223,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -322,11 +322,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -622,6 +623,27 @@
     <xf numFmtId="164" fontId="8" fillId="25" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="8" fillId="27" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="8" fillId="27" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="25" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="27" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="26" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="28" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="28" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="30" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="29" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="31" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="28" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="30" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="32" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="25" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="27" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="26" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="29" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="31" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1075,7 +1097,7 @@
         <v>230885</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="I2" t="n">
         <v>2.83</v>
@@ -1196,15 +1218,15 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="210" t="inlineStr">
+      <c r="A4" s="233" t="inlineStr">
         <is>
           <t>#Q8CLCUCC2</t>
         </is>
       </c>
-      <c r="B4" s="210" t="n">
+      <c r="B4" s="233" t="n">
         <v>1359</v>
       </c>
-      <c r="C4" s="211" t="n">
+      <c r="C4" s="234" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="115" t="inlineStr">
@@ -1212,43 +1234,43 @@
           <t>Moxxi</t>
         </is>
       </c>
-      <c r="E4" s="212" t="n">
+      <c r="E4" s="235" t="n">
         <v>6</v>
       </c>
       <c r="F4" s="115" t="n">
         <v>12912</v>
       </c>
-      <c r="G4" s="213" t="n">
+      <c r="G4" s="236" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="113" t="n">
         <v>60</v>
       </c>
-      <c r="I4" s="212" t="n">
+      <c r="I4" s="235" t="n">
         <v>6</v>
       </c>
       <c r="J4" s="115" t="n">
         <v>8015</v>
       </c>
-      <c r="K4" s="212" t="n">
+      <c r="K4" s="235" t="n">
         <v>6</v>
       </c>
       <c r="L4" s="115" t="n">
         <v>11010</v>
       </c>
-      <c r="M4" s="212" t="n">
+      <c r="M4" s="235" t="n">
         <v>6</v>
       </c>
       <c r="N4" s="115" t="n">
         <v>13857</v>
       </c>
-      <c r="O4" s="212" t="n">
+      <c r="O4" s="235" t="n">
         <v>6</v>
       </c>
       <c r="P4" s="115" t="n">
         <v>7905</v>
       </c>
-      <c r="Q4" s="212" t="n">
+      <c r="Q4" s="235" t="n">
         <v>6</v>
       </c>
       <c r="R4" s="115" t="n">
@@ -1256,15 +1278,15 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="214" t="inlineStr">
+      <c r="A5" s="237" t="inlineStr">
         <is>
           <t>#QLJ2U20Y2</t>
         </is>
       </c>
-      <c r="B5" s="214" t="n">
+      <c r="B5" s="237" t="n">
         <v>1461</v>
       </c>
-      <c r="C5" s="215" t="n">
+      <c r="C5" s="238" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="107" t="inlineStr">
@@ -1272,43 +1294,43 @@
           <t>DeadLeaf</t>
         </is>
       </c>
-      <c r="E5" s="216" t="n">
+      <c r="E5" s="239" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="107" t="n">
         <v>12676</v>
       </c>
-      <c r="G5" s="217" t="n">
+      <c r="G5" s="240" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="105" t="n">
         <v>30</v>
       </c>
-      <c r="I5" s="216" t="n">
+      <c r="I5" s="239" t="n">
         <v>6</v>
       </c>
       <c r="J5" s="107" t="n">
         <v>13763</v>
       </c>
-      <c r="K5" s="216" t="n">
+      <c r="K5" s="239" t="n">
         <v>6</v>
       </c>
       <c r="L5" s="107" t="n">
         <v>11140</v>
       </c>
-      <c r="M5" s="216" t="n">
+      <c r="M5" s="239" t="n">
         <v>6</v>
       </c>
       <c r="N5" s="107" t="n">
         <v>15509</v>
       </c>
-      <c r="O5" s="216" t="n">
+      <c r="O5" s="239" t="n">
         <v>6</v>
       </c>
       <c r="P5" s="107" t="n">
         <v>8567</v>
       </c>
-      <c r="Q5" s="216" t="n">
+      <c r="Q5" s="239" t="n">
         <v>6</v>
       </c>
       <c r="R5" s="107" t="n">
@@ -1316,15 +1338,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="210" t="inlineStr">
+      <c r="A6" s="233" t="inlineStr">
         <is>
           <t>#90U0VPU9U</t>
         </is>
       </c>
-      <c r="B6" s="210" t="n">
-        <v>2544</v>
-      </c>
-      <c r="C6" s="211" t="n">
+      <c r="B6" s="233" t="n">
+        <v>2554</v>
+      </c>
+      <c r="C6" s="234" t="n">
         <v>3</v>
       </c>
       <c r="D6" s="115" t="inlineStr">
@@ -1332,43 +1354,43 @@
           <t>KYANI7E</t>
         </is>
       </c>
-      <c r="E6" s="212" t="n">
+      <c r="E6" s="235" t="n">
         <v>6</v>
       </c>
       <c r="F6" s="115" t="n">
         <v>12477</v>
       </c>
-      <c r="G6" s="218" t="n">
-        <v>258</v>
+      <c r="G6" s="241" t="n">
+        <v>264</v>
       </c>
       <c r="H6" s="113" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="212" t="n">
+      <c r="I6" s="235" t="n">
         <v>6</v>
       </c>
       <c r="J6" s="115" t="n">
         <v>13260</v>
       </c>
-      <c r="K6" s="212" t="n">
+      <c r="K6" s="235" t="n">
         <v>6</v>
       </c>
       <c r="L6" s="115" t="n">
         <v>12144</v>
       </c>
-      <c r="M6" s="212" t="n">
+      <c r="M6" s="235" t="n">
         <v>6</v>
       </c>
       <c r="N6" s="115" t="n">
         <v>12835</v>
       </c>
-      <c r="O6" s="212" t="n">
+      <c r="O6" s="235" t="n">
         <v>6</v>
       </c>
       <c r="P6" s="115" t="n">
         <v>7696</v>
       </c>
-      <c r="Q6" s="212" t="n">
+      <c r="Q6" s="235" t="n">
         <v>6</v>
       </c>
       <c r="R6" s="115" t="n">
@@ -1376,15 +1398,15 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="214" t="inlineStr">
+      <c r="A7" s="237" t="inlineStr">
         <is>
           <t>#QUG8QQJ92</t>
         </is>
       </c>
-      <c r="B7" s="214" t="n">
-        <v>907</v>
-      </c>
-      <c r="C7" s="215" t="n">
+      <c r="B7" s="237" t="n">
+        <v>927</v>
+      </c>
+      <c r="C7" s="238" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="107" t="inlineStr">
@@ -1392,43 +1414,43 @@
           <t>Karma</t>
         </is>
       </c>
-      <c r="E7" s="216" t="n">
+      <c r="E7" s="239" t="n">
         <v>6</v>
       </c>
       <c r="F7" s="107" t="n">
         <v>12204</v>
       </c>
-      <c r="G7" s="217" t="n">
+      <c r="G7" s="240" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="105" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="216" t="n">
+      <c r="I7" s="239" t="n">
         <v>6</v>
       </c>
       <c r="J7" s="107" t="n">
         <v>11355</v>
       </c>
-      <c r="K7" s="216" t="n">
+      <c r="K7" s="239" t="n">
         <v>6</v>
       </c>
       <c r="L7" s="107" t="n">
         <v>10003</v>
       </c>
-      <c r="M7" s="216" t="n">
+      <c r="M7" s="239" t="n">
         <v>6</v>
       </c>
       <c r="N7" s="107" t="n">
         <v>10595</v>
       </c>
-      <c r="O7" s="216" t="n">
+      <c r="O7" s="239" t="n">
         <v>6</v>
       </c>
       <c r="P7" s="107" t="n">
         <v>9240</v>
       </c>
-      <c r="Q7" s="216" t="n">
+      <c r="Q7" s="239" t="n">
         <v>6</v>
       </c>
       <c r="R7" s="107" t="n">
@@ -1436,15 +1458,15 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="210" t="inlineStr">
+      <c r="A8" s="233" t="inlineStr">
         <is>
           <t>#G0QPVJY9L</t>
         </is>
       </c>
-      <c r="B8" s="210" t="n">
-        <v>816</v>
-      </c>
-      <c r="C8" s="211" t="n">
+      <c r="B8" s="233" t="n">
+        <v>800</v>
+      </c>
+      <c r="C8" s="234" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="115" t="inlineStr">
@@ -1452,43 +1474,43 @@
           <t>Zoro</t>
         </is>
       </c>
-      <c r="E8" s="212" t="n">
+      <c r="E8" s="235" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="115" t="n">
         <v>12116</v>
       </c>
-      <c r="G8" s="213" t="n">
+      <c r="G8" s="236" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="212" t="n">
+      <c r="I8" s="235" t="n">
         <v>6</v>
       </c>
       <c r="J8" s="115" t="n">
         <v>13432</v>
       </c>
-      <c r="K8" s="212" t="n">
+      <c r="K8" s="235" t="n">
         <v>6</v>
       </c>
       <c r="L8" s="115" t="n">
         <v>8855</v>
       </c>
-      <c r="M8" s="212" t="n">
+      <c r="M8" s="235" t="n">
         <v>6</v>
       </c>
       <c r="N8" s="115" t="n">
         <v>10965</v>
       </c>
-      <c r="O8" s="212" t="n">
+      <c r="O8" s="235" t="n">
         <v>6</v>
       </c>
       <c r="P8" s="115" t="n">
         <v>7905</v>
       </c>
-      <c r="Q8" s="212" t="n">
+      <c r="Q8" s="235" t="n">
         <v>6</v>
       </c>
       <c r="R8" s="115" t="n">
@@ -1496,15 +1518,15 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="214" t="inlineStr">
+      <c r="A9" s="237" t="inlineStr">
         <is>
           <t>#QLR088LC9</t>
         </is>
       </c>
-      <c r="B9" s="214" t="n">
-        <v>908</v>
-      </c>
-      <c r="C9" s="215" t="n">
+      <c r="B9" s="237" t="n">
+        <v>875</v>
+      </c>
+      <c r="C9" s="238" t="n">
         <v>6</v>
       </c>
       <c r="D9" s="107" t="inlineStr">
@@ -1512,43 +1534,43 @@
           <t>Sanji</t>
         </is>
       </c>
-      <c r="E9" s="216" t="n">
+      <c r="E9" s="239" t="n">
         <v>6</v>
       </c>
       <c r="F9" s="107" t="n">
         <v>11960</v>
       </c>
-      <c r="G9" s="217" t="n">
+      <c r="G9" s="240" t="n">
         <v>6</v>
       </c>
       <c r="H9" s="105" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="216" t="n">
+      <c r="I9" s="239" t="n">
         <v>6</v>
       </c>
       <c r="J9" s="107" t="n">
         <v>10910</v>
       </c>
-      <c r="K9" s="216" t="n">
+      <c r="K9" s="239" t="n">
         <v>6</v>
       </c>
       <c r="L9" s="107" t="n">
         <v>9550</v>
       </c>
-      <c r="M9" s="216" t="n">
+      <c r="M9" s="239" t="n">
         <v>6</v>
       </c>
       <c r="N9" s="107" t="n">
         <v>9138</v>
       </c>
-      <c r="O9" s="216" t="n">
+      <c r="O9" s="239" t="n">
         <v>6</v>
       </c>
       <c r="P9" s="107" t="n">
         <v>8897</v>
       </c>
-      <c r="Q9" s="216" t="n">
+      <c r="Q9" s="239" t="n">
         <v>6</v>
       </c>
       <c r="R9" s="107" t="n">
@@ -1556,15 +1578,15 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="210" t="inlineStr">
+      <c r="A10" s="233" t="inlineStr">
         <is>
           <t>#QCV22VP0G</t>
         </is>
       </c>
-      <c r="B10" s="210" t="n">
-        <v>797</v>
-      </c>
-      <c r="C10" s="211" t="n">
+      <c r="B10" s="233" t="n">
+        <v>783</v>
+      </c>
+      <c r="C10" s="234" t="n">
         <v>7</v>
       </c>
       <c r="D10" s="115" t="inlineStr">
@@ -1572,43 +1594,43 @@
           <t>Nami</t>
         </is>
       </c>
-      <c r="E10" s="212" t="n">
+      <c r="E10" s="235" t="n">
         <v>6</v>
       </c>
       <c r="F10" s="115" t="n">
         <v>11657</v>
       </c>
-      <c r="G10" s="213" t="n">
+      <c r="G10" s="236" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="212" t="n">
+      <c r="I10" s="235" t="n">
         <v>6</v>
       </c>
       <c r="J10" s="115" t="n">
         <v>11795</v>
       </c>
-      <c r="K10" s="212" t="n">
+      <c r="K10" s="235" t="n">
         <v>6</v>
       </c>
       <c r="L10" s="115" t="n">
         <v>10769</v>
       </c>
-      <c r="M10" s="212" t="n">
+      <c r="M10" s="235" t="n">
         <v>6</v>
       </c>
       <c r="N10" s="115" t="n">
         <v>12486</v>
       </c>
-      <c r="O10" s="212" t="n">
+      <c r="O10" s="235" t="n">
         <v>6</v>
       </c>
       <c r="P10" s="115" t="n">
         <v>8472</v>
       </c>
-      <c r="Q10" s="212" t="n">
+      <c r="Q10" s="235" t="n">
         <v>6</v>
       </c>
       <c r="R10" s="115" t="n">
@@ -1616,15 +1638,15 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="214" t="inlineStr">
+      <c r="A11" s="237" t="inlineStr">
         <is>
           <t>#QUYG0PQC8</t>
         </is>
       </c>
-      <c r="B11" s="214" t="n">
-        <v>824</v>
-      </c>
-      <c r="C11" s="215" t="n">
+      <c r="B11" s="237" t="n">
+        <v>803</v>
+      </c>
+      <c r="C11" s="238" t="n">
         <v>8</v>
       </c>
       <c r="D11" s="107" t="inlineStr">
@@ -1632,43 +1654,43 @@
           <t>Luffy</t>
         </is>
       </c>
-      <c r="E11" s="216" t="n">
+      <c r="E11" s="239" t="n">
         <v>6</v>
       </c>
       <c r="F11" s="107" t="n">
         <v>11357</v>
       </c>
-      <c r="G11" s="217" t="n">
+      <c r="G11" s="240" t="n">
         <v>3</v>
       </c>
       <c r="H11" s="105" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="216" t="n">
+      <c r="I11" s="239" t="n">
         <v>6</v>
       </c>
       <c r="J11" s="107" t="n">
         <v>10879</v>
       </c>
-      <c r="K11" s="216" t="n">
+      <c r="K11" s="239" t="n">
         <v>6</v>
       </c>
       <c r="L11" s="107" t="n">
         <v>9114</v>
       </c>
-      <c r="M11" s="216" t="n">
+      <c r="M11" s="239" t="n">
         <v>6</v>
       </c>
       <c r="N11" s="107" t="n">
         <v>13385</v>
       </c>
-      <c r="O11" s="216" t="n">
+      <c r="O11" s="239" t="n">
         <v>6</v>
       </c>
       <c r="P11" s="107" t="n">
         <v>7877</v>
       </c>
-      <c r="Q11" s="216" t="n">
+      <c r="Q11" s="239" t="n">
         <v>6</v>
       </c>
       <c r="R11" s="107" t="n">
@@ -1676,15 +1698,15 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="210" t="inlineStr">
+      <c r="A12" s="233" t="inlineStr">
         <is>
           <t>#QUV2GP88U</t>
         </is>
       </c>
-      <c r="B12" s="210" t="n">
-        <v>728</v>
-      </c>
-      <c r="C12" s="211" t="n">
+      <c r="B12" s="233" t="n">
+        <v>745</v>
+      </c>
+      <c r="C12" s="234" t="n">
         <v>9</v>
       </c>
       <c r="D12" s="115" t="inlineStr">
@@ -1692,43 +1714,43 @@
           <t>Nico Robin</t>
         </is>
       </c>
-      <c r="E12" s="212" t="n">
+      <c r="E12" s="235" t="n">
         <v>6</v>
       </c>
       <c r="F12" s="115" t="n">
         <v>10389</v>
       </c>
-      <c r="G12" s="213" t="n">
+      <c r="G12" s="236" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="212" t="n">
+      <c r="I12" s="235" t="n">
         <v>6</v>
       </c>
       <c r="J12" s="115" t="n">
         <v>12612</v>
       </c>
-      <c r="K12" s="212" t="n">
+      <c r="K12" s="235" t="n">
         <v>6</v>
       </c>
       <c r="L12" s="115" t="n">
         <v>11338</v>
       </c>
-      <c r="M12" s="212" t="n">
+      <c r="M12" s="235" t="n">
         <v>6</v>
       </c>
       <c r="N12" s="115" t="n">
         <v>10997</v>
       </c>
-      <c r="O12" s="212" t="n">
+      <c r="O12" s="235" t="n">
         <v>6</v>
       </c>
       <c r="P12" s="115" t="n">
         <v>11087</v>
       </c>
-      <c r="Q12" s="212" t="n">
+      <c r="Q12" s="235" t="n">
         <v>6</v>
       </c>
       <c r="R12" s="115" t="n">
@@ -1736,15 +1758,15 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="219" t="inlineStr">
+      <c r="A13" s="242" t="inlineStr">
         <is>
           <t>#98JG2UJQL</t>
         </is>
       </c>
-      <c r="B13" s="219" t="n">
-        <v>2910</v>
-      </c>
-      <c r="C13" s="215" t="n">
+      <c r="B13" s="242" t="n">
+        <v>2926</v>
+      </c>
+      <c r="C13" s="238" t="n">
         <v>10</v>
       </c>
       <c r="D13" s="128" t="inlineStr">
@@ -1752,43 +1774,43 @@
           <t>Dragonux</t>
         </is>
       </c>
-      <c r="E13" s="220" t="n">
+      <c r="E13" s="243" t="n">
         <v>6</v>
       </c>
       <c r="F13" s="128" t="n">
         <v>10385</v>
       </c>
-      <c r="G13" s="221" t="n">
+      <c r="G13" s="244" t="n">
         <v>211</v>
       </c>
       <c r="H13" s="126" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="220" t="n">
+      <c r="I13" s="243" t="n">
         <v>6</v>
       </c>
       <c r="J13" s="128" t="n">
         <v>10910</v>
       </c>
-      <c r="K13" s="220" t="n">
+      <c r="K13" s="243" t="n">
         <v>6</v>
       </c>
       <c r="L13" s="128" t="n">
         <v>8750</v>
       </c>
-      <c r="M13" s="220" t="n">
+      <c r="M13" s="243" t="n">
         <v>6</v>
       </c>
       <c r="N13" s="128" t="n">
         <v>10865</v>
       </c>
-      <c r="O13" s="220" t="n">
+      <c r="O13" s="243" t="n">
         <v>6</v>
       </c>
       <c r="P13" s="128" t="n">
         <v>8025</v>
       </c>
-      <c r="Q13" s="220" t="n">
+      <c r="Q13" s="243" t="n">
         <v>6</v>
       </c>
       <c r="R13" s="128" t="n">
@@ -1796,15 +1818,15 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="222" t="inlineStr">
+      <c r="A14" s="245" t="inlineStr">
         <is>
           <t>#G0JPUQGYR</t>
         </is>
       </c>
-      <c r="B14" s="222" t="n">
+      <c r="B14" s="245" t="n">
         <v>1403</v>
       </c>
-      <c r="C14" s="211" t="n">
+      <c r="C14" s="234" t="n">
         <v>11</v>
       </c>
       <c r="D14" s="122" t="inlineStr">
@@ -1812,43 +1834,43 @@
           <t>Collin</t>
         </is>
       </c>
-      <c r="E14" s="223" t="n">
+      <c r="E14" s="246" t="n">
         <v>6</v>
       </c>
       <c r="F14" s="122" t="n">
         <v>10299</v>
       </c>
-      <c r="G14" s="224" t="n">
+      <c r="G14" s="247" t="n">
         <v>20</v>
       </c>
       <c r="H14" s="120" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="223" t="n">
+      <c r="I14" s="246" t="n">
         <v>6</v>
       </c>
       <c r="J14" s="122" t="n">
         <v>8833</v>
       </c>
-      <c r="K14" s="223" t="n">
+      <c r="K14" s="246" t="n">
         <v>6</v>
       </c>
       <c r="L14" s="122" t="n">
         <v>9238</v>
       </c>
-      <c r="M14" s="223" t="n">
+      <c r="M14" s="246" t="n">
         <v>6</v>
       </c>
       <c r="N14" s="122" t="n">
         <v>7756</v>
       </c>
-      <c r="O14" s="223" t="n">
+      <c r="O14" s="246" t="n">
         <v>6</v>
       </c>
       <c r="P14" s="130" t="n">
         <v>5943</v>
       </c>
-      <c r="Q14" s="223" t="n">
+      <c r="Q14" s="246" t="n">
         <v>6</v>
       </c>
       <c r="R14" s="122" t="n">
@@ -1856,15 +1878,15 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="214" t="inlineStr">
+      <c r="A15" s="237" t="inlineStr">
         <is>
           <t>#YRGRRJQCY</t>
         </is>
       </c>
-      <c r="B15" s="214" t="n">
+      <c r="B15" s="237" t="n">
         <v>1351</v>
       </c>
-      <c r="C15" s="215" t="n">
+      <c r="C15" s="238" t="n">
         <v>12</v>
       </c>
       <c r="D15" s="107" t="inlineStr">
@@ -1872,43 +1894,43 @@
           <t>DoubleSpice</t>
         </is>
       </c>
-      <c r="E15" s="216" t="n">
+      <c r="E15" s="239" t="n">
         <v>6</v>
       </c>
       <c r="F15" s="107" t="n">
         <v>10016</v>
       </c>
-      <c r="G15" s="217" t="n">
+      <c r="G15" s="240" t="n">
         <v>0</v>
       </c>
       <c r="H15" s="105" t="n">
         <v>60</v>
       </c>
-      <c r="I15" s="216" t="n">
+      <c r="I15" s="239" t="n">
         <v>6</v>
       </c>
       <c r="J15" s="107" t="n">
         <v>11620</v>
       </c>
-      <c r="K15" s="216" t="n">
+      <c r="K15" s="239" t="n">
         <v>6</v>
       </c>
       <c r="L15" s="107" t="n">
         <v>14095</v>
       </c>
-      <c r="M15" s="216" t="n">
+      <c r="M15" s="239" t="n">
         <v>6</v>
       </c>
       <c r="N15" s="107" t="n">
         <v>12379</v>
       </c>
-      <c r="O15" s="216" t="n">
+      <c r="O15" s="239" t="n">
         <v>6</v>
       </c>
       <c r="P15" s="107" t="n">
         <v>8256</v>
       </c>
-      <c r="Q15" s="216" t="n">
+      <c r="Q15" s="239" t="n">
         <v>6</v>
       </c>
       <c r="R15" s="107" t="n">
@@ -1916,15 +1938,15 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="210" t="inlineStr">
+      <c r="A16" s="233" t="inlineStr">
         <is>
           <t>#YJ20CRJYQ</t>
         </is>
       </c>
-      <c r="B16" s="210" t="n">
+      <c r="B16" s="233" t="n">
         <v>1265</v>
       </c>
-      <c r="C16" s="211" t="n">
+      <c r="C16" s="234" t="n">
         <v>13</v>
       </c>
       <c r="D16" s="115" t="inlineStr">
@@ -1932,43 +1954,43 @@
           <t>UnluckGod</t>
         </is>
       </c>
-      <c r="E16" s="212" t="n">
+      <c r="E16" s="235" t="n">
         <v>6</v>
       </c>
       <c r="F16" s="115" t="n">
         <v>8886</v>
       </c>
-      <c r="G16" s="213" t="n">
+      <c r="G16" s="236" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="113" t="n">
         <v>61</v>
       </c>
-      <c r="I16" s="212" t="n">
+      <c r="I16" s="235" t="n">
         <v>6</v>
       </c>
       <c r="J16" s="115" t="n">
         <v>12824</v>
       </c>
-      <c r="K16" s="212" t="n">
+      <c r="K16" s="235" t="n">
         <v>6</v>
       </c>
       <c r="L16" s="115" t="n">
         <v>11999</v>
       </c>
-      <c r="M16" s="212" t="n">
+      <c r="M16" s="235" t="n">
         <v>6</v>
       </c>
       <c r="N16" s="115" t="n">
         <v>12972</v>
       </c>
-      <c r="O16" s="212" t="n">
+      <c r="O16" s="235" t="n">
         <v>6</v>
       </c>
       <c r="P16" s="115" t="n">
         <v>8286</v>
       </c>
-      <c r="Q16" s="212" t="n">
+      <c r="Q16" s="235" t="n">
         <v>6</v>
       </c>
       <c r="R16" s="115" t="n">
@@ -1976,15 +1998,15 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="219" t="inlineStr">
+      <c r="A17" s="242" t="inlineStr">
         <is>
           <t>#QRPRYR8LL</t>
         </is>
       </c>
-      <c r="B17" s="219" t="n">
-        <v>1147</v>
-      </c>
-      <c r="C17" s="215" t="n">
+      <c r="B17" s="242" t="n">
+        <v>1150</v>
+      </c>
+      <c r="C17" s="238" t="n">
         <v>14</v>
       </c>
       <c r="D17" s="128" t="inlineStr">
@@ -1992,43 +2014,43 @@
           <t>FidelCashflow</t>
         </is>
       </c>
-      <c r="E17" s="220" t="n">
+      <c r="E17" s="243" t="n">
         <v>6</v>
       </c>
       <c r="F17" s="128" t="n">
         <v>8298</v>
       </c>
-      <c r="G17" s="225" t="n">
+      <c r="G17" s="248" t="n">
         <v>4</v>
       </c>
       <c r="H17" s="126" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="220" t="n">
+      <c r="I17" s="243" t="n">
         <v>6</v>
       </c>
       <c r="J17" s="128" t="n">
         <v>6415</v>
       </c>
-      <c r="K17" s="220" t="n">
+      <c r="K17" s="243" t="n">
         <v>6</v>
       </c>
       <c r="L17" s="128" t="n">
         <v>6547</v>
       </c>
-      <c r="M17" s="220" t="n">
+      <c r="M17" s="243" t="n">
         <v>6</v>
       </c>
       <c r="N17" s="128" t="n">
         <v>6811</v>
       </c>
-      <c r="O17" s="220" t="n">
+      <c r="O17" s="243" t="n">
         <v>6</v>
       </c>
       <c r="P17" s="129" t="n">
         <v>4239</v>
       </c>
-      <c r="Q17" s="220" t="n">
+      <c r="Q17" s="243" t="n">
         <v>6</v>
       </c>
       <c r="R17" s="129" t="n">
@@ -2036,15 +2058,15 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="222" t="inlineStr">
+      <c r="A18" s="245" t="inlineStr">
         <is>
           <t>#QUVJGC0VQ</t>
         </is>
       </c>
-      <c r="B18" s="222" t="n">
-        <v>1201</v>
-      </c>
-      <c r="C18" s="211" t="n">
+      <c r="B18" s="245" t="n">
+        <v>1233</v>
+      </c>
+      <c r="C18" s="234" t="n">
         <v>15</v>
       </c>
       <c r="D18" s="122" t="inlineStr">
@@ -2052,43 +2074,43 @@
           <t>Cam</t>
         </is>
       </c>
-      <c r="E18" s="223" t="n">
+      <c r="E18" s="246" t="n">
         <v>6</v>
       </c>
       <c r="F18" s="122" t="n">
         <v>8080</v>
       </c>
-      <c r="G18" s="224" t="n">
+      <c r="G18" s="247" t="n">
         <v>5</v>
       </c>
       <c r="H18" s="120" t="n">
-        <v>73</v>
-      </c>
-      <c r="I18" s="224" t="n">
+        <v>98</v>
+      </c>
+      <c r="I18" s="247" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="K18" s="222" t="n"/>
+      <c r="K18" s="245" t="n"/>
       <c r="L18" s="120" t="n"/>
-      <c r="M18" s="222" t="n"/>
+      <c r="M18" s="245" t="n"/>
       <c r="N18" s="120" t="n"/>
-      <c r="O18" s="222" t="n"/>
+      <c r="O18" s="245" t="n"/>
       <c r="P18" s="120" t="n"/>
-      <c r="Q18" s="222" t="n"/>
+      <c r="Q18" s="245" t="n"/>
       <c r="R18" s="120" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="219" t="inlineStr">
+      <c r="A19" s="242" t="inlineStr">
         <is>
           <t>#LGCVY0L9P</t>
         </is>
       </c>
-      <c r="B19" s="219" t="n">
-        <v>923</v>
-      </c>
-      <c r="C19" s="215" t="n">
+      <c r="B19" s="242" t="n">
+        <v>953</v>
+      </c>
+      <c r="C19" s="238" t="n">
         <v>16</v>
       </c>
       <c r="D19" s="128" t="inlineStr">
@@ -2096,39 +2118,39 @@
           <t>Death1wolf</t>
         </is>
       </c>
-      <c r="E19" s="220" t="n">
+      <c r="E19" s="243" t="n">
         <v>6</v>
       </c>
       <c r="F19" s="128" t="n">
         <v>7998</v>
       </c>
-      <c r="G19" s="225" t="n">
+      <c r="G19" s="248" t="n">
         <v>0</v>
       </c>
       <c r="H19" s="126" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="219" t="n"/>
+      <c r="I19" s="242" t="n"/>
       <c r="J19" s="126" t="n"/>
-      <c r="K19" s="219" t="n"/>
+      <c r="K19" s="242" t="n"/>
       <c r="L19" s="126" t="n"/>
-      <c r="M19" s="219" t="n"/>
+      <c r="M19" s="242" t="n"/>
       <c r="N19" s="126" t="n"/>
-      <c r="O19" s="219" t="n"/>
+      <c r="O19" s="242" t="n"/>
       <c r="P19" s="126" t="n"/>
-      <c r="Q19" s="219" t="n"/>
+      <c r="Q19" s="242" t="n"/>
       <c r="R19" s="126" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="222" t="inlineStr">
+      <c r="A20" s="245" t="inlineStr">
         <is>
           <t>#LPCLQUCCY</t>
         </is>
       </c>
-      <c r="B20" s="222" t="n">
-        <v>997</v>
-      </c>
-      <c r="C20" s="211" t="n">
+      <c r="B20" s="245" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C20" s="234" t="n">
         <v>17</v>
       </c>
       <c r="D20" s="122" t="inlineStr">
@@ -2136,43 +2158,43 @@
           <t>Zodiac</t>
         </is>
       </c>
-      <c r="E20" s="223" t="n">
+      <c r="E20" s="246" t="n">
         <v>6</v>
       </c>
       <c r="F20" s="122" t="n">
         <v>7463</v>
       </c>
-      <c r="G20" s="224" t="n">
+      <c r="G20" s="247" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="120" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="224" t="n">
+      <c r="I20" s="247" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="K20" s="222" t="n"/>
+      <c r="K20" s="245" t="n"/>
       <c r="L20" s="120" t="n"/>
-      <c r="M20" s="222" t="n"/>
+      <c r="M20" s="245" t="n"/>
       <c r="N20" s="120" t="n"/>
-      <c r="O20" s="222" t="n"/>
+      <c r="O20" s="245" t="n"/>
       <c r="P20" s="120" t="n"/>
-      <c r="Q20" s="222" t="n"/>
+      <c r="Q20" s="245" t="n"/>
       <c r="R20" s="120" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="219" t="inlineStr">
+      <c r="A21" s="242" t="inlineStr">
         <is>
           <t>#QU0U2Q99G</t>
         </is>
       </c>
-      <c r="B21" s="219" t="n">
-        <v>924</v>
-      </c>
-      <c r="C21" s="215" t="n">
+      <c r="B21" s="242" t="n">
+        <v>912</v>
+      </c>
+      <c r="C21" s="238" t="n">
         <v>18</v>
       </c>
       <c r="D21" s="128" t="inlineStr">
@@ -2180,51 +2202,51 @@
           <t>big coc</t>
         </is>
       </c>
-      <c r="E21" s="220" t="n">
+      <c r="E21" s="243" t="n">
         <v>6</v>
       </c>
       <c r="F21" s="128" t="n">
         <v>7115</v>
       </c>
-      <c r="G21" s="225" t="n">
+      <c r="G21" s="248" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="126" t="n">
         <v>60</v>
       </c>
-      <c r="I21" s="220" t="n">
+      <c r="I21" s="243" t="n">
         <v>6</v>
       </c>
       <c r="J21" s="128" t="n">
         <v>7420</v>
       </c>
-      <c r="K21" s="220" t="n">
+      <c r="K21" s="243" t="n">
         <v>5</v>
       </c>
       <c r="L21" s="129" t="n">
         <v>5150</v>
       </c>
-      <c r="M21" s="220" t="n">
+      <c r="M21" s="243" t="n">
         <v>6</v>
       </c>
       <c r="N21" s="128" t="n">
         <v>9075</v>
       </c>
-      <c r="O21" s="219" t="n"/>
+      <c r="O21" s="242" t="n"/>
       <c r="P21" s="126" t="n"/>
-      <c r="Q21" s="219" t="n"/>
+      <c r="Q21" s="242" t="n"/>
       <c r="R21" s="126" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="222" t="inlineStr">
+      <c r="A22" s="245" t="inlineStr">
         <is>
           <t>#8U9CRC8G</t>
         </is>
       </c>
-      <c r="B22" s="222" t="n">
-        <v>1647</v>
-      </c>
-      <c r="C22" s="211" t="n">
+      <c r="B22" s="245" t="n">
+        <v>1642</v>
+      </c>
+      <c r="C22" s="234" t="n">
         <v>19</v>
       </c>
       <c r="D22" s="122" t="inlineStr">
@@ -2232,43 +2254,43 @@
           <t>CEO JACK</t>
         </is>
       </c>
-      <c r="E22" s="223" t="n">
+      <c r="E22" s="246" t="n">
         <v>6</v>
       </c>
       <c r="F22" s="122" t="n">
         <v>6980</v>
       </c>
-      <c r="G22" s="224" t="n">
+      <c r="G22" s="247" t="n">
         <v>11</v>
       </c>
       <c r="H22" s="120" t="n">
         <v>31</v>
       </c>
-      <c r="I22" s="224" t="n">
+      <c r="I22" s="247" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="K22" s="222" t="n"/>
+      <c r="K22" s="245" t="n"/>
       <c r="L22" s="120" t="n"/>
-      <c r="M22" s="222" t="n"/>
+      <c r="M22" s="245" t="n"/>
       <c r="N22" s="120" t="n"/>
-      <c r="O22" s="222" t="n"/>
+      <c r="O22" s="245" t="n"/>
       <c r="P22" s="120" t="n"/>
-      <c r="Q22" s="222" t="n"/>
+      <c r="Q22" s="245" t="n"/>
       <c r="R22" s="120" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="219" t="inlineStr">
+      <c r="A23" s="242" t="inlineStr">
         <is>
           <t>#LC9GUPJJG</t>
         </is>
       </c>
-      <c r="B23" s="219" t="n">
-        <v>1053</v>
-      </c>
-      <c r="C23" s="215" t="n">
+      <c r="B23" s="242" t="n">
+        <v>1077</v>
+      </c>
+      <c r="C23" s="238" t="n">
         <v>20</v>
       </c>
       <c r="D23" s="128" t="inlineStr">
@@ -2276,47 +2298,47 @@
           <t>raptor2222a</t>
         </is>
       </c>
-      <c r="E23" s="220" t="n">
+      <c r="E23" s="243" t="n">
         <v>6</v>
       </c>
       <c r="F23" s="128" t="n">
         <v>6971</v>
       </c>
-      <c r="G23" s="225" t="n">
+      <c r="G23" s="248" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="126" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="220" t="n">
+      <c r="I23" s="243" t="n">
         <v>5</v>
       </c>
       <c r="J23" s="129" t="n">
         <v>4350</v>
       </c>
-      <c r="K23" s="225" t="n">
+      <c r="K23" s="248" t="n">
         <v>0</v>
       </c>
       <c r="L23" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="M23" s="219" t="n"/>
+      <c r="M23" s="242" t="n"/>
       <c r="N23" s="126" t="n"/>
-      <c r="O23" s="219" t="n"/>
+      <c r="O23" s="242" t="n"/>
       <c r="P23" s="126" t="n"/>
-      <c r="Q23" s="219" t="n"/>
+      <c r="Q23" s="242" t="n"/>
       <c r="R23" s="126" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="222" t="inlineStr">
+      <c r="A24" s="245" t="inlineStr">
         <is>
           <t>#82QLQCJRJ</t>
         </is>
       </c>
-      <c r="B24" s="222" t="n">
-        <v>2946</v>
-      </c>
-      <c r="C24" s="211" t="n">
+      <c r="B24" s="245" t="n">
+        <v>2933</v>
+      </c>
+      <c r="C24" s="234" t="n">
         <v>21</v>
       </c>
       <c r="D24" s="122" t="inlineStr">
@@ -2324,43 +2346,43 @@
           <t>Raging Fury</t>
         </is>
       </c>
-      <c r="E24" s="223" t="n">
+      <c r="E24" s="246" t="n">
         <v>6</v>
       </c>
       <c r="F24" s="122" t="n">
         <v>6145</v>
       </c>
-      <c r="G24" s="224" t="n">
+      <c r="G24" s="247" t="n">
         <v>0</v>
       </c>
       <c r="H24" s="120" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="223" t="n">
+      <c r="I24" s="246" t="n">
         <v>6</v>
       </c>
       <c r="J24" s="122" t="n">
         <v>8055</v>
       </c>
-      <c r="K24" s="223" t="n">
+      <c r="K24" s="246" t="n">
         <v>6</v>
       </c>
       <c r="L24" s="122" t="n">
         <v>7115</v>
       </c>
-      <c r="M24" s="224" t="n">
+      <c r="M24" s="247" t="n">
         <v>2</v>
       </c>
       <c r="N24" s="117" t="n">
         <v>2320</v>
       </c>
-      <c r="O24" s="223" t="n">
+      <c r="O24" s="246" t="n">
         <v>6</v>
       </c>
       <c r="P24" s="130" t="n">
         <v>4920</v>
       </c>
-      <c r="Q24" s="223" t="n">
+      <c r="Q24" s="246" t="n">
         <v>6</v>
       </c>
       <c r="R24" s="130" t="n">
@@ -2368,15 +2390,15 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="219" t="inlineStr">
+      <c r="A25" s="242" t="inlineStr">
         <is>
           <t>#Q9QUUVQ02</t>
         </is>
       </c>
-      <c r="B25" s="219" t="n">
+      <c r="B25" s="242" t="n">
         <v>1450</v>
       </c>
-      <c r="C25" s="215" t="n">
+      <c r="C25" s="238" t="n">
         <v>22</v>
       </c>
       <c r="D25" s="128" t="inlineStr">
@@ -2384,39 +2406,39 @@
           <t>zach</t>
         </is>
       </c>
-      <c r="E25" s="220" t="n">
+      <c r="E25" s="243" t="n">
         <v>6</v>
       </c>
       <c r="F25" s="128" t="n">
         <v>6106</v>
       </c>
-      <c r="G25" s="225" t="n">
+      <c r="G25" s="248" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="126" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="219" t="n"/>
+      <c r="I25" s="242" t="n"/>
       <c r="J25" s="126" t="n"/>
-      <c r="K25" s="219" t="n"/>
+      <c r="K25" s="242" t="n"/>
       <c r="L25" s="126" t="n"/>
-      <c r="M25" s="219" t="n"/>
+      <c r="M25" s="242" t="n"/>
       <c r="N25" s="126" t="n"/>
-      <c r="O25" s="219" t="n"/>
+      <c r="O25" s="242" t="n"/>
       <c r="P25" s="126" t="n"/>
-      <c r="Q25" s="219" t="n"/>
+      <c r="Q25" s="242" t="n"/>
       <c r="R25" s="126" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="222" t="inlineStr">
+      <c r="A26" s="245" t="inlineStr">
         <is>
           <t>#VGG9LYL0</t>
         </is>
       </c>
-      <c r="B26" s="222" t="n">
-        <v>1073</v>
-      </c>
-      <c r="C26" s="211" t="n">
+      <c r="B26" s="245" t="n">
+        <v>1035</v>
+      </c>
+      <c r="C26" s="234" t="n">
         <v>23</v>
       </c>
       <c r="D26" s="122" t="inlineStr">
@@ -2424,43 +2446,43 @@
           <t>ptripp1048</t>
         </is>
       </c>
-      <c r="E26" s="223" t="n">
+      <c r="E26" s="246" t="n">
         <v>6</v>
       </c>
       <c r="F26" s="122" t="n">
         <v>6023</v>
       </c>
-      <c r="G26" s="224" t="n">
-        <v>6</v>
+      <c r="G26" s="247" t="n">
+        <v>37</v>
       </c>
       <c r="H26" s="120" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="224" t="n">
+      <c r="I26" s="247" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="K26" s="222" t="n"/>
+      <c r="K26" s="245" t="n"/>
       <c r="L26" s="120" t="n"/>
-      <c r="M26" s="222" t="n"/>
+      <c r="M26" s="245" t="n"/>
       <c r="N26" s="120" t="n"/>
-      <c r="O26" s="222" t="n"/>
+      <c r="O26" s="245" t="n"/>
       <c r="P26" s="120" t="n"/>
-      <c r="Q26" s="222" t="n"/>
+      <c r="Q26" s="245" t="n"/>
       <c r="R26" s="120" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="219" t="inlineStr">
+      <c r="A27" s="242" t="inlineStr">
         <is>
           <t>#QLG0VJG2J</t>
         </is>
       </c>
-      <c r="B27" s="219" t="n">
-        <v>1223</v>
-      </c>
-      <c r="C27" s="215" t="n">
+      <c r="B27" s="242" t="n">
+        <v>1293</v>
+      </c>
+      <c r="C27" s="238" t="n">
         <v>24</v>
       </c>
       <c r="D27" s="128" t="inlineStr">
@@ -2468,47 +2490,47 @@
           <t>PocketRocket</t>
         </is>
       </c>
-      <c r="E27" s="220" t="n">
+      <c r="E27" s="243" t="n">
         <v>6</v>
       </c>
       <c r="F27" s="129" t="n">
         <v>5660</v>
       </c>
-      <c r="G27" s="225" t="n">
-        <v>27</v>
+      <c r="G27" s="248" t="n">
+        <v>30</v>
       </c>
       <c r="H27" s="126" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="221" t="n">
+      <c r="I27" s="244" t="n">
         <v>4</v>
       </c>
       <c r="J27" s="129" t="n">
         <v>4327</v>
       </c>
-      <c r="K27" s="221" t="n">
+      <c r="K27" s="244" t="n">
         <v>4</v>
       </c>
       <c r="L27" s="129" t="n">
         <v>5215</v>
       </c>
-      <c r="M27" s="219" t="n"/>
+      <c r="M27" s="242" t="n"/>
       <c r="N27" s="126" t="n"/>
-      <c r="O27" s="219" t="n"/>
+      <c r="O27" s="242" t="n"/>
       <c r="P27" s="126" t="n"/>
-      <c r="Q27" s="219" t="n"/>
+      <c r="Q27" s="242" t="n"/>
       <c r="R27" s="126" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="224" t="inlineStr">
+      <c r="A28" s="247" t="inlineStr">
         <is>
           <t>#9JUR0JQV2</t>
         </is>
       </c>
-      <c r="B28" s="222" t="n">
+      <c r="B28" s="245" t="n">
         <v>1134</v>
       </c>
-      <c r="C28" s="211" t="n">
+      <c r="C28" s="234" t="n">
         <v>25</v>
       </c>
       <c r="D28" s="130" t="inlineStr">
@@ -2516,35 +2538,35 @@
           <t>atley</t>
         </is>
       </c>
-      <c r="E28" s="226" t="n">
+      <c r="E28" s="249" t="n">
         <v>3</v>
       </c>
       <c r="F28" s="130" t="n">
         <v>5277</v>
       </c>
-      <c r="G28" s="222" t="n"/>
+      <c r="G28" s="245" t="n"/>
       <c r="H28" s="120" t="n"/>
-      <c r="I28" s="222" t="n"/>
+      <c r="I28" s="245" t="n"/>
       <c r="J28" s="120" t="n"/>
-      <c r="K28" s="222" t="n"/>
+      <c r="K28" s="245" t="n"/>
       <c r="L28" s="120" t="n"/>
-      <c r="M28" s="222" t="n"/>
+      <c r="M28" s="245" t="n"/>
       <c r="N28" s="120" t="n"/>
-      <c r="O28" s="222" t="n"/>
+      <c r="O28" s="245" t="n"/>
       <c r="P28" s="120" t="n"/>
-      <c r="Q28" s="222" t="n"/>
+      <c r="Q28" s="245" t="n"/>
       <c r="R28" s="120" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="219" t="inlineStr">
+      <c r="A29" s="242" t="inlineStr">
         <is>
           <t>#QLGUYQPL0</t>
         </is>
       </c>
-      <c r="B29" s="219" t="n">
-        <v>1597</v>
-      </c>
-      <c r="C29" s="215" t="n">
+      <c r="B29" s="242" t="n">
+        <v>1583</v>
+      </c>
+      <c r="C29" s="238" t="n">
         <v>26</v>
       </c>
       <c r="D29" s="124" t="inlineStr">
@@ -2552,27 +2574,27 @@
           <t>i got time</t>
         </is>
       </c>
-      <c r="E29" s="225" t="n">
+      <c r="E29" s="248" t="n">
         <v>1</v>
       </c>
       <c r="F29" s="124" t="n">
         <v>1435</v>
       </c>
-      <c r="G29" s="225" t="n">
+      <c r="G29" s="248" t="n">
         <v>0</v>
       </c>
       <c r="H29" s="126" t="n">
         <v>5</v>
       </c>
-      <c r="I29" s="219" t="n"/>
+      <c r="I29" s="242" t="n"/>
       <c r="J29" s="126" t="n"/>
-      <c r="K29" s="219" t="n"/>
+      <c r="K29" s="242" t="n"/>
       <c r="L29" s="126" t="n"/>
-      <c r="M29" s="219" t="n"/>
+      <c r="M29" s="242" t="n"/>
       <c r="N29" s="126" t="n"/>
-      <c r="O29" s="219" t="n"/>
+      <c r="O29" s="242" t="n"/>
       <c r="P29" s="126" t="n"/>
-      <c r="Q29" s="219" t="n"/>
+      <c r="Q29" s="242" t="n"/>
       <c r="R29" s="126" t="n"/>
     </row>
     <row r="30">
@@ -2582,7 +2604,7 @@
         </is>
       </c>
       <c r="B30" s="227" t="n">
-        <v>521</v>
+        <v>574</v>
       </c>
       <c r="C30" s="95" t="n">
         <v>27</v>
@@ -2620,15 +2642,15 @@
       <c r="R30" s="230" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="219" t="inlineStr">
+      <c r="A31" s="242" t="inlineStr">
         <is>
           <t>#QL8LVLYG8</t>
         </is>
       </c>
-      <c r="B31" s="219" t="n">
-        <v>939</v>
-      </c>
-      <c r="C31" s="215" t="n">
+      <c r="B31" s="242" t="n">
+        <v>952</v>
+      </c>
+      <c r="C31" s="238" t="n">
         <v>28</v>
       </c>
       <c r="D31" s="124" t="inlineStr">
@@ -2636,43 +2658,43 @@
           <t>Some guy</t>
         </is>
       </c>
-      <c r="E31" s="225" t="n">
+      <c r="E31" s="248" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="G31" s="225" t="n">
+      <c r="G31" s="248" t="n">
         <v>0</v>
       </c>
       <c r="H31" s="126" t="n">
         <v>20</v>
       </c>
-      <c r="I31" s="225" t="n">
+      <c r="I31" s="248" t="n">
         <v>2</v>
       </c>
       <c r="J31" s="124" t="n">
         <v>2650</v>
       </c>
-      <c r="K31" s="225" t="n">
+      <c r="K31" s="248" t="n">
         <v>0</v>
       </c>
       <c r="L31" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="M31" s="220" t="n">
+      <c r="M31" s="243" t="n">
         <v>6</v>
       </c>
       <c r="N31" s="128" t="n">
         <v>6917</v>
       </c>
-      <c r="O31" s="225" t="n">
+      <c r="O31" s="248" t="n">
         <v>0</v>
       </c>
       <c r="P31" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="Q31" s="225" t="n">
+      <c r="Q31" s="248" t="n">
         <v>2</v>
       </c>
       <c r="R31" s="124" t="n">
@@ -2680,15 +2702,15 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="222" t="inlineStr">
+      <c r="A32" s="245" t="inlineStr">
         <is>
           <t>#QJC8LQU9U</t>
         </is>
       </c>
-      <c r="B32" s="222" t="n">
+      <c r="B32" s="245" t="n">
         <v>998</v>
       </c>
-      <c r="C32" s="211" t="n">
+      <c r="C32" s="234" t="n">
         <v>29</v>
       </c>
       <c r="D32" s="117" t="inlineStr">
@@ -2696,43 +2718,43 @@
           <t>Master01</t>
         </is>
       </c>
-      <c r="E32" s="224" t="n">
+      <c r="E32" s="247" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="G32" s="224" t="n">
+      <c r="G32" s="247" t="n">
         <v>0</v>
       </c>
       <c r="H32" s="120" t="n">
         <v>0</v>
       </c>
-      <c r="I32" s="224" t="n">
+      <c r="I32" s="247" t="n">
         <v>0</v>
       </c>
       <c r="J32" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="K32" s="224" t="n">
+      <c r="K32" s="247" t="n">
         <v>0</v>
       </c>
       <c r="L32" s="117" t="n">
         <v>0</v>
       </c>
-      <c r="M32" s="223" t="n">
+      <c r="M32" s="246" t="n">
         <v>6</v>
       </c>
       <c r="N32" s="130" t="n">
         <v>5415</v>
       </c>
-      <c r="O32" s="223" t="n">
+      <c r="O32" s="246" t="n">
         <v>6</v>
       </c>
       <c r="P32" s="130" t="n">
         <v>4835</v>
       </c>
-      <c r="Q32" s="223" t="n">
+      <c r="Q32" s="246" t="n">
         <v>5</v>
       </c>
       <c r="R32" s="130" t="n">
@@ -2740,15 +2762,15 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="219" t="inlineStr">
+      <c r="A33" s="242" t="inlineStr">
         <is>
           <t>#QV8JJ0URU</t>
         </is>
       </c>
-      <c r="B33" s="219" t="n">
+      <c r="B33" s="242" t="n">
         <v>741</v>
       </c>
-      <c r="C33" s="215" t="n">
+      <c r="C33" s="238" t="n">
         <v>30</v>
       </c>
       <c r="D33" s="124" t="inlineStr">
@@ -2756,43 +2778,43 @@
           <t>✨Jacob</t>
         </is>
       </c>
-      <c r="E33" s="225" t="n">
+      <c r="E33" s="248" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="G33" s="225" t="n">
+      <c r="G33" s="248" t="n">
         <v>0</v>
       </c>
       <c r="H33" s="126" t="n">
         <v>0</v>
       </c>
-      <c r="I33" s="225" t="n">
+      <c r="I33" s="248" t="n">
         <v>0</v>
       </c>
       <c r="J33" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="K33" s="225" t="n">
+      <c r="K33" s="248" t="n">
         <v>0</v>
       </c>
       <c r="L33" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="M33" s="225" t="n">
+      <c r="M33" s="248" t="n">
         <v>0</v>
       </c>
       <c r="N33" s="124" t="n">
         <v>0</v>
       </c>
-      <c r="O33" s="220" t="n">
+      <c r="O33" s="243" t="n">
         <v>6</v>
       </c>
       <c r="P33" s="128" t="n">
         <v>7385</v>
       </c>
-      <c r="Q33" s="220" t="n">
+      <c r="Q33" s="243" t="n">
         <v>6</v>
       </c>
       <c r="R33" s="128" t="n">
@@ -2800,15 +2822,15 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="222" t="inl